--- a/gd/数值规划/怪物属性配置及伤害公式.xlsx
+++ b/gd/数值规划/怪物属性配置及伤害公式.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="832">
   <si>
     <t>技能升级</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2199,10 +2199,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>将暴击加成百分比=1，带入伤害公式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>伤害公式：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3073,10 +3069,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>min(max（N+L(lv1-lv2)+总附加命中率）,60%）100%)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>设一个大数K/（总速度*波动系数），数值最小的释放技能，释放技能后未释放技能怪物速度叠加,继续k/(累计速度+总速度*波动系数)，直至该怪释放技能后累计速度归零，继续k/（总速度*波动系数），最小的释放技能；</t>
     </r>
@@ -3101,15 +3093,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>最终值=怪物的总体力第一次修正后*life_coef</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>attack_coef = 5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终值=怪物的总力量和总智力第一次修正后*attack_coef</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3287,6 +3271,74 @@
   </si>
   <si>
     <t>统一表格分隔符格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点伤害比调整百分比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>判定被攻击方是否防御</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测被攻击方是否有防御buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将暴击加成百分比=1，带入伤害公式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御系数=0.75，带入伤害公式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御系数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御系数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加防御判定与防御系数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御系数=1（初始值），带入伤害公式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终值=怪物的总体力*life_coef</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终值=怪物的总力量和总智力*attack_coef</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>max（N+L(lv1-lv2)+总附加命中率）,60%）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不用和100%比较的原因：目前判断命中为在区间（0,1）中随机roll一个数当这个数小于总命中率则命中，当总命中率&gt;1时，必中。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 1.2</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除总命中率与100%的比较</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3760,7 +3812,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3899,9 +3951,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3944,156 +3993,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4115,6 +4014,56 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4125,18 +4074,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4157,39 +4094,161 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6101,13 +6160,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>523876</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>1019736</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>119305</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6153,13 +6212,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>2241</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6205,13 +6264,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>33450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>145950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6257,13 +6316,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>119305</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6309,13 +6368,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>657226</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>205030</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6361,13 +6420,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6413,13 +6472,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>128830</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6465,13 +6524,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>205030</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6517,13 +6576,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>176455</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6578,10 +6637,10 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -6591,9 +6650,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="1790700" y="285750"/>
-          <a:ext cx="6276975" cy="5610225"/>
+          <a:ext cx="6486525" cy="7067550"/>
           <a:chOff x="990600" y="619125"/>
-          <a:chExt cx="6276975" cy="5610225"/>
+          <a:chExt cx="6486525" cy="7067550"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -6604,9 +6663,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="990600" y="619125"/>
-            <a:ext cx="6229350" cy="5610225"/>
+            <a:ext cx="6438900" cy="7067550"/>
             <a:chOff x="5610225" y="6229350"/>
-            <a:chExt cx="6229350" cy="5610225"/>
+            <a:chExt cx="6438900" cy="7067550"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:grpSp>
@@ -6616,9 +6675,9 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="8124825" y="8715375"/>
+              <a:off x="8467725" y="10544175"/>
               <a:ext cx="1809750" cy="904875"/>
-              <a:chOff x="10487025" y="7543800"/>
+              <a:chOff x="10829925" y="9372600"/>
               <a:chExt cx="1809750" cy="904875"/>
             </a:xfrm>
           </xdr:grpSpPr>
@@ -6629,7 +6688,7 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="10487025" y="7543800"/>
+                <a:off x="10829925" y="9372600"/>
                 <a:ext cx="1809750" cy="904875"/>
               </a:xfrm>
               <a:prstGeom prst="flowChartDecision">
@@ -6668,7 +6727,7 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="10944225" y="7791450"/>
+                <a:off x="11306175" y="9591675"/>
                 <a:ext cx="902811" cy="400366"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -6715,9 +6774,9 @@
           <xdr:grpSpPr>
             <a:xfrm>
               <a:off x="5610225" y="6229350"/>
-              <a:ext cx="6229350" cy="5610225"/>
+              <a:ext cx="6438900" cy="7067550"/>
               <a:chOff x="5610225" y="6229350"/>
-              <a:chExt cx="6229350" cy="5610225"/>
+              <a:chExt cx="6438900" cy="7067550"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:grpSp>
@@ -6994,13 +7053,13 @@
               <xdr:cNvPr id="9" name="直接箭头连接符 24"/>
               <xdr:cNvCxnSpPr>
                 <a:stCxn id="23" idx="3"/>
-                <a:endCxn id="25" idx="0"/>
+                <a:endCxn id="38" idx="0"/>
               </xdr:cNvCxnSpPr>
             </xdr:nvCxnSpPr>
             <xdr:spPr>
               <a:xfrm>
                 <a:off x="8696325" y="7834312"/>
-                <a:ext cx="333375" cy="881063"/>
+                <a:ext cx="623887" cy="957263"/>
               </a:xfrm>
               <a:prstGeom prst="bentConnector2">
                 <a:avLst/>
@@ -7132,8 +7191,8 @@
             </xdr:nvCxnSpPr>
             <xdr:spPr>
               <a:xfrm rot="10800000" flipV="1">
-                <a:off x="7781925" y="9167813"/>
-                <a:ext cx="342900" cy="671512"/>
+                <a:off x="8020051" y="10996612"/>
+                <a:ext cx="447675" cy="1042987"/>
               </a:xfrm>
               <a:prstGeom prst="bentConnector2">
                 <a:avLst/>
@@ -7170,8 +7229,8 @@
             </xdr:nvCxnSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="9934575" y="9167813"/>
-                <a:ext cx="1019175" cy="667250"/>
+                <a:off x="10277475" y="10996613"/>
+                <a:ext cx="866775" cy="391026"/>
               </a:xfrm>
               <a:prstGeom prst="bentConnector2">
                 <a:avLst/>
@@ -7202,10 +7261,10 @@
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
               <a:xfrm>
-                <a:off x="6924675" y="9839325"/>
-                <a:ext cx="1981200" cy="1238250"/>
-                <a:chOff x="6934200" y="6229350"/>
-                <a:chExt cx="1981200" cy="1238250"/>
+                <a:off x="7172325" y="12039600"/>
+                <a:ext cx="1981200" cy="1143000"/>
+                <a:chOff x="7181850" y="8429625"/>
+                <a:chExt cx="1981200" cy="1143000"/>
               </a:xfrm>
             </xdr:grpSpPr>
             <xdr:sp macro="" textlink="">
@@ -7215,7 +7274,7 @@
               </xdr:nvSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="6953250" y="6229350"/>
+                  <a:off x="7191375" y="8429625"/>
                   <a:ext cx="1676400" cy="885825"/>
                 </a:xfrm>
                 <a:prstGeom prst="roundRect">
@@ -7254,7 +7313,7 @@
               </xdr:nvSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="6934200" y="6381749"/>
+                  <a:off x="7181850" y="8486774"/>
                   <a:ext cx="1981200" cy="1085851"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
@@ -7325,9 +7384,9 @@
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
               <a:xfrm>
-                <a:off x="10048875" y="10953750"/>
+                <a:off x="10258425" y="12411075"/>
                 <a:ext cx="1790700" cy="885825"/>
-                <a:chOff x="10048875" y="10953750"/>
+                <a:chOff x="10258425" y="12411075"/>
                 <a:chExt cx="1790700" cy="885825"/>
               </a:xfrm>
             </xdr:grpSpPr>
@@ -7338,7 +7397,7 @@
               </xdr:nvSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="10115550" y="10953750"/>
+                  <a:off x="10325100" y="12411075"/>
                   <a:ext cx="1676400" cy="828675"/>
                 </a:xfrm>
                 <a:prstGeom prst="roundRect">
@@ -7377,7 +7436,7 @@
               </xdr:nvSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="10048875" y="11020425"/>
+                  <a:off x="10258425" y="12477750"/>
                   <a:ext cx="1790700" cy="819150"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
@@ -7452,9 +7511,9 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="5391150" y="4191000"/>
+            <a:off x="5600700" y="5724526"/>
             <a:ext cx="1876425" cy="857250"/>
-            <a:chOff x="7343775" y="9220200"/>
+            <a:chOff x="7553325" y="10515174"/>
             <a:chExt cx="1876425" cy="723900"/>
           </a:xfrm>
         </xdr:grpSpPr>
@@ -7465,7 +7524,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7343775" y="9220200"/>
+              <a:off x="7553325" y="10515174"/>
               <a:ext cx="1876425" cy="723900"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7504,7 +7563,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7400925" y="9248774"/>
+              <a:off x="7591425" y="10559835"/>
               <a:ext cx="1771650" cy="647701"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7580,8 +7639,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6329363" y="5048250"/>
-            <a:ext cx="4762" cy="295275"/>
+            <a:off x="6538913" y="6581776"/>
+            <a:ext cx="4762" cy="219074"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -7606,6 +7665,397 @@
         </xdr:style>
       </xdr:cxnSp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="33" name="组合 32"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4429124" y="2847975"/>
+          <a:ext cx="2143125" cy="1057275"/>
+          <a:chOff x="7067549" y="2324100"/>
+          <a:chExt cx="2143125" cy="1057275"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="流程图: 决策 37"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7067549" y="2324100"/>
+            <a:ext cx="2143125" cy="1057275"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDecision">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="文本框 38"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7143750" y="2657475"/>
+            <a:ext cx="1895475" cy="400366"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:rPr>
+              <a:t>判断被攻击方是否防御</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314323</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直接箭头连接符 31"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="1"/>
+          <a:endCxn id="25" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="4429123" y="3376613"/>
+          <a:ext cx="1123951" cy="1223962"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -20339"/>
+            <a:gd name="adj2" fmla="val 73151"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>442913</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直接箭头连接符 33"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="3"/>
+          <a:endCxn id="49" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6572249" y="3376613"/>
+          <a:ext cx="728664" cy="290512"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="43" name="组合 42"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6362700" y="3667125"/>
+          <a:ext cx="1876425" cy="514350"/>
+          <a:chOff x="9601200" y="3943350"/>
+          <a:chExt cx="1876425" cy="514350"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="矩形 48"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9601200" y="3943350"/>
+            <a:ext cx="1876425" cy="514350"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="文本框 49"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9658350" y="3977188"/>
+            <a:ext cx="1771650" cy="423362"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:rPr>
+              <a:t>防御系数</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:rPr>
+              <a:t>=0.75</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>442913</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直接箭头连接符 53"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="2"/>
+          <a:endCxn id="25" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6217444" y="3517106"/>
+          <a:ext cx="419100" cy="1747838"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 20455"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -16123,10 +16573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16135,609 +16585,634 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="63" t="s">
+        <v>773</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>805</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+    </row>
+    <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+    </row>
+    <row r="3" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="63" t="s">
+        <v>774</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>806</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+    </row>
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="63" t="s">
+        <v>775</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>776</v>
+      </c>
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="63" t="s">
         <v>777</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B7" s="64" t="s">
+        <v>807</v>
+      </c>
+      <c r="C7" s="64"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="63"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="63"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+    </row>
+    <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="63" t="s">
+        <v>778</v>
+      </c>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+    </row>
+    <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="63"/>
+      <c r="B11" s="87" t="s">
+        <v>778</v>
+      </c>
+      <c r="C11" s="88"/>
+      <c r="D11" s="89" t="s">
+        <v>779</v>
+      </c>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="63"/>
+      <c r="B12" s="69" t="s">
+        <v>780</v>
+      </c>
+      <c r="C12" s="70"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+    </row>
+    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="63"/>
+      <c r="B13" s="69" t="s">
+        <v>781</v>
+      </c>
+      <c r="C13" s="70"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+    </row>
+    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="63"/>
+      <c r="B14" s="69" t="s">
+        <v>782</v>
+      </c>
+      <c r="C14" s="70"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+    </row>
+    <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="63"/>
+      <c r="B15" s="69" t="s">
+        <v>783</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>784</v>
+      </c>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+    </row>
+    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="63"/>
+      <c r="B16" s="69" t="s">
+        <v>785</v>
+      </c>
+      <c r="C16" s="71"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+    </row>
+    <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="63"/>
+      <c r="B17" s="69" t="s">
+        <v>786</v>
+      </c>
+      <c r="C17" s="71"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+    </row>
+    <row r="18" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="63"/>
+      <c r="B18" s="72" t="s">
+        <v>787</v>
+      </c>
+      <c r="C18" s="73"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+    </row>
+    <row r="19" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+    </row>
+    <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="63" t="s">
+        <v>788</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>789</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>790</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>791</v>
+      </c>
+      <c r="E20" s="65" t="s">
+        <v>792</v>
+      </c>
+      <c r="F20" s="65" t="s">
+        <v>793</v>
+      </c>
+      <c r="G20" s="65" t="s">
+        <v>794</v>
+      </c>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+    </row>
+    <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="63"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+    </row>
+    <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="63"/>
+      <c r="B22" s="64" t="s">
+        <v>795</v>
+      </c>
+      <c r="C22" s="74">
+        <v>42125</v>
+      </c>
+      <c r="D22" s="65" t="s">
+        <v>796</v>
+      </c>
+      <c r="E22" s="65" t="s">
+        <v>797</v>
+      </c>
+      <c r="F22" s="65" t="s">
+        <v>798</v>
+      </c>
+      <c r="G22" s="65"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+    </row>
+    <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="63"/>
+      <c r="B23" s="64" t="s">
+        <v>799</v>
+      </c>
+      <c r="C23" s="74">
+        <v>42130</v>
+      </c>
+      <c r="D23" s="65"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="65" t="s">
+        <v>798</v>
+      </c>
+      <c r="H23" s="68" t="s">
+        <v>808</v>
+      </c>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+    </row>
+    <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="63"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="65" t="s">
+        <v>798</v>
+      </c>
+      <c r="H24" s="80" t="s">
+        <v>814</v>
+      </c>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="64"/>
+    </row>
+    <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B25" s="64" t="s">
         <v>809</v>
       </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-    </row>
-    <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="114"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-    </row>
-    <row r="3" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="114" t="s">
-        <v>778</v>
-      </c>
-      <c r="B3" s="117" t="s">
+      <c r="C25" s="74">
+        <v>42139</v>
+      </c>
+      <c r="E25" s="79"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65" t="s">
+        <v>798</v>
+      </c>
+      <c r="H25" s="77" t="s">
         <v>810</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-    </row>
-    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="114"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-    </row>
-    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="114" t="s">
-        <v>779</v>
-      </c>
-      <c r="B5" s="115" t="s">
-        <v>780</v>
-      </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-    </row>
-    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="114"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="115"/>
-    </row>
-    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
-        <v>781</v>
-      </c>
-      <c r="B7" s="115" t="s">
+      <c r="I25" s="64"/>
+      <c r="J25" s="64" t="s">
         <v>811</v>
       </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-    </row>
-    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="114"/>
-      <c r="B8" s="114"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-    </row>
-    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="114"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="115"/>
-      <c r="O9" s="115"/>
-    </row>
-    <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="114" t="s">
-        <v>782</v>
-      </c>
-      <c r="B10" s="115"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="115"/>
-      <c r="N10" s="115"/>
-      <c r="O10" s="115"/>
-    </row>
-    <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="114"/>
-      <c r="B11" s="120" t="s">
-        <v>782</v>
-      </c>
-      <c r="C11" s="121"/>
-      <c r="D11" s="122" t="s">
-        <v>783</v>
-      </c>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="115"/>
-      <c r="M11" s="115"/>
-      <c r="N11" s="115"/>
-      <c r="O11" s="115"/>
-    </row>
-    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="114"/>
-      <c r="B12" s="124" t="s">
-        <v>784</v>
-      </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="115"/>
-      <c r="O12" s="115"/>
-    </row>
-    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="114"/>
-      <c r="B13" s="124" t="s">
-        <v>785</v>
-      </c>
-      <c r="C13" s="125"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="115"/>
-      <c r="M13" s="115"/>
-      <c r="N13" s="115"/>
-      <c r="O13" s="115"/>
-    </row>
-    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="114"/>
-      <c r="B14" s="124" t="s">
-        <v>786</v>
-      </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="115"/>
-      <c r="N14" s="115"/>
-      <c r="O14" s="115"/>
-    </row>
-    <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="114"/>
-      <c r="B15" s="124" t="s">
-        <v>787</v>
-      </c>
-      <c r="C15" s="134" t="s">
-        <v>788</v>
-      </c>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="115"/>
-      <c r="O15" s="115"/>
-    </row>
-    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="114"/>
-      <c r="B16" s="124" t="s">
-        <v>789</v>
-      </c>
-      <c r="C16" s="134"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="115"/>
-      <c r="N16" s="115"/>
-      <c r="O16" s="115"/>
-    </row>
-    <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="114"/>
-      <c r="B17" s="124" t="s">
-        <v>790</v>
-      </c>
-      <c r="C17" s="134"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="115"/>
-    </row>
-    <row r="18" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="114"/>
-      <c r="B18" s="135" t="s">
-        <v>791</v>
-      </c>
-      <c r="C18" s="136"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="138"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="115"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="115"/>
-      <c r="N18" s="115"/>
-      <c r="O18" s="115"/>
-    </row>
-    <row r="19" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="114"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="115"/>
-      <c r="L19" s="115"/>
-      <c r="M19" s="115"/>
-      <c r="N19" s="115"/>
-      <c r="O19" s="115"/>
-    </row>
-    <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="114" t="s">
-        <v>792</v>
-      </c>
-      <c r="B20" s="115" t="s">
-        <v>793</v>
-      </c>
-      <c r="C20" s="116" t="s">
-        <v>794</v>
-      </c>
-      <c r="D20" s="116" t="s">
-        <v>795</v>
-      </c>
-      <c r="E20" s="116" t="s">
-        <v>796</v>
-      </c>
-      <c r="F20" s="116" t="s">
-        <v>797</v>
-      </c>
-      <c r="G20" s="116" t="s">
-        <v>798</v>
-      </c>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="115"/>
-      <c r="O20" s="115"/>
-    </row>
-    <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="114"/>
-      <c r="B21" s="115"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="115"/>
-      <c r="N21" s="115"/>
-      <c r="O21" s="115"/>
-    </row>
-    <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="114"/>
-      <c r="B22" s="115" t="s">
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="81" t="s">
+        <v>823</v>
+      </c>
+      <c r="O25" s="64"/>
+    </row>
+    <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B26" s="64" t="s">
+        <v>829</v>
+      </c>
+      <c r="C26" s="74">
+        <v>42142</v>
+      </c>
+      <c r="E26" s="148"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65" t="s">
+        <v>830</v>
+      </c>
+      <c r="H26" s="77" t="s">
+        <v>831</v>
+      </c>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="64"/>
+    </row>
+    <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="64"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+    </row>
+    <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="63" t="s">
+        <v>800</v>
+      </c>
+      <c r="B28" s="64" t="s">
+        <v>801</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>802</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>803</v>
+      </c>
+      <c r="E28" s="65" t="s">
+        <v>804</v>
+      </c>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+    </row>
+    <row r="29" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="63" t="s">
+        <v>812</v>
+      </c>
+      <c r="B29" s="64" t="s">
         <v>799</v>
       </c>
-      <c r="C22" s="139">
-        <v>42125</v>
-      </c>
-      <c r="D22" s="116" t="s">
-        <v>800</v>
-      </c>
-      <c r="E22" s="116" t="s">
-        <v>801</v>
-      </c>
-      <c r="F22" s="116" t="s">
-        <v>802</v>
-      </c>
-      <c r="G22" s="116"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="115"/>
-      <c r="L22" s="115"/>
-      <c r="M22" s="115"/>
-      <c r="N22" s="115"/>
-      <c r="O22" s="115"/>
-    </row>
-    <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="114"/>
-      <c r="B23" s="115" t="s">
-        <v>803</v>
-      </c>
-      <c r="C23" s="139">
-        <v>42130</v>
-      </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="116" t="s">
-        <v>802</v>
-      </c>
-      <c r="H23" s="119" t="s">
-        <v>812</v>
-      </c>
-      <c r="I23" s="115"/>
-      <c r="J23" s="115"/>
-      <c r="K23" s="115"/>
-      <c r="L23" s="115"/>
-      <c r="M23" s="115"/>
-      <c r="N23" s="115"/>
-      <c r="O23" s="115"/>
-    </row>
-    <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="114"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="116" t="s">
-        <v>802</v>
-      </c>
-      <c r="H24" s="145" t="s">
-        <v>818</v>
-      </c>
-      <c r="I24" s="115"/>
-      <c r="J24" s="115"/>
-      <c r="L24" s="143"/>
-      <c r="M24" s="143"/>
-      <c r="N24" s="143"/>
-      <c r="O24" s="115"/>
-    </row>
-    <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B25" s="115" t="s">
+      <c r="C29" s="64"/>
+      <c r="D29" s="68" t="s">
         <v>813</v>
       </c>
-      <c r="C25" s="139">
-        <v>42139</v>
-      </c>
-      <c r="E25" s="144"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116" t="s">
-        <v>802</v>
-      </c>
-      <c r="H25" s="142" t="s">
-        <v>814</v>
-      </c>
-      <c r="I25" s="115"/>
-      <c r="J25" s="115" t="s">
-        <v>815</v>
-      </c>
-      <c r="K25" s="115"/>
-      <c r="L25" s="115"/>
-      <c r="M25" s="115"/>
-      <c r="N25" s="115"/>
-      <c r="O25" s="115"/>
-    </row>
-    <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="115"/>
-      <c r="B26" s="115"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="115"/>
-      <c r="K26" s="115"/>
-      <c r="L26" s="115"/>
-      <c r="M26" s="115"/>
-      <c r="N26" s="115"/>
-      <c r="O26" s="115"/>
-    </row>
-    <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="114" t="s">
-        <v>804</v>
-      </c>
-      <c r="B27" s="115" t="s">
-        <v>805</v>
-      </c>
-      <c r="C27" s="116" t="s">
-        <v>806</v>
-      </c>
-      <c r="D27" s="116" t="s">
-        <v>807</v>
-      </c>
-      <c r="E27" s="116" t="s">
-        <v>808</v>
-      </c>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="115"/>
-      <c r="K27" s="115"/>
-      <c r="L27" s="115"/>
-      <c r="M27" s="115"/>
-      <c r="N27" s="115"/>
-      <c r="O27" s="115"/>
-    </row>
-    <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="114" t="s">
-        <v>816</v>
-      </c>
-      <c r="B28" s="115" t="s">
-        <v>803</v>
-      </c>
-      <c r="C28" s="115"/>
-      <c r="D28" s="119" t="s">
-        <v>817</v>
-      </c>
-      <c r="E28" s="119"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="115"/>
-      <c r="L28" s="115"/>
-      <c r="M28" s="115"/>
-      <c r="N28" s="115"/>
-      <c r="O28" s="115"/>
-    </row>
-    <row r="29" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="114"/>
-      <c r="B29" s="114"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="116"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="115"/>
-      <c r="K29" s="115"/>
-      <c r="L29" s="115"/>
-      <c r="M29" s="115"/>
-      <c r="N29" s="115"/>
-      <c r="O29" s="115"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
     </row>
     <row r="30" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="114"/>
-      <c r="B30" s="114"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="115"/>
-      <c r="K30" s="115"/>
-      <c r="L30" s="115"/>
-      <c r="M30" s="115"/>
-      <c r="N30" s="115"/>
-      <c r="O30" s="115"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+    </row>
+    <row r="31" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="63"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -16754,6 +17229,8 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H25" location="名词解释!F184" display="修改副本调控方式"/>
+    <hyperlink ref="N25" location="伤害公式!C18" display="添加防御判定与防御系数"/>
+    <hyperlink ref="H26" location="属性说明!C7" display="删除总命中率与100%的比较"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16763,8 +17240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D163" workbookViewId="0">
-      <selection activeCell="G189" sqref="G189"/>
+    <sheetView topLeftCell="D163" workbookViewId="0">
+      <selection activeCell="I185" sqref="I185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -16811,7 +17288,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>245</v>
@@ -16819,7 +17296,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>120</v>
@@ -16882,7 +17359,7 @@
     </row>
     <row r="21" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E21" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -16894,7 +17371,7 @@
     <row r="22" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E22" s="11"/>
       <c r="F22" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -16904,7 +17381,7 @@
     </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E23" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -16916,7 +17393,7 @@
     <row r="24" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E24" s="11"/>
       <c r="F24" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -16926,7 +17403,7 @@
     </row>
     <row r="25" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E25" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -16938,7 +17415,7 @@
     <row r="26" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E26" s="11"/>
       <c r="F26" s="11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -16947,7 +17424,7 @@
       <c r="K26" s="11"/>
     </row>
     <row r="27" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E27" s="54" t="s">
+      <c r="E27" s="53" t="s">
         <v>309</v>
       </c>
       <c r="F27" s="11"/>
@@ -16960,7 +17437,7 @@
     <row r="28" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E28" s="11"/>
       <c r="F28" s="11" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -16970,7 +17447,7 @@
     </row>
     <row r="29" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E29" s="11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
@@ -16982,7 +17459,7 @@
     <row r="30" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E30" s="11"/>
       <c r="F30" s="11" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
@@ -16992,7 +17469,7 @@
     </row>
     <row r="31" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E31" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
@@ -17004,7 +17481,7 @@
     <row r="32" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E32" s="11"/>
       <c r="F32" s="11" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
@@ -17014,7 +17491,7 @@
     </row>
     <row r="33" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E33" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
@@ -17026,7 +17503,7 @@
     <row r="34" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E34" s="11"/>
       <c r="F34" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -17036,7 +17513,7 @@
     </row>
     <row r="35" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E35" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
@@ -17048,7 +17525,7 @@
     <row r="36" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E36" s="11"/>
       <c r="F36" s="11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
@@ -17058,7 +17535,7 @@
     </row>
     <row r="37" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E37" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
@@ -17070,7 +17547,7 @@
     <row r="38" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E38" s="11"/>
       <c r="F38" s="11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
@@ -17080,7 +17557,7 @@
     </row>
     <row r="39" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E39" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
@@ -17093,10 +17570,10 @@
     <row r="40" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E40" s="11"/>
       <c r="F40" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="G40" s="11" t="s">
         <v>696</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>697</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
@@ -17107,10 +17584,10 @@
     <row r="41" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E41" s="11"/>
       <c r="F41" s="11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -17120,7 +17597,7 @@
     </row>
     <row r="42" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E42" s="11" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
@@ -17133,7 +17610,7 @@
     <row r="43" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E43" s="11"/>
       <c r="F43" s="11" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -17146,7 +17623,7 @@
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
@@ -17158,7 +17635,7 @@
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
@@ -17170,7 +17647,7 @@
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
@@ -17182,7 +17659,7 @@
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
@@ -17194,7 +17671,7 @@
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
@@ -17203,7 +17680,7 @@
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B50" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>254</v>
@@ -17288,13 +17765,13 @@
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.15">
       <c r="E60" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>708</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>377</v>
@@ -17349,7 +17826,7 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H61" s="1">
         <v>0</v>
@@ -17502,7 +17979,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I72" s="33"/>
     </row>
@@ -17649,13 +18126,13 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A90" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>301</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>306</v>
@@ -17933,14 +18410,14 @@
       <c r="O144" s="3"/>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B145" s="48" t="s">
-        <v>567</v>
+      <c r="B145" s="47" t="s">
+        <v>566</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>321</v>
       </c>
       <c r="H145" s="11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
@@ -17952,7 +18429,7 @@
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B146" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>322</v>
@@ -18060,25 +18537,25 @@
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A153" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="B153" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="B153" s="10" t="s">
-        <v>585</v>
-      </c>
       <c r="G153" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="H153" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="I153" s="54" t="s">
         <v>663</v>
       </c>
-      <c r="H153" s="11" t="s">
-        <v>661</v>
-      </c>
-      <c r="I153" s="55" t="s">
-        <v>664</v>
-      </c>
-      <c r="J153" s="55"/>
-      <c r="K153" s="55"/>
-      <c r="L153" s="55"/>
-      <c r="M153" s="55"/>
-      <c r="N153" s="55"/>
+      <c r="J153" s="54"/>
+      <c r="K153" s="54"/>
+      <c r="L153" s="54"/>
+      <c r="M153" s="54"/>
+      <c r="N153" s="54"/>
       <c r="O153" s="11"/>
       <c r="P153" s="11"/>
       <c r="Q153" s="11"/>
@@ -18090,17 +18567,17 @@
       </c>
       <c r="B154" s="10"/>
       <c r="G154" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H154" s="11" t="s">
-        <v>662</v>
-      </c>
-      <c r="I154" s="55"/>
-      <c r="J154" s="55"/>
-      <c r="K154" s="55"/>
-      <c r="L154" s="55"/>
-      <c r="M154" s="55"/>
-      <c r="N154" s="55"/>
+        <v>661</v>
+      </c>
+      <c r="I154" s="54"/>
+      <c r="J154" s="54"/>
+      <c r="K154" s="54"/>
+      <c r="L154" s="54"/>
+      <c r="M154" s="54"/>
+      <c r="N154" s="54"/>
       <c r="O154" s="11"/>
       <c r="P154" s="11"/>
       <c r="Q154" s="11"/>
@@ -18108,19 +18585,19 @@
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.15">
       <c r="G155" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H155" s="11" t="s">
-        <v>636</v>
-      </c>
-      <c r="I155" s="55" t="s">
-        <v>665</v>
-      </c>
-      <c r="J155" s="55"/>
-      <c r="K155" s="55"/>
-      <c r="L155" s="55"/>
-      <c r="M155" s="55"/>
-      <c r="N155" s="55"/>
+        <v>635</v>
+      </c>
+      <c r="I155" s="54" t="s">
+        <v>664</v>
+      </c>
+      <c r="J155" s="54"/>
+      <c r="K155" s="54"/>
+      <c r="L155" s="54"/>
+      <c r="M155" s="54"/>
+      <c r="N155" s="54"/>
       <c r="O155" s="11"/>
       <c r="P155" s="11"/>
       <c r="Q155" s="11"/>
@@ -18131,28 +18608,28 @@
         <v>441</v>
       </c>
       <c r="H156" s="11" t="s">
-        <v>637</v>
-      </c>
-      <c r="I156" s="55"/>
-      <c r="J156" s="55"/>
-      <c r="K156" s="55"/>
-      <c r="L156" s="55"/>
-      <c r="M156" s="55"/>
-      <c r="N156" s="55"/>
+        <v>636</v>
+      </c>
+      <c r="I156" s="54"/>
+      <c r="J156" s="54"/>
+      <c r="K156" s="54"/>
+      <c r="L156" s="54"/>
+      <c r="M156" s="54"/>
+      <c r="N156" s="54"/>
       <c r="O156" s="11"/>
       <c r="P156" s="11"/>
       <c r="Q156" s="11"/>
       <c r="R156" s="11"/>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B157" s="48" t="s">
-        <v>568</v>
+      <c r="B157" s="47" t="s">
+        <v>567</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
@@ -18226,25 +18703,25 @@
     </row>
     <row r="166" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B166" s="10" t="s">
-        <v>569</v>
-      </c>
-      <c r="F166" s="61" t="s">
+        <v>568</v>
+      </c>
+      <c r="F166" s="97" t="s">
         <v>460</v>
       </c>
-      <c r="G166" s="52" t="s">
-        <v>770</v>
-      </c>
-      <c r="H166" s="53" t="s">
-        <v>624</v>
+      <c r="G166" s="51" t="s">
+        <v>768</v>
+      </c>
+      <c r="H166" s="52" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="167" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="F167" s="62"/>
+      <c r="F167" s="98"/>
       <c r="G167" s="37" t="s">
         <v>343</v>
       </c>
       <c r="H167" s="38" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J167" s="42" t="s">
         <v>355</v>
@@ -18254,12 +18731,12 @@
       <c r="M167" s="42"/>
     </row>
     <row r="168" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="F168" s="62"/>
+      <c r="F168" s="98"/>
       <c r="G168" s="37" t="s">
         <v>344</v>
       </c>
       <c r="H168" s="38" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K168" s="42" t="s">
         <v>356</v>
@@ -18267,12 +18744,12 @@
       <c r="L168" s="42"/>
     </row>
     <row r="169" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="F169" s="62"/>
+      <c r="F169" s="98"/>
       <c r="G169" s="37" t="s">
         <v>345</v>
       </c>
       <c r="H169" s="38" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J169" s="42" t="s">
         <v>357</v>
@@ -18284,12 +18761,12 @@
       <c r="O169" s="33"/>
     </row>
     <row r="170" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="F170" s="62"/>
+      <c r="F170" s="98"/>
       <c r="G170" s="37" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H170" s="38" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J170" s="42"/>
       <c r="K170" s="42" t="s">
@@ -18301,12 +18778,12 @@
       <c r="O170" s="33"/>
     </row>
     <row r="171" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="F171" s="62"/>
+      <c r="F171" s="98"/>
       <c r="G171" s="37" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H171" s="38" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K171" s="1" t="s">
         <v>358</v>
@@ -18316,12 +18793,12 @@
       </c>
     </row>
     <row r="172" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="F172" s="62"/>
+      <c r="F172" s="98"/>
       <c r="G172" s="37" t="s">
         <v>346</v>
       </c>
       <c r="H172" s="38" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K172" s="1" t="s">
         <v>361</v>
@@ -18331,24 +18808,24 @@
       </c>
     </row>
     <row r="173" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="F173" s="62"/>
+      <c r="F173" s="98"/>
       <c r="G173" s="37" t="s">
+        <v>666</v>
+      </c>
+      <c r="H173" s="37" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="174" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="F174" s="98"/>
+      <c r="G174" s="37" t="s">
         <v>667</v>
       </c>
-      <c r="H173" s="37" t="s">
+      <c r="H174" s="37" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="174" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="F174" s="62"/>
-      <c r="G174" s="37" t="s">
-        <v>668</v>
-      </c>
-      <c r="H174" s="37" t="s">
-        <v>670</v>
-      </c>
       <c r="J174" s="11" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K174" s="11"/>
       <c r="L174" s="11"/>
@@ -18356,30 +18833,30 @@
       <c r="N174" s="11"/>
     </row>
     <row r="175" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="F175" s="62"/>
+      <c r="F175" s="98"/>
       <c r="G175" s="37" t="s">
+        <v>671</v>
+      </c>
+      <c r="H175" s="37" t="s">
         <v>672</v>
       </c>
-      <c r="H175" s="37" t="s">
+    </row>
+    <row r="176" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="F176" s="98"/>
+      <c r="G176" s="37" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="176" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="F176" s="62"/>
-      <c r="G176" s="37" t="s">
+      <c r="H176" s="37" t="s">
         <v>674</v>
       </c>
-      <c r="H176" s="37" t="s">
-        <v>675</v>
-      </c>
     </row>
     <row r="177" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F177" s="63"/>
+      <c r="F177" s="99"/>
       <c r="G177" s="39" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H177" s="40" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="179" spans="2:24" x14ac:dyDescent="0.15">
@@ -18400,7 +18877,7 @@
     </row>
     <row r="180" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B180" s="10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G180" s="11" t="s">
         <v>368</v>
@@ -18409,15 +18886,15 @@
         <v>367</v>
       </c>
       <c r="I180" s="15" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J180" s="15"/>
       <c r="K180" s="15"/>
       <c r="L180" s="15" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M180" s="15" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="N180" s="15" t="s">
         <v>426</v>
@@ -18435,7 +18912,7 @@
         <v>142</v>
       </c>
       <c r="S180" s="15" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="T180" s="15"/>
       <c r="U180" s="15"/>
@@ -18451,10 +18928,10 @@
         <v>493</v>
       </c>
       <c r="H181" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I181" s="15" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="J181" s="15"/>
       <c r="K181" s="15"/>
@@ -18474,7 +18951,7 @@
     </row>
     <row r="183" spans="2:24" x14ac:dyDescent="0.15">
       <c r="F183" s="28" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
@@ -18482,114 +18959,114 @@
     </row>
     <row r="184" spans="2:24" x14ac:dyDescent="0.15">
       <c r="F184" s="3"/>
-      <c r="G184" s="111" t="s">
-        <v>775</v>
-      </c>
-      <c r="H184" s="111"/>
-      <c r="I184" s="111"/>
-      <c r="J184" s="111"/>
-      <c r="K184" s="111"/>
-      <c r="L184" s="111"/>
-      <c r="M184" s="111"/>
-      <c r="N184" s="111"/>
+      <c r="G184" s="60" t="s">
+        <v>771</v>
+      </c>
+      <c r="H184" s="60"/>
+      <c r="I184" s="60"/>
+      <c r="J184" s="60"/>
+      <c r="K184" s="60"/>
+      <c r="L184" s="60"/>
+      <c r="M184" s="60"/>
+      <c r="N184" s="60"/>
     </row>
     <row r="185" spans="2:24" x14ac:dyDescent="0.15">
       <c r="F185" s="3"/>
-      <c r="G185" s="111" t="s">
-        <v>771</v>
-      </c>
-      <c r="H185" s="111" t="s">
-        <v>772</v>
-      </c>
-      <c r="I185" s="111"/>
-      <c r="J185" s="111"/>
-      <c r="K185" s="111"/>
-      <c r="L185" s="111"/>
-      <c r="M185" s="111"/>
-      <c r="N185" s="111"/>
+      <c r="G185" s="60" t="s">
+        <v>769</v>
+      </c>
+      <c r="H185" s="60" t="s">
+        <v>825</v>
+      </c>
+      <c r="I185" s="60"/>
+      <c r="J185" s="60"/>
+      <c r="K185" s="60"/>
+      <c r="L185" s="60"/>
+      <c r="M185" s="60"/>
+      <c r="N185" s="60"/>
     </row>
     <row r="186" spans="2:24" x14ac:dyDescent="0.15">
       <c r="F186" s="3"/>
-      <c r="G186" s="111" t="s">
-        <v>773</v>
-      </c>
-      <c r="H186" s="111" t="s">
-        <v>774</v>
-      </c>
-      <c r="I186" s="111"/>
-      <c r="J186" s="111"/>
-      <c r="K186" s="111"/>
-      <c r="L186" s="111"/>
-      <c r="M186" s="111"/>
-      <c r="N186" s="111"/>
+      <c r="G186" s="60" t="s">
+        <v>770</v>
+      </c>
+      <c r="H186" s="60" t="s">
+        <v>826</v>
+      </c>
+      <c r="I186" s="60"/>
+      <c r="J186" s="60"/>
+      <c r="K186" s="60"/>
+      <c r="L186" s="60"/>
+      <c r="M186" s="60"/>
+      <c r="N186" s="60"/>
     </row>
     <row r="187" spans="2:24" x14ac:dyDescent="0.15">
       <c r="F187" s="3"/>
-      <c r="G187" s="111" t="s">
+      <c r="G187" s="60" t="s">
         <v>369</v>
       </c>
-      <c r="H187" s="111" t="s">
+      <c r="H187" s="60" t="s">
         <v>370</v>
       </c>
-      <c r="I187" s="111"/>
-      <c r="J187" s="111"/>
-      <c r="K187" s="111"/>
-      <c r="L187" s="111"/>
-      <c r="M187" s="111"/>
-      <c r="N187" s="111"/>
+      <c r="I187" s="60"/>
+      <c r="J187" s="60"/>
+      <c r="K187" s="60"/>
+      <c r="L187" s="60"/>
+      <c r="M187" s="60"/>
+      <c r="N187" s="60"/>
     </row>
     <row r="188" spans="2:24" x14ac:dyDescent="0.15">
       <c r="F188" s="3"/>
-      <c r="G188" s="111" t="s">
+      <c r="G188" s="60" t="s">
         <v>371</v>
       </c>
-      <c r="H188" s="111" t="s">
+      <c r="H188" s="60" t="s">
         <v>372</v>
       </c>
-      <c r="I188" s="111"/>
-      <c r="J188" s="111"/>
-      <c r="K188" s="111"/>
-      <c r="L188" s="111"/>
-      <c r="M188" s="111"/>
-      <c r="N188" s="111"/>
+      <c r="I188" s="60"/>
+      <c r="J188" s="60"/>
+      <c r="K188" s="60"/>
+      <c r="L188" s="60"/>
+      <c r="M188" s="60"/>
+      <c r="N188" s="60"/>
     </row>
     <row r="189" spans="2:24" x14ac:dyDescent="0.15">
       <c r="F189" s="43"/>
-      <c r="G189" s="112" t="s">
+      <c r="G189" s="61" t="s">
         <v>373</v>
       </c>
-      <c r="H189" s="111"/>
-      <c r="I189" s="113"/>
-      <c r="J189" s="113"/>
-      <c r="K189" s="111"/>
-      <c r="L189" s="111"/>
-      <c r="M189" s="111"/>
-      <c r="N189" s="111"/>
+      <c r="H189" s="60"/>
+      <c r="I189" s="62"/>
+      <c r="J189" s="62"/>
+      <c r="K189" s="60"/>
+      <c r="L189" s="60"/>
+      <c r="M189" s="60"/>
+      <c r="N189" s="60"/>
     </row>
     <row r="190" spans="2:24" x14ac:dyDescent="0.15">
       <c r="D190" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="191" spans="2:24" x14ac:dyDescent="0.15">
       <c r="E191" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="F191" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="192" spans="2:24" x14ac:dyDescent="0.15">
       <c r="E192" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="193" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A193" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>376</v>
@@ -18645,7 +19122,7 @@
     </row>
     <row r="194" spans="1:22" x14ac:dyDescent="0.15">
       <c r="F194" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G194" s="1">
         <v>0</v>
@@ -18698,7 +19175,7 @@
     </row>
     <row r="195" spans="1:22" x14ac:dyDescent="0.15">
       <c r="E195" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="196" spans="1:22" x14ac:dyDescent="0.15">
@@ -18759,28 +19236,28 @@
     </row>
     <row r="204" spans="1:22" x14ac:dyDescent="0.15">
       <c r="E204" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="205" spans="1:22" x14ac:dyDescent="0.15">
       <c r="F205" s="15" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="206" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A206" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G206" s="1" t="s">
         <v>391</v>
       </c>
       <c r="H206" s="15" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="207" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G207" s="1" t="s">
         <v>390</v>
@@ -18788,7 +19265,7 @@
     </row>
     <row r="208" spans="1:22" x14ac:dyDescent="0.15">
       <c r="F208" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.15">
@@ -18798,7 +19275,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G210" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.15">
@@ -18808,7 +19285,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E212" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.15">
@@ -18818,10 +19295,10 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F214" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.15">
@@ -18846,7 +19323,7 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B219" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C219" s="9" t="s">
         <v>247</v>
@@ -18859,7 +19336,7 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A222" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -18876,8 +19353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="B5:F6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -18979,7 +19456,7 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>450</v>
@@ -19006,10 +19483,10 @@
         <v>343</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>406</v>
@@ -19018,22 +19495,22 @@
         <v>407</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O3" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="P3" s="57" t="s">
+      <c r="P3" s="56" t="s">
+        <v>666</v>
+      </c>
+      <c r="Q3" s="56" t="s">
         <v>667</v>
       </c>
-      <c r="Q3" s="57" t="s">
-        <v>668</v>
-      </c>
-      <c r="R3" s="57" t="s">
-        <v>672</v>
-      </c>
-      <c r="S3" s="57" t="s">
-        <v>674</v>
+      <c r="R3" s="56" t="s">
+        <v>671</v>
+      </c>
+      <c r="S3" s="56" t="s">
+        <v>673</v>
       </c>
       <c r="T3" s="23" t="s">
         <v>409</v>
@@ -19041,22 +19518,22 @@
       <c r="U3" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="V3" s="64" t="s">
+      <c r="V3" s="100" t="s">
+        <v>745</v>
+      </c>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="1" t="s">
         <v>746</v>
-      </c>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="1" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>412</v>
@@ -19068,7 +19545,7 @@
         <v>414</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>415</v>
@@ -19095,105 +19572,105 @@
         <v>422</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O4" s="23" t="s">
         <v>423</v>
       </c>
-      <c r="P4" s="57" t="s">
+      <c r="P4" s="56" t="s">
+        <v>668</v>
+      </c>
+      <c r="Q4" s="56" t="s">
         <v>669</v>
       </c>
-      <c r="Q4" s="57" t="s">
-        <v>670</v>
-      </c>
-      <c r="R4" s="57" t="s">
-        <v>673</v>
-      </c>
-      <c r="S4" s="57" t="s">
-        <v>675</v>
+      <c r="R4" s="56" t="s">
+        <v>672</v>
+      </c>
+      <c r="S4" s="56" t="s">
+        <v>674</v>
       </c>
       <c r="T4" s="23" t="s">
         <v>424</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="V4" s="64" t="s">
-        <v>749</v>
-      </c>
-      <c r="W4" s="64"/>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="64"/>
-      <c r="AA4" s="64"/>
-      <c r="AB4" s="64"/>
+        <v>603</v>
+      </c>
+      <c r="V4" s="100" t="s">
+        <v>748</v>
+      </c>
+      <c r="W4" s="100"/>
+      <c r="X4" s="100"/>
+      <c r="Y4" s="100"/>
+      <c r="Z4" s="100"/>
+      <c r="AA4" s="100"/>
+      <c r="AB4" s="100"/>
       <c r="AC4" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="I5" s="100" t="s">
         <v>742</v>
       </c>
-      <c r="I5" s="64" t="s">
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="100"/>
+      <c r="T5" s="100"/>
+      <c r="U5" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="64"/>
-      <c r="U5" s="1" t="s">
-        <v>744</v>
-      </c>
       <c r="V5" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>605</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>606</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>411</v>
       </c>
       <c r="Y5" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="Z5" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="AB5" s="1" t="s">
-        <v>610</v>
-      </c>
       <c r="AC5" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.15">
@@ -19201,10 +19678,10 @@
       <c r="C6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>425</v>
@@ -19222,12 +19699,12 @@
         <v>429</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.15">
@@ -19275,8 +19752,8 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="33" x14ac:dyDescent="0.15">
-      <c r="A9" s="48" t="s">
-        <v>590</v>
+      <c r="A9" s="47" t="s">
+        <v>589</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>431</v>
@@ -19285,7 +19762,7 @@
         <v>432</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>434</v>
@@ -19306,19 +19783,19 @@
         <v>439</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>440</v>
       </c>
       <c r="M9" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>658</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>659</v>
       </c>
       <c r="V9" s="23"/>
       <c r="W9" s="23"/>
@@ -19327,14 +19804,14 @@
       <c r="Z9" s="23"/>
     </row>
     <row r="10" spans="1:29" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="48" t="s">
-        <v>591</v>
+      <c r="A10" s="47" t="s">
+        <v>590</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>442</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
@@ -19373,28 +19850,28 @@
         <v>449</v>
       </c>
       <c r="V10" s="23"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
       <c r="Y10" s="23"/>
       <c r="Z10" s="23"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="V11" s="23"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="55"/>
       <c r="Y11" s="23"/>
       <c r="Z11" s="23"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B12" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="V12" s="23"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="55"/>
       <c r="Y12" s="23"/>
       <c r="Z12" s="23"/>
     </row>
@@ -19439,17 +19916,17 @@
         <v>399</v>
       </c>
       <c r="V13" s="23"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="55"/>
       <c r="Y13" s="23"/>
       <c r="Z13" s="23"/>
     </row>
     <row r="14" spans="1:29" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="48" t="s">
-        <v>592</v>
+      <c r="A14" s="47" t="s">
+        <v>591</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>433</v>
@@ -19473,19 +19950,19 @@
         <v>439</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M14" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>617</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>618</v>
       </c>
       <c r="V14" s="23"/>
       <c r="W14" s="23"/>
@@ -19495,7 +19972,7 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B15" s="11" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -19519,85 +19996,85 @@
         <v>54</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="M15" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="N15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="B16" s="58" t="s">
+        <v>750</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>620</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="B16" s="59" t="s">
-        <v>751</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L18" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>760</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B21" s="60" t="s">
-        <v>764</v>
+      <c r="B21" s="59" t="s">
+        <v>763</v>
       </c>
     </row>
   </sheetData>
@@ -19634,64 +20111,64 @@
       </c>
     </row>
     <row r="2" spans="1:50" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65" t="s">
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65" t="s">
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65" t="s">
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="65"/>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="65" t="s">
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="101"/>
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="101"/>
+      <c r="AJ2" s="101"/>
+      <c r="AK2" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="AL2" s="65"/>
-      <c r="AM2" s="65"/>
-      <c r="AN2" s="65" t="s">
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="101"/>
+      <c r="AN2" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="65"/>
-      <c r="AR2" s="65"/>
-      <c r="AS2" s="65"/>
-      <c r="AT2" s="65"/>
-      <c r="AU2" s="65"/>
-      <c r="AV2" s="65"/>
+      <c r="AO2" s="101"/>
+      <c r="AP2" s="101"/>
+      <c r="AQ2" s="101"/>
+      <c r="AR2" s="101"/>
+      <c r="AS2" s="101"/>
+      <c r="AT2" s="101"/>
+      <c r="AU2" s="101"/>
+      <c r="AV2" s="101"/>
       <c r="AW2" s="30" t="s">
         <v>40</v>
       </c>
@@ -19699,7 +20176,7 @@
     </row>
     <row r="3" spans="1:50" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>39</v>
@@ -19720,7 +20197,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>219</v>
@@ -19848,7 +20325,7 @@
     </row>
     <row r="4" spans="1:50" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="5" spans="1:50" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -20020,7 +20497,7 @@
     </row>
     <row r="12" spans="1:50" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>138</v>
@@ -20043,13 +20520,13 @@
     </row>
     <row r="13" spans="1:50" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>251</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>234</v>
@@ -20232,7 +20709,7 @@
       </c>
     </row>
     <row r="26" spans="1:49" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="48"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="1" t="s">
         <v>241</v>
       </c>
@@ -20262,8 +20739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW90"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41:H41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -20316,7 +20793,7 @@
         <v>160</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="3" spans="3:30" x14ac:dyDescent="0.15">
@@ -20341,13 +20818,29 @@
       <c r="C7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>768</v>
-      </c>
+      <c r="D7" s="82" t="s">
+        <v>827</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
     </row>
     <row r="8" spans="3:30" x14ac:dyDescent="0.15">
       <c r="D8" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="9" spans="3:30" x14ac:dyDescent="0.15">
@@ -20467,7 +20960,7 @@
     <row r="16" spans="3:30" x14ac:dyDescent="0.15">
       <c r="C16" s="15"/>
       <c r="D16" s="15" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
@@ -20627,7 +21120,7 @@
     <row r="21" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>54</v>
@@ -20726,107 +21219,107 @@
       <c r="AW27" s="4"/>
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="C28" s="92" t="s">
+      <c r="C28" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92" t="s">
+      <c r="D28" s="104"/>
+      <c r="E28" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92" t="s">
+      <c r="F28" s="104"/>
+      <c r="G28" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92" t="s">
+      <c r="H28" s="104"/>
+      <c r="I28" s="104" t="s">
         <v>154</v>
       </c>
-      <c r="J28" s="92"/>
-      <c r="K28" s="92" t="s">
+      <c r="J28" s="104"/>
+      <c r="K28" s="104" t="s">
         <v>155</v>
       </c>
-      <c r="L28" s="92"/>
-      <c r="M28" s="84" t="s">
+      <c r="L28" s="104"/>
+      <c r="M28" s="109" t="s">
         <v>156</v>
       </c>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84" t="s">
+      <c r="N28" s="109"/>
+      <c r="O28" s="109" t="s">
         <v>157</v>
       </c>
-      <c r="P28" s="84"/>
-      <c r="Q28" s="84" t="s">
+      <c r="P28" s="109"/>
+      <c r="Q28" s="109" t="s">
         <v>178</v>
       </c>
-      <c r="R28" s="84"/>
-      <c r="S28" s="84" t="s">
+      <c r="R28" s="109"/>
+      <c r="S28" s="109" t="s">
         <v>179</v>
       </c>
-      <c r="T28" s="84"/>
-      <c r="U28" s="84" t="s">
+      <c r="T28" s="109"/>
+      <c r="U28" s="109" t="s">
         <v>180</v>
       </c>
-      <c r="V28" s="84"/>
-      <c r="W28" s="84" t="s">
+      <c r="V28" s="109"/>
+      <c r="W28" s="109" t="s">
         <v>181</v>
       </c>
-      <c r="X28" s="84"/>
-      <c r="Y28" s="84" t="s">
+      <c r="X28" s="109"/>
+      <c r="Y28" s="109" t="s">
         <v>191</v>
       </c>
-      <c r="Z28" s="84"/>
-      <c r="AA28" s="84" t="s">
+      <c r="Z28" s="109"/>
+      <c r="AA28" s="109" t="s">
         <v>211</v>
       </c>
-      <c r="AB28" s="84"/>
-      <c r="AC28" s="84" t="s">
+      <c r="AB28" s="109"/>
+      <c r="AC28" s="109" t="s">
         <v>158</v>
       </c>
-      <c r="AD28" s="84"/>
-      <c r="AE28" s="91" t="s">
+      <c r="AD28" s="109"/>
+      <c r="AE28" s="108" t="s">
         <v>159</v>
       </c>
-      <c r="AF28" s="91"/>
+      <c r="AF28" s="108"/>
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="C29" s="89" t="s">
+      <c r="C29" s="102" t="s">
         <v>161</v>
       </c>
-      <c r="D29" s="89"/>
-      <c r="E29" s="73" t="s">
+      <c r="D29" s="102"/>
+      <c r="E29" s="103" t="s">
         <v>164</v>
       </c>
-      <c r="F29" s="73"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="85"/>
-      <c r="P29" s="85"/>
-      <c r="Q29" s="85"/>
-      <c r="R29" s="85"/>
-      <c r="S29" s="85"/>
-      <c r="T29" s="85"/>
-      <c r="U29" s="85"/>
-      <c r="V29" s="85"/>
-      <c r="W29" s="85"/>
-      <c r="X29" s="85"/>
-      <c r="Y29" s="93"/>
-      <c r="Z29" s="94"/>
-      <c r="AA29" s="86"/>
-      <c r="AB29" s="87"/>
-      <c r="AC29" s="85" t="s">
+      <c r="F29" s="103"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="102"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="105"/>
+      <c r="N29" s="105"/>
+      <c r="O29" s="105"/>
+      <c r="P29" s="105"/>
+      <c r="Q29" s="105"/>
+      <c r="R29" s="105"/>
+      <c r="S29" s="105"/>
+      <c r="T29" s="105"/>
+      <c r="U29" s="105"/>
+      <c r="V29" s="105"/>
+      <c r="W29" s="105"/>
+      <c r="X29" s="105"/>
+      <c r="Y29" s="110"/>
+      <c r="Z29" s="111"/>
+      <c r="AA29" s="116"/>
+      <c r="AB29" s="117"/>
+      <c r="AC29" s="105" t="s">
         <v>162</v>
       </c>
-      <c r="AD29" s="85"/>
-      <c r="AE29" s="90" t="str">
+      <c r="AD29" s="105"/>
+      <c r="AE29" s="106" t="str">
         <f>CONCATENATE(E29)</f>
         <v>怪物装备本身附加命中率</v>
       </c>
-      <c r="AF29" s="90"/>
+      <c r="AF29" s="106"/>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.15">
       <c r="C30" s="18"/>
@@ -20895,715 +21388,715 @@
       <c r="AF31" s="27"/>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="C32" s="92" t="s">
+      <c r="C32" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92" t="s">
+      <c r="D32" s="104"/>
+      <c r="E32" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92" t="s">
+      <c r="F32" s="104"/>
+      <c r="G32" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="H32" s="92"/>
-      <c r="I32" s="92" t="s">
+      <c r="H32" s="104"/>
+      <c r="I32" s="104" t="s">
         <v>154</v>
       </c>
-      <c r="J32" s="92"/>
-      <c r="K32" s="92" t="s">
+      <c r="J32" s="104"/>
+      <c r="K32" s="104" t="s">
         <v>155</v>
       </c>
-      <c r="L32" s="92"/>
-      <c r="M32" s="84" t="s">
+      <c r="L32" s="104"/>
+      <c r="M32" s="109" t="s">
         <v>156</v>
       </c>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84" t="s">
+      <c r="N32" s="109"/>
+      <c r="O32" s="109" t="s">
         <v>157</v>
       </c>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="84" t="s">
+      <c r="P32" s="109"/>
+      <c r="Q32" s="109" t="s">
         <v>178</v>
       </c>
-      <c r="R32" s="84"/>
-      <c r="S32" s="84" t="s">
+      <c r="R32" s="109"/>
+      <c r="S32" s="109" t="s">
         <v>179</v>
       </c>
-      <c r="T32" s="84"/>
-      <c r="U32" s="84" t="s">
+      <c r="T32" s="109"/>
+      <c r="U32" s="109" t="s">
         <v>180</v>
       </c>
-      <c r="V32" s="84"/>
-      <c r="W32" s="84" t="s">
+      <c r="V32" s="109"/>
+      <c r="W32" s="109" t="s">
         <v>181</v>
       </c>
-      <c r="X32" s="84"/>
-      <c r="Y32" s="84" t="s">
+      <c r="X32" s="109"/>
+      <c r="Y32" s="109" t="s">
         <v>191</v>
       </c>
-      <c r="Z32" s="84"/>
-      <c r="AA32" s="84" t="s">
+      <c r="Z32" s="109"/>
+      <c r="AA32" s="109" t="s">
         <v>211</v>
       </c>
-      <c r="AB32" s="84"/>
-      <c r="AC32" s="84" t="s">
+      <c r="AB32" s="109"/>
+      <c r="AC32" s="109" t="s">
         <v>158</v>
       </c>
-      <c r="AD32" s="84"/>
-      <c r="AE32" s="91" t="s">
+      <c r="AD32" s="109"/>
+      <c r="AE32" s="108" t="s">
         <v>159</v>
       </c>
-      <c r="AF32" s="91"/>
+      <c r="AF32" s="108"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B33" s="10" t="s">
-        <v>681</v>
-      </c>
-      <c r="C33" s="89" t="s">
+        <v>680</v>
+      </c>
+      <c r="C33" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="89"/>
-      <c r="E33" s="73" t="s">
+      <c r="D33" s="102"/>
+      <c r="E33" s="103" t="s">
         <v>190</v>
       </c>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73" t="s">
+      <c r="F33" s="103"/>
+      <c r="G33" s="103" t="s">
         <v>165</v>
       </c>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73" t="s">
+      <c r="H33" s="103"/>
+      <c r="I33" s="103" t="s">
         <v>163</v>
       </c>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="67"/>
-      <c r="P33" s="67"/>
-      <c r="Q33" s="67"/>
-      <c r="R33" s="67"/>
-      <c r="S33" s="67"/>
-      <c r="T33" s="67"/>
-      <c r="U33" s="67"/>
-      <c r="V33" s="67"/>
-      <c r="W33" s="67"/>
-      <c r="X33" s="67"/>
-      <c r="Y33" s="81"/>
-      <c r="Z33" s="81"/>
-      <c r="AA33" s="74"/>
-      <c r="AB33" s="74"/>
-      <c r="AC33" s="67" t="s">
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="107"/>
+      <c r="N33" s="107"/>
+      <c r="O33" s="107"/>
+      <c r="P33" s="107"/>
+      <c r="Q33" s="107"/>
+      <c r="R33" s="107"/>
+      <c r="S33" s="107"/>
+      <c r="T33" s="107"/>
+      <c r="U33" s="107"/>
+      <c r="V33" s="107"/>
+      <c r="W33" s="107"/>
+      <c r="X33" s="107"/>
+      <c r="Y33" s="112"/>
+      <c r="Z33" s="112"/>
+      <c r="AA33" s="115"/>
+      <c r="AB33" s="115"/>
+      <c r="AC33" s="107" t="s">
         <v>496</v>
       </c>
-      <c r="AD33" s="67"/>
-      <c r="AE33" s="66" t="str">
+      <c r="AD33" s="107"/>
+      <c r="AE33" s="113" t="str">
         <f>CONCATENATE(E33,"+",G33,"-",I33)</f>
         <v>固有暴击率+攻击方装备本身附加暴击率-防御方装备本身附加暴击抗性</v>
       </c>
-      <c r="AF33" s="66"/>
+      <c r="AF33" s="113"/>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
-        <v>576</v>
-      </c>
-      <c r="C34" s="89" t="s">
+        <v>575</v>
+      </c>
+      <c r="C34" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="89"/>
-      <c r="E34" s="73" t="s">
+      <c r="D34" s="102"/>
+      <c r="E34" s="103" t="s">
         <v>166</v>
       </c>
-      <c r="F34" s="73"/>
-      <c r="G34" s="75" t="s">
+      <c r="F34" s="103"/>
+      <c r="G34" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="H34" s="75"/>
-      <c r="I34" s="73" t="s">
+      <c r="H34" s="114"/>
+      <c r="I34" s="103" t="s">
         <v>167</v>
       </c>
-      <c r="J34" s="73"/>
-      <c r="K34" s="51" t="s">
+      <c r="J34" s="103"/>
+      <c r="K34" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51" t="s">
+      <c r="L34" s="50"/>
+      <c r="M34" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51" t="s">
+      <c r="N34" s="50"/>
+      <c r="O34" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="50" t="s">
+      <c r="P34" s="50"/>
+      <c r="Q34" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="R34" s="50"/>
-      <c r="S34" s="73"/>
-      <c r="T34" s="73"/>
-      <c r="U34" s="67"/>
-      <c r="V34" s="67"/>
-      <c r="W34" s="67"/>
-      <c r="X34" s="67"/>
-      <c r="Y34" s="81"/>
-      <c r="Z34" s="81"/>
-      <c r="AA34" s="74"/>
-      <c r="AB34" s="74"/>
-      <c r="AC34" s="67" t="s">
+      <c r="R34" s="49"/>
+      <c r="S34" s="103"/>
+      <c r="T34" s="103"/>
+      <c r="U34" s="107"/>
+      <c r="V34" s="107"/>
+      <c r="W34" s="107"/>
+      <c r="X34" s="107"/>
+      <c r="Y34" s="112"/>
+      <c r="Z34" s="112"/>
+      <c r="AA34" s="115"/>
+      <c r="AB34" s="115"/>
+      <c r="AC34" s="107" t="s">
         <v>542</v>
       </c>
-      <c r="AD34" s="67"/>
-      <c r="AE34" s="66" t="str">
+      <c r="AD34" s="107"/>
+      <c r="AE34" s="113" t="str">
         <f>CONCATENATE(E34,"+",G34,"+",I34,"+",M34,"+",O34,"+",Q34,"+",K34)</f>
         <v>怪物本身力量+怪物升星附加力量+装备本身附加力量+装备进阶附加力量+装备镶嵌附加力量+人物装备附加力量+装备强化附加力量</v>
       </c>
-      <c r="AF34" s="66"/>
+      <c r="AF34" s="113"/>
     </row>
     <row r="35" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
-        <v>577</v>
-      </c>
-      <c r="C35" s="89" t="s">
+        <v>576</v>
+      </c>
+      <c r="C35" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="89"/>
-      <c r="E35" s="73" t="s">
+      <c r="D35" s="102"/>
+      <c r="E35" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="F35" s="73"/>
-      <c r="G35" s="75" t="s">
+      <c r="F35" s="103"/>
+      <c r="G35" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="H35" s="75"/>
-      <c r="I35" s="73" t="s">
+      <c r="H35" s="114"/>
+      <c r="I35" s="103" t="s">
         <v>173</v>
       </c>
-      <c r="J35" s="73"/>
-      <c r="K35" s="51" t="s">
+      <c r="J35" s="103"/>
+      <c r="K35" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51" t="s">
+      <c r="L35" s="50"/>
+      <c r="M35" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="N35" s="51"/>
-      <c r="O35" s="51" t="s">
+      <c r="N35" s="50"/>
+      <c r="O35" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="P35" s="51"/>
-      <c r="Q35" s="50" t="s">
+      <c r="P35" s="50"/>
+      <c r="Q35" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="R35" s="50"/>
-      <c r="S35" s="73"/>
-      <c r="T35" s="73"/>
-      <c r="U35" s="67"/>
-      <c r="V35" s="67"/>
-      <c r="W35" s="67"/>
-      <c r="X35" s="67"/>
-      <c r="Y35" s="81"/>
-      <c r="Z35" s="81"/>
-      <c r="AA35" s="74"/>
-      <c r="AB35" s="74"/>
-      <c r="AC35" s="67" t="s">
+      <c r="R35" s="49"/>
+      <c r="S35" s="103"/>
+      <c r="T35" s="103"/>
+      <c r="U35" s="107"/>
+      <c r="V35" s="107"/>
+      <c r="W35" s="107"/>
+      <c r="X35" s="107"/>
+      <c r="Y35" s="112"/>
+      <c r="Z35" s="112"/>
+      <c r="AA35" s="115"/>
+      <c r="AB35" s="115"/>
+      <c r="AC35" s="107" t="s">
         <v>542</v>
       </c>
-      <c r="AD35" s="67"/>
-      <c r="AE35" s="66" t="str">
+      <c r="AD35" s="107"/>
+      <c r="AE35" s="113" t="str">
         <f>CONCATENATE(E35,"+",G35,"+",I35,"+",M35,"+",O35,"+",Q35,"+",K35)</f>
         <v>怪物本身智力+怪物升星附加智力+装备本身附加智力+装备进阶附加智力+装备镶嵌附加智力+人物装备附加智力+装备强化附加智力</v>
       </c>
-      <c r="AF35" s="66"/>
+      <c r="AF35" s="113"/>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
-        <v>596</v>
-      </c>
-      <c r="C36" s="89" t="s">
+        <v>595</v>
+      </c>
+      <c r="C36" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="89"/>
-      <c r="E36" s="73" t="s">
+      <c r="D36" s="102"/>
+      <c r="E36" s="103" t="s">
         <v>182</v>
       </c>
-      <c r="F36" s="73"/>
-      <c r="G36" s="75" t="s">
+      <c r="F36" s="103"/>
+      <c r="G36" s="114" t="s">
         <v>194</v>
       </c>
-      <c r="H36" s="75"/>
-      <c r="I36" s="73" t="s">
+      <c r="H36" s="114"/>
+      <c r="I36" s="103" t="s">
         <v>183</v>
       </c>
-      <c r="J36" s="73"/>
-      <c r="K36" s="51" t="s">
+      <c r="J36" s="103"/>
+      <c r="K36" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51" t="s">
+      <c r="L36" s="50"/>
+      <c r="M36" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51" t="s">
+      <c r="N36" s="50"/>
+      <c r="O36" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="P36" s="51"/>
-      <c r="Q36" s="50" t="s">
+      <c r="P36" s="50"/>
+      <c r="Q36" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="R36" s="50"/>
-      <c r="S36" s="50" t="s">
+      <c r="R36" s="49"/>
+      <c r="S36" s="49" t="s">
         <v>508</v>
       </c>
-      <c r="T36" s="50"/>
-      <c r="U36" s="50" t="s">
+      <c r="T36" s="49"/>
+      <c r="U36" s="49" t="s">
         <v>509</v>
       </c>
-      <c r="V36" s="50"/>
-      <c r="W36" s="50" t="s">
+      <c r="V36" s="49"/>
+      <c r="W36" s="49" t="s">
         <v>510</v>
       </c>
-      <c r="X36" s="50"/>
-      <c r="Y36" s="50" t="s">
+      <c r="X36" s="49"/>
+      <c r="Y36" s="49" t="s">
         <v>511</v>
       </c>
-      <c r="Z36" s="50"/>
-      <c r="AA36" s="73" t="s">
+      <c r="Z36" s="49"/>
+      <c r="AA36" s="103" t="s">
         <v>512</v>
       </c>
-      <c r="AB36" s="73"/>
-      <c r="AC36" s="67" t="s">
+      <c r="AB36" s="103"/>
+      <c r="AC36" s="107" t="s">
         <v>216</v>
       </c>
-      <c r="AD36" s="67"/>
-      <c r="AE36" s="66" t="str">
+      <c r="AD36" s="107"/>
+      <c r="AE36" s="113" t="str">
         <f>CONCATENATE("(",E36,"+",G36,"+",I36,"+",M36,"+",O36,"+",Q36,"+",K36,")","*","（","1","+",S36,")","*","(","1","+",U36,"+",W36,"+",Y36,"+",AA36,")")</f>
         <v>(怪物本身防御力+怪物升星附加防御力+装备本身附加防御力+装备进阶附加防御力+装备镶嵌附加防御力+人物装备附加防御力+装备强化附加防御力)*（1+人物装备套装附加防御力百分比)*(1+法阵附加防御力百分比+Buff附加防御力百分比+队长附加防御力百分比+被动附加防御力百分比)</v>
       </c>
-      <c r="AF36" s="66"/>
+      <c r="AF36" s="113"/>
     </row>
     <row r="37" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
-        <v>578</v>
-      </c>
-      <c r="C37" s="89" t="s">
-        <v>719</v>
-      </c>
-      <c r="D37" s="89"/>
-      <c r="E37" s="73" t="s">
+        <v>577</v>
+      </c>
+      <c r="C37" s="102" t="s">
+        <v>718</v>
+      </c>
+      <c r="D37" s="102"/>
+      <c r="E37" s="103" t="s">
         <v>182</v>
       </c>
-      <c r="F37" s="73"/>
-      <c r="G37" s="75" t="s">
+      <c r="F37" s="103"/>
+      <c r="G37" s="114" t="s">
         <v>194</v>
       </c>
-      <c r="H37" s="75"/>
-      <c r="I37" s="73" t="s">
+      <c r="H37" s="114"/>
+      <c r="I37" s="103" t="s">
         <v>183</v>
       </c>
-      <c r="J37" s="73"/>
-      <c r="K37" s="51" t="s">
+      <c r="J37" s="103"/>
+      <c r="K37" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51" t="s">
+      <c r="L37" s="50"/>
+      <c r="M37" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="N37" s="51"/>
-      <c r="O37" s="51" t="s">
+      <c r="N37" s="50"/>
+      <c r="O37" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="P37" s="51"/>
-      <c r="Q37" s="50" t="s">
+      <c r="P37" s="50"/>
+      <c r="Q37" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="R37" s="50"/>
-      <c r="S37" s="70"/>
-      <c r="T37" s="71"/>
-      <c r="U37" s="74"/>
-      <c r="V37" s="74"/>
-      <c r="W37" s="74"/>
-      <c r="X37" s="74"/>
-      <c r="Y37" s="74"/>
-      <c r="Z37" s="74"/>
-      <c r="AA37" s="73"/>
-      <c r="AB37" s="73"/>
-      <c r="AC37" s="67" t="s">
+      <c r="R37" s="49"/>
+      <c r="S37" s="120"/>
+      <c r="T37" s="121"/>
+      <c r="U37" s="115"/>
+      <c r="V37" s="115"/>
+      <c r="W37" s="115"/>
+      <c r="X37" s="115"/>
+      <c r="Y37" s="115"/>
+      <c r="Z37" s="115"/>
+      <c r="AA37" s="103"/>
+      <c r="AB37" s="103"/>
+      <c r="AC37" s="107" t="s">
         <v>542</v>
       </c>
-      <c r="AD37" s="67"/>
-      <c r="AE37" s="66" t="str">
+      <c r="AD37" s="107"/>
+      <c r="AE37" s="113" t="str">
         <f>CONCATENATE(E37,"+",G37,"+",I37,"+",M37,"+",O37,"+",Q37,"+",K37)</f>
         <v>怪物本身防御力+怪物升星附加防御力+装备本身附加防御力+装备进阶附加防御力+装备镶嵌附加防御力+人物装备附加防御力+装备强化附加防御力</v>
       </c>
-      <c r="AF37" s="66"/>
+      <c r="AF37" s="113"/>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
-      <c r="C38" s="72" t="s">
+      <c r="C38" s="119" t="s">
         <v>196</v>
       </c>
-      <c r="D38" s="72"/>
-      <c r="E38" s="73" t="s">
+      <c r="D38" s="119"/>
+      <c r="E38" s="103" t="s">
         <v>204</v>
       </c>
-      <c r="F38" s="73"/>
-      <c r="G38" s="75" t="s">
+      <c r="F38" s="103"/>
+      <c r="G38" s="114" t="s">
         <v>205</v>
       </c>
-      <c r="H38" s="75"/>
-      <c r="I38" s="73" t="s">
+      <c r="H38" s="114"/>
+      <c r="I38" s="103" t="s">
         <v>206</v>
       </c>
-      <c r="J38" s="73"/>
-      <c r="K38" s="51" t="s">
+      <c r="J38" s="103"/>
+      <c r="K38" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51" t="s">
+      <c r="L38" s="50"/>
+      <c r="M38" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="N38" s="51"/>
-      <c r="O38" s="51" t="s">
+      <c r="N38" s="50"/>
+      <c r="O38" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="P38" s="51"/>
-      <c r="Q38" s="50" t="s">
+      <c r="P38" s="50"/>
+      <c r="Q38" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="R38" s="50"/>
-      <c r="S38" s="50" t="s">
+      <c r="R38" s="49"/>
+      <c r="S38" s="49" t="s">
         <v>517</v>
       </c>
-      <c r="T38" s="50"/>
-      <c r="U38" s="74" t="s">
+      <c r="T38" s="49"/>
+      <c r="U38" s="115" t="s">
         <v>516</v>
       </c>
-      <c r="V38" s="74"/>
-      <c r="W38" s="74" t="s">
+      <c r="V38" s="115"/>
+      <c r="W38" s="115" t="s">
         <v>515</v>
       </c>
-      <c r="X38" s="74"/>
-      <c r="Y38" s="74" t="s">
+      <c r="X38" s="115"/>
+      <c r="Y38" s="115" t="s">
         <v>514</v>
       </c>
-      <c r="Z38" s="74"/>
-      <c r="AA38" s="73" t="s">
+      <c r="Z38" s="115"/>
+      <c r="AA38" s="103" t="s">
         <v>513</v>
       </c>
-      <c r="AB38" s="73"/>
-      <c r="AC38" s="67" t="s">
+      <c r="AB38" s="103"/>
+      <c r="AC38" s="107" t="s">
         <v>216</v>
       </c>
-      <c r="AD38" s="67"/>
-      <c r="AE38" s="66" t="str">
+      <c r="AD38" s="107"/>
+      <c r="AE38" s="113" t="str">
         <f>CONCATENATE("(",E38,"+",G38,"+",I38,"+",M38,"+",O38,"+",Q38,"+",K38,")","*","（","1","+",S38,")","*","(","1","+",U38,"+",W38,"+",Y38,"+",AA38,")")</f>
         <v>(怪物本身速度+怪物升星附加速度+装备本身附加速度+装备进阶附加速度+装备镶嵌附加速度+人物装备附加速度+装备强化附加速度)*（1+人物装备套装附加速度百分比)*(1+法阵附加速度百分比+Buff附加速度百分比+队长技附加速度百分比+被动附加速度百分比)</v>
       </c>
-      <c r="AF38" s="66"/>
+      <c r="AF38" s="113"/>
     </row>
     <row r="39" spans="1:32" s="45" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="58"/>
-      <c r="C39" s="72" t="s">
-        <v>720</v>
-      </c>
-      <c r="D39" s="72"/>
-      <c r="E39" s="73" t="s">
+      <c r="A39" s="57"/>
+      <c r="C39" s="119" t="s">
+        <v>719</v>
+      </c>
+      <c r="D39" s="119"/>
+      <c r="E39" s="103" t="s">
         <v>204</v>
       </c>
-      <c r="F39" s="73"/>
-      <c r="G39" s="75" t="s">
+      <c r="F39" s="103"/>
+      <c r="G39" s="114" t="s">
         <v>205</v>
       </c>
-      <c r="H39" s="75"/>
-      <c r="I39" s="73" t="s">
+      <c r="H39" s="114"/>
+      <c r="I39" s="103" t="s">
         <v>206</v>
       </c>
-      <c r="J39" s="73"/>
-      <c r="K39" s="51" t="s">
+      <c r="J39" s="103"/>
+      <c r="K39" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51" t="s">
+      <c r="L39" s="50"/>
+      <c r="M39" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="N39" s="51"/>
-      <c r="O39" s="51" t="s">
+      <c r="N39" s="50"/>
+      <c r="O39" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="P39" s="51"/>
-      <c r="Q39" s="50" t="s">
+      <c r="P39" s="50"/>
+      <c r="Q39" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="R39" s="50"/>
-      <c r="S39" s="78"/>
-      <c r="T39" s="79"/>
-      <c r="U39" s="78"/>
-      <c r="V39" s="79"/>
-      <c r="W39" s="78"/>
-      <c r="X39" s="79"/>
-      <c r="Y39" s="78"/>
-      <c r="Z39" s="79"/>
-      <c r="AA39" s="76"/>
-      <c r="AB39" s="77"/>
-      <c r="AC39" s="67" t="s">
+      <c r="R39" s="49"/>
+      <c r="S39" s="129"/>
+      <c r="T39" s="130"/>
+      <c r="U39" s="129"/>
+      <c r="V39" s="130"/>
+      <c r="W39" s="129"/>
+      <c r="X39" s="130"/>
+      <c r="Y39" s="129"/>
+      <c r="Z39" s="130"/>
+      <c r="AA39" s="127"/>
+      <c r="AB39" s="128"/>
+      <c r="AC39" s="107" t="s">
         <v>542</v>
       </c>
-      <c r="AD39" s="67"/>
-      <c r="AE39" s="66" t="str">
+      <c r="AD39" s="107"/>
+      <c r="AE39" s="113" t="str">
         <f>CONCATENATE(E39,"+",G39,"+",I39,"+",M39,"+",O39,"+",Q39,"+",K39)</f>
         <v>怪物本身速度+怪物升星附加速度+装备本身附加速度+装备进阶附加速度+装备镶嵌附加速度+人物装备附加速度+装备强化附加速度</v>
       </c>
-      <c r="AF39" s="66"/>
+      <c r="AF39" s="113"/>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C40" s="72" t="s">
+      <c r="C40" s="119" t="s">
         <v>217</v>
       </c>
-      <c r="D40" s="72"/>
-      <c r="E40" s="73" t="s">
+      <c r="D40" s="119"/>
+      <c r="E40" s="103" t="s">
         <v>230</v>
       </c>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73" t="s">
+      <c r="F40" s="103"/>
+      <c r="G40" s="103" t="s">
         <v>522</v>
       </c>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="73"/>
-      <c r="K40" s="80"/>
-      <c r="L40" s="80"/>
-      <c r="M40" s="80"/>
-      <c r="N40" s="80"/>
-      <c r="O40" s="80"/>
-      <c r="P40" s="80"/>
-      <c r="Q40" s="81"/>
-      <c r="R40" s="81"/>
-      <c r="S40" s="81"/>
-      <c r="T40" s="81"/>
-      <c r="U40" s="74"/>
-      <c r="V40" s="74"/>
-      <c r="W40" s="74"/>
-      <c r="X40" s="74"/>
-      <c r="Y40" s="74"/>
-      <c r="Z40" s="74"/>
-      <c r="AA40" s="73"/>
-      <c r="AB40" s="73"/>
-      <c r="AC40" s="67" t="s">
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="103"/>
+      <c r="K40" s="122"/>
+      <c r="L40" s="122"/>
+      <c r="M40" s="122"/>
+      <c r="N40" s="122"/>
+      <c r="O40" s="122"/>
+      <c r="P40" s="122"/>
+      <c r="Q40" s="112"/>
+      <c r="R40" s="112"/>
+      <c r="S40" s="112"/>
+      <c r="T40" s="112"/>
+      <c r="U40" s="115"/>
+      <c r="V40" s="115"/>
+      <c r="W40" s="115"/>
+      <c r="X40" s="115"/>
+      <c r="Y40" s="115"/>
+      <c r="Z40" s="115"/>
+      <c r="AA40" s="103"/>
+      <c r="AB40" s="103"/>
+      <c r="AC40" s="107" t="s">
         <v>492</v>
       </c>
-      <c r="AD40" s="67"/>
-      <c r="AE40" s="66" t="str">
+      <c r="AD40" s="107"/>
+      <c r="AE40" s="113" t="str">
         <f>CONCATENATE(E40,"*","（",1,"+",G40,")")</f>
         <v>怪物本身耐力*（1+被动附加耐力百分比)</v>
       </c>
-      <c r="AF40" s="66"/>
+      <c r="AF40" s="113"/>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C41" s="72" t="s">
+      <c r="C41" s="119" t="s">
         <v>220</v>
       </c>
-      <c r="D41" s="72"/>
-      <c r="E41" s="73" t="s">
+      <c r="D41" s="119"/>
+      <c r="E41" s="103" t="s">
         <v>221</v>
       </c>
-      <c r="F41" s="73"/>
-      <c r="G41" s="75" t="s">
+      <c r="F41" s="103"/>
+      <c r="G41" s="114" t="s">
         <v>222</v>
       </c>
-      <c r="H41" s="75"/>
-      <c r="I41" s="73" t="s">
+      <c r="H41" s="114"/>
+      <c r="I41" s="103" t="s">
         <v>223</v>
       </c>
-      <c r="J41" s="73"/>
-      <c r="K41" s="51" t="s">
+      <c r="J41" s="103"/>
+      <c r="K41" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51" t="s">
+      <c r="L41" s="50"/>
+      <c r="M41" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="N41" s="51"/>
-      <c r="O41" s="51" t="s">
+      <c r="N41" s="50"/>
+      <c r="O41" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="P41" s="51"/>
-      <c r="Q41" s="50" t="s">
+      <c r="P41" s="50"/>
+      <c r="Q41" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="R41" s="50"/>
-      <c r="S41" s="50" t="s">
+      <c r="R41" s="49"/>
+      <c r="S41" s="49" t="s">
         <v>518</v>
       </c>
-      <c r="T41" s="50"/>
-      <c r="U41" s="74" t="s">
+      <c r="T41" s="49"/>
+      <c r="U41" s="115" t="s">
         <v>519</v>
       </c>
-      <c r="V41" s="74"/>
-      <c r="W41" s="74" t="s">
+      <c r="V41" s="115"/>
+      <c r="W41" s="115" t="s">
         <v>520</v>
       </c>
-      <c r="X41" s="74"/>
-      <c r="Y41" s="73" t="s">
+      <c r="X41" s="115"/>
+      <c r="Y41" s="103" t="s">
         <v>521</v>
       </c>
-      <c r="Z41" s="73"/>
-      <c r="AA41" s="73"/>
-      <c r="AB41" s="73"/>
-      <c r="AC41" s="67" t="s">
+      <c r="Z41" s="103"/>
+      <c r="AA41" s="103"/>
+      <c r="AB41" s="103"/>
+      <c r="AC41" s="107" t="s">
         <v>195</v>
       </c>
-      <c r="AD41" s="67"/>
-      <c r="AE41" s="66" t="str">
+      <c r="AD41" s="107"/>
+      <c r="AE41" s="113" t="str">
         <f>CONCATENATE("(",E41,"+",G41,"+",I41,"+",M41,"+",O41,"+",Q41,"+",K41,")","*","（","1","+",S41,")","*","(","1","+",U41,"+",W41,"+",Y41,")")</f>
         <v>(怪物本身体力+怪物升星附加体力+装备本身附加体力+装备进阶附加体力+装备镶嵌附加体力+人物装备附加体力+装备强化附加体力)*（1+人物装备套装附加体力百分比)*(1+法阵附加体力百分比+队长技附加体力百分比+被动附加体力百分比)</v>
       </c>
-      <c r="AF41" s="66"/>
+      <c r="AF41" s="113"/>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C42" s="72" t="s">
-        <v>721</v>
-      </c>
-      <c r="D42" s="72"/>
-      <c r="E42" s="73" t="s">
+      <c r="C42" s="119" t="s">
+        <v>720</v>
+      </c>
+      <c r="D42" s="119"/>
+      <c r="E42" s="103" t="s">
         <v>221</v>
       </c>
-      <c r="F42" s="73"/>
-      <c r="G42" s="75" t="s">
+      <c r="F42" s="103"/>
+      <c r="G42" s="114" t="s">
         <v>222</v>
       </c>
-      <c r="H42" s="75"/>
-      <c r="I42" s="73" t="s">
+      <c r="H42" s="114"/>
+      <c r="I42" s="103" t="s">
         <v>223</v>
       </c>
-      <c r="J42" s="73"/>
-      <c r="K42" s="51" t="s">
+      <c r="J42" s="103"/>
+      <c r="K42" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51" t="s">
+      <c r="L42" s="50"/>
+      <c r="M42" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="N42" s="51"/>
-      <c r="O42" s="51" t="s">
+      <c r="N42" s="50"/>
+      <c r="O42" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="P42" s="51"/>
-      <c r="Q42" s="50" t="s">
+      <c r="P42" s="50"/>
+      <c r="Q42" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="R42" s="50"/>
-      <c r="S42" s="70"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="70"/>
-      <c r="V42" s="71"/>
-      <c r="W42" s="70"/>
-      <c r="X42" s="71"/>
-      <c r="Y42" s="68"/>
-      <c r="Z42" s="69"/>
-      <c r="AA42" s="68"/>
-      <c r="AB42" s="69"/>
-      <c r="AC42" s="67" t="s">
+      <c r="R42" s="49"/>
+      <c r="S42" s="120"/>
+      <c r="T42" s="121"/>
+      <c r="U42" s="120"/>
+      <c r="V42" s="121"/>
+      <c r="W42" s="120"/>
+      <c r="X42" s="121"/>
+      <c r="Y42" s="125"/>
+      <c r="Z42" s="126"/>
+      <c r="AA42" s="125"/>
+      <c r="AB42" s="126"/>
+      <c r="AC42" s="107" t="s">
         <v>542</v>
       </c>
-      <c r="AD42" s="67"/>
-      <c r="AE42" s="66" t="str">
+      <c r="AD42" s="107"/>
+      <c r="AE42" s="113" t="str">
         <f>CONCATENATE(E42,"+",G42,"+",I42,"+",M42,"+",O42,"+",Q42,"+",K42)</f>
         <v>怪物本身体力+怪物升星附加体力+装备本身附加体力+装备进阶附加体力+装备镶嵌附加体力+人物装备附加体力+装备强化附加体力</v>
       </c>
-      <c r="AF42" s="66"/>
+      <c r="AF42" s="113"/>
     </row>
     <row r="43" spans="1:32" s="45" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C43" s="82" t="s">
+      <c r="C43" s="123" t="s">
         <v>461</v>
       </c>
-      <c r="D43" s="82"/>
-      <c r="E43" s="73" t="s">
+      <c r="D43" s="123"/>
+      <c r="E43" s="103" t="s">
         <v>462</v>
       </c>
-      <c r="F43" s="73"/>
-      <c r="G43" s="75" t="s">
+      <c r="F43" s="103"/>
+      <c r="G43" s="114" t="s">
         <v>463</v>
       </c>
-      <c r="H43" s="75"/>
-      <c r="I43" s="73" t="s">
+      <c r="H43" s="114"/>
+      <c r="I43" s="103" t="s">
         <v>464</v>
       </c>
-      <c r="J43" s="73"/>
-      <c r="K43" s="83"/>
-      <c r="L43" s="83"/>
-      <c r="M43" s="73"/>
-      <c r="N43" s="73"/>
-      <c r="O43" s="83"/>
-      <c r="P43" s="83"/>
-      <c r="Q43" s="74"/>
-      <c r="R43" s="74"/>
-      <c r="S43" s="74"/>
-      <c r="T43" s="74"/>
-      <c r="U43" s="74"/>
-      <c r="V43" s="74"/>
-      <c r="W43" s="74"/>
-      <c r="X43" s="74"/>
-      <c r="Y43" s="83"/>
-      <c r="Z43" s="83"/>
-      <c r="AA43" s="83"/>
-      <c r="AB43" s="83"/>
-      <c r="AC43" s="67" t="s">
+      <c r="J43" s="103"/>
+      <c r="K43" s="124"/>
+      <c r="L43" s="124"/>
+      <c r="M43" s="103"/>
+      <c r="N43" s="103"/>
+      <c r="O43" s="124"/>
+      <c r="P43" s="124"/>
+      <c r="Q43" s="115"/>
+      <c r="R43" s="115"/>
+      <c r="S43" s="115"/>
+      <c r="T43" s="115"/>
+      <c r="U43" s="115"/>
+      <c r="V43" s="115"/>
+      <c r="W43" s="115"/>
+      <c r="X43" s="115"/>
+      <c r="Y43" s="124"/>
+      <c r="Z43" s="124"/>
+      <c r="AA43" s="124"/>
+      <c r="AB43" s="124"/>
+      <c r="AC43" s="107" t="s">
         <v>465</v>
       </c>
-      <c r="AD43" s="67"/>
-      <c r="AE43" s="66" t="str">
+      <c r="AD43" s="107"/>
+      <c r="AE43" s="113" t="str">
         <f>CONCATENATE(E43,"+",G43,"+",I43)</f>
         <v>怪物本身生命回复+怪物升星附加生命回复+装备进阶附加生命回复</v>
       </c>
-      <c r="AF43" s="66"/>
+      <c r="AF43" s="113"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C44" s="72" t="s">
+      <c r="C44" s="119" t="s">
         <v>232</v>
       </c>
-      <c r="D44" s="72"/>
-      <c r="E44" s="50" t="s">
+      <c r="D44" s="119"/>
+      <c r="E44" s="49" t="s">
         <v>524</v>
       </c>
-      <c r="F44" s="50"/>
-      <c r="G44" s="74" t="s">
+      <c r="F44" s="49"/>
+      <c r="G44" s="115" t="s">
         <v>525</v>
       </c>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74" t="s">
+      <c r="H44" s="115"/>
+      <c r="I44" s="115" t="s">
         <v>526</v>
       </c>
-      <c r="J44" s="74"/>
-      <c r="K44" s="73" t="s">
+      <c r="J44" s="115"/>
+      <c r="K44" s="103" t="s">
         <v>527</v>
       </c>
-      <c r="L44" s="73"/>
-      <c r="M44" s="80"/>
-      <c r="N44" s="80"/>
-      <c r="O44" s="80"/>
-      <c r="P44" s="80"/>
-      <c r="Q44" s="81"/>
-      <c r="R44" s="81"/>
-      <c r="S44" s="81"/>
-      <c r="T44" s="81"/>
-      <c r="U44" s="74"/>
-      <c r="V44" s="74"/>
-      <c r="W44" s="74"/>
-      <c r="X44" s="74"/>
-      <c r="Y44" s="73"/>
-      <c r="Z44" s="73"/>
-      <c r="AA44" s="73"/>
-      <c r="AB44" s="73"/>
-      <c r="AC44" s="67" t="s">
+      <c r="L44" s="103"/>
+      <c r="M44" s="122"/>
+      <c r="N44" s="122"/>
+      <c r="O44" s="122"/>
+      <c r="P44" s="122"/>
+      <c r="Q44" s="112"/>
+      <c r="R44" s="112"/>
+      <c r="S44" s="112"/>
+      <c r="T44" s="112"/>
+      <c r="U44" s="115"/>
+      <c r="V44" s="115"/>
+      <c r="W44" s="115"/>
+      <c r="X44" s="115"/>
+      <c r="Y44" s="103"/>
+      <c r="Z44" s="103"/>
+      <c r="AA44" s="103"/>
+      <c r="AB44" s="103"/>
+      <c r="AC44" s="107" t="s">
         <v>233</v>
       </c>
-      <c r="AD44" s="67"/>
-      <c r="AE44" s="66" t="str">
+      <c r="AD44" s="107"/>
+      <c r="AE44" s="113" t="str">
         <f>CONCATENATE(E44,"+",G44,"+",I44,"+",K44)</f>
         <v>人物装备套装附加五行加成百分比+法阵附加五行加成百分比+队长技附加五行加成百分比+被动附加五行加成百分比</v>
       </c>
-      <c r="AF44" s="66"/>
+      <c r="AF44" s="113"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.15">
       <c r="D45" s="6"/>
@@ -21628,16 +22121,16 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
@@ -21713,21 +22206,153 @@
     <row r="90" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="186">
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AC42:AD42"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="AE39:AF39"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="Y38:Z38"/>
+    <mergeCell ref="AA38:AB38"/>
+    <mergeCell ref="AC38:AD38"/>
+    <mergeCell ref="AE38:AF38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="AC39:AD39"/>
+    <mergeCell ref="AA39:AB39"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="AC44:AD44"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="AC43:AD43"/>
+    <mergeCell ref="AA43:AB43"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="AC41:AD41"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="AC40:AD40"/>
+    <mergeCell ref="AE40:AF40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="AA41:AB41"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="AA44:AB44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="Y40:Z40"/>
+    <mergeCell ref="AA40:AB40"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="AA32:AB32"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="AC32:AD32"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AE37:AF37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="AC36:AD36"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="AA35:AB35"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AA37:AB37"/>
     <mergeCell ref="AC29:AD29"/>
     <mergeCell ref="AE29:AF29"/>
     <mergeCell ref="E33:F33"/>
@@ -21752,153 +22377,21 @@
     <mergeCell ref="Y33:Z33"/>
     <mergeCell ref="Q28:R28"/>
     <mergeCell ref="S28:T28"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="AE37:AF37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="AC36:AD36"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="AA35:AB35"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AA37:AB37"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="AA32:AB32"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="AC32:AD32"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="Y40:Z40"/>
-    <mergeCell ref="AA40:AB40"/>
-    <mergeCell ref="Y37:Z37"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="AA41:AB41"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="AA44:AB44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="AC41:AD41"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="AC40:AD40"/>
-    <mergeCell ref="AE40:AF40"/>
-    <mergeCell ref="AC44:AD44"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="AC43:AD43"/>
-    <mergeCell ref="AA43:AB43"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AC42:AD42"/>
-    <mergeCell ref="AA42:AB42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="AE39:AF39"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="Y38:Z38"/>
-    <mergeCell ref="AA38:AB38"/>
-    <mergeCell ref="AC38:AD38"/>
-    <mergeCell ref="AE38:AF38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="AC39:AD39"/>
-    <mergeCell ref="AA39:AB39"/>
-    <mergeCell ref="Y39:Z39"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="I34:J34"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21908,10 +22401,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK65"/>
+  <dimension ref="A1:BL71"/>
   <sheetViews>
-    <sheetView topLeftCell="S10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA21" sqref="AA21:AC21"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AS46" sqref="B28:BH49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -21929,7 +22422,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C1" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -21947,10 +22440,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E4" s="11"/>
     </row>
@@ -21998,7 +22491,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D13" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
@@ -22008,10 +22501,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B15" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -22026,1611 +22519,1776 @@
         <v>549</v>
       </c>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.15">
       <c r="F17" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="18" spans="1:57" x14ac:dyDescent="0.15">
+      <c r="C18" s="60" t="s">
+        <v>817</v>
+      </c>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+    </row>
+    <row r="19" spans="1:57" x14ac:dyDescent="0.15">
+      <c r="C19" s="60"/>
+      <c r="D19" s="60" t="s">
+        <v>818</v>
+      </c>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+    </row>
+    <row r="20" spans="1:57" x14ac:dyDescent="0.15">
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60" t="s">
+        <v>547</v>
+      </c>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+    </row>
+    <row r="21" spans="1:57" x14ac:dyDescent="0.15">
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60" t="s">
+        <v>820</v>
+      </c>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+    </row>
+    <row r="22" spans="1:57" x14ac:dyDescent="0.15">
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60" t="s">
+        <v>549</v>
+      </c>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+    </row>
+    <row r="23" spans="1:57" x14ac:dyDescent="0.15">
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60" t="s">
+        <v>824</v>
+      </c>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+    </row>
+    <row r="25" spans="1:57" x14ac:dyDescent="0.15">
+      <c r="C25" s="9" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.15">
-      <c r="C19" s="9" t="s">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.15">
+      <c r="A27" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="47" t="s">
+        <v>579</v>
+      </c>
+      <c r="C28" s="131" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="132"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="137" t="s">
+        <v>685</v>
+      </c>
+      <c r="G28" s="137"/>
+      <c r="H28" s="137"/>
+      <c r="I28" s="133" t="s">
+        <v>78</v>
+      </c>
+      <c r="J28" s="137" t="s">
+        <v>682</v>
+      </c>
+      <c r="K28" s="137"/>
+      <c r="L28" s="137"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="133" t="s">
+        <v>78</v>
+      </c>
+      <c r="O28" s="139" t="s">
+        <v>681</v>
+      </c>
+      <c r="P28" s="139"/>
+      <c r="Q28" s="139"/>
+      <c r="R28" s="133" t="s">
+        <v>78</v>
+      </c>
+      <c r="S28" s="133" t="s">
+        <v>683</v>
+      </c>
+      <c r="T28" s="133"/>
+      <c r="U28" s="133"/>
+      <c r="V28" s="133" t="s">
+        <v>96</v>
+      </c>
+      <c r="W28" s="133" t="s">
+        <v>585</v>
+      </c>
+      <c r="X28" s="133"/>
+      <c r="Y28" s="133"/>
+      <c r="Z28" s="136" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA28" s="136" t="s">
+        <v>728</v>
+      </c>
+      <c r="AB28" s="136"/>
+      <c r="AC28" s="136"/>
+      <c r="AD28" s="140" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE28" s="140">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="140"/>
+      <c r="AG28" s="140"/>
+      <c r="AH28" s="140" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI28" s="140" t="s">
+        <v>528</v>
+      </c>
+      <c r="AJ28" s="140"/>
+      <c r="AK28" s="140"/>
+      <c r="AL28" s="140" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM28" s="140" t="s">
+        <v>529</v>
+      </c>
+      <c r="AN28" s="140"/>
+      <c r="AO28" s="140"/>
+      <c r="AP28" s="140" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ28" s="140" t="s">
+        <v>530</v>
+      </c>
+      <c r="AR28" s="140"/>
+      <c r="AS28" s="140"/>
+      <c r="AT28" s="140" t="s">
+        <v>213</v>
+      </c>
+      <c r="AU28" s="140" t="s">
+        <v>531</v>
+      </c>
+      <c r="AV28" s="140"/>
+      <c r="AW28" s="140"/>
+      <c r="AX28" s="146" t="s">
+        <v>815</v>
+      </c>
+      <c r="AY28" s="146" t="s">
+        <v>816</v>
+      </c>
+      <c r="AZ28" s="146"/>
+      <c r="BA28" s="146"/>
+      <c r="BB28" s="147" t="s">
+        <v>815</v>
+      </c>
+      <c r="BC28" s="147" t="s">
+        <v>821</v>
+      </c>
+      <c r="BD28" s="147"/>
+      <c r="BE28" s="147"/>
+    </row>
+    <row r="29" spans="1:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="133"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="137"/>
+      <c r="L29" s="137"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="133"/>
+      <c r="O29" s="139"/>
+      <c r="P29" s="139"/>
+      <c r="Q29" s="139"/>
+      <c r="R29" s="133"/>
+      <c r="S29" s="133"/>
+      <c r="T29" s="133"/>
+      <c r="U29" s="133"/>
+      <c r="V29" s="133"/>
+      <c r="W29" s="133"/>
+      <c r="X29" s="133"/>
+      <c r="Y29" s="133"/>
+      <c r="Z29" s="136"/>
+      <c r="AA29" s="136"/>
+      <c r="AB29" s="136"/>
+      <c r="AC29" s="136"/>
+      <c r="AD29" s="140"/>
+      <c r="AE29" s="140"/>
+      <c r="AF29" s="140"/>
+      <c r="AG29" s="140"/>
+      <c r="AH29" s="140"/>
+      <c r="AI29" s="140"/>
+      <c r="AJ29" s="140"/>
+      <c r="AK29" s="140"/>
+      <c r="AL29" s="140"/>
+      <c r="AM29" s="140"/>
+      <c r="AN29" s="140"/>
+      <c r="AO29" s="140"/>
+      <c r="AP29" s="140"/>
+      <c r="AQ29" s="140"/>
+      <c r="AR29" s="140"/>
+      <c r="AS29" s="140"/>
+      <c r="AT29" s="140"/>
+      <c r="AU29" s="140"/>
+      <c r="AV29" s="140"/>
+      <c r="AW29" s="140"/>
+      <c r="AX29" s="146"/>
+      <c r="AY29" s="146"/>
+      <c r="AZ29" s="146"/>
+      <c r="BA29" s="146"/>
+      <c r="BB29" s="147"/>
+      <c r="BC29" s="147"/>
+      <c r="BD29" s="147"/>
+      <c r="BE29" s="147"/>
+    </row>
+    <row r="30" spans="1:57" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="132"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="133"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="137"/>
+      <c r="L30" s="137"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="133"/>
+      <c r="O30" s="139"/>
+      <c r="P30" s="139"/>
+      <c r="Q30" s="139"/>
+      <c r="R30" s="133"/>
+      <c r="S30" s="133"/>
+      <c r="T30" s="133"/>
+      <c r="U30" s="133"/>
+      <c r="V30" s="133"/>
+      <c r="W30" s="133"/>
+      <c r="X30" s="133"/>
+      <c r="Y30" s="133"/>
+      <c r="Z30" s="136"/>
+      <c r="AA30" s="136"/>
+      <c r="AB30" s="136"/>
+      <c r="AC30" s="136"/>
+      <c r="AD30" s="140"/>
+      <c r="AE30" s="140"/>
+      <c r="AF30" s="140"/>
+      <c r="AG30" s="140"/>
+      <c r="AH30" s="140"/>
+      <c r="AI30" s="140"/>
+      <c r="AJ30" s="140"/>
+      <c r="AK30" s="140"/>
+      <c r="AL30" s="140"/>
+      <c r="AM30" s="140"/>
+      <c r="AN30" s="140"/>
+      <c r="AO30" s="140"/>
+      <c r="AP30" s="140"/>
+      <c r="AQ30" s="140"/>
+      <c r="AR30" s="140"/>
+      <c r="AS30" s="140"/>
+      <c r="AT30" s="140"/>
+      <c r="AU30" s="140"/>
+      <c r="AV30" s="140"/>
+      <c r="AW30" s="140"/>
+      <c r="AX30" s="146"/>
+      <c r="AY30" s="146"/>
+      <c r="AZ30" s="146"/>
+      <c r="BA30" s="146"/>
+      <c r="BB30" s="147"/>
+      <c r="BC30" s="147"/>
+      <c r="BD30" s="147"/>
+      <c r="BE30" s="147"/>
+    </row>
+    <row r="31" spans="1:57" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="C31" s="132"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="137"/>
+      <c r="I31" s="133"/>
+      <c r="J31" s="137"/>
+      <c r="K31" s="137"/>
+      <c r="L31" s="137"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="133"/>
+      <c r="O31" s="139"/>
+      <c r="P31" s="139"/>
+      <c r="Q31" s="139"/>
+      <c r="R31" s="133"/>
+      <c r="S31" s="133"/>
+      <c r="T31" s="133"/>
+      <c r="U31" s="133"/>
+      <c r="V31" s="133"/>
+      <c r="W31" s="133"/>
+      <c r="X31" s="133"/>
+      <c r="Y31" s="133"/>
+      <c r="Z31" s="136"/>
+      <c r="AA31" s="136"/>
+      <c r="AB31" s="136"/>
+      <c r="AC31" s="136"/>
+      <c r="AD31" s="140"/>
+      <c r="AE31" s="140"/>
+      <c r="AF31" s="140"/>
+      <c r="AG31" s="140"/>
+      <c r="AH31" s="140"/>
+      <c r="AI31" s="140"/>
+      <c r="AJ31" s="140"/>
+      <c r="AK31" s="140"/>
+      <c r="AL31" s="140"/>
+      <c r="AM31" s="140"/>
+      <c r="AN31" s="140"/>
+      <c r="AO31" s="140"/>
+      <c r="AP31" s="140"/>
+      <c r="AQ31" s="140"/>
+      <c r="AR31" s="140"/>
+      <c r="AS31" s="140"/>
+      <c r="AT31" s="140"/>
+      <c r="AU31" s="140"/>
+      <c r="AV31" s="140"/>
+      <c r="AW31" s="140"/>
+      <c r="AX31" s="146"/>
+      <c r="AY31" s="146"/>
+      <c r="AZ31" s="146"/>
+      <c r="BA31" s="146"/>
+      <c r="BB31" s="147"/>
+      <c r="BC31" s="147"/>
+      <c r="BD31" s="147"/>
+      <c r="BE31" s="147"/>
+    </row>
+    <row r="32" spans="1:57" x14ac:dyDescent="0.15">
+      <c r="A32" s="3"/>
+      <c r="F32" s="133" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.15">
-      <c r="A21" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:60" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="48" t="s">
-        <v>580</v>
-      </c>
-      <c r="C22" s="100" t="s">
+      <c r="G32" s="133"/>
+      <c r="H32" s="133"/>
+      <c r="I32" s="133"/>
+      <c r="J32" s="133" t="s">
+        <v>79</v>
+      </c>
+      <c r="K32" s="133"/>
+      <c r="L32" s="133"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="133"/>
+      <c r="O32" s="135" t="s">
+        <v>80</v>
+      </c>
+      <c r="P32" s="135"/>
+      <c r="Q32" s="135"/>
+      <c r="R32" s="133"/>
+      <c r="S32" s="133" t="s">
+        <v>100</v>
+      </c>
+      <c r="T32" s="133"/>
+      <c r="U32" s="133"/>
+      <c r="V32" s="133"/>
+      <c r="W32" s="133" t="s">
+        <v>101</v>
+      </c>
+      <c r="X32" s="133"/>
+      <c r="Y32" s="133"/>
+      <c r="Z32" s="136"/>
+      <c r="AA32" s="136" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB32" s="136"/>
+      <c r="AC32" s="136"/>
+      <c r="AD32" s="140"/>
+      <c r="AE32" s="140"/>
+      <c r="AF32" s="140"/>
+      <c r="AG32" s="140"/>
+      <c r="AH32" s="140"/>
+      <c r="AI32" s="140" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ32" s="140"/>
+      <c r="AK32" s="140"/>
+      <c r="AL32" s="140"/>
+      <c r="AM32" s="144" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN32" s="144"/>
+      <c r="AO32" s="144"/>
+      <c r="AP32" s="140"/>
+      <c r="AQ32" s="140" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR32" s="140"/>
+      <c r="AS32" s="140"/>
+      <c r="AT32" s="140"/>
+      <c r="AU32" s="143" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV32" s="143"/>
+      <c r="AW32" s="143"/>
+      <c r="AX32" s="146"/>
+      <c r="AY32" s="146"/>
+      <c r="AZ32" s="146"/>
+      <c r="BA32" s="146"/>
+      <c r="BB32" s="147"/>
+      <c r="BC32" s="147"/>
+      <c r="BD32" s="147"/>
+      <c r="BE32" s="147"/>
+    </row>
+    <row r="33" spans="1:64" x14ac:dyDescent="0.15">
+      <c r="F33" s="133" t="s">
+        <v>146</v>
+      </c>
+      <c r="G33" s="133"/>
+      <c r="H33" s="133"/>
+      <c r="I33" s="133"/>
+      <c r="J33" s="133"/>
+      <c r="K33" s="133"/>
+      <c r="L33" s="133"/>
+      <c r="M33" s="133"/>
+      <c r="N33" s="133"/>
+      <c r="O33" s="133"/>
+      <c r="P33" s="133"/>
+      <c r="Q33" s="133"/>
+      <c r="R33" s="133"/>
+      <c r="S33" s="133"/>
+      <c r="T33" s="133"/>
+      <c r="U33" s="133"/>
+      <c r="V33" s="133"/>
+      <c r="W33" s="133"/>
+      <c r="X33" s="133"/>
+      <c r="Y33" s="133"/>
+      <c r="Z33" s="134" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA33" s="134"/>
+      <c r="AB33" s="134"/>
+      <c r="AC33" s="134"/>
+      <c r="AD33" s="143" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE33" s="143"/>
+      <c r="AF33" s="143"/>
+      <c r="AG33" s="143"/>
+      <c r="AH33" s="143"/>
+      <c r="AI33" s="143"/>
+      <c r="AJ33" s="143"/>
+      <c r="AK33" s="143"/>
+      <c r="AL33" s="143"/>
+      <c r="AM33" s="143"/>
+      <c r="AN33" s="143"/>
+      <c r="AO33" s="143"/>
+      <c r="AP33" s="143"/>
+      <c r="AQ33" s="143"/>
+      <c r="AR33" s="143"/>
+      <c r="AS33" s="143"/>
+      <c r="AT33" s="143"/>
+      <c r="AU33" s="143"/>
+      <c r="AV33" s="143"/>
+      <c r="AW33" s="143"/>
+      <c r="AX33" s="146" t="s">
+        <v>453</v>
+      </c>
+      <c r="AY33" s="146"/>
+      <c r="AZ33" s="146"/>
+      <c r="BA33" s="146"/>
+      <c r="BB33" s="147" t="s">
+        <v>822</v>
+      </c>
+      <c r="BC33" s="147"/>
+      <c r="BD33" s="147"/>
+      <c r="BE33" s="147"/>
+      <c r="BF33" s="17"/>
+    </row>
+    <row r="34" spans="1:64" x14ac:dyDescent="0.15">
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13"/>
+      <c r="AA34" s="13"/>
+      <c r="AB34" s="13"/>
+      <c r="AC34" s="13"/>
+      <c r="AD34" s="13"/>
+      <c r="AE34" s="13"/>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="13"/>
+      <c r="AI34" s="13"/>
+      <c r="AJ34" s="13"/>
+      <c r="AK34" s="13"/>
+      <c r="AL34" s="13"/>
+      <c r="AM34" s="4"/>
+      <c r="AS34" s="4"/>
+      <c r="AT34" s="4"/>
+      <c r="AU34" s="4"/>
+    </row>
+    <row r="35" spans="1:64" x14ac:dyDescent="0.15">
+      <c r="C35" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:64" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="48" t="s">
+        <v>642</v>
+      </c>
+      <c r="C36" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="102" t="s">
+      <c r="D36" s="132"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="137" t="s">
         <v>686</v>
       </c>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="103" t="s">
+      <c r="G36" s="133"/>
+      <c r="H36" s="133"/>
+      <c r="I36" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="J22" s="102" t="s">
-        <v>683</v>
-      </c>
-      <c r="K22" s="102"/>
-      <c r="L22" s="102"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="103" t="s">
+      <c r="J36" s="137" t="s">
+        <v>592</v>
+      </c>
+      <c r="K36" s="133"/>
+      <c r="L36" s="133"/>
+      <c r="M36" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="O22" s="104" t="s">
-        <v>682</v>
-      </c>
-      <c r="P22" s="104"/>
-      <c r="Q22" s="104"/>
-      <c r="R22" s="103" t="s">
+      <c r="N36" s="137" t="s">
+        <v>117</v>
+      </c>
+      <c r="O36" s="133"/>
+      <c r="P36" s="133"/>
+      <c r="Q36" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="S22" s="103" t="s">
-        <v>684</v>
-      </c>
-      <c r="T22" s="103"/>
-      <c r="U22" s="103"/>
-      <c r="V22" s="103" t="s">
+      <c r="R36" s="133" t="s">
+        <v>537</v>
+      </c>
+      <c r="S36" s="133"/>
+      <c r="T36" s="133"/>
+      <c r="U36" s="133" t="s">
         <v>96</v>
       </c>
-      <c r="W22" s="103" t="s">
-        <v>586</v>
-      </c>
-      <c r="X22" s="103"/>
-      <c r="Y22" s="103"/>
-      <c r="Z22" s="106" t="s">
+      <c r="V36" s="133" t="s">
+        <v>523</v>
+      </c>
+      <c r="W36" s="133"/>
+      <c r="X36" s="133"/>
+      <c r="Y36" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="AA22" s="106" t="s">
-        <v>729</v>
-      </c>
-      <c r="AB22" s="106"/>
-      <c r="AC22" s="106"/>
-      <c r="AD22" s="97" t="s">
+      <c r="Z36" s="136" t="s">
+        <v>727</v>
+      </c>
+      <c r="AA36" s="136"/>
+      <c r="AB36" s="136"/>
+      <c r="AC36" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="AE22" s="97">
+      <c r="AD36" s="142" t="s">
+        <v>692</v>
+      </c>
+      <c r="AE36" s="143"/>
+      <c r="AF36" s="143"/>
+      <c r="AG36" s="140" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH36" s="141" t="s">
+        <v>690</v>
+      </c>
+      <c r="AI36" s="140"/>
+      <c r="AJ36" s="140"/>
+      <c r="AK36" s="140" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL36" s="140">
         <v>1</v>
       </c>
-      <c r="AF22" s="97"/>
-      <c r="AG22" s="97"/>
-      <c r="AH22" s="97" t="s">
+      <c r="AM36" s="140"/>
+      <c r="AN36" s="140"/>
+      <c r="AO36" s="140" t="s">
         <v>96</v>
       </c>
-      <c r="AI22" s="97" t="s">
-        <v>528</v>
-      </c>
-      <c r="AJ22" s="97"/>
-      <c r="AK22" s="97"/>
-      <c r="AL22" s="97" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM22" s="97" t="s">
-        <v>529</v>
-      </c>
-      <c r="AN22" s="97"/>
-      <c r="AO22" s="97"/>
-      <c r="AP22" s="97" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ22" s="97" t="s">
-        <v>530</v>
-      </c>
-      <c r="AR22" s="97"/>
-      <c r="AS22" s="97"/>
-      <c r="AT22" s="97" t="s">
-        <v>213</v>
-      </c>
-      <c r="AU22" s="97" t="s">
+      <c r="AP36" s="140" t="s">
+        <v>536</v>
+      </c>
+      <c r="AQ36" s="140"/>
+      <c r="AR36" s="140"/>
+      <c r="AS36" s="140" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT36" s="140" t="s">
+        <v>535</v>
+      </c>
+      <c r="AU36" s="140"/>
+      <c r="AV36" s="140"/>
+      <c r="AW36" s="140" t="s">
+        <v>149</v>
+      </c>
+      <c r="AX36" s="140" t="s">
+        <v>534</v>
+      </c>
+      <c r="AY36" s="140"/>
+      <c r="AZ36" s="140"/>
+      <c r="BA36" s="140" t="s">
+        <v>214</v>
+      </c>
+      <c r="BB36" s="140" t="s">
+        <v>533</v>
+      </c>
+      <c r="BC36" s="140"/>
+      <c r="BD36" s="140"/>
+      <c r="BE36" s="146" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF36" s="146" t="s">
+        <v>532</v>
+      </c>
+      <c r="BG36" s="146"/>
+      <c r="BH36" s="146"/>
+      <c r="BI36" s="147" t="s">
+        <v>815</v>
+      </c>
+      <c r="BJ36" s="147" t="s">
+        <v>821</v>
+      </c>
+      <c r="BK36" s="147"/>
+      <c r="BL36" s="147"/>
+    </row>
+    <row r="37" spans="1:64" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="3"/>
+      <c r="C37" s="132"/>
+      <c r="D37" s="132"/>
+      <c r="E37" s="132"/>
+      <c r="F37" s="133"/>
+      <c r="G37" s="133"/>
+      <c r="H37" s="133"/>
+      <c r="I37" s="133"/>
+      <c r="J37" s="133"/>
+      <c r="K37" s="133"/>
+      <c r="L37" s="133"/>
+      <c r="M37" s="133"/>
+      <c r="N37" s="133"/>
+      <c r="O37" s="133"/>
+      <c r="P37" s="133"/>
+      <c r="Q37" s="133"/>
+      <c r="R37" s="133"/>
+      <c r="S37" s="133"/>
+      <c r="T37" s="133"/>
+      <c r="U37" s="133"/>
+      <c r="V37" s="133"/>
+      <c r="W37" s="133"/>
+      <c r="X37" s="133"/>
+      <c r="Y37" s="136"/>
+      <c r="Z37" s="136"/>
+      <c r="AA37" s="136"/>
+      <c r="AB37" s="136"/>
+      <c r="AC37" s="140"/>
+      <c r="AD37" s="143"/>
+      <c r="AE37" s="143"/>
+      <c r="AF37" s="143"/>
+      <c r="AG37" s="140"/>
+      <c r="AH37" s="140"/>
+      <c r="AI37" s="140"/>
+      <c r="AJ37" s="140"/>
+      <c r="AK37" s="140"/>
+      <c r="AL37" s="140"/>
+      <c r="AM37" s="140"/>
+      <c r="AN37" s="140"/>
+      <c r="AO37" s="140"/>
+      <c r="AP37" s="140"/>
+      <c r="AQ37" s="140"/>
+      <c r="AR37" s="140"/>
+      <c r="AS37" s="140"/>
+      <c r="AT37" s="140"/>
+      <c r="AU37" s="140"/>
+      <c r="AV37" s="140"/>
+      <c r="AW37" s="140"/>
+      <c r="AX37" s="140"/>
+      <c r="AY37" s="140"/>
+      <c r="AZ37" s="140"/>
+      <c r="BA37" s="140"/>
+      <c r="BB37" s="140"/>
+      <c r="BC37" s="140"/>
+      <c r="BD37" s="140"/>
+      <c r="BE37" s="146"/>
+      <c r="BF37" s="146"/>
+      <c r="BG37" s="146"/>
+      <c r="BH37" s="146"/>
+      <c r="BI37" s="147"/>
+      <c r="BJ37" s="147"/>
+      <c r="BK37" s="147"/>
+      <c r="BL37" s="147"/>
+    </row>
+    <row r="38" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="C38" s="132"/>
+      <c r="D38" s="132"/>
+      <c r="E38" s="132"/>
+      <c r="F38" s="133"/>
+      <c r="G38" s="133"/>
+      <c r="H38" s="133"/>
+      <c r="I38" s="133"/>
+      <c r="J38" s="133"/>
+      <c r="K38" s="133"/>
+      <c r="L38" s="133"/>
+      <c r="M38" s="133"/>
+      <c r="N38" s="133"/>
+      <c r="O38" s="133"/>
+      <c r="P38" s="133"/>
+      <c r="Q38" s="133"/>
+      <c r="R38" s="133"/>
+      <c r="S38" s="133"/>
+      <c r="T38" s="133"/>
+      <c r="U38" s="133"/>
+      <c r="V38" s="133"/>
+      <c r="W38" s="133"/>
+      <c r="X38" s="133"/>
+      <c r="Y38" s="136"/>
+      <c r="Z38" s="136"/>
+      <c r="AA38" s="136"/>
+      <c r="AB38" s="136"/>
+      <c r="AC38" s="140"/>
+      <c r="AD38" s="143"/>
+      <c r="AE38" s="143"/>
+      <c r="AF38" s="143"/>
+      <c r="AG38" s="140"/>
+      <c r="AH38" s="140"/>
+      <c r="AI38" s="140"/>
+      <c r="AJ38" s="140"/>
+      <c r="AK38" s="140"/>
+      <c r="AL38" s="140"/>
+      <c r="AM38" s="140"/>
+      <c r="AN38" s="140"/>
+      <c r="AO38" s="140"/>
+      <c r="AP38" s="140"/>
+      <c r="AQ38" s="140"/>
+      <c r="AR38" s="140"/>
+      <c r="AS38" s="140"/>
+      <c r="AT38" s="140"/>
+      <c r="AU38" s="140"/>
+      <c r="AV38" s="140"/>
+      <c r="AW38" s="140"/>
+      <c r="AX38" s="140"/>
+      <c r="AY38" s="140"/>
+      <c r="AZ38" s="140"/>
+      <c r="BA38" s="140"/>
+      <c r="BB38" s="140"/>
+      <c r="BC38" s="140"/>
+      <c r="BD38" s="140"/>
+      <c r="BE38" s="146"/>
+      <c r="BF38" s="146"/>
+      <c r="BG38" s="146"/>
+      <c r="BH38" s="146"/>
+      <c r="BI38" s="147"/>
+      <c r="BJ38" s="147"/>
+      <c r="BK38" s="147"/>
+      <c r="BL38" s="147"/>
+    </row>
+    <row r="39" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C39" s="132"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="132"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="133"/>
+      <c r="I39" s="133"/>
+      <c r="J39" s="133"/>
+      <c r="K39" s="133"/>
+      <c r="L39" s="133"/>
+      <c r="M39" s="133"/>
+      <c r="N39" s="133"/>
+      <c r="O39" s="133"/>
+      <c r="P39" s="133"/>
+      <c r="Q39" s="133"/>
+      <c r="R39" s="133"/>
+      <c r="S39" s="133"/>
+      <c r="T39" s="133"/>
+      <c r="U39" s="133"/>
+      <c r="V39" s="133"/>
+      <c r="W39" s="133"/>
+      <c r="X39" s="133"/>
+      <c r="Y39" s="136"/>
+      <c r="Z39" s="136"/>
+      <c r="AA39" s="136"/>
+      <c r="AB39" s="136"/>
+      <c r="AC39" s="140"/>
+      <c r="AD39" s="143"/>
+      <c r="AE39" s="143"/>
+      <c r="AF39" s="143"/>
+      <c r="AG39" s="140"/>
+      <c r="AH39" s="140"/>
+      <c r="AI39" s="140"/>
+      <c r="AJ39" s="140"/>
+      <c r="AK39" s="140"/>
+      <c r="AL39" s="140"/>
+      <c r="AM39" s="140"/>
+      <c r="AN39" s="140"/>
+      <c r="AO39" s="140"/>
+      <c r="AP39" s="140"/>
+      <c r="AQ39" s="140"/>
+      <c r="AR39" s="140"/>
+      <c r="AS39" s="140"/>
+      <c r="AT39" s="140"/>
+      <c r="AU39" s="140"/>
+      <c r="AV39" s="140"/>
+      <c r="AW39" s="140"/>
+      <c r="AX39" s="140"/>
+      <c r="AY39" s="140"/>
+      <c r="AZ39" s="140"/>
+      <c r="BA39" s="140"/>
+      <c r="BB39" s="140"/>
+      <c r="BC39" s="140"/>
+      <c r="BD39" s="140"/>
+      <c r="BE39" s="146"/>
+      <c r="BF39" s="146"/>
+      <c r="BG39" s="146"/>
+      <c r="BH39" s="146"/>
+      <c r="BI39" s="147"/>
+      <c r="BJ39" s="147"/>
+      <c r="BK39" s="147"/>
+      <c r="BL39" s="147"/>
+    </row>
+    <row r="40" spans="1:64" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F40" s="133" t="s">
+        <v>555</v>
+      </c>
+      <c r="G40" s="133"/>
+      <c r="H40" s="133"/>
+      <c r="I40" s="133"/>
+      <c r="J40" s="133" t="s">
+        <v>79</v>
+      </c>
+      <c r="K40" s="133"/>
+      <c r="L40" s="133"/>
+      <c r="M40" s="133"/>
+      <c r="N40" s="135" t="s">
+        <v>107</v>
+      </c>
+      <c r="O40" s="135"/>
+      <c r="P40" s="135"/>
+      <c r="Q40" s="133"/>
+      <c r="R40" s="133" t="s">
+        <v>100</v>
+      </c>
+      <c r="S40" s="133"/>
+      <c r="T40" s="133"/>
+      <c r="U40" s="133"/>
+      <c r="V40" s="133" t="s">
+        <v>101</v>
+      </c>
+      <c r="W40" s="133"/>
+      <c r="X40" s="133"/>
+      <c r="Y40" s="136"/>
+      <c r="Z40" s="136" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA40" s="136"/>
+      <c r="AB40" s="136"/>
+      <c r="AC40" s="140"/>
+      <c r="AD40" s="140" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE40" s="140"/>
+      <c r="AF40" s="140"/>
+      <c r="AG40" s="140"/>
+      <c r="AH40" s="142" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI40" s="143"/>
+      <c r="AJ40" s="143"/>
+      <c r="AK40" s="140"/>
+      <c r="AL40" s="144"/>
+      <c r="AM40" s="144"/>
+      <c r="AN40" s="144"/>
+      <c r="AO40" s="140"/>
+      <c r="AP40" s="144" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ40" s="144"/>
+      <c r="AR40" s="144"/>
+      <c r="AS40" s="140"/>
+      <c r="AT40" s="140" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU40" s="140"/>
+      <c r="AV40" s="140"/>
+      <c r="AW40" s="140"/>
+      <c r="AX40" s="140" t="s">
+        <v>108</v>
+      </c>
+      <c r="AY40" s="140"/>
+      <c r="AZ40" s="140"/>
+      <c r="BA40" s="140"/>
+      <c r="BB40" s="143" t="s">
+        <v>215</v>
+      </c>
+      <c r="BC40" s="143"/>
+      <c r="BD40" s="143"/>
+      <c r="BE40" s="146"/>
+      <c r="BF40" s="146"/>
+      <c r="BG40" s="146"/>
+      <c r="BH40" s="146"/>
+      <c r="BI40" s="147"/>
+      <c r="BJ40" s="147"/>
+      <c r="BK40" s="147"/>
+      <c r="BL40" s="147"/>
+    </row>
+    <row r="41" spans="1:64" x14ac:dyDescent="0.15">
+      <c r="F41" s="138" t="s">
+        <v>146</v>
+      </c>
+      <c r="G41" s="138"/>
+      <c r="H41" s="138"/>
+      <c r="I41" s="138"/>
+      <c r="J41" s="138"/>
+      <c r="K41" s="138"/>
+      <c r="L41" s="138"/>
+      <c r="M41" s="138"/>
+      <c r="N41" s="138"/>
+      <c r="O41" s="138"/>
+      <c r="P41" s="138"/>
+      <c r="Q41" s="138"/>
+      <c r="R41" s="138"/>
+      <c r="S41" s="138"/>
+      <c r="T41" s="138"/>
+      <c r="U41" s="138"/>
+      <c r="V41" s="138"/>
+      <c r="W41" s="138"/>
+      <c r="X41" s="138"/>
+      <c r="Y41" s="134" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z41" s="134"/>
+      <c r="AA41" s="134"/>
+      <c r="AB41" s="134"/>
+      <c r="AC41" s="143" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD41" s="143"/>
+      <c r="AE41" s="143"/>
+      <c r="AF41" s="143"/>
+      <c r="AG41" s="143"/>
+      <c r="AH41" s="143"/>
+      <c r="AI41" s="143"/>
+      <c r="AJ41" s="143"/>
+      <c r="AK41" s="143"/>
+      <c r="AL41" s="143"/>
+      <c r="AM41" s="143"/>
+      <c r="AN41" s="143"/>
+      <c r="AO41" s="143"/>
+      <c r="AP41" s="143"/>
+      <c r="AQ41" s="143"/>
+      <c r="AR41" s="143"/>
+      <c r="AS41" s="143"/>
+      <c r="AT41" s="143"/>
+      <c r="AU41" s="143"/>
+      <c r="AV41" s="143"/>
+      <c r="AW41" s="143"/>
+      <c r="AX41" s="143"/>
+      <c r="AY41" s="143"/>
+      <c r="AZ41" s="143"/>
+      <c r="BA41" s="143"/>
+      <c r="BB41" s="143"/>
+      <c r="BC41" s="143"/>
+      <c r="BD41" s="143"/>
+      <c r="BE41" s="146" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF41" s="146"/>
+      <c r="BG41" s="146"/>
+      <c r="BH41" s="146"/>
+      <c r="BI41" s="147" t="s">
+        <v>822</v>
+      </c>
+      <c r="BJ41" s="147"/>
+      <c r="BK41" s="147"/>
+      <c r="BL41" s="147"/>
+    </row>
+    <row r="42" spans="1:64" x14ac:dyDescent="0.15">
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="13"/>
+      <c r="Y42" s="13"/>
+      <c r="Z42" s="13"/>
+      <c r="AA42" s="13"/>
+      <c r="AB42" s="13"/>
+      <c r="AC42" s="13"/>
+      <c r="AD42" s="13"/>
+      <c r="AE42" s="13"/>
+      <c r="AF42" s="13"/>
+      <c r="AG42" s="13"/>
+      <c r="AH42" s="13"/>
+      <c r="AI42" s="13"/>
+      <c r="AJ42" s="13"/>
+      <c r="AK42" s="13"/>
+      <c r="AL42" s="13"/>
+      <c r="AM42" s="4"/>
+      <c r="AS42" s="4"/>
+      <c r="AT42" s="4"/>
+      <c r="AU42" s="4"/>
+    </row>
+    <row r="43" spans="1:64" x14ac:dyDescent="0.15">
+      <c r="C43" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="13"/>
+      <c r="X43" s="13"/>
+      <c r="Y43" s="13"/>
+      <c r="Z43" s="13"/>
+      <c r="AA43" s="13"/>
+      <c r="AB43" s="13"/>
+      <c r="AC43" s="13"/>
+      <c r="AD43" s="13"/>
+      <c r="AE43" s="13"/>
+      <c r="AF43" s="13"/>
+      <c r="AG43" s="13"/>
+      <c r="AH43" s="13"/>
+      <c r="AI43" s="13"/>
+      <c r="AJ43" s="13"/>
+      <c r="AK43" s="13"/>
+      <c r="AL43" s="13"/>
+      <c r="AM43" s="4"/>
+      <c r="AS43" s="4"/>
+      <c r="AT43" s="4"/>
+      <c r="AU43" s="4"/>
+    </row>
+    <row r="44" spans="1:64" x14ac:dyDescent="0.15">
+      <c r="C44" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+      <c r="Y44" s="13"/>
+      <c r="Z44" s="13"/>
+      <c r="AA44" s="13"/>
+      <c r="AB44" s="13"/>
+      <c r="AC44" s="13"/>
+      <c r="AD44" s="13"/>
+      <c r="AE44" s="13"/>
+      <c r="AF44" s="13"/>
+      <c r="AG44" s="13"/>
+      <c r="AH44" s="13"/>
+      <c r="AI44" s="13"/>
+      <c r="AJ44" s="13"/>
+      <c r="AK44" s="13"/>
+      <c r="AL44" s="13"/>
+      <c r="AM44" s="4"/>
+      <c r="AS44" s="4"/>
+      <c r="AT44" s="4"/>
+      <c r="AU44" s="4"/>
+      <c r="BE44" s="6"/>
+      <c r="BF44" s="6"/>
+      <c r="BG44" s="6"/>
+      <c r="BH44" s="6"/>
+      <c r="BI44" s="6"/>
+      <c r="BJ44" s="6"/>
+      <c r="BK44" s="6"/>
+    </row>
+    <row r="45" spans="1:64" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C45" s="131" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="132"/>
+      <c r="E45" s="132"/>
+      <c r="F45" s="137" t="s">
+        <v>686</v>
+      </c>
+      <c r="G45" s="133"/>
+      <c r="H45" s="133"/>
+      <c r="I45" s="133" t="s">
+        <v>113</v>
+      </c>
+      <c r="J45" s="139" t="s">
+        <v>117</v>
+      </c>
+      <c r="K45" s="145"/>
+      <c r="L45" s="145"/>
+      <c r="M45" s="133" t="s">
+        <v>95</v>
+      </c>
+      <c r="N45" s="133" t="s">
+        <v>538</v>
+      </c>
+      <c r="O45" s="133"/>
+      <c r="P45" s="133"/>
+      <c r="Q45" s="133" t="s">
+        <v>96</v>
+      </c>
+      <c r="R45" s="138" t="s">
+        <v>539</v>
+      </c>
+      <c r="S45" s="138"/>
+      <c r="T45" s="138"/>
+      <c r="U45" s="136" t="s">
+        <v>113</v>
+      </c>
+      <c r="V45" s="136" t="s">
+        <v>540</v>
+      </c>
+      <c r="W45" s="136"/>
+      <c r="X45" s="136"/>
+      <c r="Y45" s="140" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z45" s="140">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="140"/>
+      <c r="AB45" s="140"/>
+      <c r="AC45" s="140" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD45" s="140" t="s">
+        <v>541</v>
+      </c>
+      <c r="AE45" s="140"/>
+      <c r="AF45" s="140"/>
+      <c r="AG45" s="140" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH45" s="140" t="s">
+        <v>536</v>
+      </c>
+      <c r="AI45" s="140"/>
+      <c r="AJ45" s="140"/>
+      <c r="AK45" s="140" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL45" s="140" t="s">
+        <v>534</v>
+      </c>
+      <c r="AM45" s="140"/>
+      <c r="AN45" s="140"/>
+      <c r="AO45" s="140" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP45" s="140" t="s">
         <v>531</v>
       </c>
-      <c r="AV22" s="97"/>
-      <c r="AW22" s="97"/>
-      <c r="AX22" s="95" t="s">
-        <v>102</v>
-      </c>
-      <c r="AY22" s="95" t="s">
-        <v>532</v>
-      </c>
-      <c r="AZ22" s="95"/>
-      <c r="BA22" s="95"/>
-    </row>
-    <row r="23" spans="1:60" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10" t="s">
-        <v>581</v>
-      </c>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="102"/>
-      <c r="L23" s="102"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="103"/>
-      <c r="O23" s="104"/>
-      <c r="P23" s="104"/>
-      <c r="Q23" s="104"/>
-      <c r="R23" s="103"/>
-      <c r="S23" s="103"/>
-      <c r="T23" s="103"/>
-      <c r="U23" s="103"/>
-      <c r="V23" s="103"/>
-      <c r="W23" s="103"/>
-      <c r="X23" s="103"/>
-      <c r="Y23" s="103"/>
-      <c r="Z23" s="106"/>
-      <c r="AA23" s="106"/>
-      <c r="AB23" s="106"/>
-      <c r="AC23" s="106"/>
-      <c r="AD23" s="97"/>
-      <c r="AE23" s="97"/>
-      <c r="AF23" s="97"/>
-      <c r="AG23" s="97"/>
-      <c r="AH23" s="97"/>
-      <c r="AI23" s="97"/>
-      <c r="AJ23" s="97"/>
-      <c r="AK23" s="97"/>
-      <c r="AL23" s="97"/>
-      <c r="AM23" s="97"/>
-      <c r="AN23" s="97"/>
-      <c r="AO23" s="97"/>
-      <c r="AP23" s="97"/>
-      <c r="AQ23" s="97"/>
-      <c r="AR23" s="97"/>
-      <c r="AS23" s="97"/>
-      <c r="AT23" s="97"/>
-      <c r="AU23" s="97"/>
-      <c r="AV23" s="97"/>
-      <c r="AW23" s="97"/>
-      <c r="AX23" s="95"/>
-      <c r="AY23" s="95"/>
-      <c r="AZ23" s="95"/>
-      <c r="BA23" s="95"/>
-    </row>
-    <row r="24" spans="1:60" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="102"/>
-      <c r="L24" s="102"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="103"/>
-      <c r="O24" s="104"/>
-      <c r="P24" s="104"/>
-      <c r="Q24" s="104"/>
-      <c r="R24" s="103"/>
-      <c r="S24" s="103"/>
-      <c r="T24" s="103"/>
-      <c r="U24" s="103"/>
-      <c r="V24" s="103"/>
-      <c r="W24" s="103"/>
-      <c r="X24" s="103"/>
-      <c r="Y24" s="103"/>
-      <c r="Z24" s="106"/>
-      <c r="AA24" s="106"/>
-      <c r="AB24" s="106"/>
-      <c r="AC24" s="106"/>
-      <c r="AD24" s="97"/>
-      <c r="AE24" s="97"/>
-      <c r="AF24" s="97"/>
-      <c r="AG24" s="97"/>
-      <c r="AH24" s="97"/>
-      <c r="AI24" s="97"/>
-      <c r="AJ24" s="97"/>
-      <c r="AK24" s="97"/>
-      <c r="AL24" s="97"/>
-      <c r="AM24" s="97"/>
-      <c r="AN24" s="97"/>
-      <c r="AO24" s="97"/>
-      <c r="AP24" s="97"/>
-      <c r="AQ24" s="97"/>
-      <c r="AR24" s="97"/>
-      <c r="AS24" s="97"/>
-      <c r="AT24" s="97"/>
-      <c r="AU24" s="97"/>
-      <c r="AV24" s="97"/>
-      <c r="AW24" s="97"/>
-      <c r="AX24" s="95"/>
-      <c r="AY24" s="95"/>
-      <c r="AZ24" s="95"/>
-      <c r="BA24" s="95"/>
-    </row>
-    <row r="25" spans="1:60" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10" t="s">
-        <v>582</v>
-      </c>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="103"/>
-      <c r="O25" s="104"/>
-      <c r="P25" s="104"/>
-      <c r="Q25" s="104"/>
-      <c r="R25" s="103"/>
-      <c r="S25" s="103"/>
-      <c r="T25" s="103"/>
-      <c r="U25" s="103"/>
-      <c r="V25" s="103"/>
-      <c r="W25" s="103"/>
-      <c r="X25" s="103"/>
-      <c r="Y25" s="103"/>
-      <c r="Z25" s="106"/>
-      <c r="AA25" s="106"/>
-      <c r="AB25" s="106"/>
-      <c r="AC25" s="106"/>
-      <c r="AD25" s="97"/>
-      <c r="AE25" s="97"/>
-      <c r="AF25" s="97"/>
-      <c r="AG25" s="97"/>
-      <c r="AH25" s="97"/>
-      <c r="AI25" s="97"/>
-      <c r="AJ25" s="97"/>
-      <c r="AK25" s="97"/>
-      <c r="AL25" s="97"/>
-      <c r="AM25" s="97"/>
-      <c r="AN25" s="97"/>
-      <c r="AO25" s="97"/>
-      <c r="AP25" s="97"/>
-      <c r="AQ25" s="97"/>
-      <c r="AR25" s="97"/>
-      <c r="AS25" s="97"/>
-      <c r="AT25" s="97"/>
-      <c r="AU25" s="97"/>
-      <c r="AV25" s="97"/>
-      <c r="AW25" s="97"/>
-      <c r="AX25" s="95"/>
-      <c r="AY25" s="95"/>
-      <c r="AZ25" s="95"/>
-      <c r="BA25" s="95"/>
-    </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
-      <c r="F26" s="103" t="s">
-        <v>556</v>
-      </c>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="103" t="s">
-        <v>79</v>
-      </c>
-      <c r="K26" s="103"/>
-      <c r="L26" s="103"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="103"/>
-      <c r="O26" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="P26" s="108"/>
-      <c r="Q26" s="108"/>
-      <c r="R26" s="103"/>
-      <c r="S26" s="103" t="s">
+      <c r="AQ45" s="140"/>
+      <c r="AR45" s="140"/>
+    </row>
+    <row r="46" spans="1:64" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C46" s="132"/>
+      <c r="D46" s="132"/>
+      <c r="E46" s="132"/>
+      <c r="F46" s="133"/>
+      <c r="G46" s="133"/>
+      <c r="H46" s="133"/>
+      <c r="I46" s="133"/>
+      <c r="J46" s="145"/>
+      <c r="K46" s="145"/>
+      <c r="L46" s="145"/>
+      <c r="M46" s="133"/>
+      <c r="N46" s="133"/>
+      <c r="O46" s="133"/>
+      <c r="P46" s="133"/>
+      <c r="Q46" s="133"/>
+      <c r="R46" s="138"/>
+      <c r="S46" s="138"/>
+      <c r="T46" s="138"/>
+      <c r="U46" s="136"/>
+      <c r="V46" s="136"/>
+      <c r="W46" s="136"/>
+      <c r="X46" s="136"/>
+      <c r="Y46" s="140"/>
+      <c r="Z46" s="140"/>
+      <c r="AA46" s="140"/>
+      <c r="AB46" s="140"/>
+      <c r="AC46" s="140"/>
+      <c r="AD46" s="140"/>
+      <c r="AE46" s="140"/>
+      <c r="AF46" s="140"/>
+      <c r="AG46" s="140"/>
+      <c r="AH46" s="140"/>
+      <c r="AI46" s="140"/>
+      <c r="AJ46" s="140"/>
+      <c r="AK46" s="140"/>
+      <c r="AL46" s="140"/>
+      <c r="AM46" s="140"/>
+      <c r="AN46" s="140"/>
+      <c r="AO46" s="140"/>
+      <c r="AP46" s="140"/>
+      <c r="AQ46" s="140"/>
+      <c r="AR46" s="140"/>
+    </row>
+    <row r="47" spans="1:64" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C47" s="132"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="132"/>
+      <c r="F47" s="133"/>
+      <c r="G47" s="133"/>
+      <c r="H47" s="133"/>
+      <c r="I47" s="133"/>
+      <c r="J47" s="145"/>
+      <c r="K47" s="145"/>
+      <c r="L47" s="145"/>
+      <c r="M47" s="133"/>
+      <c r="N47" s="133"/>
+      <c r="O47" s="133"/>
+      <c r="P47" s="133"/>
+      <c r="Q47" s="133"/>
+      <c r="R47" s="138"/>
+      <c r="S47" s="138"/>
+      <c r="T47" s="138"/>
+      <c r="U47" s="136"/>
+      <c r="V47" s="136"/>
+      <c r="W47" s="136"/>
+      <c r="X47" s="136"/>
+      <c r="Y47" s="140"/>
+      <c r="Z47" s="140"/>
+      <c r="AA47" s="140"/>
+      <c r="AB47" s="140"/>
+      <c r="AC47" s="140"/>
+      <c r="AD47" s="140"/>
+      <c r="AE47" s="140"/>
+      <c r="AF47" s="140"/>
+      <c r="AG47" s="140"/>
+      <c r="AH47" s="140"/>
+      <c r="AI47" s="140"/>
+      <c r="AJ47" s="140"/>
+      <c r="AK47" s="140"/>
+      <c r="AL47" s="140"/>
+      <c r="AM47" s="140"/>
+      <c r="AN47" s="140"/>
+      <c r="AO47" s="140"/>
+      <c r="AP47" s="140"/>
+      <c r="AQ47" s="140"/>
+      <c r="AR47" s="140"/>
+    </row>
+    <row r="48" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C48" s="132"/>
+      <c r="D48" s="132"/>
+      <c r="E48" s="132"/>
+      <c r="F48" s="133"/>
+      <c r="G48" s="133"/>
+      <c r="H48" s="133"/>
+      <c r="I48" s="133"/>
+      <c r="J48" s="145"/>
+      <c r="K48" s="145"/>
+      <c r="L48" s="145"/>
+      <c r="M48" s="133"/>
+      <c r="N48" s="133"/>
+      <c r="O48" s="133"/>
+      <c r="P48" s="133"/>
+      <c r="Q48" s="133"/>
+      <c r="R48" s="138"/>
+      <c r="S48" s="138"/>
+      <c r="T48" s="138"/>
+      <c r="U48" s="136"/>
+      <c r="V48" s="136"/>
+      <c r="W48" s="136"/>
+      <c r="X48" s="136"/>
+      <c r="Y48" s="140"/>
+      <c r="Z48" s="140"/>
+      <c r="AA48" s="140"/>
+      <c r="AB48" s="140"/>
+      <c r="AC48" s="140"/>
+      <c r="AD48" s="140"/>
+      <c r="AE48" s="140"/>
+      <c r="AF48" s="140"/>
+      <c r="AG48" s="140"/>
+      <c r="AH48" s="140"/>
+      <c r="AI48" s="140"/>
+      <c r="AJ48" s="140"/>
+      <c r="AK48" s="140"/>
+      <c r="AL48" s="140"/>
+      <c r="AM48" s="140"/>
+      <c r="AN48" s="140"/>
+      <c r="AO48" s="140"/>
+      <c r="AP48" s="140"/>
+      <c r="AQ48" s="140"/>
+      <c r="AR48" s="140"/>
+    </row>
+    <row r="49" spans="3:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F49" s="133" t="s">
+        <v>555</v>
+      </c>
+      <c r="G49" s="133"/>
+      <c r="H49" s="133"/>
+      <c r="I49" s="133"/>
+      <c r="J49" s="135" t="s">
+        <v>107</v>
+      </c>
+      <c r="K49" s="135"/>
+      <c r="L49" s="135"/>
+      <c r="M49" s="133"/>
+      <c r="N49" s="133" t="s">
         <v>100</v>
       </c>
-      <c r="T26" s="103"/>
-      <c r="U26" s="103"/>
-      <c r="V26" s="103"/>
-      <c r="W26" s="103" t="s">
-        <v>101</v>
-      </c>
-      <c r="X26" s="103"/>
-      <c r="Y26" s="103"/>
-      <c r="Z26" s="106"/>
-      <c r="AA26" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB26" s="106"/>
-      <c r="AC26" s="106"/>
-      <c r="AD26" s="97"/>
-      <c r="AE26" s="97"/>
-      <c r="AF26" s="97"/>
-      <c r="AG26" s="97"/>
-      <c r="AH26" s="97"/>
-      <c r="AI26" s="97" t="s">
+      <c r="O49" s="133"/>
+      <c r="P49" s="133"/>
+      <c r="Q49" s="133"/>
+      <c r="R49" s="138" t="s">
+        <v>116</v>
+      </c>
+      <c r="S49" s="138"/>
+      <c r="T49" s="138"/>
+      <c r="U49" s="136"/>
+      <c r="V49" s="136" t="s">
+        <v>114</v>
+      </c>
+      <c r="W49" s="136"/>
+      <c r="X49" s="136"/>
+      <c r="Y49" s="140"/>
+      <c r="Z49" s="140"/>
+      <c r="AA49" s="140"/>
+      <c r="AB49" s="140"/>
+      <c r="AC49" s="140"/>
+      <c r="AD49" s="140" t="s">
         <v>98</v>
       </c>
-      <c r="AJ26" s="97"/>
-      <c r="AK26" s="97"/>
-      <c r="AL26" s="97"/>
-      <c r="AM26" s="98" t="s">
+      <c r="AE49" s="140"/>
+      <c r="AF49" s="140"/>
+      <c r="AG49" s="140"/>
+      <c r="AH49" s="140" t="s">
         <v>99</v>
       </c>
-      <c r="AN26" s="98"/>
-      <c r="AO26" s="98"/>
-      <c r="AP26" s="97"/>
-      <c r="AQ26" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="AR26" s="97"/>
-      <c r="AS26" s="97"/>
-      <c r="AT26" s="97"/>
-      <c r="AU26" s="96" t="s">
+      <c r="AI49" s="140"/>
+      <c r="AJ49" s="140"/>
+      <c r="AK49" s="140"/>
+      <c r="AL49" s="140" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM49" s="140"/>
+      <c r="AN49" s="140"/>
+      <c r="AO49" s="140"/>
+      <c r="AP49" s="143" t="s">
         <v>215</v>
       </c>
-      <c r="AV26" s="96"/>
-      <c r="AW26" s="96"/>
-      <c r="AX26" s="95"/>
-      <c r="AY26" s="46"/>
-      <c r="AZ26" s="46"/>
-      <c r="BA26" s="46"/>
-    </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.15">
-      <c r="F27" s="103" t="s">
+      <c r="AQ49" s="143"/>
+      <c r="AR49" s="143"/>
+    </row>
+    <row r="50" spans="3:54" x14ac:dyDescent="0.15">
+      <c r="F50" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="103"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="103"/>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="103"/>
-      <c r="R27" s="103"/>
-      <c r="S27" s="103"/>
-      <c r="T27" s="103"/>
-      <c r="U27" s="103"/>
-      <c r="V27" s="103"/>
-      <c r="W27" s="103"/>
-      <c r="X27" s="103"/>
-      <c r="Y27" s="103"/>
-      <c r="Z27" s="110" t="s">
+      <c r="G50" s="138"/>
+      <c r="H50" s="138"/>
+      <c r="I50" s="138"/>
+      <c r="J50" s="138"/>
+      <c r="K50" s="138"/>
+      <c r="L50" s="138"/>
+      <c r="M50" s="138"/>
+      <c r="N50" s="138"/>
+      <c r="O50" s="138"/>
+      <c r="P50" s="138"/>
+      <c r="Q50" s="138"/>
+      <c r="R50" s="138"/>
+      <c r="S50" s="138"/>
+      <c r="T50" s="138"/>
+      <c r="U50" s="134" t="s">
         <v>148</v>
       </c>
-      <c r="AA27" s="110"/>
-      <c r="AB27" s="110"/>
-      <c r="AC27" s="110"/>
-      <c r="AD27" s="96" t="s">
+      <c r="V50" s="134"/>
+      <c r="W50" s="134"/>
+      <c r="X50" s="134"/>
+      <c r="Y50" s="143" t="s">
         <v>145</v>
       </c>
-      <c r="AE27" s="96"/>
-      <c r="AF27" s="96"/>
-      <c r="AG27" s="96"/>
-      <c r="AH27" s="96"/>
-      <c r="AI27" s="96"/>
-      <c r="AJ27" s="96"/>
-      <c r="AK27" s="96"/>
-      <c r="AL27" s="96"/>
-      <c r="AM27" s="96"/>
-      <c r="AN27" s="96"/>
-      <c r="AO27" s="96"/>
-      <c r="AP27" s="96"/>
-      <c r="AQ27" s="96"/>
-      <c r="AR27" s="96"/>
-      <c r="AS27" s="96"/>
-      <c r="AT27" s="96"/>
-      <c r="AU27" s="96"/>
-      <c r="AV27" s="96"/>
-      <c r="AW27" s="96"/>
-      <c r="AX27" s="95" t="s">
-        <v>453</v>
-      </c>
-      <c r="AY27" s="95"/>
-      <c r="AZ27" s="95"/>
-      <c r="BA27" s="95"/>
-      <c r="BC27" s="17"/>
-      <c r="BD27" s="17"/>
-      <c r="BE27" s="17"/>
-      <c r="BF27" s="17"/>
-    </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.15">
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="13"/>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="13"/>
-      <c r="AH28" s="13"/>
-      <c r="AI28" s="13"/>
-      <c r="AJ28" s="13"/>
-      <c r="AK28" s="13"/>
-      <c r="AL28" s="13"/>
-      <c r="AM28" s="4"/>
-      <c r="AS28" s="4"/>
-      <c r="AT28" s="4"/>
-      <c r="AU28" s="4"/>
-    </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.15">
-      <c r="C29" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:60" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="49" t="s">
-        <v>643</v>
-      </c>
-      <c r="C30" s="100" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="102" t="s">
-        <v>687</v>
-      </c>
-      <c r="G30" s="103"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="103" t="s">
-        <v>78</v>
-      </c>
-      <c r="J30" s="102" t="s">
-        <v>593</v>
-      </c>
-      <c r="K30" s="103"/>
-      <c r="L30" s="103"/>
-      <c r="M30" s="103" t="s">
-        <v>78</v>
-      </c>
-      <c r="N30" s="102" t="s">
-        <v>117</v>
-      </c>
-      <c r="O30" s="103"/>
-      <c r="P30" s="103"/>
-      <c r="Q30" s="103" t="s">
-        <v>78</v>
-      </c>
-      <c r="R30" s="103" t="s">
-        <v>537</v>
-      </c>
-      <c r="S30" s="103"/>
-      <c r="T30" s="103"/>
-      <c r="U30" s="103" t="s">
-        <v>96</v>
-      </c>
-      <c r="V30" s="103" t="s">
-        <v>523</v>
-      </c>
-      <c r="W30" s="103"/>
-      <c r="X30" s="103"/>
-      <c r="Y30" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z30" s="106" t="s">
-        <v>728</v>
-      </c>
-      <c r="AA30" s="106"/>
-      <c r="AB30" s="106"/>
-      <c r="AC30" s="97" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD30" s="107" t="s">
-        <v>693</v>
-      </c>
-      <c r="AE30" s="96"/>
-      <c r="AF30" s="96"/>
-      <c r="AG30" s="97" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH30" s="109" t="s">
-        <v>691</v>
-      </c>
-      <c r="AI30" s="97"/>
-      <c r="AJ30" s="97"/>
-      <c r="AK30" s="97" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL30" s="97">
-        <v>1</v>
-      </c>
-      <c r="AM30" s="97"/>
-      <c r="AN30" s="97"/>
-      <c r="AO30" s="97" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP30" s="97" t="s">
-        <v>536</v>
-      </c>
-      <c r="AQ30" s="97"/>
-      <c r="AR30" s="97"/>
-      <c r="AS30" s="97" t="s">
-        <v>144</v>
-      </c>
-      <c r="AT30" s="97" t="s">
-        <v>535</v>
-      </c>
-      <c r="AU30" s="97"/>
-      <c r="AV30" s="97"/>
-      <c r="AW30" s="97" t="s">
-        <v>149</v>
-      </c>
-      <c r="AX30" s="97" t="s">
-        <v>534</v>
-      </c>
-      <c r="AY30" s="97"/>
-      <c r="AZ30" s="97"/>
-      <c r="BA30" s="97" t="s">
-        <v>214</v>
-      </c>
-      <c r="BB30" s="97" t="s">
-        <v>533</v>
-      </c>
-      <c r="BC30" s="97"/>
-      <c r="BD30" s="97"/>
-      <c r="BE30" s="95" t="s">
-        <v>102</v>
-      </c>
-      <c r="BF30" s="95" t="s">
-        <v>532</v>
-      </c>
-      <c r="BG30" s="95"/>
-      <c r="BH30" s="95"/>
-    </row>
-    <row r="31" spans="1:60" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="103"/>
-      <c r="L31" s="103"/>
-      <c r="M31" s="103"/>
-      <c r="N31" s="103"/>
-      <c r="O31" s="103"/>
-      <c r="P31" s="103"/>
-      <c r="Q31" s="103"/>
-      <c r="R31" s="103"/>
-      <c r="S31" s="103"/>
-      <c r="T31" s="103"/>
-      <c r="U31" s="103"/>
-      <c r="V31" s="103"/>
-      <c r="W31" s="103"/>
-      <c r="X31" s="103"/>
-      <c r="Y31" s="106"/>
-      <c r="Z31" s="106"/>
-      <c r="AA31" s="106"/>
-      <c r="AB31" s="106"/>
-      <c r="AC31" s="97"/>
-      <c r="AD31" s="96"/>
-      <c r="AE31" s="96"/>
-      <c r="AF31" s="96"/>
-      <c r="AG31" s="97"/>
-      <c r="AH31" s="97"/>
-      <c r="AI31" s="97"/>
-      <c r="AJ31" s="97"/>
-      <c r="AK31" s="97"/>
-      <c r="AL31" s="97"/>
-      <c r="AM31" s="97"/>
-      <c r="AN31" s="97"/>
-      <c r="AO31" s="97"/>
-      <c r="AP31" s="97"/>
-      <c r="AQ31" s="97"/>
-      <c r="AR31" s="97"/>
-      <c r="AS31" s="97"/>
-      <c r="AT31" s="97"/>
-      <c r="AU31" s="97"/>
-      <c r="AV31" s="97"/>
-      <c r="AW31" s="97"/>
-      <c r="AX31" s="97"/>
-      <c r="AY31" s="97"/>
-      <c r="AZ31" s="97"/>
-      <c r="BA31" s="97"/>
-      <c r="BB31" s="97"/>
-      <c r="BC31" s="97"/>
-      <c r="BD31" s="97"/>
-      <c r="BE31" s="95"/>
-      <c r="BF31" s="95"/>
-      <c r="BG31" s="95"/>
-      <c r="BH31" s="95"/>
-    </row>
-    <row r="32" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="103"/>
-      <c r="M32" s="103"/>
-      <c r="N32" s="103"/>
-      <c r="O32" s="103"/>
-      <c r="P32" s="103"/>
-      <c r="Q32" s="103"/>
-      <c r="R32" s="103"/>
-      <c r="S32" s="103"/>
-      <c r="T32" s="103"/>
-      <c r="U32" s="103"/>
-      <c r="V32" s="103"/>
-      <c r="W32" s="103"/>
-      <c r="X32" s="103"/>
-      <c r="Y32" s="106"/>
-      <c r="Z32" s="106"/>
-      <c r="AA32" s="106"/>
-      <c r="AB32" s="106"/>
-      <c r="AC32" s="97"/>
-      <c r="AD32" s="96"/>
-      <c r="AE32" s="96"/>
-      <c r="AF32" s="96"/>
-      <c r="AG32" s="97"/>
-      <c r="AH32" s="97"/>
-      <c r="AI32" s="97"/>
-      <c r="AJ32" s="97"/>
-      <c r="AK32" s="97"/>
-      <c r="AL32" s="97"/>
-      <c r="AM32" s="97"/>
-      <c r="AN32" s="97"/>
-      <c r="AO32" s="97"/>
-      <c r="AP32" s="97"/>
-      <c r="AQ32" s="97"/>
-      <c r="AR32" s="97"/>
-      <c r="AS32" s="97"/>
-      <c r="AT32" s="97"/>
-      <c r="AU32" s="97"/>
-      <c r="AV32" s="97"/>
-      <c r="AW32" s="97"/>
-      <c r="AX32" s="97"/>
-      <c r="AY32" s="97"/>
-      <c r="AZ32" s="97"/>
-      <c r="BA32" s="97"/>
-      <c r="BB32" s="97"/>
-      <c r="BC32" s="97"/>
-      <c r="BD32" s="97"/>
-      <c r="BE32" s="95"/>
-      <c r="BF32" s="95"/>
-      <c r="BG32" s="95"/>
-      <c r="BH32" s="95"/>
-    </row>
-    <row r="33" spans="3:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="103"/>
-      <c r="M33" s="103"/>
-      <c r="N33" s="103"/>
-      <c r="O33" s="103"/>
-      <c r="P33" s="103"/>
-      <c r="Q33" s="103"/>
-      <c r="R33" s="103"/>
-      <c r="S33" s="103"/>
-      <c r="T33" s="103"/>
-      <c r="U33" s="103"/>
-      <c r="V33" s="103"/>
-      <c r="W33" s="103"/>
-      <c r="X33" s="103"/>
-      <c r="Y33" s="106"/>
-      <c r="Z33" s="106"/>
-      <c r="AA33" s="106"/>
-      <c r="AB33" s="106"/>
-      <c r="AC33" s="97"/>
-      <c r="AD33" s="96"/>
-      <c r="AE33" s="96"/>
-      <c r="AF33" s="96"/>
-      <c r="AG33" s="97"/>
-      <c r="AH33" s="97"/>
-      <c r="AI33" s="97"/>
-      <c r="AJ33" s="97"/>
-      <c r="AK33" s="97"/>
-      <c r="AL33" s="97"/>
-      <c r="AM33" s="97"/>
-      <c r="AN33" s="97"/>
-      <c r="AO33" s="97"/>
-      <c r="AP33" s="97"/>
-      <c r="AQ33" s="97"/>
-      <c r="AR33" s="97"/>
-      <c r="AS33" s="97"/>
-      <c r="AT33" s="97"/>
-      <c r="AU33" s="97"/>
-      <c r="AV33" s="97"/>
-      <c r="AW33" s="97"/>
-      <c r="AX33" s="97"/>
-      <c r="AY33" s="97"/>
-      <c r="AZ33" s="97"/>
-      <c r="BA33" s="97"/>
-      <c r="BB33" s="97"/>
-      <c r="BC33" s="97"/>
-      <c r="BD33" s="97"/>
-      <c r="BE33" s="95"/>
-      <c r="BF33" s="95"/>
-      <c r="BG33" s="95"/>
-      <c r="BH33" s="95"/>
-    </row>
-    <row r="34" spans="3:63" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F34" s="103" t="s">
-        <v>556</v>
-      </c>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="103" t="s">
-        <v>79</v>
-      </c>
-      <c r="K34" s="103"/>
-      <c r="L34" s="103"/>
-      <c r="M34" s="103"/>
-      <c r="N34" s="108" t="s">
-        <v>107</v>
-      </c>
-      <c r="O34" s="108"/>
-      <c r="P34" s="108"/>
-      <c r="Q34" s="103"/>
-      <c r="R34" s="103" t="s">
-        <v>100</v>
-      </c>
-      <c r="S34" s="103"/>
-      <c r="T34" s="103"/>
-      <c r="U34" s="103"/>
-      <c r="V34" s="103" t="s">
-        <v>101</v>
-      </c>
-      <c r="W34" s="103"/>
-      <c r="X34" s="103"/>
-      <c r="Y34" s="106"/>
-      <c r="Z34" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA34" s="106"/>
-      <c r="AB34" s="106"/>
-      <c r="AC34" s="97"/>
-      <c r="AD34" s="97" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE34" s="97"/>
-      <c r="AF34" s="97"/>
-      <c r="AG34" s="97"/>
-      <c r="AH34" s="107" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI34" s="96"/>
-      <c r="AJ34" s="96"/>
-      <c r="AK34" s="97"/>
-      <c r="AL34" s="98"/>
-      <c r="AM34" s="98"/>
-      <c r="AN34" s="98"/>
-      <c r="AO34" s="97"/>
-      <c r="AP34" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="AQ34" s="98"/>
-      <c r="AR34" s="98"/>
-      <c r="AS34" s="97"/>
-      <c r="AT34" s="97" t="s">
-        <v>98</v>
-      </c>
-      <c r="AU34" s="97"/>
-      <c r="AV34" s="97"/>
-      <c r="AW34" s="97"/>
-      <c r="AX34" s="97" t="s">
-        <v>108</v>
-      </c>
-      <c r="AY34" s="97"/>
-      <c r="AZ34" s="97"/>
-      <c r="BA34" s="97"/>
-      <c r="BB34" s="96" t="s">
-        <v>215</v>
-      </c>
-      <c r="BC34" s="96"/>
-      <c r="BD34" s="96"/>
-      <c r="BE34" s="95"/>
-      <c r="BF34" s="95"/>
-      <c r="BG34" s="95"/>
-      <c r="BH34" s="95"/>
-    </row>
-    <row r="35" spans="3:63" x14ac:dyDescent="0.15">
-      <c r="F35" s="99" t="s">
+      <c r="Z50" s="143"/>
+      <c r="AA50" s="143"/>
+      <c r="AB50" s="143"/>
+      <c r="AC50" s="143"/>
+      <c r="AD50" s="143"/>
+      <c r="AE50" s="143"/>
+      <c r="AF50" s="143"/>
+      <c r="AG50" s="143"/>
+      <c r="AH50" s="143"/>
+      <c r="AI50" s="143"/>
+      <c r="AJ50" s="143"/>
+      <c r="AK50" s="143"/>
+      <c r="AL50" s="143"/>
+      <c r="AM50" s="143"/>
+      <c r="AN50" s="143"/>
+      <c r="AO50" s="143"/>
+      <c r="AP50" s="143"/>
+      <c r="AQ50" s="143"/>
+      <c r="AR50" s="143"/>
+    </row>
+    <row r="51" spans="3:54" x14ac:dyDescent="0.15">
+      <c r="AW51" s="3"/>
+      <c r="AX51" s="3"/>
+      <c r="AY51" s="3"/>
+      <c r="AZ51" s="3"/>
+      <c r="BA51" s="3"/>
+      <c r="BB51" s="3"/>
+    </row>
+    <row r="53" spans="3:54" x14ac:dyDescent="0.15">
+      <c r="C53" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="3:54" x14ac:dyDescent="0.15">
+      <c r="D54" s="5"/>
+      <c r="E54" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="55" spans="3:54" x14ac:dyDescent="0.15">
+      <c r="D55" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G35" s="99"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="99"/>
-      <c r="J35" s="99"/>
-      <c r="K35" s="99"/>
-      <c r="L35" s="99"/>
-      <c r="M35" s="99"/>
-      <c r="N35" s="99"/>
-      <c r="O35" s="99"/>
-      <c r="P35" s="99"/>
-      <c r="Q35" s="99"/>
-      <c r="R35" s="99"/>
-      <c r="S35" s="99"/>
-      <c r="T35" s="99"/>
-      <c r="U35" s="99"/>
-      <c r="V35" s="99"/>
-      <c r="W35" s="99"/>
-      <c r="X35" s="99"/>
-      <c r="Y35" s="110" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z35" s="110"/>
-      <c r="AA35" s="110"/>
-      <c r="AB35" s="110"/>
-      <c r="AC35" s="96" t="s">
+      <c r="G55" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="56" spans="3:54" x14ac:dyDescent="0.15">
+      <c r="D56" s="10"/>
+      <c r="E56" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="57" spans="3:54" x14ac:dyDescent="0.15">
+      <c r="D57" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="58" spans="3:54" x14ac:dyDescent="0.15">
+      <c r="D58" s="11"/>
+      <c r="E58" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="59" spans="3:54" x14ac:dyDescent="0.15">
+      <c r="D59" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AD35" s="96"/>
-      <c r="AE35" s="96"/>
-      <c r="AF35" s="96"/>
-      <c r="AG35" s="96"/>
-      <c r="AH35" s="96"/>
-      <c r="AI35" s="96"/>
-      <c r="AJ35" s="96"/>
-      <c r="AK35" s="96"/>
-      <c r="AL35" s="96"/>
-      <c r="AM35" s="96"/>
-      <c r="AN35" s="96"/>
-      <c r="AO35" s="96"/>
-      <c r="AP35" s="96"/>
-      <c r="AQ35" s="96"/>
-      <c r="AR35" s="96"/>
-      <c r="AS35" s="96"/>
-      <c r="AT35" s="96"/>
-      <c r="AU35" s="96"/>
-      <c r="AV35" s="96"/>
-      <c r="AW35" s="96"/>
-      <c r="AX35" s="96"/>
-      <c r="AY35" s="96"/>
-      <c r="AZ35" s="96"/>
-      <c r="BA35" s="96"/>
-      <c r="BB35" s="96"/>
-      <c r="BC35" s="96"/>
-      <c r="BD35" s="96"/>
-      <c r="BE35" s="95" t="s">
-        <v>453</v>
-      </c>
-      <c r="BF35" s="95"/>
-      <c r="BG35" s="95"/>
-      <c r="BH35" s="95"/>
-    </row>
-    <row r="36" spans="3:63" x14ac:dyDescent="0.15">
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="13"/>
-      <c r="AA36" s="13"/>
-      <c r="AB36" s="13"/>
-      <c r="AC36" s="13"/>
-      <c r="AD36" s="13"/>
-      <c r="AE36" s="13"/>
-      <c r="AF36" s="13"/>
-      <c r="AG36" s="13"/>
-      <c r="AH36" s="13"/>
-      <c r="AI36" s="13"/>
-      <c r="AJ36" s="13"/>
-      <c r="AK36" s="13"/>
-      <c r="AL36" s="13"/>
-      <c r="AM36" s="4"/>
-      <c r="AS36" s="4"/>
-      <c r="AT36" s="4"/>
-      <c r="AU36" s="4"/>
-    </row>
-    <row r="37" spans="3:63" x14ac:dyDescent="0.15">
-      <c r="C37" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="13"/>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="13"/>
-      <c r="Z37" s="13"/>
-      <c r="AA37" s="13"/>
-      <c r="AB37" s="13"/>
-      <c r="AC37" s="13"/>
-      <c r="AD37" s="13"/>
-      <c r="AE37" s="13"/>
-      <c r="AF37" s="13"/>
-      <c r="AG37" s="13"/>
-      <c r="AH37" s="13"/>
-      <c r="AI37" s="13"/>
-      <c r="AJ37" s="13"/>
-      <c r="AK37" s="13"/>
-      <c r="AL37" s="13"/>
-      <c r="AM37" s="4"/>
-      <c r="AS37" s="4"/>
-      <c r="AT37" s="4"/>
-      <c r="AU37" s="4"/>
-    </row>
-    <row r="38" spans="3:63" x14ac:dyDescent="0.15">
-      <c r="C38" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="13"/>
-      <c r="Z38" s="13"/>
-      <c r="AA38" s="13"/>
-      <c r="AB38" s="13"/>
-      <c r="AC38" s="13"/>
-      <c r="AD38" s="13"/>
-      <c r="AE38" s="13"/>
-      <c r="AF38" s="13"/>
-      <c r="AG38" s="13"/>
-      <c r="AH38" s="13"/>
-      <c r="AI38" s="13"/>
-      <c r="AJ38" s="13"/>
-      <c r="AK38" s="13"/>
-      <c r="AL38" s="13"/>
-      <c r="AM38" s="4"/>
-      <c r="AS38" s="4"/>
-      <c r="AT38" s="4"/>
-      <c r="AU38" s="4"/>
-      <c r="BE38" s="6"/>
-      <c r="BF38" s="6"/>
-      <c r="BG38" s="6"/>
-      <c r="BH38" s="6"/>
-      <c r="BI38" s="6"/>
-      <c r="BJ38" s="6"/>
-      <c r="BK38" s="6"/>
-    </row>
-    <row r="39" spans="3:63" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C39" s="100" t="s">
-        <v>112</v>
-      </c>
-      <c r="D39" s="101"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="102" t="s">
-        <v>687</v>
-      </c>
-      <c r="G39" s="103"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="103" t="s">
-        <v>113</v>
-      </c>
-      <c r="J39" s="104" t="s">
-        <v>117</v>
-      </c>
-      <c r="K39" s="105"/>
-      <c r="L39" s="105"/>
-      <c r="M39" s="103" t="s">
-        <v>95</v>
-      </c>
-      <c r="N39" s="103" t="s">
-        <v>538</v>
-      </c>
-      <c r="O39" s="103"/>
-      <c r="P39" s="103"/>
-      <c r="Q39" s="103" t="s">
-        <v>96</v>
-      </c>
-      <c r="R39" s="99" t="s">
-        <v>539</v>
-      </c>
-      <c r="S39" s="99"/>
-      <c r="T39" s="99"/>
-      <c r="U39" s="106" t="s">
-        <v>113</v>
-      </c>
-      <c r="V39" s="106" t="s">
-        <v>540</v>
-      </c>
-      <c r="W39" s="106"/>
-      <c r="X39" s="106"/>
-      <c r="Y39" s="97" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z39" s="97">
-        <v>1</v>
-      </c>
-      <c r="AA39" s="97"/>
-      <c r="AB39" s="97"/>
-      <c r="AC39" s="97" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD39" s="97" t="s">
-        <v>541</v>
-      </c>
-      <c r="AE39" s="97"/>
-      <c r="AF39" s="97"/>
-      <c r="AG39" s="97" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH39" s="97" t="s">
-        <v>536</v>
-      </c>
-      <c r="AI39" s="97"/>
-      <c r="AJ39" s="97"/>
-      <c r="AK39" s="97" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL39" s="97" t="s">
-        <v>534</v>
-      </c>
-      <c r="AM39" s="97"/>
-      <c r="AN39" s="97"/>
-      <c r="AO39" s="97" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP39" s="97" t="s">
-        <v>531</v>
-      </c>
-      <c r="AQ39" s="97"/>
-      <c r="AR39" s="97"/>
-    </row>
-    <row r="40" spans="3:63" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C40" s="101"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="105"/>
-      <c r="K40" s="105"/>
-      <c r="L40" s="105"/>
-      <c r="M40" s="103"/>
-      <c r="N40" s="103"/>
-      <c r="O40" s="103"/>
-      <c r="P40" s="103"/>
-      <c r="Q40" s="103"/>
-      <c r="R40" s="99"/>
-      <c r="S40" s="99"/>
-      <c r="T40" s="99"/>
-      <c r="U40" s="106"/>
-      <c r="V40" s="106"/>
-      <c r="W40" s="106"/>
-      <c r="X40" s="106"/>
-      <c r="Y40" s="97"/>
-      <c r="Z40" s="97"/>
-      <c r="AA40" s="97"/>
-      <c r="AB40" s="97"/>
-      <c r="AC40" s="97"/>
-      <c r="AD40" s="97"/>
-      <c r="AE40" s="97"/>
-      <c r="AF40" s="97"/>
-      <c r="AG40" s="97"/>
-      <c r="AH40" s="97"/>
-      <c r="AI40" s="97"/>
-      <c r="AJ40" s="97"/>
-      <c r="AK40" s="97"/>
-      <c r="AL40" s="97"/>
-      <c r="AM40" s="97"/>
-      <c r="AN40" s="97"/>
-      <c r="AO40" s="97"/>
-      <c r="AP40" s="97"/>
-      <c r="AQ40" s="97"/>
-      <c r="AR40" s="97"/>
-    </row>
-    <row r="41" spans="3:63" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C41" s="101"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="105"/>
-      <c r="K41" s="105"/>
-      <c r="L41" s="105"/>
-      <c r="M41" s="103"/>
-      <c r="N41" s="103"/>
-      <c r="O41" s="103"/>
-      <c r="P41" s="103"/>
-      <c r="Q41" s="103"/>
-      <c r="R41" s="99"/>
-      <c r="S41" s="99"/>
-      <c r="T41" s="99"/>
-      <c r="U41" s="106"/>
-      <c r="V41" s="106"/>
-      <c r="W41" s="106"/>
-      <c r="X41" s="106"/>
-      <c r="Y41" s="97"/>
-      <c r="Z41" s="97"/>
-      <c r="AA41" s="97"/>
-      <c r="AB41" s="97"/>
-      <c r="AC41" s="97"/>
-      <c r="AD41" s="97"/>
-      <c r="AE41" s="97"/>
-      <c r="AF41" s="97"/>
-      <c r="AG41" s="97"/>
-      <c r="AH41" s="97"/>
-      <c r="AI41" s="97"/>
-      <c r="AJ41" s="97"/>
-      <c r="AK41" s="97"/>
-      <c r="AL41" s="97"/>
-      <c r="AM41" s="97"/>
-      <c r="AN41" s="97"/>
-      <c r="AO41" s="97"/>
-      <c r="AP41" s="97"/>
-      <c r="AQ41" s="97"/>
-      <c r="AR41" s="97"/>
-    </row>
-    <row r="42" spans="3:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C42" s="101"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="103"/>
-      <c r="J42" s="105"/>
-      <c r="K42" s="105"/>
-      <c r="L42" s="105"/>
-      <c r="M42" s="103"/>
-      <c r="N42" s="103"/>
-      <c r="O42" s="103"/>
-      <c r="P42" s="103"/>
-      <c r="Q42" s="103"/>
-      <c r="R42" s="99"/>
-      <c r="S42" s="99"/>
-      <c r="T42" s="99"/>
-      <c r="U42" s="106"/>
-      <c r="V42" s="106"/>
-      <c r="W42" s="106"/>
-      <c r="X42" s="106"/>
-      <c r="Y42" s="97"/>
-      <c r="Z42" s="97"/>
-      <c r="AA42" s="97"/>
-      <c r="AB42" s="97"/>
-      <c r="AC42" s="97"/>
-      <c r="AD42" s="97"/>
-      <c r="AE42" s="97"/>
-      <c r="AF42" s="97"/>
-      <c r="AG42" s="97"/>
-      <c r="AH42" s="97"/>
-      <c r="AI42" s="97"/>
-      <c r="AJ42" s="97"/>
-      <c r="AK42" s="97"/>
-      <c r="AL42" s="97"/>
-      <c r="AM42" s="97"/>
-      <c r="AN42" s="97"/>
-      <c r="AO42" s="97"/>
-      <c r="AP42" s="97"/>
-      <c r="AQ42" s="97"/>
-      <c r="AR42" s="97"/>
-    </row>
-    <row r="43" spans="3:63" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F43" s="103" t="s">
-        <v>556</v>
-      </c>
-      <c r="G43" s="103"/>
-      <c r="H43" s="103"/>
-      <c r="I43" s="103"/>
-      <c r="J43" s="108" t="s">
-        <v>107</v>
-      </c>
-      <c r="K43" s="108"/>
-      <c r="L43" s="108"/>
-      <c r="M43" s="103"/>
-      <c r="N43" s="103" t="s">
-        <v>100</v>
-      </c>
-      <c r="O43" s="103"/>
-      <c r="P43" s="103"/>
-      <c r="Q43" s="103"/>
-      <c r="R43" s="99" t="s">
-        <v>116</v>
-      </c>
-      <c r="S43" s="99"/>
-      <c r="T43" s="99"/>
-      <c r="U43" s="106"/>
-      <c r="V43" s="106" t="s">
-        <v>114</v>
-      </c>
-      <c r="W43" s="106"/>
-      <c r="X43" s="106"/>
-      <c r="Y43" s="97"/>
-      <c r="Z43" s="97"/>
-      <c r="AA43" s="97"/>
-      <c r="AB43" s="97"/>
-      <c r="AC43" s="97"/>
-      <c r="AD43" s="97" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE43" s="97"/>
-      <c r="AF43" s="97"/>
-      <c r="AG43" s="97"/>
-      <c r="AH43" s="97" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI43" s="97"/>
-      <c r="AJ43" s="97"/>
-      <c r="AK43" s="97"/>
-      <c r="AL43" s="97" t="s">
-        <v>108</v>
-      </c>
-      <c r="AM43" s="97"/>
-      <c r="AN43" s="97"/>
-      <c r="AO43" s="97"/>
-      <c r="AP43" s="96" t="s">
-        <v>215</v>
-      </c>
-      <c r="AQ43" s="96"/>
-      <c r="AR43" s="96"/>
-    </row>
-    <row r="44" spans="3:63" x14ac:dyDescent="0.15">
-      <c r="F44" s="99" t="s">
-        <v>146</v>
-      </c>
-      <c r="G44" s="99"/>
-      <c r="H44" s="99"/>
-      <c r="I44" s="99"/>
-      <c r="J44" s="99"/>
-      <c r="K44" s="99"/>
-      <c r="L44" s="99"/>
-      <c r="M44" s="99"/>
-      <c r="N44" s="99"/>
-      <c r="O44" s="99"/>
-      <c r="P44" s="99"/>
-      <c r="Q44" s="99"/>
-      <c r="R44" s="99"/>
-      <c r="S44" s="99"/>
-      <c r="T44" s="99"/>
-      <c r="U44" s="110" t="s">
-        <v>148</v>
-      </c>
-      <c r="V44" s="110"/>
-      <c r="W44" s="110"/>
-      <c r="X44" s="110"/>
-      <c r="Y44" s="96" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z44" s="96"/>
-      <c r="AA44" s="96"/>
-      <c r="AB44" s="96"/>
-      <c r="AC44" s="96"/>
-      <c r="AD44" s="96"/>
-      <c r="AE44" s="96"/>
-      <c r="AF44" s="96"/>
-      <c r="AG44" s="96"/>
-      <c r="AH44" s="96"/>
-      <c r="AI44" s="96"/>
-      <c r="AJ44" s="96"/>
-      <c r="AK44" s="96"/>
-      <c r="AL44" s="96"/>
-      <c r="AM44" s="96"/>
-      <c r="AN44" s="96"/>
-      <c r="AO44" s="96"/>
-      <c r="AP44" s="96"/>
-      <c r="AQ44" s="96"/>
-      <c r="AR44" s="96"/>
-    </row>
-    <row r="45" spans="3:63" x14ac:dyDescent="0.15">
-      <c r="AW45" s="3"/>
-      <c r="AX45" s="3"/>
-      <c r="AY45" s="3"/>
-      <c r="AZ45" s="3"/>
-      <c r="BA45" s="3"/>
-      <c r="BB45" s="3"/>
-    </row>
-    <row r="47" spans="3:63" x14ac:dyDescent="0.15">
-      <c r="C47" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48" spans="3:63" x14ac:dyDescent="0.15">
-      <c r="D48" s="5"/>
-      <c r="E48" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D49" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D50" s="10"/>
-      <c r="E50" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D51" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D52" s="11"/>
-      <c r="E52" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D53" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G53" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C55" s="1" t="s">
+    <row r="61" spans="3:54" x14ac:dyDescent="0.15">
+      <c r="C61" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D56" s="1" t="s">
+    <row r="62" spans="3:54" x14ac:dyDescent="0.15">
+      <c r="D62" s="1" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="E57" s="1" t="s">
+    <row r="63" spans="3:54" x14ac:dyDescent="0.15">
+      <c r="E63" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="F58" s="1" t="s">
+    <row r="64" spans="3:54" x14ac:dyDescent="0.15">
+      <c r="F64" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="E59" s="1" t="s">
+    <row r="65" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E65" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="F60" s="1" t="s">
+    <row r="66" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="F66" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="F61" s="1" t="s">
+    <row r="67" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="F67" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="E63" s="1" t="s">
+    <row r="69" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E69" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="F64" s="1" t="s">
+    <row r="70" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="F70" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F65" s="1" t="s">
+    <row r="71" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="F71" s="1" t="s">
         <v>505</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="117">
-    <mergeCell ref="C22:E25"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="Y35:AB35"/>
-    <mergeCell ref="U44:X44"/>
-    <mergeCell ref="F27:Y27"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="W26:Y26"/>
-    <mergeCell ref="AA26:AC26"/>
-    <mergeCell ref="Z22:Z26"/>
-    <mergeCell ref="AA22:AC25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="J22:L25"/>
-    <mergeCell ref="I22:I26"/>
-    <mergeCell ref="F22:H25"/>
-    <mergeCell ref="Z27:AC27"/>
-    <mergeCell ref="F44:T44"/>
-    <mergeCell ref="I30:I34"/>
-    <mergeCell ref="J30:L33"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="N22:N26"/>
-    <mergeCell ref="O22:Q25"/>
-    <mergeCell ref="R22:R26"/>
-    <mergeCell ref="S22:U25"/>
-    <mergeCell ref="V22:V26"/>
-    <mergeCell ref="W22:Y25"/>
-    <mergeCell ref="M30:M34"/>
-    <mergeCell ref="N30:P33"/>
-    <mergeCell ref="Q30:Q34"/>
-    <mergeCell ref="R30:T33"/>
-    <mergeCell ref="U30:U34"/>
-    <mergeCell ref="V30:X33"/>
-    <mergeCell ref="Y30:Y34"/>
-    <mergeCell ref="BA30:BA34"/>
-    <mergeCell ref="AG30:AG34"/>
-    <mergeCell ref="AH30:AJ33"/>
-    <mergeCell ref="AK30:AK34"/>
-    <mergeCell ref="AL30:AN33"/>
-    <mergeCell ref="AO30:AO34"/>
-    <mergeCell ref="AP30:AR33"/>
-    <mergeCell ref="AH34:AJ34"/>
-    <mergeCell ref="AL34:AN34"/>
-    <mergeCell ref="AP34:AR34"/>
-    <mergeCell ref="AS30:AS34"/>
-    <mergeCell ref="AK39:AK43"/>
-    <mergeCell ref="AL39:AN42"/>
-    <mergeCell ref="AO39:AO43"/>
-    <mergeCell ref="AP39:AR42"/>
-    <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="Y39:Y43"/>
-    <mergeCell ref="Z39:AB42"/>
-    <mergeCell ref="AC39:AC43"/>
-    <mergeCell ref="AX30:AZ33"/>
-    <mergeCell ref="F35:X35"/>
-    <mergeCell ref="C39:E42"/>
-    <mergeCell ref="F39:H42"/>
-    <mergeCell ref="I39:I43"/>
-    <mergeCell ref="J39:L42"/>
-    <mergeCell ref="M39:M43"/>
-    <mergeCell ref="N39:P42"/>
-    <mergeCell ref="AD34:AF34"/>
-    <mergeCell ref="Z30:AB33"/>
-    <mergeCell ref="AC30:AC34"/>
-    <mergeCell ref="AD30:AF33"/>
-    <mergeCell ref="Z34:AB34"/>
-    <mergeCell ref="AD39:AF42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="R39:T42"/>
-    <mergeCell ref="U39:U43"/>
-    <mergeCell ref="V39:X42"/>
-    <mergeCell ref="Q39:Q43"/>
-    <mergeCell ref="C30:E33"/>
-    <mergeCell ref="F30:H33"/>
-    <mergeCell ref="AT22:AT26"/>
-    <mergeCell ref="AU22:AW25"/>
-    <mergeCell ref="AI22:AK25"/>
-    <mergeCell ref="AL22:AL26"/>
-    <mergeCell ref="AM22:AO25"/>
-    <mergeCell ref="AP22:AP26"/>
-    <mergeCell ref="AQ22:AS25"/>
-    <mergeCell ref="AI26:AK26"/>
-    <mergeCell ref="AM26:AO26"/>
-    <mergeCell ref="AQ26:AS26"/>
-    <mergeCell ref="AX22:AX26"/>
-    <mergeCell ref="AY22:BA25"/>
-    <mergeCell ref="AX27:BA27"/>
-    <mergeCell ref="AD27:AW27"/>
-    <mergeCell ref="AU26:AW26"/>
-    <mergeCell ref="AH22:AH26"/>
-    <mergeCell ref="AD22:AD26"/>
-    <mergeCell ref="AE22:AG25"/>
-    <mergeCell ref="AE26:AG26"/>
-    <mergeCell ref="BF30:BH34"/>
-    <mergeCell ref="BE35:BH35"/>
-    <mergeCell ref="AC35:BD35"/>
-    <mergeCell ref="BB30:BD33"/>
-    <mergeCell ref="BB34:BD34"/>
-    <mergeCell ref="AX34:AZ34"/>
-    <mergeCell ref="AT34:AV34"/>
-    <mergeCell ref="AH39:AJ42"/>
-    <mergeCell ref="BE30:BE34"/>
-    <mergeCell ref="AG39:AG43"/>
-    <mergeCell ref="AD43:AF43"/>
-    <mergeCell ref="AH43:AJ43"/>
-    <mergeCell ref="AT30:AV33"/>
-    <mergeCell ref="AW30:AW34"/>
-    <mergeCell ref="Y44:AR44"/>
-    <mergeCell ref="AL43:AN43"/>
-    <mergeCell ref="AP43:AR43"/>
+  <mergeCells count="123">
+    <mergeCell ref="BI36:BI40"/>
+    <mergeCell ref="BJ36:BL40"/>
+    <mergeCell ref="BI41:BL41"/>
+    <mergeCell ref="Y50:AR50"/>
+    <mergeCell ref="AL49:AN49"/>
+    <mergeCell ref="AP49:AR49"/>
+    <mergeCell ref="AY28:BA32"/>
+    <mergeCell ref="BB28:BB32"/>
+    <mergeCell ref="BC28:BE32"/>
+    <mergeCell ref="BB33:BE33"/>
+    <mergeCell ref="BF36:BH40"/>
+    <mergeCell ref="BE41:BH41"/>
+    <mergeCell ref="AC41:BD41"/>
+    <mergeCell ref="BB36:BD39"/>
+    <mergeCell ref="BB40:BD40"/>
+    <mergeCell ref="AX40:AZ40"/>
+    <mergeCell ref="AT40:AV40"/>
+    <mergeCell ref="AH45:AJ48"/>
+    <mergeCell ref="BE36:BE40"/>
+    <mergeCell ref="AG45:AG49"/>
+    <mergeCell ref="AD49:AF49"/>
+    <mergeCell ref="AH49:AJ49"/>
+    <mergeCell ref="AT36:AV39"/>
+    <mergeCell ref="AW36:AW40"/>
+    <mergeCell ref="AX28:AX32"/>
+    <mergeCell ref="AX33:BA33"/>
+    <mergeCell ref="AD33:AW33"/>
+    <mergeCell ref="AU32:AW32"/>
+    <mergeCell ref="AH28:AH32"/>
+    <mergeCell ref="AD28:AD32"/>
+    <mergeCell ref="AE28:AG31"/>
+    <mergeCell ref="AE32:AG32"/>
+    <mergeCell ref="AT28:AT32"/>
+    <mergeCell ref="AU28:AW31"/>
+    <mergeCell ref="AI28:AK31"/>
+    <mergeCell ref="AL28:AL32"/>
+    <mergeCell ref="AM28:AO31"/>
+    <mergeCell ref="AP28:AP32"/>
+    <mergeCell ref="AQ28:AS31"/>
+    <mergeCell ref="AI32:AK32"/>
+    <mergeCell ref="AM32:AO32"/>
+    <mergeCell ref="AQ32:AS32"/>
+    <mergeCell ref="F41:X41"/>
+    <mergeCell ref="C45:E48"/>
+    <mergeCell ref="F45:H48"/>
+    <mergeCell ref="I45:I49"/>
+    <mergeCell ref="J45:L48"/>
+    <mergeCell ref="M45:M49"/>
+    <mergeCell ref="N45:P48"/>
+    <mergeCell ref="AD40:AF40"/>
+    <mergeCell ref="Z36:AB39"/>
+    <mergeCell ref="AC36:AC40"/>
+    <mergeCell ref="AD36:AF39"/>
+    <mergeCell ref="Z40:AB40"/>
+    <mergeCell ref="AD45:AF48"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="R45:T48"/>
+    <mergeCell ref="U45:U49"/>
+    <mergeCell ref="V45:X48"/>
+    <mergeCell ref="Q45:Q49"/>
+    <mergeCell ref="C36:E39"/>
+    <mergeCell ref="F36:H39"/>
+    <mergeCell ref="AK45:AK49"/>
+    <mergeCell ref="AL45:AN48"/>
+    <mergeCell ref="AO45:AO49"/>
+    <mergeCell ref="AP45:AR48"/>
+    <mergeCell ref="Z49:AB49"/>
+    <mergeCell ref="Y45:Y49"/>
+    <mergeCell ref="Z45:AB48"/>
+    <mergeCell ref="AC45:AC49"/>
+    <mergeCell ref="AX36:AZ39"/>
+    <mergeCell ref="BA36:BA40"/>
+    <mergeCell ref="AG36:AG40"/>
+    <mergeCell ref="AH36:AJ39"/>
+    <mergeCell ref="AK36:AK40"/>
+    <mergeCell ref="AL36:AN39"/>
+    <mergeCell ref="AO36:AO40"/>
+    <mergeCell ref="AP36:AR39"/>
+    <mergeCell ref="AH40:AJ40"/>
+    <mergeCell ref="AL40:AN40"/>
+    <mergeCell ref="AP40:AR40"/>
+    <mergeCell ref="AS36:AS40"/>
+    <mergeCell ref="N28:N32"/>
+    <mergeCell ref="O28:Q31"/>
+    <mergeCell ref="R28:R32"/>
+    <mergeCell ref="S28:U31"/>
+    <mergeCell ref="V28:V32"/>
+    <mergeCell ref="W28:Y31"/>
+    <mergeCell ref="M36:M40"/>
+    <mergeCell ref="N36:P39"/>
+    <mergeCell ref="Q36:Q40"/>
+    <mergeCell ref="R36:T39"/>
+    <mergeCell ref="U36:U40"/>
+    <mergeCell ref="V36:X39"/>
+    <mergeCell ref="Y36:Y40"/>
+    <mergeCell ref="C28:E31"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="Y41:AB41"/>
+    <mergeCell ref="U50:X50"/>
+    <mergeCell ref="F33:Y33"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="AA32:AC32"/>
+    <mergeCell ref="Z28:Z32"/>
+    <mergeCell ref="AA28:AC31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="J28:L31"/>
+    <mergeCell ref="I28:I32"/>
+    <mergeCell ref="F28:H31"/>
+    <mergeCell ref="Z33:AC33"/>
+    <mergeCell ref="F50:T50"/>
+    <mergeCell ref="I36:I40"/>
+    <mergeCell ref="J36:L39"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="V40:X40"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23642,8 +24300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23985,65 +24643,65 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64" t="s">
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64" t="s">
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64" t="s">
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="100"/>
+      <c r="AD2" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64" t="s">
+      <c r="AE2" s="100"/>
+      <c r="AF2" s="100"/>
+      <c r="AG2" s="100"/>
+      <c r="AH2" s="100"/>
+      <c r="AI2" s="100"/>
+      <c r="AJ2" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64" t="s">
+      <c r="AK2" s="100"/>
+      <c r="AL2" s="100"/>
+      <c r="AM2" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="64"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="64"/>
-      <c r="AS2" s="64"/>
-      <c r="AT2" s="64"/>
-      <c r="AU2" s="64"/>
-      <c r="AV2" s="64"/>
+      <c r="AN2" s="100"/>
+      <c r="AO2" s="100"/>
+      <c r="AP2" s="100"/>
+      <c r="AQ2" s="100"/>
+      <c r="AR2" s="100"/>
+      <c r="AS2" s="100"/>
+      <c r="AT2" s="100"/>
+      <c r="AU2" s="100"/>
+      <c r="AV2" s="100"/>
       <c r="AW2" s="4" t="s">
         <v>40</v>
       </c>

--- a/gd/数值规划/怪物属性配置及伤害公式.xlsx
+++ b/gd/数值规划/怪物属性配置及伤害公式.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="838">
   <si>
     <t>技能升级</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1036,19 +1036,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>monsterLevel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>限制1级属性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>经验</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>monsterExperience</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1413,10 +1405,6 @@
   </si>
   <si>
     <t>客户端显示的名字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>品级。0=E；1=D;2=C;3=B;4=A;5=S</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2391,10 +2379,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>稀有度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>防御力比例修正</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3249,18 +3233,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>disposition</t>
-  </si>
-  <si>
-    <t>diligence</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>勤奋度积累值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>diligenceUpgrade</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3313,37 +3286,83 @@
     <t>ui/monster/Unit_Demo_jiuweihu</t>
   </si>
   <si>
+    <t>["attackMedium","magicCureMedium","buffMagic","ultErshu","lazy","defend"]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能ID列表，格式：["spellID1","spellID2",..]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>["jiuweihu_wp1","jiuweihu_wp2"]</t>
+  </si>
+  <si>
+    <t>weakpoint_list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归配置表结构，删除AI调用，副本层需添加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式：["spellID1","spellID2",..]</t>
+  </si>
+  <si>
+    <t>弱点ID列表，格式：["weakpoint1","weakpoint2",..]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式：["weakpoint1","weakpoint2",..]</t>
+  </si>
+  <si>
+    <t>disposition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialTargetID</t>
+  </si>
+  <si>
+    <t>由于怪物被动带来的优先于技能本身目标选择的特殊ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lazy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lazyExp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>要写具体的头像路径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>["attackMedium","magicCureMedium","buffMagic","ultErshu","lazy","defend"]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能ID列表，格式：["spellID1","spellID2",..]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>["jiuweihu_wp1","jiuweihu_wp2"]</t>
-  </si>
-  <si>
-    <t>weakpoint_list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>回归配置表结构，删除AI调用，副本层需添加</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格式：["spellID1","spellID2",..]</t>
-  </si>
-  <si>
-    <t>弱点ID列表，格式：["weakpoint1","weakpoint2",..]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格式：["weakpoint1","weakpoint2",..]</t>
+  </si>
+  <si>
+    <t>要写具体的头像路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有度。0=E；1=D;2=C;3=B;4=A;5=S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=E；1=D;2=C;3=B;4=A;5=S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/monster/Unit_Demo_ershu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4076,6 +4095,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4130,20 +4164,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4151,17 +4233,20 @@
     <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4175,69 +4260,6 @@
     <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4245,52 +4267,49 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4316,13 +4335,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>305971</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>187418</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4332,7 +4351,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8801100" y="22240875"/>
+          <a:off x="8801100" y="22659975"/>
           <a:ext cx="16593721" cy="5397593"/>
           <a:chOff x="2962275" y="15087600"/>
           <a:chExt cx="13517146" cy="5397593"/>
@@ -5433,13 +5452,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>313869</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>10117</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5496,13 +5515,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>145610</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>70403</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5549,13 +5568,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2029417</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>99208</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5609,13 +5628,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1073729</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>64376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>116279</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5656,13 +5675,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1047750</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>682881</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>191826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5716,13 +5735,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1057104</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>207065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>6435</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>103035</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5776,13 +5795,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1057104</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>5300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>6435</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>110821</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5836,13 +5855,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>38438</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>82826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>358478</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>46120</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5894,13 +5913,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2029417</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>38763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1047750</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>116279</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5944,13 +5963,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2029417</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>155050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1057104</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>116279</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5994,13 +6013,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2029417</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>116279</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6043,13 +6062,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2029417</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>116279</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1057104</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>162836</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6093,13 +6112,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>145610</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>6369</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>183084</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>116164</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6145,13 +6164,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>61421</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>6369</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>461577</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>19069</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16617,7 +16636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -16628,10 +16647,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="62" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B1" s="63" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C1" s="63"/>
       <c r="D1" s="64"/>
@@ -16666,10 +16685,10 @@
     </row>
     <row r="3" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A3" s="62" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C3" s="63"/>
       <c r="D3" s="64"/>
@@ -16704,10 +16723,10 @@
     </row>
     <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="62" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C5" s="63"/>
       <c r="D5" s="64"/>
@@ -16742,10 +16761,10 @@
     </row>
     <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="62" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C7" s="63"/>
       <c r="D7" s="67"/>
@@ -16797,7 +16816,7 @@
     </row>
     <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="62" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B10" s="63"/>
       <c r="C10" s="64"/>
@@ -16816,17 +16835,17 @@
     </row>
     <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="62"/>
-      <c r="B11" s="87" t="s">
-        <v>751</v>
-      </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="89" t="s">
-        <v>752</v>
-      </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="90"/>
+      <c r="B11" s="92" t="s">
+        <v>747</v>
+      </c>
+      <c r="C11" s="93"/>
+      <c r="D11" s="94" t="s">
+        <v>748</v>
+      </c>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="95"/>
       <c r="I11" s="63"/>
       <c r="J11" s="63"/>
       <c r="K11" s="63"/>
@@ -16838,14 +16857,14 @@
     <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="62"/>
       <c r="B12" s="68" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="C12" s="69"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="84"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="89"/>
       <c r="I12" s="63"/>
       <c r="J12" s="63"/>
       <c r="K12" s="63"/>
@@ -16857,14 +16876,14 @@
     <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="62"/>
       <c r="B13" s="68" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C13" s="69"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="93"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="98"/>
       <c r="I13" s="63"/>
       <c r="J13" s="63"/>
       <c r="K13" s="63"/>
@@ -16876,14 +16895,14 @@
     <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="62"/>
       <c r="B14" s="68" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C14" s="69"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="96"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="101"/>
       <c r="I14" s="63"/>
       <c r="J14" s="63"/>
       <c r="K14" s="63"/>
@@ -16895,16 +16914,16 @@
     <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="62"/>
       <c r="B15" s="68" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C15" s="70" t="s">
-        <v>757</v>
-      </c>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="84"/>
+        <v>753</v>
+      </c>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="89"/>
       <c r="I15" s="63"/>
       <c r="J15" s="63"/>
       <c r="K15" s="63"/>
@@ -16916,14 +16935,14 @@
     <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="62"/>
       <c r="B16" s="68" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C16" s="70"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="84"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="89"/>
       <c r="I16" s="63"/>
       <c r="J16" s="63"/>
       <c r="K16" s="63"/>
@@ -16935,14 +16954,14 @@
     <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="62"/>
       <c r="B17" s="68" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C17" s="70"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="84"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="89"/>
       <c r="I17" s="63"/>
       <c r="J17" s="63"/>
       <c r="K17" s="63"/>
@@ -16954,14 +16973,14 @@
     <row r="18" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="62"/>
       <c r="B18" s="71" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C18" s="72"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="86"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="91"/>
       <c r="I18" s="63"/>
       <c r="J18" s="63"/>
       <c r="K18" s="63"/>
@@ -16989,25 +17008,25 @@
     </row>
     <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="62" t="s">
+        <v>757</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>758</v>
+      </c>
+      <c r="C20" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>760</v>
+      </c>
+      <c r="E20" s="64" t="s">
         <v>761</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="F20" s="64" t="s">
         <v>762</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="G20" s="64" t="s">
         <v>763</v>
-      </c>
-      <c r="D20" s="64" t="s">
-        <v>764</v>
-      </c>
-      <c r="E20" s="64" t="s">
-        <v>765</v>
-      </c>
-      <c r="F20" s="64" t="s">
-        <v>766</v>
-      </c>
-      <c r="G20" s="64" t="s">
-        <v>767</v>
       </c>
       <c r="H20" s="63"/>
       <c r="I20" s="63"/>
@@ -17038,19 +17057,19 @@
     <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="62"/>
       <c r="B22" s="63" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C22" s="73">
         <v>42125</v>
       </c>
       <c r="D22" s="64" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="E22" s="64" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="F22" s="64" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="G22" s="64"/>
       <c r="H22" s="63"/>
@@ -17065,7 +17084,7 @@
     <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="62"/>
       <c r="B23" s="63" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C23" s="73">
         <v>42130</v>
@@ -17074,10 +17093,10 @@
       <c r="E23" s="74"/>
       <c r="F23" s="63"/>
       <c r="G23" s="64" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="H23" s="67" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="I23" s="63"/>
       <c r="J23" s="63"/>
@@ -17093,10 +17112,10 @@
       <c r="E24" s="75"/>
       <c r="F24" s="63"/>
       <c r="G24" s="64" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="H24" s="79" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="I24" s="63"/>
       <c r="J24" s="63"/>
@@ -17107,7 +17126,7 @@
     </row>
     <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B25" s="63" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C25" s="73">
         <v>42139</v>
@@ -17115,26 +17134,26 @@
       <c r="E25" s="78"/>
       <c r="F25" s="64"/>
       <c r="G25" s="64" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="H25" s="76" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="I25" s="63"/>
       <c r="J25" s="63" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="K25" s="63"/>
       <c r="L25" s="63"/>
       <c r="M25" s="63"/>
       <c r="N25" s="80" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="O25" s="63"/>
     </row>
     <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B26" s="63" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="C26" s="73">
         <v>42142</v>
@@ -17142,10 +17161,10 @@
       <c r="E26" s="82"/>
       <c r="F26" s="64"/>
       <c r="G26" s="64" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="H26" s="76" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="I26" s="63"/>
       <c r="J26" s="63"/>
@@ -17157,25 +17176,25 @@
     </row>
     <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B27" s="63" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="C27" s="73">
         <v>42145</v>
       </c>
-      <c r="E27" s="151"/>
+      <c r="E27" s="86"/>
       <c r="F27" s="64"/>
       <c r="G27" s="64" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="H27" s="76" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="I27" s="63"/>
       <c r="J27" s="63"/>
       <c r="K27" s="63"/>
       <c r="L27" s="63"/>
       <c r="M27" s="63" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="N27" s="80"/>
       <c r="O27" s="63"/>
@@ -17199,19 +17218,19 @@
     </row>
     <row r="29" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="62" t="s">
+        <v>769</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>770</v>
+      </c>
+      <c r="C29" s="64" t="s">
+        <v>771</v>
+      </c>
+      <c r="D29" s="64" t="s">
+        <v>772</v>
+      </c>
+      <c r="E29" s="64" t="s">
         <v>773</v>
-      </c>
-      <c r="B29" s="63" t="s">
-        <v>774</v>
-      </c>
-      <c r="C29" s="64" t="s">
-        <v>775</v>
-      </c>
-      <c r="D29" s="64" t="s">
-        <v>776</v>
-      </c>
-      <c r="E29" s="64" t="s">
-        <v>777</v>
       </c>
       <c r="F29" s="64"/>
       <c r="G29" s="64"/>
@@ -17226,14 +17245,14 @@
     </row>
     <row r="30" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="62" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="B30" s="63" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C30" s="63"/>
       <c r="D30" s="67" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="E30" s="67"/>
       <c r="F30" s="64"/>
@@ -17306,10 +17325,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X227"/>
+  <dimension ref="A2:X229"/>
   <sheetViews>
-    <sheetView topLeftCell="C163" workbookViewId="0">
-      <selection activeCell="E183" sqref="E183"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -17336,7 +17355,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F4" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -17346,7 +17365,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F6" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -17356,7 +17375,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>245</v>
@@ -17364,7 +17383,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>120</v>
@@ -17427,7 +17446,7 @@
     </row>
     <row r="21" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E21" s="11" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -17439,7 +17458,7 @@
     <row r="22" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E22" s="11"/>
       <c r="F22" s="11" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -17449,7 +17468,7 @@
     </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E23" s="11" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -17461,7 +17480,7 @@
     <row r="24" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E24" s="11"/>
       <c r="F24" s="11" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -17471,7 +17490,7 @@
     </row>
     <row r="25" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E25" s="11" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -17483,7 +17502,7 @@
     <row r="26" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E26" s="11"/>
       <c r="F26" s="11" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -17493,7 +17512,7 @@
     </row>
     <row r="27" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E27" s="53" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -17505,7 +17524,7 @@
     <row r="28" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E28" s="11"/>
       <c r="F28" s="11" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -17515,7 +17534,7 @@
     </row>
     <row r="29" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E29" s="11" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
@@ -17527,7 +17546,7 @@
     <row r="30" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E30" s="11"/>
       <c r="F30" s="11" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
@@ -17537,7 +17556,7 @@
     </row>
     <row r="31" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E31" s="11" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
@@ -17549,7 +17568,7 @@
     <row r="32" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E32" s="11"/>
       <c r="F32" s="11" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
@@ -17559,7 +17578,7 @@
     </row>
     <row r="33" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E33" s="11" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
@@ -17571,7 +17590,7 @@
     <row r="34" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E34" s="11"/>
       <c r="F34" s="11" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -17581,7 +17600,7 @@
     </row>
     <row r="35" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E35" s="11" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
@@ -17593,7 +17612,7 @@
     <row r="36" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E36" s="11"/>
       <c r="F36" s="11" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
@@ -17603,7 +17622,7 @@
     </row>
     <row r="37" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E37" s="11" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
@@ -17615,7 +17634,7 @@
     <row r="38" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E38" s="11"/>
       <c r="F38" s="11" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
@@ -17625,7 +17644,7 @@
     </row>
     <row r="39" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E39" s="11" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
@@ -17638,10 +17657,10 @@
     <row r="40" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E40" s="11"/>
       <c r="F40" s="11" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
@@ -17652,10 +17671,10 @@
     <row r="41" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E41" s="11"/>
       <c r="F41" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="G41" s="11" t="s">
         <v>677</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>681</v>
       </c>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -17665,7 +17684,7 @@
     </row>
     <row r="42" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E42" s="11" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
@@ -17678,7 +17697,7 @@
     <row r="43" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E43" s="11"/>
       <c r="F43" s="11" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -17691,7 +17710,7 @@
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
@@ -17703,7 +17722,7 @@
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
@@ -17715,7 +17734,7 @@
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
@@ -17727,7 +17746,7 @@
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
@@ -17739,7 +17758,7 @@
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
@@ -17748,7 +17767,7 @@
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B50" s="9" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>254</v>
@@ -17756,7 +17775,7 @@
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D51" s="28" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.15">
@@ -17782,10 +17801,10 @@
         <v>258</v>
       </c>
       <c r="F54" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="H54" s="3"/>
     </row>
@@ -17797,13 +17816,13 @@
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.15">
       <c r="E56" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F56" s="32" t="s">
+        <v>837</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="F56" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="H56" s="3"/>
     </row>
@@ -17815,15 +17834,17 @@
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.15">
       <c r="E58" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="H58" s="3"/>
+        <v>312</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>834</v>
+      </c>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.15">
       <c r="E59" s="3"/>
@@ -17833,68 +17854,68 @@
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.15">
       <c r="E60" s="3" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="H60" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J60" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="K60" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="L60" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="M60" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="N60" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="K60" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="L60" s="1" t="s">
+      <c r="O60" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="P60" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="N60" s="1" t="s">
+      <c r="Q60" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="O60" s="1" t="s">
+      <c r="R60" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="W60" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="R60" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="S60" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="T60" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="U60" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="V60" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="W60" s="1" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.15">
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H61" s="1">
         <v>0</v>
@@ -17953,10 +17974,10 @@
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.15">
       <c r="E63" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -17974,13 +17995,13 @@
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.15">
       <c r="E65" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F65" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="F65" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
@@ -17996,52 +18017,64 @@
       <c r="L66" s="3"/>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="E67" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="I67" s="33"/>
-      <c r="K67" s="33"/>
+      <c r="C67" s="3"/>
+      <c r="E67" s="83" t="s">
+        <v>813</v>
+      </c>
+      <c r="F67" s="83" t="s">
+        <v>812</v>
+      </c>
+      <c r="G67" s="83" t="s">
+        <v>830</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="I67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="G68" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="I68" s="33"/>
-      <c r="J68" s="33"/>
+      <c r="C68" s="3"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.15">
       <c r="E69" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="J69" s="33"/>
+        <v>269</v>
+      </c>
+      <c r="I69" s="33"/>
+      <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="G70" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I70" s="33"/>
       <c r="J70" s="33"/>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.15">
       <c r="E71" s="1" t="s">
-        <v>488</v>
+        <v>270</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>487</v>
+        <v>271</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>489</v>
+        <v>272</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="J71" s="33"/>
     </row>
@@ -18049,232 +18082,221 @@
       <c r="J72" s="33"/>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="E73" s="148" t="s">
+      <c r="E73" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="J73" s="33"/>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="J74" s="33"/>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="E75" s="83" t="s">
+        <v>802</v>
+      </c>
+      <c r="F75" s="83" t="s">
+        <v>828</v>
+      </c>
+      <c r="G75" s="83" t="s">
         <v>806</v>
       </c>
-      <c r="F73" s="148" t="s">
-        <v>808</v>
-      </c>
-      <c r="G73" s="148" t="s">
-        <v>813</v>
-      </c>
-      <c r="H73" s="150"/>
-      <c r="I73" s="148"/>
-      <c r="J73" s="149"/>
-      <c r="K73" s="148"/>
-      <c r="L73" s="148"/>
-      <c r="M73" s="148"/>
-      <c r="N73" s="148"/>
-      <c r="O73" s="148"/>
-      <c r="P73" s="148"/>
-      <c r="Q73" s="148"/>
-      <c r="R73" s="148"/>
-      <c r="S73" s="148"/>
-      <c r="T73" s="148"/>
-      <c r="U73" s="148"/>
-      <c r="V73" s="148"/>
-      <c r="W73" s="148"/>
-      <c r="X73" s="148"/>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="E74" s="148"/>
-      <c r="F74" s="148"/>
-      <c r="G74" s="148"/>
-      <c r="H74" s="148"/>
-      <c r="I74" s="148"/>
-      <c r="J74" s="149"/>
-      <c r="K74" s="148"/>
-      <c r="L74" s="148"/>
-      <c r="M74" s="148"/>
-      <c r="N74" s="148"/>
-      <c r="O74" s="148"/>
-      <c r="P74" s="148"/>
-      <c r="Q74" s="148"/>
-      <c r="R74" s="148"/>
-      <c r="S74" s="148"/>
-      <c r="T74" s="148"/>
-      <c r="U74" s="148"/>
-      <c r="V74" s="148"/>
-      <c r="W74" s="148"/>
-      <c r="X74" s="148"/>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="E75" s="148" t="s">
-        <v>809</v>
-      </c>
-      <c r="F75" s="148" t="s">
-        <v>810</v>
-      </c>
-      <c r="G75" s="148" t="s">
-        <v>811</v>
-      </c>
-      <c r="H75" s="148"/>
-      <c r="I75" s="148"/>
-      <c r="J75" s="149"/>
-      <c r="K75" s="148"/>
-      <c r="L75" s="148"/>
-      <c r="M75" s="148"/>
-      <c r="N75" s="148"/>
-      <c r="O75" s="148"/>
-      <c r="P75" s="148"/>
-      <c r="Q75" s="148"/>
-      <c r="R75" s="148"/>
-      <c r="S75" s="148"/>
-      <c r="T75" s="148"/>
-      <c r="U75" s="148"/>
-      <c r="V75" s="148"/>
-      <c r="W75" s="148"/>
-      <c r="X75" s="148"/>
+      <c r="H75" s="85"/>
+      <c r="I75" s="83"/>
+      <c r="J75" s="84"/>
+      <c r="K75" s="83"/>
+      <c r="L75" s="83"/>
+      <c r="M75" s="83"/>
+      <c r="N75" s="83"/>
+      <c r="O75" s="83"/>
+      <c r="P75" s="83"/>
+      <c r="Q75" s="83"/>
+      <c r="R75" s="83"/>
+      <c r="S75" s="83"/>
+      <c r="T75" s="83"/>
+      <c r="U75" s="83"/>
+      <c r="V75" s="83"/>
+      <c r="W75" s="83"/>
+      <c r="X75" s="83"/>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="E76" s="148"/>
-      <c r="F76" s="148"/>
-      <c r="G76" s="148"/>
-      <c r="H76" s="148"/>
-      <c r="I76" s="148"/>
-      <c r="J76" s="149"/>
-      <c r="K76" s="148"/>
-      <c r="L76" s="148"/>
-      <c r="M76" s="148"/>
-      <c r="N76" s="148"/>
-      <c r="O76" s="148"/>
-      <c r="P76" s="148"/>
-      <c r="Q76" s="148"/>
-      <c r="R76" s="148"/>
-      <c r="S76" s="148"/>
-      <c r="T76" s="148"/>
-      <c r="U76" s="148"/>
-      <c r="V76" s="148"/>
-      <c r="W76" s="148"/>
-      <c r="X76" s="148"/>
+      <c r="E76" s="83"/>
+      <c r="F76" s="83"/>
+      <c r="G76" s="83"/>
+      <c r="H76" s="83"/>
+      <c r="I76" s="83"/>
+      <c r="J76" s="84"/>
+      <c r="K76" s="83"/>
+      <c r="L76" s="83"/>
+      <c r="M76" s="83"/>
+      <c r="N76" s="83"/>
+      <c r="O76" s="83"/>
+      <c r="P76" s="83"/>
+      <c r="Q76" s="83"/>
+      <c r="R76" s="83"/>
+      <c r="S76" s="83"/>
+      <c r="T76" s="83"/>
+      <c r="U76" s="83"/>
+      <c r="V76" s="83"/>
+      <c r="W76" s="83"/>
+      <c r="X76" s="83"/>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A77" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="E77" s="148" t="s">
+      <c r="E77" s="83" t="s">
+        <v>803</v>
+      </c>
+      <c r="F77" s="83" t="s">
+        <v>829</v>
+      </c>
+      <c r="G77" s="83" t="s">
+        <v>804</v>
+      </c>
+      <c r="H77" s="83"/>
+      <c r="I77" s="83"/>
+      <c r="J77" s="84"/>
+      <c r="K77" s="83"/>
+      <c r="L77" s="83"/>
+      <c r="M77" s="83"/>
+      <c r="N77" s="83"/>
+      <c r="O77" s="83"/>
+      <c r="P77" s="83"/>
+      <c r="Q77" s="83"/>
+      <c r="R77" s="83"/>
+      <c r="S77" s="83"/>
+      <c r="T77" s="83"/>
+      <c r="U77" s="83"/>
+      <c r="V77" s="83"/>
+      <c r="W77" s="83"/>
+      <c r="X77" s="83"/>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="E78" s="83"/>
+      <c r="F78" s="83"/>
+      <c r="G78" s="83"/>
+      <c r="H78" s="83"/>
+      <c r="I78" s="83"/>
+      <c r="J78" s="84"/>
+      <c r="K78" s="83"/>
+      <c r="L78" s="83"/>
+      <c r="M78" s="83"/>
+      <c r="N78" s="83"/>
+      <c r="O78" s="83"/>
+      <c r="P78" s="83"/>
+      <c r="Q78" s="83"/>
+      <c r="R78" s="83"/>
+      <c r="S78" s="83"/>
+      <c r="T78" s="83"/>
+      <c r="U78" s="83"/>
+      <c r="V78" s="83"/>
+      <c r="W78" s="83"/>
+      <c r="X78" s="83"/>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A79" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="E79" s="83" t="s">
+        <v>801</v>
+      </c>
+      <c r="F79" s="83" t="s">
+        <v>825</v>
+      </c>
+      <c r="G79" s="83" t="s">
         <v>805</v>
       </c>
-      <c r="F77" s="148" t="s">
-        <v>807</v>
-      </c>
-      <c r="G77" s="148" t="s">
-        <v>812</v>
-      </c>
-      <c r="H77" s="148"/>
-      <c r="I77" s="149"/>
-      <c r="J77" s="148"/>
-      <c r="K77" s="148"/>
-      <c r="L77" s="148"/>
-      <c r="M77" s="148"/>
-      <c r="N77" s="148"/>
-      <c r="O77" s="148"/>
-      <c r="P77" s="148"/>
-      <c r="Q77" s="148"/>
-      <c r="R77" s="148"/>
-      <c r="S77" s="148"/>
-      <c r="T77" s="148"/>
-      <c r="U77" s="148"/>
-      <c r="V77" s="148"/>
-      <c r="W77" s="148"/>
-      <c r="X77" s="148"/>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="D78" s="28" t="s">
+      <c r="H79" s="83"/>
+      <c r="I79" s="84"/>
+      <c r="J79" s="83"/>
+      <c r="K79" s="83"/>
+      <c r="L79" s="83"/>
+      <c r="M79" s="83"/>
+      <c r="N79" s="83"/>
+      <c r="O79" s="83"/>
+      <c r="P79" s="83"/>
+      <c r="Q79" s="83"/>
+      <c r="R79" s="83"/>
+      <c r="S79" s="83"/>
+      <c r="T79" s="83"/>
+      <c r="U79" s="83"/>
+      <c r="V79" s="83"/>
+      <c r="W79" s="83"/>
+      <c r="X79" s="83"/>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="D80" s="28" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="81" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="E81" s="1" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="E79" s="1" t="s">
+      <c r="F81" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F79" s="1" t="s">
+    </row>
+    <row r="82" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="E82" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="G79" s="1" t="s">
+    </row>
+    <row r="84" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="D84" s="28" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="E80" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F80" s="1" t="s">
+    <row r="85" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="E85" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D82" s="28" t="s">
+      <c r="G85" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="E83" s="1" t="s">
+    <row r="86" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="E86" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G83" s="1" t="s">
+    </row>
+    <row r="87" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="E87" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="90" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="D90" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E90" s="3" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="E84" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="E85" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D88" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="E89" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="E90" s="28"/>
-      <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="91" spans="4:12" x14ac:dyDescent="0.15">
       <c r="E91" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="F91" s="34" t="s">
-        <v>295</v>
+        <v>289</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>290</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
@@ -18282,8 +18304,8 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="E92" s="3"/>
+    <row r="92" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="E92" s="28"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
@@ -18292,25 +18314,23 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="93" spans="4:12" x14ac:dyDescent="0.15">
       <c r="E93" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="F93" s="35" t="s">
-        <v>298</v>
+        <v>292</v>
+      </c>
+      <c r="F93" s="34" t="s">
+        <v>293</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
-      <c r="J93" s="3" t="s">
-        <v>300</v>
-      </c>
+      <c r="J93" s="3"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="94" spans="4:12" x14ac:dyDescent="0.15">
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -18320,26 +18340,25 @@
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A95" s="10" t="s">
-        <v>553</v>
-      </c>
+    <row r="95" spans="4:12" x14ac:dyDescent="0.15">
       <c r="E95" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>661</v>
+        <v>295</v>
+      </c>
+      <c r="F95" s="35" t="s">
+        <v>296</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
+      <c r="J95" s="3" t="s">
+        <v>298</v>
+      </c>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="96" spans="4:12" x14ac:dyDescent="0.15">
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -18349,73 +18368,78 @@
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="E97" s="32" t="s">
-        <v>87</v>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A97" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="G97" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="H97" s="32"/>
-      <c r="I97" s="32"/>
-      <c r="J97" s="32"/>
+        <v>657</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="E98" s="32"/>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="E98" s="3"/>
       <c r="F98" s="3"/>
-      <c r="G98" s="32"/>
-      <c r="H98" s="32"/>
-      <c r="I98" s="32"/>
-      <c r="J98" s="32"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="E99" s="36" t="s">
-        <v>303</v>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="E99" s="32" t="s">
+        <v>87</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="G99" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="G99" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
+      <c r="H99" s="32"/>
+      <c r="I99" s="32"/>
+      <c r="J99" s="32"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="E100" s="3"/>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="E100" s="32"/>
       <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="32"/>
+      <c r="I100" s="32"/>
+      <c r="J100" s="32"/>
       <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="E101" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="F101" s="34" t="s">
-        <v>310</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>311</v>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="E101" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G101" s="36" t="s">
+        <v>303</v>
       </c>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
@@ -18424,68 +18448,58 @@
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
     </row>
-    <row r="103" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D103" s="9"/>
-    </row>
-    <row r="104" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D104" s="9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="105" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D105" s="9" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="137" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="E137" s="1">
-        <v>1</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>315</v>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="E103" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F103" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D105" s="9"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D106" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D107" s="9" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="139" spans="5:17" x14ac:dyDescent="0.15">
       <c r="E139" s="1">
+        <v>1</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="141" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E141" s="1">
         <v>2</v>
       </c>
-      <c r="F139" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="140" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="E140" s="42"/>
-      <c r="F140" s="42"/>
-      <c r="G140" s="42"/>
-      <c r="H140" s="42"/>
-      <c r="I140" s="42"/>
-      <c r="J140" s="42"/>
-      <c r="K140" s="42"/>
-      <c r="L140" s="42"/>
-      <c r="M140" s="42"/>
-      <c r="N140" s="42"/>
-      <c r="O140" s="42"/>
-      <c r="P140" s="42"/>
-      <c r="Q140" s="42"/>
-    </row>
-    <row r="141" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="E141" s="42">
-        <v>3</v>
-      </c>
-      <c r="F141" s="42" t="s">
-        <v>394</v>
-      </c>
-      <c r="G141" s="42"/>
-      <c r="H141" s="42"/>
-      <c r="I141" s="42"/>
-      <c r="J141" s="42"/>
-      <c r="K141" s="42"/>
-      <c r="L141" s="42"/>
-      <c r="M141" s="42"/>
-      <c r="N141" s="42"/>
-      <c r="O141" s="42"/>
-      <c r="P141" s="42"/>
-      <c r="Q141" s="42"/>
+      <c r="F141" s="1" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="142" spans="5:17" x14ac:dyDescent="0.15">
       <c r="E142" s="42"/>
@@ -18504,10 +18518,10 @@
     </row>
     <row r="143" spans="5:17" x14ac:dyDescent="0.15">
       <c r="E143" s="42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F143" s="42" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="G143" s="42"/>
       <c r="H143" s="42"/>
@@ -18537,9 +18551,11 @@
       <c r="Q144" s="42"/>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="E145" s="42"/>
-      <c r="F145" s="44" t="s">
-        <v>317</v>
+      <c r="E145" s="42">
+        <v>4</v>
+      </c>
+      <c r="F145" s="42" t="s">
+        <v>372</v>
       </c>
       <c r="G145" s="42"/>
       <c r="H145" s="42"/>
@@ -18556,9 +18572,7 @@
     <row r="146" spans="1:18" x14ac:dyDescent="0.15">
       <c r="E146" s="42"/>
       <c r="F146" s="42"/>
-      <c r="G146" s="42" t="s">
-        <v>445</v>
-      </c>
+      <c r="G146" s="42"/>
       <c r="H146" s="42"/>
       <c r="I146" s="42"/>
       <c r="J146" s="42"/>
@@ -18572,7 +18586,9 @@
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.15">
       <c r="E147" s="42"/>
-      <c r="F147" s="42"/>
+      <c r="F147" s="44" t="s">
+        <v>315</v>
+      </c>
       <c r="G147" s="42"/>
       <c r="H147" s="42"/>
       <c r="I147" s="42"/>
@@ -18586,52 +18602,48 @@
       <c r="Q147" s="42"/>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="F148" s="9" t="s">
+      <c r="E148" s="42"/>
+      <c r="F148" s="42"/>
+      <c r="G148" s="42" t="s">
+        <v>442</v>
+      </c>
+      <c r="H148" s="42"/>
+      <c r="I148" s="42"/>
+      <c r="J148" s="42"/>
+      <c r="K148" s="42"/>
+      <c r="L148" s="42"/>
+      <c r="M148" s="42"/>
+      <c r="N148" s="42"/>
+      <c r="O148" s="42"/>
+      <c r="P148" s="42"/>
+      <c r="Q148" s="42"/>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="E149" s="42"/>
+      <c r="F149" s="42"/>
+      <c r="G149" s="42"/>
+      <c r="H149" s="42"/>
+      <c r="I149" s="42"/>
+      <c r="J149" s="42"/>
+      <c r="K149" s="42"/>
+      <c r="L149" s="42"/>
+      <c r="M149" s="42"/>
+      <c r="N149" s="42"/>
+      <c r="O149" s="42"/>
+      <c r="P149" s="42"/>
+      <c r="Q149" s="42"/>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="F150" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="G151" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="H151" s="3" t="s">
         <v>318</v>
-      </c>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="G149" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="H149" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="I149" s="3"/>
-      <c r="J149" s="3"/>
-      <c r="K149" s="3"/>
-      <c r="L149" s="3"/>
-      <c r="M149" s="3"/>
-      <c r="N149" s="3"/>
-      <c r="O149" s="3"/>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B150" s="47" t="s">
-        <v>560</v>
-      </c>
-      <c r="G150" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="H150" s="11" t="s">
-        <v>615</v>
-      </c>
-      <c r="I150" s="3"/>
-      <c r="J150" s="3"/>
-      <c r="K150" s="3"/>
-      <c r="L150" s="3"/>
-      <c r="M150" s="3"/>
-      <c r="N150" s="3"/>
-      <c r="O150" s="3"/>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B151" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="G151" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="H151" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
@@ -18642,11 +18654,14 @@
       <c r="O151" s="3"/>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="G152" s="34" t="s">
-        <v>324</v>
-      </c>
-      <c r="H152" s="3" t="s">
-        <v>325</v>
+      <c r="B152" s="47" t="s">
+        <v>557</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="H152" s="11" t="s">
+        <v>611</v>
       </c>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
@@ -18657,11 +18672,14 @@
       <c r="O152" s="3"/>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="G153" s="35" t="s">
-        <v>326</v>
+      <c r="B153" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>320</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
@@ -18672,11 +18690,11 @@
       <c r="O153" s="3"/>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="G154" s="3" t="s">
-        <v>328</v>
+      <c r="G154" s="34" t="s">
+        <v>322</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
@@ -18687,11 +18705,11 @@
       <c r="O154" s="3"/>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="G155" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="H155" s="32" t="s">
-        <v>331</v>
+      <c r="G155" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>325</v>
       </c>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
@@ -18703,10 +18721,10 @@
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.15">
       <c r="G156" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="H156" s="36" t="s">
-        <v>333</v>
+        <v>326</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
@@ -18717,11 +18735,11 @@
       <c r="O156" s="3"/>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="G157" s="34" t="s">
-        <v>334</v>
-      </c>
-      <c r="H157" s="3" t="s">
-        <v>335</v>
+      <c r="G157" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H157" s="32" t="s">
+        <v>329</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
@@ -18732,62 +18750,50 @@
       <c r="O157" s="3"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A158" s="10" t="s">
-        <v>577</v>
-      </c>
-      <c r="B158" s="10" t="s">
-        <v>578</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="H158" s="11" t="s">
-        <v>644</v>
-      </c>
-      <c r="I158" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="J158" s="54"/>
-      <c r="K158" s="54"/>
-      <c r="L158" s="54"/>
-      <c r="M158" s="54"/>
-      <c r="N158" s="54"/>
-      <c r="O158" s="11"/>
-      <c r="P158" s="11"/>
-      <c r="Q158" s="11"/>
-      <c r="R158" s="11"/>
+      <c r="G158" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H158" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="I158" s="3"/>
+      <c r="J158" s="3"/>
+      <c r="K158" s="3"/>
+      <c r="L158" s="3"/>
+      <c r="M158" s="3"/>
+      <c r="N158" s="3"/>
+      <c r="O158" s="3"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A159" s="1">
-        <v>1</v>
-      </c>
-      <c r="B159" s="10"/>
-      <c r="G159" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="H159" s="11" t="s">
-        <v>645</v>
-      </c>
-      <c r="I159" s="54"/>
-      <c r="J159" s="54"/>
-      <c r="K159" s="54"/>
-      <c r="L159" s="54"/>
-      <c r="M159" s="54"/>
-      <c r="N159" s="54"/>
-      <c r="O159" s="11"/>
-      <c r="P159" s="11"/>
-      <c r="Q159" s="11"/>
-      <c r="R159" s="11"/>
+      <c r="G159" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="I159" s="3"/>
+      <c r="J159" s="3"/>
+      <c r="K159" s="3"/>
+      <c r="L159" s="3"/>
+      <c r="M159" s="3"/>
+      <c r="N159" s="3"/>
+      <c r="O159" s="3"/>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A160" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>575</v>
+      </c>
       <c r="G160" s="1" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="H160" s="11" t="s">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="I160" s="54" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="J160" s="54"/>
       <c r="K160" s="54"/>
@@ -18799,12 +18805,16 @@
       <c r="Q160" s="11"/>
       <c r="R160" s="11"/>
     </row>
-    <row r="161" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A161" s="1">
+        <v>1</v>
+      </c>
+      <c r="B161" s="10"/>
       <c r="G161" s="1" t="s">
-        <v>435</v>
+        <v>645</v>
       </c>
       <c r="H161" s="11" t="s">
-        <v>621</v>
+        <v>641</v>
       </c>
       <c r="I161" s="54"/>
       <c r="J161" s="54"/>
@@ -18817,362 +18827,370 @@
       <c r="Q161" s="11"/>
       <c r="R161" s="11"/>
     </row>
-    <row r="162" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B162" s="47" t="s">
-        <v>561</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="H162" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="I162" s="2"/>
-      <c r="J162" s="2"/>
-    </row>
-    <row r="163" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="F163" s="9" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="164" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="G164" s="31" t="s">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="G162" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="H162" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="I162" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="J162" s="54"/>
+      <c r="K162" s="54"/>
+      <c r="L162" s="54"/>
+      <c r="M162" s="54"/>
+      <c r="N162" s="54"/>
+      <c r="O162" s="11"/>
+      <c r="P162" s="11"/>
+      <c r="Q162" s="11"/>
+      <c r="R162" s="11"/>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="G163" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="H163" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="I163" s="54"/>
+      <c r="J163" s="54"/>
+      <c r="K163" s="54"/>
+      <c r="L163" s="54"/>
+      <c r="M163" s="54"/>
+      <c r="N163" s="54"/>
+      <c r="O163" s="11"/>
+      <c r="P163" s="11"/>
+      <c r="Q163" s="11"/>
+      <c r="R163" s="11"/>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B164" s="47" t="s">
+        <v>558</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="I164" s="2"/>
+      <c r="J164" s="2"/>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="F165" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="G166" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="G167" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="G168" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="H164" s="1" t="s">
+      <c r="H168" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="165" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="G165" s="31" t="s">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="G169" s="31" t="s">
         <v>337</v>
       </c>
-      <c r="H165" s="1" t="s">
+      <c r="H169" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="G170" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H170" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="166" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="G166" s="31" t="s">
-        <v>338</v>
-      </c>
-      <c r="H166" s="1" t="s">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="G171" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H171" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="167" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="G167" s="31" t="s">
-        <v>339</v>
-      </c>
-      <c r="H167" s="1" t="s">
+      <c r="I171" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="168" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="G168" s="1" t="s">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="G172" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="H168" s="1" t="s">
+      <c r="H172" s="41" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="169" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="G169" s="1" t="s">
+      <c r="I172" s="41"/>
+      <c r="K172" s="41"/>
+      <c r="L172" s="31"/>
+    </row>
+    <row r="173" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B173" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="F173" s="102" t="s">
+        <v>451</v>
+      </c>
+      <c r="G173" s="51" t="s">
+        <v>737</v>
+      </c>
+      <c r="H173" s="52" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="F174" s="103"/>
+      <c r="G174" s="37" t="s">
         <v>341</v>
       </c>
-      <c r="H169" s="1" t="s">
+      <c r="H174" s="38" t="s">
+        <v>605</v>
+      </c>
+      <c r="J174" s="42" t="s">
         <v>352</v>
-      </c>
-      <c r="I169" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="170" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="G170" s="31" t="s">
-        <v>342</v>
-      </c>
-      <c r="H170" s="41" t="s">
-        <v>354</v>
-      </c>
-      <c r="I170" s="41"/>
-      <c r="K170" s="41"/>
-      <c r="L170" s="31"/>
-    </row>
-    <row r="171" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B171" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="F171" s="97" t="s">
-        <v>454</v>
-      </c>
-      <c r="G171" s="51" t="s">
-        <v>741</v>
-      </c>
-      <c r="H171" s="52" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="172" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="F172" s="98"/>
-      <c r="G172" s="37" t="s">
-        <v>343</v>
-      </c>
-      <c r="H172" s="38" t="s">
-        <v>609</v>
-      </c>
-      <c r="J172" s="42" t="s">
-        <v>355</v>
-      </c>
-      <c r="K172" s="42"/>
-      <c r="L172" s="42"/>
-      <c r="M172" s="42"/>
-    </row>
-    <row r="173" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="F173" s="98"/>
-      <c r="G173" s="37" t="s">
-        <v>344</v>
-      </c>
-      <c r="H173" s="38" t="s">
-        <v>610</v>
-      </c>
-      <c r="K173" s="42" t="s">
-        <v>356</v>
-      </c>
-      <c r="L173" s="42"/>
-    </row>
-    <row r="174" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="F174" s="98"/>
-      <c r="G174" s="37" t="s">
-        <v>345</v>
-      </c>
-      <c r="H174" s="38" t="s">
-        <v>611</v>
-      </c>
-      <c r="J174" s="42" t="s">
-        <v>357</v>
       </c>
       <c r="K174" s="42"/>
       <c r="L174" s="42"/>
       <c r="M174" s="42"/>
-      <c r="N174" s="33"/>
-      <c r="O174" s="33"/>
-    </row>
-    <row r="175" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="F175" s="98"/>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="F175" s="103"/>
       <c r="G175" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="H175" s="38" t="s">
         <v>606</v>
       </c>
-      <c r="H175" s="38" t="s">
-        <v>612</v>
-      </c>
-      <c r="J175" s="42"/>
       <c r="K175" s="42" t="s">
+        <v>353</v>
+      </c>
+      <c r="L175" s="42"/>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="F176" s="103"/>
+      <c r="G176" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="H176" s="38" t="s">
+        <v>607</v>
+      </c>
+      <c r="J176" s="42" t="s">
+        <v>354</v>
+      </c>
+      <c r="K176" s="42"/>
+      <c r="L176" s="42"/>
+      <c r="M176" s="42"/>
+      <c r="N176" s="33"/>
+      <c r="O176" s="33"/>
+    </row>
+    <row r="177" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="F177" s="103"/>
+      <c r="G177" s="37" t="s">
+        <v>602</v>
+      </c>
+      <c r="H177" s="38" t="s">
+        <v>608</v>
+      </c>
+      <c r="J177" s="42"/>
+      <c r="K177" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="L177" s="42"/>
+      <c r="M177" s="42"/>
+      <c r="N177" s="33"/>
+      <c r="O177" s="33"/>
+    </row>
+    <row r="178" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="F178" s="103"/>
+      <c r="G178" s="37" t="s">
+        <v>590</v>
+      </c>
+      <c r="H178" s="38" t="s">
+        <v>592</v>
+      </c>
+      <c r="K178" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="L178" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="179" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="F179" s="103"/>
+      <c r="G179" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="H179" s="38" t="s">
+        <v>609</v>
+      </c>
+      <c r="K179" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="L179" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="180" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="F180" s="103"/>
+      <c r="G180" s="37" t="s">
+        <v>646</v>
+      </c>
+      <c r="H180" s="37" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="181" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="F181" s="103"/>
+      <c r="G181" s="37" t="s">
+        <v>647</v>
+      </c>
+      <c r="H181" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="J181" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="K181" s="11"/>
+      <c r="L181" s="11"/>
+      <c r="M181" s="11"/>
+      <c r="N181" s="11"/>
+    </row>
+    <row r="182" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="F182" s="103"/>
+      <c r="G182" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="H182" s="37" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="183" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="F183" s="103"/>
+      <c r="G183" s="37" t="s">
+        <v>653</v>
+      </c>
+      <c r="H183" s="37" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="184" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="F184" s="104"/>
+      <c r="G184" s="39" t="s">
+        <v>603</v>
+      </c>
+      <c r="H184" s="40" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="186" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="G186" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="L175" s="42"/>
-      <c r="M175" s="42"/>
-      <c r="N175" s="33"/>
-      <c r="O175" s="33"/>
-    </row>
-    <row r="176" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="F176" s="98"/>
-      <c r="G176" s="37" t="s">
-        <v>593</v>
-      </c>
-      <c r="H176" s="38" t="s">
-        <v>596</v>
-      </c>
-      <c r="K176" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="L176" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="177" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F177" s="98"/>
-      <c r="G177" s="37" t="s">
-        <v>346</v>
-      </c>
-      <c r="H177" s="38" t="s">
-        <v>613</v>
-      </c>
-      <c r="K177" s="1" t="s">
+      <c r="H186" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="I186" s="36" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="178" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F178" s="98"/>
-      <c r="G178" s="37" t="s">
-        <v>650</v>
-      </c>
-      <c r="H178" s="37" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="179" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F179" s="98"/>
-      <c r="G179" s="37" t="s">
-        <v>651</v>
-      </c>
-      <c r="H179" s="37" t="s">
-        <v>653</v>
-      </c>
-      <c r="J179" s="11" t="s">
-        <v>659</v>
-      </c>
-      <c r="K179" s="11"/>
-      <c r="L179" s="11"/>
-      <c r="M179" s="11"/>
-      <c r="N179" s="11"/>
-    </row>
-    <row r="180" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F180" s="98"/>
-      <c r="G180" s="37" t="s">
-        <v>655</v>
-      </c>
-      <c r="H180" s="37" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="181" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F181" s="98"/>
-      <c r="G181" s="37" t="s">
-        <v>657</v>
-      </c>
-      <c r="H181" s="37" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="182" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F182" s="99"/>
-      <c r="G182" s="39" t="s">
-        <v>607</v>
-      </c>
-      <c r="H182" s="40" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="184" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="G184" s="3" t="s">
+      <c r="J186" s="42" t="s">
         <v>363</v>
       </c>
-      <c r="H184" s="3" t="s">
+      <c r="K186" s="42"/>
+      <c r="L186" s="42"/>
+    </row>
+    <row r="187" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B187" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="G187" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="H187" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="I184" s="36" t="s">
-        <v>365</v>
-      </c>
-      <c r="J184" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="K184" s="42"/>
-      <c r="L184" s="42"/>
-    </row>
-    <row r="185" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B185" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="G185" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="H185" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="I185" s="148" t="s">
-        <v>830</v>
-      </c>
-      <c r="J185" s="148"/>
-      <c r="K185" s="148"/>
-      <c r="L185" s="148"/>
-      <c r="M185" s="15"/>
-      <c r="N185" s="15"/>
-      <c r="O185" s="15"/>
-      <c r="P185" s="15"/>
-      <c r="Q185" s="15"/>
-      <c r="R185" s="15"/>
-      <c r="S185" s="15"/>
-      <c r="T185" s="15"/>
-      <c r="U185" s="15"/>
-      <c r="V185" s="15"/>
-      <c r="W185" s="11"/>
-      <c r="X185" s="11"/>
-    </row>
-    <row r="186" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B186" s="1">
+      <c r="I187" s="83" t="s">
+        <v>822</v>
+      </c>
+      <c r="J187" s="83"/>
+      <c r="K187" s="83"/>
+      <c r="L187" s="83"/>
+      <c r="M187" s="15"/>
+      <c r="N187" s="15"/>
+      <c r="O187" s="15"/>
+      <c r="P187" s="15"/>
+      <c r="Q187" s="15"/>
+      <c r="R187" s="15"/>
+      <c r="S187" s="15"/>
+      <c r="T187" s="15"/>
+      <c r="U187" s="15"/>
+      <c r="V187" s="15"/>
+      <c r="W187" s="11"/>
+      <c r="X187" s="11"/>
+    </row>
+    <row r="188" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B188" s="1">
         <v>1</v>
       </c>
-      <c r="G186" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="H186" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="I186" s="148" t="s">
-        <v>832</v>
-      </c>
-      <c r="J186" s="148"/>
-      <c r="K186" s="148"/>
-      <c r="L186" s="148"/>
-      <c r="M186" s="11"/>
-      <c r="N186" s="11"/>
-      <c r="O186" s="11"/>
-      <c r="P186" s="11"/>
-      <c r="Q186" s="11"/>
-      <c r="R186" s="11"/>
-      <c r="S186" s="11"/>
-      <c r="T186" s="11"/>
-      <c r="U186" s="11"/>
-      <c r="V186" s="11"/>
-      <c r="W186" s="11"/>
-      <c r="X186" s="11"/>
-    </row>
-    <row r="188" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F188" s="28" t="s">
-        <v>745</v>
-      </c>
-      <c r="G188" s="3"/>
-      <c r="H188" s="3"/>
-      <c r="I188" s="3"/>
-    </row>
-    <row r="189" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F189" s="3"/>
-      <c r="G189" s="59" t="s">
-        <v>744</v>
-      </c>
-      <c r="H189" s="59"/>
-      <c r="I189" s="59"/>
-      <c r="J189" s="59"/>
-      <c r="K189" s="59"/>
-      <c r="L189" s="59"/>
-      <c r="M189" s="59"/>
-      <c r="N189" s="59"/>
+      <c r="G188" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="H188" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="I188" s="83" t="s">
+        <v>824</v>
+      </c>
+      <c r="J188" s="83"/>
+      <c r="K188" s="83"/>
+      <c r="L188" s="83"/>
+      <c r="M188" s="11"/>
+      <c r="N188" s="11"/>
+      <c r="O188" s="11"/>
+      <c r="P188" s="11"/>
+      <c r="Q188" s="11"/>
+      <c r="R188" s="11"/>
+      <c r="S188" s="11"/>
+      <c r="T188" s="11"/>
+      <c r="U188" s="11"/>
+      <c r="V188" s="11"/>
+      <c r="W188" s="11"/>
+      <c r="X188" s="11"/>
     </row>
     <row r="190" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F190" s="3"/>
-      <c r="G190" s="59" t="s">
-        <v>742</v>
-      </c>
-      <c r="H190" s="59" t="s">
-        <v>798</v>
-      </c>
-      <c r="I190" s="59"/>
-      <c r="J190" s="59"/>
-      <c r="K190" s="59"/>
-      <c r="L190" s="59"/>
-      <c r="M190" s="59"/>
-      <c r="N190" s="59"/>
+      <c r="F190" s="28" t="s">
+        <v>741</v>
+      </c>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3"/>
+      <c r="I190" s="3"/>
     </row>
     <row r="191" spans="2:24" x14ac:dyDescent="0.15">
       <c r="F191" s="3"/>
       <c r="G191" s="59" t="s">
-        <v>743</v>
-      </c>
-      <c r="H191" s="59" t="s">
-        <v>799</v>
-      </c>
+        <v>740</v>
+      </c>
+      <c r="H191" s="59"/>
       <c r="I191" s="59"/>
       <c r="J191" s="59"/>
       <c r="K191" s="59"/>
@@ -19183,10 +19201,10 @@
     <row r="192" spans="2:24" x14ac:dyDescent="0.15">
       <c r="F192" s="3"/>
       <c r="G192" s="59" t="s">
-        <v>369</v>
+        <v>738</v>
       </c>
       <c r="H192" s="59" t="s">
-        <v>370</v>
+        <v>794</v>
       </c>
       <c r="I192" s="59"/>
       <c r="J192" s="59"/>
@@ -19198,10 +19216,10 @@
     <row r="193" spans="1:22" x14ac:dyDescent="0.15">
       <c r="F193" s="3"/>
       <c r="G193" s="59" t="s">
-        <v>371</v>
+        <v>739</v>
       </c>
       <c r="H193" s="59" t="s">
-        <v>372</v>
+        <v>795</v>
       </c>
       <c r="I193" s="59"/>
       <c r="J193" s="59"/>
@@ -19211,317 +19229,347 @@
       <c r="N193" s="59"/>
     </row>
     <row r="194" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="F194" s="43"/>
-      <c r="G194" s="60" t="s">
-        <v>373</v>
-      </c>
-      <c r="H194" s="59"/>
-      <c r="I194" s="61"/>
-      <c r="J194" s="61"/>
+      <c r="F194" s="3"/>
+      <c r="G194" s="59" t="s">
+        <v>366</v>
+      </c>
+      <c r="H194" s="59" t="s">
+        <v>367</v>
+      </c>
+      <c r="I194" s="59"/>
+      <c r="J194" s="59"/>
       <c r="K194" s="59"/>
       <c r="L194" s="59"/>
       <c r="M194" s="59"/>
       <c r="N194" s="59"/>
     </row>
     <row r="195" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="D195" s="9" t="s">
-        <v>686</v>
-      </c>
+      <c r="F195" s="3"/>
+      <c r="G195" s="59" t="s">
+        <v>368</v>
+      </c>
+      <c r="H195" s="59" t="s">
+        <v>369</v>
+      </c>
+      <c r="I195" s="59"/>
+      <c r="J195" s="59"/>
+      <c r="K195" s="59"/>
+      <c r="L195" s="59"/>
+      <c r="M195" s="59"/>
+      <c r="N195" s="59"/>
     </row>
     <row r="196" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="E196" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>688</v>
-      </c>
+      <c r="F196" s="43"/>
+      <c r="G196" s="60" t="s">
+        <v>370</v>
+      </c>
+      <c r="H196" s="59"/>
+      <c r="I196" s="61"/>
+      <c r="J196" s="61"/>
+      <c r="K196" s="59"/>
+      <c r="L196" s="59"/>
+      <c r="M196" s="59"/>
+      <c r="N196" s="59"/>
     </row>
     <row r="197" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="E197" s="1" t="s">
+      <c r="D197" s="9" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="E198" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F198" s="1" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A198" s="10" t="s">
-        <v>555</v>
-      </c>
-      <c r="B198" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="F198" s="1" t="s">
+    <row r="199" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="E199" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A200" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="J200" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="G198" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="H198" s="1" t="s">
+      <c r="K200" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="I198" s="1" t="s">
+      <c r="L200" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="M200" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="J198" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="K198" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="O200" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="M198" s="1" t="s">
+      <c r="P200" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="N198" s="1" t="s">
+      <c r="Q200" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="R200" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="S200" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T200" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="U200" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="V200" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="O198" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="P198" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q198" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="R198" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="S198" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="T198" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="U198" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="V198" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="F199" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="G199" s="1">
+    </row>
+    <row r="201" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="F201" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="G201" s="1">
         <v>0</v>
       </c>
-      <c r="H199" s="1">
+      <c r="H201" s="1">
         <v>1</v>
       </c>
-      <c r="I199" s="1">
+      <c r="I201" s="1">
         <v>2</v>
       </c>
-      <c r="J199" s="1">
+      <c r="J201" s="1">
         <v>3</v>
       </c>
-      <c r="K199" s="1">
+      <c r="K201" s="1">
         <v>4</v>
       </c>
-      <c r="L199" s="1">
+      <c r="L201" s="1">
         <v>5</v>
       </c>
-      <c r="M199" s="1">
+      <c r="M201" s="1">
         <v>6</v>
       </c>
-      <c r="N199" s="1">
+      <c r="N201" s="1">
         <v>7</v>
       </c>
-      <c r="O199" s="1">
+      <c r="O201" s="1">
         <v>8</v>
       </c>
-      <c r="P199" s="1">
+      <c r="P201" s="1">
         <v>9</v>
       </c>
-      <c r="Q199" s="1">
+      <c r="Q201" s="1">
         <v>10</v>
       </c>
-      <c r="R199" s="1">
+      <c r="R201" s="1">
         <v>11</v>
       </c>
-      <c r="S199" s="1">
+      <c r="S201" s="1">
         <v>12</v>
       </c>
-      <c r="T199" s="1">
+      <c r="T201" s="1">
         <v>13</v>
       </c>
-      <c r="U199" s="1">
+      <c r="U201" s="1">
         <v>14</v>
       </c>
-      <c r="V199" s="1">
+      <c r="V201" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="E200" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="F201" s="3" t="s">
+    <row r="202" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="E202" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="203" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="F203" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="204" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="F204" s="34" t="s">
         <v>322</v>
       </c>
-      <c r="G201" s="3" t="s">
+      <c r="G204" s="3" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="202" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="F202" s="34" t="s">
+    <row r="205" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="F205" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="G202" s="3" t="s">
+      <c r="G205" s="3" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="203" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="F203" s="35" t="s">
-        <v>326</v>
-      </c>
-      <c r="G203" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="204" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="F204" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="G204" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="205" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="F205" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="G205" s="32" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="206" spans="1:22" x14ac:dyDescent="0.15">
       <c r="F206" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="207" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="F207" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G207" s="32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="208" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="F208" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G208" s="36" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F209" s="34" t="s">
         <v>332</v>
       </c>
-      <c r="G206" s="36" t="s">
+      <c r="G209" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="207" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="F207" s="34" t="s">
-        <v>334</v>
-      </c>
-      <c r="G207" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E209" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F210" s="15" t="s">
-        <v>713</v>
-      </c>
-    </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A211" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="G211" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="H211" s="15" t="s">
-        <v>716</v>
+      <c r="E211" s="1" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A212" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="G212" s="1" t="s">
-        <v>390</v>
+      <c r="F212" s="15" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F213" s="1" t="s">
-        <v>683</v>
+      <c r="A213" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H213" s="15" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A214" s="1" t="s">
+        <v>674</v>
+      </c>
       <c r="G214" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="G215" s="1" t="s">
-        <v>698</v>
+      <c r="F215" s="1" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.15">
       <c r="G216" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E217" s="1" t="s">
-        <v>695</v>
+      <c r="G217" s="1" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F218" s="1" t="s">
-        <v>395</v>
+      <c r="G218" s="1" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F219" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="G219" s="1" t="s">
-        <v>696</v>
+      <c r="E219" s="1" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F220" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F221" s="1" t="s">
+        <v>693</v>
+      </c>
       <c r="G221" s="1" t="s">
-        <v>483</v>
+        <v>692</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E222" s="1" t="s">
-        <v>485</v>
+      <c r="F222" s="1" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E223" s="1" t="s">
-        <v>484</v>
+      <c r="G223" s="1" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B224" s="9" t="s">
-        <v>565</v>
-      </c>
-      <c r="C224" s="9" t="s">
+      <c r="E224" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E225" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B226" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="C226" s="9" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D225" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A227" s="10" t="s">
-        <v>623</v>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D227" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A229" s="10" t="s">
+        <v>619</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F171:F182"/>
+    <mergeCell ref="F173:F184"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19531,10 +19579,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF21"/>
+  <dimension ref="A1:AI21"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4:AC4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -19543,429 +19591,449 @@
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B1" s="9" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.15">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D2" s="83" t="s">
+        <v>395</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="D2" s="148" t="s">
+      <c r="L2" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="D3" s="83" t="s">
+        <v>812</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
-        <v>581</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="D3" s="148" t="s">
-        <v>819</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="O3" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="P3" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="Q3" s="56" t="s">
+        <v>646</v>
+      </c>
+      <c r="R3" s="56" t="s">
+        <v>647</v>
+      </c>
+      <c r="S3" s="56" t="s">
+        <v>651</v>
+      </c>
+      <c r="T3" s="56" t="s">
+        <v>653</v>
+      </c>
+      <c r="U3" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="W3" s="106" t="s">
+        <v>719</v>
+      </c>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
+      <c r="Z3" s="106"/>
+      <c r="AA3" s="106"/>
+      <c r="AB3" s="106"/>
+      <c r="AC3" s="106"/>
+      <c r="AD3" s="83" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>813</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q3" s="56" t="s">
-        <v>650</v>
-      </c>
-      <c r="R3" s="56" t="s">
-        <v>651</v>
-      </c>
-      <c r="S3" s="56" t="s">
-        <v>655</v>
-      </c>
-      <c r="T3" s="56" t="s">
-        <v>657</v>
-      </c>
-      <c r="U3" s="23" t="s">
-        <v>409</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="W3" s="153" t="s">
-        <v>723</v>
-      </c>
-      <c r="X3" s="153"/>
-      <c r="Y3" s="153"/>
-      <c r="Z3" s="153"/>
-      <c r="AA3" s="153"/>
-      <c r="AB3" s="153"/>
-      <c r="AC3" s="153"/>
-      <c r="AD3" s="148" t="s">
-        <v>828</v>
-      </c>
-      <c r="AE3" s="148"/>
-      <c r="AF3" s="148"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>582</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D4" s="148" t="s">
-        <v>820</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="P4" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="Q4" s="56" t="s">
+        <v>648</v>
+      </c>
+      <c r="R4" s="56" t="s">
+        <v>649</v>
+      </c>
+      <c r="S4" s="56" t="s">
+        <v>652</v>
+      </c>
+      <c r="T4" s="56" t="s">
+        <v>654</v>
+      </c>
+      <c r="U4" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="P4" s="23" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q4" s="56" t="s">
-        <v>652</v>
-      </c>
-      <c r="R4" s="56" t="s">
-        <v>653</v>
-      </c>
-      <c r="S4" s="56" t="s">
-        <v>656</v>
-      </c>
-      <c r="T4" s="56" t="s">
-        <v>658</v>
-      </c>
-      <c r="U4" s="23" t="s">
-        <v>423</v>
-      </c>
       <c r="V4" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="W4" s="154" t="s">
-        <v>826</v>
-      </c>
-      <c r="X4" s="154"/>
-      <c r="Y4" s="154"/>
-      <c r="Z4" s="154"/>
-      <c r="AA4" s="154"/>
-      <c r="AB4" s="154"/>
-      <c r="AC4" s="154"/>
-      <c r="AD4" s="148" t="s">
+        <v>593</v>
+      </c>
+      <c r="W4" s="107" t="s">
+        <v>818</v>
+      </c>
+      <c r="X4" s="107"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="107"/>
+      <c r="AC4" s="107"/>
+      <c r="AD4" s="83" t="s">
+        <v>823</v>
+      </c>
+      <c r="AE4" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>815</v>
+      </c>
+      <c r="D5" s="83" t="s">
         <v>831</v>
       </c>
-      <c r="AE4" s="148"/>
-      <c r="AF4" s="148"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="C5" s="148" t="s">
-        <v>822</v>
-      </c>
-      <c r="D5" s="148" t="s">
-        <v>824</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="J5" s="105" t="s">
+        <v>809</v>
+      </c>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="105"/>
+      <c r="T5" s="105"/>
+      <c r="U5" s="105"/>
+      <c r="V5" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="W5" s="107" t="s">
         <v>817</v>
       </c>
-      <c r="J5" s="100" t="s">
+      <c r="X5" s="107"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="107"/>
+      <c r="AB5" s="107"/>
+      <c r="AC5" s="107"/>
+      <c r="AD5" s="83" t="s">
+        <v>819</v>
+      </c>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A6" s="10"/>
+      <c r="C6" s="83" t="s">
+        <v>814</v>
+      </c>
+      <c r="D6" s="83" t="s">
         <v>816</v>
-      </c>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="100"/>
-      <c r="U5" s="100"/>
-      <c r="V5" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="W5" s="154" t="s">
-        <v>825</v>
-      </c>
-      <c r="X5" s="154"/>
-      <c r="Y5" s="154"/>
-      <c r="Z5" s="154"/>
-      <c r="AA5" s="154"/>
-      <c r="AB5" s="154"/>
-      <c r="AC5" s="154"/>
-      <c r="AD5" s="148" t="s">
-        <v>827</v>
-      </c>
-      <c r="AE5" s="148"/>
-      <c r="AF5" s="148"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="C6" s="148" t="s">
-        <v>821</v>
-      </c>
-      <c r="D6" s="148" t="s">
-        <v>823</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="1" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.15">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.15">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" ht="33" x14ac:dyDescent="0.15">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="47" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="G9" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="K9" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>434</v>
-      </c>
       <c r="M9" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="V9" s="23"/>
       <c r="W9" s="23"/>
@@ -19973,15 +20041,15 @@
       <c r="Y9" s="23"/>
       <c r="Z9" s="23"/>
     </row>
-    <row r="10" spans="1:32" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:35" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A10" s="47" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
@@ -19990,7 +20058,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>4</v>
@@ -19999,25 +20067,25 @@
         <v>3</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="O10" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="V10" s="23"/>
       <c r="W10" s="55"/>
@@ -20025,9 +20093,9 @@
       <c r="Y10" s="23"/>
       <c r="Z10" s="23"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="V11" s="23"/>
       <c r="W11" s="55"/>
@@ -20035,9 +20103,9 @@
       <c r="Y11" s="23"/>
       <c r="Z11" s="23"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B12" s="9" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="V12" s="23"/>
       <c r="W12" s="55"/>
@@ -20045,45 +20113,45 @@
       <c r="Y12" s="23"/>
       <c r="Z12" s="23"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="V13" s="23"/>
       <c r="W13" s="55"/>
@@ -20091,48 +20159,48 @@
       <c r="Y13" s="23"/>
       <c r="Z13" s="23"/>
     </row>
-    <row r="14" spans="1:32" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:35" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A14" s="47" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>433</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="V14" s="23"/>
       <c r="W14" s="23"/>
@@ -20140,9 +20208,9 @@
       <c r="Y14" s="23"/>
       <c r="Z14" s="23"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B15" s="11" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -20151,7 +20219,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>4</v>
@@ -20160,91 +20228,91 @@
         <v>3</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B16" s="58" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B21" s="152" t="s">
-        <v>738</v>
+      <c r="B21" s="87" t="s">
+        <v>734</v>
       </c>
     </row>
   </sheetData>
@@ -20266,8 +20334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AX20" sqref="AX20"/>
+    <sheetView topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20282,64 +20350,64 @@
       </c>
     </row>
     <row r="2" spans="1:50" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101" t="s">
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101" t="s">
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101" t="s">
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="108"/>
+      <c r="AE2" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="AF2" s="101"/>
-      <c r="AG2" s="101"/>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="101"/>
-      <c r="AK2" s="101" t="s">
+      <c r="AF2" s="108"/>
+      <c r="AG2" s="108"/>
+      <c r="AH2" s="108"/>
+      <c r="AI2" s="108"/>
+      <c r="AJ2" s="108"/>
+      <c r="AK2" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="101"/>
-      <c r="AN2" s="101" t="s">
+      <c r="AL2" s="108"/>
+      <c r="AM2" s="108"/>
+      <c r="AN2" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="AO2" s="101"/>
-      <c r="AP2" s="101"/>
-      <c r="AQ2" s="101"/>
-      <c r="AR2" s="101"/>
-      <c r="AS2" s="101"/>
-      <c r="AT2" s="101"/>
-      <c r="AU2" s="101"/>
-      <c r="AV2" s="101"/>
+      <c r="AO2" s="108"/>
+      <c r="AP2" s="108"/>
+      <c r="AQ2" s="108"/>
+      <c r="AR2" s="108"/>
+      <c r="AS2" s="108"/>
+      <c r="AT2" s="108"/>
+      <c r="AU2" s="108"/>
+      <c r="AV2" s="108"/>
       <c r="AW2" s="30" t="s">
         <v>40</v>
       </c>
@@ -20347,7 +20415,7 @@
     </row>
     <row r="3" spans="1:50" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>39</v>
@@ -20368,7 +20436,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>219</v>
@@ -20380,7 +20448,7 @@
         <v>3</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>34</v>
@@ -20437,7 +20505,7 @@
         <v>19</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>115</v>
@@ -20496,7 +20564,7 @@
     </row>
     <row r="4" spans="1:50" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5" spans="1:50" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -20522,7 +20590,7 @@
         <v>234</v>
       </c>
       <c r="AW5" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:50" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -20668,7 +20736,7 @@
     </row>
     <row r="12" spans="1:50" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>138</v>
@@ -20691,13 +20759,13 @@
     </row>
     <row r="13" spans="1:50" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>251</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>234</v>
@@ -20964,7 +21032,7 @@
         <v>160</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="3" spans="3:30" x14ac:dyDescent="0.15">
@@ -20990,13 +21058,13 @@
         <v>118</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -21011,7 +21079,7 @@
     </row>
     <row r="8" spans="3:30" x14ac:dyDescent="0.15">
       <c r="D8" s="1" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="9" spans="3:30" x14ac:dyDescent="0.15">
@@ -21131,7 +21199,7 @@
     <row r="16" spans="3:30" x14ac:dyDescent="0.15">
       <c r="C16" s="15"/>
       <c r="D16" s="15" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
@@ -21291,7 +21359,7 @@
     <row r="21" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>54</v>
@@ -21390,107 +21458,107 @@
       <c r="AW27" s="4"/>
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="C28" s="128" t="s">
+      <c r="C28" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="D28" s="128"/>
-      <c r="E28" s="128" t="s">
+      <c r="D28" s="111"/>
+      <c r="E28" s="111" t="s">
         <v>152</v>
       </c>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128" t="s">
+      <c r="F28" s="111"/>
+      <c r="G28" s="111" t="s">
         <v>153</v>
       </c>
-      <c r="H28" s="128"/>
-      <c r="I28" s="128" t="s">
+      <c r="H28" s="111"/>
+      <c r="I28" s="111" t="s">
         <v>154</v>
       </c>
-      <c r="J28" s="128"/>
-      <c r="K28" s="128" t="s">
+      <c r="J28" s="111"/>
+      <c r="K28" s="111" t="s">
         <v>155</v>
       </c>
-      <c r="L28" s="128"/>
-      <c r="M28" s="120" t="s">
+      <c r="L28" s="111"/>
+      <c r="M28" s="116" t="s">
         <v>156</v>
       </c>
-      <c r="N28" s="120"/>
-      <c r="O28" s="120" t="s">
+      <c r="N28" s="116"/>
+      <c r="O28" s="116" t="s">
         <v>157</v>
       </c>
-      <c r="P28" s="120"/>
-      <c r="Q28" s="120" t="s">
+      <c r="P28" s="116"/>
+      <c r="Q28" s="116" t="s">
         <v>178</v>
       </c>
-      <c r="R28" s="120"/>
-      <c r="S28" s="120" t="s">
+      <c r="R28" s="116"/>
+      <c r="S28" s="116" t="s">
         <v>179</v>
       </c>
-      <c r="T28" s="120"/>
-      <c r="U28" s="120" t="s">
+      <c r="T28" s="116"/>
+      <c r="U28" s="116" t="s">
         <v>180</v>
       </c>
-      <c r="V28" s="120"/>
-      <c r="W28" s="120" t="s">
+      <c r="V28" s="116"/>
+      <c r="W28" s="116" t="s">
         <v>181</v>
       </c>
-      <c r="X28" s="120"/>
-      <c r="Y28" s="120" t="s">
+      <c r="X28" s="116"/>
+      <c r="Y28" s="116" t="s">
         <v>191</v>
       </c>
-      <c r="Z28" s="120"/>
-      <c r="AA28" s="120" t="s">
+      <c r="Z28" s="116"/>
+      <c r="AA28" s="116" t="s">
         <v>211</v>
       </c>
-      <c r="AB28" s="120"/>
-      <c r="AC28" s="120" t="s">
+      <c r="AB28" s="116"/>
+      <c r="AC28" s="116" t="s">
         <v>158</v>
       </c>
-      <c r="AD28" s="120"/>
-      <c r="AE28" s="127" t="s">
+      <c r="AD28" s="116"/>
+      <c r="AE28" s="115" t="s">
         <v>159</v>
       </c>
-      <c r="AF28" s="127"/>
+      <c r="AF28" s="115"/>
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="C29" s="125" t="s">
+      <c r="C29" s="109" t="s">
         <v>161</v>
       </c>
-      <c r="D29" s="125"/>
-      <c r="E29" s="109" t="s">
+      <c r="D29" s="109"/>
+      <c r="E29" s="110" t="s">
         <v>164</v>
       </c>
-      <c r="F29" s="109"/>
-      <c r="G29" s="124"/>
-      <c r="H29" s="124"/>
-      <c r="I29" s="125"/>
-      <c r="J29" s="125"/>
-      <c r="K29" s="125"/>
-      <c r="L29" s="125"/>
-      <c r="M29" s="121"/>
-      <c r="N29" s="121"/>
-      <c r="O29" s="121"/>
-      <c r="P29" s="121"/>
-      <c r="Q29" s="121"/>
-      <c r="R29" s="121"/>
-      <c r="S29" s="121"/>
-      <c r="T29" s="121"/>
-      <c r="U29" s="121"/>
-      <c r="V29" s="121"/>
-      <c r="W29" s="121"/>
-      <c r="X29" s="121"/>
-      <c r="Y29" s="129"/>
-      <c r="Z29" s="130"/>
-      <c r="AA29" s="122"/>
-      <c r="AB29" s="123"/>
-      <c r="AC29" s="121" t="s">
+      <c r="F29" s="110"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="109"/>
+      <c r="K29" s="109"/>
+      <c r="L29" s="109"/>
+      <c r="M29" s="112"/>
+      <c r="N29" s="112"/>
+      <c r="O29" s="112"/>
+      <c r="P29" s="112"/>
+      <c r="Q29" s="112"/>
+      <c r="R29" s="112"/>
+      <c r="S29" s="112"/>
+      <c r="T29" s="112"/>
+      <c r="U29" s="112"/>
+      <c r="V29" s="112"/>
+      <c r="W29" s="112"/>
+      <c r="X29" s="112"/>
+      <c r="Y29" s="117"/>
+      <c r="Z29" s="118"/>
+      <c r="AA29" s="123"/>
+      <c r="AB29" s="124"/>
+      <c r="AC29" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="AD29" s="121"/>
-      <c r="AE29" s="126" t="str">
+      <c r="AD29" s="112"/>
+      <c r="AE29" s="113" t="str">
         <f>CONCATENATE(E29)</f>
         <v>怪物装备本身附加命中率</v>
       </c>
-      <c r="AF29" s="126"/>
+      <c r="AF29" s="113"/>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.15">
       <c r="C30" s="18"/>
@@ -21559,135 +21627,135 @@
       <c r="AF31" s="27"/>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="C32" s="128" t="s">
+      <c r="C32" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="D32" s="128"/>
-      <c r="E32" s="128" t="s">
+      <c r="D32" s="111"/>
+      <c r="E32" s="111" t="s">
         <v>152</v>
       </c>
-      <c r="F32" s="128"/>
-      <c r="G32" s="128" t="s">
+      <c r="F32" s="111"/>
+      <c r="G32" s="111" t="s">
         <v>153</v>
       </c>
-      <c r="H32" s="128"/>
-      <c r="I32" s="128" t="s">
+      <c r="H32" s="111"/>
+      <c r="I32" s="111" t="s">
         <v>154</v>
       </c>
-      <c r="J32" s="128"/>
-      <c r="K32" s="128" t="s">
+      <c r="J32" s="111"/>
+      <c r="K32" s="111" t="s">
         <v>155</v>
       </c>
-      <c r="L32" s="128"/>
-      <c r="M32" s="120" t="s">
+      <c r="L32" s="111"/>
+      <c r="M32" s="116" t="s">
         <v>156</v>
       </c>
-      <c r="N32" s="120"/>
-      <c r="O32" s="120" t="s">
+      <c r="N32" s="116"/>
+      <c r="O32" s="116" t="s">
         <v>157</v>
       </c>
-      <c r="P32" s="120"/>
-      <c r="Q32" s="120" t="s">
+      <c r="P32" s="116"/>
+      <c r="Q32" s="116" t="s">
         <v>178</v>
       </c>
-      <c r="R32" s="120"/>
-      <c r="S32" s="120" t="s">
+      <c r="R32" s="116"/>
+      <c r="S32" s="116" t="s">
         <v>179</v>
       </c>
-      <c r="T32" s="120"/>
-      <c r="U32" s="120" t="s">
+      <c r="T32" s="116"/>
+      <c r="U32" s="116" t="s">
         <v>180</v>
       </c>
-      <c r="V32" s="120"/>
-      <c r="W32" s="120" t="s">
+      <c r="V32" s="116"/>
+      <c r="W32" s="116" t="s">
         <v>181</v>
       </c>
-      <c r="X32" s="120"/>
-      <c r="Y32" s="120" t="s">
+      <c r="X32" s="116"/>
+      <c r="Y32" s="116" t="s">
         <v>191</v>
       </c>
-      <c r="Z32" s="120"/>
-      <c r="AA32" s="120" t="s">
+      <c r="Z32" s="116"/>
+      <c r="AA32" s="116" t="s">
         <v>211</v>
       </c>
-      <c r="AB32" s="120"/>
-      <c r="AC32" s="120" t="s">
+      <c r="AB32" s="116"/>
+      <c r="AC32" s="116" t="s">
         <v>158</v>
       </c>
-      <c r="AD32" s="120"/>
-      <c r="AE32" s="127" t="s">
+      <c r="AD32" s="116"/>
+      <c r="AE32" s="115" t="s">
         <v>159</v>
       </c>
-      <c r="AF32" s="127"/>
+      <c r="AF32" s="115"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B33" s="10" t="s">
-        <v>664</v>
-      </c>
-      <c r="C33" s="125" t="s">
+        <v>660</v>
+      </c>
+      <c r="C33" s="109" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="125"/>
-      <c r="E33" s="109" t="s">
+      <c r="D33" s="109"/>
+      <c r="E33" s="110" t="s">
         <v>190</v>
       </c>
-      <c r="F33" s="109"/>
-      <c r="G33" s="109" t="s">
+      <c r="F33" s="110"/>
+      <c r="G33" s="110" t="s">
         <v>165</v>
       </c>
-      <c r="H33" s="109"/>
-      <c r="I33" s="109" t="s">
+      <c r="H33" s="110"/>
+      <c r="I33" s="110" t="s">
         <v>163</v>
       </c>
-      <c r="J33" s="109"/>
-      <c r="K33" s="109"/>
-      <c r="L33" s="109"/>
-      <c r="M33" s="103"/>
-      <c r="N33" s="103"/>
-      <c r="O33" s="103"/>
-      <c r="P33" s="103"/>
-      <c r="Q33" s="103"/>
-      <c r="R33" s="103"/>
-      <c r="S33" s="103"/>
-      <c r="T33" s="103"/>
-      <c r="U33" s="103"/>
-      <c r="V33" s="103"/>
-      <c r="W33" s="103"/>
-      <c r="X33" s="103"/>
-      <c r="Y33" s="117"/>
-      <c r="Z33" s="117"/>
-      <c r="AA33" s="110"/>
-      <c r="AB33" s="110"/>
-      <c r="AC33" s="103" t="s">
-        <v>490</v>
-      </c>
-      <c r="AD33" s="103"/>
-      <c r="AE33" s="102" t="str">
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="110"/>
+      <c r="M33" s="114"/>
+      <c r="N33" s="114"/>
+      <c r="O33" s="114"/>
+      <c r="P33" s="114"/>
+      <c r="Q33" s="114"/>
+      <c r="R33" s="114"/>
+      <c r="S33" s="114"/>
+      <c r="T33" s="114"/>
+      <c r="U33" s="114"/>
+      <c r="V33" s="114"/>
+      <c r="W33" s="114"/>
+      <c r="X33" s="114"/>
+      <c r="Y33" s="119"/>
+      <c r="Z33" s="119"/>
+      <c r="AA33" s="122"/>
+      <c r="AB33" s="122"/>
+      <c r="AC33" s="114" t="s">
+        <v>487</v>
+      </c>
+      <c r="AD33" s="114"/>
+      <c r="AE33" s="120" t="str">
         <f>CONCATENATE(E33,"+",G33,"-",I33)</f>
         <v>固有暴击率+攻击方装备本身附加暴击率-防御方装备本身附加暴击抗性</v>
       </c>
-      <c r="AF33" s="102"/>
+      <c r="AF33" s="120"/>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
-        <v>569</v>
-      </c>
-      <c r="C34" s="125" t="s">
+        <v>566</v>
+      </c>
+      <c r="C34" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="125"/>
-      <c r="E34" s="109" t="s">
+      <c r="D34" s="109"/>
+      <c r="E34" s="110" t="s">
         <v>166</v>
       </c>
-      <c r="F34" s="109"/>
-      <c r="G34" s="111" t="s">
+      <c r="F34" s="110"/>
+      <c r="G34" s="121" t="s">
         <v>192</v>
       </c>
-      <c r="H34" s="111"/>
-      <c r="I34" s="109" t="s">
+      <c r="H34" s="121"/>
+      <c r="I34" s="110" t="s">
         <v>167</v>
       </c>
-      <c r="J34" s="109"/>
+      <c r="J34" s="110"/>
       <c r="K34" s="50" t="s">
         <v>168</v>
       </c>
@@ -21704,46 +21772,46 @@
         <v>171</v>
       </c>
       <c r="R34" s="49"/>
-      <c r="S34" s="109"/>
-      <c r="T34" s="109"/>
-      <c r="U34" s="103"/>
-      <c r="V34" s="103"/>
-      <c r="W34" s="103"/>
-      <c r="X34" s="103"/>
-      <c r="Y34" s="117"/>
-      <c r="Z34" s="117"/>
-      <c r="AA34" s="110"/>
-      <c r="AB34" s="110"/>
-      <c r="AC34" s="103" t="s">
-        <v>536</v>
-      </c>
-      <c r="AD34" s="103"/>
-      <c r="AE34" s="102" t="str">
+      <c r="S34" s="110"/>
+      <c r="T34" s="110"/>
+      <c r="U34" s="114"/>
+      <c r="V34" s="114"/>
+      <c r="W34" s="114"/>
+      <c r="X34" s="114"/>
+      <c r="Y34" s="119"/>
+      <c r="Z34" s="119"/>
+      <c r="AA34" s="122"/>
+      <c r="AB34" s="122"/>
+      <c r="AC34" s="114" t="s">
+        <v>533</v>
+      </c>
+      <c r="AD34" s="114"/>
+      <c r="AE34" s="120" t="str">
         <f>CONCATENATE(E34,"+",G34,"+",I34,"+",M34,"+",O34,"+",Q34,"+",K34)</f>
         <v>怪物本身力量+怪物升星附加力量+装备本身附加力量+装备进阶附加力量+装备镶嵌附加力量+人物装备附加力量+装备强化附加力量</v>
       </c>
-      <c r="AF34" s="102"/>
+      <c r="AF34" s="120"/>
     </row>
     <row r="35" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="C35" s="125" t="s">
+        <v>567</v>
+      </c>
+      <c r="C35" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="125"/>
-      <c r="E35" s="109" t="s">
+      <c r="D35" s="109"/>
+      <c r="E35" s="110" t="s">
         <v>172</v>
       </c>
-      <c r="F35" s="109"/>
-      <c r="G35" s="111" t="s">
+      <c r="F35" s="110"/>
+      <c r="G35" s="121" t="s">
         <v>193</v>
       </c>
-      <c r="H35" s="111"/>
-      <c r="I35" s="109" t="s">
+      <c r="H35" s="121"/>
+      <c r="I35" s="110" t="s">
         <v>173</v>
       </c>
-      <c r="J35" s="109"/>
+      <c r="J35" s="110"/>
       <c r="K35" s="50" t="s">
         <v>174</v>
       </c>
@@ -21760,46 +21828,46 @@
         <v>177</v>
       </c>
       <c r="R35" s="49"/>
-      <c r="S35" s="109"/>
-      <c r="T35" s="109"/>
-      <c r="U35" s="103"/>
-      <c r="V35" s="103"/>
-      <c r="W35" s="103"/>
-      <c r="X35" s="103"/>
-      <c r="Y35" s="117"/>
-      <c r="Z35" s="117"/>
-      <c r="AA35" s="110"/>
-      <c r="AB35" s="110"/>
-      <c r="AC35" s="103" t="s">
-        <v>536</v>
-      </c>
-      <c r="AD35" s="103"/>
-      <c r="AE35" s="102" t="str">
+      <c r="S35" s="110"/>
+      <c r="T35" s="110"/>
+      <c r="U35" s="114"/>
+      <c r="V35" s="114"/>
+      <c r="W35" s="114"/>
+      <c r="X35" s="114"/>
+      <c r="Y35" s="119"/>
+      <c r="Z35" s="119"/>
+      <c r="AA35" s="122"/>
+      <c r="AB35" s="122"/>
+      <c r="AC35" s="114" t="s">
+        <v>533</v>
+      </c>
+      <c r="AD35" s="114"/>
+      <c r="AE35" s="120" t="str">
         <f>CONCATENATE(E35,"+",G35,"+",I35,"+",M35,"+",O35,"+",Q35,"+",K35)</f>
         <v>怪物本身智力+怪物升星附加智力+装备本身附加智力+装备进阶附加智力+装备镶嵌附加智力+人物装备附加智力+装备强化附加智力</v>
       </c>
-      <c r="AF35" s="102"/>
+      <c r="AF35" s="120"/>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
-        <v>589</v>
-      </c>
-      <c r="C36" s="125" t="s">
+        <v>586</v>
+      </c>
+      <c r="C36" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="125"/>
-      <c r="E36" s="109" t="s">
+      <c r="D36" s="109"/>
+      <c r="E36" s="110" t="s">
         <v>182</v>
       </c>
-      <c r="F36" s="109"/>
-      <c r="G36" s="111" t="s">
+      <c r="F36" s="110"/>
+      <c r="G36" s="121" t="s">
         <v>194</v>
       </c>
-      <c r="H36" s="111"/>
-      <c r="I36" s="109" t="s">
+      <c r="H36" s="121"/>
+      <c r="I36" s="110" t="s">
         <v>183</v>
       </c>
-      <c r="J36" s="109"/>
+      <c r="J36" s="110"/>
       <c r="K36" s="50" t="s">
         <v>184</v>
       </c>
@@ -21817,55 +21885,55 @@
       </c>
       <c r="R36" s="49"/>
       <c r="S36" s="49" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="T36" s="49"/>
       <c r="U36" s="49" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="V36" s="49"/>
       <c r="W36" s="49" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="X36" s="49"/>
       <c r="Y36" s="49" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="Z36" s="49"/>
-      <c r="AA36" s="109" t="s">
-        <v>506</v>
-      </c>
-      <c r="AB36" s="109"/>
-      <c r="AC36" s="103" t="s">
+      <c r="AA36" s="110" t="s">
+        <v>503</v>
+      </c>
+      <c r="AB36" s="110"/>
+      <c r="AC36" s="114" t="s">
         <v>216</v>
       </c>
-      <c r="AD36" s="103"/>
-      <c r="AE36" s="102" t="str">
+      <c r="AD36" s="114"/>
+      <c r="AE36" s="120" t="str">
         <f>CONCATENATE("(",E36,"+",G36,"+",I36,"+",M36,"+",O36,"+",Q36,"+",K36,")","*","（","1","+",S36,")","*","(","1","+",U36,"+",W36,"+",Y36,"+",AA36,")")</f>
         <v>(怪物本身防御力+怪物升星附加防御力+装备本身附加防御力+装备进阶附加防御力+装备镶嵌附加防御力+人物装备附加防御力+装备强化附加防御力)*（1+人物装备套装附加防御力百分比)*(1+法阵附加防御力百分比+Buff附加防御力百分比+队长附加防御力百分比+被动附加防御力百分比)</v>
       </c>
-      <c r="AF36" s="102"/>
+      <c r="AF36" s="120"/>
     </row>
     <row r="37" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="C37" s="125" t="s">
-        <v>702</v>
-      </c>
-      <c r="D37" s="125"/>
-      <c r="E37" s="109" t="s">
+        <v>568</v>
+      </c>
+      <c r="C37" s="109" t="s">
+        <v>698</v>
+      </c>
+      <c r="D37" s="109"/>
+      <c r="E37" s="110" t="s">
         <v>182</v>
       </c>
-      <c r="F37" s="109"/>
-      <c r="G37" s="111" t="s">
+      <c r="F37" s="110"/>
+      <c r="G37" s="121" t="s">
         <v>194</v>
       </c>
-      <c r="H37" s="111"/>
-      <c r="I37" s="109" t="s">
+      <c r="H37" s="121"/>
+      <c r="I37" s="110" t="s">
         <v>183</v>
       </c>
-      <c r="J37" s="109"/>
+      <c r="J37" s="110"/>
       <c r="K37" s="50" t="s">
         <v>184</v>
       </c>
@@ -21882,44 +21950,44 @@
         <v>187</v>
       </c>
       <c r="R37" s="49"/>
-      <c r="S37" s="106"/>
-      <c r="T37" s="107"/>
-      <c r="U37" s="110"/>
-      <c r="V37" s="110"/>
-      <c r="W37" s="110"/>
-      <c r="X37" s="110"/>
-      <c r="Y37" s="110"/>
-      <c r="Z37" s="110"/>
-      <c r="AA37" s="109"/>
-      <c r="AB37" s="109"/>
-      <c r="AC37" s="103" t="s">
-        <v>536</v>
-      </c>
-      <c r="AD37" s="103"/>
-      <c r="AE37" s="102" t="str">
+      <c r="S37" s="127"/>
+      <c r="T37" s="128"/>
+      <c r="U37" s="122"/>
+      <c r="V37" s="122"/>
+      <c r="W37" s="122"/>
+      <c r="X37" s="122"/>
+      <c r="Y37" s="122"/>
+      <c r="Z37" s="122"/>
+      <c r="AA37" s="110"/>
+      <c r="AB37" s="110"/>
+      <c r="AC37" s="114" t="s">
+        <v>533</v>
+      </c>
+      <c r="AD37" s="114"/>
+      <c r="AE37" s="120" t="str">
         <f>CONCATENATE(E37,"+",G37,"+",I37,"+",M37,"+",O37,"+",Q37,"+",K37)</f>
         <v>怪物本身防御力+怪物升星附加防御力+装备本身附加防御力+装备进阶附加防御力+装备镶嵌附加防御力+人物装备附加防御力+装备强化附加防御力</v>
       </c>
-      <c r="AF37" s="102"/>
+      <c r="AF37" s="120"/>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
-      <c r="C38" s="108" t="s">
+      <c r="C38" s="126" t="s">
         <v>196</v>
       </c>
-      <c r="D38" s="108"/>
-      <c r="E38" s="109" t="s">
+      <c r="D38" s="126"/>
+      <c r="E38" s="110" t="s">
         <v>204</v>
       </c>
-      <c r="F38" s="109"/>
-      <c r="G38" s="111" t="s">
+      <c r="F38" s="110"/>
+      <c r="G38" s="121" t="s">
         <v>205</v>
       </c>
-      <c r="H38" s="111"/>
-      <c r="I38" s="109" t="s">
+      <c r="H38" s="121"/>
+      <c r="I38" s="110" t="s">
         <v>206</v>
       </c>
-      <c r="J38" s="109"/>
+      <c r="J38" s="110"/>
       <c r="K38" s="50" t="s">
         <v>207</v>
       </c>
@@ -21937,53 +22005,53 @@
       </c>
       <c r="R38" s="49"/>
       <c r="S38" s="49" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="T38" s="49"/>
-      <c r="U38" s="110" t="s">
-        <v>510</v>
-      </c>
-      <c r="V38" s="110"/>
-      <c r="W38" s="110" t="s">
-        <v>509</v>
-      </c>
-      <c r="X38" s="110"/>
-      <c r="Y38" s="110" t="s">
-        <v>508</v>
-      </c>
-      <c r="Z38" s="110"/>
-      <c r="AA38" s="109" t="s">
+      <c r="U38" s="122" t="s">
         <v>507</v>
       </c>
-      <c r="AB38" s="109"/>
-      <c r="AC38" s="103" t="s">
+      <c r="V38" s="122"/>
+      <c r="W38" s="122" t="s">
+        <v>506</v>
+      </c>
+      <c r="X38" s="122"/>
+      <c r="Y38" s="122" t="s">
+        <v>505</v>
+      </c>
+      <c r="Z38" s="122"/>
+      <c r="AA38" s="110" t="s">
+        <v>504</v>
+      </c>
+      <c r="AB38" s="110"/>
+      <c r="AC38" s="114" t="s">
         <v>216</v>
       </c>
-      <c r="AD38" s="103"/>
-      <c r="AE38" s="102" t="str">
+      <c r="AD38" s="114"/>
+      <c r="AE38" s="120" t="str">
         <f>CONCATENATE("(",E38,"+",G38,"+",I38,"+",M38,"+",O38,"+",Q38,"+",K38,")","*","（","1","+",S38,")","*","(","1","+",U38,"+",W38,"+",Y38,"+",AA38,")")</f>
         <v>(怪物本身速度+怪物升星附加速度+装备本身附加速度+装备进阶附加速度+装备镶嵌附加速度+人物装备附加速度+装备强化附加速度)*（1+人物装备套装附加速度百分比)*(1+法阵附加速度百分比+Buff附加速度百分比+队长技附加速度百分比+被动附加速度百分比)</v>
       </c>
-      <c r="AF38" s="102"/>
+      <c r="AF38" s="120"/>
     </row>
     <row r="39" spans="1:32" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="57"/>
-      <c r="C39" s="108" t="s">
-        <v>703</v>
-      </c>
-      <c r="D39" s="108"/>
-      <c r="E39" s="109" t="s">
+      <c r="C39" s="126" t="s">
+        <v>699</v>
+      </c>
+      <c r="D39" s="126"/>
+      <c r="E39" s="110" t="s">
         <v>204</v>
       </c>
-      <c r="F39" s="109"/>
-      <c r="G39" s="111" t="s">
+      <c r="F39" s="110"/>
+      <c r="G39" s="121" t="s">
         <v>205</v>
       </c>
-      <c r="H39" s="111"/>
-      <c r="I39" s="109" t="s">
+      <c r="H39" s="121"/>
+      <c r="I39" s="110" t="s">
         <v>206</v>
       </c>
-      <c r="J39" s="109"/>
+      <c r="J39" s="110"/>
       <c r="K39" s="50" t="s">
         <v>207</v>
       </c>
@@ -22000,86 +22068,86 @@
         <v>210</v>
       </c>
       <c r="R39" s="49"/>
-      <c r="S39" s="114"/>
-      <c r="T39" s="115"/>
-      <c r="U39" s="114"/>
-      <c r="V39" s="115"/>
-      <c r="W39" s="114"/>
-      <c r="X39" s="115"/>
-      <c r="Y39" s="114"/>
-      <c r="Z39" s="115"/>
-      <c r="AA39" s="112"/>
-      <c r="AB39" s="113"/>
-      <c r="AC39" s="103" t="s">
-        <v>536</v>
-      </c>
-      <c r="AD39" s="103"/>
-      <c r="AE39" s="102" t="str">
+      <c r="S39" s="136"/>
+      <c r="T39" s="137"/>
+      <c r="U39" s="136"/>
+      <c r="V39" s="137"/>
+      <c r="W39" s="136"/>
+      <c r="X39" s="137"/>
+      <c r="Y39" s="136"/>
+      <c r="Z39" s="137"/>
+      <c r="AA39" s="134"/>
+      <c r="AB39" s="135"/>
+      <c r="AC39" s="114" t="s">
+        <v>533</v>
+      </c>
+      <c r="AD39" s="114"/>
+      <c r="AE39" s="120" t="str">
         <f>CONCATENATE(E39,"+",G39,"+",I39,"+",M39,"+",O39,"+",Q39,"+",K39)</f>
         <v>怪物本身速度+怪物升星附加速度+装备本身附加速度+装备进阶附加速度+装备镶嵌附加速度+人物装备附加速度+装备强化附加速度</v>
       </c>
-      <c r="AF39" s="102"/>
+      <c r="AF39" s="120"/>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C40" s="108" t="s">
+      <c r="C40" s="126" t="s">
         <v>217</v>
       </c>
-      <c r="D40" s="108"/>
-      <c r="E40" s="109" t="s">
+      <c r="D40" s="126"/>
+      <c r="E40" s="110" t="s">
         <v>230</v>
       </c>
-      <c r="F40" s="109"/>
-      <c r="G40" s="109" t="s">
-        <v>516</v>
-      </c>
-      <c r="H40" s="109"/>
-      <c r="I40" s="109"/>
-      <c r="J40" s="109"/>
-      <c r="K40" s="116"/>
-      <c r="L40" s="116"/>
-      <c r="M40" s="116"/>
-      <c r="N40" s="116"/>
-      <c r="O40" s="116"/>
-      <c r="P40" s="116"/>
-      <c r="Q40" s="117"/>
-      <c r="R40" s="117"/>
-      <c r="S40" s="117"/>
-      <c r="T40" s="117"/>
-      <c r="U40" s="110"/>
-      <c r="V40" s="110"/>
-      <c r="W40" s="110"/>
-      <c r="X40" s="110"/>
-      <c r="Y40" s="110"/>
-      <c r="Z40" s="110"/>
-      <c r="AA40" s="109"/>
-      <c r="AB40" s="109"/>
-      <c r="AC40" s="103" t="s">
-        <v>486</v>
-      </c>
-      <c r="AD40" s="103"/>
-      <c r="AE40" s="102" t="str">
+      <c r="F40" s="110"/>
+      <c r="G40" s="110" t="s">
+        <v>513</v>
+      </c>
+      <c r="H40" s="110"/>
+      <c r="I40" s="110"/>
+      <c r="J40" s="110"/>
+      <c r="K40" s="129"/>
+      <c r="L40" s="129"/>
+      <c r="M40" s="129"/>
+      <c r="N40" s="129"/>
+      <c r="O40" s="129"/>
+      <c r="P40" s="129"/>
+      <c r="Q40" s="119"/>
+      <c r="R40" s="119"/>
+      <c r="S40" s="119"/>
+      <c r="T40" s="119"/>
+      <c r="U40" s="122"/>
+      <c r="V40" s="122"/>
+      <c r="W40" s="122"/>
+      <c r="X40" s="122"/>
+      <c r="Y40" s="122"/>
+      <c r="Z40" s="122"/>
+      <c r="AA40" s="110"/>
+      <c r="AB40" s="110"/>
+      <c r="AC40" s="114" t="s">
+        <v>483</v>
+      </c>
+      <c r="AD40" s="114"/>
+      <c r="AE40" s="120" t="str">
         <f>CONCATENATE(E40,"*","（",1,"+",G40,")")</f>
         <v>怪物本身耐力*（1+被动附加耐力百分比)</v>
       </c>
-      <c r="AF40" s="102"/>
+      <c r="AF40" s="120"/>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C41" s="108" t="s">
+      <c r="C41" s="126" t="s">
         <v>220</v>
       </c>
-      <c r="D41" s="108"/>
-      <c r="E41" s="109" t="s">
+      <c r="D41" s="126"/>
+      <c r="E41" s="110" t="s">
         <v>221</v>
       </c>
-      <c r="F41" s="109"/>
-      <c r="G41" s="111" t="s">
+      <c r="F41" s="110"/>
+      <c r="G41" s="121" t="s">
         <v>222</v>
       </c>
-      <c r="H41" s="111"/>
-      <c r="I41" s="109" t="s">
+      <c r="H41" s="121"/>
+      <c r="I41" s="110" t="s">
         <v>223</v>
       </c>
-      <c r="J41" s="109"/>
+      <c r="J41" s="110"/>
       <c r="K41" s="50" t="s">
         <v>224</v>
       </c>
@@ -22097,50 +22165,50 @@
       </c>
       <c r="R41" s="49"/>
       <c r="S41" s="49" t="s">
+        <v>509</v>
+      </c>
+      <c r="T41" s="49"/>
+      <c r="U41" s="122" t="s">
+        <v>510</v>
+      </c>
+      <c r="V41" s="122"/>
+      <c r="W41" s="122" t="s">
+        <v>511</v>
+      </c>
+      <c r="X41" s="122"/>
+      <c r="Y41" s="110" t="s">
         <v>512</v>
       </c>
-      <c r="T41" s="49"/>
-      <c r="U41" s="110" t="s">
-        <v>513</v>
-      </c>
-      <c r="V41" s="110"/>
-      <c r="W41" s="110" t="s">
-        <v>514</v>
-      </c>
-      <c r="X41" s="110"/>
-      <c r="Y41" s="109" t="s">
-        <v>515</v>
-      </c>
-      <c r="Z41" s="109"/>
-      <c r="AA41" s="109"/>
-      <c r="AB41" s="109"/>
-      <c r="AC41" s="103" t="s">
+      <c r="Z41" s="110"/>
+      <c r="AA41" s="110"/>
+      <c r="AB41" s="110"/>
+      <c r="AC41" s="114" t="s">
         <v>195</v>
       </c>
-      <c r="AD41" s="103"/>
-      <c r="AE41" s="102" t="str">
+      <c r="AD41" s="114"/>
+      <c r="AE41" s="120" t="str">
         <f>CONCATENATE("(",E41,"+",G41,"+",I41,"+",M41,"+",O41,"+",Q41,"+",K41,")","*","（","1","+",S41,")","*","(","1","+",U41,"+",W41,"+",Y41,")")</f>
         <v>(怪物本身体力+怪物升星附加体力+装备本身附加体力+装备进阶附加体力+装备镶嵌附加体力+人物装备附加体力+装备强化附加体力)*（1+人物装备套装附加体力百分比)*(1+法阵附加体力百分比+队长技附加体力百分比+被动附加体力百分比)</v>
       </c>
-      <c r="AF41" s="102"/>
+      <c r="AF41" s="120"/>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C42" s="108" t="s">
-        <v>704</v>
-      </c>
-      <c r="D42" s="108"/>
-      <c r="E42" s="109" t="s">
+      <c r="C42" s="126" t="s">
+        <v>700</v>
+      </c>
+      <c r="D42" s="126"/>
+      <c r="E42" s="110" t="s">
         <v>221</v>
       </c>
-      <c r="F42" s="109"/>
-      <c r="G42" s="111" t="s">
+      <c r="F42" s="110"/>
+      <c r="G42" s="121" t="s">
         <v>222</v>
       </c>
-      <c r="H42" s="111"/>
-      <c r="I42" s="109" t="s">
+      <c r="H42" s="121"/>
+      <c r="I42" s="110" t="s">
         <v>223</v>
       </c>
-      <c r="J42" s="109"/>
+      <c r="J42" s="110"/>
       <c r="K42" s="50" t="s">
         <v>224</v>
       </c>
@@ -22157,117 +22225,117 @@
         <v>231</v>
       </c>
       <c r="R42" s="49"/>
-      <c r="S42" s="106"/>
-      <c r="T42" s="107"/>
-      <c r="U42" s="106"/>
-      <c r="V42" s="107"/>
-      <c r="W42" s="106"/>
-      <c r="X42" s="107"/>
-      <c r="Y42" s="104"/>
-      <c r="Z42" s="105"/>
-      <c r="AA42" s="104"/>
-      <c r="AB42" s="105"/>
-      <c r="AC42" s="103" t="s">
-        <v>536</v>
-      </c>
-      <c r="AD42" s="103"/>
-      <c r="AE42" s="102" t="str">
+      <c r="S42" s="127"/>
+      <c r="T42" s="128"/>
+      <c r="U42" s="127"/>
+      <c r="V42" s="128"/>
+      <c r="W42" s="127"/>
+      <c r="X42" s="128"/>
+      <c r="Y42" s="132"/>
+      <c r="Z42" s="133"/>
+      <c r="AA42" s="132"/>
+      <c r="AB42" s="133"/>
+      <c r="AC42" s="114" t="s">
+        <v>533</v>
+      </c>
+      <c r="AD42" s="114"/>
+      <c r="AE42" s="120" t="str">
         <f>CONCATENATE(E42,"+",G42,"+",I42,"+",M42,"+",O42,"+",Q42,"+",K42)</f>
         <v>怪物本身体力+怪物升星附加体力+装备本身附加体力+装备进阶附加体力+装备镶嵌附加体力+人物装备附加体力+装备强化附加体力</v>
       </c>
-      <c r="AF42" s="102"/>
+      <c r="AF42" s="120"/>
     </row>
     <row r="43" spans="1:32" s="45" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C43" s="118" t="s">
+      <c r="C43" s="130" t="s">
+        <v>452</v>
+      </c>
+      <c r="D43" s="130"/>
+      <c r="E43" s="110" t="s">
+        <v>453</v>
+      </c>
+      <c r="F43" s="110"/>
+      <c r="G43" s="121" t="s">
+        <v>454</v>
+      </c>
+      <c r="H43" s="121"/>
+      <c r="I43" s="110" t="s">
         <v>455</v>
       </c>
-      <c r="D43" s="118"/>
-      <c r="E43" s="109" t="s">
+      <c r="J43" s="110"/>
+      <c r="K43" s="131"/>
+      <c r="L43" s="131"/>
+      <c r="M43" s="110"/>
+      <c r="N43" s="110"/>
+      <c r="O43" s="131"/>
+      <c r="P43" s="131"/>
+      <c r="Q43" s="122"/>
+      <c r="R43" s="122"/>
+      <c r="S43" s="122"/>
+      <c r="T43" s="122"/>
+      <c r="U43" s="122"/>
+      <c r="V43" s="122"/>
+      <c r="W43" s="122"/>
+      <c r="X43" s="122"/>
+      <c r="Y43" s="131"/>
+      <c r="Z43" s="131"/>
+      <c r="AA43" s="131"/>
+      <c r="AB43" s="131"/>
+      <c r="AC43" s="114" t="s">
         <v>456</v>
       </c>
-      <c r="F43" s="109"/>
-      <c r="G43" s="111" t="s">
-        <v>457</v>
-      </c>
-      <c r="H43" s="111"/>
-      <c r="I43" s="109" t="s">
-        <v>458</v>
-      </c>
-      <c r="J43" s="109"/>
-      <c r="K43" s="119"/>
-      <c r="L43" s="119"/>
-      <c r="M43" s="109"/>
-      <c r="N43" s="109"/>
-      <c r="O43" s="119"/>
-      <c r="P43" s="119"/>
-      <c r="Q43" s="110"/>
-      <c r="R43" s="110"/>
-      <c r="S43" s="110"/>
-      <c r="T43" s="110"/>
-      <c r="U43" s="110"/>
-      <c r="V43" s="110"/>
-      <c r="W43" s="110"/>
-      <c r="X43" s="110"/>
-      <c r="Y43" s="119"/>
-      <c r="Z43" s="119"/>
-      <c r="AA43" s="119"/>
-      <c r="AB43" s="119"/>
-      <c r="AC43" s="103" t="s">
-        <v>459</v>
-      </c>
-      <c r="AD43" s="103"/>
-      <c r="AE43" s="102" t="str">
+      <c r="AD43" s="114"/>
+      <c r="AE43" s="120" t="str">
         <f>CONCATENATE(E43,"+",G43,"+",I43)</f>
         <v>怪物本身生命回复+怪物升星附加生命回复+装备进阶附加生命回复</v>
       </c>
-      <c r="AF43" s="102"/>
+      <c r="AF43" s="120"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C44" s="108" t="s">
+      <c r="C44" s="126" t="s">
         <v>232</v>
       </c>
-      <c r="D44" s="108"/>
+      <c r="D44" s="126"/>
       <c r="E44" s="49" t="s">
+        <v>515</v>
+      </c>
+      <c r="F44" s="49"/>
+      <c r="G44" s="122" t="s">
+        <v>516</v>
+      </c>
+      <c r="H44" s="122"/>
+      <c r="I44" s="122" t="s">
+        <v>517</v>
+      </c>
+      <c r="J44" s="122"/>
+      <c r="K44" s="110" t="s">
         <v>518</v>
       </c>
-      <c r="F44" s="49"/>
-      <c r="G44" s="110" t="s">
-        <v>519</v>
-      </c>
-      <c r="H44" s="110"/>
-      <c r="I44" s="110" t="s">
-        <v>520</v>
-      </c>
-      <c r="J44" s="110"/>
-      <c r="K44" s="109" t="s">
-        <v>521</v>
-      </c>
-      <c r="L44" s="109"/>
-      <c r="M44" s="116"/>
-      <c r="N44" s="116"/>
-      <c r="O44" s="116"/>
-      <c r="P44" s="116"/>
-      <c r="Q44" s="117"/>
-      <c r="R44" s="117"/>
-      <c r="S44" s="117"/>
-      <c r="T44" s="117"/>
-      <c r="U44" s="110"/>
-      <c r="V44" s="110"/>
-      <c r="W44" s="110"/>
-      <c r="X44" s="110"/>
-      <c r="Y44" s="109"/>
-      <c r="Z44" s="109"/>
-      <c r="AA44" s="109"/>
-      <c r="AB44" s="109"/>
-      <c r="AC44" s="103" t="s">
+      <c r="L44" s="110"/>
+      <c r="M44" s="129"/>
+      <c r="N44" s="129"/>
+      <c r="O44" s="129"/>
+      <c r="P44" s="129"/>
+      <c r="Q44" s="119"/>
+      <c r="R44" s="119"/>
+      <c r="S44" s="119"/>
+      <c r="T44" s="119"/>
+      <c r="U44" s="122"/>
+      <c r="V44" s="122"/>
+      <c r="W44" s="122"/>
+      <c r="X44" s="122"/>
+      <c r="Y44" s="110"/>
+      <c r="Z44" s="110"/>
+      <c r="AA44" s="110"/>
+      <c r="AB44" s="110"/>
+      <c r="AC44" s="114" t="s">
         <v>233</v>
       </c>
-      <c r="AD44" s="103"/>
-      <c r="AE44" s="102" t="str">
+      <c r="AD44" s="114"/>
+      <c r="AE44" s="120" t="str">
         <f>CONCATENATE(E44,"+",G44,"+",I44,"+",K44)</f>
         <v>人物装备套装附加五行加成百分比+法阵附加五行加成百分比+队长技附加五行加成百分比+被动附加五行加成百分比</v>
       </c>
-      <c r="AF44" s="102"/>
+      <c r="AF44" s="120"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.15">
       <c r="D45" s="6"/>
@@ -22292,16 +22360,16 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
@@ -22377,21 +22445,153 @@
     <row r="90" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="186">
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AC42:AD42"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="AE39:AF39"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="Y38:Z38"/>
+    <mergeCell ref="AA38:AB38"/>
+    <mergeCell ref="AC38:AD38"/>
+    <mergeCell ref="AE38:AF38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="AC39:AD39"/>
+    <mergeCell ref="AA39:AB39"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="AC44:AD44"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="AC43:AD43"/>
+    <mergeCell ref="AA43:AB43"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="AC41:AD41"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="AC40:AD40"/>
+    <mergeCell ref="AE40:AF40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="AA41:AB41"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="AA44:AB44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="Y40:Z40"/>
+    <mergeCell ref="AA40:AB40"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="AA32:AB32"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="AC32:AD32"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AE37:AF37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="AC36:AD36"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="AA35:AB35"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AA37:AB37"/>
     <mergeCell ref="AC29:AD29"/>
     <mergeCell ref="AE29:AF29"/>
     <mergeCell ref="E33:F33"/>
@@ -22416,153 +22616,21 @@
     <mergeCell ref="Y33:Z33"/>
     <mergeCell ref="Q28:R28"/>
     <mergeCell ref="S28:T28"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="AE37:AF37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="AC36:AD36"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="AA35:AB35"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AA37:AB37"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="AA32:AB32"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="AC32:AD32"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="Y40:Z40"/>
-    <mergeCell ref="AA40:AB40"/>
-    <mergeCell ref="Y37:Z37"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="AA41:AB41"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="AA44:AB44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="AC41:AD41"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="AC40:AD40"/>
-    <mergeCell ref="AE40:AF40"/>
-    <mergeCell ref="AC44:AD44"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="AC43:AD43"/>
-    <mergeCell ref="AA43:AB43"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AC42:AD42"/>
-    <mergeCell ref="AA42:AB42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="AE39:AF39"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="Y38:Z38"/>
-    <mergeCell ref="AA38:AB38"/>
-    <mergeCell ref="AC38:AD38"/>
-    <mergeCell ref="AE38:AF38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="AC39:AD39"/>
-    <mergeCell ref="AA39:AB39"/>
-    <mergeCell ref="Y39:Z39"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="I34:J34"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22574,7 +22642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL71"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AS46" sqref="B28:BH49"/>
     </sheetView>
   </sheetViews>
@@ -22593,89 +22661,89 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C1" s="9" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C2" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D5" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E6" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F7" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E8" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="I8" s="42"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="I9" s="42"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D11" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E12" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D13" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E14" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B15" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -22687,17 +22755,17 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E16" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17" spans="1:57" x14ac:dyDescent="0.15">
       <c r="F17" s="1" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="18" spans="1:57" x14ac:dyDescent="0.15">
       <c r="C18" s="59" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="D18" s="59"/>
       <c r="E18" s="59"/>
@@ -22715,7 +22783,7 @@
     <row r="19" spans="1:57" x14ac:dyDescent="0.15">
       <c r="C19" s="59"/>
       <c r="D19" s="59" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="E19" s="59"/>
       <c r="F19" s="59"/>
@@ -22733,7 +22801,7 @@
       <c r="C20" s="59"/>
       <c r="D20" s="59"/>
       <c r="E20" s="59" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F20" s="59"/>
       <c r="G20" s="59"/>
@@ -22751,7 +22819,7 @@
       <c r="D21" s="59"/>
       <c r="E21" s="59"/>
       <c r="F21" s="59" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="G21" s="59"/>
       <c r="H21" s="59"/>
@@ -22767,7 +22835,7 @@
       <c r="C22" s="59"/>
       <c r="D22" s="59"/>
       <c r="E22" s="59" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F22" s="59"/>
       <c r="G22" s="59"/>
@@ -22785,7 +22853,7 @@
       <c r="D23" s="59"/>
       <c r="E23" s="59"/>
       <c r="F23" s="59" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="G23" s="59"/>
       <c r="H23" s="59"/>
@@ -22799,12 +22867,12 @@
     </row>
     <row r="25" spans="1:57" x14ac:dyDescent="0.15">
       <c r="C25" s="9" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="27" spans="1:57" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>76</v>
@@ -22817,40 +22885,40 @@
     </row>
     <row r="28" spans="1:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="47" t="s">
-        <v>573</v>
-      </c>
-      <c r="C28" s="137" t="s">
+        <v>570</v>
+      </c>
+      <c r="C28" s="138" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="138"/>
-      <c r="E28" s="138"/>
-      <c r="F28" s="139" t="s">
-        <v>669</v>
-      </c>
-      <c r="G28" s="139"/>
-      <c r="H28" s="139"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="144" t="s">
+        <v>665</v>
+      </c>
+      <c r="G28" s="144"/>
+      <c r="H28" s="144"/>
       <c r="I28" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="J28" s="139" t="s">
-        <v>666</v>
-      </c>
-      <c r="K28" s="139"/>
-      <c r="L28" s="139"/>
+      <c r="J28" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="K28" s="144"/>
+      <c r="L28" s="144"/>
       <c r="M28" s="46"/>
       <c r="N28" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="O28" s="141" t="s">
-        <v>665</v>
-      </c>
-      <c r="P28" s="141"/>
-      <c r="Q28" s="141"/>
+      <c r="O28" s="146" t="s">
+        <v>661</v>
+      </c>
+      <c r="P28" s="146"/>
+      <c r="Q28" s="146"/>
       <c r="R28" s="140" t="s">
         <v>78</v>
       </c>
       <c r="S28" s="140" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="T28" s="140"/>
       <c r="U28" s="140"/>
@@ -22858,7 +22926,7 @@
         <v>96</v>
       </c>
       <c r="W28" s="140" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="X28" s="140"/>
       <c r="Y28" s="140"/>
@@ -22866,86 +22934,86 @@
         <v>78</v>
       </c>
       <c r="AA28" s="143" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="AB28" s="143"/>
       <c r="AC28" s="143"/>
-      <c r="AD28" s="133" t="s">
+      <c r="AD28" s="147" t="s">
         <v>78</v>
       </c>
-      <c r="AE28" s="133">
+      <c r="AE28" s="147">
         <v>1</v>
       </c>
-      <c r="AF28" s="133"/>
-      <c r="AG28" s="133"/>
-      <c r="AH28" s="133" t="s">
+      <c r="AF28" s="147"/>
+      <c r="AG28" s="147"/>
+      <c r="AH28" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="AI28" s="133" t="s">
+      <c r="AI28" s="147" t="s">
+        <v>519</v>
+      </c>
+      <c r="AJ28" s="147"/>
+      <c r="AK28" s="147"/>
+      <c r="AL28" s="147" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM28" s="147" t="s">
+        <v>520</v>
+      </c>
+      <c r="AN28" s="147"/>
+      <c r="AO28" s="147"/>
+      <c r="AP28" s="147" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ28" s="147" t="s">
+        <v>521</v>
+      </c>
+      <c r="AR28" s="147"/>
+      <c r="AS28" s="147"/>
+      <c r="AT28" s="147" t="s">
+        <v>213</v>
+      </c>
+      <c r="AU28" s="147" t="s">
         <v>522</v>
       </c>
-      <c r="AJ28" s="133"/>
-      <c r="AK28" s="133"/>
-      <c r="AL28" s="133" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM28" s="133" t="s">
-        <v>523</v>
-      </c>
-      <c r="AN28" s="133"/>
-      <c r="AO28" s="133"/>
-      <c r="AP28" s="133" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ28" s="133" t="s">
-        <v>524</v>
-      </c>
-      <c r="AR28" s="133"/>
-      <c r="AS28" s="133"/>
-      <c r="AT28" s="133" t="s">
-        <v>213</v>
-      </c>
-      <c r="AU28" s="133" t="s">
-        <v>525</v>
-      </c>
-      <c r="AV28" s="133"/>
-      <c r="AW28" s="133"/>
-      <c r="AX28" s="134" t="s">
-        <v>788</v>
-      </c>
-      <c r="AY28" s="134" t="s">
-        <v>789</v>
-      </c>
-      <c r="AZ28" s="134"/>
-      <c r="BA28" s="134"/>
-      <c r="BB28" s="131" t="s">
-        <v>788</v>
-      </c>
-      <c r="BC28" s="131" t="s">
-        <v>794</v>
-      </c>
-      <c r="BD28" s="131"/>
-      <c r="BE28" s="131"/>
+      <c r="AV28" s="147"/>
+      <c r="AW28" s="147"/>
+      <c r="AX28" s="153" t="s">
+        <v>784</v>
+      </c>
+      <c r="AY28" s="153" t="s">
+        <v>785</v>
+      </c>
+      <c r="AZ28" s="153"/>
+      <c r="BA28" s="153"/>
+      <c r="BB28" s="154" t="s">
+        <v>784</v>
+      </c>
+      <c r="BC28" s="154" t="s">
+        <v>790</v>
+      </c>
+      <c r="BD28" s="154"/>
+      <c r="BE28" s="154"/>
     </row>
     <row r="29" spans="1:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
-        <v>574</v>
-      </c>
-      <c r="C29" s="138"/>
-      <c r="D29" s="138"/>
-      <c r="E29" s="138"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="139"/>
+        <v>571</v>
+      </c>
+      <c r="C29" s="139"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="144"/>
       <c r="I29" s="140"/>
-      <c r="J29" s="139"/>
-      <c r="K29" s="139"/>
-      <c r="L29" s="139"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="144"/>
+      <c r="L29" s="144"/>
       <c r="M29" s="46"/>
       <c r="N29" s="140"/>
-      <c r="O29" s="141"/>
-      <c r="P29" s="141"/>
-      <c r="Q29" s="141"/>
+      <c r="O29" s="146"/>
+      <c r="P29" s="146"/>
+      <c r="Q29" s="146"/>
       <c r="R29" s="140"/>
       <c r="S29" s="140"/>
       <c r="T29" s="140"/>
@@ -22958,52 +23026,52 @@
       <c r="AA29" s="143"/>
       <c r="AB29" s="143"/>
       <c r="AC29" s="143"/>
-      <c r="AD29" s="133"/>
-      <c r="AE29" s="133"/>
-      <c r="AF29" s="133"/>
-      <c r="AG29" s="133"/>
-      <c r="AH29" s="133"/>
-      <c r="AI29" s="133"/>
-      <c r="AJ29" s="133"/>
-      <c r="AK29" s="133"/>
-      <c r="AL29" s="133"/>
-      <c r="AM29" s="133"/>
-      <c r="AN29" s="133"/>
-      <c r="AO29" s="133"/>
-      <c r="AP29" s="133"/>
-      <c r="AQ29" s="133"/>
-      <c r="AR29" s="133"/>
-      <c r="AS29" s="133"/>
-      <c r="AT29" s="133"/>
-      <c r="AU29" s="133"/>
-      <c r="AV29" s="133"/>
-      <c r="AW29" s="133"/>
-      <c r="AX29" s="134"/>
-      <c r="AY29" s="134"/>
-      <c r="AZ29" s="134"/>
-      <c r="BA29" s="134"/>
-      <c r="BB29" s="131"/>
-      <c r="BC29" s="131"/>
-      <c r="BD29" s="131"/>
-      <c r="BE29" s="131"/>
+      <c r="AD29" s="147"/>
+      <c r="AE29" s="147"/>
+      <c r="AF29" s="147"/>
+      <c r="AG29" s="147"/>
+      <c r="AH29" s="147"/>
+      <c r="AI29" s="147"/>
+      <c r="AJ29" s="147"/>
+      <c r="AK29" s="147"/>
+      <c r="AL29" s="147"/>
+      <c r="AM29" s="147"/>
+      <c r="AN29" s="147"/>
+      <c r="AO29" s="147"/>
+      <c r="AP29" s="147"/>
+      <c r="AQ29" s="147"/>
+      <c r="AR29" s="147"/>
+      <c r="AS29" s="147"/>
+      <c r="AT29" s="147"/>
+      <c r="AU29" s="147"/>
+      <c r="AV29" s="147"/>
+      <c r="AW29" s="147"/>
+      <c r="AX29" s="153"/>
+      <c r="AY29" s="153"/>
+      <c r="AZ29" s="153"/>
+      <c r="BA29" s="153"/>
+      <c r="BB29" s="154"/>
+      <c r="BC29" s="154"/>
+      <c r="BD29" s="154"/>
+      <c r="BE29" s="154"/>
     </row>
     <row r="30" spans="1:57" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="139"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="144"/>
       <c r="I30" s="140"/>
-      <c r="J30" s="139"/>
-      <c r="K30" s="139"/>
-      <c r="L30" s="139"/>
+      <c r="J30" s="144"/>
+      <c r="K30" s="144"/>
+      <c r="L30" s="144"/>
       <c r="M30" s="46"/>
       <c r="N30" s="140"/>
-      <c r="O30" s="141"/>
-      <c r="P30" s="141"/>
-      <c r="Q30" s="141"/>
+      <c r="O30" s="146"/>
+      <c r="P30" s="146"/>
+      <c r="Q30" s="146"/>
       <c r="R30" s="140"/>
       <c r="S30" s="140"/>
       <c r="T30" s="140"/>
@@ -23016,54 +23084,54 @@
       <c r="AA30" s="143"/>
       <c r="AB30" s="143"/>
       <c r="AC30" s="143"/>
-      <c r="AD30" s="133"/>
-      <c r="AE30" s="133"/>
-      <c r="AF30" s="133"/>
-      <c r="AG30" s="133"/>
-      <c r="AH30" s="133"/>
-      <c r="AI30" s="133"/>
-      <c r="AJ30" s="133"/>
-      <c r="AK30" s="133"/>
-      <c r="AL30" s="133"/>
-      <c r="AM30" s="133"/>
-      <c r="AN30" s="133"/>
-      <c r="AO30" s="133"/>
-      <c r="AP30" s="133"/>
-      <c r="AQ30" s="133"/>
-      <c r="AR30" s="133"/>
-      <c r="AS30" s="133"/>
-      <c r="AT30" s="133"/>
-      <c r="AU30" s="133"/>
-      <c r="AV30" s="133"/>
-      <c r="AW30" s="133"/>
-      <c r="AX30" s="134"/>
-      <c r="AY30" s="134"/>
-      <c r="AZ30" s="134"/>
-      <c r="BA30" s="134"/>
-      <c r="BB30" s="131"/>
-      <c r="BC30" s="131"/>
-      <c r="BD30" s="131"/>
-      <c r="BE30" s="131"/>
+      <c r="AD30" s="147"/>
+      <c r="AE30" s="147"/>
+      <c r="AF30" s="147"/>
+      <c r="AG30" s="147"/>
+      <c r="AH30" s="147"/>
+      <c r="AI30" s="147"/>
+      <c r="AJ30" s="147"/>
+      <c r="AK30" s="147"/>
+      <c r="AL30" s="147"/>
+      <c r="AM30" s="147"/>
+      <c r="AN30" s="147"/>
+      <c r="AO30" s="147"/>
+      <c r="AP30" s="147"/>
+      <c r="AQ30" s="147"/>
+      <c r="AR30" s="147"/>
+      <c r="AS30" s="147"/>
+      <c r="AT30" s="147"/>
+      <c r="AU30" s="147"/>
+      <c r="AV30" s="147"/>
+      <c r="AW30" s="147"/>
+      <c r="AX30" s="153"/>
+      <c r="AY30" s="153"/>
+      <c r="AZ30" s="153"/>
+      <c r="BA30" s="153"/>
+      <c r="BB30" s="154"/>
+      <c r="BC30" s="154"/>
+      <c r="BD30" s="154"/>
+      <c r="BE30" s="154"/>
     </row>
     <row r="31" spans="1:57" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
-        <v>575</v>
-      </c>
-      <c r="C31" s="138"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="138"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="139"/>
+        <v>572</v>
+      </c>
+      <c r="C31" s="139"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="144"/>
+      <c r="H31" s="144"/>
       <c r="I31" s="140"/>
-      <c r="J31" s="139"/>
-      <c r="K31" s="139"/>
-      <c r="L31" s="139"/>
+      <c r="J31" s="144"/>
+      <c r="K31" s="144"/>
+      <c r="L31" s="144"/>
       <c r="M31" s="46"/>
       <c r="N31" s="140"/>
-      <c r="O31" s="141"/>
-      <c r="P31" s="141"/>
-      <c r="Q31" s="141"/>
+      <c r="O31" s="146"/>
+      <c r="P31" s="146"/>
+      <c r="Q31" s="146"/>
       <c r="R31" s="140"/>
       <c r="S31" s="140"/>
       <c r="T31" s="140"/>
@@ -23076,39 +23144,39 @@
       <c r="AA31" s="143"/>
       <c r="AB31" s="143"/>
       <c r="AC31" s="143"/>
-      <c r="AD31" s="133"/>
-      <c r="AE31" s="133"/>
-      <c r="AF31" s="133"/>
-      <c r="AG31" s="133"/>
-      <c r="AH31" s="133"/>
-      <c r="AI31" s="133"/>
-      <c r="AJ31" s="133"/>
-      <c r="AK31" s="133"/>
-      <c r="AL31" s="133"/>
-      <c r="AM31" s="133"/>
-      <c r="AN31" s="133"/>
-      <c r="AO31" s="133"/>
-      <c r="AP31" s="133"/>
-      <c r="AQ31" s="133"/>
-      <c r="AR31" s="133"/>
-      <c r="AS31" s="133"/>
-      <c r="AT31" s="133"/>
-      <c r="AU31" s="133"/>
-      <c r="AV31" s="133"/>
-      <c r="AW31" s="133"/>
-      <c r="AX31" s="134"/>
-      <c r="AY31" s="134"/>
-      <c r="AZ31" s="134"/>
-      <c r="BA31" s="134"/>
-      <c r="BB31" s="131"/>
-      <c r="BC31" s="131"/>
-      <c r="BD31" s="131"/>
-      <c r="BE31" s="131"/>
+      <c r="AD31" s="147"/>
+      <c r="AE31" s="147"/>
+      <c r="AF31" s="147"/>
+      <c r="AG31" s="147"/>
+      <c r="AH31" s="147"/>
+      <c r="AI31" s="147"/>
+      <c r="AJ31" s="147"/>
+      <c r="AK31" s="147"/>
+      <c r="AL31" s="147"/>
+      <c r="AM31" s="147"/>
+      <c r="AN31" s="147"/>
+      <c r="AO31" s="147"/>
+      <c r="AP31" s="147"/>
+      <c r="AQ31" s="147"/>
+      <c r="AR31" s="147"/>
+      <c r="AS31" s="147"/>
+      <c r="AT31" s="147"/>
+      <c r="AU31" s="147"/>
+      <c r="AV31" s="147"/>
+      <c r="AW31" s="147"/>
+      <c r="AX31" s="153"/>
+      <c r="AY31" s="153"/>
+      <c r="AZ31" s="153"/>
+      <c r="BA31" s="153"/>
+      <c r="BB31" s="154"/>
+      <c r="BC31" s="154"/>
+      <c r="BD31" s="154"/>
+      <c r="BE31" s="154"/>
     </row>
     <row r="32" spans="1:57" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="F32" s="140" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G32" s="140"/>
       <c r="H32" s="140"/>
@@ -23120,11 +23188,11 @@
       <c r="L32" s="140"/>
       <c r="M32" s="46"/>
       <c r="N32" s="140"/>
-      <c r="O32" s="145" t="s">
+      <c r="O32" s="142" t="s">
         <v>80</v>
       </c>
-      <c r="P32" s="145"/>
-      <c r="Q32" s="145"/>
+      <c r="P32" s="142"/>
+      <c r="Q32" s="142"/>
       <c r="R32" s="140"/>
       <c r="S32" s="140" t="s">
         <v>100</v>
@@ -23143,42 +23211,42 @@
       </c>
       <c r="AB32" s="143"/>
       <c r="AC32" s="143"/>
-      <c r="AD32" s="133"/>
-      <c r="AE32" s="133"/>
-      <c r="AF32" s="133"/>
-      <c r="AG32" s="133"/>
-      <c r="AH32" s="133"/>
-      <c r="AI32" s="133" t="s">
+      <c r="AD32" s="147"/>
+      <c r="AE32" s="147"/>
+      <c r="AF32" s="147"/>
+      <c r="AG32" s="147"/>
+      <c r="AH32" s="147"/>
+      <c r="AI32" s="147" t="s">
         <v>98</v>
       </c>
-      <c r="AJ32" s="133"/>
-      <c r="AK32" s="133"/>
-      <c r="AL32" s="133"/>
-      <c r="AM32" s="135" t="s">
+      <c r="AJ32" s="147"/>
+      <c r="AK32" s="147"/>
+      <c r="AL32" s="147"/>
+      <c r="AM32" s="151" t="s">
         <v>99</v>
       </c>
-      <c r="AN32" s="135"/>
-      <c r="AO32" s="135"/>
-      <c r="AP32" s="133"/>
-      <c r="AQ32" s="133" t="s">
+      <c r="AN32" s="151"/>
+      <c r="AO32" s="151"/>
+      <c r="AP32" s="147"/>
+      <c r="AQ32" s="147" t="s">
         <v>105</v>
       </c>
-      <c r="AR32" s="133"/>
-      <c r="AS32" s="133"/>
-      <c r="AT32" s="133"/>
-      <c r="AU32" s="132" t="s">
+      <c r="AR32" s="147"/>
+      <c r="AS32" s="147"/>
+      <c r="AT32" s="147"/>
+      <c r="AU32" s="150" t="s">
         <v>215</v>
       </c>
-      <c r="AV32" s="132"/>
-      <c r="AW32" s="132"/>
-      <c r="AX32" s="134"/>
-      <c r="AY32" s="134"/>
-      <c r="AZ32" s="134"/>
-      <c r="BA32" s="134"/>
-      <c r="BB32" s="131"/>
-      <c r="BC32" s="131"/>
-      <c r="BD32" s="131"/>
-      <c r="BE32" s="131"/>
+      <c r="AV32" s="150"/>
+      <c r="AW32" s="150"/>
+      <c r="AX32" s="153"/>
+      <c r="AY32" s="153"/>
+      <c r="AZ32" s="153"/>
+      <c r="BA32" s="153"/>
+      <c r="BB32" s="154"/>
+      <c r="BC32" s="154"/>
+      <c r="BD32" s="154"/>
+      <c r="BE32" s="154"/>
     </row>
     <row r="33" spans="1:64" x14ac:dyDescent="0.15">
       <c r="F33" s="140" t="s">
@@ -23203,46 +23271,46 @@
       <c r="W33" s="140"/>
       <c r="X33" s="140"/>
       <c r="Y33" s="140"/>
-      <c r="Z33" s="147" t="s">
+      <c r="Z33" s="141" t="s">
         <v>148</v>
       </c>
-      <c r="AA33" s="147"/>
-      <c r="AB33" s="147"/>
-      <c r="AC33" s="147"/>
-      <c r="AD33" s="132" t="s">
+      <c r="AA33" s="141"/>
+      <c r="AB33" s="141"/>
+      <c r="AC33" s="141"/>
+      <c r="AD33" s="150" t="s">
         <v>145</v>
       </c>
-      <c r="AE33" s="132"/>
-      <c r="AF33" s="132"/>
-      <c r="AG33" s="132"/>
-      <c r="AH33" s="132"/>
-      <c r="AI33" s="132"/>
-      <c r="AJ33" s="132"/>
-      <c r="AK33" s="132"/>
-      <c r="AL33" s="132"/>
-      <c r="AM33" s="132"/>
-      <c r="AN33" s="132"/>
-      <c r="AO33" s="132"/>
-      <c r="AP33" s="132"/>
-      <c r="AQ33" s="132"/>
-      <c r="AR33" s="132"/>
-      <c r="AS33" s="132"/>
-      <c r="AT33" s="132"/>
-      <c r="AU33" s="132"/>
-      <c r="AV33" s="132"/>
-      <c r="AW33" s="132"/>
-      <c r="AX33" s="134" t="s">
-        <v>447</v>
-      </c>
-      <c r="AY33" s="134"/>
-      <c r="AZ33" s="134"/>
-      <c r="BA33" s="134"/>
-      <c r="BB33" s="131" t="s">
-        <v>795</v>
-      </c>
-      <c r="BC33" s="131"/>
-      <c r="BD33" s="131"/>
-      <c r="BE33" s="131"/>
+      <c r="AE33" s="150"/>
+      <c r="AF33" s="150"/>
+      <c r="AG33" s="150"/>
+      <c r="AH33" s="150"/>
+      <c r="AI33" s="150"/>
+      <c r="AJ33" s="150"/>
+      <c r="AK33" s="150"/>
+      <c r="AL33" s="150"/>
+      <c r="AM33" s="150"/>
+      <c r="AN33" s="150"/>
+      <c r="AO33" s="150"/>
+      <c r="AP33" s="150"/>
+      <c r="AQ33" s="150"/>
+      <c r="AR33" s="150"/>
+      <c r="AS33" s="150"/>
+      <c r="AT33" s="150"/>
+      <c r="AU33" s="150"/>
+      <c r="AV33" s="150"/>
+      <c r="AW33" s="150"/>
+      <c r="AX33" s="153" t="s">
+        <v>444</v>
+      </c>
+      <c r="AY33" s="153"/>
+      <c r="AZ33" s="153"/>
+      <c r="BA33" s="153"/>
+      <c r="BB33" s="154" t="s">
+        <v>791</v>
+      </c>
+      <c r="BC33" s="154"/>
+      <c r="BD33" s="154"/>
+      <c r="BE33" s="154"/>
       <c r="BF33" s="17"/>
     </row>
     <row r="34" spans="1:64" x14ac:dyDescent="0.15">
@@ -23296,30 +23364,30 @@
     </row>
     <row r="36" spans="1:64" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="48" t="s">
-        <v>626</v>
-      </c>
-      <c r="C36" s="137" t="s">
+        <v>622</v>
+      </c>
+      <c r="C36" s="138" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="138"/>
-      <c r="E36" s="138"/>
-      <c r="F36" s="139" t="s">
-        <v>670</v>
+      <c r="D36" s="139"/>
+      <c r="E36" s="139"/>
+      <c r="F36" s="144" t="s">
+        <v>666</v>
       </c>
       <c r="G36" s="140"/>
       <c r="H36" s="140"/>
       <c r="I36" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="J36" s="139" t="s">
-        <v>586</v>
+      <c r="J36" s="144" t="s">
+        <v>583</v>
       </c>
       <c r="K36" s="140"/>
       <c r="L36" s="140"/>
       <c r="M36" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="N36" s="139" t="s">
+      <c r="N36" s="144" t="s">
         <v>117</v>
       </c>
       <c r="O36" s="140"/>
@@ -23328,7 +23396,7 @@
         <v>78</v>
       </c>
       <c r="R36" s="140" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="S36" s="140"/>
       <c r="T36" s="140"/>
@@ -23336,7 +23404,7 @@
         <v>96</v>
       </c>
       <c r="V36" s="140" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="W36" s="140"/>
       <c r="X36" s="140"/>
@@ -23344,88 +23412,88 @@
         <v>78</v>
       </c>
       <c r="Z36" s="143" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="AA36" s="143"/>
       <c r="AB36" s="143"/>
-      <c r="AC36" s="133" t="s">
+      <c r="AC36" s="147" t="s">
         <v>78</v>
       </c>
-      <c r="AD36" s="144" t="s">
-        <v>676</v>
-      </c>
-      <c r="AE36" s="132"/>
-      <c r="AF36" s="132"/>
-      <c r="AG36" s="133" t="s">
+      <c r="AD36" s="149" t="s">
+        <v>672</v>
+      </c>
+      <c r="AE36" s="150"/>
+      <c r="AF36" s="150"/>
+      <c r="AG36" s="147" t="s">
         <v>78</v>
       </c>
-      <c r="AH36" s="146" t="s">
-        <v>674</v>
-      </c>
-      <c r="AI36" s="133"/>
-      <c r="AJ36" s="133"/>
-      <c r="AK36" s="133" t="s">
+      <c r="AH36" s="148" t="s">
+        <v>670</v>
+      </c>
+      <c r="AI36" s="147"/>
+      <c r="AJ36" s="147"/>
+      <c r="AK36" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="AL36" s="133">
+      <c r="AL36" s="147">
         <v>1</v>
       </c>
-      <c r="AM36" s="133"/>
-      <c r="AN36" s="133"/>
-      <c r="AO36" s="133" t="s">
+      <c r="AM36" s="147"/>
+      <c r="AN36" s="147"/>
+      <c r="AO36" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="AP36" s="133" t="s">
-        <v>530</v>
-      </c>
-      <c r="AQ36" s="133"/>
-      <c r="AR36" s="133"/>
-      <c r="AS36" s="133" t="s">
+      <c r="AP36" s="147" t="s">
+        <v>527</v>
+      </c>
+      <c r="AQ36" s="147"/>
+      <c r="AR36" s="147"/>
+      <c r="AS36" s="147" t="s">
         <v>144</v>
       </c>
-      <c r="AT36" s="133" t="s">
-        <v>529</v>
-      </c>
-      <c r="AU36" s="133"/>
-      <c r="AV36" s="133"/>
-      <c r="AW36" s="133" t="s">
+      <c r="AT36" s="147" t="s">
+        <v>526</v>
+      </c>
+      <c r="AU36" s="147"/>
+      <c r="AV36" s="147"/>
+      <c r="AW36" s="147" t="s">
         <v>149</v>
       </c>
-      <c r="AX36" s="133" t="s">
-        <v>528</v>
-      </c>
-      <c r="AY36" s="133"/>
-      <c r="AZ36" s="133"/>
-      <c r="BA36" s="133" t="s">
+      <c r="AX36" s="147" t="s">
+        <v>525</v>
+      </c>
+      <c r="AY36" s="147"/>
+      <c r="AZ36" s="147"/>
+      <c r="BA36" s="147" t="s">
         <v>214</v>
       </c>
-      <c r="BB36" s="133" t="s">
-        <v>527</v>
-      </c>
-      <c r="BC36" s="133"/>
-      <c r="BD36" s="133"/>
-      <c r="BE36" s="134" t="s">
+      <c r="BB36" s="147" t="s">
+        <v>524</v>
+      </c>
+      <c r="BC36" s="147"/>
+      <c r="BD36" s="147"/>
+      <c r="BE36" s="153" t="s">
         <v>102</v>
       </c>
-      <c r="BF36" s="134" t="s">
-        <v>526</v>
-      </c>
-      <c r="BG36" s="134"/>
-      <c r="BH36" s="134"/>
-      <c r="BI36" s="131" t="s">
-        <v>788</v>
-      </c>
-      <c r="BJ36" s="131" t="s">
-        <v>794</v>
-      </c>
-      <c r="BK36" s="131"/>
-      <c r="BL36" s="131"/>
+      <c r="BF36" s="153" t="s">
+        <v>523</v>
+      </c>
+      <c r="BG36" s="153"/>
+      <c r="BH36" s="153"/>
+      <c r="BI36" s="154" t="s">
+        <v>784</v>
+      </c>
+      <c r="BJ36" s="154" t="s">
+        <v>790</v>
+      </c>
+      <c r="BK36" s="154"/>
+      <c r="BL36" s="154"/>
     </row>
     <row r="37" spans="1:64" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
-      <c r="C37" s="138"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="138"/>
+      <c r="C37" s="139"/>
+      <c r="D37" s="139"/>
+      <c r="E37" s="139"/>
       <c r="F37" s="140"/>
       <c r="G37" s="140"/>
       <c r="H37" s="140"/>
@@ -23449,50 +23517,50 @@
       <c r="Z37" s="143"/>
       <c r="AA37" s="143"/>
       <c r="AB37" s="143"/>
-      <c r="AC37" s="133"/>
-      <c r="AD37" s="132"/>
-      <c r="AE37" s="132"/>
-      <c r="AF37" s="132"/>
-      <c r="AG37" s="133"/>
-      <c r="AH37" s="133"/>
-      <c r="AI37" s="133"/>
-      <c r="AJ37" s="133"/>
-      <c r="AK37" s="133"/>
-      <c r="AL37" s="133"/>
-      <c r="AM37" s="133"/>
-      <c r="AN37" s="133"/>
-      <c r="AO37" s="133"/>
-      <c r="AP37" s="133"/>
-      <c r="AQ37" s="133"/>
-      <c r="AR37" s="133"/>
-      <c r="AS37" s="133"/>
-      <c r="AT37" s="133"/>
-      <c r="AU37" s="133"/>
-      <c r="AV37" s="133"/>
-      <c r="AW37" s="133"/>
-      <c r="AX37" s="133"/>
-      <c r="AY37" s="133"/>
-      <c r="AZ37" s="133"/>
-      <c r="BA37" s="133"/>
-      <c r="BB37" s="133"/>
-      <c r="BC37" s="133"/>
-      <c r="BD37" s="133"/>
-      <c r="BE37" s="134"/>
-      <c r="BF37" s="134"/>
-      <c r="BG37" s="134"/>
-      <c r="BH37" s="134"/>
-      <c r="BI37" s="131"/>
-      <c r="BJ37" s="131"/>
-      <c r="BK37" s="131"/>
-      <c r="BL37" s="131"/>
+      <c r="AC37" s="147"/>
+      <c r="AD37" s="150"/>
+      <c r="AE37" s="150"/>
+      <c r="AF37" s="150"/>
+      <c r="AG37" s="147"/>
+      <c r="AH37" s="147"/>
+      <c r="AI37" s="147"/>
+      <c r="AJ37" s="147"/>
+      <c r="AK37" s="147"/>
+      <c r="AL37" s="147"/>
+      <c r="AM37" s="147"/>
+      <c r="AN37" s="147"/>
+      <c r="AO37" s="147"/>
+      <c r="AP37" s="147"/>
+      <c r="AQ37" s="147"/>
+      <c r="AR37" s="147"/>
+      <c r="AS37" s="147"/>
+      <c r="AT37" s="147"/>
+      <c r="AU37" s="147"/>
+      <c r="AV37" s="147"/>
+      <c r="AW37" s="147"/>
+      <c r="AX37" s="147"/>
+      <c r="AY37" s="147"/>
+      <c r="AZ37" s="147"/>
+      <c r="BA37" s="147"/>
+      <c r="BB37" s="147"/>
+      <c r="BC37" s="147"/>
+      <c r="BD37" s="147"/>
+      <c r="BE37" s="153"/>
+      <c r="BF37" s="153"/>
+      <c r="BG37" s="153"/>
+      <c r="BH37" s="153"/>
+      <c r="BI37" s="154"/>
+      <c r="BJ37" s="154"/>
+      <c r="BK37" s="154"/>
+      <c r="BL37" s="154"/>
     </row>
     <row r="38" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
-        <v>663</v>
-      </c>
-      <c r="C38" s="138"/>
-      <c r="D38" s="138"/>
-      <c r="E38" s="138"/>
+        <v>659</v>
+      </c>
+      <c r="C38" s="139"/>
+      <c r="D38" s="139"/>
+      <c r="E38" s="139"/>
       <c r="F38" s="140"/>
       <c r="G38" s="140"/>
       <c r="H38" s="140"/>
@@ -23516,47 +23584,47 @@
       <c r="Z38" s="143"/>
       <c r="AA38" s="143"/>
       <c r="AB38" s="143"/>
-      <c r="AC38" s="133"/>
-      <c r="AD38" s="132"/>
-      <c r="AE38" s="132"/>
-      <c r="AF38" s="132"/>
-      <c r="AG38" s="133"/>
-      <c r="AH38" s="133"/>
-      <c r="AI38" s="133"/>
-      <c r="AJ38" s="133"/>
-      <c r="AK38" s="133"/>
-      <c r="AL38" s="133"/>
-      <c r="AM38" s="133"/>
-      <c r="AN38" s="133"/>
-      <c r="AO38" s="133"/>
-      <c r="AP38" s="133"/>
-      <c r="AQ38" s="133"/>
-      <c r="AR38" s="133"/>
-      <c r="AS38" s="133"/>
-      <c r="AT38" s="133"/>
-      <c r="AU38" s="133"/>
-      <c r="AV38" s="133"/>
-      <c r="AW38" s="133"/>
-      <c r="AX38" s="133"/>
-      <c r="AY38" s="133"/>
-      <c r="AZ38" s="133"/>
-      <c r="BA38" s="133"/>
-      <c r="BB38" s="133"/>
-      <c r="BC38" s="133"/>
-      <c r="BD38" s="133"/>
-      <c r="BE38" s="134"/>
-      <c r="BF38" s="134"/>
-      <c r="BG38" s="134"/>
-      <c r="BH38" s="134"/>
-      <c r="BI38" s="131"/>
-      <c r="BJ38" s="131"/>
-      <c r="BK38" s="131"/>
-      <c r="BL38" s="131"/>
+      <c r="AC38" s="147"/>
+      <c r="AD38" s="150"/>
+      <c r="AE38" s="150"/>
+      <c r="AF38" s="150"/>
+      <c r="AG38" s="147"/>
+      <c r="AH38" s="147"/>
+      <c r="AI38" s="147"/>
+      <c r="AJ38" s="147"/>
+      <c r="AK38" s="147"/>
+      <c r="AL38" s="147"/>
+      <c r="AM38" s="147"/>
+      <c r="AN38" s="147"/>
+      <c r="AO38" s="147"/>
+      <c r="AP38" s="147"/>
+      <c r="AQ38" s="147"/>
+      <c r="AR38" s="147"/>
+      <c r="AS38" s="147"/>
+      <c r="AT38" s="147"/>
+      <c r="AU38" s="147"/>
+      <c r="AV38" s="147"/>
+      <c r="AW38" s="147"/>
+      <c r="AX38" s="147"/>
+      <c r="AY38" s="147"/>
+      <c r="AZ38" s="147"/>
+      <c r="BA38" s="147"/>
+      <c r="BB38" s="147"/>
+      <c r="BC38" s="147"/>
+      <c r="BD38" s="147"/>
+      <c r="BE38" s="153"/>
+      <c r="BF38" s="153"/>
+      <c r="BG38" s="153"/>
+      <c r="BH38" s="153"/>
+      <c r="BI38" s="154"/>
+      <c r="BJ38" s="154"/>
+      <c r="BK38" s="154"/>
+      <c r="BL38" s="154"/>
     </row>
     <row r="39" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C39" s="138"/>
-      <c r="D39" s="138"/>
-      <c r="E39" s="138"/>
+      <c r="C39" s="139"/>
+      <c r="D39" s="139"/>
+      <c r="E39" s="139"/>
       <c r="F39" s="140"/>
       <c r="G39" s="140"/>
       <c r="H39" s="140"/>
@@ -23580,46 +23648,46 @@
       <c r="Z39" s="143"/>
       <c r="AA39" s="143"/>
       <c r="AB39" s="143"/>
-      <c r="AC39" s="133"/>
-      <c r="AD39" s="132"/>
-      <c r="AE39" s="132"/>
-      <c r="AF39" s="132"/>
-      <c r="AG39" s="133"/>
-      <c r="AH39" s="133"/>
-      <c r="AI39" s="133"/>
-      <c r="AJ39" s="133"/>
-      <c r="AK39" s="133"/>
-      <c r="AL39" s="133"/>
-      <c r="AM39" s="133"/>
-      <c r="AN39" s="133"/>
-      <c r="AO39" s="133"/>
-      <c r="AP39" s="133"/>
-      <c r="AQ39" s="133"/>
-      <c r="AR39" s="133"/>
-      <c r="AS39" s="133"/>
-      <c r="AT39" s="133"/>
-      <c r="AU39" s="133"/>
-      <c r="AV39" s="133"/>
-      <c r="AW39" s="133"/>
-      <c r="AX39" s="133"/>
-      <c r="AY39" s="133"/>
-      <c r="AZ39" s="133"/>
-      <c r="BA39" s="133"/>
-      <c r="BB39" s="133"/>
-      <c r="BC39" s="133"/>
-      <c r="BD39" s="133"/>
-      <c r="BE39" s="134"/>
-      <c r="BF39" s="134"/>
-      <c r="BG39" s="134"/>
-      <c r="BH39" s="134"/>
-      <c r="BI39" s="131"/>
-      <c r="BJ39" s="131"/>
-      <c r="BK39" s="131"/>
-      <c r="BL39" s="131"/>
+      <c r="AC39" s="147"/>
+      <c r="AD39" s="150"/>
+      <c r="AE39" s="150"/>
+      <c r="AF39" s="150"/>
+      <c r="AG39" s="147"/>
+      <c r="AH39" s="147"/>
+      <c r="AI39" s="147"/>
+      <c r="AJ39" s="147"/>
+      <c r="AK39" s="147"/>
+      <c r="AL39" s="147"/>
+      <c r="AM39" s="147"/>
+      <c r="AN39" s="147"/>
+      <c r="AO39" s="147"/>
+      <c r="AP39" s="147"/>
+      <c r="AQ39" s="147"/>
+      <c r="AR39" s="147"/>
+      <c r="AS39" s="147"/>
+      <c r="AT39" s="147"/>
+      <c r="AU39" s="147"/>
+      <c r="AV39" s="147"/>
+      <c r="AW39" s="147"/>
+      <c r="AX39" s="147"/>
+      <c r="AY39" s="147"/>
+      <c r="AZ39" s="147"/>
+      <c r="BA39" s="147"/>
+      <c r="BB39" s="147"/>
+      <c r="BC39" s="147"/>
+      <c r="BD39" s="147"/>
+      <c r="BE39" s="153"/>
+      <c r="BF39" s="153"/>
+      <c r="BG39" s="153"/>
+      <c r="BH39" s="153"/>
+      <c r="BI39" s="154"/>
+      <c r="BJ39" s="154"/>
+      <c r="BK39" s="154"/>
+      <c r="BL39" s="154"/>
     </row>
     <row r="40" spans="1:64" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F40" s="140" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G40" s="140"/>
       <c r="H40" s="140"/>
@@ -23630,11 +23698,11 @@
       <c r="K40" s="140"/>
       <c r="L40" s="140"/>
       <c r="M40" s="140"/>
-      <c r="N40" s="145" t="s">
+      <c r="N40" s="142" t="s">
         <v>107</v>
       </c>
-      <c r="O40" s="145"/>
-      <c r="P40" s="145"/>
+      <c r="O40" s="142"/>
+      <c r="P40" s="142"/>
       <c r="Q40" s="140"/>
       <c r="R40" s="140" t="s">
         <v>100</v>
@@ -23653,125 +23721,125 @@
       </c>
       <c r="AA40" s="143"/>
       <c r="AB40" s="143"/>
-      <c r="AC40" s="133"/>
-      <c r="AD40" s="133" t="s">
+      <c r="AC40" s="147"/>
+      <c r="AD40" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="AE40" s="133"/>
-      <c r="AF40" s="133"/>
-      <c r="AG40" s="133"/>
-      <c r="AH40" s="144" t="s">
+      <c r="AE40" s="147"/>
+      <c r="AF40" s="147"/>
+      <c r="AG40" s="147"/>
+      <c r="AH40" s="149" t="s">
         <v>103</v>
       </c>
-      <c r="AI40" s="132"/>
-      <c r="AJ40" s="132"/>
-      <c r="AK40" s="133"/>
-      <c r="AL40" s="135"/>
-      <c r="AM40" s="135"/>
-      <c r="AN40" s="135"/>
-      <c r="AO40" s="133"/>
-      <c r="AP40" s="135" t="s">
+      <c r="AI40" s="150"/>
+      <c r="AJ40" s="150"/>
+      <c r="AK40" s="147"/>
+      <c r="AL40" s="151"/>
+      <c r="AM40" s="151"/>
+      <c r="AN40" s="151"/>
+      <c r="AO40" s="147"/>
+      <c r="AP40" s="151" t="s">
         <v>99</v>
       </c>
-      <c r="AQ40" s="135"/>
-      <c r="AR40" s="135"/>
-      <c r="AS40" s="133"/>
-      <c r="AT40" s="133" t="s">
+      <c r="AQ40" s="151"/>
+      <c r="AR40" s="151"/>
+      <c r="AS40" s="147"/>
+      <c r="AT40" s="147" t="s">
         <v>98</v>
       </c>
-      <c r="AU40" s="133"/>
-      <c r="AV40" s="133"/>
-      <c r="AW40" s="133"/>
-      <c r="AX40" s="133" t="s">
+      <c r="AU40" s="147"/>
+      <c r="AV40" s="147"/>
+      <c r="AW40" s="147"/>
+      <c r="AX40" s="147" t="s">
         <v>108</v>
       </c>
-      <c r="AY40" s="133"/>
-      <c r="AZ40" s="133"/>
-      <c r="BA40" s="133"/>
-      <c r="BB40" s="132" t="s">
+      <c r="AY40" s="147"/>
+      <c r="AZ40" s="147"/>
+      <c r="BA40" s="147"/>
+      <c r="BB40" s="150" t="s">
         <v>215</v>
       </c>
-      <c r="BC40" s="132"/>
-      <c r="BD40" s="132"/>
-      <c r="BE40" s="134"/>
-      <c r="BF40" s="134"/>
-      <c r="BG40" s="134"/>
-      <c r="BH40" s="134"/>
-      <c r="BI40" s="131"/>
-      <c r="BJ40" s="131"/>
-      <c r="BK40" s="131"/>
-      <c r="BL40" s="131"/>
+      <c r="BC40" s="150"/>
+      <c r="BD40" s="150"/>
+      <c r="BE40" s="153"/>
+      <c r="BF40" s="153"/>
+      <c r="BG40" s="153"/>
+      <c r="BH40" s="153"/>
+      <c r="BI40" s="154"/>
+      <c r="BJ40" s="154"/>
+      <c r="BK40" s="154"/>
+      <c r="BL40" s="154"/>
     </row>
     <row r="41" spans="1:64" x14ac:dyDescent="0.15">
-      <c r="F41" s="136" t="s">
+      <c r="F41" s="145" t="s">
         <v>146</v>
       </c>
-      <c r="G41" s="136"/>
-      <c r="H41" s="136"/>
-      <c r="I41" s="136"/>
-      <c r="J41" s="136"/>
-      <c r="K41" s="136"/>
-      <c r="L41" s="136"/>
-      <c r="M41" s="136"/>
-      <c r="N41" s="136"/>
-      <c r="O41" s="136"/>
-      <c r="P41" s="136"/>
-      <c r="Q41" s="136"/>
-      <c r="R41" s="136"/>
-      <c r="S41" s="136"/>
-      <c r="T41" s="136"/>
-      <c r="U41" s="136"/>
-      <c r="V41" s="136"/>
-      <c r="W41" s="136"/>
-      <c r="X41" s="136"/>
-      <c r="Y41" s="147" t="s">
+      <c r="G41" s="145"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="145"/>
+      <c r="J41" s="145"/>
+      <c r="K41" s="145"/>
+      <c r="L41" s="145"/>
+      <c r="M41" s="145"/>
+      <c r="N41" s="145"/>
+      <c r="O41" s="145"/>
+      <c r="P41" s="145"/>
+      <c r="Q41" s="145"/>
+      <c r="R41" s="145"/>
+      <c r="S41" s="145"/>
+      <c r="T41" s="145"/>
+      <c r="U41" s="145"/>
+      <c r="V41" s="145"/>
+      <c r="W41" s="145"/>
+      <c r="X41" s="145"/>
+      <c r="Y41" s="141" t="s">
         <v>148</v>
       </c>
-      <c r="Z41" s="147"/>
-      <c r="AA41" s="147"/>
-      <c r="AB41" s="147"/>
-      <c r="AC41" s="132" t="s">
+      <c r="Z41" s="141"/>
+      <c r="AA41" s="141"/>
+      <c r="AB41" s="141"/>
+      <c r="AC41" s="150" t="s">
         <v>145</v>
       </c>
-      <c r="AD41" s="132"/>
-      <c r="AE41" s="132"/>
-      <c r="AF41" s="132"/>
-      <c r="AG41" s="132"/>
-      <c r="AH41" s="132"/>
-      <c r="AI41" s="132"/>
-      <c r="AJ41" s="132"/>
-      <c r="AK41" s="132"/>
-      <c r="AL41" s="132"/>
-      <c r="AM41" s="132"/>
-      <c r="AN41" s="132"/>
-      <c r="AO41" s="132"/>
-      <c r="AP41" s="132"/>
-      <c r="AQ41" s="132"/>
-      <c r="AR41" s="132"/>
-      <c r="AS41" s="132"/>
-      <c r="AT41" s="132"/>
-      <c r="AU41" s="132"/>
-      <c r="AV41" s="132"/>
-      <c r="AW41" s="132"/>
-      <c r="AX41" s="132"/>
-      <c r="AY41" s="132"/>
-      <c r="AZ41" s="132"/>
-      <c r="BA41" s="132"/>
-      <c r="BB41" s="132"/>
-      <c r="BC41" s="132"/>
-      <c r="BD41" s="132"/>
-      <c r="BE41" s="134" t="s">
-        <v>447</v>
-      </c>
-      <c r="BF41" s="134"/>
-      <c r="BG41" s="134"/>
-      <c r="BH41" s="134"/>
-      <c r="BI41" s="131" t="s">
-        <v>795</v>
-      </c>
-      <c r="BJ41" s="131"/>
-      <c r="BK41" s="131"/>
-      <c r="BL41" s="131"/>
+      <c r="AD41" s="150"/>
+      <c r="AE41" s="150"/>
+      <c r="AF41" s="150"/>
+      <c r="AG41" s="150"/>
+      <c r="AH41" s="150"/>
+      <c r="AI41" s="150"/>
+      <c r="AJ41" s="150"/>
+      <c r="AK41" s="150"/>
+      <c r="AL41" s="150"/>
+      <c r="AM41" s="150"/>
+      <c r="AN41" s="150"/>
+      <c r="AO41" s="150"/>
+      <c r="AP41" s="150"/>
+      <c r="AQ41" s="150"/>
+      <c r="AR41" s="150"/>
+      <c r="AS41" s="150"/>
+      <c r="AT41" s="150"/>
+      <c r="AU41" s="150"/>
+      <c r="AV41" s="150"/>
+      <c r="AW41" s="150"/>
+      <c r="AX41" s="150"/>
+      <c r="AY41" s="150"/>
+      <c r="AZ41" s="150"/>
+      <c r="BA41" s="150"/>
+      <c r="BB41" s="150"/>
+      <c r="BC41" s="150"/>
+      <c r="BD41" s="150"/>
+      <c r="BE41" s="153" t="s">
+        <v>444</v>
+      </c>
+      <c r="BF41" s="153"/>
+      <c r="BG41" s="153"/>
+      <c r="BH41" s="153"/>
+      <c r="BI41" s="154" t="s">
+        <v>791</v>
+      </c>
+      <c r="BJ41" s="154"/>
+      <c r="BK41" s="154"/>
+      <c r="BL41" s="154"/>
     </row>
     <row r="42" spans="1:64" x14ac:dyDescent="0.15">
       <c r="F42" s="13"/>
@@ -23906,233 +23974,233 @@
       <c r="BK44" s="6"/>
     </row>
     <row r="45" spans="1:64" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C45" s="137" t="s">
+      <c r="C45" s="138" t="s">
         <v>112</v>
       </c>
-      <c r="D45" s="138"/>
-      <c r="E45" s="138"/>
-      <c r="F45" s="139" t="s">
-        <v>670</v>
+      <c r="D45" s="139"/>
+      <c r="E45" s="139"/>
+      <c r="F45" s="144" t="s">
+        <v>666</v>
       </c>
       <c r="G45" s="140"/>
       <c r="H45" s="140"/>
       <c r="I45" s="140" t="s">
         <v>113</v>
       </c>
-      <c r="J45" s="141" t="s">
+      <c r="J45" s="146" t="s">
         <v>117</v>
       </c>
-      <c r="K45" s="142"/>
-      <c r="L45" s="142"/>
+      <c r="K45" s="152"/>
+      <c r="L45" s="152"/>
       <c r="M45" s="140" t="s">
         <v>95</v>
       </c>
       <c r="N45" s="140" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="O45" s="140"/>
       <c r="P45" s="140"/>
       <c r="Q45" s="140" t="s">
         <v>96</v>
       </c>
-      <c r="R45" s="136" t="s">
-        <v>533</v>
-      </c>
-      <c r="S45" s="136"/>
-      <c r="T45" s="136"/>
+      <c r="R45" s="145" t="s">
+        <v>530</v>
+      </c>
+      <c r="S45" s="145"/>
+      <c r="T45" s="145"/>
       <c r="U45" s="143" t="s">
         <v>113</v>
       </c>
       <c r="V45" s="143" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="W45" s="143"/>
       <c r="X45" s="143"/>
-      <c r="Y45" s="133" t="s">
+      <c r="Y45" s="147" t="s">
         <v>78</v>
       </c>
-      <c r="Z45" s="133">
+      <c r="Z45" s="147">
         <v>1</v>
       </c>
-      <c r="AA45" s="133"/>
-      <c r="AB45" s="133"/>
-      <c r="AC45" s="133" t="s">
+      <c r="AA45" s="147"/>
+      <c r="AB45" s="147"/>
+      <c r="AC45" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="AD45" s="133" t="s">
-        <v>535</v>
-      </c>
-      <c r="AE45" s="133"/>
-      <c r="AF45" s="133"/>
-      <c r="AG45" s="133" t="s">
+      <c r="AD45" s="147" t="s">
+        <v>532</v>
+      </c>
+      <c r="AE45" s="147"/>
+      <c r="AF45" s="147"/>
+      <c r="AG45" s="147" t="s">
         <v>149</v>
       </c>
-      <c r="AH45" s="133" t="s">
-        <v>530</v>
-      </c>
-      <c r="AI45" s="133"/>
-      <c r="AJ45" s="133"/>
-      <c r="AK45" s="133" t="s">
+      <c r="AH45" s="147" t="s">
+        <v>527</v>
+      </c>
+      <c r="AI45" s="147"/>
+      <c r="AJ45" s="147"/>
+      <c r="AK45" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="AL45" s="133" t="s">
-        <v>528</v>
-      </c>
-      <c r="AM45" s="133"/>
-      <c r="AN45" s="133"/>
-      <c r="AO45" s="133" t="s">
+      <c r="AL45" s="147" t="s">
+        <v>525</v>
+      </c>
+      <c r="AM45" s="147"/>
+      <c r="AN45" s="147"/>
+      <c r="AO45" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="AP45" s="133" t="s">
-        <v>525</v>
-      </c>
-      <c r="AQ45" s="133"/>
-      <c r="AR45" s="133"/>
+      <c r="AP45" s="147" t="s">
+        <v>522</v>
+      </c>
+      <c r="AQ45" s="147"/>
+      <c r="AR45" s="147"/>
     </row>
     <row r="46" spans="1:64" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C46" s="138"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="138"/>
+      <c r="C46" s="139"/>
+      <c r="D46" s="139"/>
+      <c r="E46" s="139"/>
       <c r="F46" s="140"/>
       <c r="G46" s="140"/>
       <c r="H46" s="140"/>
       <c r="I46" s="140"/>
-      <c r="J46" s="142"/>
-      <c r="K46" s="142"/>
-      <c r="L46" s="142"/>
+      <c r="J46" s="152"/>
+      <c r="K46" s="152"/>
+      <c r="L46" s="152"/>
       <c r="M46" s="140"/>
       <c r="N46" s="140"/>
       <c r="O46" s="140"/>
       <c r="P46" s="140"/>
       <c r="Q46" s="140"/>
-      <c r="R46" s="136"/>
-      <c r="S46" s="136"/>
-      <c r="T46" s="136"/>
+      <c r="R46" s="145"/>
+      <c r="S46" s="145"/>
+      <c r="T46" s="145"/>
       <c r="U46" s="143"/>
       <c r="V46" s="143"/>
       <c r="W46" s="143"/>
       <c r="X46" s="143"/>
-      <c r="Y46" s="133"/>
-      <c r="Z46" s="133"/>
-      <c r="AA46" s="133"/>
-      <c r="AB46" s="133"/>
-      <c r="AC46" s="133"/>
-      <c r="AD46" s="133"/>
-      <c r="AE46" s="133"/>
-      <c r="AF46" s="133"/>
-      <c r="AG46" s="133"/>
-      <c r="AH46" s="133"/>
-      <c r="AI46" s="133"/>
-      <c r="AJ46" s="133"/>
-      <c r="AK46" s="133"/>
-      <c r="AL46" s="133"/>
-      <c r="AM46" s="133"/>
-      <c r="AN46" s="133"/>
-      <c r="AO46" s="133"/>
-      <c r="AP46" s="133"/>
-      <c r="AQ46" s="133"/>
-      <c r="AR46" s="133"/>
+      <c r="Y46" s="147"/>
+      <c r="Z46" s="147"/>
+      <c r="AA46" s="147"/>
+      <c r="AB46" s="147"/>
+      <c r="AC46" s="147"/>
+      <c r="AD46" s="147"/>
+      <c r="AE46" s="147"/>
+      <c r="AF46" s="147"/>
+      <c r="AG46" s="147"/>
+      <c r="AH46" s="147"/>
+      <c r="AI46" s="147"/>
+      <c r="AJ46" s="147"/>
+      <c r="AK46" s="147"/>
+      <c r="AL46" s="147"/>
+      <c r="AM46" s="147"/>
+      <c r="AN46" s="147"/>
+      <c r="AO46" s="147"/>
+      <c r="AP46" s="147"/>
+      <c r="AQ46" s="147"/>
+      <c r="AR46" s="147"/>
     </row>
     <row r="47" spans="1:64" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C47" s="138"/>
-      <c r="D47" s="138"/>
-      <c r="E47" s="138"/>
+      <c r="C47" s="139"/>
+      <c r="D47" s="139"/>
+      <c r="E47" s="139"/>
       <c r="F47" s="140"/>
       <c r="G47" s="140"/>
       <c r="H47" s="140"/>
       <c r="I47" s="140"/>
-      <c r="J47" s="142"/>
-      <c r="K47" s="142"/>
-      <c r="L47" s="142"/>
+      <c r="J47" s="152"/>
+      <c r="K47" s="152"/>
+      <c r="L47" s="152"/>
       <c r="M47" s="140"/>
       <c r="N47" s="140"/>
       <c r="O47" s="140"/>
       <c r="P47" s="140"/>
       <c r="Q47" s="140"/>
-      <c r="R47" s="136"/>
-      <c r="S47" s="136"/>
-      <c r="T47" s="136"/>
+      <c r="R47" s="145"/>
+      <c r="S47" s="145"/>
+      <c r="T47" s="145"/>
       <c r="U47" s="143"/>
       <c r="V47" s="143"/>
       <c r="W47" s="143"/>
       <c r="X47" s="143"/>
-      <c r="Y47" s="133"/>
-      <c r="Z47" s="133"/>
-      <c r="AA47" s="133"/>
-      <c r="AB47" s="133"/>
-      <c r="AC47" s="133"/>
-      <c r="AD47" s="133"/>
-      <c r="AE47" s="133"/>
-      <c r="AF47" s="133"/>
-      <c r="AG47" s="133"/>
-      <c r="AH47" s="133"/>
-      <c r="AI47" s="133"/>
-      <c r="AJ47" s="133"/>
-      <c r="AK47" s="133"/>
-      <c r="AL47" s="133"/>
-      <c r="AM47" s="133"/>
-      <c r="AN47" s="133"/>
-      <c r="AO47" s="133"/>
-      <c r="AP47" s="133"/>
-      <c r="AQ47" s="133"/>
-      <c r="AR47" s="133"/>
+      <c r="Y47" s="147"/>
+      <c r="Z47" s="147"/>
+      <c r="AA47" s="147"/>
+      <c r="AB47" s="147"/>
+      <c r="AC47" s="147"/>
+      <c r="AD47" s="147"/>
+      <c r="AE47" s="147"/>
+      <c r="AF47" s="147"/>
+      <c r="AG47" s="147"/>
+      <c r="AH47" s="147"/>
+      <c r="AI47" s="147"/>
+      <c r="AJ47" s="147"/>
+      <c r="AK47" s="147"/>
+      <c r="AL47" s="147"/>
+      <c r="AM47" s="147"/>
+      <c r="AN47" s="147"/>
+      <c r="AO47" s="147"/>
+      <c r="AP47" s="147"/>
+      <c r="AQ47" s="147"/>
+      <c r="AR47" s="147"/>
     </row>
     <row r="48" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C48" s="138"/>
-      <c r="D48" s="138"/>
-      <c r="E48" s="138"/>
+      <c r="C48" s="139"/>
+      <c r="D48" s="139"/>
+      <c r="E48" s="139"/>
       <c r="F48" s="140"/>
       <c r="G48" s="140"/>
       <c r="H48" s="140"/>
       <c r="I48" s="140"/>
-      <c r="J48" s="142"/>
-      <c r="K48" s="142"/>
-      <c r="L48" s="142"/>
+      <c r="J48" s="152"/>
+      <c r="K48" s="152"/>
+      <c r="L48" s="152"/>
       <c r="M48" s="140"/>
       <c r="N48" s="140"/>
       <c r="O48" s="140"/>
       <c r="P48" s="140"/>
       <c r="Q48" s="140"/>
-      <c r="R48" s="136"/>
-      <c r="S48" s="136"/>
-      <c r="T48" s="136"/>
+      <c r="R48" s="145"/>
+      <c r="S48" s="145"/>
+      <c r="T48" s="145"/>
       <c r="U48" s="143"/>
       <c r="V48" s="143"/>
       <c r="W48" s="143"/>
       <c r="X48" s="143"/>
-      <c r="Y48" s="133"/>
-      <c r="Z48" s="133"/>
-      <c r="AA48" s="133"/>
-      <c r="AB48" s="133"/>
-      <c r="AC48" s="133"/>
-      <c r="AD48" s="133"/>
-      <c r="AE48" s="133"/>
-      <c r="AF48" s="133"/>
-      <c r="AG48" s="133"/>
-      <c r="AH48" s="133"/>
-      <c r="AI48" s="133"/>
-      <c r="AJ48" s="133"/>
-      <c r="AK48" s="133"/>
-      <c r="AL48" s="133"/>
-      <c r="AM48" s="133"/>
-      <c r="AN48" s="133"/>
-      <c r="AO48" s="133"/>
-      <c r="AP48" s="133"/>
-      <c r="AQ48" s="133"/>
-      <c r="AR48" s="133"/>
+      <c r="Y48" s="147"/>
+      <c r="Z48" s="147"/>
+      <c r="AA48" s="147"/>
+      <c r="AB48" s="147"/>
+      <c r="AC48" s="147"/>
+      <c r="AD48" s="147"/>
+      <c r="AE48" s="147"/>
+      <c r="AF48" s="147"/>
+      <c r="AG48" s="147"/>
+      <c r="AH48" s="147"/>
+      <c r="AI48" s="147"/>
+      <c r="AJ48" s="147"/>
+      <c r="AK48" s="147"/>
+      <c r="AL48" s="147"/>
+      <c r="AM48" s="147"/>
+      <c r="AN48" s="147"/>
+      <c r="AO48" s="147"/>
+      <c r="AP48" s="147"/>
+      <c r="AQ48" s="147"/>
+      <c r="AR48" s="147"/>
     </row>
     <row r="49" spans="3:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F49" s="140" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G49" s="140"/>
       <c r="H49" s="140"/>
       <c r="I49" s="140"/>
-      <c r="J49" s="145" t="s">
+      <c r="J49" s="142" t="s">
         <v>107</v>
       </c>
-      <c r="K49" s="145"/>
-      <c r="L49" s="145"/>
+      <c r="K49" s="142"/>
+      <c r="L49" s="142"/>
       <c r="M49" s="140"/>
       <c r="N49" s="140" t="s">
         <v>100</v>
@@ -24140,92 +24208,92 @@
       <c r="O49" s="140"/>
       <c r="P49" s="140"/>
       <c r="Q49" s="140"/>
-      <c r="R49" s="136" t="s">
+      <c r="R49" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="S49" s="136"/>
-      <c r="T49" s="136"/>
+      <c r="S49" s="145"/>
+      <c r="T49" s="145"/>
       <c r="U49" s="143"/>
       <c r="V49" s="143" t="s">
         <v>114</v>
       </c>
       <c r="W49" s="143"/>
       <c r="X49" s="143"/>
-      <c r="Y49" s="133"/>
-      <c r="Z49" s="133"/>
-      <c r="AA49" s="133"/>
-      <c r="AB49" s="133"/>
-      <c r="AC49" s="133"/>
-      <c r="AD49" s="133" t="s">
+      <c r="Y49" s="147"/>
+      <c r="Z49" s="147"/>
+      <c r="AA49" s="147"/>
+      <c r="AB49" s="147"/>
+      <c r="AC49" s="147"/>
+      <c r="AD49" s="147" t="s">
         <v>98</v>
       </c>
-      <c r="AE49" s="133"/>
-      <c r="AF49" s="133"/>
-      <c r="AG49" s="133"/>
-      <c r="AH49" s="133" t="s">
+      <c r="AE49" s="147"/>
+      <c r="AF49" s="147"/>
+      <c r="AG49" s="147"/>
+      <c r="AH49" s="147" t="s">
         <v>99</v>
       </c>
-      <c r="AI49" s="133"/>
-      <c r="AJ49" s="133"/>
-      <c r="AK49" s="133"/>
-      <c r="AL49" s="133" t="s">
+      <c r="AI49" s="147"/>
+      <c r="AJ49" s="147"/>
+      <c r="AK49" s="147"/>
+      <c r="AL49" s="147" t="s">
         <v>108</v>
       </c>
-      <c r="AM49" s="133"/>
-      <c r="AN49" s="133"/>
-      <c r="AO49" s="133"/>
-      <c r="AP49" s="132" t="s">
+      <c r="AM49" s="147"/>
+      <c r="AN49" s="147"/>
+      <c r="AO49" s="147"/>
+      <c r="AP49" s="150" t="s">
         <v>215</v>
       </c>
-      <c r="AQ49" s="132"/>
-      <c r="AR49" s="132"/>
+      <c r="AQ49" s="150"/>
+      <c r="AR49" s="150"/>
     </row>
     <row r="50" spans="3:54" x14ac:dyDescent="0.15">
-      <c r="F50" s="136" t="s">
+      <c r="F50" s="145" t="s">
         <v>146</v>
       </c>
-      <c r="G50" s="136"/>
-      <c r="H50" s="136"/>
-      <c r="I50" s="136"/>
-      <c r="J50" s="136"/>
-      <c r="K50" s="136"/>
-      <c r="L50" s="136"/>
-      <c r="M50" s="136"/>
-      <c r="N50" s="136"/>
-      <c r="O50" s="136"/>
-      <c r="P50" s="136"/>
-      <c r="Q50" s="136"/>
-      <c r="R50" s="136"/>
-      <c r="S50" s="136"/>
-      <c r="T50" s="136"/>
-      <c r="U50" s="147" t="s">
+      <c r="G50" s="145"/>
+      <c r="H50" s="145"/>
+      <c r="I50" s="145"/>
+      <c r="J50" s="145"/>
+      <c r="K50" s="145"/>
+      <c r="L50" s="145"/>
+      <c r="M50" s="145"/>
+      <c r="N50" s="145"/>
+      <c r="O50" s="145"/>
+      <c r="P50" s="145"/>
+      <c r="Q50" s="145"/>
+      <c r="R50" s="145"/>
+      <c r="S50" s="145"/>
+      <c r="T50" s="145"/>
+      <c r="U50" s="141" t="s">
         <v>148</v>
       </c>
-      <c r="V50" s="147"/>
-      <c r="W50" s="147"/>
-      <c r="X50" s="147"/>
-      <c r="Y50" s="132" t="s">
+      <c r="V50" s="141"/>
+      <c r="W50" s="141"/>
+      <c r="X50" s="141"/>
+      <c r="Y50" s="150" t="s">
         <v>145</v>
       </c>
-      <c r="Z50" s="132"/>
-      <c r="AA50" s="132"/>
-      <c r="AB50" s="132"/>
-      <c r="AC50" s="132"/>
-      <c r="AD50" s="132"/>
-      <c r="AE50" s="132"/>
-      <c r="AF50" s="132"/>
-      <c r="AG50" s="132"/>
-      <c r="AH50" s="132"/>
-      <c r="AI50" s="132"/>
-      <c r="AJ50" s="132"/>
-      <c r="AK50" s="132"/>
-      <c r="AL50" s="132"/>
-      <c r="AM50" s="132"/>
-      <c r="AN50" s="132"/>
-      <c r="AO50" s="132"/>
-      <c r="AP50" s="132"/>
-      <c r="AQ50" s="132"/>
-      <c r="AR50" s="132"/>
+      <c r="Z50" s="150"/>
+      <c r="AA50" s="150"/>
+      <c r="AB50" s="150"/>
+      <c r="AC50" s="150"/>
+      <c r="AD50" s="150"/>
+      <c r="AE50" s="150"/>
+      <c r="AF50" s="150"/>
+      <c r="AG50" s="150"/>
+      <c r="AH50" s="150"/>
+      <c r="AI50" s="150"/>
+      <c r="AJ50" s="150"/>
+      <c r="AK50" s="150"/>
+      <c r="AL50" s="150"/>
+      <c r="AM50" s="150"/>
+      <c r="AN50" s="150"/>
+      <c r="AO50" s="150"/>
+      <c r="AP50" s="150"/>
+      <c r="AQ50" s="150"/>
+      <c r="AR50" s="150"/>
     </row>
     <row r="51" spans="3:54" x14ac:dyDescent="0.15">
       <c r="AW51" s="3"/>
@@ -24284,59 +24352,158 @@
     </row>
     <row r="61" spans="3:54" x14ac:dyDescent="0.15">
       <c r="C61" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="62" spans="3:54" x14ac:dyDescent="0.15">
       <c r="D62" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="63" spans="3:54" x14ac:dyDescent="0.15">
       <c r="E63" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="64" spans="3:54" x14ac:dyDescent="0.15">
       <c r="F64" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="65" spans="5:8" x14ac:dyDescent="0.15">
       <c r="E65" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="66" spans="5:8" x14ac:dyDescent="0.15">
       <c r="F66" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="67" spans="5:8" x14ac:dyDescent="0.15">
       <c r="F67" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="69" spans="5:8" x14ac:dyDescent="0.15">
       <c r="E69" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="70" spans="5:8" x14ac:dyDescent="0.15">
       <c r="F70" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="71" spans="5:8" x14ac:dyDescent="0.15">
       <c r="F71" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="123">
+    <mergeCell ref="BI36:BI40"/>
+    <mergeCell ref="BJ36:BL40"/>
+    <mergeCell ref="BI41:BL41"/>
+    <mergeCell ref="Y50:AR50"/>
+    <mergeCell ref="AL49:AN49"/>
+    <mergeCell ref="AP49:AR49"/>
+    <mergeCell ref="AY28:BA32"/>
+    <mergeCell ref="BB28:BB32"/>
+    <mergeCell ref="BC28:BE32"/>
+    <mergeCell ref="BB33:BE33"/>
+    <mergeCell ref="BF36:BH40"/>
+    <mergeCell ref="BE41:BH41"/>
+    <mergeCell ref="AC41:BD41"/>
+    <mergeCell ref="BB36:BD39"/>
+    <mergeCell ref="BB40:BD40"/>
+    <mergeCell ref="AX40:AZ40"/>
+    <mergeCell ref="AT40:AV40"/>
+    <mergeCell ref="AH45:AJ48"/>
+    <mergeCell ref="BE36:BE40"/>
+    <mergeCell ref="AG45:AG49"/>
+    <mergeCell ref="AD49:AF49"/>
+    <mergeCell ref="AH49:AJ49"/>
+    <mergeCell ref="AT36:AV39"/>
+    <mergeCell ref="AW36:AW40"/>
+    <mergeCell ref="AX28:AX32"/>
+    <mergeCell ref="AX33:BA33"/>
+    <mergeCell ref="AD33:AW33"/>
+    <mergeCell ref="AU32:AW32"/>
+    <mergeCell ref="AH28:AH32"/>
+    <mergeCell ref="AD28:AD32"/>
+    <mergeCell ref="AE28:AG31"/>
+    <mergeCell ref="AE32:AG32"/>
+    <mergeCell ref="AT28:AT32"/>
+    <mergeCell ref="AU28:AW31"/>
+    <mergeCell ref="AI28:AK31"/>
+    <mergeCell ref="AL28:AL32"/>
+    <mergeCell ref="AM28:AO31"/>
+    <mergeCell ref="AP28:AP32"/>
+    <mergeCell ref="AQ28:AS31"/>
+    <mergeCell ref="AI32:AK32"/>
+    <mergeCell ref="AM32:AO32"/>
+    <mergeCell ref="AQ32:AS32"/>
+    <mergeCell ref="F41:X41"/>
+    <mergeCell ref="C45:E48"/>
+    <mergeCell ref="F45:H48"/>
+    <mergeCell ref="I45:I49"/>
+    <mergeCell ref="J45:L48"/>
+    <mergeCell ref="M45:M49"/>
+    <mergeCell ref="N45:P48"/>
+    <mergeCell ref="AD40:AF40"/>
+    <mergeCell ref="Z36:AB39"/>
+    <mergeCell ref="AC36:AC40"/>
+    <mergeCell ref="AD36:AF39"/>
+    <mergeCell ref="Z40:AB40"/>
+    <mergeCell ref="AD45:AF48"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="R45:T48"/>
+    <mergeCell ref="U45:U49"/>
+    <mergeCell ref="V45:X48"/>
+    <mergeCell ref="Q45:Q49"/>
+    <mergeCell ref="C36:E39"/>
+    <mergeCell ref="F36:H39"/>
+    <mergeCell ref="AK45:AK49"/>
+    <mergeCell ref="AL45:AN48"/>
+    <mergeCell ref="AO45:AO49"/>
+    <mergeCell ref="AP45:AR48"/>
+    <mergeCell ref="Z49:AB49"/>
+    <mergeCell ref="Y45:Y49"/>
+    <mergeCell ref="Z45:AB48"/>
+    <mergeCell ref="AC45:AC49"/>
+    <mergeCell ref="AX36:AZ39"/>
+    <mergeCell ref="BA36:BA40"/>
+    <mergeCell ref="AG36:AG40"/>
+    <mergeCell ref="AH36:AJ39"/>
+    <mergeCell ref="AK36:AK40"/>
+    <mergeCell ref="AL36:AN39"/>
+    <mergeCell ref="AO36:AO40"/>
+    <mergeCell ref="AP36:AR39"/>
+    <mergeCell ref="AH40:AJ40"/>
+    <mergeCell ref="AL40:AN40"/>
+    <mergeCell ref="AP40:AR40"/>
+    <mergeCell ref="AS36:AS40"/>
+    <mergeCell ref="N28:N32"/>
+    <mergeCell ref="O28:Q31"/>
+    <mergeCell ref="R28:R32"/>
+    <mergeCell ref="S28:U31"/>
+    <mergeCell ref="V28:V32"/>
+    <mergeCell ref="W28:Y31"/>
+    <mergeCell ref="M36:M40"/>
+    <mergeCell ref="N36:P39"/>
+    <mergeCell ref="Q36:Q40"/>
+    <mergeCell ref="R36:T39"/>
+    <mergeCell ref="U36:U40"/>
+    <mergeCell ref="V36:X39"/>
+    <mergeCell ref="Y36:Y40"/>
     <mergeCell ref="C28:E31"/>
     <mergeCell ref="F40:H40"/>
     <mergeCell ref="J40:L40"/>
@@ -24361,105 +24528,6 @@
     <mergeCell ref="N40:P40"/>
     <mergeCell ref="R40:T40"/>
     <mergeCell ref="V40:X40"/>
-    <mergeCell ref="N28:N32"/>
-    <mergeCell ref="O28:Q31"/>
-    <mergeCell ref="R28:R32"/>
-    <mergeCell ref="S28:U31"/>
-    <mergeCell ref="V28:V32"/>
-    <mergeCell ref="W28:Y31"/>
-    <mergeCell ref="M36:M40"/>
-    <mergeCell ref="N36:P39"/>
-    <mergeCell ref="Q36:Q40"/>
-    <mergeCell ref="R36:T39"/>
-    <mergeCell ref="U36:U40"/>
-    <mergeCell ref="V36:X39"/>
-    <mergeCell ref="Y36:Y40"/>
-    <mergeCell ref="BA36:BA40"/>
-    <mergeCell ref="AG36:AG40"/>
-    <mergeCell ref="AH36:AJ39"/>
-    <mergeCell ref="AK36:AK40"/>
-    <mergeCell ref="AL36:AN39"/>
-    <mergeCell ref="AO36:AO40"/>
-    <mergeCell ref="AP36:AR39"/>
-    <mergeCell ref="AH40:AJ40"/>
-    <mergeCell ref="AL40:AN40"/>
-    <mergeCell ref="AP40:AR40"/>
-    <mergeCell ref="AS36:AS40"/>
-    <mergeCell ref="AK45:AK49"/>
-    <mergeCell ref="AL45:AN48"/>
-    <mergeCell ref="AO45:AO49"/>
-    <mergeCell ref="AP45:AR48"/>
-    <mergeCell ref="Z49:AB49"/>
-    <mergeCell ref="Y45:Y49"/>
-    <mergeCell ref="Z45:AB48"/>
-    <mergeCell ref="AC45:AC49"/>
-    <mergeCell ref="AX36:AZ39"/>
-    <mergeCell ref="F41:X41"/>
-    <mergeCell ref="C45:E48"/>
-    <mergeCell ref="F45:H48"/>
-    <mergeCell ref="I45:I49"/>
-    <mergeCell ref="J45:L48"/>
-    <mergeCell ref="M45:M49"/>
-    <mergeCell ref="N45:P48"/>
-    <mergeCell ref="AD40:AF40"/>
-    <mergeCell ref="Z36:AB39"/>
-    <mergeCell ref="AC36:AC40"/>
-    <mergeCell ref="AD36:AF39"/>
-    <mergeCell ref="Z40:AB40"/>
-    <mergeCell ref="AD45:AF48"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="R49:T49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="R45:T48"/>
-    <mergeCell ref="U45:U49"/>
-    <mergeCell ref="V45:X48"/>
-    <mergeCell ref="Q45:Q49"/>
-    <mergeCell ref="C36:E39"/>
-    <mergeCell ref="F36:H39"/>
-    <mergeCell ref="AX28:AX32"/>
-    <mergeCell ref="AX33:BA33"/>
-    <mergeCell ref="AD33:AW33"/>
-    <mergeCell ref="AU32:AW32"/>
-    <mergeCell ref="AH28:AH32"/>
-    <mergeCell ref="AD28:AD32"/>
-    <mergeCell ref="AE28:AG31"/>
-    <mergeCell ref="AE32:AG32"/>
-    <mergeCell ref="AT28:AT32"/>
-    <mergeCell ref="AU28:AW31"/>
-    <mergeCell ref="AI28:AK31"/>
-    <mergeCell ref="AL28:AL32"/>
-    <mergeCell ref="AM28:AO31"/>
-    <mergeCell ref="AP28:AP32"/>
-    <mergeCell ref="AQ28:AS31"/>
-    <mergeCell ref="AI32:AK32"/>
-    <mergeCell ref="AM32:AO32"/>
-    <mergeCell ref="AQ32:AS32"/>
-    <mergeCell ref="BI36:BI40"/>
-    <mergeCell ref="BJ36:BL40"/>
-    <mergeCell ref="BI41:BL41"/>
-    <mergeCell ref="Y50:AR50"/>
-    <mergeCell ref="AL49:AN49"/>
-    <mergeCell ref="AP49:AR49"/>
-    <mergeCell ref="AY28:BA32"/>
-    <mergeCell ref="BB28:BB32"/>
-    <mergeCell ref="BC28:BE32"/>
-    <mergeCell ref="BB33:BE33"/>
-    <mergeCell ref="BF36:BH40"/>
-    <mergeCell ref="BE41:BH41"/>
-    <mergeCell ref="AC41:BD41"/>
-    <mergeCell ref="BB36:BD39"/>
-    <mergeCell ref="BB40:BD40"/>
-    <mergeCell ref="AX40:AZ40"/>
-    <mergeCell ref="AT40:AV40"/>
-    <mergeCell ref="AH45:AJ48"/>
-    <mergeCell ref="BE36:BE40"/>
-    <mergeCell ref="AG45:AG49"/>
-    <mergeCell ref="AD49:AF49"/>
-    <mergeCell ref="AH49:AJ49"/>
-    <mergeCell ref="AT36:AV39"/>
-    <mergeCell ref="AW36:AW40"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24471,7 +24539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K62"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
@@ -24708,86 +24776,86 @@
         <v>142</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>463</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="45" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>468</v>
-      </c>
       <c r="F45" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="46" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="47" spans="1:45" x14ac:dyDescent="0.15">
       <c r="C47" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="48" spans="1:45" x14ac:dyDescent="0.15">
       <c r="C48" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D50" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E51" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E52" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -24814,65 +24882,65 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100" t="s">
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100" t="s">
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="100"/>
-      <c r="Z2" s="100"/>
-      <c r="AA2" s="100"/>
-      <c r="AB2" s="100"/>
-      <c r="AC2" s="100"/>
-      <c r="AD2" s="100" t="s">
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="AE2" s="100"/>
-      <c r="AF2" s="100"/>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="100"/>
-      <c r="AI2" s="100"/>
-      <c r="AJ2" s="100" t="s">
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="105"/>
+      <c r="AG2" s="105"/>
+      <c r="AH2" s="105"/>
+      <c r="AI2" s="105"/>
+      <c r="AJ2" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="AK2" s="100"/>
-      <c r="AL2" s="100"/>
-      <c r="AM2" s="100" t="s">
+      <c r="AK2" s="105"/>
+      <c r="AL2" s="105"/>
+      <c r="AM2" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="AN2" s="100"/>
-      <c r="AO2" s="100"/>
-      <c r="AP2" s="100"/>
-      <c r="AQ2" s="100"/>
-      <c r="AR2" s="100"/>
-      <c r="AS2" s="100"/>
-      <c r="AT2" s="100"/>
-      <c r="AU2" s="100"/>
-      <c r="AV2" s="100"/>
+      <c r="AN2" s="105"/>
+      <c r="AO2" s="105"/>
+      <c r="AP2" s="105"/>
+      <c r="AQ2" s="105"/>
+      <c r="AR2" s="105"/>
+      <c r="AS2" s="105"/>
+      <c r="AT2" s="105"/>
+      <c r="AU2" s="105"/>
+      <c r="AV2" s="105"/>
       <c r="AW2" s="4" t="s">
         <v>40</v>
       </c>

--- a/gd/数值规划/怪物属性配置及伤害公式.xlsx
+++ b/gd/数值规划/怪物属性配置及伤害公式.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="841">
   <si>
     <t>技能升级</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3362,6 +3362,18 @@
   </si>
   <si>
     <t>exp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 1.4</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>置灰有关怪物产出经验和货币的配置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4018,13 +4030,7 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4078,21 +4084,10 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4102,9 +4097,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1">
@@ -4173,59 +4165,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4233,20 +4183,17 @@
     <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4260,6 +4207,69 @@
     <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4267,49 +4277,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -16634,671 +16646,696 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="60" t="s">
         <v>742</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="61" t="s">
         <v>774</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-    </row>
-    <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
     </row>
     <row r="3" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="60" t="s">
         <v>743</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="63" t="s">
         <v>775</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-    </row>
-    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-    </row>
-    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="62" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="60" t="s">
         <v>744</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="61" t="s">
         <v>745</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-    </row>
-    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="62"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-    </row>
-    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="62" t="s">
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="60" t="s">
         <v>746</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="61" t="s">
         <v>776</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-    </row>
-    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-    </row>
-    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
     </row>
     <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="60" t="s">
         <v>747</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
     </row>
     <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="62"/>
-      <c r="B11" s="92" t="s">
+      <c r="A11" s="60"/>
+      <c r="B11" s="84" t="s">
         <v>747</v>
       </c>
-      <c r="C11" s="93"/>
-      <c r="D11" s="94" t="s">
+      <c r="C11" s="85"/>
+      <c r="D11" s="86" t="s">
         <v>748</v>
       </c>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-    </row>
-    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="62"/>
-      <c r="B12" s="68" t="s">
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="60"/>
+      <c r="B12" s="66" t="s">
         <v>749</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-    </row>
-    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="62"/>
-      <c r="B13" s="68" t="s">
+      <c r="C12" s="67"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="60"/>
+      <c r="B13" s="66" t="s">
         <v>750</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-    </row>
-    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="62"/>
-      <c r="B14" s="68" t="s">
+      <c r="C13" s="67"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="60"/>
+      <c r="B14" s="66" t="s">
         <v>751</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-    </row>
-    <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="62"/>
-      <c r="B15" s="68" t="s">
+      <c r="C14" s="67"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="60"/>
+      <c r="B15" s="66" t="s">
         <v>752</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="68" t="s">
         <v>753</v>
       </c>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-    </row>
-    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="62"/>
-      <c r="B16" s="68" t="s">
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="60"/>
+      <c r="B16" s="66" t="s">
         <v>754</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-    </row>
-    <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="62"/>
-      <c r="B17" s="68" t="s">
+      <c r="C16" s="68"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="60"/>
+      <c r="B17" s="66" t="s">
         <v>755</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
     </row>
     <row r="18" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="62"/>
-      <c r="B18" s="71" t="s">
+      <c r="A18" s="60"/>
+      <c r="B18" s="69" t="s">
         <v>756</v>
       </c>
-      <c r="C18" s="72"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
     </row>
     <row r="19" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="62"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="63"/>
-    </row>
-    <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="62" t="s">
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" s="60" t="s">
         <v>757</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="61" t="s">
         <v>758</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="62" t="s">
         <v>759</v>
       </c>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="62" t="s">
         <v>760</v>
       </c>
-      <c r="E20" s="64" t="s">
+      <c r="E20" s="62" t="s">
         <v>761</v>
       </c>
-      <c r="F20" s="64" t="s">
+      <c r="F20" s="62" t="s">
         <v>762</v>
       </c>
-      <c r="G20" s="64" t="s">
+      <c r="G20" s="62" t="s">
         <v>763</v>
       </c>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="63"/>
-    </row>
-    <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="62"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-    </row>
-    <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="62"/>
-      <c r="B22" s="63" t="s">
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" s="60"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" s="60"/>
+      <c r="B22" s="61" t="s">
         <v>764</v>
       </c>
-      <c r="C22" s="73">
+      <c r="C22" s="71">
         <v>42125</v>
       </c>
-      <c r="D22" s="64" t="s">
+      <c r="D22" s="62" t="s">
         <v>765</v>
       </c>
-      <c r="E22" s="64" t="s">
+      <c r="E22" s="62" t="s">
         <v>766</v>
       </c>
-      <c r="F22" s="64" t="s">
+      <c r="F22" s="62" t="s">
         <v>767</v>
       </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
-    </row>
-    <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="62"/>
-      <c r="B23" s="63" t="s">
+      <c r="G22" s="62"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" s="60"/>
+      <c r="B23" s="61" t="s">
         <v>768</v>
       </c>
-      <c r="C23" s="73">
+      <c r="C23" s="71">
         <v>42130</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="64" t="s">
+      <c r="D23" s="62"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="62" t="s">
         <v>767</v>
       </c>
-      <c r="H23" s="67" t="s">
+      <c r="H23" s="65" t="s">
         <v>777</v>
       </c>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
-    </row>
-    <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="62"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="64" t="s">
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+    </row>
+    <row r="24" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A24" s="60"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="62" t="s">
         <v>767</v>
       </c>
-      <c r="H24" s="79" t="s">
+      <c r="H24" s="74" t="s">
         <v>783</v>
       </c>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="63"/>
-    </row>
-    <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B25" s="63" t="s">
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="L24" s="151"/>
+      <c r="M24" s="151"/>
+      <c r="N24" s="151"/>
+      <c r="O24" s="61"/>
+    </row>
+    <row r="25" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B25" s="61" t="s">
         <v>778</v>
       </c>
-      <c r="C25" s="73">
+      <c r="C25" s="71">
         <v>42139</v>
       </c>
-      <c r="E25" s="78"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64" t="s">
+      <c r="E25" s="57"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62" t="s">
         <v>767</v>
       </c>
-      <c r="H25" s="76" t="s">
+      <c r="H25" s="150" t="s">
         <v>779</v>
       </c>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63" t="s">
+      <c r="I25" s="61"/>
+      <c r="J25" s="61" t="s">
         <v>780</v>
       </c>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="80" t="s">
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="152" t="s">
         <v>792</v>
       </c>
-      <c r="O25" s="63"/>
-    </row>
-    <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B26" s="63" t="s">
+      <c r="O25" s="61"/>
+    </row>
+    <row r="26" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B26" s="61" t="s">
         <v>798</v>
       </c>
-      <c r="C26" s="73">
+      <c r="C26" s="71">
         <v>42142</v>
       </c>
-      <c r="E26" s="82"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64" t="s">
+      <c r="E26" s="5"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62" t="s">
         <v>799</v>
       </c>
-      <c r="H26" s="76" t="s">
+      <c r="H26" s="150" t="s">
         <v>800</v>
       </c>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="63"/>
-    </row>
-    <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="63" t="s">
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="152"/>
+      <c r="O26" s="61"/>
+    </row>
+    <row r="27" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B27" s="61" t="s">
         <v>807</v>
       </c>
-      <c r="C27" s="73">
+      <c r="C27" s="71">
         <v>42145</v>
       </c>
-      <c r="E27" s="86"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64" t="s">
+      <c r="E27" s="153"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62" t="s">
         <v>799</v>
       </c>
-      <c r="H27" s="76" t="s">
+      <c r="H27" s="150" t="s">
         <v>808</v>
       </c>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63" t="s">
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61" t="s">
         <v>821</v>
       </c>
-      <c r="N27" s="80"/>
-      <c r="O27" s="63"/>
-    </row>
-    <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="63"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="63"/>
-    </row>
-    <row r="29" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="62" t="s">
+      <c r="N27" s="152"/>
+      <c r="O27" s="61"/>
+    </row>
+    <row r="28" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B28" s="61" t="s">
+        <v>838</v>
+      </c>
+      <c r="C28" s="71">
+        <v>42159</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62" t="s">
+        <v>839</v>
+      </c>
+      <c r="H28" s="154" t="s">
+        <v>840</v>
+      </c>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="152"/>
+      <c r="O28" s="61"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" s="61"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30" s="60" t="s">
         <v>769</v>
       </c>
-      <c r="B29" s="63" t="s">
+      <c r="B30" s="61" t="s">
         <v>770</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C30" s="62" t="s">
         <v>771</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D30" s="62" t="s">
         <v>772</v>
       </c>
-      <c r="E29" s="64" t="s">
+      <c r="E30" s="62" t="s">
         <v>773</v>
       </c>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="63"/>
-    </row>
-    <row r="30" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="62" t="s">
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31" s="60" t="s">
         <v>781</v>
       </c>
-      <c r="B30" s="63" t="s">
+      <c r="B31" s="61" t="s">
         <v>768</v>
       </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="67" t="s">
+      <c r="C31" s="61"/>
+      <c r="D31" s="65" t="s">
         <v>782</v>
       </c>
-      <c r="E30" s="67"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="63"/>
-    </row>
-    <row r="31" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="62"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-    </row>
-    <row r="32" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="62"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="63"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32" s="60"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -17327,8 +17364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView topLeftCell="C166" workbookViewId="0">
+      <selection activeCell="G160" sqref="G160:R163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -18018,13 +18055,13 @@
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.15">
       <c r="C67" s="3"/>
-      <c r="E67" s="83" t="s">
+      <c r="E67" s="76" t="s">
         <v>813</v>
       </c>
-      <c r="F67" s="83" t="s">
+      <c r="F67" s="76" t="s">
         <v>812</v>
       </c>
-      <c r="G67" s="83" t="s">
+      <c r="G67" s="76" t="s">
         <v>830</v>
       </c>
       <c r="H67" s="1" t="s">
@@ -18097,135 +18134,135 @@
       <c r="J74" s="33"/>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="E75" s="83" t="s">
+      <c r="E75" s="76" t="s">
         <v>802</v>
       </c>
-      <c r="F75" s="83" t="s">
+      <c r="F75" s="76" t="s">
         <v>828</v>
       </c>
-      <c r="G75" s="83" t="s">
+      <c r="G75" s="76" t="s">
         <v>806</v>
       </c>
-      <c r="H75" s="85"/>
-      <c r="I75" s="83"/>
-      <c r="J75" s="84"/>
-      <c r="K75" s="83"/>
-      <c r="L75" s="83"/>
-      <c r="M75" s="83"/>
-      <c r="N75" s="83"/>
-      <c r="O75" s="83"/>
-      <c r="P75" s="83"/>
-      <c r="Q75" s="83"/>
-      <c r="R75" s="83"/>
-      <c r="S75" s="83"/>
-      <c r="T75" s="83"/>
-      <c r="U75" s="83"/>
-      <c r="V75" s="83"/>
-      <c r="W75" s="83"/>
-      <c r="X75" s="83"/>
+      <c r="H75" s="78"/>
+      <c r="I75" s="76"/>
+      <c r="J75" s="77"/>
+      <c r="K75" s="76"/>
+      <c r="L75" s="76"/>
+      <c r="M75" s="76"/>
+      <c r="N75" s="76"/>
+      <c r="O75" s="76"/>
+      <c r="P75" s="76"/>
+      <c r="Q75" s="76"/>
+      <c r="R75" s="76"/>
+      <c r="S75" s="76"/>
+      <c r="T75" s="76"/>
+      <c r="U75" s="76"/>
+      <c r="V75" s="76"/>
+      <c r="W75" s="76"/>
+      <c r="X75" s="76"/>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="E76" s="83"/>
-      <c r="F76" s="83"/>
-      <c r="G76" s="83"/>
-      <c r="H76" s="83"/>
-      <c r="I76" s="83"/>
-      <c r="J76" s="84"/>
-      <c r="K76" s="83"/>
-      <c r="L76" s="83"/>
-      <c r="M76" s="83"/>
-      <c r="N76" s="83"/>
-      <c r="O76" s="83"/>
-      <c r="P76" s="83"/>
-      <c r="Q76" s="83"/>
-      <c r="R76" s="83"/>
-      <c r="S76" s="83"/>
-      <c r="T76" s="83"/>
-      <c r="U76" s="83"/>
-      <c r="V76" s="83"/>
-      <c r="W76" s="83"/>
-      <c r="X76" s="83"/>
+      <c r="E76" s="76"/>
+      <c r="F76" s="76"/>
+      <c r="G76" s="76"/>
+      <c r="H76" s="76"/>
+      <c r="I76" s="76"/>
+      <c r="J76" s="77"/>
+      <c r="K76" s="76"/>
+      <c r="L76" s="76"/>
+      <c r="M76" s="76"/>
+      <c r="N76" s="76"/>
+      <c r="O76" s="76"/>
+      <c r="P76" s="76"/>
+      <c r="Q76" s="76"/>
+      <c r="R76" s="76"/>
+      <c r="S76" s="76"/>
+      <c r="T76" s="76"/>
+      <c r="U76" s="76"/>
+      <c r="V76" s="76"/>
+      <c r="W76" s="76"/>
+      <c r="X76" s="76"/>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="E77" s="83" t="s">
+      <c r="E77" s="76" t="s">
         <v>803</v>
       </c>
-      <c r="F77" s="83" t="s">
+      <c r="F77" s="76" t="s">
         <v>829</v>
       </c>
-      <c r="G77" s="83" t="s">
+      <c r="G77" s="76" t="s">
         <v>804</v>
       </c>
-      <c r="H77" s="83"/>
-      <c r="I77" s="83"/>
-      <c r="J77" s="84"/>
-      <c r="K77" s="83"/>
-      <c r="L77" s="83"/>
-      <c r="M77" s="83"/>
-      <c r="N77" s="83"/>
-      <c r="O77" s="83"/>
-      <c r="P77" s="83"/>
-      <c r="Q77" s="83"/>
-      <c r="R77" s="83"/>
-      <c r="S77" s="83"/>
-      <c r="T77" s="83"/>
-      <c r="U77" s="83"/>
-      <c r="V77" s="83"/>
-      <c r="W77" s="83"/>
-      <c r="X77" s="83"/>
+      <c r="H77" s="76"/>
+      <c r="I77" s="76"/>
+      <c r="J77" s="77"/>
+      <c r="K77" s="76"/>
+      <c r="L77" s="76"/>
+      <c r="M77" s="76"/>
+      <c r="N77" s="76"/>
+      <c r="O77" s="76"/>
+      <c r="P77" s="76"/>
+      <c r="Q77" s="76"/>
+      <c r="R77" s="76"/>
+      <c r="S77" s="76"/>
+      <c r="T77" s="76"/>
+      <c r="U77" s="76"/>
+      <c r="V77" s="76"/>
+      <c r="W77" s="76"/>
+      <c r="X77" s="76"/>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="E78" s="83"/>
-      <c r="F78" s="83"/>
-      <c r="G78" s="83"/>
-      <c r="H78" s="83"/>
-      <c r="I78" s="83"/>
-      <c r="J78" s="84"/>
-      <c r="K78" s="83"/>
-      <c r="L78" s="83"/>
-      <c r="M78" s="83"/>
-      <c r="N78" s="83"/>
-      <c r="O78" s="83"/>
-      <c r="P78" s="83"/>
-      <c r="Q78" s="83"/>
-      <c r="R78" s="83"/>
-      <c r="S78" s="83"/>
-      <c r="T78" s="83"/>
-      <c r="U78" s="83"/>
-      <c r="V78" s="83"/>
-      <c r="W78" s="83"/>
-      <c r="X78" s="83"/>
+      <c r="E78" s="76"/>
+      <c r="F78" s="76"/>
+      <c r="G78" s="76"/>
+      <c r="H78" s="76"/>
+      <c r="I78" s="76"/>
+      <c r="J78" s="77"/>
+      <c r="K78" s="76"/>
+      <c r="L78" s="76"/>
+      <c r="M78" s="76"/>
+      <c r="N78" s="76"/>
+      <c r="O78" s="76"/>
+      <c r="P78" s="76"/>
+      <c r="Q78" s="76"/>
+      <c r="R78" s="76"/>
+      <c r="S78" s="76"/>
+      <c r="T78" s="76"/>
+      <c r="U78" s="76"/>
+      <c r="V78" s="76"/>
+      <c r="W78" s="76"/>
+      <c r="X78" s="76"/>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A79" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="E79" s="83" t="s">
+      <c r="E79" s="76" t="s">
         <v>801</v>
       </c>
-      <c r="F79" s="83" t="s">
+      <c r="F79" s="76" t="s">
         <v>825</v>
       </c>
-      <c r="G79" s="83" t="s">
+      <c r="G79" s="76" t="s">
         <v>805</v>
       </c>
-      <c r="H79" s="83"/>
-      <c r="I79" s="84"/>
-      <c r="J79" s="83"/>
-      <c r="K79" s="83"/>
-      <c r="L79" s="83"/>
-      <c r="M79" s="83"/>
-      <c r="N79" s="83"/>
-      <c r="O79" s="83"/>
-      <c r="P79" s="83"/>
-      <c r="Q79" s="83"/>
-      <c r="R79" s="83"/>
-      <c r="S79" s="83"/>
-      <c r="T79" s="83"/>
-      <c r="U79" s="83"/>
-      <c r="V79" s="83"/>
-      <c r="W79" s="83"/>
-      <c r="X79" s="83"/>
+      <c r="H79" s="76"/>
+      <c r="I79" s="77"/>
+      <c r="J79" s="76"/>
+      <c r="K79" s="76"/>
+      <c r="L79" s="76"/>
+      <c r="M79" s="76"/>
+      <c r="N79" s="76"/>
+      <c r="O79" s="76"/>
+      <c r="P79" s="76"/>
+      <c r="Q79" s="76"/>
+      <c r="R79" s="76"/>
+      <c r="S79" s="76"/>
+      <c r="T79" s="76"/>
+      <c r="U79" s="76"/>
+      <c r="V79" s="76"/>
+      <c r="W79" s="76"/>
+      <c r="X79" s="76"/>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D80" s="28" t="s">
@@ -18786,84 +18823,84 @@
       <c r="B160" s="10" t="s">
         <v>575</v>
       </c>
-      <c r="G160" s="1" t="s">
+      <c r="G160" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="H160" s="11" t="s">
+      <c r="H160" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="I160" s="54" t="s">
+      <c r="I160" s="148" t="s">
         <v>643</v>
       </c>
-      <c r="J160" s="54"/>
-      <c r="K160" s="54"/>
-      <c r="L160" s="54"/>
-      <c r="M160" s="54"/>
-      <c r="N160" s="54"/>
-      <c r="O160" s="11"/>
-      <c r="P160" s="11"/>
-      <c r="Q160" s="11"/>
-      <c r="R160" s="11"/>
+      <c r="J160" s="148"/>
+      <c r="K160" s="148"/>
+      <c r="L160" s="148"/>
+      <c r="M160" s="148"/>
+      <c r="N160" s="148"/>
+      <c r="O160" s="2"/>
+      <c r="P160" s="2"/>
+      <c r="Q160" s="2"/>
+      <c r="R160" s="2"/>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
         <v>1</v>
       </c>
       <c r="B161" s="10"/>
-      <c r="G161" s="1" t="s">
+      <c r="G161" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="H161" s="11" t="s">
+      <c r="H161" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="I161" s="54"/>
-      <c r="J161" s="54"/>
-      <c r="K161" s="54"/>
-      <c r="L161" s="54"/>
-      <c r="M161" s="54"/>
-      <c r="N161" s="54"/>
-      <c r="O161" s="11"/>
-      <c r="P161" s="11"/>
-      <c r="Q161" s="11"/>
-      <c r="R161" s="11"/>
+      <c r="I161" s="148"/>
+      <c r="J161" s="148"/>
+      <c r="K161" s="148"/>
+      <c r="L161" s="148"/>
+      <c r="M161" s="148"/>
+      <c r="N161" s="148"/>
+      <c r="O161" s="2"/>
+      <c r="P161" s="2"/>
+      <c r="Q161" s="2"/>
+      <c r="R161" s="2"/>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="G162" s="1" t="s">
+      <c r="G162" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="H162" s="11" t="s">
+      <c r="H162" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="I162" s="54" t="s">
+      <c r="I162" s="148" t="s">
         <v>644</v>
       </c>
-      <c r="J162" s="54"/>
-      <c r="K162" s="54"/>
-      <c r="L162" s="54"/>
-      <c r="M162" s="54"/>
-      <c r="N162" s="54"/>
-      <c r="O162" s="11"/>
-      <c r="P162" s="11"/>
-      <c r="Q162" s="11"/>
-      <c r="R162" s="11"/>
+      <c r="J162" s="148"/>
+      <c r="K162" s="148"/>
+      <c r="L162" s="148"/>
+      <c r="M162" s="148"/>
+      <c r="N162" s="148"/>
+      <c r="O162" s="2"/>
+      <c r="P162" s="2"/>
+      <c r="Q162" s="2"/>
+      <c r="R162" s="2"/>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="G163" s="1" t="s">
+      <c r="G163" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="H163" s="11" t="s">
+      <c r="H163" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="I163" s="54"/>
-      <c r="J163" s="54"/>
-      <c r="K163" s="54"/>
-      <c r="L163" s="54"/>
-      <c r="M163" s="54"/>
-      <c r="N163" s="54"/>
-      <c r="O163" s="11"/>
-      <c r="P163" s="11"/>
-      <c r="Q163" s="11"/>
-      <c r="R163" s="11"/>
+      <c r="I163" s="148"/>
+      <c r="J163" s="148"/>
+      <c r="K163" s="148"/>
+      <c r="L163" s="148"/>
+      <c r="M163" s="148"/>
+      <c r="N163" s="148"/>
+      <c r="O163" s="2"/>
+      <c r="P163" s="2"/>
+      <c r="Q163" s="2"/>
+      <c r="R163" s="2"/>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B164" s="47" t="s">
@@ -18949,7 +18986,7 @@
       <c r="B173" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="F173" s="102" t="s">
+      <c r="F173" s="94" t="s">
         <v>451</v>
       </c>
       <c r="G173" s="51" t="s">
@@ -18960,7 +18997,7 @@
       </c>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="F174" s="103"/>
+      <c r="F174" s="95"/>
       <c r="G174" s="37" t="s">
         <v>341</v>
       </c>
@@ -18975,7 +19012,7 @@
       <c r="M174" s="42"/>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="F175" s="103"/>
+      <c r="F175" s="95"/>
       <c r="G175" s="37" t="s">
         <v>342</v>
       </c>
@@ -18988,7 +19025,7 @@
       <c r="L175" s="42"/>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="F176" s="103"/>
+      <c r="F176" s="95"/>
       <c r="G176" s="37" t="s">
         <v>343</v>
       </c>
@@ -19005,7 +19042,7 @@
       <c r="O176" s="33"/>
     </row>
     <row r="177" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F177" s="103"/>
+      <c r="F177" s="95"/>
       <c r="G177" s="37" t="s">
         <v>602</v>
       </c>
@@ -19022,7 +19059,7 @@
       <c r="O177" s="33"/>
     </row>
     <row r="178" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F178" s="103"/>
+      <c r="F178" s="95"/>
       <c r="G178" s="37" t="s">
         <v>590</v>
       </c>
@@ -19037,7 +19074,7 @@
       </c>
     </row>
     <row r="179" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F179" s="103"/>
+      <c r="F179" s="95"/>
       <c r="G179" s="37" t="s">
         <v>344</v>
       </c>
@@ -19052,20 +19089,20 @@
       </c>
     </row>
     <row r="180" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F180" s="103"/>
-      <c r="G180" s="37" t="s">
+      <c r="F180" s="95"/>
+      <c r="G180" s="149" t="s">
         <v>646</v>
       </c>
-      <c r="H180" s="37" t="s">
+      <c r="H180" s="149" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="181" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F181" s="103"/>
-      <c r="G181" s="37" t="s">
+      <c r="F181" s="95"/>
+      <c r="G181" s="149" t="s">
         <v>647</v>
       </c>
-      <c r="H181" s="37" t="s">
+      <c r="H181" s="149" t="s">
         <v>649</v>
       </c>
       <c r="J181" s="11" t="s">
@@ -19077,25 +19114,25 @@
       <c r="N181" s="11"/>
     </row>
     <row r="182" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F182" s="103"/>
-      <c r="G182" s="37" t="s">
+      <c r="F182" s="95"/>
+      <c r="G182" s="149" t="s">
         <v>651</v>
       </c>
-      <c r="H182" s="37" t="s">
+      <c r="H182" s="149" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="183" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F183" s="103"/>
-      <c r="G183" s="37" t="s">
+      <c r="F183" s="95"/>
+      <c r="G183" s="149" t="s">
         <v>653</v>
       </c>
-      <c r="H183" s="37" t="s">
+      <c r="H183" s="149" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="184" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F184" s="104"/>
+      <c r="F184" s="96"/>
       <c r="G184" s="39" t="s">
         <v>603</v>
       </c>
@@ -19129,12 +19166,12 @@
       <c r="H187" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="I187" s="83" t="s">
+      <c r="I187" s="76" t="s">
         <v>822</v>
       </c>
-      <c r="J187" s="83"/>
-      <c r="K187" s="83"/>
-      <c r="L187" s="83"/>
+      <c r="J187" s="76"/>
+      <c r="K187" s="76"/>
+      <c r="L187" s="76"/>
       <c r="M187" s="15"/>
       <c r="N187" s="15"/>
       <c r="O187" s="15"/>
@@ -19158,12 +19195,12 @@
       <c r="H188" s="11" t="s">
         <v>618</v>
       </c>
-      <c r="I188" s="83" t="s">
+      <c r="I188" s="76" t="s">
         <v>824</v>
       </c>
-      <c r="J188" s="83"/>
-      <c r="K188" s="83"/>
-      <c r="L188" s="83"/>
+      <c r="J188" s="76"/>
+      <c r="K188" s="76"/>
+      <c r="L188" s="76"/>
       <c r="M188" s="11"/>
       <c r="N188" s="11"/>
       <c r="O188" s="11"/>
@@ -19187,89 +19224,89 @@
     </row>
     <row r="191" spans="2:24" x14ac:dyDescent="0.15">
       <c r="F191" s="3"/>
-      <c r="G191" s="59" t="s">
+      <c r="G191" s="57" t="s">
         <v>740</v>
       </c>
-      <c r="H191" s="59"/>
-      <c r="I191" s="59"/>
-      <c r="J191" s="59"/>
-      <c r="K191" s="59"/>
-      <c r="L191" s="59"/>
-      <c r="M191" s="59"/>
-      <c r="N191" s="59"/>
+      <c r="H191" s="57"/>
+      <c r="I191" s="57"/>
+      <c r="J191" s="57"/>
+      <c r="K191" s="57"/>
+      <c r="L191" s="57"/>
+      <c r="M191" s="57"/>
+      <c r="N191" s="57"/>
     </row>
     <row r="192" spans="2:24" x14ac:dyDescent="0.15">
       <c r="F192" s="3"/>
-      <c r="G192" s="59" t="s">
+      <c r="G192" s="57" t="s">
         <v>738</v>
       </c>
-      <c r="H192" s="59" t="s">
+      <c r="H192" s="57" t="s">
         <v>794</v>
       </c>
-      <c r="I192" s="59"/>
-      <c r="J192" s="59"/>
-      <c r="K192" s="59"/>
-      <c r="L192" s="59"/>
-      <c r="M192" s="59"/>
-      <c r="N192" s="59"/>
+      <c r="I192" s="57"/>
+      <c r="J192" s="57"/>
+      <c r="K192" s="57"/>
+      <c r="L192" s="57"/>
+      <c r="M192" s="57"/>
+      <c r="N192" s="57"/>
     </row>
     <row r="193" spans="1:22" x14ac:dyDescent="0.15">
       <c r="F193" s="3"/>
-      <c r="G193" s="59" t="s">
+      <c r="G193" s="57" t="s">
         <v>739</v>
       </c>
-      <c r="H193" s="59" t="s">
+      <c r="H193" s="57" t="s">
         <v>795</v>
       </c>
-      <c r="I193" s="59"/>
-      <c r="J193" s="59"/>
-      <c r="K193" s="59"/>
-      <c r="L193" s="59"/>
-      <c r="M193" s="59"/>
-      <c r="N193" s="59"/>
+      <c r="I193" s="57"/>
+      <c r="J193" s="57"/>
+      <c r="K193" s="57"/>
+      <c r="L193" s="57"/>
+      <c r="M193" s="57"/>
+      <c r="N193" s="57"/>
     </row>
     <row r="194" spans="1:22" x14ac:dyDescent="0.15">
       <c r="F194" s="3"/>
-      <c r="G194" s="59" t="s">
+      <c r="G194" s="57" t="s">
         <v>366</v>
       </c>
-      <c r="H194" s="59" t="s">
+      <c r="H194" s="57" t="s">
         <v>367</v>
       </c>
-      <c r="I194" s="59"/>
-      <c r="J194" s="59"/>
-      <c r="K194" s="59"/>
-      <c r="L194" s="59"/>
-      <c r="M194" s="59"/>
-      <c r="N194" s="59"/>
+      <c r="I194" s="57"/>
+      <c r="J194" s="57"/>
+      <c r="K194" s="57"/>
+      <c r="L194" s="57"/>
+      <c r="M194" s="57"/>
+      <c r="N194" s="57"/>
     </row>
     <row r="195" spans="1:22" x14ac:dyDescent="0.15">
       <c r="F195" s="3"/>
-      <c r="G195" s="59" t="s">
+      <c r="G195" s="57" t="s">
         <v>368</v>
       </c>
-      <c r="H195" s="59" t="s">
+      <c r="H195" s="57" t="s">
         <v>369</v>
       </c>
-      <c r="I195" s="59"/>
-      <c r="J195" s="59"/>
-      <c r="K195" s="59"/>
-      <c r="L195" s="59"/>
-      <c r="M195" s="59"/>
-      <c r="N195" s="59"/>
+      <c r="I195" s="57"/>
+      <c r="J195" s="57"/>
+      <c r="K195" s="57"/>
+      <c r="L195" s="57"/>
+      <c r="M195" s="57"/>
+      <c r="N195" s="57"/>
     </row>
     <row r="196" spans="1:22" x14ac:dyDescent="0.15">
       <c r="F196" s="43"/>
-      <c r="G196" s="60" t="s">
+      <c r="G196" s="58" t="s">
         <v>370</v>
       </c>
-      <c r="H196" s="59"/>
-      <c r="I196" s="61"/>
-      <c r="J196" s="61"/>
-      <c r="K196" s="59"/>
-      <c r="L196" s="59"/>
-      <c r="M196" s="59"/>
-      <c r="N196" s="59"/>
+      <c r="H196" s="57"/>
+      <c r="I196" s="59"/>
+      <c r="J196" s="59"/>
+      <c r="K196" s="57"/>
+      <c r="L196" s="57"/>
+      <c r="M196" s="57"/>
+      <c r="N196" s="57"/>
     </row>
     <row r="197" spans="1:22" x14ac:dyDescent="0.15">
       <c r="D197" s="9" t="s">
@@ -19581,8 +19618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -19603,7 +19640,7 @@
       <c r="C2" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="76" t="s">
         <v>395</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -19642,16 +19679,16 @@
       <c r="P2" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="2" t="s">
         <v>398</v>
       </c>
       <c r="U2" s="1" t="s">
@@ -19702,7 +19739,7 @@
       <c r="C3" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="76" t="s">
         <v>812</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -19741,16 +19778,16 @@
       <c r="P3" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="Q3" s="56" t="s">
+      <c r="Q3" s="147" t="s">
         <v>646</v>
       </c>
-      <c r="R3" s="56" t="s">
+      <c r="R3" s="147" t="s">
         <v>647</v>
       </c>
-      <c r="S3" s="56" t="s">
+      <c r="S3" s="147" t="s">
         <v>651</v>
       </c>
-      <c r="T3" s="56" t="s">
+      <c r="T3" s="147" t="s">
         <v>653</v>
       </c>
       <c r="U3" s="23" t="s">
@@ -19759,16 +19796,16 @@
       <c r="V3" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="W3" s="106" t="s">
+      <c r="W3" s="98" t="s">
         <v>719</v>
       </c>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="106"/>
-      <c r="Z3" s="106"/>
-      <c r="AA3" s="106"/>
-      <c r="AB3" s="106"/>
-      <c r="AC3" s="106"/>
-      <c r="AD3" s="83" t="s">
+      <c r="X3" s="98"/>
+      <c r="Y3" s="98"/>
+      <c r="Z3" s="98"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="98"/>
+      <c r="AC3" s="98"/>
+      <c r="AD3" s="76" t="s">
         <v>820</v>
       </c>
       <c r="AE3" s="7" t="s">
@@ -19789,7 +19826,7 @@
       <c r="C4" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="76" t="s">
         <v>813</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -19828,16 +19865,16 @@
       <c r="P4" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="Q4" s="56" t="s">
+      <c r="Q4" s="147" t="s">
         <v>648</v>
       </c>
-      <c r="R4" s="56" t="s">
+      <c r="R4" s="147" t="s">
         <v>649</v>
       </c>
-      <c r="S4" s="56" t="s">
+      <c r="S4" s="147" t="s">
         <v>652</v>
       </c>
-      <c r="T4" s="56" t="s">
+      <c r="T4" s="147" t="s">
         <v>654</v>
       </c>
       <c r="U4" s="23" t="s">
@@ -19846,16 +19883,16 @@
       <c r="V4" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="W4" s="107" t="s">
+      <c r="W4" s="99" t="s">
         <v>818</v>
       </c>
-      <c r="X4" s="107"/>
-      <c r="Y4" s="107"/>
-      <c r="Z4" s="107"/>
-      <c r="AA4" s="107"/>
-      <c r="AB4" s="107"/>
-      <c r="AC4" s="107"/>
-      <c r="AD4" s="83" t="s">
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="99"/>
+      <c r="AD4" s="76" t="s">
         <v>823</v>
       </c>
       <c r="AE4" s="7" t="s">
@@ -19873,10 +19910,10 @@
       <c r="B5" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="76" t="s">
         <v>815</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="76" t="s">
         <v>831</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -19892,33 +19929,33 @@
       <c r="I5" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="J5" s="105" t="s">
+      <c r="J5" s="97" t="s">
         <v>809</v>
       </c>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
-      <c r="U5" s="105"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="97"/>
       <c r="V5" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="W5" s="107" t="s">
+      <c r="W5" s="99" t="s">
         <v>817</v>
       </c>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="107"/>
-      <c r="AA5" s="107"/>
-      <c r="AB5" s="107"/>
-      <c r="AC5" s="107"/>
-      <c r="AD5" s="83" t="s">
+      <c r="X5" s="99"/>
+      <c r="Y5" s="99"/>
+      <c r="Z5" s="99"/>
+      <c r="AA5" s="99"/>
+      <c r="AB5" s="99"/>
+      <c r="AC5" s="99"/>
+      <c r="AD5" s="76" t="s">
         <v>819</v>
       </c>
       <c r="AE5" s="7"/>
@@ -19929,10 +19966,10 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="76" t="s">
         <v>814</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="76" t="s">
         <v>816</v>
       </c>
       <c r="F6" s="10"/>
@@ -20088,8 +20125,8 @@
         <v>440</v>
       </c>
       <c r="V10" s="23"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="55"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="54"/>
       <c r="Y10" s="23"/>
       <c r="Z10" s="23"/>
     </row>
@@ -20098,8 +20135,8 @@
         <v>726</v>
       </c>
       <c r="V11" s="23"/>
-      <c r="W11" s="55"/>
-      <c r="X11" s="55"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="54"/>
       <c r="Y11" s="23"/>
       <c r="Z11" s="23"/>
     </row>
@@ -20108,8 +20145,8 @@
         <v>596</v>
       </c>
       <c r="V12" s="23"/>
-      <c r="W12" s="55"/>
-      <c r="X12" s="55"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="54"/>
       <c r="Y12" s="23"/>
       <c r="Z12" s="23"/>
     </row>
@@ -20154,8 +20191,8 @@
         <v>396</v>
       </c>
       <c r="V13" s="23"/>
-      <c r="W13" s="55"/>
-      <c r="X13" s="55"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54"/>
       <c r="Y13" s="23"/>
       <c r="Z13" s="23"/>
     </row>
@@ -20250,7 +20287,7 @@
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="56" t="s">
         <v>721</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -20311,7 +20348,7 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B21" s="87" t="s">
+      <c r="B21" s="79" t="s">
         <v>734</v>
       </c>
     </row>
@@ -20350,64 +20387,64 @@
       </c>
     </row>
     <row r="2" spans="1:50" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108" t="s">
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108" t="s">
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="108"/>
-      <c r="AB2" s="108"/>
-      <c r="AC2" s="108"/>
-      <c r="AD2" s="108"/>
-      <c r="AE2" s="108" t="s">
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="100"/>
+      <c r="AD2" s="100"/>
+      <c r="AE2" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="AF2" s="108"/>
-      <c r="AG2" s="108"/>
-      <c r="AH2" s="108"/>
-      <c r="AI2" s="108"/>
-      <c r="AJ2" s="108"/>
-      <c r="AK2" s="108" t="s">
+      <c r="AF2" s="100"/>
+      <c r="AG2" s="100"/>
+      <c r="AH2" s="100"/>
+      <c r="AI2" s="100"/>
+      <c r="AJ2" s="100"/>
+      <c r="AK2" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="AL2" s="108"/>
-      <c r="AM2" s="108"/>
-      <c r="AN2" s="108" t="s">
+      <c r="AL2" s="100"/>
+      <c r="AM2" s="100"/>
+      <c r="AN2" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="AO2" s="108"/>
-      <c r="AP2" s="108"/>
-      <c r="AQ2" s="108"/>
-      <c r="AR2" s="108"/>
-      <c r="AS2" s="108"/>
-      <c r="AT2" s="108"/>
-      <c r="AU2" s="108"/>
-      <c r="AV2" s="108"/>
+      <c r="AO2" s="100"/>
+      <c r="AP2" s="100"/>
+      <c r="AQ2" s="100"/>
+      <c r="AR2" s="100"/>
+      <c r="AS2" s="100"/>
+      <c r="AT2" s="100"/>
+      <c r="AU2" s="100"/>
+      <c r="AV2" s="100"/>
       <c r="AW2" s="30" t="s">
         <v>40</v>
       </c>
@@ -21057,7 +21094,7 @@
       <c r="C7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="75" t="s">
         <v>796</v>
       </c>
       <c r="E7" s="5"/>
@@ -21458,107 +21495,107 @@
       <c r="AW27" s="4"/>
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="C28" s="111" t="s">
+      <c r="C28" s="127" t="s">
         <v>151</v>
       </c>
-      <c r="D28" s="111"/>
-      <c r="E28" s="111" t="s">
+      <c r="D28" s="127"/>
+      <c r="E28" s="127" t="s">
         <v>152</v>
       </c>
-      <c r="F28" s="111"/>
-      <c r="G28" s="111" t="s">
+      <c r="F28" s="127"/>
+      <c r="G28" s="127" t="s">
         <v>153</v>
       </c>
-      <c r="H28" s="111"/>
-      <c r="I28" s="111" t="s">
+      <c r="H28" s="127"/>
+      <c r="I28" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="J28" s="111"/>
-      <c r="K28" s="111" t="s">
+      <c r="J28" s="127"/>
+      <c r="K28" s="127" t="s">
         <v>155</v>
       </c>
-      <c r="L28" s="111"/>
-      <c r="M28" s="116" t="s">
+      <c r="L28" s="127"/>
+      <c r="M28" s="119" t="s">
         <v>156</v>
       </c>
-      <c r="N28" s="116"/>
-      <c r="O28" s="116" t="s">
+      <c r="N28" s="119"/>
+      <c r="O28" s="119" t="s">
         <v>157</v>
       </c>
-      <c r="P28" s="116"/>
-      <c r="Q28" s="116" t="s">
+      <c r="P28" s="119"/>
+      <c r="Q28" s="119" t="s">
         <v>178</v>
       </c>
-      <c r="R28" s="116"/>
-      <c r="S28" s="116" t="s">
+      <c r="R28" s="119"/>
+      <c r="S28" s="119" t="s">
         <v>179</v>
       </c>
-      <c r="T28" s="116"/>
-      <c r="U28" s="116" t="s">
+      <c r="T28" s="119"/>
+      <c r="U28" s="119" t="s">
         <v>180</v>
       </c>
-      <c r="V28" s="116"/>
-      <c r="W28" s="116" t="s">
+      <c r="V28" s="119"/>
+      <c r="W28" s="119" t="s">
         <v>181</v>
       </c>
-      <c r="X28" s="116"/>
-      <c r="Y28" s="116" t="s">
+      <c r="X28" s="119"/>
+      <c r="Y28" s="119" t="s">
         <v>191</v>
       </c>
-      <c r="Z28" s="116"/>
-      <c r="AA28" s="116" t="s">
+      <c r="Z28" s="119"/>
+      <c r="AA28" s="119" t="s">
         <v>211</v>
       </c>
-      <c r="AB28" s="116"/>
-      <c r="AC28" s="116" t="s">
+      <c r="AB28" s="119"/>
+      <c r="AC28" s="119" t="s">
         <v>158</v>
       </c>
-      <c r="AD28" s="116"/>
-      <c r="AE28" s="115" t="s">
+      <c r="AD28" s="119"/>
+      <c r="AE28" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="AF28" s="115"/>
+      <c r="AF28" s="126"/>
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="C29" s="109" t="s">
+      <c r="C29" s="124" t="s">
         <v>161</v>
       </c>
-      <c r="D29" s="109"/>
-      <c r="E29" s="110" t="s">
+      <c r="D29" s="124"/>
+      <c r="E29" s="108" t="s">
         <v>164</v>
       </c>
-      <c r="F29" s="110"/>
-      <c r="G29" s="125"/>
-      <c r="H29" s="125"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="109"/>
-      <c r="L29" s="109"/>
-      <c r="M29" s="112"/>
-      <c r="N29" s="112"/>
-      <c r="O29" s="112"/>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="112"/>
-      <c r="R29" s="112"/>
-      <c r="S29" s="112"/>
-      <c r="T29" s="112"/>
-      <c r="U29" s="112"/>
-      <c r="V29" s="112"/>
-      <c r="W29" s="112"/>
-      <c r="X29" s="112"/>
-      <c r="Y29" s="117"/>
-      <c r="Z29" s="118"/>
-      <c r="AA29" s="123"/>
-      <c r="AB29" s="124"/>
-      <c r="AC29" s="112" t="s">
+      <c r="F29" s="108"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="124"/>
+      <c r="J29" s="124"/>
+      <c r="K29" s="124"/>
+      <c r="L29" s="124"/>
+      <c r="M29" s="120"/>
+      <c r="N29" s="120"/>
+      <c r="O29" s="120"/>
+      <c r="P29" s="120"/>
+      <c r="Q29" s="120"/>
+      <c r="R29" s="120"/>
+      <c r="S29" s="120"/>
+      <c r="T29" s="120"/>
+      <c r="U29" s="120"/>
+      <c r="V29" s="120"/>
+      <c r="W29" s="120"/>
+      <c r="X29" s="120"/>
+      <c r="Y29" s="128"/>
+      <c r="Z29" s="129"/>
+      <c r="AA29" s="121"/>
+      <c r="AB29" s="122"/>
+      <c r="AC29" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="AD29" s="112"/>
-      <c r="AE29" s="113" t="str">
+      <c r="AD29" s="120"/>
+      <c r="AE29" s="125" t="str">
         <f>CONCATENATE(E29)</f>
         <v>怪物装备本身附加命中率</v>
       </c>
-      <c r="AF29" s="113"/>
+      <c r="AF29" s="125"/>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.15">
       <c r="C30" s="18"/>
@@ -21627,135 +21664,135 @@
       <c r="AF31" s="27"/>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="C32" s="111" t="s">
+      <c r="C32" s="127" t="s">
         <v>151</v>
       </c>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111" t="s">
+      <c r="D32" s="127"/>
+      <c r="E32" s="127" t="s">
         <v>152</v>
       </c>
-      <c r="F32" s="111"/>
-      <c r="G32" s="111" t="s">
+      <c r="F32" s="127"/>
+      <c r="G32" s="127" t="s">
         <v>153</v>
       </c>
-      <c r="H32" s="111"/>
-      <c r="I32" s="111" t="s">
+      <c r="H32" s="127"/>
+      <c r="I32" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="J32" s="111"/>
-      <c r="K32" s="111" t="s">
+      <c r="J32" s="127"/>
+      <c r="K32" s="127" t="s">
         <v>155</v>
       </c>
-      <c r="L32" s="111"/>
-      <c r="M32" s="116" t="s">
+      <c r="L32" s="127"/>
+      <c r="M32" s="119" t="s">
         <v>156</v>
       </c>
-      <c r="N32" s="116"/>
-      <c r="O32" s="116" t="s">
+      <c r="N32" s="119"/>
+      <c r="O32" s="119" t="s">
         <v>157</v>
       </c>
-      <c r="P32" s="116"/>
-      <c r="Q32" s="116" t="s">
+      <c r="P32" s="119"/>
+      <c r="Q32" s="119" t="s">
         <v>178</v>
       </c>
-      <c r="R32" s="116"/>
-      <c r="S32" s="116" t="s">
+      <c r="R32" s="119"/>
+      <c r="S32" s="119" t="s">
         <v>179</v>
       </c>
-      <c r="T32" s="116"/>
-      <c r="U32" s="116" t="s">
+      <c r="T32" s="119"/>
+      <c r="U32" s="119" t="s">
         <v>180</v>
       </c>
-      <c r="V32" s="116"/>
-      <c r="W32" s="116" t="s">
+      <c r="V32" s="119"/>
+      <c r="W32" s="119" t="s">
         <v>181</v>
       </c>
-      <c r="X32" s="116"/>
-      <c r="Y32" s="116" t="s">
+      <c r="X32" s="119"/>
+      <c r="Y32" s="119" t="s">
         <v>191</v>
       </c>
-      <c r="Z32" s="116"/>
-      <c r="AA32" s="116" t="s">
+      <c r="Z32" s="119"/>
+      <c r="AA32" s="119" t="s">
         <v>211</v>
       </c>
-      <c r="AB32" s="116"/>
-      <c r="AC32" s="116" t="s">
+      <c r="AB32" s="119"/>
+      <c r="AC32" s="119" t="s">
         <v>158</v>
       </c>
-      <c r="AD32" s="116"/>
-      <c r="AE32" s="115" t="s">
+      <c r="AD32" s="119"/>
+      <c r="AE32" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="AF32" s="115"/>
+      <c r="AF32" s="126"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B33" s="10" t="s">
         <v>660</v>
       </c>
-      <c r="C33" s="109" t="s">
+      <c r="C33" s="124" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="109"/>
-      <c r="E33" s="110" t="s">
+      <c r="D33" s="124"/>
+      <c r="E33" s="108" t="s">
         <v>190</v>
       </c>
-      <c r="F33" s="110"/>
-      <c r="G33" s="110" t="s">
+      <c r="F33" s="108"/>
+      <c r="G33" s="108" t="s">
         <v>165</v>
       </c>
-      <c r="H33" s="110"/>
-      <c r="I33" s="110" t="s">
+      <c r="H33" s="108"/>
+      <c r="I33" s="108" t="s">
         <v>163</v>
       </c>
-      <c r="J33" s="110"/>
-      <c r="K33" s="110"/>
-      <c r="L33" s="110"/>
-      <c r="M33" s="114"/>
-      <c r="N33" s="114"/>
-      <c r="O33" s="114"/>
-      <c r="P33" s="114"/>
-      <c r="Q33" s="114"/>
-      <c r="R33" s="114"/>
-      <c r="S33" s="114"/>
-      <c r="T33" s="114"/>
-      <c r="U33" s="114"/>
-      <c r="V33" s="114"/>
-      <c r="W33" s="114"/>
-      <c r="X33" s="114"/>
-      <c r="Y33" s="119"/>
-      <c r="Z33" s="119"/>
-      <c r="AA33" s="122"/>
-      <c r="AB33" s="122"/>
-      <c r="AC33" s="114" t="s">
+      <c r="J33" s="108"/>
+      <c r="K33" s="108"/>
+      <c r="L33" s="108"/>
+      <c r="M33" s="102"/>
+      <c r="N33" s="102"/>
+      <c r="O33" s="102"/>
+      <c r="P33" s="102"/>
+      <c r="Q33" s="102"/>
+      <c r="R33" s="102"/>
+      <c r="S33" s="102"/>
+      <c r="T33" s="102"/>
+      <c r="U33" s="102"/>
+      <c r="V33" s="102"/>
+      <c r="W33" s="102"/>
+      <c r="X33" s="102"/>
+      <c r="Y33" s="116"/>
+      <c r="Z33" s="116"/>
+      <c r="AA33" s="109"/>
+      <c r="AB33" s="109"/>
+      <c r="AC33" s="102" t="s">
         <v>487</v>
       </c>
-      <c r="AD33" s="114"/>
-      <c r="AE33" s="120" t="str">
+      <c r="AD33" s="102"/>
+      <c r="AE33" s="101" t="str">
         <f>CONCATENATE(E33,"+",G33,"-",I33)</f>
         <v>固有暴击率+攻击方装备本身附加暴击率-防御方装备本身附加暴击抗性</v>
       </c>
-      <c r="AF33" s="120"/>
+      <c r="AF33" s="101"/>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="C34" s="109" t="s">
+      <c r="C34" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="109"/>
-      <c r="E34" s="110" t="s">
+      <c r="D34" s="124"/>
+      <c r="E34" s="108" t="s">
         <v>166</v>
       </c>
-      <c r="F34" s="110"/>
-      <c r="G34" s="121" t="s">
+      <c r="F34" s="108"/>
+      <c r="G34" s="110" t="s">
         <v>192</v>
       </c>
-      <c r="H34" s="121"/>
-      <c r="I34" s="110" t="s">
+      <c r="H34" s="110"/>
+      <c r="I34" s="108" t="s">
         <v>167</v>
       </c>
-      <c r="J34" s="110"/>
+      <c r="J34" s="108"/>
       <c r="K34" s="50" t="s">
         <v>168</v>
       </c>
@@ -21772,46 +21809,46 @@
         <v>171</v>
       </c>
       <c r="R34" s="49"/>
-      <c r="S34" s="110"/>
-      <c r="T34" s="110"/>
-      <c r="U34" s="114"/>
-      <c r="V34" s="114"/>
-      <c r="W34" s="114"/>
-      <c r="X34" s="114"/>
-      <c r="Y34" s="119"/>
-      <c r="Z34" s="119"/>
-      <c r="AA34" s="122"/>
-      <c r="AB34" s="122"/>
-      <c r="AC34" s="114" t="s">
+      <c r="S34" s="108"/>
+      <c r="T34" s="108"/>
+      <c r="U34" s="102"/>
+      <c r="V34" s="102"/>
+      <c r="W34" s="102"/>
+      <c r="X34" s="102"/>
+      <c r="Y34" s="116"/>
+      <c r="Z34" s="116"/>
+      <c r="AA34" s="109"/>
+      <c r="AB34" s="109"/>
+      <c r="AC34" s="102" t="s">
         <v>533</v>
       </c>
-      <c r="AD34" s="114"/>
-      <c r="AE34" s="120" t="str">
+      <c r="AD34" s="102"/>
+      <c r="AE34" s="101" t="str">
         <f>CONCATENATE(E34,"+",G34,"+",I34,"+",M34,"+",O34,"+",Q34,"+",K34)</f>
         <v>怪物本身力量+怪物升星附加力量+装备本身附加力量+装备进阶附加力量+装备镶嵌附加力量+人物装备附加力量+装备强化附加力量</v>
       </c>
-      <c r="AF34" s="120"/>
+      <c r="AF34" s="101"/>
     </row>
     <row r="35" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="C35" s="109" t="s">
+      <c r="C35" s="124" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="109"/>
-      <c r="E35" s="110" t="s">
+      <c r="D35" s="124"/>
+      <c r="E35" s="108" t="s">
         <v>172</v>
       </c>
-      <c r="F35" s="110"/>
-      <c r="G35" s="121" t="s">
+      <c r="F35" s="108"/>
+      <c r="G35" s="110" t="s">
         <v>193</v>
       </c>
-      <c r="H35" s="121"/>
-      <c r="I35" s="110" t="s">
+      <c r="H35" s="110"/>
+      <c r="I35" s="108" t="s">
         <v>173</v>
       </c>
-      <c r="J35" s="110"/>
+      <c r="J35" s="108"/>
       <c r="K35" s="50" t="s">
         <v>174</v>
       </c>
@@ -21828,46 +21865,46 @@
         <v>177</v>
       </c>
       <c r="R35" s="49"/>
-      <c r="S35" s="110"/>
-      <c r="T35" s="110"/>
-      <c r="U35" s="114"/>
-      <c r="V35" s="114"/>
-      <c r="W35" s="114"/>
-      <c r="X35" s="114"/>
-      <c r="Y35" s="119"/>
-      <c r="Z35" s="119"/>
-      <c r="AA35" s="122"/>
-      <c r="AB35" s="122"/>
-      <c r="AC35" s="114" t="s">
+      <c r="S35" s="108"/>
+      <c r="T35" s="108"/>
+      <c r="U35" s="102"/>
+      <c r="V35" s="102"/>
+      <c r="W35" s="102"/>
+      <c r="X35" s="102"/>
+      <c r="Y35" s="116"/>
+      <c r="Z35" s="116"/>
+      <c r="AA35" s="109"/>
+      <c r="AB35" s="109"/>
+      <c r="AC35" s="102" t="s">
         <v>533</v>
       </c>
-      <c r="AD35" s="114"/>
-      <c r="AE35" s="120" t="str">
+      <c r="AD35" s="102"/>
+      <c r="AE35" s="101" t="str">
         <f>CONCATENATE(E35,"+",G35,"+",I35,"+",M35,"+",O35,"+",Q35,"+",K35)</f>
         <v>怪物本身智力+怪物升星附加智力+装备本身附加智力+装备进阶附加智力+装备镶嵌附加智力+人物装备附加智力+装备强化附加智力</v>
       </c>
-      <c r="AF35" s="120"/>
+      <c r="AF35" s="101"/>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="C36" s="109" t="s">
+      <c r="C36" s="124" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="109"/>
-      <c r="E36" s="110" t="s">
+      <c r="D36" s="124"/>
+      <c r="E36" s="108" t="s">
         <v>182</v>
       </c>
-      <c r="F36" s="110"/>
-      <c r="G36" s="121" t="s">
+      <c r="F36" s="108"/>
+      <c r="G36" s="110" t="s">
         <v>194</v>
       </c>
-      <c r="H36" s="121"/>
-      <c r="I36" s="110" t="s">
+      <c r="H36" s="110"/>
+      <c r="I36" s="108" t="s">
         <v>183</v>
       </c>
-      <c r="J36" s="110"/>
+      <c r="J36" s="108"/>
       <c r="K36" s="50" t="s">
         <v>184</v>
       </c>
@@ -21900,40 +21937,40 @@
         <v>502</v>
       </c>
       <c r="Z36" s="49"/>
-      <c r="AA36" s="110" t="s">
+      <c r="AA36" s="108" t="s">
         <v>503</v>
       </c>
-      <c r="AB36" s="110"/>
-      <c r="AC36" s="114" t="s">
+      <c r="AB36" s="108"/>
+      <c r="AC36" s="102" t="s">
         <v>216</v>
       </c>
-      <c r="AD36" s="114"/>
-      <c r="AE36" s="120" t="str">
+      <c r="AD36" s="102"/>
+      <c r="AE36" s="101" t="str">
         <f>CONCATENATE("(",E36,"+",G36,"+",I36,"+",M36,"+",O36,"+",Q36,"+",K36,")","*","（","1","+",S36,")","*","(","1","+",U36,"+",W36,"+",Y36,"+",AA36,")")</f>
         <v>(怪物本身防御力+怪物升星附加防御力+装备本身附加防御力+装备进阶附加防御力+装备镶嵌附加防御力+人物装备附加防御力+装备强化附加防御力)*（1+人物装备套装附加防御力百分比)*(1+法阵附加防御力百分比+Buff附加防御力百分比+队长附加防御力百分比+被动附加防御力百分比)</v>
       </c>
-      <c r="AF36" s="120"/>
+      <c r="AF36" s="101"/>
     </row>
     <row r="37" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="C37" s="109" t="s">
+      <c r="C37" s="124" t="s">
         <v>698</v>
       </c>
-      <c r="D37" s="109"/>
-      <c r="E37" s="110" t="s">
+      <c r="D37" s="124"/>
+      <c r="E37" s="108" t="s">
         <v>182</v>
       </c>
-      <c r="F37" s="110"/>
-      <c r="G37" s="121" t="s">
+      <c r="F37" s="108"/>
+      <c r="G37" s="110" t="s">
         <v>194</v>
       </c>
-      <c r="H37" s="121"/>
-      <c r="I37" s="110" t="s">
+      <c r="H37" s="110"/>
+      <c r="I37" s="108" t="s">
         <v>183</v>
       </c>
-      <c r="J37" s="110"/>
+      <c r="J37" s="108"/>
       <c r="K37" s="50" t="s">
         <v>184</v>
       </c>
@@ -21950,44 +21987,44 @@
         <v>187</v>
       </c>
       <c r="R37" s="49"/>
-      <c r="S37" s="127"/>
-      <c r="T37" s="128"/>
-      <c r="U37" s="122"/>
-      <c r="V37" s="122"/>
-      <c r="W37" s="122"/>
-      <c r="X37" s="122"/>
-      <c r="Y37" s="122"/>
-      <c r="Z37" s="122"/>
-      <c r="AA37" s="110"/>
-      <c r="AB37" s="110"/>
-      <c r="AC37" s="114" t="s">
+      <c r="S37" s="105"/>
+      <c r="T37" s="106"/>
+      <c r="U37" s="109"/>
+      <c r="V37" s="109"/>
+      <c r="W37" s="109"/>
+      <c r="X37" s="109"/>
+      <c r="Y37" s="109"/>
+      <c r="Z37" s="109"/>
+      <c r="AA37" s="108"/>
+      <c r="AB37" s="108"/>
+      <c r="AC37" s="102" t="s">
         <v>533</v>
       </c>
-      <c r="AD37" s="114"/>
-      <c r="AE37" s="120" t="str">
+      <c r="AD37" s="102"/>
+      <c r="AE37" s="101" t="str">
         <f>CONCATENATE(E37,"+",G37,"+",I37,"+",M37,"+",O37,"+",Q37,"+",K37)</f>
         <v>怪物本身防御力+怪物升星附加防御力+装备本身附加防御力+装备进阶附加防御力+装备镶嵌附加防御力+人物装备附加防御力+装备强化附加防御力</v>
       </c>
-      <c r="AF37" s="120"/>
+      <c r="AF37" s="101"/>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
-      <c r="C38" s="126" t="s">
+      <c r="C38" s="107" t="s">
         <v>196</v>
       </c>
-      <c r="D38" s="126"/>
-      <c r="E38" s="110" t="s">
+      <c r="D38" s="107"/>
+      <c r="E38" s="108" t="s">
         <v>204</v>
       </c>
-      <c r="F38" s="110"/>
-      <c r="G38" s="121" t="s">
+      <c r="F38" s="108"/>
+      <c r="G38" s="110" t="s">
         <v>205</v>
       </c>
-      <c r="H38" s="121"/>
-      <c r="I38" s="110" t="s">
+      <c r="H38" s="110"/>
+      <c r="I38" s="108" t="s">
         <v>206</v>
       </c>
-      <c r="J38" s="110"/>
+      <c r="J38" s="108"/>
       <c r="K38" s="50" t="s">
         <v>207</v>
       </c>
@@ -22008,50 +22045,50 @@
         <v>508</v>
       </c>
       <c r="T38" s="49"/>
-      <c r="U38" s="122" t="s">
+      <c r="U38" s="109" t="s">
         <v>507</v>
       </c>
-      <c r="V38" s="122"/>
-      <c r="W38" s="122" t="s">
+      <c r="V38" s="109"/>
+      <c r="W38" s="109" t="s">
         <v>506</v>
       </c>
-      <c r="X38" s="122"/>
-      <c r="Y38" s="122" t="s">
+      <c r="X38" s="109"/>
+      <c r="Y38" s="109" t="s">
         <v>505</v>
       </c>
-      <c r="Z38" s="122"/>
-      <c r="AA38" s="110" t="s">
+      <c r="Z38" s="109"/>
+      <c r="AA38" s="108" t="s">
         <v>504</v>
       </c>
-      <c r="AB38" s="110"/>
-      <c r="AC38" s="114" t="s">
+      <c r="AB38" s="108"/>
+      <c r="AC38" s="102" t="s">
         <v>216</v>
       </c>
-      <c r="AD38" s="114"/>
-      <c r="AE38" s="120" t="str">
+      <c r="AD38" s="102"/>
+      <c r="AE38" s="101" t="str">
         <f>CONCATENATE("(",E38,"+",G38,"+",I38,"+",M38,"+",O38,"+",Q38,"+",K38,")","*","（","1","+",S38,")","*","(","1","+",U38,"+",W38,"+",Y38,"+",AA38,")")</f>
         <v>(怪物本身速度+怪物升星附加速度+装备本身附加速度+装备进阶附加速度+装备镶嵌附加速度+人物装备附加速度+装备强化附加速度)*（1+人物装备套装附加速度百分比)*(1+法阵附加速度百分比+Buff附加速度百分比+队长技附加速度百分比+被动附加速度百分比)</v>
       </c>
-      <c r="AF38" s="120"/>
+      <c r="AF38" s="101"/>
     </row>
     <row r="39" spans="1:32" s="45" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="57"/>
-      <c r="C39" s="126" t="s">
+      <c r="A39" s="55"/>
+      <c r="C39" s="107" t="s">
         <v>699</v>
       </c>
-      <c r="D39" s="126"/>
-      <c r="E39" s="110" t="s">
+      <c r="D39" s="107"/>
+      <c r="E39" s="108" t="s">
         <v>204</v>
       </c>
-      <c r="F39" s="110"/>
-      <c r="G39" s="121" t="s">
+      <c r="F39" s="108"/>
+      <c r="G39" s="110" t="s">
         <v>205</v>
       </c>
-      <c r="H39" s="121"/>
-      <c r="I39" s="110" t="s">
+      <c r="H39" s="110"/>
+      <c r="I39" s="108" t="s">
         <v>206</v>
       </c>
-      <c r="J39" s="110"/>
+      <c r="J39" s="108"/>
       <c r="K39" s="50" t="s">
         <v>207</v>
       </c>
@@ -22068,86 +22105,86 @@
         <v>210</v>
       </c>
       <c r="R39" s="49"/>
-      <c r="S39" s="136"/>
-      <c r="T39" s="137"/>
-      <c r="U39" s="136"/>
-      <c r="V39" s="137"/>
-      <c r="W39" s="136"/>
-      <c r="X39" s="137"/>
-      <c r="Y39" s="136"/>
-      <c r="Z39" s="137"/>
-      <c r="AA39" s="134"/>
-      <c r="AB39" s="135"/>
-      <c r="AC39" s="114" t="s">
+      <c r="S39" s="113"/>
+      <c r="T39" s="114"/>
+      <c r="U39" s="113"/>
+      <c r="V39" s="114"/>
+      <c r="W39" s="113"/>
+      <c r="X39" s="114"/>
+      <c r="Y39" s="113"/>
+      <c r="Z39" s="114"/>
+      <c r="AA39" s="111"/>
+      <c r="AB39" s="112"/>
+      <c r="AC39" s="102" t="s">
         <v>533</v>
       </c>
-      <c r="AD39" s="114"/>
-      <c r="AE39" s="120" t="str">
+      <c r="AD39" s="102"/>
+      <c r="AE39" s="101" t="str">
         <f>CONCATENATE(E39,"+",G39,"+",I39,"+",M39,"+",O39,"+",Q39,"+",K39)</f>
         <v>怪物本身速度+怪物升星附加速度+装备本身附加速度+装备进阶附加速度+装备镶嵌附加速度+人物装备附加速度+装备强化附加速度</v>
       </c>
-      <c r="AF39" s="120"/>
+      <c r="AF39" s="101"/>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C40" s="126" t="s">
+      <c r="C40" s="107" t="s">
         <v>217</v>
       </c>
-      <c r="D40" s="126"/>
-      <c r="E40" s="110" t="s">
+      <c r="D40" s="107"/>
+      <c r="E40" s="108" t="s">
         <v>230</v>
       </c>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110" t="s">
+      <c r="F40" s="108"/>
+      <c r="G40" s="108" t="s">
         <v>513</v>
       </c>
-      <c r="H40" s="110"/>
-      <c r="I40" s="110"/>
-      <c r="J40" s="110"/>
-      <c r="K40" s="129"/>
-      <c r="L40" s="129"/>
-      <c r="M40" s="129"/>
-      <c r="N40" s="129"/>
-      <c r="O40" s="129"/>
-      <c r="P40" s="129"/>
-      <c r="Q40" s="119"/>
-      <c r="R40" s="119"/>
-      <c r="S40" s="119"/>
-      <c r="T40" s="119"/>
-      <c r="U40" s="122"/>
-      <c r="V40" s="122"/>
-      <c r="W40" s="122"/>
-      <c r="X40" s="122"/>
-      <c r="Y40" s="122"/>
-      <c r="Z40" s="122"/>
-      <c r="AA40" s="110"/>
-      <c r="AB40" s="110"/>
-      <c r="AC40" s="114" t="s">
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="108"/>
+      <c r="K40" s="115"/>
+      <c r="L40" s="115"/>
+      <c r="M40" s="115"/>
+      <c r="N40" s="115"/>
+      <c r="O40" s="115"/>
+      <c r="P40" s="115"/>
+      <c r="Q40" s="116"/>
+      <c r="R40" s="116"/>
+      <c r="S40" s="116"/>
+      <c r="T40" s="116"/>
+      <c r="U40" s="109"/>
+      <c r="V40" s="109"/>
+      <c r="W40" s="109"/>
+      <c r="X40" s="109"/>
+      <c r="Y40" s="109"/>
+      <c r="Z40" s="109"/>
+      <c r="AA40" s="108"/>
+      <c r="AB40" s="108"/>
+      <c r="AC40" s="102" t="s">
         <v>483</v>
       </c>
-      <c r="AD40" s="114"/>
-      <c r="AE40" s="120" t="str">
+      <c r="AD40" s="102"/>
+      <c r="AE40" s="101" t="str">
         <f>CONCATENATE(E40,"*","（",1,"+",G40,")")</f>
         <v>怪物本身耐力*（1+被动附加耐力百分比)</v>
       </c>
-      <c r="AF40" s="120"/>
+      <c r="AF40" s="101"/>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C41" s="126" t="s">
+      <c r="C41" s="107" t="s">
         <v>220</v>
       </c>
-      <c r="D41" s="126"/>
-      <c r="E41" s="110" t="s">
+      <c r="D41" s="107"/>
+      <c r="E41" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="F41" s="110"/>
-      <c r="G41" s="121" t="s">
+      <c r="F41" s="108"/>
+      <c r="G41" s="110" t="s">
         <v>222</v>
       </c>
-      <c r="H41" s="121"/>
-      <c r="I41" s="110" t="s">
+      <c r="H41" s="110"/>
+      <c r="I41" s="108" t="s">
         <v>223</v>
       </c>
-      <c r="J41" s="110"/>
+      <c r="J41" s="108"/>
       <c r="K41" s="50" t="s">
         <v>224</v>
       </c>
@@ -22168,47 +22205,47 @@
         <v>509</v>
       </c>
       <c r="T41" s="49"/>
-      <c r="U41" s="122" t="s">
+      <c r="U41" s="109" t="s">
         <v>510</v>
       </c>
-      <c r="V41" s="122"/>
-      <c r="W41" s="122" t="s">
+      <c r="V41" s="109"/>
+      <c r="W41" s="109" t="s">
         <v>511</v>
       </c>
-      <c r="X41" s="122"/>
-      <c r="Y41" s="110" t="s">
+      <c r="X41" s="109"/>
+      <c r="Y41" s="108" t="s">
         <v>512</v>
       </c>
-      <c r="Z41" s="110"/>
-      <c r="AA41" s="110"/>
-      <c r="AB41" s="110"/>
-      <c r="AC41" s="114" t="s">
+      <c r="Z41" s="108"/>
+      <c r="AA41" s="108"/>
+      <c r="AB41" s="108"/>
+      <c r="AC41" s="102" t="s">
         <v>195</v>
       </c>
-      <c r="AD41" s="114"/>
-      <c r="AE41" s="120" t="str">
+      <c r="AD41" s="102"/>
+      <c r="AE41" s="101" t="str">
         <f>CONCATENATE("(",E41,"+",G41,"+",I41,"+",M41,"+",O41,"+",Q41,"+",K41,")","*","（","1","+",S41,")","*","(","1","+",U41,"+",W41,"+",Y41,")")</f>
         <v>(怪物本身体力+怪物升星附加体力+装备本身附加体力+装备进阶附加体力+装备镶嵌附加体力+人物装备附加体力+装备强化附加体力)*（1+人物装备套装附加体力百分比)*(1+法阵附加体力百分比+队长技附加体力百分比+被动附加体力百分比)</v>
       </c>
-      <c r="AF41" s="120"/>
+      <c r="AF41" s="101"/>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C42" s="126" t="s">
+      <c r="C42" s="107" t="s">
         <v>700</v>
       </c>
-      <c r="D42" s="126"/>
-      <c r="E42" s="110" t="s">
+      <c r="D42" s="107"/>
+      <c r="E42" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="F42" s="110"/>
-      <c r="G42" s="121" t="s">
+      <c r="F42" s="108"/>
+      <c r="G42" s="110" t="s">
         <v>222</v>
       </c>
-      <c r="H42" s="121"/>
-      <c r="I42" s="110" t="s">
+      <c r="H42" s="110"/>
+      <c r="I42" s="108" t="s">
         <v>223</v>
       </c>
-      <c r="J42" s="110"/>
+      <c r="J42" s="108"/>
       <c r="K42" s="50" t="s">
         <v>224</v>
       </c>
@@ -22225,117 +22262,117 @@
         <v>231</v>
       </c>
       <c r="R42" s="49"/>
-      <c r="S42" s="127"/>
-      <c r="T42" s="128"/>
-      <c r="U42" s="127"/>
-      <c r="V42" s="128"/>
-      <c r="W42" s="127"/>
-      <c r="X42" s="128"/>
-      <c r="Y42" s="132"/>
-      <c r="Z42" s="133"/>
-      <c r="AA42" s="132"/>
-      <c r="AB42" s="133"/>
-      <c r="AC42" s="114" t="s">
+      <c r="S42" s="105"/>
+      <c r="T42" s="106"/>
+      <c r="U42" s="105"/>
+      <c r="V42" s="106"/>
+      <c r="W42" s="105"/>
+      <c r="X42" s="106"/>
+      <c r="Y42" s="103"/>
+      <c r="Z42" s="104"/>
+      <c r="AA42" s="103"/>
+      <c r="AB42" s="104"/>
+      <c r="AC42" s="102" t="s">
         <v>533</v>
       </c>
-      <c r="AD42" s="114"/>
-      <c r="AE42" s="120" t="str">
+      <c r="AD42" s="102"/>
+      <c r="AE42" s="101" t="str">
         <f>CONCATENATE(E42,"+",G42,"+",I42,"+",M42,"+",O42,"+",Q42,"+",K42)</f>
         <v>怪物本身体力+怪物升星附加体力+装备本身附加体力+装备进阶附加体力+装备镶嵌附加体力+人物装备附加体力+装备强化附加体力</v>
       </c>
-      <c r="AF42" s="120"/>
+      <c r="AF42" s="101"/>
     </row>
     <row r="43" spans="1:32" s="45" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C43" s="130" t="s">
+      <c r="C43" s="117" t="s">
         <v>452</v>
       </c>
-      <c r="D43" s="130"/>
-      <c r="E43" s="110" t="s">
+      <c r="D43" s="117"/>
+      <c r="E43" s="108" t="s">
         <v>453</v>
       </c>
-      <c r="F43" s="110"/>
-      <c r="G43" s="121" t="s">
+      <c r="F43" s="108"/>
+      <c r="G43" s="110" t="s">
         <v>454</v>
       </c>
-      <c r="H43" s="121"/>
-      <c r="I43" s="110" t="s">
+      <c r="H43" s="110"/>
+      <c r="I43" s="108" t="s">
         <v>455</v>
       </c>
-      <c r="J43" s="110"/>
-      <c r="K43" s="131"/>
-      <c r="L43" s="131"/>
-      <c r="M43" s="110"/>
-      <c r="N43" s="110"/>
-      <c r="O43" s="131"/>
-      <c r="P43" s="131"/>
-      <c r="Q43" s="122"/>
-      <c r="R43" s="122"/>
-      <c r="S43" s="122"/>
-      <c r="T43" s="122"/>
-      <c r="U43" s="122"/>
-      <c r="V43" s="122"/>
-      <c r="W43" s="122"/>
-      <c r="X43" s="122"/>
-      <c r="Y43" s="131"/>
-      <c r="Z43" s="131"/>
-      <c r="AA43" s="131"/>
-      <c r="AB43" s="131"/>
-      <c r="AC43" s="114" t="s">
+      <c r="J43" s="108"/>
+      <c r="K43" s="118"/>
+      <c r="L43" s="118"/>
+      <c r="M43" s="108"/>
+      <c r="N43" s="108"/>
+      <c r="O43" s="118"/>
+      <c r="P43" s="118"/>
+      <c r="Q43" s="109"/>
+      <c r="R43" s="109"/>
+      <c r="S43" s="109"/>
+      <c r="T43" s="109"/>
+      <c r="U43" s="109"/>
+      <c r="V43" s="109"/>
+      <c r="W43" s="109"/>
+      <c r="X43" s="109"/>
+      <c r="Y43" s="118"/>
+      <c r="Z43" s="118"/>
+      <c r="AA43" s="118"/>
+      <c r="AB43" s="118"/>
+      <c r="AC43" s="102" t="s">
         <v>456</v>
       </c>
-      <c r="AD43" s="114"/>
-      <c r="AE43" s="120" t="str">
+      <c r="AD43" s="102"/>
+      <c r="AE43" s="101" t="str">
         <f>CONCATENATE(E43,"+",G43,"+",I43)</f>
         <v>怪物本身生命回复+怪物升星附加生命回复+装备进阶附加生命回复</v>
       </c>
-      <c r="AF43" s="120"/>
+      <c r="AF43" s="101"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C44" s="126" t="s">
+      <c r="C44" s="107" t="s">
         <v>232</v>
       </c>
-      <c r="D44" s="126"/>
+      <c r="D44" s="107"/>
       <c r="E44" s="49" t="s">
         <v>515</v>
       </c>
       <c r="F44" s="49"/>
-      <c r="G44" s="122" t="s">
+      <c r="G44" s="109" t="s">
         <v>516</v>
       </c>
-      <c r="H44" s="122"/>
-      <c r="I44" s="122" t="s">
+      <c r="H44" s="109"/>
+      <c r="I44" s="109" t="s">
         <v>517</v>
       </c>
-      <c r="J44" s="122"/>
-      <c r="K44" s="110" t="s">
+      <c r="J44" s="109"/>
+      <c r="K44" s="108" t="s">
         <v>518</v>
       </c>
-      <c r="L44" s="110"/>
-      <c r="M44" s="129"/>
-      <c r="N44" s="129"/>
-      <c r="O44" s="129"/>
-      <c r="P44" s="129"/>
-      <c r="Q44" s="119"/>
-      <c r="R44" s="119"/>
-      <c r="S44" s="119"/>
-      <c r="T44" s="119"/>
-      <c r="U44" s="122"/>
-      <c r="V44" s="122"/>
-      <c r="W44" s="122"/>
-      <c r="X44" s="122"/>
-      <c r="Y44" s="110"/>
-      <c r="Z44" s="110"/>
-      <c r="AA44" s="110"/>
-      <c r="AB44" s="110"/>
-      <c r="AC44" s="114" t="s">
+      <c r="L44" s="108"/>
+      <c r="M44" s="115"/>
+      <c r="N44" s="115"/>
+      <c r="O44" s="115"/>
+      <c r="P44" s="115"/>
+      <c r="Q44" s="116"/>
+      <c r="R44" s="116"/>
+      <c r="S44" s="116"/>
+      <c r="T44" s="116"/>
+      <c r="U44" s="109"/>
+      <c r="V44" s="109"/>
+      <c r="W44" s="109"/>
+      <c r="X44" s="109"/>
+      <c r="Y44" s="108"/>
+      <c r="Z44" s="108"/>
+      <c r="AA44" s="108"/>
+      <c r="AB44" s="108"/>
+      <c r="AC44" s="102" t="s">
         <v>233</v>
       </c>
-      <c r="AD44" s="114"/>
-      <c r="AE44" s="120" t="str">
+      <c r="AD44" s="102"/>
+      <c r="AE44" s="101" t="str">
         <f>CONCATENATE(E44,"+",G44,"+",I44,"+",K44)</f>
         <v>人物装备套装附加五行加成百分比+法阵附加五行加成百分比+队长技附加五行加成百分比+被动附加五行加成百分比</v>
       </c>
-      <c r="AF44" s="120"/>
+      <c r="AF44" s="101"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.15">
       <c r="D45" s="6"/>
@@ -22445,6 +22482,168 @@
     <row r="90" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="186">
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="AC29:AD29"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AE37:AF37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="AC36:AD36"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="AA35:AB35"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AA37:AB37"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="AA32:AB32"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="AC32:AD32"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="Y40:Z40"/>
+    <mergeCell ref="AA40:AB40"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="AA41:AB41"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="AA44:AB44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="AC41:AD41"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="AC40:AD40"/>
+    <mergeCell ref="AE40:AF40"/>
+    <mergeCell ref="AC44:AD44"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="AC43:AD43"/>
+    <mergeCell ref="AA43:AB43"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="G44:H44"/>
     <mergeCell ref="AE42:AF42"/>
     <mergeCell ref="AC42:AD42"/>
     <mergeCell ref="AA42:AB42"/>
@@ -22469,168 +22668,6 @@
     <mergeCell ref="W39:X39"/>
     <mergeCell ref="U39:V39"/>
     <mergeCell ref="S39:T39"/>
-    <mergeCell ref="AC44:AD44"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="AC43:AD43"/>
-    <mergeCell ref="AA43:AB43"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="AC41:AD41"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="AC40:AD40"/>
-    <mergeCell ref="AE40:AF40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="AA41:AB41"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="AA44:AB44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="Y40:Z40"/>
-    <mergeCell ref="AA40:AB40"/>
-    <mergeCell ref="Y37:Z37"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="AA32:AB32"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="AC32:AD32"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="AE37:AF37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="AC36:AD36"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="AA35:AB35"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AA37:AB37"/>
-    <mergeCell ref="AC29:AD29"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="I34:J34"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22764,106 +22801,106 @@
       </c>
     </row>
     <row r="18" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="57" t="s">
         <v>786</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
     </row>
     <row r="19" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="C19" s="59"/>
-      <c r="D19" s="59" t="s">
+      <c r="C19" s="57"/>
+      <c r="D19" s="57" t="s">
         <v>787</v>
       </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
     </row>
     <row r="20" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59" t="s">
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57" t="s">
         <v>538</v>
       </c>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
     </row>
     <row r="21" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59" t="s">
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57" t="s">
         <v>789</v>
       </c>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
     </row>
     <row r="22" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59" t="s">
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57" t="s">
         <v>540</v>
       </c>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
     </row>
     <row r="23" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59" t="s">
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57" t="s">
         <v>793</v>
       </c>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
     </row>
     <row r="25" spans="1:57" x14ac:dyDescent="0.15">
       <c r="C25" s="9" t="s">
@@ -22887,430 +22924,430 @@
       <c r="A28" s="47" t="s">
         <v>570</v>
       </c>
-      <c r="C28" s="138" t="s">
+      <c r="C28" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="144" t="s">
+      <c r="D28" s="137"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="138" t="s">
         <v>665</v>
       </c>
-      <c r="G28" s="144"/>
-      <c r="H28" s="144"/>
-      <c r="I28" s="140" t="s">
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="139" t="s">
         <v>78</v>
       </c>
-      <c r="J28" s="144" t="s">
+      <c r="J28" s="138" t="s">
         <v>662</v>
       </c>
-      <c r="K28" s="144"/>
-      <c r="L28" s="144"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="138"/>
       <c r="M28" s="46"/>
-      <c r="N28" s="140" t="s">
+      <c r="N28" s="139" t="s">
         <v>78</v>
       </c>
-      <c r="O28" s="146" t="s">
+      <c r="O28" s="140" t="s">
         <v>661</v>
       </c>
-      <c r="P28" s="146"/>
-      <c r="Q28" s="146"/>
-      <c r="R28" s="140" t="s">
+      <c r="P28" s="140"/>
+      <c r="Q28" s="140"/>
+      <c r="R28" s="139" t="s">
         <v>78</v>
       </c>
-      <c r="S28" s="140" t="s">
+      <c r="S28" s="139" t="s">
         <v>663</v>
       </c>
-      <c r="T28" s="140"/>
-      <c r="U28" s="140"/>
-      <c r="V28" s="140" t="s">
+      <c r="T28" s="139"/>
+      <c r="U28" s="139"/>
+      <c r="V28" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="W28" s="140" t="s">
+      <c r="W28" s="139" t="s">
         <v>576</v>
       </c>
-      <c r="X28" s="140"/>
-      <c r="Y28" s="140"/>
-      <c r="Z28" s="143" t="s">
+      <c r="X28" s="139"/>
+      <c r="Y28" s="139"/>
+      <c r="Z28" s="142" t="s">
         <v>78</v>
       </c>
-      <c r="AA28" s="143" t="s">
+      <c r="AA28" s="142" t="s">
         <v>708</v>
       </c>
-      <c r="AB28" s="143"/>
-      <c r="AC28" s="143"/>
-      <c r="AD28" s="147" t="s">
+      <c r="AB28" s="142"/>
+      <c r="AC28" s="142"/>
+      <c r="AD28" s="132" t="s">
         <v>78</v>
       </c>
-      <c r="AE28" s="147">
+      <c r="AE28" s="132">
         <v>1</v>
       </c>
-      <c r="AF28" s="147"/>
-      <c r="AG28" s="147"/>
-      <c r="AH28" s="147" t="s">
+      <c r="AF28" s="132"/>
+      <c r="AG28" s="132"/>
+      <c r="AH28" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="AI28" s="147" t="s">
+      <c r="AI28" s="132" t="s">
         <v>519</v>
       </c>
-      <c r="AJ28" s="147"/>
-      <c r="AK28" s="147"/>
-      <c r="AL28" s="147" t="s">
+      <c r="AJ28" s="132"/>
+      <c r="AK28" s="132"/>
+      <c r="AL28" s="132" t="s">
         <v>143</v>
       </c>
-      <c r="AM28" s="147" t="s">
+      <c r="AM28" s="132" t="s">
         <v>520</v>
       </c>
-      <c r="AN28" s="147"/>
-      <c r="AO28" s="147"/>
-      <c r="AP28" s="147" t="s">
+      <c r="AN28" s="132"/>
+      <c r="AO28" s="132"/>
+      <c r="AP28" s="132" t="s">
         <v>143</v>
       </c>
-      <c r="AQ28" s="147" t="s">
+      <c r="AQ28" s="132" t="s">
         <v>521</v>
       </c>
-      <c r="AR28" s="147"/>
-      <c r="AS28" s="147"/>
-      <c r="AT28" s="147" t="s">
+      <c r="AR28" s="132"/>
+      <c r="AS28" s="132"/>
+      <c r="AT28" s="132" t="s">
         <v>213</v>
       </c>
-      <c r="AU28" s="147" t="s">
+      <c r="AU28" s="132" t="s">
         <v>522</v>
       </c>
-      <c r="AV28" s="147"/>
-      <c r="AW28" s="147"/>
-      <c r="AX28" s="153" t="s">
+      <c r="AV28" s="132"/>
+      <c r="AW28" s="132"/>
+      <c r="AX28" s="133" t="s">
         <v>784</v>
       </c>
-      <c r="AY28" s="153" t="s">
+      <c r="AY28" s="133" t="s">
         <v>785</v>
       </c>
-      <c r="AZ28" s="153"/>
-      <c r="BA28" s="153"/>
-      <c r="BB28" s="154" t="s">
+      <c r="AZ28" s="133"/>
+      <c r="BA28" s="133"/>
+      <c r="BB28" s="130" t="s">
         <v>784</v>
       </c>
-      <c r="BC28" s="154" t="s">
+      <c r="BC28" s="130" t="s">
         <v>790</v>
       </c>
-      <c r="BD28" s="154"/>
-      <c r="BE28" s="154"/>
+      <c r="BD28" s="130"/>
+      <c r="BE28" s="130"/>
     </row>
     <row r="29" spans="1:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="C29" s="139"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="144"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="144"/>
-      <c r="K29" s="144"/>
-      <c r="L29" s="144"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="139"/>
+      <c r="J29" s="138"/>
+      <c r="K29" s="138"/>
+      <c r="L29" s="138"/>
       <c r="M29" s="46"/>
-      <c r="N29" s="140"/>
-      <c r="O29" s="146"/>
-      <c r="P29" s="146"/>
-      <c r="Q29" s="146"/>
-      <c r="R29" s="140"/>
-      <c r="S29" s="140"/>
-      <c r="T29" s="140"/>
-      <c r="U29" s="140"/>
-      <c r="V29" s="140"/>
-      <c r="W29" s="140"/>
-      <c r="X29" s="140"/>
-      <c r="Y29" s="140"/>
-      <c r="Z29" s="143"/>
-      <c r="AA29" s="143"/>
-      <c r="AB29" s="143"/>
-      <c r="AC29" s="143"/>
-      <c r="AD29" s="147"/>
-      <c r="AE29" s="147"/>
-      <c r="AF29" s="147"/>
-      <c r="AG29" s="147"/>
-      <c r="AH29" s="147"/>
-      <c r="AI29" s="147"/>
-      <c r="AJ29" s="147"/>
-      <c r="AK29" s="147"/>
-      <c r="AL29" s="147"/>
-      <c r="AM29" s="147"/>
-      <c r="AN29" s="147"/>
-      <c r="AO29" s="147"/>
-      <c r="AP29" s="147"/>
-      <c r="AQ29" s="147"/>
-      <c r="AR29" s="147"/>
-      <c r="AS29" s="147"/>
-      <c r="AT29" s="147"/>
-      <c r="AU29" s="147"/>
-      <c r="AV29" s="147"/>
-      <c r="AW29" s="147"/>
-      <c r="AX29" s="153"/>
-      <c r="AY29" s="153"/>
-      <c r="AZ29" s="153"/>
-      <c r="BA29" s="153"/>
-      <c r="BB29" s="154"/>
-      <c r="BC29" s="154"/>
-      <c r="BD29" s="154"/>
-      <c r="BE29" s="154"/>
+      <c r="N29" s="139"/>
+      <c r="O29" s="140"/>
+      <c r="P29" s="140"/>
+      <c r="Q29" s="140"/>
+      <c r="R29" s="139"/>
+      <c r="S29" s="139"/>
+      <c r="T29" s="139"/>
+      <c r="U29" s="139"/>
+      <c r="V29" s="139"/>
+      <c r="W29" s="139"/>
+      <c r="X29" s="139"/>
+      <c r="Y29" s="139"/>
+      <c r="Z29" s="142"/>
+      <c r="AA29" s="142"/>
+      <c r="AB29" s="142"/>
+      <c r="AC29" s="142"/>
+      <c r="AD29" s="132"/>
+      <c r="AE29" s="132"/>
+      <c r="AF29" s="132"/>
+      <c r="AG29" s="132"/>
+      <c r="AH29" s="132"/>
+      <c r="AI29" s="132"/>
+      <c r="AJ29" s="132"/>
+      <c r="AK29" s="132"/>
+      <c r="AL29" s="132"/>
+      <c r="AM29" s="132"/>
+      <c r="AN29" s="132"/>
+      <c r="AO29" s="132"/>
+      <c r="AP29" s="132"/>
+      <c r="AQ29" s="132"/>
+      <c r="AR29" s="132"/>
+      <c r="AS29" s="132"/>
+      <c r="AT29" s="132"/>
+      <c r="AU29" s="132"/>
+      <c r="AV29" s="132"/>
+      <c r="AW29" s="132"/>
+      <c r="AX29" s="133"/>
+      <c r="AY29" s="133"/>
+      <c r="AZ29" s="133"/>
+      <c r="BA29" s="133"/>
+      <c r="BB29" s="130"/>
+      <c r="BC29" s="130"/>
+      <c r="BD29" s="130"/>
+      <c r="BE29" s="130"/>
     </row>
     <row r="30" spans="1:57" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
-      <c r="C30" s="139"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="139"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="144"/>
-      <c r="I30" s="140"/>
-      <c r="J30" s="144"/>
-      <c r="K30" s="144"/>
-      <c r="L30" s="144"/>
+      <c r="C30" s="137"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="139"/>
+      <c r="J30" s="138"/>
+      <c r="K30" s="138"/>
+      <c r="L30" s="138"/>
       <c r="M30" s="46"/>
-      <c r="N30" s="140"/>
-      <c r="O30" s="146"/>
-      <c r="P30" s="146"/>
-      <c r="Q30" s="146"/>
-      <c r="R30" s="140"/>
-      <c r="S30" s="140"/>
-      <c r="T30" s="140"/>
-      <c r="U30" s="140"/>
-      <c r="V30" s="140"/>
-      <c r="W30" s="140"/>
-      <c r="X30" s="140"/>
-      <c r="Y30" s="140"/>
-      <c r="Z30" s="143"/>
-      <c r="AA30" s="143"/>
-      <c r="AB30" s="143"/>
-      <c r="AC30" s="143"/>
-      <c r="AD30" s="147"/>
-      <c r="AE30" s="147"/>
-      <c r="AF30" s="147"/>
-      <c r="AG30" s="147"/>
-      <c r="AH30" s="147"/>
-      <c r="AI30" s="147"/>
-      <c r="AJ30" s="147"/>
-      <c r="AK30" s="147"/>
-      <c r="AL30" s="147"/>
-      <c r="AM30" s="147"/>
-      <c r="AN30" s="147"/>
-      <c r="AO30" s="147"/>
-      <c r="AP30" s="147"/>
-      <c r="AQ30" s="147"/>
-      <c r="AR30" s="147"/>
-      <c r="AS30" s="147"/>
-      <c r="AT30" s="147"/>
-      <c r="AU30" s="147"/>
-      <c r="AV30" s="147"/>
-      <c r="AW30" s="147"/>
-      <c r="AX30" s="153"/>
-      <c r="AY30" s="153"/>
-      <c r="AZ30" s="153"/>
-      <c r="BA30" s="153"/>
-      <c r="BB30" s="154"/>
-      <c r="BC30" s="154"/>
-      <c r="BD30" s="154"/>
-      <c r="BE30" s="154"/>
+      <c r="N30" s="139"/>
+      <c r="O30" s="140"/>
+      <c r="P30" s="140"/>
+      <c r="Q30" s="140"/>
+      <c r="R30" s="139"/>
+      <c r="S30" s="139"/>
+      <c r="T30" s="139"/>
+      <c r="U30" s="139"/>
+      <c r="V30" s="139"/>
+      <c r="W30" s="139"/>
+      <c r="X30" s="139"/>
+      <c r="Y30" s="139"/>
+      <c r="Z30" s="142"/>
+      <c r="AA30" s="142"/>
+      <c r="AB30" s="142"/>
+      <c r="AC30" s="142"/>
+      <c r="AD30" s="132"/>
+      <c r="AE30" s="132"/>
+      <c r="AF30" s="132"/>
+      <c r="AG30" s="132"/>
+      <c r="AH30" s="132"/>
+      <c r="AI30" s="132"/>
+      <c r="AJ30" s="132"/>
+      <c r="AK30" s="132"/>
+      <c r="AL30" s="132"/>
+      <c r="AM30" s="132"/>
+      <c r="AN30" s="132"/>
+      <c r="AO30" s="132"/>
+      <c r="AP30" s="132"/>
+      <c r="AQ30" s="132"/>
+      <c r="AR30" s="132"/>
+      <c r="AS30" s="132"/>
+      <c r="AT30" s="132"/>
+      <c r="AU30" s="132"/>
+      <c r="AV30" s="132"/>
+      <c r="AW30" s="132"/>
+      <c r="AX30" s="133"/>
+      <c r="AY30" s="133"/>
+      <c r="AZ30" s="133"/>
+      <c r="BA30" s="133"/>
+      <c r="BB30" s="130"/>
+      <c r="BC30" s="130"/>
+      <c r="BD30" s="130"/>
+      <c r="BE30" s="130"/>
     </row>
     <row r="31" spans="1:57" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="C31" s="139"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="144"/>
-      <c r="I31" s="140"/>
-      <c r="J31" s="144"/>
-      <c r="K31" s="144"/>
-      <c r="L31" s="144"/>
+      <c r="C31" s="137"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="139"/>
+      <c r="J31" s="138"/>
+      <c r="K31" s="138"/>
+      <c r="L31" s="138"/>
       <c r="M31" s="46"/>
-      <c r="N31" s="140"/>
-      <c r="O31" s="146"/>
-      <c r="P31" s="146"/>
-      <c r="Q31" s="146"/>
-      <c r="R31" s="140"/>
-      <c r="S31" s="140"/>
-      <c r="T31" s="140"/>
-      <c r="U31" s="140"/>
-      <c r="V31" s="140"/>
-      <c r="W31" s="140"/>
-      <c r="X31" s="140"/>
-      <c r="Y31" s="140"/>
-      <c r="Z31" s="143"/>
-      <c r="AA31" s="143"/>
-      <c r="AB31" s="143"/>
-      <c r="AC31" s="143"/>
-      <c r="AD31" s="147"/>
-      <c r="AE31" s="147"/>
-      <c r="AF31" s="147"/>
-      <c r="AG31" s="147"/>
-      <c r="AH31" s="147"/>
-      <c r="AI31" s="147"/>
-      <c r="AJ31" s="147"/>
-      <c r="AK31" s="147"/>
-      <c r="AL31" s="147"/>
-      <c r="AM31" s="147"/>
-      <c r="AN31" s="147"/>
-      <c r="AO31" s="147"/>
-      <c r="AP31" s="147"/>
-      <c r="AQ31" s="147"/>
-      <c r="AR31" s="147"/>
-      <c r="AS31" s="147"/>
-      <c r="AT31" s="147"/>
-      <c r="AU31" s="147"/>
-      <c r="AV31" s="147"/>
-      <c r="AW31" s="147"/>
-      <c r="AX31" s="153"/>
-      <c r="AY31" s="153"/>
-      <c r="AZ31" s="153"/>
-      <c r="BA31" s="153"/>
-      <c r="BB31" s="154"/>
-      <c r="BC31" s="154"/>
-      <c r="BD31" s="154"/>
-      <c r="BE31" s="154"/>
+      <c r="N31" s="139"/>
+      <c r="O31" s="140"/>
+      <c r="P31" s="140"/>
+      <c r="Q31" s="140"/>
+      <c r="R31" s="139"/>
+      <c r="S31" s="139"/>
+      <c r="T31" s="139"/>
+      <c r="U31" s="139"/>
+      <c r="V31" s="139"/>
+      <c r="W31" s="139"/>
+      <c r="X31" s="139"/>
+      <c r="Y31" s="139"/>
+      <c r="Z31" s="142"/>
+      <c r="AA31" s="142"/>
+      <c r="AB31" s="142"/>
+      <c r="AC31" s="142"/>
+      <c r="AD31" s="132"/>
+      <c r="AE31" s="132"/>
+      <c r="AF31" s="132"/>
+      <c r="AG31" s="132"/>
+      <c r="AH31" s="132"/>
+      <c r="AI31" s="132"/>
+      <c r="AJ31" s="132"/>
+      <c r="AK31" s="132"/>
+      <c r="AL31" s="132"/>
+      <c r="AM31" s="132"/>
+      <c r="AN31" s="132"/>
+      <c r="AO31" s="132"/>
+      <c r="AP31" s="132"/>
+      <c r="AQ31" s="132"/>
+      <c r="AR31" s="132"/>
+      <c r="AS31" s="132"/>
+      <c r="AT31" s="132"/>
+      <c r="AU31" s="132"/>
+      <c r="AV31" s="132"/>
+      <c r="AW31" s="132"/>
+      <c r="AX31" s="133"/>
+      <c r="AY31" s="133"/>
+      <c r="AZ31" s="133"/>
+      <c r="BA31" s="133"/>
+      <c r="BB31" s="130"/>
+      <c r="BC31" s="130"/>
+      <c r="BD31" s="130"/>
+      <c r="BE31" s="130"/>
     </row>
     <row r="32" spans="1:57" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
-      <c r="F32" s="140" t="s">
+      <c r="F32" s="139" t="s">
         <v>546</v>
       </c>
-      <c r="G32" s="140"/>
-      <c r="H32" s="140"/>
-      <c r="I32" s="140"/>
-      <c r="J32" s="140" t="s">
+      <c r="G32" s="139"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="139"/>
+      <c r="J32" s="139" t="s">
         <v>79</v>
       </c>
-      <c r="K32" s="140"/>
-      <c r="L32" s="140"/>
+      <c r="K32" s="139"/>
+      <c r="L32" s="139"/>
       <c r="M32" s="46"/>
-      <c r="N32" s="140"/>
-      <c r="O32" s="142" t="s">
+      <c r="N32" s="139"/>
+      <c r="O32" s="144" t="s">
         <v>80</v>
       </c>
-      <c r="P32" s="142"/>
-      <c r="Q32" s="142"/>
-      <c r="R32" s="140"/>
-      <c r="S32" s="140" t="s">
+      <c r="P32" s="144"/>
+      <c r="Q32" s="144"/>
+      <c r="R32" s="139"/>
+      <c r="S32" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="T32" s="140"/>
-      <c r="U32" s="140"/>
-      <c r="V32" s="140"/>
-      <c r="W32" s="140" t="s">
+      <c r="T32" s="139"/>
+      <c r="U32" s="139"/>
+      <c r="V32" s="139"/>
+      <c r="W32" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="X32" s="140"/>
-      <c r="Y32" s="140"/>
-      <c r="Z32" s="143"/>
-      <c r="AA32" s="143" t="s">
+      <c r="X32" s="139"/>
+      <c r="Y32" s="139"/>
+      <c r="Z32" s="142"/>
+      <c r="AA32" s="142" t="s">
         <v>81</v>
       </c>
-      <c r="AB32" s="143"/>
-      <c r="AC32" s="143"/>
-      <c r="AD32" s="147"/>
-      <c r="AE32" s="147"/>
-      <c r="AF32" s="147"/>
-      <c r="AG32" s="147"/>
-      <c r="AH32" s="147"/>
-      <c r="AI32" s="147" t="s">
+      <c r="AB32" s="142"/>
+      <c r="AC32" s="142"/>
+      <c r="AD32" s="132"/>
+      <c r="AE32" s="132"/>
+      <c r="AF32" s="132"/>
+      <c r="AG32" s="132"/>
+      <c r="AH32" s="132"/>
+      <c r="AI32" s="132" t="s">
         <v>98</v>
       </c>
-      <c r="AJ32" s="147"/>
-      <c r="AK32" s="147"/>
-      <c r="AL32" s="147"/>
-      <c r="AM32" s="151" t="s">
+      <c r="AJ32" s="132"/>
+      <c r="AK32" s="132"/>
+      <c r="AL32" s="132"/>
+      <c r="AM32" s="134" t="s">
         <v>99</v>
       </c>
-      <c r="AN32" s="151"/>
-      <c r="AO32" s="151"/>
-      <c r="AP32" s="147"/>
-      <c r="AQ32" s="147" t="s">
+      <c r="AN32" s="134"/>
+      <c r="AO32" s="134"/>
+      <c r="AP32" s="132"/>
+      <c r="AQ32" s="132" t="s">
         <v>105</v>
       </c>
-      <c r="AR32" s="147"/>
-      <c r="AS32" s="147"/>
-      <c r="AT32" s="147"/>
-      <c r="AU32" s="150" t="s">
+      <c r="AR32" s="132"/>
+      <c r="AS32" s="132"/>
+      <c r="AT32" s="132"/>
+      <c r="AU32" s="131" t="s">
         <v>215</v>
       </c>
-      <c r="AV32" s="150"/>
-      <c r="AW32" s="150"/>
-      <c r="AX32" s="153"/>
-      <c r="AY32" s="153"/>
-      <c r="AZ32" s="153"/>
-      <c r="BA32" s="153"/>
-      <c r="BB32" s="154"/>
-      <c r="BC32" s="154"/>
-      <c r="BD32" s="154"/>
-      <c r="BE32" s="154"/>
+      <c r="AV32" s="131"/>
+      <c r="AW32" s="131"/>
+      <c r="AX32" s="133"/>
+      <c r="AY32" s="133"/>
+      <c r="AZ32" s="133"/>
+      <c r="BA32" s="133"/>
+      <c r="BB32" s="130"/>
+      <c r="BC32" s="130"/>
+      <c r="BD32" s="130"/>
+      <c r="BE32" s="130"/>
     </row>
     <row r="33" spans="1:64" x14ac:dyDescent="0.15">
-      <c r="F33" s="140" t="s">
+      <c r="F33" s="139" t="s">
         <v>146</v>
       </c>
-      <c r="G33" s="140"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="140"/>
-      <c r="J33" s="140"/>
-      <c r="K33" s="140"/>
-      <c r="L33" s="140"/>
-      <c r="M33" s="140"/>
-      <c r="N33" s="140"/>
-      <c r="O33" s="140"/>
-      <c r="P33" s="140"/>
-      <c r="Q33" s="140"/>
-      <c r="R33" s="140"/>
-      <c r="S33" s="140"/>
-      <c r="T33" s="140"/>
-      <c r="U33" s="140"/>
-      <c r="V33" s="140"/>
-      <c r="W33" s="140"/>
-      <c r="X33" s="140"/>
-      <c r="Y33" s="140"/>
-      <c r="Z33" s="141" t="s">
+      <c r="G33" s="139"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="139"/>
+      <c r="J33" s="139"/>
+      <c r="K33" s="139"/>
+      <c r="L33" s="139"/>
+      <c r="M33" s="139"/>
+      <c r="N33" s="139"/>
+      <c r="O33" s="139"/>
+      <c r="P33" s="139"/>
+      <c r="Q33" s="139"/>
+      <c r="R33" s="139"/>
+      <c r="S33" s="139"/>
+      <c r="T33" s="139"/>
+      <c r="U33" s="139"/>
+      <c r="V33" s="139"/>
+      <c r="W33" s="139"/>
+      <c r="X33" s="139"/>
+      <c r="Y33" s="139"/>
+      <c r="Z33" s="146" t="s">
         <v>148</v>
       </c>
-      <c r="AA33" s="141"/>
-      <c r="AB33" s="141"/>
-      <c r="AC33" s="141"/>
-      <c r="AD33" s="150" t="s">
+      <c r="AA33" s="146"/>
+      <c r="AB33" s="146"/>
+      <c r="AC33" s="146"/>
+      <c r="AD33" s="131" t="s">
         <v>145</v>
       </c>
-      <c r="AE33" s="150"/>
-      <c r="AF33" s="150"/>
-      <c r="AG33" s="150"/>
-      <c r="AH33" s="150"/>
-      <c r="AI33" s="150"/>
-      <c r="AJ33" s="150"/>
-      <c r="AK33" s="150"/>
-      <c r="AL33" s="150"/>
-      <c r="AM33" s="150"/>
-      <c r="AN33" s="150"/>
-      <c r="AO33" s="150"/>
-      <c r="AP33" s="150"/>
-      <c r="AQ33" s="150"/>
-      <c r="AR33" s="150"/>
-      <c r="AS33" s="150"/>
-      <c r="AT33" s="150"/>
-      <c r="AU33" s="150"/>
-      <c r="AV33" s="150"/>
-      <c r="AW33" s="150"/>
-      <c r="AX33" s="153" t="s">
+      <c r="AE33" s="131"/>
+      <c r="AF33" s="131"/>
+      <c r="AG33" s="131"/>
+      <c r="AH33" s="131"/>
+      <c r="AI33" s="131"/>
+      <c r="AJ33" s="131"/>
+      <c r="AK33" s="131"/>
+      <c r="AL33" s="131"/>
+      <c r="AM33" s="131"/>
+      <c r="AN33" s="131"/>
+      <c r="AO33" s="131"/>
+      <c r="AP33" s="131"/>
+      <c r="AQ33" s="131"/>
+      <c r="AR33" s="131"/>
+      <c r="AS33" s="131"/>
+      <c r="AT33" s="131"/>
+      <c r="AU33" s="131"/>
+      <c r="AV33" s="131"/>
+      <c r="AW33" s="131"/>
+      <c r="AX33" s="133" t="s">
         <v>444</v>
       </c>
-      <c r="AY33" s="153"/>
-      <c r="AZ33" s="153"/>
-      <c r="BA33" s="153"/>
-      <c r="BB33" s="154" t="s">
+      <c r="AY33" s="133"/>
+      <c r="AZ33" s="133"/>
+      <c r="BA33" s="133"/>
+      <c r="BB33" s="130" t="s">
         <v>791</v>
       </c>
-      <c r="BC33" s="154"/>
-      <c r="BD33" s="154"/>
-      <c r="BE33" s="154"/>
+      <c r="BC33" s="130"/>
+      <c r="BD33" s="130"/>
+      <c r="BE33" s="130"/>
       <c r="BF33" s="17"/>
     </row>
     <row r="34" spans="1:64" x14ac:dyDescent="0.15">
@@ -23366,480 +23403,480 @@
       <c r="A36" s="48" t="s">
         <v>622</v>
       </c>
-      <c r="C36" s="138" t="s">
+      <c r="C36" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="139"/>
-      <c r="E36" s="139"/>
-      <c r="F36" s="144" t="s">
+      <c r="D36" s="137"/>
+      <c r="E36" s="137"/>
+      <c r="F36" s="138" t="s">
         <v>666</v>
       </c>
-      <c r="G36" s="140"/>
-      <c r="H36" s="140"/>
-      <c r="I36" s="140" t="s">
+      <c r="G36" s="139"/>
+      <c r="H36" s="139"/>
+      <c r="I36" s="139" t="s">
         <v>78</v>
       </c>
-      <c r="J36" s="144" t="s">
+      <c r="J36" s="138" t="s">
         <v>583</v>
       </c>
-      <c r="K36" s="140"/>
-      <c r="L36" s="140"/>
-      <c r="M36" s="140" t="s">
+      <c r="K36" s="139"/>
+      <c r="L36" s="139"/>
+      <c r="M36" s="139" t="s">
         <v>78</v>
       </c>
-      <c r="N36" s="144" t="s">
+      <c r="N36" s="138" t="s">
         <v>117</v>
       </c>
-      <c r="O36" s="140"/>
-      <c r="P36" s="140"/>
-      <c r="Q36" s="140" t="s">
+      <c r="O36" s="139"/>
+      <c r="P36" s="139"/>
+      <c r="Q36" s="139" t="s">
         <v>78</v>
       </c>
-      <c r="R36" s="140" t="s">
+      <c r="R36" s="139" t="s">
         <v>528</v>
       </c>
-      <c r="S36" s="140"/>
-      <c r="T36" s="140"/>
-      <c r="U36" s="140" t="s">
+      <c r="S36" s="139"/>
+      <c r="T36" s="139"/>
+      <c r="U36" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="V36" s="140" t="s">
+      <c r="V36" s="139" t="s">
         <v>514</v>
       </c>
-      <c r="W36" s="140"/>
-      <c r="X36" s="140"/>
-      <c r="Y36" s="143" t="s">
+      <c r="W36" s="139"/>
+      <c r="X36" s="139"/>
+      <c r="Y36" s="142" t="s">
         <v>78</v>
       </c>
-      <c r="Z36" s="143" t="s">
+      <c r="Z36" s="142" t="s">
         <v>707</v>
       </c>
-      <c r="AA36" s="143"/>
-      <c r="AB36" s="143"/>
-      <c r="AC36" s="147" t="s">
+      <c r="AA36" s="142"/>
+      <c r="AB36" s="142"/>
+      <c r="AC36" s="132" t="s">
         <v>78</v>
       </c>
-      <c r="AD36" s="149" t="s">
+      <c r="AD36" s="143" t="s">
         <v>672</v>
       </c>
-      <c r="AE36" s="150"/>
-      <c r="AF36" s="150"/>
-      <c r="AG36" s="147" t="s">
+      <c r="AE36" s="131"/>
+      <c r="AF36" s="131"/>
+      <c r="AG36" s="132" t="s">
         <v>78</v>
       </c>
-      <c r="AH36" s="148" t="s">
+      <c r="AH36" s="145" t="s">
         <v>670</v>
       </c>
-      <c r="AI36" s="147"/>
-      <c r="AJ36" s="147"/>
-      <c r="AK36" s="147" t="s">
+      <c r="AI36" s="132"/>
+      <c r="AJ36" s="132"/>
+      <c r="AK36" s="132" t="s">
         <v>95</v>
       </c>
-      <c r="AL36" s="147">
+      <c r="AL36" s="132">
         <v>1</v>
       </c>
-      <c r="AM36" s="147"/>
-      <c r="AN36" s="147"/>
-      <c r="AO36" s="147" t="s">
+      <c r="AM36" s="132"/>
+      <c r="AN36" s="132"/>
+      <c r="AO36" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="AP36" s="147" t="s">
+      <c r="AP36" s="132" t="s">
         <v>527</v>
       </c>
-      <c r="AQ36" s="147"/>
-      <c r="AR36" s="147"/>
-      <c r="AS36" s="147" t="s">
+      <c r="AQ36" s="132"/>
+      <c r="AR36" s="132"/>
+      <c r="AS36" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="AT36" s="147" t="s">
+      <c r="AT36" s="132" t="s">
         <v>526</v>
       </c>
-      <c r="AU36" s="147"/>
-      <c r="AV36" s="147"/>
-      <c r="AW36" s="147" t="s">
+      <c r="AU36" s="132"/>
+      <c r="AV36" s="132"/>
+      <c r="AW36" s="132" t="s">
         <v>149</v>
       </c>
-      <c r="AX36" s="147" t="s">
+      <c r="AX36" s="132" t="s">
         <v>525</v>
       </c>
-      <c r="AY36" s="147"/>
-      <c r="AZ36" s="147"/>
-      <c r="BA36" s="147" t="s">
+      <c r="AY36" s="132"/>
+      <c r="AZ36" s="132"/>
+      <c r="BA36" s="132" t="s">
         <v>214</v>
       </c>
-      <c r="BB36" s="147" t="s">
+      <c r="BB36" s="132" t="s">
         <v>524</v>
       </c>
-      <c r="BC36" s="147"/>
-      <c r="BD36" s="147"/>
-      <c r="BE36" s="153" t="s">
+      <c r="BC36" s="132"/>
+      <c r="BD36" s="132"/>
+      <c r="BE36" s="133" t="s">
         <v>102</v>
       </c>
-      <c r="BF36" s="153" t="s">
+      <c r="BF36" s="133" t="s">
         <v>523</v>
       </c>
-      <c r="BG36" s="153"/>
-      <c r="BH36" s="153"/>
-      <c r="BI36" s="154" t="s">
+      <c r="BG36" s="133"/>
+      <c r="BH36" s="133"/>
+      <c r="BI36" s="130" t="s">
         <v>784</v>
       </c>
-      <c r="BJ36" s="154" t="s">
+      <c r="BJ36" s="130" t="s">
         <v>790</v>
       </c>
-      <c r="BK36" s="154"/>
-      <c r="BL36" s="154"/>
+      <c r="BK36" s="130"/>
+      <c r="BL36" s="130"/>
     </row>
     <row r="37" spans="1:64" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
-      <c r="C37" s="139"/>
-      <c r="D37" s="139"/>
-      <c r="E37" s="139"/>
-      <c r="F37" s="140"/>
-      <c r="G37" s="140"/>
-      <c r="H37" s="140"/>
-      <c r="I37" s="140"/>
-      <c r="J37" s="140"/>
-      <c r="K37" s="140"/>
-      <c r="L37" s="140"/>
-      <c r="M37" s="140"/>
-      <c r="N37" s="140"/>
-      <c r="O37" s="140"/>
-      <c r="P37" s="140"/>
-      <c r="Q37" s="140"/>
-      <c r="R37" s="140"/>
-      <c r="S37" s="140"/>
-      <c r="T37" s="140"/>
-      <c r="U37" s="140"/>
-      <c r="V37" s="140"/>
-      <c r="W37" s="140"/>
-      <c r="X37" s="140"/>
-      <c r="Y37" s="143"/>
-      <c r="Z37" s="143"/>
-      <c r="AA37" s="143"/>
-      <c r="AB37" s="143"/>
-      <c r="AC37" s="147"/>
-      <c r="AD37" s="150"/>
-      <c r="AE37" s="150"/>
-      <c r="AF37" s="150"/>
-      <c r="AG37" s="147"/>
-      <c r="AH37" s="147"/>
-      <c r="AI37" s="147"/>
-      <c r="AJ37" s="147"/>
-      <c r="AK37" s="147"/>
-      <c r="AL37" s="147"/>
-      <c r="AM37" s="147"/>
-      <c r="AN37" s="147"/>
-      <c r="AO37" s="147"/>
-      <c r="AP37" s="147"/>
-      <c r="AQ37" s="147"/>
-      <c r="AR37" s="147"/>
-      <c r="AS37" s="147"/>
-      <c r="AT37" s="147"/>
-      <c r="AU37" s="147"/>
-      <c r="AV37" s="147"/>
-      <c r="AW37" s="147"/>
-      <c r="AX37" s="147"/>
-      <c r="AY37" s="147"/>
-      <c r="AZ37" s="147"/>
-      <c r="BA37" s="147"/>
-      <c r="BB37" s="147"/>
-      <c r="BC37" s="147"/>
-      <c r="BD37" s="147"/>
-      <c r="BE37" s="153"/>
-      <c r="BF37" s="153"/>
-      <c r="BG37" s="153"/>
-      <c r="BH37" s="153"/>
-      <c r="BI37" s="154"/>
-      <c r="BJ37" s="154"/>
-      <c r="BK37" s="154"/>
-      <c r="BL37" s="154"/>
+      <c r="C37" s="137"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="137"/>
+      <c r="F37" s="139"/>
+      <c r="G37" s="139"/>
+      <c r="H37" s="139"/>
+      <c r="I37" s="139"/>
+      <c r="J37" s="139"/>
+      <c r="K37" s="139"/>
+      <c r="L37" s="139"/>
+      <c r="M37" s="139"/>
+      <c r="N37" s="139"/>
+      <c r="O37" s="139"/>
+      <c r="P37" s="139"/>
+      <c r="Q37" s="139"/>
+      <c r="R37" s="139"/>
+      <c r="S37" s="139"/>
+      <c r="T37" s="139"/>
+      <c r="U37" s="139"/>
+      <c r="V37" s="139"/>
+      <c r="W37" s="139"/>
+      <c r="X37" s="139"/>
+      <c r="Y37" s="142"/>
+      <c r="Z37" s="142"/>
+      <c r="AA37" s="142"/>
+      <c r="AB37" s="142"/>
+      <c r="AC37" s="132"/>
+      <c r="AD37" s="131"/>
+      <c r="AE37" s="131"/>
+      <c r="AF37" s="131"/>
+      <c r="AG37" s="132"/>
+      <c r="AH37" s="132"/>
+      <c r="AI37" s="132"/>
+      <c r="AJ37" s="132"/>
+      <c r="AK37" s="132"/>
+      <c r="AL37" s="132"/>
+      <c r="AM37" s="132"/>
+      <c r="AN37" s="132"/>
+      <c r="AO37" s="132"/>
+      <c r="AP37" s="132"/>
+      <c r="AQ37" s="132"/>
+      <c r="AR37" s="132"/>
+      <c r="AS37" s="132"/>
+      <c r="AT37" s="132"/>
+      <c r="AU37" s="132"/>
+      <c r="AV37" s="132"/>
+      <c r="AW37" s="132"/>
+      <c r="AX37" s="132"/>
+      <c r="AY37" s="132"/>
+      <c r="AZ37" s="132"/>
+      <c r="BA37" s="132"/>
+      <c r="BB37" s="132"/>
+      <c r="BC37" s="132"/>
+      <c r="BD37" s="132"/>
+      <c r="BE37" s="133"/>
+      <c r="BF37" s="133"/>
+      <c r="BG37" s="133"/>
+      <c r="BH37" s="133"/>
+      <c r="BI37" s="130"/>
+      <c r="BJ37" s="130"/>
+      <c r="BK37" s="130"/>
+      <c r="BL37" s="130"/>
     </row>
     <row r="38" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
         <v>659</v>
       </c>
-      <c r="C38" s="139"/>
-      <c r="D38" s="139"/>
-      <c r="E38" s="139"/>
-      <c r="F38" s="140"/>
-      <c r="G38" s="140"/>
-      <c r="H38" s="140"/>
-      <c r="I38" s="140"/>
-      <c r="J38" s="140"/>
-      <c r="K38" s="140"/>
-      <c r="L38" s="140"/>
-      <c r="M38" s="140"/>
-      <c r="N38" s="140"/>
-      <c r="O38" s="140"/>
-      <c r="P38" s="140"/>
-      <c r="Q38" s="140"/>
-      <c r="R38" s="140"/>
-      <c r="S38" s="140"/>
-      <c r="T38" s="140"/>
-      <c r="U38" s="140"/>
-      <c r="V38" s="140"/>
-      <c r="W38" s="140"/>
-      <c r="X38" s="140"/>
-      <c r="Y38" s="143"/>
-      <c r="Z38" s="143"/>
-      <c r="AA38" s="143"/>
-      <c r="AB38" s="143"/>
-      <c r="AC38" s="147"/>
-      <c r="AD38" s="150"/>
-      <c r="AE38" s="150"/>
-      <c r="AF38" s="150"/>
-      <c r="AG38" s="147"/>
-      <c r="AH38" s="147"/>
-      <c r="AI38" s="147"/>
-      <c r="AJ38" s="147"/>
-      <c r="AK38" s="147"/>
-      <c r="AL38" s="147"/>
-      <c r="AM38" s="147"/>
-      <c r="AN38" s="147"/>
-      <c r="AO38" s="147"/>
-      <c r="AP38" s="147"/>
-      <c r="AQ38" s="147"/>
-      <c r="AR38" s="147"/>
-      <c r="AS38" s="147"/>
-      <c r="AT38" s="147"/>
-      <c r="AU38" s="147"/>
-      <c r="AV38" s="147"/>
-      <c r="AW38" s="147"/>
-      <c r="AX38" s="147"/>
-      <c r="AY38" s="147"/>
-      <c r="AZ38" s="147"/>
-      <c r="BA38" s="147"/>
-      <c r="BB38" s="147"/>
-      <c r="BC38" s="147"/>
-      <c r="BD38" s="147"/>
-      <c r="BE38" s="153"/>
-      <c r="BF38" s="153"/>
-      <c r="BG38" s="153"/>
-      <c r="BH38" s="153"/>
-      <c r="BI38" s="154"/>
-      <c r="BJ38" s="154"/>
-      <c r="BK38" s="154"/>
-      <c r="BL38" s="154"/>
+      <c r="C38" s="137"/>
+      <c r="D38" s="137"/>
+      <c r="E38" s="137"/>
+      <c r="F38" s="139"/>
+      <c r="G38" s="139"/>
+      <c r="H38" s="139"/>
+      <c r="I38" s="139"/>
+      <c r="J38" s="139"/>
+      <c r="K38" s="139"/>
+      <c r="L38" s="139"/>
+      <c r="M38" s="139"/>
+      <c r="N38" s="139"/>
+      <c r="O38" s="139"/>
+      <c r="P38" s="139"/>
+      <c r="Q38" s="139"/>
+      <c r="R38" s="139"/>
+      <c r="S38" s="139"/>
+      <c r="T38" s="139"/>
+      <c r="U38" s="139"/>
+      <c r="V38" s="139"/>
+      <c r="W38" s="139"/>
+      <c r="X38" s="139"/>
+      <c r="Y38" s="142"/>
+      <c r="Z38" s="142"/>
+      <c r="AA38" s="142"/>
+      <c r="AB38" s="142"/>
+      <c r="AC38" s="132"/>
+      <c r="AD38" s="131"/>
+      <c r="AE38" s="131"/>
+      <c r="AF38" s="131"/>
+      <c r="AG38" s="132"/>
+      <c r="AH38" s="132"/>
+      <c r="AI38" s="132"/>
+      <c r="AJ38" s="132"/>
+      <c r="AK38" s="132"/>
+      <c r="AL38" s="132"/>
+      <c r="AM38" s="132"/>
+      <c r="AN38" s="132"/>
+      <c r="AO38" s="132"/>
+      <c r="AP38" s="132"/>
+      <c r="AQ38" s="132"/>
+      <c r="AR38" s="132"/>
+      <c r="AS38" s="132"/>
+      <c r="AT38" s="132"/>
+      <c r="AU38" s="132"/>
+      <c r="AV38" s="132"/>
+      <c r="AW38" s="132"/>
+      <c r="AX38" s="132"/>
+      <c r="AY38" s="132"/>
+      <c r="AZ38" s="132"/>
+      <c r="BA38" s="132"/>
+      <c r="BB38" s="132"/>
+      <c r="BC38" s="132"/>
+      <c r="BD38" s="132"/>
+      <c r="BE38" s="133"/>
+      <c r="BF38" s="133"/>
+      <c r="BG38" s="133"/>
+      <c r="BH38" s="133"/>
+      <c r="BI38" s="130"/>
+      <c r="BJ38" s="130"/>
+      <c r="BK38" s="130"/>
+      <c r="BL38" s="130"/>
     </row>
     <row r="39" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C39" s="139"/>
-      <c r="D39" s="139"/>
-      <c r="E39" s="139"/>
-      <c r="F39" s="140"/>
-      <c r="G39" s="140"/>
-      <c r="H39" s="140"/>
-      <c r="I39" s="140"/>
-      <c r="J39" s="140"/>
-      <c r="K39" s="140"/>
-      <c r="L39" s="140"/>
-      <c r="M39" s="140"/>
-      <c r="N39" s="140"/>
-      <c r="O39" s="140"/>
-      <c r="P39" s="140"/>
-      <c r="Q39" s="140"/>
-      <c r="R39" s="140"/>
-      <c r="S39" s="140"/>
-      <c r="T39" s="140"/>
-      <c r="U39" s="140"/>
-      <c r="V39" s="140"/>
-      <c r="W39" s="140"/>
-      <c r="X39" s="140"/>
-      <c r="Y39" s="143"/>
-      <c r="Z39" s="143"/>
-      <c r="AA39" s="143"/>
-      <c r="AB39" s="143"/>
-      <c r="AC39" s="147"/>
-      <c r="AD39" s="150"/>
-      <c r="AE39" s="150"/>
-      <c r="AF39" s="150"/>
-      <c r="AG39" s="147"/>
-      <c r="AH39" s="147"/>
-      <c r="AI39" s="147"/>
-      <c r="AJ39" s="147"/>
-      <c r="AK39" s="147"/>
-      <c r="AL39" s="147"/>
-      <c r="AM39" s="147"/>
-      <c r="AN39" s="147"/>
-      <c r="AO39" s="147"/>
-      <c r="AP39" s="147"/>
-      <c r="AQ39" s="147"/>
-      <c r="AR39" s="147"/>
-      <c r="AS39" s="147"/>
-      <c r="AT39" s="147"/>
-      <c r="AU39" s="147"/>
-      <c r="AV39" s="147"/>
-      <c r="AW39" s="147"/>
-      <c r="AX39" s="147"/>
-      <c r="AY39" s="147"/>
-      <c r="AZ39" s="147"/>
-      <c r="BA39" s="147"/>
-      <c r="BB39" s="147"/>
-      <c r="BC39" s="147"/>
-      <c r="BD39" s="147"/>
-      <c r="BE39" s="153"/>
-      <c r="BF39" s="153"/>
-      <c r="BG39" s="153"/>
-      <c r="BH39" s="153"/>
-      <c r="BI39" s="154"/>
-      <c r="BJ39" s="154"/>
-      <c r="BK39" s="154"/>
-      <c r="BL39" s="154"/>
+      <c r="C39" s="137"/>
+      <c r="D39" s="137"/>
+      <c r="E39" s="137"/>
+      <c r="F39" s="139"/>
+      <c r="G39" s="139"/>
+      <c r="H39" s="139"/>
+      <c r="I39" s="139"/>
+      <c r="J39" s="139"/>
+      <c r="K39" s="139"/>
+      <c r="L39" s="139"/>
+      <c r="M39" s="139"/>
+      <c r="N39" s="139"/>
+      <c r="O39" s="139"/>
+      <c r="P39" s="139"/>
+      <c r="Q39" s="139"/>
+      <c r="R39" s="139"/>
+      <c r="S39" s="139"/>
+      <c r="T39" s="139"/>
+      <c r="U39" s="139"/>
+      <c r="V39" s="139"/>
+      <c r="W39" s="139"/>
+      <c r="X39" s="139"/>
+      <c r="Y39" s="142"/>
+      <c r="Z39" s="142"/>
+      <c r="AA39" s="142"/>
+      <c r="AB39" s="142"/>
+      <c r="AC39" s="132"/>
+      <c r="AD39" s="131"/>
+      <c r="AE39" s="131"/>
+      <c r="AF39" s="131"/>
+      <c r="AG39" s="132"/>
+      <c r="AH39" s="132"/>
+      <c r="AI39" s="132"/>
+      <c r="AJ39" s="132"/>
+      <c r="AK39" s="132"/>
+      <c r="AL39" s="132"/>
+      <c r="AM39" s="132"/>
+      <c r="AN39" s="132"/>
+      <c r="AO39" s="132"/>
+      <c r="AP39" s="132"/>
+      <c r="AQ39" s="132"/>
+      <c r="AR39" s="132"/>
+      <c r="AS39" s="132"/>
+      <c r="AT39" s="132"/>
+      <c r="AU39" s="132"/>
+      <c r="AV39" s="132"/>
+      <c r="AW39" s="132"/>
+      <c r="AX39" s="132"/>
+      <c r="AY39" s="132"/>
+      <c r="AZ39" s="132"/>
+      <c r="BA39" s="132"/>
+      <c r="BB39" s="132"/>
+      <c r="BC39" s="132"/>
+      <c r="BD39" s="132"/>
+      <c r="BE39" s="133"/>
+      <c r="BF39" s="133"/>
+      <c r="BG39" s="133"/>
+      <c r="BH39" s="133"/>
+      <c r="BI39" s="130"/>
+      <c r="BJ39" s="130"/>
+      <c r="BK39" s="130"/>
+      <c r="BL39" s="130"/>
     </row>
     <row r="40" spans="1:64" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F40" s="140" t="s">
+      <c r="F40" s="139" t="s">
         <v>546</v>
       </c>
-      <c r="G40" s="140"/>
-      <c r="H40" s="140"/>
-      <c r="I40" s="140"/>
-      <c r="J40" s="140" t="s">
+      <c r="G40" s="139"/>
+      <c r="H40" s="139"/>
+      <c r="I40" s="139"/>
+      <c r="J40" s="139" t="s">
         <v>79</v>
       </c>
-      <c r="K40" s="140"/>
-      <c r="L40" s="140"/>
-      <c r="M40" s="140"/>
-      <c r="N40" s="142" t="s">
+      <c r="K40" s="139"/>
+      <c r="L40" s="139"/>
+      <c r="M40" s="139"/>
+      <c r="N40" s="144" t="s">
         <v>107</v>
       </c>
-      <c r="O40" s="142"/>
-      <c r="P40" s="142"/>
-      <c r="Q40" s="140"/>
-      <c r="R40" s="140" t="s">
+      <c r="O40" s="144"/>
+      <c r="P40" s="144"/>
+      <c r="Q40" s="139"/>
+      <c r="R40" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="S40" s="140"/>
-      <c r="T40" s="140"/>
-      <c r="U40" s="140"/>
-      <c r="V40" s="140" t="s">
+      <c r="S40" s="139"/>
+      <c r="T40" s="139"/>
+      <c r="U40" s="139"/>
+      <c r="V40" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="W40" s="140"/>
-      <c r="X40" s="140"/>
-      <c r="Y40" s="143"/>
-      <c r="Z40" s="143" t="s">
+      <c r="W40" s="139"/>
+      <c r="X40" s="139"/>
+      <c r="Y40" s="142"/>
+      <c r="Z40" s="142" t="s">
         <v>81</v>
       </c>
-      <c r="AA40" s="143"/>
-      <c r="AB40" s="143"/>
-      <c r="AC40" s="147"/>
-      <c r="AD40" s="147" t="s">
+      <c r="AA40" s="142"/>
+      <c r="AB40" s="142"/>
+      <c r="AC40" s="132"/>
+      <c r="AD40" s="132" t="s">
         <v>97</v>
       </c>
-      <c r="AE40" s="147"/>
-      <c r="AF40" s="147"/>
-      <c r="AG40" s="147"/>
-      <c r="AH40" s="149" t="s">
+      <c r="AE40" s="132"/>
+      <c r="AF40" s="132"/>
+      <c r="AG40" s="132"/>
+      <c r="AH40" s="143" t="s">
         <v>103</v>
       </c>
-      <c r="AI40" s="150"/>
-      <c r="AJ40" s="150"/>
-      <c r="AK40" s="147"/>
-      <c r="AL40" s="151"/>
-      <c r="AM40" s="151"/>
-      <c r="AN40" s="151"/>
-      <c r="AO40" s="147"/>
-      <c r="AP40" s="151" t="s">
+      <c r="AI40" s="131"/>
+      <c r="AJ40" s="131"/>
+      <c r="AK40" s="132"/>
+      <c r="AL40" s="134"/>
+      <c r="AM40" s="134"/>
+      <c r="AN40" s="134"/>
+      <c r="AO40" s="132"/>
+      <c r="AP40" s="134" t="s">
         <v>99</v>
       </c>
-      <c r="AQ40" s="151"/>
-      <c r="AR40" s="151"/>
-      <c r="AS40" s="147"/>
-      <c r="AT40" s="147" t="s">
+      <c r="AQ40" s="134"/>
+      <c r="AR40" s="134"/>
+      <c r="AS40" s="132"/>
+      <c r="AT40" s="132" t="s">
         <v>98</v>
       </c>
-      <c r="AU40" s="147"/>
-      <c r="AV40" s="147"/>
-      <c r="AW40" s="147"/>
-      <c r="AX40" s="147" t="s">
+      <c r="AU40" s="132"/>
+      <c r="AV40" s="132"/>
+      <c r="AW40" s="132"/>
+      <c r="AX40" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="AY40" s="147"/>
-      <c r="AZ40" s="147"/>
-      <c r="BA40" s="147"/>
-      <c r="BB40" s="150" t="s">
+      <c r="AY40" s="132"/>
+      <c r="AZ40" s="132"/>
+      <c r="BA40" s="132"/>
+      <c r="BB40" s="131" t="s">
         <v>215</v>
       </c>
-      <c r="BC40" s="150"/>
-      <c r="BD40" s="150"/>
-      <c r="BE40" s="153"/>
-      <c r="BF40" s="153"/>
-      <c r="BG40" s="153"/>
-      <c r="BH40" s="153"/>
-      <c r="BI40" s="154"/>
-      <c r="BJ40" s="154"/>
-      <c r="BK40" s="154"/>
-      <c r="BL40" s="154"/>
+      <c r="BC40" s="131"/>
+      <c r="BD40" s="131"/>
+      <c r="BE40" s="133"/>
+      <c r="BF40" s="133"/>
+      <c r="BG40" s="133"/>
+      <c r="BH40" s="133"/>
+      <c r="BI40" s="130"/>
+      <c r="BJ40" s="130"/>
+      <c r="BK40" s="130"/>
+      <c r="BL40" s="130"/>
     </row>
     <row r="41" spans="1:64" x14ac:dyDescent="0.15">
-      <c r="F41" s="145" t="s">
+      <c r="F41" s="135" t="s">
         <v>146</v>
       </c>
-      <c r="G41" s="145"/>
-      <c r="H41" s="145"/>
-      <c r="I41" s="145"/>
-      <c r="J41" s="145"/>
-      <c r="K41" s="145"/>
-      <c r="L41" s="145"/>
-      <c r="M41" s="145"/>
-      <c r="N41" s="145"/>
-      <c r="O41" s="145"/>
-      <c r="P41" s="145"/>
-      <c r="Q41" s="145"/>
-      <c r="R41" s="145"/>
-      <c r="S41" s="145"/>
-      <c r="T41" s="145"/>
-      <c r="U41" s="145"/>
-      <c r="V41" s="145"/>
-      <c r="W41" s="145"/>
-      <c r="X41" s="145"/>
-      <c r="Y41" s="141" t="s">
+      <c r="G41" s="135"/>
+      <c r="H41" s="135"/>
+      <c r="I41" s="135"/>
+      <c r="J41" s="135"/>
+      <c r="K41" s="135"/>
+      <c r="L41" s="135"/>
+      <c r="M41" s="135"/>
+      <c r="N41" s="135"/>
+      <c r="O41" s="135"/>
+      <c r="P41" s="135"/>
+      <c r="Q41" s="135"/>
+      <c r="R41" s="135"/>
+      <c r="S41" s="135"/>
+      <c r="T41" s="135"/>
+      <c r="U41" s="135"/>
+      <c r="V41" s="135"/>
+      <c r="W41" s="135"/>
+      <c r="X41" s="135"/>
+      <c r="Y41" s="146" t="s">
         <v>148</v>
       </c>
-      <c r="Z41" s="141"/>
-      <c r="AA41" s="141"/>
-      <c r="AB41" s="141"/>
-      <c r="AC41" s="150" t="s">
+      <c r="Z41" s="146"/>
+      <c r="AA41" s="146"/>
+      <c r="AB41" s="146"/>
+      <c r="AC41" s="131" t="s">
         <v>145</v>
       </c>
-      <c r="AD41" s="150"/>
-      <c r="AE41" s="150"/>
-      <c r="AF41" s="150"/>
-      <c r="AG41" s="150"/>
-      <c r="AH41" s="150"/>
-      <c r="AI41" s="150"/>
-      <c r="AJ41" s="150"/>
-      <c r="AK41" s="150"/>
-      <c r="AL41" s="150"/>
-      <c r="AM41" s="150"/>
-      <c r="AN41" s="150"/>
-      <c r="AO41" s="150"/>
-      <c r="AP41" s="150"/>
-      <c r="AQ41" s="150"/>
-      <c r="AR41" s="150"/>
-      <c r="AS41" s="150"/>
-      <c r="AT41" s="150"/>
-      <c r="AU41" s="150"/>
-      <c r="AV41" s="150"/>
-      <c r="AW41" s="150"/>
-      <c r="AX41" s="150"/>
-      <c r="AY41" s="150"/>
-      <c r="AZ41" s="150"/>
-      <c r="BA41" s="150"/>
-      <c r="BB41" s="150"/>
-      <c r="BC41" s="150"/>
-      <c r="BD41" s="150"/>
-      <c r="BE41" s="153" t="s">
+      <c r="AD41" s="131"/>
+      <c r="AE41" s="131"/>
+      <c r="AF41" s="131"/>
+      <c r="AG41" s="131"/>
+      <c r="AH41" s="131"/>
+      <c r="AI41" s="131"/>
+      <c r="AJ41" s="131"/>
+      <c r="AK41" s="131"/>
+      <c r="AL41" s="131"/>
+      <c r="AM41" s="131"/>
+      <c r="AN41" s="131"/>
+      <c r="AO41" s="131"/>
+      <c r="AP41" s="131"/>
+      <c r="AQ41" s="131"/>
+      <c r="AR41" s="131"/>
+      <c r="AS41" s="131"/>
+      <c r="AT41" s="131"/>
+      <c r="AU41" s="131"/>
+      <c r="AV41" s="131"/>
+      <c r="AW41" s="131"/>
+      <c r="AX41" s="131"/>
+      <c r="AY41" s="131"/>
+      <c r="AZ41" s="131"/>
+      <c r="BA41" s="131"/>
+      <c r="BB41" s="131"/>
+      <c r="BC41" s="131"/>
+      <c r="BD41" s="131"/>
+      <c r="BE41" s="133" t="s">
         <v>444</v>
       </c>
-      <c r="BF41" s="153"/>
-      <c r="BG41" s="153"/>
-      <c r="BH41" s="153"/>
-      <c r="BI41" s="154" t="s">
+      <c r="BF41" s="133"/>
+      <c r="BG41" s="133"/>
+      <c r="BH41" s="133"/>
+      <c r="BI41" s="130" t="s">
         <v>791</v>
       </c>
-      <c r="BJ41" s="154"/>
-      <c r="BK41" s="154"/>
-      <c r="BL41" s="154"/>
+      <c r="BJ41" s="130"/>
+      <c r="BK41" s="130"/>
+      <c r="BL41" s="130"/>
     </row>
     <row r="42" spans="1:64" x14ac:dyDescent="0.15">
       <c r="F42" s="13"/>
@@ -23974,326 +24011,326 @@
       <c r="BK44" s="6"/>
     </row>
     <row r="45" spans="1:64" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C45" s="138" t="s">
+      <c r="C45" s="136" t="s">
         <v>112</v>
       </c>
-      <c r="D45" s="139"/>
-      <c r="E45" s="139"/>
-      <c r="F45" s="144" t="s">
+      <c r="D45" s="137"/>
+      <c r="E45" s="137"/>
+      <c r="F45" s="138" t="s">
         <v>666</v>
       </c>
-      <c r="G45" s="140"/>
-      <c r="H45" s="140"/>
-      <c r="I45" s="140" t="s">
+      <c r="G45" s="139"/>
+      <c r="H45" s="139"/>
+      <c r="I45" s="139" t="s">
         <v>113</v>
       </c>
-      <c r="J45" s="146" t="s">
+      <c r="J45" s="140" t="s">
         <v>117</v>
       </c>
-      <c r="K45" s="152"/>
-      <c r="L45" s="152"/>
-      <c r="M45" s="140" t="s">
+      <c r="K45" s="141"/>
+      <c r="L45" s="141"/>
+      <c r="M45" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="N45" s="140" t="s">
+      <c r="N45" s="139" t="s">
         <v>529</v>
       </c>
-      <c r="O45" s="140"/>
-      <c r="P45" s="140"/>
-      <c r="Q45" s="140" t="s">
+      <c r="O45" s="139"/>
+      <c r="P45" s="139"/>
+      <c r="Q45" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="R45" s="145" t="s">
+      <c r="R45" s="135" t="s">
         <v>530</v>
       </c>
-      <c r="S45" s="145"/>
-      <c r="T45" s="145"/>
-      <c r="U45" s="143" t="s">
+      <c r="S45" s="135"/>
+      <c r="T45" s="135"/>
+      <c r="U45" s="142" t="s">
         <v>113</v>
       </c>
-      <c r="V45" s="143" t="s">
+      <c r="V45" s="142" t="s">
         <v>531</v>
       </c>
-      <c r="W45" s="143"/>
-      <c r="X45" s="143"/>
-      <c r="Y45" s="147" t="s">
+      <c r="W45" s="142"/>
+      <c r="X45" s="142"/>
+      <c r="Y45" s="132" t="s">
         <v>78</v>
       </c>
-      <c r="Z45" s="147">
+      <c r="Z45" s="132">
         <v>1</v>
       </c>
-      <c r="AA45" s="147"/>
-      <c r="AB45" s="147"/>
-      <c r="AC45" s="147" t="s">
+      <c r="AA45" s="132"/>
+      <c r="AB45" s="132"/>
+      <c r="AC45" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="AD45" s="147" t="s">
+      <c r="AD45" s="132" t="s">
         <v>532</v>
       </c>
-      <c r="AE45" s="147"/>
-      <c r="AF45" s="147"/>
-      <c r="AG45" s="147" t="s">
+      <c r="AE45" s="132"/>
+      <c r="AF45" s="132"/>
+      <c r="AG45" s="132" t="s">
         <v>149</v>
       </c>
-      <c r="AH45" s="147" t="s">
+      <c r="AH45" s="132" t="s">
         <v>527</v>
       </c>
-      <c r="AI45" s="147"/>
-      <c r="AJ45" s="147"/>
-      <c r="AK45" s="147" t="s">
+      <c r="AI45" s="132"/>
+      <c r="AJ45" s="132"/>
+      <c r="AK45" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="AL45" s="147" t="s">
+      <c r="AL45" s="132" t="s">
         <v>525</v>
       </c>
-      <c r="AM45" s="147"/>
-      <c r="AN45" s="147"/>
-      <c r="AO45" s="147" t="s">
+      <c r="AM45" s="132"/>
+      <c r="AN45" s="132"/>
+      <c r="AO45" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="AP45" s="147" t="s">
+      <c r="AP45" s="132" t="s">
         <v>522</v>
       </c>
-      <c r="AQ45" s="147"/>
-      <c r="AR45" s="147"/>
+      <c r="AQ45" s="132"/>
+      <c r="AR45" s="132"/>
     </row>
     <row r="46" spans="1:64" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C46" s="139"/>
-      <c r="D46" s="139"/>
-      <c r="E46" s="139"/>
-      <c r="F46" s="140"/>
-      <c r="G46" s="140"/>
-      <c r="H46" s="140"/>
-      <c r="I46" s="140"/>
-      <c r="J46" s="152"/>
-      <c r="K46" s="152"/>
-      <c r="L46" s="152"/>
-      <c r="M46" s="140"/>
-      <c r="N46" s="140"/>
-      <c r="O46" s="140"/>
-      <c r="P46" s="140"/>
-      <c r="Q46" s="140"/>
-      <c r="R46" s="145"/>
-      <c r="S46" s="145"/>
-      <c r="T46" s="145"/>
-      <c r="U46" s="143"/>
-      <c r="V46" s="143"/>
-      <c r="W46" s="143"/>
-      <c r="X46" s="143"/>
-      <c r="Y46" s="147"/>
-      <c r="Z46" s="147"/>
-      <c r="AA46" s="147"/>
-      <c r="AB46" s="147"/>
-      <c r="AC46" s="147"/>
-      <c r="AD46" s="147"/>
-      <c r="AE46" s="147"/>
-      <c r="AF46" s="147"/>
-      <c r="AG46" s="147"/>
-      <c r="AH46" s="147"/>
-      <c r="AI46" s="147"/>
-      <c r="AJ46" s="147"/>
-      <c r="AK46" s="147"/>
-      <c r="AL46" s="147"/>
-      <c r="AM46" s="147"/>
-      <c r="AN46" s="147"/>
-      <c r="AO46" s="147"/>
-      <c r="AP46" s="147"/>
-      <c r="AQ46" s="147"/>
-      <c r="AR46" s="147"/>
+      <c r="C46" s="137"/>
+      <c r="D46" s="137"/>
+      <c r="E46" s="137"/>
+      <c r="F46" s="139"/>
+      <c r="G46" s="139"/>
+      <c r="H46" s="139"/>
+      <c r="I46" s="139"/>
+      <c r="J46" s="141"/>
+      <c r="K46" s="141"/>
+      <c r="L46" s="141"/>
+      <c r="M46" s="139"/>
+      <c r="N46" s="139"/>
+      <c r="O46" s="139"/>
+      <c r="P46" s="139"/>
+      <c r="Q46" s="139"/>
+      <c r="R46" s="135"/>
+      <c r="S46" s="135"/>
+      <c r="T46" s="135"/>
+      <c r="U46" s="142"/>
+      <c r="V46" s="142"/>
+      <c r="W46" s="142"/>
+      <c r="X46" s="142"/>
+      <c r="Y46" s="132"/>
+      <c r="Z46" s="132"/>
+      <c r="AA46" s="132"/>
+      <c r="AB46" s="132"/>
+      <c r="AC46" s="132"/>
+      <c r="AD46" s="132"/>
+      <c r="AE46" s="132"/>
+      <c r="AF46" s="132"/>
+      <c r="AG46" s="132"/>
+      <c r="AH46" s="132"/>
+      <c r="AI46" s="132"/>
+      <c r="AJ46" s="132"/>
+      <c r="AK46" s="132"/>
+      <c r="AL46" s="132"/>
+      <c r="AM46" s="132"/>
+      <c r="AN46" s="132"/>
+      <c r="AO46" s="132"/>
+      <c r="AP46" s="132"/>
+      <c r="AQ46" s="132"/>
+      <c r="AR46" s="132"/>
     </row>
     <row r="47" spans="1:64" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C47" s="139"/>
-      <c r="D47" s="139"/>
-      <c r="E47" s="139"/>
-      <c r="F47" s="140"/>
-      <c r="G47" s="140"/>
-      <c r="H47" s="140"/>
-      <c r="I47" s="140"/>
-      <c r="J47" s="152"/>
-      <c r="K47" s="152"/>
-      <c r="L47" s="152"/>
-      <c r="M47" s="140"/>
-      <c r="N47" s="140"/>
-      <c r="O47" s="140"/>
-      <c r="P47" s="140"/>
-      <c r="Q47" s="140"/>
-      <c r="R47" s="145"/>
-      <c r="S47" s="145"/>
-      <c r="T47" s="145"/>
-      <c r="U47" s="143"/>
-      <c r="V47" s="143"/>
-      <c r="W47" s="143"/>
-      <c r="X47" s="143"/>
-      <c r="Y47" s="147"/>
-      <c r="Z47" s="147"/>
-      <c r="AA47" s="147"/>
-      <c r="AB47" s="147"/>
-      <c r="AC47" s="147"/>
-      <c r="AD47" s="147"/>
-      <c r="AE47" s="147"/>
-      <c r="AF47" s="147"/>
-      <c r="AG47" s="147"/>
-      <c r="AH47" s="147"/>
-      <c r="AI47" s="147"/>
-      <c r="AJ47" s="147"/>
-      <c r="AK47" s="147"/>
-      <c r="AL47" s="147"/>
-      <c r="AM47" s="147"/>
-      <c r="AN47" s="147"/>
-      <c r="AO47" s="147"/>
-      <c r="AP47" s="147"/>
-      <c r="AQ47" s="147"/>
-      <c r="AR47" s="147"/>
+      <c r="C47" s="137"/>
+      <c r="D47" s="137"/>
+      <c r="E47" s="137"/>
+      <c r="F47" s="139"/>
+      <c r="G47" s="139"/>
+      <c r="H47" s="139"/>
+      <c r="I47" s="139"/>
+      <c r="J47" s="141"/>
+      <c r="K47" s="141"/>
+      <c r="L47" s="141"/>
+      <c r="M47" s="139"/>
+      <c r="N47" s="139"/>
+      <c r="O47" s="139"/>
+      <c r="P47" s="139"/>
+      <c r="Q47" s="139"/>
+      <c r="R47" s="135"/>
+      <c r="S47" s="135"/>
+      <c r="T47" s="135"/>
+      <c r="U47" s="142"/>
+      <c r="V47" s="142"/>
+      <c r="W47" s="142"/>
+      <c r="X47" s="142"/>
+      <c r="Y47" s="132"/>
+      <c r="Z47" s="132"/>
+      <c r="AA47" s="132"/>
+      <c r="AB47" s="132"/>
+      <c r="AC47" s="132"/>
+      <c r="AD47" s="132"/>
+      <c r="AE47" s="132"/>
+      <c r="AF47" s="132"/>
+      <c r="AG47" s="132"/>
+      <c r="AH47" s="132"/>
+      <c r="AI47" s="132"/>
+      <c r="AJ47" s="132"/>
+      <c r="AK47" s="132"/>
+      <c r="AL47" s="132"/>
+      <c r="AM47" s="132"/>
+      <c r="AN47" s="132"/>
+      <c r="AO47" s="132"/>
+      <c r="AP47" s="132"/>
+      <c r="AQ47" s="132"/>
+      <c r="AR47" s="132"/>
     </row>
     <row r="48" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C48" s="139"/>
-      <c r="D48" s="139"/>
-      <c r="E48" s="139"/>
-      <c r="F48" s="140"/>
-      <c r="G48" s="140"/>
-      <c r="H48" s="140"/>
-      <c r="I48" s="140"/>
-      <c r="J48" s="152"/>
-      <c r="K48" s="152"/>
-      <c r="L48" s="152"/>
-      <c r="M48" s="140"/>
-      <c r="N48" s="140"/>
-      <c r="O48" s="140"/>
-      <c r="P48" s="140"/>
-      <c r="Q48" s="140"/>
-      <c r="R48" s="145"/>
-      <c r="S48" s="145"/>
-      <c r="T48" s="145"/>
-      <c r="U48" s="143"/>
-      <c r="V48" s="143"/>
-      <c r="W48" s="143"/>
-      <c r="X48" s="143"/>
-      <c r="Y48" s="147"/>
-      <c r="Z48" s="147"/>
-      <c r="AA48" s="147"/>
-      <c r="AB48" s="147"/>
-      <c r="AC48" s="147"/>
-      <c r="AD48" s="147"/>
-      <c r="AE48" s="147"/>
-      <c r="AF48" s="147"/>
-      <c r="AG48" s="147"/>
-      <c r="AH48" s="147"/>
-      <c r="AI48" s="147"/>
-      <c r="AJ48" s="147"/>
-      <c r="AK48" s="147"/>
-      <c r="AL48" s="147"/>
-      <c r="AM48" s="147"/>
-      <c r="AN48" s="147"/>
-      <c r="AO48" s="147"/>
-      <c r="AP48" s="147"/>
-      <c r="AQ48" s="147"/>
-      <c r="AR48" s="147"/>
+      <c r="C48" s="137"/>
+      <c r="D48" s="137"/>
+      <c r="E48" s="137"/>
+      <c r="F48" s="139"/>
+      <c r="G48" s="139"/>
+      <c r="H48" s="139"/>
+      <c r="I48" s="139"/>
+      <c r="J48" s="141"/>
+      <c r="K48" s="141"/>
+      <c r="L48" s="141"/>
+      <c r="M48" s="139"/>
+      <c r="N48" s="139"/>
+      <c r="O48" s="139"/>
+      <c r="P48" s="139"/>
+      <c r="Q48" s="139"/>
+      <c r="R48" s="135"/>
+      <c r="S48" s="135"/>
+      <c r="T48" s="135"/>
+      <c r="U48" s="142"/>
+      <c r="V48" s="142"/>
+      <c r="W48" s="142"/>
+      <c r="X48" s="142"/>
+      <c r="Y48" s="132"/>
+      <c r="Z48" s="132"/>
+      <c r="AA48" s="132"/>
+      <c r="AB48" s="132"/>
+      <c r="AC48" s="132"/>
+      <c r="AD48" s="132"/>
+      <c r="AE48" s="132"/>
+      <c r="AF48" s="132"/>
+      <c r="AG48" s="132"/>
+      <c r="AH48" s="132"/>
+      <c r="AI48" s="132"/>
+      <c r="AJ48" s="132"/>
+      <c r="AK48" s="132"/>
+      <c r="AL48" s="132"/>
+      <c r="AM48" s="132"/>
+      <c r="AN48" s="132"/>
+      <c r="AO48" s="132"/>
+      <c r="AP48" s="132"/>
+      <c r="AQ48" s="132"/>
+      <c r="AR48" s="132"/>
     </row>
     <row r="49" spans="3:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F49" s="140" t="s">
+      <c r="F49" s="139" t="s">
         <v>546</v>
       </c>
-      <c r="G49" s="140"/>
-      <c r="H49" s="140"/>
-      <c r="I49" s="140"/>
-      <c r="J49" s="142" t="s">
+      <c r="G49" s="139"/>
+      <c r="H49" s="139"/>
+      <c r="I49" s="139"/>
+      <c r="J49" s="144" t="s">
         <v>107</v>
       </c>
-      <c r="K49" s="142"/>
-      <c r="L49" s="142"/>
-      <c r="M49" s="140"/>
-      <c r="N49" s="140" t="s">
+      <c r="K49" s="144"/>
+      <c r="L49" s="144"/>
+      <c r="M49" s="139"/>
+      <c r="N49" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="O49" s="140"/>
-      <c r="P49" s="140"/>
-      <c r="Q49" s="140"/>
-      <c r="R49" s="145" t="s">
+      <c r="O49" s="139"/>
+      <c r="P49" s="139"/>
+      <c r="Q49" s="139"/>
+      <c r="R49" s="135" t="s">
         <v>116</v>
       </c>
-      <c r="S49" s="145"/>
-      <c r="T49" s="145"/>
-      <c r="U49" s="143"/>
-      <c r="V49" s="143" t="s">
+      <c r="S49" s="135"/>
+      <c r="T49" s="135"/>
+      <c r="U49" s="142"/>
+      <c r="V49" s="142" t="s">
         <v>114</v>
       </c>
-      <c r="W49" s="143"/>
-      <c r="X49" s="143"/>
-      <c r="Y49" s="147"/>
-      <c r="Z49" s="147"/>
-      <c r="AA49" s="147"/>
-      <c r="AB49" s="147"/>
-      <c r="AC49" s="147"/>
-      <c r="AD49" s="147" t="s">
+      <c r="W49" s="142"/>
+      <c r="X49" s="142"/>
+      <c r="Y49" s="132"/>
+      <c r="Z49" s="132"/>
+      <c r="AA49" s="132"/>
+      <c r="AB49" s="132"/>
+      <c r="AC49" s="132"/>
+      <c r="AD49" s="132" t="s">
         <v>98</v>
       </c>
-      <c r="AE49" s="147"/>
-      <c r="AF49" s="147"/>
-      <c r="AG49" s="147"/>
-      <c r="AH49" s="147" t="s">
+      <c r="AE49" s="132"/>
+      <c r="AF49" s="132"/>
+      <c r="AG49" s="132"/>
+      <c r="AH49" s="132" t="s">
         <v>99</v>
       </c>
-      <c r="AI49" s="147"/>
-      <c r="AJ49" s="147"/>
-      <c r="AK49" s="147"/>
-      <c r="AL49" s="147" t="s">
+      <c r="AI49" s="132"/>
+      <c r="AJ49" s="132"/>
+      <c r="AK49" s="132"/>
+      <c r="AL49" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="AM49" s="147"/>
-      <c r="AN49" s="147"/>
-      <c r="AO49" s="147"/>
-      <c r="AP49" s="150" t="s">
+      <c r="AM49" s="132"/>
+      <c r="AN49" s="132"/>
+      <c r="AO49" s="132"/>
+      <c r="AP49" s="131" t="s">
         <v>215</v>
       </c>
-      <c r="AQ49" s="150"/>
-      <c r="AR49" s="150"/>
+      <c r="AQ49" s="131"/>
+      <c r="AR49" s="131"/>
     </row>
     <row r="50" spans="3:54" x14ac:dyDescent="0.15">
-      <c r="F50" s="145" t="s">
+      <c r="F50" s="135" t="s">
         <v>146</v>
       </c>
-      <c r="G50" s="145"/>
-      <c r="H50" s="145"/>
-      <c r="I50" s="145"/>
-      <c r="J50" s="145"/>
-      <c r="K50" s="145"/>
-      <c r="L50" s="145"/>
-      <c r="M50" s="145"/>
-      <c r="N50" s="145"/>
-      <c r="O50" s="145"/>
-      <c r="P50" s="145"/>
-      <c r="Q50" s="145"/>
-      <c r="R50" s="145"/>
-      <c r="S50" s="145"/>
-      <c r="T50" s="145"/>
-      <c r="U50" s="141" t="s">
+      <c r="G50" s="135"/>
+      <c r="H50" s="135"/>
+      <c r="I50" s="135"/>
+      <c r="J50" s="135"/>
+      <c r="K50" s="135"/>
+      <c r="L50" s="135"/>
+      <c r="M50" s="135"/>
+      <c r="N50" s="135"/>
+      <c r="O50" s="135"/>
+      <c r="P50" s="135"/>
+      <c r="Q50" s="135"/>
+      <c r="R50" s="135"/>
+      <c r="S50" s="135"/>
+      <c r="T50" s="135"/>
+      <c r="U50" s="146" t="s">
         <v>148</v>
       </c>
-      <c r="V50" s="141"/>
-      <c r="W50" s="141"/>
-      <c r="X50" s="141"/>
-      <c r="Y50" s="150" t="s">
+      <c r="V50" s="146"/>
+      <c r="W50" s="146"/>
+      <c r="X50" s="146"/>
+      <c r="Y50" s="131" t="s">
         <v>145</v>
       </c>
-      <c r="Z50" s="150"/>
-      <c r="AA50" s="150"/>
-      <c r="AB50" s="150"/>
-      <c r="AC50" s="150"/>
-      <c r="AD50" s="150"/>
-      <c r="AE50" s="150"/>
-      <c r="AF50" s="150"/>
-      <c r="AG50" s="150"/>
-      <c r="AH50" s="150"/>
-      <c r="AI50" s="150"/>
-      <c r="AJ50" s="150"/>
-      <c r="AK50" s="150"/>
-      <c r="AL50" s="150"/>
-      <c r="AM50" s="150"/>
-      <c r="AN50" s="150"/>
-      <c r="AO50" s="150"/>
-      <c r="AP50" s="150"/>
-      <c r="AQ50" s="150"/>
-      <c r="AR50" s="150"/>
+      <c r="Z50" s="131"/>
+      <c r="AA50" s="131"/>
+      <c r="AB50" s="131"/>
+      <c r="AC50" s="131"/>
+      <c r="AD50" s="131"/>
+      <c r="AE50" s="131"/>
+      <c r="AF50" s="131"/>
+      <c r="AG50" s="131"/>
+      <c r="AH50" s="131"/>
+      <c r="AI50" s="131"/>
+      <c r="AJ50" s="131"/>
+      <c r="AK50" s="131"/>
+      <c r="AL50" s="131"/>
+      <c r="AM50" s="131"/>
+      <c r="AN50" s="131"/>
+      <c r="AO50" s="131"/>
+      <c r="AP50" s="131"/>
+      <c r="AQ50" s="131"/>
+      <c r="AR50" s="131"/>
     </row>
     <row r="51" spans="3:54" x14ac:dyDescent="0.15">
       <c r="AW51" s="3"/>
@@ -24405,6 +24442,105 @@
     </row>
   </sheetData>
   <mergeCells count="123">
+    <mergeCell ref="C28:E31"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="Y41:AB41"/>
+    <mergeCell ref="U50:X50"/>
+    <mergeCell ref="F33:Y33"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="AA32:AC32"/>
+    <mergeCell ref="Z28:Z32"/>
+    <mergeCell ref="AA28:AC31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="J28:L31"/>
+    <mergeCell ref="I28:I32"/>
+    <mergeCell ref="F28:H31"/>
+    <mergeCell ref="Z33:AC33"/>
+    <mergeCell ref="F50:T50"/>
+    <mergeCell ref="I36:I40"/>
+    <mergeCell ref="J36:L39"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="N28:N32"/>
+    <mergeCell ref="O28:Q31"/>
+    <mergeCell ref="R28:R32"/>
+    <mergeCell ref="S28:U31"/>
+    <mergeCell ref="V28:V32"/>
+    <mergeCell ref="W28:Y31"/>
+    <mergeCell ref="M36:M40"/>
+    <mergeCell ref="N36:P39"/>
+    <mergeCell ref="Q36:Q40"/>
+    <mergeCell ref="R36:T39"/>
+    <mergeCell ref="U36:U40"/>
+    <mergeCell ref="V36:X39"/>
+    <mergeCell ref="Y36:Y40"/>
+    <mergeCell ref="BA36:BA40"/>
+    <mergeCell ref="AG36:AG40"/>
+    <mergeCell ref="AH36:AJ39"/>
+    <mergeCell ref="AK36:AK40"/>
+    <mergeCell ref="AL36:AN39"/>
+    <mergeCell ref="AO36:AO40"/>
+    <mergeCell ref="AP36:AR39"/>
+    <mergeCell ref="AH40:AJ40"/>
+    <mergeCell ref="AL40:AN40"/>
+    <mergeCell ref="AP40:AR40"/>
+    <mergeCell ref="AS36:AS40"/>
+    <mergeCell ref="AK45:AK49"/>
+    <mergeCell ref="AL45:AN48"/>
+    <mergeCell ref="AO45:AO49"/>
+    <mergeCell ref="AP45:AR48"/>
+    <mergeCell ref="Z49:AB49"/>
+    <mergeCell ref="Y45:Y49"/>
+    <mergeCell ref="Z45:AB48"/>
+    <mergeCell ref="AC45:AC49"/>
+    <mergeCell ref="AX36:AZ39"/>
+    <mergeCell ref="F41:X41"/>
+    <mergeCell ref="C45:E48"/>
+    <mergeCell ref="F45:H48"/>
+    <mergeCell ref="I45:I49"/>
+    <mergeCell ref="J45:L48"/>
+    <mergeCell ref="M45:M49"/>
+    <mergeCell ref="N45:P48"/>
+    <mergeCell ref="AD40:AF40"/>
+    <mergeCell ref="Z36:AB39"/>
+    <mergeCell ref="AC36:AC40"/>
+    <mergeCell ref="AD36:AF39"/>
+    <mergeCell ref="Z40:AB40"/>
+    <mergeCell ref="AD45:AF48"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="R45:T48"/>
+    <mergeCell ref="U45:U49"/>
+    <mergeCell ref="V45:X48"/>
+    <mergeCell ref="Q45:Q49"/>
+    <mergeCell ref="C36:E39"/>
+    <mergeCell ref="F36:H39"/>
+    <mergeCell ref="AX28:AX32"/>
+    <mergeCell ref="AX33:BA33"/>
+    <mergeCell ref="AD33:AW33"/>
+    <mergeCell ref="AU32:AW32"/>
+    <mergeCell ref="AH28:AH32"/>
+    <mergeCell ref="AD28:AD32"/>
+    <mergeCell ref="AE28:AG31"/>
+    <mergeCell ref="AE32:AG32"/>
+    <mergeCell ref="AT28:AT32"/>
+    <mergeCell ref="AU28:AW31"/>
+    <mergeCell ref="AI28:AK31"/>
+    <mergeCell ref="AL28:AL32"/>
+    <mergeCell ref="AM28:AO31"/>
+    <mergeCell ref="AP28:AP32"/>
+    <mergeCell ref="AQ28:AS31"/>
+    <mergeCell ref="AI32:AK32"/>
+    <mergeCell ref="AM32:AO32"/>
+    <mergeCell ref="AQ32:AS32"/>
     <mergeCell ref="BI36:BI40"/>
     <mergeCell ref="BJ36:BL40"/>
     <mergeCell ref="BI41:BL41"/>
@@ -24429,105 +24565,6 @@
     <mergeCell ref="AH49:AJ49"/>
     <mergeCell ref="AT36:AV39"/>
     <mergeCell ref="AW36:AW40"/>
-    <mergeCell ref="AX28:AX32"/>
-    <mergeCell ref="AX33:BA33"/>
-    <mergeCell ref="AD33:AW33"/>
-    <mergeCell ref="AU32:AW32"/>
-    <mergeCell ref="AH28:AH32"/>
-    <mergeCell ref="AD28:AD32"/>
-    <mergeCell ref="AE28:AG31"/>
-    <mergeCell ref="AE32:AG32"/>
-    <mergeCell ref="AT28:AT32"/>
-    <mergeCell ref="AU28:AW31"/>
-    <mergeCell ref="AI28:AK31"/>
-    <mergeCell ref="AL28:AL32"/>
-    <mergeCell ref="AM28:AO31"/>
-    <mergeCell ref="AP28:AP32"/>
-    <mergeCell ref="AQ28:AS31"/>
-    <mergeCell ref="AI32:AK32"/>
-    <mergeCell ref="AM32:AO32"/>
-    <mergeCell ref="AQ32:AS32"/>
-    <mergeCell ref="F41:X41"/>
-    <mergeCell ref="C45:E48"/>
-    <mergeCell ref="F45:H48"/>
-    <mergeCell ref="I45:I49"/>
-    <mergeCell ref="J45:L48"/>
-    <mergeCell ref="M45:M49"/>
-    <mergeCell ref="N45:P48"/>
-    <mergeCell ref="AD40:AF40"/>
-    <mergeCell ref="Z36:AB39"/>
-    <mergeCell ref="AC36:AC40"/>
-    <mergeCell ref="AD36:AF39"/>
-    <mergeCell ref="Z40:AB40"/>
-    <mergeCell ref="AD45:AF48"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="R49:T49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="R45:T48"/>
-    <mergeCell ref="U45:U49"/>
-    <mergeCell ref="V45:X48"/>
-    <mergeCell ref="Q45:Q49"/>
-    <mergeCell ref="C36:E39"/>
-    <mergeCell ref="F36:H39"/>
-    <mergeCell ref="AK45:AK49"/>
-    <mergeCell ref="AL45:AN48"/>
-    <mergeCell ref="AO45:AO49"/>
-    <mergeCell ref="AP45:AR48"/>
-    <mergeCell ref="Z49:AB49"/>
-    <mergeCell ref="Y45:Y49"/>
-    <mergeCell ref="Z45:AB48"/>
-    <mergeCell ref="AC45:AC49"/>
-    <mergeCell ref="AX36:AZ39"/>
-    <mergeCell ref="BA36:BA40"/>
-    <mergeCell ref="AG36:AG40"/>
-    <mergeCell ref="AH36:AJ39"/>
-    <mergeCell ref="AK36:AK40"/>
-    <mergeCell ref="AL36:AN39"/>
-    <mergeCell ref="AO36:AO40"/>
-    <mergeCell ref="AP36:AR39"/>
-    <mergeCell ref="AH40:AJ40"/>
-    <mergeCell ref="AL40:AN40"/>
-    <mergeCell ref="AP40:AR40"/>
-    <mergeCell ref="AS36:AS40"/>
-    <mergeCell ref="N28:N32"/>
-    <mergeCell ref="O28:Q31"/>
-    <mergeCell ref="R28:R32"/>
-    <mergeCell ref="S28:U31"/>
-    <mergeCell ref="V28:V32"/>
-    <mergeCell ref="W28:Y31"/>
-    <mergeCell ref="M36:M40"/>
-    <mergeCell ref="N36:P39"/>
-    <mergeCell ref="Q36:Q40"/>
-    <mergeCell ref="R36:T39"/>
-    <mergeCell ref="U36:U40"/>
-    <mergeCell ref="V36:X39"/>
-    <mergeCell ref="Y36:Y40"/>
-    <mergeCell ref="C28:E31"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="Y41:AB41"/>
-    <mergeCell ref="U50:X50"/>
-    <mergeCell ref="F33:Y33"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="AA32:AC32"/>
-    <mergeCell ref="Z28:Z32"/>
-    <mergeCell ref="AA28:AC31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="J28:L31"/>
-    <mergeCell ref="I28:I32"/>
-    <mergeCell ref="F28:H31"/>
-    <mergeCell ref="Z33:AC33"/>
-    <mergeCell ref="F50:T50"/>
-    <mergeCell ref="I36:I40"/>
-    <mergeCell ref="J36:L39"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="V40:X40"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24882,65 +24919,65 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105" t="s">
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105" t="s">
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="105" t="s">
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="105"/>
-      <c r="AH2" s="105"/>
-      <c r="AI2" s="105"/>
-      <c r="AJ2" s="105" t="s">
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97"/>
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="AK2" s="105"/>
-      <c r="AL2" s="105"/>
-      <c r="AM2" s="105" t="s">
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="97"/>
+      <c r="AM2" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="AN2" s="105"/>
-      <c r="AO2" s="105"/>
-      <c r="AP2" s="105"/>
-      <c r="AQ2" s="105"/>
-      <c r="AR2" s="105"/>
-      <c r="AS2" s="105"/>
-      <c r="AT2" s="105"/>
-      <c r="AU2" s="105"/>
-      <c r="AV2" s="105"/>
+      <c r="AN2" s="97"/>
+      <c r="AO2" s="97"/>
+      <c r="AP2" s="97"/>
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="97"/>
+      <c r="AS2" s="97"/>
+      <c r="AT2" s="97"/>
+      <c r="AU2" s="97"/>
+      <c r="AV2" s="97"/>
       <c r="AW2" s="4" t="s">
         <v>40</v>
       </c>

--- a/gd/数值规划/怪物属性配置及伤害公式.xlsx
+++ b/gd/数值规划/怪物属性配置及伤害公式.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="841">
   <si>
     <t>技能升级</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1556,10 +1556,6 @@
   </si>
   <si>
     <t>当怪物星级达到固定星级时，自动提升怪物品质6个（提升怪物成长）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2399,26 +2395,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>monsterLevel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>monsterValue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求材料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求怪物个数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>指从上一等级升至本等级需要的材料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>speedModifyRate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2723,14 +2699,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>需求怪物等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>相同怪物（ID固定为自己）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>怪物品质历程</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2787,14 +2755,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>品质</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>monsterStage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>怪物攻击命中的可能性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2851,12 +2811,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>若存在多个需求道具则使用；分隔ID与个数|区分几个需求道具</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>若存在多个需求道具则使用；分隔ID与个数|区分几个需求道具，即ID1；1|ID2；4表示需求ID1的道具需要1个并且ID2的道具需要4个</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2921,18 +2875,6 @@
   </si>
   <si>
     <t>品质系数K</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求怪物品质</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同前面的品质</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-99</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3374,6 +3316,65 @@
   </si>
   <si>
     <t>置灰有关怪物产出经验和货币的配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求材料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求怪物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指从上一等级升至本等级需要的材料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指从上一等级升至本等级需要的怪物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>若存在多个需求道具则使用；分隔ID与个数|区分几个需求道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>若存在多个需求怪物则使用；分隔ID、品质和个数 |区分几个需求道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>demandItem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>demandMonster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>demandMonster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在多个需求怪物则使用；分隔ID，品质和个数|区分几个需求道具</t>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改怪物升星需求怪物配置方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3867,7 +3868,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4102,6 +4103,26 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4303,26 +4324,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -16648,8 +16650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -16661,10 +16663,10 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="60" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>774</v>
+        <v>759</v>
       </c>
       <c r="C1" s="61"/>
       <c r="D1" s="62"/>
@@ -16699,10 +16701,10 @@
     </row>
     <row r="3" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A3" s="60" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>775</v>
+        <v>760</v>
       </c>
       <c r="C3" s="61"/>
       <c r="D3" s="62"/>
@@ -16737,10 +16739,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="60" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="C5" s="61"/>
       <c r="D5" s="62"/>
@@ -16775,10 +16777,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="60" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>776</v>
+        <v>761</v>
       </c>
       <c r="C7" s="61"/>
       <c r="D7" s="65"/>
@@ -16830,7 +16832,7 @@
     </row>
     <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="60" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="B10" s="61"/>
       <c r="C10" s="62"/>
@@ -16849,17 +16851,17 @@
     </row>
     <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="60"/>
-      <c r="B11" s="84" t="s">
-        <v>747</v>
-      </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="86" t="s">
-        <v>748</v>
-      </c>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="87"/>
+      <c r="B11" s="92" t="s">
+        <v>732</v>
+      </c>
+      <c r="C11" s="93"/>
+      <c r="D11" s="94" t="s">
+        <v>733</v>
+      </c>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="95"/>
       <c r="I11" s="61"/>
       <c r="J11" s="61"/>
       <c r="K11" s="61"/>
@@ -16871,14 +16873,14 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="60"/>
       <c r="B12" s="66" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="C12" s="67"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="81"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="89"/>
       <c r="I12" s="61"/>
       <c r="J12" s="61"/>
       <c r="K12" s="61"/>
@@ -16890,14 +16892,14 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="60"/>
       <c r="B13" s="66" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="C13" s="67"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="90"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="98"/>
       <c r="I13" s="61"/>
       <c r="J13" s="61"/>
       <c r="K13" s="61"/>
@@ -16909,14 +16911,14 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="60"/>
       <c r="B14" s="66" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="C14" s="67"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="93"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="101"/>
       <c r="I14" s="61"/>
       <c r="J14" s="61"/>
       <c r="K14" s="61"/>
@@ -16928,16 +16930,16 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="60"/>
       <c r="B15" s="66" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>753</v>
-      </c>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="81"/>
+        <v>738</v>
+      </c>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="89"/>
       <c r="I15" s="61"/>
       <c r="J15" s="61"/>
       <c r="K15" s="61"/>
@@ -16949,14 +16951,14 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="60"/>
       <c r="B16" s="66" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
       <c r="C16" s="68"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="81"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="89"/>
       <c r="I16" s="61"/>
       <c r="J16" s="61"/>
       <c r="K16" s="61"/>
@@ -16968,14 +16970,14 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="60"/>
       <c r="B17" s="66" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="C17" s="68"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="81"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="89"/>
       <c r="I17" s="61"/>
       <c r="J17" s="61"/>
       <c r="K17" s="61"/>
@@ -16987,14 +16989,14 @@
     <row r="18" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="60"/>
       <c r="B18" s="69" t="s">
-        <v>756</v>
+        <v>741</v>
       </c>
       <c r="C18" s="70"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="83"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="91"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
       <c r="K18" s="61"/>
@@ -17022,25 +17024,25 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="60" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="B20" s="61" t="s">
-        <v>758</v>
+        <v>743</v>
       </c>
       <c r="C20" s="62" t="s">
-        <v>759</v>
+        <v>744</v>
       </c>
       <c r="D20" s="62" t="s">
-        <v>760</v>
+        <v>745</v>
       </c>
       <c r="E20" s="62" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
       <c r="F20" s="62" t="s">
-        <v>762</v>
+        <v>747</v>
       </c>
       <c r="G20" s="62" t="s">
-        <v>763</v>
+        <v>748</v>
       </c>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
@@ -17071,19 +17073,19 @@
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="60"/>
       <c r="B22" s="61" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
       <c r="C22" s="71">
         <v>42125</v>
       </c>
       <c r="D22" s="62" t="s">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="E22" s="62" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
       <c r="F22" s="62" t="s">
-        <v>767</v>
+        <v>752</v>
       </c>
       <c r="G22" s="62"/>
       <c r="H22" s="61"/>
@@ -17098,7 +17100,7 @@
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="60"/>
       <c r="B23" s="61" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
       <c r="C23" s="71">
         <v>42130</v>
@@ -17107,10 +17109,10 @@
       <c r="E23" s="72"/>
       <c r="F23" s="61"/>
       <c r="G23" s="62" t="s">
-        <v>767</v>
+        <v>752</v>
       </c>
       <c r="H23" s="65" t="s">
-        <v>777</v>
+        <v>762</v>
       </c>
       <c r="I23" s="61"/>
       <c r="J23" s="61"/>
@@ -17126,21 +17128,21 @@
       <c r="E24" s="73"/>
       <c r="F24" s="61"/>
       <c r="G24" s="62" t="s">
-        <v>767</v>
+        <v>752</v>
       </c>
       <c r="H24" s="74" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
       <c r="I24" s="61"/>
       <c r="J24" s="61"/>
-      <c r="L24" s="151"/>
-      <c r="M24" s="151"/>
-      <c r="N24" s="151"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="84"/>
       <c r="O24" s="61"/>
     </row>
     <row r="25" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B25" s="61" t="s">
-        <v>778</v>
+        <v>763</v>
       </c>
       <c r="C25" s="71">
         <v>42139</v>
@@ -17148,26 +17150,26 @@
       <c r="E25" s="57"/>
       <c r="F25" s="62"/>
       <c r="G25" s="62" t="s">
-        <v>767</v>
-      </c>
-      <c r="H25" s="150" t="s">
-        <v>779</v>
+        <v>752</v>
+      </c>
+      <c r="H25" s="83" t="s">
+        <v>764</v>
       </c>
       <c r="I25" s="61"/>
       <c r="J25" s="61" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="K25" s="61"/>
       <c r="L25" s="61"/>
       <c r="M25" s="61"/>
-      <c r="N25" s="152" t="s">
-        <v>792</v>
+      <c r="N25" s="85" t="s">
+        <v>777</v>
       </c>
       <c r="O25" s="61"/>
     </row>
     <row r="26" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B26" s="61" t="s">
-        <v>798</v>
+        <v>783</v>
       </c>
       <c r="C26" s="71">
         <v>42142</v>
@@ -17175,47 +17177,47 @@
       <c r="E26" s="5"/>
       <c r="F26" s="62"/>
       <c r="G26" s="62" t="s">
-        <v>799</v>
-      </c>
-      <c r="H26" s="150" t="s">
-        <v>800</v>
+        <v>784</v>
+      </c>
+      <c r="H26" s="83" t="s">
+        <v>785</v>
       </c>
       <c r="I26" s="61"/>
       <c r="J26" s="61"/>
       <c r="K26" s="61"/>
       <c r="L26" s="61"/>
       <c r="M26" s="61"/>
-      <c r="N26" s="152"/>
+      <c r="N26" s="85"/>
       <c r="O26" s="61"/>
     </row>
     <row r="27" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B27" s="61" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="C27" s="71">
         <v>42145</v>
       </c>
-      <c r="E27" s="153"/>
+      <c r="E27" s="86"/>
       <c r="F27" s="62"/>
       <c r="G27" s="62" t="s">
-        <v>799</v>
-      </c>
-      <c r="H27" s="150" t="s">
-        <v>808</v>
+        <v>784</v>
+      </c>
+      <c r="H27" s="83" t="s">
+        <v>793</v>
       </c>
       <c r="I27" s="61"/>
       <c r="J27" s="61"/>
       <c r="K27" s="61"/>
       <c r="L27" s="61"/>
       <c r="M27" s="61" t="s">
-        <v>821</v>
-      </c>
-      <c r="N27" s="152"/>
+        <v>806</v>
+      </c>
+      <c r="N27" s="85"/>
       <c r="O27" s="61"/>
     </row>
     <row r="28" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B28" s="61" t="s">
-        <v>838</v>
+        <v>823</v>
       </c>
       <c r="C28" s="71">
         <v>42159</v>
@@ -17223,31 +17225,39 @@
       <c r="E28" s="2"/>
       <c r="F28" s="62"/>
       <c r="G28" s="62" t="s">
-        <v>839</v>
-      </c>
-      <c r="H28" s="154" t="s">
-        <v>840</v>
+        <v>824</v>
+      </c>
+      <c r="H28" s="87" t="s">
+        <v>825</v>
       </c>
       <c r="I28" s="61"/>
       <c r="J28" s="61"/>
       <c r="K28" s="61"/>
       <c r="L28" s="61"/>
       <c r="M28" s="61"/>
-      <c r="N28" s="152"/>
+      <c r="N28" s="85"/>
       <c r="O28" s="61"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A29" s="61"/>
       <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
+      <c r="C29" s="71">
+        <v>42185</v>
+      </c>
       <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
+      <c r="E29" s="155"/>
       <c r="F29" s="62"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
+      <c r="G29" s="62" t="s">
+        <v>784</v>
+      </c>
+      <c r="H29" s="85" t="s">
+        <v>839</v>
+      </c>
       <c r="I29" s="61"/>
       <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
+      <c r="K29" s="85" t="s">
+        <v>840</v>
+      </c>
       <c r="L29" s="61"/>
       <c r="M29" s="61"/>
       <c r="N29" s="61"/>
@@ -17255,19 +17265,19 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="60" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
       <c r="C30" s="62" t="s">
-        <v>771</v>
+        <v>756</v>
       </c>
       <c r="D30" s="62" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
       <c r="E30" s="62" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
       <c r="F30" s="62"/>
       <c r="G30" s="62"/>
@@ -17282,14 +17292,14 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="60" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
       <c r="C31" s="61"/>
       <c r="D31" s="65" t="s">
-        <v>782</v>
+        <v>767</v>
       </c>
       <c r="E31" s="65"/>
       <c r="F31" s="62"/>
@@ -17355,6 +17365,8 @@
     <hyperlink ref="N25" location="伤害公式!C18" display="添加防御判定与防御系数"/>
     <hyperlink ref="H26" location="属性说明!C7" display="删除总命中率与100%的比较"/>
     <hyperlink ref="H27" location="名词解释!E73" display="添加怪物基础属性：勤奋度，勤奋度积累值，性格"/>
+    <hyperlink ref="H29" location="名词解释!F215" display="修改怪物升星需求怪物配置方式"/>
+    <hyperlink ref="K29" location="配置表!L13" display="位置2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17364,8 +17376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X229"/>
   <sheetViews>
-    <sheetView topLeftCell="C166" workbookViewId="0">
-      <selection activeCell="G160" sqref="G160:R163"/>
+    <sheetView topLeftCell="C199" workbookViewId="0">
+      <selection activeCell="F215" sqref="F215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -17392,7 +17404,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F4" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -17412,7 +17424,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>245</v>
@@ -17420,7 +17432,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>120</v>
@@ -17483,7 +17495,7 @@
     </row>
     <row r="21" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E21" s="11" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -17495,7 +17507,7 @@
     <row r="22" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E22" s="11"/>
       <c r="F22" s="11" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -17505,7 +17517,7 @@
     </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E23" s="11" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -17517,7 +17529,7 @@
     <row r="24" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E24" s="11"/>
       <c r="F24" s="11" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -17527,7 +17539,7 @@
     </row>
     <row r="25" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E25" s="11" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -17539,7 +17551,7 @@
     <row r="26" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E26" s="11"/>
       <c r="F26" s="11" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -17561,7 +17573,7 @@
     <row r="28" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E28" s="11"/>
       <c r="F28" s="11" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -17571,7 +17583,7 @@
     </row>
     <row r="29" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E29" s="11" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
@@ -17583,7 +17595,7 @@
     <row r="30" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E30" s="11"/>
       <c r="F30" s="11" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
@@ -17593,7 +17605,7 @@
     </row>
     <row r="31" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E31" s="11" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
@@ -17605,7 +17617,7 @@
     <row r="32" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E32" s="11"/>
       <c r="F32" s="11" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
@@ -17615,7 +17627,7 @@
     </row>
     <row r="33" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E33" s="11" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
@@ -17627,7 +17639,7 @@
     <row r="34" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E34" s="11"/>
       <c r="F34" s="11" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -17637,7 +17649,7 @@
     </row>
     <row r="35" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E35" s="11" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
@@ -17649,7 +17661,7 @@
     <row r="36" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E36" s="11"/>
       <c r="F36" s="11" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
@@ -17659,7 +17671,7 @@
     </row>
     <row r="37" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E37" s="11" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
@@ -17671,7 +17683,7 @@
     <row r="38" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E38" s="11"/>
       <c r="F38" s="11" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
@@ -17681,7 +17693,7 @@
     </row>
     <row r="39" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E39" s="11" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
@@ -17694,10 +17706,10 @@
     <row r="40" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E40" s="11"/>
       <c r="F40" s="11" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
@@ -17708,10 +17720,10 @@
     <row r="41" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E41" s="11"/>
       <c r="F41" s="11" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -17721,7 +17733,7 @@
     </row>
     <row r="42" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E42" s="11" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
@@ -17734,7 +17746,7 @@
     <row r="43" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E43" s="11"/>
       <c r="F43" s="11" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -17747,7 +17759,7 @@
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
@@ -17759,7 +17771,7 @@
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
@@ -17771,7 +17783,7 @@
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
@@ -17783,7 +17795,7 @@
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
@@ -17795,7 +17807,7 @@
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
@@ -17804,7 +17816,7 @@
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B50" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>254</v>
@@ -17838,7 +17850,7 @@
         <v>258</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>836</v>
+        <v>821</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>259</v>
@@ -17856,7 +17868,7 @@
         <v>260</v>
       </c>
       <c r="F56" s="32" t="s">
-        <v>837</v>
+        <v>822</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>261</v>
@@ -17880,7 +17892,7 @@
         <v>312</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>834</v>
+        <v>819</v>
       </c>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.15">
@@ -17891,13 +17903,13 @@
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.15">
       <c r="E60" s="3" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>374</v>
@@ -17930,19 +17942,19 @@
         <v>383</v>
       </c>
       <c r="R60" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="S60" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="S60" s="1" t="s">
+      <c r="T60" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="T60" s="1" t="s">
+      <c r="U60" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="U60" s="1" t="s">
+      <c r="V60" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="V60" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="W60" s="1" t="s">
         <v>384</v>
@@ -17952,7 +17964,7 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="1" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="H61" s="1">
         <v>0</v>
@@ -18056,16 +18068,16 @@
     <row r="67" spans="1:24" x14ac:dyDescent="0.15">
       <c r="C67" s="3"/>
       <c r="E67" s="76" t="s">
-        <v>813</v>
+        <v>798</v>
       </c>
       <c r="F67" s="76" t="s">
-        <v>812</v>
+        <v>797</v>
       </c>
       <c r="G67" s="76" t="s">
-        <v>830</v>
+        <v>815</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>835</v>
+        <v>820</v>
       </c>
       <c r="I67" s="3"/>
       <c r="K67" s="3"/>
@@ -18120,13 +18132,13 @@
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.15">
       <c r="E73" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>486</v>
       </c>
       <c r="J73" s="33"/>
     </row>
@@ -18135,13 +18147,13 @@
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.15">
       <c r="E75" s="76" t="s">
-        <v>802</v>
+        <v>787</v>
       </c>
       <c r="F75" s="76" t="s">
-        <v>828</v>
+        <v>813</v>
       </c>
       <c r="G75" s="76" t="s">
-        <v>806</v>
+        <v>791</v>
       </c>
       <c r="H75" s="78"/>
       <c r="I75" s="76"/>
@@ -18185,13 +18197,13 @@
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.15">
       <c r="E77" s="76" t="s">
-        <v>803</v>
+        <v>788</v>
       </c>
       <c r="F77" s="76" t="s">
-        <v>829</v>
+        <v>814</v>
       </c>
       <c r="G77" s="76" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="H77" s="76"/>
       <c r="I77" s="76"/>
@@ -18235,16 +18247,16 @@
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A79" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E79" s="76" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
       <c r="F79" s="76" t="s">
-        <v>825</v>
+        <v>810</v>
       </c>
       <c r="G79" s="76" t="s">
-        <v>805</v>
+        <v>790</v>
       </c>
       <c r="H79" s="76"/>
       <c r="I79" s="77"/>
@@ -18308,7 +18320,7 @@
     </row>
     <row r="87" spans="4:12" x14ac:dyDescent="0.15">
       <c r="E87" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="90" spans="4:12" x14ac:dyDescent="0.15">
@@ -18407,13 +18419,13 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A97" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>299</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>304</v>
@@ -18558,7 +18570,7 @@
         <v>3</v>
       </c>
       <c r="F143" s="42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G143" s="42"/>
       <c r="H143" s="42"/>
@@ -18642,7 +18654,7 @@
       <c r="E148" s="42"/>
       <c r="F148" s="42"/>
       <c r="G148" s="42" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H148" s="42"/>
       <c r="I148" s="42"/>
@@ -18692,13 +18704,13 @@
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B152" s="47" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>319</v>
       </c>
       <c r="H152" s="11" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
@@ -18710,7 +18722,7 @@
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B153" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>320</v>
@@ -18818,25 +18830,25 @@
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A160" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="B160" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="B160" s="10" t="s">
-        <v>575</v>
-      </c>
       <c r="G160" s="2" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="I160" s="148" t="s">
-        <v>643</v>
-      </c>
-      <c r="J160" s="148"/>
-      <c r="K160" s="148"/>
-      <c r="L160" s="148"/>
-      <c r="M160" s="148"/>
-      <c r="N160" s="148"/>
+        <v>634</v>
+      </c>
+      <c r="I160" s="81" t="s">
+        <v>637</v>
+      </c>
+      <c r="J160" s="81"/>
+      <c r="K160" s="81"/>
+      <c r="L160" s="81"/>
+      <c r="M160" s="81"/>
+      <c r="N160" s="81"/>
       <c r="O160" s="2"/>
       <c r="P160" s="2"/>
       <c r="Q160" s="2"/>
@@ -18848,17 +18860,17 @@
       </c>
       <c r="B161" s="10"/>
       <c r="G161" s="2" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="I161" s="148"/>
-      <c r="J161" s="148"/>
-      <c r="K161" s="148"/>
-      <c r="L161" s="148"/>
-      <c r="M161" s="148"/>
-      <c r="N161" s="148"/>
+        <v>635</v>
+      </c>
+      <c r="I161" s="81"/>
+      <c r="J161" s="81"/>
+      <c r="K161" s="81"/>
+      <c r="L161" s="81"/>
+      <c r="M161" s="81"/>
+      <c r="N161" s="81"/>
       <c r="O161" s="2"/>
       <c r="P161" s="2"/>
       <c r="Q161" s="2"/>
@@ -18866,19 +18878,19 @@
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.15">
       <c r="G162" s="2" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="I162" s="148" t="s">
-        <v>644</v>
-      </c>
-      <c r="J162" s="148"/>
-      <c r="K162" s="148"/>
-      <c r="L162" s="148"/>
-      <c r="M162" s="148"/>
-      <c r="N162" s="148"/>
+        <v>610</v>
+      </c>
+      <c r="I162" s="81" t="s">
+        <v>638</v>
+      </c>
+      <c r="J162" s="81"/>
+      <c r="K162" s="81"/>
+      <c r="L162" s="81"/>
+      <c r="M162" s="81"/>
+      <c r="N162" s="81"/>
       <c r="O162" s="2"/>
       <c r="P162" s="2"/>
       <c r="Q162" s="2"/>
@@ -18886,17 +18898,17 @@
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.15">
       <c r="G163" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="I163" s="148"/>
-      <c r="J163" s="148"/>
-      <c r="K163" s="148"/>
-      <c r="L163" s="148"/>
-      <c r="M163" s="148"/>
-      <c r="N163" s="148"/>
+        <v>611</v>
+      </c>
+      <c r="I163" s="81"/>
+      <c r="J163" s="81"/>
+      <c r="K163" s="81"/>
+      <c r="L163" s="81"/>
+      <c r="M163" s="81"/>
+      <c r="N163" s="81"/>
       <c r="O163" s="2"/>
       <c r="P163" s="2"/>
       <c r="Q163" s="2"/>
@@ -18904,20 +18916,20 @@
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B164" s="47" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.15">
       <c r="F165" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.15">
@@ -18949,7 +18961,7 @@
         <v>337</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>833</v>
+        <v>818</v>
       </c>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.15">
@@ -18984,25 +18996,25 @@
     </row>
     <row r="173" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B173" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="F173" s="94" t="s">
-        <v>451</v>
+        <v>558</v>
+      </c>
+      <c r="F173" s="102" t="s">
+        <v>450</v>
       </c>
       <c r="G173" s="51" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="H173" s="52" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="F174" s="95"/>
+      <c r="F174" s="103"/>
       <c r="G174" s="37" t="s">
         <v>341</v>
       </c>
       <c r="H174" s="38" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="J174" s="42" t="s">
         <v>352</v>
@@ -19012,12 +19024,12 @@
       <c r="M174" s="42"/>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="F175" s="95"/>
+      <c r="F175" s="103"/>
       <c r="G175" s="37" t="s">
         <v>342</v>
       </c>
       <c r="H175" s="38" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="K175" s="42" t="s">
         <v>353</v>
@@ -19025,12 +19037,12 @@
       <c r="L175" s="42"/>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="F176" s="95"/>
+      <c r="F176" s="103"/>
       <c r="G176" s="37" t="s">
         <v>343</v>
       </c>
       <c r="H176" s="38" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="J176" s="42" t="s">
         <v>354</v>
@@ -19042,12 +19054,12 @@
       <c r="O176" s="33"/>
     </row>
     <row r="177" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F177" s="95"/>
+      <c r="F177" s="103"/>
       <c r="G177" s="37" t="s">
+        <v>596</v>
+      </c>
+      <c r="H177" s="38" t="s">
         <v>602</v>
-      </c>
-      <c r="H177" s="38" t="s">
-        <v>608</v>
       </c>
       <c r="J177" s="42"/>
       <c r="K177" s="42" t="s">
@@ -19059,12 +19071,12 @@
       <c r="O177" s="33"/>
     </row>
     <row r="178" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F178" s="95"/>
+      <c r="F178" s="103"/>
       <c r="G178" s="37" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H178" s="38" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K178" s="1" t="s">
         <v>355</v>
@@ -19074,12 +19086,12 @@
       </c>
     </row>
     <row r="179" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F179" s="95"/>
+      <c r="F179" s="103"/>
       <c r="G179" s="37" t="s">
         <v>344</v>
       </c>
       <c r="H179" s="38" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="K179" s="1" t="s">
         <v>358</v>
@@ -19089,24 +19101,24 @@
       </c>
     </row>
     <row r="180" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F180" s="95"/>
-      <c r="G180" s="149" t="s">
-        <v>646</v>
-      </c>
-      <c r="H180" s="149" t="s">
-        <v>648</v>
+      <c r="F180" s="103"/>
+      <c r="G180" s="82" t="s">
+        <v>640</v>
+      </c>
+      <c r="H180" s="82" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="181" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F181" s="95"/>
-      <c r="G181" s="149" t="s">
-        <v>647</v>
-      </c>
-      <c r="H181" s="149" t="s">
+      <c r="F181" s="103"/>
+      <c r="G181" s="82" t="s">
+        <v>641</v>
+      </c>
+      <c r="H181" s="82" t="s">
+        <v>643</v>
+      </c>
+      <c r="J181" s="11" t="s">
         <v>649</v>
-      </c>
-      <c r="J181" s="11" t="s">
-        <v>655</v>
       </c>
       <c r="K181" s="11"/>
       <c r="L181" s="11"/>
@@ -19114,30 +19126,30 @@
       <c r="N181" s="11"/>
     </row>
     <row r="182" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F182" s="95"/>
-      <c r="G182" s="149" t="s">
-        <v>651</v>
-      </c>
-      <c r="H182" s="149" t="s">
-        <v>652</v>
+      <c r="F182" s="103"/>
+      <c r="G182" s="82" t="s">
+        <v>645</v>
+      </c>
+      <c r="H182" s="82" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="183" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F183" s="95"/>
-      <c r="G183" s="149" t="s">
-        <v>653</v>
-      </c>
-      <c r="H183" s="149" t="s">
-        <v>654</v>
+      <c r="F183" s="103"/>
+      <c r="G183" s="82" t="s">
+        <v>647</v>
+      </c>
+      <c r="H183" s="82" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="184" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F184" s="96"/>
+      <c r="F184" s="104"/>
       <c r="G184" s="39" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="H184" s="40" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="186" spans="2:24" x14ac:dyDescent="0.15">
@@ -19158,7 +19170,7 @@
     </row>
     <row r="187" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B187" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G187" s="11" t="s">
         <v>365</v>
@@ -19167,7 +19179,7 @@
         <v>364</v>
       </c>
       <c r="I187" s="76" t="s">
-        <v>822</v>
+        <v>807</v>
       </c>
       <c r="J187" s="76"/>
       <c r="K187" s="76"/>
@@ -19190,13 +19202,13 @@
         <v>1</v>
       </c>
       <c r="G188" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H188" s="11" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="I188" s="76" t="s">
-        <v>824</v>
+        <v>809</v>
       </c>
       <c r="J188" s="76"/>
       <c r="K188" s="76"/>
@@ -19216,7 +19228,7 @@
     </row>
     <row r="190" spans="2:24" x14ac:dyDescent="0.15">
       <c r="F190" s="28" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
@@ -19225,7 +19237,7 @@
     <row r="191" spans="2:24" x14ac:dyDescent="0.15">
       <c r="F191" s="3"/>
       <c r="G191" s="57" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="H191" s="57"/>
       <c r="I191" s="57"/>
@@ -19238,10 +19250,10 @@
     <row r="192" spans="2:24" x14ac:dyDescent="0.15">
       <c r="F192" s="3"/>
       <c r="G192" s="57" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
       <c r="H192" s="57" t="s">
-        <v>794</v>
+        <v>779</v>
       </c>
       <c r="I192" s="57"/>
       <c r="J192" s="57"/>
@@ -19253,10 +19265,10 @@
     <row r="193" spans="1:22" x14ac:dyDescent="0.15">
       <c r="F193" s="3"/>
       <c r="G193" s="57" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="H193" s="57" t="s">
-        <v>795</v>
+        <v>780</v>
       </c>
       <c r="I193" s="57"/>
       <c r="J193" s="57"/>
@@ -19310,28 +19322,28 @@
     </row>
     <row r="197" spans="1:22" x14ac:dyDescent="0.15">
       <c r="D197" s="9" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
     </row>
     <row r="198" spans="1:22" x14ac:dyDescent="0.15">
       <c r="E198" s="1" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
     </row>
     <row r="199" spans="1:22" x14ac:dyDescent="0.15">
       <c r="E199" s="1" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
     </row>
     <row r="200" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A200" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>373</v>
@@ -19367,19 +19379,19 @@
         <v>383</v>
       </c>
       <c r="Q200" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="R200" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="R200" s="1" t="s">
+      <c r="S200" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="S200" s="1" t="s">
+      <c r="T200" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="T200" s="1" t="s">
+      <c r="U200" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="U200" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="V200" s="1" t="s">
         <v>384</v>
@@ -19387,7 +19399,7 @@
     </row>
     <row r="201" spans="1:22" x14ac:dyDescent="0.15">
       <c r="F201" s="1" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="G201" s="1">
         <v>0</v>
@@ -19440,7 +19452,7 @@
     </row>
     <row r="202" spans="1:22" x14ac:dyDescent="0.15">
       <c r="E202" s="1" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
     </row>
     <row r="203" spans="1:22" x14ac:dyDescent="0.15">
@@ -19491,7 +19503,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F209" s="34" t="s">
         <v>332</v>
       </c>
@@ -19499,96 +19511,134 @@
         <v>333</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E211" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.15">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F212" s="15" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.15">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A213" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H213" s="15" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.15">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F215" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="G216" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="G217" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="G218" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F215" s="10" t="s">
+        <v>834</v>
+      </c>
+      <c r="G215" s="10"/>
+      <c r="H215" s="10"/>
+      <c r="I215" s="10"/>
+      <c r="J215" s="10"/>
+      <c r="K215" s="10"/>
+      <c r="L215" s="10"/>
+      <c r="M215" s="10"/>
+      <c r="N215" s="10"/>
+      <c r="O215" s="10"/>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F216" s="10"/>
+      <c r="G216" s="10" t="s">
+        <v>835</v>
+      </c>
+      <c r="H216" s="10" t="s">
+        <v>836</v>
+      </c>
+      <c r="I216" s="10"/>
+      <c r="J216" s="10"/>
+      <c r="K216" s="10"/>
+      <c r="L216" s="10"/>
+      <c r="M216" s="10"/>
+      <c r="N216" s="10"/>
+      <c r="O216" s="10"/>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F217" s="10"/>
+      <c r="G217" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="H217" s="10"/>
+      <c r="I217" s="10"/>
+      <c r="J217" s="10"/>
+      <c r="K217" s="10"/>
+      <c r="L217" s="10"/>
+      <c r="M217" s="10"/>
+      <c r="N217" s="10"/>
+      <c r="O217" s="10"/>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F218" s="10"/>
+      <c r="G218" s="10" t="s">
+        <v>838</v>
+      </c>
+      <c r="H218" s="10"/>
+      <c r="I218" s="10"/>
+      <c r="J218" s="10"/>
+      <c r="K218" s="10"/>
+      <c r="L218" s="10"/>
+      <c r="M218" s="10"/>
+      <c r="N218" s="10"/>
+      <c r="O218" s="10"/>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E219" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.15">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F220" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F221" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F222" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F221" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="G221" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F222" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.15">
       <c r="G223" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.15">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E224" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E225" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B226" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C226" s="9" t="s">
         <v>247</v>
@@ -19596,12 +19646,12 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D227" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A229" s="10" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -19618,8 +19668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -19630,99 +19680,99 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B1" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D2" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="H2" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="W2" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AE2" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
@@ -19731,22 +19781,22 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>797</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="D3" s="76" t="s">
-        <v>812</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>274</v>
@@ -19755,61 +19805,61 @@
         <v>339</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>341</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="P3" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="P3" s="23" t="s">
+      <c r="Q3" s="80" t="s">
+        <v>640</v>
+      </c>
+      <c r="R3" s="80" t="s">
+        <v>641</v>
+      </c>
+      <c r="S3" s="80" t="s">
+        <v>645</v>
+      </c>
+      <c r="T3" s="80" t="s">
+        <v>647</v>
+      </c>
+      <c r="U3" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="Q3" s="147" t="s">
-        <v>646</v>
-      </c>
-      <c r="R3" s="147" t="s">
-        <v>647</v>
-      </c>
-      <c r="S3" s="147" t="s">
-        <v>651</v>
-      </c>
-      <c r="T3" s="147" t="s">
-        <v>653</v>
-      </c>
-      <c r="U3" s="23" t="s">
+      <c r="V3" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="W3" s="98" t="s">
-        <v>719</v>
-      </c>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="98"/>
+      <c r="W3" s="106" t="s">
+        <v>707</v>
+      </c>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
+      <c r="Z3" s="106"/>
+      <c r="AA3" s="106"/>
+      <c r="AB3" s="106"/>
+      <c r="AC3" s="106"/>
       <c r="AD3" s="76" t="s">
-        <v>820</v>
+        <v>805</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>826</v>
+        <v>811</v>
       </c>
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
@@ -19818,85 +19868,85 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="76" t="s">
+        <v>798</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D4" s="76" t="s">
-        <v>813</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="P4" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="Q4" s="80" t="s">
+        <v>642</v>
+      </c>
+      <c r="R4" s="80" t="s">
+        <v>643</v>
+      </c>
+      <c r="S4" s="80" t="s">
+        <v>646</v>
+      </c>
+      <c r="T4" s="80" t="s">
+        <v>648</v>
+      </c>
+      <c r="U4" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="P4" s="23" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q4" s="147" t="s">
-        <v>648</v>
-      </c>
-      <c r="R4" s="147" t="s">
-        <v>649</v>
-      </c>
-      <c r="S4" s="147" t="s">
-        <v>652</v>
-      </c>
-      <c r="T4" s="147" t="s">
-        <v>654</v>
-      </c>
-      <c r="U4" s="23" t="s">
-        <v>420</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="W4" s="99" t="s">
-        <v>818</v>
-      </c>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="99"/>
-      <c r="AB4" s="99"/>
-      <c r="AC4" s="99"/>
+      <c r="W4" s="107" t="s">
+        <v>803</v>
+      </c>
+      <c r="X4" s="107"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="107"/>
+      <c r="AC4" s="107"/>
       <c r="AD4" s="76" t="s">
-        <v>823</v>
+        <v>808</v>
       </c>
       <c r="AE4" s="7" t="s">
-        <v>827</v>
+        <v>812</v>
       </c>
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
@@ -19905,58 +19955,58 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="C5" s="76" t="s">
-        <v>815</v>
+        <v>800</v>
       </c>
       <c r="D5" s="76" t="s">
-        <v>831</v>
+        <v>816</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="1" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>811</v>
+        <v>796</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="J5" s="97" t="s">
-        <v>809</v>
-      </c>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="97"/>
-      <c r="U5" s="97"/>
+        <v>795</v>
+      </c>
+      <c r="J5" s="105" t="s">
+        <v>794</v>
+      </c>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="105"/>
+      <c r="T5" s="105"/>
+      <c r="U5" s="105"/>
       <c r="V5" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="W5" s="99" t="s">
-        <v>817</v>
-      </c>
-      <c r="X5" s="99"/>
-      <c r="Y5" s="99"/>
-      <c r="Z5" s="99"/>
-      <c r="AA5" s="99"/>
-      <c r="AB5" s="99"/>
-      <c r="AC5" s="99"/>
+        <v>705</v>
+      </c>
+      <c r="W5" s="107" t="s">
+        <v>802</v>
+      </c>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="107"/>
+      <c r="AB5" s="107"/>
+      <c r="AC5" s="107"/>
       <c r="AD5" s="76" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
       <c r="AE5" s="7"/>
       <c r="AF5" s="7"/>
@@ -19967,110 +20017,110 @@
     <row r="6" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="C6" s="76" t="s">
-        <v>814</v>
+        <v>799</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>816</v>
+        <v>801</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="1" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="47" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>423</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>431</v>
-      </c>
       <c r="M9" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="V9" s="23"/>
       <c r="W9" s="23"/>
@@ -20080,13 +20130,13 @@
     </row>
     <row r="10" spans="1:35" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A10" s="47" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
@@ -20095,7 +20145,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>4</v>
@@ -20104,25 +20154,25 @@
         <v>3</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>440</v>
       </c>
       <c r="V10" s="23"/>
       <c r="W10" s="54"/>
@@ -20132,7 +20182,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="V11" s="23"/>
       <c r="W11" s="54"/>
@@ -20142,7 +20192,7 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B12" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="V12" s="23"/>
       <c r="W12" s="54"/>
@@ -20152,44 +20202,40 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K13" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="L13" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>396</v>
-      </c>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
       <c r="V13" s="23"/>
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
@@ -20198,47 +20244,43 @@
     </row>
     <row r="14" spans="1:35" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A14" s="47" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>711</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>598</v>
-      </c>
+        <v>832</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>833</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
       <c r="V14" s="23"/>
       <c r="W14" s="23"/>
       <c r="X14" s="23"/>
@@ -20247,7 +20289,7 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B15" s="11" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -20256,7 +20298,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>4</v>
@@ -20265,91 +20307,91 @@
         <v>3</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>600</v>
-      </c>
+        <v>826</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B16" s="56" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
+        <v>828</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
+        <v>830</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.15">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.15">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B21" s="79" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
     </row>
   </sheetData>
@@ -20387,64 +20429,64 @@
       </c>
     </row>
     <row r="2" spans="1:50" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100" t="s">
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100" t="s">
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="100"/>
-      <c r="Z2" s="100"/>
-      <c r="AA2" s="100"/>
-      <c r="AB2" s="100"/>
-      <c r="AC2" s="100"/>
-      <c r="AD2" s="100"/>
-      <c r="AE2" s="100" t="s">
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="108"/>
+      <c r="AE2" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="AF2" s="100"/>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="100"/>
-      <c r="AI2" s="100"/>
-      <c r="AJ2" s="100"/>
-      <c r="AK2" s="100" t="s">
+      <c r="AF2" s="108"/>
+      <c r="AG2" s="108"/>
+      <c r="AH2" s="108"/>
+      <c r="AI2" s="108"/>
+      <c r="AJ2" s="108"/>
+      <c r="AK2" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="AL2" s="100"/>
-      <c r="AM2" s="100"/>
-      <c r="AN2" s="100" t="s">
+      <c r="AL2" s="108"/>
+      <c r="AM2" s="108"/>
+      <c r="AN2" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="AO2" s="100"/>
-      <c r="AP2" s="100"/>
-      <c r="AQ2" s="100"/>
-      <c r="AR2" s="100"/>
-      <c r="AS2" s="100"/>
-      <c r="AT2" s="100"/>
-      <c r="AU2" s="100"/>
-      <c r="AV2" s="100"/>
+      <c r="AO2" s="108"/>
+      <c r="AP2" s="108"/>
+      <c r="AQ2" s="108"/>
+      <c r="AR2" s="108"/>
+      <c r="AS2" s="108"/>
+      <c r="AT2" s="108"/>
+      <c r="AU2" s="108"/>
+      <c r="AV2" s="108"/>
       <c r="AW2" s="30" t="s">
         <v>40</v>
       </c>
@@ -20452,7 +20494,7 @@
     </row>
     <row r="3" spans="1:50" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>39</v>
@@ -20473,7 +20515,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>219</v>
@@ -20542,7 +20584,7 @@
         <v>19</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>115</v>
@@ -20601,7 +20643,7 @@
     </row>
     <row r="4" spans="1:50" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="5" spans="1:50" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -20627,7 +20669,7 @@
         <v>234</v>
       </c>
       <c r="AW5" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:50" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -20773,7 +20815,7 @@
     </row>
     <row r="12" spans="1:50" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>138</v>
@@ -20796,13 +20838,13 @@
     </row>
     <row r="13" spans="1:50" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>251</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>234</v>
@@ -21069,7 +21111,7 @@
         <v>160</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="3" spans="3:30" x14ac:dyDescent="0.15">
@@ -21095,13 +21137,13 @@
         <v>118</v>
       </c>
       <c r="D7" s="75" t="s">
-        <v>796</v>
+        <v>781</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>797</v>
+        <v>782</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -21116,7 +21158,7 @@
     </row>
     <row r="8" spans="3:30" x14ac:dyDescent="0.15">
       <c r="D8" s="1" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
     </row>
     <row r="9" spans="3:30" x14ac:dyDescent="0.15">
@@ -21236,7 +21278,7 @@
     <row r="16" spans="3:30" x14ac:dyDescent="0.15">
       <c r="C16" s="15"/>
       <c r="D16" s="15" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
@@ -21396,7 +21438,7 @@
     <row r="21" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>54</v>
@@ -21495,107 +21537,107 @@
       <c r="AW27" s="4"/>
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="C28" s="127" t="s">
+      <c r="C28" s="135" t="s">
         <v>151</v>
       </c>
-      <c r="D28" s="127"/>
-      <c r="E28" s="127" t="s">
+      <c r="D28" s="135"/>
+      <c r="E28" s="135" t="s">
         <v>152</v>
       </c>
-      <c r="F28" s="127"/>
-      <c r="G28" s="127" t="s">
+      <c r="F28" s="135"/>
+      <c r="G28" s="135" t="s">
         <v>153</v>
       </c>
-      <c r="H28" s="127"/>
-      <c r="I28" s="127" t="s">
+      <c r="H28" s="135"/>
+      <c r="I28" s="135" t="s">
         <v>154</v>
       </c>
-      <c r="J28" s="127"/>
-      <c r="K28" s="127" t="s">
+      <c r="J28" s="135"/>
+      <c r="K28" s="135" t="s">
         <v>155</v>
       </c>
-      <c r="L28" s="127"/>
-      <c r="M28" s="119" t="s">
+      <c r="L28" s="135"/>
+      <c r="M28" s="127" t="s">
         <v>156</v>
       </c>
-      <c r="N28" s="119"/>
-      <c r="O28" s="119" t="s">
+      <c r="N28" s="127"/>
+      <c r="O28" s="127" t="s">
         <v>157</v>
       </c>
-      <c r="P28" s="119"/>
-      <c r="Q28" s="119" t="s">
+      <c r="P28" s="127"/>
+      <c r="Q28" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="R28" s="119"/>
-      <c r="S28" s="119" t="s">
+      <c r="R28" s="127"/>
+      <c r="S28" s="127" t="s">
         <v>179</v>
       </c>
-      <c r="T28" s="119"/>
-      <c r="U28" s="119" t="s">
+      <c r="T28" s="127"/>
+      <c r="U28" s="127" t="s">
         <v>180</v>
       </c>
-      <c r="V28" s="119"/>
-      <c r="W28" s="119" t="s">
+      <c r="V28" s="127"/>
+      <c r="W28" s="127" t="s">
         <v>181</v>
       </c>
-      <c r="X28" s="119"/>
-      <c r="Y28" s="119" t="s">
+      <c r="X28" s="127"/>
+      <c r="Y28" s="127" t="s">
         <v>191</v>
       </c>
-      <c r="Z28" s="119"/>
-      <c r="AA28" s="119" t="s">
+      <c r="Z28" s="127"/>
+      <c r="AA28" s="127" t="s">
         <v>211</v>
       </c>
-      <c r="AB28" s="119"/>
-      <c r="AC28" s="119" t="s">
+      <c r="AB28" s="127"/>
+      <c r="AC28" s="127" t="s">
         <v>158</v>
       </c>
-      <c r="AD28" s="119"/>
-      <c r="AE28" s="126" t="s">
+      <c r="AD28" s="127"/>
+      <c r="AE28" s="134" t="s">
         <v>159</v>
       </c>
-      <c r="AF28" s="126"/>
+      <c r="AF28" s="134"/>
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="C29" s="124" t="s">
+      <c r="C29" s="132" t="s">
         <v>161</v>
       </c>
-      <c r="D29" s="124"/>
-      <c r="E29" s="108" t="s">
+      <c r="D29" s="132"/>
+      <c r="E29" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="F29" s="108"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="124"/>
-      <c r="J29" s="124"/>
-      <c r="K29" s="124"/>
-      <c r="L29" s="124"/>
-      <c r="M29" s="120"/>
-      <c r="N29" s="120"/>
-      <c r="O29" s="120"/>
-      <c r="P29" s="120"/>
-      <c r="Q29" s="120"/>
-      <c r="R29" s="120"/>
-      <c r="S29" s="120"/>
-      <c r="T29" s="120"/>
-      <c r="U29" s="120"/>
-      <c r="V29" s="120"/>
-      <c r="W29" s="120"/>
-      <c r="X29" s="120"/>
-      <c r="Y29" s="128"/>
-      <c r="Z29" s="129"/>
-      <c r="AA29" s="121"/>
-      <c r="AB29" s="122"/>
-      <c r="AC29" s="120" t="s">
+      <c r="F29" s="116"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="132"/>
+      <c r="K29" s="132"/>
+      <c r="L29" s="132"/>
+      <c r="M29" s="128"/>
+      <c r="N29" s="128"/>
+      <c r="O29" s="128"/>
+      <c r="P29" s="128"/>
+      <c r="Q29" s="128"/>
+      <c r="R29" s="128"/>
+      <c r="S29" s="128"/>
+      <c r="T29" s="128"/>
+      <c r="U29" s="128"/>
+      <c r="V29" s="128"/>
+      <c r="W29" s="128"/>
+      <c r="X29" s="128"/>
+      <c r="Y29" s="136"/>
+      <c r="Z29" s="137"/>
+      <c r="AA29" s="129"/>
+      <c r="AB29" s="130"/>
+      <c r="AC29" s="128" t="s">
         <v>162</v>
       </c>
-      <c r="AD29" s="120"/>
-      <c r="AE29" s="125" t="str">
+      <c r="AD29" s="128"/>
+      <c r="AE29" s="133" t="str">
         <f>CONCATENATE(E29)</f>
         <v>怪物装备本身附加命中率</v>
       </c>
-      <c r="AF29" s="125"/>
+      <c r="AF29" s="133"/>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.15">
       <c r="C30" s="18"/>
@@ -21664,135 +21706,135 @@
       <c r="AF31" s="27"/>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="C32" s="127" t="s">
+      <c r="C32" s="135" t="s">
         <v>151</v>
       </c>
-      <c r="D32" s="127"/>
-      <c r="E32" s="127" t="s">
+      <c r="D32" s="135"/>
+      <c r="E32" s="135" t="s">
         <v>152</v>
       </c>
-      <c r="F32" s="127"/>
-      <c r="G32" s="127" t="s">
+      <c r="F32" s="135"/>
+      <c r="G32" s="135" t="s">
         <v>153</v>
       </c>
-      <c r="H32" s="127"/>
-      <c r="I32" s="127" t="s">
+      <c r="H32" s="135"/>
+      <c r="I32" s="135" t="s">
         <v>154</v>
       </c>
-      <c r="J32" s="127"/>
-      <c r="K32" s="127" t="s">
+      <c r="J32" s="135"/>
+      <c r="K32" s="135" t="s">
         <v>155</v>
       </c>
-      <c r="L32" s="127"/>
-      <c r="M32" s="119" t="s">
+      <c r="L32" s="135"/>
+      <c r="M32" s="127" t="s">
         <v>156</v>
       </c>
-      <c r="N32" s="119"/>
-      <c r="O32" s="119" t="s">
+      <c r="N32" s="127"/>
+      <c r="O32" s="127" t="s">
         <v>157</v>
       </c>
-      <c r="P32" s="119"/>
-      <c r="Q32" s="119" t="s">
+      <c r="P32" s="127"/>
+      <c r="Q32" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="R32" s="119"/>
-      <c r="S32" s="119" t="s">
+      <c r="R32" s="127"/>
+      <c r="S32" s="127" t="s">
         <v>179</v>
       </c>
-      <c r="T32" s="119"/>
-      <c r="U32" s="119" t="s">
+      <c r="T32" s="127"/>
+      <c r="U32" s="127" t="s">
         <v>180</v>
       </c>
-      <c r="V32" s="119"/>
-      <c r="W32" s="119" t="s">
+      <c r="V32" s="127"/>
+      <c r="W32" s="127" t="s">
         <v>181</v>
       </c>
-      <c r="X32" s="119"/>
-      <c r="Y32" s="119" t="s">
+      <c r="X32" s="127"/>
+      <c r="Y32" s="127" t="s">
         <v>191</v>
       </c>
-      <c r="Z32" s="119"/>
-      <c r="AA32" s="119" t="s">
+      <c r="Z32" s="127"/>
+      <c r="AA32" s="127" t="s">
         <v>211</v>
       </c>
-      <c r="AB32" s="119"/>
-      <c r="AC32" s="119" t="s">
+      <c r="AB32" s="127"/>
+      <c r="AC32" s="127" t="s">
         <v>158</v>
       </c>
-      <c r="AD32" s="119"/>
-      <c r="AE32" s="126" t="s">
+      <c r="AD32" s="127"/>
+      <c r="AE32" s="134" t="s">
         <v>159</v>
       </c>
-      <c r="AF32" s="126"/>
+      <c r="AF32" s="134"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B33" s="10" t="s">
-        <v>660</v>
-      </c>
-      <c r="C33" s="124" t="s">
+        <v>654</v>
+      </c>
+      <c r="C33" s="132" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="124"/>
-      <c r="E33" s="108" t="s">
+      <c r="D33" s="132"/>
+      <c r="E33" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="F33" s="108"/>
-      <c r="G33" s="108" t="s">
+      <c r="F33" s="116"/>
+      <c r="G33" s="116" t="s">
         <v>165</v>
       </c>
-      <c r="H33" s="108"/>
-      <c r="I33" s="108" t="s">
+      <c r="H33" s="116"/>
+      <c r="I33" s="116" t="s">
         <v>163</v>
       </c>
-      <c r="J33" s="108"/>
-      <c r="K33" s="108"/>
-      <c r="L33" s="108"/>
-      <c r="M33" s="102"/>
-      <c r="N33" s="102"/>
-      <c r="O33" s="102"/>
-      <c r="P33" s="102"/>
-      <c r="Q33" s="102"/>
-      <c r="R33" s="102"/>
-      <c r="S33" s="102"/>
-      <c r="T33" s="102"/>
-      <c r="U33" s="102"/>
-      <c r="V33" s="102"/>
-      <c r="W33" s="102"/>
-      <c r="X33" s="102"/>
-      <c r="Y33" s="116"/>
-      <c r="Z33" s="116"/>
-      <c r="AA33" s="109"/>
-      <c r="AB33" s="109"/>
-      <c r="AC33" s="102" t="s">
-        <v>487</v>
-      </c>
-      <c r="AD33" s="102"/>
-      <c r="AE33" s="101" t="str">
+      <c r="J33" s="116"/>
+      <c r="K33" s="116"/>
+      <c r="L33" s="116"/>
+      <c r="M33" s="110"/>
+      <c r="N33" s="110"/>
+      <c r="O33" s="110"/>
+      <c r="P33" s="110"/>
+      <c r="Q33" s="110"/>
+      <c r="R33" s="110"/>
+      <c r="S33" s="110"/>
+      <c r="T33" s="110"/>
+      <c r="U33" s="110"/>
+      <c r="V33" s="110"/>
+      <c r="W33" s="110"/>
+      <c r="X33" s="110"/>
+      <c r="Y33" s="124"/>
+      <c r="Z33" s="124"/>
+      <c r="AA33" s="117"/>
+      <c r="AB33" s="117"/>
+      <c r="AC33" s="110" t="s">
+        <v>486</v>
+      </c>
+      <c r="AD33" s="110"/>
+      <c r="AE33" s="109" t="str">
         <f>CONCATENATE(E33,"+",G33,"-",I33)</f>
         <v>固有暴击率+攻击方装备本身附加暴击率-防御方装备本身附加暴击抗性</v>
       </c>
-      <c r="AF33" s="101"/>
+      <c r="AF33" s="109"/>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="C34" s="124" t="s">
+        <v>565</v>
+      </c>
+      <c r="C34" s="132" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="124"/>
-      <c r="E34" s="108" t="s">
+      <c r="D34" s="132"/>
+      <c r="E34" s="116" t="s">
         <v>166</v>
       </c>
-      <c r="F34" s="108"/>
-      <c r="G34" s="110" t="s">
+      <c r="F34" s="116"/>
+      <c r="G34" s="118" t="s">
         <v>192</v>
       </c>
-      <c r="H34" s="110"/>
-      <c r="I34" s="108" t="s">
+      <c r="H34" s="118"/>
+      <c r="I34" s="116" t="s">
         <v>167</v>
       </c>
-      <c r="J34" s="108"/>
+      <c r="J34" s="116"/>
       <c r="K34" s="50" t="s">
         <v>168</v>
       </c>
@@ -21809,46 +21851,46 @@
         <v>171</v>
       </c>
       <c r="R34" s="49"/>
-      <c r="S34" s="108"/>
-      <c r="T34" s="108"/>
-      <c r="U34" s="102"/>
-      <c r="V34" s="102"/>
-      <c r="W34" s="102"/>
-      <c r="X34" s="102"/>
-      <c r="Y34" s="116"/>
-      <c r="Z34" s="116"/>
-      <c r="AA34" s="109"/>
-      <c r="AB34" s="109"/>
-      <c r="AC34" s="102" t="s">
-        <v>533</v>
-      </c>
-      <c r="AD34" s="102"/>
-      <c r="AE34" s="101" t="str">
+      <c r="S34" s="116"/>
+      <c r="T34" s="116"/>
+      <c r="U34" s="110"/>
+      <c r="V34" s="110"/>
+      <c r="W34" s="110"/>
+      <c r="X34" s="110"/>
+      <c r="Y34" s="124"/>
+      <c r="Z34" s="124"/>
+      <c r="AA34" s="117"/>
+      <c r="AB34" s="117"/>
+      <c r="AC34" s="110" t="s">
+        <v>532</v>
+      </c>
+      <c r="AD34" s="110"/>
+      <c r="AE34" s="109" t="str">
         <f>CONCATENATE(E34,"+",G34,"+",I34,"+",M34,"+",O34,"+",Q34,"+",K34)</f>
         <v>怪物本身力量+怪物升星附加力量+装备本身附加力量+装备进阶附加力量+装备镶嵌附加力量+人物装备附加力量+装备强化附加力量</v>
       </c>
-      <c r="AF34" s="101"/>
+      <c r="AF34" s="109"/>
     </row>
     <row r="35" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="C35" s="124" t="s">
+        <v>566</v>
+      </c>
+      <c r="C35" s="132" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="124"/>
-      <c r="E35" s="108" t="s">
+      <c r="D35" s="132"/>
+      <c r="E35" s="116" t="s">
         <v>172</v>
       </c>
-      <c r="F35" s="108"/>
-      <c r="G35" s="110" t="s">
+      <c r="F35" s="116"/>
+      <c r="G35" s="118" t="s">
         <v>193</v>
       </c>
-      <c r="H35" s="110"/>
-      <c r="I35" s="108" t="s">
+      <c r="H35" s="118"/>
+      <c r="I35" s="116" t="s">
         <v>173</v>
       </c>
-      <c r="J35" s="108"/>
+      <c r="J35" s="116"/>
       <c r="K35" s="50" t="s">
         <v>174</v>
       </c>
@@ -21865,46 +21907,46 @@
         <v>177</v>
       </c>
       <c r="R35" s="49"/>
-      <c r="S35" s="108"/>
-      <c r="T35" s="108"/>
-      <c r="U35" s="102"/>
-      <c r="V35" s="102"/>
-      <c r="W35" s="102"/>
-      <c r="X35" s="102"/>
-      <c r="Y35" s="116"/>
-      <c r="Z35" s="116"/>
-      <c r="AA35" s="109"/>
-      <c r="AB35" s="109"/>
-      <c r="AC35" s="102" t="s">
-        <v>533</v>
-      </c>
-      <c r="AD35" s="102"/>
-      <c r="AE35" s="101" t="str">
+      <c r="S35" s="116"/>
+      <c r="T35" s="116"/>
+      <c r="U35" s="110"/>
+      <c r="V35" s="110"/>
+      <c r="W35" s="110"/>
+      <c r="X35" s="110"/>
+      <c r="Y35" s="124"/>
+      <c r="Z35" s="124"/>
+      <c r="AA35" s="117"/>
+      <c r="AB35" s="117"/>
+      <c r="AC35" s="110" t="s">
+        <v>532</v>
+      </c>
+      <c r="AD35" s="110"/>
+      <c r="AE35" s="109" t="str">
         <f>CONCATENATE(E35,"+",G35,"+",I35,"+",M35,"+",O35,"+",Q35,"+",K35)</f>
         <v>怪物本身智力+怪物升星附加智力+装备本身附加智力+装备进阶附加智力+装备镶嵌附加智力+人物装备附加智力+装备强化附加智力</v>
       </c>
-      <c r="AF35" s="101"/>
+      <c r="AF35" s="109"/>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
-        <v>586</v>
-      </c>
-      <c r="C36" s="124" t="s">
+        <v>585</v>
+      </c>
+      <c r="C36" s="132" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="124"/>
-      <c r="E36" s="108" t="s">
+      <c r="D36" s="132"/>
+      <c r="E36" s="116" t="s">
         <v>182</v>
       </c>
-      <c r="F36" s="108"/>
-      <c r="G36" s="110" t="s">
+      <c r="F36" s="116"/>
+      <c r="G36" s="118" t="s">
         <v>194</v>
       </c>
-      <c r="H36" s="110"/>
-      <c r="I36" s="108" t="s">
+      <c r="H36" s="118"/>
+      <c r="I36" s="116" t="s">
         <v>183</v>
       </c>
-      <c r="J36" s="108"/>
+      <c r="J36" s="116"/>
       <c r="K36" s="50" t="s">
         <v>184</v>
       </c>
@@ -21922,55 +21964,55 @@
       </c>
       <c r="R36" s="49"/>
       <c r="S36" s="49" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="T36" s="49"/>
       <c r="U36" s="49" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="V36" s="49"/>
       <c r="W36" s="49" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="X36" s="49"/>
       <c r="Y36" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="Z36" s="49"/>
+      <c r="AA36" s="116" t="s">
         <v>502</v>
       </c>
-      <c r="Z36" s="49"/>
-      <c r="AA36" s="108" t="s">
-        <v>503</v>
-      </c>
-      <c r="AB36" s="108"/>
-      <c r="AC36" s="102" t="s">
+      <c r="AB36" s="116"/>
+      <c r="AC36" s="110" t="s">
         <v>216</v>
       </c>
-      <c r="AD36" s="102"/>
-      <c r="AE36" s="101" t="str">
+      <c r="AD36" s="110"/>
+      <c r="AE36" s="109" t="str">
         <f>CONCATENATE("(",E36,"+",G36,"+",I36,"+",M36,"+",O36,"+",Q36,"+",K36,")","*","（","1","+",S36,")","*","(","1","+",U36,"+",W36,"+",Y36,"+",AA36,")")</f>
         <v>(怪物本身防御力+怪物升星附加防御力+装备本身附加防御力+装备进阶附加防御力+装备镶嵌附加防御力+人物装备附加防御力+装备强化附加防御力)*（1+人物装备套装附加防御力百分比)*(1+法阵附加防御力百分比+Buff附加防御力百分比+队长附加防御力百分比+被动附加防御力百分比)</v>
       </c>
-      <c r="AF36" s="101"/>
+      <c r="AF36" s="109"/>
     </row>
     <row r="37" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="C37" s="124" t="s">
-        <v>698</v>
-      </c>
-      <c r="D37" s="124"/>
-      <c r="E37" s="108" t="s">
+        <v>567</v>
+      </c>
+      <c r="C37" s="132" t="s">
+        <v>688</v>
+      </c>
+      <c r="D37" s="132"/>
+      <c r="E37" s="116" t="s">
         <v>182</v>
       </c>
-      <c r="F37" s="108"/>
-      <c r="G37" s="110" t="s">
+      <c r="F37" s="116"/>
+      <c r="G37" s="118" t="s">
         <v>194</v>
       </c>
-      <c r="H37" s="110"/>
-      <c r="I37" s="108" t="s">
+      <c r="H37" s="118"/>
+      <c r="I37" s="116" t="s">
         <v>183</v>
       </c>
-      <c r="J37" s="108"/>
+      <c r="J37" s="116"/>
       <c r="K37" s="50" t="s">
         <v>184</v>
       </c>
@@ -21987,44 +22029,44 @@
         <v>187</v>
       </c>
       <c r="R37" s="49"/>
-      <c r="S37" s="105"/>
-      <c r="T37" s="106"/>
-      <c r="U37" s="109"/>
-      <c r="V37" s="109"/>
-      <c r="W37" s="109"/>
-      <c r="X37" s="109"/>
-      <c r="Y37" s="109"/>
-      <c r="Z37" s="109"/>
-      <c r="AA37" s="108"/>
-      <c r="AB37" s="108"/>
-      <c r="AC37" s="102" t="s">
-        <v>533</v>
-      </c>
-      <c r="AD37" s="102"/>
-      <c r="AE37" s="101" t="str">
+      <c r="S37" s="113"/>
+      <c r="T37" s="114"/>
+      <c r="U37" s="117"/>
+      <c r="V37" s="117"/>
+      <c r="W37" s="117"/>
+      <c r="X37" s="117"/>
+      <c r="Y37" s="117"/>
+      <c r="Z37" s="117"/>
+      <c r="AA37" s="116"/>
+      <c r="AB37" s="116"/>
+      <c r="AC37" s="110" t="s">
+        <v>532</v>
+      </c>
+      <c r="AD37" s="110"/>
+      <c r="AE37" s="109" t="str">
         <f>CONCATENATE(E37,"+",G37,"+",I37,"+",M37,"+",O37,"+",Q37,"+",K37)</f>
         <v>怪物本身防御力+怪物升星附加防御力+装备本身附加防御力+装备进阶附加防御力+装备镶嵌附加防御力+人物装备附加防御力+装备强化附加防御力</v>
       </c>
-      <c r="AF37" s="101"/>
+      <c r="AF37" s="109"/>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
-      <c r="C38" s="107" t="s">
+      <c r="C38" s="115" t="s">
         <v>196</v>
       </c>
-      <c r="D38" s="107"/>
-      <c r="E38" s="108" t="s">
+      <c r="D38" s="115"/>
+      <c r="E38" s="116" t="s">
         <v>204</v>
       </c>
-      <c r="F38" s="108"/>
-      <c r="G38" s="110" t="s">
+      <c r="F38" s="116"/>
+      <c r="G38" s="118" t="s">
         <v>205</v>
       </c>
-      <c r="H38" s="110"/>
-      <c r="I38" s="108" t="s">
+      <c r="H38" s="118"/>
+      <c r="I38" s="116" t="s">
         <v>206</v>
       </c>
-      <c r="J38" s="108"/>
+      <c r="J38" s="116"/>
       <c r="K38" s="50" t="s">
         <v>207</v>
       </c>
@@ -22042,53 +22084,53 @@
       </c>
       <c r="R38" s="49"/>
       <c r="S38" s="49" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="T38" s="49"/>
-      <c r="U38" s="109" t="s">
-        <v>507</v>
-      </c>
-      <c r="V38" s="109"/>
-      <c r="W38" s="109" t="s">
+      <c r="U38" s="117" t="s">
         <v>506</v>
       </c>
-      <c r="X38" s="109"/>
-      <c r="Y38" s="109" t="s">
+      <c r="V38" s="117"/>
+      <c r="W38" s="117" t="s">
         <v>505</v>
       </c>
-      <c r="Z38" s="109"/>
-      <c r="AA38" s="108" t="s">
+      <c r="X38" s="117"/>
+      <c r="Y38" s="117" t="s">
         <v>504</v>
       </c>
-      <c r="AB38" s="108"/>
-      <c r="AC38" s="102" t="s">
+      <c r="Z38" s="117"/>
+      <c r="AA38" s="116" t="s">
+        <v>503</v>
+      </c>
+      <c r="AB38" s="116"/>
+      <c r="AC38" s="110" t="s">
         <v>216</v>
       </c>
-      <c r="AD38" s="102"/>
-      <c r="AE38" s="101" t="str">
+      <c r="AD38" s="110"/>
+      <c r="AE38" s="109" t="str">
         <f>CONCATENATE("(",E38,"+",G38,"+",I38,"+",M38,"+",O38,"+",Q38,"+",K38,")","*","（","1","+",S38,")","*","(","1","+",U38,"+",W38,"+",Y38,"+",AA38,")")</f>
         <v>(怪物本身速度+怪物升星附加速度+装备本身附加速度+装备进阶附加速度+装备镶嵌附加速度+人物装备附加速度+装备强化附加速度)*（1+人物装备套装附加速度百分比)*(1+法阵附加速度百分比+Buff附加速度百分比+队长技附加速度百分比+被动附加速度百分比)</v>
       </c>
-      <c r="AF38" s="101"/>
+      <c r="AF38" s="109"/>
     </row>
     <row r="39" spans="1:32" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="55"/>
-      <c r="C39" s="107" t="s">
-        <v>699</v>
-      </c>
-      <c r="D39" s="107"/>
-      <c r="E39" s="108" t="s">
+      <c r="C39" s="115" t="s">
+        <v>689</v>
+      </c>
+      <c r="D39" s="115"/>
+      <c r="E39" s="116" t="s">
         <v>204</v>
       </c>
-      <c r="F39" s="108"/>
-      <c r="G39" s="110" t="s">
+      <c r="F39" s="116"/>
+      <c r="G39" s="118" t="s">
         <v>205</v>
       </c>
-      <c r="H39" s="110"/>
-      <c r="I39" s="108" t="s">
+      <c r="H39" s="118"/>
+      <c r="I39" s="116" t="s">
         <v>206</v>
       </c>
-      <c r="J39" s="108"/>
+      <c r="J39" s="116"/>
       <c r="K39" s="50" t="s">
         <v>207</v>
       </c>
@@ -22105,86 +22147,86 @@
         <v>210</v>
       </c>
       <c r="R39" s="49"/>
-      <c r="S39" s="113"/>
-      <c r="T39" s="114"/>
-      <c r="U39" s="113"/>
-      <c r="V39" s="114"/>
-      <c r="W39" s="113"/>
-      <c r="X39" s="114"/>
-      <c r="Y39" s="113"/>
-      <c r="Z39" s="114"/>
-      <c r="AA39" s="111"/>
-      <c r="AB39" s="112"/>
-      <c r="AC39" s="102" t="s">
-        <v>533</v>
-      </c>
-      <c r="AD39" s="102"/>
-      <c r="AE39" s="101" t="str">
+      <c r="S39" s="121"/>
+      <c r="T39" s="122"/>
+      <c r="U39" s="121"/>
+      <c r="V39" s="122"/>
+      <c r="W39" s="121"/>
+      <c r="X39" s="122"/>
+      <c r="Y39" s="121"/>
+      <c r="Z39" s="122"/>
+      <c r="AA39" s="119"/>
+      <c r="AB39" s="120"/>
+      <c r="AC39" s="110" t="s">
+        <v>532</v>
+      </c>
+      <c r="AD39" s="110"/>
+      <c r="AE39" s="109" t="str">
         <f>CONCATENATE(E39,"+",G39,"+",I39,"+",M39,"+",O39,"+",Q39,"+",K39)</f>
         <v>怪物本身速度+怪物升星附加速度+装备本身附加速度+装备进阶附加速度+装备镶嵌附加速度+人物装备附加速度+装备强化附加速度</v>
       </c>
-      <c r="AF39" s="101"/>
+      <c r="AF39" s="109"/>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C40" s="107" t="s">
+      <c r="C40" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="D40" s="107"/>
-      <c r="E40" s="108" t="s">
+      <c r="D40" s="115"/>
+      <c r="E40" s="116" t="s">
         <v>230</v>
       </c>
-      <c r="F40" s="108"/>
-      <c r="G40" s="108" t="s">
-        <v>513</v>
-      </c>
-      <c r="H40" s="108"/>
-      <c r="I40" s="108"/>
-      <c r="J40" s="108"/>
-      <c r="K40" s="115"/>
-      <c r="L40" s="115"/>
-      <c r="M40" s="115"/>
-      <c r="N40" s="115"/>
-      <c r="O40" s="115"/>
-      <c r="P40" s="115"/>
-      <c r="Q40" s="116"/>
-      <c r="R40" s="116"/>
-      <c r="S40" s="116"/>
-      <c r="T40" s="116"/>
-      <c r="U40" s="109"/>
-      <c r="V40" s="109"/>
-      <c r="W40" s="109"/>
-      <c r="X40" s="109"/>
-      <c r="Y40" s="109"/>
-      <c r="Z40" s="109"/>
-      <c r="AA40" s="108"/>
-      <c r="AB40" s="108"/>
-      <c r="AC40" s="102" t="s">
-        <v>483</v>
-      </c>
-      <c r="AD40" s="102"/>
-      <c r="AE40" s="101" t="str">
+      <c r="F40" s="116"/>
+      <c r="G40" s="116" t="s">
+        <v>512</v>
+      </c>
+      <c r="H40" s="116"/>
+      <c r="I40" s="116"/>
+      <c r="J40" s="116"/>
+      <c r="K40" s="123"/>
+      <c r="L40" s="123"/>
+      <c r="M40" s="123"/>
+      <c r="N40" s="123"/>
+      <c r="O40" s="123"/>
+      <c r="P40" s="123"/>
+      <c r="Q40" s="124"/>
+      <c r="R40" s="124"/>
+      <c r="S40" s="124"/>
+      <c r="T40" s="124"/>
+      <c r="U40" s="117"/>
+      <c r="V40" s="117"/>
+      <c r="W40" s="117"/>
+      <c r="X40" s="117"/>
+      <c r="Y40" s="117"/>
+      <c r="Z40" s="117"/>
+      <c r="AA40" s="116"/>
+      <c r="AB40" s="116"/>
+      <c r="AC40" s="110" t="s">
+        <v>482</v>
+      </c>
+      <c r="AD40" s="110"/>
+      <c r="AE40" s="109" t="str">
         <f>CONCATENATE(E40,"*","（",1,"+",G40,")")</f>
         <v>怪物本身耐力*（1+被动附加耐力百分比)</v>
       </c>
-      <c r="AF40" s="101"/>
+      <c r="AF40" s="109"/>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C41" s="107" t="s">
+      <c r="C41" s="115" t="s">
         <v>220</v>
       </c>
-      <c r="D41" s="107"/>
-      <c r="E41" s="108" t="s">
+      <c r="D41" s="115"/>
+      <c r="E41" s="116" t="s">
         <v>221</v>
       </c>
-      <c r="F41" s="108"/>
-      <c r="G41" s="110" t="s">
+      <c r="F41" s="116"/>
+      <c r="G41" s="118" t="s">
         <v>222</v>
       </c>
-      <c r="H41" s="110"/>
-      <c r="I41" s="108" t="s">
+      <c r="H41" s="118"/>
+      <c r="I41" s="116" t="s">
         <v>223</v>
       </c>
-      <c r="J41" s="108"/>
+      <c r="J41" s="116"/>
       <c r="K41" s="50" t="s">
         <v>224</v>
       </c>
@@ -22202,50 +22244,50 @@
       </c>
       <c r="R41" s="49"/>
       <c r="S41" s="49" t="s">
+        <v>508</v>
+      </c>
+      <c r="T41" s="49"/>
+      <c r="U41" s="117" t="s">
         <v>509</v>
       </c>
-      <c r="T41" s="49"/>
-      <c r="U41" s="109" t="s">
+      <c r="V41" s="117"/>
+      <c r="W41" s="117" t="s">
         <v>510</v>
       </c>
-      <c r="V41" s="109"/>
-      <c r="W41" s="109" t="s">
+      <c r="X41" s="117"/>
+      <c r="Y41" s="116" t="s">
         <v>511</v>
       </c>
-      <c r="X41" s="109"/>
-      <c r="Y41" s="108" t="s">
-        <v>512</v>
-      </c>
-      <c r="Z41" s="108"/>
-      <c r="AA41" s="108"/>
-      <c r="AB41" s="108"/>
-      <c r="AC41" s="102" t="s">
+      <c r="Z41" s="116"/>
+      <c r="AA41" s="116"/>
+      <c r="AB41" s="116"/>
+      <c r="AC41" s="110" t="s">
         <v>195</v>
       </c>
-      <c r="AD41" s="102"/>
-      <c r="AE41" s="101" t="str">
+      <c r="AD41" s="110"/>
+      <c r="AE41" s="109" t="str">
         <f>CONCATENATE("(",E41,"+",G41,"+",I41,"+",M41,"+",O41,"+",Q41,"+",K41,")","*","（","1","+",S41,")","*","(","1","+",U41,"+",W41,"+",Y41,")")</f>
         <v>(怪物本身体力+怪物升星附加体力+装备本身附加体力+装备进阶附加体力+装备镶嵌附加体力+人物装备附加体力+装备强化附加体力)*（1+人物装备套装附加体力百分比)*(1+法阵附加体力百分比+队长技附加体力百分比+被动附加体力百分比)</v>
       </c>
-      <c r="AF41" s="101"/>
+      <c r="AF41" s="109"/>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C42" s="107" t="s">
-        <v>700</v>
-      </c>
-      <c r="D42" s="107"/>
-      <c r="E42" s="108" t="s">
+      <c r="C42" s="115" t="s">
+        <v>690</v>
+      </c>
+      <c r="D42" s="115"/>
+      <c r="E42" s="116" t="s">
         <v>221</v>
       </c>
-      <c r="F42" s="108"/>
-      <c r="G42" s="110" t="s">
+      <c r="F42" s="116"/>
+      <c r="G42" s="118" t="s">
         <v>222</v>
       </c>
-      <c r="H42" s="110"/>
-      <c r="I42" s="108" t="s">
+      <c r="H42" s="118"/>
+      <c r="I42" s="116" t="s">
         <v>223</v>
       </c>
-      <c r="J42" s="108"/>
+      <c r="J42" s="116"/>
       <c r="K42" s="50" t="s">
         <v>224</v>
       </c>
@@ -22262,117 +22304,117 @@
         <v>231</v>
       </c>
       <c r="R42" s="49"/>
-      <c r="S42" s="105"/>
-      <c r="T42" s="106"/>
-      <c r="U42" s="105"/>
-      <c r="V42" s="106"/>
-      <c r="W42" s="105"/>
-      <c r="X42" s="106"/>
-      <c r="Y42" s="103"/>
-      <c r="Z42" s="104"/>
-      <c r="AA42" s="103"/>
-      <c r="AB42" s="104"/>
-      <c r="AC42" s="102" t="s">
-        <v>533</v>
-      </c>
-      <c r="AD42" s="102"/>
-      <c r="AE42" s="101" t="str">
+      <c r="S42" s="113"/>
+      <c r="T42" s="114"/>
+      <c r="U42" s="113"/>
+      <c r="V42" s="114"/>
+      <c r="W42" s="113"/>
+      <c r="X42" s="114"/>
+      <c r="Y42" s="111"/>
+      <c r="Z42" s="112"/>
+      <c r="AA42" s="111"/>
+      <c r="AB42" s="112"/>
+      <c r="AC42" s="110" t="s">
+        <v>532</v>
+      </c>
+      <c r="AD42" s="110"/>
+      <c r="AE42" s="109" t="str">
         <f>CONCATENATE(E42,"+",G42,"+",I42,"+",M42,"+",O42,"+",Q42,"+",K42)</f>
         <v>怪物本身体力+怪物升星附加体力+装备本身附加体力+装备进阶附加体力+装备镶嵌附加体力+人物装备附加体力+装备强化附加体力</v>
       </c>
-      <c r="AF42" s="101"/>
+      <c r="AF42" s="109"/>
     </row>
     <row r="43" spans="1:32" s="45" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C43" s="117" t="s">
+      <c r="C43" s="125" t="s">
+        <v>451</v>
+      </c>
+      <c r="D43" s="125"/>
+      <c r="E43" s="116" t="s">
         <v>452</v>
       </c>
-      <c r="D43" s="117"/>
-      <c r="E43" s="108" t="s">
+      <c r="F43" s="116"/>
+      <c r="G43" s="118" t="s">
         <v>453</v>
       </c>
-      <c r="F43" s="108"/>
-      <c r="G43" s="110" t="s">
+      <c r="H43" s="118"/>
+      <c r="I43" s="116" t="s">
         <v>454</v>
       </c>
-      <c r="H43" s="110"/>
-      <c r="I43" s="108" t="s">
+      <c r="J43" s="116"/>
+      <c r="K43" s="126"/>
+      <c r="L43" s="126"/>
+      <c r="M43" s="116"/>
+      <c r="N43" s="116"/>
+      <c r="O43" s="126"/>
+      <c r="P43" s="126"/>
+      <c r="Q43" s="117"/>
+      <c r="R43" s="117"/>
+      <c r="S43" s="117"/>
+      <c r="T43" s="117"/>
+      <c r="U43" s="117"/>
+      <c r="V43" s="117"/>
+      <c r="W43" s="117"/>
+      <c r="X43" s="117"/>
+      <c r="Y43" s="126"/>
+      <c r="Z43" s="126"/>
+      <c r="AA43" s="126"/>
+      <c r="AB43" s="126"/>
+      <c r="AC43" s="110" t="s">
         <v>455</v>
       </c>
-      <c r="J43" s="108"/>
-      <c r="K43" s="118"/>
-      <c r="L43" s="118"/>
-      <c r="M43" s="108"/>
-      <c r="N43" s="108"/>
-      <c r="O43" s="118"/>
-      <c r="P43" s="118"/>
-      <c r="Q43" s="109"/>
-      <c r="R43" s="109"/>
-      <c r="S43" s="109"/>
-      <c r="T43" s="109"/>
-      <c r="U43" s="109"/>
-      <c r="V43" s="109"/>
-      <c r="W43" s="109"/>
-      <c r="X43" s="109"/>
-      <c r="Y43" s="118"/>
-      <c r="Z43" s="118"/>
-      <c r="AA43" s="118"/>
-      <c r="AB43" s="118"/>
-      <c r="AC43" s="102" t="s">
-        <v>456</v>
-      </c>
-      <c r="AD43" s="102"/>
-      <c r="AE43" s="101" t="str">
+      <c r="AD43" s="110"/>
+      <c r="AE43" s="109" t="str">
         <f>CONCATENATE(E43,"+",G43,"+",I43)</f>
         <v>怪物本身生命回复+怪物升星附加生命回复+装备进阶附加生命回复</v>
       </c>
-      <c r="AF43" s="101"/>
+      <c r="AF43" s="109"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C44" s="107" t="s">
+      <c r="C44" s="115" t="s">
         <v>232</v>
       </c>
-      <c r="D44" s="107"/>
+      <c r="D44" s="115"/>
       <c r="E44" s="49" t="s">
+        <v>514</v>
+      </c>
+      <c r="F44" s="49"/>
+      <c r="G44" s="117" t="s">
         <v>515</v>
       </c>
-      <c r="F44" s="49"/>
-      <c r="G44" s="109" t="s">
+      <c r="H44" s="117"/>
+      <c r="I44" s="117" t="s">
         <v>516</v>
       </c>
-      <c r="H44" s="109"/>
-      <c r="I44" s="109" t="s">
+      <c r="J44" s="117"/>
+      <c r="K44" s="116" t="s">
         <v>517</v>
       </c>
-      <c r="J44" s="109"/>
-      <c r="K44" s="108" t="s">
-        <v>518</v>
-      </c>
-      <c r="L44" s="108"/>
-      <c r="M44" s="115"/>
-      <c r="N44" s="115"/>
-      <c r="O44" s="115"/>
-      <c r="P44" s="115"/>
-      <c r="Q44" s="116"/>
-      <c r="R44" s="116"/>
-      <c r="S44" s="116"/>
-      <c r="T44" s="116"/>
-      <c r="U44" s="109"/>
-      <c r="V44" s="109"/>
-      <c r="W44" s="109"/>
-      <c r="X44" s="109"/>
-      <c r="Y44" s="108"/>
-      <c r="Z44" s="108"/>
-      <c r="AA44" s="108"/>
-      <c r="AB44" s="108"/>
-      <c r="AC44" s="102" t="s">
+      <c r="L44" s="116"/>
+      <c r="M44" s="123"/>
+      <c r="N44" s="123"/>
+      <c r="O44" s="123"/>
+      <c r="P44" s="123"/>
+      <c r="Q44" s="124"/>
+      <c r="R44" s="124"/>
+      <c r="S44" s="124"/>
+      <c r="T44" s="124"/>
+      <c r="U44" s="117"/>
+      <c r="V44" s="117"/>
+      <c r="W44" s="117"/>
+      <c r="X44" s="117"/>
+      <c r="Y44" s="116"/>
+      <c r="Z44" s="116"/>
+      <c r="AA44" s="116"/>
+      <c r="AB44" s="116"/>
+      <c r="AC44" s="110" t="s">
         <v>233</v>
       </c>
-      <c r="AD44" s="102"/>
-      <c r="AE44" s="101" t="str">
+      <c r="AD44" s="110"/>
+      <c r="AE44" s="109" t="str">
         <f>CONCATENATE(E44,"+",G44,"+",I44,"+",K44)</f>
         <v>人物装备套装附加五行加成百分比+法阵附加五行加成百分比+队长技附加五行加成百分比+被动附加五行加成百分比</v>
       </c>
-      <c r="AF44" s="101"/>
+      <c r="AF44" s="109"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.15">
       <c r="D45" s="6"/>
@@ -22397,16 +22439,16 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
@@ -22698,89 +22740,89 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C1" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C2" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D5" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E6" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F7" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E8" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I8" s="42"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I9" s="42"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D11" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E12" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D13" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E14" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B15" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -22792,17 +22834,17 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E16" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:57" x14ac:dyDescent="0.15">
       <c r="F17" s="1" t="s">
-        <v>788</v>
+        <v>773</v>
       </c>
     </row>
     <row r="18" spans="1:57" x14ac:dyDescent="0.15">
       <c r="C18" s="57" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="D18" s="57"/>
       <c r="E18" s="57"/>
@@ -22820,7 +22862,7 @@
     <row r="19" spans="1:57" x14ac:dyDescent="0.15">
       <c r="C19" s="57"/>
       <c r="D19" s="57" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="E19" s="57"/>
       <c r="F19" s="57"/>
@@ -22838,7 +22880,7 @@
       <c r="C20" s="57"/>
       <c r="D20" s="57"/>
       <c r="E20" s="57" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F20" s="57"/>
       <c r="G20" s="57"/>
@@ -22856,7 +22898,7 @@
       <c r="D21" s="57"/>
       <c r="E21" s="57"/>
       <c r="F21" s="57" t="s">
-        <v>789</v>
+        <v>774</v>
       </c>
       <c r="G21" s="57"/>
       <c r="H21" s="57"/>
@@ -22872,7 +22914,7 @@
       <c r="C22" s="57"/>
       <c r="D22" s="57"/>
       <c r="E22" s="57" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F22" s="57"/>
       <c r="G22" s="57"/>
@@ -22890,7 +22932,7 @@
       <c r="D23" s="57"/>
       <c r="E23" s="57"/>
       <c r="F23" s="57" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="G23" s="57"/>
       <c r="H23" s="57"/>
@@ -22904,12 +22946,12 @@
     </row>
     <row r="25" spans="1:57" x14ac:dyDescent="0.15">
       <c r="C25" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="27" spans="1:57" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>76</v>
@@ -22922,432 +22964,432 @@
     </row>
     <row r="28" spans="1:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="47" t="s">
-        <v>570</v>
-      </c>
-      <c r="C28" s="136" t="s">
+        <v>569</v>
+      </c>
+      <c r="C28" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="137"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="138" t="s">
-        <v>665</v>
-      </c>
-      <c r="G28" s="138"/>
-      <c r="H28" s="138"/>
-      <c r="I28" s="139" t="s">
+      <c r="D28" s="145"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="146" t="s">
+        <v>659</v>
+      </c>
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="147" t="s">
         <v>78</v>
       </c>
-      <c r="J28" s="138" t="s">
-        <v>662</v>
-      </c>
-      <c r="K28" s="138"/>
-      <c r="L28" s="138"/>
+      <c r="J28" s="146" t="s">
+        <v>656</v>
+      </c>
+      <c r="K28" s="146"/>
+      <c r="L28" s="146"/>
       <c r="M28" s="46"/>
-      <c r="N28" s="139" t="s">
+      <c r="N28" s="147" t="s">
         <v>78</v>
       </c>
-      <c r="O28" s="140" t="s">
-        <v>661</v>
-      </c>
-      <c r="P28" s="140"/>
-      <c r="Q28" s="140"/>
-      <c r="R28" s="139" t="s">
+      <c r="O28" s="148" t="s">
+        <v>655</v>
+      </c>
+      <c r="P28" s="148"/>
+      <c r="Q28" s="148"/>
+      <c r="R28" s="147" t="s">
         <v>78</v>
       </c>
-      <c r="S28" s="139" t="s">
-        <v>663</v>
-      </c>
-      <c r="T28" s="139"/>
-      <c r="U28" s="139"/>
-      <c r="V28" s="139" t="s">
+      <c r="S28" s="147" t="s">
+        <v>657</v>
+      </c>
+      <c r="T28" s="147"/>
+      <c r="U28" s="147"/>
+      <c r="V28" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="W28" s="139" t="s">
-        <v>576</v>
-      </c>
-      <c r="X28" s="139"/>
-      <c r="Y28" s="139"/>
-      <c r="Z28" s="142" t="s">
+      <c r="W28" s="147" t="s">
+        <v>575</v>
+      </c>
+      <c r="X28" s="147"/>
+      <c r="Y28" s="147"/>
+      <c r="Z28" s="150" t="s">
         <v>78</v>
       </c>
-      <c r="AA28" s="142" t="s">
-        <v>708</v>
-      </c>
-      <c r="AB28" s="142"/>
-      <c r="AC28" s="142"/>
-      <c r="AD28" s="132" t="s">
+      <c r="AA28" s="150" t="s">
+        <v>698</v>
+      </c>
+      <c r="AB28" s="150"/>
+      <c r="AC28" s="150"/>
+      <c r="AD28" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="AE28" s="132">
+      <c r="AE28" s="140">
         <v>1</v>
       </c>
-      <c r="AF28" s="132"/>
-      <c r="AG28" s="132"/>
-      <c r="AH28" s="132" t="s">
+      <c r="AF28" s="140"/>
+      <c r="AG28" s="140"/>
+      <c r="AH28" s="140" t="s">
         <v>96</v>
       </c>
-      <c r="AI28" s="132" t="s">
+      <c r="AI28" s="140" t="s">
+        <v>518</v>
+      </c>
+      <c r="AJ28" s="140"/>
+      <c r="AK28" s="140"/>
+      <c r="AL28" s="140" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM28" s="140" t="s">
         <v>519</v>
       </c>
-      <c r="AJ28" s="132"/>
-      <c r="AK28" s="132"/>
-      <c r="AL28" s="132" t="s">
+      <c r="AN28" s="140"/>
+      <c r="AO28" s="140"/>
+      <c r="AP28" s="140" t="s">
         <v>143</v>
       </c>
-      <c r="AM28" s="132" t="s">
+      <c r="AQ28" s="140" t="s">
         <v>520</v>
       </c>
-      <c r="AN28" s="132"/>
-      <c r="AO28" s="132"/>
-      <c r="AP28" s="132" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ28" s="132" t="s">
+      <c r="AR28" s="140"/>
+      <c r="AS28" s="140"/>
+      <c r="AT28" s="140" t="s">
+        <v>213</v>
+      </c>
+      <c r="AU28" s="140" t="s">
         <v>521</v>
       </c>
-      <c r="AR28" s="132"/>
-      <c r="AS28" s="132"/>
-      <c r="AT28" s="132" t="s">
-        <v>213</v>
-      </c>
-      <c r="AU28" s="132" t="s">
-        <v>522</v>
-      </c>
-      <c r="AV28" s="132"/>
-      <c r="AW28" s="132"/>
-      <c r="AX28" s="133" t="s">
-        <v>784</v>
-      </c>
-      <c r="AY28" s="133" t="s">
-        <v>785</v>
-      </c>
-      <c r="AZ28" s="133"/>
-      <c r="BA28" s="133"/>
-      <c r="BB28" s="130" t="s">
-        <v>784</v>
-      </c>
-      <c r="BC28" s="130" t="s">
-        <v>790</v>
-      </c>
-      <c r="BD28" s="130"/>
-      <c r="BE28" s="130"/>
+      <c r="AV28" s="140"/>
+      <c r="AW28" s="140"/>
+      <c r="AX28" s="141" t="s">
+        <v>769</v>
+      </c>
+      <c r="AY28" s="141" t="s">
+        <v>770</v>
+      </c>
+      <c r="AZ28" s="141"/>
+      <c r="BA28" s="141"/>
+      <c r="BB28" s="138" t="s">
+        <v>769</v>
+      </c>
+      <c r="BC28" s="138" t="s">
+        <v>775</v>
+      </c>
+      <c r="BD28" s="138"/>
+      <c r="BE28" s="138"/>
     </row>
     <row r="29" spans="1:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="C29" s="137"/>
-      <c r="D29" s="137"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="138"/>
-      <c r="G29" s="138"/>
-      <c r="H29" s="138"/>
-      <c r="I29" s="139"/>
-      <c r="J29" s="138"/>
-      <c r="K29" s="138"/>
-      <c r="L29" s="138"/>
+        <v>570</v>
+      </c>
+      <c r="C29" s="145"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="146"/>
       <c r="M29" s="46"/>
-      <c r="N29" s="139"/>
-      <c r="O29" s="140"/>
-      <c r="P29" s="140"/>
-      <c r="Q29" s="140"/>
-      <c r="R29" s="139"/>
-      <c r="S29" s="139"/>
-      <c r="T29" s="139"/>
-      <c r="U29" s="139"/>
-      <c r="V29" s="139"/>
-      <c r="W29" s="139"/>
-      <c r="X29" s="139"/>
-      <c r="Y29" s="139"/>
-      <c r="Z29" s="142"/>
-      <c r="AA29" s="142"/>
-      <c r="AB29" s="142"/>
-      <c r="AC29" s="142"/>
-      <c r="AD29" s="132"/>
-      <c r="AE29" s="132"/>
-      <c r="AF29" s="132"/>
-      <c r="AG29" s="132"/>
-      <c r="AH29" s="132"/>
-      <c r="AI29" s="132"/>
-      <c r="AJ29" s="132"/>
-      <c r="AK29" s="132"/>
-      <c r="AL29" s="132"/>
-      <c r="AM29" s="132"/>
-      <c r="AN29" s="132"/>
-      <c r="AO29" s="132"/>
-      <c r="AP29" s="132"/>
-      <c r="AQ29" s="132"/>
-      <c r="AR29" s="132"/>
-      <c r="AS29" s="132"/>
-      <c r="AT29" s="132"/>
-      <c r="AU29" s="132"/>
-      <c r="AV29" s="132"/>
-      <c r="AW29" s="132"/>
-      <c r="AX29" s="133"/>
-      <c r="AY29" s="133"/>
-      <c r="AZ29" s="133"/>
-      <c r="BA29" s="133"/>
-      <c r="BB29" s="130"/>
-      <c r="BC29" s="130"/>
-      <c r="BD29" s="130"/>
-      <c r="BE29" s="130"/>
+      <c r="N29" s="147"/>
+      <c r="O29" s="148"/>
+      <c r="P29" s="148"/>
+      <c r="Q29" s="148"/>
+      <c r="R29" s="147"/>
+      <c r="S29" s="147"/>
+      <c r="T29" s="147"/>
+      <c r="U29" s="147"/>
+      <c r="V29" s="147"/>
+      <c r="W29" s="147"/>
+      <c r="X29" s="147"/>
+      <c r="Y29" s="147"/>
+      <c r="Z29" s="150"/>
+      <c r="AA29" s="150"/>
+      <c r="AB29" s="150"/>
+      <c r="AC29" s="150"/>
+      <c r="AD29" s="140"/>
+      <c r="AE29" s="140"/>
+      <c r="AF29" s="140"/>
+      <c r="AG29" s="140"/>
+      <c r="AH29" s="140"/>
+      <c r="AI29" s="140"/>
+      <c r="AJ29" s="140"/>
+      <c r="AK29" s="140"/>
+      <c r="AL29" s="140"/>
+      <c r="AM29" s="140"/>
+      <c r="AN29" s="140"/>
+      <c r="AO29" s="140"/>
+      <c r="AP29" s="140"/>
+      <c r="AQ29" s="140"/>
+      <c r="AR29" s="140"/>
+      <c r="AS29" s="140"/>
+      <c r="AT29" s="140"/>
+      <c r="AU29" s="140"/>
+      <c r="AV29" s="140"/>
+      <c r="AW29" s="140"/>
+      <c r="AX29" s="141"/>
+      <c r="AY29" s="141"/>
+      <c r="AZ29" s="141"/>
+      <c r="BA29" s="141"/>
+      <c r="BB29" s="138"/>
+      <c r="BC29" s="138"/>
+      <c r="BD29" s="138"/>
+      <c r="BE29" s="138"/>
     </row>
     <row r="30" spans="1:57" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
-      <c r="C30" s="137"/>
-      <c r="D30" s="137"/>
-      <c r="E30" s="137"/>
-      <c r="F30" s="138"/>
-      <c r="G30" s="138"/>
-      <c r="H30" s="138"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="138"/>
-      <c r="K30" s="138"/>
-      <c r="L30" s="138"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="146"/>
       <c r="M30" s="46"/>
-      <c r="N30" s="139"/>
-      <c r="O30" s="140"/>
-      <c r="P30" s="140"/>
-      <c r="Q30" s="140"/>
-      <c r="R30" s="139"/>
-      <c r="S30" s="139"/>
-      <c r="T30" s="139"/>
-      <c r="U30" s="139"/>
-      <c r="V30" s="139"/>
-      <c r="W30" s="139"/>
-      <c r="X30" s="139"/>
-      <c r="Y30" s="139"/>
-      <c r="Z30" s="142"/>
-      <c r="AA30" s="142"/>
-      <c r="AB30" s="142"/>
-      <c r="AC30" s="142"/>
-      <c r="AD30" s="132"/>
-      <c r="AE30" s="132"/>
-      <c r="AF30" s="132"/>
-      <c r="AG30" s="132"/>
-      <c r="AH30" s="132"/>
-      <c r="AI30" s="132"/>
-      <c r="AJ30" s="132"/>
-      <c r="AK30" s="132"/>
-      <c r="AL30" s="132"/>
-      <c r="AM30" s="132"/>
-      <c r="AN30" s="132"/>
-      <c r="AO30" s="132"/>
-      <c r="AP30" s="132"/>
-      <c r="AQ30" s="132"/>
-      <c r="AR30" s="132"/>
-      <c r="AS30" s="132"/>
-      <c r="AT30" s="132"/>
-      <c r="AU30" s="132"/>
-      <c r="AV30" s="132"/>
-      <c r="AW30" s="132"/>
-      <c r="AX30" s="133"/>
-      <c r="AY30" s="133"/>
-      <c r="AZ30" s="133"/>
-      <c r="BA30" s="133"/>
-      <c r="BB30" s="130"/>
-      <c r="BC30" s="130"/>
-      <c r="BD30" s="130"/>
-      <c r="BE30" s="130"/>
+      <c r="N30" s="147"/>
+      <c r="O30" s="148"/>
+      <c r="P30" s="148"/>
+      <c r="Q30" s="148"/>
+      <c r="R30" s="147"/>
+      <c r="S30" s="147"/>
+      <c r="T30" s="147"/>
+      <c r="U30" s="147"/>
+      <c r="V30" s="147"/>
+      <c r="W30" s="147"/>
+      <c r="X30" s="147"/>
+      <c r="Y30" s="147"/>
+      <c r="Z30" s="150"/>
+      <c r="AA30" s="150"/>
+      <c r="AB30" s="150"/>
+      <c r="AC30" s="150"/>
+      <c r="AD30" s="140"/>
+      <c r="AE30" s="140"/>
+      <c r="AF30" s="140"/>
+      <c r="AG30" s="140"/>
+      <c r="AH30" s="140"/>
+      <c r="AI30" s="140"/>
+      <c r="AJ30" s="140"/>
+      <c r="AK30" s="140"/>
+      <c r="AL30" s="140"/>
+      <c r="AM30" s="140"/>
+      <c r="AN30" s="140"/>
+      <c r="AO30" s="140"/>
+      <c r="AP30" s="140"/>
+      <c r="AQ30" s="140"/>
+      <c r="AR30" s="140"/>
+      <c r="AS30" s="140"/>
+      <c r="AT30" s="140"/>
+      <c r="AU30" s="140"/>
+      <c r="AV30" s="140"/>
+      <c r="AW30" s="140"/>
+      <c r="AX30" s="141"/>
+      <c r="AY30" s="141"/>
+      <c r="AZ30" s="141"/>
+      <c r="BA30" s="141"/>
+      <c r="BB30" s="138"/>
+      <c r="BC30" s="138"/>
+      <c r="BD30" s="138"/>
+      <c r="BE30" s="138"/>
     </row>
     <row r="31" spans="1:57" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
-        <v>572</v>
-      </c>
-      <c r="C31" s="137"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="138"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="138"/>
-      <c r="I31" s="139"/>
-      <c r="J31" s="138"/>
-      <c r="K31" s="138"/>
-      <c r="L31" s="138"/>
+        <v>571</v>
+      </c>
+      <c r="C31" s="145"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="146"/>
+      <c r="K31" s="146"/>
+      <c r="L31" s="146"/>
       <c r="M31" s="46"/>
-      <c r="N31" s="139"/>
-      <c r="O31" s="140"/>
-      <c r="P31" s="140"/>
-      <c r="Q31" s="140"/>
-      <c r="R31" s="139"/>
-      <c r="S31" s="139"/>
-      <c r="T31" s="139"/>
-      <c r="U31" s="139"/>
-      <c r="V31" s="139"/>
-      <c r="W31" s="139"/>
-      <c r="X31" s="139"/>
-      <c r="Y31" s="139"/>
-      <c r="Z31" s="142"/>
-      <c r="AA31" s="142"/>
-      <c r="AB31" s="142"/>
-      <c r="AC31" s="142"/>
-      <c r="AD31" s="132"/>
-      <c r="AE31" s="132"/>
-      <c r="AF31" s="132"/>
-      <c r="AG31" s="132"/>
-      <c r="AH31" s="132"/>
-      <c r="AI31" s="132"/>
-      <c r="AJ31" s="132"/>
-      <c r="AK31" s="132"/>
-      <c r="AL31" s="132"/>
-      <c r="AM31" s="132"/>
-      <c r="AN31" s="132"/>
-      <c r="AO31" s="132"/>
-      <c r="AP31" s="132"/>
-      <c r="AQ31" s="132"/>
-      <c r="AR31" s="132"/>
-      <c r="AS31" s="132"/>
-      <c r="AT31" s="132"/>
-      <c r="AU31" s="132"/>
-      <c r="AV31" s="132"/>
-      <c r="AW31" s="132"/>
-      <c r="AX31" s="133"/>
-      <c r="AY31" s="133"/>
-      <c r="AZ31" s="133"/>
-      <c r="BA31" s="133"/>
-      <c r="BB31" s="130"/>
-      <c r="BC31" s="130"/>
-      <c r="BD31" s="130"/>
-      <c r="BE31" s="130"/>
+      <c r="N31" s="147"/>
+      <c r="O31" s="148"/>
+      <c r="P31" s="148"/>
+      <c r="Q31" s="148"/>
+      <c r="R31" s="147"/>
+      <c r="S31" s="147"/>
+      <c r="T31" s="147"/>
+      <c r="U31" s="147"/>
+      <c r="V31" s="147"/>
+      <c r="W31" s="147"/>
+      <c r="X31" s="147"/>
+      <c r="Y31" s="147"/>
+      <c r="Z31" s="150"/>
+      <c r="AA31" s="150"/>
+      <c r="AB31" s="150"/>
+      <c r="AC31" s="150"/>
+      <c r="AD31" s="140"/>
+      <c r="AE31" s="140"/>
+      <c r="AF31" s="140"/>
+      <c r="AG31" s="140"/>
+      <c r="AH31" s="140"/>
+      <c r="AI31" s="140"/>
+      <c r="AJ31" s="140"/>
+      <c r="AK31" s="140"/>
+      <c r="AL31" s="140"/>
+      <c r="AM31" s="140"/>
+      <c r="AN31" s="140"/>
+      <c r="AO31" s="140"/>
+      <c r="AP31" s="140"/>
+      <c r="AQ31" s="140"/>
+      <c r="AR31" s="140"/>
+      <c r="AS31" s="140"/>
+      <c r="AT31" s="140"/>
+      <c r="AU31" s="140"/>
+      <c r="AV31" s="140"/>
+      <c r="AW31" s="140"/>
+      <c r="AX31" s="141"/>
+      <c r="AY31" s="141"/>
+      <c r="AZ31" s="141"/>
+      <c r="BA31" s="141"/>
+      <c r="BB31" s="138"/>
+      <c r="BC31" s="138"/>
+      <c r="BD31" s="138"/>
+      <c r="BE31" s="138"/>
     </row>
     <row r="32" spans="1:57" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
-      <c r="F32" s="139" t="s">
-        <v>546</v>
-      </c>
-      <c r="G32" s="139"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="139" t="s">
+      <c r="F32" s="147" t="s">
+        <v>545</v>
+      </c>
+      <c r="G32" s="147"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="147" t="s">
         <v>79</v>
       </c>
-      <c r="K32" s="139"/>
-      <c r="L32" s="139"/>
+      <c r="K32" s="147"/>
+      <c r="L32" s="147"/>
       <c r="M32" s="46"/>
-      <c r="N32" s="139"/>
-      <c r="O32" s="144" t="s">
+      <c r="N32" s="147"/>
+      <c r="O32" s="152" t="s">
         <v>80</v>
       </c>
-      <c r="P32" s="144"/>
-      <c r="Q32" s="144"/>
-      <c r="R32" s="139"/>
-      <c r="S32" s="139" t="s">
+      <c r="P32" s="152"/>
+      <c r="Q32" s="152"/>
+      <c r="R32" s="147"/>
+      <c r="S32" s="147" t="s">
         <v>100</v>
       </c>
-      <c r="T32" s="139"/>
-      <c r="U32" s="139"/>
-      <c r="V32" s="139"/>
-      <c r="W32" s="139" t="s">
+      <c r="T32" s="147"/>
+      <c r="U32" s="147"/>
+      <c r="V32" s="147"/>
+      <c r="W32" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="X32" s="139"/>
-      <c r="Y32" s="139"/>
-      <c r="Z32" s="142"/>
-      <c r="AA32" s="142" t="s">
+      <c r="X32" s="147"/>
+      <c r="Y32" s="147"/>
+      <c r="Z32" s="150"/>
+      <c r="AA32" s="150" t="s">
         <v>81</v>
       </c>
-      <c r="AB32" s="142"/>
-      <c r="AC32" s="142"/>
-      <c r="AD32" s="132"/>
-      <c r="AE32" s="132"/>
-      <c r="AF32" s="132"/>
-      <c r="AG32" s="132"/>
-      <c r="AH32" s="132"/>
-      <c r="AI32" s="132" t="s">
+      <c r="AB32" s="150"/>
+      <c r="AC32" s="150"/>
+      <c r="AD32" s="140"/>
+      <c r="AE32" s="140"/>
+      <c r="AF32" s="140"/>
+      <c r="AG32" s="140"/>
+      <c r="AH32" s="140"/>
+      <c r="AI32" s="140" t="s">
         <v>98</v>
       </c>
-      <c r="AJ32" s="132"/>
-      <c r="AK32" s="132"/>
-      <c r="AL32" s="132"/>
-      <c r="AM32" s="134" t="s">
+      <c r="AJ32" s="140"/>
+      <c r="AK32" s="140"/>
+      <c r="AL32" s="140"/>
+      <c r="AM32" s="142" t="s">
         <v>99</v>
       </c>
-      <c r="AN32" s="134"/>
-      <c r="AO32" s="134"/>
-      <c r="AP32" s="132"/>
-      <c r="AQ32" s="132" t="s">
+      <c r="AN32" s="142"/>
+      <c r="AO32" s="142"/>
+      <c r="AP32" s="140"/>
+      <c r="AQ32" s="140" t="s">
         <v>105</v>
       </c>
-      <c r="AR32" s="132"/>
-      <c r="AS32" s="132"/>
-      <c r="AT32" s="132"/>
-      <c r="AU32" s="131" t="s">
+      <c r="AR32" s="140"/>
+      <c r="AS32" s="140"/>
+      <c r="AT32" s="140"/>
+      <c r="AU32" s="139" t="s">
         <v>215</v>
       </c>
-      <c r="AV32" s="131"/>
-      <c r="AW32" s="131"/>
-      <c r="AX32" s="133"/>
-      <c r="AY32" s="133"/>
-      <c r="AZ32" s="133"/>
-      <c r="BA32" s="133"/>
-      <c r="BB32" s="130"/>
-      <c r="BC32" s="130"/>
-      <c r="BD32" s="130"/>
-      <c r="BE32" s="130"/>
+      <c r="AV32" s="139"/>
+      <c r="AW32" s="139"/>
+      <c r="AX32" s="141"/>
+      <c r="AY32" s="141"/>
+      <c r="AZ32" s="141"/>
+      <c r="BA32" s="141"/>
+      <c r="BB32" s="138"/>
+      <c r="BC32" s="138"/>
+      <c r="BD32" s="138"/>
+      <c r="BE32" s="138"/>
     </row>
     <row r="33" spans="1:64" x14ac:dyDescent="0.15">
-      <c r="F33" s="139" t="s">
+      <c r="F33" s="147" t="s">
         <v>146</v>
       </c>
-      <c r="G33" s="139"/>
-      <c r="H33" s="139"/>
-      <c r="I33" s="139"/>
-      <c r="J33" s="139"/>
-      <c r="K33" s="139"/>
-      <c r="L33" s="139"/>
-      <c r="M33" s="139"/>
-      <c r="N33" s="139"/>
-      <c r="O33" s="139"/>
-      <c r="P33" s="139"/>
-      <c r="Q33" s="139"/>
-      <c r="R33" s="139"/>
-      <c r="S33" s="139"/>
-      <c r="T33" s="139"/>
-      <c r="U33" s="139"/>
-      <c r="V33" s="139"/>
-      <c r="W33" s="139"/>
-      <c r="X33" s="139"/>
-      <c r="Y33" s="139"/>
-      <c r="Z33" s="146" t="s">
+      <c r="G33" s="147"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="147"/>
+      <c r="K33" s="147"/>
+      <c r="L33" s="147"/>
+      <c r="M33" s="147"/>
+      <c r="N33" s="147"/>
+      <c r="O33" s="147"/>
+      <c r="P33" s="147"/>
+      <c r="Q33" s="147"/>
+      <c r="R33" s="147"/>
+      <c r="S33" s="147"/>
+      <c r="T33" s="147"/>
+      <c r="U33" s="147"/>
+      <c r="V33" s="147"/>
+      <c r="W33" s="147"/>
+      <c r="X33" s="147"/>
+      <c r="Y33" s="147"/>
+      <c r="Z33" s="154" t="s">
         <v>148</v>
       </c>
-      <c r="AA33" s="146"/>
-      <c r="AB33" s="146"/>
-      <c r="AC33" s="146"/>
-      <c r="AD33" s="131" t="s">
+      <c r="AA33" s="154"/>
+      <c r="AB33" s="154"/>
+      <c r="AC33" s="154"/>
+      <c r="AD33" s="139" t="s">
         <v>145</v>
       </c>
-      <c r="AE33" s="131"/>
-      <c r="AF33" s="131"/>
-      <c r="AG33" s="131"/>
-      <c r="AH33" s="131"/>
-      <c r="AI33" s="131"/>
-      <c r="AJ33" s="131"/>
-      <c r="AK33" s="131"/>
-      <c r="AL33" s="131"/>
-      <c r="AM33" s="131"/>
-      <c r="AN33" s="131"/>
-      <c r="AO33" s="131"/>
-      <c r="AP33" s="131"/>
-      <c r="AQ33" s="131"/>
-      <c r="AR33" s="131"/>
-      <c r="AS33" s="131"/>
-      <c r="AT33" s="131"/>
-      <c r="AU33" s="131"/>
-      <c r="AV33" s="131"/>
-      <c r="AW33" s="131"/>
-      <c r="AX33" s="133" t="s">
-        <v>444</v>
-      </c>
-      <c r="AY33" s="133"/>
-      <c r="AZ33" s="133"/>
-      <c r="BA33" s="133"/>
-      <c r="BB33" s="130" t="s">
-        <v>791</v>
-      </c>
-      <c r="BC33" s="130"/>
-      <c r="BD33" s="130"/>
-      <c r="BE33" s="130"/>
+      <c r="AE33" s="139"/>
+      <c r="AF33" s="139"/>
+      <c r="AG33" s="139"/>
+      <c r="AH33" s="139"/>
+      <c r="AI33" s="139"/>
+      <c r="AJ33" s="139"/>
+      <c r="AK33" s="139"/>
+      <c r="AL33" s="139"/>
+      <c r="AM33" s="139"/>
+      <c r="AN33" s="139"/>
+      <c r="AO33" s="139"/>
+      <c r="AP33" s="139"/>
+      <c r="AQ33" s="139"/>
+      <c r="AR33" s="139"/>
+      <c r="AS33" s="139"/>
+      <c r="AT33" s="139"/>
+      <c r="AU33" s="139"/>
+      <c r="AV33" s="139"/>
+      <c r="AW33" s="139"/>
+      <c r="AX33" s="141" t="s">
+        <v>443</v>
+      </c>
+      <c r="AY33" s="141"/>
+      <c r="AZ33" s="141"/>
+      <c r="BA33" s="141"/>
+      <c r="BB33" s="138" t="s">
+        <v>776</v>
+      </c>
+      <c r="BC33" s="138"/>
+      <c r="BD33" s="138"/>
+      <c r="BE33" s="138"/>
       <c r="BF33" s="17"/>
     </row>
     <row r="34" spans="1:64" x14ac:dyDescent="0.15">
@@ -23401,482 +23443,482 @@
     </row>
     <row r="36" spans="1:64" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="48" t="s">
-        <v>622</v>
-      </c>
-      <c r="C36" s="136" t="s">
+        <v>616</v>
+      </c>
+      <c r="C36" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="137"/>
-      <c r="E36" s="137"/>
-      <c r="F36" s="138" t="s">
+      <c r="D36" s="145"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="146" t="s">
+        <v>660</v>
+      </c>
+      <c r="G36" s="147"/>
+      <c r="H36" s="147"/>
+      <c r="I36" s="147" t="s">
+        <v>78</v>
+      </c>
+      <c r="J36" s="146" t="s">
+        <v>582</v>
+      </c>
+      <c r="K36" s="147"/>
+      <c r="L36" s="147"/>
+      <c r="M36" s="147" t="s">
+        <v>78</v>
+      </c>
+      <c r="N36" s="146" t="s">
+        <v>117</v>
+      </c>
+      <c r="O36" s="147"/>
+      <c r="P36" s="147"/>
+      <c r="Q36" s="147" t="s">
+        <v>78</v>
+      </c>
+      <c r="R36" s="147" t="s">
+        <v>527</v>
+      </c>
+      <c r="S36" s="147"/>
+      <c r="T36" s="147"/>
+      <c r="U36" s="147" t="s">
+        <v>96</v>
+      </c>
+      <c r="V36" s="147" t="s">
+        <v>513</v>
+      </c>
+      <c r="W36" s="147"/>
+      <c r="X36" s="147"/>
+      <c r="Y36" s="150" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z36" s="150" t="s">
+        <v>697</v>
+      </c>
+      <c r="AA36" s="150"/>
+      <c r="AB36" s="150"/>
+      <c r="AC36" s="140" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD36" s="151" t="s">
         <v>666</v>
       </c>
-      <c r="G36" s="139"/>
-      <c r="H36" s="139"/>
-      <c r="I36" s="139" t="s">
+      <c r="AE36" s="139"/>
+      <c r="AF36" s="139"/>
+      <c r="AG36" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="J36" s="138" t="s">
-        <v>583</v>
-      </c>
-      <c r="K36" s="139"/>
-      <c r="L36" s="139"/>
-      <c r="M36" s="139" t="s">
-        <v>78</v>
-      </c>
-      <c r="N36" s="138" t="s">
-        <v>117</v>
-      </c>
-      <c r="O36" s="139"/>
-      <c r="P36" s="139"/>
-      <c r="Q36" s="139" t="s">
-        <v>78</v>
-      </c>
-      <c r="R36" s="139" t="s">
-        <v>528</v>
-      </c>
-      <c r="S36" s="139"/>
-      <c r="T36" s="139"/>
-      <c r="U36" s="139" t="s">
+      <c r="AH36" s="153" t="s">
+        <v>664</v>
+      </c>
+      <c r="AI36" s="140"/>
+      <c r="AJ36" s="140"/>
+      <c r="AK36" s="140" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL36" s="140">
+        <v>1</v>
+      </c>
+      <c r="AM36" s="140"/>
+      <c r="AN36" s="140"/>
+      <c r="AO36" s="140" t="s">
         <v>96</v>
       </c>
-      <c r="V36" s="139" t="s">
-        <v>514</v>
-      </c>
-      <c r="W36" s="139"/>
-      <c r="X36" s="139"/>
-      <c r="Y36" s="142" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z36" s="142" t="s">
-        <v>707</v>
-      </c>
-      <c r="AA36" s="142"/>
-      <c r="AB36" s="142"/>
-      <c r="AC36" s="132" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD36" s="143" t="s">
-        <v>672</v>
-      </c>
-      <c r="AE36" s="131"/>
-      <c r="AF36" s="131"/>
-      <c r="AG36" s="132" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH36" s="145" t="s">
-        <v>670</v>
-      </c>
-      <c r="AI36" s="132"/>
-      <c r="AJ36" s="132"/>
-      <c r="AK36" s="132" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL36" s="132">
-        <v>1</v>
-      </c>
-      <c r="AM36" s="132"/>
-      <c r="AN36" s="132"/>
-      <c r="AO36" s="132" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP36" s="132" t="s">
-        <v>527</v>
-      </c>
-      <c r="AQ36" s="132"/>
-      <c r="AR36" s="132"/>
-      <c r="AS36" s="132" t="s">
+      <c r="AP36" s="140" t="s">
+        <v>526</v>
+      </c>
+      <c r="AQ36" s="140"/>
+      <c r="AR36" s="140"/>
+      <c r="AS36" s="140" t="s">
         <v>144</v>
       </c>
-      <c r="AT36" s="132" t="s">
-        <v>526</v>
-      </c>
-      <c r="AU36" s="132"/>
-      <c r="AV36" s="132"/>
-      <c r="AW36" s="132" t="s">
+      <c r="AT36" s="140" t="s">
+        <v>525</v>
+      </c>
+      <c r="AU36" s="140"/>
+      <c r="AV36" s="140"/>
+      <c r="AW36" s="140" t="s">
         <v>149</v>
       </c>
-      <c r="AX36" s="132" t="s">
-        <v>525</v>
-      </c>
-      <c r="AY36" s="132"/>
-      <c r="AZ36" s="132"/>
-      <c r="BA36" s="132" t="s">
+      <c r="AX36" s="140" t="s">
+        <v>524</v>
+      </c>
+      <c r="AY36" s="140"/>
+      <c r="AZ36" s="140"/>
+      <c r="BA36" s="140" t="s">
         <v>214</v>
       </c>
-      <c r="BB36" s="132" t="s">
-        <v>524</v>
-      </c>
-      <c r="BC36" s="132"/>
-      <c r="BD36" s="132"/>
-      <c r="BE36" s="133" t="s">
+      <c r="BB36" s="140" t="s">
+        <v>523</v>
+      </c>
+      <c r="BC36" s="140"/>
+      <c r="BD36" s="140"/>
+      <c r="BE36" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="BF36" s="133" t="s">
-        <v>523</v>
-      </c>
-      <c r="BG36" s="133"/>
-      <c r="BH36" s="133"/>
-      <c r="BI36" s="130" t="s">
-        <v>784</v>
-      </c>
-      <c r="BJ36" s="130" t="s">
-        <v>790</v>
-      </c>
-      <c r="BK36" s="130"/>
-      <c r="BL36" s="130"/>
+      <c r="BF36" s="141" t="s">
+        <v>522</v>
+      </c>
+      <c r="BG36" s="141"/>
+      <c r="BH36" s="141"/>
+      <c r="BI36" s="138" t="s">
+        <v>769</v>
+      </c>
+      <c r="BJ36" s="138" t="s">
+        <v>775</v>
+      </c>
+      <c r="BK36" s="138"/>
+      <c r="BL36" s="138"/>
     </row>
     <row r="37" spans="1:64" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
-      <c r="C37" s="137"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="137"/>
-      <c r="F37" s="139"/>
-      <c r="G37" s="139"/>
-      <c r="H37" s="139"/>
-      <c r="I37" s="139"/>
-      <c r="J37" s="139"/>
-      <c r="K37" s="139"/>
-      <c r="L37" s="139"/>
-      <c r="M37" s="139"/>
-      <c r="N37" s="139"/>
-      <c r="O37" s="139"/>
-      <c r="P37" s="139"/>
-      <c r="Q37" s="139"/>
-      <c r="R37" s="139"/>
-      <c r="S37" s="139"/>
-      <c r="T37" s="139"/>
-      <c r="U37" s="139"/>
-      <c r="V37" s="139"/>
-      <c r="W37" s="139"/>
-      <c r="X37" s="139"/>
-      <c r="Y37" s="142"/>
-      <c r="Z37" s="142"/>
-      <c r="AA37" s="142"/>
-      <c r="AB37" s="142"/>
-      <c r="AC37" s="132"/>
-      <c r="AD37" s="131"/>
-      <c r="AE37" s="131"/>
-      <c r="AF37" s="131"/>
-      <c r="AG37" s="132"/>
-      <c r="AH37" s="132"/>
-      <c r="AI37" s="132"/>
-      <c r="AJ37" s="132"/>
-      <c r="AK37" s="132"/>
-      <c r="AL37" s="132"/>
-      <c r="AM37" s="132"/>
-      <c r="AN37" s="132"/>
-      <c r="AO37" s="132"/>
-      <c r="AP37" s="132"/>
-      <c r="AQ37" s="132"/>
-      <c r="AR37" s="132"/>
-      <c r="AS37" s="132"/>
-      <c r="AT37" s="132"/>
-      <c r="AU37" s="132"/>
-      <c r="AV37" s="132"/>
-      <c r="AW37" s="132"/>
-      <c r="AX37" s="132"/>
-      <c r="AY37" s="132"/>
-      <c r="AZ37" s="132"/>
-      <c r="BA37" s="132"/>
-      <c r="BB37" s="132"/>
-      <c r="BC37" s="132"/>
-      <c r="BD37" s="132"/>
-      <c r="BE37" s="133"/>
-      <c r="BF37" s="133"/>
-      <c r="BG37" s="133"/>
-      <c r="BH37" s="133"/>
-      <c r="BI37" s="130"/>
-      <c r="BJ37" s="130"/>
-      <c r="BK37" s="130"/>
-      <c r="BL37" s="130"/>
+      <c r="C37" s="145"/>
+      <c r="D37" s="145"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="147"/>
+      <c r="G37" s="147"/>
+      <c r="H37" s="147"/>
+      <c r="I37" s="147"/>
+      <c r="J37" s="147"/>
+      <c r="K37" s="147"/>
+      <c r="L37" s="147"/>
+      <c r="M37" s="147"/>
+      <c r="N37" s="147"/>
+      <c r="O37" s="147"/>
+      <c r="P37" s="147"/>
+      <c r="Q37" s="147"/>
+      <c r="R37" s="147"/>
+      <c r="S37" s="147"/>
+      <c r="T37" s="147"/>
+      <c r="U37" s="147"/>
+      <c r="V37" s="147"/>
+      <c r="W37" s="147"/>
+      <c r="X37" s="147"/>
+      <c r="Y37" s="150"/>
+      <c r="Z37" s="150"/>
+      <c r="AA37" s="150"/>
+      <c r="AB37" s="150"/>
+      <c r="AC37" s="140"/>
+      <c r="AD37" s="139"/>
+      <c r="AE37" s="139"/>
+      <c r="AF37" s="139"/>
+      <c r="AG37" s="140"/>
+      <c r="AH37" s="140"/>
+      <c r="AI37" s="140"/>
+      <c r="AJ37" s="140"/>
+      <c r="AK37" s="140"/>
+      <c r="AL37" s="140"/>
+      <c r="AM37" s="140"/>
+      <c r="AN37" s="140"/>
+      <c r="AO37" s="140"/>
+      <c r="AP37" s="140"/>
+      <c r="AQ37" s="140"/>
+      <c r="AR37" s="140"/>
+      <c r="AS37" s="140"/>
+      <c r="AT37" s="140"/>
+      <c r="AU37" s="140"/>
+      <c r="AV37" s="140"/>
+      <c r="AW37" s="140"/>
+      <c r="AX37" s="140"/>
+      <c r="AY37" s="140"/>
+      <c r="AZ37" s="140"/>
+      <c r="BA37" s="140"/>
+      <c r="BB37" s="140"/>
+      <c r="BC37" s="140"/>
+      <c r="BD37" s="140"/>
+      <c r="BE37" s="141"/>
+      <c r="BF37" s="141"/>
+      <c r="BG37" s="141"/>
+      <c r="BH37" s="141"/>
+      <c r="BI37" s="138"/>
+      <c r="BJ37" s="138"/>
+      <c r="BK37" s="138"/>
+      <c r="BL37" s="138"/>
     </row>
     <row r="38" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
-        <v>659</v>
-      </c>
-      <c r="C38" s="137"/>
-      <c r="D38" s="137"/>
-      <c r="E38" s="137"/>
-      <c r="F38" s="139"/>
-      <c r="G38" s="139"/>
-      <c r="H38" s="139"/>
-      <c r="I38" s="139"/>
-      <c r="J38" s="139"/>
-      <c r="K38" s="139"/>
-      <c r="L38" s="139"/>
-      <c r="M38" s="139"/>
-      <c r="N38" s="139"/>
-      <c r="O38" s="139"/>
-      <c r="P38" s="139"/>
-      <c r="Q38" s="139"/>
-      <c r="R38" s="139"/>
-      <c r="S38" s="139"/>
-      <c r="T38" s="139"/>
-      <c r="U38" s="139"/>
-      <c r="V38" s="139"/>
-      <c r="W38" s="139"/>
-      <c r="X38" s="139"/>
-      <c r="Y38" s="142"/>
-      <c r="Z38" s="142"/>
-      <c r="AA38" s="142"/>
-      <c r="AB38" s="142"/>
-      <c r="AC38" s="132"/>
-      <c r="AD38" s="131"/>
-      <c r="AE38" s="131"/>
-      <c r="AF38" s="131"/>
-      <c r="AG38" s="132"/>
-      <c r="AH38" s="132"/>
-      <c r="AI38" s="132"/>
-      <c r="AJ38" s="132"/>
-      <c r="AK38" s="132"/>
-      <c r="AL38" s="132"/>
-      <c r="AM38" s="132"/>
-      <c r="AN38" s="132"/>
-      <c r="AO38" s="132"/>
-      <c r="AP38" s="132"/>
-      <c r="AQ38" s="132"/>
-      <c r="AR38" s="132"/>
-      <c r="AS38" s="132"/>
-      <c r="AT38" s="132"/>
-      <c r="AU38" s="132"/>
-      <c r="AV38" s="132"/>
-      <c r="AW38" s="132"/>
-      <c r="AX38" s="132"/>
-      <c r="AY38" s="132"/>
-      <c r="AZ38" s="132"/>
-      <c r="BA38" s="132"/>
-      <c r="BB38" s="132"/>
-      <c r="BC38" s="132"/>
-      <c r="BD38" s="132"/>
-      <c r="BE38" s="133"/>
-      <c r="BF38" s="133"/>
-      <c r="BG38" s="133"/>
-      <c r="BH38" s="133"/>
-      <c r="BI38" s="130"/>
-      <c r="BJ38" s="130"/>
-      <c r="BK38" s="130"/>
-      <c r="BL38" s="130"/>
+        <v>653</v>
+      </c>
+      <c r="C38" s="145"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="147"/>
+      <c r="G38" s="147"/>
+      <c r="H38" s="147"/>
+      <c r="I38" s="147"/>
+      <c r="J38" s="147"/>
+      <c r="K38" s="147"/>
+      <c r="L38" s="147"/>
+      <c r="M38" s="147"/>
+      <c r="N38" s="147"/>
+      <c r="O38" s="147"/>
+      <c r="P38" s="147"/>
+      <c r="Q38" s="147"/>
+      <c r="R38" s="147"/>
+      <c r="S38" s="147"/>
+      <c r="T38" s="147"/>
+      <c r="U38" s="147"/>
+      <c r="V38" s="147"/>
+      <c r="W38" s="147"/>
+      <c r="X38" s="147"/>
+      <c r="Y38" s="150"/>
+      <c r="Z38" s="150"/>
+      <c r="AA38" s="150"/>
+      <c r="AB38" s="150"/>
+      <c r="AC38" s="140"/>
+      <c r="AD38" s="139"/>
+      <c r="AE38" s="139"/>
+      <c r="AF38" s="139"/>
+      <c r="AG38" s="140"/>
+      <c r="AH38" s="140"/>
+      <c r="AI38" s="140"/>
+      <c r="AJ38" s="140"/>
+      <c r="AK38" s="140"/>
+      <c r="AL38" s="140"/>
+      <c r="AM38" s="140"/>
+      <c r="AN38" s="140"/>
+      <c r="AO38" s="140"/>
+      <c r="AP38" s="140"/>
+      <c r="AQ38" s="140"/>
+      <c r="AR38" s="140"/>
+      <c r="AS38" s="140"/>
+      <c r="AT38" s="140"/>
+      <c r="AU38" s="140"/>
+      <c r="AV38" s="140"/>
+      <c r="AW38" s="140"/>
+      <c r="AX38" s="140"/>
+      <c r="AY38" s="140"/>
+      <c r="AZ38" s="140"/>
+      <c r="BA38" s="140"/>
+      <c r="BB38" s="140"/>
+      <c r="BC38" s="140"/>
+      <c r="BD38" s="140"/>
+      <c r="BE38" s="141"/>
+      <c r="BF38" s="141"/>
+      <c r="BG38" s="141"/>
+      <c r="BH38" s="141"/>
+      <c r="BI38" s="138"/>
+      <c r="BJ38" s="138"/>
+      <c r="BK38" s="138"/>
+      <c r="BL38" s="138"/>
     </row>
     <row r="39" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C39" s="137"/>
-      <c r="D39" s="137"/>
-      <c r="E39" s="137"/>
-      <c r="F39" s="139"/>
-      <c r="G39" s="139"/>
-      <c r="H39" s="139"/>
-      <c r="I39" s="139"/>
-      <c r="J39" s="139"/>
-      <c r="K39" s="139"/>
-      <c r="L39" s="139"/>
-      <c r="M39" s="139"/>
-      <c r="N39" s="139"/>
-      <c r="O39" s="139"/>
-      <c r="P39" s="139"/>
-      <c r="Q39" s="139"/>
-      <c r="R39" s="139"/>
-      <c r="S39" s="139"/>
-      <c r="T39" s="139"/>
-      <c r="U39" s="139"/>
-      <c r="V39" s="139"/>
-      <c r="W39" s="139"/>
-      <c r="X39" s="139"/>
-      <c r="Y39" s="142"/>
-      <c r="Z39" s="142"/>
-      <c r="AA39" s="142"/>
-      <c r="AB39" s="142"/>
-      <c r="AC39" s="132"/>
-      <c r="AD39" s="131"/>
-      <c r="AE39" s="131"/>
-      <c r="AF39" s="131"/>
-      <c r="AG39" s="132"/>
-      <c r="AH39" s="132"/>
-      <c r="AI39" s="132"/>
-      <c r="AJ39" s="132"/>
-      <c r="AK39" s="132"/>
-      <c r="AL39" s="132"/>
-      <c r="AM39" s="132"/>
-      <c r="AN39" s="132"/>
-      <c r="AO39" s="132"/>
-      <c r="AP39" s="132"/>
-      <c r="AQ39" s="132"/>
-      <c r="AR39" s="132"/>
-      <c r="AS39" s="132"/>
-      <c r="AT39" s="132"/>
-      <c r="AU39" s="132"/>
-      <c r="AV39" s="132"/>
-      <c r="AW39" s="132"/>
-      <c r="AX39" s="132"/>
-      <c r="AY39" s="132"/>
-      <c r="AZ39" s="132"/>
-      <c r="BA39" s="132"/>
-      <c r="BB39" s="132"/>
-      <c r="BC39" s="132"/>
-      <c r="BD39" s="132"/>
-      <c r="BE39" s="133"/>
-      <c r="BF39" s="133"/>
-      <c r="BG39" s="133"/>
-      <c r="BH39" s="133"/>
-      <c r="BI39" s="130"/>
-      <c r="BJ39" s="130"/>
-      <c r="BK39" s="130"/>
-      <c r="BL39" s="130"/>
+      <c r="C39" s="145"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="147"/>
+      <c r="G39" s="147"/>
+      <c r="H39" s="147"/>
+      <c r="I39" s="147"/>
+      <c r="J39" s="147"/>
+      <c r="K39" s="147"/>
+      <c r="L39" s="147"/>
+      <c r="M39" s="147"/>
+      <c r="N39" s="147"/>
+      <c r="O39" s="147"/>
+      <c r="P39" s="147"/>
+      <c r="Q39" s="147"/>
+      <c r="R39" s="147"/>
+      <c r="S39" s="147"/>
+      <c r="T39" s="147"/>
+      <c r="U39" s="147"/>
+      <c r="V39" s="147"/>
+      <c r="W39" s="147"/>
+      <c r="X39" s="147"/>
+      <c r="Y39" s="150"/>
+      <c r="Z39" s="150"/>
+      <c r="AA39" s="150"/>
+      <c r="AB39" s="150"/>
+      <c r="AC39" s="140"/>
+      <c r="AD39" s="139"/>
+      <c r="AE39" s="139"/>
+      <c r="AF39" s="139"/>
+      <c r="AG39" s="140"/>
+      <c r="AH39" s="140"/>
+      <c r="AI39" s="140"/>
+      <c r="AJ39" s="140"/>
+      <c r="AK39" s="140"/>
+      <c r="AL39" s="140"/>
+      <c r="AM39" s="140"/>
+      <c r="AN39" s="140"/>
+      <c r="AO39" s="140"/>
+      <c r="AP39" s="140"/>
+      <c r="AQ39" s="140"/>
+      <c r="AR39" s="140"/>
+      <c r="AS39" s="140"/>
+      <c r="AT39" s="140"/>
+      <c r="AU39" s="140"/>
+      <c r="AV39" s="140"/>
+      <c r="AW39" s="140"/>
+      <c r="AX39" s="140"/>
+      <c r="AY39" s="140"/>
+      <c r="AZ39" s="140"/>
+      <c r="BA39" s="140"/>
+      <c r="BB39" s="140"/>
+      <c r="BC39" s="140"/>
+      <c r="BD39" s="140"/>
+      <c r="BE39" s="141"/>
+      <c r="BF39" s="141"/>
+      <c r="BG39" s="141"/>
+      <c r="BH39" s="141"/>
+      <c r="BI39" s="138"/>
+      <c r="BJ39" s="138"/>
+      <c r="BK39" s="138"/>
+      <c r="BL39" s="138"/>
     </row>
     <row r="40" spans="1:64" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F40" s="139" t="s">
-        <v>546</v>
-      </c>
-      <c r="G40" s="139"/>
-      <c r="H40" s="139"/>
-      <c r="I40" s="139"/>
-      <c r="J40" s="139" t="s">
+      <c r="F40" s="147" t="s">
+        <v>545</v>
+      </c>
+      <c r="G40" s="147"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="147"/>
+      <c r="J40" s="147" t="s">
         <v>79</v>
       </c>
-      <c r="K40" s="139"/>
-      <c r="L40" s="139"/>
-      <c r="M40" s="139"/>
-      <c r="N40" s="144" t="s">
+      <c r="K40" s="147"/>
+      <c r="L40" s="147"/>
+      <c r="M40" s="147"/>
+      <c r="N40" s="152" t="s">
         <v>107</v>
       </c>
-      <c r="O40" s="144"/>
-      <c r="P40" s="144"/>
-      <c r="Q40" s="139"/>
-      <c r="R40" s="139" t="s">
+      <c r="O40" s="152"/>
+      <c r="P40" s="152"/>
+      <c r="Q40" s="147"/>
+      <c r="R40" s="147" t="s">
         <v>100</v>
       </c>
-      <c r="S40" s="139"/>
-      <c r="T40" s="139"/>
-      <c r="U40" s="139"/>
-      <c r="V40" s="139" t="s">
+      <c r="S40" s="147"/>
+      <c r="T40" s="147"/>
+      <c r="U40" s="147"/>
+      <c r="V40" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="W40" s="139"/>
-      <c r="X40" s="139"/>
-      <c r="Y40" s="142"/>
-      <c r="Z40" s="142" t="s">
+      <c r="W40" s="147"/>
+      <c r="X40" s="147"/>
+      <c r="Y40" s="150"/>
+      <c r="Z40" s="150" t="s">
         <v>81</v>
       </c>
-      <c r="AA40" s="142"/>
-      <c r="AB40" s="142"/>
-      <c r="AC40" s="132"/>
-      <c r="AD40" s="132" t="s">
+      <c r="AA40" s="150"/>
+      <c r="AB40" s="150"/>
+      <c r="AC40" s="140"/>
+      <c r="AD40" s="140" t="s">
         <v>97</v>
       </c>
-      <c r="AE40" s="132"/>
-      <c r="AF40" s="132"/>
-      <c r="AG40" s="132"/>
-      <c r="AH40" s="143" t="s">
+      <c r="AE40" s="140"/>
+      <c r="AF40" s="140"/>
+      <c r="AG40" s="140"/>
+      <c r="AH40" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="AI40" s="131"/>
-      <c r="AJ40" s="131"/>
-      <c r="AK40" s="132"/>
-      <c r="AL40" s="134"/>
-      <c r="AM40" s="134"/>
-      <c r="AN40" s="134"/>
-      <c r="AO40" s="132"/>
-      <c r="AP40" s="134" t="s">
+      <c r="AI40" s="139"/>
+      <c r="AJ40" s="139"/>
+      <c r="AK40" s="140"/>
+      <c r="AL40" s="142"/>
+      <c r="AM40" s="142"/>
+      <c r="AN40" s="142"/>
+      <c r="AO40" s="140"/>
+      <c r="AP40" s="142" t="s">
         <v>99</v>
       </c>
-      <c r="AQ40" s="134"/>
-      <c r="AR40" s="134"/>
-      <c r="AS40" s="132"/>
-      <c r="AT40" s="132" t="s">
+      <c r="AQ40" s="142"/>
+      <c r="AR40" s="142"/>
+      <c r="AS40" s="140"/>
+      <c r="AT40" s="140" t="s">
         <v>98</v>
       </c>
-      <c r="AU40" s="132"/>
-      <c r="AV40" s="132"/>
-      <c r="AW40" s="132"/>
-      <c r="AX40" s="132" t="s">
+      <c r="AU40" s="140"/>
+      <c r="AV40" s="140"/>
+      <c r="AW40" s="140"/>
+      <c r="AX40" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="AY40" s="132"/>
-      <c r="AZ40" s="132"/>
-      <c r="BA40" s="132"/>
-      <c r="BB40" s="131" t="s">
+      <c r="AY40" s="140"/>
+      <c r="AZ40" s="140"/>
+      <c r="BA40" s="140"/>
+      <c r="BB40" s="139" t="s">
         <v>215</v>
       </c>
-      <c r="BC40" s="131"/>
-      <c r="BD40" s="131"/>
-      <c r="BE40" s="133"/>
-      <c r="BF40" s="133"/>
-      <c r="BG40" s="133"/>
-      <c r="BH40" s="133"/>
-      <c r="BI40" s="130"/>
-      <c r="BJ40" s="130"/>
-      <c r="BK40" s="130"/>
-      <c r="BL40" s="130"/>
+      <c r="BC40" s="139"/>
+      <c r="BD40" s="139"/>
+      <c r="BE40" s="141"/>
+      <c r="BF40" s="141"/>
+      <c r="BG40" s="141"/>
+      <c r="BH40" s="141"/>
+      <c r="BI40" s="138"/>
+      <c r="BJ40" s="138"/>
+      <c r="BK40" s="138"/>
+      <c r="BL40" s="138"/>
     </row>
     <row r="41" spans="1:64" x14ac:dyDescent="0.15">
-      <c r="F41" s="135" t="s">
+      <c r="F41" s="143" t="s">
         <v>146</v>
       </c>
-      <c r="G41" s="135"/>
-      <c r="H41" s="135"/>
-      <c r="I41" s="135"/>
-      <c r="J41" s="135"/>
-      <c r="K41" s="135"/>
-      <c r="L41" s="135"/>
-      <c r="M41" s="135"/>
-      <c r="N41" s="135"/>
-      <c r="O41" s="135"/>
-      <c r="P41" s="135"/>
-      <c r="Q41" s="135"/>
-      <c r="R41" s="135"/>
-      <c r="S41" s="135"/>
-      <c r="T41" s="135"/>
-      <c r="U41" s="135"/>
-      <c r="V41" s="135"/>
-      <c r="W41" s="135"/>
-      <c r="X41" s="135"/>
-      <c r="Y41" s="146" t="s">
+      <c r="G41" s="143"/>
+      <c r="H41" s="143"/>
+      <c r="I41" s="143"/>
+      <c r="J41" s="143"/>
+      <c r="K41" s="143"/>
+      <c r="L41" s="143"/>
+      <c r="M41" s="143"/>
+      <c r="N41" s="143"/>
+      <c r="O41" s="143"/>
+      <c r="P41" s="143"/>
+      <c r="Q41" s="143"/>
+      <c r="R41" s="143"/>
+      <c r="S41" s="143"/>
+      <c r="T41" s="143"/>
+      <c r="U41" s="143"/>
+      <c r="V41" s="143"/>
+      <c r="W41" s="143"/>
+      <c r="X41" s="143"/>
+      <c r="Y41" s="154" t="s">
         <v>148</v>
       </c>
-      <c r="Z41" s="146"/>
-      <c r="AA41" s="146"/>
-      <c r="AB41" s="146"/>
-      <c r="AC41" s="131" t="s">
+      <c r="Z41" s="154"/>
+      <c r="AA41" s="154"/>
+      <c r="AB41" s="154"/>
+      <c r="AC41" s="139" t="s">
         <v>145</v>
       </c>
-      <c r="AD41" s="131"/>
-      <c r="AE41" s="131"/>
-      <c r="AF41" s="131"/>
-      <c r="AG41" s="131"/>
-      <c r="AH41" s="131"/>
-      <c r="AI41" s="131"/>
-      <c r="AJ41" s="131"/>
-      <c r="AK41" s="131"/>
-      <c r="AL41" s="131"/>
-      <c r="AM41" s="131"/>
-      <c r="AN41" s="131"/>
-      <c r="AO41" s="131"/>
-      <c r="AP41" s="131"/>
-      <c r="AQ41" s="131"/>
-      <c r="AR41" s="131"/>
-      <c r="AS41" s="131"/>
-      <c r="AT41" s="131"/>
-      <c r="AU41" s="131"/>
-      <c r="AV41" s="131"/>
-      <c r="AW41" s="131"/>
-      <c r="AX41" s="131"/>
-      <c r="AY41" s="131"/>
-      <c r="AZ41" s="131"/>
-      <c r="BA41" s="131"/>
-      <c r="BB41" s="131"/>
-      <c r="BC41" s="131"/>
-      <c r="BD41" s="131"/>
-      <c r="BE41" s="133" t="s">
-        <v>444</v>
-      </c>
-      <c r="BF41" s="133"/>
-      <c r="BG41" s="133"/>
-      <c r="BH41" s="133"/>
-      <c r="BI41" s="130" t="s">
-        <v>791</v>
-      </c>
-      <c r="BJ41" s="130"/>
-      <c r="BK41" s="130"/>
-      <c r="BL41" s="130"/>
+      <c r="AD41" s="139"/>
+      <c r="AE41" s="139"/>
+      <c r="AF41" s="139"/>
+      <c r="AG41" s="139"/>
+      <c r="AH41" s="139"/>
+      <c r="AI41" s="139"/>
+      <c r="AJ41" s="139"/>
+      <c r="AK41" s="139"/>
+      <c r="AL41" s="139"/>
+      <c r="AM41" s="139"/>
+      <c r="AN41" s="139"/>
+      <c r="AO41" s="139"/>
+      <c r="AP41" s="139"/>
+      <c r="AQ41" s="139"/>
+      <c r="AR41" s="139"/>
+      <c r="AS41" s="139"/>
+      <c r="AT41" s="139"/>
+      <c r="AU41" s="139"/>
+      <c r="AV41" s="139"/>
+      <c r="AW41" s="139"/>
+      <c r="AX41" s="139"/>
+      <c r="AY41" s="139"/>
+      <c r="AZ41" s="139"/>
+      <c r="BA41" s="139"/>
+      <c r="BB41" s="139"/>
+      <c r="BC41" s="139"/>
+      <c r="BD41" s="139"/>
+      <c r="BE41" s="141" t="s">
+        <v>443</v>
+      </c>
+      <c r="BF41" s="141"/>
+      <c r="BG41" s="141"/>
+      <c r="BH41" s="141"/>
+      <c r="BI41" s="138" t="s">
+        <v>776</v>
+      </c>
+      <c r="BJ41" s="138"/>
+      <c r="BK41" s="138"/>
+      <c r="BL41" s="138"/>
     </row>
     <row r="42" spans="1:64" x14ac:dyDescent="0.15">
       <c r="F42" s="13"/>
@@ -24011,326 +24053,326 @@
       <c r="BK44" s="6"/>
     </row>
     <row r="45" spans="1:64" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C45" s="136" t="s">
+      <c r="C45" s="144" t="s">
         <v>112</v>
       </c>
-      <c r="D45" s="137"/>
-      <c r="E45" s="137"/>
-      <c r="F45" s="138" t="s">
-        <v>666</v>
-      </c>
-      <c r="G45" s="139"/>
-      <c r="H45" s="139"/>
-      <c r="I45" s="139" t="s">
+      <c r="D45" s="145"/>
+      <c r="E45" s="145"/>
+      <c r="F45" s="146" t="s">
+        <v>660</v>
+      </c>
+      <c r="G45" s="147"/>
+      <c r="H45" s="147"/>
+      <c r="I45" s="147" t="s">
         <v>113</v>
       </c>
-      <c r="J45" s="140" t="s">
+      <c r="J45" s="148" t="s">
         <v>117</v>
       </c>
-      <c r="K45" s="141"/>
-      <c r="L45" s="141"/>
-      <c r="M45" s="139" t="s">
+      <c r="K45" s="149"/>
+      <c r="L45" s="149"/>
+      <c r="M45" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="N45" s="139" t="s">
+      <c r="N45" s="147" t="s">
+        <v>528</v>
+      </c>
+      <c r="O45" s="147"/>
+      <c r="P45" s="147"/>
+      <c r="Q45" s="147" t="s">
+        <v>96</v>
+      </c>
+      <c r="R45" s="143" t="s">
         <v>529</v>
       </c>
-      <c r="O45" s="139"/>
-      <c r="P45" s="139"/>
-      <c r="Q45" s="139" t="s">
+      <c r="S45" s="143"/>
+      <c r="T45" s="143"/>
+      <c r="U45" s="150" t="s">
+        <v>113</v>
+      </c>
+      <c r="V45" s="150" t="s">
+        <v>530</v>
+      </c>
+      <c r="W45" s="150"/>
+      <c r="X45" s="150"/>
+      <c r="Y45" s="140" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z45" s="140">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="140"/>
+      <c r="AB45" s="140"/>
+      <c r="AC45" s="140" t="s">
         <v>96</v>
       </c>
-      <c r="R45" s="135" t="s">
-        <v>530</v>
-      </c>
-      <c r="S45" s="135"/>
-      <c r="T45" s="135"/>
-      <c r="U45" s="142" t="s">
-        <v>113</v>
-      </c>
-      <c r="V45" s="142" t="s">
+      <c r="AD45" s="140" t="s">
         <v>531</v>
       </c>
-      <c r="W45" s="142"/>
-      <c r="X45" s="142"/>
-      <c r="Y45" s="132" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z45" s="132">
-        <v>1</v>
-      </c>
-      <c r="AA45" s="132"/>
-      <c r="AB45" s="132"/>
-      <c r="AC45" s="132" t="s">
+      <c r="AE45" s="140"/>
+      <c r="AF45" s="140"/>
+      <c r="AG45" s="140" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH45" s="140" t="s">
+        <v>526</v>
+      </c>
+      <c r="AI45" s="140"/>
+      <c r="AJ45" s="140"/>
+      <c r="AK45" s="140" t="s">
         <v>96</v>
       </c>
-      <c r="AD45" s="132" t="s">
-        <v>532</v>
-      </c>
-      <c r="AE45" s="132"/>
-      <c r="AF45" s="132"/>
-      <c r="AG45" s="132" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH45" s="132" t="s">
-        <v>527</v>
-      </c>
-      <c r="AI45" s="132"/>
-      <c r="AJ45" s="132"/>
-      <c r="AK45" s="132" t="s">
+      <c r="AL45" s="140" t="s">
+        <v>524</v>
+      </c>
+      <c r="AM45" s="140"/>
+      <c r="AN45" s="140"/>
+      <c r="AO45" s="140" t="s">
         <v>96</v>
       </c>
-      <c r="AL45" s="132" t="s">
-        <v>525</v>
-      </c>
-      <c r="AM45" s="132"/>
-      <c r="AN45" s="132"/>
-      <c r="AO45" s="132" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP45" s="132" t="s">
-        <v>522</v>
-      </c>
-      <c r="AQ45" s="132"/>
-      <c r="AR45" s="132"/>
+      <c r="AP45" s="140" t="s">
+        <v>521</v>
+      </c>
+      <c r="AQ45" s="140"/>
+      <c r="AR45" s="140"/>
     </row>
     <row r="46" spans="1:64" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C46" s="137"/>
-      <c r="D46" s="137"/>
-      <c r="E46" s="137"/>
-      <c r="F46" s="139"/>
-      <c r="G46" s="139"/>
-      <c r="H46" s="139"/>
-      <c r="I46" s="139"/>
-      <c r="J46" s="141"/>
-      <c r="K46" s="141"/>
-      <c r="L46" s="141"/>
-      <c r="M46" s="139"/>
-      <c r="N46" s="139"/>
-      <c r="O46" s="139"/>
-      <c r="P46" s="139"/>
-      <c r="Q46" s="139"/>
-      <c r="R46" s="135"/>
-      <c r="S46" s="135"/>
-      <c r="T46" s="135"/>
-      <c r="U46" s="142"/>
-      <c r="V46" s="142"/>
-      <c r="W46" s="142"/>
-      <c r="X46" s="142"/>
-      <c r="Y46" s="132"/>
-      <c r="Z46" s="132"/>
-      <c r="AA46" s="132"/>
-      <c r="AB46" s="132"/>
-      <c r="AC46" s="132"/>
-      <c r="AD46" s="132"/>
-      <c r="AE46" s="132"/>
-      <c r="AF46" s="132"/>
-      <c r="AG46" s="132"/>
-      <c r="AH46" s="132"/>
-      <c r="AI46" s="132"/>
-      <c r="AJ46" s="132"/>
-      <c r="AK46" s="132"/>
-      <c r="AL46" s="132"/>
-      <c r="AM46" s="132"/>
-      <c r="AN46" s="132"/>
-      <c r="AO46" s="132"/>
-      <c r="AP46" s="132"/>
-      <c r="AQ46" s="132"/>
-      <c r="AR46" s="132"/>
+      <c r="C46" s="145"/>
+      <c r="D46" s="145"/>
+      <c r="E46" s="145"/>
+      <c r="F46" s="147"/>
+      <c r="G46" s="147"/>
+      <c r="H46" s="147"/>
+      <c r="I46" s="147"/>
+      <c r="J46" s="149"/>
+      <c r="K46" s="149"/>
+      <c r="L46" s="149"/>
+      <c r="M46" s="147"/>
+      <c r="N46" s="147"/>
+      <c r="O46" s="147"/>
+      <c r="P46" s="147"/>
+      <c r="Q46" s="147"/>
+      <c r="R46" s="143"/>
+      <c r="S46" s="143"/>
+      <c r="T46" s="143"/>
+      <c r="U46" s="150"/>
+      <c r="V46" s="150"/>
+      <c r="W46" s="150"/>
+      <c r="X46" s="150"/>
+      <c r="Y46" s="140"/>
+      <c r="Z46" s="140"/>
+      <c r="AA46" s="140"/>
+      <c r="AB46" s="140"/>
+      <c r="AC46" s="140"/>
+      <c r="AD46" s="140"/>
+      <c r="AE46" s="140"/>
+      <c r="AF46" s="140"/>
+      <c r="AG46" s="140"/>
+      <c r="AH46" s="140"/>
+      <c r="AI46" s="140"/>
+      <c r="AJ46" s="140"/>
+      <c r="AK46" s="140"/>
+      <c r="AL46" s="140"/>
+      <c r="AM46" s="140"/>
+      <c r="AN46" s="140"/>
+      <c r="AO46" s="140"/>
+      <c r="AP46" s="140"/>
+      <c r="AQ46" s="140"/>
+      <c r="AR46" s="140"/>
     </row>
     <row r="47" spans="1:64" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C47" s="137"/>
-      <c r="D47" s="137"/>
-      <c r="E47" s="137"/>
-      <c r="F47" s="139"/>
-      <c r="G47" s="139"/>
-      <c r="H47" s="139"/>
-      <c r="I47" s="139"/>
-      <c r="J47" s="141"/>
-      <c r="K47" s="141"/>
-      <c r="L47" s="141"/>
-      <c r="M47" s="139"/>
-      <c r="N47" s="139"/>
-      <c r="O47" s="139"/>
-      <c r="P47" s="139"/>
-      <c r="Q47" s="139"/>
-      <c r="R47" s="135"/>
-      <c r="S47" s="135"/>
-      <c r="T47" s="135"/>
-      <c r="U47" s="142"/>
-      <c r="V47" s="142"/>
-      <c r="W47" s="142"/>
-      <c r="X47" s="142"/>
-      <c r="Y47" s="132"/>
-      <c r="Z47" s="132"/>
-      <c r="AA47" s="132"/>
-      <c r="AB47" s="132"/>
-      <c r="AC47" s="132"/>
-      <c r="AD47" s="132"/>
-      <c r="AE47" s="132"/>
-      <c r="AF47" s="132"/>
-      <c r="AG47" s="132"/>
-      <c r="AH47" s="132"/>
-      <c r="AI47" s="132"/>
-      <c r="AJ47" s="132"/>
-      <c r="AK47" s="132"/>
-      <c r="AL47" s="132"/>
-      <c r="AM47" s="132"/>
-      <c r="AN47" s="132"/>
-      <c r="AO47" s="132"/>
-      <c r="AP47" s="132"/>
-      <c r="AQ47" s="132"/>
-      <c r="AR47" s="132"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="145"/>
+      <c r="F47" s="147"/>
+      <c r="G47" s="147"/>
+      <c r="H47" s="147"/>
+      <c r="I47" s="147"/>
+      <c r="J47" s="149"/>
+      <c r="K47" s="149"/>
+      <c r="L47" s="149"/>
+      <c r="M47" s="147"/>
+      <c r="N47" s="147"/>
+      <c r="O47" s="147"/>
+      <c r="P47" s="147"/>
+      <c r="Q47" s="147"/>
+      <c r="R47" s="143"/>
+      <c r="S47" s="143"/>
+      <c r="T47" s="143"/>
+      <c r="U47" s="150"/>
+      <c r="V47" s="150"/>
+      <c r="W47" s="150"/>
+      <c r="X47" s="150"/>
+      <c r="Y47" s="140"/>
+      <c r="Z47" s="140"/>
+      <c r="AA47" s="140"/>
+      <c r="AB47" s="140"/>
+      <c r="AC47" s="140"/>
+      <c r="AD47" s="140"/>
+      <c r="AE47" s="140"/>
+      <c r="AF47" s="140"/>
+      <c r="AG47" s="140"/>
+      <c r="AH47" s="140"/>
+      <c r="AI47" s="140"/>
+      <c r="AJ47" s="140"/>
+      <c r="AK47" s="140"/>
+      <c r="AL47" s="140"/>
+      <c r="AM47" s="140"/>
+      <c r="AN47" s="140"/>
+      <c r="AO47" s="140"/>
+      <c r="AP47" s="140"/>
+      <c r="AQ47" s="140"/>
+      <c r="AR47" s="140"/>
     </row>
     <row r="48" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C48" s="137"/>
-      <c r="D48" s="137"/>
-      <c r="E48" s="137"/>
-      <c r="F48" s="139"/>
-      <c r="G48" s="139"/>
-      <c r="H48" s="139"/>
-      <c r="I48" s="139"/>
-      <c r="J48" s="141"/>
-      <c r="K48" s="141"/>
-      <c r="L48" s="141"/>
-      <c r="M48" s="139"/>
-      <c r="N48" s="139"/>
-      <c r="O48" s="139"/>
-      <c r="P48" s="139"/>
-      <c r="Q48" s="139"/>
-      <c r="R48" s="135"/>
-      <c r="S48" s="135"/>
-      <c r="T48" s="135"/>
-      <c r="U48" s="142"/>
-      <c r="V48" s="142"/>
-      <c r="W48" s="142"/>
-      <c r="X48" s="142"/>
-      <c r="Y48" s="132"/>
-      <c r="Z48" s="132"/>
-      <c r="AA48" s="132"/>
-      <c r="AB48" s="132"/>
-      <c r="AC48" s="132"/>
-      <c r="AD48" s="132"/>
-      <c r="AE48" s="132"/>
-      <c r="AF48" s="132"/>
-      <c r="AG48" s="132"/>
-      <c r="AH48" s="132"/>
-      <c r="AI48" s="132"/>
-      <c r="AJ48" s="132"/>
-      <c r="AK48" s="132"/>
-      <c r="AL48" s="132"/>
-      <c r="AM48" s="132"/>
-      <c r="AN48" s="132"/>
-      <c r="AO48" s="132"/>
-      <c r="AP48" s="132"/>
-      <c r="AQ48" s="132"/>
-      <c r="AR48" s="132"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="145"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="147"/>
+      <c r="G48" s="147"/>
+      <c r="H48" s="147"/>
+      <c r="I48" s="147"/>
+      <c r="J48" s="149"/>
+      <c r="K48" s="149"/>
+      <c r="L48" s="149"/>
+      <c r="M48" s="147"/>
+      <c r="N48" s="147"/>
+      <c r="O48" s="147"/>
+      <c r="P48" s="147"/>
+      <c r="Q48" s="147"/>
+      <c r="R48" s="143"/>
+      <c r="S48" s="143"/>
+      <c r="T48" s="143"/>
+      <c r="U48" s="150"/>
+      <c r="V48" s="150"/>
+      <c r="W48" s="150"/>
+      <c r="X48" s="150"/>
+      <c r="Y48" s="140"/>
+      <c r="Z48" s="140"/>
+      <c r="AA48" s="140"/>
+      <c r="AB48" s="140"/>
+      <c r="AC48" s="140"/>
+      <c r="AD48" s="140"/>
+      <c r="AE48" s="140"/>
+      <c r="AF48" s="140"/>
+      <c r="AG48" s="140"/>
+      <c r="AH48" s="140"/>
+      <c r="AI48" s="140"/>
+      <c r="AJ48" s="140"/>
+      <c r="AK48" s="140"/>
+      <c r="AL48" s="140"/>
+      <c r="AM48" s="140"/>
+      <c r="AN48" s="140"/>
+      <c r="AO48" s="140"/>
+      <c r="AP48" s="140"/>
+      <c r="AQ48" s="140"/>
+      <c r="AR48" s="140"/>
     </row>
     <row r="49" spans="3:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F49" s="139" t="s">
-        <v>546</v>
-      </c>
-      <c r="G49" s="139"/>
-      <c r="H49" s="139"/>
-      <c r="I49" s="139"/>
-      <c r="J49" s="144" t="s">
+      <c r="F49" s="147" t="s">
+        <v>545</v>
+      </c>
+      <c r="G49" s="147"/>
+      <c r="H49" s="147"/>
+      <c r="I49" s="147"/>
+      <c r="J49" s="152" t="s">
         <v>107</v>
       </c>
-      <c r="K49" s="144"/>
-      <c r="L49" s="144"/>
-      <c r="M49" s="139"/>
-      <c r="N49" s="139" t="s">
+      <c r="K49" s="152"/>
+      <c r="L49" s="152"/>
+      <c r="M49" s="147"/>
+      <c r="N49" s="147" t="s">
         <v>100</v>
       </c>
-      <c r="O49" s="139"/>
-      <c r="P49" s="139"/>
-      <c r="Q49" s="139"/>
-      <c r="R49" s="135" t="s">
+      <c r="O49" s="147"/>
+      <c r="P49" s="147"/>
+      <c r="Q49" s="147"/>
+      <c r="R49" s="143" t="s">
         <v>116</v>
       </c>
-      <c r="S49" s="135"/>
-      <c r="T49" s="135"/>
-      <c r="U49" s="142"/>
-      <c r="V49" s="142" t="s">
+      <c r="S49" s="143"/>
+      <c r="T49" s="143"/>
+      <c r="U49" s="150"/>
+      <c r="V49" s="150" t="s">
         <v>114</v>
       </c>
-      <c r="W49" s="142"/>
-      <c r="X49" s="142"/>
-      <c r="Y49" s="132"/>
-      <c r="Z49" s="132"/>
-      <c r="AA49" s="132"/>
-      <c r="AB49" s="132"/>
-      <c r="AC49" s="132"/>
-      <c r="AD49" s="132" t="s">
+      <c r="W49" s="150"/>
+      <c r="X49" s="150"/>
+      <c r="Y49" s="140"/>
+      <c r="Z49" s="140"/>
+      <c r="AA49" s="140"/>
+      <c r="AB49" s="140"/>
+      <c r="AC49" s="140"/>
+      <c r="AD49" s="140" t="s">
         <v>98</v>
       </c>
-      <c r="AE49" s="132"/>
-      <c r="AF49" s="132"/>
-      <c r="AG49" s="132"/>
-      <c r="AH49" s="132" t="s">
+      <c r="AE49" s="140"/>
+      <c r="AF49" s="140"/>
+      <c r="AG49" s="140"/>
+      <c r="AH49" s="140" t="s">
         <v>99</v>
       </c>
-      <c r="AI49" s="132"/>
-      <c r="AJ49" s="132"/>
-      <c r="AK49" s="132"/>
-      <c r="AL49" s="132" t="s">
+      <c r="AI49" s="140"/>
+      <c r="AJ49" s="140"/>
+      <c r="AK49" s="140"/>
+      <c r="AL49" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="AM49" s="132"/>
-      <c r="AN49" s="132"/>
-      <c r="AO49" s="132"/>
-      <c r="AP49" s="131" t="s">
+      <c r="AM49" s="140"/>
+      <c r="AN49" s="140"/>
+      <c r="AO49" s="140"/>
+      <c r="AP49" s="139" t="s">
         <v>215</v>
       </c>
-      <c r="AQ49" s="131"/>
-      <c r="AR49" s="131"/>
+      <c r="AQ49" s="139"/>
+      <c r="AR49" s="139"/>
     </row>
     <row r="50" spans="3:54" x14ac:dyDescent="0.15">
-      <c r="F50" s="135" t="s">
+      <c r="F50" s="143" t="s">
         <v>146</v>
       </c>
-      <c r="G50" s="135"/>
-      <c r="H50" s="135"/>
-      <c r="I50" s="135"/>
-      <c r="J50" s="135"/>
-      <c r="K50" s="135"/>
-      <c r="L50" s="135"/>
-      <c r="M50" s="135"/>
-      <c r="N50" s="135"/>
-      <c r="O50" s="135"/>
-      <c r="P50" s="135"/>
-      <c r="Q50" s="135"/>
-      <c r="R50" s="135"/>
-      <c r="S50" s="135"/>
-      <c r="T50" s="135"/>
-      <c r="U50" s="146" t="s">
+      <c r="G50" s="143"/>
+      <c r="H50" s="143"/>
+      <c r="I50" s="143"/>
+      <c r="J50" s="143"/>
+      <c r="K50" s="143"/>
+      <c r="L50" s="143"/>
+      <c r="M50" s="143"/>
+      <c r="N50" s="143"/>
+      <c r="O50" s="143"/>
+      <c r="P50" s="143"/>
+      <c r="Q50" s="143"/>
+      <c r="R50" s="143"/>
+      <c r="S50" s="143"/>
+      <c r="T50" s="143"/>
+      <c r="U50" s="154" t="s">
         <v>148</v>
       </c>
-      <c r="V50" s="146"/>
-      <c r="W50" s="146"/>
-      <c r="X50" s="146"/>
-      <c r="Y50" s="131" t="s">
+      <c r="V50" s="154"/>
+      <c r="W50" s="154"/>
+      <c r="X50" s="154"/>
+      <c r="Y50" s="139" t="s">
         <v>145</v>
       </c>
-      <c r="Z50" s="131"/>
-      <c r="AA50" s="131"/>
-      <c r="AB50" s="131"/>
-      <c r="AC50" s="131"/>
-      <c r="AD50" s="131"/>
-      <c r="AE50" s="131"/>
-      <c r="AF50" s="131"/>
-      <c r="AG50" s="131"/>
-      <c r="AH50" s="131"/>
-      <c r="AI50" s="131"/>
-      <c r="AJ50" s="131"/>
-      <c r="AK50" s="131"/>
-      <c r="AL50" s="131"/>
-      <c r="AM50" s="131"/>
-      <c r="AN50" s="131"/>
-      <c r="AO50" s="131"/>
-      <c r="AP50" s="131"/>
-      <c r="AQ50" s="131"/>
-      <c r="AR50" s="131"/>
+      <c r="Z50" s="139"/>
+      <c r="AA50" s="139"/>
+      <c r="AB50" s="139"/>
+      <c r="AC50" s="139"/>
+      <c r="AD50" s="139"/>
+      <c r="AE50" s="139"/>
+      <c r="AF50" s="139"/>
+      <c r="AG50" s="139"/>
+      <c r="AH50" s="139"/>
+      <c r="AI50" s="139"/>
+      <c r="AJ50" s="139"/>
+      <c r="AK50" s="139"/>
+      <c r="AL50" s="139"/>
+      <c r="AM50" s="139"/>
+      <c r="AN50" s="139"/>
+      <c r="AO50" s="139"/>
+      <c r="AP50" s="139"/>
+      <c r="AQ50" s="139"/>
+      <c r="AR50" s="139"/>
     </row>
     <row r="51" spans="3:54" x14ac:dyDescent="0.15">
       <c r="AW51" s="3"/>
@@ -24389,55 +24431,55 @@
     </row>
     <row r="61" spans="3:54" x14ac:dyDescent="0.15">
       <c r="C61" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="62" spans="3:54" x14ac:dyDescent="0.15">
       <c r="D62" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="63" spans="3:54" x14ac:dyDescent="0.15">
       <c r="E63" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="64" spans="3:54" x14ac:dyDescent="0.15">
       <c r="F64" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="65" spans="5:8" x14ac:dyDescent="0.15">
       <c r="E65" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="66" spans="5:8" x14ac:dyDescent="0.15">
       <c r="F66" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="67" spans="5:8" x14ac:dyDescent="0.15">
       <c r="F67" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="69" spans="5:8" x14ac:dyDescent="0.15">
       <c r="E69" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="70" spans="5:8" x14ac:dyDescent="0.15">
       <c r="F70" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="71" spans="5:8" x14ac:dyDescent="0.15">
       <c r="F71" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -24813,86 +24855,86 @@
         <v>142</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>461</v>
-      </c>
       <c r="F44" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="45" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>465</v>
-      </c>
       <c r="F45" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="46" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="47" spans="1:45" x14ac:dyDescent="0.15">
       <c r="C47" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="48" spans="1:45" x14ac:dyDescent="0.15">
       <c r="C48" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D50" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E51" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E52" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -24919,65 +24961,65 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97" t="s">
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97" t="s">
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97"/>
-      <c r="Z2" s="97"/>
-      <c r="AA2" s="97"/>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="97"/>
-      <c r="AD2" s="97" t="s">
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="AE2" s="97"/>
-      <c r="AF2" s="97"/>
-      <c r="AG2" s="97"/>
-      <c r="AH2" s="97"/>
-      <c r="AI2" s="97"/>
-      <c r="AJ2" s="97" t="s">
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="105"/>
+      <c r="AG2" s="105"/>
+      <c r="AH2" s="105"/>
+      <c r="AI2" s="105"/>
+      <c r="AJ2" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="AK2" s="97"/>
-      <c r="AL2" s="97"/>
-      <c r="AM2" s="97" t="s">
+      <c r="AK2" s="105"/>
+      <c r="AL2" s="105"/>
+      <c r="AM2" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="AN2" s="97"/>
-      <c r="AO2" s="97"/>
-      <c r="AP2" s="97"/>
-      <c r="AQ2" s="97"/>
-      <c r="AR2" s="97"/>
-      <c r="AS2" s="97"/>
-      <c r="AT2" s="97"/>
-      <c r="AU2" s="97"/>
-      <c r="AV2" s="97"/>
+      <c r="AN2" s="105"/>
+      <c r="AO2" s="105"/>
+      <c r="AP2" s="105"/>
+      <c r="AQ2" s="105"/>
+      <c r="AR2" s="105"/>
+      <c r="AS2" s="105"/>
+      <c r="AT2" s="105"/>
+      <c r="AU2" s="105"/>
+      <c r="AV2" s="105"/>
       <c r="AW2" s="4" t="s">
         <v>40</v>
       </c>

--- a/gd/数值规划/怪物属性配置及伤害公式.xlsx
+++ b/gd/数值规划/怪物属性配置及伤害公式.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="857">
   <si>
     <t>技能升级</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1130,30 +1130,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>装备</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>属性</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>怪物可装备装备个数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1250,10 +1226,6 @@
   </si>
   <si>
     <t>recovery</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次战斗结束（即每个对局结束）后怪物可自行回复的血量，每次副本结束怪物血量自动回满（副本层</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3319,62 +3291,154 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>需求怪物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指从上一等级升至本等级需要的材料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指从上一等级升至本等级需要的怪物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>若存在多个需求道具则使用；分隔ID与个数|区分几个需求道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>若存在多个需求怪物则使用；分隔ID、品质和个数 |区分几个需求道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>demandItem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>demandMonster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>demandMonster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在多个需求怪物则使用；分隔ID，品质和个数|区分几个需求道具</t>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改怪物升星需求怪物配置方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>装备</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>属性</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求该宠物等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=不需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>demandLevel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>需求材料</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>需求怪物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>指从上一等级升至本等级需要的材料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>指从上一等级升至本等级需要的怪物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>若存在多个需求道具则使用；分隔ID与个数|区分几个需求道具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>若存在多个需求怪物则使用；分隔ID、品质和个数 |区分几个需求道具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>demandItem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>demandMonster</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>demandMonster</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>存在多个需求怪物则使用；分隔ID，品质和个数|区分几个需求道具</t>
-  </si>
-  <si>
-    <t>品质</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改怪物升星需求怪物配置方式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置2</t>
+    <t>需求该宠物等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=无需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加升星需求该怪物等级配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>demandLevel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级限制关系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加等级限制关系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级限制宠物等级：宠物最高等级=玩家当前等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物等级限制宠物技能等级与宠物进化和宠物进阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物当前最大技能等级=宠物当前等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物进化和进阶通过配置判定宠物等级（具体待定）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次战斗结束（即每个对局结束）后怪物可自行回复的血量（配置多少就恢复多少，相当于配置量：回复量=1:1），每次副本结束怪物血量自动回满（副本层）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>细化战后回血回复量和配置为1:1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3550,7 +3614,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3614,6 +3678,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3868,7 +3938,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4123,6 +4193,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4324,7 +4398,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -16648,10 +16725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -16663,10 +16740,10 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="60" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C1" s="61"/>
       <c r="D1" s="62"/>
@@ -16701,10 +16778,10 @@
     </row>
     <row r="3" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A3" s="60" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C3" s="61"/>
       <c r="D3" s="62"/>
@@ -16739,10 +16816,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="60" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C5" s="61"/>
       <c r="D5" s="62"/>
@@ -16777,10 +16854,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="60" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C7" s="61"/>
       <c r="D7" s="65"/>
@@ -16832,7 +16909,7 @@
     </row>
     <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="60" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B10" s="61"/>
       <c r="C10" s="62"/>
@@ -16851,17 +16928,17 @@
     </row>
     <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="60"/>
-      <c r="B11" s="92" t="s">
-        <v>732</v>
-      </c>
-      <c r="C11" s="93"/>
-      <c r="D11" s="94" t="s">
-        <v>733</v>
-      </c>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="95"/>
+      <c r="B11" s="94" t="s">
+        <v>730</v>
+      </c>
+      <c r="C11" s="95"/>
+      <c r="D11" s="96" t="s">
+        <v>731</v>
+      </c>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="97"/>
       <c r="I11" s="61"/>
       <c r="J11" s="61"/>
       <c r="K11" s="61"/>
@@ -16873,14 +16950,14 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="60"/>
       <c r="B12" s="66" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C12" s="67"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="89"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="91"/>
       <c r="I12" s="61"/>
       <c r="J12" s="61"/>
       <c r="K12" s="61"/>
@@ -16892,14 +16969,14 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="60"/>
       <c r="B13" s="66" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C13" s="67"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="100"/>
       <c r="I13" s="61"/>
       <c r="J13" s="61"/>
       <c r="K13" s="61"/>
@@ -16911,14 +16988,14 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="60"/>
       <c r="B14" s="66" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C14" s="67"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="103"/>
       <c r="I14" s="61"/>
       <c r="J14" s="61"/>
       <c r="K14" s="61"/>
@@ -16930,16 +17007,16 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="60"/>
       <c r="B15" s="66" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>738</v>
-      </c>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="89"/>
+        <v>736</v>
+      </c>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="91"/>
       <c r="I15" s="61"/>
       <c r="J15" s="61"/>
       <c r="K15" s="61"/>
@@ -16951,14 +17028,14 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="60"/>
       <c r="B16" s="66" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C16" s="68"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="89"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="91"/>
       <c r="I16" s="61"/>
       <c r="J16" s="61"/>
       <c r="K16" s="61"/>
@@ -16970,14 +17047,14 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="60"/>
       <c r="B17" s="66" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C17" s="68"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="89"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="91"/>
       <c r="I17" s="61"/>
       <c r="J17" s="61"/>
       <c r="K17" s="61"/>
@@ -16989,14 +17066,14 @@
     <row r="18" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="60"/>
       <c r="B18" s="69" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C18" s="70"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="91"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="93"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
       <c r="K18" s="61"/>
@@ -17024,25 +17101,25 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="60" t="s">
+        <v>740</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>741</v>
+      </c>
+      <c r="C20" s="62" t="s">
         <v>742</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="D20" s="62" t="s">
         <v>743</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="E20" s="62" t="s">
         <v>744</v>
       </c>
-      <c r="D20" s="62" t="s">
+      <c r="F20" s="62" t="s">
         <v>745</v>
       </c>
-      <c r="E20" s="62" t="s">
+      <c r="G20" s="62" t="s">
         <v>746</v>
-      </c>
-      <c r="F20" s="62" t="s">
-        <v>747</v>
-      </c>
-      <c r="G20" s="62" t="s">
-        <v>748</v>
       </c>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
@@ -17073,19 +17150,19 @@
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="60"/>
       <c r="B22" s="61" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C22" s="71">
         <v>42125</v>
       </c>
       <c r="D22" s="62" t="s">
+        <v>748</v>
+      </c>
+      <c r="E22" s="62" t="s">
+        <v>749</v>
+      </c>
+      <c r="F22" s="62" t="s">
         <v>750</v>
-      </c>
-      <c r="E22" s="62" t="s">
-        <v>751</v>
-      </c>
-      <c r="F22" s="62" t="s">
-        <v>752</v>
       </c>
       <c r="G22" s="62"/>
       <c r="H22" s="61"/>
@@ -17100,7 +17177,7 @@
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="60"/>
       <c r="B23" s="61" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C23" s="71">
         <v>42130</v>
@@ -17109,10 +17186,10 @@
       <c r="E23" s="72"/>
       <c r="F23" s="61"/>
       <c r="G23" s="62" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="H23" s="65" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="I23" s="61"/>
       <c r="J23" s="61"/>
@@ -17128,10 +17205,10 @@
       <c r="E24" s="73"/>
       <c r="F24" s="61"/>
       <c r="G24" s="62" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="H24" s="74" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="I24" s="61"/>
       <c r="J24" s="61"/>
@@ -17142,7 +17219,7 @@
     </row>
     <row r="25" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B25" s="61" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C25" s="71">
         <v>42139</v>
@@ -17150,26 +17227,26 @@
       <c r="E25" s="57"/>
       <c r="F25" s="62"/>
       <c r="G25" s="62" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="H25" s="83" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="I25" s="61"/>
       <c r="J25" s="61" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="K25" s="61"/>
       <c r="L25" s="61"/>
       <c r="M25" s="61"/>
       <c r="N25" s="85" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="O25" s="61"/>
     </row>
     <row r="26" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B26" s="61" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C26" s="71">
         <v>42142</v>
@@ -17177,10 +17254,10 @@
       <c r="E26" s="5"/>
       <c r="F26" s="62"/>
       <c r="G26" s="62" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="H26" s="83" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="I26" s="61"/>
       <c r="J26" s="61"/>
@@ -17192,7 +17269,7 @@
     </row>
     <row r="27" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B27" s="61" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C27" s="71">
         <v>42145</v>
@@ -17200,24 +17277,24 @@
       <c r="E27" s="86"/>
       <c r="F27" s="62"/>
       <c r="G27" s="62" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="H27" s="83" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="I27" s="61"/>
       <c r="J27" s="61"/>
       <c r="K27" s="61"/>
       <c r="L27" s="61"/>
       <c r="M27" s="61" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="N27" s="85"/>
       <c r="O27" s="61"/>
     </row>
     <row r="28" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B28" s="61" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C28" s="71">
         <v>42159</v>
@@ -17225,10 +17302,10 @@
       <c r="E28" s="2"/>
       <c r="F28" s="62"/>
       <c r="G28" s="62" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="H28" s="87" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I28" s="61"/>
       <c r="J28" s="61"/>
@@ -17245,97 +17322,107 @@
         <v>42185</v>
       </c>
       <c r="D29" s="61"/>
-      <c r="E29" s="155"/>
+      <c r="E29" s="88"/>
       <c r="F29" s="62"/>
       <c r="G29" s="62" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="H29" s="85" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="I29" s="61"/>
       <c r="J29" s="61"/>
       <c r="K29" s="85" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="L29" s="61"/>
       <c r="M29" s="61"/>
       <c r="N29" s="61"/>
       <c r="O29" s="61"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A30" s="60" t="s">
-        <v>754</v>
-      </c>
-      <c r="B30" s="61" t="s">
-        <v>755</v>
-      </c>
-      <c r="C30" s="62" t="s">
-        <v>756</v>
-      </c>
-      <c r="D30" s="62" t="s">
-        <v>757</v>
-      </c>
-      <c r="E30" s="62" t="s">
-        <v>758</v>
-      </c>
+    <row r="30" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A30" s="61"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="88"/>
       <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="61"/>
+      <c r="G30" s="62" t="s">
+        <v>782</v>
+      </c>
+      <c r="H30" s="85" t="s">
+        <v>846</v>
+      </c>
       <c r="I30" s="61"/>
       <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
+      <c r="K30" s="85" t="s">
+        <v>837</v>
+      </c>
       <c r="L30" s="61"/>
       <c r="M30" s="61"/>
       <c r="N30" s="61"/>
       <c r="O30" s="61"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A31" s="60" t="s">
-        <v>766</v>
-      </c>
-      <c r="B31" s="61" t="s">
-        <v>753</v>
-      </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="65" t="s">
-        <v>767</v>
-      </c>
-      <c r="E31" s="65"/>
+    <row r="31" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A31" s="61"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="88"/>
       <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="61"/>
+      <c r="G31" s="62" t="s">
+        <v>782</v>
+      </c>
+      <c r="H31" s="85" t="s">
+        <v>849</v>
+      </c>
       <c r="I31" s="61"/>
       <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
+      <c r="K31" s="85"/>
       <c r="L31" s="61"/>
       <c r="M31" s="61"/>
       <c r="N31" s="61"/>
       <c r="O31" s="61"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A32" s="60"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
+    <row r="32" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A32" s="61"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="71">
+        <v>42193</v>
+      </c>
+      <c r="D32" s="61"/>
+      <c r="E32" s="158"/>
       <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="61"/>
+      <c r="G32" s="62" t="s">
+        <v>855</v>
+      </c>
+      <c r="H32" s="85" t="s">
+        <v>856</v>
+      </c>
       <c r="I32" s="61"/>
       <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
+      <c r="K32" s="85"/>
       <c r="L32" s="61"/>
       <c r="M32" s="61"/>
       <c r="N32" s="61"/>
       <c r="O32" s="61"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33" s="60"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
+      <c r="A33" s="60" t="s">
+        <v>752</v>
+      </c>
+      <c r="B33" s="61" t="s">
+        <v>753</v>
+      </c>
+      <c r="C33" s="62" t="s">
+        <v>754</v>
+      </c>
+      <c r="D33" s="62" t="s">
+        <v>755</v>
+      </c>
+      <c r="E33" s="62" t="s">
+        <v>756</v>
+      </c>
       <c r="F33" s="62"/>
       <c r="G33" s="62"/>
       <c r="H33" s="61"/>
@@ -17346,6 +17433,63 @@
       <c r="M33" s="61"/>
       <c r="N33" s="61"/>
       <c r="O33" s="61"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34" s="60" t="s">
+        <v>764</v>
+      </c>
+      <c r="B34" s="61" t="s">
+        <v>751</v>
+      </c>
+      <c r="C34" s="61"/>
+      <c r="D34" s="65" t="s">
+        <v>765</v>
+      </c>
+      <c r="E34" s="65"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="61"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="61"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A36" s="60"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -17367,6 +17511,10 @@
     <hyperlink ref="H27" location="名词解释!E73" display="添加怪物基础属性：勤奋度，勤奋度积累值，性格"/>
     <hyperlink ref="H29" location="名词解释!F215" display="修改怪物升星需求怪物配置方式"/>
     <hyperlink ref="K29" location="配置表!L13" display="位置2"/>
+    <hyperlink ref="K30" location="名词解释!F212" display="位置2"/>
+    <hyperlink ref="H30" location="配置表!K13" display="添加升星需求该怪物等级配置"/>
+    <hyperlink ref="H31" location="名词解释!C231" display="添加等级限制关系"/>
+    <hyperlink ref="H32" location="名词解释!G103" display="细化战后回血回复量和配置为1:1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17374,10 +17522,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X229"/>
+  <dimension ref="A2:X235"/>
   <sheetViews>
-    <sheetView topLeftCell="C199" workbookViewId="0">
-      <selection activeCell="F215" sqref="F215"/>
+    <sheetView tabSelected="1" topLeftCell="C166" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -17404,7 +17552,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F4" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -17414,7 +17562,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F6" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -17424,7 +17572,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>245</v>
@@ -17432,7 +17580,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>120</v>
@@ -17495,7 +17643,7 @@
     </row>
     <row r="21" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E21" s="11" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -17507,7 +17655,7 @@
     <row r="22" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E22" s="11"/>
       <c r="F22" s="11" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -17517,7 +17665,7 @@
     </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E23" s="11" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -17529,7 +17677,7 @@
     <row r="24" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E24" s="11"/>
       <c r="F24" s="11" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -17539,7 +17687,7 @@
     </row>
     <row r="25" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E25" s="11" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -17551,7 +17699,7 @@
     <row r="26" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E26" s="11"/>
       <c r="F26" s="11" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -17561,7 +17709,7 @@
     </row>
     <row r="27" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E27" s="53" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -17573,7 +17721,7 @@
     <row r="28" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E28" s="11"/>
       <c r="F28" s="11" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -17583,7 +17731,7 @@
     </row>
     <row r="29" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E29" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
@@ -17595,7 +17743,7 @@
     <row r="30" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E30" s="11"/>
       <c r="F30" s="11" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
@@ -17605,7 +17753,7 @@
     </row>
     <row r="31" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E31" s="11" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
@@ -17617,7 +17765,7 @@
     <row r="32" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E32" s="11"/>
       <c r="F32" s="11" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
@@ -17627,7 +17775,7 @@
     </row>
     <row r="33" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E33" s="11" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
@@ -17639,7 +17787,7 @@
     <row r="34" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E34" s="11"/>
       <c r="F34" s="11" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -17649,7 +17797,7 @@
     </row>
     <row r="35" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E35" s="11" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
@@ -17661,7 +17809,7 @@
     <row r="36" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E36" s="11"/>
       <c r="F36" s="11" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
@@ -17671,7 +17819,7 @@
     </row>
     <row r="37" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E37" s="11" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
@@ -17683,7 +17831,7 @@
     <row r="38" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E38" s="11"/>
       <c r="F38" s="11" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
@@ -17693,7 +17841,7 @@
     </row>
     <row r="39" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E39" s="11" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
@@ -17706,10 +17854,10 @@
     <row r="40" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E40" s="11"/>
       <c r="F40" s="11" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
@@ -17720,10 +17868,10 @@
     <row r="41" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E41" s="11"/>
       <c r="F41" s="11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -17733,7 +17881,7 @@
     </row>
     <row r="42" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E42" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
@@ -17746,7 +17894,7 @@
     <row r="43" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E43" s="11"/>
       <c r="F43" s="11" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -17759,7 +17907,7 @@
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
@@ -17771,7 +17919,7 @@
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
@@ -17783,7 +17931,7 @@
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
@@ -17795,7 +17943,7 @@
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
@@ -17807,7 +17955,7 @@
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
@@ -17816,7 +17964,7 @@
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B50" s="9" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>254</v>
@@ -17850,7 +17998,7 @@
         <v>258</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>259</v>
@@ -17868,7 +18016,7 @@
         <v>260</v>
       </c>
       <c r="F56" s="32" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>261</v>
@@ -17883,16 +18031,16 @@
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.15">
       <c r="E58" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>262</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.15">
@@ -17903,68 +18051,68 @@
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.15">
       <c r="E60" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F60" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>679</v>
-      </c>
       <c r="H60" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="K60" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="J60" s="1" t="s">
+      <c r="L60" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="M60" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="K60" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="L60" s="1" t="s">
+      <c r="N60" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="O60" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="N60" s="1" t="s">
+      <c r="P60" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="O60" s="1" t="s">
+      <c r="Q60" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="P60" s="1" t="s">
+      <c r="R60" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="W60" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="R60" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="S60" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="T60" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="U60" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="V60" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="W60" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.15">
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H61" s="1">
         <v>0</v>
@@ -18068,16 +18216,16 @@
     <row r="67" spans="1:24" x14ac:dyDescent="0.15">
       <c r="C67" s="3"/>
       <c r="E67" s="76" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F67" s="76" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G67" s="76" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="I67" s="3"/>
       <c r="K67" s="3"/>
@@ -18132,13 +18280,13 @@
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.15">
       <c r="E73" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F73" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="J73" s="33"/>
     </row>
@@ -18147,13 +18295,13 @@
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.15">
       <c r="E75" s="76" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F75" s="76" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G75" s="76" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="H75" s="78"/>
       <c r="I75" s="76"/>
@@ -18197,13 +18345,13 @@
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.15">
       <c r="E77" s="76" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F77" s="76" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G77" s="76" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="H77" s="76"/>
       <c r="I77" s="76"/>
@@ -18247,16 +18395,16 @@
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A79" s="10" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E79" s="76" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F79" s="76" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G79" s="76" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="H79" s="76"/>
       <c r="I79" s="77"/>
@@ -18302,25 +18450,25 @@
     </row>
     <row r="84" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D84" s="28" t="s">
-        <v>283</v>
+        <v>838</v>
       </c>
     </row>
     <row r="85" spans="4:12" x14ac:dyDescent="0.15">
       <c r="E85" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="86" spans="4:12" x14ac:dyDescent="0.15">
       <c r="E86" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="87" spans="4:12" x14ac:dyDescent="0.15">
       <c r="E87" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="90" spans="4:12" x14ac:dyDescent="0.15">
@@ -18328,10 +18476,10 @@
         <v>126</v>
       </c>
       <c r="E90" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -18339,13 +18487,13 @@
     </row>
     <row r="91" spans="4:12" x14ac:dyDescent="0.15">
       <c r="E91" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="G91" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
@@ -18365,13 +18513,13 @@
     </row>
     <row r="93" spans="4:12" x14ac:dyDescent="0.15">
       <c r="E93" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F93" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="F93" s="34" t="s">
+      <c r="G93" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -18391,18 +18539,18 @@
     </row>
     <row r="95" spans="4:12" x14ac:dyDescent="0.15">
       <c r="E95" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F95" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="F95" s="35" t="s">
+      <c r="G95" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
@@ -18417,18 +18565,18 @@
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A97" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
@@ -18436,7 +18584,7 @@
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.15">
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
@@ -18446,15 +18594,15 @@
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.15">
       <c r="E99" s="32" t="s">
         <v>87</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G99" s="32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H99" s="32"/>
       <c r="I99" s="32"/>
@@ -18462,7 +18610,7 @@
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.15">
       <c r="E100" s="32"/>
       <c r="F100" s="3"/>
       <c r="G100" s="32"/>
@@ -18472,15 +18620,15 @@
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.15">
       <c r="E101" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="F101" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="G101" s="36" t="s">
         <v>302</v>
-      </c>
-      <c r="G101" s="36" t="s">
-        <v>303</v>
       </c>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
@@ -18488,7 +18636,7 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.15">
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
@@ -18497,22 +18645,29 @@
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.15">
       <c r="E103" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F103" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="F103" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G103" s="157" t="s">
+        <v>854</v>
+      </c>
+      <c r="H103" s="157"/>
+      <c r="I103" s="157"/>
+      <c r="J103" s="157"/>
+      <c r="K103" s="157"/>
+      <c r="L103" s="157"/>
+      <c r="M103" s="157"/>
+      <c r="N103" s="157"/>
+      <c r="O103" s="157"/>
+      <c r="P103" s="157"/>
+      <c r="Q103" s="157"/>
+      <c r="R103" s="157"/>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.15">
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -18521,17 +18676,17 @@
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D105" s="9"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D106" s="9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D107" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="139" spans="5:17" x14ac:dyDescent="0.15">
@@ -18539,7 +18694,7 @@
         <v>1</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="141" spans="5:17" x14ac:dyDescent="0.15">
@@ -18547,7 +18702,7 @@
         <v>2</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="142" spans="5:17" x14ac:dyDescent="0.15">
@@ -18570,7 +18725,7 @@
         <v>3</v>
       </c>
       <c r="F143" s="42" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G143" s="42"/>
       <c r="H143" s="42"/>
@@ -18604,7 +18759,7 @@
         <v>4</v>
       </c>
       <c r="F145" s="42" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G145" s="42"/>
       <c r="H145" s="42"/>
@@ -18636,7 +18791,7 @@
     <row r="147" spans="1:18" x14ac:dyDescent="0.15">
       <c r="E147" s="42"/>
       <c r="F147" s="44" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G147" s="42"/>
       <c r="H147" s="42"/>
@@ -18654,7 +18809,7 @@
       <c r="E148" s="42"/>
       <c r="F148" s="42"/>
       <c r="G148" s="42" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H148" s="42"/>
       <c r="I148" s="42"/>
@@ -18684,15 +18839,15 @@
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.15">
       <c r="F150" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.15">
       <c r="G151" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
@@ -18704,13 +18859,13 @@
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B152" s="47" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H152" s="11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
@@ -18722,13 +18877,13 @@
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B153" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
@@ -18740,10 +18895,10 @@
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.15">
       <c r="G154" s="34" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
@@ -18755,10 +18910,10 @@
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.15">
       <c r="G155" s="35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
@@ -18770,10 +18925,10 @@
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.15">
       <c r="G156" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
@@ -18785,10 +18940,10 @@
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.15">
       <c r="G157" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H157" s="32" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
@@ -18800,10 +18955,10 @@
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.15">
       <c r="G158" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H158" s="36" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
@@ -18815,10 +18970,10 @@
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.15">
       <c r="G159" s="34" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
@@ -18830,19 +18985,19 @@
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A160" s="10" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I160" s="81" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="J160" s="81"/>
       <c r="K160" s="81"/>
@@ -18860,10 +19015,10 @@
       </c>
       <c r="B161" s="10"/>
       <c r="G161" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I161" s="81"/>
       <c r="J161" s="81"/>
@@ -18878,13 +19033,13 @@
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.15">
       <c r="G162" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="I162" s="81" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="J162" s="81"/>
       <c r="K162" s="81"/>
@@ -18898,10 +19053,10 @@
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.15">
       <c r="G163" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I163" s="81"/>
       <c r="J163" s="81"/>
@@ -18916,79 +19071,79 @@
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B164" s="47" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.15">
       <c r="F165" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.15">
       <c r="G166" s="31" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.15">
       <c r="G167" s="31" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.15">
       <c r="G168" s="31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.15">
       <c r="G169" s="31" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.15">
       <c r="G170" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.15">
       <c r="G171" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.15">
       <c r="G172" s="31" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H172" s="41" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I172" s="41"/>
       <c r="K172" s="41"/>
@@ -18996,56 +19151,56 @@
     </row>
     <row r="173" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B173" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="F173" s="102" t="s">
-        <v>450</v>
+        <v>556</v>
+      </c>
+      <c r="F173" s="104" t="s">
+        <v>448</v>
       </c>
       <c r="G173" s="51" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H173" s="52" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="F174" s="103"/>
+      <c r="F174" s="105"/>
       <c r="G174" s="37" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H174" s="38" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="J174" s="42" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K174" s="42"/>
       <c r="L174" s="42"/>
       <c r="M174" s="42"/>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="F175" s="103"/>
+      <c r="F175" s="105"/>
       <c r="G175" s="37" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H175" s="38" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="K175" s="42" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L175" s="42"/>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="F176" s="103"/>
+      <c r="F176" s="105"/>
       <c r="G176" s="37" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H176" s="38" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="J176" s="42" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K176" s="42"/>
       <c r="L176" s="42"/>
@@ -19054,16 +19209,16 @@
       <c r="O176" s="33"/>
     </row>
     <row r="177" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F177" s="103"/>
+      <c r="F177" s="105"/>
       <c r="G177" s="37" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H177" s="38" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J177" s="42"/>
       <c r="K177" s="42" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L177" s="42"/>
       <c r="M177" s="42"/>
@@ -19071,54 +19226,54 @@
       <c r="O177" s="33"/>
     </row>
     <row r="178" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F178" s="103"/>
+      <c r="F178" s="105"/>
       <c r="G178" s="37" t="s">
+        <v>587</v>
+      </c>
+      <c r="H178" s="38" t="s">
         <v>589</v>
       </c>
-      <c r="H178" s="38" t="s">
-        <v>591</v>
-      </c>
       <c r="K178" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L178" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="179" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="F179" s="105"/>
+      <c r="G179" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="H179" s="38" t="s">
+        <v>601</v>
+      </c>
+      <c r="K179" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="179" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F179" s="103"/>
-      <c r="G179" s="37" t="s">
-        <v>344</v>
-      </c>
-      <c r="H179" s="38" t="s">
-        <v>603</v>
-      </c>
-      <c r="K179" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="L179" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="180" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F180" s="103"/>
+      <c r="F180" s="105"/>
       <c r="G180" s="82" t="s">
+        <v>638</v>
+      </c>
+      <c r="H180" s="82" t="s">
         <v>640</v>
       </c>
-      <c r="H180" s="82" t="s">
-        <v>642</v>
-      </c>
     </row>
     <row r="181" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F181" s="103"/>
+      <c r="F181" s="105"/>
       <c r="G181" s="82" t="s">
+        <v>639</v>
+      </c>
+      <c r="H181" s="82" t="s">
         <v>641</v>
       </c>
-      <c r="H181" s="82" t="s">
-        <v>643</v>
-      </c>
       <c r="J181" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="K181" s="11"/>
       <c r="L181" s="11"/>
@@ -19126,60 +19281,60 @@
       <c r="N181" s="11"/>
     </row>
     <row r="182" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F182" s="103"/>
+      <c r="F182" s="105"/>
       <c r="G182" s="82" t="s">
+        <v>643</v>
+      </c>
+      <c r="H182" s="82" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="183" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="F183" s="105"/>
+      <c r="G183" s="82" t="s">
         <v>645</v>
       </c>
-      <c r="H182" s="82" t="s">
+      <c r="H183" s="82" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="183" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F183" s="103"/>
-      <c r="G183" s="82" t="s">
-        <v>647</v>
-      </c>
-      <c r="H183" s="82" t="s">
-        <v>648</v>
-      </c>
-    </row>
     <row r="184" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F184" s="104"/>
+      <c r="F184" s="106"/>
       <c r="G184" s="39" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H184" s="40" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="186" spans="2:24" x14ac:dyDescent="0.15">
       <c r="G186" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="I186" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="H186" s="3" t="s">
+      <c r="J186" s="42" t="s">
         <v>361</v>
-      </c>
-      <c r="I186" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="J186" s="42" t="s">
-        <v>363</v>
       </c>
       <c r="K186" s="42"/>
       <c r="L186" s="42"/>
     </row>
     <row r="187" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B187" s="10" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G187" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H187" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I187" s="76" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J187" s="76"/>
       <c r="K187" s="76"/>
@@ -19202,13 +19357,13 @@
         <v>1</v>
       </c>
       <c r="G188" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H188" s="11" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="I188" s="76" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="J188" s="76"/>
       <c r="K188" s="76"/>
@@ -19228,7 +19383,7 @@
     </row>
     <row r="190" spans="2:24" x14ac:dyDescent="0.15">
       <c r="F190" s="28" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
@@ -19237,7 +19392,7 @@
     <row r="191" spans="2:24" x14ac:dyDescent="0.15">
       <c r="F191" s="3"/>
       <c r="G191" s="57" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="H191" s="57"/>
       <c r="I191" s="57"/>
@@ -19250,10 +19405,10 @@
     <row r="192" spans="2:24" x14ac:dyDescent="0.15">
       <c r="F192" s="3"/>
       <c r="G192" s="57" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="H192" s="57" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="I192" s="57"/>
       <c r="J192" s="57"/>
@@ -19265,10 +19420,10 @@
     <row r="193" spans="1:22" x14ac:dyDescent="0.15">
       <c r="F193" s="3"/>
       <c r="G193" s="57" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H193" s="57" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="I193" s="57"/>
       <c r="J193" s="57"/>
@@ -19280,10 +19435,10 @@
     <row r="194" spans="1:22" x14ac:dyDescent="0.15">
       <c r="F194" s="3"/>
       <c r="G194" s="57" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H194" s="57" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I194" s="57"/>
       <c r="J194" s="57"/>
@@ -19295,10 +19450,10 @@
     <row r="195" spans="1:22" x14ac:dyDescent="0.15">
       <c r="F195" s="3"/>
       <c r="G195" s="57" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H195" s="57" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I195" s="57"/>
       <c r="J195" s="57"/>
@@ -19310,7 +19465,7 @@
     <row r="196" spans="1:22" x14ac:dyDescent="0.15">
       <c r="F196" s="43"/>
       <c r="G196" s="58" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H196" s="57"/>
       <c r="I196" s="59"/>
@@ -19322,84 +19477,84 @@
     </row>
     <row r="197" spans="1:22" x14ac:dyDescent="0.15">
       <c r="D197" s="9" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="198" spans="1:22" x14ac:dyDescent="0.15">
       <c r="E198" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="199" spans="1:22" x14ac:dyDescent="0.15">
       <c r="E199" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="200" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A200" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F200" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H200" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="G200" s="1" t="s">
+      <c r="I200" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J200" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="H200" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="I200" s="1" t="s">
+      <c r="K200" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="J200" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="K200" s="1" t="s">
+      <c r="M200" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="M200" s="1" t="s">
+      <c r="O200" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="N200" s="1" t="s">
+      <c r="P200" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="O200" s="1" t="s">
+      <c r="Q200" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="R200" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="S200" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="T200" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="U200" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="V200" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="P200" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q200" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="R200" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="S200" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="T200" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="U200" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="V200" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="201" spans="1:22" x14ac:dyDescent="0.15">
       <c r="F201" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G201" s="1">
         <v>0</v>
@@ -19452,129 +19607,129 @@
     </row>
     <row r="202" spans="1:22" x14ac:dyDescent="0.15">
       <c r="E202" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="203" spans="1:22" x14ac:dyDescent="0.15">
       <c r="F203" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="204" spans="1:22" x14ac:dyDescent="0.15">
       <c r="F204" s="34" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="205" spans="1:22" x14ac:dyDescent="0.15">
       <c r="F205" s="35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="206" spans="1:22" x14ac:dyDescent="0.15">
       <c r="F206" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="207" spans="1:22" x14ac:dyDescent="0.15">
       <c r="F207" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G207" s="32" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="208" spans="1:22" x14ac:dyDescent="0.15">
       <c r="F208" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G208" s="36" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F209" s="34" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E211" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="F212" s="15" t="s">
-        <v>699</v>
-      </c>
+      <c r="F212" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="G212" s="10"/>
+      <c r="H212" s="10"/>
+      <c r="I212" s="10"/>
+      <c r="J212" s="10"/>
+      <c r="K212" s="10"/>
+      <c r="L212" s="10"/>
+      <c r="M212" s="10"/>
+      <c r="N212" s="10"/>
+      <c r="O212" s="10"/>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A213" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="G213" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="H213" s="15" t="s">
-        <v>700</v>
-      </c>
+      <c r="F213" s="10"/>
+      <c r="G213" s="10" t="s">
+        <v>844</v>
+      </c>
+      <c r="H213" s="10" t="s">
+        <v>845</v>
+      </c>
+      <c r="I213" s="10"/>
+      <c r="J213" s="10"/>
+      <c r="K213" s="10"/>
+      <c r="L213" s="10"/>
+      <c r="M213" s="10"/>
+      <c r="N213" s="10"/>
+      <c r="O213" s="10"/>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A214" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="G214" s="1" t="s">
-        <v>386</v>
+      <c r="F214" s="15" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="F215" s="10" t="s">
-        <v>834</v>
-      </c>
-      <c r="G215" s="10"/>
-      <c r="H215" s="10"/>
-      <c r="I215" s="10"/>
-      <c r="J215" s="10"/>
-      <c r="K215" s="10"/>
-      <c r="L215" s="10"/>
-      <c r="M215" s="10"/>
-      <c r="N215" s="10"/>
-      <c r="O215" s="10"/>
+      <c r="A215" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="H215" s="15" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="F216" s="10"/>
-      <c r="G216" s="10" t="s">
-        <v>835</v>
-      </c>
-      <c r="H216" s="10" t="s">
-        <v>836</v>
-      </c>
-      <c r="I216" s="10"/>
-      <c r="J216" s="10"/>
-      <c r="K216" s="10"/>
-      <c r="L216" s="10"/>
-      <c r="M216" s="10"/>
-      <c r="N216" s="10"/>
-      <c r="O216" s="10"/>
+      <c r="A216" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="F217" s="10"/>
-      <c r="G217" s="10" t="s">
-        <v>837</v>
-      </c>
+      <c r="F217" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="G217" s="10"/>
       <c r="H217" s="10"/>
       <c r="I217" s="10"/>
       <c r="J217" s="10"/>
@@ -19587,9 +19742,11 @@
     <row r="218" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F218" s="10"/>
       <c r="G218" s="10" t="s">
-        <v>838</v>
-      </c>
-      <c r="H218" s="10"/>
+        <v>832</v>
+      </c>
+      <c r="H218" s="10" t="s">
+        <v>833</v>
+      </c>
       <c r="I218" s="10"/>
       <c r="J218" s="10"/>
       <c r="K218" s="10"/>
@@ -19599,60 +19756,174 @@
       <c r="O218" s="10"/>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="E219" s="1" t="s">
-        <v>683</v>
-      </c>
+      <c r="F219" s="10"/>
+      <c r="G219" s="10" t="s">
+        <v>834</v>
+      </c>
+      <c r="H219" s="10"/>
+      <c r="I219" s="10"/>
+      <c r="J219" s="10"/>
+      <c r="K219" s="10"/>
+      <c r="L219" s="10"/>
+      <c r="M219" s="10"/>
+      <c r="N219" s="10"/>
+      <c r="O219" s="10"/>
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="F220" s="1" t="s">
-        <v>391</v>
-      </c>
+      <c r="F220" s="10"/>
+      <c r="G220" s="10" t="s">
+        <v>835</v>
+      </c>
+      <c r="H220" s="10"/>
+      <c r="I220" s="10"/>
+      <c r="J220" s="10"/>
+      <c r="K220" s="10"/>
+      <c r="L220" s="10"/>
+      <c r="M220" s="10"/>
+      <c r="N220" s="10"/>
+      <c r="O220" s="10"/>
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="F221" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="G221" s="1" t="s">
-        <v>684</v>
+      <c r="E221" s="1" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F222" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F223" s="1" t="s">
+        <v>683</v>
+      </c>
       <c r="G223" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F224" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="G225" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E226" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="E224" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E225" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B226" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="C226" s="9" t="s">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E227" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B228" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="C228" s="9" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D227" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A229" s="10" t="s">
-        <v>613</v>
-      </c>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D229" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C230" s="10"/>
+      <c r="D230" s="10"/>
+      <c r="E230" s="10"/>
+      <c r="F230" s="10"/>
+      <c r="G230" s="10"/>
+      <c r="H230" s="10"/>
+      <c r="I230" s="10"/>
+      <c r="J230" s="10"/>
+      <c r="K230" s="10"/>
+      <c r="L230" s="10"/>
+      <c r="M230" s="10"/>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A231" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="C231" s="89" t="s">
+        <v>848</v>
+      </c>
+      <c r="D231" s="10"/>
+      <c r="E231" s="10"/>
+      <c r="F231" s="10"/>
+      <c r="G231" s="10"/>
+      <c r="H231" s="10"/>
+      <c r="I231" s="10"/>
+      <c r="J231" s="10"/>
+      <c r="K231" s="10"/>
+      <c r="L231" s="10"/>
+      <c r="M231" s="10"/>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C232" s="10"/>
+      <c r="D232" s="10" t="s">
+        <v>850</v>
+      </c>
+      <c r="E232" s="10"/>
+      <c r="F232" s="10"/>
+      <c r="G232" s="10"/>
+      <c r="H232" s="10"/>
+      <c r="I232" s="10"/>
+      <c r="J232" s="10"/>
+      <c r="K232" s="10"/>
+      <c r="L232" s="10"/>
+      <c r="M232" s="10"/>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C233" s="10"/>
+      <c r="D233" s="10" t="s">
+        <v>851</v>
+      </c>
+      <c r="E233" s="10"/>
+      <c r="F233" s="10"/>
+      <c r="G233" s="10"/>
+      <c r="H233" s="10"/>
+      <c r="I233" s="10"/>
+      <c r="J233" s="10"/>
+      <c r="K233" s="10"/>
+      <c r="L233" s="10"/>
+      <c r="M233" s="10"/>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C234" s="10"/>
+      <c r="D234" s="10"/>
+      <c r="E234" s="10" t="s">
+        <v>852</v>
+      </c>
+      <c r="F234" s="10"/>
+      <c r="G234" s="10"/>
+      <c r="H234" s="10"/>
+      <c r="I234" s="10"/>
+      <c r="J234" s="10"/>
+      <c r="K234" s="10"/>
+      <c r="L234" s="10"/>
+      <c r="M234" s="10"/>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C235" s="10"/>
+      <c r="D235" s="10"/>
+      <c r="E235" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="F235" s="10"/>
+      <c r="G235" s="10"/>
+      <c r="H235" s="10"/>
+      <c r="I235" s="10"/>
+      <c r="J235" s="10"/>
+      <c r="K235" s="10"/>
+      <c r="L235" s="10"/>
+      <c r="M235" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -19669,7 +19940,7 @@
   <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -19680,99 +19951,99 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B1" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D2" s="76" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="D2" s="76" t="s">
-        <v>394</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>397</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AE2" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
@@ -19781,85 +20052,85 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>795</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="D3" s="76" t="s">
-        <v>797</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>274</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="P3" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="Q3" s="80" t="s">
+        <v>638</v>
+      </c>
+      <c r="R3" s="80" t="s">
+        <v>639</v>
+      </c>
+      <c r="S3" s="80" t="s">
+        <v>643</v>
+      </c>
+      <c r="T3" s="80" t="s">
+        <v>645</v>
+      </c>
+      <c r="U3" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="P3" s="23" t="s">
+      <c r="V3" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="Q3" s="80" t="s">
-        <v>640</v>
-      </c>
-      <c r="R3" s="80" t="s">
-        <v>641</v>
-      </c>
-      <c r="S3" s="80" t="s">
-        <v>645</v>
-      </c>
-      <c r="T3" s="80" t="s">
-        <v>647</v>
-      </c>
-      <c r="U3" s="23" t="s">
-        <v>405</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="W3" s="106" t="s">
-        <v>707</v>
-      </c>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="106"/>
-      <c r="Z3" s="106"/>
-      <c r="AA3" s="106"/>
-      <c r="AB3" s="106"/>
-      <c r="AC3" s="106"/>
+      <c r="W3" s="108" t="s">
+        <v>705</v>
+      </c>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="108"/>
+      <c r="AB3" s="108"/>
+      <c r="AC3" s="108"/>
       <c r="AD3" s="76" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
@@ -19868,85 +20139,85 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>796</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="D4" s="76" t="s">
-        <v>798</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="O4" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="P4" s="23" t="s">
         <v>416</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="Q4" s="80" t="s">
+        <v>640</v>
+      </c>
+      <c r="R4" s="80" t="s">
+        <v>641</v>
+      </c>
+      <c r="S4" s="80" t="s">
+        <v>644</v>
+      </c>
+      <c r="T4" s="80" t="s">
+        <v>646</v>
+      </c>
+      <c r="U4" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="P4" s="23" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q4" s="80" t="s">
-        <v>642</v>
-      </c>
-      <c r="R4" s="80" t="s">
-        <v>643</v>
-      </c>
-      <c r="S4" s="80" t="s">
-        <v>646</v>
-      </c>
-      <c r="T4" s="80" t="s">
-        <v>648</v>
-      </c>
-      <c r="U4" s="23" t="s">
-        <v>419</v>
-      </c>
       <c r="V4" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="W4" s="107" t="s">
-        <v>803</v>
-      </c>
-      <c r="X4" s="107"/>
-      <c r="Y4" s="107"/>
-      <c r="Z4" s="107"/>
-      <c r="AA4" s="107"/>
-      <c r="AB4" s="107"/>
-      <c r="AC4" s="107"/>
+        <v>590</v>
+      </c>
+      <c r="W4" s="109" t="s">
+        <v>801</v>
+      </c>
+      <c r="X4" s="109"/>
+      <c r="Y4" s="109"/>
+      <c r="Z4" s="109"/>
+      <c r="AA4" s="109"/>
+      <c r="AB4" s="109"/>
+      <c r="AC4" s="109"/>
       <c r="AD4" s="76" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="AE4" s="7" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
@@ -19955,58 +20226,58 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C5" s="76" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D5" s="76" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="J5" s="107" t="s">
+        <v>792</v>
+      </c>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="J5" s="105" t="s">
-        <v>794</v>
-      </c>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
-      <c r="U5" s="105"/>
-      <c r="V5" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="W5" s="107" t="s">
+      <c r="W5" s="109" t="s">
+        <v>800</v>
+      </c>
+      <c r="X5" s="109"/>
+      <c r="Y5" s="109"/>
+      <c r="Z5" s="109"/>
+      <c r="AA5" s="109"/>
+      <c r="AB5" s="109"/>
+      <c r="AC5" s="109"/>
+      <c r="AD5" s="76" t="s">
         <v>802</v>
-      </c>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="107"/>
-      <c r="AA5" s="107"/>
-      <c r="AB5" s="107"/>
-      <c r="AC5" s="107"/>
-      <c r="AD5" s="76" t="s">
-        <v>804</v>
       </c>
       <c r="AE5" s="7"/>
       <c r="AF5" s="7"/>
@@ -20017,110 +20288,110 @@
     <row r="6" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="C6" s="76" t="s">
+        <v>797</v>
+      </c>
+      <c r="D6" s="76" t="s">
         <v>799</v>
-      </c>
-      <c r="D6" s="76" t="s">
-        <v>801</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="47" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="K9" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="M9" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>633</v>
-      </c>
       <c r="O9" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="V9" s="23"/>
       <c r="W9" s="23"/>
@@ -20130,13 +20401,13 @@
     </row>
     <row r="10" spans="1:35" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A10" s="47" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
@@ -20145,7 +20416,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>4</v>
@@ -20154,25 +20425,25 @@
         <v>3</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="O10" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>439</v>
       </c>
       <c r="V10" s="23"/>
       <c r="W10" s="54"/>
@@ -20182,7 +20453,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="V11" s="23"/>
       <c r="W11" s="54"/>
@@ -20192,7 +20463,7 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B12" s="9" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="V12" s="23"/>
       <c r="W12" s="54"/>
@@ -20202,40 +20473,43 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="M13" s="10"/>
+      <c r="K13" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>839</v>
+      </c>
       <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
       <c r="V13" s="23"/>
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
@@ -20244,43 +20518,46 @@
     </row>
     <row r="14" spans="1:35" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A14" s="47" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>429</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>832</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>833</v>
-      </c>
-      <c r="M14" s="10"/>
+        <v>715</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>829</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>830</v>
+      </c>
       <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
       <c r="V14" s="23"/>
       <c r="W14" s="23"/>
       <c r="X14" s="23"/>
@@ -20289,7 +20566,7 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B15" s="11" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -20298,7 +20575,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>4</v>
@@ -20307,91 +20584,98 @@
         <v>3</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>827</v>
-      </c>
-      <c r="M15" s="10"/>
+        <v>714</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>840</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>824</v>
+      </c>
       <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B16" s="56" t="s">
+        <v>707</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B17" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>841</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>827</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B18" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>829</v>
-      </c>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>830</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>831</v>
-      </c>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B19" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B20" s="1" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B21" s="79" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
   </sheetData>
@@ -20429,64 +20713,64 @@
       </c>
     </row>
     <row r="2" spans="1:50" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108" t="s">
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="108"/>
-      <c r="AB2" s="108"/>
-      <c r="AC2" s="108"/>
-      <c r="AD2" s="108"/>
-      <c r="AE2" s="108" t="s">
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="110"/>
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="AF2" s="108"/>
-      <c r="AG2" s="108"/>
-      <c r="AH2" s="108"/>
-      <c r="AI2" s="108"/>
-      <c r="AJ2" s="108"/>
-      <c r="AK2" s="108" t="s">
+      <c r="AF2" s="110"/>
+      <c r="AG2" s="110"/>
+      <c r="AH2" s="110"/>
+      <c r="AI2" s="110"/>
+      <c r="AJ2" s="110"/>
+      <c r="AK2" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="AL2" s="108"/>
-      <c r="AM2" s="108"/>
-      <c r="AN2" s="108" t="s">
+      <c r="AL2" s="110"/>
+      <c r="AM2" s="110"/>
+      <c r="AN2" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="AO2" s="108"/>
-      <c r="AP2" s="108"/>
-      <c r="AQ2" s="108"/>
-      <c r="AR2" s="108"/>
-      <c r="AS2" s="108"/>
-      <c r="AT2" s="108"/>
-      <c r="AU2" s="108"/>
-      <c r="AV2" s="108"/>
+      <c r="AO2" s="110"/>
+      <c r="AP2" s="110"/>
+      <c r="AQ2" s="110"/>
+      <c r="AR2" s="110"/>
+      <c r="AS2" s="110"/>
+      <c r="AT2" s="110"/>
+      <c r="AU2" s="110"/>
+      <c r="AV2" s="110"/>
       <c r="AW2" s="30" t="s">
         <v>40</v>
       </c>
@@ -20494,7 +20778,7 @@
     </row>
     <row r="3" spans="1:50" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>39</v>
@@ -20515,7 +20799,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>219</v>
@@ -20527,7 +20811,7 @@
         <v>3</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>34</v>
@@ -20584,7 +20868,7 @@
         <v>19</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>115</v>
@@ -20643,7 +20927,7 @@
     </row>
     <row r="4" spans="1:50" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5" spans="1:50" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -20669,7 +20953,7 @@
         <v>234</v>
       </c>
       <c r="AW5" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:50" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -20815,7 +21099,7 @@
     </row>
     <row r="12" spans="1:50" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>138</v>
@@ -20838,13 +21122,13 @@
     </row>
     <row r="13" spans="1:50" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>251</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>234</v>
@@ -21057,8 +21341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -21111,7 +21395,7 @@
         <v>160</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="3" spans="3:30" x14ac:dyDescent="0.15">
@@ -21137,13 +21421,13 @@
         <v>118</v>
       </c>
       <c r="D7" s="75" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -21158,7 +21442,7 @@
     </row>
     <row r="8" spans="3:30" x14ac:dyDescent="0.15">
       <c r="D8" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="9" spans="3:30" x14ac:dyDescent="0.15">
@@ -21278,7 +21562,7 @@
     <row r="16" spans="3:30" x14ac:dyDescent="0.15">
       <c r="C16" s="15"/>
       <c r="D16" s="15" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
@@ -21438,7 +21722,7 @@
     <row r="21" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>54</v>
@@ -21537,107 +21821,107 @@
       <c r="AW27" s="4"/>
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="C28" s="135" t="s">
+      <c r="C28" s="137" t="s">
         <v>151</v>
       </c>
-      <c r="D28" s="135"/>
-      <c r="E28" s="135" t="s">
+      <c r="D28" s="137"/>
+      <c r="E28" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="F28" s="135"/>
-      <c r="G28" s="135" t="s">
+      <c r="F28" s="137"/>
+      <c r="G28" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="H28" s="135"/>
-      <c r="I28" s="135" t="s">
+      <c r="H28" s="137"/>
+      <c r="I28" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="J28" s="135"/>
-      <c r="K28" s="135" t="s">
+      <c r="J28" s="137"/>
+      <c r="K28" s="137" t="s">
         <v>155</v>
       </c>
-      <c r="L28" s="135"/>
-      <c r="M28" s="127" t="s">
+      <c r="L28" s="137"/>
+      <c r="M28" s="129" t="s">
         <v>156</v>
       </c>
-      <c r="N28" s="127"/>
-      <c r="O28" s="127" t="s">
+      <c r="N28" s="129"/>
+      <c r="O28" s="129" t="s">
         <v>157</v>
       </c>
-      <c r="P28" s="127"/>
-      <c r="Q28" s="127" t="s">
+      <c r="P28" s="129"/>
+      <c r="Q28" s="129" t="s">
         <v>178</v>
       </c>
-      <c r="R28" s="127"/>
-      <c r="S28" s="127" t="s">
+      <c r="R28" s="129"/>
+      <c r="S28" s="129" t="s">
         <v>179</v>
       </c>
-      <c r="T28" s="127"/>
-      <c r="U28" s="127" t="s">
+      <c r="T28" s="129"/>
+      <c r="U28" s="129" t="s">
         <v>180</v>
       </c>
-      <c r="V28" s="127"/>
-      <c r="W28" s="127" t="s">
+      <c r="V28" s="129"/>
+      <c r="W28" s="129" t="s">
         <v>181</v>
       </c>
-      <c r="X28" s="127"/>
-      <c r="Y28" s="127" t="s">
+      <c r="X28" s="129"/>
+      <c r="Y28" s="129" t="s">
         <v>191</v>
       </c>
-      <c r="Z28" s="127"/>
-      <c r="AA28" s="127" t="s">
+      <c r="Z28" s="129"/>
+      <c r="AA28" s="129" t="s">
         <v>211</v>
       </c>
-      <c r="AB28" s="127"/>
-      <c r="AC28" s="127" t="s">
+      <c r="AB28" s="129"/>
+      <c r="AC28" s="129" t="s">
         <v>158</v>
       </c>
-      <c r="AD28" s="127"/>
-      <c r="AE28" s="134" t="s">
+      <c r="AD28" s="129"/>
+      <c r="AE28" s="136" t="s">
         <v>159</v>
       </c>
-      <c r="AF28" s="134"/>
+      <c r="AF28" s="136"/>
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="C29" s="132" t="s">
+      <c r="C29" s="134" t="s">
         <v>161</v>
       </c>
-      <c r="D29" s="132"/>
-      <c r="E29" s="116" t="s">
+      <c r="D29" s="134"/>
+      <c r="E29" s="118" t="s">
         <v>164</v>
       </c>
-      <c r="F29" s="116"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="132"/>
-      <c r="K29" s="132"/>
-      <c r="L29" s="132"/>
-      <c r="M29" s="128"/>
-      <c r="N29" s="128"/>
-      <c r="O29" s="128"/>
-      <c r="P29" s="128"/>
-      <c r="Q29" s="128"/>
-      <c r="R29" s="128"/>
-      <c r="S29" s="128"/>
-      <c r="T29" s="128"/>
-      <c r="U29" s="128"/>
-      <c r="V29" s="128"/>
-      <c r="W29" s="128"/>
-      <c r="X29" s="128"/>
-      <c r="Y29" s="136"/>
-      <c r="Z29" s="137"/>
-      <c r="AA29" s="129"/>
-      <c r="AB29" s="130"/>
-      <c r="AC29" s="128" t="s">
+      <c r="F29" s="118"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="133"/>
+      <c r="I29" s="134"/>
+      <c r="J29" s="134"/>
+      <c r="K29" s="134"/>
+      <c r="L29" s="134"/>
+      <c r="M29" s="130"/>
+      <c r="N29" s="130"/>
+      <c r="O29" s="130"/>
+      <c r="P29" s="130"/>
+      <c r="Q29" s="130"/>
+      <c r="R29" s="130"/>
+      <c r="S29" s="130"/>
+      <c r="T29" s="130"/>
+      <c r="U29" s="130"/>
+      <c r="V29" s="130"/>
+      <c r="W29" s="130"/>
+      <c r="X29" s="130"/>
+      <c r="Y29" s="138"/>
+      <c r="Z29" s="139"/>
+      <c r="AA29" s="131"/>
+      <c r="AB29" s="132"/>
+      <c r="AC29" s="130" t="s">
         <v>162</v>
       </c>
-      <c r="AD29" s="128"/>
-      <c r="AE29" s="133" t="str">
+      <c r="AD29" s="130"/>
+      <c r="AE29" s="135" t="str">
         <f>CONCATENATE(E29)</f>
         <v>怪物装备本身附加命中率</v>
       </c>
-      <c r="AF29" s="133"/>
+      <c r="AF29" s="135"/>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.15">
       <c r="C30" s="18"/>
@@ -21706,135 +21990,135 @@
       <c r="AF31" s="27"/>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="C32" s="135" t="s">
+      <c r="C32" s="137" t="s">
         <v>151</v>
       </c>
-      <c r="D32" s="135"/>
-      <c r="E32" s="135" t="s">
+      <c r="D32" s="137"/>
+      <c r="E32" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="F32" s="135"/>
-      <c r="G32" s="135" t="s">
+      <c r="F32" s="137"/>
+      <c r="G32" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="H32" s="135"/>
-      <c r="I32" s="135" t="s">
+      <c r="H32" s="137"/>
+      <c r="I32" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="J32" s="135"/>
-      <c r="K32" s="135" t="s">
+      <c r="J32" s="137"/>
+      <c r="K32" s="137" t="s">
         <v>155</v>
       </c>
-      <c r="L32" s="135"/>
-      <c r="M32" s="127" t="s">
+      <c r="L32" s="137"/>
+      <c r="M32" s="129" t="s">
         <v>156</v>
       </c>
-      <c r="N32" s="127"/>
-      <c r="O32" s="127" t="s">
+      <c r="N32" s="129"/>
+      <c r="O32" s="129" t="s">
         <v>157</v>
       </c>
-      <c r="P32" s="127"/>
-      <c r="Q32" s="127" t="s">
+      <c r="P32" s="129"/>
+      <c r="Q32" s="129" t="s">
         <v>178</v>
       </c>
-      <c r="R32" s="127"/>
-      <c r="S32" s="127" t="s">
+      <c r="R32" s="129"/>
+      <c r="S32" s="129" t="s">
         <v>179</v>
       </c>
-      <c r="T32" s="127"/>
-      <c r="U32" s="127" t="s">
+      <c r="T32" s="129"/>
+      <c r="U32" s="129" t="s">
         <v>180</v>
       </c>
-      <c r="V32" s="127"/>
-      <c r="W32" s="127" t="s">
+      <c r="V32" s="129"/>
+      <c r="W32" s="129" t="s">
         <v>181</v>
       </c>
-      <c r="X32" s="127"/>
-      <c r="Y32" s="127" t="s">
+      <c r="X32" s="129"/>
+      <c r="Y32" s="129" t="s">
         <v>191</v>
       </c>
-      <c r="Z32" s="127"/>
-      <c r="AA32" s="127" t="s">
+      <c r="Z32" s="129"/>
+      <c r="AA32" s="129" t="s">
         <v>211</v>
       </c>
-      <c r="AB32" s="127"/>
-      <c r="AC32" s="127" t="s">
+      <c r="AB32" s="129"/>
+      <c r="AC32" s="129" t="s">
         <v>158</v>
       </c>
-      <c r="AD32" s="127"/>
-      <c r="AE32" s="134" t="s">
+      <c r="AD32" s="129"/>
+      <c r="AE32" s="136" t="s">
         <v>159</v>
       </c>
-      <c r="AF32" s="134"/>
+      <c r="AF32" s="136"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B33" s="10" t="s">
-        <v>654</v>
-      </c>
-      <c r="C33" s="132" t="s">
+        <v>652</v>
+      </c>
+      <c r="C33" s="134" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="132"/>
-      <c r="E33" s="116" t="s">
+      <c r="D33" s="134"/>
+      <c r="E33" s="118" t="s">
         <v>190</v>
       </c>
-      <c r="F33" s="116"/>
-      <c r="G33" s="116" t="s">
+      <c r="F33" s="118"/>
+      <c r="G33" s="118" t="s">
         <v>165</v>
       </c>
-      <c r="H33" s="116"/>
-      <c r="I33" s="116" t="s">
+      <c r="H33" s="118"/>
+      <c r="I33" s="118" t="s">
         <v>163</v>
       </c>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="116"/>
-      <c r="M33" s="110"/>
-      <c r="N33" s="110"/>
-      <c r="O33" s="110"/>
-      <c r="P33" s="110"/>
-      <c r="Q33" s="110"/>
-      <c r="R33" s="110"/>
-      <c r="S33" s="110"/>
-      <c r="T33" s="110"/>
-      <c r="U33" s="110"/>
-      <c r="V33" s="110"/>
-      <c r="W33" s="110"/>
-      <c r="X33" s="110"/>
-      <c r="Y33" s="124"/>
-      <c r="Z33" s="124"/>
-      <c r="AA33" s="117"/>
-      <c r="AB33" s="117"/>
-      <c r="AC33" s="110" t="s">
-        <v>486</v>
-      </c>
-      <c r="AD33" s="110"/>
-      <c r="AE33" s="109" t="str">
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="118"/>
+      <c r="M33" s="112"/>
+      <c r="N33" s="112"/>
+      <c r="O33" s="112"/>
+      <c r="P33" s="112"/>
+      <c r="Q33" s="112"/>
+      <c r="R33" s="112"/>
+      <c r="S33" s="112"/>
+      <c r="T33" s="112"/>
+      <c r="U33" s="112"/>
+      <c r="V33" s="112"/>
+      <c r="W33" s="112"/>
+      <c r="X33" s="112"/>
+      <c r="Y33" s="126"/>
+      <c r="Z33" s="126"/>
+      <c r="AA33" s="119"/>
+      <c r="AB33" s="119"/>
+      <c r="AC33" s="112" t="s">
+        <v>484</v>
+      </c>
+      <c r="AD33" s="112"/>
+      <c r="AE33" s="111" t="str">
         <f>CONCATENATE(E33,"+",G33,"-",I33)</f>
         <v>固有暴击率+攻击方装备本身附加暴击率-防御方装备本身附加暴击抗性</v>
       </c>
-      <c r="AF33" s="109"/>
+      <c r="AF33" s="111"/>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="C34" s="132" t="s">
+        <v>563</v>
+      </c>
+      <c r="C34" s="134" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="132"/>
-      <c r="E34" s="116" t="s">
+      <c r="D34" s="134"/>
+      <c r="E34" s="118" t="s">
         <v>166</v>
       </c>
-      <c r="F34" s="116"/>
-      <c r="G34" s="118" t="s">
+      <c r="F34" s="118"/>
+      <c r="G34" s="120" t="s">
         <v>192</v>
       </c>
-      <c r="H34" s="118"/>
-      <c r="I34" s="116" t="s">
+      <c r="H34" s="120"/>
+      <c r="I34" s="118" t="s">
         <v>167</v>
       </c>
-      <c r="J34" s="116"/>
+      <c r="J34" s="118"/>
       <c r="K34" s="50" t="s">
         <v>168</v>
       </c>
@@ -21851,46 +22135,46 @@
         <v>171</v>
       </c>
       <c r="R34" s="49"/>
-      <c r="S34" s="116"/>
-      <c r="T34" s="116"/>
-      <c r="U34" s="110"/>
-      <c r="V34" s="110"/>
-      <c r="W34" s="110"/>
-      <c r="X34" s="110"/>
-      <c r="Y34" s="124"/>
-      <c r="Z34" s="124"/>
-      <c r="AA34" s="117"/>
-      <c r="AB34" s="117"/>
-      <c r="AC34" s="110" t="s">
-        <v>532</v>
-      </c>
-      <c r="AD34" s="110"/>
-      <c r="AE34" s="109" t="str">
+      <c r="S34" s="118"/>
+      <c r="T34" s="118"/>
+      <c r="U34" s="112"/>
+      <c r="V34" s="112"/>
+      <c r="W34" s="112"/>
+      <c r="X34" s="112"/>
+      <c r="Y34" s="126"/>
+      <c r="Z34" s="126"/>
+      <c r="AA34" s="119"/>
+      <c r="AB34" s="119"/>
+      <c r="AC34" s="112" t="s">
+        <v>530</v>
+      </c>
+      <c r="AD34" s="112"/>
+      <c r="AE34" s="111" t="str">
         <f>CONCATENATE(E34,"+",G34,"+",I34,"+",M34,"+",O34,"+",Q34,"+",K34)</f>
         <v>怪物本身力量+怪物升星附加力量+装备本身附加力量+装备进阶附加力量+装备镶嵌附加力量+人物装备附加力量+装备强化附加力量</v>
       </c>
-      <c r="AF34" s="109"/>
+      <c r="AF34" s="111"/>
     </row>
     <row r="35" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="C35" s="132" t="s">
+        <v>564</v>
+      </c>
+      <c r="C35" s="134" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="132"/>
-      <c r="E35" s="116" t="s">
+      <c r="D35" s="134"/>
+      <c r="E35" s="118" t="s">
         <v>172</v>
       </c>
-      <c r="F35" s="116"/>
-      <c r="G35" s="118" t="s">
+      <c r="F35" s="118"/>
+      <c r="G35" s="120" t="s">
         <v>193</v>
       </c>
-      <c r="H35" s="118"/>
-      <c r="I35" s="116" t="s">
+      <c r="H35" s="120"/>
+      <c r="I35" s="118" t="s">
         <v>173</v>
       </c>
-      <c r="J35" s="116"/>
+      <c r="J35" s="118"/>
       <c r="K35" s="50" t="s">
         <v>174</v>
       </c>
@@ -21907,46 +22191,46 @@
         <v>177</v>
       </c>
       <c r="R35" s="49"/>
-      <c r="S35" s="116"/>
-      <c r="T35" s="116"/>
-      <c r="U35" s="110"/>
-      <c r="V35" s="110"/>
-      <c r="W35" s="110"/>
-      <c r="X35" s="110"/>
-      <c r="Y35" s="124"/>
-      <c r="Z35" s="124"/>
-      <c r="AA35" s="117"/>
-      <c r="AB35" s="117"/>
-      <c r="AC35" s="110" t="s">
-        <v>532</v>
-      </c>
-      <c r="AD35" s="110"/>
-      <c r="AE35" s="109" t="str">
+      <c r="S35" s="118"/>
+      <c r="T35" s="118"/>
+      <c r="U35" s="112"/>
+      <c r="V35" s="112"/>
+      <c r="W35" s="112"/>
+      <c r="X35" s="112"/>
+      <c r="Y35" s="126"/>
+      <c r="Z35" s="126"/>
+      <c r="AA35" s="119"/>
+      <c r="AB35" s="119"/>
+      <c r="AC35" s="112" t="s">
+        <v>530</v>
+      </c>
+      <c r="AD35" s="112"/>
+      <c r="AE35" s="111" t="str">
         <f>CONCATENATE(E35,"+",G35,"+",I35,"+",M35,"+",O35,"+",Q35,"+",K35)</f>
         <v>怪物本身智力+怪物升星附加智力+装备本身附加智力+装备进阶附加智力+装备镶嵌附加智力+人物装备附加智力+装备强化附加智力</v>
       </c>
-      <c r="AF35" s="109"/>
+      <c r="AF35" s="111"/>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
-        <v>585</v>
-      </c>
-      <c r="C36" s="132" t="s">
+        <v>583</v>
+      </c>
+      <c r="C36" s="134" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="132"/>
-      <c r="E36" s="116" t="s">
+      <c r="D36" s="134"/>
+      <c r="E36" s="118" t="s">
         <v>182</v>
       </c>
-      <c r="F36" s="116"/>
-      <c r="G36" s="118" t="s">
+      <c r="F36" s="118"/>
+      <c r="G36" s="120" t="s">
         <v>194</v>
       </c>
-      <c r="H36" s="118"/>
-      <c r="I36" s="116" t="s">
+      <c r="H36" s="120"/>
+      <c r="I36" s="118" t="s">
         <v>183</v>
       </c>
-      <c r="J36" s="116"/>
+      <c r="J36" s="118"/>
       <c r="K36" s="50" t="s">
         <v>184</v>
       </c>
@@ -21964,55 +22248,55 @@
       </c>
       <c r="R36" s="49"/>
       <c r="S36" s="49" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="T36" s="49"/>
       <c r="U36" s="49" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="V36" s="49"/>
       <c r="W36" s="49" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="X36" s="49"/>
       <c r="Y36" s="49" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="Z36" s="49"/>
-      <c r="AA36" s="116" t="s">
-        <v>502</v>
-      </c>
-      <c r="AB36" s="116"/>
-      <c r="AC36" s="110" t="s">
+      <c r="AA36" s="118" t="s">
+        <v>500</v>
+      </c>
+      <c r="AB36" s="118"/>
+      <c r="AC36" s="112" t="s">
         <v>216</v>
       </c>
-      <c r="AD36" s="110"/>
-      <c r="AE36" s="109" t="str">
+      <c r="AD36" s="112"/>
+      <c r="AE36" s="111" t="str">
         <f>CONCATENATE("(",E36,"+",G36,"+",I36,"+",M36,"+",O36,"+",Q36,"+",K36,")","*","（","1","+",S36,")","*","(","1","+",U36,"+",W36,"+",Y36,"+",AA36,")")</f>
         <v>(怪物本身防御力+怪物升星附加防御力+装备本身附加防御力+装备进阶附加防御力+装备镶嵌附加防御力+人物装备附加防御力+装备强化附加防御力)*（1+人物装备套装附加防御力百分比)*(1+法阵附加防御力百分比+Buff附加防御力百分比+队长附加防御力百分比+被动附加防御力百分比)</v>
       </c>
-      <c r="AF36" s="109"/>
+      <c r="AF36" s="111"/>
     </row>
     <row r="37" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="C37" s="132" t="s">
-        <v>688</v>
-      </c>
-      <c r="D37" s="132"/>
-      <c r="E37" s="116" t="s">
+        <v>565</v>
+      </c>
+      <c r="C37" s="134" t="s">
+        <v>686</v>
+      </c>
+      <c r="D37" s="134"/>
+      <c r="E37" s="118" t="s">
         <v>182</v>
       </c>
-      <c r="F37" s="116"/>
-      <c r="G37" s="118" t="s">
+      <c r="F37" s="118"/>
+      <c r="G37" s="120" t="s">
         <v>194</v>
       </c>
-      <c r="H37" s="118"/>
-      <c r="I37" s="116" t="s">
+      <c r="H37" s="120"/>
+      <c r="I37" s="118" t="s">
         <v>183</v>
       </c>
-      <c r="J37" s="116"/>
+      <c r="J37" s="118"/>
       <c r="K37" s="50" t="s">
         <v>184</v>
       </c>
@@ -22029,44 +22313,44 @@
         <v>187</v>
       </c>
       <c r="R37" s="49"/>
-      <c r="S37" s="113"/>
-      <c r="T37" s="114"/>
-      <c r="U37" s="117"/>
-      <c r="V37" s="117"/>
-      <c r="W37" s="117"/>
-      <c r="X37" s="117"/>
-      <c r="Y37" s="117"/>
-      <c r="Z37" s="117"/>
-      <c r="AA37" s="116"/>
-      <c r="AB37" s="116"/>
-      <c r="AC37" s="110" t="s">
-        <v>532</v>
-      </c>
-      <c r="AD37" s="110"/>
-      <c r="AE37" s="109" t="str">
+      <c r="S37" s="115"/>
+      <c r="T37" s="116"/>
+      <c r="U37" s="119"/>
+      <c r="V37" s="119"/>
+      <c r="W37" s="119"/>
+      <c r="X37" s="119"/>
+      <c r="Y37" s="119"/>
+      <c r="Z37" s="119"/>
+      <c r="AA37" s="118"/>
+      <c r="AB37" s="118"/>
+      <c r="AC37" s="112" t="s">
+        <v>530</v>
+      </c>
+      <c r="AD37" s="112"/>
+      <c r="AE37" s="111" t="str">
         <f>CONCATENATE(E37,"+",G37,"+",I37,"+",M37,"+",O37,"+",Q37,"+",K37)</f>
         <v>怪物本身防御力+怪物升星附加防御力+装备本身附加防御力+装备进阶附加防御力+装备镶嵌附加防御力+人物装备附加防御力+装备强化附加防御力</v>
       </c>
-      <c r="AF37" s="109"/>
+      <c r="AF37" s="111"/>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
-      <c r="C38" s="115" t="s">
+      <c r="C38" s="117" t="s">
         <v>196</v>
       </c>
-      <c r="D38" s="115"/>
-      <c r="E38" s="116" t="s">
+      <c r="D38" s="117"/>
+      <c r="E38" s="118" t="s">
         <v>204</v>
       </c>
-      <c r="F38" s="116"/>
-      <c r="G38" s="118" t="s">
+      <c r="F38" s="118"/>
+      <c r="G38" s="120" t="s">
         <v>205</v>
       </c>
-      <c r="H38" s="118"/>
-      <c r="I38" s="116" t="s">
+      <c r="H38" s="120"/>
+      <c r="I38" s="118" t="s">
         <v>206</v>
       </c>
-      <c r="J38" s="116"/>
+      <c r="J38" s="118"/>
       <c r="K38" s="50" t="s">
         <v>207</v>
       </c>
@@ -22084,53 +22368,53 @@
       </c>
       <c r="R38" s="49"/>
       <c r="S38" s="49" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="T38" s="49"/>
-      <c r="U38" s="117" t="s">
-        <v>506</v>
-      </c>
-      <c r="V38" s="117"/>
-      <c r="W38" s="117" t="s">
-        <v>505</v>
-      </c>
-      <c r="X38" s="117"/>
-      <c r="Y38" s="117" t="s">
+      <c r="U38" s="119" t="s">
         <v>504</v>
       </c>
-      <c r="Z38" s="117"/>
-      <c r="AA38" s="116" t="s">
+      <c r="V38" s="119"/>
+      <c r="W38" s="119" t="s">
         <v>503</v>
       </c>
-      <c r="AB38" s="116"/>
-      <c r="AC38" s="110" t="s">
+      <c r="X38" s="119"/>
+      <c r="Y38" s="119" t="s">
+        <v>502</v>
+      </c>
+      <c r="Z38" s="119"/>
+      <c r="AA38" s="118" t="s">
+        <v>501</v>
+      </c>
+      <c r="AB38" s="118"/>
+      <c r="AC38" s="112" t="s">
         <v>216</v>
       </c>
-      <c r="AD38" s="110"/>
-      <c r="AE38" s="109" t="str">
+      <c r="AD38" s="112"/>
+      <c r="AE38" s="111" t="str">
         <f>CONCATENATE("(",E38,"+",G38,"+",I38,"+",M38,"+",O38,"+",Q38,"+",K38,")","*","（","1","+",S38,")","*","(","1","+",U38,"+",W38,"+",Y38,"+",AA38,")")</f>
         <v>(怪物本身速度+怪物升星附加速度+装备本身附加速度+装备进阶附加速度+装备镶嵌附加速度+人物装备附加速度+装备强化附加速度)*（1+人物装备套装附加速度百分比)*(1+法阵附加速度百分比+Buff附加速度百分比+队长技附加速度百分比+被动附加速度百分比)</v>
       </c>
-      <c r="AF38" s="109"/>
+      <c r="AF38" s="111"/>
     </row>
     <row r="39" spans="1:32" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="55"/>
-      <c r="C39" s="115" t="s">
-        <v>689</v>
-      </c>
-      <c r="D39" s="115"/>
-      <c r="E39" s="116" t="s">
+      <c r="C39" s="117" t="s">
+        <v>687</v>
+      </c>
+      <c r="D39" s="117"/>
+      <c r="E39" s="118" t="s">
         <v>204</v>
       </c>
-      <c r="F39" s="116"/>
-      <c r="G39" s="118" t="s">
+      <c r="F39" s="118"/>
+      <c r="G39" s="120" t="s">
         <v>205</v>
       </c>
-      <c r="H39" s="118"/>
-      <c r="I39" s="116" t="s">
+      <c r="H39" s="120"/>
+      <c r="I39" s="118" t="s">
         <v>206</v>
       </c>
-      <c r="J39" s="116"/>
+      <c r="J39" s="118"/>
       <c r="K39" s="50" t="s">
         <v>207</v>
       </c>
@@ -22147,86 +22431,86 @@
         <v>210</v>
       </c>
       <c r="R39" s="49"/>
-      <c r="S39" s="121"/>
-      <c r="T39" s="122"/>
-      <c r="U39" s="121"/>
-      <c r="V39" s="122"/>
-      <c r="W39" s="121"/>
-      <c r="X39" s="122"/>
-      <c r="Y39" s="121"/>
-      <c r="Z39" s="122"/>
-      <c r="AA39" s="119"/>
-      <c r="AB39" s="120"/>
-      <c r="AC39" s="110" t="s">
-        <v>532</v>
-      </c>
-      <c r="AD39" s="110"/>
-      <c r="AE39" s="109" t="str">
+      <c r="S39" s="123"/>
+      <c r="T39" s="124"/>
+      <c r="U39" s="123"/>
+      <c r="V39" s="124"/>
+      <c r="W39" s="123"/>
+      <c r="X39" s="124"/>
+      <c r="Y39" s="123"/>
+      <c r="Z39" s="124"/>
+      <c r="AA39" s="121"/>
+      <c r="AB39" s="122"/>
+      <c r="AC39" s="112" t="s">
+        <v>530</v>
+      </c>
+      <c r="AD39" s="112"/>
+      <c r="AE39" s="111" t="str">
         <f>CONCATENATE(E39,"+",G39,"+",I39,"+",M39,"+",O39,"+",Q39,"+",K39)</f>
         <v>怪物本身速度+怪物升星附加速度+装备本身附加速度+装备进阶附加速度+装备镶嵌附加速度+人物装备附加速度+装备强化附加速度</v>
       </c>
-      <c r="AF39" s="109"/>
+      <c r="AF39" s="111"/>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C40" s="115" t="s">
+      <c r="C40" s="117" t="s">
         <v>217</v>
       </c>
-      <c r="D40" s="115"/>
-      <c r="E40" s="116" t="s">
+      <c r="D40" s="117"/>
+      <c r="E40" s="118" t="s">
         <v>230</v>
       </c>
-      <c r="F40" s="116"/>
-      <c r="G40" s="116" t="s">
-        <v>512</v>
-      </c>
-      <c r="H40" s="116"/>
-      <c r="I40" s="116"/>
-      <c r="J40" s="116"/>
-      <c r="K40" s="123"/>
-      <c r="L40" s="123"/>
-      <c r="M40" s="123"/>
-      <c r="N40" s="123"/>
-      <c r="O40" s="123"/>
-      <c r="P40" s="123"/>
-      <c r="Q40" s="124"/>
-      <c r="R40" s="124"/>
-      <c r="S40" s="124"/>
-      <c r="T40" s="124"/>
-      <c r="U40" s="117"/>
-      <c r="V40" s="117"/>
-      <c r="W40" s="117"/>
-      <c r="X40" s="117"/>
-      <c r="Y40" s="117"/>
-      <c r="Z40" s="117"/>
-      <c r="AA40" s="116"/>
-      <c r="AB40" s="116"/>
-      <c r="AC40" s="110" t="s">
-        <v>482</v>
-      </c>
-      <c r="AD40" s="110"/>
-      <c r="AE40" s="109" t="str">
+      <c r="F40" s="118"/>
+      <c r="G40" s="118" t="s">
+        <v>510</v>
+      </c>
+      <c r="H40" s="118"/>
+      <c r="I40" s="118"/>
+      <c r="J40" s="118"/>
+      <c r="K40" s="125"/>
+      <c r="L40" s="125"/>
+      <c r="M40" s="125"/>
+      <c r="N40" s="125"/>
+      <c r="O40" s="125"/>
+      <c r="P40" s="125"/>
+      <c r="Q40" s="126"/>
+      <c r="R40" s="126"/>
+      <c r="S40" s="126"/>
+      <c r="T40" s="126"/>
+      <c r="U40" s="119"/>
+      <c r="V40" s="119"/>
+      <c r="W40" s="119"/>
+      <c r="X40" s="119"/>
+      <c r="Y40" s="119"/>
+      <c r="Z40" s="119"/>
+      <c r="AA40" s="118"/>
+      <c r="AB40" s="118"/>
+      <c r="AC40" s="112" t="s">
+        <v>480</v>
+      </c>
+      <c r="AD40" s="112"/>
+      <c r="AE40" s="111" t="str">
         <f>CONCATENATE(E40,"*","（",1,"+",G40,")")</f>
         <v>怪物本身耐力*（1+被动附加耐力百分比)</v>
       </c>
-      <c r="AF40" s="109"/>
+      <c r="AF40" s="111"/>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C41" s="115" t="s">
+      <c r="C41" s="117" t="s">
         <v>220</v>
       </c>
-      <c r="D41" s="115"/>
-      <c r="E41" s="116" t="s">
+      <c r="D41" s="117"/>
+      <c r="E41" s="118" t="s">
         <v>221</v>
       </c>
-      <c r="F41" s="116"/>
-      <c r="G41" s="118" t="s">
+      <c r="F41" s="118"/>
+      <c r="G41" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="H41" s="118"/>
-      <c r="I41" s="116" t="s">
+      <c r="H41" s="120"/>
+      <c r="I41" s="118" t="s">
         <v>223</v>
       </c>
-      <c r="J41" s="116"/>
+      <c r="J41" s="118"/>
       <c r="K41" s="50" t="s">
         <v>224</v>
       </c>
@@ -22244,50 +22528,50 @@
       </c>
       <c r="R41" s="49"/>
       <c r="S41" s="49" t="s">
+        <v>506</v>
+      </c>
+      <c r="T41" s="49"/>
+      <c r="U41" s="119" t="s">
+        <v>507</v>
+      </c>
+      <c r="V41" s="119"/>
+      <c r="W41" s="119" t="s">
         <v>508</v>
       </c>
-      <c r="T41" s="49"/>
-      <c r="U41" s="117" t="s">
+      <c r="X41" s="119"/>
+      <c r="Y41" s="118" t="s">
         <v>509</v>
       </c>
-      <c r="V41" s="117"/>
-      <c r="W41" s="117" t="s">
-        <v>510</v>
-      </c>
-      <c r="X41" s="117"/>
-      <c r="Y41" s="116" t="s">
-        <v>511</v>
-      </c>
-      <c r="Z41" s="116"/>
-      <c r="AA41" s="116"/>
-      <c r="AB41" s="116"/>
-      <c r="AC41" s="110" t="s">
+      <c r="Z41" s="118"/>
+      <c r="AA41" s="118"/>
+      <c r="AB41" s="118"/>
+      <c r="AC41" s="112" t="s">
         <v>195</v>
       </c>
-      <c r="AD41" s="110"/>
-      <c r="AE41" s="109" t="str">
+      <c r="AD41" s="112"/>
+      <c r="AE41" s="111" t="str">
         <f>CONCATENATE("(",E41,"+",G41,"+",I41,"+",M41,"+",O41,"+",Q41,"+",K41,")","*","（","1","+",S41,")","*","(","1","+",U41,"+",W41,"+",Y41,")")</f>
         <v>(怪物本身体力+怪物升星附加体力+装备本身附加体力+装备进阶附加体力+装备镶嵌附加体力+人物装备附加体力+装备强化附加体力)*（1+人物装备套装附加体力百分比)*(1+法阵附加体力百分比+队长技附加体力百分比+被动附加体力百分比)</v>
       </c>
-      <c r="AF41" s="109"/>
+      <c r="AF41" s="111"/>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C42" s="115" t="s">
-        <v>690</v>
-      </c>
-      <c r="D42" s="115"/>
-      <c r="E42" s="116" t="s">
+      <c r="C42" s="117" t="s">
+        <v>688</v>
+      </c>
+      <c r="D42" s="117"/>
+      <c r="E42" s="118" t="s">
         <v>221</v>
       </c>
-      <c r="F42" s="116"/>
-      <c r="G42" s="118" t="s">
+      <c r="F42" s="118"/>
+      <c r="G42" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="H42" s="118"/>
-      <c r="I42" s="116" t="s">
+      <c r="H42" s="120"/>
+      <c r="I42" s="118" t="s">
         <v>223</v>
       </c>
-      <c r="J42" s="116"/>
+      <c r="J42" s="118"/>
       <c r="K42" s="50" t="s">
         <v>224</v>
       </c>
@@ -22304,117 +22588,117 @@
         <v>231</v>
       </c>
       <c r="R42" s="49"/>
-      <c r="S42" s="113"/>
-      <c r="T42" s="114"/>
-      <c r="U42" s="113"/>
-      <c r="V42" s="114"/>
-      <c r="W42" s="113"/>
-      <c r="X42" s="114"/>
-      <c r="Y42" s="111"/>
-      <c r="Z42" s="112"/>
-      <c r="AA42" s="111"/>
-      <c r="AB42" s="112"/>
-      <c r="AC42" s="110" t="s">
-        <v>532</v>
-      </c>
-      <c r="AD42" s="110"/>
-      <c r="AE42" s="109" t="str">
+      <c r="S42" s="115"/>
+      <c r="T42" s="116"/>
+      <c r="U42" s="115"/>
+      <c r="V42" s="116"/>
+      <c r="W42" s="115"/>
+      <c r="X42" s="116"/>
+      <c r="Y42" s="113"/>
+      <c r="Z42" s="114"/>
+      <c r="AA42" s="113"/>
+      <c r="AB42" s="114"/>
+      <c r="AC42" s="112" t="s">
+        <v>530</v>
+      </c>
+      <c r="AD42" s="112"/>
+      <c r="AE42" s="111" t="str">
         <f>CONCATENATE(E42,"+",G42,"+",I42,"+",M42,"+",O42,"+",Q42,"+",K42)</f>
         <v>怪物本身体力+怪物升星附加体力+装备本身附加体力+装备进阶附加体力+装备镶嵌附加体力+人物装备附加体力+装备强化附加体力</v>
       </c>
-      <c r="AF42" s="109"/>
+      <c r="AF42" s="111"/>
     </row>
     <row r="43" spans="1:32" s="45" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C43" s="125" t="s">
+      <c r="C43" s="127" t="s">
+        <v>449</v>
+      </c>
+      <c r="D43" s="127"/>
+      <c r="E43" s="118" t="s">
+        <v>450</v>
+      </c>
+      <c r="F43" s="118"/>
+      <c r="G43" s="120" t="s">
         <v>451</v>
       </c>
-      <c r="D43" s="125"/>
-      <c r="E43" s="116" t="s">
+      <c r="H43" s="120"/>
+      <c r="I43" s="118" t="s">
         <v>452</v>
       </c>
-      <c r="F43" s="116"/>
-      <c r="G43" s="118" t="s">
+      <c r="J43" s="118"/>
+      <c r="K43" s="128"/>
+      <c r="L43" s="128"/>
+      <c r="M43" s="118"/>
+      <c r="N43" s="118"/>
+      <c r="O43" s="128"/>
+      <c r="P43" s="128"/>
+      <c r="Q43" s="119"/>
+      <c r="R43" s="119"/>
+      <c r="S43" s="119"/>
+      <c r="T43" s="119"/>
+      <c r="U43" s="119"/>
+      <c r="V43" s="119"/>
+      <c r="W43" s="119"/>
+      <c r="X43" s="119"/>
+      <c r="Y43" s="128"/>
+      <c r="Z43" s="128"/>
+      <c r="AA43" s="128"/>
+      <c r="AB43" s="128"/>
+      <c r="AC43" s="112" t="s">
         <v>453</v>
       </c>
-      <c r="H43" s="118"/>
-      <c r="I43" s="116" t="s">
-        <v>454</v>
-      </c>
-      <c r="J43" s="116"/>
-      <c r="K43" s="126"/>
-      <c r="L43" s="126"/>
-      <c r="M43" s="116"/>
-      <c r="N43" s="116"/>
-      <c r="O43" s="126"/>
-      <c r="P43" s="126"/>
-      <c r="Q43" s="117"/>
-      <c r="R43" s="117"/>
-      <c r="S43" s="117"/>
-      <c r="T43" s="117"/>
-      <c r="U43" s="117"/>
-      <c r="V43" s="117"/>
-      <c r="W43" s="117"/>
-      <c r="X43" s="117"/>
-      <c r="Y43" s="126"/>
-      <c r="Z43" s="126"/>
-      <c r="AA43" s="126"/>
-      <c r="AB43" s="126"/>
-      <c r="AC43" s="110" t="s">
-        <v>455</v>
-      </c>
-      <c r="AD43" s="110"/>
-      <c r="AE43" s="109" t="str">
+      <c r="AD43" s="112"/>
+      <c r="AE43" s="111" t="str">
         <f>CONCATENATE(E43,"+",G43,"+",I43)</f>
         <v>怪物本身生命回复+怪物升星附加生命回复+装备进阶附加生命回复</v>
       </c>
-      <c r="AF43" s="109"/>
+      <c r="AF43" s="111"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C44" s="115" t="s">
+      <c r="C44" s="117" t="s">
         <v>232</v>
       </c>
-      <c r="D44" s="115"/>
+      <c r="D44" s="117"/>
       <c r="E44" s="49" t="s">
+        <v>512</v>
+      </c>
+      <c r="F44" s="49"/>
+      <c r="G44" s="119" t="s">
+        <v>513</v>
+      </c>
+      <c r="H44" s="119"/>
+      <c r="I44" s="119" t="s">
         <v>514</v>
       </c>
-      <c r="F44" s="49"/>
-      <c r="G44" s="117" t="s">
+      <c r="J44" s="119"/>
+      <c r="K44" s="118" t="s">
         <v>515</v>
       </c>
-      <c r="H44" s="117"/>
-      <c r="I44" s="117" t="s">
-        <v>516</v>
-      </c>
-      <c r="J44" s="117"/>
-      <c r="K44" s="116" t="s">
-        <v>517</v>
-      </c>
-      <c r="L44" s="116"/>
-      <c r="M44" s="123"/>
-      <c r="N44" s="123"/>
-      <c r="O44" s="123"/>
-      <c r="P44" s="123"/>
-      <c r="Q44" s="124"/>
-      <c r="R44" s="124"/>
-      <c r="S44" s="124"/>
-      <c r="T44" s="124"/>
-      <c r="U44" s="117"/>
-      <c r="V44" s="117"/>
-      <c r="W44" s="117"/>
-      <c r="X44" s="117"/>
-      <c r="Y44" s="116"/>
-      <c r="Z44" s="116"/>
-      <c r="AA44" s="116"/>
-      <c r="AB44" s="116"/>
-      <c r="AC44" s="110" t="s">
+      <c r="L44" s="118"/>
+      <c r="M44" s="125"/>
+      <c r="N44" s="125"/>
+      <c r="O44" s="125"/>
+      <c r="P44" s="125"/>
+      <c r="Q44" s="126"/>
+      <c r="R44" s="126"/>
+      <c r="S44" s="126"/>
+      <c r="T44" s="126"/>
+      <c r="U44" s="119"/>
+      <c r="V44" s="119"/>
+      <c r="W44" s="119"/>
+      <c r="X44" s="119"/>
+      <c r="Y44" s="118"/>
+      <c r="Z44" s="118"/>
+      <c r="AA44" s="118"/>
+      <c r="AB44" s="118"/>
+      <c r="AC44" s="112" t="s">
         <v>233</v>
       </c>
-      <c r="AD44" s="110"/>
-      <c r="AE44" s="109" t="str">
+      <c r="AD44" s="112"/>
+      <c r="AE44" s="111" t="str">
         <f>CONCATENATE(E44,"+",G44,"+",I44,"+",K44)</f>
         <v>人物装备套装附加五行加成百分比+法阵附加五行加成百分比+队长技附加五行加成百分比+被动附加五行加成百分比</v>
       </c>
-      <c r="AF44" s="109"/>
+      <c r="AF44" s="111"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.15">
       <c r="D45" s="6"/>
@@ -22439,16 +22723,16 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
@@ -22722,7 +23006,7 @@
   <dimension ref="A1:BL71"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AS46" sqref="B28:BH49"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -22740,89 +23024,89 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C1" s="9" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C2" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D5" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E6" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F7" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E8" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I8" s="42"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I9" s="42"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D11" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E12" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D13" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E14" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B15" s="10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -22834,17 +23118,17 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E16" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="17" spans="1:57" x14ac:dyDescent="0.15">
       <c r="F17" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="18" spans="1:57" x14ac:dyDescent="0.15">
       <c r="C18" s="57" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D18" s="57"/>
       <c r="E18" s="57"/>
@@ -22862,7 +23146,7 @@
     <row r="19" spans="1:57" x14ac:dyDescent="0.15">
       <c r="C19" s="57"/>
       <c r="D19" s="57" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E19" s="57"/>
       <c r="F19" s="57"/>
@@ -22880,7 +23164,7 @@
       <c r="C20" s="57"/>
       <c r="D20" s="57"/>
       <c r="E20" s="57" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F20" s="57"/>
       <c r="G20" s="57"/>
@@ -22898,7 +23182,7 @@
       <c r="D21" s="57"/>
       <c r="E21" s="57"/>
       <c r="F21" s="57" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G21" s="57"/>
       <c r="H21" s="57"/>
@@ -22914,7 +23198,7 @@
       <c r="C22" s="57"/>
       <c r="D22" s="57"/>
       <c r="E22" s="57" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F22" s="57"/>
       <c r="G22" s="57"/>
@@ -22932,7 +23216,7 @@
       <c r="D23" s="57"/>
       <c r="E23" s="57"/>
       <c r="F23" s="57" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G23" s="57"/>
       <c r="H23" s="57"/>
@@ -22946,12 +23230,12 @@
     </row>
     <row r="25" spans="1:57" x14ac:dyDescent="0.15">
       <c r="C25" s="9" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="27" spans="1:57" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>76</v>
@@ -22964,432 +23248,432 @@
     </row>
     <row r="28" spans="1:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="47" t="s">
-        <v>569</v>
-      </c>
-      <c r="C28" s="144" t="s">
+        <v>567</v>
+      </c>
+      <c r="C28" s="146" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="145"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="146" t="s">
-        <v>659</v>
-      </c>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="147" t="s">
+      <c r="D28" s="147"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="148" t="s">
+        <v>657</v>
+      </c>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="J28" s="146" t="s">
-        <v>656</v>
-      </c>
-      <c r="K28" s="146"/>
-      <c r="L28" s="146"/>
+      <c r="J28" s="148" t="s">
+        <v>654</v>
+      </c>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
       <c r="M28" s="46"/>
-      <c r="N28" s="147" t="s">
+      <c r="N28" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="O28" s="148" t="s">
+      <c r="O28" s="150" t="s">
+        <v>653</v>
+      </c>
+      <c r="P28" s="150"/>
+      <c r="Q28" s="150"/>
+      <c r="R28" s="149" t="s">
+        <v>78</v>
+      </c>
+      <c r="S28" s="149" t="s">
         <v>655</v>
       </c>
-      <c r="P28" s="148"/>
-      <c r="Q28" s="148"/>
-      <c r="R28" s="147" t="s">
+      <c r="T28" s="149"/>
+      <c r="U28" s="149"/>
+      <c r="V28" s="149" t="s">
+        <v>96</v>
+      </c>
+      <c r="W28" s="149" t="s">
+        <v>573</v>
+      </c>
+      <c r="X28" s="149"/>
+      <c r="Y28" s="149"/>
+      <c r="Z28" s="152" t="s">
         <v>78</v>
       </c>
-      <c r="S28" s="147" t="s">
-        <v>657</v>
-      </c>
-      <c r="T28" s="147"/>
-      <c r="U28" s="147"/>
-      <c r="V28" s="147" t="s">
+      <c r="AA28" s="152" t="s">
+        <v>696</v>
+      </c>
+      <c r="AB28" s="152"/>
+      <c r="AC28" s="152"/>
+      <c r="AD28" s="142" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE28" s="142">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="142"/>
+      <c r="AG28" s="142"/>
+      <c r="AH28" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="W28" s="147" t="s">
-        <v>575</v>
-      </c>
-      <c r="X28" s="147"/>
-      <c r="Y28" s="147"/>
-      <c r="Z28" s="150" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA28" s="150" t="s">
-        <v>698</v>
-      </c>
-      <c r="AB28" s="150"/>
-      <c r="AC28" s="150"/>
-      <c r="AD28" s="140" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE28" s="140">
-        <v>1</v>
-      </c>
-      <c r="AF28" s="140"/>
-      <c r="AG28" s="140"/>
-      <c r="AH28" s="140" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI28" s="140" t="s">
+      <c r="AI28" s="142" t="s">
+        <v>516</v>
+      </c>
+      <c r="AJ28" s="142"/>
+      <c r="AK28" s="142"/>
+      <c r="AL28" s="142" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM28" s="142" t="s">
+        <v>517</v>
+      </c>
+      <c r="AN28" s="142"/>
+      <c r="AO28" s="142"/>
+      <c r="AP28" s="142" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ28" s="142" t="s">
         <v>518</v>
       </c>
-      <c r="AJ28" s="140"/>
-      <c r="AK28" s="140"/>
-      <c r="AL28" s="140" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM28" s="140" t="s">
+      <c r="AR28" s="142"/>
+      <c r="AS28" s="142"/>
+      <c r="AT28" s="142" t="s">
+        <v>213</v>
+      </c>
+      <c r="AU28" s="142" t="s">
         <v>519</v>
       </c>
-      <c r="AN28" s="140"/>
-      <c r="AO28" s="140"/>
-      <c r="AP28" s="140" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ28" s="140" t="s">
-        <v>520</v>
-      </c>
-      <c r="AR28" s="140"/>
-      <c r="AS28" s="140"/>
-      <c r="AT28" s="140" t="s">
-        <v>213</v>
-      </c>
-      <c r="AU28" s="140" t="s">
-        <v>521</v>
-      </c>
-      <c r="AV28" s="140"/>
-      <c r="AW28" s="140"/>
-      <c r="AX28" s="141" t="s">
-        <v>769</v>
-      </c>
-      <c r="AY28" s="141" t="s">
-        <v>770</v>
-      </c>
-      <c r="AZ28" s="141"/>
-      <c r="BA28" s="141"/>
-      <c r="BB28" s="138" t="s">
-        <v>769</v>
-      </c>
-      <c r="BC28" s="138" t="s">
-        <v>775</v>
-      </c>
-      <c r="BD28" s="138"/>
-      <c r="BE28" s="138"/>
+      <c r="AV28" s="142"/>
+      <c r="AW28" s="142"/>
+      <c r="AX28" s="143" t="s">
+        <v>767</v>
+      </c>
+      <c r="AY28" s="143" t="s">
+        <v>768</v>
+      </c>
+      <c r="AZ28" s="143"/>
+      <c r="BA28" s="143"/>
+      <c r="BB28" s="140" t="s">
+        <v>767</v>
+      </c>
+      <c r="BC28" s="140" t="s">
+        <v>773</v>
+      </c>
+      <c r="BD28" s="140"/>
+      <c r="BE28" s="140"/>
     </row>
     <row r="29" spans="1:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="C29" s="145"/>
-      <c r="D29" s="145"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="146"/>
-      <c r="L29" s="146"/>
+        <v>568</v>
+      </c>
+      <c r="C29" s="147"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
       <c r="M29" s="46"/>
-      <c r="N29" s="147"/>
-      <c r="O29" s="148"/>
-      <c r="P29" s="148"/>
-      <c r="Q29" s="148"/>
-      <c r="R29" s="147"/>
-      <c r="S29" s="147"/>
-      <c r="T29" s="147"/>
-      <c r="U29" s="147"/>
-      <c r="V29" s="147"/>
-      <c r="W29" s="147"/>
-      <c r="X29" s="147"/>
-      <c r="Y29" s="147"/>
-      <c r="Z29" s="150"/>
-      <c r="AA29" s="150"/>
-      <c r="AB29" s="150"/>
-      <c r="AC29" s="150"/>
-      <c r="AD29" s="140"/>
-      <c r="AE29" s="140"/>
-      <c r="AF29" s="140"/>
-      <c r="AG29" s="140"/>
-      <c r="AH29" s="140"/>
-      <c r="AI29" s="140"/>
-      <c r="AJ29" s="140"/>
-      <c r="AK29" s="140"/>
-      <c r="AL29" s="140"/>
-      <c r="AM29" s="140"/>
-      <c r="AN29" s="140"/>
-      <c r="AO29" s="140"/>
-      <c r="AP29" s="140"/>
-      <c r="AQ29" s="140"/>
-      <c r="AR29" s="140"/>
-      <c r="AS29" s="140"/>
-      <c r="AT29" s="140"/>
-      <c r="AU29" s="140"/>
-      <c r="AV29" s="140"/>
-      <c r="AW29" s="140"/>
-      <c r="AX29" s="141"/>
-      <c r="AY29" s="141"/>
-      <c r="AZ29" s="141"/>
-      <c r="BA29" s="141"/>
-      <c r="BB29" s="138"/>
-      <c r="BC29" s="138"/>
-      <c r="BD29" s="138"/>
-      <c r="BE29" s="138"/>
+      <c r="N29" s="149"/>
+      <c r="O29" s="150"/>
+      <c r="P29" s="150"/>
+      <c r="Q29" s="150"/>
+      <c r="R29" s="149"/>
+      <c r="S29" s="149"/>
+      <c r="T29" s="149"/>
+      <c r="U29" s="149"/>
+      <c r="V29" s="149"/>
+      <c r="W29" s="149"/>
+      <c r="X29" s="149"/>
+      <c r="Y29" s="149"/>
+      <c r="Z29" s="152"/>
+      <c r="AA29" s="152"/>
+      <c r="AB29" s="152"/>
+      <c r="AC29" s="152"/>
+      <c r="AD29" s="142"/>
+      <c r="AE29" s="142"/>
+      <c r="AF29" s="142"/>
+      <c r="AG29" s="142"/>
+      <c r="AH29" s="142"/>
+      <c r="AI29" s="142"/>
+      <c r="AJ29" s="142"/>
+      <c r="AK29" s="142"/>
+      <c r="AL29" s="142"/>
+      <c r="AM29" s="142"/>
+      <c r="AN29" s="142"/>
+      <c r="AO29" s="142"/>
+      <c r="AP29" s="142"/>
+      <c r="AQ29" s="142"/>
+      <c r="AR29" s="142"/>
+      <c r="AS29" s="142"/>
+      <c r="AT29" s="142"/>
+      <c r="AU29" s="142"/>
+      <c r="AV29" s="142"/>
+      <c r="AW29" s="142"/>
+      <c r="AX29" s="143"/>
+      <c r="AY29" s="143"/>
+      <c r="AZ29" s="143"/>
+      <c r="BA29" s="143"/>
+      <c r="BB29" s="140"/>
+      <c r="BC29" s="140"/>
+      <c r="BD29" s="140"/>
+      <c r="BE29" s="140"/>
     </row>
     <row r="30" spans="1:57" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
-      <c r="C30" s="145"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="146"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="146"/>
-      <c r="K30" s="146"/>
-      <c r="L30" s="146"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
       <c r="M30" s="46"/>
-      <c r="N30" s="147"/>
-      <c r="O30" s="148"/>
-      <c r="P30" s="148"/>
-      <c r="Q30" s="148"/>
-      <c r="R30" s="147"/>
-      <c r="S30" s="147"/>
-      <c r="T30" s="147"/>
-      <c r="U30" s="147"/>
-      <c r="V30" s="147"/>
-      <c r="W30" s="147"/>
-      <c r="X30" s="147"/>
-      <c r="Y30" s="147"/>
-      <c r="Z30" s="150"/>
-      <c r="AA30" s="150"/>
-      <c r="AB30" s="150"/>
-      <c r="AC30" s="150"/>
-      <c r="AD30" s="140"/>
-      <c r="AE30" s="140"/>
-      <c r="AF30" s="140"/>
-      <c r="AG30" s="140"/>
-      <c r="AH30" s="140"/>
-      <c r="AI30" s="140"/>
-      <c r="AJ30" s="140"/>
-      <c r="AK30" s="140"/>
-      <c r="AL30" s="140"/>
-      <c r="AM30" s="140"/>
-      <c r="AN30" s="140"/>
-      <c r="AO30" s="140"/>
-      <c r="AP30" s="140"/>
-      <c r="AQ30" s="140"/>
-      <c r="AR30" s="140"/>
-      <c r="AS30" s="140"/>
-      <c r="AT30" s="140"/>
-      <c r="AU30" s="140"/>
-      <c r="AV30" s="140"/>
-      <c r="AW30" s="140"/>
-      <c r="AX30" s="141"/>
-      <c r="AY30" s="141"/>
-      <c r="AZ30" s="141"/>
-      <c r="BA30" s="141"/>
-      <c r="BB30" s="138"/>
-      <c r="BC30" s="138"/>
-      <c r="BD30" s="138"/>
-      <c r="BE30" s="138"/>
+      <c r="N30" s="149"/>
+      <c r="O30" s="150"/>
+      <c r="P30" s="150"/>
+      <c r="Q30" s="150"/>
+      <c r="R30" s="149"/>
+      <c r="S30" s="149"/>
+      <c r="T30" s="149"/>
+      <c r="U30" s="149"/>
+      <c r="V30" s="149"/>
+      <c r="W30" s="149"/>
+      <c r="X30" s="149"/>
+      <c r="Y30" s="149"/>
+      <c r="Z30" s="152"/>
+      <c r="AA30" s="152"/>
+      <c r="AB30" s="152"/>
+      <c r="AC30" s="152"/>
+      <c r="AD30" s="142"/>
+      <c r="AE30" s="142"/>
+      <c r="AF30" s="142"/>
+      <c r="AG30" s="142"/>
+      <c r="AH30" s="142"/>
+      <c r="AI30" s="142"/>
+      <c r="AJ30" s="142"/>
+      <c r="AK30" s="142"/>
+      <c r="AL30" s="142"/>
+      <c r="AM30" s="142"/>
+      <c r="AN30" s="142"/>
+      <c r="AO30" s="142"/>
+      <c r="AP30" s="142"/>
+      <c r="AQ30" s="142"/>
+      <c r="AR30" s="142"/>
+      <c r="AS30" s="142"/>
+      <c r="AT30" s="142"/>
+      <c r="AU30" s="142"/>
+      <c r="AV30" s="142"/>
+      <c r="AW30" s="142"/>
+      <c r="AX30" s="143"/>
+      <c r="AY30" s="143"/>
+      <c r="AZ30" s="143"/>
+      <c r="BA30" s="143"/>
+      <c r="BB30" s="140"/>
+      <c r="BC30" s="140"/>
+      <c r="BD30" s="140"/>
+      <c r="BE30" s="140"/>
     </row>
     <row r="31" spans="1:57" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="C31" s="145"/>
-      <c r="D31" s="145"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="147"/>
-      <c r="J31" s="146"/>
-      <c r="K31" s="146"/>
-      <c r="L31" s="146"/>
+        <v>569</v>
+      </c>
+      <c r="C31" s="147"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
       <c r="M31" s="46"/>
-      <c r="N31" s="147"/>
-      <c r="O31" s="148"/>
-      <c r="P31" s="148"/>
-      <c r="Q31" s="148"/>
-      <c r="R31" s="147"/>
-      <c r="S31" s="147"/>
-      <c r="T31" s="147"/>
-      <c r="U31" s="147"/>
-      <c r="V31" s="147"/>
-      <c r="W31" s="147"/>
-      <c r="X31" s="147"/>
-      <c r="Y31" s="147"/>
-      <c r="Z31" s="150"/>
-      <c r="AA31" s="150"/>
-      <c r="AB31" s="150"/>
-      <c r="AC31" s="150"/>
-      <c r="AD31" s="140"/>
-      <c r="AE31" s="140"/>
-      <c r="AF31" s="140"/>
-      <c r="AG31" s="140"/>
-      <c r="AH31" s="140"/>
-      <c r="AI31" s="140"/>
-      <c r="AJ31" s="140"/>
-      <c r="AK31" s="140"/>
-      <c r="AL31" s="140"/>
-      <c r="AM31" s="140"/>
-      <c r="AN31" s="140"/>
-      <c r="AO31" s="140"/>
-      <c r="AP31" s="140"/>
-      <c r="AQ31" s="140"/>
-      <c r="AR31" s="140"/>
-      <c r="AS31" s="140"/>
-      <c r="AT31" s="140"/>
-      <c r="AU31" s="140"/>
-      <c r="AV31" s="140"/>
-      <c r="AW31" s="140"/>
-      <c r="AX31" s="141"/>
-      <c r="AY31" s="141"/>
-      <c r="AZ31" s="141"/>
-      <c r="BA31" s="141"/>
-      <c r="BB31" s="138"/>
-      <c r="BC31" s="138"/>
-      <c r="BD31" s="138"/>
-      <c r="BE31" s="138"/>
+      <c r="N31" s="149"/>
+      <c r="O31" s="150"/>
+      <c r="P31" s="150"/>
+      <c r="Q31" s="150"/>
+      <c r="R31" s="149"/>
+      <c r="S31" s="149"/>
+      <c r="T31" s="149"/>
+      <c r="U31" s="149"/>
+      <c r="V31" s="149"/>
+      <c r="W31" s="149"/>
+      <c r="X31" s="149"/>
+      <c r="Y31" s="149"/>
+      <c r="Z31" s="152"/>
+      <c r="AA31" s="152"/>
+      <c r="AB31" s="152"/>
+      <c r="AC31" s="152"/>
+      <c r="AD31" s="142"/>
+      <c r="AE31" s="142"/>
+      <c r="AF31" s="142"/>
+      <c r="AG31" s="142"/>
+      <c r="AH31" s="142"/>
+      <c r="AI31" s="142"/>
+      <c r="AJ31" s="142"/>
+      <c r="AK31" s="142"/>
+      <c r="AL31" s="142"/>
+      <c r="AM31" s="142"/>
+      <c r="AN31" s="142"/>
+      <c r="AO31" s="142"/>
+      <c r="AP31" s="142"/>
+      <c r="AQ31" s="142"/>
+      <c r="AR31" s="142"/>
+      <c r="AS31" s="142"/>
+      <c r="AT31" s="142"/>
+      <c r="AU31" s="142"/>
+      <c r="AV31" s="142"/>
+      <c r="AW31" s="142"/>
+      <c r="AX31" s="143"/>
+      <c r="AY31" s="143"/>
+      <c r="AZ31" s="143"/>
+      <c r="BA31" s="143"/>
+      <c r="BB31" s="140"/>
+      <c r="BC31" s="140"/>
+      <c r="BD31" s="140"/>
+      <c r="BE31" s="140"/>
     </row>
     <row r="32" spans="1:57" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
-      <c r="F32" s="147" t="s">
-        <v>545</v>
-      </c>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147" t="s">
+      <c r="F32" s="149" t="s">
+        <v>543</v>
+      </c>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149" t="s">
         <v>79</v>
       </c>
-      <c r="K32" s="147"/>
-      <c r="L32" s="147"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
       <c r="M32" s="46"/>
-      <c r="N32" s="147"/>
-      <c r="O32" s="152" t="s">
+      <c r="N32" s="149"/>
+      <c r="O32" s="154" t="s">
         <v>80</v>
       </c>
-      <c r="P32" s="152"/>
-      <c r="Q32" s="152"/>
-      <c r="R32" s="147"/>
-      <c r="S32" s="147" t="s">
+      <c r="P32" s="154"/>
+      <c r="Q32" s="154"/>
+      <c r="R32" s="149"/>
+      <c r="S32" s="149" t="s">
         <v>100</v>
       </c>
-      <c r="T32" s="147"/>
-      <c r="U32" s="147"/>
-      <c r="V32" s="147"/>
-      <c r="W32" s="147" t="s">
+      <c r="T32" s="149"/>
+      <c r="U32" s="149"/>
+      <c r="V32" s="149"/>
+      <c r="W32" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="X32" s="147"/>
-      <c r="Y32" s="147"/>
-      <c r="Z32" s="150"/>
-      <c r="AA32" s="150" t="s">
+      <c r="X32" s="149"/>
+      <c r="Y32" s="149"/>
+      <c r="Z32" s="152"/>
+      <c r="AA32" s="152" t="s">
         <v>81</v>
       </c>
-      <c r="AB32" s="150"/>
-      <c r="AC32" s="150"/>
-      <c r="AD32" s="140"/>
-      <c r="AE32" s="140"/>
-      <c r="AF32" s="140"/>
-      <c r="AG32" s="140"/>
-      <c r="AH32" s="140"/>
-      <c r="AI32" s="140" t="s">
+      <c r="AB32" s="152"/>
+      <c r="AC32" s="152"/>
+      <c r="AD32" s="142"/>
+      <c r="AE32" s="142"/>
+      <c r="AF32" s="142"/>
+      <c r="AG32" s="142"/>
+      <c r="AH32" s="142"/>
+      <c r="AI32" s="142" t="s">
         <v>98</v>
       </c>
-      <c r="AJ32" s="140"/>
-      <c r="AK32" s="140"/>
-      <c r="AL32" s="140"/>
-      <c r="AM32" s="142" t="s">
+      <c r="AJ32" s="142"/>
+      <c r="AK32" s="142"/>
+      <c r="AL32" s="142"/>
+      <c r="AM32" s="144" t="s">
         <v>99</v>
       </c>
-      <c r="AN32" s="142"/>
-      <c r="AO32" s="142"/>
-      <c r="AP32" s="140"/>
-      <c r="AQ32" s="140" t="s">
+      <c r="AN32" s="144"/>
+      <c r="AO32" s="144"/>
+      <c r="AP32" s="142"/>
+      <c r="AQ32" s="142" t="s">
         <v>105</v>
       </c>
-      <c r="AR32" s="140"/>
-      <c r="AS32" s="140"/>
-      <c r="AT32" s="140"/>
-      <c r="AU32" s="139" t="s">
+      <c r="AR32" s="142"/>
+      <c r="AS32" s="142"/>
+      <c r="AT32" s="142"/>
+      <c r="AU32" s="141" t="s">
         <v>215</v>
       </c>
-      <c r="AV32" s="139"/>
-      <c r="AW32" s="139"/>
-      <c r="AX32" s="141"/>
-      <c r="AY32" s="141"/>
-      <c r="AZ32" s="141"/>
-      <c r="BA32" s="141"/>
-      <c r="BB32" s="138"/>
-      <c r="BC32" s="138"/>
-      <c r="BD32" s="138"/>
-      <c r="BE32" s="138"/>
+      <c r="AV32" s="141"/>
+      <c r="AW32" s="141"/>
+      <c r="AX32" s="143"/>
+      <c r="AY32" s="143"/>
+      <c r="AZ32" s="143"/>
+      <c r="BA32" s="143"/>
+      <c r="BB32" s="140"/>
+      <c r="BC32" s="140"/>
+      <c r="BD32" s="140"/>
+      <c r="BE32" s="140"/>
     </row>
     <row r="33" spans="1:64" x14ac:dyDescent="0.15">
-      <c r="F33" s="147" t="s">
+      <c r="F33" s="149" t="s">
         <v>146</v>
       </c>
-      <c r="G33" s="147"/>
-      <c r="H33" s="147"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="147"/>
-      <c r="K33" s="147"/>
-      <c r="L33" s="147"/>
-      <c r="M33" s="147"/>
-      <c r="N33" s="147"/>
-      <c r="O33" s="147"/>
-      <c r="P33" s="147"/>
-      <c r="Q33" s="147"/>
-      <c r="R33" s="147"/>
-      <c r="S33" s="147"/>
-      <c r="T33" s="147"/>
-      <c r="U33" s="147"/>
-      <c r="V33" s="147"/>
-      <c r="W33" s="147"/>
-      <c r="X33" s="147"/>
-      <c r="Y33" s="147"/>
-      <c r="Z33" s="154" t="s">
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
+      <c r="N33" s="149"/>
+      <c r="O33" s="149"/>
+      <c r="P33" s="149"/>
+      <c r="Q33" s="149"/>
+      <c r="R33" s="149"/>
+      <c r="S33" s="149"/>
+      <c r="T33" s="149"/>
+      <c r="U33" s="149"/>
+      <c r="V33" s="149"/>
+      <c r="W33" s="149"/>
+      <c r="X33" s="149"/>
+      <c r="Y33" s="149"/>
+      <c r="Z33" s="156" t="s">
         <v>148</v>
       </c>
-      <c r="AA33" s="154"/>
-      <c r="AB33" s="154"/>
-      <c r="AC33" s="154"/>
-      <c r="AD33" s="139" t="s">
+      <c r="AA33" s="156"/>
+      <c r="AB33" s="156"/>
+      <c r="AC33" s="156"/>
+      <c r="AD33" s="141" t="s">
         <v>145</v>
       </c>
-      <c r="AE33" s="139"/>
-      <c r="AF33" s="139"/>
-      <c r="AG33" s="139"/>
-      <c r="AH33" s="139"/>
-      <c r="AI33" s="139"/>
-      <c r="AJ33" s="139"/>
-      <c r="AK33" s="139"/>
-      <c r="AL33" s="139"/>
-      <c r="AM33" s="139"/>
-      <c r="AN33" s="139"/>
-      <c r="AO33" s="139"/>
-      <c r="AP33" s="139"/>
-      <c r="AQ33" s="139"/>
-      <c r="AR33" s="139"/>
-      <c r="AS33" s="139"/>
-      <c r="AT33" s="139"/>
-      <c r="AU33" s="139"/>
-      <c r="AV33" s="139"/>
-      <c r="AW33" s="139"/>
-      <c r="AX33" s="141" t="s">
-        <v>443</v>
-      </c>
-      <c r="AY33" s="141"/>
-      <c r="AZ33" s="141"/>
-      <c r="BA33" s="141"/>
-      <c r="BB33" s="138" t="s">
-        <v>776</v>
-      </c>
-      <c r="BC33" s="138"/>
-      <c r="BD33" s="138"/>
-      <c r="BE33" s="138"/>
+      <c r="AE33" s="141"/>
+      <c r="AF33" s="141"/>
+      <c r="AG33" s="141"/>
+      <c r="AH33" s="141"/>
+      <c r="AI33" s="141"/>
+      <c r="AJ33" s="141"/>
+      <c r="AK33" s="141"/>
+      <c r="AL33" s="141"/>
+      <c r="AM33" s="141"/>
+      <c r="AN33" s="141"/>
+      <c r="AO33" s="141"/>
+      <c r="AP33" s="141"/>
+      <c r="AQ33" s="141"/>
+      <c r="AR33" s="141"/>
+      <c r="AS33" s="141"/>
+      <c r="AT33" s="141"/>
+      <c r="AU33" s="141"/>
+      <c r="AV33" s="141"/>
+      <c r="AW33" s="141"/>
+      <c r="AX33" s="143" t="s">
+        <v>441</v>
+      </c>
+      <c r="AY33" s="143"/>
+      <c r="AZ33" s="143"/>
+      <c r="BA33" s="143"/>
+      <c r="BB33" s="140" t="s">
+        <v>774</v>
+      </c>
+      <c r="BC33" s="140"/>
+      <c r="BD33" s="140"/>
+      <c r="BE33" s="140"/>
       <c r="BF33" s="17"/>
     </row>
     <row r="34" spans="1:64" x14ac:dyDescent="0.15">
@@ -23443,482 +23727,482 @@
     </row>
     <row r="36" spans="1:64" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="48" t="s">
-        <v>616</v>
-      </c>
-      <c r="C36" s="144" t="s">
+        <v>614</v>
+      </c>
+      <c r="C36" s="146" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="145"/>
-      <c r="E36" s="145"/>
-      <c r="F36" s="146" t="s">
-        <v>660</v>
-      </c>
-      <c r="G36" s="147"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147" t="s">
+      <c r="D36" s="147"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="148" t="s">
+        <v>658</v>
+      </c>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="J36" s="146" t="s">
-        <v>582</v>
-      </c>
-      <c r="K36" s="147"/>
-      <c r="L36" s="147"/>
-      <c r="M36" s="147" t="s">
+      <c r="J36" s="148" t="s">
+        <v>580</v>
+      </c>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="N36" s="146" t="s">
+      <c r="N36" s="148" t="s">
         <v>117</v>
       </c>
-      <c r="O36" s="147"/>
-      <c r="P36" s="147"/>
-      <c r="Q36" s="147" t="s">
+      <c r="O36" s="149"/>
+      <c r="P36" s="149"/>
+      <c r="Q36" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="R36" s="147" t="s">
-        <v>527</v>
-      </c>
-      <c r="S36" s="147"/>
-      <c r="T36" s="147"/>
-      <c r="U36" s="147" t="s">
+      <c r="R36" s="149" t="s">
+        <v>525</v>
+      </c>
+      <c r="S36" s="149"/>
+      <c r="T36" s="149"/>
+      <c r="U36" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="V36" s="147" t="s">
-        <v>513</v>
-      </c>
-      <c r="W36" s="147"/>
-      <c r="X36" s="147"/>
-      <c r="Y36" s="150" t="s">
+      <c r="V36" s="149" t="s">
+        <v>511</v>
+      </c>
+      <c r="W36" s="149"/>
+      <c r="X36" s="149"/>
+      <c r="Y36" s="152" t="s">
         <v>78</v>
       </c>
-      <c r="Z36" s="150" t="s">
-        <v>697</v>
-      </c>
-      <c r="AA36" s="150"/>
-      <c r="AB36" s="150"/>
-      <c r="AC36" s="140" t="s">
+      <c r="Z36" s="152" t="s">
+        <v>695</v>
+      </c>
+      <c r="AA36" s="152"/>
+      <c r="AB36" s="152"/>
+      <c r="AC36" s="142" t="s">
         <v>78</v>
       </c>
-      <c r="AD36" s="151" t="s">
-        <v>666</v>
-      </c>
-      <c r="AE36" s="139"/>
-      <c r="AF36" s="139"/>
-      <c r="AG36" s="140" t="s">
+      <c r="AD36" s="153" t="s">
+        <v>664</v>
+      </c>
+      <c r="AE36" s="141"/>
+      <c r="AF36" s="141"/>
+      <c r="AG36" s="142" t="s">
         <v>78</v>
       </c>
-      <c r="AH36" s="153" t="s">
-        <v>664</v>
-      </c>
-      <c r="AI36" s="140"/>
-      <c r="AJ36" s="140"/>
-      <c r="AK36" s="140" t="s">
+      <c r="AH36" s="155" t="s">
+        <v>662</v>
+      </c>
+      <c r="AI36" s="142"/>
+      <c r="AJ36" s="142"/>
+      <c r="AK36" s="142" t="s">
         <v>95</v>
       </c>
-      <c r="AL36" s="140">
+      <c r="AL36" s="142">
         <v>1</v>
       </c>
-      <c r="AM36" s="140"/>
-      <c r="AN36" s="140"/>
-      <c r="AO36" s="140" t="s">
+      <c r="AM36" s="142"/>
+      <c r="AN36" s="142"/>
+      <c r="AO36" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="AP36" s="140" t="s">
-        <v>526</v>
-      </c>
-      <c r="AQ36" s="140"/>
-      <c r="AR36" s="140"/>
-      <c r="AS36" s="140" t="s">
+      <c r="AP36" s="142" t="s">
+        <v>524</v>
+      </c>
+      <c r="AQ36" s="142"/>
+      <c r="AR36" s="142"/>
+      <c r="AS36" s="142" t="s">
         <v>144</v>
       </c>
-      <c r="AT36" s="140" t="s">
-        <v>525</v>
-      </c>
-      <c r="AU36" s="140"/>
-      <c r="AV36" s="140"/>
-      <c r="AW36" s="140" t="s">
+      <c r="AT36" s="142" t="s">
+        <v>523</v>
+      </c>
+      <c r="AU36" s="142"/>
+      <c r="AV36" s="142"/>
+      <c r="AW36" s="142" t="s">
         <v>149</v>
       </c>
-      <c r="AX36" s="140" t="s">
-        <v>524</v>
-      </c>
-      <c r="AY36" s="140"/>
-      <c r="AZ36" s="140"/>
-      <c r="BA36" s="140" t="s">
+      <c r="AX36" s="142" t="s">
+        <v>522</v>
+      </c>
+      <c r="AY36" s="142"/>
+      <c r="AZ36" s="142"/>
+      <c r="BA36" s="142" t="s">
         <v>214</v>
       </c>
-      <c r="BB36" s="140" t="s">
-        <v>523</v>
-      </c>
-      <c r="BC36" s="140"/>
-      <c r="BD36" s="140"/>
-      <c r="BE36" s="141" t="s">
+      <c r="BB36" s="142" t="s">
+        <v>521</v>
+      </c>
+      <c r="BC36" s="142"/>
+      <c r="BD36" s="142"/>
+      <c r="BE36" s="143" t="s">
         <v>102</v>
       </c>
-      <c r="BF36" s="141" t="s">
-        <v>522</v>
-      </c>
-      <c r="BG36" s="141"/>
-      <c r="BH36" s="141"/>
-      <c r="BI36" s="138" t="s">
-        <v>769</v>
-      </c>
-      <c r="BJ36" s="138" t="s">
-        <v>775</v>
-      </c>
-      <c r="BK36" s="138"/>
-      <c r="BL36" s="138"/>
+      <c r="BF36" s="143" t="s">
+        <v>520</v>
+      </c>
+      <c r="BG36" s="143"/>
+      <c r="BH36" s="143"/>
+      <c r="BI36" s="140" t="s">
+        <v>767</v>
+      </c>
+      <c r="BJ36" s="140" t="s">
+        <v>773</v>
+      </c>
+      <c r="BK36" s="140"/>
+      <c r="BL36" s="140"/>
     </row>
     <row r="37" spans="1:64" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
-      <c r="C37" s="145"/>
-      <c r="D37" s="145"/>
-      <c r="E37" s="145"/>
-      <c r="F37" s="147"/>
-      <c r="G37" s="147"/>
-      <c r="H37" s="147"/>
-      <c r="I37" s="147"/>
-      <c r="J37" s="147"/>
-      <c r="K37" s="147"/>
-      <c r="L37" s="147"/>
-      <c r="M37" s="147"/>
-      <c r="N37" s="147"/>
-      <c r="O37" s="147"/>
-      <c r="P37" s="147"/>
-      <c r="Q37" s="147"/>
-      <c r="R37" s="147"/>
-      <c r="S37" s="147"/>
-      <c r="T37" s="147"/>
-      <c r="U37" s="147"/>
-      <c r="V37" s="147"/>
-      <c r="W37" s="147"/>
-      <c r="X37" s="147"/>
-      <c r="Y37" s="150"/>
-      <c r="Z37" s="150"/>
-      <c r="AA37" s="150"/>
-      <c r="AB37" s="150"/>
-      <c r="AC37" s="140"/>
-      <c r="AD37" s="139"/>
-      <c r="AE37" s="139"/>
-      <c r="AF37" s="139"/>
-      <c r="AG37" s="140"/>
-      <c r="AH37" s="140"/>
-      <c r="AI37" s="140"/>
-      <c r="AJ37" s="140"/>
-      <c r="AK37" s="140"/>
-      <c r="AL37" s="140"/>
-      <c r="AM37" s="140"/>
-      <c r="AN37" s="140"/>
-      <c r="AO37" s="140"/>
-      <c r="AP37" s="140"/>
-      <c r="AQ37" s="140"/>
-      <c r="AR37" s="140"/>
-      <c r="AS37" s="140"/>
-      <c r="AT37" s="140"/>
-      <c r="AU37" s="140"/>
-      <c r="AV37" s="140"/>
-      <c r="AW37" s="140"/>
-      <c r="AX37" s="140"/>
-      <c r="AY37" s="140"/>
-      <c r="AZ37" s="140"/>
-      <c r="BA37" s="140"/>
-      <c r="BB37" s="140"/>
-      <c r="BC37" s="140"/>
-      <c r="BD37" s="140"/>
-      <c r="BE37" s="141"/>
-      <c r="BF37" s="141"/>
-      <c r="BG37" s="141"/>
-      <c r="BH37" s="141"/>
-      <c r="BI37" s="138"/>
-      <c r="BJ37" s="138"/>
-      <c r="BK37" s="138"/>
-      <c r="BL37" s="138"/>
+      <c r="C37" s="147"/>
+      <c r="D37" s="147"/>
+      <c r="E37" s="147"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
+      <c r="N37" s="149"/>
+      <c r="O37" s="149"/>
+      <c r="P37" s="149"/>
+      <c r="Q37" s="149"/>
+      <c r="R37" s="149"/>
+      <c r="S37" s="149"/>
+      <c r="T37" s="149"/>
+      <c r="U37" s="149"/>
+      <c r="V37" s="149"/>
+      <c r="W37" s="149"/>
+      <c r="X37" s="149"/>
+      <c r="Y37" s="152"/>
+      <c r="Z37" s="152"/>
+      <c r="AA37" s="152"/>
+      <c r="AB37" s="152"/>
+      <c r="AC37" s="142"/>
+      <c r="AD37" s="141"/>
+      <c r="AE37" s="141"/>
+      <c r="AF37" s="141"/>
+      <c r="AG37" s="142"/>
+      <c r="AH37" s="142"/>
+      <c r="AI37" s="142"/>
+      <c r="AJ37" s="142"/>
+      <c r="AK37" s="142"/>
+      <c r="AL37" s="142"/>
+      <c r="AM37" s="142"/>
+      <c r="AN37" s="142"/>
+      <c r="AO37" s="142"/>
+      <c r="AP37" s="142"/>
+      <c r="AQ37" s="142"/>
+      <c r="AR37" s="142"/>
+      <c r="AS37" s="142"/>
+      <c r="AT37" s="142"/>
+      <c r="AU37" s="142"/>
+      <c r="AV37" s="142"/>
+      <c r="AW37" s="142"/>
+      <c r="AX37" s="142"/>
+      <c r="AY37" s="142"/>
+      <c r="AZ37" s="142"/>
+      <c r="BA37" s="142"/>
+      <c r="BB37" s="142"/>
+      <c r="BC37" s="142"/>
+      <c r="BD37" s="142"/>
+      <c r="BE37" s="143"/>
+      <c r="BF37" s="143"/>
+      <c r="BG37" s="143"/>
+      <c r="BH37" s="143"/>
+      <c r="BI37" s="140"/>
+      <c r="BJ37" s="140"/>
+      <c r="BK37" s="140"/>
+      <c r="BL37" s="140"/>
     </row>
     <row r="38" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
-        <v>653</v>
-      </c>
-      <c r="C38" s="145"/>
-      <c r="D38" s="145"/>
-      <c r="E38" s="145"/>
-      <c r="F38" s="147"/>
-      <c r="G38" s="147"/>
-      <c r="H38" s="147"/>
-      <c r="I38" s="147"/>
-      <c r="J38" s="147"/>
-      <c r="K38" s="147"/>
-      <c r="L38" s="147"/>
-      <c r="M38" s="147"/>
-      <c r="N38" s="147"/>
-      <c r="O38" s="147"/>
-      <c r="P38" s="147"/>
-      <c r="Q38" s="147"/>
-      <c r="R38" s="147"/>
-      <c r="S38" s="147"/>
-      <c r="T38" s="147"/>
-      <c r="U38" s="147"/>
-      <c r="V38" s="147"/>
-      <c r="W38" s="147"/>
-      <c r="X38" s="147"/>
-      <c r="Y38" s="150"/>
-      <c r="Z38" s="150"/>
-      <c r="AA38" s="150"/>
-      <c r="AB38" s="150"/>
-      <c r="AC38" s="140"/>
-      <c r="AD38" s="139"/>
-      <c r="AE38" s="139"/>
-      <c r="AF38" s="139"/>
-      <c r="AG38" s="140"/>
-      <c r="AH38" s="140"/>
-      <c r="AI38" s="140"/>
-      <c r="AJ38" s="140"/>
-      <c r="AK38" s="140"/>
-      <c r="AL38" s="140"/>
-      <c r="AM38" s="140"/>
-      <c r="AN38" s="140"/>
-      <c r="AO38" s="140"/>
-      <c r="AP38" s="140"/>
-      <c r="AQ38" s="140"/>
-      <c r="AR38" s="140"/>
-      <c r="AS38" s="140"/>
-      <c r="AT38" s="140"/>
-      <c r="AU38" s="140"/>
-      <c r="AV38" s="140"/>
-      <c r="AW38" s="140"/>
-      <c r="AX38" s="140"/>
-      <c r="AY38" s="140"/>
-      <c r="AZ38" s="140"/>
-      <c r="BA38" s="140"/>
-      <c r="BB38" s="140"/>
-      <c r="BC38" s="140"/>
-      <c r="BD38" s="140"/>
-      <c r="BE38" s="141"/>
-      <c r="BF38" s="141"/>
-      <c r="BG38" s="141"/>
-      <c r="BH38" s="141"/>
-      <c r="BI38" s="138"/>
-      <c r="BJ38" s="138"/>
-      <c r="BK38" s="138"/>
-      <c r="BL38" s="138"/>
+        <v>651</v>
+      </c>
+      <c r="C38" s="147"/>
+      <c r="D38" s="147"/>
+      <c r="E38" s="147"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
+      <c r="N38" s="149"/>
+      <c r="O38" s="149"/>
+      <c r="P38" s="149"/>
+      <c r="Q38" s="149"/>
+      <c r="R38" s="149"/>
+      <c r="S38" s="149"/>
+      <c r="T38" s="149"/>
+      <c r="U38" s="149"/>
+      <c r="V38" s="149"/>
+      <c r="W38" s="149"/>
+      <c r="X38" s="149"/>
+      <c r="Y38" s="152"/>
+      <c r="Z38" s="152"/>
+      <c r="AA38" s="152"/>
+      <c r="AB38" s="152"/>
+      <c r="AC38" s="142"/>
+      <c r="AD38" s="141"/>
+      <c r="AE38" s="141"/>
+      <c r="AF38" s="141"/>
+      <c r="AG38" s="142"/>
+      <c r="AH38" s="142"/>
+      <c r="AI38" s="142"/>
+      <c r="AJ38" s="142"/>
+      <c r="AK38" s="142"/>
+      <c r="AL38" s="142"/>
+      <c r="AM38" s="142"/>
+      <c r="AN38" s="142"/>
+      <c r="AO38" s="142"/>
+      <c r="AP38" s="142"/>
+      <c r="AQ38" s="142"/>
+      <c r="AR38" s="142"/>
+      <c r="AS38" s="142"/>
+      <c r="AT38" s="142"/>
+      <c r="AU38" s="142"/>
+      <c r="AV38" s="142"/>
+      <c r="AW38" s="142"/>
+      <c r="AX38" s="142"/>
+      <c r="AY38" s="142"/>
+      <c r="AZ38" s="142"/>
+      <c r="BA38" s="142"/>
+      <c r="BB38" s="142"/>
+      <c r="BC38" s="142"/>
+      <c r="BD38" s="142"/>
+      <c r="BE38" s="143"/>
+      <c r="BF38" s="143"/>
+      <c r="BG38" s="143"/>
+      <c r="BH38" s="143"/>
+      <c r="BI38" s="140"/>
+      <c r="BJ38" s="140"/>
+      <c r="BK38" s="140"/>
+      <c r="BL38" s="140"/>
     </row>
     <row r="39" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C39" s="145"/>
-      <c r="D39" s="145"/>
-      <c r="E39" s="145"/>
-      <c r="F39" s="147"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="147"/>
-      <c r="I39" s="147"/>
-      <c r="J39" s="147"/>
-      <c r="K39" s="147"/>
-      <c r="L39" s="147"/>
-      <c r="M39" s="147"/>
-      <c r="N39" s="147"/>
-      <c r="O39" s="147"/>
-      <c r="P39" s="147"/>
-      <c r="Q39" s="147"/>
-      <c r="R39" s="147"/>
-      <c r="S39" s="147"/>
-      <c r="T39" s="147"/>
-      <c r="U39" s="147"/>
-      <c r="V39" s="147"/>
-      <c r="W39" s="147"/>
-      <c r="X39" s="147"/>
-      <c r="Y39" s="150"/>
-      <c r="Z39" s="150"/>
-      <c r="AA39" s="150"/>
-      <c r="AB39" s="150"/>
-      <c r="AC39" s="140"/>
-      <c r="AD39" s="139"/>
-      <c r="AE39" s="139"/>
-      <c r="AF39" s="139"/>
-      <c r="AG39" s="140"/>
-      <c r="AH39" s="140"/>
-      <c r="AI39" s="140"/>
-      <c r="AJ39" s="140"/>
-      <c r="AK39" s="140"/>
-      <c r="AL39" s="140"/>
-      <c r="AM39" s="140"/>
-      <c r="AN39" s="140"/>
-      <c r="AO39" s="140"/>
-      <c r="AP39" s="140"/>
-      <c r="AQ39" s="140"/>
-      <c r="AR39" s="140"/>
-      <c r="AS39" s="140"/>
-      <c r="AT39" s="140"/>
-      <c r="AU39" s="140"/>
-      <c r="AV39" s="140"/>
-      <c r="AW39" s="140"/>
-      <c r="AX39" s="140"/>
-      <c r="AY39" s="140"/>
-      <c r="AZ39" s="140"/>
-      <c r="BA39" s="140"/>
-      <c r="BB39" s="140"/>
-      <c r="BC39" s="140"/>
-      <c r="BD39" s="140"/>
-      <c r="BE39" s="141"/>
-      <c r="BF39" s="141"/>
-      <c r="BG39" s="141"/>
-      <c r="BH39" s="141"/>
-      <c r="BI39" s="138"/>
-      <c r="BJ39" s="138"/>
-      <c r="BK39" s="138"/>
-      <c r="BL39" s="138"/>
+      <c r="C39" s="147"/>
+      <c r="D39" s="147"/>
+      <c r="E39" s="147"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
+      <c r="N39" s="149"/>
+      <c r="O39" s="149"/>
+      <c r="P39" s="149"/>
+      <c r="Q39" s="149"/>
+      <c r="R39" s="149"/>
+      <c r="S39" s="149"/>
+      <c r="T39" s="149"/>
+      <c r="U39" s="149"/>
+      <c r="V39" s="149"/>
+      <c r="W39" s="149"/>
+      <c r="X39" s="149"/>
+      <c r="Y39" s="152"/>
+      <c r="Z39" s="152"/>
+      <c r="AA39" s="152"/>
+      <c r="AB39" s="152"/>
+      <c r="AC39" s="142"/>
+      <c r="AD39" s="141"/>
+      <c r="AE39" s="141"/>
+      <c r="AF39" s="141"/>
+      <c r="AG39" s="142"/>
+      <c r="AH39" s="142"/>
+      <c r="AI39" s="142"/>
+      <c r="AJ39" s="142"/>
+      <c r="AK39" s="142"/>
+      <c r="AL39" s="142"/>
+      <c r="AM39" s="142"/>
+      <c r="AN39" s="142"/>
+      <c r="AO39" s="142"/>
+      <c r="AP39" s="142"/>
+      <c r="AQ39" s="142"/>
+      <c r="AR39" s="142"/>
+      <c r="AS39" s="142"/>
+      <c r="AT39" s="142"/>
+      <c r="AU39" s="142"/>
+      <c r="AV39" s="142"/>
+      <c r="AW39" s="142"/>
+      <c r="AX39" s="142"/>
+      <c r="AY39" s="142"/>
+      <c r="AZ39" s="142"/>
+      <c r="BA39" s="142"/>
+      <c r="BB39" s="142"/>
+      <c r="BC39" s="142"/>
+      <c r="BD39" s="142"/>
+      <c r="BE39" s="143"/>
+      <c r="BF39" s="143"/>
+      <c r="BG39" s="143"/>
+      <c r="BH39" s="143"/>
+      <c r="BI39" s="140"/>
+      <c r="BJ39" s="140"/>
+      <c r="BK39" s="140"/>
+      <c r="BL39" s="140"/>
     </row>
     <row r="40" spans="1:64" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F40" s="147" t="s">
-        <v>545</v>
-      </c>
-      <c r="G40" s="147"/>
-      <c r="H40" s="147"/>
-      <c r="I40" s="147"/>
-      <c r="J40" s="147" t="s">
+      <c r="F40" s="149" t="s">
+        <v>543</v>
+      </c>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149" t="s">
         <v>79</v>
       </c>
-      <c r="K40" s="147"/>
-      <c r="L40" s="147"/>
-      <c r="M40" s="147"/>
-      <c r="N40" s="152" t="s">
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
+      <c r="N40" s="154" t="s">
         <v>107</v>
       </c>
-      <c r="O40" s="152"/>
-      <c r="P40" s="152"/>
-      <c r="Q40" s="147"/>
-      <c r="R40" s="147" t="s">
+      <c r="O40" s="154"/>
+      <c r="P40" s="154"/>
+      <c r="Q40" s="149"/>
+      <c r="R40" s="149" t="s">
         <v>100</v>
       </c>
-      <c r="S40" s="147"/>
-      <c r="T40" s="147"/>
-      <c r="U40" s="147"/>
-      <c r="V40" s="147" t="s">
+      <c r="S40" s="149"/>
+      <c r="T40" s="149"/>
+      <c r="U40" s="149"/>
+      <c r="V40" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="W40" s="147"/>
-      <c r="X40" s="147"/>
-      <c r="Y40" s="150"/>
-      <c r="Z40" s="150" t="s">
+      <c r="W40" s="149"/>
+      <c r="X40" s="149"/>
+      <c r="Y40" s="152"/>
+      <c r="Z40" s="152" t="s">
         <v>81</v>
       </c>
-      <c r="AA40" s="150"/>
-      <c r="AB40" s="150"/>
-      <c r="AC40" s="140"/>
-      <c r="AD40" s="140" t="s">
+      <c r="AA40" s="152"/>
+      <c r="AB40" s="152"/>
+      <c r="AC40" s="142"/>
+      <c r="AD40" s="142" t="s">
         <v>97</v>
       </c>
-      <c r="AE40" s="140"/>
-      <c r="AF40" s="140"/>
-      <c r="AG40" s="140"/>
-      <c r="AH40" s="151" t="s">
+      <c r="AE40" s="142"/>
+      <c r="AF40" s="142"/>
+      <c r="AG40" s="142"/>
+      <c r="AH40" s="153" t="s">
         <v>103</v>
       </c>
-      <c r="AI40" s="139"/>
-      <c r="AJ40" s="139"/>
-      <c r="AK40" s="140"/>
-      <c r="AL40" s="142"/>
-      <c r="AM40" s="142"/>
-      <c r="AN40" s="142"/>
-      <c r="AO40" s="140"/>
-      <c r="AP40" s="142" t="s">
+      <c r="AI40" s="141"/>
+      <c r="AJ40" s="141"/>
+      <c r="AK40" s="142"/>
+      <c r="AL40" s="144"/>
+      <c r="AM40" s="144"/>
+      <c r="AN40" s="144"/>
+      <c r="AO40" s="142"/>
+      <c r="AP40" s="144" t="s">
         <v>99</v>
       </c>
-      <c r="AQ40" s="142"/>
-      <c r="AR40" s="142"/>
-      <c r="AS40" s="140"/>
-      <c r="AT40" s="140" t="s">
+      <c r="AQ40" s="144"/>
+      <c r="AR40" s="144"/>
+      <c r="AS40" s="142"/>
+      <c r="AT40" s="142" t="s">
         <v>98</v>
       </c>
-      <c r="AU40" s="140"/>
-      <c r="AV40" s="140"/>
-      <c r="AW40" s="140"/>
-      <c r="AX40" s="140" t="s">
+      <c r="AU40" s="142"/>
+      <c r="AV40" s="142"/>
+      <c r="AW40" s="142"/>
+      <c r="AX40" s="142" t="s">
         <v>108</v>
       </c>
-      <c r="AY40" s="140"/>
-      <c r="AZ40" s="140"/>
-      <c r="BA40" s="140"/>
-      <c r="BB40" s="139" t="s">
+      <c r="AY40" s="142"/>
+      <c r="AZ40" s="142"/>
+      <c r="BA40" s="142"/>
+      <c r="BB40" s="141" t="s">
         <v>215</v>
       </c>
-      <c r="BC40" s="139"/>
-      <c r="BD40" s="139"/>
-      <c r="BE40" s="141"/>
-      <c r="BF40" s="141"/>
-      <c r="BG40" s="141"/>
-      <c r="BH40" s="141"/>
-      <c r="BI40" s="138"/>
-      <c r="BJ40" s="138"/>
-      <c r="BK40" s="138"/>
-      <c r="BL40" s="138"/>
+      <c r="BC40" s="141"/>
+      <c r="BD40" s="141"/>
+      <c r="BE40" s="143"/>
+      <c r="BF40" s="143"/>
+      <c r="BG40" s="143"/>
+      <c r="BH40" s="143"/>
+      <c r="BI40" s="140"/>
+      <c r="BJ40" s="140"/>
+      <c r="BK40" s="140"/>
+      <c r="BL40" s="140"/>
     </row>
     <row r="41" spans="1:64" x14ac:dyDescent="0.15">
-      <c r="F41" s="143" t="s">
+      <c r="F41" s="145" t="s">
         <v>146</v>
       </c>
-      <c r="G41" s="143"/>
-      <c r="H41" s="143"/>
-      <c r="I41" s="143"/>
-      <c r="J41" s="143"/>
-      <c r="K41" s="143"/>
-      <c r="L41" s="143"/>
-      <c r="M41" s="143"/>
-      <c r="N41" s="143"/>
-      <c r="O41" s="143"/>
-      <c r="P41" s="143"/>
-      <c r="Q41" s="143"/>
-      <c r="R41" s="143"/>
-      <c r="S41" s="143"/>
-      <c r="T41" s="143"/>
-      <c r="U41" s="143"/>
-      <c r="V41" s="143"/>
-      <c r="W41" s="143"/>
-      <c r="X41" s="143"/>
-      <c r="Y41" s="154" t="s">
+      <c r="G41" s="145"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="145"/>
+      <c r="J41" s="145"/>
+      <c r="K41" s="145"/>
+      <c r="L41" s="145"/>
+      <c r="M41" s="145"/>
+      <c r="N41" s="145"/>
+      <c r="O41" s="145"/>
+      <c r="P41" s="145"/>
+      <c r="Q41" s="145"/>
+      <c r="R41" s="145"/>
+      <c r="S41" s="145"/>
+      <c r="T41" s="145"/>
+      <c r="U41" s="145"/>
+      <c r="V41" s="145"/>
+      <c r="W41" s="145"/>
+      <c r="X41" s="145"/>
+      <c r="Y41" s="156" t="s">
         <v>148</v>
       </c>
-      <c r="Z41" s="154"/>
-      <c r="AA41" s="154"/>
-      <c r="AB41" s="154"/>
-      <c r="AC41" s="139" t="s">
+      <c r="Z41" s="156"/>
+      <c r="AA41" s="156"/>
+      <c r="AB41" s="156"/>
+      <c r="AC41" s="141" t="s">
         <v>145</v>
       </c>
-      <c r="AD41" s="139"/>
-      <c r="AE41" s="139"/>
-      <c r="AF41" s="139"/>
-      <c r="AG41" s="139"/>
-      <c r="AH41" s="139"/>
-      <c r="AI41" s="139"/>
-      <c r="AJ41" s="139"/>
-      <c r="AK41" s="139"/>
-      <c r="AL41" s="139"/>
-      <c r="AM41" s="139"/>
-      <c r="AN41" s="139"/>
-      <c r="AO41" s="139"/>
-      <c r="AP41" s="139"/>
-      <c r="AQ41" s="139"/>
-      <c r="AR41" s="139"/>
-      <c r="AS41" s="139"/>
-      <c r="AT41" s="139"/>
-      <c r="AU41" s="139"/>
-      <c r="AV41" s="139"/>
-      <c r="AW41" s="139"/>
-      <c r="AX41" s="139"/>
-      <c r="AY41" s="139"/>
-      <c r="AZ41" s="139"/>
-      <c r="BA41" s="139"/>
-      <c r="BB41" s="139"/>
-      <c r="BC41" s="139"/>
-      <c r="BD41" s="139"/>
-      <c r="BE41" s="141" t="s">
-        <v>443</v>
-      </c>
-      <c r="BF41" s="141"/>
-      <c r="BG41" s="141"/>
-      <c r="BH41" s="141"/>
-      <c r="BI41" s="138" t="s">
-        <v>776</v>
-      </c>
-      <c r="BJ41" s="138"/>
-      <c r="BK41" s="138"/>
-      <c r="BL41" s="138"/>
+      <c r="AD41" s="141"/>
+      <c r="AE41" s="141"/>
+      <c r="AF41" s="141"/>
+      <c r="AG41" s="141"/>
+      <c r="AH41" s="141"/>
+      <c r="AI41" s="141"/>
+      <c r="AJ41" s="141"/>
+      <c r="AK41" s="141"/>
+      <c r="AL41" s="141"/>
+      <c r="AM41" s="141"/>
+      <c r="AN41" s="141"/>
+      <c r="AO41" s="141"/>
+      <c r="AP41" s="141"/>
+      <c r="AQ41" s="141"/>
+      <c r="AR41" s="141"/>
+      <c r="AS41" s="141"/>
+      <c r="AT41" s="141"/>
+      <c r="AU41" s="141"/>
+      <c r="AV41" s="141"/>
+      <c r="AW41" s="141"/>
+      <c r="AX41" s="141"/>
+      <c r="AY41" s="141"/>
+      <c r="AZ41" s="141"/>
+      <c r="BA41" s="141"/>
+      <c r="BB41" s="141"/>
+      <c r="BC41" s="141"/>
+      <c r="BD41" s="141"/>
+      <c r="BE41" s="143" t="s">
+        <v>441</v>
+      </c>
+      <c r="BF41" s="143"/>
+      <c r="BG41" s="143"/>
+      <c r="BH41" s="143"/>
+      <c r="BI41" s="140" t="s">
+        <v>774</v>
+      </c>
+      <c r="BJ41" s="140"/>
+      <c r="BK41" s="140"/>
+      <c r="BL41" s="140"/>
     </row>
     <row r="42" spans="1:64" x14ac:dyDescent="0.15">
       <c r="F42" s="13"/>
@@ -24053,326 +24337,326 @@
       <c r="BK44" s="6"/>
     </row>
     <row r="45" spans="1:64" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C45" s="144" t="s">
+      <c r="C45" s="146" t="s">
         <v>112</v>
       </c>
-      <c r="D45" s="145"/>
-      <c r="E45" s="145"/>
-      <c r="F45" s="146" t="s">
-        <v>660</v>
-      </c>
-      <c r="G45" s="147"/>
-      <c r="H45" s="147"/>
-      <c r="I45" s="147" t="s">
+      <c r="D45" s="147"/>
+      <c r="E45" s="147"/>
+      <c r="F45" s="148" t="s">
+        <v>658</v>
+      </c>
+      <c r="G45" s="149"/>
+      <c r="H45" s="149"/>
+      <c r="I45" s="149" t="s">
         <v>113</v>
       </c>
-      <c r="J45" s="148" t="s">
+      <c r="J45" s="150" t="s">
         <v>117</v>
       </c>
-      <c r="K45" s="149"/>
-      <c r="L45" s="149"/>
-      <c r="M45" s="147" t="s">
+      <c r="K45" s="151"/>
+      <c r="L45" s="151"/>
+      <c r="M45" s="149" t="s">
         <v>95</v>
       </c>
-      <c r="N45" s="147" t="s">
+      <c r="N45" s="149" t="s">
+        <v>526</v>
+      </c>
+      <c r="O45" s="149"/>
+      <c r="P45" s="149"/>
+      <c r="Q45" s="149" t="s">
+        <v>96</v>
+      </c>
+      <c r="R45" s="145" t="s">
+        <v>527</v>
+      </c>
+      <c r="S45" s="145"/>
+      <c r="T45" s="145"/>
+      <c r="U45" s="152" t="s">
+        <v>113</v>
+      </c>
+      <c r="V45" s="152" t="s">
         <v>528</v>
       </c>
-      <c r="O45" s="147"/>
-      <c r="P45" s="147"/>
-      <c r="Q45" s="147" t="s">
+      <c r="W45" s="152"/>
+      <c r="X45" s="152"/>
+      <c r="Y45" s="142" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z45" s="142">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="142"/>
+      <c r="AB45" s="142"/>
+      <c r="AC45" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="R45" s="143" t="s">
+      <c r="AD45" s="142" t="s">
         <v>529</v>
       </c>
-      <c r="S45" s="143"/>
-      <c r="T45" s="143"/>
-      <c r="U45" s="150" t="s">
-        <v>113</v>
-      </c>
-      <c r="V45" s="150" t="s">
-        <v>530</v>
-      </c>
-      <c r="W45" s="150"/>
-      <c r="X45" s="150"/>
-      <c r="Y45" s="140" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z45" s="140">
-        <v>1</v>
-      </c>
-      <c r="AA45" s="140"/>
-      <c r="AB45" s="140"/>
-      <c r="AC45" s="140" t="s">
+      <c r="AE45" s="142"/>
+      <c r="AF45" s="142"/>
+      <c r="AG45" s="142" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH45" s="142" t="s">
+        <v>524</v>
+      </c>
+      <c r="AI45" s="142"/>
+      <c r="AJ45" s="142"/>
+      <c r="AK45" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="AD45" s="140" t="s">
-        <v>531</v>
-      </c>
-      <c r="AE45" s="140"/>
-      <c r="AF45" s="140"/>
-      <c r="AG45" s="140" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH45" s="140" t="s">
-        <v>526</v>
-      </c>
-      <c r="AI45" s="140"/>
-      <c r="AJ45" s="140"/>
-      <c r="AK45" s="140" t="s">
+      <c r="AL45" s="142" t="s">
+        <v>522</v>
+      </c>
+      <c r="AM45" s="142"/>
+      <c r="AN45" s="142"/>
+      <c r="AO45" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="AL45" s="140" t="s">
-        <v>524</v>
-      </c>
-      <c r="AM45" s="140"/>
-      <c r="AN45" s="140"/>
-      <c r="AO45" s="140" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP45" s="140" t="s">
-        <v>521</v>
-      </c>
-      <c r="AQ45" s="140"/>
-      <c r="AR45" s="140"/>
+      <c r="AP45" s="142" t="s">
+        <v>519</v>
+      </c>
+      <c r="AQ45" s="142"/>
+      <c r="AR45" s="142"/>
     </row>
     <row r="46" spans="1:64" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C46" s="145"/>
-      <c r="D46" s="145"/>
-      <c r="E46" s="145"/>
-      <c r="F46" s="147"/>
-      <c r="G46" s="147"/>
-      <c r="H46" s="147"/>
-      <c r="I46" s="147"/>
-      <c r="J46" s="149"/>
-      <c r="K46" s="149"/>
-      <c r="L46" s="149"/>
-      <c r="M46" s="147"/>
-      <c r="N46" s="147"/>
-      <c r="O46" s="147"/>
-      <c r="P46" s="147"/>
-      <c r="Q46" s="147"/>
-      <c r="R46" s="143"/>
-      <c r="S46" s="143"/>
-      <c r="T46" s="143"/>
-      <c r="U46" s="150"/>
-      <c r="V46" s="150"/>
-      <c r="W46" s="150"/>
-      <c r="X46" s="150"/>
-      <c r="Y46" s="140"/>
-      <c r="Z46" s="140"/>
-      <c r="AA46" s="140"/>
-      <c r="AB46" s="140"/>
-      <c r="AC46" s="140"/>
-      <c r="AD46" s="140"/>
-      <c r="AE46" s="140"/>
-      <c r="AF46" s="140"/>
-      <c r="AG46" s="140"/>
-      <c r="AH46" s="140"/>
-      <c r="AI46" s="140"/>
-      <c r="AJ46" s="140"/>
-      <c r="AK46" s="140"/>
-      <c r="AL46" s="140"/>
-      <c r="AM46" s="140"/>
-      <c r="AN46" s="140"/>
-      <c r="AO46" s="140"/>
-      <c r="AP46" s="140"/>
-      <c r="AQ46" s="140"/>
-      <c r="AR46" s="140"/>
+      <c r="C46" s="147"/>
+      <c r="D46" s="147"/>
+      <c r="E46" s="147"/>
+      <c r="F46" s="149"/>
+      <c r="G46" s="149"/>
+      <c r="H46" s="149"/>
+      <c r="I46" s="149"/>
+      <c r="J46" s="151"/>
+      <c r="K46" s="151"/>
+      <c r="L46" s="151"/>
+      <c r="M46" s="149"/>
+      <c r="N46" s="149"/>
+      <c r="O46" s="149"/>
+      <c r="P46" s="149"/>
+      <c r="Q46" s="149"/>
+      <c r="R46" s="145"/>
+      <c r="S46" s="145"/>
+      <c r="T46" s="145"/>
+      <c r="U46" s="152"/>
+      <c r="V46" s="152"/>
+      <c r="W46" s="152"/>
+      <c r="X46" s="152"/>
+      <c r="Y46" s="142"/>
+      <c r="Z46" s="142"/>
+      <c r="AA46" s="142"/>
+      <c r="AB46" s="142"/>
+      <c r="AC46" s="142"/>
+      <c r="AD46" s="142"/>
+      <c r="AE46" s="142"/>
+      <c r="AF46" s="142"/>
+      <c r="AG46" s="142"/>
+      <c r="AH46" s="142"/>
+      <c r="AI46" s="142"/>
+      <c r="AJ46" s="142"/>
+      <c r="AK46" s="142"/>
+      <c r="AL46" s="142"/>
+      <c r="AM46" s="142"/>
+      <c r="AN46" s="142"/>
+      <c r="AO46" s="142"/>
+      <c r="AP46" s="142"/>
+      <c r="AQ46" s="142"/>
+      <c r="AR46" s="142"/>
     </row>
     <row r="47" spans="1:64" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C47" s="145"/>
-      <c r="D47" s="145"/>
-      <c r="E47" s="145"/>
-      <c r="F47" s="147"/>
-      <c r="G47" s="147"/>
-      <c r="H47" s="147"/>
-      <c r="I47" s="147"/>
-      <c r="J47" s="149"/>
-      <c r="K47" s="149"/>
-      <c r="L47" s="149"/>
-      <c r="M47" s="147"/>
-      <c r="N47" s="147"/>
-      <c r="O47" s="147"/>
-      <c r="P47" s="147"/>
-      <c r="Q47" s="147"/>
-      <c r="R47" s="143"/>
-      <c r="S47" s="143"/>
-      <c r="T47" s="143"/>
-      <c r="U47" s="150"/>
-      <c r="V47" s="150"/>
-      <c r="W47" s="150"/>
-      <c r="X47" s="150"/>
-      <c r="Y47" s="140"/>
-      <c r="Z47" s="140"/>
-      <c r="AA47" s="140"/>
-      <c r="AB47" s="140"/>
-      <c r="AC47" s="140"/>
-      <c r="AD47" s="140"/>
-      <c r="AE47" s="140"/>
-      <c r="AF47" s="140"/>
-      <c r="AG47" s="140"/>
-      <c r="AH47" s="140"/>
-      <c r="AI47" s="140"/>
-      <c r="AJ47" s="140"/>
-      <c r="AK47" s="140"/>
-      <c r="AL47" s="140"/>
-      <c r="AM47" s="140"/>
-      <c r="AN47" s="140"/>
-      <c r="AO47" s="140"/>
-      <c r="AP47" s="140"/>
-      <c r="AQ47" s="140"/>
-      <c r="AR47" s="140"/>
+      <c r="C47" s="147"/>
+      <c r="D47" s="147"/>
+      <c r="E47" s="147"/>
+      <c r="F47" s="149"/>
+      <c r="G47" s="149"/>
+      <c r="H47" s="149"/>
+      <c r="I47" s="149"/>
+      <c r="J47" s="151"/>
+      <c r="K47" s="151"/>
+      <c r="L47" s="151"/>
+      <c r="M47" s="149"/>
+      <c r="N47" s="149"/>
+      <c r="O47" s="149"/>
+      <c r="P47" s="149"/>
+      <c r="Q47" s="149"/>
+      <c r="R47" s="145"/>
+      <c r="S47" s="145"/>
+      <c r="T47" s="145"/>
+      <c r="U47" s="152"/>
+      <c r="V47" s="152"/>
+      <c r="W47" s="152"/>
+      <c r="X47" s="152"/>
+      <c r="Y47" s="142"/>
+      <c r="Z47" s="142"/>
+      <c r="AA47" s="142"/>
+      <c r="AB47" s="142"/>
+      <c r="AC47" s="142"/>
+      <c r="AD47" s="142"/>
+      <c r="AE47" s="142"/>
+      <c r="AF47" s="142"/>
+      <c r="AG47" s="142"/>
+      <c r="AH47" s="142"/>
+      <c r="AI47" s="142"/>
+      <c r="AJ47" s="142"/>
+      <c r="AK47" s="142"/>
+      <c r="AL47" s="142"/>
+      <c r="AM47" s="142"/>
+      <c r="AN47" s="142"/>
+      <c r="AO47" s="142"/>
+      <c r="AP47" s="142"/>
+      <c r="AQ47" s="142"/>
+      <c r="AR47" s="142"/>
     </row>
     <row r="48" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C48" s="145"/>
-      <c r="D48" s="145"/>
-      <c r="E48" s="145"/>
-      <c r="F48" s="147"/>
-      <c r="G48" s="147"/>
-      <c r="H48" s="147"/>
-      <c r="I48" s="147"/>
-      <c r="J48" s="149"/>
-      <c r="K48" s="149"/>
-      <c r="L48" s="149"/>
-      <c r="M48" s="147"/>
-      <c r="N48" s="147"/>
-      <c r="O48" s="147"/>
-      <c r="P48" s="147"/>
-      <c r="Q48" s="147"/>
-      <c r="R48" s="143"/>
-      <c r="S48" s="143"/>
-      <c r="T48" s="143"/>
-      <c r="U48" s="150"/>
-      <c r="V48" s="150"/>
-      <c r="W48" s="150"/>
-      <c r="X48" s="150"/>
-      <c r="Y48" s="140"/>
-      <c r="Z48" s="140"/>
-      <c r="AA48" s="140"/>
-      <c r="AB48" s="140"/>
-      <c r="AC48" s="140"/>
-      <c r="AD48" s="140"/>
-      <c r="AE48" s="140"/>
-      <c r="AF48" s="140"/>
-      <c r="AG48" s="140"/>
-      <c r="AH48" s="140"/>
-      <c r="AI48" s="140"/>
-      <c r="AJ48" s="140"/>
-      <c r="AK48" s="140"/>
-      <c r="AL48" s="140"/>
-      <c r="AM48" s="140"/>
-      <c r="AN48" s="140"/>
-      <c r="AO48" s="140"/>
-      <c r="AP48" s="140"/>
-      <c r="AQ48" s="140"/>
-      <c r="AR48" s="140"/>
+      <c r="C48" s="147"/>
+      <c r="D48" s="147"/>
+      <c r="E48" s="147"/>
+      <c r="F48" s="149"/>
+      <c r="G48" s="149"/>
+      <c r="H48" s="149"/>
+      <c r="I48" s="149"/>
+      <c r="J48" s="151"/>
+      <c r="K48" s="151"/>
+      <c r="L48" s="151"/>
+      <c r="M48" s="149"/>
+      <c r="N48" s="149"/>
+      <c r="O48" s="149"/>
+      <c r="P48" s="149"/>
+      <c r="Q48" s="149"/>
+      <c r="R48" s="145"/>
+      <c r="S48" s="145"/>
+      <c r="T48" s="145"/>
+      <c r="U48" s="152"/>
+      <c r="V48" s="152"/>
+      <c r="W48" s="152"/>
+      <c r="X48" s="152"/>
+      <c r="Y48" s="142"/>
+      <c r="Z48" s="142"/>
+      <c r="AA48" s="142"/>
+      <c r="AB48" s="142"/>
+      <c r="AC48" s="142"/>
+      <c r="AD48" s="142"/>
+      <c r="AE48" s="142"/>
+      <c r="AF48" s="142"/>
+      <c r="AG48" s="142"/>
+      <c r="AH48" s="142"/>
+      <c r="AI48" s="142"/>
+      <c r="AJ48" s="142"/>
+      <c r="AK48" s="142"/>
+      <c r="AL48" s="142"/>
+      <c r="AM48" s="142"/>
+      <c r="AN48" s="142"/>
+      <c r="AO48" s="142"/>
+      <c r="AP48" s="142"/>
+      <c r="AQ48" s="142"/>
+      <c r="AR48" s="142"/>
     </row>
     <row r="49" spans="3:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F49" s="147" t="s">
-        <v>545</v>
-      </c>
-      <c r="G49" s="147"/>
-      <c r="H49" s="147"/>
-      <c r="I49" s="147"/>
-      <c r="J49" s="152" t="s">
+      <c r="F49" s="149" t="s">
+        <v>543</v>
+      </c>
+      <c r="G49" s="149"/>
+      <c r="H49" s="149"/>
+      <c r="I49" s="149"/>
+      <c r="J49" s="154" t="s">
         <v>107</v>
       </c>
-      <c r="K49" s="152"/>
-      <c r="L49" s="152"/>
-      <c r="M49" s="147"/>
-      <c r="N49" s="147" t="s">
+      <c r="K49" s="154"/>
+      <c r="L49" s="154"/>
+      <c r="M49" s="149"/>
+      <c r="N49" s="149" t="s">
         <v>100</v>
       </c>
-      <c r="O49" s="147"/>
-      <c r="P49" s="147"/>
-      <c r="Q49" s="147"/>
-      <c r="R49" s="143" t="s">
+      <c r="O49" s="149"/>
+      <c r="P49" s="149"/>
+      <c r="Q49" s="149"/>
+      <c r="R49" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="S49" s="143"/>
-      <c r="T49" s="143"/>
-      <c r="U49" s="150"/>
-      <c r="V49" s="150" t="s">
+      <c r="S49" s="145"/>
+      <c r="T49" s="145"/>
+      <c r="U49" s="152"/>
+      <c r="V49" s="152" t="s">
         <v>114</v>
       </c>
-      <c r="W49" s="150"/>
-      <c r="X49" s="150"/>
-      <c r="Y49" s="140"/>
-      <c r="Z49" s="140"/>
-      <c r="AA49" s="140"/>
-      <c r="AB49" s="140"/>
-      <c r="AC49" s="140"/>
-      <c r="AD49" s="140" t="s">
+      <c r="W49" s="152"/>
+      <c r="X49" s="152"/>
+      <c r="Y49" s="142"/>
+      <c r="Z49" s="142"/>
+      <c r="AA49" s="142"/>
+      <c r="AB49" s="142"/>
+      <c r="AC49" s="142"/>
+      <c r="AD49" s="142" t="s">
         <v>98</v>
       </c>
-      <c r="AE49" s="140"/>
-      <c r="AF49" s="140"/>
-      <c r="AG49" s="140"/>
-      <c r="AH49" s="140" t="s">
+      <c r="AE49" s="142"/>
+      <c r="AF49" s="142"/>
+      <c r="AG49" s="142"/>
+      <c r="AH49" s="142" t="s">
         <v>99</v>
       </c>
-      <c r="AI49" s="140"/>
-      <c r="AJ49" s="140"/>
-      <c r="AK49" s="140"/>
-      <c r="AL49" s="140" t="s">
+      <c r="AI49" s="142"/>
+      <c r="AJ49" s="142"/>
+      <c r="AK49" s="142"/>
+      <c r="AL49" s="142" t="s">
         <v>108</v>
       </c>
-      <c r="AM49" s="140"/>
-      <c r="AN49" s="140"/>
-      <c r="AO49" s="140"/>
-      <c r="AP49" s="139" t="s">
+      <c r="AM49" s="142"/>
+      <c r="AN49" s="142"/>
+      <c r="AO49" s="142"/>
+      <c r="AP49" s="141" t="s">
         <v>215</v>
       </c>
-      <c r="AQ49" s="139"/>
-      <c r="AR49" s="139"/>
+      <c r="AQ49" s="141"/>
+      <c r="AR49" s="141"/>
     </row>
     <row r="50" spans="3:54" x14ac:dyDescent="0.15">
-      <c r="F50" s="143" t="s">
+      <c r="F50" s="145" t="s">
         <v>146</v>
       </c>
-      <c r="G50" s="143"/>
-      <c r="H50" s="143"/>
-      <c r="I50" s="143"/>
-      <c r="J50" s="143"/>
-      <c r="K50" s="143"/>
-      <c r="L50" s="143"/>
-      <c r="M50" s="143"/>
-      <c r="N50" s="143"/>
-      <c r="O50" s="143"/>
-      <c r="P50" s="143"/>
-      <c r="Q50" s="143"/>
-      <c r="R50" s="143"/>
-      <c r="S50" s="143"/>
-      <c r="T50" s="143"/>
-      <c r="U50" s="154" t="s">
+      <c r="G50" s="145"/>
+      <c r="H50" s="145"/>
+      <c r="I50" s="145"/>
+      <c r="J50" s="145"/>
+      <c r="K50" s="145"/>
+      <c r="L50" s="145"/>
+      <c r="M50" s="145"/>
+      <c r="N50" s="145"/>
+      <c r="O50" s="145"/>
+      <c r="P50" s="145"/>
+      <c r="Q50" s="145"/>
+      <c r="R50" s="145"/>
+      <c r="S50" s="145"/>
+      <c r="T50" s="145"/>
+      <c r="U50" s="156" t="s">
         <v>148</v>
       </c>
-      <c r="V50" s="154"/>
-      <c r="W50" s="154"/>
-      <c r="X50" s="154"/>
-      <c r="Y50" s="139" t="s">
+      <c r="V50" s="156"/>
+      <c r="W50" s="156"/>
+      <c r="X50" s="156"/>
+      <c r="Y50" s="141" t="s">
         <v>145</v>
       </c>
-      <c r="Z50" s="139"/>
-      <c r="AA50" s="139"/>
-      <c r="AB50" s="139"/>
-      <c r="AC50" s="139"/>
-      <c r="AD50" s="139"/>
-      <c r="AE50" s="139"/>
-      <c r="AF50" s="139"/>
-      <c r="AG50" s="139"/>
-      <c r="AH50" s="139"/>
-      <c r="AI50" s="139"/>
-      <c r="AJ50" s="139"/>
-      <c r="AK50" s="139"/>
-      <c r="AL50" s="139"/>
-      <c r="AM50" s="139"/>
-      <c r="AN50" s="139"/>
-      <c r="AO50" s="139"/>
-      <c r="AP50" s="139"/>
-      <c r="AQ50" s="139"/>
-      <c r="AR50" s="139"/>
+      <c r="Z50" s="141"/>
+      <c r="AA50" s="141"/>
+      <c r="AB50" s="141"/>
+      <c r="AC50" s="141"/>
+      <c r="AD50" s="141"/>
+      <c r="AE50" s="141"/>
+      <c r="AF50" s="141"/>
+      <c r="AG50" s="141"/>
+      <c r="AH50" s="141"/>
+      <c r="AI50" s="141"/>
+      <c r="AJ50" s="141"/>
+      <c r="AK50" s="141"/>
+      <c r="AL50" s="141"/>
+      <c r="AM50" s="141"/>
+      <c r="AN50" s="141"/>
+      <c r="AO50" s="141"/>
+      <c r="AP50" s="141"/>
+      <c r="AQ50" s="141"/>
+      <c r="AR50" s="141"/>
     </row>
     <row r="51" spans="3:54" x14ac:dyDescent="0.15">
       <c r="AW51" s="3"/>
@@ -24431,55 +24715,55 @@
     </row>
     <row r="61" spans="3:54" x14ac:dyDescent="0.15">
       <c r="C61" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="62" spans="3:54" x14ac:dyDescent="0.15">
       <c r="D62" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="63" spans="3:54" x14ac:dyDescent="0.15">
       <c r="E63" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="64" spans="3:54" x14ac:dyDescent="0.15">
       <c r="F64" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="65" spans="5:8" x14ac:dyDescent="0.15">
       <c r="E65" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="66" spans="5:8" x14ac:dyDescent="0.15">
       <c r="F66" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="67" spans="5:8" x14ac:dyDescent="0.15">
       <c r="F67" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="69" spans="5:8" x14ac:dyDescent="0.15">
       <c r="E69" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="70" spans="5:8" x14ac:dyDescent="0.15">
       <c r="F70" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="71" spans="5:8" x14ac:dyDescent="0.15">
       <c r="F71" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -24855,86 +25139,86 @@
         <v>142</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>460</v>
-      </c>
       <c r="F44" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="45" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>464</v>
-      </c>
       <c r="F45" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="46" spans="1:45" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="47" spans="1:45" x14ac:dyDescent="0.15">
       <c r="C47" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="48" spans="1:45" x14ac:dyDescent="0.15">
       <c r="C48" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D50" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E51" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E52" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -24961,65 +25245,65 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105" t="s">
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105" t="s">
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="105" t="s">
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="107"/>
+      <c r="AB2" s="107"/>
+      <c r="AC2" s="107"/>
+      <c r="AD2" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="105"/>
-      <c r="AH2" s="105"/>
-      <c r="AI2" s="105"/>
-      <c r="AJ2" s="105" t="s">
+      <c r="AE2" s="107"/>
+      <c r="AF2" s="107"/>
+      <c r="AG2" s="107"/>
+      <c r="AH2" s="107"/>
+      <c r="AI2" s="107"/>
+      <c r="AJ2" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="AK2" s="105"/>
-      <c r="AL2" s="105"/>
-      <c r="AM2" s="105" t="s">
+      <c r="AK2" s="107"/>
+      <c r="AL2" s="107"/>
+      <c r="AM2" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="AN2" s="105"/>
-      <c r="AO2" s="105"/>
-      <c r="AP2" s="105"/>
-      <c r="AQ2" s="105"/>
-      <c r="AR2" s="105"/>
-      <c r="AS2" s="105"/>
-      <c r="AT2" s="105"/>
-      <c r="AU2" s="105"/>
-      <c r="AV2" s="105"/>
+      <c r="AN2" s="107"/>
+      <c r="AO2" s="107"/>
+      <c r="AP2" s="107"/>
+      <c r="AQ2" s="107"/>
+      <c r="AR2" s="107"/>
+      <c r="AS2" s="107"/>
+      <c r="AT2" s="107"/>
+      <c r="AU2" s="107"/>
+      <c r="AV2" s="107"/>
       <c r="AW2" s="4" t="s">
         <v>40</v>
       </c>

--- a/gd/数值规划/怪物属性配置及伤害公式.xlsx
+++ b/gd/数值规划/怪物属性配置及伤害公式.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="9" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="902">
   <si>
     <t>技能升级</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3479,129 +3479,145 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>加入速度随机波动机制（乱敏），给速度带来玩家rp的影响，可以有效的避免相同速度谁先出手的情况，并带来随机性</t>
+  </si>
+  <si>
+    <t>波动系数为一个区间内随机roll出的一个数字（保留四位小数，向下取整），如[0.9800,1.0200]，则为在0.9800和1.0200之间的一个数；（具体区间范围待定）</t>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设A，B出手随时间的变化为如下图所示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B计算出tb1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A计算出ta1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A计算出ta2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始会判定出ta1与tb1，并判定出A先出手，则时间轴运动至ta1位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当A在ta2修改了B的速度，规定B的速度不可向前超过时间轴，即tb2&gt;=t3,若判定改变后&lt;T3,则置Tb2=T3,此时B的速度条=（T3-Tb1）/(Tb2-Tb1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>置A的速度条=（t1-0）/（ta1-0），B的速度条=（t1-0）/（tb1-0），此时A出手，速度条置0，并判定下一次出手时间ta2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>判定b出手，则时间轴运动至tb1位置,置A的速度条=（t2-ta1）/（ta2-ta1）,B的速度条=（t2-0）/（tb1-0）,此时B出手，速度条置0，并判定下一次出手时间tb2,以此类推</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本应该</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>规定 该怪物下一次出手时间&gt;=时间轴时间，若不符合则置 该怪物下一次出手时间=时间轴时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度重构：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度重构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度条比例=（时间轴时间-该怪物上一次出手时间（未出过手则=0））/（该怪物下一次出手时间-该怪物上一次出手时间（未出过手则=0））</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>举例:当A怪物的速度为30，B怪的速度为20，若取k=120</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>则120/20*1.0000=6,120/30*1.1000=4.4,A先出手；A下次对比数字改变为4.4+120/30*0.9000=8,B出手；B下次对比数字改变为6+120/20*1.1000=12.6，A出手；A下次对比数字改变为8+120/30*1.1500=12.6，A出手；A下次对比数字改变为12.6+120/30*1.0000=16.6，B出手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设一个出手时间点（t1）=（大数K/速度*波动系数），数值最小的释放技能，释放技能后将该宠物的下次比大小判定数字置为（tn+K/速度*波动系数）其中tn=t1+t2+t3…+tn-1,再次比较大小，数值最小的释放技能；若大小相等，速度大的优先攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体流程见下：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度条比例公式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B计算出tb2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度条显示逻辑：战斗刚刚开始时判定怪物出手时间点最小的怪物速度条涨满（剩余宠物通过速度条比例公式置速度条比例，具体见下），怪物出手时间点最小值的怪物出手，速度条置零；判定下一个出手时间点最小的怪物重复上述操作；速度条最大比例为100%（超过100%也显示100%）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度计算调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示上一只怪物出手时间点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当玩家换怪或者怪物召唤新的怪物时，新上场的的怪物从上一只怪物出手时间点开始判定下一次出手的时间(即只需要计算场上怪物的出手，场下怪物不需要计算)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>B带有的吸收护盾</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>加入速度随机波动机制（乱敏），给速度带来玩家rp的影响，可以有效的避免相同速度谁先出手的情况，并带来随机性</t>
-  </si>
-  <si>
-    <t>波动系数为一个区间内随机roll出的一个数字（保留四位小数，向下取整），如[0.9800,1.0200]，则为在0.9800和1.0200之间的一个数；（具体区间范围待定）</t>
-  </si>
-  <si>
-    <t>t</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设A，B出手随时间的变化为如下图所示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B计算出tb1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A计算出ta1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A计算出ta2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗开始会判定出ta1与tb1，并判定出A先出手，则时间轴运动至ta1位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当A在ta2修改了B的速度，规定B的速度不可向前超过时间轴，即tb2&gt;=t3,若判定改变后&lt;T3,则置Tb2=T3,此时B的速度条=（T3-Tb1）/(Tb2-Tb1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>置A的速度条=（t1-0）/（ta1-0），B的速度条=（t1-0）/（tb1-0），此时A出手，速度条置0，并判定下一次出手时间ta2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>判定b出手，则时间轴运动至tb1位置,置A的速度条=（t2-ta1）/（ta2-ta1）,B的速度条=（t2-0）/（tb1-0）,此时B出手，速度条置0，并判定下一次出手时间tb2,以此类推</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>本应该</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>规定 该怪物下一次出手时间&gt;=时间轴时间，若不符合则置 该怪物下一次出手时间=时间轴时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度重构：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度重构</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度条比例=（时间轴时间-该怪物上一次出手时间（未出过手则=0））/（该怪物下一次出手时间-该怪物上一次出手时间（未出过手则=0））</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>举例:当A怪物的速度为30，B怪的速度为20，若取k=120</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>则120/20*1.0000=6,120/30*1.1000=4.4,A先出手；A下次对比数字改变为4.4+120/30*0.9000=8,B出手；B下次对比数字改变为6+120/20*1.1000=12.6，A出手；A下次对比数字改变为8+120/30*1.1500=12.6，A出手；A下次对比数字改变为12.6+120/30*1.0000=16.6，B出手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表示上一只怪物出手时间点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设一个出手时间点（t1）=（大数K/速度*波动系数），数值最小的释放技能，释放技能后将该宠物的下次比大小判定数字置为（tn+K/速度*波动系数）其中tn=t1+t2+t3…+tn-1,再次比较大小，数值最小的释放技能；若大小相等，速度大的优先攻击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体流程见下：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度条比例公式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B计算出tb2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度条显示逻辑：战斗刚刚开始时判定怪物出手时间点最小的怪物速度条涨满（剩余宠物通过速度条比例公式置速度条比例，具体见下），怪物出手时间点最小值的怪物出手，速度条置零；判定下一个出手时间点最小的怪物重复上述操作；速度条最大比例为100%（超过100%也显示100%）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度计算调整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5d</t>
+    <t>B带有的吸收护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊逻辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度：只有场上怪物需要计算出手</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4121,7 +4137,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4396,6 +4412,12 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4459,17 +4481,59 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4477,17 +4541,20 @@
     <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4501,52 +4568,52 @@
     <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4555,60 +4622,10 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6524,13 +6541,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>819151</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6573,7 +6590,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -6622,13 +6639,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>93110</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -6638,7 +6655,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6724650" y="6286500"/>
+          <a:off x="6724650" y="6496050"/>
           <a:ext cx="7210425" cy="1350410"/>
           <a:chOff x="6724650" y="6076950"/>
           <a:chExt cx="7210425" cy="1350410"/>
@@ -6911,13 +6928,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>7385</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -6927,7 +6944,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6553200" y="7934325"/>
+          <a:off x="6553200" y="8143875"/>
           <a:ext cx="7324725" cy="1712360"/>
           <a:chOff x="6610350" y="6076950"/>
           <a:chExt cx="7324725" cy="1712360"/>
@@ -7244,13 +7261,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>215614</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>131210</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7302,13 +7319,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>72739</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>45485</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7360,13 +7377,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7417,13 +7434,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7467,13 +7484,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>631893</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>207410</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7525,13 +7542,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>98493</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>83585</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7583,13 +7600,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>188360</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -7599,7 +7616,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6591300" y="9829800"/>
+          <a:off x="6591300" y="10039350"/>
           <a:ext cx="7324725" cy="1883810"/>
           <a:chOff x="6657975" y="9582150"/>
           <a:chExt cx="7324725" cy="1883810"/>
@@ -8185,13 +8202,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>74060</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8201,7 +8218,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6638925" y="12315825"/>
+          <a:off x="6638925" y="12525375"/>
           <a:ext cx="7324725" cy="2007635"/>
           <a:chOff x="6657975" y="9563100"/>
           <a:chExt cx="7324725" cy="2007635"/>
@@ -8787,13 +8804,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>112160</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8803,7 +8820,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15535275" y="12334875"/>
+          <a:off x="15535275" y="12544425"/>
           <a:ext cx="7324725" cy="2026685"/>
           <a:chOff x="6657975" y="9563100"/>
           <a:chExt cx="7324725" cy="2026685"/>
@@ -9389,13 +9406,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>37480</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>133971</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>624718</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>148466</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19963,10 +19980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -20166,17 +20183,17 @@
     </row>
     <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="58"/>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="102" t="s">
         <v>722</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="102" t="s">
+      <c r="C11" s="103"/>
+      <c r="D11" s="104" t="s">
         <v>723</v>
       </c>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="103"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="105"/>
       <c r="I11" s="59"/>
       <c r="J11" s="59"/>
       <c r="K11" s="59"/>
@@ -20191,11 +20208,11 @@
         <v>724</v>
       </c>
       <c r="C12" s="65"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="97"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="99"/>
       <c r="I12" s="59"/>
       <c r="J12" s="59"/>
       <c r="K12" s="59"/>
@@ -20210,11 +20227,11 @@
         <v>725</v>
       </c>
       <c r="C13" s="65"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="108"/>
       <c r="I13" s="59"/>
       <c r="J13" s="59"/>
       <c r="K13" s="59"/>
@@ -20229,11 +20246,11 @@
         <v>726</v>
       </c>
       <c r="C14" s="65"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="111"/>
       <c r="I14" s="59"/>
       <c r="J14" s="59"/>
       <c r="K14" s="59"/>
@@ -20250,11 +20267,11 @@
       <c r="C15" s="66" t="s">
         <v>728</v>
       </c>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="97"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="99"/>
       <c r="I15" s="59"/>
       <c r="J15" s="59"/>
       <c r="K15" s="59"/>
@@ -20269,11 +20286,11 @@
         <v>729</v>
       </c>
       <c r="C16" s="66"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="97"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="99"/>
       <c r="I16" s="59"/>
       <c r="J16" s="59"/>
       <c r="K16" s="59"/>
@@ -20288,11 +20305,11 @@
         <v>730</v>
       </c>
       <c r="C17" s="66"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="97"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="99"/>
       <c r="I17" s="59"/>
       <c r="J17" s="59"/>
       <c r="K17" s="59"/>
@@ -20307,11 +20324,11 @@
         <v>731</v>
       </c>
       <c r="C18" s="68"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="99"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="101"/>
       <c r="I18" s="59"/>
       <c r="J18" s="59"/>
       <c r="K18" s="59"/>
@@ -20702,7 +20719,7 @@
         <v>814</v>
       </c>
       <c r="H35" s="83" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I35" s="59"/>
       <c r="J35" s="59"/>
@@ -20712,28 +20729,22 @@
       <c r="N35" s="59"/>
       <c r="O35" s="59"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36" s="58" t="s">
-        <v>744</v>
-      </c>
-      <c r="B36" s="59" t="s">
-        <v>745</v>
-      </c>
-      <c r="C36" s="60" t="s">
-        <v>746</v>
-      </c>
-      <c r="D36" s="60" t="s">
-        <v>747</v>
-      </c>
-      <c r="E36" s="60" t="s">
-        <v>748</v>
-      </c>
+    <row r="36" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A36" s="59"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="167"/>
       <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="59"/>
+      <c r="G36" s="60" t="s">
+        <v>814</v>
+      </c>
+      <c r="H36" s="83" t="s">
+        <v>901</v>
+      </c>
       <c r="I36" s="59"/>
       <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
+      <c r="K36" s="83"/>
       <c r="L36" s="59"/>
       <c r="M36" s="59"/>
       <c r="N36" s="59"/>
@@ -20741,16 +20752,20 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="58" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="B37" s="59" t="s">
-        <v>743</v>
-      </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="63" t="s">
-        <v>757</v>
-      </c>
-      <c r="E37" s="63"/>
+        <v>745</v>
+      </c>
+      <c r="C37" s="60" t="s">
+        <v>746</v>
+      </c>
+      <c r="D37" s="60" t="s">
+        <v>747</v>
+      </c>
+      <c r="E37" s="60" t="s">
+        <v>748</v>
+      </c>
       <c r="F37" s="60"/>
       <c r="G37" s="60"/>
       <c r="H37" s="59"/>
@@ -20763,11 +20778,17 @@
       <c r="O37" s="59"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A38" s="58"/>
-      <c r="B38" s="58"/>
+      <c r="A38" s="58" t="s">
+        <v>756</v>
+      </c>
+      <c r="B38" s="59" t="s">
+        <v>743</v>
+      </c>
       <c r="C38" s="59"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
+      <c r="D38" s="63" t="s">
+        <v>757</v>
+      </c>
+      <c r="E38" s="63"/>
       <c r="F38" s="60"/>
       <c r="G38" s="60"/>
       <c r="H38" s="59"/>
@@ -20795,6 +20816,23 @@
       <c r="M39" s="59"/>
       <c r="N39" s="59"/>
       <c r="O39" s="59"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A40" s="58"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -20824,6 +20862,7 @@
     <hyperlink ref="H34" location="属性说明!G29" display="命中与暴击加入被动改变"/>
     <hyperlink ref="K34" location="属性说明!K33" display="位置2"/>
     <hyperlink ref="H35" location="属性说明!C22" display="速度重构"/>
+    <hyperlink ref="H36" location="属性说明!E29" display="速度：只有场上怪物需要计算出手"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20847,65 +20886,65 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113" t="s">
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113" t="s">
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113"/>
-      <c r="Y2" s="113"/>
-      <c r="Z2" s="113"/>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="113"/>
-      <c r="AD2" s="113" t="s">
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="115"/>
+      <c r="AD2" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="113"/>
-      <c r="AG2" s="113"/>
-      <c r="AH2" s="113"/>
-      <c r="AI2" s="113"/>
-      <c r="AJ2" s="113" t="s">
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="115"/>
+      <c r="AH2" s="115"/>
+      <c r="AI2" s="115"/>
+      <c r="AJ2" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="AK2" s="113"/>
-      <c r="AL2" s="113"/>
-      <c r="AM2" s="113" t="s">
+      <c r="AK2" s="115"/>
+      <c r="AL2" s="115"/>
+      <c r="AM2" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="AN2" s="113"/>
-      <c r="AO2" s="113"/>
-      <c r="AP2" s="113"/>
-      <c r="AQ2" s="113"/>
-      <c r="AR2" s="113"/>
-      <c r="AS2" s="113"/>
-      <c r="AT2" s="113"/>
-      <c r="AU2" s="113"/>
-      <c r="AV2" s="113"/>
+      <c r="AN2" s="115"/>
+      <c r="AO2" s="115"/>
+      <c r="AP2" s="115"/>
+      <c r="AQ2" s="115"/>
+      <c r="AR2" s="115"/>
+      <c r="AS2" s="115"/>
+      <c r="AT2" s="115"/>
+      <c r="AU2" s="115"/>
+      <c r="AV2" s="115"/>
       <c r="AW2" s="4" t="s">
         <v>40</v>
       </c>
@@ -22801,7 +22840,7 @@
       <c r="B173" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="F173" s="110" t="s">
+      <c r="F173" s="112" t="s">
         <v>441</v>
       </c>
       <c r="G173" s="49" t="s">
@@ -22812,7 +22851,7 @@
       </c>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="F174" s="111"/>
+      <c r="F174" s="113"/>
       <c r="G174" s="36" t="s">
         <v>332</v>
       </c>
@@ -22827,7 +22866,7 @@
       <c r="M174" s="41"/>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="F175" s="111"/>
+      <c r="F175" s="113"/>
       <c r="G175" s="36" t="s">
         <v>333</v>
       </c>
@@ -22840,7 +22879,7 @@
       <c r="L175" s="41"/>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="F176" s="111"/>
+      <c r="F176" s="113"/>
       <c r="G176" s="36" t="s">
         <v>334</v>
       </c>
@@ -22857,7 +22896,7 @@
       <c r="O176" s="32"/>
     </row>
     <row r="177" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F177" s="111"/>
+      <c r="F177" s="113"/>
       <c r="G177" s="36" t="s">
         <v>587</v>
       </c>
@@ -22874,7 +22913,7 @@
       <c r="O177" s="32"/>
     </row>
     <row r="178" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F178" s="111"/>
+      <c r="F178" s="113"/>
       <c r="G178" s="36" t="s">
         <v>580</v>
       </c>
@@ -22889,7 +22928,7 @@
       </c>
     </row>
     <row r="179" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F179" s="111"/>
+      <c r="F179" s="113"/>
       <c r="G179" s="36" t="s">
         <v>335</v>
       </c>
@@ -22904,7 +22943,7 @@
       </c>
     </row>
     <row r="180" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F180" s="111"/>
+      <c r="F180" s="113"/>
       <c r="G180" s="80" t="s">
         <v>631</v>
       </c>
@@ -22913,7 +22952,7 @@
       </c>
     </row>
     <row r="181" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F181" s="111"/>
+      <c r="F181" s="113"/>
       <c r="G181" s="80" t="s">
         <v>632</v>
       </c>
@@ -22929,7 +22968,7 @@
       <c r="N181" s="11"/>
     </row>
     <row r="182" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F182" s="111"/>
+      <c r="F182" s="113"/>
       <c r="G182" s="80" t="s">
         <v>636</v>
       </c>
@@ -22938,7 +22977,7 @@
       </c>
     </row>
     <row r="183" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F183" s="111"/>
+      <c r="F183" s="113"/>
       <c r="G183" s="80" t="s">
         <v>638</v>
       </c>
@@ -22947,7 +22986,7 @@
       </c>
     </row>
     <row r="184" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F184" s="112"/>
+      <c r="F184" s="114"/>
       <c r="G184" s="38" t="s">
         <v>588</v>
       </c>
@@ -23158,7 +23197,7 @@
         <v>366</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>367</v>
@@ -23765,15 +23804,15 @@
       <c r="V3" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="W3" s="114" t="s">
+      <c r="W3" s="116" t="s">
         <v>697</v>
       </c>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="114"/>
-      <c r="Z3" s="114"/>
-      <c r="AA3" s="114"/>
-      <c r="AB3" s="114"/>
-      <c r="AC3" s="114"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="116"/>
       <c r="AD3" s="74" t="s">
         <v>795</v>
       </c>
@@ -23852,15 +23891,15 @@
       <c r="V4" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="W4" s="115" t="s">
+      <c r="W4" s="117" t="s">
         <v>793</v>
       </c>
-      <c r="X4" s="115"/>
-      <c r="Y4" s="115"/>
-      <c r="Z4" s="115"/>
-      <c r="AA4" s="115"/>
-      <c r="AB4" s="115"/>
-      <c r="AC4" s="115"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="117"/>
+      <c r="Z4" s="117"/>
+      <c r="AA4" s="117"/>
+      <c r="AB4" s="117"/>
+      <c r="AC4" s="117"/>
       <c r="AD4" s="74" t="s">
         <v>798</v>
       </c>
@@ -23898,32 +23937,32 @@
       <c r="I5" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="J5" s="113" t="s">
+      <c r="J5" s="115" t="s">
         <v>784</v>
       </c>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="113"/>
-      <c r="U5" s="113"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="115"/>
+      <c r="T5" s="115"/>
+      <c r="U5" s="115"/>
       <c r="V5" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="W5" s="115" t="s">
+      <c r="W5" s="117" t="s">
         <v>792</v>
       </c>
-      <c r="X5" s="115"/>
-      <c r="Y5" s="115"/>
-      <c r="Z5" s="115"/>
-      <c r="AA5" s="115"/>
-      <c r="AB5" s="115"/>
-      <c r="AC5" s="115"/>
+      <c r="X5" s="117"/>
+      <c r="Y5" s="117"/>
+      <c r="Z5" s="117"/>
+      <c r="AA5" s="117"/>
+      <c r="AB5" s="117"/>
+      <c r="AC5" s="117"/>
       <c r="AD5" s="74" t="s">
         <v>794</v>
       </c>
@@ -24361,64 +24400,64 @@
       </c>
     </row>
     <row r="2" spans="1:50" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116" t="s">
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="116" t="s">
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="116"/>
-      <c r="W2" s="116"/>
-      <c r="X2" s="116"/>
-      <c r="Y2" s="116"/>
-      <c r="Z2" s="116"/>
-      <c r="AA2" s="116"/>
-      <c r="AB2" s="116"/>
-      <c r="AC2" s="116"/>
-      <c r="AD2" s="116"/>
-      <c r="AE2" s="116" t="s">
+      <c r="V2" s="118"/>
+      <c r="W2" s="118"/>
+      <c r="X2" s="118"/>
+      <c r="Y2" s="118"/>
+      <c r="Z2" s="118"/>
+      <c r="AA2" s="118"/>
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="118"/>
+      <c r="AD2" s="118"/>
+      <c r="AE2" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="AF2" s="116"/>
-      <c r="AG2" s="116"/>
-      <c r="AH2" s="116"/>
-      <c r="AI2" s="116"/>
-      <c r="AJ2" s="116"/>
-      <c r="AK2" s="116" t="s">
+      <c r="AF2" s="118"/>
+      <c r="AG2" s="118"/>
+      <c r="AH2" s="118"/>
+      <c r="AI2" s="118"/>
+      <c r="AJ2" s="118"/>
+      <c r="AK2" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="AL2" s="116"/>
-      <c r="AM2" s="116"/>
-      <c r="AN2" s="116" t="s">
+      <c r="AL2" s="118"/>
+      <c r="AM2" s="118"/>
+      <c r="AN2" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="AO2" s="116"/>
-      <c r="AP2" s="116"/>
-      <c r="AQ2" s="116"/>
-      <c r="AR2" s="116"/>
-      <c r="AS2" s="116"/>
-      <c r="AT2" s="116"/>
-      <c r="AU2" s="116"/>
-      <c r="AV2" s="116"/>
+      <c r="AO2" s="118"/>
+      <c r="AP2" s="118"/>
+      <c r="AQ2" s="118"/>
+      <c r="AR2" s="118"/>
+      <c r="AS2" s="118"/>
+      <c r="AT2" s="118"/>
+      <c r="AU2" s="118"/>
+      <c r="AV2" s="118"/>
       <c r="AW2" s="29" t="s">
         <v>40</v>
       </c>
@@ -24987,10 +25026,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW146"/>
+  <dimension ref="A1:AW147"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -25402,7 +25441,7 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C22" s="94" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D22" s="90"/>
       <c r="E22" s="90"/>
@@ -25435,7 +25474,7 @@
     <row r="23" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C23" s="94"/>
       <c r="D23" s="90" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E23" s="90"/>
       <c r="F23" s="90"/>
@@ -25467,7 +25506,7 @@
     <row r="24" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C24" s="90"/>
       <c r="D24" s="90" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E24" s="90"/>
       <c r="F24" s="90"/>
@@ -25499,7 +25538,7 @@
     <row r="25" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C25" s="90"/>
       <c r="D25" s="90" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E25" s="90"/>
       <c r="F25" s="90"/>
@@ -25531,7 +25570,7 @@
     <row r="26" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C26" s="90"/>
       <c r="D26" s="90" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E26" s="90"/>
       <c r="F26" s="90"/>
@@ -25563,7 +25602,7 @@
     <row r="27" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C27" s="90"/>
       <c r="D27" s="90" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E27" s="90"/>
       <c r="F27" s="90"/>
@@ -25594,7 +25633,9 @@
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
+      <c r="D28" s="90" t="s">
+        <v>900</v>
+      </c>
       <c r="E28" s="90"/>
       <c r="F28" s="90"/>
       <c r="G28" s="90"/>
@@ -25622,99 +25663,130 @@
       <c r="AC28" s="90"/>
       <c r="AD28" s="90"/>
     </row>
-    <row r="29" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="2" t="s">
-        <v>892</v>
-      </c>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="90"/>
+      <c r="T29" s="90"/>
+      <c r="U29" s="90"/>
+      <c r="V29" s="90"/>
+      <c r="W29" s="90"/>
+      <c r="X29" s="90"/>
+      <c r="Y29" s="90"/>
+      <c r="Z29" s="90"/>
+      <c r="AA29" s="90"/>
+      <c r="AB29" s="90"/>
+      <c r="AC29" s="90"/>
+      <c r="AD29" s="90"/>
     </row>
     <row r="30" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D30" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="31" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D31" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="K31" s="2" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D32" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>896</v>
+      </c>
+    </row>
     <row r="33" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C34" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>869</v>
-      </c>
-    </row>
+    <row r="34" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C35" s="2" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="36" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D37" s="2" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="38" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="N35" s="2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C36" s="2" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D38" s="2" t="s">
+        <v>873</v>
+      </c>
+    </row>
     <row r="39" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="40" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C42" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="43" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>868</v>
+      </c>
+    </row>
     <row r="44" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="45" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="46" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D47" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="48" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D48" s="2" t="s">
+        <v>876</v>
+      </c>
+    </row>
     <row r="49" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="50" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="51" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="52" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="N52" s="2" t="s">
-        <v>869</v>
-      </c>
-    </row>
+    <row r="52" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="53" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C53" s="2" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="54" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="N53" s="2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C54" s="2" t="s">
+        <v>889</v>
+      </c>
+    </row>
     <row r="55" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="56" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="57" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D57" s="2" t="s">
-        <v>878</v>
-      </c>
-    </row>
+    <row r="57" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="58" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D58" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D59" s="2" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E60" s="2" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="59" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E59" s="2" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="60" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="61" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="62" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="63" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -25724,59 +25796,30 @@
     <row r="67" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="68" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="69" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="70" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G70" s="165" t="s">
+    <row r="70" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="71" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G71" s="96" t="s">
+        <v>878</v>
+      </c>
+      <c r="T71" s="96" t="s">
         <v>879</v>
       </c>
-      <c r="T70" s="165" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="71" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="72" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D72" s="2" t="s">
-        <v>890</v>
-      </c>
-    </row>
+    </row>
+    <row r="72" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="73" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E73" s="2" t="s">
-        <v>884</v>
+      <c r="D73" s="2" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="74" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E74" s="2" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
-      <c r="U75" s="3"/>
-      <c r="V75" s="3"/>
-      <c r="W75" s="3"/>
-      <c r="X75" s="3"/>
-      <c r="Y75" s="3"/>
-      <c r="Z75" s="3"/>
-      <c r="AA75" s="3"/>
-      <c r="AB75" s="3"/>
-      <c r="AC75" s="3"/>
-      <c r="AD75" s="3"/>
+        <v>883</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E75" s="2" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C76" s="3"/>
@@ -25808,67 +25851,53 @@
       <c r="AC76" s="3"/>
       <c r="AD76" s="3"/>
     </row>
-    <row r="77" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="78" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="10" t="s">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3"/>
+      <c r="X77" s="3"/>
+      <c r="Y77" s="3"/>
+      <c r="Z77" s="3"/>
+      <c r="AA77" s="3"/>
+      <c r="AB77" s="3"/>
+      <c r="AC77" s="3"/>
+      <c r="AD77" s="3"/>
+    </row>
+    <row r="78" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="79" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="10" t="s">
         <v>575</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C79" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D79" s="3" t="s">
+    <row r="80" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D80" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="80" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="81" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="82" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
-      <c r="J82" s="13"/>
-      <c r="K82" s="13"/>
-      <c r="L82" s="13"/>
-      <c r="M82" s="13"/>
-      <c r="N82" s="13"/>
-      <c r="O82" s="13"/>
-      <c r="P82" s="13"/>
-      <c r="Q82" s="13"/>
-      <c r="R82" s="13"/>
-      <c r="S82" s="13"/>
-      <c r="T82" s="13"/>
-      <c r="U82" s="13"/>
-      <c r="V82" s="13"/>
-      <c r="W82" s="13"/>
-      <c r="X82" s="13"/>
-      <c r="Y82" s="13"/>
-      <c r="Z82" s="13"/>
-      <c r="AA82" s="13"/>
-      <c r="AB82" s="13"/>
-      <c r="AC82" s="13"/>
-      <c r="AD82" s="13"/>
-      <c r="AE82" s="13"/>
-      <c r="AF82" s="13"/>
-      <c r="AG82" s="13"/>
-      <c r="AH82" s="13"/>
-      <c r="AI82" s="13"/>
-      <c r="AJ82" s="13"/>
-      <c r="AK82" s="13"/>
-      <c r="AL82" s="13"/>
-      <c r="AM82" s="13"/>
-      <c r="AN82" s="13"/>
-      <c r="AO82" s="4"/>
-      <c r="AU82" s="4"/>
-      <c r="AV82" s="4"/>
-      <c r="AW82" s="4"/>
-    </row>
+    <row r="82" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="83" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="C83" s="9" t="s">
-        <v>184</v>
-      </c>
       <c r="F83" s="13"/>
       <c r="G83" s="13"/>
       <c r="H83" s="13"/>
@@ -25910,486 +25939,464 @@
       <c r="AW83" s="4"/>
     </row>
     <row r="84" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="C84" s="143" t="s">
+      <c r="C84" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="13"/>
+      <c r="N84" s="13"/>
+      <c r="O84" s="13"/>
+      <c r="P84" s="13"/>
+      <c r="Q84" s="13"/>
+      <c r="R84" s="13"/>
+      <c r="S84" s="13"/>
+      <c r="T84" s="13"/>
+      <c r="U84" s="13"/>
+      <c r="V84" s="13"/>
+      <c r="W84" s="13"/>
+      <c r="X84" s="13"/>
+      <c r="Y84" s="13"/>
+      <c r="Z84" s="13"/>
+      <c r="AA84" s="13"/>
+      <c r="AB84" s="13"/>
+      <c r="AC84" s="13"/>
+      <c r="AD84" s="13"/>
+      <c r="AE84" s="13"/>
+      <c r="AF84" s="13"/>
+      <c r="AG84" s="13"/>
+      <c r="AH84" s="13"/>
+      <c r="AI84" s="13"/>
+      <c r="AJ84" s="13"/>
+      <c r="AK84" s="13"/>
+      <c r="AL84" s="13"/>
+      <c r="AM84" s="13"/>
+      <c r="AN84" s="13"/>
+      <c r="AO84" s="4"/>
+      <c r="AU84" s="4"/>
+      <c r="AV84" s="4"/>
+      <c r="AW84" s="4"/>
+    </row>
+    <row r="85" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="C85" s="121" t="s">
         <v>149</v>
       </c>
-      <c r="D84" s="143"/>
-      <c r="E84" s="143" t="s">
+      <c r="D85" s="121"/>
+      <c r="E85" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="F84" s="143"/>
-      <c r="G84" s="143" t="s">
+      <c r="F85" s="121"/>
+      <c r="G85" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="H84" s="143"/>
-      <c r="I84" s="143" t="s">
+      <c r="H85" s="121"/>
+      <c r="I85" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="J84" s="143"/>
-      <c r="K84" s="143" t="s">
+      <c r="J85" s="121"/>
+      <c r="K85" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="L84" s="143"/>
-      <c r="M84" s="135" t="s">
+      <c r="L85" s="121"/>
+      <c r="M85" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="N84" s="135"/>
-      <c r="O84" s="135" t="s">
+      <c r="N85" s="127"/>
+      <c r="O85" s="127" t="s">
         <v>155</v>
       </c>
-      <c r="P84" s="135"/>
-      <c r="Q84" s="135" t="s">
+      <c r="P85" s="127"/>
+      <c r="Q85" s="127" t="s">
         <v>173</v>
       </c>
-      <c r="R84" s="135"/>
-      <c r="S84" s="135" t="s">
+      <c r="R85" s="127"/>
+      <c r="S85" s="127" t="s">
         <v>174</v>
       </c>
-      <c r="T84" s="135"/>
-      <c r="U84" s="135" t="s">
+      <c r="T85" s="127"/>
+      <c r="U85" s="127" t="s">
         <v>175</v>
       </c>
-      <c r="V84" s="135"/>
-      <c r="W84" s="135" t="s">
+      <c r="V85" s="127"/>
+      <c r="W85" s="127" t="s">
         <v>176</v>
       </c>
-      <c r="X84" s="135"/>
-      <c r="Y84" s="135" t="s">
+      <c r="X85" s="127"/>
+      <c r="Y85" s="127" t="s">
         <v>185</v>
       </c>
-      <c r="Z84" s="135"/>
-      <c r="AA84" s="135" t="s">
+      <c r="Z85" s="127"/>
+      <c r="AA85" s="127" t="s">
         <v>205</v>
       </c>
-      <c r="AB84" s="135"/>
-      <c r="AC84" s="135" t="s">
+      <c r="AB85" s="127"/>
+      <c r="AC85" s="127" t="s">
         <v>156</v>
       </c>
-      <c r="AD84" s="135"/>
-      <c r="AE84" s="142" t="s">
+      <c r="AD85" s="127"/>
+      <c r="AE85" s="126" t="s">
         <v>157</v>
       </c>
-      <c r="AF84" s="142"/>
-    </row>
-    <row r="85" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="C85" s="140" t="s">
+      <c r="AF85" s="126"/>
+    </row>
+    <row r="86" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="C86" s="119" t="s">
         <v>159</v>
       </c>
-      <c r="D85" s="140"/>
-      <c r="E85" s="124" t="s">
+      <c r="D86" s="119"/>
+      <c r="E86" s="120" t="s">
         <v>849</v>
       </c>
-      <c r="F85" s="124"/>
-      <c r="G85" s="139" t="s">
+      <c r="F86" s="120"/>
+      <c r="G86" s="124" t="s">
         <v>850</v>
       </c>
-      <c r="H85" s="139"/>
-      <c r="I85" s="140"/>
-      <c r="J85" s="140"/>
-      <c r="K85" s="140"/>
-      <c r="L85" s="140"/>
-      <c r="M85" s="136"/>
-      <c r="N85" s="136"/>
-      <c r="O85" s="136"/>
-      <c r="P85" s="136"/>
-      <c r="Q85" s="136"/>
-      <c r="R85" s="136"/>
-      <c r="S85" s="136"/>
-      <c r="T85" s="136"/>
-      <c r="U85" s="136"/>
-      <c r="V85" s="136"/>
-      <c r="W85" s="136"/>
-      <c r="X85" s="136"/>
-      <c r="Y85" s="144"/>
-      <c r="Z85" s="145"/>
-      <c r="AA85" s="137"/>
-      <c r="AB85" s="138"/>
-      <c r="AC85" s="136" t="s">
+      <c r="H86" s="124"/>
+      <c r="I86" s="119"/>
+      <c r="J86" s="119"/>
+      <c r="K86" s="119"/>
+      <c r="L86" s="119"/>
+      <c r="M86" s="122"/>
+      <c r="N86" s="122"/>
+      <c r="O86" s="122"/>
+      <c r="P86" s="122"/>
+      <c r="Q86" s="122"/>
+      <c r="R86" s="122"/>
+      <c r="S86" s="122"/>
+      <c r="T86" s="122"/>
+      <c r="U86" s="122"/>
+      <c r="V86" s="122"/>
+      <c r="W86" s="122"/>
+      <c r="X86" s="122"/>
+      <c r="Y86" s="128"/>
+      <c r="Z86" s="129"/>
+      <c r="AA86" s="134"/>
+      <c r="AB86" s="135"/>
+      <c r="AC86" s="122" t="s">
         <v>160</v>
       </c>
-      <c r="AD85" s="136"/>
-      <c r="AE85" s="141" t="str">
-        <f>CONCATENATE(E85)</f>
+      <c r="AD86" s="122"/>
+      <c r="AE86" s="123" t="str">
+        <f>CONCATENATE(E86)</f>
         <v>怪物装备本身附加命中率</v>
       </c>
-      <c r="AF85" s="141"/>
-    </row>
-    <row r="86" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="17"/>
-      <c r="M86" s="20"/>
-      <c r="N86" s="20"/>
-      <c r="O86" s="20"/>
-      <c r="P86" s="20"/>
-      <c r="Q86" s="20"/>
-      <c r="R86" s="20"/>
-      <c r="S86" s="20"/>
-      <c r="T86" s="20"/>
-      <c r="U86" s="20"/>
-      <c r="V86" s="20"/>
-      <c r="W86" s="20"/>
-      <c r="X86" s="20"/>
-      <c r="Y86" s="20"/>
-      <c r="Z86" s="20"/>
-      <c r="AA86" s="20"/>
-      <c r="AB86" s="20"/>
-      <c r="AC86" s="20"/>
-      <c r="AD86" s="20"/>
-      <c r="AE86" s="21"/>
-      <c r="AF86" s="21"/>
-    </row>
-    <row r="87" spans="1:49" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C87" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="D87" s="23"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
+      <c r="AF86" s="123"/>
+    </row>
+    <row r="87" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
       <c r="G87" s="19"/>
       <c r="H87" s="19"/>
-      <c r="I87" s="23"/>
-      <c r="J87" s="23"/>
-      <c r="K87" s="23"/>
-      <c r="L87" s="23"/>
-      <c r="M87" s="25"/>
-      <c r="N87" s="25"/>
-      <c r="O87" s="25"/>
-      <c r="P87" s="25"/>
-      <c r="Q87" s="25"/>
-      <c r="R87" s="25"/>
-      <c r="S87" s="25"/>
-      <c r="T87" s="25"/>
-      <c r="U87" s="25"/>
-      <c r="V87" s="25"/>
-      <c r="W87" s="25"/>
-      <c r="X87" s="25"/>
-      <c r="Y87" s="25"/>
-      <c r="Z87" s="25"/>
-      <c r="AA87" s="25"/>
-      <c r="AB87" s="25"/>
-      <c r="AC87" s="25"/>
-      <c r="AD87" s="25"/>
-      <c r="AE87" s="26"/>
-      <c r="AF87" s="26"/>
-    </row>
-    <row r="88" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="C88" s="143" t="s">
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
+      <c r="M87" s="20"/>
+      <c r="N87" s="20"/>
+      <c r="O87" s="20"/>
+      <c r="P87" s="20"/>
+      <c r="Q87" s="20"/>
+      <c r="R87" s="20"/>
+      <c r="S87" s="20"/>
+      <c r="T87" s="20"/>
+      <c r="U87" s="20"/>
+      <c r="V87" s="20"/>
+      <c r="W87" s="20"/>
+      <c r="X87" s="20"/>
+      <c r="Y87" s="20"/>
+      <c r="Z87" s="20"/>
+      <c r="AA87" s="20"/>
+      <c r="AB87" s="20"/>
+      <c r="AC87" s="20"/>
+      <c r="AD87" s="20"/>
+      <c r="AE87" s="21"/>
+      <c r="AF87" s="21"/>
+    </row>
+    <row r="88" spans="1:49" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C88" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D88" s="23"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="23"/>
+      <c r="J88" s="23"/>
+      <c r="K88" s="23"/>
+      <c r="L88" s="23"/>
+      <c r="M88" s="25"/>
+      <c r="N88" s="25"/>
+      <c r="O88" s="25"/>
+      <c r="P88" s="25"/>
+      <c r="Q88" s="25"/>
+      <c r="R88" s="25"/>
+      <c r="S88" s="25"/>
+      <c r="T88" s="25"/>
+      <c r="U88" s="25"/>
+      <c r="V88" s="25"/>
+      <c r="W88" s="25"/>
+      <c r="X88" s="25"/>
+      <c r="Y88" s="25"/>
+      <c r="Z88" s="25"/>
+      <c r="AA88" s="25"/>
+      <c r="AB88" s="25"/>
+      <c r="AC88" s="25"/>
+      <c r="AD88" s="25"/>
+      <c r="AE88" s="26"/>
+      <c r="AF88" s="26"/>
+    </row>
+    <row r="89" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="C89" s="121" t="s">
         <v>149</v>
       </c>
-      <c r="D88" s="143"/>
-      <c r="E88" s="143" t="s">
+      <c r="D89" s="121"/>
+      <c r="E89" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="F88" s="143"/>
-      <c r="G88" s="143" t="s">
+      <c r="F89" s="121"/>
+      <c r="G89" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="H88" s="143"/>
-      <c r="I88" s="143" t="s">
+      <c r="H89" s="121"/>
+      <c r="I89" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="J88" s="143"/>
-      <c r="K88" s="143" t="s">
+      <c r="J89" s="121"/>
+      <c r="K89" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="L88" s="143"/>
-      <c r="M88" s="135" t="s">
+      <c r="L89" s="121"/>
+      <c r="M89" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="N88" s="135"/>
-      <c r="O88" s="135" t="s">
+      <c r="N89" s="127"/>
+      <c r="O89" s="127" t="s">
         <v>155</v>
       </c>
-      <c r="P88" s="135"/>
-      <c r="Q88" s="135" t="s">
+      <c r="P89" s="127"/>
+      <c r="Q89" s="127" t="s">
         <v>173</v>
       </c>
-      <c r="R88" s="135"/>
-      <c r="S88" s="135" t="s">
+      <c r="R89" s="127"/>
+      <c r="S89" s="127" t="s">
         <v>174</v>
       </c>
-      <c r="T88" s="135"/>
-      <c r="U88" s="135" t="s">
+      <c r="T89" s="127"/>
+      <c r="U89" s="127" t="s">
         <v>175</v>
       </c>
-      <c r="V88" s="135"/>
-      <c r="W88" s="135" t="s">
+      <c r="V89" s="127"/>
+      <c r="W89" s="127" t="s">
         <v>176</v>
       </c>
-      <c r="X88" s="135"/>
-      <c r="Y88" s="135" t="s">
+      <c r="X89" s="127"/>
+      <c r="Y89" s="127" t="s">
         <v>185</v>
       </c>
-      <c r="Z88" s="135"/>
-      <c r="AA88" s="135" t="s">
+      <c r="Z89" s="127"/>
+      <c r="AA89" s="127" t="s">
         <v>205</v>
       </c>
-      <c r="AB88" s="135"/>
-      <c r="AC88" s="135" t="s">
+      <c r="AB89" s="127"/>
+      <c r="AC89" s="127" t="s">
         <v>156</v>
       </c>
-      <c r="AD88" s="135"/>
-      <c r="AE88" s="142" t="s">
+      <c r="AD89" s="127"/>
+      <c r="AE89" s="126" t="s">
         <v>157</v>
       </c>
-      <c r="AF88" s="142"/>
-    </row>
-    <row r="89" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="B89" s="10" t="s">
+      <c r="AF89" s="126"/>
+    </row>
+    <row r="90" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="B90" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="C89" s="140" t="s">
+      <c r="C90" s="119" t="s">
         <v>120</v>
       </c>
-      <c r="D89" s="140"/>
-      <c r="E89" s="124" t="s">
+      <c r="D90" s="119"/>
+      <c r="E90" s="120" t="s">
         <v>851</v>
       </c>
-      <c r="F89" s="124"/>
-      <c r="G89" s="124" t="s">
+      <c r="F90" s="120"/>
+      <c r="G90" s="120" t="s">
         <v>852</v>
       </c>
-      <c r="H89" s="124"/>
-      <c r="I89" s="124" t="s">
+      <c r="H90" s="120"/>
+      <c r="I90" s="120" t="s">
         <v>853</v>
       </c>
-      <c r="J89" s="124"/>
-      <c r="K89" s="139" t="s">
+      <c r="J90" s="120"/>
+      <c r="K90" s="124" t="s">
         <v>850</v>
       </c>
-      <c r="L89" s="139"/>
-      <c r="M89" s="118"/>
-      <c r="N89" s="118"/>
-      <c r="O89" s="118"/>
-      <c r="P89" s="118"/>
-      <c r="Q89" s="118"/>
-      <c r="R89" s="118"/>
-      <c r="S89" s="118"/>
-      <c r="T89" s="118"/>
-      <c r="U89" s="118"/>
-      <c r="V89" s="118"/>
-      <c r="W89" s="118"/>
-      <c r="X89" s="118"/>
-      <c r="Y89" s="132"/>
-      <c r="Z89" s="132"/>
-      <c r="AA89" s="125"/>
-      <c r="AB89" s="125"/>
-      <c r="AC89" s="118" t="s">
+      <c r="L90" s="124"/>
+      <c r="M90" s="125"/>
+      <c r="N90" s="125"/>
+      <c r="O90" s="125"/>
+      <c r="P90" s="125"/>
+      <c r="Q90" s="125"/>
+      <c r="R90" s="125"/>
+      <c r="S90" s="125"/>
+      <c r="T90" s="125"/>
+      <c r="U90" s="125"/>
+      <c r="V90" s="125"/>
+      <c r="W90" s="125"/>
+      <c r="X90" s="125"/>
+      <c r="Y90" s="130"/>
+      <c r="Z90" s="130"/>
+      <c r="AA90" s="133"/>
+      <c r="AB90" s="133"/>
+      <c r="AC90" s="125" t="s">
         <v>477</v>
       </c>
-      <c r="AD89" s="118"/>
-      <c r="AE89" s="117" t="str">
-        <f>CONCATENATE(E89,"+",G89,"-",I89)</f>
+      <c r="AD90" s="125"/>
+      <c r="AE90" s="131" t="str">
+        <f>CONCATENATE(E90,"+",G90,"-",I90)</f>
         <v>固有暴击率+攻击方装备本身附加暴击率-防御方装备本身附加暴击抗性</v>
       </c>
-      <c r="AF89" s="117"/>
-    </row>
-    <row r="90" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A90" s="10" t="s">
+      <c r="AF90" s="131"/>
+    </row>
+    <row r="91" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A91" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="C90" s="140" t="s">
+      <c r="C91" s="119" t="s">
         <v>122</v>
       </c>
-      <c r="D90" s="140"/>
-      <c r="E90" s="124" t="s">
+      <c r="D91" s="119"/>
+      <c r="E91" s="120" t="s">
         <v>161</v>
       </c>
-      <c r="F90" s="124"/>
-      <c r="G90" s="126" t="s">
+      <c r="F91" s="120"/>
+      <c r="G91" s="132" t="s">
         <v>186</v>
       </c>
-      <c r="H90" s="126"/>
-      <c r="I90" s="124" t="s">
+      <c r="H91" s="132"/>
+      <c r="I91" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="J90" s="124"/>
-      <c r="K90" s="48" t="s">
+      <c r="J91" s="120"/>
+      <c r="K91" s="48" t="s">
         <v>163</v>
-      </c>
-      <c r="L90" s="48"/>
-      <c r="M90" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="N90" s="48"/>
-      <c r="O90" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="P90" s="48"/>
-      <c r="Q90" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="R90" s="47"/>
-      <c r="S90" s="124"/>
-      <c r="T90" s="124"/>
-      <c r="U90" s="118"/>
-      <c r="V90" s="118"/>
-      <c r="W90" s="118"/>
-      <c r="X90" s="118"/>
-      <c r="Y90" s="132"/>
-      <c r="Z90" s="132"/>
-      <c r="AA90" s="125"/>
-      <c r="AB90" s="125"/>
-      <c r="AC90" s="118" t="s">
-        <v>523</v>
-      </c>
-      <c r="AD90" s="118"/>
-      <c r="AE90" s="117" t="str">
-        <f>CONCATENATE(E90,"+",G90,"+",I90,"+",M90,"+",O90,"+",Q90,"+",K90)</f>
-        <v>怪物本身力量+怪物升星附加力量+装备本身附加力量+装备进阶附加力量+装备镶嵌附加力量+人物装备附加力量+装备强化附加力量</v>
-      </c>
-      <c r="AF90" s="117"/>
-    </row>
-    <row r="91" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="C91" s="140" t="s">
-        <v>123</v>
-      </c>
-      <c r="D91" s="140"/>
-      <c r="E91" s="124" t="s">
-        <v>167</v>
-      </c>
-      <c r="F91" s="124"/>
-      <c r="G91" s="126" t="s">
-        <v>187</v>
-      </c>
-      <c r="H91" s="126"/>
-      <c r="I91" s="124" t="s">
-        <v>168</v>
-      </c>
-      <c r="J91" s="124"/>
-      <c r="K91" s="48" t="s">
-        <v>169</v>
       </c>
       <c r="L91" s="48"/>
       <c r="M91" s="48" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="N91" s="48"/>
       <c r="O91" s="48" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="P91" s="48"/>
       <c r="Q91" s="47" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="R91" s="47"/>
-      <c r="S91" s="124"/>
-      <c r="T91" s="124"/>
-      <c r="U91" s="118"/>
-      <c r="V91" s="118"/>
-      <c r="W91" s="118"/>
-      <c r="X91" s="118"/>
-      <c r="Y91" s="132"/>
-      <c r="Z91" s="132"/>
-      <c r="AA91" s="125"/>
-      <c r="AB91" s="125"/>
-      <c r="AC91" s="118" t="s">
+      <c r="S91" s="120"/>
+      <c r="T91" s="120"/>
+      <c r="U91" s="125"/>
+      <c r="V91" s="125"/>
+      <c r="W91" s="125"/>
+      <c r="X91" s="125"/>
+      <c r="Y91" s="130"/>
+      <c r="Z91" s="130"/>
+      <c r="AA91" s="133"/>
+      <c r="AB91" s="133"/>
+      <c r="AC91" s="125" t="s">
         <v>523</v>
       </c>
-      <c r="AD91" s="118"/>
-      <c r="AE91" s="117" t="str">
+      <c r="AD91" s="125"/>
+      <c r="AE91" s="131" t="str">
         <f>CONCATENATE(E91,"+",G91,"+",I91,"+",M91,"+",O91,"+",Q91,"+",K91)</f>
-        <v>怪物本身智力+怪物升星附加智力+装备本身附加智力+装备进阶附加智力+装备镶嵌附加智力+人物装备附加智力+装备强化附加智力</v>
-      </c>
-      <c r="AF91" s="117"/>
-    </row>
-    <row r="92" spans="1:49" x14ac:dyDescent="0.15">
+        <v>怪物本身力量+怪物升星附加力量+装备本身附加力量+装备进阶附加力量+装备镶嵌附加力量+人物装备附加力量+装备强化附加力量</v>
+      </c>
+      <c r="AF91" s="131"/>
+    </row>
+    <row r="92" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="10" t="s">
-        <v>576</v>
-      </c>
-      <c r="C92" s="140" t="s">
-        <v>90</v>
-      </c>
-      <c r="D92" s="140"/>
-      <c r="E92" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="F92" s="124"/>
-      <c r="G92" s="126" t="s">
-        <v>188</v>
-      </c>
-      <c r="H92" s="126"/>
-      <c r="I92" s="124" t="s">
-        <v>178</v>
-      </c>
-      <c r="J92" s="124"/>
+        <v>557</v>
+      </c>
+      <c r="C92" s="119" t="s">
+        <v>123</v>
+      </c>
+      <c r="D92" s="119"/>
+      <c r="E92" s="120" t="s">
+        <v>167</v>
+      </c>
+      <c r="F92" s="120"/>
+      <c r="G92" s="132" t="s">
+        <v>187</v>
+      </c>
+      <c r="H92" s="132"/>
+      <c r="I92" s="120" t="s">
+        <v>168</v>
+      </c>
+      <c r="J92" s="120"/>
       <c r="K92" s="48" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="L92" s="48"/>
       <c r="M92" s="48" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="N92" s="48"/>
       <c r="O92" s="48" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="P92" s="48"/>
       <c r="Q92" s="47" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="R92" s="47"/>
-      <c r="S92" s="47" t="s">
-        <v>489</v>
-      </c>
-      <c r="T92" s="47"/>
-      <c r="U92" s="47" t="s">
-        <v>490</v>
-      </c>
-      <c r="V92" s="47"/>
-      <c r="W92" s="47" t="s">
-        <v>491</v>
-      </c>
-      <c r="X92" s="47"/>
-      <c r="Y92" s="47" t="s">
-        <v>492</v>
-      </c>
-      <c r="Z92" s="47"/>
-      <c r="AA92" s="124" t="s">
-        <v>493</v>
-      </c>
-      <c r="AB92" s="124"/>
-      <c r="AC92" s="118" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD92" s="118"/>
-      <c r="AE92" s="117" t="str">
-        <f>CONCATENATE("(",E92,"+",G92,"+",I92,"+",M92,"+",O92,"+",Q92,"+",K92,")","*","（","1","+",S92,")","*","(","1","+",U92,"+",W92,"+",Y92,"+",AA92,")")</f>
-        <v>(怪物本身防御力+怪物升星附加防御力+装备本身附加防御力+装备进阶附加防御力+装备镶嵌附加防御力+人物装备附加防御力+装备强化附加防御力)*（1+人物装备套装附加防御力百分比)*(1+法阵附加防御力百分比+Buff附加防御力百分比+队长附加防御力百分比+被动附加防御力百分比)</v>
-      </c>
-      <c r="AF92" s="117"/>
-    </row>
-    <row r="93" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S92" s="120"/>
+      <c r="T92" s="120"/>
+      <c r="U92" s="125"/>
+      <c r="V92" s="125"/>
+      <c r="W92" s="125"/>
+      <c r="X92" s="125"/>
+      <c r="Y92" s="130"/>
+      <c r="Z92" s="130"/>
+      <c r="AA92" s="133"/>
+      <c r="AB92" s="133"/>
+      <c r="AC92" s="125" t="s">
+        <v>523</v>
+      </c>
+      <c r="AD92" s="125"/>
+      <c r="AE92" s="131" t="str">
+        <f>CONCATENATE(E92,"+",G92,"+",I92,"+",M92,"+",O92,"+",Q92,"+",K92)</f>
+        <v>怪物本身智力+怪物升星附加智力+装备本身附加智力+装备进阶附加智力+装备镶嵌附加智力+人物装备附加智力+装备强化附加智力</v>
+      </c>
+      <c r="AF92" s="131"/>
+    </row>
+    <row r="93" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A93" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="C93" s="140" t="s">
-        <v>678</v>
-      </c>
-      <c r="D93" s="140"/>
-      <c r="E93" s="124" t="s">
+        <v>576</v>
+      </c>
+      <c r="C93" s="119" t="s">
+        <v>90</v>
+      </c>
+      <c r="D93" s="119"/>
+      <c r="E93" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="F93" s="124"/>
-      <c r="G93" s="126" t="s">
+      <c r="F93" s="120"/>
+      <c r="G93" s="132" t="s">
         <v>188</v>
       </c>
-      <c r="H93" s="126"/>
-      <c r="I93" s="124" t="s">
+      <c r="H93" s="132"/>
+      <c r="I93" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="J93" s="124"/>
+      <c r="J93" s="120"/>
       <c r="K93" s="48" t="s">
         <v>179</v>
       </c>
@@ -26406,108 +26413,110 @@
         <v>182</v>
       </c>
       <c r="R93" s="47"/>
-      <c r="S93" s="121"/>
-      <c r="T93" s="122"/>
-      <c r="U93" s="125"/>
-      <c r="V93" s="125"/>
-      <c r="W93" s="125"/>
-      <c r="X93" s="125"/>
-      <c r="Y93" s="125"/>
-      <c r="Z93" s="125"/>
-      <c r="AA93" s="124"/>
-      <c r="AB93" s="124"/>
-      <c r="AC93" s="118" t="s">
-        <v>523</v>
-      </c>
-      <c r="AD93" s="118"/>
-      <c r="AE93" s="117" t="str">
-        <f>CONCATENATE(E93,"+",G93,"+",I93,"+",M93,"+",O93,"+",Q93,"+",K93)</f>
-        <v>怪物本身防御力+怪物升星附加防御力+装备本身附加防御力+装备进阶附加防御力+装备镶嵌附加防御力+人物装备附加防御力+装备强化附加防御力</v>
-      </c>
-      <c r="AF93" s="117"/>
-    </row>
-    <row r="94" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A94" s="10"/>
-      <c r="C94" s="123" t="s">
-        <v>190</v>
-      </c>
-      <c r="D94" s="123"/>
-      <c r="E94" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="F94" s="124"/>
-      <c r="G94" s="126" t="s">
-        <v>199</v>
-      </c>
-      <c r="H94" s="126"/>
-      <c r="I94" s="124" t="s">
-        <v>200</v>
-      </c>
-      <c r="J94" s="124"/>
+      <c r="S93" s="47" t="s">
+        <v>489</v>
+      </c>
+      <c r="T93" s="47"/>
+      <c r="U93" s="47" t="s">
+        <v>490</v>
+      </c>
+      <c r="V93" s="47"/>
+      <c r="W93" s="47" t="s">
+        <v>491</v>
+      </c>
+      <c r="X93" s="47"/>
+      <c r="Y93" s="47" t="s">
+        <v>492</v>
+      </c>
+      <c r="Z93" s="47"/>
+      <c r="AA93" s="120" t="s">
+        <v>493</v>
+      </c>
+      <c r="AB93" s="120"/>
+      <c r="AC93" s="125" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD93" s="125"/>
+      <c r="AE93" s="131" t="str">
+        <f>CONCATENATE("(",E93,"+",G93,"+",I93,"+",M93,"+",O93,"+",Q93,"+",K93,")","*","（","1","+",S93,")","*","(","1","+",U93,"+",W93,"+",Y93,"+",AA93,")")</f>
+        <v>(怪物本身防御力+怪物升星附加防御力+装备本身附加防御力+装备进阶附加防御力+装备镶嵌附加防御力+人物装备附加防御力+装备强化附加防御力)*（1+人物装备套装附加防御力百分比)*(1+法阵附加防御力百分比+Buff附加防御力百分比+队长附加防御力百分比+被动附加防御力百分比)</v>
+      </c>
+      <c r="AF93" s="131"/>
+    </row>
+    <row r="94" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C94" s="119" t="s">
+        <v>678</v>
+      </c>
+      <c r="D94" s="119"/>
+      <c r="E94" s="120" t="s">
+        <v>177</v>
+      </c>
+      <c r="F94" s="120"/>
+      <c r="G94" s="132" t="s">
+        <v>188</v>
+      </c>
+      <c r="H94" s="132"/>
+      <c r="I94" s="120" t="s">
+        <v>178</v>
+      </c>
+      <c r="J94" s="120"/>
       <c r="K94" s="48" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="L94" s="48"/>
       <c r="M94" s="48" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="N94" s="48"/>
       <c r="O94" s="48" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="P94" s="48"/>
       <c r="Q94" s="47" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="R94" s="47"/>
-      <c r="S94" s="47" t="s">
-        <v>498</v>
-      </c>
-      <c r="T94" s="47"/>
-      <c r="U94" s="125" t="s">
-        <v>497</v>
-      </c>
-      <c r="V94" s="125"/>
-      <c r="W94" s="125" t="s">
-        <v>496</v>
-      </c>
-      <c r="X94" s="125"/>
-      <c r="Y94" s="125" t="s">
-        <v>495</v>
-      </c>
-      <c r="Z94" s="125"/>
-      <c r="AA94" s="124" t="s">
-        <v>494</v>
-      </c>
-      <c r="AB94" s="124"/>
-      <c r="AC94" s="118" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD94" s="118"/>
-      <c r="AE94" s="117" t="str">
-        <f>CONCATENATE("(",E94,"+",G94,"+",I94,"+",M94,"+",O94,"+",Q94,"+",K94,")","*","（","1","+",S94,")","*","(","1","+",U94,"+",W94,"+",Y94,"+",AA94,")")</f>
-        <v>(怪物本身速度+怪物升星附加速度+装备本身附加速度+装备进阶附加速度+装备镶嵌附加速度+人物装备附加速度+装备强化附加速度)*（1+人物装备套装附加速度百分比)*(1+法阵附加速度百分比+Buff附加速度百分比+队长技附加速度百分比+被动附加速度百分比)</v>
-      </c>
-      <c r="AF94" s="117"/>
-    </row>
-    <row r="95" spans="1:49" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="53"/>
-      <c r="C95" s="123" t="s">
-        <v>679</v>
-      </c>
-      <c r="D95" s="123"/>
-      <c r="E95" s="124" t="s">
+      <c r="S94" s="137"/>
+      <c r="T94" s="138"/>
+      <c r="U94" s="133"/>
+      <c r="V94" s="133"/>
+      <c r="W94" s="133"/>
+      <c r="X94" s="133"/>
+      <c r="Y94" s="133"/>
+      <c r="Z94" s="133"/>
+      <c r="AA94" s="120"/>
+      <c r="AB94" s="120"/>
+      <c r="AC94" s="125" t="s">
+        <v>523</v>
+      </c>
+      <c r="AD94" s="125"/>
+      <c r="AE94" s="131" t="str">
+        <f>CONCATENATE(E94,"+",G94,"+",I94,"+",M94,"+",O94,"+",Q94,"+",K94)</f>
+        <v>怪物本身防御力+怪物升星附加防御力+装备本身附加防御力+装备进阶附加防御力+装备镶嵌附加防御力+人物装备附加防御力+装备强化附加防御力</v>
+      </c>
+      <c r="AF94" s="131"/>
+    </row>
+    <row r="95" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A95" s="10"/>
+      <c r="C95" s="136" t="s">
+        <v>190</v>
+      </c>
+      <c r="D95" s="136"/>
+      <c r="E95" s="120" t="s">
         <v>198</v>
       </c>
-      <c r="F95" s="124"/>
-      <c r="G95" s="126" t="s">
+      <c r="F95" s="120"/>
+      <c r="G95" s="132" t="s">
         <v>199</v>
       </c>
-      <c r="H95" s="126"/>
-      <c r="I95" s="124" t="s">
+      <c r="H95" s="132"/>
+      <c r="I95" s="120" t="s">
         <v>200</v>
       </c>
-      <c r="J95" s="124"/>
+      <c r="J95" s="120"/>
       <c r="K95" s="48" t="s">
         <v>201</v>
       </c>
@@ -26524,147 +26533,150 @@
         <v>204</v>
       </c>
       <c r="R95" s="47"/>
-      <c r="S95" s="129"/>
-      <c r="T95" s="130"/>
-      <c r="U95" s="129"/>
-      <c r="V95" s="130"/>
-      <c r="W95" s="129"/>
-      <c r="X95" s="130"/>
-      <c r="Y95" s="129"/>
-      <c r="Z95" s="130"/>
-      <c r="AA95" s="127"/>
-      <c r="AB95" s="128"/>
-      <c r="AC95" s="118" t="s">
+      <c r="S95" s="47" t="s">
+        <v>498</v>
+      </c>
+      <c r="T95" s="47"/>
+      <c r="U95" s="133" t="s">
+        <v>497</v>
+      </c>
+      <c r="V95" s="133"/>
+      <c r="W95" s="133" t="s">
+        <v>496</v>
+      </c>
+      <c r="X95" s="133"/>
+      <c r="Y95" s="133" t="s">
+        <v>495</v>
+      </c>
+      <c r="Z95" s="133"/>
+      <c r="AA95" s="120" t="s">
+        <v>494</v>
+      </c>
+      <c r="AB95" s="120"/>
+      <c r="AC95" s="125" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD95" s="125"/>
+      <c r="AE95" s="131" t="str">
+        <f>CONCATENATE("(",E95,"+",G95,"+",I95,"+",M95,"+",O95,"+",Q95,"+",K95,")","*","（","1","+",S95,")","*","(","1","+",U95,"+",W95,"+",Y95,"+",AA95,")")</f>
+        <v>(怪物本身速度+怪物升星附加速度+装备本身附加速度+装备进阶附加速度+装备镶嵌附加速度+人物装备附加速度+装备强化附加速度)*（1+人物装备套装附加速度百分比)*(1+法阵附加速度百分比+Buff附加速度百分比+队长技附加速度百分比+被动附加速度百分比)</v>
+      </c>
+      <c r="AF95" s="131"/>
+    </row>
+    <row r="96" spans="1:49" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="53"/>
+      <c r="C96" s="136" t="s">
+        <v>679</v>
+      </c>
+      <c r="D96" s="136"/>
+      <c r="E96" s="120" t="s">
+        <v>198</v>
+      </c>
+      <c r="F96" s="120"/>
+      <c r="G96" s="132" t="s">
+        <v>199</v>
+      </c>
+      <c r="H96" s="132"/>
+      <c r="I96" s="120" t="s">
+        <v>200</v>
+      </c>
+      <c r="J96" s="120"/>
+      <c r="K96" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="L96" s="48"/>
+      <c r="M96" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="N96" s="48"/>
+      <c r="O96" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="P96" s="48"/>
+      <c r="Q96" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="R96" s="47"/>
+      <c r="S96" s="146"/>
+      <c r="T96" s="147"/>
+      <c r="U96" s="146"/>
+      <c r="V96" s="147"/>
+      <c r="W96" s="146"/>
+      <c r="X96" s="147"/>
+      <c r="Y96" s="146"/>
+      <c r="Z96" s="147"/>
+      <c r="AA96" s="144"/>
+      <c r="AB96" s="145"/>
+      <c r="AC96" s="125" t="s">
         <v>523</v>
       </c>
-      <c r="AD95" s="118"/>
-      <c r="AE95" s="117" t="str">
-        <f>CONCATENATE(E95,"+",G95,"+",I95,"+",M95,"+",O95,"+",Q95,"+",K95)</f>
+      <c r="AD96" s="125"/>
+      <c r="AE96" s="131" t="str">
+        <f>CONCATENATE(E96,"+",G96,"+",I96,"+",M96,"+",O96,"+",Q96,"+",K96)</f>
         <v>怪物本身速度+怪物升星附加速度+装备本身附加速度+装备进阶附加速度+装备镶嵌附加速度+人物装备附加速度+装备强化附加速度</v>
       </c>
-      <c r="AF95" s="117"/>
-    </row>
-    <row r="96" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="C96" s="123" t="s">
+      <c r="AF96" s="131"/>
+    </row>
+    <row r="97" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="C97" s="136" t="s">
         <v>211</v>
       </c>
-      <c r="D96" s="123"/>
-      <c r="E96" s="124" t="s">
+      <c r="D97" s="136"/>
+      <c r="E97" s="120" t="s">
         <v>223</v>
       </c>
-      <c r="F96" s="124"/>
-      <c r="G96" s="124" t="s">
+      <c r="F97" s="120"/>
+      <c r="G97" s="120" t="s">
         <v>503</v>
       </c>
-      <c r="H96" s="124"/>
-      <c r="I96" s="124"/>
-      <c r="J96" s="124"/>
-      <c r="K96" s="131"/>
-      <c r="L96" s="131"/>
-      <c r="M96" s="131"/>
-      <c r="N96" s="131"/>
-      <c r="O96" s="131"/>
-      <c r="P96" s="131"/>
-      <c r="Q96" s="132"/>
-      <c r="R96" s="132"/>
-      <c r="S96" s="132"/>
-      <c r="T96" s="132"/>
-      <c r="U96" s="125"/>
-      <c r="V96" s="125"/>
-      <c r="W96" s="125"/>
-      <c r="X96" s="125"/>
-      <c r="Y96" s="125"/>
-      <c r="Z96" s="125"/>
-      <c r="AA96" s="124"/>
-      <c r="AB96" s="124"/>
-      <c r="AC96" s="118" t="s">
+      <c r="H97" s="120"/>
+      <c r="I97" s="120"/>
+      <c r="J97" s="120"/>
+      <c r="K97" s="139"/>
+      <c r="L97" s="139"/>
+      <c r="M97" s="139"/>
+      <c r="N97" s="139"/>
+      <c r="O97" s="139"/>
+      <c r="P97" s="139"/>
+      <c r="Q97" s="130"/>
+      <c r="R97" s="130"/>
+      <c r="S97" s="130"/>
+      <c r="T97" s="130"/>
+      <c r="U97" s="133"/>
+      <c r="V97" s="133"/>
+      <c r="W97" s="133"/>
+      <c r="X97" s="133"/>
+      <c r="Y97" s="133"/>
+      <c r="Z97" s="133"/>
+      <c r="AA97" s="120"/>
+      <c r="AB97" s="120"/>
+      <c r="AC97" s="125" t="s">
         <v>473</v>
       </c>
-      <c r="AD96" s="118"/>
-      <c r="AE96" s="117" t="str">
-        <f>CONCATENATE(E96,"*","（",1,"+",G96,")")</f>
+      <c r="AD97" s="125"/>
+      <c r="AE97" s="131" t="str">
+        <f>CONCATENATE(E97,"*","（",1,"+",G97,")")</f>
         <v>怪物本身耐力*（1+被动附加耐力百分比)</v>
       </c>
-      <c r="AF96" s="117"/>
-    </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C97" s="123" t="s">
+      <c r="AF97" s="131"/>
+    </row>
+    <row r="98" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="C98" s="136" t="s">
         <v>854</v>
       </c>
-      <c r="D97" s="123"/>
-      <c r="E97" s="124" t="s">
+      <c r="D98" s="136"/>
+      <c r="E98" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="F97" s="124"/>
-      <c r="G97" s="126" t="s">
+      <c r="F98" s="120"/>
+      <c r="G98" s="132" t="s">
         <v>215</v>
       </c>
-      <c r="H97" s="126"/>
-      <c r="I97" s="124" t="s">
+      <c r="H98" s="132"/>
+      <c r="I98" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="J97" s="124"/>
-      <c r="K97" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="L97" s="48"/>
-      <c r="M97" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="N97" s="48"/>
-      <c r="O97" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="P97" s="48"/>
-      <c r="Q97" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="R97" s="47"/>
-      <c r="S97" s="47" t="s">
-        <v>499</v>
-      </c>
-      <c r="T97" s="47"/>
-      <c r="U97" s="125" t="s">
-        <v>500</v>
-      </c>
-      <c r="V97" s="125"/>
-      <c r="W97" s="125" t="s">
-        <v>501</v>
-      </c>
-      <c r="X97" s="125"/>
-      <c r="Y97" s="124" t="s">
-        <v>502</v>
-      </c>
-      <c r="Z97" s="124"/>
-      <c r="AA97" s="124"/>
-      <c r="AB97" s="124"/>
-      <c r="AC97" s="118" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD97" s="118"/>
-      <c r="AE97" s="117" t="str">
-        <f>CONCATENATE("(",E97,"+",G97,"+",I97,"+",M97,"+",O97,"+",Q97,"+",K97,")","*","（","1","+",S97,")","*","(","1","+",U97,"+",W97,"+",Y97,")")</f>
-        <v>(怪物本身体力+怪物升星附加体力+装备本身附加体力+装备进阶附加体力+装备镶嵌附加体力+人物装备附加体力+装备强化附加体力)*（1+人物装备套装附加体力百分比)*(1+法阵附加体力百分比+队长技附加体力百分比+被动附加体力百分比)</v>
-      </c>
-      <c r="AF97" s="117"/>
-    </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C98" s="123" t="s">
-        <v>680</v>
-      </c>
-      <c r="D98" s="123"/>
-      <c r="E98" s="124" t="s">
-        <v>214</v>
-      </c>
-      <c r="F98" s="124"/>
-      <c r="G98" s="126" t="s">
-        <v>215</v>
-      </c>
-      <c r="H98" s="126"/>
-      <c r="I98" s="124" t="s">
-        <v>216</v>
-      </c>
-      <c r="J98" s="124"/>
+      <c r="J98" s="120"/>
       <c r="K98" s="48" t="s">
         <v>217</v>
       </c>
@@ -26681,176 +26693,234 @@
         <v>224</v>
       </c>
       <c r="R98" s="47"/>
-      <c r="S98" s="121"/>
-      <c r="T98" s="122"/>
-      <c r="U98" s="121"/>
-      <c r="V98" s="122"/>
-      <c r="W98" s="121"/>
-      <c r="X98" s="122"/>
-      <c r="Y98" s="119"/>
+      <c r="S98" s="47" t="s">
+        <v>499</v>
+      </c>
+      <c r="T98" s="47"/>
+      <c r="U98" s="133" t="s">
+        <v>500</v>
+      </c>
+      <c r="V98" s="133"/>
+      <c r="W98" s="133" t="s">
+        <v>501</v>
+      </c>
+      <c r="X98" s="133"/>
+      <c r="Y98" s="120" t="s">
+        <v>502</v>
+      </c>
       <c r="Z98" s="120"/>
-      <c r="AA98" s="119"/>
+      <c r="AA98" s="120"/>
       <c r="AB98" s="120"/>
-      <c r="AC98" s="118" t="s">
+      <c r="AC98" s="125" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD98" s="125"/>
+      <c r="AE98" s="131" t="str">
+        <f>CONCATENATE("(",E98,"+",G98,"+",I98,"+",M98,"+",O98,"+",Q98,"+",K98,")","*","（","1","+",S98,")","*","(","1","+",U98,"+",W98,"+",Y98,")")</f>
+        <v>(怪物本身体力+怪物升星附加体力+装备本身附加体力+装备进阶附加体力+装备镶嵌附加体力+人物装备附加体力+装备强化附加体力)*（1+人物装备套装附加体力百分比)*(1+法阵附加体力百分比+队长技附加体力百分比+被动附加体力百分比)</v>
+      </c>
+      <c r="AF98" s="131"/>
+    </row>
+    <row r="99" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="C99" s="136" t="s">
+        <v>680</v>
+      </c>
+      <c r="D99" s="136"/>
+      <c r="E99" s="120" t="s">
+        <v>214</v>
+      </c>
+      <c r="F99" s="120"/>
+      <c r="G99" s="132" t="s">
+        <v>215</v>
+      </c>
+      <c r="H99" s="132"/>
+      <c r="I99" s="120" t="s">
+        <v>216</v>
+      </c>
+      <c r="J99" s="120"/>
+      <c r="K99" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="L99" s="48"/>
+      <c r="M99" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="N99" s="48"/>
+      <c r="O99" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="P99" s="48"/>
+      <c r="Q99" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="R99" s="47"/>
+      <c r="S99" s="137"/>
+      <c r="T99" s="138"/>
+      <c r="U99" s="137"/>
+      <c r="V99" s="138"/>
+      <c r="W99" s="137"/>
+      <c r="X99" s="138"/>
+      <c r="Y99" s="142"/>
+      <c r="Z99" s="143"/>
+      <c r="AA99" s="142"/>
+      <c r="AB99" s="143"/>
+      <c r="AC99" s="125" t="s">
         <v>523</v>
       </c>
-      <c r="AD98" s="118"/>
-      <c r="AE98" s="117" t="str">
-        <f>CONCATENATE(E98,"+",G98,"+",I98,"+",M98,"+",O98,"+",Q98,"+",K98)</f>
+      <c r="AD99" s="125"/>
+      <c r="AE99" s="131" t="str">
+        <f>CONCATENATE(E99,"+",G99,"+",I99,"+",M99,"+",O99,"+",Q99,"+",K99)</f>
         <v>怪物本身体力+怪物升星附加体力+装备本身附加体力+装备进阶附加体力+装备镶嵌附加体力+人物装备附加体力+装备强化附加体力</v>
       </c>
-      <c r="AF98" s="117"/>
-    </row>
-    <row r="99" spans="1:32" s="44" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C99" s="133" t="s">
+      <c r="AF99" s="131"/>
+    </row>
+    <row r="100" spans="1:32" s="44" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C100" s="140" t="s">
         <v>442</v>
       </c>
-      <c r="D99" s="133"/>
-      <c r="E99" s="124" t="s">
+      <c r="D100" s="140"/>
+      <c r="E100" s="120" t="s">
         <v>443</v>
       </c>
-      <c r="F99" s="124"/>
-      <c r="G99" s="126" t="s">
+      <c r="F100" s="120"/>
+      <c r="G100" s="132" t="s">
         <v>444</v>
       </c>
-      <c r="H99" s="126"/>
-      <c r="I99" s="124" t="s">
+      <c r="H100" s="132"/>
+      <c r="I100" s="120" t="s">
         <v>445</v>
       </c>
-      <c r="J99" s="124"/>
-      <c r="K99" s="134"/>
-      <c r="L99" s="134"/>
-      <c r="M99" s="124"/>
-      <c r="N99" s="124"/>
-      <c r="O99" s="134"/>
-      <c r="P99" s="134"/>
-      <c r="Q99" s="125"/>
-      <c r="R99" s="125"/>
-      <c r="S99" s="125"/>
-      <c r="T99" s="125"/>
-      <c r="U99" s="125"/>
-      <c r="V99" s="125"/>
-      <c r="W99" s="125"/>
-      <c r="X99" s="125"/>
-      <c r="Y99" s="134"/>
-      <c r="Z99" s="134"/>
-      <c r="AA99" s="134"/>
-      <c r="AB99" s="134"/>
-      <c r="AC99" s="118" t="s">
+      <c r="J100" s="120"/>
+      <c r="K100" s="141"/>
+      <c r="L100" s="141"/>
+      <c r="M100" s="120"/>
+      <c r="N100" s="120"/>
+      <c r="O100" s="141"/>
+      <c r="P100" s="141"/>
+      <c r="Q100" s="133"/>
+      <c r="R100" s="133"/>
+      <c r="S100" s="133"/>
+      <c r="T100" s="133"/>
+      <c r="U100" s="133"/>
+      <c r="V100" s="133"/>
+      <c r="W100" s="133"/>
+      <c r="X100" s="133"/>
+      <c r="Y100" s="141"/>
+      <c r="Z100" s="141"/>
+      <c r="AA100" s="141"/>
+      <c r="AB100" s="141"/>
+      <c r="AC100" s="125" t="s">
         <v>446</v>
       </c>
-      <c r="AD99" s="118"/>
-      <c r="AE99" s="117" t="str">
-        <f>CONCATENATE(E99,"+",G99,"+",I99)</f>
+      <c r="AD100" s="125"/>
+      <c r="AE100" s="131" t="str">
+        <f>CONCATENATE(E100,"+",G100,"+",I100)</f>
         <v>怪物本身生命回复+怪物升星附加生命回复+装备进阶附加生命回复</v>
       </c>
-      <c r="AF99" s="117"/>
-    </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C100" s="123" t="s">
+      <c r="AF100" s="131"/>
+    </row>
+    <row r="101" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="C101" s="136" t="s">
         <v>225</v>
       </c>
-      <c r="D100" s="123"/>
-      <c r="E100" s="47" t="s">
+      <c r="D101" s="136"/>
+      <c r="E101" s="47" t="s">
         <v>505</v>
       </c>
-      <c r="F100" s="47"/>
-      <c r="G100" s="125" t="s">
+      <c r="F101" s="47"/>
+      <c r="G101" s="133" t="s">
         <v>506</v>
       </c>
-      <c r="H100" s="125"/>
-      <c r="I100" s="125" t="s">
+      <c r="H101" s="133"/>
+      <c r="I101" s="133" t="s">
         <v>507</v>
       </c>
-      <c r="J100" s="125"/>
-      <c r="K100" s="124" t="s">
+      <c r="J101" s="133"/>
+      <c r="K101" s="120" t="s">
         <v>508</v>
       </c>
-      <c r="L100" s="124"/>
-      <c r="M100" s="131"/>
-      <c r="N100" s="131"/>
-      <c r="O100" s="131"/>
-      <c r="P100" s="131"/>
-      <c r="Q100" s="132"/>
-      <c r="R100" s="132"/>
-      <c r="S100" s="132"/>
-      <c r="T100" s="132"/>
-      <c r="U100" s="125"/>
-      <c r="V100" s="125"/>
-      <c r="W100" s="125"/>
-      <c r="X100" s="125"/>
-      <c r="Y100" s="124"/>
-      <c r="Z100" s="124"/>
-      <c r="AA100" s="124"/>
-      <c r="AB100" s="124"/>
-      <c r="AC100" s="118" t="s">
+      <c r="L101" s="120"/>
+      <c r="M101" s="139"/>
+      <c r="N101" s="139"/>
+      <c r="O101" s="139"/>
+      <c r="P101" s="139"/>
+      <c r="Q101" s="130"/>
+      <c r="R101" s="130"/>
+      <c r="S101" s="130"/>
+      <c r="T101" s="130"/>
+      <c r="U101" s="133"/>
+      <c r="V101" s="133"/>
+      <c r="W101" s="133"/>
+      <c r="X101" s="133"/>
+      <c r="Y101" s="120"/>
+      <c r="Z101" s="120"/>
+      <c r="AA101" s="120"/>
+      <c r="AB101" s="120"/>
+      <c r="AC101" s="125" t="s">
         <v>226</v>
       </c>
-      <c r="AD100" s="118"/>
-      <c r="AE100" s="117" t="str">
-        <f>CONCATENATE(E100,"+",G100,"+",I100,"+",K100)</f>
+      <c r="AD101" s="125"/>
+      <c r="AE101" s="131" t="str">
+        <f>CONCATENATE(E101,"+",G101,"+",I101,"+",K101)</f>
         <v>人物装备套装附加五行加成百分比+法阵附加五行加成百分比+队长技附加五行加成百分比+被动附加五行加成百分比</v>
       </c>
-      <c r="AF100" s="117"/>
-    </row>
-    <row r="101" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="D101" s="6"/>
+      <c r="AF101" s="131"/>
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C102" s="9" t="s">
+      <c r="D102" s="6"/>
+    </row>
+    <row r="103" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="C103" s="9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C103" s="1" t="s">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="C104" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D104" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="D104" s="1" t="s">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="D105" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="106" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A106" s="10" t="s">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A107" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B107" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D107" s="3" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="107" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="D107" s="1" t="s">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="D108" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="108" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="D108" s="6"/>
-    </row>
     <row r="109" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C109" s="1" t="s">
+      <c r="D109" s="6"/>
+    </row>
+    <row r="110" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="C110" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D109" s="6" t="s">
+      <c r="D110" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="110" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="D110" s="1" t="s">
+    <row r="111" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="D111" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="111" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="D111" s="6"/>
     </row>
     <row r="112" spans="1:32" x14ac:dyDescent="0.15">
       <c r="D112" s="6"/>
@@ -26858,11 +26928,11 @@
     <row r="113" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D113" s="6"/>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C120" s="9"/>
-    </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D122" s="6"/>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D114" s="6"/>
+    </row>
+    <row r="121" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C121" s="9"/>
     </row>
     <row r="123" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D123" s="6"/>
@@ -26876,8 +26946,8 @@
     <row r="126" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D126" s="6"/>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D128" s="6"/>
+    <row r="127" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D127" s="6"/>
     </row>
     <row r="129" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D129" s="6"/>
@@ -26888,131 +26958,96 @@
     <row r="131" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D131" s="6"/>
     </row>
-    <row r="138" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="139" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C139" s="27"/>
-    </row>
-    <row r="140" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="132" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D132" s="6"/>
+    </row>
+    <row r="139" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="140" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C140" s="27"/>
+    </row>
     <row r="141" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="142" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="143" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="144" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="145" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="146" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="147" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="186">
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="AC85:AD85"/>
-    <mergeCell ref="AE85:AF85"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="O89:P89"/>
-    <mergeCell ref="AE84:AF84"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="O84:P84"/>
-    <mergeCell ref="AC84:AD84"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="M88:N88"/>
-    <mergeCell ref="AE88:AF88"/>
-    <mergeCell ref="Y84:Z84"/>
-    <mergeCell ref="Y88:Z88"/>
-    <mergeCell ref="Y85:Z85"/>
-    <mergeCell ref="Y89:Z89"/>
-    <mergeCell ref="Q84:R84"/>
-    <mergeCell ref="S84:T84"/>
-    <mergeCell ref="AC93:AD93"/>
-    <mergeCell ref="AE93:AF93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="AC91:AD91"/>
-    <mergeCell ref="AE91:AF91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="AC92:AD92"/>
-    <mergeCell ref="AE92:AF92"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="U93:V93"/>
-    <mergeCell ref="W93:X93"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="AA91:AB91"/>
-    <mergeCell ref="Y91:Z91"/>
-    <mergeCell ref="AA92:AB92"/>
-    <mergeCell ref="AA93:AB93"/>
-    <mergeCell ref="U85:V85"/>
-    <mergeCell ref="W85:X85"/>
-    <mergeCell ref="S90:T90"/>
-    <mergeCell ref="U90:V90"/>
-    <mergeCell ref="W90:X90"/>
-    <mergeCell ref="S91:T91"/>
-    <mergeCell ref="U91:V91"/>
-    <mergeCell ref="W91:X91"/>
-    <mergeCell ref="Q89:R89"/>
-    <mergeCell ref="S89:T89"/>
-    <mergeCell ref="U89:V89"/>
-    <mergeCell ref="W89:X89"/>
-    <mergeCell ref="U84:V84"/>
-    <mergeCell ref="W84:X84"/>
-    <mergeCell ref="Q85:R85"/>
-    <mergeCell ref="S85:T85"/>
-    <mergeCell ref="AC89:AD89"/>
-    <mergeCell ref="AE89:AF89"/>
-    <mergeCell ref="AC90:AD90"/>
-    <mergeCell ref="AE90:AF90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="AA88:AB88"/>
-    <mergeCell ref="AA84:AB84"/>
-    <mergeCell ref="AA85:AB85"/>
-    <mergeCell ref="AA89:AB89"/>
-    <mergeCell ref="AA90:AB90"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="O85:P85"/>
-    <mergeCell ref="Y90:Z90"/>
-    <mergeCell ref="O88:P88"/>
-    <mergeCell ref="Q88:R88"/>
-    <mergeCell ref="S88:T88"/>
-    <mergeCell ref="U88:V88"/>
-    <mergeCell ref="W88:X88"/>
-    <mergeCell ref="AC88:AD88"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="AE99:AF99"/>
+    <mergeCell ref="AC99:AD99"/>
+    <mergeCell ref="AA99:AB99"/>
+    <mergeCell ref="Y99:Z99"/>
+    <mergeCell ref="W99:X99"/>
+    <mergeCell ref="U99:V99"/>
+    <mergeCell ref="S99:T99"/>
+    <mergeCell ref="AE96:AF96"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="U95:V95"/>
+    <mergeCell ref="W95:X95"/>
+    <mergeCell ref="Y95:Z95"/>
+    <mergeCell ref="AA95:AB95"/>
+    <mergeCell ref="AC95:AD95"/>
+    <mergeCell ref="AE95:AF95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="AC96:AD96"/>
+    <mergeCell ref="AA96:AB96"/>
+    <mergeCell ref="Y96:Z96"/>
+    <mergeCell ref="W96:X96"/>
     <mergeCell ref="U96:V96"/>
-    <mergeCell ref="W96:X96"/>
-    <mergeCell ref="Y96:Z96"/>
-    <mergeCell ref="AA96:AB96"/>
-    <mergeCell ref="Y93:Z93"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="S93:T93"/>
+    <mergeCell ref="S96:T96"/>
+    <mergeCell ref="AC101:AD101"/>
+    <mergeCell ref="AE101:AF101"/>
+    <mergeCell ref="K101:L101"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="O101:P101"/>
+    <mergeCell ref="Q101:R101"/>
+    <mergeCell ref="S101:T101"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="AE100:AF100"/>
+    <mergeCell ref="Q100:R100"/>
+    <mergeCell ref="O100:P100"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="AC100:AD100"/>
+    <mergeCell ref="AA100:AB100"/>
+    <mergeCell ref="Y100:Z100"/>
+    <mergeCell ref="W100:X100"/>
+    <mergeCell ref="U100:V100"/>
+    <mergeCell ref="S100:T100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="AC98:AD98"/>
+    <mergeCell ref="AE98:AF98"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="O97:P97"/>
+    <mergeCell ref="Q97:R97"/>
+    <mergeCell ref="S97:T97"/>
+    <mergeCell ref="AC97:AD97"/>
+    <mergeCell ref="AE97:AF97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="U98:V98"/>
+    <mergeCell ref="W98:X98"/>
+    <mergeCell ref="Y98:Z98"/>
+    <mergeCell ref="AA98:AB98"/>
+    <mergeCell ref="Y101:Z101"/>
+    <mergeCell ref="AA101:AB101"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="U101:V101"/>
+    <mergeCell ref="W101:X101"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="I99:J99"/>
     <mergeCell ref="C97:D97"/>
     <mergeCell ref="E97:F97"/>
     <mergeCell ref="G97:H97"/>
@@ -27021,72 +27056,110 @@
     <mergeCell ref="W97:X97"/>
     <mergeCell ref="Y97:Z97"/>
     <mergeCell ref="AA97:AB97"/>
-    <mergeCell ref="Y100:Z100"/>
-    <mergeCell ref="AA100:AB100"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="U100:V100"/>
-    <mergeCell ref="W100:X100"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="AC97:AD97"/>
-    <mergeCell ref="AE97:AF97"/>
-    <mergeCell ref="K96:L96"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="O96:P96"/>
-    <mergeCell ref="Q96:R96"/>
-    <mergeCell ref="S96:T96"/>
-    <mergeCell ref="AC96:AD96"/>
-    <mergeCell ref="AE96:AF96"/>
-    <mergeCell ref="AC100:AD100"/>
-    <mergeCell ref="AE100:AF100"/>
-    <mergeCell ref="K100:L100"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="O100:P100"/>
-    <mergeCell ref="Q100:R100"/>
-    <mergeCell ref="S100:T100"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="AE99:AF99"/>
-    <mergeCell ref="Q99:R99"/>
-    <mergeCell ref="O99:P99"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="AC99:AD99"/>
-    <mergeCell ref="AA99:AB99"/>
-    <mergeCell ref="Y99:Z99"/>
-    <mergeCell ref="W99:X99"/>
-    <mergeCell ref="U99:V99"/>
-    <mergeCell ref="S99:T99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="AE98:AF98"/>
-    <mergeCell ref="AC98:AD98"/>
-    <mergeCell ref="AA98:AB98"/>
-    <mergeCell ref="Y98:Z98"/>
-    <mergeCell ref="W98:X98"/>
-    <mergeCell ref="U98:V98"/>
-    <mergeCell ref="S98:T98"/>
-    <mergeCell ref="AE95:AF95"/>
+    <mergeCell ref="Y94:Z94"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="S94:T94"/>
+    <mergeCell ref="U85:V85"/>
+    <mergeCell ref="W85:X85"/>
+    <mergeCell ref="Q86:R86"/>
+    <mergeCell ref="S86:T86"/>
+    <mergeCell ref="AC90:AD90"/>
+    <mergeCell ref="AE90:AF90"/>
+    <mergeCell ref="AC91:AD91"/>
+    <mergeCell ref="AE91:AF91"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="AA89:AB89"/>
+    <mergeCell ref="AA85:AB85"/>
+    <mergeCell ref="AA86:AB86"/>
+    <mergeCell ref="AA90:AB90"/>
+    <mergeCell ref="AA91:AB91"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="O86:P86"/>
+    <mergeCell ref="Y91:Z91"/>
+    <mergeCell ref="O89:P89"/>
+    <mergeCell ref="Q89:R89"/>
+    <mergeCell ref="S89:T89"/>
+    <mergeCell ref="U89:V89"/>
+    <mergeCell ref="W89:X89"/>
+    <mergeCell ref="AC89:AD89"/>
+    <mergeCell ref="U86:V86"/>
+    <mergeCell ref="W86:X86"/>
+    <mergeCell ref="S91:T91"/>
+    <mergeCell ref="U91:V91"/>
+    <mergeCell ref="W91:X91"/>
+    <mergeCell ref="S92:T92"/>
+    <mergeCell ref="U92:V92"/>
+    <mergeCell ref="W92:X92"/>
+    <mergeCell ref="Q90:R90"/>
+    <mergeCell ref="S90:T90"/>
+    <mergeCell ref="U90:V90"/>
+    <mergeCell ref="W90:X90"/>
+    <mergeCell ref="AC94:AD94"/>
+    <mergeCell ref="AE94:AF94"/>
     <mergeCell ref="C94:D94"/>
     <mergeCell ref="E94:F94"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="AC92:AD92"/>
+    <mergeCell ref="AE92:AF92"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="AC93:AD93"/>
+    <mergeCell ref="AE93:AF93"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="I92:J92"/>
     <mergeCell ref="U94:V94"/>
     <mergeCell ref="W94:X94"/>
-    <mergeCell ref="Y94:Z94"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="AA92:AB92"/>
+    <mergeCell ref="Y92:Z92"/>
+    <mergeCell ref="AA93:AB93"/>
     <mergeCell ref="AA94:AB94"/>
-    <mergeCell ref="AC94:AD94"/>
-    <mergeCell ref="AE94:AF94"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="AC95:AD95"/>
-    <mergeCell ref="AA95:AB95"/>
-    <mergeCell ref="Y95:Z95"/>
-    <mergeCell ref="W95:X95"/>
-    <mergeCell ref="U95:V95"/>
-    <mergeCell ref="S95:T95"/>
+    <mergeCell ref="AC86:AD86"/>
+    <mergeCell ref="AE86:AF86"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="O90:P90"/>
+    <mergeCell ref="AE85:AF85"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="O85:P85"/>
+    <mergeCell ref="AC85:AD85"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="AE89:AF89"/>
+    <mergeCell ref="Y85:Z85"/>
+    <mergeCell ref="Y89:Z89"/>
+    <mergeCell ref="Y86:Z86"/>
+    <mergeCell ref="Y90:Z90"/>
+    <mergeCell ref="Q85:R85"/>
+    <mergeCell ref="S85:T85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="I91:J91"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27100,7 +27173,7 @@
   <dimension ref="A1:BS71"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -27397,482 +27470,482 @@
       <c r="A28" s="45" t="s">
         <v>560</v>
       </c>
-      <c r="C28" s="156" t="s">
+      <c r="C28" s="149" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="164" t="s">
-        <v>866</v>
-      </c>
-      <c r="G28" s="164"/>
-      <c r="H28" s="164"/>
-      <c r="I28" s="164" t="s">
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="148" t="s">
+        <v>898</v>
+      </c>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148" t="s">
         <v>862</v>
       </c>
-      <c r="J28" s="149" t="s">
+      <c r="J28" s="155" t="s">
         <v>649</v>
       </c>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="146" t="s">
+      <c r="K28" s="155"/>
+      <c r="L28" s="155"/>
+      <c r="M28" s="151" t="s">
         <v>77</v>
       </c>
-      <c r="N28" s="149" t="s">
+      <c r="N28" s="155" t="s">
         <v>573</v>
       </c>
-      <c r="O28" s="149"/>
-      <c r="P28" s="149"/>
-      <c r="Q28" s="146" t="s">
+      <c r="O28" s="155"/>
+      <c r="P28" s="155"/>
+      <c r="Q28" s="151" t="s">
         <v>855</v>
       </c>
-      <c r="R28" s="148" t="s">
+      <c r="R28" s="165" t="s">
         <v>863</v>
       </c>
-      <c r="S28" s="148"/>
-      <c r="T28" s="148"/>
-      <c r="U28" s="146" t="s">
+      <c r="S28" s="165"/>
+      <c r="T28" s="165"/>
+      <c r="U28" s="151" t="s">
         <v>77</v>
       </c>
-      <c r="V28" s="162" t="s">
+      <c r="V28" s="157" t="s">
         <v>646</v>
       </c>
-      <c r="W28" s="162"/>
-      <c r="X28" s="162"/>
-      <c r="Y28" s="146" t="s">
+      <c r="W28" s="157"/>
+      <c r="X28" s="157"/>
+      <c r="Y28" s="151" t="s">
         <v>77</v>
       </c>
-      <c r="Z28" s="146" t="s">
+      <c r="Z28" s="151" t="s">
         <v>647</v>
       </c>
-      <c r="AA28" s="146"/>
-      <c r="AB28" s="146"/>
-      <c r="AC28" s="146" t="s">
+      <c r="AA28" s="151"/>
+      <c r="AB28" s="151"/>
+      <c r="AC28" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="AD28" s="146" t="s">
+      <c r="AD28" s="151" t="s">
         <v>566</v>
       </c>
-      <c r="AE28" s="146"/>
-      <c r="AF28" s="146"/>
-      <c r="AG28" s="158" t="s">
+      <c r="AE28" s="151"/>
+      <c r="AF28" s="151"/>
+      <c r="AG28" s="154" t="s">
         <v>77</v>
       </c>
-      <c r="AH28" s="158" t="s">
+      <c r="AH28" s="154" t="s">
         <v>688</v>
       </c>
-      <c r="AI28" s="158"/>
-      <c r="AJ28" s="158"/>
-      <c r="AK28" s="152" t="s">
+      <c r="AI28" s="154"/>
+      <c r="AJ28" s="154"/>
+      <c r="AK28" s="158" t="s">
         <v>77</v>
       </c>
-      <c r="AL28" s="152">
+      <c r="AL28" s="158">
         <v>1</v>
       </c>
-      <c r="AM28" s="152"/>
-      <c r="AN28" s="152"/>
-      <c r="AO28" s="152" t="s">
+      <c r="AM28" s="158"/>
+      <c r="AN28" s="158"/>
+      <c r="AO28" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="AP28" s="152" t="s">
+      <c r="AP28" s="158" t="s">
         <v>509</v>
       </c>
-      <c r="AQ28" s="152"/>
-      <c r="AR28" s="152"/>
-      <c r="AS28" s="152" t="s">
+      <c r="AQ28" s="158"/>
+      <c r="AR28" s="158"/>
+      <c r="AS28" s="158" t="s">
         <v>141</v>
       </c>
-      <c r="AT28" s="152" t="s">
+      <c r="AT28" s="158" t="s">
         <v>510</v>
       </c>
-      <c r="AU28" s="152"/>
-      <c r="AV28" s="152"/>
-      <c r="AW28" s="152" t="s">
+      <c r="AU28" s="158"/>
+      <c r="AV28" s="158"/>
+      <c r="AW28" s="158" t="s">
         <v>141</v>
       </c>
-      <c r="AX28" s="152" t="s">
+      <c r="AX28" s="158" t="s">
         <v>511</v>
       </c>
-      <c r="AY28" s="152"/>
-      <c r="AZ28" s="152"/>
-      <c r="BA28" s="152" t="s">
+      <c r="AY28" s="158"/>
+      <c r="AZ28" s="158"/>
+      <c r="BA28" s="158" t="s">
         <v>207</v>
       </c>
-      <c r="BB28" s="152" t="s">
+      <c r="BB28" s="158" t="s">
         <v>512</v>
       </c>
-      <c r="BC28" s="152"/>
-      <c r="BD28" s="152"/>
-      <c r="BE28" s="153" t="s">
+      <c r="BC28" s="158"/>
+      <c r="BD28" s="158"/>
+      <c r="BE28" s="163" t="s">
         <v>759</v>
       </c>
-      <c r="BF28" s="153" t="s">
+      <c r="BF28" s="163" t="s">
         <v>760</v>
       </c>
-      <c r="BG28" s="153"/>
-      <c r="BH28" s="153"/>
-      <c r="BI28" s="150" t="s">
+      <c r="BG28" s="163"/>
+      <c r="BH28" s="163"/>
+      <c r="BI28" s="166" t="s">
         <v>759</v>
       </c>
-      <c r="BJ28" s="150" t="s">
+      <c r="BJ28" s="166" t="s">
         <v>765</v>
       </c>
-      <c r="BK28" s="150"/>
-      <c r="BL28" s="150"/>
+      <c r="BK28" s="166"/>
+      <c r="BL28" s="166"/>
     </row>
     <row r="29" spans="1:64" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="C29" s="157"/>
-      <c r="D29" s="157"/>
-      <c r="E29" s="157"/>
-      <c r="F29" s="164"/>
-      <c r="G29" s="164"/>
-      <c r="H29" s="164"/>
-      <c r="I29" s="164"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="146"/>
-      <c r="N29" s="149"/>
-      <c r="O29" s="149"/>
-      <c r="P29" s="149"/>
-      <c r="Q29" s="146"/>
-      <c r="R29" s="148"/>
-      <c r="S29" s="148"/>
-      <c r="T29" s="148"/>
-      <c r="U29" s="146"/>
-      <c r="V29" s="162"/>
-      <c r="W29" s="162"/>
-      <c r="X29" s="162"/>
-      <c r="Y29" s="146"/>
-      <c r="Z29" s="146"/>
-      <c r="AA29" s="146"/>
-      <c r="AB29" s="146"/>
-      <c r="AC29" s="146"/>
-      <c r="AD29" s="146"/>
-      <c r="AE29" s="146"/>
-      <c r="AF29" s="146"/>
-      <c r="AG29" s="158"/>
-      <c r="AH29" s="158"/>
-      <c r="AI29" s="158"/>
-      <c r="AJ29" s="158"/>
-      <c r="AK29" s="152"/>
-      <c r="AL29" s="152"/>
-      <c r="AM29" s="152"/>
-      <c r="AN29" s="152"/>
-      <c r="AO29" s="152"/>
-      <c r="AP29" s="152"/>
-      <c r="AQ29" s="152"/>
-      <c r="AR29" s="152"/>
-      <c r="AS29" s="152"/>
-      <c r="AT29" s="152"/>
-      <c r="AU29" s="152"/>
-      <c r="AV29" s="152"/>
-      <c r="AW29" s="152"/>
-      <c r="AX29" s="152"/>
-      <c r="AY29" s="152"/>
-      <c r="AZ29" s="152"/>
-      <c r="BA29" s="152"/>
-      <c r="BB29" s="152"/>
-      <c r="BC29" s="152"/>
-      <c r="BD29" s="152"/>
-      <c r="BE29" s="153"/>
-      <c r="BF29" s="153"/>
-      <c r="BG29" s="153"/>
-      <c r="BH29" s="153"/>
-      <c r="BI29" s="150"/>
-      <c r="BJ29" s="150"/>
-      <c r="BK29" s="150"/>
-      <c r="BL29" s="150"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="155"/>
+      <c r="K29" s="155"/>
+      <c r="L29" s="155"/>
+      <c r="M29" s="151"/>
+      <c r="N29" s="155"/>
+      <c r="O29" s="155"/>
+      <c r="P29" s="155"/>
+      <c r="Q29" s="151"/>
+      <c r="R29" s="165"/>
+      <c r="S29" s="165"/>
+      <c r="T29" s="165"/>
+      <c r="U29" s="151"/>
+      <c r="V29" s="157"/>
+      <c r="W29" s="157"/>
+      <c r="X29" s="157"/>
+      <c r="Y29" s="151"/>
+      <c r="Z29" s="151"/>
+      <c r="AA29" s="151"/>
+      <c r="AB29" s="151"/>
+      <c r="AC29" s="151"/>
+      <c r="AD29" s="151"/>
+      <c r="AE29" s="151"/>
+      <c r="AF29" s="151"/>
+      <c r="AG29" s="154"/>
+      <c r="AH29" s="154"/>
+      <c r="AI29" s="154"/>
+      <c r="AJ29" s="154"/>
+      <c r="AK29" s="158"/>
+      <c r="AL29" s="158"/>
+      <c r="AM29" s="158"/>
+      <c r="AN29" s="158"/>
+      <c r="AO29" s="158"/>
+      <c r="AP29" s="158"/>
+      <c r="AQ29" s="158"/>
+      <c r="AR29" s="158"/>
+      <c r="AS29" s="158"/>
+      <c r="AT29" s="158"/>
+      <c r="AU29" s="158"/>
+      <c r="AV29" s="158"/>
+      <c r="AW29" s="158"/>
+      <c r="AX29" s="158"/>
+      <c r="AY29" s="158"/>
+      <c r="AZ29" s="158"/>
+      <c r="BA29" s="158"/>
+      <c r="BB29" s="158"/>
+      <c r="BC29" s="158"/>
+      <c r="BD29" s="158"/>
+      <c r="BE29" s="163"/>
+      <c r="BF29" s="163"/>
+      <c r="BG29" s="163"/>
+      <c r="BH29" s="163"/>
+      <c r="BI29" s="166"/>
+      <c r="BJ29" s="166"/>
+      <c r="BK29" s="166"/>
+      <c r="BL29" s="166"/>
     </row>
     <row r="30" spans="1:64" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
-      <c r="C30" s="157"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="164"/>
-      <c r="G30" s="164"/>
-      <c r="H30" s="164"/>
-      <c r="I30" s="164"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="146"/>
-      <c r="N30" s="149"/>
-      <c r="O30" s="149"/>
-      <c r="P30" s="149"/>
-      <c r="Q30" s="146"/>
-      <c r="R30" s="148"/>
-      <c r="S30" s="148"/>
-      <c r="T30" s="148"/>
-      <c r="U30" s="146"/>
-      <c r="V30" s="162"/>
-      <c r="W30" s="162"/>
-      <c r="X30" s="162"/>
-      <c r="Y30" s="146"/>
-      <c r="Z30" s="146"/>
-      <c r="AA30" s="146"/>
-      <c r="AB30" s="146"/>
-      <c r="AC30" s="146"/>
-      <c r="AD30" s="146"/>
-      <c r="AE30" s="146"/>
-      <c r="AF30" s="146"/>
-      <c r="AG30" s="158"/>
-      <c r="AH30" s="158"/>
-      <c r="AI30" s="158"/>
-      <c r="AJ30" s="158"/>
-      <c r="AK30" s="152"/>
-      <c r="AL30" s="152"/>
-      <c r="AM30" s="152"/>
-      <c r="AN30" s="152"/>
-      <c r="AO30" s="152"/>
-      <c r="AP30" s="152"/>
-      <c r="AQ30" s="152"/>
-      <c r="AR30" s="152"/>
-      <c r="AS30" s="152"/>
-      <c r="AT30" s="152"/>
-      <c r="AU30" s="152"/>
-      <c r="AV30" s="152"/>
-      <c r="AW30" s="152"/>
-      <c r="AX30" s="152"/>
-      <c r="AY30" s="152"/>
-      <c r="AZ30" s="152"/>
-      <c r="BA30" s="152"/>
-      <c r="BB30" s="152"/>
-      <c r="BC30" s="152"/>
-      <c r="BD30" s="152"/>
-      <c r="BE30" s="153"/>
-      <c r="BF30" s="153"/>
-      <c r="BG30" s="153"/>
-      <c r="BH30" s="153"/>
-      <c r="BI30" s="150"/>
-      <c r="BJ30" s="150"/>
-      <c r="BK30" s="150"/>
-      <c r="BL30" s="150"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="155"/>
+      <c r="K30" s="155"/>
+      <c r="L30" s="155"/>
+      <c r="M30" s="151"/>
+      <c r="N30" s="155"/>
+      <c r="O30" s="155"/>
+      <c r="P30" s="155"/>
+      <c r="Q30" s="151"/>
+      <c r="R30" s="165"/>
+      <c r="S30" s="165"/>
+      <c r="T30" s="165"/>
+      <c r="U30" s="151"/>
+      <c r="V30" s="157"/>
+      <c r="W30" s="157"/>
+      <c r="X30" s="157"/>
+      <c r="Y30" s="151"/>
+      <c r="Z30" s="151"/>
+      <c r="AA30" s="151"/>
+      <c r="AB30" s="151"/>
+      <c r="AC30" s="151"/>
+      <c r="AD30" s="151"/>
+      <c r="AE30" s="151"/>
+      <c r="AF30" s="151"/>
+      <c r="AG30" s="154"/>
+      <c r="AH30" s="154"/>
+      <c r="AI30" s="154"/>
+      <c r="AJ30" s="154"/>
+      <c r="AK30" s="158"/>
+      <c r="AL30" s="158"/>
+      <c r="AM30" s="158"/>
+      <c r="AN30" s="158"/>
+      <c r="AO30" s="158"/>
+      <c r="AP30" s="158"/>
+      <c r="AQ30" s="158"/>
+      <c r="AR30" s="158"/>
+      <c r="AS30" s="158"/>
+      <c r="AT30" s="158"/>
+      <c r="AU30" s="158"/>
+      <c r="AV30" s="158"/>
+      <c r="AW30" s="158"/>
+      <c r="AX30" s="158"/>
+      <c r="AY30" s="158"/>
+      <c r="AZ30" s="158"/>
+      <c r="BA30" s="158"/>
+      <c r="BB30" s="158"/>
+      <c r="BC30" s="158"/>
+      <c r="BD30" s="158"/>
+      <c r="BE30" s="163"/>
+      <c r="BF30" s="163"/>
+      <c r="BG30" s="163"/>
+      <c r="BH30" s="163"/>
+      <c r="BI30" s="166"/>
+      <c r="BJ30" s="166"/>
+      <c r="BK30" s="166"/>
+      <c r="BL30" s="166"/>
     </row>
     <row r="31" spans="1:64" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="164"/>
-      <c r="G31" s="164"/>
-      <c r="H31" s="164"/>
-      <c r="I31" s="164"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="146"/>
-      <c r="N31" s="149"/>
-      <c r="O31" s="149"/>
-      <c r="P31" s="149"/>
-      <c r="Q31" s="146"/>
-      <c r="R31" s="148"/>
-      <c r="S31" s="148"/>
-      <c r="T31" s="148"/>
-      <c r="U31" s="146"/>
-      <c r="V31" s="162"/>
-      <c r="W31" s="162"/>
-      <c r="X31" s="162"/>
-      <c r="Y31" s="146"/>
-      <c r="Z31" s="146"/>
-      <c r="AA31" s="146"/>
-      <c r="AB31" s="146"/>
-      <c r="AC31" s="146"/>
-      <c r="AD31" s="146"/>
-      <c r="AE31" s="146"/>
-      <c r="AF31" s="146"/>
-      <c r="AG31" s="158"/>
-      <c r="AH31" s="158"/>
-      <c r="AI31" s="158"/>
-      <c r="AJ31" s="158"/>
-      <c r="AK31" s="152"/>
-      <c r="AL31" s="152"/>
-      <c r="AM31" s="152"/>
-      <c r="AN31" s="152"/>
-      <c r="AO31" s="152"/>
-      <c r="AP31" s="152"/>
-      <c r="AQ31" s="152"/>
-      <c r="AR31" s="152"/>
-      <c r="AS31" s="152"/>
-      <c r="AT31" s="152"/>
-      <c r="AU31" s="152"/>
-      <c r="AV31" s="152"/>
-      <c r="AW31" s="152"/>
-      <c r="AX31" s="152"/>
-      <c r="AY31" s="152"/>
-      <c r="AZ31" s="152"/>
-      <c r="BA31" s="152"/>
-      <c r="BB31" s="152"/>
-      <c r="BC31" s="152"/>
-      <c r="BD31" s="152"/>
-      <c r="BE31" s="153"/>
-      <c r="BF31" s="153"/>
-      <c r="BG31" s="153"/>
-      <c r="BH31" s="153"/>
-      <c r="BI31" s="150"/>
-      <c r="BJ31" s="150"/>
-      <c r="BK31" s="150"/>
-      <c r="BL31" s="150"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="155"/>
+      <c r="L31" s="155"/>
+      <c r="M31" s="151"/>
+      <c r="N31" s="155"/>
+      <c r="O31" s="155"/>
+      <c r="P31" s="155"/>
+      <c r="Q31" s="151"/>
+      <c r="R31" s="165"/>
+      <c r="S31" s="165"/>
+      <c r="T31" s="165"/>
+      <c r="U31" s="151"/>
+      <c r="V31" s="157"/>
+      <c r="W31" s="157"/>
+      <c r="X31" s="157"/>
+      <c r="Y31" s="151"/>
+      <c r="Z31" s="151"/>
+      <c r="AA31" s="151"/>
+      <c r="AB31" s="151"/>
+      <c r="AC31" s="151"/>
+      <c r="AD31" s="151"/>
+      <c r="AE31" s="151"/>
+      <c r="AF31" s="151"/>
+      <c r="AG31" s="154"/>
+      <c r="AH31" s="154"/>
+      <c r="AI31" s="154"/>
+      <c r="AJ31" s="154"/>
+      <c r="AK31" s="158"/>
+      <c r="AL31" s="158"/>
+      <c r="AM31" s="158"/>
+      <c r="AN31" s="158"/>
+      <c r="AO31" s="158"/>
+      <c r="AP31" s="158"/>
+      <c r="AQ31" s="158"/>
+      <c r="AR31" s="158"/>
+      <c r="AS31" s="158"/>
+      <c r="AT31" s="158"/>
+      <c r="AU31" s="158"/>
+      <c r="AV31" s="158"/>
+      <c r="AW31" s="158"/>
+      <c r="AX31" s="158"/>
+      <c r="AY31" s="158"/>
+      <c r="AZ31" s="158"/>
+      <c r="BA31" s="158"/>
+      <c r="BB31" s="158"/>
+      <c r="BC31" s="158"/>
+      <c r="BD31" s="158"/>
+      <c r="BE31" s="163"/>
+      <c r="BF31" s="163"/>
+      <c r="BG31" s="163"/>
+      <c r="BH31" s="163"/>
+      <c r="BI31" s="166"/>
+      <c r="BJ31" s="166"/>
+      <c r="BK31" s="166"/>
+      <c r="BL31" s="166"/>
     </row>
     <row r="32" spans="1:64" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
-      <c r="F32" s="164"/>
-      <c r="G32" s="164"/>
-      <c r="H32" s="164"/>
-      <c r="I32" s="164"/>
-      <c r="J32" s="146" t="s">
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="151" t="s">
         <v>536</v>
       </c>
-      <c r="K32" s="146"/>
-      <c r="L32" s="146"/>
-      <c r="M32" s="146"/>
-      <c r="N32" s="146" t="s">
+      <c r="K32" s="151"/>
+      <c r="L32" s="151"/>
+      <c r="M32" s="151"/>
+      <c r="N32" s="151" t="s">
         <v>78</v>
       </c>
-      <c r="O32" s="146"/>
-      <c r="P32" s="146"/>
-      <c r="Q32" s="146"/>
-      <c r="R32" s="148"/>
-      <c r="S32" s="148"/>
-      <c r="T32" s="148"/>
-      <c r="U32" s="146"/>
-      <c r="V32" s="160" t="s">
+      <c r="O32" s="151"/>
+      <c r="P32" s="151"/>
+      <c r="Q32" s="151"/>
+      <c r="R32" s="165"/>
+      <c r="S32" s="165"/>
+      <c r="T32" s="165"/>
+      <c r="U32" s="151"/>
+      <c r="V32" s="153" t="s">
         <v>79</v>
       </c>
-      <c r="W32" s="160"/>
-      <c r="X32" s="160"/>
-      <c r="Y32" s="146"/>
-      <c r="Z32" s="146" t="s">
+      <c r="W32" s="153"/>
+      <c r="X32" s="153"/>
+      <c r="Y32" s="151"/>
+      <c r="Z32" s="151" t="s">
         <v>99</v>
       </c>
-      <c r="AA32" s="146"/>
-      <c r="AB32" s="146"/>
-      <c r="AC32" s="146"/>
-      <c r="AD32" s="146" t="s">
+      <c r="AA32" s="151"/>
+      <c r="AB32" s="151"/>
+      <c r="AC32" s="151"/>
+      <c r="AD32" s="151" t="s">
         <v>100</v>
       </c>
-      <c r="AE32" s="146"/>
-      <c r="AF32" s="146"/>
-      <c r="AG32" s="158"/>
-      <c r="AH32" s="158" t="s">
+      <c r="AE32" s="151"/>
+      <c r="AF32" s="151"/>
+      <c r="AG32" s="154"/>
+      <c r="AH32" s="154" t="s">
         <v>80</v>
       </c>
-      <c r="AI32" s="158"/>
-      <c r="AJ32" s="158"/>
-      <c r="AK32" s="152"/>
-      <c r="AL32" s="152"/>
-      <c r="AM32" s="152"/>
-      <c r="AN32" s="152"/>
-      <c r="AO32" s="152"/>
-      <c r="AP32" s="152" t="s">
+      <c r="AI32" s="154"/>
+      <c r="AJ32" s="154"/>
+      <c r="AK32" s="158"/>
+      <c r="AL32" s="158"/>
+      <c r="AM32" s="158"/>
+      <c r="AN32" s="158"/>
+      <c r="AO32" s="158"/>
+      <c r="AP32" s="158" t="s">
         <v>97</v>
       </c>
-      <c r="AQ32" s="152"/>
-      <c r="AR32" s="152"/>
-      <c r="AS32" s="152"/>
-      <c r="AT32" s="154" t="s">
+      <c r="AQ32" s="158"/>
+      <c r="AR32" s="158"/>
+      <c r="AS32" s="158"/>
+      <c r="AT32" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="AU32" s="154"/>
-      <c r="AV32" s="154"/>
-      <c r="AW32" s="152"/>
-      <c r="AX32" s="152" t="s">
+      <c r="AU32" s="162"/>
+      <c r="AV32" s="162"/>
+      <c r="AW32" s="158"/>
+      <c r="AX32" s="158" t="s">
         <v>104</v>
       </c>
-      <c r="AY32" s="152"/>
-      <c r="AZ32" s="152"/>
-      <c r="BA32" s="152"/>
-      <c r="BB32" s="151" t="s">
+      <c r="AY32" s="158"/>
+      <c r="AZ32" s="158"/>
+      <c r="BA32" s="158"/>
+      <c r="BB32" s="161" t="s">
         <v>209</v>
       </c>
-      <c r="BC32" s="151"/>
-      <c r="BD32" s="151"/>
-      <c r="BE32" s="153"/>
-      <c r="BF32" s="153"/>
-      <c r="BG32" s="153"/>
-      <c r="BH32" s="153"/>
-      <c r="BI32" s="150"/>
-      <c r="BJ32" s="150"/>
-      <c r="BK32" s="150"/>
-      <c r="BL32" s="150"/>
+      <c r="BC32" s="161"/>
+      <c r="BD32" s="161"/>
+      <c r="BE32" s="163"/>
+      <c r="BF32" s="163"/>
+      <c r="BG32" s="163"/>
+      <c r="BH32" s="163"/>
+      <c r="BI32" s="166"/>
+      <c r="BJ32" s="166"/>
+      <c r="BK32" s="166"/>
+      <c r="BL32" s="166"/>
     </row>
     <row r="33" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="F33" s="164" t="s">
+      <c r="F33" s="148" t="s">
         <v>865</v>
       </c>
-      <c r="G33" s="164"/>
-      <c r="H33" s="164"/>
-      <c r="I33" s="164"/>
-      <c r="J33" s="146" t="s">
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="151" t="s">
         <v>144</v>
       </c>
-      <c r="K33" s="146"/>
-      <c r="L33" s="146"/>
-      <c r="M33" s="146"/>
-      <c r="N33" s="146"/>
-      <c r="O33" s="146"/>
-      <c r="P33" s="146"/>
-      <c r="Q33" s="146"/>
-      <c r="R33" s="146"/>
-      <c r="S33" s="146"/>
-      <c r="T33" s="146"/>
-      <c r="U33" s="146"/>
-      <c r="V33" s="146"/>
-      <c r="W33" s="146"/>
-      <c r="X33" s="146"/>
-      <c r="Y33" s="146"/>
-      <c r="Z33" s="146"/>
-      <c r="AA33" s="146"/>
-      <c r="AB33" s="146"/>
-      <c r="AC33" s="146"/>
-      <c r="AD33" s="146"/>
-      <c r="AE33" s="146"/>
-      <c r="AF33" s="146"/>
-      <c r="AG33" s="163" t="s">
+      <c r="K33" s="151"/>
+      <c r="L33" s="151"/>
+      <c r="M33" s="151"/>
+      <c r="N33" s="151"/>
+      <c r="O33" s="151"/>
+      <c r="P33" s="151"/>
+      <c r="Q33" s="151"/>
+      <c r="R33" s="151"/>
+      <c r="S33" s="151"/>
+      <c r="T33" s="151"/>
+      <c r="U33" s="151"/>
+      <c r="V33" s="151"/>
+      <c r="W33" s="151"/>
+      <c r="X33" s="151"/>
+      <c r="Y33" s="151"/>
+      <c r="Z33" s="151"/>
+      <c r="AA33" s="151"/>
+      <c r="AB33" s="151"/>
+      <c r="AC33" s="151"/>
+      <c r="AD33" s="151"/>
+      <c r="AE33" s="151"/>
+      <c r="AF33" s="151"/>
+      <c r="AG33" s="152" t="s">
         <v>146</v>
       </c>
-      <c r="AH33" s="163"/>
-      <c r="AI33" s="163"/>
-      <c r="AJ33" s="163"/>
-      <c r="AK33" s="151" t="s">
+      <c r="AH33" s="152"/>
+      <c r="AI33" s="152"/>
+      <c r="AJ33" s="152"/>
+      <c r="AK33" s="161" t="s">
         <v>143</v>
       </c>
-      <c r="AL33" s="151"/>
-      <c r="AM33" s="151"/>
-      <c r="AN33" s="151"/>
-      <c r="AO33" s="151"/>
-      <c r="AP33" s="151"/>
-      <c r="AQ33" s="151"/>
-      <c r="AR33" s="151"/>
-      <c r="AS33" s="151"/>
-      <c r="AT33" s="151"/>
-      <c r="AU33" s="151"/>
-      <c r="AV33" s="151"/>
-      <c r="AW33" s="151"/>
-      <c r="AX33" s="151"/>
-      <c r="AY33" s="151"/>
-      <c r="AZ33" s="151"/>
-      <c r="BA33" s="151"/>
-      <c r="BB33" s="151"/>
-      <c r="BC33" s="151"/>
-      <c r="BD33" s="151"/>
-      <c r="BE33" s="153" t="s">
+      <c r="AL33" s="161"/>
+      <c r="AM33" s="161"/>
+      <c r="AN33" s="161"/>
+      <c r="AO33" s="161"/>
+      <c r="AP33" s="161"/>
+      <c r="AQ33" s="161"/>
+      <c r="AR33" s="161"/>
+      <c r="AS33" s="161"/>
+      <c r="AT33" s="161"/>
+      <c r="AU33" s="161"/>
+      <c r="AV33" s="161"/>
+      <c r="AW33" s="161"/>
+      <c r="AX33" s="161"/>
+      <c r="AY33" s="161"/>
+      <c r="AZ33" s="161"/>
+      <c r="BA33" s="161"/>
+      <c r="BB33" s="161"/>
+      <c r="BC33" s="161"/>
+      <c r="BD33" s="161"/>
+      <c r="BE33" s="163" t="s">
         <v>434</v>
       </c>
-      <c r="BF33" s="153"/>
-      <c r="BG33" s="153"/>
-      <c r="BH33" s="153"/>
-      <c r="BI33" s="150" t="s">
+      <c r="BF33" s="163"/>
+      <c r="BG33" s="163"/>
+      <c r="BH33" s="163"/>
+      <c r="BI33" s="166" t="s">
         <v>766</v>
       </c>
-      <c r="BJ33" s="150"/>
-      <c r="BK33" s="150"/>
-      <c r="BL33" s="150"/>
+      <c r="BJ33" s="166"/>
+      <c r="BK33" s="166"/>
+      <c r="BL33" s="166"/>
       <c r="BM33" s="16"/>
     </row>
     <row r="34" spans="1:71" x14ac:dyDescent="0.15">
@@ -27935,530 +28008,532 @@
       <c r="A36" s="46" t="s">
         <v>607</v>
       </c>
-      <c r="C36" s="156" t="s">
+      <c r="C36" s="149" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="157"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="164"/>
-      <c r="G36" s="164"/>
-      <c r="H36" s="164"/>
-      <c r="I36" s="164" t="s">
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="148" t="s">
+        <v>899</v>
+      </c>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148" t="s">
         <v>862</v>
       </c>
-      <c r="J36" s="149" t="s">
+      <c r="J36" s="155" t="s">
         <v>650</v>
       </c>
-      <c r="K36" s="146"/>
-      <c r="L36" s="146"/>
-      <c r="M36" s="146" t="s">
+      <c r="K36" s="151"/>
+      <c r="L36" s="151"/>
+      <c r="M36" s="151" t="s">
         <v>77</v>
       </c>
-      <c r="N36" s="149" t="s">
+      <c r="N36" s="155" t="s">
         <v>573</v>
       </c>
-      <c r="O36" s="146"/>
-      <c r="P36" s="146"/>
-      <c r="Q36" s="146" t="s">
+      <c r="O36" s="151"/>
+      <c r="P36" s="151"/>
+      <c r="Q36" s="151" t="s">
         <v>855</v>
       </c>
-      <c r="R36" s="147" t="s">
+      <c r="R36" s="164" t="s">
         <v>864</v>
       </c>
-      <c r="S36" s="148"/>
-      <c r="T36" s="146" t="s">
+      <c r="S36" s="165"/>
+      <c r="T36" s="151" t="s">
         <v>77</v>
       </c>
-      <c r="U36" s="149" t="s">
+      <c r="U36" s="155" t="s">
         <v>115</v>
       </c>
-      <c r="V36" s="146"/>
-      <c r="W36" s="146"/>
-      <c r="X36" s="146" t="s">
+      <c r="V36" s="151"/>
+      <c r="W36" s="151"/>
+      <c r="X36" s="151" t="s">
         <v>77</v>
       </c>
-      <c r="Y36" s="146" t="s">
+      <c r="Y36" s="151" t="s">
         <v>518</v>
       </c>
-      <c r="Z36" s="146"/>
-      <c r="AA36" s="146"/>
-      <c r="AB36" s="146" t="s">
+      <c r="Z36" s="151"/>
+      <c r="AA36" s="151"/>
+      <c r="AB36" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="AC36" s="146" t="s">
+      <c r="AC36" s="151" t="s">
         <v>504</v>
       </c>
-      <c r="AD36" s="146"/>
-      <c r="AE36" s="146"/>
-      <c r="AF36" s="158" t="s">
+      <c r="AD36" s="151"/>
+      <c r="AE36" s="151"/>
+      <c r="AF36" s="154" t="s">
         <v>77</v>
       </c>
-      <c r="AG36" s="158" t="s">
+      <c r="AG36" s="154" t="s">
         <v>687</v>
       </c>
-      <c r="AH36" s="158"/>
-      <c r="AI36" s="158"/>
-      <c r="AJ36" s="152" t="s">
+      <c r="AH36" s="154"/>
+      <c r="AI36" s="154"/>
+      <c r="AJ36" s="158" t="s">
         <v>77</v>
       </c>
-      <c r="AK36" s="159" t="s">
+      <c r="AK36" s="160" t="s">
         <v>656</v>
       </c>
-      <c r="AL36" s="151"/>
-      <c r="AM36" s="151"/>
-      <c r="AN36" s="152" t="s">
+      <c r="AL36" s="161"/>
+      <c r="AM36" s="161"/>
+      <c r="AN36" s="158" t="s">
         <v>77</v>
       </c>
-      <c r="AO36" s="161" t="s">
+      <c r="AO36" s="159" t="s">
         <v>654</v>
       </c>
-      <c r="AP36" s="152"/>
-      <c r="AQ36" s="152"/>
-      <c r="AR36" s="152" t="s">
+      <c r="AP36" s="158"/>
+      <c r="AQ36" s="158"/>
+      <c r="AR36" s="158" t="s">
         <v>94</v>
       </c>
-      <c r="AS36" s="152">
+      <c r="AS36" s="158">
         <v>1</v>
       </c>
-      <c r="AT36" s="152"/>
-      <c r="AU36" s="152"/>
-      <c r="AV36" s="152" t="s">
+      <c r="AT36" s="158"/>
+      <c r="AU36" s="158"/>
+      <c r="AV36" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="AW36" s="152" t="s">
+      <c r="AW36" s="158" t="s">
         <v>517</v>
       </c>
-      <c r="AX36" s="152"/>
-      <c r="AY36" s="152"/>
-      <c r="AZ36" s="152" t="s">
+      <c r="AX36" s="158"/>
+      <c r="AY36" s="158"/>
+      <c r="AZ36" s="158" t="s">
         <v>142</v>
       </c>
-      <c r="BA36" s="152" t="s">
+      <c r="BA36" s="158" t="s">
         <v>516</v>
       </c>
-      <c r="BB36" s="152"/>
-      <c r="BC36" s="152"/>
-      <c r="BD36" s="152" t="s">
+      <c r="BB36" s="158"/>
+      <c r="BC36" s="158"/>
+      <c r="BD36" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="BE36" s="152" t="s">
+      <c r="BE36" s="158" t="s">
         <v>515</v>
       </c>
-      <c r="BF36" s="152"/>
-      <c r="BG36" s="152"/>
-      <c r="BH36" s="152" t="s">
+      <c r="BF36" s="158"/>
+      <c r="BG36" s="158"/>
+      <c r="BH36" s="158" t="s">
         <v>208</v>
       </c>
-      <c r="BI36" s="152" t="s">
+      <c r="BI36" s="158" t="s">
         <v>514</v>
       </c>
-      <c r="BJ36" s="152"/>
-      <c r="BK36" s="152"/>
-      <c r="BL36" s="153" t="s">
+      <c r="BJ36" s="158"/>
+      <c r="BK36" s="158"/>
+      <c r="BL36" s="163" t="s">
         <v>101</v>
       </c>
-      <c r="BM36" s="153" t="s">
+      <c r="BM36" s="163" t="s">
         <v>513</v>
       </c>
-      <c r="BN36" s="153"/>
-      <c r="BO36" s="153"/>
-      <c r="BP36" s="150" t="s">
+      <c r="BN36" s="163"/>
+      <c r="BO36" s="163"/>
+      <c r="BP36" s="166" t="s">
         <v>759</v>
       </c>
-      <c r="BQ36" s="150" t="s">
+      <c r="BQ36" s="166" t="s">
         <v>765</v>
       </c>
-      <c r="BR36" s="150"/>
-      <c r="BS36" s="150"/>
+      <c r="BR36" s="166"/>
+      <c r="BS36" s="166"/>
     </row>
     <row r="37" spans="1:71" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
-      <c r="C37" s="157"/>
-      <c r="D37" s="157"/>
-      <c r="E37" s="157"/>
-      <c r="F37" s="164"/>
-      <c r="G37" s="164"/>
-      <c r="H37" s="164"/>
-      <c r="I37" s="164"/>
-      <c r="J37" s="146"/>
-      <c r="K37" s="146"/>
-      <c r="L37" s="146"/>
-      <c r="M37" s="146"/>
-      <c r="N37" s="146"/>
-      <c r="O37" s="146"/>
-      <c r="P37" s="146"/>
-      <c r="Q37" s="146"/>
-      <c r="R37" s="148"/>
-      <c r="S37" s="148"/>
-      <c r="T37" s="146"/>
-      <c r="U37" s="146"/>
-      <c r="V37" s="146"/>
-      <c r="W37" s="146"/>
-      <c r="X37" s="146"/>
-      <c r="Y37" s="146"/>
-      <c r="Z37" s="146"/>
-      <c r="AA37" s="146"/>
-      <c r="AB37" s="146"/>
-      <c r="AC37" s="146"/>
-      <c r="AD37" s="146"/>
-      <c r="AE37" s="146"/>
-      <c r="AF37" s="158"/>
-      <c r="AG37" s="158"/>
-      <c r="AH37" s="158"/>
-      <c r="AI37" s="158"/>
-      <c r="AJ37" s="152"/>
-      <c r="AK37" s="151"/>
-      <c r="AL37" s="151"/>
-      <c r="AM37" s="151"/>
-      <c r="AN37" s="152"/>
-      <c r="AO37" s="152"/>
-      <c r="AP37" s="152"/>
-      <c r="AQ37" s="152"/>
-      <c r="AR37" s="152"/>
-      <c r="AS37" s="152"/>
-      <c r="AT37" s="152"/>
-      <c r="AU37" s="152"/>
-      <c r="AV37" s="152"/>
-      <c r="AW37" s="152"/>
-      <c r="AX37" s="152"/>
-      <c r="AY37" s="152"/>
-      <c r="AZ37" s="152"/>
-      <c r="BA37" s="152"/>
-      <c r="BB37" s="152"/>
-      <c r="BC37" s="152"/>
-      <c r="BD37" s="152"/>
-      <c r="BE37" s="152"/>
-      <c r="BF37" s="152"/>
-      <c r="BG37" s="152"/>
-      <c r="BH37" s="152"/>
-      <c r="BI37" s="152"/>
-      <c r="BJ37" s="152"/>
-      <c r="BK37" s="152"/>
-      <c r="BL37" s="153"/>
-      <c r="BM37" s="153"/>
-      <c r="BN37" s="153"/>
-      <c r="BO37" s="153"/>
-      <c r="BP37" s="150"/>
-      <c r="BQ37" s="150"/>
-      <c r="BR37" s="150"/>
-      <c r="BS37" s="150"/>
+      <c r="C37" s="150"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="151"/>
+      <c r="K37" s="151"/>
+      <c r="L37" s="151"/>
+      <c r="M37" s="151"/>
+      <c r="N37" s="151"/>
+      <c r="O37" s="151"/>
+      <c r="P37" s="151"/>
+      <c r="Q37" s="151"/>
+      <c r="R37" s="165"/>
+      <c r="S37" s="165"/>
+      <c r="T37" s="151"/>
+      <c r="U37" s="151"/>
+      <c r="V37" s="151"/>
+      <c r="W37" s="151"/>
+      <c r="X37" s="151"/>
+      <c r="Y37" s="151"/>
+      <c r="Z37" s="151"/>
+      <c r="AA37" s="151"/>
+      <c r="AB37" s="151"/>
+      <c r="AC37" s="151"/>
+      <c r="AD37" s="151"/>
+      <c r="AE37" s="151"/>
+      <c r="AF37" s="154"/>
+      <c r="AG37" s="154"/>
+      <c r="AH37" s="154"/>
+      <c r="AI37" s="154"/>
+      <c r="AJ37" s="158"/>
+      <c r="AK37" s="161"/>
+      <c r="AL37" s="161"/>
+      <c r="AM37" s="161"/>
+      <c r="AN37" s="158"/>
+      <c r="AO37" s="158"/>
+      <c r="AP37" s="158"/>
+      <c r="AQ37" s="158"/>
+      <c r="AR37" s="158"/>
+      <c r="AS37" s="158"/>
+      <c r="AT37" s="158"/>
+      <c r="AU37" s="158"/>
+      <c r="AV37" s="158"/>
+      <c r="AW37" s="158"/>
+      <c r="AX37" s="158"/>
+      <c r="AY37" s="158"/>
+      <c r="AZ37" s="158"/>
+      <c r="BA37" s="158"/>
+      <c r="BB37" s="158"/>
+      <c r="BC37" s="158"/>
+      <c r="BD37" s="158"/>
+      <c r="BE37" s="158"/>
+      <c r="BF37" s="158"/>
+      <c r="BG37" s="158"/>
+      <c r="BH37" s="158"/>
+      <c r="BI37" s="158"/>
+      <c r="BJ37" s="158"/>
+      <c r="BK37" s="158"/>
+      <c r="BL37" s="163"/>
+      <c r="BM37" s="163"/>
+      <c r="BN37" s="163"/>
+      <c r="BO37" s="163"/>
+      <c r="BP37" s="166"/>
+      <c r="BQ37" s="166"/>
+      <c r="BR37" s="166"/>
+      <c r="BS37" s="166"/>
     </row>
     <row r="38" spans="1:71" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
         <v>644</v>
       </c>
-      <c r="C38" s="157"/>
-      <c r="D38" s="157"/>
-      <c r="E38" s="157"/>
-      <c r="F38" s="164"/>
-      <c r="G38" s="164"/>
-      <c r="H38" s="164"/>
-      <c r="I38" s="164"/>
-      <c r="J38" s="146"/>
-      <c r="K38" s="146"/>
-      <c r="L38" s="146"/>
-      <c r="M38" s="146"/>
-      <c r="N38" s="146"/>
-      <c r="O38" s="146"/>
-      <c r="P38" s="146"/>
-      <c r="Q38" s="146"/>
-      <c r="R38" s="148"/>
-      <c r="S38" s="148"/>
-      <c r="T38" s="146"/>
-      <c r="U38" s="146"/>
-      <c r="V38" s="146"/>
-      <c r="W38" s="146"/>
-      <c r="X38" s="146"/>
-      <c r="Y38" s="146"/>
-      <c r="Z38" s="146"/>
-      <c r="AA38" s="146"/>
-      <c r="AB38" s="146"/>
-      <c r="AC38" s="146"/>
-      <c r="AD38" s="146"/>
-      <c r="AE38" s="146"/>
-      <c r="AF38" s="158"/>
-      <c r="AG38" s="158"/>
-      <c r="AH38" s="158"/>
-      <c r="AI38" s="158"/>
-      <c r="AJ38" s="152"/>
-      <c r="AK38" s="151"/>
-      <c r="AL38" s="151"/>
-      <c r="AM38" s="151"/>
-      <c r="AN38" s="152"/>
-      <c r="AO38" s="152"/>
-      <c r="AP38" s="152"/>
-      <c r="AQ38" s="152"/>
-      <c r="AR38" s="152"/>
-      <c r="AS38" s="152"/>
-      <c r="AT38" s="152"/>
-      <c r="AU38" s="152"/>
-      <c r="AV38" s="152"/>
-      <c r="AW38" s="152"/>
-      <c r="AX38" s="152"/>
-      <c r="AY38" s="152"/>
-      <c r="AZ38" s="152"/>
-      <c r="BA38" s="152"/>
-      <c r="BB38" s="152"/>
-      <c r="BC38" s="152"/>
-      <c r="BD38" s="152"/>
-      <c r="BE38" s="152"/>
-      <c r="BF38" s="152"/>
-      <c r="BG38" s="152"/>
-      <c r="BH38" s="152"/>
-      <c r="BI38" s="152"/>
-      <c r="BJ38" s="152"/>
-      <c r="BK38" s="152"/>
-      <c r="BL38" s="153"/>
-      <c r="BM38" s="153"/>
-      <c r="BN38" s="153"/>
-      <c r="BO38" s="153"/>
-      <c r="BP38" s="150"/>
-      <c r="BQ38" s="150"/>
-      <c r="BR38" s="150"/>
-      <c r="BS38" s="150"/>
+      <c r="C38" s="150"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="151"/>
+      <c r="K38" s="151"/>
+      <c r="L38" s="151"/>
+      <c r="M38" s="151"/>
+      <c r="N38" s="151"/>
+      <c r="O38" s="151"/>
+      <c r="P38" s="151"/>
+      <c r="Q38" s="151"/>
+      <c r="R38" s="165"/>
+      <c r="S38" s="165"/>
+      <c r="T38" s="151"/>
+      <c r="U38" s="151"/>
+      <c r="V38" s="151"/>
+      <c r="W38" s="151"/>
+      <c r="X38" s="151"/>
+      <c r="Y38" s="151"/>
+      <c r="Z38" s="151"/>
+      <c r="AA38" s="151"/>
+      <c r="AB38" s="151"/>
+      <c r="AC38" s="151"/>
+      <c r="AD38" s="151"/>
+      <c r="AE38" s="151"/>
+      <c r="AF38" s="154"/>
+      <c r="AG38" s="154"/>
+      <c r="AH38" s="154"/>
+      <c r="AI38" s="154"/>
+      <c r="AJ38" s="158"/>
+      <c r="AK38" s="161"/>
+      <c r="AL38" s="161"/>
+      <c r="AM38" s="161"/>
+      <c r="AN38" s="158"/>
+      <c r="AO38" s="158"/>
+      <c r="AP38" s="158"/>
+      <c r="AQ38" s="158"/>
+      <c r="AR38" s="158"/>
+      <c r="AS38" s="158"/>
+      <c r="AT38" s="158"/>
+      <c r="AU38" s="158"/>
+      <c r="AV38" s="158"/>
+      <c r="AW38" s="158"/>
+      <c r="AX38" s="158"/>
+      <c r="AY38" s="158"/>
+      <c r="AZ38" s="158"/>
+      <c r="BA38" s="158"/>
+      <c r="BB38" s="158"/>
+      <c r="BC38" s="158"/>
+      <c r="BD38" s="158"/>
+      <c r="BE38" s="158"/>
+      <c r="BF38" s="158"/>
+      <c r="BG38" s="158"/>
+      <c r="BH38" s="158"/>
+      <c r="BI38" s="158"/>
+      <c r="BJ38" s="158"/>
+      <c r="BK38" s="158"/>
+      <c r="BL38" s="163"/>
+      <c r="BM38" s="163"/>
+      <c r="BN38" s="163"/>
+      <c r="BO38" s="163"/>
+      <c r="BP38" s="166"/>
+      <c r="BQ38" s="166"/>
+      <c r="BR38" s="166"/>
+      <c r="BS38" s="166"/>
     </row>
     <row r="39" spans="1:71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C39" s="157"/>
-      <c r="D39" s="157"/>
-      <c r="E39" s="157"/>
-      <c r="F39" s="164"/>
-      <c r="G39" s="164"/>
-      <c r="H39" s="164"/>
-      <c r="I39" s="164"/>
-      <c r="J39" s="146"/>
-      <c r="K39" s="146"/>
-      <c r="L39" s="146"/>
-      <c r="M39" s="146"/>
-      <c r="N39" s="146"/>
-      <c r="O39" s="146"/>
-      <c r="P39" s="146"/>
-      <c r="Q39" s="146"/>
-      <c r="R39" s="148"/>
-      <c r="S39" s="148"/>
-      <c r="T39" s="146"/>
-      <c r="U39" s="146"/>
-      <c r="V39" s="146"/>
-      <c r="W39" s="146"/>
-      <c r="X39" s="146"/>
-      <c r="Y39" s="146"/>
-      <c r="Z39" s="146"/>
-      <c r="AA39" s="146"/>
-      <c r="AB39" s="146"/>
-      <c r="AC39" s="146"/>
-      <c r="AD39" s="146"/>
-      <c r="AE39" s="146"/>
-      <c r="AF39" s="158"/>
-      <c r="AG39" s="158"/>
-      <c r="AH39" s="158"/>
-      <c r="AI39" s="158"/>
-      <c r="AJ39" s="152"/>
-      <c r="AK39" s="151"/>
-      <c r="AL39" s="151"/>
-      <c r="AM39" s="151"/>
-      <c r="AN39" s="152"/>
-      <c r="AO39" s="152"/>
-      <c r="AP39" s="152"/>
-      <c r="AQ39" s="152"/>
-      <c r="AR39" s="152"/>
-      <c r="AS39" s="152"/>
-      <c r="AT39" s="152"/>
-      <c r="AU39" s="152"/>
-      <c r="AV39" s="152"/>
-      <c r="AW39" s="152"/>
-      <c r="AX39" s="152"/>
-      <c r="AY39" s="152"/>
-      <c r="AZ39" s="152"/>
-      <c r="BA39" s="152"/>
-      <c r="BB39" s="152"/>
-      <c r="BC39" s="152"/>
-      <c r="BD39" s="152"/>
-      <c r="BE39" s="152"/>
-      <c r="BF39" s="152"/>
-      <c r="BG39" s="152"/>
-      <c r="BH39" s="152"/>
-      <c r="BI39" s="152"/>
-      <c r="BJ39" s="152"/>
-      <c r="BK39" s="152"/>
-      <c r="BL39" s="153"/>
-      <c r="BM39" s="153"/>
-      <c r="BN39" s="153"/>
-      <c r="BO39" s="153"/>
-      <c r="BP39" s="150"/>
-      <c r="BQ39" s="150"/>
-      <c r="BR39" s="150"/>
-      <c r="BS39" s="150"/>
+      <c r="C39" s="150"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="151"/>
+      <c r="K39" s="151"/>
+      <c r="L39" s="151"/>
+      <c r="M39" s="151"/>
+      <c r="N39" s="151"/>
+      <c r="O39" s="151"/>
+      <c r="P39" s="151"/>
+      <c r="Q39" s="151"/>
+      <c r="R39" s="165"/>
+      <c r="S39" s="165"/>
+      <c r="T39" s="151"/>
+      <c r="U39" s="151"/>
+      <c r="V39" s="151"/>
+      <c r="W39" s="151"/>
+      <c r="X39" s="151"/>
+      <c r="Y39" s="151"/>
+      <c r="Z39" s="151"/>
+      <c r="AA39" s="151"/>
+      <c r="AB39" s="151"/>
+      <c r="AC39" s="151"/>
+      <c r="AD39" s="151"/>
+      <c r="AE39" s="151"/>
+      <c r="AF39" s="154"/>
+      <c r="AG39" s="154"/>
+      <c r="AH39" s="154"/>
+      <c r="AI39" s="154"/>
+      <c r="AJ39" s="158"/>
+      <c r="AK39" s="161"/>
+      <c r="AL39" s="161"/>
+      <c r="AM39" s="161"/>
+      <c r="AN39" s="158"/>
+      <c r="AO39" s="158"/>
+      <c r="AP39" s="158"/>
+      <c r="AQ39" s="158"/>
+      <c r="AR39" s="158"/>
+      <c r="AS39" s="158"/>
+      <c r="AT39" s="158"/>
+      <c r="AU39" s="158"/>
+      <c r="AV39" s="158"/>
+      <c r="AW39" s="158"/>
+      <c r="AX39" s="158"/>
+      <c r="AY39" s="158"/>
+      <c r="AZ39" s="158"/>
+      <c r="BA39" s="158"/>
+      <c r="BB39" s="158"/>
+      <c r="BC39" s="158"/>
+      <c r="BD39" s="158"/>
+      <c r="BE39" s="158"/>
+      <c r="BF39" s="158"/>
+      <c r="BG39" s="158"/>
+      <c r="BH39" s="158"/>
+      <c r="BI39" s="158"/>
+      <c r="BJ39" s="158"/>
+      <c r="BK39" s="158"/>
+      <c r="BL39" s="163"/>
+      <c r="BM39" s="163"/>
+      <c r="BN39" s="163"/>
+      <c r="BO39" s="163"/>
+      <c r="BP39" s="166"/>
+      <c r="BQ39" s="166"/>
+      <c r="BR39" s="166"/>
+      <c r="BS39" s="166"/>
     </row>
     <row r="40" spans="1:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F40" s="164"/>
-      <c r="G40" s="164"/>
-      <c r="H40" s="164"/>
-      <c r="I40" s="164"/>
-      <c r="J40" s="146" t="s">
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="151" t="s">
         <v>536</v>
       </c>
-      <c r="K40" s="146"/>
-      <c r="L40" s="146"/>
-      <c r="M40" s="146"/>
-      <c r="N40" s="146" t="s">
+      <c r="K40" s="151"/>
+      <c r="L40" s="151"/>
+      <c r="M40" s="151"/>
+      <c r="N40" s="151" t="s">
         <v>78</v>
       </c>
-      <c r="O40" s="146"/>
-      <c r="P40" s="146"/>
-      <c r="Q40" s="146"/>
-      <c r="R40" s="148"/>
-      <c r="S40" s="148"/>
-      <c r="T40" s="146"/>
-      <c r="U40" s="160" t="s">
+      <c r="O40" s="151"/>
+      <c r="P40" s="151"/>
+      <c r="Q40" s="151"/>
+      <c r="R40" s="165"/>
+      <c r="S40" s="165"/>
+      <c r="T40" s="151"/>
+      <c r="U40" s="153" t="s">
         <v>106</v>
       </c>
-      <c r="V40" s="160"/>
-      <c r="W40" s="160"/>
-      <c r="X40" s="146"/>
-      <c r="Y40" s="146" t="s">
+      <c r="V40" s="153"/>
+      <c r="W40" s="153"/>
+      <c r="X40" s="151"/>
+      <c r="Y40" s="151" t="s">
         <v>99</v>
       </c>
-      <c r="Z40" s="146"/>
-      <c r="AA40" s="146"/>
-      <c r="AB40" s="146"/>
-      <c r="AC40" s="146" t="s">
+      <c r="Z40" s="151"/>
+      <c r="AA40" s="151"/>
+      <c r="AB40" s="151"/>
+      <c r="AC40" s="151" t="s">
         <v>100</v>
       </c>
-      <c r="AD40" s="146"/>
-      <c r="AE40" s="146"/>
-      <c r="AF40" s="158"/>
-      <c r="AG40" s="158" t="s">
+      <c r="AD40" s="151"/>
+      <c r="AE40" s="151"/>
+      <c r="AF40" s="154"/>
+      <c r="AG40" s="154" t="s">
         <v>80</v>
       </c>
-      <c r="AH40" s="158"/>
-      <c r="AI40" s="158"/>
-      <c r="AJ40" s="152"/>
-      <c r="AK40" s="152" t="s">
+      <c r="AH40" s="154"/>
+      <c r="AI40" s="154"/>
+      <c r="AJ40" s="158"/>
+      <c r="AK40" s="158" t="s">
         <v>96</v>
       </c>
-      <c r="AL40" s="152"/>
-      <c r="AM40" s="152"/>
-      <c r="AN40" s="152"/>
-      <c r="AO40" s="159" t="s">
+      <c r="AL40" s="158"/>
+      <c r="AM40" s="158"/>
+      <c r="AN40" s="158"/>
+      <c r="AO40" s="160" t="s">
         <v>102</v>
       </c>
-      <c r="AP40" s="151"/>
-      <c r="AQ40" s="151"/>
-      <c r="AR40" s="152"/>
-      <c r="AS40" s="154"/>
-      <c r="AT40" s="154"/>
-      <c r="AU40" s="154"/>
-      <c r="AV40" s="152"/>
-      <c r="AW40" s="154" t="s">
+      <c r="AP40" s="161"/>
+      <c r="AQ40" s="161"/>
+      <c r="AR40" s="158"/>
+      <c r="AS40" s="162"/>
+      <c r="AT40" s="162"/>
+      <c r="AU40" s="162"/>
+      <c r="AV40" s="158"/>
+      <c r="AW40" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="AX40" s="154"/>
-      <c r="AY40" s="154"/>
-      <c r="AZ40" s="152"/>
-      <c r="BA40" s="152" t="s">
+      <c r="AX40" s="162"/>
+      <c r="AY40" s="162"/>
+      <c r="AZ40" s="158"/>
+      <c r="BA40" s="158" t="s">
         <v>97</v>
       </c>
-      <c r="BB40" s="152"/>
-      <c r="BC40" s="152"/>
-      <c r="BD40" s="152"/>
-      <c r="BE40" s="152" t="s">
+      <c r="BB40" s="158"/>
+      <c r="BC40" s="158"/>
+      <c r="BD40" s="158"/>
+      <c r="BE40" s="158" t="s">
         <v>107</v>
       </c>
-      <c r="BF40" s="152"/>
-      <c r="BG40" s="152"/>
-      <c r="BH40" s="152"/>
-      <c r="BI40" s="151" t="s">
+      <c r="BF40" s="158"/>
+      <c r="BG40" s="158"/>
+      <c r="BH40" s="158"/>
+      <c r="BI40" s="161" t="s">
         <v>209</v>
       </c>
-      <c r="BJ40" s="151"/>
-      <c r="BK40" s="151"/>
-      <c r="BL40" s="153"/>
-      <c r="BM40" s="153"/>
-      <c r="BN40" s="153"/>
-      <c r="BO40" s="153"/>
-      <c r="BP40" s="150"/>
-      <c r="BQ40" s="150"/>
-      <c r="BR40" s="150"/>
-      <c r="BS40" s="150"/>
+      <c r="BJ40" s="161"/>
+      <c r="BK40" s="161"/>
+      <c r="BL40" s="163"/>
+      <c r="BM40" s="163"/>
+      <c r="BN40" s="163"/>
+      <c r="BO40" s="163"/>
+      <c r="BP40" s="166"/>
+      <c r="BQ40" s="166"/>
+      <c r="BR40" s="166"/>
+      <c r="BS40" s="166"/>
     </row>
     <row r="41" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="F41" s="164" t="s">
+      <c r="F41" s="148" t="s">
         <v>865</v>
       </c>
-      <c r="G41" s="164"/>
-      <c r="H41" s="164"/>
-      <c r="I41" s="164"/>
-      <c r="J41" s="155" t="s">
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="156" t="s">
         <v>144</v>
       </c>
-      <c r="K41" s="155"/>
-      <c r="L41" s="155"/>
-      <c r="M41" s="155"/>
-      <c r="N41" s="155"/>
-      <c r="O41" s="155"/>
-      <c r="P41" s="155"/>
-      <c r="Q41" s="155"/>
-      <c r="R41" s="155"/>
-      <c r="S41" s="155"/>
-      <c r="T41" s="155"/>
-      <c r="U41" s="155"/>
-      <c r="V41" s="155"/>
-      <c r="W41" s="155"/>
-      <c r="X41" s="155"/>
-      <c r="Y41" s="155"/>
-      <c r="Z41" s="155"/>
-      <c r="AA41" s="155"/>
-      <c r="AB41" s="155"/>
-      <c r="AC41" s="155"/>
-      <c r="AD41" s="155"/>
-      <c r="AE41" s="155"/>
-      <c r="AF41" s="163" t="s">
+      <c r="K41" s="156"/>
+      <c r="L41" s="156"/>
+      <c r="M41" s="156"/>
+      <c r="N41" s="156"/>
+      <c r="O41" s="156"/>
+      <c r="P41" s="156"/>
+      <c r="Q41" s="156"/>
+      <c r="R41" s="156"/>
+      <c r="S41" s="156"/>
+      <c r="T41" s="156"/>
+      <c r="U41" s="156"/>
+      <c r="V41" s="156"/>
+      <c r="W41" s="156"/>
+      <c r="X41" s="156"/>
+      <c r="Y41" s="156"/>
+      <c r="Z41" s="156"/>
+      <c r="AA41" s="156"/>
+      <c r="AB41" s="156"/>
+      <c r="AC41" s="156"/>
+      <c r="AD41" s="156"/>
+      <c r="AE41" s="156"/>
+      <c r="AF41" s="152" t="s">
         <v>146</v>
       </c>
-      <c r="AG41" s="163"/>
-      <c r="AH41" s="163"/>
-      <c r="AI41" s="163"/>
-      <c r="AJ41" s="151" t="s">
+      <c r="AG41" s="152"/>
+      <c r="AH41" s="152"/>
+      <c r="AI41" s="152"/>
+      <c r="AJ41" s="161" t="s">
         <v>143</v>
       </c>
-      <c r="AK41" s="151"/>
-      <c r="AL41" s="151"/>
-      <c r="AM41" s="151"/>
-      <c r="AN41" s="151"/>
-      <c r="AO41" s="151"/>
-      <c r="AP41" s="151"/>
-      <c r="AQ41" s="151"/>
-      <c r="AR41" s="151"/>
-      <c r="AS41" s="151"/>
-      <c r="AT41" s="151"/>
-      <c r="AU41" s="151"/>
-      <c r="AV41" s="151"/>
-      <c r="AW41" s="151"/>
-      <c r="AX41" s="151"/>
-      <c r="AY41" s="151"/>
-      <c r="AZ41" s="151"/>
-      <c r="BA41" s="151"/>
-      <c r="BB41" s="151"/>
-      <c r="BC41" s="151"/>
-      <c r="BD41" s="151"/>
-      <c r="BE41" s="151"/>
-      <c r="BF41" s="151"/>
-      <c r="BG41" s="151"/>
-      <c r="BH41" s="151"/>
-      <c r="BI41" s="151"/>
-      <c r="BJ41" s="151"/>
-      <c r="BK41" s="151"/>
-      <c r="BL41" s="153" t="s">
+      <c r="AK41" s="161"/>
+      <c r="AL41" s="161"/>
+      <c r="AM41" s="161"/>
+      <c r="AN41" s="161"/>
+      <c r="AO41" s="161"/>
+      <c r="AP41" s="161"/>
+      <c r="AQ41" s="161"/>
+      <c r="AR41" s="161"/>
+      <c r="AS41" s="161"/>
+      <c r="AT41" s="161"/>
+      <c r="AU41" s="161"/>
+      <c r="AV41" s="161"/>
+      <c r="AW41" s="161"/>
+      <c r="AX41" s="161"/>
+      <c r="AY41" s="161"/>
+      <c r="AZ41" s="161"/>
+      <c r="BA41" s="161"/>
+      <c r="BB41" s="161"/>
+      <c r="BC41" s="161"/>
+      <c r="BD41" s="161"/>
+      <c r="BE41" s="161"/>
+      <c r="BF41" s="161"/>
+      <c r="BG41" s="161"/>
+      <c r="BH41" s="161"/>
+      <c r="BI41" s="161"/>
+      <c r="BJ41" s="161"/>
+      <c r="BK41" s="161"/>
+      <c r="BL41" s="163" t="s">
         <v>434</v>
       </c>
-      <c r="BM41" s="153"/>
-      <c r="BN41" s="153"/>
-      <c r="BO41" s="153"/>
-      <c r="BP41" s="150" t="s">
+      <c r="BM41" s="163"/>
+      <c r="BN41" s="163"/>
+      <c r="BO41" s="163"/>
+      <c r="BP41" s="166" t="s">
         <v>766</v>
       </c>
-      <c r="BQ41" s="150"/>
-      <c r="BR41" s="150"/>
-      <c r="BS41" s="150"/>
+      <c r="BQ41" s="166"/>
+      <c r="BR41" s="166"/>
+      <c r="BS41" s="166"/>
     </row>
     <row r="42" spans="1:71" x14ac:dyDescent="0.15">
       <c r="J42" s="13"/>
@@ -28606,368 +28681,368 @@
       <c r="BR44" s="6"/>
     </row>
     <row r="45" spans="1:71" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C45" s="156" t="s">
+      <c r="C45" s="149" t="s">
         <v>110</v>
       </c>
-      <c r="D45" s="157"/>
-      <c r="E45" s="157"/>
+      <c r="D45" s="150"/>
+      <c r="E45" s="150"/>
       <c r="F45" s="92"/>
       <c r="G45" s="92"/>
       <c r="H45" s="92"/>
       <c r="I45" s="92"/>
-      <c r="J45" s="149" t="s">
+      <c r="J45" s="155" t="s">
         <v>650</v>
       </c>
-      <c r="K45" s="146"/>
-      <c r="L45" s="146"/>
-      <c r="M45" s="146" t="s">
+      <c r="K45" s="151"/>
+      <c r="L45" s="151"/>
+      <c r="M45" s="151" t="s">
         <v>111</v>
       </c>
-      <c r="N45" s="149" t="s">
+      <c r="N45" s="155" t="s">
         <v>115</v>
       </c>
-      <c r="O45" s="149"/>
-      <c r="P45" s="149"/>
-      <c r="Q45" s="149"/>
-      <c r="R45" s="149"/>
-      <c r="S45" s="149"/>
-      <c r="T45" s="146" t="s">
+      <c r="O45" s="155"/>
+      <c r="P45" s="155"/>
+      <c r="Q45" s="155"/>
+      <c r="R45" s="155"/>
+      <c r="S45" s="155"/>
+      <c r="T45" s="151" t="s">
         <v>94</v>
       </c>
-      <c r="U45" s="146" t="s">
+      <c r="U45" s="151" t="s">
         <v>519</v>
       </c>
-      <c r="V45" s="146"/>
-      <c r="W45" s="146"/>
-      <c r="X45" s="146" t="s">
+      <c r="V45" s="151"/>
+      <c r="W45" s="151"/>
+      <c r="X45" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="Y45" s="155" t="s">
+      <c r="Y45" s="156" t="s">
         <v>520</v>
       </c>
-      <c r="Z45" s="155"/>
-      <c r="AA45" s="155"/>
-      <c r="AB45" s="158" t="s">
+      <c r="Z45" s="156"/>
+      <c r="AA45" s="156"/>
+      <c r="AB45" s="154" t="s">
         <v>111</v>
       </c>
-      <c r="AC45" s="158" t="s">
+      <c r="AC45" s="154" t="s">
         <v>521</v>
       </c>
-      <c r="AD45" s="158"/>
-      <c r="AE45" s="158"/>
-      <c r="AF45" s="152" t="s">
+      <c r="AD45" s="154"/>
+      <c r="AE45" s="154"/>
+      <c r="AF45" s="158" t="s">
         <v>77</v>
       </c>
-      <c r="AG45" s="152">
+      <c r="AG45" s="158">
         <v>1</v>
       </c>
-      <c r="AH45" s="152"/>
-      <c r="AI45" s="152"/>
-      <c r="AJ45" s="152" t="s">
+      <c r="AH45" s="158"/>
+      <c r="AI45" s="158"/>
+      <c r="AJ45" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="AK45" s="152" t="s">
+      <c r="AK45" s="158" t="s">
         <v>522</v>
       </c>
-      <c r="AL45" s="152"/>
-      <c r="AM45" s="152"/>
-      <c r="AN45" s="152" t="s">
+      <c r="AL45" s="158"/>
+      <c r="AM45" s="158"/>
+      <c r="AN45" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="AO45" s="152" t="s">
+      <c r="AO45" s="158" t="s">
         <v>517</v>
       </c>
-      <c r="AP45" s="152"/>
-      <c r="AQ45" s="152"/>
-      <c r="AR45" s="152" t="s">
+      <c r="AP45" s="158"/>
+      <c r="AQ45" s="158"/>
+      <c r="AR45" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="AS45" s="152" t="s">
+      <c r="AS45" s="158" t="s">
         <v>515</v>
       </c>
-      <c r="AT45" s="152"/>
-      <c r="AU45" s="152"/>
-      <c r="AV45" s="152" t="s">
+      <c r="AT45" s="158"/>
+      <c r="AU45" s="158"/>
+      <c r="AV45" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="AW45" s="152" t="s">
+      <c r="AW45" s="158" t="s">
         <v>512</v>
       </c>
-      <c r="AX45" s="152"/>
-      <c r="AY45" s="152"/>
+      <c r="AX45" s="158"/>
+      <c r="AY45" s="158"/>
     </row>
     <row r="46" spans="1:71" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C46" s="157"/>
-      <c r="D46" s="157"/>
-      <c r="E46" s="157"/>
+      <c r="C46" s="150"/>
+      <c r="D46" s="150"/>
+      <c r="E46" s="150"/>
       <c r="F46" s="92"/>
       <c r="G46" s="92"/>
       <c r="H46" s="92"/>
       <c r="I46" s="92"/>
-      <c r="J46" s="146"/>
-      <c r="K46" s="146"/>
-      <c r="L46" s="146"/>
-      <c r="M46" s="146"/>
-      <c r="N46" s="149"/>
-      <c r="O46" s="149"/>
-      <c r="P46" s="149"/>
-      <c r="Q46" s="149"/>
-      <c r="R46" s="149"/>
-      <c r="S46" s="149"/>
-      <c r="T46" s="146"/>
-      <c r="U46" s="146"/>
-      <c r="V46" s="146"/>
-      <c r="W46" s="146"/>
-      <c r="X46" s="146"/>
-      <c r="Y46" s="155"/>
-      <c r="Z46" s="155"/>
-      <c r="AA46" s="155"/>
-      <c r="AB46" s="158"/>
-      <c r="AC46" s="158"/>
-      <c r="AD46" s="158"/>
-      <c r="AE46" s="158"/>
-      <c r="AF46" s="152"/>
-      <c r="AG46" s="152"/>
-      <c r="AH46" s="152"/>
-      <c r="AI46" s="152"/>
-      <c r="AJ46" s="152"/>
-      <c r="AK46" s="152"/>
-      <c r="AL46" s="152"/>
-      <c r="AM46" s="152"/>
-      <c r="AN46" s="152"/>
-      <c r="AO46" s="152"/>
-      <c r="AP46" s="152"/>
-      <c r="AQ46" s="152"/>
-      <c r="AR46" s="152"/>
-      <c r="AS46" s="152"/>
-      <c r="AT46" s="152"/>
-      <c r="AU46" s="152"/>
-      <c r="AV46" s="152"/>
-      <c r="AW46" s="152"/>
-      <c r="AX46" s="152"/>
-      <c r="AY46" s="152"/>
+      <c r="J46" s="151"/>
+      <c r="K46" s="151"/>
+      <c r="L46" s="151"/>
+      <c r="M46" s="151"/>
+      <c r="N46" s="155"/>
+      <c r="O46" s="155"/>
+      <c r="P46" s="155"/>
+      <c r="Q46" s="155"/>
+      <c r="R46" s="155"/>
+      <c r="S46" s="155"/>
+      <c r="T46" s="151"/>
+      <c r="U46" s="151"/>
+      <c r="V46" s="151"/>
+      <c r="W46" s="151"/>
+      <c r="X46" s="151"/>
+      <c r="Y46" s="156"/>
+      <c r="Z46" s="156"/>
+      <c r="AA46" s="156"/>
+      <c r="AB46" s="154"/>
+      <c r="AC46" s="154"/>
+      <c r="AD46" s="154"/>
+      <c r="AE46" s="154"/>
+      <c r="AF46" s="158"/>
+      <c r="AG46" s="158"/>
+      <c r="AH46" s="158"/>
+      <c r="AI46" s="158"/>
+      <c r="AJ46" s="158"/>
+      <c r="AK46" s="158"/>
+      <c r="AL46" s="158"/>
+      <c r="AM46" s="158"/>
+      <c r="AN46" s="158"/>
+      <c r="AO46" s="158"/>
+      <c r="AP46" s="158"/>
+      <c r="AQ46" s="158"/>
+      <c r="AR46" s="158"/>
+      <c r="AS46" s="158"/>
+      <c r="AT46" s="158"/>
+      <c r="AU46" s="158"/>
+      <c r="AV46" s="158"/>
+      <c r="AW46" s="158"/>
+      <c r="AX46" s="158"/>
+      <c r="AY46" s="158"/>
     </row>
     <row r="47" spans="1:71" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C47" s="157"/>
-      <c r="D47" s="157"/>
-      <c r="E47" s="157"/>
+      <c r="C47" s="150"/>
+      <c r="D47" s="150"/>
+      <c r="E47" s="150"/>
       <c r="F47" s="92"/>
       <c r="G47" s="92"/>
       <c r="H47" s="92"/>
       <c r="I47" s="92"/>
-      <c r="J47" s="146"/>
-      <c r="K47" s="146"/>
-      <c r="L47" s="146"/>
-      <c r="M47" s="146"/>
-      <c r="N47" s="149"/>
-      <c r="O47" s="149"/>
-      <c r="P47" s="149"/>
-      <c r="Q47" s="149"/>
-      <c r="R47" s="149"/>
-      <c r="S47" s="149"/>
-      <c r="T47" s="146"/>
-      <c r="U47" s="146"/>
-      <c r="V47" s="146"/>
-      <c r="W47" s="146"/>
-      <c r="X47" s="146"/>
-      <c r="Y47" s="155"/>
-      <c r="Z47" s="155"/>
-      <c r="AA47" s="155"/>
-      <c r="AB47" s="158"/>
-      <c r="AC47" s="158"/>
-      <c r="AD47" s="158"/>
-      <c r="AE47" s="158"/>
-      <c r="AF47" s="152"/>
-      <c r="AG47" s="152"/>
-      <c r="AH47" s="152"/>
-      <c r="AI47" s="152"/>
-      <c r="AJ47" s="152"/>
-      <c r="AK47" s="152"/>
-      <c r="AL47" s="152"/>
-      <c r="AM47" s="152"/>
-      <c r="AN47" s="152"/>
-      <c r="AO47" s="152"/>
-      <c r="AP47" s="152"/>
-      <c r="AQ47" s="152"/>
-      <c r="AR47" s="152"/>
-      <c r="AS47" s="152"/>
-      <c r="AT47" s="152"/>
-      <c r="AU47" s="152"/>
-      <c r="AV47" s="152"/>
-      <c r="AW47" s="152"/>
-      <c r="AX47" s="152"/>
-      <c r="AY47" s="152"/>
+      <c r="J47" s="151"/>
+      <c r="K47" s="151"/>
+      <c r="L47" s="151"/>
+      <c r="M47" s="151"/>
+      <c r="N47" s="155"/>
+      <c r="O47" s="155"/>
+      <c r="P47" s="155"/>
+      <c r="Q47" s="155"/>
+      <c r="R47" s="155"/>
+      <c r="S47" s="155"/>
+      <c r="T47" s="151"/>
+      <c r="U47" s="151"/>
+      <c r="V47" s="151"/>
+      <c r="W47" s="151"/>
+      <c r="X47" s="151"/>
+      <c r="Y47" s="156"/>
+      <c r="Z47" s="156"/>
+      <c r="AA47" s="156"/>
+      <c r="AB47" s="154"/>
+      <c r="AC47" s="154"/>
+      <c r="AD47" s="154"/>
+      <c r="AE47" s="154"/>
+      <c r="AF47" s="158"/>
+      <c r="AG47" s="158"/>
+      <c r="AH47" s="158"/>
+      <c r="AI47" s="158"/>
+      <c r="AJ47" s="158"/>
+      <c r="AK47" s="158"/>
+      <c r="AL47" s="158"/>
+      <c r="AM47" s="158"/>
+      <c r="AN47" s="158"/>
+      <c r="AO47" s="158"/>
+      <c r="AP47" s="158"/>
+      <c r="AQ47" s="158"/>
+      <c r="AR47" s="158"/>
+      <c r="AS47" s="158"/>
+      <c r="AT47" s="158"/>
+      <c r="AU47" s="158"/>
+      <c r="AV47" s="158"/>
+      <c r="AW47" s="158"/>
+      <c r="AX47" s="158"/>
+      <c r="AY47" s="158"/>
     </row>
     <row r="48" spans="1:71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C48" s="157"/>
-      <c r="D48" s="157"/>
-      <c r="E48" s="157"/>
+      <c r="C48" s="150"/>
+      <c r="D48" s="150"/>
+      <c r="E48" s="150"/>
       <c r="F48" s="92"/>
       <c r="G48" s="92"/>
       <c r="H48" s="92"/>
       <c r="I48" s="92"/>
-      <c r="J48" s="146"/>
-      <c r="K48" s="146"/>
-      <c r="L48" s="146"/>
-      <c r="M48" s="146"/>
-      <c r="N48" s="149"/>
-      <c r="O48" s="149"/>
-      <c r="P48" s="149"/>
-      <c r="Q48" s="149"/>
-      <c r="R48" s="149"/>
-      <c r="S48" s="149"/>
-      <c r="T48" s="146"/>
-      <c r="U48" s="146"/>
-      <c r="V48" s="146"/>
-      <c r="W48" s="146"/>
-      <c r="X48" s="146"/>
-      <c r="Y48" s="155"/>
-      <c r="Z48" s="155"/>
-      <c r="AA48" s="155"/>
-      <c r="AB48" s="158"/>
-      <c r="AC48" s="158"/>
-      <c r="AD48" s="158"/>
-      <c r="AE48" s="158"/>
-      <c r="AF48" s="152"/>
-      <c r="AG48" s="152"/>
-      <c r="AH48" s="152"/>
-      <c r="AI48" s="152"/>
-      <c r="AJ48" s="152"/>
-      <c r="AK48" s="152"/>
-      <c r="AL48" s="152"/>
-      <c r="AM48" s="152"/>
-      <c r="AN48" s="152"/>
-      <c r="AO48" s="152"/>
-      <c r="AP48" s="152"/>
-      <c r="AQ48" s="152"/>
-      <c r="AR48" s="152"/>
-      <c r="AS48" s="152"/>
-      <c r="AT48" s="152"/>
-      <c r="AU48" s="152"/>
-      <c r="AV48" s="152"/>
-      <c r="AW48" s="152"/>
-      <c r="AX48" s="152"/>
-      <c r="AY48" s="152"/>
+      <c r="J48" s="151"/>
+      <c r="K48" s="151"/>
+      <c r="L48" s="151"/>
+      <c r="M48" s="151"/>
+      <c r="N48" s="155"/>
+      <c r="O48" s="155"/>
+      <c r="P48" s="155"/>
+      <c r="Q48" s="155"/>
+      <c r="R48" s="155"/>
+      <c r="S48" s="155"/>
+      <c r="T48" s="151"/>
+      <c r="U48" s="151"/>
+      <c r="V48" s="151"/>
+      <c r="W48" s="151"/>
+      <c r="X48" s="151"/>
+      <c r="Y48" s="156"/>
+      <c r="Z48" s="156"/>
+      <c r="AA48" s="156"/>
+      <c r="AB48" s="154"/>
+      <c r="AC48" s="154"/>
+      <c r="AD48" s="154"/>
+      <c r="AE48" s="154"/>
+      <c r="AF48" s="158"/>
+      <c r="AG48" s="158"/>
+      <c r="AH48" s="158"/>
+      <c r="AI48" s="158"/>
+      <c r="AJ48" s="158"/>
+      <c r="AK48" s="158"/>
+      <c r="AL48" s="158"/>
+      <c r="AM48" s="158"/>
+      <c r="AN48" s="158"/>
+      <c r="AO48" s="158"/>
+      <c r="AP48" s="158"/>
+      <c r="AQ48" s="158"/>
+      <c r="AR48" s="158"/>
+      <c r="AS48" s="158"/>
+      <c r="AT48" s="158"/>
+      <c r="AU48" s="158"/>
+      <c r="AV48" s="158"/>
+      <c r="AW48" s="158"/>
+      <c r="AX48" s="158"/>
+      <c r="AY48" s="158"/>
     </row>
     <row r="49" spans="3:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
-      <c r="J49" s="146" t="s">
+      <c r="J49" s="151" t="s">
         <v>536</v>
       </c>
-      <c r="K49" s="146"/>
-      <c r="L49" s="146"/>
-      <c r="M49" s="146"/>
-      <c r="N49" s="160" t="s">
+      <c r="K49" s="151"/>
+      <c r="L49" s="151"/>
+      <c r="M49" s="151"/>
+      <c r="N49" s="153" t="s">
         <v>106</v>
       </c>
-      <c r="O49" s="160"/>
-      <c r="P49" s="160"/>
+      <c r="O49" s="153"/>
+      <c r="P49" s="153"/>
       <c r="Q49" s="89"/>
       <c r="R49" s="89"/>
       <c r="S49" s="89"/>
-      <c r="T49" s="146"/>
-      <c r="U49" s="146" t="s">
+      <c r="T49" s="151"/>
+      <c r="U49" s="151" t="s">
         <v>99</v>
       </c>
-      <c r="V49" s="146"/>
-      <c r="W49" s="146"/>
-      <c r="X49" s="146"/>
-      <c r="Y49" s="155" t="s">
+      <c r="V49" s="151"/>
+      <c r="W49" s="151"/>
+      <c r="X49" s="151"/>
+      <c r="Y49" s="156" t="s">
         <v>114</v>
       </c>
-      <c r="Z49" s="155"/>
-      <c r="AA49" s="155"/>
-      <c r="AB49" s="158"/>
-      <c r="AC49" s="158" t="s">
+      <c r="Z49" s="156"/>
+      <c r="AA49" s="156"/>
+      <c r="AB49" s="154"/>
+      <c r="AC49" s="154" t="s">
         <v>112</v>
       </c>
-      <c r="AD49" s="158"/>
-      <c r="AE49" s="158"/>
-      <c r="AF49" s="152"/>
-      <c r="AG49" s="152"/>
-      <c r="AH49" s="152"/>
-      <c r="AI49" s="152"/>
-      <c r="AJ49" s="152"/>
-      <c r="AK49" s="152" t="s">
+      <c r="AD49" s="154"/>
+      <c r="AE49" s="154"/>
+      <c r="AF49" s="158"/>
+      <c r="AG49" s="158"/>
+      <c r="AH49" s="158"/>
+      <c r="AI49" s="158"/>
+      <c r="AJ49" s="158"/>
+      <c r="AK49" s="158" t="s">
         <v>97</v>
       </c>
-      <c r="AL49" s="152"/>
-      <c r="AM49" s="152"/>
-      <c r="AN49" s="152"/>
-      <c r="AO49" s="152" t="s">
+      <c r="AL49" s="158"/>
+      <c r="AM49" s="158"/>
+      <c r="AN49" s="158"/>
+      <c r="AO49" s="158" t="s">
         <v>98</v>
       </c>
-      <c r="AP49" s="152"/>
-      <c r="AQ49" s="152"/>
-      <c r="AR49" s="152"/>
-      <c r="AS49" s="152" t="s">
+      <c r="AP49" s="158"/>
+      <c r="AQ49" s="158"/>
+      <c r="AR49" s="158"/>
+      <c r="AS49" s="158" t="s">
         <v>107</v>
       </c>
-      <c r="AT49" s="152"/>
-      <c r="AU49" s="152"/>
-      <c r="AV49" s="152"/>
-      <c r="AW49" s="151" t="s">
+      <c r="AT49" s="158"/>
+      <c r="AU49" s="158"/>
+      <c r="AV49" s="158"/>
+      <c r="AW49" s="161" t="s">
         <v>209</v>
       </c>
-      <c r="AX49" s="151"/>
-      <c r="AY49" s="151"/>
+      <c r="AX49" s="161"/>
+      <c r="AY49" s="161"/>
     </row>
     <row r="50" spans="3:61" x14ac:dyDescent="0.15">
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
-      <c r="J50" s="155" t="s">
+      <c r="J50" s="156" t="s">
         <v>144</v>
       </c>
-      <c r="K50" s="155"/>
-      <c r="L50" s="155"/>
-      <c r="M50" s="155"/>
-      <c r="N50" s="155"/>
-      <c r="O50" s="155"/>
-      <c r="P50" s="155"/>
-      <c r="Q50" s="155"/>
-      <c r="R50" s="155"/>
-      <c r="S50" s="155"/>
-      <c r="T50" s="155"/>
-      <c r="U50" s="155"/>
-      <c r="V50" s="155"/>
-      <c r="W50" s="155"/>
-      <c r="X50" s="155"/>
-      <c r="Y50" s="155"/>
-      <c r="Z50" s="155"/>
-      <c r="AA50" s="155"/>
-      <c r="AB50" s="163" t="s">
+      <c r="K50" s="156"/>
+      <c r="L50" s="156"/>
+      <c r="M50" s="156"/>
+      <c r="N50" s="156"/>
+      <c r="O50" s="156"/>
+      <c r="P50" s="156"/>
+      <c r="Q50" s="156"/>
+      <c r="R50" s="156"/>
+      <c r="S50" s="156"/>
+      <c r="T50" s="156"/>
+      <c r="U50" s="156"/>
+      <c r="V50" s="156"/>
+      <c r="W50" s="156"/>
+      <c r="X50" s="156"/>
+      <c r="Y50" s="156"/>
+      <c r="Z50" s="156"/>
+      <c r="AA50" s="156"/>
+      <c r="AB50" s="152" t="s">
         <v>146</v>
       </c>
-      <c r="AC50" s="163"/>
-      <c r="AD50" s="163"/>
-      <c r="AE50" s="163"/>
-      <c r="AF50" s="151" t="s">
+      <c r="AC50" s="152"/>
+      <c r="AD50" s="152"/>
+      <c r="AE50" s="152"/>
+      <c r="AF50" s="161" t="s">
         <v>143</v>
       </c>
-      <c r="AG50" s="151"/>
-      <c r="AH50" s="151"/>
-      <c r="AI50" s="151"/>
-      <c r="AJ50" s="151"/>
-      <c r="AK50" s="151"/>
-      <c r="AL50" s="151"/>
-      <c r="AM50" s="151"/>
-      <c r="AN50" s="151"/>
-      <c r="AO50" s="151"/>
-      <c r="AP50" s="151"/>
-      <c r="AQ50" s="151"/>
-      <c r="AR50" s="151"/>
-      <c r="AS50" s="151"/>
-      <c r="AT50" s="151"/>
-      <c r="AU50" s="151"/>
-      <c r="AV50" s="151"/>
-      <c r="AW50" s="151"/>
-      <c r="AX50" s="151"/>
-      <c r="AY50" s="151"/>
+      <c r="AG50" s="161"/>
+      <c r="AH50" s="161"/>
+      <c r="AI50" s="161"/>
+      <c r="AJ50" s="161"/>
+      <c r="AK50" s="161"/>
+      <c r="AL50" s="161"/>
+      <c r="AM50" s="161"/>
+      <c r="AN50" s="161"/>
+      <c r="AO50" s="161"/>
+      <c r="AP50" s="161"/>
+      <c r="AQ50" s="161"/>
+      <c r="AR50" s="161"/>
+      <c r="AS50" s="161"/>
+      <c r="AT50" s="161"/>
+      <c r="AU50" s="161"/>
+      <c r="AV50" s="161"/>
+      <c r="AW50" s="161"/>
+      <c r="AX50" s="161"/>
+      <c r="AY50" s="161"/>
     </row>
     <row r="51" spans="3:61" x14ac:dyDescent="0.15">
       <c r="BD51" s="3"/>
@@ -29079,15 +29154,108 @@
     </row>
   </sheetData>
   <mergeCells count="135">
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I28:I32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="I36:I40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F36:H39"/>
-    <mergeCell ref="F28:H31"/>
-    <mergeCell ref="C28:E31"/>
+    <mergeCell ref="Q28:Q32"/>
+    <mergeCell ref="Q36:Q40"/>
+    <mergeCell ref="R36:S40"/>
+    <mergeCell ref="R28:T32"/>
+    <mergeCell ref="N45:S48"/>
+    <mergeCell ref="BP36:BP40"/>
+    <mergeCell ref="BQ36:BS40"/>
+    <mergeCell ref="BP41:BS41"/>
+    <mergeCell ref="AF50:AY50"/>
+    <mergeCell ref="AS49:AU49"/>
+    <mergeCell ref="AW49:AY49"/>
+    <mergeCell ref="BF28:BH32"/>
+    <mergeCell ref="BI28:BI32"/>
+    <mergeCell ref="BJ28:BL32"/>
+    <mergeCell ref="BI33:BL33"/>
+    <mergeCell ref="BM36:BO40"/>
+    <mergeCell ref="BL41:BO41"/>
+    <mergeCell ref="AJ41:BK41"/>
+    <mergeCell ref="BI36:BK39"/>
+    <mergeCell ref="BI40:BK40"/>
+    <mergeCell ref="BE40:BG40"/>
+    <mergeCell ref="BA40:BC40"/>
+    <mergeCell ref="AO45:AQ48"/>
+    <mergeCell ref="BL36:BL40"/>
+    <mergeCell ref="BE28:BE32"/>
+    <mergeCell ref="BE33:BH33"/>
+    <mergeCell ref="AK33:BD33"/>
+    <mergeCell ref="BB32:BD32"/>
+    <mergeCell ref="AO28:AO32"/>
+    <mergeCell ref="AK28:AK32"/>
+    <mergeCell ref="AL28:AN31"/>
+    <mergeCell ref="AL32:AN32"/>
+    <mergeCell ref="BA28:BA32"/>
+    <mergeCell ref="BB28:BD31"/>
+    <mergeCell ref="AP28:AR31"/>
+    <mergeCell ref="AS28:AS32"/>
+    <mergeCell ref="AT28:AV31"/>
+    <mergeCell ref="AW28:AW32"/>
+    <mergeCell ref="AX28:AZ31"/>
+    <mergeCell ref="AP32:AR32"/>
+    <mergeCell ref="AT32:AV32"/>
+    <mergeCell ref="AX32:AZ32"/>
+    <mergeCell ref="J41:AE41"/>
+    <mergeCell ref="C45:E48"/>
+    <mergeCell ref="J45:L48"/>
+    <mergeCell ref="M45:M49"/>
+    <mergeCell ref="T45:T49"/>
+    <mergeCell ref="U45:W48"/>
+    <mergeCell ref="AK40:AM40"/>
+    <mergeCell ref="AG36:AI39"/>
+    <mergeCell ref="AJ36:AJ40"/>
+    <mergeCell ref="AK36:AM39"/>
+    <mergeCell ref="AG40:AI40"/>
+    <mergeCell ref="AK45:AM48"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="U49:W49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="AC49:AE49"/>
+    <mergeCell ref="Y45:AA48"/>
+    <mergeCell ref="AB45:AB49"/>
+    <mergeCell ref="AC45:AE48"/>
+    <mergeCell ref="X45:X49"/>
+    <mergeCell ref="C36:E39"/>
+    <mergeCell ref="J36:L39"/>
+    <mergeCell ref="AK49:AM49"/>
+    <mergeCell ref="AS45:AU48"/>
+    <mergeCell ref="AV45:AV49"/>
+    <mergeCell ref="AW45:AY48"/>
+    <mergeCell ref="AG49:AI49"/>
+    <mergeCell ref="AF45:AF49"/>
+    <mergeCell ref="AG45:AI48"/>
+    <mergeCell ref="AJ45:AJ49"/>
+    <mergeCell ref="BE36:BG39"/>
+    <mergeCell ref="BH36:BH40"/>
+    <mergeCell ref="AN36:AN40"/>
+    <mergeCell ref="AO36:AQ39"/>
+    <mergeCell ref="AR36:AR40"/>
+    <mergeCell ref="AS36:AU39"/>
+    <mergeCell ref="AV36:AV40"/>
+    <mergeCell ref="AW36:AY39"/>
+    <mergeCell ref="AO40:AQ40"/>
+    <mergeCell ref="AS40:AU40"/>
+    <mergeCell ref="AW40:AY40"/>
+    <mergeCell ref="AZ36:AZ40"/>
+    <mergeCell ref="AN45:AN49"/>
+    <mergeCell ref="AO49:AQ49"/>
+    <mergeCell ref="BA36:BC39"/>
+    <mergeCell ref="BD36:BD40"/>
+    <mergeCell ref="AR45:AR49"/>
+    <mergeCell ref="V28:X31"/>
+    <mergeCell ref="Y28:Y32"/>
+    <mergeCell ref="Z28:AB31"/>
+    <mergeCell ref="AC28:AC32"/>
+    <mergeCell ref="AD28:AF31"/>
+    <mergeCell ref="T36:T40"/>
+    <mergeCell ref="U36:W39"/>
+    <mergeCell ref="X36:X40"/>
+    <mergeCell ref="Y36:AA39"/>
+    <mergeCell ref="AB36:AB40"/>
+    <mergeCell ref="AC36:AE39"/>
+    <mergeCell ref="AF36:AF40"/>
     <mergeCell ref="J40:L40"/>
     <mergeCell ref="N40:P40"/>
     <mergeCell ref="N32:P32"/>
@@ -29112,108 +29280,15 @@
     <mergeCell ref="Y40:AA40"/>
     <mergeCell ref="AC40:AE40"/>
     <mergeCell ref="U28:U32"/>
-    <mergeCell ref="V28:X31"/>
-    <mergeCell ref="Y28:Y32"/>
-    <mergeCell ref="Z28:AB31"/>
-    <mergeCell ref="AC28:AC32"/>
-    <mergeCell ref="AD28:AF31"/>
-    <mergeCell ref="T36:T40"/>
-    <mergeCell ref="U36:W39"/>
-    <mergeCell ref="X36:X40"/>
-    <mergeCell ref="Y36:AA39"/>
-    <mergeCell ref="AB36:AB40"/>
-    <mergeCell ref="AC36:AE39"/>
-    <mergeCell ref="AF36:AF40"/>
-    <mergeCell ref="AS45:AU48"/>
-    <mergeCell ref="AV45:AV49"/>
-    <mergeCell ref="AW45:AY48"/>
-    <mergeCell ref="AG49:AI49"/>
-    <mergeCell ref="AF45:AF49"/>
-    <mergeCell ref="AG45:AI48"/>
-    <mergeCell ref="AJ45:AJ49"/>
-    <mergeCell ref="BE36:BG39"/>
-    <mergeCell ref="BH36:BH40"/>
-    <mergeCell ref="AN36:AN40"/>
-    <mergeCell ref="AO36:AQ39"/>
-    <mergeCell ref="AR36:AR40"/>
-    <mergeCell ref="AS36:AU39"/>
-    <mergeCell ref="AV36:AV40"/>
-    <mergeCell ref="AW36:AY39"/>
-    <mergeCell ref="AO40:AQ40"/>
-    <mergeCell ref="AS40:AU40"/>
-    <mergeCell ref="AW40:AY40"/>
-    <mergeCell ref="AZ36:AZ40"/>
-    <mergeCell ref="AN45:AN49"/>
-    <mergeCell ref="AO49:AQ49"/>
-    <mergeCell ref="BA36:BC39"/>
-    <mergeCell ref="BD36:BD40"/>
-    <mergeCell ref="AR45:AR49"/>
-    <mergeCell ref="J41:AE41"/>
-    <mergeCell ref="C45:E48"/>
-    <mergeCell ref="J45:L48"/>
-    <mergeCell ref="M45:M49"/>
-    <mergeCell ref="T45:T49"/>
-    <mergeCell ref="U45:W48"/>
-    <mergeCell ref="AK40:AM40"/>
-    <mergeCell ref="AG36:AI39"/>
-    <mergeCell ref="AJ36:AJ40"/>
-    <mergeCell ref="AK36:AM39"/>
-    <mergeCell ref="AG40:AI40"/>
-    <mergeCell ref="AK45:AM48"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="U49:W49"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="AC49:AE49"/>
-    <mergeCell ref="Y45:AA48"/>
-    <mergeCell ref="AB45:AB49"/>
-    <mergeCell ref="AC45:AE48"/>
-    <mergeCell ref="X45:X49"/>
-    <mergeCell ref="C36:E39"/>
-    <mergeCell ref="J36:L39"/>
-    <mergeCell ref="AK49:AM49"/>
-    <mergeCell ref="BE28:BE32"/>
-    <mergeCell ref="BE33:BH33"/>
-    <mergeCell ref="AK33:BD33"/>
-    <mergeCell ref="BB32:BD32"/>
-    <mergeCell ref="AO28:AO32"/>
-    <mergeCell ref="AK28:AK32"/>
-    <mergeCell ref="AL28:AN31"/>
-    <mergeCell ref="AL32:AN32"/>
-    <mergeCell ref="BA28:BA32"/>
-    <mergeCell ref="BB28:BD31"/>
-    <mergeCell ref="AP28:AR31"/>
-    <mergeCell ref="AS28:AS32"/>
-    <mergeCell ref="AT28:AV31"/>
-    <mergeCell ref="AW28:AW32"/>
-    <mergeCell ref="AX28:AZ31"/>
-    <mergeCell ref="AP32:AR32"/>
-    <mergeCell ref="AT32:AV32"/>
-    <mergeCell ref="AX32:AZ32"/>
-    <mergeCell ref="Q28:Q32"/>
-    <mergeCell ref="Q36:Q40"/>
-    <mergeCell ref="R36:S40"/>
-    <mergeCell ref="R28:T32"/>
-    <mergeCell ref="N45:S48"/>
-    <mergeCell ref="BP36:BP40"/>
-    <mergeCell ref="BQ36:BS40"/>
-    <mergeCell ref="BP41:BS41"/>
-    <mergeCell ref="AF50:AY50"/>
-    <mergeCell ref="AS49:AU49"/>
-    <mergeCell ref="AW49:AY49"/>
-    <mergeCell ref="BF28:BH32"/>
-    <mergeCell ref="BI28:BI32"/>
-    <mergeCell ref="BJ28:BL32"/>
-    <mergeCell ref="BI33:BL33"/>
-    <mergeCell ref="BM36:BO40"/>
-    <mergeCell ref="BL41:BO41"/>
-    <mergeCell ref="AJ41:BK41"/>
-    <mergeCell ref="BI36:BK39"/>
-    <mergeCell ref="BI40:BK40"/>
-    <mergeCell ref="BE40:BG40"/>
-    <mergeCell ref="BA40:BC40"/>
-    <mergeCell ref="AO45:AQ48"/>
-    <mergeCell ref="BL36:BL40"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I28:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="I36:I40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F36:H39"/>
+    <mergeCell ref="F28:H31"/>
+    <mergeCell ref="C28:E31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29226,7 +29301,7 @@
   <dimension ref="K62"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -29245,7 +29320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -29255,21 +29330,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="166" t="s">
-        <v>894</v>
+      <c r="A1" s="97" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
   </sheetData>

--- a/gd/数值规划/怪物属性配置及伤害公式.xlsx
+++ b/gd/数值规划/怪物属性配置及伤害公式.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="9" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="自用" sheetId="5" r:id="rId9"/>
     <sheet name="自用属性分配" sheetId="1" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="903">
   <si>
     <t>技能升级</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3618,6 +3618,10 @@
   </si>
   <si>
     <t>速度：只有场上怪物需要计算出手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个对局重置速度</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4418,6 +4422,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4481,59 +4486,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4541,20 +4504,17 @@
     <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4568,7 +4528,79 @@
     <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4577,55 +4609,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6541,13 +6545,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>819151</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6590,7 +6594,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -6639,13 +6643,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>93110</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -6655,7 +6659,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6724650" y="6496050"/>
+          <a:off x="6724650" y="6705600"/>
           <a:ext cx="7210425" cy="1350410"/>
           <a:chOff x="6724650" y="6076950"/>
           <a:chExt cx="7210425" cy="1350410"/>
@@ -6928,13 +6932,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>7385</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -6944,7 +6948,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6553200" y="8143875"/>
+          <a:off x="6553200" y="8353425"/>
           <a:ext cx="7324725" cy="1712360"/>
           <a:chOff x="6610350" y="6076950"/>
           <a:chExt cx="7324725" cy="1712360"/>
@@ -7261,13 +7265,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>215614</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>131210</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7319,13 +7323,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>72739</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>45485</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7377,13 +7381,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7434,13 +7438,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7484,13 +7488,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>631893</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>207410</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7542,13 +7546,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>98493</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>83585</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7600,13 +7604,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>188360</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -7616,7 +7620,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6591300" y="10039350"/>
+          <a:off x="6591300" y="10248900"/>
           <a:ext cx="7324725" cy="1883810"/>
           <a:chOff x="6657975" y="9582150"/>
           <a:chExt cx="7324725" cy="1883810"/>
@@ -8202,13 +8206,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>74060</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8218,7 +8222,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6638925" y="12525375"/>
+          <a:off x="6638925" y="12734925"/>
           <a:ext cx="7324725" cy="2007635"/>
           <a:chOff x="6657975" y="9563100"/>
           <a:chExt cx="7324725" cy="2007635"/>
@@ -8804,13 +8808,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>112160</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8820,7 +8824,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15535275" y="12544425"/>
+          <a:off x="15535275" y="12753975"/>
           <a:ext cx="7324725" cy="2026685"/>
           <a:chOff x="6657975" y="9563100"/>
           <a:chExt cx="7324725" cy="2026685"/>
@@ -9406,13 +9410,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>37480</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>133971</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>624718</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>148466</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19982,7 +19986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
@@ -20183,17 +20187,17 @@
     </row>
     <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="58"/>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="103" t="s">
         <v>722</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104" t="s">
+      <c r="C11" s="104"/>
+      <c r="D11" s="105" t="s">
         <v>723</v>
       </c>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="106"/>
       <c r="I11" s="59"/>
       <c r="J11" s="59"/>
       <c r="K11" s="59"/>
@@ -20208,11 +20212,11 @@
         <v>724</v>
       </c>
       <c r="C12" s="65"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="100"/>
       <c r="I12" s="59"/>
       <c r="J12" s="59"/>
       <c r="K12" s="59"/>
@@ -20227,11 +20231,11 @@
         <v>725</v>
       </c>
       <c r="C13" s="65"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="108"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="109"/>
       <c r="I13" s="59"/>
       <c r="J13" s="59"/>
       <c r="K13" s="59"/>
@@ -20246,11 +20250,11 @@
         <v>726</v>
       </c>
       <c r="C14" s="65"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="111"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="112"/>
       <c r="I14" s="59"/>
       <c r="J14" s="59"/>
       <c r="K14" s="59"/>
@@ -20267,11 +20271,11 @@
       <c r="C15" s="66" t="s">
         <v>728</v>
       </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="100"/>
       <c r="I15" s="59"/>
       <c r="J15" s="59"/>
       <c r="K15" s="59"/>
@@ -20286,11 +20290,11 @@
         <v>729</v>
       </c>
       <c r="C16" s="66"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="100"/>
       <c r="I16" s="59"/>
       <c r="J16" s="59"/>
       <c r="K16" s="59"/>
@@ -20305,11 +20309,11 @@
         <v>730</v>
       </c>
       <c r="C17" s="66"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="100"/>
       <c r="I17" s="59"/>
       <c r="J17" s="59"/>
       <c r="K17" s="59"/>
@@ -20324,11 +20328,11 @@
         <v>731</v>
       </c>
       <c r="C18" s="68"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="102"/>
       <c r="I18" s="59"/>
       <c r="J18" s="59"/>
       <c r="K18" s="59"/>
@@ -20734,7 +20738,7 @@
       <c r="B36" s="59"/>
       <c r="C36" s="69"/>
       <c r="D36" s="59"/>
-      <c r="E36" s="167"/>
+      <c r="E36" s="98"/>
       <c r="F36" s="60"/>
       <c r="G36" s="60" t="s">
         <v>814</v>
@@ -20886,65 +20890,65 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115" t="s">
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115" t="s">
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115" t="s">
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="116"/>
+      <c r="AB2" s="116"/>
+      <c r="AC2" s="116"/>
+      <c r="AD2" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="115"/>
-      <c r="AG2" s="115"/>
-      <c r="AH2" s="115"/>
-      <c r="AI2" s="115"/>
-      <c r="AJ2" s="115" t="s">
+      <c r="AE2" s="116"/>
+      <c r="AF2" s="116"/>
+      <c r="AG2" s="116"/>
+      <c r="AH2" s="116"/>
+      <c r="AI2" s="116"/>
+      <c r="AJ2" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="AK2" s="115"/>
-      <c r="AL2" s="115"/>
-      <c r="AM2" s="115" t="s">
+      <c r="AK2" s="116"/>
+      <c r="AL2" s="116"/>
+      <c r="AM2" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="AN2" s="115"/>
-      <c r="AO2" s="115"/>
-      <c r="AP2" s="115"/>
-      <c r="AQ2" s="115"/>
-      <c r="AR2" s="115"/>
-      <c r="AS2" s="115"/>
-      <c r="AT2" s="115"/>
-      <c r="AU2" s="115"/>
-      <c r="AV2" s="115"/>
+      <c r="AN2" s="116"/>
+      <c r="AO2" s="116"/>
+      <c r="AP2" s="116"/>
+      <c r="AQ2" s="116"/>
+      <c r="AR2" s="116"/>
+      <c r="AS2" s="116"/>
+      <c r="AT2" s="116"/>
+      <c r="AU2" s="116"/>
+      <c r="AV2" s="116"/>
       <c r="AW2" s="4" t="s">
         <v>40</v>
       </c>
@@ -22840,7 +22844,7 @@
       <c r="B173" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="F173" s="112" t="s">
+      <c r="F173" s="113" t="s">
         <v>441</v>
       </c>
       <c r="G173" s="49" t="s">
@@ -22851,7 +22855,7 @@
       </c>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="F174" s="113"/>
+      <c r="F174" s="114"/>
       <c r="G174" s="36" t="s">
         <v>332</v>
       </c>
@@ -22866,7 +22870,7 @@
       <c r="M174" s="41"/>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="F175" s="113"/>
+      <c r="F175" s="114"/>
       <c r="G175" s="36" t="s">
         <v>333</v>
       </c>
@@ -22879,7 +22883,7 @@
       <c r="L175" s="41"/>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="F176" s="113"/>
+      <c r="F176" s="114"/>
       <c r="G176" s="36" t="s">
         <v>334</v>
       </c>
@@ -22896,7 +22900,7 @@
       <c r="O176" s="32"/>
     </row>
     <row r="177" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F177" s="113"/>
+      <c r="F177" s="114"/>
       <c r="G177" s="36" t="s">
         <v>587</v>
       </c>
@@ -22913,7 +22917,7 @@
       <c r="O177" s="32"/>
     </row>
     <row r="178" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F178" s="113"/>
+      <c r="F178" s="114"/>
       <c r="G178" s="36" t="s">
         <v>580</v>
       </c>
@@ -22928,7 +22932,7 @@
       </c>
     </row>
     <row r="179" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F179" s="113"/>
+      <c r="F179" s="114"/>
       <c r="G179" s="36" t="s">
         <v>335</v>
       </c>
@@ -22943,7 +22947,7 @@
       </c>
     </row>
     <row r="180" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F180" s="113"/>
+      <c r="F180" s="114"/>
       <c r="G180" s="80" t="s">
         <v>631</v>
       </c>
@@ -22952,7 +22956,7 @@
       </c>
     </row>
     <row r="181" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F181" s="113"/>
+      <c r="F181" s="114"/>
       <c r="G181" s="80" t="s">
         <v>632</v>
       </c>
@@ -22968,7 +22972,7 @@
       <c r="N181" s="11"/>
     </row>
     <row r="182" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F182" s="113"/>
+      <c r="F182" s="114"/>
       <c r="G182" s="80" t="s">
         <v>636</v>
       </c>
@@ -22977,7 +22981,7 @@
       </c>
     </row>
     <row r="183" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F183" s="113"/>
+      <c r="F183" s="114"/>
       <c r="G183" s="80" t="s">
         <v>638</v>
       </c>
@@ -22986,7 +22990,7 @@
       </c>
     </row>
     <row r="184" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F184" s="114"/>
+      <c r="F184" s="115"/>
       <c r="G184" s="38" t="s">
         <v>588</v>
       </c>
@@ -23804,15 +23808,15 @@
       <c r="V3" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="W3" s="116" t="s">
+      <c r="W3" s="117" t="s">
         <v>697</v>
       </c>
-      <c r="X3" s="116"/>
-      <c r="Y3" s="116"/>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="116"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="117"/>
+      <c r="AA3" s="117"/>
+      <c r="AB3" s="117"/>
+      <c r="AC3" s="117"/>
       <c r="AD3" s="74" t="s">
         <v>795</v>
       </c>
@@ -23891,15 +23895,15 @@
       <c r="V4" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="W4" s="117" t="s">
+      <c r="W4" s="118" t="s">
         <v>793</v>
       </c>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="117"/>
-      <c r="Z4" s="117"/>
-      <c r="AA4" s="117"/>
-      <c r="AB4" s="117"/>
-      <c r="AC4" s="117"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="118"/>
+      <c r="Z4" s="118"/>
+      <c r="AA4" s="118"/>
+      <c r="AB4" s="118"/>
+      <c r="AC4" s="118"/>
       <c r="AD4" s="74" t="s">
         <v>798</v>
       </c>
@@ -23937,32 +23941,32 @@
       <c r="I5" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="J5" s="115" t="s">
+      <c r="J5" s="116" t="s">
         <v>784</v>
       </c>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
-      <c r="U5" s="115"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
       <c r="V5" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="W5" s="117" t="s">
+      <c r="W5" s="118" t="s">
         <v>792</v>
       </c>
-      <c r="X5" s="117"/>
-      <c r="Y5" s="117"/>
-      <c r="Z5" s="117"/>
-      <c r="AA5" s="117"/>
-      <c r="AB5" s="117"/>
-      <c r="AC5" s="117"/>
+      <c r="X5" s="118"/>
+      <c r="Y5" s="118"/>
+      <c r="Z5" s="118"/>
+      <c r="AA5" s="118"/>
+      <c r="AB5" s="118"/>
+      <c r="AC5" s="118"/>
       <c r="AD5" s="74" t="s">
         <v>794</v>
       </c>
@@ -24400,64 +24404,64 @@
       </c>
     </row>
     <row r="2" spans="1:50" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="C2" s="118" t="s">
+      <c r="C2" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118" t="s">
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="118"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="118"/>
-      <c r="S2" s="118"/>
-      <c r="T2" s="118"/>
-      <c r="U2" s="118" t="s">
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="118"/>
-      <c r="W2" s="118"/>
-      <c r="X2" s="118"/>
-      <c r="Y2" s="118"/>
-      <c r="Z2" s="118"/>
-      <c r="AA2" s="118"/>
-      <c r="AB2" s="118"/>
-      <c r="AC2" s="118"/>
-      <c r="AD2" s="118"/>
-      <c r="AE2" s="118" t="s">
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="119"/>
+      <c r="AB2" s="119"/>
+      <c r="AC2" s="119"/>
+      <c r="AD2" s="119"/>
+      <c r="AE2" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="AF2" s="118"/>
-      <c r="AG2" s="118"/>
-      <c r="AH2" s="118"/>
-      <c r="AI2" s="118"/>
-      <c r="AJ2" s="118"/>
-      <c r="AK2" s="118" t="s">
+      <c r="AF2" s="119"/>
+      <c r="AG2" s="119"/>
+      <c r="AH2" s="119"/>
+      <c r="AI2" s="119"/>
+      <c r="AJ2" s="119"/>
+      <c r="AK2" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="AL2" s="118"/>
-      <c r="AM2" s="118"/>
-      <c r="AN2" s="118" t="s">
+      <c r="AL2" s="119"/>
+      <c r="AM2" s="119"/>
+      <c r="AN2" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="AO2" s="118"/>
-      <c r="AP2" s="118"/>
-      <c r="AQ2" s="118"/>
-      <c r="AR2" s="118"/>
-      <c r="AS2" s="118"/>
-      <c r="AT2" s="118"/>
-      <c r="AU2" s="118"/>
-      <c r="AV2" s="118"/>
+      <c r="AO2" s="119"/>
+      <c r="AP2" s="119"/>
+      <c r="AQ2" s="119"/>
+      <c r="AR2" s="119"/>
+      <c r="AS2" s="119"/>
+      <c r="AT2" s="119"/>
+      <c r="AU2" s="119"/>
+      <c r="AV2" s="119"/>
       <c r="AW2" s="29" t="s">
         <v>40</v>
       </c>
@@ -25026,10 +25030,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW147"/>
+  <dimension ref="A1:AW148"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -25695,99 +25699,130 @@
       <c r="AC29" s="90"/>
       <c r="AD29" s="90"/>
     </row>
-    <row r="30" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D30" s="2" t="s">
-        <v>890</v>
-      </c>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="90"/>
+      <c r="T30" s="90"/>
+      <c r="U30" s="90"/>
+      <c r="V30" s="90"/>
+      <c r="W30" s="90"/>
+      <c r="X30" s="90"/>
+      <c r="Y30" s="90"/>
+      <c r="Z30" s="90"/>
+      <c r="AA30" s="90"/>
+      <c r="AB30" s="90"/>
+      <c r="AC30" s="90"/>
+      <c r="AD30" s="90"/>
     </row>
     <row r="31" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D31" s="2" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
     </row>
     <row r="32" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D32" s="2" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D33" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K33" s="2" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="33" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="34" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C35" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>868</v>
-      </c>
-    </row>
+    <row r="35" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="36" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C36" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C37" s="2" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="37" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D38" s="2" t="s">
+    <row r="38" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D39" s="2" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="39" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="40" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C43" s="2" t="s">
+    <row r="43" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C44" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="N43" s="2" t="s">
+      <c r="N44" s="2" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="44" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="45" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="46" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="47" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D48" s="2" t="s">
+    <row r="48" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="49" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D49" s="2" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="49" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="50" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="51" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="52" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="53" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="N53" s="2" t="s">
+    <row r="53" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="54" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N54" s="2" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="54" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C54" s="2" t="s">
+    <row r="55" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C55" s="2" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="55" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="56" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="57" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D58" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
+    <row r="58" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="59" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D59" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D60" s="2" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="60" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E60" s="2" t="s">
+    <row r="61" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E61" s="2" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="61" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="62" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="63" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="64" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -25797,59 +25832,30 @@
     <row r="68" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="69" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="70" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="71" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G71" s="96" t="s">
+    <row r="71" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="72" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G72" s="96" t="s">
         <v>878</v>
       </c>
-      <c r="T71" s="96" t="s">
+      <c r="T72" s="96" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="72" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="73" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D73" s="2" t="s">
+    <row r="73" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D74" s="2" t="s">
         <v>888</v>
-      </c>
-    </row>
-    <row r="74" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E74" s="2" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="75" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E75" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E76" s="2" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
-      <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
-      <c r="R76" s="3"/>
-      <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
-      <c r="U76" s="3"/>
-      <c r="V76" s="3"/>
-      <c r="W76" s="3"/>
-      <c r="X76" s="3"/>
-      <c r="Y76" s="3"/>
-      <c r="Z76" s="3"/>
-      <c r="AA76" s="3"/>
-      <c r="AB76" s="3"/>
-      <c r="AC76" s="3"/>
-      <c r="AD76" s="3"/>
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C77" s="3"/>
@@ -25881,67 +25887,53 @@
       <c r="AC77" s="3"/>
       <c r="AD77" s="3"/>
     </row>
-    <row r="78" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="79" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="10" t="s">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="3"/>
+      <c r="AA78" s="3"/>
+      <c r="AB78" s="3"/>
+      <c r="AC78" s="3"/>
+      <c r="AD78" s="3"/>
+    </row>
+    <row r="79" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="80" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="10" t="s">
         <v>575</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C80" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="80" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D80" s="3" t="s">
+    <row r="81" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D81" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="81" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="82" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="83" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13"/>
-      <c r="K83" s="13"/>
-      <c r="L83" s="13"/>
-      <c r="M83" s="13"/>
-      <c r="N83" s="13"/>
-      <c r="O83" s="13"/>
-      <c r="P83" s="13"/>
-      <c r="Q83" s="13"/>
-      <c r="R83" s="13"/>
-      <c r="S83" s="13"/>
-      <c r="T83" s="13"/>
-      <c r="U83" s="13"/>
-      <c r="V83" s="13"/>
-      <c r="W83" s="13"/>
-      <c r="X83" s="13"/>
-      <c r="Y83" s="13"/>
-      <c r="Z83" s="13"/>
-      <c r="AA83" s="13"/>
-      <c r="AB83" s="13"/>
-      <c r="AC83" s="13"/>
-      <c r="AD83" s="13"/>
-      <c r="AE83" s="13"/>
-      <c r="AF83" s="13"/>
-      <c r="AG83" s="13"/>
-      <c r="AH83" s="13"/>
-      <c r="AI83" s="13"/>
-      <c r="AJ83" s="13"/>
-      <c r="AK83" s="13"/>
-      <c r="AL83" s="13"/>
-      <c r="AM83" s="13"/>
-      <c r="AN83" s="13"/>
-      <c r="AO83" s="4"/>
-      <c r="AU83" s="4"/>
-      <c r="AV83" s="4"/>
-      <c r="AW83" s="4"/>
-    </row>
+    <row r="83" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="84" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="C84" s="9" t="s">
-        <v>184</v>
-      </c>
       <c r="F84" s="13"/>
       <c r="G84" s="13"/>
       <c r="H84" s="13"/>
@@ -25983,486 +25975,464 @@
       <c r="AW84" s="4"/>
     </row>
     <row r="85" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="C85" s="121" t="s">
+      <c r="C85" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
+      <c r="O85" s="13"/>
+      <c r="P85" s="13"/>
+      <c r="Q85" s="13"/>
+      <c r="R85" s="13"/>
+      <c r="S85" s="13"/>
+      <c r="T85" s="13"/>
+      <c r="U85" s="13"/>
+      <c r="V85" s="13"/>
+      <c r="W85" s="13"/>
+      <c r="X85" s="13"/>
+      <c r="Y85" s="13"/>
+      <c r="Z85" s="13"/>
+      <c r="AA85" s="13"/>
+      <c r="AB85" s="13"/>
+      <c r="AC85" s="13"/>
+      <c r="AD85" s="13"/>
+      <c r="AE85" s="13"/>
+      <c r="AF85" s="13"/>
+      <c r="AG85" s="13"/>
+      <c r="AH85" s="13"/>
+      <c r="AI85" s="13"/>
+      <c r="AJ85" s="13"/>
+      <c r="AK85" s="13"/>
+      <c r="AL85" s="13"/>
+      <c r="AM85" s="13"/>
+      <c r="AN85" s="13"/>
+      <c r="AO85" s="4"/>
+      <c r="AU85" s="4"/>
+      <c r="AV85" s="4"/>
+      <c r="AW85" s="4"/>
+    </row>
+    <row r="86" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="C86" s="146" t="s">
         <v>149</v>
       </c>
-      <c r="D85" s="121"/>
-      <c r="E85" s="121" t="s">
+      <c r="D86" s="146"/>
+      <c r="E86" s="146" t="s">
         <v>150</v>
       </c>
-      <c r="F85" s="121"/>
-      <c r="G85" s="121" t="s">
+      <c r="F86" s="146"/>
+      <c r="G86" s="146" t="s">
         <v>151</v>
       </c>
-      <c r="H85" s="121"/>
-      <c r="I85" s="121" t="s">
+      <c r="H86" s="146"/>
+      <c r="I86" s="146" t="s">
         <v>152</v>
       </c>
-      <c r="J85" s="121"/>
-      <c r="K85" s="121" t="s">
+      <c r="J86" s="146"/>
+      <c r="K86" s="146" t="s">
         <v>153</v>
       </c>
-      <c r="L85" s="121"/>
-      <c r="M85" s="127" t="s">
+      <c r="L86" s="146"/>
+      <c r="M86" s="138" t="s">
         <v>154</v>
       </c>
-      <c r="N85" s="127"/>
-      <c r="O85" s="127" t="s">
+      <c r="N86" s="138"/>
+      <c r="O86" s="138" t="s">
         <v>155</v>
       </c>
-      <c r="P85" s="127"/>
-      <c r="Q85" s="127" t="s">
+      <c r="P86" s="138"/>
+      <c r="Q86" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="R85" s="127"/>
-      <c r="S85" s="127" t="s">
+      <c r="R86" s="138"/>
+      <c r="S86" s="138" t="s">
         <v>174</v>
       </c>
-      <c r="T85" s="127"/>
-      <c r="U85" s="127" t="s">
+      <c r="T86" s="138"/>
+      <c r="U86" s="138" t="s">
         <v>175</v>
       </c>
-      <c r="V85" s="127"/>
-      <c r="W85" s="127" t="s">
+      <c r="V86" s="138"/>
+      <c r="W86" s="138" t="s">
         <v>176</v>
       </c>
-      <c r="X85" s="127"/>
-      <c r="Y85" s="127" t="s">
+      <c r="X86" s="138"/>
+      <c r="Y86" s="138" t="s">
         <v>185</v>
       </c>
-      <c r="Z85" s="127"/>
-      <c r="AA85" s="127" t="s">
+      <c r="Z86" s="138"/>
+      <c r="AA86" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="AB85" s="127"/>
-      <c r="AC85" s="127" t="s">
+      <c r="AB86" s="138"/>
+      <c r="AC86" s="138" t="s">
         <v>156</v>
       </c>
-      <c r="AD85" s="127"/>
-      <c r="AE85" s="126" t="s">
+      <c r="AD86" s="138"/>
+      <c r="AE86" s="145" t="s">
         <v>157</v>
       </c>
-      <c r="AF85" s="126"/>
-    </row>
-    <row r="86" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="C86" s="119" t="s">
+      <c r="AF86" s="145"/>
+    </row>
+    <row r="87" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="C87" s="143" t="s">
         <v>159</v>
       </c>
-      <c r="D86" s="119"/>
-      <c r="E86" s="120" t="s">
+      <c r="D87" s="143"/>
+      <c r="E87" s="127" t="s">
         <v>849</v>
       </c>
-      <c r="F86" s="120"/>
-      <c r="G86" s="124" t="s">
+      <c r="F87" s="127"/>
+      <c r="G87" s="142" t="s">
         <v>850</v>
       </c>
-      <c r="H86" s="124"/>
-      <c r="I86" s="119"/>
-      <c r="J86" s="119"/>
-      <c r="K86" s="119"/>
-      <c r="L86" s="119"/>
-      <c r="M86" s="122"/>
-      <c r="N86" s="122"/>
-      <c r="O86" s="122"/>
-      <c r="P86" s="122"/>
-      <c r="Q86" s="122"/>
-      <c r="R86" s="122"/>
-      <c r="S86" s="122"/>
-      <c r="T86" s="122"/>
-      <c r="U86" s="122"/>
-      <c r="V86" s="122"/>
-      <c r="W86" s="122"/>
-      <c r="X86" s="122"/>
-      <c r="Y86" s="128"/>
-      <c r="Z86" s="129"/>
-      <c r="AA86" s="134"/>
-      <c r="AB86" s="135"/>
-      <c r="AC86" s="122" t="s">
+      <c r="H87" s="142"/>
+      <c r="I87" s="143"/>
+      <c r="J87" s="143"/>
+      <c r="K87" s="143"/>
+      <c r="L87" s="143"/>
+      <c r="M87" s="139"/>
+      <c r="N87" s="139"/>
+      <c r="O87" s="139"/>
+      <c r="P87" s="139"/>
+      <c r="Q87" s="139"/>
+      <c r="R87" s="139"/>
+      <c r="S87" s="139"/>
+      <c r="T87" s="139"/>
+      <c r="U87" s="139"/>
+      <c r="V87" s="139"/>
+      <c r="W87" s="139"/>
+      <c r="X87" s="139"/>
+      <c r="Y87" s="147"/>
+      <c r="Z87" s="148"/>
+      <c r="AA87" s="140"/>
+      <c r="AB87" s="141"/>
+      <c r="AC87" s="139" t="s">
         <v>160</v>
       </c>
-      <c r="AD86" s="122"/>
-      <c r="AE86" s="123" t="str">
-        <f>CONCATENATE(E86)</f>
+      <c r="AD87" s="139"/>
+      <c r="AE87" s="144" t="str">
+        <f>CONCATENATE(E87)</f>
         <v>怪物装备本身附加命中率</v>
       </c>
-      <c r="AF86" s="123"/>
-    </row>
-    <row r="87" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="17"/>
-      <c r="J87" s="17"/>
-      <c r="K87" s="17"/>
-      <c r="L87" s="17"/>
-      <c r="M87" s="20"/>
-      <c r="N87" s="20"/>
-      <c r="O87" s="20"/>
-      <c r="P87" s="20"/>
-      <c r="Q87" s="20"/>
-      <c r="R87" s="20"/>
-      <c r="S87" s="20"/>
-      <c r="T87" s="20"/>
-      <c r="U87" s="20"/>
-      <c r="V87" s="20"/>
-      <c r="W87" s="20"/>
-      <c r="X87" s="20"/>
-      <c r="Y87" s="20"/>
-      <c r="Z87" s="20"/>
-      <c r="AA87" s="20"/>
-      <c r="AB87" s="20"/>
-      <c r="AC87" s="20"/>
-      <c r="AD87" s="20"/>
-      <c r="AE87" s="21"/>
-      <c r="AF87" s="21"/>
-    </row>
-    <row r="88" spans="1:49" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C88" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="D88" s="23"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
+      <c r="AF87" s="144"/>
+    </row>
+    <row r="88" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
       <c r="G88" s="19"/>
       <c r="H88" s="19"/>
-      <c r="I88" s="23"/>
-      <c r="J88" s="23"/>
-      <c r="K88" s="23"/>
-      <c r="L88" s="23"/>
-      <c r="M88" s="25"/>
-      <c r="N88" s="25"/>
-      <c r="O88" s="25"/>
-      <c r="P88" s="25"/>
-      <c r="Q88" s="25"/>
-      <c r="R88" s="25"/>
-      <c r="S88" s="25"/>
-      <c r="T88" s="25"/>
-      <c r="U88" s="25"/>
-      <c r="V88" s="25"/>
-      <c r="W88" s="25"/>
-      <c r="X88" s="25"/>
-      <c r="Y88" s="25"/>
-      <c r="Z88" s="25"/>
-      <c r="AA88" s="25"/>
-      <c r="AB88" s="25"/>
-      <c r="AC88" s="25"/>
-      <c r="AD88" s="25"/>
-      <c r="AE88" s="26"/>
-      <c r="AF88" s="26"/>
-    </row>
-    <row r="89" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="C89" s="121" t="s">
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="20"/>
+      <c r="N88" s="20"/>
+      <c r="O88" s="20"/>
+      <c r="P88" s="20"/>
+      <c r="Q88" s="20"/>
+      <c r="R88" s="20"/>
+      <c r="S88" s="20"/>
+      <c r="T88" s="20"/>
+      <c r="U88" s="20"/>
+      <c r="V88" s="20"/>
+      <c r="W88" s="20"/>
+      <c r="X88" s="20"/>
+      <c r="Y88" s="20"/>
+      <c r="Z88" s="20"/>
+      <c r="AA88" s="20"/>
+      <c r="AB88" s="20"/>
+      <c r="AC88" s="20"/>
+      <c r="AD88" s="20"/>
+      <c r="AE88" s="21"/>
+      <c r="AF88" s="21"/>
+    </row>
+    <row r="89" spans="1:49" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C89" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D89" s="23"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="23"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="23"/>
+      <c r="L89" s="23"/>
+      <c r="M89" s="25"/>
+      <c r="N89" s="25"/>
+      <c r="O89" s="25"/>
+      <c r="P89" s="25"/>
+      <c r="Q89" s="25"/>
+      <c r="R89" s="25"/>
+      <c r="S89" s="25"/>
+      <c r="T89" s="25"/>
+      <c r="U89" s="25"/>
+      <c r="V89" s="25"/>
+      <c r="W89" s="25"/>
+      <c r="X89" s="25"/>
+      <c r="Y89" s="25"/>
+      <c r="Z89" s="25"/>
+      <c r="AA89" s="25"/>
+      <c r="AB89" s="25"/>
+      <c r="AC89" s="25"/>
+      <c r="AD89" s="25"/>
+      <c r="AE89" s="26"/>
+      <c r="AF89" s="26"/>
+    </row>
+    <row r="90" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="C90" s="146" t="s">
         <v>149</v>
       </c>
-      <c r="D89" s="121"/>
-      <c r="E89" s="121" t="s">
+      <c r="D90" s="146"/>
+      <c r="E90" s="146" t="s">
         <v>150</v>
       </c>
-      <c r="F89" s="121"/>
-      <c r="G89" s="121" t="s">
+      <c r="F90" s="146"/>
+      <c r="G90" s="146" t="s">
         <v>151</v>
       </c>
-      <c r="H89" s="121"/>
-      <c r="I89" s="121" t="s">
+      <c r="H90" s="146"/>
+      <c r="I90" s="146" t="s">
         <v>152</v>
       </c>
-      <c r="J89" s="121"/>
-      <c r="K89" s="121" t="s">
+      <c r="J90" s="146"/>
+      <c r="K90" s="146" t="s">
         <v>153</v>
       </c>
-      <c r="L89" s="121"/>
-      <c r="M89" s="127" t="s">
+      <c r="L90" s="146"/>
+      <c r="M90" s="138" t="s">
         <v>154</v>
       </c>
-      <c r="N89" s="127"/>
-      <c r="O89" s="127" t="s">
+      <c r="N90" s="138"/>
+      <c r="O90" s="138" t="s">
         <v>155</v>
       </c>
-      <c r="P89" s="127"/>
-      <c r="Q89" s="127" t="s">
+      <c r="P90" s="138"/>
+      <c r="Q90" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="R89" s="127"/>
-      <c r="S89" s="127" t="s">
+      <c r="R90" s="138"/>
+      <c r="S90" s="138" t="s">
         <v>174</v>
       </c>
-      <c r="T89" s="127"/>
-      <c r="U89" s="127" t="s">
+      <c r="T90" s="138"/>
+      <c r="U90" s="138" t="s">
         <v>175</v>
       </c>
-      <c r="V89" s="127"/>
-      <c r="W89" s="127" t="s">
+      <c r="V90" s="138"/>
+      <c r="W90" s="138" t="s">
         <v>176</v>
       </c>
-      <c r="X89" s="127"/>
-      <c r="Y89" s="127" t="s">
+      <c r="X90" s="138"/>
+      <c r="Y90" s="138" t="s">
         <v>185</v>
       </c>
-      <c r="Z89" s="127"/>
-      <c r="AA89" s="127" t="s">
+      <c r="Z90" s="138"/>
+      <c r="AA90" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="AB89" s="127"/>
-      <c r="AC89" s="127" t="s">
+      <c r="AB90" s="138"/>
+      <c r="AC90" s="138" t="s">
         <v>156</v>
       </c>
-      <c r="AD89" s="127"/>
-      <c r="AE89" s="126" t="s">
+      <c r="AD90" s="138"/>
+      <c r="AE90" s="145" t="s">
         <v>157</v>
       </c>
-      <c r="AF89" s="126"/>
-    </row>
-    <row r="90" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="B90" s="10" t="s">
+      <c r="AF90" s="145"/>
+    </row>
+    <row r="91" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="B91" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="C90" s="119" t="s">
+      <c r="C91" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="D90" s="119"/>
-      <c r="E90" s="120" t="s">
+      <c r="D91" s="143"/>
+      <c r="E91" s="127" t="s">
         <v>851</v>
       </c>
-      <c r="F90" s="120"/>
-      <c r="G90" s="120" t="s">
+      <c r="F91" s="127"/>
+      <c r="G91" s="127" t="s">
         <v>852</v>
       </c>
-      <c r="H90" s="120"/>
-      <c r="I90" s="120" t="s">
+      <c r="H91" s="127"/>
+      <c r="I91" s="127" t="s">
         <v>853</v>
       </c>
-      <c r="J90" s="120"/>
-      <c r="K90" s="124" t="s">
+      <c r="J91" s="127"/>
+      <c r="K91" s="142" t="s">
         <v>850</v>
       </c>
-      <c r="L90" s="124"/>
-      <c r="M90" s="125"/>
-      <c r="N90" s="125"/>
-      <c r="O90" s="125"/>
-      <c r="P90" s="125"/>
-      <c r="Q90" s="125"/>
-      <c r="R90" s="125"/>
-      <c r="S90" s="125"/>
-      <c r="T90" s="125"/>
-      <c r="U90" s="125"/>
-      <c r="V90" s="125"/>
-      <c r="W90" s="125"/>
-      <c r="X90" s="125"/>
-      <c r="Y90" s="130"/>
-      <c r="Z90" s="130"/>
-      <c r="AA90" s="133"/>
-      <c r="AB90" s="133"/>
-      <c r="AC90" s="125" t="s">
+      <c r="L91" s="142"/>
+      <c r="M91" s="121"/>
+      <c r="N91" s="121"/>
+      <c r="O91" s="121"/>
+      <c r="P91" s="121"/>
+      <c r="Q91" s="121"/>
+      <c r="R91" s="121"/>
+      <c r="S91" s="121"/>
+      <c r="T91" s="121"/>
+      <c r="U91" s="121"/>
+      <c r="V91" s="121"/>
+      <c r="W91" s="121"/>
+      <c r="X91" s="121"/>
+      <c r="Y91" s="135"/>
+      <c r="Z91" s="135"/>
+      <c r="AA91" s="128"/>
+      <c r="AB91" s="128"/>
+      <c r="AC91" s="121" t="s">
         <v>477</v>
       </c>
-      <c r="AD90" s="125"/>
-      <c r="AE90" s="131" t="str">
-        <f>CONCATENATE(E90,"+",G90,"-",I90)</f>
+      <c r="AD91" s="121"/>
+      <c r="AE91" s="120" t="str">
+        <f>CONCATENATE(E91,"+",G91,"-",I91)</f>
         <v>固有暴击率+攻击方装备本身附加暴击率-防御方装备本身附加暴击抗性</v>
       </c>
-      <c r="AF90" s="131"/>
-    </row>
-    <row r="91" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A91" s="10" t="s">
+      <c r="AF91" s="120"/>
+    </row>
+    <row r="92" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A92" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="C91" s="119" t="s">
+      <c r="C92" s="143" t="s">
         <v>122</v>
       </c>
-      <c r="D91" s="119"/>
-      <c r="E91" s="120" t="s">
+      <c r="D92" s="143"/>
+      <c r="E92" s="127" t="s">
         <v>161</v>
       </c>
-      <c r="F91" s="120"/>
-      <c r="G91" s="132" t="s">
+      <c r="F92" s="127"/>
+      <c r="G92" s="129" t="s">
         <v>186</v>
       </c>
-      <c r="H91" s="132"/>
-      <c r="I91" s="120" t="s">
+      <c r="H92" s="129"/>
+      <c r="I92" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="J91" s="120"/>
-      <c r="K91" s="48" t="s">
+      <c r="J92" s="127"/>
+      <c r="K92" s="48" t="s">
         <v>163</v>
-      </c>
-      <c r="L91" s="48"/>
-      <c r="M91" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="N91" s="48"/>
-      <c r="O91" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="P91" s="48"/>
-      <c r="Q91" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="R91" s="47"/>
-      <c r="S91" s="120"/>
-      <c r="T91" s="120"/>
-      <c r="U91" s="125"/>
-      <c r="V91" s="125"/>
-      <c r="W91" s="125"/>
-      <c r="X91" s="125"/>
-      <c r="Y91" s="130"/>
-      <c r="Z91" s="130"/>
-      <c r="AA91" s="133"/>
-      <c r="AB91" s="133"/>
-      <c r="AC91" s="125" t="s">
-        <v>523</v>
-      </c>
-      <c r="AD91" s="125"/>
-      <c r="AE91" s="131" t="str">
-        <f>CONCATENATE(E91,"+",G91,"+",I91,"+",M91,"+",O91,"+",Q91,"+",K91)</f>
-        <v>怪物本身力量+怪物升星附加力量+装备本身附加力量+装备进阶附加力量+装备镶嵌附加力量+人物装备附加力量+装备强化附加力量</v>
-      </c>
-      <c r="AF91" s="131"/>
-    </row>
-    <row r="92" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="C92" s="119" t="s">
-        <v>123</v>
-      </c>
-      <c r="D92" s="119"/>
-      <c r="E92" s="120" t="s">
-        <v>167</v>
-      </c>
-      <c r="F92" s="120"/>
-      <c r="G92" s="132" t="s">
-        <v>187</v>
-      </c>
-      <c r="H92" s="132"/>
-      <c r="I92" s="120" t="s">
-        <v>168</v>
-      </c>
-      <c r="J92" s="120"/>
-      <c r="K92" s="48" t="s">
-        <v>169</v>
       </c>
       <c r="L92" s="48"/>
       <c r="M92" s="48" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="N92" s="48"/>
       <c r="O92" s="48" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="P92" s="48"/>
       <c r="Q92" s="47" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="R92" s="47"/>
-      <c r="S92" s="120"/>
-      <c r="T92" s="120"/>
-      <c r="U92" s="125"/>
-      <c r="V92" s="125"/>
-      <c r="W92" s="125"/>
-      <c r="X92" s="125"/>
-      <c r="Y92" s="130"/>
-      <c r="Z92" s="130"/>
-      <c r="AA92" s="133"/>
-      <c r="AB92" s="133"/>
-      <c r="AC92" s="125" t="s">
+      <c r="S92" s="127"/>
+      <c r="T92" s="127"/>
+      <c r="U92" s="121"/>
+      <c r="V92" s="121"/>
+      <c r="W92" s="121"/>
+      <c r="X92" s="121"/>
+      <c r="Y92" s="135"/>
+      <c r="Z92" s="135"/>
+      <c r="AA92" s="128"/>
+      <c r="AB92" s="128"/>
+      <c r="AC92" s="121" t="s">
         <v>523</v>
       </c>
-      <c r="AD92" s="125"/>
-      <c r="AE92" s="131" t="str">
+      <c r="AD92" s="121"/>
+      <c r="AE92" s="120" t="str">
         <f>CONCATENATE(E92,"+",G92,"+",I92,"+",M92,"+",O92,"+",Q92,"+",K92)</f>
-        <v>怪物本身智力+怪物升星附加智力+装备本身附加智力+装备进阶附加智力+装备镶嵌附加智力+人物装备附加智力+装备强化附加智力</v>
-      </c>
-      <c r="AF92" s="131"/>
-    </row>
-    <row r="93" spans="1:49" x14ac:dyDescent="0.15">
+        <v>怪物本身力量+怪物升星附加力量+装备本身附加力量+装备进阶附加力量+装备镶嵌附加力量+人物装备附加力量+装备强化附加力量</v>
+      </c>
+      <c r="AF92" s="120"/>
+    </row>
+    <row r="93" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="10" t="s">
-        <v>576</v>
-      </c>
-      <c r="C93" s="119" t="s">
-        <v>90</v>
-      </c>
-      <c r="D93" s="119"/>
-      <c r="E93" s="120" t="s">
-        <v>177</v>
-      </c>
-      <c r="F93" s="120"/>
-      <c r="G93" s="132" t="s">
-        <v>188</v>
-      </c>
-      <c r="H93" s="132"/>
-      <c r="I93" s="120" t="s">
-        <v>178</v>
-      </c>
-      <c r="J93" s="120"/>
+        <v>557</v>
+      </c>
+      <c r="C93" s="143" t="s">
+        <v>123</v>
+      </c>
+      <c r="D93" s="143"/>
+      <c r="E93" s="127" t="s">
+        <v>167</v>
+      </c>
+      <c r="F93" s="127"/>
+      <c r="G93" s="129" t="s">
+        <v>187</v>
+      </c>
+      <c r="H93" s="129"/>
+      <c r="I93" s="127" t="s">
+        <v>168</v>
+      </c>
+      <c r="J93" s="127"/>
       <c r="K93" s="48" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="L93" s="48"/>
       <c r="M93" s="48" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="N93" s="48"/>
       <c r="O93" s="48" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="P93" s="48"/>
       <c r="Q93" s="47" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="R93" s="47"/>
-      <c r="S93" s="47" t="s">
-        <v>489</v>
-      </c>
-      <c r="T93" s="47"/>
-      <c r="U93" s="47" t="s">
-        <v>490</v>
-      </c>
-      <c r="V93" s="47"/>
-      <c r="W93" s="47" t="s">
-        <v>491</v>
-      </c>
-      <c r="X93" s="47"/>
-      <c r="Y93" s="47" t="s">
-        <v>492</v>
-      </c>
-      <c r="Z93" s="47"/>
-      <c r="AA93" s="120" t="s">
-        <v>493</v>
-      </c>
-      <c r="AB93" s="120"/>
-      <c r="AC93" s="125" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD93" s="125"/>
-      <c r="AE93" s="131" t="str">
-        <f>CONCATENATE("(",E93,"+",G93,"+",I93,"+",M93,"+",O93,"+",Q93,"+",K93,")","*","（","1","+",S93,")","*","(","1","+",U93,"+",W93,"+",Y93,"+",AA93,")")</f>
-        <v>(怪物本身防御力+怪物升星附加防御力+装备本身附加防御力+装备进阶附加防御力+装备镶嵌附加防御力+人物装备附加防御力+装备强化附加防御力)*（1+人物装备套装附加防御力百分比)*(1+法阵附加防御力百分比+Buff附加防御力百分比+队长附加防御力百分比+被动附加防御力百分比)</v>
-      </c>
-      <c r="AF93" s="131"/>
-    </row>
-    <row r="94" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S93" s="127"/>
+      <c r="T93" s="127"/>
+      <c r="U93" s="121"/>
+      <c r="V93" s="121"/>
+      <c r="W93" s="121"/>
+      <c r="X93" s="121"/>
+      <c r="Y93" s="135"/>
+      <c r="Z93" s="135"/>
+      <c r="AA93" s="128"/>
+      <c r="AB93" s="128"/>
+      <c r="AC93" s="121" t="s">
+        <v>523</v>
+      </c>
+      <c r="AD93" s="121"/>
+      <c r="AE93" s="120" t="str">
+        <f>CONCATENATE(E93,"+",G93,"+",I93,"+",M93,"+",O93,"+",Q93,"+",K93)</f>
+        <v>怪物本身智力+怪物升星附加智力+装备本身附加智力+装备进阶附加智力+装备镶嵌附加智力+人物装备附加智力+装备强化附加智力</v>
+      </c>
+      <c r="AF93" s="120"/>
+    </row>
+    <row r="94" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A94" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="C94" s="119" t="s">
-        <v>678</v>
-      </c>
-      <c r="D94" s="119"/>
-      <c r="E94" s="120" t="s">
+        <v>576</v>
+      </c>
+      <c r="C94" s="143" t="s">
+        <v>90</v>
+      </c>
+      <c r="D94" s="143"/>
+      <c r="E94" s="127" t="s">
         <v>177</v>
       </c>
-      <c r="F94" s="120"/>
-      <c r="G94" s="132" t="s">
+      <c r="F94" s="127"/>
+      <c r="G94" s="129" t="s">
         <v>188</v>
       </c>
-      <c r="H94" s="132"/>
-      <c r="I94" s="120" t="s">
+      <c r="H94" s="129"/>
+      <c r="I94" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="J94" s="120"/>
+      <c r="J94" s="127"/>
       <c r="K94" s="48" t="s">
         <v>179</v>
       </c>
@@ -26479,108 +26449,110 @@
         <v>182</v>
       </c>
       <c r="R94" s="47"/>
-      <c r="S94" s="137"/>
-      <c r="T94" s="138"/>
-      <c r="U94" s="133"/>
-      <c r="V94" s="133"/>
-      <c r="W94" s="133"/>
-      <c r="X94" s="133"/>
-      <c r="Y94" s="133"/>
-      <c r="Z94" s="133"/>
-      <c r="AA94" s="120"/>
-      <c r="AB94" s="120"/>
-      <c r="AC94" s="125" t="s">
-        <v>523</v>
-      </c>
-      <c r="AD94" s="125"/>
-      <c r="AE94" s="131" t="str">
-        <f>CONCATENATE(E94,"+",G94,"+",I94,"+",M94,"+",O94,"+",Q94,"+",K94)</f>
-        <v>怪物本身防御力+怪物升星附加防御力+装备本身附加防御力+装备进阶附加防御力+装备镶嵌附加防御力+人物装备附加防御力+装备强化附加防御力</v>
-      </c>
-      <c r="AF94" s="131"/>
-    </row>
-    <row r="95" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A95" s="10"/>
-      <c r="C95" s="136" t="s">
-        <v>190</v>
-      </c>
-      <c r="D95" s="136"/>
-      <c r="E95" s="120" t="s">
-        <v>198</v>
-      </c>
-      <c r="F95" s="120"/>
-      <c r="G95" s="132" t="s">
-        <v>199</v>
-      </c>
-      <c r="H95" s="132"/>
-      <c r="I95" s="120" t="s">
-        <v>200</v>
-      </c>
-      <c r="J95" s="120"/>
+      <c r="S94" s="47" t="s">
+        <v>489</v>
+      </c>
+      <c r="T94" s="47"/>
+      <c r="U94" s="47" t="s">
+        <v>490</v>
+      </c>
+      <c r="V94" s="47"/>
+      <c r="W94" s="47" t="s">
+        <v>491</v>
+      </c>
+      <c r="X94" s="47"/>
+      <c r="Y94" s="47" t="s">
+        <v>492</v>
+      </c>
+      <c r="Z94" s="47"/>
+      <c r="AA94" s="127" t="s">
+        <v>493</v>
+      </c>
+      <c r="AB94" s="127"/>
+      <c r="AC94" s="121" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD94" s="121"/>
+      <c r="AE94" s="120" t="str">
+        <f>CONCATENATE("(",E94,"+",G94,"+",I94,"+",M94,"+",O94,"+",Q94,"+",K94,")","*","（","1","+",S94,")","*","(","1","+",U94,"+",W94,"+",Y94,"+",AA94,")")</f>
+        <v>(怪物本身防御力+怪物升星附加防御力+装备本身附加防御力+装备进阶附加防御力+装备镶嵌附加防御力+人物装备附加防御力+装备强化附加防御力)*（1+人物装备套装附加防御力百分比)*(1+法阵附加防御力百分比+Buff附加防御力百分比+队长附加防御力百分比+被动附加防御力百分比)</v>
+      </c>
+      <c r="AF94" s="120"/>
+    </row>
+    <row r="95" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C95" s="143" t="s">
+        <v>678</v>
+      </c>
+      <c r="D95" s="143"/>
+      <c r="E95" s="127" t="s">
+        <v>177</v>
+      </c>
+      <c r="F95" s="127"/>
+      <c r="G95" s="129" t="s">
+        <v>188</v>
+      </c>
+      <c r="H95" s="129"/>
+      <c r="I95" s="127" t="s">
+        <v>178</v>
+      </c>
+      <c r="J95" s="127"/>
       <c r="K95" s="48" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="L95" s="48"/>
       <c r="M95" s="48" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="N95" s="48"/>
       <c r="O95" s="48" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="P95" s="48"/>
       <c r="Q95" s="47" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="R95" s="47"/>
-      <c r="S95" s="47" t="s">
-        <v>498</v>
-      </c>
-      <c r="T95" s="47"/>
-      <c r="U95" s="133" t="s">
-        <v>497</v>
-      </c>
-      <c r="V95" s="133"/>
-      <c r="W95" s="133" t="s">
-        <v>496</v>
-      </c>
-      <c r="X95" s="133"/>
-      <c r="Y95" s="133" t="s">
-        <v>495</v>
-      </c>
-      <c r="Z95" s="133"/>
-      <c r="AA95" s="120" t="s">
-        <v>494</v>
-      </c>
-      <c r="AB95" s="120"/>
-      <c r="AC95" s="125" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD95" s="125"/>
-      <c r="AE95" s="131" t="str">
-        <f>CONCATENATE("(",E95,"+",G95,"+",I95,"+",M95,"+",O95,"+",Q95,"+",K95,")","*","（","1","+",S95,")","*","(","1","+",U95,"+",W95,"+",Y95,"+",AA95,")")</f>
-        <v>(怪物本身速度+怪物升星附加速度+装备本身附加速度+装备进阶附加速度+装备镶嵌附加速度+人物装备附加速度+装备强化附加速度)*（1+人物装备套装附加速度百分比)*(1+法阵附加速度百分比+Buff附加速度百分比+队长技附加速度百分比+被动附加速度百分比)</v>
-      </c>
-      <c r="AF95" s="131"/>
-    </row>
-    <row r="96" spans="1:49" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="53"/>
-      <c r="C96" s="136" t="s">
-        <v>679</v>
-      </c>
-      <c r="D96" s="136"/>
-      <c r="E96" s="120" t="s">
+      <c r="S95" s="124"/>
+      <c r="T95" s="125"/>
+      <c r="U95" s="128"/>
+      <c r="V95" s="128"/>
+      <c r="W95" s="128"/>
+      <c r="X95" s="128"/>
+      <c r="Y95" s="128"/>
+      <c r="Z95" s="128"/>
+      <c r="AA95" s="127"/>
+      <c r="AB95" s="127"/>
+      <c r="AC95" s="121" t="s">
+        <v>523</v>
+      </c>
+      <c r="AD95" s="121"/>
+      <c r="AE95" s="120" t="str">
+        <f>CONCATENATE(E95,"+",G95,"+",I95,"+",M95,"+",O95,"+",Q95,"+",K95)</f>
+        <v>怪物本身防御力+怪物升星附加防御力+装备本身附加防御力+装备进阶附加防御力+装备镶嵌附加防御力+人物装备附加防御力+装备强化附加防御力</v>
+      </c>
+      <c r="AF95" s="120"/>
+    </row>
+    <row r="96" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A96" s="10"/>
+      <c r="C96" s="126" t="s">
+        <v>190</v>
+      </c>
+      <c r="D96" s="126"/>
+      <c r="E96" s="127" t="s">
         <v>198</v>
       </c>
-      <c r="F96" s="120"/>
-      <c r="G96" s="132" t="s">
+      <c r="F96" s="127"/>
+      <c r="G96" s="129" t="s">
         <v>199</v>
       </c>
-      <c r="H96" s="132"/>
-      <c r="I96" s="120" t="s">
+      <c r="H96" s="129"/>
+      <c r="I96" s="127" t="s">
         <v>200</v>
       </c>
-      <c r="J96" s="120"/>
+      <c r="J96" s="127"/>
       <c r="K96" s="48" t="s">
         <v>201</v>
       </c>
@@ -26597,147 +26569,150 @@
         <v>204</v>
       </c>
       <c r="R96" s="47"/>
-      <c r="S96" s="146"/>
-      <c r="T96" s="147"/>
-      <c r="U96" s="146"/>
-      <c r="V96" s="147"/>
-      <c r="W96" s="146"/>
-      <c r="X96" s="147"/>
-      <c r="Y96" s="146"/>
-      <c r="Z96" s="147"/>
-      <c r="AA96" s="144"/>
-      <c r="AB96" s="145"/>
-      <c r="AC96" s="125" t="s">
+      <c r="S96" s="47" t="s">
+        <v>498</v>
+      </c>
+      <c r="T96" s="47"/>
+      <c r="U96" s="128" t="s">
+        <v>497</v>
+      </c>
+      <c r="V96" s="128"/>
+      <c r="W96" s="128" t="s">
+        <v>496</v>
+      </c>
+      <c r="X96" s="128"/>
+      <c r="Y96" s="128" t="s">
+        <v>495</v>
+      </c>
+      <c r="Z96" s="128"/>
+      <c r="AA96" s="127" t="s">
+        <v>494</v>
+      </c>
+      <c r="AB96" s="127"/>
+      <c r="AC96" s="121" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD96" s="121"/>
+      <c r="AE96" s="120" t="str">
+        <f>CONCATENATE("(",E96,"+",G96,"+",I96,"+",M96,"+",O96,"+",Q96,"+",K96,")","*","（","1","+",S96,")","*","(","1","+",U96,"+",W96,"+",Y96,"+",AA96,")")</f>
+        <v>(怪物本身速度+怪物升星附加速度+装备本身附加速度+装备进阶附加速度+装备镶嵌附加速度+人物装备附加速度+装备强化附加速度)*（1+人物装备套装附加速度百分比)*(1+法阵附加速度百分比+Buff附加速度百分比+队长技附加速度百分比+被动附加速度百分比)</v>
+      </c>
+      <c r="AF96" s="120"/>
+    </row>
+    <row r="97" spans="1:32" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="53"/>
+      <c r="C97" s="126" t="s">
+        <v>679</v>
+      </c>
+      <c r="D97" s="126"/>
+      <c r="E97" s="127" t="s">
+        <v>198</v>
+      </c>
+      <c r="F97" s="127"/>
+      <c r="G97" s="129" t="s">
+        <v>199</v>
+      </c>
+      <c r="H97" s="129"/>
+      <c r="I97" s="127" t="s">
+        <v>200</v>
+      </c>
+      <c r="J97" s="127"/>
+      <c r="K97" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="L97" s="48"/>
+      <c r="M97" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="N97" s="48"/>
+      <c r="O97" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="P97" s="48"/>
+      <c r="Q97" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="R97" s="47"/>
+      <c r="S97" s="132"/>
+      <c r="T97" s="133"/>
+      <c r="U97" s="132"/>
+      <c r="V97" s="133"/>
+      <c r="W97" s="132"/>
+      <c r="X97" s="133"/>
+      <c r="Y97" s="132"/>
+      <c r="Z97" s="133"/>
+      <c r="AA97" s="130"/>
+      <c r="AB97" s="131"/>
+      <c r="AC97" s="121" t="s">
         <v>523</v>
       </c>
-      <c r="AD96" s="125"/>
-      <c r="AE96" s="131" t="str">
-        <f>CONCATENATE(E96,"+",G96,"+",I96,"+",M96,"+",O96,"+",Q96,"+",K96)</f>
+      <c r="AD97" s="121"/>
+      <c r="AE97" s="120" t="str">
+        <f>CONCATENATE(E97,"+",G97,"+",I97,"+",M97,"+",O97,"+",Q97,"+",K97)</f>
         <v>怪物本身速度+怪物升星附加速度+装备本身附加速度+装备进阶附加速度+装备镶嵌附加速度+人物装备附加速度+装备强化附加速度</v>
       </c>
-      <c r="AF96" s="131"/>
-    </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C97" s="136" t="s">
+      <c r="AF97" s="120"/>
+    </row>
+    <row r="98" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="C98" s="126" t="s">
         <v>211</v>
       </c>
-      <c r="D97" s="136"/>
-      <c r="E97" s="120" t="s">
+      <c r="D98" s="126"/>
+      <c r="E98" s="127" t="s">
         <v>223</v>
       </c>
-      <c r="F97" s="120"/>
-      <c r="G97" s="120" t="s">
+      <c r="F98" s="127"/>
+      <c r="G98" s="127" t="s">
         <v>503</v>
       </c>
-      <c r="H97" s="120"/>
-      <c r="I97" s="120"/>
-      <c r="J97" s="120"/>
-      <c r="K97" s="139"/>
-      <c r="L97" s="139"/>
-      <c r="M97" s="139"/>
-      <c r="N97" s="139"/>
-      <c r="O97" s="139"/>
-      <c r="P97" s="139"/>
-      <c r="Q97" s="130"/>
-      <c r="R97" s="130"/>
-      <c r="S97" s="130"/>
-      <c r="T97" s="130"/>
-      <c r="U97" s="133"/>
-      <c r="V97" s="133"/>
-      <c r="W97" s="133"/>
-      <c r="X97" s="133"/>
-      <c r="Y97" s="133"/>
-      <c r="Z97" s="133"/>
-      <c r="AA97" s="120"/>
-      <c r="AB97" s="120"/>
-      <c r="AC97" s="125" t="s">
+      <c r="H98" s="127"/>
+      <c r="I98" s="127"/>
+      <c r="J98" s="127"/>
+      <c r="K98" s="134"/>
+      <c r="L98" s="134"/>
+      <c r="M98" s="134"/>
+      <c r="N98" s="134"/>
+      <c r="O98" s="134"/>
+      <c r="P98" s="134"/>
+      <c r="Q98" s="135"/>
+      <c r="R98" s="135"/>
+      <c r="S98" s="135"/>
+      <c r="T98" s="135"/>
+      <c r="U98" s="128"/>
+      <c r="V98" s="128"/>
+      <c r="W98" s="128"/>
+      <c r="X98" s="128"/>
+      <c r="Y98" s="128"/>
+      <c r="Z98" s="128"/>
+      <c r="AA98" s="127"/>
+      <c r="AB98" s="127"/>
+      <c r="AC98" s="121" t="s">
         <v>473</v>
       </c>
-      <c r="AD97" s="125"/>
-      <c r="AE97" s="131" t="str">
-        <f>CONCATENATE(E97,"*","（",1,"+",G97,")")</f>
+      <c r="AD98" s="121"/>
+      <c r="AE98" s="120" t="str">
+        <f>CONCATENATE(E98,"*","（",1,"+",G98,")")</f>
         <v>怪物本身耐力*（1+被动附加耐力百分比)</v>
       </c>
-      <c r="AF97" s="131"/>
-    </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C98" s="136" t="s">
+      <c r="AF98" s="120"/>
+    </row>
+    <row r="99" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="C99" s="126" t="s">
         <v>854</v>
       </c>
-      <c r="D98" s="136"/>
-      <c r="E98" s="120" t="s">
+      <c r="D99" s="126"/>
+      <c r="E99" s="127" t="s">
         <v>214</v>
       </c>
-      <c r="F98" s="120"/>
-      <c r="G98" s="132" t="s">
+      <c r="F99" s="127"/>
+      <c r="G99" s="129" t="s">
         <v>215</v>
       </c>
-      <c r="H98" s="132"/>
-      <c r="I98" s="120" t="s">
+      <c r="H99" s="129"/>
+      <c r="I99" s="127" t="s">
         <v>216</v>
       </c>
-      <c r="J98" s="120"/>
-      <c r="K98" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="L98" s="48"/>
-      <c r="M98" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="N98" s="48"/>
-      <c r="O98" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="P98" s="48"/>
-      <c r="Q98" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="R98" s="47"/>
-      <c r="S98" s="47" t="s">
-        <v>499</v>
-      </c>
-      <c r="T98" s="47"/>
-      <c r="U98" s="133" t="s">
-        <v>500</v>
-      </c>
-      <c r="V98" s="133"/>
-      <c r="W98" s="133" t="s">
-        <v>501</v>
-      </c>
-      <c r="X98" s="133"/>
-      <c r="Y98" s="120" t="s">
-        <v>502</v>
-      </c>
-      <c r="Z98" s="120"/>
-      <c r="AA98" s="120"/>
-      <c r="AB98" s="120"/>
-      <c r="AC98" s="125" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD98" s="125"/>
-      <c r="AE98" s="131" t="str">
-        <f>CONCATENATE("(",E98,"+",G98,"+",I98,"+",M98,"+",O98,"+",Q98,"+",K98,")","*","（","1","+",S98,")","*","(","1","+",U98,"+",W98,"+",Y98,")")</f>
-        <v>(怪物本身体力+怪物升星附加体力+装备本身附加体力+装备进阶附加体力+装备镶嵌附加体力+人物装备附加体力+装备强化附加体力)*（1+人物装备套装附加体力百分比)*(1+法阵附加体力百分比+队长技附加体力百分比+被动附加体力百分比)</v>
-      </c>
-      <c r="AF98" s="131"/>
-    </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C99" s="136" t="s">
-        <v>680</v>
-      </c>
-      <c r="D99" s="136"/>
-      <c r="E99" s="120" t="s">
-        <v>214</v>
-      </c>
-      <c r="F99" s="120"/>
-      <c r="G99" s="132" t="s">
-        <v>215</v>
-      </c>
-      <c r="H99" s="132"/>
-      <c r="I99" s="120" t="s">
-        <v>216</v>
-      </c>
-      <c r="J99" s="120"/>
+      <c r="J99" s="127"/>
       <c r="K99" s="48" t="s">
         <v>217</v>
       </c>
@@ -26754,176 +26729,234 @@
         <v>224</v>
       </c>
       <c r="R99" s="47"/>
-      <c r="S99" s="137"/>
-      <c r="T99" s="138"/>
-      <c r="U99" s="137"/>
-      <c r="V99" s="138"/>
-      <c r="W99" s="137"/>
-      <c r="X99" s="138"/>
-      <c r="Y99" s="142"/>
-      <c r="Z99" s="143"/>
-      <c r="AA99" s="142"/>
-      <c r="AB99" s="143"/>
-      <c r="AC99" s="125" t="s">
+      <c r="S99" s="47" t="s">
+        <v>499</v>
+      </c>
+      <c r="T99" s="47"/>
+      <c r="U99" s="128" t="s">
+        <v>500</v>
+      </c>
+      <c r="V99" s="128"/>
+      <c r="W99" s="128" t="s">
+        <v>501</v>
+      </c>
+      <c r="X99" s="128"/>
+      <c r="Y99" s="127" t="s">
+        <v>502</v>
+      </c>
+      <c r="Z99" s="127"/>
+      <c r="AA99" s="127"/>
+      <c r="AB99" s="127"/>
+      <c r="AC99" s="121" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD99" s="121"/>
+      <c r="AE99" s="120" t="str">
+        <f>CONCATENATE("(",E99,"+",G99,"+",I99,"+",M99,"+",O99,"+",Q99,"+",K99,")","*","（","1","+",S99,")","*","(","1","+",U99,"+",W99,"+",Y99,")")</f>
+        <v>(怪物本身体力+怪物升星附加体力+装备本身附加体力+装备进阶附加体力+装备镶嵌附加体力+人物装备附加体力+装备强化附加体力)*（1+人物装备套装附加体力百分比)*(1+法阵附加体力百分比+队长技附加体力百分比+被动附加体力百分比)</v>
+      </c>
+      <c r="AF99" s="120"/>
+    </row>
+    <row r="100" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="C100" s="126" t="s">
+        <v>680</v>
+      </c>
+      <c r="D100" s="126"/>
+      <c r="E100" s="127" t="s">
+        <v>214</v>
+      </c>
+      <c r="F100" s="127"/>
+      <c r="G100" s="129" t="s">
+        <v>215</v>
+      </c>
+      <c r="H100" s="129"/>
+      <c r="I100" s="127" t="s">
+        <v>216</v>
+      </c>
+      <c r="J100" s="127"/>
+      <c r="K100" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="L100" s="48"/>
+      <c r="M100" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="N100" s="48"/>
+      <c r="O100" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="P100" s="48"/>
+      <c r="Q100" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="R100" s="47"/>
+      <c r="S100" s="124"/>
+      <c r="T100" s="125"/>
+      <c r="U100" s="124"/>
+      <c r="V100" s="125"/>
+      <c r="W100" s="124"/>
+      <c r="X100" s="125"/>
+      <c r="Y100" s="122"/>
+      <c r="Z100" s="123"/>
+      <c r="AA100" s="122"/>
+      <c r="AB100" s="123"/>
+      <c r="AC100" s="121" t="s">
         <v>523</v>
       </c>
-      <c r="AD99" s="125"/>
-      <c r="AE99" s="131" t="str">
-        <f>CONCATENATE(E99,"+",G99,"+",I99,"+",M99,"+",O99,"+",Q99,"+",K99)</f>
+      <c r="AD100" s="121"/>
+      <c r="AE100" s="120" t="str">
+        <f>CONCATENATE(E100,"+",G100,"+",I100,"+",M100,"+",O100,"+",Q100,"+",K100)</f>
         <v>怪物本身体力+怪物升星附加体力+装备本身附加体力+装备进阶附加体力+装备镶嵌附加体力+人物装备附加体力+装备强化附加体力</v>
       </c>
-      <c r="AF99" s="131"/>
-    </row>
-    <row r="100" spans="1:32" s="44" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C100" s="140" t="s">
+      <c r="AF100" s="120"/>
+    </row>
+    <row r="101" spans="1:32" s="44" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C101" s="136" t="s">
         <v>442</v>
       </c>
-      <c r="D100" s="140"/>
-      <c r="E100" s="120" t="s">
+      <c r="D101" s="136"/>
+      <c r="E101" s="127" t="s">
         <v>443</v>
       </c>
-      <c r="F100" s="120"/>
-      <c r="G100" s="132" t="s">
+      <c r="F101" s="127"/>
+      <c r="G101" s="129" t="s">
         <v>444</v>
       </c>
-      <c r="H100" s="132"/>
-      <c r="I100" s="120" t="s">
+      <c r="H101" s="129"/>
+      <c r="I101" s="127" t="s">
         <v>445</v>
       </c>
-      <c r="J100" s="120"/>
-      <c r="K100" s="141"/>
-      <c r="L100" s="141"/>
-      <c r="M100" s="120"/>
-      <c r="N100" s="120"/>
-      <c r="O100" s="141"/>
-      <c r="P100" s="141"/>
-      <c r="Q100" s="133"/>
-      <c r="R100" s="133"/>
-      <c r="S100" s="133"/>
-      <c r="T100" s="133"/>
-      <c r="U100" s="133"/>
-      <c r="V100" s="133"/>
-      <c r="W100" s="133"/>
-      <c r="X100" s="133"/>
-      <c r="Y100" s="141"/>
-      <c r="Z100" s="141"/>
-      <c r="AA100" s="141"/>
-      <c r="AB100" s="141"/>
-      <c r="AC100" s="125" t="s">
+      <c r="J101" s="127"/>
+      <c r="K101" s="137"/>
+      <c r="L101" s="137"/>
+      <c r="M101" s="127"/>
+      <c r="N101" s="127"/>
+      <c r="O101" s="137"/>
+      <c r="P101" s="137"/>
+      <c r="Q101" s="128"/>
+      <c r="R101" s="128"/>
+      <c r="S101" s="128"/>
+      <c r="T101" s="128"/>
+      <c r="U101" s="128"/>
+      <c r="V101" s="128"/>
+      <c r="W101" s="128"/>
+      <c r="X101" s="128"/>
+      <c r="Y101" s="137"/>
+      <c r="Z101" s="137"/>
+      <c r="AA101" s="137"/>
+      <c r="AB101" s="137"/>
+      <c r="AC101" s="121" t="s">
         <v>446</v>
       </c>
-      <c r="AD100" s="125"/>
-      <c r="AE100" s="131" t="str">
-        <f>CONCATENATE(E100,"+",G100,"+",I100)</f>
+      <c r="AD101" s="121"/>
+      <c r="AE101" s="120" t="str">
+        <f>CONCATENATE(E101,"+",G101,"+",I101)</f>
         <v>怪物本身生命回复+怪物升星附加生命回复+装备进阶附加生命回复</v>
       </c>
-      <c r="AF100" s="131"/>
-    </row>
-    <row r="101" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C101" s="136" t="s">
+      <c r="AF101" s="120"/>
+    </row>
+    <row r="102" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="C102" s="126" t="s">
         <v>225</v>
       </c>
-      <c r="D101" s="136"/>
-      <c r="E101" s="47" t="s">
+      <c r="D102" s="126"/>
+      <c r="E102" s="47" t="s">
         <v>505</v>
       </c>
-      <c r="F101" s="47"/>
-      <c r="G101" s="133" t="s">
+      <c r="F102" s="47"/>
+      <c r="G102" s="128" t="s">
         <v>506</v>
       </c>
-      <c r="H101" s="133"/>
-      <c r="I101" s="133" t="s">
+      <c r="H102" s="128"/>
+      <c r="I102" s="128" t="s">
         <v>507</v>
       </c>
-      <c r="J101" s="133"/>
-      <c r="K101" s="120" t="s">
+      <c r="J102" s="128"/>
+      <c r="K102" s="127" t="s">
         <v>508</v>
       </c>
-      <c r="L101" s="120"/>
-      <c r="M101" s="139"/>
-      <c r="N101" s="139"/>
-      <c r="O101" s="139"/>
-      <c r="P101" s="139"/>
-      <c r="Q101" s="130"/>
-      <c r="R101" s="130"/>
-      <c r="S101" s="130"/>
-      <c r="T101" s="130"/>
-      <c r="U101" s="133"/>
-      <c r="V101" s="133"/>
-      <c r="W101" s="133"/>
-      <c r="X101" s="133"/>
-      <c r="Y101" s="120"/>
-      <c r="Z101" s="120"/>
-      <c r="AA101" s="120"/>
-      <c r="AB101" s="120"/>
-      <c r="AC101" s="125" t="s">
+      <c r="L102" s="127"/>
+      <c r="M102" s="134"/>
+      <c r="N102" s="134"/>
+      <c r="O102" s="134"/>
+      <c r="P102" s="134"/>
+      <c r="Q102" s="135"/>
+      <c r="R102" s="135"/>
+      <c r="S102" s="135"/>
+      <c r="T102" s="135"/>
+      <c r="U102" s="128"/>
+      <c r="V102" s="128"/>
+      <c r="W102" s="128"/>
+      <c r="X102" s="128"/>
+      <c r="Y102" s="127"/>
+      <c r="Z102" s="127"/>
+      <c r="AA102" s="127"/>
+      <c r="AB102" s="127"/>
+      <c r="AC102" s="121" t="s">
         <v>226</v>
       </c>
-      <c r="AD101" s="125"/>
-      <c r="AE101" s="131" t="str">
-        <f>CONCATENATE(E101,"+",G101,"+",I101,"+",K101)</f>
+      <c r="AD102" s="121"/>
+      <c r="AE102" s="120" t="str">
+        <f>CONCATENATE(E102,"+",G102,"+",I102,"+",K102)</f>
         <v>人物装备套装附加五行加成百分比+法阵附加五行加成百分比+队长技附加五行加成百分比+被动附加五行加成百分比</v>
       </c>
-      <c r="AF101" s="131"/>
-    </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="D102" s="6"/>
+      <c r="AF102" s="120"/>
     </row>
     <row r="103" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C103" s="9" t="s">
+      <c r="D103" s="6"/>
+    </row>
+    <row r="104" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="C104" s="9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C104" s="1" t="s">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="C105" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D105" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="D105" s="1" t="s">
+    <row r="106" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="D106" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="107" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A107" s="10" t="s">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A108" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B108" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D108" s="3" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="108" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="D108" s="1" t="s">
+    <row r="109" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="D109" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="109" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="D109" s="6"/>
-    </row>
     <row r="110" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C110" s="1" t="s">
+      <c r="D110" s="6"/>
+    </row>
+    <row r="111" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="C111" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D110" s="6" t="s">
+      <c r="D111" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="111" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="D111" s="1" t="s">
+    <row r="112" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="D112" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="112" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="D112" s="6"/>
     </row>
     <row r="113" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D113" s="6"/>
@@ -26931,11 +26964,11 @@
     <row r="114" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D114" s="6"/>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C121" s="9"/>
-    </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D123" s="6"/>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D115" s="6"/>
+    </row>
+    <row r="122" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C122" s="9"/>
     </row>
     <row r="124" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D124" s="6"/>
@@ -26949,8 +26982,8 @@
     <row r="127" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D127" s="6"/>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D129" s="6"/>
+    <row r="128" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D128" s="6"/>
     </row>
     <row r="130" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D130" s="6"/>
@@ -26961,76 +26994,120 @@
     <row r="132" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D132" s="6"/>
     </row>
-    <row r="139" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="140" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C140" s="27"/>
-    </row>
-    <row r="141" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="133" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D133" s="6"/>
+    </row>
+    <row r="140" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="141" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C141" s="27"/>
+    </row>
     <row r="142" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="143" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="144" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="145" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="146" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="147" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="148" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="186">
-    <mergeCell ref="AE99:AF99"/>
-    <mergeCell ref="AC99:AD99"/>
-    <mergeCell ref="AA99:AB99"/>
-    <mergeCell ref="Y99:Z99"/>
-    <mergeCell ref="W99:X99"/>
-    <mergeCell ref="U99:V99"/>
-    <mergeCell ref="S99:T99"/>
-    <mergeCell ref="AE96:AF96"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="AC87:AD87"/>
+    <mergeCell ref="AE87:AF87"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="AE86:AF86"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="O86:P86"/>
+    <mergeCell ref="AC86:AD86"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="AE90:AF90"/>
+    <mergeCell ref="Y86:Z86"/>
+    <mergeCell ref="Y90:Z90"/>
+    <mergeCell ref="Y87:Z87"/>
+    <mergeCell ref="Y91:Z91"/>
+    <mergeCell ref="Q86:R86"/>
+    <mergeCell ref="S86:T86"/>
+    <mergeCell ref="AC95:AD95"/>
+    <mergeCell ref="AE95:AF95"/>
     <mergeCell ref="C95:D95"/>
     <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="AC93:AD93"/>
+    <mergeCell ref="AE93:AF93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="AC94:AD94"/>
+    <mergeCell ref="AE94:AF94"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="I93:J93"/>
     <mergeCell ref="U95:V95"/>
     <mergeCell ref="W95:X95"/>
-    <mergeCell ref="Y95:Z95"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="AA93:AB93"/>
+    <mergeCell ref="Y93:Z93"/>
+    <mergeCell ref="AA94:AB94"/>
     <mergeCell ref="AA95:AB95"/>
-    <mergeCell ref="AC95:AD95"/>
-    <mergeCell ref="AE95:AF95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="AC96:AD96"/>
-    <mergeCell ref="AA96:AB96"/>
-    <mergeCell ref="Y96:Z96"/>
-    <mergeCell ref="W96:X96"/>
-    <mergeCell ref="U96:V96"/>
-    <mergeCell ref="S96:T96"/>
-    <mergeCell ref="AC101:AD101"/>
-    <mergeCell ref="AE101:AF101"/>
-    <mergeCell ref="K101:L101"/>
-    <mergeCell ref="M101:N101"/>
-    <mergeCell ref="O101:P101"/>
-    <mergeCell ref="Q101:R101"/>
-    <mergeCell ref="S101:T101"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="AE100:AF100"/>
-    <mergeCell ref="Q100:R100"/>
-    <mergeCell ref="O100:P100"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="K100:L100"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="AC100:AD100"/>
-    <mergeCell ref="AA100:AB100"/>
-    <mergeCell ref="Y100:Z100"/>
-    <mergeCell ref="W100:X100"/>
-    <mergeCell ref="U100:V100"/>
-    <mergeCell ref="S100:T100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="AC98:AD98"/>
-    <mergeCell ref="AE98:AF98"/>
-    <mergeCell ref="K97:L97"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="O97:P97"/>
-    <mergeCell ref="Q97:R97"/>
-    <mergeCell ref="S97:T97"/>
-    <mergeCell ref="AC97:AD97"/>
-    <mergeCell ref="AE97:AF97"/>
+    <mergeCell ref="U87:V87"/>
+    <mergeCell ref="W87:X87"/>
+    <mergeCell ref="S92:T92"/>
+    <mergeCell ref="U92:V92"/>
+    <mergeCell ref="W92:X92"/>
+    <mergeCell ref="S93:T93"/>
+    <mergeCell ref="U93:V93"/>
+    <mergeCell ref="W93:X93"/>
+    <mergeCell ref="Q91:R91"/>
+    <mergeCell ref="S91:T91"/>
+    <mergeCell ref="U91:V91"/>
+    <mergeCell ref="W91:X91"/>
+    <mergeCell ref="U86:V86"/>
+    <mergeCell ref="W86:X86"/>
+    <mergeCell ref="Q87:R87"/>
+    <mergeCell ref="S87:T87"/>
+    <mergeCell ref="AC91:AD91"/>
+    <mergeCell ref="AE91:AF91"/>
+    <mergeCell ref="AC92:AD92"/>
+    <mergeCell ref="AE92:AF92"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="AA90:AB90"/>
+    <mergeCell ref="AA86:AB86"/>
+    <mergeCell ref="AA87:AB87"/>
+    <mergeCell ref="AA91:AB91"/>
+    <mergeCell ref="AA92:AB92"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="O87:P87"/>
+    <mergeCell ref="Y92:Z92"/>
+    <mergeCell ref="O90:P90"/>
+    <mergeCell ref="Q90:R90"/>
+    <mergeCell ref="S90:T90"/>
+    <mergeCell ref="U90:V90"/>
+    <mergeCell ref="W90:X90"/>
+    <mergeCell ref="AC90:AD90"/>
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="E98:F98"/>
     <mergeCell ref="G98:H98"/>
@@ -27039,127 +27116,86 @@
     <mergeCell ref="W98:X98"/>
     <mergeCell ref="Y98:Z98"/>
     <mergeCell ref="AA98:AB98"/>
-    <mergeCell ref="Y101:Z101"/>
-    <mergeCell ref="AA101:AB101"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="U101:V101"/>
-    <mergeCell ref="W101:X101"/>
+    <mergeCell ref="Y95:Z95"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="S95:T95"/>
     <mergeCell ref="C99:D99"/>
     <mergeCell ref="E99:F99"/>
     <mergeCell ref="G99:H99"/>
     <mergeCell ref="I99:J99"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="U99:V99"/>
+    <mergeCell ref="W99:X99"/>
+    <mergeCell ref="Y99:Z99"/>
+    <mergeCell ref="AA99:AB99"/>
+    <mergeCell ref="Y102:Z102"/>
+    <mergeCell ref="AA102:AB102"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="U102:V102"/>
+    <mergeCell ref="W102:X102"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="AC99:AD99"/>
+    <mergeCell ref="AE99:AF99"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="O98:P98"/>
+    <mergeCell ref="Q98:R98"/>
+    <mergeCell ref="S98:T98"/>
+    <mergeCell ref="AC98:AD98"/>
+    <mergeCell ref="AE98:AF98"/>
+    <mergeCell ref="AC102:AD102"/>
+    <mergeCell ref="AE102:AF102"/>
+    <mergeCell ref="K102:L102"/>
+    <mergeCell ref="M102:N102"/>
+    <mergeCell ref="O102:P102"/>
+    <mergeCell ref="Q102:R102"/>
+    <mergeCell ref="S102:T102"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="AE101:AF101"/>
+    <mergeCell ref="Q101:R101"/>
+    <mergeCell ref="O101:P101"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="K101:L101"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="AC101:AD101"/>
+    <mergeCell ref="AA101:AB101"/>
+    <mergeCell ref="Y101:Z101"/>
+    <mergeCell ref="W101:X101"/>
+    <mergeCell ref="U101:V101"/>
+    <mergeCell ref="S101:T101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="AE100:AF100"/>
+    <mergeCell ref="AC100:AD100"/>
+    <mergeCell ref="AA100:AB100"/>
+    <mergeCell ref="Y100:Z100"/>
+    <mergeCell ref="W100:X100"/>
+    <mergeCell ref="U100:V100"/>
+    <mergeCell ref="S100:T100"/>
+    <mergeCell ref="AE97:AF97"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="U96:V96"/>
+    <mergeCell ref="W96:X96"/>
+    <mergeCell ref="Y96:Z96"/>
+    <mergeCell ref="AA96:AB96"/>
+    <mergeCell ref="AC96:AD96"/>
+    <mergeCell ref="AE96:AF96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="AC97:AD97"/>
+    <mergeCell ref="AA97:AB97"/>
+    <mergeCell ref="Y97:Z97"/>
+    <mergeCell ref="W97:X97"/>
     <mergeCell ref="U97:V97"/>
-    <mergeCell ref="W97:X97"/>
-    <mergeCell ref="Y97:Z97"/>
-    <mergeCell ref="AA97:AB97"/>
-    <mergeCell ref="Y94:Z94"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="S94:T94"/>
-    <mergeCell ref="U85:V85"/>
-    <mergeCell ref="W85:X85"/>
-    <mergeCell ref="Q86:R86"/>
-    <mergeCell ref="S86:T86"/>
-    <mergeCell ref="AC90:AD90"/>
-    <mergeCell ref="AE90:AF90"/>
-    <mergeCell ref="AC91:AD91"/>
-    <mergeCell ref="AE91:AF91"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="AA89:AB89"/>
-    <mergeCell ref="AA85:AB85"/>
-    <mergeCell ref="AA86:AB86"/>
-    <mergeCell ref="AA90:AB90"/>
-    <mergeCell ref="AA91:AB91"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="O86:P86"/>
-    <mergeCell ref="Y91:Z91"/>
-    <mergeCell ref="O89:P89"/>
-    <mergeCell ref="Q89:R89"/>
-    <mergeCell ref="S89:T89"/>
-    <mergeCell ref="U89:V89"/>
-    <mergeCell ref="W89:X89"/>
-    <mergeCell ref="AC89:AD89"/>
-    <mergeCell ref="U86:V86"/>
-    <mergeCell ref="W86:X86"/>
-    <mergeCell ref="S91:T91"/>
-    <mergeCell ref="U91:V91"/>
-    <mergeCell ref="W91:X91"/>
-    <mergeCell ref="S92:T92"/>
-    <mergeCell ref="U92:V92"/>
-    <mergeCell ref="W92:X92"/>
-    <mergeCell ref="Q90:R90"/>
-    <mergeCell ref="S90:T90"/>
-    <mergeCell ref="U90:V90"/>
-    <mergeCell ref="W90:X90"/>
-    <mergeCell ref="AC94:AD94"/>
-    <mergeCell ref="AE94:AF94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="AC92:AD92"/>
-    <mergeCell ref="AE92:AF92"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="AC93:AD93"/>
-    <mergeCell ref="AE93:AF93"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="U94:V94"/>
-    <mergeCell ref="W94:X94"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="AA92:AB92"/>
-    <mergeCell ref="Y92:Z92"/>
-    <mergeCell ref="AA93:AB93"/>
-    <mergeCell ref="AA94:AB94"/>
-    <mergeCell ref="AC86:AD86"/>
-    <mergeCell ref="AE86:AF86"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="O90:P90"/>
-    <mergeCell ref="AE85:AF85"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="O85:P85"/>
-    <mergeCell ref="AC85:AD85"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="AE89:AF89"/>
-    <mergeCell ref="Y85:Z85"/>
-    <mergeCell ref="Y89:Z89"/>
-    <mergeCell ref="Y86:Z86"/>
-    <mergeCell ref="Y90:Z90"/>
-    <mergeCell ref="Q85:R85"/>
-    <mergeCell ref="S85:T85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="S97:T97"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27470,482 +27506,482 @@
       <c r="A28" s="45" t="s">
         <v>560</v>
       </c>
-      <c r="C28" s="149" t="s">
+      <c r="C28" s="159" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="148" t="s">
+      <c r="D28" s="160"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="167" t="s">
         <v>898</v>
       </c>
-      <c r="G28" s="148"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="148" t="s">
+      <c r="G28" s="167"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="167" t="s">
         <v>862</v>
       </c>
-      <c r="J28" s="155" t="s">
+      <c r="J28" s="152" t="s">
         <v>649</v>
       </c>
-      <c r="K28" s="155"/>
-      <c r="L28" s="155"/>
-      <c r="M28" s="151" t="s">
+      <c r="K28" s="152"/>
+      <c r="L28" s="152"/>
+      <c r="M28" s="149" t="s">
         <v>77</v>
       </c>
-      <c r="N28" s="155" t="s">
+      <c r="N28" s="152" t="s">
         <v>573</v>
       </c>
-      <c r="O28" s="155"/>
-      <c r="P28" s="155"/>
-      <c r="Q28" s="151" t="s">
+      <c r="O28" s="152"/>
+      <c r="P28" s="152"/>
+      <c r="Q28" s="149" t="s">
         <v>855</v>
       </c>
-      <c r="R28" s="165" t="s">
+      <c r="R28" s="151" t="s">
         <v>863</v>
       </c>
-      <c r="S28" s="165"/>
-      <c r="T28" s="165"/>
-      <c r="U28" s="151" t="s">
+      <c r="S28" s="151"/>
+      <c r="T28" s="151"/>
+      <c r="U28" s="149" t="s">
         <v>77</v>
       </c>
-      <c r="V28" s="157" t="s">
+      <c r="V28" s="165" t="s">
         <v>646</v>
       </c>
-      <c r="W28" s="157"/>
-      <c r="X28" s="157"/>
-      <c r="Y28" s="151" t="s">
+      <c r="W28" s="165"/>
+      <c r="X28" s="165"/>
+      <c r="Y28" s="149" t="s">
         <v>77</v>
       </c>
-      <c r="Z28" s="151" t="s">
+      <c r="Z28" s="149" t="s">
         <v>647</v>
       </c>
-      <c r="AA28" s="151"/>
-      <c r="AB28" s="151"/>
-      <c r="AC28" s="151" t="s">
+      <c r="AA28" s="149"/>
+      <c r="AB28" s="149"/>
+      <c r="AC28" s="149" t="s">
         <v>95</v>
       </c>
-      <c r="AD28" s="151" t="s">
+      <c r="AD28" s="149" t="s">
         <v>566</v>
       </c>
-      <c r="AE28" s="151"/>
-      <c r="AF28" s="151"/>
-      <c r="AG28" s="154" t="s">
+      <c r="AE28" s="149"/>
+      <c r="AF28" s="149"/>
+      <c r="AG28" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="AH28" s="154" t="s">
+      <c r="AH28" s="161" t="s">
         <v>688</v>
       </c>
-      <c r="AI28" s="154"/>
-      <c r="AJ28" s="154"/>
-      <c r="AK28" s="158" t="s">
+      <c r="AI28" s="161"/>
+      <c r="AJ28" s="161"/>
+      <c r="AK28" s="155" t="s">
         <v>77</v>
       </c>
-      <c r="AL28" s="158">
+      <c r="AL28" s="155">
         <v>1</v>
       </c>
-      <c r="AM28" s="158"/>
-      <c r="AN28" s="158"/>
-      <c r="AO28" s="158" t="s">
+      <c r="AM28" s="155"/>
+      <c r="AN28" s="155"/>
+      <c r="AO28" s="155" t="s">
         <v>95</v>
       </c>
-      <c r="AP28" s="158" t="s">
+      <c r="AP28" s="155" t="s">
         <v>509</v>
       </c>
-      <c r="AQ28" s="158"/>
-      <c r="AR28" s="158"/>
-      <c r="AS28" s="158" t="s">
+      <c r="AQ28" s="155"/>
+      <c r="AR28" s="155"/>
+      <c r="AS28" s="155" t="s">
         <v>141</v>
       </c>
-      <c r="AT28" s="158" t="s">
+      <c r="AT28" s="155" t="s">
         <v>510</v>
       </c>
-      <c r="AU28" s="158"/>
-      <c r="AV28" s="158"/>
-      <c r="AW28" s="158" t="s">
+      <c r="AU28" s="155"/>
+      <c r="AV28" s="155"/>
+      <c r="AW28" s="155" t="s">
         <v>141</v>
       </c>
-      <c r="AX28" s="158" t="s">
+      <c r="AX28" s="155" t="s">
         <v>511</v>
       </c>
-      <c r="AY28" s="158"/>
-      <c r="AZ28" s="158"/>
-      <c r="BA28" s="158" t="s">
+      <c r="AY28" s="155"/>
+      <c r="AZ28" s="155"/>
+      <c r="BA28" s="155" t="s">
         <v>207</v>
       </c>
-      <c r="BB28" s="158" t="s">
+      <c r="BB28" s="155" t="s">
         <v>512</v>
       </c>
-      <c r="BC28" s="158"/>
-      <c r="BD28" s="158"/>
-      <c r="BE28" s="163" t="s">
+      <c r="BC28" s="155"/>
+      <c r="BD28" s="155"/>
+      <c r="BE28" s="156" t="s">
         <v>759</v>
       </c>
-      <c r="BF28" s="163" t="s">
+      <c r="BF28" s="156" t="s">
         <v>760</v>
       </c>
-      <c r="BG28" s="163"/>
-      <c r="BH28" s="163"/>
-      <c r="BI28" s="166" t="s">
+      <c r="BG28" s="156"/>
+      <c r="BH28" s="156"/>
+      <c r="BI28" s="153" t="s">
         <v>759</v>
       </c>
-      <c r="BJ28" s="166" t="s">
+      <c r="BJ28" s="153" t="s">
         <v>765</v>
       </c>
-      <c r="BK28" s="166"/>
-      <c r="BL28" s="166"/>
+      <c r="BK28" s="153"/>
+      <c r="BL28" s="153"/>
     </row>
     <row r="29" spans="1:64" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="C29" s="150"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="150"/>
-      <c r="F29" s="148"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="148"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="155"/>
-      <c r="K29" s="155"/>
-      <c r="L29" s="155"/>
-      <c r="M29" s="151"/>
-      <c r="N29" s="155"/>
-      <c r="O29" s="155"/>
-      <c r="P29" s="155"/>
-      <c r="Q29" s="151"/>
-      <c r="R29" s="165"/>
-      <c r="S29" s="165"/>
-      <c r="T29" s="165"/>
-      <c r="U29" s="151"/>
-      <c r="V29" s="157"/>
-      <c r="W29" s="157"/>
-      <c r="X29" s="157"/>
-      <c r="Y29" s="151"/>
-      <c r="Z29" s="151"/>
-      <c r="AA29" s="151"/>
-      <c r="AB29" s="151"/>
-      <c r="AC29" s="151"/>
-      <c r="AD29" s="151"/>
-      <c r="AE29" s="151"/>
-      <c r="AF29" s="151"/>
-      <c r="AG29" s="154"/>
-      <c r="AH29" s="154"/>
-      <c r="AI29" s="154"/>
-      <c r="AJ29" s="154"/>
-      <c r="AK29" s="158"/>
-      <c r="AL29" s="158"/>
-      <c r="AM29" s="158"/>
-      <c r="AN29" s="158"/>
-      <c r="AO29" s="158"/>
-      <c r="AP29" s="158"/>
-      <c r="AQ29" s="158"/>
-      <c r="AR29" s="158"/>
-      <c r="AS29" s="158"/>
-      <c r="AT29" s="158"/>
-      <c r="AU29" s="158"/>
-      <c r="AV29" s="158"/>
-      <c r="AW29" s="158"/>
-      <c r="AX29" s="158"/>
-      <c r="AY29" s="158"/>
-      <c r="AZ29" s="158"/>
-      <c r="BA29" s="158"/>
-      <c r="BB29" s="158"/>
-      <c r="BC29" s="158"/>
-      <c r="BD29" s="158"/>
-      <c r="BE29" s="163"/>
-      <c r="BF29" s="163"/>
-      <c r="BG29" s="163"/>
-      <c r="BH29" s="163"/>
-      <c r="BI29" s="166"/>
-      <c r="BJ29" s="166"/>
-      <c r="BK29" s="166"/>
-      <c r="BL29" s="166"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="152"/>
+      <c r="K29" s="152"/>
+      <c r="L29" s="152"/>
+      <c r="M29" s="149"/>
+      <c r="N29" s="152"/>
+      <c r="O29" s="152"/>
+      <c r="P29" s="152"/>
+      <c r="Q29" s="149"/>
+      <c r="R29" s="151"/>
+      <c r="S29" s="151"/>
+      <c r="T29" s="151"/>
+      <c r="U29" s="149"/>
+      <c r="V29" s="165"/>
+      <c r="W29" s="165"/>
+      <c r="X29" s="165"/>
+      <c r="Y29" s="149"/>
+      <c r="Z29" s="149"/>
+      <c r="AA29" s="149"/>
+      <c r="AB29" s="149"/>
+      <c r="AC29" s="149"/>
+      <c r="AD29" s="149"/>
+      <c r="AE29" s="149"/>
+      <c r="AF29" s="149"/>
+      <c r="AG29" s="161"/>
+      <c r="AH29" s="161"/>
+      <c r="AI29" s="161"/>
+      <c r="AJ29" s="161"/>
+      <c r="AK29" s="155"/>
+      <c r="AL29" s="155"/>
+      <c r="AM29" s="155"/>
+      <c r="AN29" s="155"/>
+      <c r="AO29" s="155"/>
+      <c r="AP29" s="155"/>
+      <c r="AQ29" s="155"/>
+      <c r="AR29" s="155"/>
+      <c r="AS29" s="155"/>
+      <c r="AT29" s="155"/>
+      <c r="AU29" s="155"/>
+      <c r="AV29" s="155"/>
+      <c r="AW29" s="155"/>
+      <c r="AX29" s="155"/>
+      <c r="AY29" s="155"/>
+      <c r="AZ29" s="155"/>
+      <c r="BA29" s="155"/>
+      <c r="BB29" s="155"/>
+      <c r="BC29" s="155"/>
+      <c r="BD29" s="155"/>
+      <c r="BE29" s="156"/>
+      <c r="BF29" s="156"/>
+      <c r="BG29" s="156"/>
+      <c r="BH29" s="156"/>
+      <c r="BI29" s="153"/>
+      <c r="BJ29" s="153"/>
+      <c r="BK29" s="153"/>
+      <c r="BL29" s="153"/>
     </row>
     <row r="30" spans="1:64" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="150"/>
-      <c r="F30" s="148"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="148"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="155"/>
-      <c r="K30" s="155"/>
-      <c r="L30" s="155"/>
-      <c r="M30" s="151"/>
-      <c r="N30" s="155"/>
-      <c r="O30" s="155"/>
-      <c r="P30" s="155"/>
-      <c r="Q30" s="151"/>
-      <c r="R30" s="165"/>
-      <c r="S30" s="165"/>
-      <c r="T30" s="165"/>
-      <c r="U30" s="151"/>
-      <c r="V30" s="157"/>
-      <c r="W30" s="157"/>
-      <c r="X30" s="157"/>
-      <c r="Y30" s="151"/>
-      <c r="Z30" s="151"/>
-      <c r="AA30" s="151"/>
-      <c r="AB30" s="151"/>
-      <c r="AC30" s="151"/>
-      <c r="AD30" s="151"/>
-      <c r="AE30" s="151"/>
-      <c r="AF30" s="151"/>
-      <c r="AG30" s="154"/>
-      <c r="AH30" s="154"/>
-      <c r="AI30" s="154"/>
-      <c r="AJ30" s="154"/>
-      <c r="AK30" s="158"/>
-      <c r="AL30" s="158"/>
-      <c r="AM30" s="158"/>
-      <c r="AN30" s="158"/>
-      <c r="AO30" s="158"/>
-      <c r="AP30" s="158"/>
-      <c r="AQ30" s="158"/>
-      <c r="AR30" s="158"/>
-      <c r="AS30" s="158"/>
-      <c r="AT30" s="158"/>
-      <c r="AU30" s="158"/>
-      <c r="AV30" s="158"/>
-      <c r="AW30" s="158"/>
-      <c r="AX30" s="158"/>
-      <c r="AY30" s="158"/>
-      <c r="AZ30" s="158"/>
-      <c r="BA30" s="158"/>
-      <c r="BB30" s="158"/>
-      <c r="BC30" s="158"/>
-      <c r="BD30" s="158"/>
-      <c r="BE30" s="163"/>
-      <c r="BF30" s="163"/>
-      <c r="BG30" s="163"/>
-      <c r="BH30" s="163"/>
-      <c r="BI30" s="166"/>
-      <c r="BJ30" s="166"/>
-      <c r="BK30" s="166"/>
-      <c r="BL30" s="166"/>
+      <c r="C30" s="160"/>
+      <c r="D30" s="160"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="167"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="167"/>
+      <c r="J30" s="152"/>
+      <c r="K30" s="152"/>
+      <c r="L30" s="152"/>
+      <c r="M30" s="149"/>
+      <c r="N30" s="152"/>
+      <c r="O30" s="152"/>
+      <c r="P30" s="152"/>
+      <c r="Q30" s="149"/>
+      <c r="R30" s="151"/>
+      <c r="S30" s="151"/>
+      <c r="T30" s="151"/>
+      <c r="U30" s="149"/>
+      <c r="V30" s="165"/>
+      <c r="W30" s="165"/>
+      <c r="X30" s="165"/>
+      <c r="Y30" s="149"/>
+      <c r="Z30" s="149"/>
+      <c r="AA30" s="149"/>
+      <c r="AB30" s="149"/>
+      <c r="AC30" s="149"/>
+      <c r="AD30" s="149"/>
+      <c r="AE30" s="149"/>
+      <c r="AF30" s="149"/>
+      <c r="AG30" s="161"/>
+      <c r="AH30" s="161"/>
+      <c r="AI30" s="161"/>
+      <c r="AJ30" s="161"/>
+      <c r="AK30" s="155"/>
+      <c r="AL30" s="155"/>
+      <c r="AM30" s="155"/>
+      <c r="AN30" s="155"/>
+      <c r="AO30" s="155"/>
+      <c r="AP30" s="155"/>
+      <c r="AQ30" s="155"/>
+      <c r="AR30" s="155"/>
+      <c r="AS30" s="155"/>
+      <c r="AT30" s="155"/>
+      <c r="AU30" s="155"/>
+      <c r="AV30" s="155"/>
+      <c r="AW30" s="155"/>
+      <c r="AX30" s="155"/>
+      <c r="AY30" s="155"/>
+      <c r="AZ30" s="155"/>
+      <c r="BA30" s="155"/>
+      <c r="BB30" s="155"/>
+      <c r="BC30" s="155"/>
+      <c r="BD30" s="155"/>
+      <c r="BE30" s="156"/>
+      <c r="BF30" s="156"/>
+      <c r="BG30" s="156"/>
+      <c r="BH30" s="156"/>
+      <c r="BI30" s="153"/>
+      <c r="BJ30" s="153"/>
+      <c r="BK30" s="153"/>
+      <c r="BL30" s="153"/>
     </row>
     <row r="31" spans="1:64" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="148"/>
-      <c r="H31" s="148"/>
-      <c r="I31" s="148"/>
-      <c r="J31" s="155"/>
-      <c r="K31" s="155"/>
-      <c r="L31" s="155"/>
-      <c r="M31" s="151"/>
-      <c r="N31" s="155"/>
-      <c r="O31" s="155"/>
-      <c r="P31" s="155"/>
-      <c r="Q31" s="151"/>
-      <c r="R31" s="165"/>
-      <c r="S31" s="165"/>
-      <c r="T31" s="165"/>
-      <c r="U31" s="151"/>
-      <c r="V31" s="157"/>
-      <c r="W31" s="157"/>
-      <c r="X31" s="157"/>
-      <c r="Y31" s="151"/>
-      <c r="Z31" s="151"/>
-      <c r="AA31" s="151"/>
-      <c r="AB31" s="151"/>
-      <c r="AC31" s="151"/>
-      <c r="AD31" s="151"/>
-      <c r="AE31" s="151"/>
-      <c r="AF31" s="151"/>
-      <c r="AG31" s="154"/>
-      <c r="AH31" s="154"/>
-      <c r="AI31" s="154"/>
-      <c r="AJ31" s="154"/>
-      <c r="AK31" s="158"/>
-      <c r="AL31" s="158"/>
-      <c r="AM31" s="158"/>
-      <c r="AN31" s="158"/>
-      <c r="AO31" s="158"/>
-      <c r="AP31" s="158"/>
-      <c r="AQ31" s="158"/>
-      <c r="AR31" s="158"/>
-      <c r="AS31" s="158"/>
-      <c r="AT31" s="158"/>
-      <c r="AU31" s="158"/>
-      <c r="AV31" s="158"/>
-      <c r="AW31" s="158"/>
-      <c r="AX31" s="158"/>
-      <c r="AY31" s="158"/>
-      <c r="AZ31" s="158"/>
-      <c r="BA31" s="158"/>
-      <c r="BB31" s="158"/>
-      <c r="BC31" s="158"/>
-      <c r="BD31" s="158"/>
-      <c r="BE31" s="163"/>
-      <c r="BF31" s="163"/>
-      <c r="BG31" s="163"/>
-      <c r="BH31" s="163"/>
-      <c r="BI31" s="166"/>
-      <c r="BJ31" s="166"/>
-      <c r="BK31" s="166"/>
-      <c r="BL31" s="166"/>
+      <c r="C31" s="160"/>
+      <c r="D31" s="160"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="167"/>
+      <c r="H31" s="167"/>
+      <c r="I31" s="167"/>
+      <c r="J31" s="152"/>
+      <c r="K31" s="152"/>
+      <c r="L31" s="152"/>
+      <c r="M31" s="149"/>
+      <c r="N31" s="152"/>
+      <c r="O31" s="152"/>
+      <c r="P31" s="152"/>
+      <c r="Q31" s="149"/>
+      <c r="R31" s="151"/>
+      <c r="S31" s="151"/>
+      <c r="T31" s="151"/>
+      <c r="U31" s="149"/>
+      <c r="V31" s="165"/>
+      <c r="W31" s="165"/>
+      <c r="X31" s="165"/>
+      <c r="Y31" s="149"/>
+      <c r="Z31" s="149"/>
+      <c r="AA31" s="149"/>
+      <c r="AB31" s="149"/>
+      <c r="AC31" s="149"/>
+      <c r="AD31" s="149"/>
+      <c r="AE31" s="149"/>
+      <c r="AF31" s="149"/>
+      <c r="AG31" s="161"/>
+      <c r="AH31" s="161"/>
+      <c r="AI31" s="161"/>
+      <c r="AJ31" s="161"/>
+      <c r="AK31" s="155"/>
+      <c r="AL31" s="155"/>
+      <c r="AM31" s="155"/>
+      <c r="AN31" s="155"/>
+      <c r="AO31" s="155"/>
+      <c r="AP31" s="155"/>
+      <c r="AQ31" s="155"/>
+      <c r="AR31" s="155"/>
+      <c r="AS31" s="155"/>
+      <c r="AT31" s="155"/>
+      <c r="AU31" s="155"/>
+      <c r="AV31" s="155"/>
+      <c r="AW31" s="155"/>
+      <c r="AX31" s="155"/>
+      <c r="AY31" s="155"/>
+      <c r="AZ31" s="155"/>
+      <c r="BA31" s="155"/>
+      <c r="BB31" s="155"/>
+      <c r="BC31" s="155"/>
+      <c r="BD31" s="155"/>
+      <c r="BE31" s="156"/>
+      <c r="BF31" s="156"/>
+      <c r="BG31" s="156"/>
+      <c r="BH31" s="156"/>
+      <c r="BI31" s="153"/>
+      <c r="BJ31" s="153"/>
+      <c r="BK31" s="153"/>
+      <c r="BL31" s="153"/>
     </row>
     <row r="32" spans="1:64" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
-      <c r="F32" s="148"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="148"/>
-      <c r="I32" s="148"/>
-      <c r="J32" s="151" t="s">
+      <c r="F32" s="167"/>
+      <c r="G32" s="167"/>
+      <c r="H32" s="167"/>
+      <c r="I32" s="167"/>
+      <c r="J32" s="149" t="s">
         <v>536</v>
       </c>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
-      <c r="N32" s="151" t="s">
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
+      <c r="N32" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="O32" s="151"/>
-      <c r="P32" s="151"/>
-      <c r="Q32" s="151"/>
-      <c r="R32" s="165"/>
-      <c r="S32" s="165"/>
-      <c r="T32" s="165"/>
-      <c r="U32" s="151"/>
-      <c r="V32" s="153" t="s">
+      <c r="O32" s="149"/>
+      <c r="P32" s="149"/>
+      <c r="Q32" s="149"/>
+      <c r="R32" s="151"/>
+      <c r="S32" s="151"/>
+      <c r="T32" s="151"/>
+      <c r="U32" s="149"/>
+      <c r="V32" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="W32" s="153"/>
-      <c r="X32" s="153"/>
-      <c r="Y32" s="151"/>
-      <c r="Z32" s="151" t="s">
+      <c r="W32" s="163"/>
+      <c r="X32" s="163"/>
+      <c r="Y32" s="149"/>
+      <c r="Z32" s="149" t="s">
         <v>99</v>
       </c>
-      <c r="AA32" s="151"/>
-      <c r="AB32" s="151"/>
-      <c r="AC32" s="151"/>
-      <c r="AD32" s="151" t="s">
+      <c r="AA32" s="149"/>
+      <c r="AB32" s="149"/>
+      <c r="AC32" s="149"/>
+      <c r="AD32" s="149" t="s">
         <v>100</v>
       </c>
-      <c r="AE32" s="151"/>
-      <c r="AF32" s="151"/>
-      <c r="AG32" s="154"/>
-      <c r="AH32" s="154" t="s">
+      <c r="AE32" s="149"/>
+      <c r="AF32" s="149"/>
+      <c r="AG32" s="161"/>
+      <c r="AH32" s="161" t="s">
         <v>80</v>
       </c>
-      <c r="AI32" s="154"/>
-      <c r="AJ32" s="154"/>
-      <c r="AK32" s="158"/>
-      <c r="AL32" s="158"/>
-      <c r="AM32" s="158"/>
-      <c r="AN32" s="158"/>
-      <c r="AO32" s="158"/>
-      <c r="AP32" s="158" t="s">
+      <c r="AI32" s="161"/>
+      <c r="AJ32" s="161"/>
+      <c r="AK32" s="155"/>
+      <c r="AL32" s="155"/>
+      <c r="AM32" s="155"/>
+      <c r="AN32" s="155"/>
+      <c r="AO32" s="155"/>
+      <c r="AP32" s="155" t="s">
         <v>97</v>
       </c>
-      <c r="AQ32" s="158"/>
-      <c r="AR32" s="158"/>
-      <c r="AS32" s="158"/>
-      <c r="AT32" s="162" t="s">
+      <c r="AQ32" s="155"/>
+      <c r="AR32" s="155"/>
+      <c r="AS32" s="155"/>
+      <c r="AT32" s="157" t="s">
         <v>98</v>
       </c>
-      <c r="AU32" s="162"/>
-      <c r="AV32" s="162"/>
-      <c r="AW32" s="158"/>
-      <c r="AX32" s="158" t="s">
+      <c r="AU32" s="157"/>
+      <c r="AV32" s="157"/>
+      <c r="AW32" s="155"/>
+      <c r="AX32" s="155" t="s">
         <v>104</v>
       </c>
-      <c r="AY32" s="158"/>
-      <c r="AZ32" s="158"/>
-      <c r="BA32" s="158"/>
-      <c r="BB32" s="161" t="s">
+      <c r="AY32" s="155"/>
+      <c r="AZ32" s="155"/>
+      <c r="BA32" s="155"/>
+      <c r="BB32" s="154" t="s">
         <v>209</v>
       </c>
-      <c r="BC32" s="161"/>
-      <c r="BD32" s="161"/>
-      <c r="BE32" s="163"/>
-      <c r="BF32" s="163"/>
-      <c r="BG32" s="163"/>
-      <c r="BH32" s="163"/>
-      <c r="BI32" s="166"/>
-      <c r="BJ32" s="166"/>
-      <c r="BK32" s="166"/>
-      <c r="BL32" s="166"/>
+      <c r="BC32" s="154"/>
+      <c r="BD32" s="154"/>
+      <c r="BE32" s="156"/>
+      <c r="BF32" s="156"/>
+      <c r="BG32" s="156"/>
+      <c r="BH32" s="156"/>
+      <c r="BI32" s="153"/>
+      <c r="BJ32" s="153"/>
+      <c r="BK32" s="153"/>
+      <c r="BL32" s="153"/>
     </row>
     <row r="33" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="F33" s="148" t="s">
+      <c r="F33" s="167" t="s">
         <v>865</v>
       </c>
-      <c r="G33" s="148"/>
-      <c r="H33" s="148"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="151" t="s">
+      <c r="G33" s="167"/>
+      <c r="H33" s="167"/>
+      <c r="I33" s="167"/>
+      <c r="J33" s="149" t="s">
         <v>144</v>
       </c>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
-      <c r="N33" s="151"/>
-      <c r="O33" s="151"/>
-      <c r="P33" s="151"/>
-      <c r="Q33" s="151"/>
-      <c r="R33" s="151"/>
-      <c r="S33" s="151"/>
-      <c r="T33" s="151"/>
-      <c r="U33" s="151"/>
-      <c r="V33" s="151"/>
-      <c r="W33" s="151"/>
-      <c r="X33" s="151"/>
-      <c r="Y33" s="151"/>
-      <c r="Z33" s="151"/>
-      <c r="AA33" s="151"/>
-      <c r="AB33" s="151"/>
-      <c r="AC33" s="151"/>
-      <c r="AD33" s="151"/>
-      <c r="AE33" s="151"/>
-      <c r="AF33" s="151"/>
-      <c r="AG33" s="152" t="s">
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
+      <c r="N33" s="149"/>
+      <c r="O33" s="149"/>
+      <c r="P33" s="149"/>
+      <c r="Q33" s="149"/>
+      <c r="R33" s="149"/>
+      <c r="S33" s="149"/>
+      <c r="T33" s="149"/>
+      <c r="U33" s="149"/>
+      <c r="V33" s="149"/>
+      <c r="W33" s="149"/>
+      <c r="X33" s="149"/>
+      <c r="Y33" s="149"/>
+      <c r="Z33" s="149"/>
+      <c r="AA33" s="149"/>
+      <c r="AB33" s="149"/>
+      <c r="AC33" s="149"/>
+      <c r="AD33" s="149"/>
+      <c r="AE33" s="149"/>
+      <c r="AF33" s="149"/>
+      <c r="AG33" s="166" t="s">
         <v>146</v>
       </c>
-      <c r="AH33" s="152"/>
-      <c r="AI33" s="152"/>
-      <c r="AJ33" s="152"/>
-      <c r="AK33" s="161" t="s">
+      <c r="AH33" s="166"/>
+      <c r="AI33" s="166"/>
+      <c r="AJ33" s="166"/>
+      <c r="AK33" s="154" t="s">
         <v>143</v>
       </c>
-      <c r="AL33" s="161"/>
-      <c r="AM33" s="161"/>
-      <c r="AN33" s="161"/>
-      <c r="AO33" s="161"/>
-      <c r="AP33" s="161"/>
-      <c r="AQ33" s="161"/>
-      <c r="AR33" s="161"/>
-      <c r="AS33" s="161"/>
-      <c r="AT33" s="161"/>
-      <c r="AU33" s="161"/>
-      <c r="AV33" s="161"/>
-      <c r="AW33" s="161"/>
-      <c r="AX33" s="161"/>
-      <c r="AY33" s="161"/>
-      <c r="AZ33" s="161"/>
-      <c r="BA33" s="161"/>
-      <c r="BB33" s="161"/>
-      <c r="BC33" s="161"/>
-      <c r="BD33" s="161"/>
-      <c r="BE33" s="163" t="s">
+      <c r="AL33" s="154"/>
+      <c r="AM33" s="154"/>
+      <c r="AN33" s="154"/>
+      <c r="AO33" s="154"/>
+      <c r="AP33" s="154"/>
+      <c r="AQ33" s="154"/>
+      <c r="AR33" s="154"/>
+      <c r="AS33" s="154"/>
+      <c r="AT33" s="154"/>
+      <c r="AU33" s="154"/>
+      <c r="AV33" s="154"/>
+      <c r="AW33" s="154"/>
+      <c r="AX33" s="154"/>
+      <c r="AY33" s="154"/>
+      <c r="AZ33" s="154"/>
+      <c r="BA33" s="154"/>
+      <c r="BB33" s="154"/>
+      <c r="BC33" s="154"/>
+      <c r="BD33" s="154"/>
+      <c r="BE33" s="156" t="s">
         <v>434</v>
       </c>
-      <c r="BF33" s="163"/>
-      <c r="BG33" s="163"/>
-      <c r="BH33" s="163"/>
-      <c r="BI33" s="166" t="s">
+      <c r="BF33" s="156"/>
+      <c r="BG33" s="156"/>
+      <c r="BH33" s="156"/>
+      <c r="BI33" s="153" t="s">
         <v>766</v>
       </c>
-      <c r="BJ33" s="166"/>
-      <c r="BK33" s="166"/>
-      <c r="BL33" s="166"/>
+      <c r="BJ33" s="153"/>
+      <c r="BK33" s="153"/>
+      <c r="BL33" s="153"/>
       <c r="BM33" s="16"/>
     </row>
     <row r="34" spans="1:71" x14ac:dyDescent="0.15">
@@ -28008,532 +28044,532 @@
       <c r="A36" s="46" t="s">
         <v>607</v>
       </c>
-      <c r="C36" s="149" t="s">
+      <c r="C36" s="159" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="148" t="s">
+      <c r="D36" s="160"/>
+      <c r="E36" s="160"/>
+      <c r="F36" s="167" t="s">
         <v>899</v>
       </c>
-      <c r="G36" s="148"/>
-      <c r="H36" s="148"/>
-      <c r="I36" s="148" t="s">
+      <c r="G36" s="167"/>
+      <c r="H36" s="167"/>
+      <c r="I36" s="167" t="s">
         <v>862</v>
       </c>
-      <c r="J36" s="155" t="s">
+      <c r="J36" s="152" t="s">
         <v>650</v>
       </c>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151" t="s">
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149" t="s">
         <v>77</v>
       </c>
-      <c r="N36" s="155" t="s">
+      <c r="N36" s="152" t="s">
         <v>573</v>
       </c>
-      <c r="O36" s="151"/>
-      <c r="P36" s="151"/>
-      <c r="Q36" s="151" t="s">
+      <c r="O36" s="149"/>
+      <c r="P36" s="149"/>
+      <c r="Q36" s="149" t="s">
         <v>855</v>
       </c>
-      <c r="R36" s="164" t="s">
+      <c r="R36" s="150" t="s">
         <v>864</v>
       </c>
-      <c r="S36" s="165"/>
-      <c r="T36" s="151" t="s">
+      <c r="S36" s="151"/>
+      <c r="T36" s="149" t="s">
         <v>77</v>
       </c>
-      <c r="U36" s="155" t="s">
+      <c r="U36" s="152" t="s">
         <v>115</v>
       </c>
-      <c r="V36" s="151"/>
-      <c r="W36" s="151"/>
-      <c r="X36" s="151" t="s">
+      <c r="V36" s="149"/>
+      <c r="W36" s="149"/>
+      <c r="X36" s="149" t="s">
         <v>77</v>
       </c>
-      <c r="Y36" s="151" t="s">
+      <c r="Y36" s="149" t="s">
         <v>518</v>
       </c>
-      <c r="Z36" s="151"/>
-      <c r="AA36" s="151"/>
-      <c r="AB36" s="151" t="s">
+      <c r="Z36" s="149"/>
+      <c r="AA36" s="149"/>
+      <c r="AB36" s="149" t="s">
         <v>95</v>
       </c>
-      <c r="AC36" s="151" t="s">
+      <c r="AC36" s="149" t="s">
         <v>504</v>
       </c>
-      <c r="AD36" s="151"/>
-      <c r="AE36" s="151"/>
-      <c r="AF36" s="154" t="s">
+      <c r="AD36" s="149"/>
+      <c r="AE36" s="149"/>
+      <c r="AF36" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="AG36" s="154" t="s">
+      <c r="AG36" s="161" t="s">
         <v>687</v>
       </c>
-      <c r="AH36" s="154"/>
-      <c r="AI36" s="154"/>
-      <c r="AJ36" s="158" t="s">
+      <c r="AH36" s="161"/>
+      <c r="AI36" s="161"/>
+      <c r="AJ36" s="155" t="s">
         <v>77</v>
       </c>
-      <c r="AK36" s="160" t="s">
+      <c r="AK36" s="162" t="s">
         <v>656</v>
       </c>
-      <c r="AL36" s="161"/>
-      <c r="AM36" s="161"/>
-      <c r="AN36" s="158" t="s">
+      <c r="AL36" s="154"/>
+      <c r="AM36" s="154"/>
+      <c r="AN36" s="155" t="s">
         <v>77</v>
       </c>
-      <c r="AO36" s="159" t="s">
+      <c r="AO36" s="164" t="s">
         <v>654</v>
       </c>
-      <c r="AP36" s="158"/>
-      <c r="AQ36" s="158"/>
-      <c r="AR36" s="158" t="s">
+      <c r="AP36" s="155"/>
+      <c r="AQ36" s="155"/>
+      <c r="AR36" s="155" t="s">
         <v>94</v>
       </c>
-      <c r="AS36" s="158">
+      <c r="AS36" s="155">
         <v>1</v>
       </c>
-      <c r="AT36" s="158"/>
-      <c r="AU36" s="158"/>
-      <c r="AV36" s="158" t="s">
+      <c r="AT36" s="155"/>
+      <c r="AU36" s="155"/>
+      <c r="AV36" s="155" t="s">
         <v>95</v>
       </c>
-      <c r="AW36" s="158" t="s">
+      <c r="AW36" s="155" t="s">
         <v>517</v>
       </c>
-      <c r="AX36" s="158"/>
-      <c r="AY36" s="158"/>
-      <c r="AZ36" s="158" t="s">
+      <c r="AX36" s="155"/>
+      <c r="AY36" s="155"/>
+      <c r="AZ36" s="155" t="s">
         <v>142</v>
       </c>
-      <c r="BA36" s="158" t="s">
+      <c r="BA36" s="155" t="s">
         <v>516</v>
       </c>
-      <c r="BB36" s="158"/>
-      <c r="BC36" s="158"/>
-      <c r="BD36" s="158" t="s">
+      <c r="BB36" s="155"/>
+      <c r="BC36" s="155"/>
+      <c r="BD36" s="155" t="s">
         <v>147</v>
       </c>
-      <c r="BE36" s="158" t="s">
+      <c r="BE36" s="155" t="s">
         <v>515</v>
       </c>
-      <c r="BF36" s="158"/>
-      <c r="BG36" s="158"/>
-      <c r="BH36" s="158" t="s">
+      <c r="BF36" s="155"/>
+      <c r="BG36" s="155"/>
+      <c r="BH36" s="155" t="s">
         <v>208</v>
       </c>
-      <c r="BI36" s="158" t="s">
+      <c r="BI36" s="155" t="s">
         <v>514</v>
       </c>
-      <c r="BJ36" s="158"/>
-      <c r="BK36" s="158"/>
-      <c r="BL36" s="163" t="s">
+      <c r="BJ36" s="155"/>
+      <c r="BK36" s="155"/>
+      <c r="BL36" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="BM36" s="163" t="s">
+      <c r="BM36" s="156" t="s">
         <v>513</v>
       </c>
-      <c r="BN36" s="163"/>
-      <c r="BO36" s="163"/>
-      <c r="BP36" s="166" t="s">
+      <c r="BN36" s="156"/>
+      <c r="BO36" s="156"/>
+      <c r="BP36" s="153" t="s">
         <v>759</v>
       </c>
-      <c r="BQ36" s="166" t="s">
+      <c r="BQ36" s="153" t="s">
         <v>765</v>
       </c>
-      <c r="BR36" s="166"/>
-      <c r="BS36" s="166"/>
+      <c r="BR36" s="153"/>
+      <c r="BS36" s="153"/>
     </row>
     <row r="37" spans="1:71" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="148"/>
-      <c r="G37" s="148"/>
-      <c r="H37" s="148"/>
-      <c r="I37" s="148"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
-      <c r="N37" s="151"/>
-      <c r="O37" s="151"/>
-      <c r="P37" s="151"/>
-      <c r="Q37" s="151"/>
-      <c r="R37" s="165"/>
-      <c r="S37" s="165"/>
-      <c r="T37" s="151"/>
-      <c r="U37" s="151"/>
-      <c r="V37" s="151"/>
-      <c r="W37" s="151"/>
-      <c r="X37" s="151"/>
-      <c r="Y37" s="151"/>
-      <c r="Z37" s="151"/>
-      <c r="AA37" s="151"/>
-      <c r="AB37" s="151"/>
-      <c r="AC37" s="151"/>
-      <c r="AD37" s="151"/>
-      <c r="AE37" s="151"/>
-      <c r="AF37" s="154"/>
-      <c r="AG37" s="154"/>
-      <c r="AH37" s="154"/>
-      <c r="AI37" s="154"/>
-      <c r="AJ37" s="158"/>
-      <c r="AK37" s="161"/>
-      <c r="AL37" s="161"/>
-      <c r="AM37" s="161"/>
-      <c r="AN37" s="158"/>
-      <c r="AO37" s="158"/>
-      <c r="AP37" s="158"/>
-      <c r="AQ37" s="158"/>
-      <c r="AR37" s="158"/>
-      <c r="AS37" s="158"/>
-      <c r="AT37" s="158"/>
-      <c r="AU37" s="158"/>
-      <c r="AV37" s="158"/>
-      <c r="AW37" s="158"/>
-      <c r="AX37" s="158"/>
-      <c r="AY37" s="158"/>
-      <c r="AZ37" s="158"/>
-      <c r="BA37" s="158"/>
-      <c r="BB37" s="158"/>
-      <c r="BC37" s="158"/>
-      <c r="BD37" s="158"/>
-      <c r="BE37" s="158"/>
-      <c r="BF37" s="158"/>
-      <c r="BG37" s="158"/>
-      <c r="BH37" s="158"/>
-      <c r="BI37" s="158"/>
-      <c r="BJ37" s="158"/>
-      <c r="BK37" s="158"/>
-      <c r="BL37" s="163"/>
-      <c r="BM37" s="163"/>
-      <c r="BN37" s="163"/>
-      <c r="BO37" s="163"/>
-      <c r="BP37" s="166"/>
-      <c r="BQ37" s="166"/>
-      <c r="BR37" s="166"/>
-      <c r="BS37" s="166"/>
+      <c r="C37" s="160"/>
+      <c r="D37" s="160"/>
+      <c r="E37" s="160"/>
+      <c r="F37" s="167"/>
+      <c r="G37" s="167"/>
+      <c r="H37" s="167"/>
+      <c r="I37" s="167"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
+      <c r="N37" s="149"/>
+      <c r="O37" s="149"/>
+      <c r="P37" s="149"/>
+      <c r="Q37" s="149"/>
+      <c r="R37" s="151"/>
+      <c r="S37" s="151"/>
+      <c r="T37" s="149"/>
+      <c r="U37" s="149"/>
+      <c r="V37" s="149"/>
+      <c r="W37" s="149"/>
+      <c r="X37" s="149"/>
+      <c r="Y37" s="149"/>
+      <c r="Z37" s="149"/>
+      <c r="AA37" s="149"/>
+      <c r="AB37" s="149"/>
+      <c r="AC37" s="149"/>
+      <c r="AD37" s="149"/>
+      <c r="AE37" s="149"/>
+      <c r="AF37" s="161"/>
+      <c r="AG37" s="161"/>
+      <c r="AH37" s="161"/>
+      <c r="AI37" s="161"/>
+      <c r="AJ37" s="155"/>
+      <c r="AK37" s="154"/>
+      <c r="AL37" s="154"/>
+      <c r="AM37" s="154"/>
+      <c r="AN37" s="155"/>
+      <c r="AO37" s="155"/>
+      <c r="AP37" s="155"/>
+      <c r="AQ37" s="155"/>
+      <c r="AR37" s="155"/>
+      <c r="AS37" s="155"/>
+      <c r="AT37" s="155"/>
+      <c r="AU37" s="155"/>
+      <c r="AV37" s="155"/>
+      <c r="AW37" s="155"/>
+      <c r="AX37" s="155"/>
+      <c r="AY37" s="155"/>
+      <c r="AZ37" s="155"/>
+      <c r="BA37" s="155"/>
+      <c r="BB37" s="155"/>
+      <c r="BC37" s="155"/>
+      <c r="BD37" s="155"/>
+      <c r="BE37" s="155"/>
+      <c r="BF37" s="155"/>
+      <c r="BG37" s="155"/>
+      <c r="BH37" s="155"/>
+      <c r="BI37" s="155"/>
+      <c r="BJ37" s="155"/>
+      <c r="BK37" s="155"/>
+      <c r="BL37" s="156"/>
+      <c r="BM37" s="156"/>
+      <c r="BN37" s="156"/>
+      <c r="BO37" s="156"/>
+      <c r="BP37" s="153"/>
+      <c r="BQ37" s="153"/>
+      <c r="BR37" s="153"/>
+      <c r="BS37" s="153"/>
     </row>
     <row r="38" spans="1:71" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
         <v>644</v>
       </c>
-      <c r="C38" s="150"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="148"/>
-      <c r="G38" s="148"/>
-      <c r="H38" s="148"/>
-      <c r="I38" s="148"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
-      <c r="N38" s="151"/>
-      <c r="O38" s="151"/>
-      <c r="P38" s="151"/>
-      <c r="Q38" s="151"/>
-      <c r="R38" s="165"/>
-      <c r="S38" s="165"/>
-      <c r="T38" s="151"/>
-      <c r="U38" s="151"/>
-      <c r="V38" s="151"/>
-      <c r="W38" s="151"/>
-      <c r="X38" s="151"/>
-      <c r="Y38" s="151"/>
-      <c r="Z38" s="151"/>
-      <c r="AA38" s="151"/>
-      <c r="AB38" s="151"/>
-      <c r="AC38" s="151"/>
-      <c r="AD38" s="151"/>
-      <c r="AE38" s="151"/>
-      <c r="AF38" s="154"/>
-      <c r="AG38" s="154"/>
-      <c r="AH38" s="154"/>
-      <c r="AI38" s="154"/>
-      <c r="AJ38" s="158"/>
-      <c r="AK38" s="161"/>
-      <c r="AL38" s="161"/>
-      <c r="AM38" s="161"/>
-      <c r="AN38" s="158"/>
-      <c r="AO38" s="158"/>
-      <c r="AP38" s="158"/>
-      <c r="AQ38" s="158"/>
-      <c r="AR38" s="158"/>
-      <c r="AS38" s="158"/>
-      <c r="AT38" s="158"/>
-      <c r="AU38" s="158"/>
-      <c r="AV38" s="158"/>
-      <c r="AW38" s="158"/>
-      <c r="AX38" s="158"/>
-      <c r="AY38" s="158"/>
-      <c r="AZ38" s="158"/>
-      <c r="BA38" s="158"/>
-      <c r="BB38" s="158"/>
-      <c r="BC38" s="158"/>
-      <c r="BD38" s="158"/>
-      <c r="BE38" s="158"/>
-      <c r="BF38" s="158"/>
-      <c r="BG38" s="158"/>
-      <c r="BH38" s="158"/>
-      <c r="BI38" s="158"/>
-      <c r="BJ38" s="158"/>
-      <c r="BK38" s="158"/>
-      <c r="BL38" s="163"/>
-      <c r="BM38" s="163"/>
-      <c r="BN38" s="163"/>
-      <c r="BO38" s="163"/>
-      <c r="BP38" s="166"/>
-      <c r="BQ38" s="166"/>
-      <c r="BR38" s="166"/>
-      <c r="BS38" s="166"/>
+      <c r="C38" s="160"/>
+      <c r="D38" s="160"/>
+      <c r="E38" s="160"/>
+      <c r="F38" s="167"/>
+      <c r="G38" s="167"/>
+      <c r="H38" s="167"/>
+      <c r="I38" s="167"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
+      <c r="N38" s="149"/>
+      <c r="O38" s="149"/>
+      <c r="P38" s="149"/>
+      <c r="Q38" s="149"/>
+      <c r="R38" s="151"/>
+      <c r="S38" s="151"/>
+      <c r="T38" s="149"/>
+      <c r="U38" s="149"/>
+      <c r="V38" s="149"/>
+      <c r="W38" s="149"/>
+      <c r="X38" s="149"/>
+      <c r="Y38" s="149"/>
+      <c r="Z38" s="149"/>
+      <c r="AA38" s="149"/>
+      <c r="AB38" s="149"/>
+      <c r="AC38" s="149"/>
+      <c r="AD38" s="149"/>
+      <c r="AE38" s="149"/>
+      <c r="AF38" s="161"/>
+      <c r="AG38" s="161"/>
+      <c r="AH38" s="161"/>
+      <c r="AI38" s="161"/>
+      <c r="AJ38" s="155"/>
+      <c r="AK38" s="154"/>
+      <c r="AL38" s="154"/>
+      <c r="AM38" s="154"/>
+      <c r="AN38" s="155"/>
+      <c r="AO38" s="155"/>
+      <c r="AP38" s="155"/>
+      <c r="AQ38" s="155"/>
+      <c r="AR38" s="155"/>
+      <c r="AS38" s="155"/>
+      <c r="AT38" s="155"/>
+      <c r="AU38" s="155"/>
+      <c r="AV38" s="155"/>
+      <c r="AW38" s="155"/>
+      <c r="AX38" s="155"/>
+      <c r="AY38" s="155"/>
+      <c r="AZ38" s="155"/>
+      <c r="BA38" s="155"/>
+      <c r="BB38" s="155"/>
+      <c r="BC38" s="155"/>
+      <c r="BD38" s="155"/>
+      <c r="BE38" s="155"/>
+      <c r="BF38" s="155"/>
+      <c r="BG38" s="155"/>
+      <c r="BH38" s="155"/>
+      <c r="BI38" s="155"/>
+      <c r="BJ38" s="155"/>
+      <c r="BK38" s="155"/>
+      <c r="BL38" s="156"/>
+      <c r="BM38" s="156"/>
+      <c r="BN38" s="156"/>
+      <c r="BO38" s="156"/>
+      <c r="BP38" s="153"/>
+      <c r="BQ38" s="153"/>
+      <c r="BR38" s="153"/>
+      <c r="BS38" s="153"/>
     </row>
     <row r="39" spans="1:71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C39" s="150"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="148"/>
-      <c r="G39" s="148"/>
-      <c r="H39" s="148"/>
-      <c r="I39" s="148"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
-      <c r="N39" s="151"/>
-      <c r="O39" s="151"/>
-      <c r="P39" s="151"/>
-      <c r="Q39" s="151"/>
-      <c r="R39" s="165"/>
-      <c r="S39" s="165"/>
-      <c r="T39" s="151"/>
-      <c r="U39" s="151"/>
-      <c r="V39" s="151"/>
-      <c r="W39" s="151"/>
-      <c r="X39" s="151"/>
-      <c r="Y39" s="151"/>
-      <c r="Z39" s="151"/>
-      <c r="AA39" s="151"/>
-      <c r="AB39" s="151"/>
-      <c r="AC39" s="151"/>
-      <c r="AD39" s="151"/>
-      <c r="AE39" s="151"/>
-      <c r="AF39" s="154"/>
-      <c r="AG39" s="154"/>
-      <c r="AH39" s="154"/>
-      <c r="AI39" s="154"/>
-      <c r="AJ39" s="158"/>
-      <c r="AK39" s="161"/>
-      <c r="AL39" s="161"/>
-      <c r="AM39" s="161"/>
-      <c r="AN39" s="158"/>
-      <c r="AO39" s="158"/>
-      <c r="AP39" s="158"/>
-      <c r="AQ39" s="158"/>
-      <c r="AR39" s="158"/>
-      <c r="AS39" s="158"/>
-      <c r="AT39" s="158"/>
-      <c r="AU39" s="158"/>
-      <c r="AV39" s="158"/>
-      <c r="AW39" s="158"/>
-      <c r="AX39" s="158"/>
-      <c r="AY39" s="158"/>
-      <c r="AZ39" s="158"/>
-      <c r="BA39" s="158"/>
-      <c r="BB39" s="158"/>
-      <c r="BC39" s="158"/>
-      <c r="BD39" s="158"/>
-      <c r="BE39" s="158"/>
-      <c r="BF39" s="158"/>
-      <c r="BG39" s="158"/>
-      <c r="BH39" s="158"/>
-      <c r="BI39" s="158"/>
-      <c r="BJ39" s="158"/>
-      <c r="BK39" s="158"/>
-      <c r="BL39" s="163"/>
-      <c r="BM39" s="163"/>
-      <c r="BN39" s="163"/>
-      <c r="BO39" s="163"/>
-      <c r="BP39" s="166"/>
-      <c r="BQ39" s="166"/>
-      <c r="BR39" s="166"/>
-      <c r="BS39" s="166"/>
+      <c r="C39" s="160"/>
+      <c r="D39" s="160"/>
+      <c r="E39" s="160"/>
+      <c r="F39" s="167"/>
+      <c r="G39" s="167"/>
+      <c r="H39" s="167"/>
+      <c r="I39" s="167"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
+      <c r="N39" s="149"/>
+      <c r="O39" s="149"/>
+      <c r="P39" s="149"/>
+      <c r="Q39" s="149"/>
+      <c r="R39" s="151"/>
+      <c r="S39" s="151"/>
+      <c r="T39" s="149"/>
+      <c r="U39" s="149"/>
+      <c r="V39" s="149"/>
+      <c r="W39" s="149"/>
+      <c r="X39" s="149"/>
+      <c r="Y39" s="149"/>
+      <c r="Z39" s="149"/>
+      <c r="AA39" s="149"/>
+      <c r="AB39" s="149"/>
+      <c r="AC39" s="149"/>
+      <c r="AD39" s="149"/>
+      <c r="AE39" s="149"/>
+      <c r="AF39" s="161"/>
+      <c r="AG39" s="161"/>
+      <c r="AH39" s="161"/>
+      <c r="AI39" s="161"/>
+      <c r="AJ39" s="155"/>
+      <c r="AK39" s="154"/>
+      <c r="AL39" s="154"/>
+      <c r="AM39" s="154"/>
+      <c r="AN39" s="155"/>
+      <c r="AO39" s="155"/>
+      <c r="AP39" s="155"/>
+      <c r="AQ39" s="155"/>
+      <c r="AR39" s="155"/>
+      <c r="AS39" s="155"/>
+      <c r="AT39" s="155"/>
+      <c r="AU39" s="155"/>
+      <c r="AV39" s="155"/>
+      <c r="AW39" s="155"/>
+      <c r="AX39" s="155"/>
+      <c r="AY39" s="155"/>
+      <c r="AZ39" s="155"/>
+      <c r="BA39" s="155"/>
+      <c r="BB39" s="155"/>
+      <c r="BC39" s="155"/>
+      <c r="BD39" s="155"/>
+      <c r="BE39" s="155"/>
+      <c r="BF39" s="155"/>
+      <c r="BG39" s="155"/>
+      <c r="BH39" s="155"/>
+      <c r="BI39" s="155"/>
+      <c r="BJ39" s="155"/>
+      <c r="BK39" s="155"/>
+      <c r="BL39" s="156"/>
+      <c r="BM39" s="156"/>
+      <c r="BN39" s="156"/>
+      <c r="BO39" s="156"/>
+      <c r="BP39" s="153"/>
+      <c r="BQ39" s="153"/>
+      <c r="BR39" s="153"/>
+      <c r="BS39" s="153"/>
     </row>
     <row r="40" spans="1:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F40" s="148"/>
-      <c r="G40" s="148"/>
-      <c r="H40" s="148"/>
-      <c r="I40" s="148"/>
-      <c r="J40" s="151" t="s">
+      <c r="F40" s="167"/>
+      <c r="G40" s="167"/>
+      <c r="H40" s="167"/>
+      <c r="I40" s="167"/>
+      <c r="J40" s="149" t="s">
         <v>536</v>
       </c>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
-      <c r="N40" s="151" t="s">
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
+      <c r="N40" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="O40" s="151"/>
-      <c r="P40" s="151"/>
-      <c r="Q40" s="151"/>
-      <c r="R40" s="165"/>
-      <c r="S40" s="165"/>
-      <c r="T40" s="151"/>
-      <c r="U40" s="153" t="s">
+      <c r="O40" s="149"/>
+      <c r="P40" s="149"/>
+      <c r="Q40" s="149"/>
+      <c r="R40" s="151"/>
+      <c r="S40" s="151"/>
+      <c r="T40" s="149"/>
+      <c r="U40" s="163" t="s">
         <v>106</v>
       </c>
-      <c r="V40" s="153"/>
-      <c r="W40" s="153"/>
-      <c r="X40" s="151"/>
-      <c r="Y40" s="151" t="s">
+      <c r="V40" s="163"/>
+      <c r="W40" s="163"/>
+      <c r="X40" s="149"/>
+      <c r="Y40" s="149" t="s">
         <v>99</v>
       </c>
-      <c r="Z40" s="151"/>
-      <c r="AA40" s="151"/>
-      <c r="AB40" s="151"/>
-      <c r="AC40" s="151" t="s">
+      <c r="Z40" s="149"/>
+      <c r="AA40" s="149"/>
+      <c r="AB40" s="149"/>
+      <c r="AC40" s="149" t="s">
         <v>100</v>
       </c>
-      <c r="AD40" s="151"/>
-      <c r="AE40" s="151"/>
-      <c r="AF40" s="154"/>
-      <c r="AG40" s="154" t="s">
+      <c r="AD40" s="149"/>
+      <c r="AE40" s="149"/>
+      <c r="AF40" s="161"/>
+      <c r="AG40" s="161" t="s">
         <v>80</v>
       </c>
-      <c r="AH40" s="154"/>
-      <c r="AI40" s="154"/>
-      <c r="AJ40" s="158"/>
-      <c r="AK40" s="158" t="s">
+      <c r="AH40" s="161"/>
+      <c r="AI40" s="161"/>
+      <c r="AJ40" s="155"/>
+      <c r="AK40" s="155" t="s">
         <v>96</v>
       </c>
-      <c r="AL40" s="158"/>
-      <c r="AM40" s="158"/>
-      <c r="AN40" s="158"/>
-      <c r="AO40" s="160" t="s">
+      <c r="AL40" s="155"/>
+      <c r="AM40" s="155"/>
+      <c r="AN40" s="155"/>
+      <c r="AO40" s="162" t="s">
         <v>102</v>
       </c>
-      <c r="AP40" s="161"/>
-      <c r="AQ40" s="161"/>
-      <c r="AR40" s="158"/>
-      <c r="AS40" s="162"/>
-      <c r="AT40" s="162"/>
-      <c r="AU40" s="162"/>
-      <c r="AV40" s="158"/>
-      <c r="AW40" s="162" t="s">
+      <c r="AP40" s="154"/>
+      <c r="AQ40" s="154"/>
+      <c r="AR40" s="155"/>
+      <c r="AS40" s="157"/>
+      <c r="AT40" s="157"/>
+      <c r="AU40" s="157"/>
+      <c r="AV40" s="155"/>
+      <c r="AW40" s="157" t="s">
         <v>98</v>
       </c>
-      <c r="AX40" s="162"/>
-      <c r="AY40" s="162"/>
-      <c r="AZ40" s="158"/>
-      <c r="BA40" s="158" t="s">
+      <c r="AX40" s="157"/>
+      <c r="AY40" s="157"/>
+      <c r="AZ40" s="155"/>
+      <c r="BA40" s="155" t="s">
         <v>97</v>
       </c>
-      <c r="BB40" s="158"/>
-      <c r="BC40" s="158"/>
-      <c r="BD40" s="158"/>
-      <c r="BE40" s="158" t="s">
+      <c r="BB40" s="155"/>
+      <c r="BC40" s="155"/>
+      <c r="BD40" s="155"/>
+      <c r="BE40" s="155" t="s">
         <v>107</v>
       </c>
-      <c r="BF40" s="158"/>
-      <c r="BG40" s="158"/>
-      <c r="BH40" s="158"/>
-      <c r="BI40" s="161" t="s">
+      <c r="BF40" s="155"/>
+      <c r="BG40" s="155"/>
+      <c r="BH40" s="155"/>
+      <c r="BI40" s="154" t="s">
         <v>209</v>
       </c>
-      <c r="BJ40" s="161"/>
-      <c r="BK40" s="161"/>
-      <c r="BL40" s="163"/>
-      <c r="BM40" s="163"/>
-      <c r="BN40" s="163"/>
-      <c r="BO40" s="163"/>
-      <c r="BP40" s="166"/>
-      <c r="BQ40" s="166"/>
-      <c r="BR40" s="166"/>
-      <c r="BS40" s="166"/>
+      <c r="BJ40" s="154"/>
+      <c r="BK40" s="154"/>
+      <c r="BL40" s="156"/>
+      <c r="BM40" s="156"/>
+      <c r="BN40" s="156"/>
+      <c r="BO40" s="156"/>
+      <c r="BP40" s="153"/>
+      <c r="BQ40" s="153"/>
+      <c r="BR40" s="153"/>
+      <c r="BS40" s="153"/>
     </row>
     <row r="41" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="F41" s="148" t="s">
+      <c r="F41" s="167" t="s">
         <v>865</v>
       </c>
-      <c r="G41" s="148"/>
-      <c r="H41" s="148"/>
-      <c r="I41" s="148"/>
-      <c r="J41" s="156" t="s">
+      <c r="G41" s="167"/>
+      <c r="H41" s="167"/>
+      <c r="I41" s="167"/>
+      <c r="J41" s="158" t="s">
         <v>144</v>
       </c>
-      <c r="K41" s="156"/>
-      <c r="L41" s="156"/>
-      <c r="M41" s="156"/>
-      <c r="N41" s="156"/>
-      <c r="O41" s="156"/>
-      <c r="P41" s="156"/>
-      <c r="Q41" s="156"/>
-      <c r="R41" s="156"/>
-      <c r="S41" s="156"/>
-      <c r="T41" s="156"/>
-      <c r="U41" s="156"/>
-      <c r="V41" s="156"/>
-      <c r="W41" s="156"/>
-      <c r="X41" s="156"/>
-      <c r="Y41" s="156"/>
-      <c r="Z41" s="156"/>
-      <c r="AA41" s="156"/>
-      <c r="AB41" s="156"/>
-      <c r="AC41" s="156"/>
-      <c r="AD41" s="156"/>
-      <c r="AE41" s="156"/>
-      <c r="AF41" s="152" t="s">
+      <c r="K41" s="158"/>
+      <c r="L41" s="158"/>
+      <c r="M41" s="158"/>
+      <c r="N41" s="158"/>
+      <c r="O41" s="158"/>
+      <c r="P41" s="158"/>
+      <c r="Q41" s="158"/>
+      <c r="R41" s="158"/>
+      <c r="S41" s="158"/>
+      <c r="T41" s="158"/>
+      <c r="U41" s="158"/>
+      <c r="V41" s="158"/>
+      <c r="W41" s="158"/>
+      <c r="X41" s="158"/>
+      <c r="Y41" s="158"/>
+      <c r="Z41" s="158"/>
+      <c r="AA41" s="158"/>
+      <c r="AB41" s="158"/>
+      <c r="AC41" s="158"/>
+      <c r="AD41" s="158"/>
+      <c r="AE41" s="158"/>
+      <c r="AF41" s="166" t="s">
         <v>146</v>
       </c>
-      <c r="AG41" s="152"/>
-      <c r="AH41" s="152"/>
-      <c r="AI41" s="152"/>
-      <c r="AJ41" s="161" t="s">
+      <c r="AG41" s="166"/>
+      <c r="AH41" s="166"/>
+      <c r="AI41" s="166"/>
+      <c r="AJ41" s="154" t="s">
         <v>143</v>
       </c>
-      <c r="AK41" s="161"/>
-      <c r="AL41" s="161"/>
-      <c r="AM41" s="161"/>
-      <c r="AN41" s="161"/>
-      <c r="AO41" s="161"/>
-      <c r="AP41" s="161"/>
-      <c r="AQ41" s="161"/>
-      <c r="AR41" s="161"/>
-      <c r="AS41" s="161"/>
-      <c r="AT41" s="161"/>
-      <c r="AU41" s="161"/>
-      <c r="AV41" s="161"/>
-      <c r="AW41" s="161"/>
-      <c r="AX41" s="161"/>
-      <c r="AY41" s="161"/>
-      <c r="AZ41" s="161"/>
-      <c r="BA41" s="161"/>
-      <c r="BB41" s="161"/>
-      <c r="BC41" s="161"/>
-      <c r="BD41" s="161"/>
-      <c r="BE41" s="161"/>
-      <c r="BF41" s="161"/>
-      <c r="BG41" s="161"/>
-      <c r="BH41" s="161"/>
-      <c r="BI41" s="161"/>
-      <c r="BJ41" s="161"/>
-      <c r="BK41" s="161"/>
-      <c r="BL41" s="163" t="s">
+      <c r="AK41" s="154"/>
+      <c r="AL41" s="154"/>
+      <c r="AM41" s="154"/>
+      <c r="AN41" s="154"/>
+      <c r="AO41" s="154"/>
+      <c r="AP41" s="154"/>
+      <c r="AQ41" s="154"/>
+      <c r="AR41" s="154"/>
+      <c r="AS41" s="154"/>
+      <c r="AT41" s="154"/>
+      <c r="AU41" s="154"/>
+      <c r="AV41" s="154"/>
+      <c r="AW41" s="154"/>
+      <c r="AX41" s="154"/>
+      <c r="AY41" s="154"/>
+      <c r="AZ41" s="154"/>
+      <c r="BA41" s="154"/>
+      <c r="BB41" s="154"/>
+      <c r="BC41" s="154"/>
+      <c r="BD41" s="154"/>
+      <c r="BE41" s="154"/>
+      <c r="BF41" s="154"/>
+      <c r="BG41" s="154"/>
+      <c r="BH41" s="154"/>
+      <c r="BI41" s="154"/>
+      <c r="BJ41" s="154"/>
+      <c r="BK41" s="154"/>
+      <c r="BL41" s="156" t="s">
         <v>434</v>
       </c>
-      <c r="BM41" s="163"/>
-      <c r="BN41" s="163"/>
-      <c r="BO41" s="163"/>
-      <c r="BP41" s="166" t="s">
+      <c r="BM41" s="156"/>
+      <c r="BN41" s="156"/>
+      <c r="BO41" s="156"/>
+      <c r="BP41" s="153" t="s">
         <v>766</v>
       </c>
-      <c r="BQ41" s="166"/>
-      <c r="BR41" s="166"/>
-      <c r="BS41" s="166"/>
+      <c r="BQ41" s="153"/>
+      <c r="BR41" s="153"/>
+      <c r="BS41" s="153"/>
     </row>
     <row r="42" spans="1:71" x14ac:dyDescent="0.15">
       <c r="J42" s="13"/>
@@ -28681,368 +28717,368 @@
       <c r="BR44" s="6"/>
     </row>
     <row r="45" spans="1:71" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C45" s="149" t="s">
+      <c r="C45" s="159" t="s">
         <v>110</v>
       </c>
-      <c r="D45" s="150"/>
-      <c r="E45" s="150"/>
+      <c r="D45" s="160"/>
+      <c r="E45" s="160"/>
       <c r="F45" s="92"/>
       <c r="G45" s="92"/>
       <c r="H45" s="92"/>
       <c r="I45" s="92"/>
-      <c r="J45" s="155" t="s">
+      <c r="J45" s="152" t="s">
         <v>650</v>
       </c>
-      <c r="K45" s="151"/>
-      <c r="L45" s="151"/>
-      <c r="M45" s="151" t="s">
+      <c r="K45" s="149"/>
+      <c r="L45" s="149"/>
+      <c r="M45" s="149" t="s">
         <v>111</v>
       </c>
-      <c r="N45" s="155" t="s">
+      <c r="N45" s="152" t="s">
         <v>115</v>
       </c>
-      <c r="O45" s="155"/>
-      <c r="P45" s="155"/>
-      <c r="Q45" s="155"/>
-      <c r="R45" s="155"/>
-      <c r="S45" s="155"/>
-      <c r="T45" s="151" t="s">
+      <c r="O45" s="152"/>
+      <c r="P45" s="152"/>
+      <c r="Q45" s="152"/>
+      <c r="R45" s="152"/>
+      <c r="S45" s="152"/>
+      <c r="T45" s="149" t="s">
         <v>94</v>
       </c>
-      <c r="U45" s="151" t="s">
+      <c r="U45" s="149" t="s">
         <v>519</v>
       </c>
-      <c r="V45" s="151"/>
-      <c r="W45" s="151"/>
-      <c r="X45" s="151" t="s">
+      <c r="V45" s="149"/>
+      <c r="W45" s="149"/>
+      <c r="X45" s="149" t="s">
         <v>95</v>
       </c>
-      <c r="Y45" s="156" t="s">
+      <c r="Y45" s="158" t="s">
         <v>520</v>
       </c>
-      <c r="Z45" s="156"/>
-      <c r="AA45" s="156"/>
-      <c r="AB45" s="154" t="s">
+      <c r="Z45" s="158"/>
+      <c r="AA45" s="158"/>
+      <c r="AB45" s="161" t="s">
         <v>111</v>
       </c>
-      <c r="AC45" s="154" t="s">
+      <c r="AC45" s="161" t="s">
         <v>521</v>
       </c>
-      <c r="AD45" s="154"/>
-      <c r="AE45" s="154"/>
-      <c r="AF45" s="158" t="s">
+      <c r="AD45" s="161"/>
+      <c r="AE45" s="161"/>
+      <c r="AF45" s="155" t="s">
         <v>77</v>
       </c>
-      <c r="AG45" s="158">
+      <c r="AG45" s="155">
         <v>1</v>
       </c>
-      <c r="AH45" s="158"/>
-      <c r="AI45" s="158"/>
-      <c r="AJ45" s="158" t="s">
+      <c r="AH45" s="155"/>
+      <c r="AI45" s="155"/>
+      <c r="AJ45" s="155" t="s">
         <v>95</v>
       </c>
-      <c r="AK45" s="158" t="s">
+      <c r="AK45" s="155" t="s">
         <v>522</v>
       </c>
-      <c r="AL45" s="158"/>
-      <c r="AM45" s="158"/>
-      <c r="AN45" s="158" t="s">
+      <c r="AL45" s="155"/>
+      <c r="AM45" s="155"/>
+      <c r="AN45" s="155" t="s">
         <v>147</v>
       </c>
-      <c r="AO45" s="158" t="s">
+      <c r="AO45" s="155" t="s">
         <v>517</v>
       </c>
-      <c r="AP45" s="158"/>
-      <c r="AQ45" s="158"/>
-      <c r="AR45" s="158" t="s">
+      <c r="AP45" s="155"/>
+      <c r="AQ45" s="155"/>
+      <c r="AR45" s="155" t="s">
         <v>95</v>
       </c>
-      <c r="AS45" s="158" t="s">
+      <c r="AS45" s="155" t="s">
         <v>515</v>
       </c>
-      <c r="AT45" s="158"/>
-      <c r="AU45" s="158"/>
-      <c r="AV45" s="158" t="s">
+      <c r="AT45" s="155"/>
+      <c r="AU45" s="155"/>
+      <c r="AV45" s="155" t="s">
         <v>95</v>
       </c>
-      <c r="AW45" s="158" t="s">
+      <c r="AW45" s="155" t="s">
         <v>512</v>
       </c>
-      <c r="AX45" s="158"/>
-      <c r="AY45" s="158"/>
+      <c r="AX45" s="155"/>
+      <c r="AY45" s="155"/>
     </row>
     <row r="46" spans="1:71" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C46" s="150"/>
-      <c r="D46" s="150"/>
-      <c r="E46" s="150"/>
+      <c r="C46" s="160"/>
+      <c r="D46" s="160"/>
+      <c r="E46" s="160"/>
       <c r="F46" s="92"/>
       <c r="G46" s="92"/>
       <c r="H46" s="92"/>
       <c r="I46" s="92"/>
-      <c r="J46" s="151"/>
-      <c r="K46" s="151"/>
-      <c r="L46" s="151"/>
-      <c r="M46" s="151"/>
-      <c r="N46" s="155"/>
-      <c r="O46" s="155"/>
-      <c r="P46" s="155"/>
-      <c r="Q46" s="155"/>
-      <c r="R46" s="155"/>
-      <c r="S46" s="155"/>
-      <c r="T46" s="151"/>
-      <c r="U46" s="151"/>
-      <c r="V46" s="151"/>
-      <c r="W46" s="151"/>
-      <c r="X46" s="151"/>
-      <c r="Y46" s="156"/>
-      <c r="Z46" s="156"/>
-      <c r="AA46" s="156"/>
-      <c r="AB46" s="154"/>
-      <c r="AC46" s="154"/>
-      <c r="AD46" s="154"/>
-      <c r="AE46" s="154"/>
-      <c r="AF46" s="158"/>
-      <c r="AG46" s="158"/>
-      <c r="AH46" s="158"/>
-      <c r="AI46" s="158"/>
-      <c r="AJ46" s="158"/>
-      <c r="AK46" s="158"/>
-      <c r="AL46" s="158"/>
-      <c r="AM46" s="158"/>
-      <c r="AN46" s="158"/>
-      <c r="AO46" s="158"/>
-      <c r="AP46" s="158"/>
-      <c r="AQ46" s="158"/>
-      <c r="AR46" s="158"/>
-      <c r="AS46" s="158"/>
-      <c r="AT46" s="158"/>
-      <c r="AU46" s="158"/>
-      <c r="AV46" s="158"/>
-      <c r="AW46" s="158"/>
-      <c r="AX46" s="158"/>
-      <c r="AY46" s="158"/>
+      <c r="J46" s="149"/>
+      <c r="K46" s="149"/>
+      <c r="L46" s="149"/>
+      <c r="M46" s="149"/>
+      <c r="N46" s="152"/>
+      <c r="O46" s="152"/>
+      <c r="P46" s="152"/>
+      <c r="Q46" s="152"/>
+      <c r="R46" s="152"/>
+      <c r="S46" s="152"/>
+      <c r="T46" s="149"/>
+      <c r="U46" s="149"/>
+      <c r="V46" s="149"/>
+      <c r="W46" s="149"/>
+      <c r="X46" s="149"/>
+      <c r="Y46" s="158"/>
+      <c r="Z46" s="158"/>
+      <c r="AA46" s="158"/>
+      <c r="AB46" s="161"/>
+      <c r="AC46" s="161"/>
+      <c r="AD46" s="161"/>
+      <c r="AE46" s="161"/>
+      <c r="AF46" s="155"/>
+      <c r="AG46" s="155"/>
+      <c r="AH46" s="155"/>
+      <c r="AI46" s="155"/>
+      <c r="AJ46" s="155"/>
+      <c r="AK46" s="155"/>
+      <c r="AL46" s="155"/>
+      <c r="AM46" s="155"/>
+      <c r="AN46" s="155"/>
+      <c r="AO46" s="155"/>
+      <c r="AP46" s="155"/>
+      <c r="AQ46" s="155"/>
+      <c r="AR46" s="155"/>
+      <c r="AS46" s="155"/>
+      <c r="AT46" s="155"/>
+      <c r="AU46" s="155"/>
+      <c r="AV46" s="155"/>
+      <c r="AW46" s="155"/>
+      <c r="AX46" s="155"/>
+      <c r="AY46" s="155"/>
     </row>
     <row r="47" spans="1:71" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C47" s="150"/>
-      <c r="D47" s="150"/>
-      <c r="E47" s="150"/>
+      <c r="C47" s="160"/>
+      <c r="D47" s="160"/>
+      <c r="E47" s="160"/>
       <c r="F47" s="92"/>
       <c r="G47" s="92"/>
       <c r="H47" s="92"/>
       <c r="I47" s="92"/>
-      <c r="J47" s="151"/>
-      <c r="K47" s="151"/>
-      <c r="L47" s="151"/>
-      <c r="M47" s="151"/>
-      <c r="N47" s="155"/>
-      <c r="O47" s="155"/>
-      <c r="P47" s="155"/>
-      <c r="Q47" s="155"/>
-      <c r="R47" s="155"/>
-      <c r="S47" s="155"/>
-      <c r="T47" s="151"/>
-      <c r="U47" s="151"/>
-      <c r="V47" s="151"/>
-      <c r="W47" s="151"/>
-      <c r="X47" s="151"/>
-      <c r="Y47" s="156"/>
-      <c r="Z47" s="156"/>
-      <c r="AA47" s="156"/>
-      <c r="AB47" s="154"/>
-      <c r="AC47" s="154"/>
-      <c r="AD47" s="154"/>
-      <c r="AE47" s="154"/>
-      <c r="AF47" s="158"/>
-      <c r="AG47" s="158"/>
-      <c r="AH47" s="158"/>
-      <c r="AI47" s="158"/>
-      <c r="AJ47" s="158"/>
-      <c r="AK47" s="158"/>
-      <c r="AL47" s="158"/>
-      <c r="AM47" s="158"/>
-      <c r="AN47" s="158"/>
-      <c r="AO47" s="158"/>
-      <c r="AP47" s="158"/>
-      <c r="AQ47" s="158"/>
-      <c r="AR47" s="158"/>
-      <c r="AS47" s="158"/>
-      <c r="AT47" s="158"/>
-      <c r="AU47" s="158"/>
-      <c r="AV47" s="158"/>
-      <c r="AW47" s="158"/>
-      <c r="AX47" s="158"/>
-      <c r="AY47" s="158"/>
+      <c r="J47" s="149"/>
+      <c r="K47" s="149"/>
+      <c r="L47" s="149"/>
+      <c r="M47" s="149"/>
+      <c r="N47" s="152"/>
+      <c r="O47" s="152"/>
+      <c r="P47" s="152"/>
+      <c r="Q47" s="152"/>
+      <c r="R47" s="152"/>
+      <c r="S47" s="152"/>
+      <c r="T47" s="149"/>
+      <c r="U47" s="149"/>
+      <c r="V47" s="149"/>
+      <c r="W47" s="149"/>
+      <c r="X47" s="149"/>
+      <c r="Y47" s="158"/>
+      <c r="Z47" s="158"/>
+      <c r="AA47" s="158"/>
+      <c r="AB47" s="161"/>
+      <c r="AC47" s="161"/>
+      <c r="AD47" s="161"/>
+      <c r="AE47" s="161"/>
+      <c r="AF47" s="155"/>
+      <c r="AG47" s="155"/>
+      <c r="AH47" s="155"/>
+      <c r="AI47" s="155"/>
+      <c r="AJ47" s="155"/>
+      <c r="AK47" s="155"/>
+      <c r="AL47" s="155"/>
+      <c r="AM47" s="155"/>
+      <c r="AN47" s="155"/>
+      <c r="AO47" s="155"/>
+      <c r="AP47" s="155"/>
+      <c r="AQ47" s="155"/>
+      <c r="AR47" s="155"/>
+      <c r="AS47" s="155"/>
+      <c r="AT47" s="155"/>
+      <c r="AU47" s="155"/>
+      <c r="AV47" s="155"/>
+      <c r="AW47" s="155"/>
+      <c r="AX47" s="155"/>
+      <c r="AY47" s="155"/>
     </row>
     <row r="48" spans="1:71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C48" s="150"/>
-      <c r="D48" s="150"/>
-      <c r="E48" s="150"/>
+      <c r="C48" s="160"/>
+      <c r="D48" s="160"/>
+      <c r="E48" s="160"/>
       <c r="F48" s="92"/>
       <c r="G48" s="92"/>
       <c r="H48" s="92"/>
       <c r="I48" s="92"/>
-      <c r="J48" s="151"/>
-      <c r="K48" s="151"/>
-      <c r="L48" s="151"/>
-      <c r="M48" s="151"/>
-      <c r="N48" s="155"/>
-      <c r="O48" s="155"/>
-      <c r="P48" s="155"/>
-      <c r="Q48" s="155"/>
-      <c r="R48" s="155"/>
-      <c r="S48" s="155"/>
-      <c r="T48" s="151"/>
-      <c r="U48" s="151"/>
-      <c r="V48" s="151"/>
-      <c r="W48" s="151"/>
-      <c r="X48" s="151"/>
-      <c r="Y48" s="156"/>
-      <c r="Z48" s="156"/>
-      <c r="AA48" s="156"/>
-      <c r="AB48" s="154"/>
-      <c r="AC48" s="154"/>
-      <c r="AD48" s="154"/>
-      <c r="AE48" s="154"/>
-      <c r="AF48" s="158"/>
-      <c r="AG48" s="158"/>
-      <c r="AH48" s="158"/>
-      <c r="AI48" s="158"/>
-      <c r="AJ48" s="158"/>
-      <c r="AK48" s="158"/>
-      <c r="AL48" s="158"/>
-      <c r="AM48" s="158"/>
-      <c r="AN48" s="158"/>
-      <c r="AO48" s="158"/>
-      <c r="AP48" s="158"/>
-      <c r="AQ48" s="158"/>
-      <c r="AR48" s="158"/>
-      <c r="AS48" s="158"/>
-      <c r="AT48" s="158"/>
-      <c r="AU48" s="158"/>
-      <c r="AV48" s="158"/>
-      <c r="AW48" s="158"/>
-      <c r="AX48" s="158"/>
-      <c r="AY48" s="158"/>
+      <c r="J48" s="149"/>
+      <c r="K48" s="149"/>
+      <c r="L48" s="149"/>
+      <c r="M48" s="149"/>
+      <c r="N48" s="152"/>
+      <c r="O48" s="152"/>
+      <c r="P48" s="152"/>
+      <c r="Q48" s="152"/>
+      <c r="R48" s="152"/>
+      <c r="S48" s="152"/>
+      <c r="T48" s="149"/>
+      <c r="U48" s="149"/>
+      <c r="V48" s="149"/>
+      <c r="W48" s="149"/>
+      <c r="X48" s="149"/>
+      <c r="Y48" s="158"/>
+      <c r="Z48" s="158"/>
+      <c r="AA48" s="158"/>
+      <c r="AB48" s="161"/>
+      <c r="AC48" s="161"/>
+      <c r="AD48" s="161"/>
+      <c r="AE48" s="161"/>
+      <c r="AF48" s="155"/>
+      <c r="AG48" s="155"/>
+      <c r="AH48" s="155"/>
+      <c r="AI48" s="155"/>
+      <c r="AJ48" s="155"/>
+      <c r="AK48" s="155"/>
+      <c r="AL48" s="155"/>
+      <c r="AM48" s="155"/>
+      <c r="AN48" s="155"/>
+      <c r="AO48" s="155"/>
+      <c r="AP48" s="155"/>
+      <c r="AQ48" s="155"/>
+      <c r="AR48" s="155"/>
+      <c r="AS48" s="155"/>
+      <c r="AT48" s="155"/>
+      <c r="AU48" s="155"/>
+      <c r="AV48" s="155"/>
+      <c r="AW48" s="155"/>
+      <c r="AX48" s="155"/>
+      <c r="AY48" s="155"/>
     </row>
     <row r="49" spans="3:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
-      <c r="J49" s="151" t="s">
+      <c r="J49" s="149" t="s">
         <v>536</v>
       </c>
-      <c r="K49" s="151"/>
-      <c r="L49" s="151"/>
-      <c r="M49" s="151"/>
-      <c r="N49" s="153" t="s">
+      <c r="K49" s="149"/>
+      <c r="L49" s="149"/>
+      <c r="M49" s="149"/>
+      <c r="N49" s="163" t="s">
         <v>106</v>
       </c>
-      <c r="O49" s="153"/>
-      <c r="P49" s="153"/>
+      <c r="O49" s="163"/>
+      <c r="P49" s="163"/>
       <c r="Q49" s="89"/>
       <c r="R49" s="89"/>
       <c r="S49" s="89"/>
-      <c r="T49" s="151"/>
-      <c r="U49" s="151" t="s">
+      <c r="T49" s="149"/>
+      <c r="U49" s="149" t="s">
         <v>99</v>
       </c>
-      <c r="V49" s="151"/>
-      <c r="W49" s="151"/>
-      <c r="X49" s="151"/>
-      <c r="Y49" s="156" t="s">
+      <c r="V49" s="149"/>
+      <c r="W49" s="149"/>
+      <c r="X49" s="149"/>
+      <c r="Y49" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="Z49" s="156"/>
-      <c r="AA49" s="156"/>
-      <c r="AB49" s="154"/>
-      <c r="AC49" s="154" t="s">
+      <c r="Z49" s="158"/>
+      <c r="AA49" s="158"/>
+      <c r="AB49" s="161"/>
+      <c r="AC49" s="161" t="s">
         <v>112</v>
       </c>
-      <c r="AD49" s="154"/>
-      <c r="AE49" s="154"/>
-      <c r="AF49" s="158"/>
-      <c r="AG49" s="158"/>
-      <c r="AH49" s="158"/>
-      <c r="AI49" s="158"/>
-      <c r="AJ49" s="158"/>
-      <c r="AK49" s="158" t="s">
+      <c r="AD49" s="161"/>
+      <c r="AE49" s="161"/>
+      <c r="AF49" s="155"/>
+      <c r="AG49" s="155"/>
+      <c r="AH49" s="155"/>
+      <c r="AI49" s="155"/>
+      <c r="AJ49" s="155"/>
+      <c r="AK49" s="155" t="s">
         <v>97</v>
       </c>
-      <c r="AL49" s="158"/>
-      <c r="AM49" s="158"/>
-      <c r="AN49" s="158"/>
-      <c r="AO49" s="158" t="s">
+      <c r="AL49" s="155"/>
+      <c r="AM49" s="155"/>
+      <c r="AN49" s="155"/>
+      <c r="AO49" s="155" t="s">
         <v>98</v>
       </c>
-      <c r="AP49" s="158"/>
-      <c r="AQ49" s="158"/>
-      <c r="AR49" s="158"/>
-      <c r="AS49" s="158" t="s">
+      <c r="AP49" s="155"/>
+      <c r="AQ49" s="155"/>
+      <c r="AR49" s="155"/>
+      <c r="AS49" s="155" t="s">
         <v>107</v>
       </c>
-      <c r="AT49" s="158"/>
-      <c r="AU49" s="158"/>
-      <c r="AV49" s="158"/>
-      <c r="AW49" s="161" t="s">
+      <c r="AT49" s="155"/>
+      <c r="AU49" s="155"/>
+      <c r="AV49" s="155"/>
+      <c r="AW49" s="154" t="s">
         <v>209</v>
       </c>
-      <c r="AX49" s="161"/>
-      <c r="AY49" s="161"/>
+      <c r="AX49" s="154"/>
+      <c r="AY49" s="154"/>
     </row>
     <row r="50" spans="3:61" x14ac:dyDescent="0.15">
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
-      <c r="J50" s="156" t="s">
+      <c r="J50" s="158" t="s">
         <v>144</v>
       </c>
-      <c r="K50" s="156"/>
-      <c r="L50" s="156"/>
-      <c r="M50" s="156"/>
-      <c r="N50" s="156"/>
-      <c r="O50" s="156"/>
-      <c r="P50" s="156"/>
-      <c r="Q50" s="156"/>
-      <c r="R50" s="156"/>
-      <c r="S50" s="156"/>
-      <c r="T50" s="156"/>
-      <c r="U50" s="156"/>
-      <c r="V50" s="156"/>
-      <c r="W50" s="156"/>
-      <c r="X50" s="156"/>
-      <c r="Y50" s="156"/>
-      <c r="Z50" s="156"/>
-      <c r="AA50" s="156"/>
-      <c r="AB50" s="152" t="s">
+      <c r="K50" s="158"/>
+      <c r="L50" s="158"/>
+      <c r="M50" s="158"/>
+      <c r="N50" s="158"/>
+      <c r="O50" s="158"/>
+      <c r="P50" s="158"/>
+      <c r="Q50" s="158"/>
+      <c r="R50" s="158"/>
+      <c r="S50" s="158"/>
+      <c r="T50" s="158"/>
+      <c r="U50" s="158"/>
+      <c r="V50" s="158"/>
+      <c r="W50" s="158"/>
+      <c r="X50" s="158"/>
+      <c r="Y50" s="158"/>
+      <c r="Z50" s="158"/>
+      <c r="AA50" s="158"/>
+      <c r="AB50" s="166" t="s">
         <v>146</v>
       </c>
-      <c r="AC50" s="152"/>
-      <c r="AD50" s="152"/>
-      <c r="AE50" s="152"/>
-      <c r="AF50" s="161" t="s">
+      <c r="AC50" s="166"/>
+      <c r="AD50" s="166"/>
+      <c r="AE50" s="166"/>
+      <c r="AF50" s="154" t="s">
         <v>143</v>
       </c>
-      <c r="AG50" s="161"/>
-      <c r="AH50" s="161"/>
-      <c r="AI50" s="161"/>
-      <c r="AJ50" s="161"/>
-      <c r="AK50" s="161"/>
-      <c r="AL50" s="161"/>
-      <c r="AM50" s="161"/>
-      <c r="AN50" s="161"/>
-      <c r="AO50" s="161"/>
-      <c r="AP50" s="161"/>
-      <c r="AQ50" s="161"/>
-      <c r="AR50" s="161"/>
-      <c r="AS50" s="161"/>
-      <c r="AT50" s="161"/>
-      <c r="AU50" s="161"/>
-      <c r="AV50" s="161"/>
-      <c r="AW50" s="161"/>
-      <c r="AX50" s="161"/>
-      <c r="AY50" s="161"/>
+      <c r="AG50" s="154"/>
+      <c r="AH50" s="154"/>
+      <c r="AI50" s="154"/>
+      <c r="AJ50" s="154"/>
+      <c r="AK50" s="154"/>
+      <c r="AL50" s="154"/>
+      <c r="AM50" s="154"/>
+      <c r="AN50" s="154"/>
+      <c r="AO50" s="154"/>
+      <c r="AP50" s="154"/>
+      <c r="AQ50" s="154"/>
+      <c r="AR50" s="154"/>
+      <c r="AS50" s="154"/>
+      <c r="AT50" s="154"/>
+      <c r="AU50" s="154"/>
+      <c r="AV50" s="154"/>
+      <c r="AW50" s="154"/>
+      <c r="AX50" s="154"/>
+      <c r="AY50" s="154"/>
     </row>
     <row r="51" spans="3:61" x14ac:dyDescent="0.15">
       <c r="BD51" s="3"/>
@@ -29154,6 +29190,117 @@
     </row>
   </sheetData>
   <mergeCells count="135">
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I28:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="I36:I40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F36:H39"/>
+    <mergeCell ref="F28:H31"/>
+    <mergeCell ref="C28:E31"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="AF41:AI41"/>
+    <mergeCell ref="AB50:AE50"/>
+    <mergeCell ref="J33:AF33"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="AD32:AF32"/>
+    <mergeCell ref="AH32:AJ32"/>
+    <mergeCell ref="AG28:AG32"/>
+    <mergeCell ref="AH28:AJ31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="N28:P31"/>
+    <mergeCell ref="M28:M32"/>
+    <mergeCell ref="J28:L31"/>
+    <mergeCell ref="AG33:AJ33"/>
+    <mergeCell ref="J50:AA50"/>
+    <mergeCell ref="M36:M40"/>
+    <mergeCell ref="N36:P39"/>
+    <mergeCell ref="U40:W40"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="AC40:AE40"/>
+    <mergeCell ref="U28:U32"/>
+    <mergeCell ref="V28:X31"/>
+    <mergeCell ref="Y28:Y32"/>
+    <mergeCell ref="Z28:AB31"/>
+    <mergeCell ref="AC28:AC32"/>
+    <mergeCell ref="AD28:AF31"/>
+    <mergeCell ref="T36:T40"/>
+    <mergeCell ref="U36:W39"/>
+    <mergeCell ref="X36:X40"/>
+    <mergeCell ref="Y36:AA39"/>
+    <mergeCell ref="AB36:AB40"/>
+    <mergeCell ref="AC36:AE39"/>
+    <mergeCell ref="AF36:AF40"/>
+    <mergeCell ref="AS45:AU48"/>
+    <mergeCell ref="AV45:AV49"/>
+    <mergeCell ref="AW45:AY48"/>
+    <mergeCell ref="AG49:AI49"/>
+    <mergeCell ref="AF45:AF49"/>
+    <mergeCell ref="AG45:AI48"/>
+    <mergeCell ref="AJ45:AJ49"/>
+    <mergeCell ref="BE36:BG39"/>
+    <mergeCell ref="BH36:BH40"/>
+    <mergeCell ref="AN36:AN40"/>
+    <mergeCell ref="AO36:AQ39"/>
+    <mergeCell ref="AR36:AR40"/>
+    <mergeCell ref="AS36:AU39"/>
+    <mergeCell ref="AV36:AV40"/>
+    <mergeCell ref="AW36:AY39"/>
+    <mergeCell ref="AO40:AQ40"/>
+    <mergeCell ref="AS40:AU40"/>
+    <mergeCell ref="AW40:AY40"/>
+    <mergeCell ref="AZ36:AZ40"/>
+    <mergeCell ref="AN45:AN49"/>
+    <mergeCell ref="AO49:AQ49"/>
+    <mergeCell ref="BA36:BC39"/>
+    <mergeCell ref="BD36:BD40"/>
+    <mergeCell ref="AR45:AR49"/>
+    <mergeCell ref="J41:AE41"/>
+    <mergeCell ref="C45:E48"/>
+    <mergeCell ref="J45:L48"/>
+    <mergeCell ref="M45:M49"/>
+    <mergeCell ref="T45:T49"/>
+    <mergeCell ref="U45:W48"/>
+    <mergeCell ref="AK40:AM40"/>
+    <mergeCell ref="AG36:AI39"/>
+    <mergeCell ref="AJ36:AJ40"/>
+    <mergeCell ref="AK36:AM39"/>
+    <mergeCell ref="AG40:AI40"/>
+    <mergeCell ref="AK45:AM48"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="U49:W49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="AC49:AE49"/>
+    <mergeCell ref="Y45:AA48"/>
+    <mergeCell ref="AB45:AB49"/>
+    <mergeCell ref="AC45:AE48"/>
+    <mergeCell ref="X45:X49"/>
+    <mergeCell ref="C36:E39"/>
+    <mergeCell ref="J36:L39"/>
+    <mergeCell ref="AK49:AM49"/>
+    <mergeCell ref="BE28:BE32"/>
+    <mergeCell ref="BE33:BH33"/>
+    <mergeCell ref="AK33:BD33"/>
+    <mergeCell ref="BB32:BD32"/>
+    <mergeCell ref="AO28:AO32"/>
+    <mergeCell ref="AK28:AK32"/>
+    <mergeCell ref="AL28:AN31"/>
+    <mergeCell ref="AL32:AN32"/>
+    <mergeCell ref="BA28:BA32"/>
+    <mergeCell ref="BB28:BD31"/>
+    <mergeCell ref="AP28:AR31"/>
+    <mergeCell ref="AS28:AS32"/>
+    <mergeCell ref="AT28:AV31"/>
+    <mergeCell ref="AW28:AW32"/>
+    <mergeCell ref="AX28:AZ31"/>
+    <mergeCell ref="AP32:AR32"/>
+    <mergeCell ref="AT32:AV32"/>
+    <mergeCell ref="AX32:AZ32"/>
     <mergeCell ref="Q28:Q32"/>
     <mergeCell ref="Q36:Q40"/>
     <mergeCell ref="R36:S40"/>
@@ -29178,117 +29325,6 @@
     <mergeCell ref="BA40:BC40"/>
     <mergeCell ref="AO45:AQ48"/>
     <mergeCell ref="BL36:BL40"/>
-    <mergeCell ref="BE28:BE32"/>
-    <mergeCell ref="BE33:BH33"/>
-    <mergeCell ref="AK33:BD33"/>
-    <mergeCell ref="BB32:BD32"/>
-    <mergeCell ref="AO28:AO32"/>
-    <mergeCell ref="AK28:AK32"/>
-    <mergeCell ref="AL28:AN31"/>
-    <mergeCell ref="AL32:AN32"/>
-    <mergeCell ref="BA28:BA32"/>
-    <mergeCell ref="BB28:BD31"/>
-    <mergeCell ref="AP28:AR31"/>
-    <mergeCell ref="AS28:AS32"/>
-    <mergeCell ref="AT28:AV31"/>
-    <mergeCell ref="AW28:AW32"/>
-    <mergeCell ref="AX28:AZ31"/>
-    <mergeCell ref="AP32:AR32"/>
-    <mergeCell ref="AT32:AV32"/>
-    <mergeCell ref="AX32:AZ32"/>
-    <mergeCell ref="J41:AE41"/>
-    <mergeCell ref="C45:E48"/>
-    <mergeCell ref="J45:L48"/>
-    <mergeCell ref="M45:M49"/>
-    <mergeCell ref="T45:T49"/>
-    <mergeCell ref="U45:W48"/>
-    <mergeCell ref="AK40:AM40"/>
-    <mergeCell ref="AG36:AI39"/>
-    <mergeCell ref="AJ36:AJ40"/>
-    <mergeCell ref="AK36:AM39"/>
-    <mergeCell ref="AG40:AI40"/>
-    <mergeCell ref="AK45:AM48"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="U49:W49"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="AC49:AE49"/>
-    <mergeCell ref="Y45:AA48"/>
-    <mergeCell ref="AB45:AB49"/>
-    <mergeCell ref="AC45:AE48"/>
-    <mergeCell ref="X45:X49"/>
-    <mergeCell ref="C36:E39"/>
-    <mergeCell ref="J36:L39"/>
-    <mergeCell ref="AK49:AM49"/>
-    <mergeCell ref="AS45:AU48"/>
-    <mergeCell ref="AV45:AV49"/>
-    <mergeCell ref="AW45:AY48"/>
-    <mergeCell ref="AG49:AI49"/>
-    <mergeCell ref="AF45:AF49"/>
-    <mergeCell ref="AG45:AI48"/>
-    <mergeCell ref="AJ45:AJ49"/>
-    <mergeCell ref="BE36:BG39"/>
-    <mergeCell ref="BH36:BH40"/>
-    <mergeCell ref="AN36:AN40"/>
-    <mergeCell ref="AO36:AQ39"/>
-    <mergeCell ref="AR36:AR40"/>
-    <mergeCell ref="AS36:AU39"/>
-    <mergeCell ref="AV36:AV40"/>
-    <mergeCell ref="AW36:AY39"/>
-    <mergeCell ref="AO40:AQ40"/>
-    <mergeCell ref="AS40:AU40"/>
-    <mergeCell ref="AW40:AY40"/>
-    <mergeCell ref="AZ36:AZ40"/>
-    <mergeCell ref="AN45:AN49"/>
-    <mergeCell ref="AO49:AQ49"/>
-    <mergeCell ref="BA36:BC39"/>
-    <mergeCell ref="BD36:BD40"/>
-    <mergeCell ref="AR45:AR49"/>
-    <mergeCell ref="V28:X31"/>
-    <mergeCell ref="Y28:Y32"/>
-    <mergeCell ref="Z28:AB31"/>
-    <mergeCell ref="AC28:AC32"/>
-    <mergeCell ref="AD28:AF31"/>
-    <mergeCell ref="T36:T40"/>
-    <mergeCell ref="U36:W39"/>
-    <mergeCell ref="X36:X40"/>
-    <mergeCell ref="Y36:AA39"/>
-    <mergeCell ref="AB36:AB40"/>
-    <mergeCell ref="AC36:AE39"/>
-    <mergeCell ref="AF36:AF40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="AF41:AI41"/>
-    <mergeCell ref="AB50:AE50"/>
-    <mergeCell ref="J33:AF33"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Z32:AB32"/>
-    <mergeCell ref="AD32:AF32"/>
-    <mergeCell ref="AH32:AJ32"/>
-    <mergeCell ref="AG28:AG32"/>
-    <mergeCell ref="AH28:AJ31"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="N28:P31"/>
-    <mergeCell ref="M28:M32"/>
-    <mergeCell ref="J28:L31"/>
-    <mergeCell ref="AG33:AJ33"/>
-    <mergeCell ref="J50:AA50"/>
-    <mergeCell ref="M36:M40"/>
-    <mergeCell ref="N36:P39"/>
-    <mergeCell ref="U40:W40"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="U28:U32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I28:I32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="I36:I40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F36:H39"/>
-    <mergeCell ref="F28:H31"/>
-    <mergeCell ref="C28:E31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gd/数值规划/怪物属性配置及伤害公式.xlsx
+++ b/gd/数值规划/怪物属性配置及伤害公式.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="9" r:id="rId1"/>
@@ -2777,10 +2777,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>N为常数系数，规定同等级的命中率，暂定为80%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>设一个大数K/（总速度*波动系数），数值最小的释放技能，释放技能后未释放技能怪物速度叠加,继续k/(累计速度+总速度*波动系数)，直至该怪释放技能后累计速度归零，继续k/（总速度*波动系数），最小的释放技能；</t>
     </r>
@@ -3031,10 +3027,6 @@
   </si>
   <si>
     <t>最终值=怪物的总力量和总智力*attack_coef</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>max（N+L(lv1-lv2)+总附加命中率）,60%）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3677,6 +3669,14 @@
   <si>
     <t>属性生克百分比
 （需要判定攻击方法术攻击与被攻击方的属性来判定具体属性加成/减免系数（若无属性加成/减免，则取值为1，具体规则见名词解释分页））</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N为常数系数，规定同等级的命中率，暂定为100%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>max（N+L(lv1-lv2)+总附加命中率）,100%）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4554,59 +4554,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4614,20 +4572,17 @@
     <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4641,16 +4596,49 @@
     <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4659,35 +4647,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4698,17 +4698,17 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -21158,10 +21158,10 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="57" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C1" s="58"/>
       <c r="D1" s="59"/>
@@ -21196,10 +21196,10 @@
     </row>
     <row r="3" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A3" s="57" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C3" s="58"/>
       <c r="D3" s="59"/>
@@ -21234,10 +21234,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="57" t="s">
+        <v>710</v>
+      </c>
+      <c r="B5" s="58" t="s">
         <v>711</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>712</v>
       </c>
       <c r="C5" s="58"/>
       <c r="D5" s="59"/>
@@ -21272,10 +21272,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="57" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C7" s="58"/>
       <c r="D7" s="62"/>
@@ -21327,7 +21327,7 @@
     </row>
     <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="57" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B10" s="58"/>
       <c r="C10" s="59"/>
@@ -21347,11 +21347,11 @@
     <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="57"/>
       <c r="B11" s="106" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C11" s="107"/>
       <c r="D11" s="108" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E11" s="108"/>
       <c r="F11" s="108"/>
@@ -21368,7 +21368,7 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="57"/>
       <c r="B12" s="63" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C12" s="64"/>
       <c r="D12" s="102"/>
@@ -21387,7 +21387,7 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="57"/>
       <c r="B13" s="63" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C13" s="64"/>
       <c r="D13" s="110"/>
@@ -21406,7 +21406,7 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="57"/>
       <c r="B14" s="63" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C14" s="64"/>
       <c r="D14" s="113"/>
@@ -21425,10 +21425,10 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="57"/>
       <c r="B15" s="63" t="s">
+        <v>718</v>
+      </c>
+      <c r="C15" s="65" t="s">
         <v>719</v>
-      </c>
-      <c r="C15" s="65" t="s">
-        <v>720</v>
       </c>
       <c r="D15" s="102"/>
       <c r="E15" s="102"/>
@@ -21446,7 +21446,7 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="57"/>
       <c r="B16" s="63" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C16" s="65"/>
       <c r="D16" s="102"/>
@@ -21465,7 +21465,7 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="57"/>
       <c r="B17" s="63" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C17" s="65"/>
       <c r="D17" s="102"/>
@@ -21484,7 +21484,7 @@
     <row r="18" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="57"/>
       <c r="B18" s="66" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C18" s="67"/>
       <c r="D18" s="104"/>
@@ -21519,25 +21519,25 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="57" t="s">
+        <v>723</v>
+      </c>
+      <c r="B20" s="58" t="s">
         <v>724</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="C20" s="59" t="s">
         <v>725</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="D20" s="59" t="s">
         <v>726</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="E20" s="59" t="s">
         <v>727</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="F20" s="59" t="s">
         <v>728</v>
       </c>
-      <c r="F20" s="59" t="s">
+      <c r="G20" s="59" t="s">
         <v>729</v>
-      </c>
-      <c r="G20" s="59" t="s">
-        <v>730</v>
       </c>
       <c r="H20" s="58"/>
       <c r="I20" s="58"/>
@@ -21568,19 +21568,19 @@
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="57"/>
       <c r="B22" s="58" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C22" s="68">
         <v>42125</v>
       </c>
       <c r="D22" s="59" t="s">
+        <v>731</v>
+      </c>
+      <c r="E22" s="59" t="s">
         <v>732</v>
       </c>
-      <c r="E22" s="59" t="s">
+      <c r="F22" s="59" t="s">
         <v>733</v>
-      </c>
-      <c r="F22" s="59" t="s">
-        <v>734</v>
       </c>
       <c r="G22" s="59"/>
       <c r="H22" s="58"/>
@@ -21595,7 +21595,7 @@
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="57"/>
       <c r="B23" s="58" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C23" s="68">
         <v>42130</v>
@@ -21604,10 +21604,10 @@
       <c r="E23" s="69"/>
       <c r="F23" s="58"/>
       <c r="G23" s="59" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H23" s="62" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I23" s="58"/>
       <c r="J23" s="58"/>
@@ -21623,10 +21623,10 @@
       <c r="E24" s="70"/>
       <c r="F24" s="58"/>
       <c r="G24" s="59" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H24" s="71" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I24" s="58"/>
       <c r="J24" s="58"/>
@@ -21637,7 +21637,7 @@
     </row>
     <row r="25" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B25" s="58" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C25" s="68">
         <v>42139</v>
@@ -21645,26 +21645,26 @@
       <c r="E25" s="54"/>
       <c r="F25" s="59"/>
       <c r="G25" s="59" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H25" s="80" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I25" s="58"/>
       <c r="J25" s="58" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="K25" s="58"/>
       <c r="L25" s="58"/>
       <c r="M25" s="58"/>
       <c r="N25" s="82" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="O25" s="58"/>
     </row>
     <row r="26" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B26" s="58" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C26" s="68">
         <v>42142</v>
@@ -21672,10 +21672,10 @@
       <c r="E26" s="5"/>
       <c r="F26" s="59"/>
       <c r="G26" s="59" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="H26" s="80" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="I26" s="58"/>
       <c r="J26" s="58"/>
@@ -21687,7 +21687,7 @@
     </row>
     <row r="27" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B27" s="58" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C27" s="68">
         <v>42145</v>
@@ -21695,24 +21695,24 @@
       <c r="E27" s="83"/>
       <c r="F27" s="59"/>
       <c r="G27" s="59" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="H27" s="80" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="I27" s="58"/>
       <c r="J27" s="58"/>
       <c r="K27" s="58"/>
       <c r="L27" s="58"/>
       <c r="M27" s="58" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="N27" s="82"/>
       <c r="O27" s="58"/>
     </row>
     <row r="28" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B28" s="58" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C28" s="68">
         <v>42159</v>
@@ -21720,10 +21720,10 @@
       <c r="E28" s="2"/>
       <c r="F28" s="59"/>
       <c r="G28" s="59" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="H28" s="84" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="I28" s="58"/>
       <c r="J28" s="58"/>
@@ -21743,15 +21743,15 @@
       <c r="E29" s="85"/>
       <c r="F29" s="59"/>
       <c r="G29" s="59" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="H29" s="82" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="I29" s="58"/>
       <c r="J29" s="58"/>
       <c r="K29" s="82" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="L29" s="58"/>
       <c r="M29" s="58"/>
@@ -21766,15 +21766,15 @@
       <c r="E30" s="85"/>
       <c r="F30" s="59"/>
       <c r="G30" s="59" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="H30" s="82" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="I30" s="58"/>
       <c r="J30" s="58"/>
       <c r="K30" s="82" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="L30" s="58"/>
       <c r="M30" s="58"/>
@@ -21789,10 +21789,10 @@
       <c r="E31" s="85"/>
       <c r="F31" s="59"/>
       <c r="G31" s="59" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="H31" s="82" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="I31" s="58"/>
       <c r="J31" s="58"/>
@@ -21812,10 +21812,10 @@
       <c r="E32" s="90"/>
       <c r="F32" s="59"/>
       <c r="G32" s="59" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="H32" s="82" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="I32" s="58"/>
       <c r="J32" s="58"/>
@@ -21835,10 +21835,10 @@
       <c r="E33" s="90"/>
       <c r="F33" s="59"/>
       <c r="G33" s="59" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="H33" s="82" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="I33" s="58"/>
       <c r="J33" s="58"/>
@@ -21856,15 +21856,15 @@
       <c r="E34" s="90"/>
       <c r="F34" s="59"/>
       <c r="G34" s="59" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="H34" s="82" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="I34" s="58"/>
       <c r="J34" s="58"/>
       <c r="K34" s="82" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="L34" s="58"/>
       <c r="M34" s="58"/>
@@ -21879,10 +21879,10 @@
       <c r="E35" s="90"/>
       <c r="F35" s="59"/>
       <c r="G35" s="59" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="H35" s="82" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I35" s="58"/>
       <c r="J35" s="58"/>
@@ -21900,10 +21900,10 @@
       <c r="E36" s="97"/>
       <c r="F36" s="59"/>
       <c r="G36" s="59" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="H36" s="82" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="I36" s="58"/>
       <c r="J36" s="58"/>
@@ -21921,15 +21921,15 @@
       <c r="E37" s="100"/>
       <c r="F37" s="59"/>
       <c r="G37" s="59" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="H37" s="82" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="I37" s="58"/>
       <c r="J37" s="58"/>
       <c r="K37" s="82" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="L37" s="58"/>
       <c r="M37" s="58"/>
@@ -21938,19 +21938,19 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="57" t="s">
+        <v>735</v>
+      </c>
+      <c r="B38" s="58" t="s">
         <v>736</v>
       </c>
-      <c r="B38" s="58" t="s">
+      <c r="C38" s="59" t="s">
         <v>737</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="D38" s="59" t="s">
         <v>738</v>
       </c>
-      <c r="D38" s="59" t="s">
+      <c r="E38" s="59" t="s">
         <v>739</v>
-      </c>
-      <c r="E38" s="59" t="s">
-        <v>740</v>
       </c>
       <c r="F38" s="59"/>
       <c r="G38" s="59"/>
@@ -21965,14 +21965,14 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="57" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B39" s="58" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C39" s="58"/>
       <c r="D39" s="62" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E39" s="62"/>
       <c r="F39" s="59"/>
@@ -22399,8 +22399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="C45" sqref="B45:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -22729,10 +22729,10 @@
     <row r="40" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E40" s="11"/>
       <c r="F40" s="11" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
@@ -22743,7 +22743,7 @@
     <row r="41" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E41" s="11"/>
       <c r="F41" s="11" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>655</v>
@@ -22756,7 +22756,7 @@
     </row>
     <row r="42" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E42" s="101" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="F42" s="101"/>
       <c r="G42" s="101"/>
@@ -22914,7 +22914,7 @@
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -22954,7 +22954,7 @@
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.15">
@@ -22993,7 +22993,7 @@
         <v>251</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>252</v>
@@ -23011,7 +23011,7 @@
         <v>253</v>
       </c>
       <c r="F69" s="30" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>254</v>
@@ -23035,7 +23035,7 @@
         <v>303</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="72" spans="3:23" x14ac:dyDescent="0.15">
@@ -23211,16 +23211,16 @@
     <row r="80" spans="3:23" x14ac:dyDescent="0.15">
       <c r="C80" s="3"/>
       <c r="E80" s="73" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F80" s="73" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G80" s="73" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="I80" s="3"/>
       <c r="K80" s="3"/>
@@ -23290,13 +23290,13 @@
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.15">
       <c r="E88" s="73" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F88" s="73" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G88" s="73" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="H88" s="75"/>
       <c r="I88" s="73"/>
@@ -23340,13 +23340,13 @@
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.15">
       <c r="E90" s="73" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F90" s="73" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G90" s="73" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="H90" s="73"/>
       <c r="I90" s="73"/>
@@ -23393,13 +23393,13 @@
         <v>537</v>
       </c>
       <c r="E92" s="73" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F92" s="73" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G92" s="73" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="H92" s="73"/>
       <c r="I92" s="74"/>
@@ -23445,7 +23445,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D97" s="26" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.15">
@@ -23648,7 +23648,7 @@
         <v>300</v>
       </c>
       <c r="G116" s="89" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="H116" s="89"/>
       <c r="I116" s="89"/>
@@ -24111,7 +24111,7 @@
         <v>328</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="183" spans="2:15" x14ac:dyDescent="0.15">
@@ -24152,7 +24152,7 @@
         <v>441</v>
       </c>
       <c r="G186" s="48" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H186" s="49" t="s">
         <v>587</v>
@@ -24329,7 +24329,7 @@
         <v>355</v>
       </c>
       <c r="I200" s="73" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="J200" s="73"/>
       <c r="K200" s="73"/>
@@ -24358,7 +24358,7 @@
         <v>601</v>
       </c>
       <c r="I201" s="73" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="J201" s="73"/>
       <c r="K201" s="73"/>
@@ -24378,7 +24378,7 @@
     </row>
     <row r="203" spans="2:24" x14ac:dyDescent="0.15">
       <c r="F203" s="26" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
@@ -24387,7 +24387,7 @@
     <row r="204" spans="2:24" x14ac:dyDescent="0.15">
       <c r="F204" s="3"/>
       <c r="G204" s="54" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H204" s="54"/>
       <c r="I204" s="54"/>
@@ -24400,10 +24400,10 @@
     <row r="205" spans="2:24" x14ac:dyDescent="0.15">
       <c r="F205" s="3"/>
       <c r="G205" s="54" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H205" s="54" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I205" s="54"/>
       <c r="J205" s="54"/>
@@ -24415,10 +24415,10 @@
     <row r="206" spans="2:24" x14ac:dyDescent="0.15">
       <c r="F206" s="3"/>
       <c r="G206" s="54" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H206" s="54" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I206" s="54"/>
       <c r="J206" s="54"/>
@@ -24505,7 +24505,7 @@
         <v>366</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>367</v>
@@ -24668,7 +24668,7 @@
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F225" s="10" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="G225" s="10"/>
       <c r="H225" s="10"/>
@@ -24683,10 +24683,10 @@
     <row r="226" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F226" s="10"/>
       <c r="G226" s="10" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="H226" s="10" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="I226" s="10"/>
       <c r="J226" s="10"/>
@@ -24722,7 +24722,7 @@
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F230" s="10" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G230" s="10"/>
       <c r="H230" s="10"/>
@@ -24737,10 +24737,10 @@
     <row r="231" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F231" s="10"/>
       <c r="G231" s="10" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="H231" s="10" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="I231" s="10"/>
       <c r="J231" s="10"/>
@@ -24753,7 +24753,7 @@
     <row r="232" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F232" s="10"/>
       <c r="G232" s="10" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="H232" s="10"/>
       <c r="I232" s="10"/>
@@ -24767,7 +24767,7 @@
     <row r="233" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F233" s="10"/>
       <c r="G233" s="10" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="H233" s="10"/>
       <c r="I233" s="10"/>
@@ -24847,7 +24847,7 @@
         <v>602</v>
       </c>
       <c r="C244" s="86" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D244" s="10"/>
       <c r="E244" s="10"/>
@@ -24863,7 +24863,7 @@
     <row r="245" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C245" s="10"/>
       <c r="D245" s="10" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E245" s="10"/>
       <c r="F245" s="10"/>
@@ -24878,7 +24878,7 @@
     <row r="246" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C246" s="10"/>
       <c r="D246" s="10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E246" s="10"/>
       <c r="F246" s="10"/>
@@ -24894,7 +24894,7 @@
       <c r="C247" s="10"/>
       <c r="D247" s="10"/>
       <c r="E247" s="10" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F247" s="10"/>
       <c r="G247" s="10"/>
@@ -24909,7 +24909,7 @@
       <c r="C248" s="10"/>
       <c r="D248" s="10"/>
       <c r="E248" s="10" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F248" s="10"/>
       <c r="G248" s="10"/>
@@ -25056,7 +25056,7 @@
         <v>389</v>
       </c>
       <c r="D3" s="73" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>390</v>
@@ -25122,10 +25122,10 @@
       <c r="AB3" s="120"/>
       <c r="AC3" s="120"/>
       <c r="AD3" s="73" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
@@ -25143,13 +25143,13 @@
         <v>399</v>
       </c>
       <c r="D4" s="73" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>400</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>401</v>
@@ -25200,7 +25200,7 @@
         <v>581</v>
       </c>
       <c r="W4" s="121" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="X4" s="121"/>
       <c r="Y4" s="121"/>
@@ -25209,10 +25209,10 @@
       <c r="AB4" s="121"/>
       <c r="AC4" s="121"/>
       <c r="AD4" s="73" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="AE4" s="7" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
@@ -25227,10 +25227,10 @@
         <v>684</v>
       </c>
       <c r="C5" s="73" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>683</v>
@@ -25240,13 +25240,13 @@
         <v>685</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="J5" s="119" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="K5" s="119"/>
       <c r="L5" s="119"/>
@@ -25263,7 +25263,7 @@
         <v>687</v>
       </c>
       <c r="W5" s="121" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="X5" s="121"/>
       <c r="Y5" s="121"/>
@@ -25272,7 +25272,7 @@
       <c r="AB5" s="121"/>
       <c r="AC5" s="121"/>
       <c r="AD5" s="73" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="AE5" s="7"/>
       <c r="AF5" s="7"/>
@@ -25283,10 +25283,10 @@
     <row r="6" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="C6" s="73" t="s">
+        <v>778</v>
+      </c>
+      <c r="D6" s="73" t="s">
         <v>780</v>
-      </c>
-      <c r="D6" s="73" t="s">
-        <v>782</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="1" t="s">
@@ -25498,10 +25498,10 @@
         <v>386</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
@@ -25543,13 +25543,13 @@
         <v>699</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
@@ -25588,13 +25588,13 @@
         <v>698</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
@@ -25605,10 +25605,10 @@
       </c>
       <c r="K16" s="10"/>
       <c r="L16" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
@@ -25642,13 +25642,13 @@
         <v>700</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
@@ -26336,8 +26336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW148"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -26416,13 +26416,13 @@
         <v>116</v>
       </c>
       <c r="D7" s="72" t="s">
-        <v>763</v>
+        <v>915</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -26437,7 +26437,7 @@
     </row>
     <row r="8" spans="3:30" x14ac:dyDescent="0.15">
       <c r="D8" s="1" t="s">
-        <v>702</v>
+        <v>914</v>
       </c>
     </row>
     <row r="9" spans="3:30" x14ac:dyDescent="0.15">
@@ -26557,7 +26557,7 @@
     <row r="16" spans="3:30" x14ac:dyDescent="0.15">
       <c r="C16" s="92"/>
       <c r="D16" s="92" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E16" s="92"/>
       <c r="F16" s="92"/>
@@ -26588,7 +26588,7 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A17" s="31" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C17" s="92"/>
       <c r="D17" s="92" t="s">
@@ -26749,7 +26749,7 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C22" s="93" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D22" s="89"/>
       <c r="E22" s="89"/>
@@ -26782,7 +26782,7 @@
     <row r="23" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C23" s="93"/>
       <c r="D23" s="89" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E23" s="89"/>
       <c r="F23" s="89"/>
@@ -26814,7 +26814,7 @@
     <row r="24" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C24" s="89"/>
       <c r="D24" s="89" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E24" s="89"/>
       <c r="F24" s="89"/>
@@ -26846,7 +26846,7 @@
     <row r="25" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C25" s="89"/>
       <c r="D25" s="89" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E25" s="89"/>
       <c r="F25" s="89"/>
@@ -26878,7 +26878,7 @@
     <row r="26" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C26" s="89"/>
       <c r="D26" s="89" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E26" s="89"/>
       <c r="F26" s="89"/>
@@ -26910,7 +26910,7 @@
     <row r="27" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C27" s="89"/>
       <c r="D27" s="89" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E27" s="89"/>
       <c r="F27" s="89"/>
@@ -26942,7 +26942,7 @@
     <row r="28" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C28" s="89"/>
       <c r="D28" s="89" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E28" s="89"/>
       <c r="F28" s="89"/>
@@ -26975,7 +26975,7 @@
       <c r="C29" s="89"/>
       <c r="D29" s="89"/>
       <c r="E29" s="5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -27007,7 +27007,7 @@
       <c r="C30" s="89"/>
       <c r="D30" s="89"/>
       <c r="E30" s="5" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -27037,41 +27037,41 @@
     </row>
     <row r="31" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D31" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="32" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D32" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="33" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D33" s="2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="34" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="36" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C36" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="37" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C37" s="2" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="38" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="39" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D39" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="40" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -27080,10 +27080,10 @@
     <row r="43" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C44" s="2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="45" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -27092,7 +27092,7 @@
     <row r="48" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="49" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D49" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="50" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -27101,12 +27101,12 @@
     <row r="53" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="54" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="N54" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="55" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C55" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="56" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -27114,17 +27114,17 @@
     <row r="58" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="59" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D59" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="60" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D60" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="61" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E61" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="62" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -27139,26 +27139,26 @@
     <row r="71" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="72" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G72" s="95" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="T72" s="95" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="73" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="74" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D74" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="75" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E75" s="2" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="76" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E76" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.15">
@@ -27323,109 +27323,109 @@
       <c r="AW85" s="4"/>
     </row>
     <row r="86" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="C86" s="125" t="s">
+      <c r="C86" s="149" t="s">
         <v>149</v>
       </c>
-      <c r="D86" s="125"/>
-      <c r="E86" s="125" t="s">
+      <c r="D86" s="149"/>
+      <c r="E86" s="149" t="s">
         <v>150</v>
       </c>
-      <c r="F86" s="125"/>
-      <c r="G86" s="125" t="s">
+      <c r="F86" s="149"/>
+      <c r="G86" s="149" t="s">
         <v>151</v>
       </c>
-      <c r="H86" s="125"/>
-      <c r="I86" s="125" t="s">
+      <c r="H86" s="149"/>
+      <c r="I86" s="149" t="s">
         <v>152</v>
       </c>
-      <c r="J86" s="125"/>
-      <c r="K86" s="125" t="s">
+      <c r="J86" s="149"/>
+      <c r="K86" s="149" t="s">
         <v>153</v>
       </c>
-      <c r="L86" s="125"/>
-      <c r="M86" s="131" t="s">
+      <c r="L86" s="149"/>
+      <c r="M86" s="141" t="s">
         <v>154</v>
       </c>
-      <c r="N86" s="131"/>
-      <c r="O86" s="131" t="s">
+      <c r="N86" s="141"/>
+      <c r="O86" s="141" t="s">
         <v>155</v>
       </c>
-      <c r="P86" s="131"/>
-      <c r="Q86" s="131" t="s">
+      <c r="P86" s="141"/>
+      <c r="Q86" s="141" t="s">
         <v>173</v>
       </c>
-      <c r="R86" s="131"/>
-      <c r="S86" s="131" t="s">
+      <c r="R86" s="141"/>
+      <c r="S86" s="141" t="s">
         <v>174</v>
       </c>
-      <c r="T86" s="131"/>
-      <c r="U86" s="131" t="s">
+      <c r="T86" s="141"/>
+      <c r="U86" s="141" t="s">
         <v>175</v>
       </c>
-      <c r="V86" s="131"/>
-      <c r="W86" s="131" t="s">
+      <c r="V86" s="141"/>
+      <c r="W86" s="141" t="s">
         <v>176</v>
       </c>
-      <c r="X86" s="131"/>
-      <c r="Y86" s="131" t="s">
+      <c r="X86" s="141"/>
+      <c r="Y86" s="141" t="s">
         <v>185</v>
       </c>
-      <c r="Z86" s="131"/>
-      <c r="AA86" s="131" t="s">
+      <c r="Z86" s="141"/>
+      <c r="AA86" s="141" t="s">
         <v>205</v>
       </c>
-      <c r="AB86" s="131"/>
-      <c r="AC86" s="131" t="s">
+      <c r="AB86" s="141"/>
+      <c r="AC86" s="141" t="s">
         <v>156</v>
       </c>
-      <c r="AD86" s="131"/>
-      <c r="AE86" s="130" t="s">
+      <c r="AD86" s="141"/>
+      <c r="AE86" s="148" t="s">
         <v>157</v>
       </c>
-      <c r="AF86" s="130"/>
+      <c r="AF86" s="148"/>
     </row>
     <row r="87" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="C87" s="123" t="s">
+      <c r="C87" s="146" t="s">
         <v>159</v>
       </c>
-      <c r="D87" s="123"/>
-      <c r="E87" s="124" t="s">
-        <v>840</v>
-      </c>
-      <c r="F87" s="124"/>
-      <c r="G87" s="128" t="s">
-        <v>841</v>
-      </c>
-      <c r="H87" s="128"/>
-      <c r="I87" s="123"/>
-      <c r="J87" s="123"/>
-      <c r="K87" s="123"/>
-      <c r="L87" s="123"/>
-      <c r="M87" s="126"/>
-      <c r="N87" s="126"/>
-      <c r="O87" s="126"/>
-      <c r="P87" s="126"/>
-      <c r="Q87" s="126"/>
-      <c r="R87" s="126"/>
-      <c r="S87" s="126"/>
-      <c r="T87" s="126"/>
-      <c r="U87" s="126"/>
-      <c r="V87" s="126"/>
-      <c r="W87" s="126"/>
-      <c r="X87" s="126"/>
-      <c r="Y87" s="132"/>
-      <c r="Z87" s="133"/>
-      <c r="AA87" s="138"/>
-      <c r="AB87" s="139"/>
-      <c r="AC87" s="126" t="s">
+      <c r="D87" s="146"/>
+      <c r="E87" s="130" t="s">
+        <v>838</v>
+      </c>
+      <c r="F87" s="130"/>
+      <c r="G87" s="145" t="s">
+        <v>839</v>
+      </c>
+      <c r="H87" s="145"/>
+      <c r="I87" s="146"/>
+      <c r="J87" s="146"/>
+      <c r="K87" s="146"/>
+      <c r="L87" s="146"/>
+      <c r="M87" s="142"/>
+      <c r="N87" s="142"/>
+      <c r="O87" s="142"/>
+      <c r="P87" s="142"/>
+      <c r="Q87" s="142"/>
+      <c r="R87" s="142"/>
+      <c r="S87" s="142"/>
+      <c r="T87" s="142"/>
+      <c r="U87" s="142"/>
+      <c r="V87" s="142"/>
+      <c r="W87" s="142"/>
+      <c r="X87" s="142"/>
+      <c r="Y87" s="150"/>
+      <c r="Z87" s="151"/>
+      <c r="AA87" s="143"/>
+      <c r="AB87" s="144"/>
+      <c r="AC87" s="142" t="s">
         <v>160</v>
       </c>
-      <c r="AD87" s="126"/>
-      <c r="AE87" s="127" t="str">
+      <c r="AD87" s="142"/>
+      <c r="AE87" s="147" t="str">
         <f>CONCATENATE(E87)</f>
         <v>怪物装备本身附加命中率</v>
       </c>
-      <c r="AF87" s="127"/>
+      <c r="AF87" s="147"/>
     </row>
     <row r="88" spans="1:49" x14ac:dyDescent="0.15">
       <c r="C88" s="16"/>
@@ -27494,137 +27494,137 @@
       <c r="AF89" s="25"/>
     </row>
     <row r="90" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="C90" s="125" t="s">
+      <c r="C90" s="149" t="s">
         <v>149</v>
       </c>
-      <c r="D90" s="125"/>
-      <c r="E90" s="125" t="s">
+      <c r="D90" s="149"/>
+      <c r="E90" s="149" t="s">
         <v>150</v>
       </c>
-      <c r="F90" s="125"/>
-      <c r="G90" s="125" t="s">
+      <c r="F90" s="149"/>
+      <c r="G90" s="149" t="s">
         <v>151</v>
       </c>
-      <c r="H90" s="125"/>
-      <c r="I90" s="125" t="s">
+      <c r="H90" s="149"/>
+      <c r="I90" s="149" t="s">
         <v>152</v>
       </c>
-      <c r="J90" s="125"/>
-      <c r="K90" s="125" t="s">
+      <c r="J90" s="149"/>
+      <c r="K90" s="149" t="s">
         <v>153</v>
       </c>
-      <c r="L90" s="125"/>
-      <c r="M90" s="131" t="s">
+      <c r="L90" s="149"/>
+      <c r="M90" s="141" t="s">
         <v>154</v>
       </c>
-      <c r="N90" s="131"/>
-      <c r="O90" s="131" t="s">
+      <c r="N90" s="141"/>
+      <c r="O90" s="141" t="s">
         <v>155</v>
       </c>
-      <c r="P90" s="131"/>
-      <c r="Q90" s="131" t="s">
+      <c r="P90" s="141"/>
+      <c r="Q90" s="141" t="s">
         <v>173</v>
       </c>
-      <c r="R90" s="131"/>
-      <c r="S90" s="131" t="s">
+      <c r="R90" s="141"/>
+      <c r="S90" s="141" t="s">
         <v>174</v>
       </c>
-      <c r="T90" s="131"/>
-      <c r="U90" s="131" t="s">
+      <c r="T90" s="141"/>
+      <c r="U90" s="141" t="s">
         <v>175</v>
       </c>
-      <c r="V90" s="131"/>
-      <c r="W90" s="131" t="s">
+      <c r="V90" s="141"/>
+      <c r="W90" s="141" t="s">
         <v>176</v>
       </c>
-      <c r="X90" s="131"/>
-      <c r="Y90" s="131" t="s">
+      <c r="X90" s="141"/>
+      <c r="Y90" s="141" t="s">
         <v>185</v>
       </c>
-      <c r="Z90" s="131"/>
-      <c r="AA90" s="131" t="s">
+      <c r="Z90" s="141"/>
+      <c r="AA90" s="141" t="s">
         <v>205</v>
       </c>
-      <c r="AB90" s="131"/>
-      <c r="AC90" s="131" t="s">
+      <c r="AB90" s="141"/>
+      <c r="AC90" s="141" t="s">
         <v>156</v>
       </c>
-      <c r="AD90" s="131"/>
-      <c r="AE90" s="130" t="s">
+      <c r="AD90" s="141"/>
+      <c r="AE90" s="148" t="s">
         <v>157</v>
       </c>
-      <c r="AF90" s="130"/>
+      <c r="AF90" s="148"/>
     </row>
     <row r="91" spans="1:49" x14ac:dyDescent="0.15">
       <c r="B91" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="C91" s="123" t="s">
+      <c r="C91" s="146" t="s">
         <v>120</v>
       </c>
-      <c r="D91" s="123"/>
-      <c r="E91" s="124" t="s">
+      <c r="D91" s="146"/>
+      <c r="E91" s="130" t="s">
+        <v>840</v>
+      </c>
+      <c r="F91" s="130"/>
+      <c r="G91" s="130" t="s">
+        <v>841</v>
+      </c>
+      <c r="H91" s="130"/>
+      <c r="I91" s="130" t="s">
         <v>842</v>
       </c>
-      <c r="F91" s="124"/>
-      <c r="G91" s="124" t="s">
-        <v>843</v>
-      </c>
-      <c r="H91" s="124"/>
-      <c r="I91" s="124" t="s">
-        <v>844</v>
-      </c>
-      <c r="J91" s="124"/>
-      <c r="K91" s="128" t="s">
-        <v>841</v>
-      </c>
-      <c r="L91" s="128"/>
-      <c r="M91" s="129"/>
-      <c r="N91" s="129"/>
-      <c r="O91" s="129"/>
-      <c r="P91" s="129"/>
-      <c r="Q91" s="129"/>
-      <c r="R91" s="129"/>
-      <c r="S91" s="129"/>
-      <c r="T91" s="129"/>
-      <c r="U91" s="129"/>
-      <c r="V91" s="129"/>
-      <c r="W91" s="129"/>
-      <c r="X91" s="129"/>
-      <c r="Y91" s="134"/>
-      <c r="Z91" s="134"/>
-      <c r="AA91" s="137"/>
-      <c r="AB91" s="137"/>
-      <c r="AC91" s="129" t="s">
+      <c r="J91" s="130"/>
+      <c r="K91" s="145" t="s">
+        <v>839</v>
+      </c>
+      <c r="L91" s="145"/>
+      <c r="M91" s="124"/>
+      <c r="N91" s="124"/>
+      <c r="O91" s="124"/>
+      <c r="P91" s="124"/>
+      <c r="Q91" s="124"/>
+      <c r="R91" s="124"/>
+      <c r="S91" s="124"/>
+      <c r="T91" s="124"/>
+      <c r="U91" s="124"/>
+      <c r="V91" s="124"/>
+      <c r="W91" s="124"/>
+      <c r="X91" s="124"/>
+      <c r="Y91" s="138"/>
+      <c r="Z91" s="138"/>
+      <c r="AA91" s="131"/>
+      <c r="AB91" s="131"/>
+      <c r="AC91" s="124" t="s">
         <v>477</v>
       </c>
-      <c r="AD91" s="129"/>
-      <c r="AE91" s="135" t="str">
+      <c r="AD91" s="124"/>
+      <c r="AE91" s="123" t="str">
         <f>CONCATENATE(E91,"+",G91,"-",I91)</f>
         <v>固有暴击率+攻击方装备本身附加暴击率-防御方装备本身附加暴击抗性</v>
       </c>
-      <c r="AF91" s="135"/>
+      <c r="AF91" s="123"/>
     </row>
     <row r="92" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A92" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="C92" s="123" t="s">
+      <c r="C92" s="146" t="s">
         <v>122</v>
       </c>
-      <c r="D92" s="123"/>
-      <c r="E92" s="124" t="s">
+      <c r="D92" s="146"/>
+      <c r="E92" s="130" t="s">
         <v>161</v>
       </c>
-      <c r="F92" s="124"/>
-      <c r="G92" s="136" t="s">
+      <c r="F92" s="130"/>
+      <c r="G92" s="132" t="s">
         <v>186</v>
       </c>
-      <c r="H92" s="136"/>
-      <c r="I92" s="124" t="s">
+      <c r="H92" s="132"/>
+      <c r="I92" s="130" t="s">
         <v>162</v>
       </c>
-      <c r="J92" s="124"/>
+      <c r="J92" s="130"/>
       <c r="K92" s="47" t="s">
         <v>163</v>
       </c>
@@ -27641,46 +27641,46 @@
         <v>166</v>
       </c>
       <c r="R92" s="46"/>
-      <c r="S92" s="124"/>
-      <c r="T92" s="124"/>
-      <c r="U92" s="129"/>
-      <c r="V92" s="129"/>
-      <c r="W92" s="129"/>
-      <c r="X92" s="129"/>
-      <c r="Y92" s="134"/>
-      <c r="Z92" s="134"/>
-      <c r="AA92" s="137"/>
-      <c r="AB92" s="137"/>
-      <c r="AC92" s="129" t="s">
+      <c r="S92" s="130"/>
+      <c r="T92" s="130"/>
+      <c r="U92" s="124"/>
+      <c r="V92" s="124"/>
+      <c r="W92" s="124"/>
+      <c r="X92" s="124"/>
+      <c r="Y92" s="138"/>
+      <c r="Z92" s="138"/>
+      <c r="AA92" s="131"/>
+      <c r="AB92" s="131"/>
+      <c r="AC92" s="124" t="s">
         <v>521</v>
       </c>
-      <c r="AD92" s="129"/>
-      <c r="AE92" s="135" t="str">
+      <c r="AD92" s="124"/>
+      <c r="AE92" s="123" t="str">
         <f>CONCATENATE(E92,"+",G92,"+",I92,"+",M92,"+",O92,"+",Q92,"+",K92)</f>
         <v>怪物本身力量+怪物升星附加力量+装备本身附加力量+装备进阶附加力量+装备镶嵌附加力量+人物装备附加力量+装备强化附加力量</v>
       </c>
-      <c r="AF92" s="135"/>
+      <c r="AF92" s="123"/>
     </row>
     <row r="93" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="C93" s="123" t="s">
+      <c r="C93" s="146" t="s">
         <v>123</v>
       </c>
-      <c r="D93" s="123"/>
-      <c r="E93" s="124" t="s">
+      <c r="D93" s="146"/>
+      <c r="E93" s="130" t="s">
         <v>167</v>
       </c>
-      <c r="F93" s="124"/>
-      <c r="G93" s="136" t="s">
+      <c r="F93" s="130"/>
+      <c r="G93" s="132" t="s">
         <v>187</v>
       </c>
-      <c r="H93" s="136"/>
-      <c r="I93" s="124" t="s">
+      <c r="H93" s="132"/>
+      <c r="I93" s="130" t="s">
         <v>168</v>
       </c>
-      <c r="J93" s="124"/>
+      <c r="J93" s="130"/>
       <c r="K93" s="47" t="s">
         <v>169</v>
       </c>
@@ -27697,46 +27697,46 @@
         <v>172</v>
       </c>
       <c r="R93" s="46"/>
-      <c r="S93" s="124"/>
-      <c r="T93" s="124"/>
-      <c r="U93" s="129"/>
-      <c r="V93" s="129"/>
-      <c r="W93" s="129"/>
-      <c r="X93" s="129"/>
-      <c r="Y93" s="134"/>
-      <c r="Z93" s="134"/>
-      <c r="AA93" s="137"/>
-      <c r="AB93" s="137"/>
-      <c r="AC93" s="129" t="s">
+      <c r="S93" s="130"/>
+      <c r="T93" s="130"/>
+      <c r="U93" s="124"/>
+      <c r="V93" s="124"/>
+      <c r="W93" s="124"/>
+      <c r="X93" s="124"/>
+      <c r="Y93" s="138"/>
+      <c r="Z93" s="138"/>
+      <c r="AA93" s="131"/>
+      <c r="AB93" s="131"/>
+      <c r="AC93" s="124" t="s">
         <v>521</v>
       </c>
-      <c r="AD93" s="129"/>
-      <c r="AE93" s="135" t="str">
+      <c r="AD93" s="124"/>
+      <c r="AE93" s="123" t="str">
         <f>CONCATENATE(E93,"+",G93,"+",I93,"+",M93,"+",O93,"+",Q93,"+",K93)</f>
         <v>怪物本身智力+怪物升星附加智力+装备本身附加智力+装备进阶附加智力+装备镶嵌附加智力+人物装备附加智力+装备强化附加智力</v>
       </c>
-      <c r="AF93" s="135"/>
+      <c r="AF93" s="123"/>
     </row>
     <row r="94" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A94" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="C94" s="123" t="s">
+      <c r="C94" s="146" t="s">
         <v>90</v>
       </c>
-      <c r="D94" s="123"/>
-      <c r="E94" s="124" t="s">
+      <c r="D94" s="146"/>
+      <c r="E94" s="130" t="s">
         <v>177</v>
       </c>
-      <c r="F94" s="124"/>
-      <c r="G94" s="136" t="s">
+      <c r="F94" s="130"/>
+      <c r="G94" s="132" t="s">
         <v>188</v>
       </c>
-      <c r="H94" s="136"/>
-      <c r="I94" s="124" t="s">
+      <c r="H94" s="132"/>
+      <c r="I94" s="130" t="s">
         <v>178</v>
       </c>
-      <c r="J94" s="124"/>
+      <c r="J94" s="130"/>
       <c r="K94" s="47" t="s">
         <v>179</v>
       </c>
@@ -27769,40 +27769,40 @@
         <v>492</v>
       </c>
       <c r="Z94" s="46"/>
-      <c r="AA94" s="124" t="s">
+      <c r="AA94" s="130" t="s">
         <v>493</v>
       </c>
-      <c r="AB94" s="124"/>
-      <c r="AC94" s="129" t="s">
+      <c r="AB94" s="130"/>
+      <c r="AC94" s="124" t="s">
         <v>210</v>
       </c>
-      <c r="AD94" s="129"/>
-      <c r="AE94" s="135" t="str">
+      <c r="AD94" s="124"/>
+      <c r="AE94" s="123" t="str">
         <f>CONCATENATE("(",E94,"+",G94,"+",I94,"+",M94,"+",O94,"+",Q94,"+",K94,")","*","（","1","+",S94,")","*","(","1","+",U94,"+",W94,"+",Y94,"+",AA94,")")</f>
         <v>(怪物本身防御力+怪物升星附加防御力+装备本身附加防御力+装备进阶附加防御力+装备镶嵌附加防御力+人物装备附加防御力+装备强化附加防御力)*（1+人物装备套装附加防御力百分比)*(1+法阵附加防御力百分比+Buff附加防御力百分比+队长附加防御力百分比+被动附加防御力百分比)</v>
       </c>
-      <c r="AF94" s="135"/>
+      <c r="AF94" s="123"/>
     </row>
     <row r="95" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="C95" s="123" t="s">
+      <c r="C95" s="146" t="s">
         <v>672</v>
       </c>
-      <c r="D95" s="123"/>
-      <c r="E95" s="124" t="s">
+      <c r="D95" s="146"/>
+      <c r="E95" s="130" t="s">
         <v>177</v>
       </c>
-      <c r="F95" s="124"/>
-      <c r="G95" s="136" t="s">
+      <c r="F95" s="130"/>
+      <c r="G95" s="132" t="s">
         <v>188</v>
       </c>
-      <c r="H95" s="136"/>
-      <c r="I95" s="124" t="s">
+      <c r="H95" s="132"/>
+      <c r="I95" s="130" t="s">
         <v>178</v>
       </c>
-      <c r="J95" s="124"/>
+      <c r="J95" s="130"/>
       <c r="K95" s="47" t="s">
         <v>179</v>
       </c>
@@ -27819,44 +27819,44 @@
         <v>182</v>
       </c>
       <c r="R95" s="46"/>
-      <c r="S95" s="141"/>
-      <c r="T95" s="142"/>
-      <c r="U95" s="137"/>
-      <c r="V95" s="137"/>
-      <c r="W95" s="137"/>
-      <c r="X95" s="137"/>
-      <c r="Y95" s="137"/>
-      <c r="Z95" s="137"/>
-      <c r="AA95" s="124"/>
-      <c r="AB95" s="124"/>
-      <c r="AC95" s="129" t="s">
+      <c r="S95" s="127"/>
+      <c r="T95" s="128"/>
+      <c r="U95" s="131"/>
+      <c r="V95" s="131"/>
+      <c r="W95" s="131"/>
+      <c r="X95" s="131"/>
+      <c r="Y95" s="131"/>
+      <c r="Z95" s="131"/>
+      <c r="AA95" s="130"/>
+      <c r="AB95" s="130"/>
+      <c r="AC95" s="124" t="s">
         <v>521</v>
       </c>
-      <c r="AD95" s="129"/>
-      <c r="AE95" s="135" t="str">
+      <c r="AD95" s="124"/>
+      <c r="AE95" s="123" t="str">
         <f>CONCATENATE(E95,"+",G95,"+",I95,"+",M95,"+",O95,"+",Q95,"+",K95)</f>
         <v>怪物本身防御力+怪物升星附加防御力+装备本身附加防御力+装备进阶附加防御力+装备镶嵌附加防御力+人物装备附加防御力+装备强化附加防御力</v>
       </c>
-      <c r="AF95" s="135"/>
+      <c r="AF95" s="123"/>
     </row>
     <row r="96" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A96" s="10"/>
-      <c r="C96" s="140" t="s">
+      <c r="C96" s="129" t="s">
         <v>190</v>
       </c>
-      <c r="D96" s="140"/>
-      <c r="E96" s="124" t="s">
+      <c r="D96" s="129"/>
+      <c r="E96" s="130" t="s">
         <v>198</v>
       </c>
-      <c r="F96" s="124"/>
-      <c r="G96" s="136" t="s">
+      <c r="F96" s="130"/>
+      <c r="G96" s="132" t="s">
         <v>199</v>
       </c>
-      <c r="H96" s="136"/>
-      <c r="I96" s="124" t="s">
+      <c r="H96" s="132"/>
+      <c r="I96" s="130" t="s">
         <v>200</v>
       </c>
-      <c r="J96" s="124"/>
+      <c r="J96" s="130"/>
       <c r="K96" s="47" t="s">
         <v>201</v>
       </c>
@@ -27877,50 +27877,50 @@
         <v>498</v>
       </c>
       <c r="T96" s="46"/>
-      <c r="U96" s="137" t="s">
+      <c r="U96" s="131" t="s">
         <v>497</v>
       </c>
-      <c r="V96" s="137"/>
-      <c r="W96" s="137" t="s">
+      <c r="V96" s="131"/>
+      <c r="W96" s="131" t="s">
         <v>496</v>
       </c>
-      <c r="X96" s="137"/>
-      <c r="Y96" s="137" t="s">
+      <c r="X96" s="131"/>
+      <c r="Y96" s="131" t="s">
         <v>495</v>
       </c>
-      <c r="Z96" s="137"/>
-      <c r="AA96" s="124" t="s">
+      <c r="Z96" s="131"/>
+      <c r="AA96" s="130" t="s">
         <v>494</v>
       </c>
-      <c r="AB96" s="124"/>
-      <c r="AC96" s="129" t="s">
+      <c r="AB96" s="130"/>
+      <c r="AC96" s="124" t="s">
         <v>210</v>
       </c>
-      <c r="AD96" s="129"/>
-      <c r="AE96" s="135" t="str">
+      <c r="AD96" s="124"/>
+      <c r="AE96" s="123" t="str">
         <f>CONCATENATE("(",E96,"+",G96,"+",I96,"+",M96,"+",O96,"+",Q96,"+",K96,")","*","（","1","+",S96,")","*","(","1","+",U96,"+",W96,"+",Y96,"+",AA96,")")</f>
         <v>(怪物本身速度+怪物升星附加速度+装备本身附加速度+装备进阶附加速度+装备镶嵌附加速度+人物装备附加速度+装备强化附加速度)*（1+人物装备套装附加速度百分比)*(1+法阵附加速度百分比+Buff附加速度百分比+队长技附加速度百分比+被动附加速度百分比)</v>
       </c>
-      <c r="AF96" s="135"/>
+      <c r="AF96" s="123"/>
     </row>
     <row r="97" spans="1:32" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="52"/>
-      <c r="C97" s="140" t="s">
+      <c r="C97" s="129" t="s">
         <v>673</v>
       </c>
-      <c r="D97" s="140"/>
-      <c r="E97" s="124" t="s">
+      <c r="D97" s="129"/>
+      <c r="E97" s="130" t="s">
         <v>198</v>
       </c>
-      <c r="F97" s="124"/>
-      <c r="G97" s="136" t="s">
+      <c r="F97" s="130"/>
+      <c r="G97" s="132" t="s">
         <v>199</v>
       </c>
-      <c r="H97" s="136"/>
-      <c r="I97" s="124" t="s">
+      <c r="H97" s="132"/>
+      <c r="I97" s="130" t="s">
         <v>200</v>
       </c>
-      <c r="J97" s="124"/>
+      <c r="J97" s="130"/>
       <c r="K97" s="47" t="s">
         <v>201</v>
       </c>
@@ -27937,86 +27937,86 @@
         <v>204</v>
       </c>
       <c r="R97" s="46"/>
-      <c r="S97" s="150"/>
-      <c r="T97" s="151"/>
-      <c r="U97" s="150"/>
-      <c r="V97" s="151"/>
-      <c r="W97" s="150"/>
-      <c r="X97" s="151"/>
-      <c r="Y97" s="150"/>
-      <c r="Z97" s="151"/>
-      <c r="AA97" s="148"/>
-      <c r="AB97" s="149"/>
-      <c r="AC97" s="129" t="s">
+      <c r="S97" s="135"/>
+      <c r="T97" s="136"/>
+      <c r="U97" s="135"/>
+      <c r="V97" s="136"/>
+      <c r="W97" s="135"/>
+      <c r="X97" s="136"/>
+      <c r="Y97" s="135"/>
+      <c r="Z97" s="136"/>
+      <c r="AA97" s="133"/>
+      <c r="AB97" s="134"/>
+      <c r="AC97" s="124" t="s">
         <v>521</v>
       </c>
-      <c r="AD97" s="129"/>
-      <c r="AE97" s="135" t="str">
+      <c r="AD97" s="124"/>
+      <c r="AE97" s="123" t="str">
         <f>CONCATENATE(E97,"+",G97,"+",I97,"+",M97,"+",O97,"+",Q97,"+",K97)</f>
         <v>怪物本身速度+怪物升星附加速度+装备本身附加速度+装备进阶附加速度+装备镶嵌附加速度+人物装备附加速度+装备强化附加速度</v>
       </c>
-      <c r="AF97" s="135"/>
+      <c r="AF97" s="123"/>
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C98" s="140" t="s">
+      <c r="C98" s="129" t="s">
         <v>211</v>
       </c>
-      <c r="D98" s="140"/>
-      <c r="E98" s="124" t="s">
+      <c r="D98" s="129"/>
+      <c r="E98" s="130" t="s">
         <v>223</v>
       </c>
-      <c r="F98" s="124"/>
-      <c r="G98" s="124" t="s">
+      <c r="F98" s="130"/>
+      <c r="G98" s="130" t="s">
         <v>503</v>
       </c>
-      <c r="H98" s="124"/>
-      <c r="I98" s="124"/>
-      <c r="J98" s="124"/>
-      <c r="K98" s="143"/>
-      <c r="L98" s="143"/>
-      <c r="M98" s="143"/>
-      <c r="N98" s="143"/>
-      <c r="O98" s="143"/>
-      <c r="P98" s="143"/>
-      <c r="Q98" s="134"/>
-      <c r="R98" s="134"/>
-      <c r="S98" s="134"/>
-      <c r="T98" s="134"/>
-      <c r="U98" s="137"/>
-      <c r="V98" s="137"/>
-      <c r="W98" s="137"/>
-      <c r="X98" s="137"/>
-      <c r="Y98" s="137"/>
-      <c r="Z98" s="137"/>
-      <c r="AA98" s="124"/>
-      <c r="AB98" s="124"/>
-      <c r="AC98" s="129" t="s">
+      <c r="H98" s="130"/>
+      <c r="I98" s="130"/>
+      <c r="J98" s="130"/>
+      <c r="K98" s="137"/>
+      <c r="L98" s="137"/>
+      <c r="M98" s="137"/>
+      <c r="N98" s="137"/>
+      <c r="O98" s="137"/>
+      <c r="P98" s="137"/>
+      <c r="Q98" s="138"/>
+      <c r="R98" s="138"/>
+      <c r="S98" s="138"/>
+      <c r="T98" s="138"/>
+      <c r="U98" s="131"/>
+      <c r="V98" s="131"/>
+      <c r="W98" s="131"/>
+      <c r="X98" s="131"/>
+      <c r="Y98" s="131"/>
+      <c r="Z98" s="131"/>
+      <c r="AA98" s="130"/>
+      <c r="AB98" s="130"/>
+      <c r="AC98" s="124" t="s">
         <v>473</v>
       </c>
-      <c r="AD98" s="129"/>
-      <c r="AE98" s="135" t="str">
+      <c r="AD98" s="124"/>
+      <c r="AE98" s="123" t="str">
         <f>CONCATENATE(E98,"*","（",1,"+",G98,")")</f>
         <v>怪物本身耐力*（1+被动附加耐力百分比)</v>
       </c>
-      <c r="AF98" s="135"/>
+      <c r="AF98" s="123"/>
     </row>
     <row r="99" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C99" s="140" t="s">
-        <v>845</v>
-      </c>
-      <c r="D99" s="140"/>
-      <c r="E99" s="124" t="s">
+      <c r="C99" s="129" t="s">
+        <v>843</v>
+      </c>
+      <c r="D99" s="129"/>
+      <c r="E99" s="130" t="s">
         <v>214</v>
       </c>
-      <c r="F99" s="124"/>
-      <c r="G99" s="136" t="s">
+      <c r="F99" s="130"/>
+      <c r="G99" s="132" t="s">
         <v>215</v>
       </c>
-      <c r="H99" s="136"/>
-      <c r="I99" s="124" t="s">
+      <c r="H99" s="132"/>
+      <c r="I99" s="130" t="s">
         <v>216</v>
       </c>
-      <c r="J99" s="124"/>
+      <c r="J99" s="130"/>
       <c r="K99" s="47" t="s">
         <v>217</v>
       </c>
@@ -28037,47 +28037,47 @@
         <v>499</v>
       </c>
       <c r="T99" s="46"/>
-      <c r="U99" s="137" t="s">
+      <c r="U99" s="131" t="s">
         <v>500</v>
       </c>
-      <c r="V99" s="137"/>
-      <c r="W99" s="137" t="s">
+      <c r="V99" s="131"/>
+      <c r="W99" s="131" t="s">
         <v>501</v>
       </c>
-      <c r="X99" s="137"/>
-      <c r="Y99" s="124" t="s">
+      <c r="X99" s="131"/>
+      <c r="Y99" s="130" t="s">
         <v>502</v>
       </c>
-      <c r="Z99" s="124"/>
-      <c r="AA99" s="124"/>
-      <c r="AB99" s="124"/>
-      <c r="AC99" s="129" t="s">
+      <c r="Z99" s="130"/>
+      <c r="AA99" s="130"/>
+      <c r="AB99" s="130"/>
+      <c r="AC99" s="124" t="s">
         <v>189</v>
       </c>
-      <c r="AD99" s="129"/>
-      <c r="AE99" s="135" t="str">
+      <c r="AD99" s="124"/>
+      <c r="AE99" s="123" t="str">
         <f>CONCATENATE("(",E99,"+",G99,"+",I99,"+",M99,"+",O99,"+",Q99,"+",K99,")","*","（","1","+",S99,")","*","(","1","+",U99,"+",W99,"+",Y99,")")</f>
         <v>(怪物本身体力+怪物升星附加体力+装备本身附加体力+装备进阶附加体力+装备镶嵌附加体力+人物装备附加体力+装备强化附加体力)*（1+人物装备套装附加体力百分比)*(1+法阵附加体力百分比+队长技附加体力百分比+被动附加体力百分比)</v>
       </c>
-      <c r="AF99" s="135"/>
+      <c r="AF99" s="123"/>
     </row>
     <row r="100" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C100" s="140" t="s">
+      <c r="C100" s="129" t="s">
         <v>674</v>
       </c>
-      <c r="D100" s="140"/>
-      <c r="E100" s="124" t="s">
+      <c r="D100" s="129"/>
+      <c r="E100" s="130" t="s">
         <v>214</v>
       </c>
-      <c r="F100" s="124"/>
-      <c r="G100" s="136" t="s">
+      <c r="F100" s="130"/>
+      <c r="G100" s="132" t="s">
         <v>215</v>
       </c>
-      <c r="H100" s="136"/>
-      <c r="I100" s="124" t="s">
+      <c r="H100" s="132"/>
+      <c r="I100" s="130" t="s">
         <v>216</v>
       </c>
-      <c r="J100" s="124"/>
+      <c r="J100" s="130"/>
       <c r="K100" s="47" t="s">
         <v>217</v>
       </c>
@@ -28094,117 +28094,117 @@
         <v>224</v>
       </c>
       <c r="R100" s="46"/>
-      <c r="S100" s="141"/>
-      <c r="T100" s="142"/>
-      <c r="U100" s="141"/>
-      <c r="V100" s="142"/>
-      <c r="W100" s="141"/>
-      <c r="X100" s="142"/>
-      <c r="Y100" s="146"/>
-      <c r="Z100" s="147"/>
-      <c r="AA100" s="146"/>
-      <c r="AB100" s="147"/>
-      <c r="AC100" s="129" t="s">
+      <c r="S100" s="127"/>
+      <c r="T100" s="128"/>
+      <c r="U100" s="127"/>
+      <c r="V100" s="128"/>
+      <c r="W100" s="127"/>
+      <c r="X100" s="128"/>
+      <c r="Y100" s="125"/>
+      <c r="Z100" s="126"/>
+      <c r="AA100" s="125"/>
+      <c r="AB100" s="126"/>
+      <c r="AC100" s="124" t="s">
         <v>521</v>
       </c>
-      <c r="AD100" s="129"/>
-      <c r="AE100" s="135" t="str">
+      <c r="AD100" s="124"/>
+      <c r="AE100" s="123" t="str">
         <f>CONCATENATE(E100,"+",G100,"+",I100,"+",M100,"+",O100,"+",Q100,"+",K100)</f>
         <v>怪物本身体力+怪物升星附加体力+装备本身附加体力+装备进阶附加体力+装备镶嵌附加体力+人物装备附加体力+装备强化附加体力</v>
       </c>
-      <c r="AF100" s="135"/>
+      <c r="AF100" s="123"/>
     </row>
     <row r="101" spans="1:32" s="43" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C101" s="144" t="s">
+      <c r="C101" s="139" t="s">
         <v>442</v>
       </c>
-      <c r="D101" s="144"/>
-      <c r="E101" s="124" t="s">
+      <c r="D101" s="139"/>
+      <c r="E101" s="130" t="s">
         <v>443</v>
       </c>
-      <c r="F101" s="124"/>
-      <c r="G101" s="136" t="s">
+      <c r="F101" s="130"/>
+      <c r="G101" s="132" t="s">
         <v>444</v>
       </c>
-      <c r="H101" s="136"/>
-      <c r="I101" s="124" t="s">
+      <c r="H101" s="132"/>
+      <c r="I101" s="130" t="s">
         <v>445</v>
       </c>
-      <c r="J101" s="124"/>
-      <c r="K101" s="145"/>
-      <c r="L101" s="145"/>
-      <c r="M101" s="124"/>
-      <c r="N101" s="124"/>
-      <c r="O101" s="145"/>
-      <c r="P101" s="145"/>
-      <c r="Q101" s="137"/>
-      <c r="R101" s="137"/>
-      <c r="S101" s="137"/>
-      <c r="T101" s="137"/>
-      <c r="U101" s="137"/>
-      <c r="V101" s="137"/>
-      <c r="W101" s="137"/>
-      <c r="X101" s="137"/>
-      <c r="Y101" s="145"/>
-      <c r="Z101" s="145"/>
-      <c r="AA101" s="145"/>
-      <c r="AB101" s="145"/>
-      <c r="AC101" s="129" t="s">
+      <c r="J101" s="130"/>
+      <c r="K101" s="140"/>
+      <c r="L101" s="140"/>
+      <c r="M101" s="130"/>
+      <c r="N101" s="130"/>
+      <c r="O101" s="140"/>
+      <c r="P101" s="140"/>
+      <c r="Q101" s="131"/>
+      <c r="R101" s="131"/>
+      <c r="S101" s="131"/>
+      <c r="T101" s="131"/>
+      <c r="U101" s="131"/>
+      <c r="V101" s="131"/>
+      <c r="W101" s="131"/>
+      <c r="X101" s="131"/>
+      <c r="Y101" s="140"/>
+      <c r="Z101" s="140"/>
+      <c r="AA101" s="140"/>
+      <c r="AB101" s="140"/>
+      <c r="AC101" s="124" t="s">
         <v>446</v>
       </c>
-      <c r="AD101" s="129"/>
-      <c r="AE101" s="135" t="str">
+      <c r="AD101" s="124"/>
+      <c r="AE101" s="123" t="str">
         <f>CONCATENATE(E101,"+",G101,"+",I101)</f>
         <v>怪物本身生命回复+怪物升星附加生命回复+装备进阶附加生命回复</v>
       </c>
-      <c r="AF101" s="135"/>
+      <c r="AF101" s="123"/>
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C102" s="140" t="s">
+      <c r="C102" s="129" t="s">
         <v>225</v>
       </c>
-      <c r="D102" s="140"/>
+      <c r="D102" s="129"/>
       <c r="E102" s="46" t="s">
         <v>504</v>
       </c>
       <c r="F102" s="46"/>
-      <c r="G102" s="137" t="s">
+      <c r="G102" s="131" t="s">
         <v>505</v>
       </c>
-      <c r="H102" s="137"/>
-      <c r="I102" s="137" t="s">
+      <c r="H102" s="131"/>
+      <c r="I102" s="131" t="s">
         <v>506</v>
       </c>
-      <c r="J102" s="137"/>
-      <c r="K102" s="124" t="s">
+      <c r="J102" s="131"/>
+      <c r="K102" s="130" t="s">
         <v>507</v>
       </c>
-      <c r="L102" s="124"/>
-      <c r="M102" s="143"/>
-      <c r="N102" s="143"/>
-      <c r="O102" s="143"/>
-      <c r="P102" s="143"/>
-      <c r="Q102" s="134"/>
-      <c r="R102" s="134"/>
-      <c r="S102" s="134"/>
-      <c r="T102" s="134"/>
-      <c r="U102" s="137"/>
-      <c r="V102" s="137"/>
-      <c r="W102" s="137"/>
-      <c r="X102" s="137"/>
-      <c r="Y102" s="124"/>
-      <c r="Z102" s="124"/>
-      <c r="AA102" s="124"/>
-      <c r="AB102" s="124"/>
-      <c r="AC102" s="129" t="s">
+      <c r="L102" s="130"/>
+      <c r="M102" s="137"/>
+      <c r="N102" s="137"/>
+      <c r="O102" s="137"/>
+      <c r="P102" s="137"/>
+      <c r="Q102" s="138"/>
+      <c r="R102" s="138"/>
+      <c r="S102" s="138"/>
+      <c r="T102" s="138"/>
+      <c r="U102" s="131"/>
+      <c r="V102" s="131"/>
+      <c r="W102" s="131"/>
+      <c r="X102" s="131"/>
+      <c r="Y102" s="130"/>
+      <c r="Z102" s="130"/>
+      <c r="AA102" s="130"/>
+      <c r="AB102" s="130"/>
+      <c r="AC102" s="124" t="s">
         <v>226</v>
       </c>
-      <c r="AD102" s="129"/>
-      <c r="AE102" s="135" t="str">
+      <c r="AD102" s="124"/>
+      <c r="AE102" s="123" t="str">
         <f>CONCATENATE(E102,"+",G102,"+",I102,"+",K102)</f>
         <v>人物装备套装附加五行加成百分比+法阵附加五行加成百分比+队长技附加五行加成百分比+被动附加五行加成百分比</v>
       </c>
-      <c r="AF102" s="135"/>
+      <c r="AF102" s="123"/>
     </row>
     <row r="103" spans="1:32" x14ac:dyDescent="0.15">
       <c r="D103" s="6"/>
@@ -28314,6 +28314,168 @@
     <row r="148" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="186">
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="AC87:AD87"/>
+    <mergeCell ref="AE87:AF87"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="AE86:AF86"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="O86:P86"/>
+    <mergeCell ref="AC86:AD86"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="AE90:AF90"/>
+    <mergeCell ref="Y86:Z86"/>
+    <mergeCell ref="Y90:Z90"/>
+    <mergeCell ref="Y87:Z87"/>
+    <mergeCell ref="Y91:Z91"/>
+    <mergeCell ref="Q86:R86"/>
+    <mergeCell ref="S86:T86"/>
+    <mergeCell ref="AC95:AD95"/>
+    <mergeCell ref="AE95:AF95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="AC93:AD93"/>
+    <mergeCell ref="AE93:AF93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="AC94:AD94"/>
+    <mergeCell ref="AE94:AF94"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="U95:V95"/>
+    <mergeCell ref="W95:X95"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="AA93:AB93"/>
+    <mergeCell ref="Y93:Z93"/>
+    <mergeCell ref="AA94:AB94"/>
+    <mergeCell ref="AA95:AB95"/>
+    <mergeCell ref="U87:V87"/>
+    <mergeCell ref="W87:X87"/>
+    <mergeCell ref="S92:T92"/>
+    <mergeCell ref="U92:V92"/>
+    <mergeCell ref="W92:X92"/>
+    <mergeCell ref="S93:T93"/>
+    <mergeCell ref="U93:V93"/>
+    <mergeCell ref="W93:X93"/>
+    <mergeCell ref="Q91:R91"/>
+    <mergeCell ref="S91:T91"/>
+    <mergeCell ref="U91:V91"/>
+    <mergeCell ref="W91:X91"/>
+    <mergeCell ref="U86:V86"/>
+    <mergeCell ref="W86:X86"/>
+    <mergeCell ref="Q87:R87"/>
+    <mergeCell ref="S87:T87"/>
+    <mergeCell ref="AC91:AD91"/>
+    <mergeCell ref="AE91:AF91"/>
+    <mergeCell ref="AC92:AD92"/>
+    <mergeCell ref="AE92:AF92"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="AA90:AB90"/>
+    <mergeCell ref="AA86:AB86"/>
+    <mergeCell ref="AA87:AB87"/>
+    <mergeCell ref="AA91:AB91"/>
+    <mergeCell ref="AA92:AB92"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="O87:P87"/>
+    <mergeCell ref="Y92:Z92"/>
+    <mergeCell ref="O90:P90"/>
+    <mergeCell ref="Q90:R90"/>
+    <mergeCell ref="S90:T90"/>
+    <mergeCell ref="U90:V90"/>
+    <mergeCell ref="W90:X90"/>
+    <mergeCell ref="AC90:AD90"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="U98:V98"/>
+    <mergeCell ref="W98:X98"/>
+    <mergeCell ref="Y98:Z98"/>
+    <mergeCell ref="AA98:AB98"/>
+    <mergeCell ref="Y95:Z95"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="S95:T95"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="U99:V99"/>
+    <mergeCell ref="W99:X99"/>
+    <mergeCell ref="Y99:Z99"/>
+    <mergeCell ref="AA99:AB99"/>
+    <mergeCell ref="Y102:Z102"/>
+    <mergeCell ref="AA102:AB102"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="U102:V102"/>
+    <mergeCell ref="W102:X102"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="AC99:AD99"/>
+    <mergeCell ref="AE99:AF99"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="O98:P98"/>
+    <mergeCell ref="Q98:R98"/>
+    <mergeCell ref="S98:T98"/>
+    <mergeCell ref="AC98:AD98"/>
+    <mergeCell ref="AE98:AF98"/>
+    <mergeCell ref="AC102:AD102"/>
+    <mergeCell ref="AE102:AF102"/>
+    <mergeCell ref="K102:L102"/>
+    <mergeCell ref="M102:N102"/>
+    <mergeCell ref="O102:P102"/>
+    <mergeCell ref="Q102:R102"/>
+    <mergeCell ref="S102:T102"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="AE101:AF101"/>
+    <mergeCell ref="Q101:R101"/>
+    <mergeCell ref="O101:P101"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="K101:L101"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="AC101:AD101"/>
+    <mergeCell ref="AA101:AB101"/>
+    <mergeCell ref="Y101:Z101"/>
+    <mergeCell ref="W101:X101"/>
+    <mergeCell ref="U101:V101"/>
+    <mergeCell ref="S101:T101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="G102:H102"/>
     <mergeCell ref="AE100:AF100"/>
     <mergeCell ref="AC100:AD100"/>
     <mergeCell ref="AA100:AB100"/>
@@ -28338,168 +28500,6 @@
     <mergeCell ref="W97:X97"/>
     <mergeCell ref="U97:V97"/>
     <mergeCell ref="S97:T97"/>
-    <mergeCell ref="AC102:AD102"/>
-    <mergeCell ref="AE102:AF102"/>
-    <mergeCell ref="K102:L102"/>
-    <mergeCell ref="M102:N102"/>
-    <mergeCell ref="O102:P102"/>
-    <mergeCell ref="Q102:R102"/>
-    <mergeCell ref="S102:T102"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="AE101:AF101"/>
-    <mergeCell ref="Q101:R101"/>
-    <mergeCell ref="O101:P101"/>
-    <mergeCell ref="M101:N101"/>
-    <mergeCell ref="K101:L101"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="AC101:AD101"/>
-    <mergeCell ref="AA101:AB101"/>
-    <mergeCell ref="Y101:Z101"/>
-    <mergeCell ref="W101:X101"/>
-    <mergeCell ref="U101:V101"/>
-    <mergeCell ref="S101:T101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="AC99:AD99"/>
-    <mergeCell ref="AE99:AF99"/>
-    <mergeCell ref="K98:L98"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="O98:P98"/>
-    <mergeCell ref="Q98:R98"/>
-    <mergeCell ref="S98:T98"/>
-    <mergeCell ref="AC98:AD98"/>
-    <mergeCell ref="AE98:AF98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="U99:V99"/>
-    <mergeCell ref="W99:X99"/>
-    <mergeCell ref="Y99:Z99"/>
-    <mergeCell ref="AA99:AB99"/>
-    <mergeCell ref="Y102:Z102"/>
-    <mergeCell ref="AA102:AB102"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="U102:V102"/>
-    <mergeCell ref="W102:X102"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="U98:V98"/>
-    <mergeCell ref="W98:X98"/>
-    <mergeCell ref="Y98:Z98"/>
-    <mergeCell ref="AA98:AB98"/>
-    <mergeCell ref="Y95:Z95"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="S95:T95"/>
-    <mergeCell ref="U86:V86"/>
-    <mergeCell ref="W86:X86"/>
-    <mergeCell ref="Q87:R87"/>
-    <mergeCell ref="S87:T87"/>
-    <mergeCell ref="AC91:AD91"/>
-    <mergeCell ref="AE91:AF91"/>
-    <mergeCell ref="AC92:AD92"/>
-    <mergeCell ref="AE92:AF92"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="AA90:AB90"/>
-    <mergeCell ref="AA86:AB86"/>
-    <mergeCell ref="AA87:AB87"/>
-    <mergeCell ref="AA91:AB91"/>
-    <mergeCell ref="AA92:AB92"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="O87:P87"/>
-    <mergeCell ref="Y92:Z92"/>
-    <mergeCell ref="O90:P90"/>
-    <mergeCell ref="Q90:R90"/>
-    <mergeCell ref="S90:T90"/>
-    <mergeCell ref="U90:V90"/>
-    <mergeCell ref="W90:X90"/>
-    <mergeCell ref="AC90:AD90"/>
-    <mergeCell ref="U87:V87"/>
-    <mergeCell ref="W87:X87"/>
-    <mergeCell ref="S92:T92"/>
-    <mergeCell ref="U92:V92"/>
-    <mergeCell ref="W92:X92"/>
-    <mergeCell ref="S93:T93"/>
-    <mergeCell ref="U93:V93"/>
-    <mergeCell ref="W93:X93"/>
-    <mergeCell ref="Q91:R91"/>
-    <mergeCell ref="S91:T91"/>
-    <mergeCell ref="U91:V91"/>
-    <mergeCell ref="W91:X91"/>
-    <mergeCell ref="AC95:AD95"/>
-    <mergeCell ref="AE95:AF95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="AC93:AD93"/>
-    <mergeCell ref="AE93:AF93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="AC94:AD94"/>
-    <mergeCell ref="AE94:AF94"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="U95:V95"/>
-    <mergeCell ref="W95:X95"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="AA93:AB93"/>
-    <mergeCell ref="Y93:Z93"/>
-    <mergeCell ref="AA94:AB94"/>
-    <mergeCell ref="AA95:AB95"/>
-    <mergeCell ref="AC87:AD87"/>
-    <mergeCell ref="AE87:AF87"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="O91:P91"/>
-    <mergeCell ref="AE86:AF86"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="O86:P86"/>
-    <mergeCell ref="AC86:AD86"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="AE90:AF90"/>
-    <mergeCell ref="Y86:Z86"/>
-    <mergeCell ref="Y90:Z90"/>
-    <mergeCell ref="Y87:Z87"/>
-    <mergeCell ref="Y91:Z91"/>
-    <mergeCell ref="Q86:R86"/>
-    <mergeCell ref="S86:T86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="I92:J92"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28637,12 +28637,12 @@
     </row>
     <row r="17" spans="1:68" x14ac:dyDescent="0.15">
       <c r="J17" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="18" spans="1:68" x14ac:dyDescent="0.15">
       <c r="C18" s="54" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D18" s="54"/>
       <c r="E18" s="54"/>
@@ -28667,7 +28667,7 @@
     <row r="19" spans="1:68" x14ac:dyDescent="0.15">
       <c r="C19" s="54"/>
       <c r="D19" s="54" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E19" s="54"/>
       <c r="F19" s="54"/>
@@ -28721,7 +28721,7 @@
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
       <c r="J21" s="54" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="K21" s="54"/>
       <c r="L21" s="54"/>
@@ -28769,7 +28769,7 @@
       <c r="H23" s="54"/>
       <c r="I23" s="54"/>
       <c r="J23" s="54" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K23" s="54"/>
       <c r="L23" s="54"/>
@@ -28794,7 +28794,7 @@
         <v>543</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -28810,343 +28810,343 @@
       <c r="A28" s="44" t="s">
         <v>558</v>
       </c>
-      <c r="C28" s="156" t="s">
+      <c r="C28" s="152" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="153"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="164" t="s">
+      <c r="J28" s="159" t="s">
         <v>647</v>
       </c>
-      <c r="K28" s="164"/>
-      <c r="L28" s="164"/>
-      <c r="M28" s="158" t="s">
+      <c r="K28" s="159"/>
+      <c r="L28" s="159"/>
+      <c r="M28" s="160" t="s">
         <v>77</v>
       </c>
-      <c r="N28" s="164" t="s">
+      <c r="N28" s="159" t="s">
         <v>571</v>
       </c>
-      <c r="O28" s="164"/>
-      <c r="P28" s="164"/>
-      <c r="Q28" s="158" t="s">
-        <v>846</v>
-      </c>
-      <c r="R28" s="173" t="s">
-        <v>854</v>
-      </c>
-      <c r="S28" s="173"/>
-      <c r="T28" s="173"/>
-      <c r="U28" s="158" t="s">
+      <c r="O28" s="159"/>
+      <c r="P28" s="159"/>
+      <c r="Q28" s="160" t="s">
+        <v>844</v>
+      </c>
+      <c r="R28" s="163" t="s">
+        <v>852</v>
+      </c>
+      <c r="S28" s="163"/>
+      <c r="T28" s="163"/>
+      <c r="U28" s="160" t="s">
         <v>77</v>
       </c>
-      <c r="V28" s="174" t="s">
+      <c r="V28" s="164" t="s">
         <v>644</v>
       </c>
-      <c r="W28" s="174"/>
-      <c r="X28" s="174"/>
-      <c r="Y28" s="158" t="s">
+      <c r="W28" s="164"/>
+      <c r="X28" s="164"/>
+      <c r="Y28" s="160" t="s">
         <v>77</v>
       </c>
-      <c r="Z28" s="158" t="s">
+      <c r="Z28" s="160" t="s">
         <v>645</v>
       </c>
-      <c r="AA28" s="158"/>
-      <c r="AB28" s="158"/>
-      <c r="AC28" s="158" t="s">
+      <c r="AA28" s="160"/>
+      <c r="AB28" s="160"/>
+      <c r="AC28" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="AD28" s="158" t="s">
+      <c r="AD28" s="160" t="s">
         <v>564</v>
       </c>
-      <c r="AE28" s="158"/>
-      <c r="AF28" s="158"/>
-      <c r="AG28" s="166" t="s">
+      <c r="AE28" s="160"/>
+      <c r="AF28" s="160"/>
+      <c r="AG28" s="155" t="s">
         <v>77</v>
       </c>
-      <c r="AH28" s="166" t="s">
+      <c r="AH28" s="155" t="s">
         <v>680</v>
       </c>
-      <c r="AI28" s="166"/>
-      <c r="AJ28" s="166"/>
-      <c r="AK28" s="155" t="s">
+      <c r="AI28" s="155"/>
+      <c r="AJ28" s="155"/>
+      <c r="AK28" s="156" t="s">
         <v>77</v>
       </c>
-      <c r="AL28" s="155">
+      <c r="AL28" s="156">
         <v>1</v>
       </c>
-      <c r="AM28" s="155"/>
-      <c r="AN28" s="155"/>
-      <c r="AO28" s="155" t="s">
+      <c r="AM28" s="156"/>
+      <c r="AN28" s="156"/>
+      <c r="AO28" s="156" t="s">
         <v>95</v>
       </c>
-      <c r="AP28" s="155" t="s">
+      <c r="AP28" s="156" t="s">
         <v>508</v>
       </c>
-      <c r="AQ28" s="155"/>
-      <c r="AR28" s="155"/>
-      <c r="AS28" s="155" t="s">
+      <c r="AQ28" s="156"/>
+      <c r="AR28" s="156"/>
+      <c r="AS28" s="156" t="s">
         <v>141</v>
       </c>
-      <c r="AT28" s="155" t="s">
+      <c r="AT28" s="156" t="s">
         <v>509</v>
       </c>
-      <c r="AU28" s="155"/>
-      <c r="AV28" s="155"/>
-      <c r="AW28" s="155" t="s">
+      <c r="AU28" s="156"/>
+      <c r="AV28" s="156"/>
+      <c r="AW28" s="156" t="s">
         <v>141</v>
       </c>
-      <c r="AX28" s="155" t="s">
+      <c r="AX28" s="156" t="s">
         <v>510</v>
       </c>
-      <c r="AY28" s="155"/>
-      <c r="AZ28" s="155"/>
-      <c r="BA28" s="155" t="s">
+      <c r="AY28" s="156"/>
+      <c r="AZ28" s="156"/>
+      <c r="BA28" s="156" t="s">
         <v>207</v>
       </c>
-      <c r="BB28" s="155" t="s">
+      <c r="BB28" s="156" t="s">
         <v>511</v>
       </c>
-      <c r="BC28" s="155"/>
-      <c r="BD28" s="155"/>
-      <c r="BE28" s="171" t="s">
+      <c r="BC28" s="156"/>
+      <c r="BD28" s="156"/>
+      <c r="BE28" s="166" t="s">
+        <v>750</v>
+      </c>
+      <c r="BF28" s="166" t="s">
         <v>751</v>
       </c>
-      <c r="BF28" s="171" t="s">
-        <v>752</v>
-      </c>
-      <c r="BG28" s="171"/>
-      <c r="BH28" s="171"/>
-      <c r="BI28" s="152" t="s">
-        <v>751</v>
-      </c>
-      <c r="BJ28" s="152" t="s">
-        <v>757</v>
-      </c>
-      <c r="BK28" s="152"/>
-      <c r="BL28" s="152"/>
-      <c r="BM28" s="154" t="s">
-        <v>853</v>
-      </c>
-      <c r="BN28" s="154" t="s">
-        <v>889</v>
-      </c>
-      <c r="BO28" s="154"/>
-      <c r="BP28" s="154"/>
+      <c r="BG28" s="166"/>
+      <c r="BH28" s="166"/>
+      <c r="BI28" s="165" t="s">
+        <v>750</v>
+      </c>
+      <c r="BJ28" s="165" t="s">
+        <v>756</v>
+      </c>
+      <c r="BK28" s="165"/>
+      <c r="BL28" s="165"/>
+      <c r="BM28" s="171" t="s">
+        <v>851</v>
+      </c>
+      <c r="BN28" s="171" t="s">
+        <v>887</v>
+      </c>
+      <c r="BO28" s="171"/>
+      <c r="BP28" s="171"/>
     </row>
     <row r="29" spans="1:68" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="C29" s="157"/>
-      <c r="D29" s="157"/>
-      <c r="E29" s="157"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="153"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="164"/>
-      <c r="K29" s="164"/>
-      <c r="L29" s="164"/>
-      <c r="M29" s="158"/>
-      <c r="N29" s="164"/>
-      <c r="O29" s="164"/>
-      <c r="P29" s="164"/>
-      <c r="Q29" s="158"/>
-      <c r="R29" s="173"/>
-      <c r="S29" s="173"/>
-      <c r="T29" s="173"/>
-      <c r="U29" s="158"/>
-      <c r="V29" s="174"/>
-      <c r="W29" s="174"/>
-      <c r="X29" s="174"/>
-      <c r="Y29" s="158"/>
-      <c r="Z29" s="158"/>
-      <c r="AA29" s="158"/>
-      <c r="AB29" s="158"/>
-      <c r="AC29" s="158"/>
-      <c r="AD29" s="158"/>
-      <c r="AE29" s="158"/>
-      <c r="AF29" s="158"/>
-      <c r="AG29" s="166"/>
-      <c r="AH29" s="166"/>
-      <c r="AI29" s="166"/>
-      <c r="AJ29" s="166"/>
-      <c r="AK29" s="155"/>
-      <c r="AL29" s="155"/>
-      <c r="AM29" s="155"/>
-      <c r="AN29" s="155"/>
-      <c r="AO29" s="155"/>
-      <c r="AP29" s="155"/>
-      <c r="AQ29" s="155"/>
-      <c r="AR29" s="155"/>
-      <c r="AS29" s="155"/>
-      <c r="AT29" s="155"/>
-      <c r="AU29" s="155"/>
-      <c r="AV29" s="155"/>
-      <c r="AW29" s="155"/>
-      <c r="AX29" s="155"/>
-      <c r="AY29" s="155"/>
-      <c r="AZ29" s="155"/>
-      <c r="BA29" s="155"/>
-      <c r="BB29" s="155"/>
-      <c r="BC29" s="155"/>
-      <c r="BD29" s="155"/>
-      <c r="BE29" s="171"/>
-      <c r="BF29" s="171"/>
-      <c r="BG29" s="171"/>
-      <c r="BH29" s="171"/>
-      <c r="BI29" s="152"/>
-      <c r="BJ29" s="152"/>
-      <c r="BK29" s="152"/>
-      <c r="BL29" s="152"/>
-      <c r="BM29" s="154"/>
-      <c r="BN29" s="154"/>
-      <c r="BO29" s="154"/>
-      <c r="BP29" s="154"/>
+      <c r="J29" s="159"/>
+      <c r="K29" s="159"/>
+      <c r="L29" s="159"/>
+      <c r="M29" s="160"/>
+      <c r="N29" s="159"/>
+      <c r="O29" s="159"/>
+      <c r="P29" s="159"/>
+      <c r="Q29" s="160"/>
+      <c r="R29" s="163"/>
+      <c r="S29" s="163"/>
+      <c r="T29" s="163"/>
+      <c r="U29" s="160"/>
+      <c r="V29" s="164"/>
+      <c r="W29" s="164"/>
+      <c r="X29" s="164"/>
+      <c r="Y29" s="160"/>
+      <c r="Z29" s="160"/>
+      <c r="AA29" s="160"/>
+      <c r="AB29" s="160"/>
+      <c r="AC29" s="160"/>
+      <c r="AD29" s="160"/>
+      <c r="AE29" s="160"/>
+      <c r="AF29" s="160"/>
+      <c r="AG29" s="155"/>
+      <c r="AH29" s="155"/>
+      <c r="AI29" s="155"/>
+      <c r="AJ29" s="155"/>
+      <c r="AK29" s="156"/>
+      <c r="AL29" s="156"/>
+      <c r="AM29" s="156"/>
+      <c r="AN29" s="156"/>
+      <c r="AO29" s="156"/>
+      <c r="AP29" s="156"/>
+      <c r="AQ29" s="156"/>
+      <c r="AR29" s="156"/>
+      <c r="AS29" s="156"/>
+      <c r="AT29" s="156"/>
+      <c r="AU29" s="156"/>
+      <c r="AV29" s="156"/>
+      <c r="AW29" s="156"/>
+      <c r="AX29" s="156"/>
+      <c r="AY29" s="156"/>
+      <c r="AZ29" s="156"/>
+      <c r="BA29" s="156"/>
+      <c r="BB29" s="156"/>
+      <c r="BC29" s="156"/>
+      <c r="BD29" s="156"/>
+      <c r="BE29" s="166"/>
+      <c r="BF29" s="166"/>
+      <c r="BG29" s="166"/>
+      <c r="BH29" s="166"/>
+      <c r="BI29" s="165"/>
+      <c r="BJ29" s="165"/>
+      <c r="BK29" s="165"/>
+      <c r="BL29" s="165"/>
+      <c r="BM29" s="171"/>
+      <c r="BN29" s="171"/>
+      <c r="BO29" s="171"/>
+      <c r="BP29" s="171"/>
     </row>
     <row r="30" spans="1:68" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
-      <c r="C30" s="157"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="157"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="153"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="164"/>
-      <c r="K30" s="164"/>
-      <c r="L30" s="164"/>
-      <c r="M30" s="158"/>
-      <c r="N30" s="164"/>
-      <c r="O30" s="164"/>
-      <c r="P30" s="164"/>
-      <c r="Q30" s="158"/>
-      <c r="R30" s="173"/>
-      <c r="S30" s="173"/>
-      <c r="T30" s="173"/>
-      <c r="U30" s="158"/>
-      <c r="V30" s="174"/>
-      <c r="W30" s="174"/>
-      <c r="X30" s="174"/>
-      <c r="Y30" s="158"/>
-      <c r="Z30" s="158"/>
-      <c r="AA30" s="158"/>
-      <c r="AB30" s="158"/>
-      <c r="AC30" s="158"/>
-      <c r="AD30" s="158"/>
-      <c r="AE30" s="158"/>
-      <c r="AF30" s="158"/>
-      <c r="AG30" s="166"/>
-      <c r="AH30" s="166"/>
-      <c r="AI30" s="166"/>
-      <c r="AJ30" s="166"/>
-      <c r="AK30" s="155"/>
-      <c r="AL30" s="155"/>
-      <c r="AM30" s="155"/>
-      <c r="AN30" s="155"/>
-      <c r="AO30" s="155"/>
-      <c r="AP30" s="155"/>
-      <c r="AQ30" s="155"/>
-      <c r="AR30" s="155"/>
-      <c r="AS30" s="155"/>
-      <c r="AT30" s="155"/>
-      <c r="AU30" s="155"/>
-      <c r="AV30" s="155"/>
-      <c r="AW30" s="155"/>
-      <c r="AX30" s="155"/>
-      <c r="AY30" s="155"/>
-      <c r="AZ30" s="155"/>
-      <c r="BA30" s="155"/>
-      <c r="BB30" s="155"/>
-      <c r="BC30" s="155"/>
-      <c r="BD30" s="155"/>
-      <c r="BE30" s="171"/>
-      <c r="BF30" s="171"/>
-      <c r="BG30" s="171"/>
-      <c r="BH30" s="171"/>
-      <c r="BI30" s="152"/>
-      <c r="BJ30" s="152"/>
-      <c r="BK30" s="152"/>
-      <c r="BL30" s="152"/>
-      <c r="BM30" s="154"/>
-      <c r="BN30" s="154"/>
-      <c r="BO30" s="154"/>
-      <c r="BP30" s="154"/>
+      <c r="J30" s="159"/>
+      <c r="K30" s="159"/>
+      <c r="L30" s="159"/>
+      <c r="M30" s="160"/>
+      <c r="N30" s="159"/>
+      <c r="O30" s="159"/>
+      <c r="P30" s="159"/>
+      <c r="Q30" s="160"/>
+      <c r="R30" s="163"/>
+      <c r="S30" s="163"/>
+      <c r="T30" s="163"/>
+      <c r="U30" s="160"/>
+      <c r="V30" s="164"/>
+      <c r="W30" s="164"/>
+      <c r="X30" s="164"/>
+      <c r="Y30" s="160"/>
+      <c r="Z30" s="160"/>
+      <c r="AA30" s="160"/>
+      <c r="AB30" s="160"/>
+      <c r="AC30" s="160"/>
+      <c r="AD30" s="160"/>
+      <c r="AE30" s="160"/>
+      <c r="AF30" s="160"/>
+      <c r="AG30" s="155"/>
+      <c r="AH30" s="155"/>
+      <c r="AI30" s="155"/>
+      <c r="AJ30" s="155"/>
+      <c r="AK30" s="156"/>
+      <c r="AL30" s="156"/>
+      <c r="AM30" s="156"/>
+      <c r="AN30" s="156"/>
+      <c r="AO30" s="156"/>
+      <c r="AP30" s="156"/>
+      <c r="AQ30" s="156"/>
+      <c r="AR30" s="156"/>
+      <c r="AS30" s="156"/>
+      <c r="AT30" s="156"/>
+      <c r="AU30" s="156"/>
+      <c r="AV30" s="156"/>
+      <c r="AW30" s="156"/>
+      <c r="AX30" s="156"/>
+      <c r="AY30" s="156"/>
+      <c r="AZ30" s="156"/>
+      <c r="BA30" s="156"/>
+      <c r="BB30" s="156"/>
+      <c r="BC30" s="156"/>
+      <c r="BD30" s="156"/>
+      <c r="BE30" s="166"/>
+      <c r="BF30" s="166"/>
+      <c r="BG30" s="166"/>
+      <c r="BH30" s="166"/>
+      <c r="BI30" s="165"/>
+      <c r="BJ30" s="165"/>
+      <c r="BK30" s="165"/>
+      <c r="BL30" s="165"/>
+      <c r="BM30" s="171"/>
+      <c r="BN30" s="171"/>
+      <c r="BO30" s="171"/>
+      <c r="BP30" s="171"/>
     </row>
     <row r="31" spans="1:68" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
+      <c r="C31" s="153"/>
+      <c r="D31" s="153"/>
+      <c r="E31" s="153"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="164"/>
-      <c r="K31" s="164"/>
-      <c r="L31" s="164"/>
-      <c r="M31" s="158"/>
-      <c r="N31" s="164"/>
-      <c r="O31" s="164"/>
-      <c r="P31" s="164"/>
-      <c r="Q31" s="158"/>
-      <c r="R31" s="173"/>
-      <c r="S31" s="173"/>
-      <c r="T31" s="173"/>
-      <c r="U31" s="158"/>
-      <c r="V31" s="174"/>
-      <c r="W31" s="174"/>
-      <c r="X31" s="174"/>
-      <c r="Y31" s="158"/>
-      <c r="Z31" s="158"/>
-      <c r="AA31" s="158"/>
-      <c r="AB31" s="158"/>
-      <c r="AC31" s="158"/>
-      <c r="AD31" s="158"/>
-      <c r="AE31" s="158"/>
-      <c r="AF31" s="158"/>
-      <c r="AG31" s="166"/>
-      <c r="AH31" s="166"/>
-      <c r="AI31" s="166"/>
-      <c r="AJ31" s="166"/>
-      <c r="AK31" s="155"/>
-      <c r="AL31" s="155"/>
-      <c r="AM31" s="155"/>
-      <c r="AN31" s="155"/>
-      <c r="AO31" s="155"/>
-      <c r="AP31" s="155"/>
-      <c r="AQ31" s="155"/>
-      <c r="AR31" s="155"/>
-      <c r="AS31" s="155"/>
-      <c r="AT31" s="155"/>
-      <c r="AU31" s="155"/>
-      <c r="AV31" s="155"/>
-      <c r="AW31" s="155"/>
-      <c r="AX31" s="155"/>
-      <c r="AY31" s="155"/>
-      <c r="AZ31" s="155"/>
-      <c r="BA31" s="155"/>
-      <c r="BB31" s="155"/>
-      <c r="BC31" s="155"/>
-      <c r="BD31" s="155"/>
-      <c r="BE31" s="171"/>
-      <c r="BF31" s="171"/>
-      <c r="BG31" s="171"/>
-      <c r="BH31" s="171"/>
-      <c r="BI31" s="152"/>
-      <c r="BJ31" s="152"/>
-      <c r="BK31" s="152"/>
-      <c r="BL31" s="152"/>
-      <c r="BM31" s="154"/>
-      <c r="BN31" s="154"/>
-      <c r="BO31" s="154"/>
-      <c r="BP31" s="154"/>
+      <c r="J31" s="159"/>
+      <c r="K31" s="159"/>
+      <c r="L31" s="159"/>
+      <c r="M31" s="160"/>
+      <c r="N31" s="159"/>
+      <c r="O31" s="159"/>
+      <c r="P31" s="159"/>
+      <c r="Q31" s="160"/>
+      <c r="R31" s="163"/>
+      <c r="S31" s="163"/>
+      <c r="T31" s="163"/>
+      <c r="U31" s="160"/>
+      <c r="V31" s="164"/>
+      <c r="W31" s="164"/>
+      <c r="X31" s="164"/>
+      <c r="Y31" s="160"/>
+      <c r="Z31" s="160"/>
+      <c r="AA31" s="160"/>
+      <c r="AB31" s="160"/>
+      <c r="AC31" s="160"/>
+      <c r="AD31" s="160"/>
+      <c r="AE31" s="160"/>
+      <c r="AF31" s="160"/>
+      <c r="AG31" s="155"/>
+      <c r="AH31" s="155"/>
+      <c r="AI31" s="155"/>
+      <c r="AJ31" s="155"/>
+      <c r="AK31" s="156"/>
+      <c r="AL31" s="156"/>
+      <c r="AM31" s="156"/>
+      <c r="AN31" s="156"/>
+      <c r="AO31" s="156"/>
+      <c r="AP31" s="156"/>
+      <c r="AQ31" s="156"/>
+      <c r="AR31" s="156"/>
+      <c r="AS31" s="156"/>
+      <c r="AT31" s="156"/>
+      <c r="AU31" s="156"/>
+      <c r="AV31" s="156"/>
+      <c r="AW31" s="156"/>
+      <c r="AX31" s="156"/>
+      <c r="AY31" s="156"/>
+      <c r="AZ31" s="156"/>
+      <c r="BA31" s="156"/>
+      <c r="BB31" s="156"/>
+      <c r="BC31" s="156"/>
+      <c r="BD31" s="156"/>
+      <c r="BE31" s="166"/>
+      <c r="BF31" s="166"/>
+      <c r="BG31" s="166"/>
+      <c r="BH31" s="166"/>
+      <c r="BI31" s="165"/>
+      <c r="BJ31" s="165"/>
+      <c r="BK31" s="165"/>
+      <c r="BL31" s="165"/>
+      <c r="BM31" s="171"/>
+      <c r="BN31" s="171"/>
+      <c r="BO31" s="171"/>
+      <c r="BP31" s="171"/>
     </row>
     <row r="32" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -29154,162 +29154,162 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="158" t="s">
+      <c r="J32" s="160" t="s">
         <v>534</v>
       </c>
-      <c r="K32" s="158"/>
-      <c r="L32" s="158"/>
-      <c r="M32" s="158"/>
-      <c r="N32" s="158" t="s">
+      <c r="K32" s="160"/>
+      <c r="L32" s="160"/>
+      <c r="M32" s="160"/>
+      <c r="N32" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="O32" s="158"/>
-      <c r="P32" s="158"/>
-      <c r="Q32" s="158"/>
-      <c r="R32" s="173"/>
-      <c r="S32" s="173"/>
-      <c r="T32" s="173"/>
-      <c r="U32" s="158"/>
-      <c r="V32" s="165" t="s">
+      <c r="O32" s="160"/>
+      <c r="P32" s="160"/>
+      <c r="Q32" s="160"/>
+      <c r="R32" s="163"/>
+      <c r="S32" s="163"/>
+      <c r="T32" s="163"/>
+      <c r="U32" s="160"/>
+      <c r="V32" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="W32" s="165"/>
-      <c r="X32" s="165"/>
-      <c r="Y32" s="158"/>
-      <c r="Z32" s="158" t="s">
+      <c r="W32" s="161"/>
+      <c r="X32" s="161"/>
+      <c r="Y32" s="160"/>
+      <c r="Z32" s="160" t="s">
         <v>99</v>
       </c>
-      <c r="AA32" s="158"/>
-      <c r="AB32" s="158"/>
-      <c r="AC32" s="158"/>
-      <c r="AD32" s="158" t="s">
+      <c r="AA32" s="160"/>
+      <c r="AB32" s="160"/>
+      <c r="AC32" s="160"/>
+      <c r="AD32" s="160" t="s">
         <v>100</v>
       </c>
-      <c r="AE32" s="158"/>
-      <c r="AF32" s="158"/>
-      <c r="AG32" s="166"/>
-      <c r="AH32" s="166" t="s">
+      <c r="AE32" s="160"/>
+      <c r="AF32" s="160"/>
+      <c r="AG32" s="155"/>
+      <c r="AH32" s="155" t="s">
         <v>80</v>
       </c>
-      <c r="AI32" s="166"/>
-      <c r="AJ32" s="166"/>
-      <c r="AK32" s="155"/>
-      <c r="AL32" s="155"/>
-      <c r="AM32" s="155"/>
-      <c r="AN32" s="155"/>
-      <c r="AO32" s="155"/>
-      <c r="AP32" s="155" t="s">
+      <c r="AI32" s="155"/>
+      <c r="AJ32" s="155"/>
+      <c r="AK32" s="156"/>
+      <c r="AL32" s="156"/>
+      <c r="AM32" s="156"/>
+      <c r="AN32" s="156"/>
+      <c r="AO32" s="156"/>
+      <c r="AP32" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="AQ32" s="155"/>
-      <c r="AR32" s="155"/>
-      <c r="AS32" s="155"/>
-      <c r="AT32" s="163" t="s">
+      <c r="AQ32" s="156"/>
+      <c r="AR32" s="156"/>
+      <c r="AS32" s="156"/>
+      <c r="AT32" s="167" t="s">
         <v>98</v>
       </c>
-      <c r="AU32" s="163"/>
-      <c r="AV32" s="163"/>
-      <c r="AW32" s="155"/>
-      <c r="AX32" s="155" t="s">
+      <c r="AU32" s="167"/>
+      <c r="AV32" s="167"/>
+      <c r="AW32" s="156"/>
+      <c r="AX32" s="156" t="s">
         <v>104</v>
       </c>
-      <c r="AY32" s="155"/>
-      <c r="AZ32" s="155"/>
-      <c r="BA32" s="155"/>
-      <c r="BB32" s="162" t="s">
+      <c r="AY32" s="156"/>
+      <c r="AZ32" s="156"/>
+      <c r="BA32" s="156"/>
+      <c r="BB32" s="157" t="s">
         <v>209</v>
       </c>
-      <c r="BC32" s="162"/>
-      <c r="BD32" s="162"/>
-      <c r="BE32" s="171"/>
-      <c r="BF32" s="171"/>
-      <c r="BG32" s="171"/>
-      <c r="BH32" s="171"/>
-      <c r="BI32" s="152"/>
-      <c r="BJ32" s="152"/>
-      <c r="BK32" s="152"/>
-      <c r="BL32" s="152"/>
-      <c r="BM32" s="154"/>
-      <c r="BN32" s="154"/>
-      <c r="BO32" s="154"/>
-      <c r="BP32" s="154"/>
+      <c r="BC32" s="157"/>
+      <c r="BD32" s="157"/>
+      <c r="BE32" s="166"/>
+      <c r="BF32" s="166"/>
+      <c r="BG32" s="166"/>
+      <c r="BH32" s="166"/>
+      <c r="BI32" s="165"/>
+      <c r="BJ32" s="165"/>
+      <c r="BK32" s="165"/>
+      <c r="BL32" s="165"/>
+      <c r="BM32" s="171"/>
+      <c r="BN32" s="171"/>
+      <c r="BO32" s="171"/>
+      <c r="BP32" s="171"/>
     </row>
     <row r="33" spans="1:75" x14ac:dyDescent="0.15">
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="158" t="s">
+      <c r="J33" s="160" t="s">
         <v>144</v>
       </c>
-      <c r="K33" s="158"/>
-      <c r="L33" s="158"/>
-      <c r="M33" s="158"/>
-      <c r="N33" s="158"/>
-      <c r="O33" s="158"/>
-      <c r="P33" s="158"/>
-      <c r="Q33" s="158"/>
-      <c r="R33" s="158"/>
-      <c r="S33" s="158"/>
-      <c r="T33" s="158"/>
-      <c r="U33" s="158"/>
-      <c r="V33" s="158"/>
-      <c r="W33" s="158"/>
-      <c r="X33" s="158"/>
-      <c r="Y33" s="158"/>
-      <c r="Z33" s="158"/>
-      <c r="AA33" s="158"/>
-      <c r="AB33" s="158"/>
-      <c r="AC33" s="158"/>
-      <c r="AD33" s="158"/>
-      <c r="AE33" s="158"/>
-      <c r="AF33" s="158"/>
-      <c r="AG33" s="159" t="s">
+      <c r="K33" s="160"/>
+      <c r="L33" s="160"/>
+      <c r="M33" s="160"/>
+      <c r="N33" s="160"/>
+      <c r="O33" s="160"/>
+      <c r="P33" s="160"/>
+      <c r="Q33" s="160"/>
+      <c r="R33" s="160"/>
+      <c r="S33" s="160"/>
+      <c r="T33" s="160"/>
+      <c r="U33" s="160"/>
+      <c r="V33" s="160"/>
+      <c r="W33" s="160"/>
+      <c r="X33" s="160"/>
+      <c r="Y33" s="160"/>
+      <c r="Z33" s="160"/>
+      <c r="AA33" s="160"/>
+      <c r="AB33" s="160"/>
+      <c r="AC33" s="160"/>
+      <c r="AD33" s="160"/>
+      <c r="AE33" s="160"/>
+      <c r="AF33" s="160"/>
+      <c r="AG33" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="AH33" s="159"/>
-      <c r="AI33" s="159"/>
-      <c r="AJ33" s="159"/>
-      <c r="AK33" s="162" t="s">
+      <c r="AH33" s="158"/>
+      <c r="AI33" s="158"/>
+      <c r="AJ33" s="158"/>
+      <c r="AK33" s="157" t="s">
         <v>143</v>
       </c>
-      <c r="AL33" s="162"/>
-      <c r="AM33" s="162"/>
-      <c r="AN33" s="162"/>
-      <c r="AO33" s="162"/>
-      <c r="AP33" s="162"/>
-      <c r="AQ33" s="162"/>
-      <c r="AR33" s="162"/>
-      <c r="AS33" s="162"/>
-      <c r="AT33" s="162"/>
-      <c r="AU33" s="162"/>
-      <c r="AV33" s="162"/>
-      <c r="AW33" s="162"/>
-      <c r="AX33" s="162"/>
-      <c r="AY33" s="162"/>
-      <c r="AZ33" s="162"/>
-      <c r="BA33" s="162"/>
-      <c r="BB33" s="162"/>
-      <c r="BC33" s="162"/>
-      <c r="BD33" s="162"/>
-      <c r="BE33" s="171" t="s">
+      <c r="AL33" s="157"/>
+      <c r="AM33" s="157"/>
+      <c r="AN33" s="157"/>
+      <c r="AO33" s="157"/>
+      <c r="AP33" s="157"/>
+      <c r="AQ33" s="157"/>
+      <c r="AR33" s="157"/>
+      <c r="AS33" s="157"/>
+      <c r="AT33" s="157"/>
+      <c r="AU33" s="157"/>
+      <c r="AV33" s="157"/>
+      <c r="AW33" s="157"/>
+      <c r="AX33" s="157"/>
+      <c r="AY33" s="157"/>
+      <c r="AZ33" s="157"/>
+      <c r="BA33" s="157"/>
+      <c r="BB33" s="157"/>
+      <c r="BC33" s="157"/>
+      <c r="BD33" s="157"/>
+      <c r="BE33" s="166" t="s">
         <v>434</v>
       </c>
-      <c r="BF33" s="171"/>
-      <c r="BG33" s="171"/>
-      <c r="BH33" s="171"/>
-      <c r="BI33" s="152" t="s">
-        <v>758</v>
-      </c>
-      <c r="BJ33" s="152"/>
-      <c r="BK33" s="152"/>
-      <c r="BL33" s="152"/>
-      <c r="BM33" s="154" t="s">
-        <v>856</v>
-      </c>
-      <c r="BN33" s="154"/>
-      <c r="BO33" s="154"/>
-      <c r="BP33" s="154"/>
+      <c r="BF33" s="166"/>
+      <c r="BG33" s="166"/>
+      <c r="BH33" s="166"/>
+      <c r="BI33" s="165" t="s">
+        <v>757</v>
+      </c>
+      <c r="BJ33" s="165"/>
+      <c r="BK33" s="165"/>
+      <c r="BL33" s="165"/>
+      <c r="BM33" s="171" t="s">
+        <v>854</v>
+      </c>
+      <c r="BN33" s="171"/>
+      <c r="BO33" s="171"/>
+      <c r="BP33" s="171"/>
     </row>
     <row r="34" spans="1:75" x14ac:dyDescent="0.15">
       <c r="J34" s="13"/>
@@ -29355,7 +29355,7 @@
     </row>
     <row r="35" spans="1:75" x14ac:dyDescent="0.15">
       <c r="C35" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -29371,556 +29371,556 @@
       <c r="A36" s="45" t="s">
         <v>605</v>
       </c>
-      <c r="C36" s="156" t="s">
+      <c r="C36" s="152" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="157"/>
-      <c r="E36" s="157"/>
+      <c r="D36" s="153"/>
+      <c r="E36" s="153"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
-      <c r="J36" s="164" t="s">
+      <c r="J36" s="159" t="s">
         <v>648</v>
       </c>
-      <c r="K36" s="158"/>
-      <c r="L36" s="158"/>
-      <c r="M36" s="158" t="s">
+      <c r="K36" s="160"/>
+      <c r="L36" s="160"/>
+      <c r="M36" s="160" t="s">
         <v>77</v>
       </c>
-      <c r="N36" s="164" t="s">
+      <c r="N36" s="159" t="s">
         <v>571</v>
       </c>
-      <c r="O36" s="158"/>
-      <c r="P36" s="158"/>
-      <c r="Q36" s="158" t="s">
-        <v>846</v>
-      </c>
-      <c r="R36" s="172" t="s">
-        <v>855</v>
-      </c>
-      <c r="S36" s="173"/>
-      <c r="T36" s="158" t="s">
+      <c r="O36" s="160"/>
+      <c r="P36" s="160"/>
+      <c r="Q36" s="160" t="s">
+        <v>844</v>
+      </c>
+      <c r="R36" s="162" t="s">
+        <v>853</v>
+      </c>
+      <c r="S36" s="163"/>
+      <c r="T36" s="160" t="s">
         <v>77</v>
       </c>
-      <c r="U36" s="164" t="s">
+      <c r="U36" s="159" t="s">
         <v>115</v>
       </c>
-      <c r="V36" s="158"/>
-      <c r="W36" s="158"/>
-      <c r="X36" s="158" t="s">
+      <c r="V36" s="160"/>
+      <c r="W36" s="160"/>
+      <c r="X36" s="160" t="s">
         <v>77</v>
       </c>
-      <c r="Y36" s="158" t="s">
+      <c r="Y36" s="160" t="s">
         <v>517</v>
       </c>
-      <c r="Z36" s="158"/>
-      <c r="AA36" s="158"/>
-      <c r="AB36" s="158" t="s">
+      <c r="Z36" s="160"/>
+      <c r="AA36" s="160"/>
+      <c r="AB36" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="AC36" s="158" t="s">
-        <v>904</v>
-      </c>
-      <c r="AD36" s="158"/>
-      <c r="AE36" s="158"/>
-      <c r="AF36" s="166" t="s">
+      <c r="AC36" s="160" t="s">
+        <v>902</v>
+      </c>
+      <c r="AD36" s="160"/>
+      <c r="AE36" s="160"/>
+      <c r="AF36" s="155" t="s">
         <v>77</v>
       </c>
-      <c r="AG36" s="166" t="s">
+      <c r="AG36" s="155" t="s">
         <v>679</v>
       </c>
-      <c r="AH36" s="166"/>
-      <c r="AI36" s="166"/>
-      <c r="AJ36" s="155" t="s">
+      <c r="AH36" s="155"/>
+      <c r="AI36" s="155"/>
+      <c r="AJ36" s="156" t="s">
         <v>77</v>
       </c>
       <c r="AK36" s="169" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="AL36" s="170"/>
       <c r="AM36" s="170"/>
-      <c r="AN36" s="155" t="s">
+      <c r="AN36" s="156" t="s">
         <v>77</v>
       </c>
-      <c r="AO36" s="160" t="s">
+      <c r="AO36" s="172" t="s">
         <v>652</v>
       </c>
-      <c r="AP36" s="155"/>
-      <c r="AQ36" s="155"/>
-      <c r="AR36" s="155" t="s">
+      <c r="AP36" s="156"/>
+      <c r="AQ36" s="156"/>
+      <c r="AR36" s="156" t="s">
         <v>94</v>
       </c>
-      <c r="AS36" s="155">
+      <c r="AS36" s="156">
         <v>1</v>
       </c>
-      <c r="AT36" s="155"/>
-      <c r="AU36" s="155"/>
-      <c r="AV36" s="155" t="s">
+      <c r="AT36" s="156"/>
+      <c r="AU36" s="156"/>
+      <c r="AV36" s="156" t="s">
         <v>95</v>
       </c>
-      <c r="AW36" s="155" t="s">
+      <c r="AW36" s="156" t="s">
         <v>516</v>
       </c>
-      <c r="AX36" s="155"/>
-      <c r="AY36" s="155"/>
-      <c r="AZ36" s="155" t="s">
+      <c r="AX36" s="156"/>
+      <c r="AY36" s="156"/>
+      <c r="AZ36" s="156" t="s">
         <v>142</v>
       </c>
-      <c r="BA36" s="155" t="s">
+      <c r="BA36" s="156" t="s">
         <v>515</v>
       </c>
-      <c r="BB36" s="155"/>
-      <c r="BC36" s="155"/>
-      <c r="BD36" s="155" t="s">
+      <c r="BB36" s="156"/>
+      <c r="BC36" s="156"/>
+      <c r="BD36" s="156" t="s">
         <v>147</v>
       </c>
-      <c r="BE36" s="155" t="s">
+      <c r="BE36" s="156" t="s">
         <v>514</v>
       </c>
-      <c r="BF36" s="155"/>
-      <c r="BG36" s="155"/>
-      <c r="BH36" s="155" t="s">
+      <c r="BF36" s="156"/>
+      <c r="BG36" s="156"/>
+      <c r="BH36" s="156" t="s">
         <v>208</v>
       </c>
-      <c r="BI36" s="155" t="s">
+      <c r="BI36" s="156" t="s">
         <v>513</v>
       </c>
-      <c r="BJ36" s="155"/>
-      <c r="BK36" s="155"/>
-      <c r="BL36" s="171" t="s">
+      <c r="BJ36" s="156"/>
+      <c r="BK36" s="156"/>
+      <c r="BL36" s="166" t="s">
         <v>101</v>
       </c>
-      <c r="BM36" s="171" t="s">
+      <c r="BM36" s="166" t="s">
         <v>512</v>
       </c>
-      <c r="BN36" s="171"/>
-      <c r="BO36" s="171"/>
-      <c r="BP36" s="152" t="s">
-        <v>751</v>
-      </c>
-      <c r="BQ36" s="152" t="s">
-        <v>757</v>
-      </c>
-      <c r="BR36" s="152"/>
-      <c r="BS36" s="152"/>
-      <c r="BT36" s="154" t="s">
-        <v>853</v>
-      </c>
-      <c r="BU36" s="154" t="s">
-        <v>889</v>
-      </c>
-      <c r="BV36" s="154"/>
-      <c r="BW36" s="154"/>
+      <c r="BN36" s="166"/>
+      <c r="BO36" s="166"/>
+      <c r="BP36" s="165" t="s">
+        <v>750</v>
+      </c>
+      <c r="BQ36" s="165" t="s">
+        <v>756</v>
+      </c>
+      <c r="BR36" s="165"/>
+      <c r="BS36" s="165"/>
+      <c r="BT36" s="171" t="s">
+        <v>851</v>
+      </c>
+      <c r="BU36" s="171" t="s">
+        <v>887</v>
+      </c>
+      <c r="BV36" s="171"/>
+      <c r="BW36" s="171"/>
     </row>
     <row r="37" spans="1:75" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
-      <c r="C37" s="157"/>
-      <c r="D37" s="157"/>
-      <c r="E37" s="157"/>
+      <c r="C37" s="153"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="153"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="158"/>
-      <c r="K37" s="158"/>
-      <c r="L37" s="158"/>
-      <c r="M37" s="158"/>
-      <c r="N37" s="158"/>
-      <c r="O37" s="158"/>
-      <c r="P37" s="158"/>
-      <c r="Q37" s="158"/>
-      <c r="R37" s="173"/>
-      <c r="S37" s="173"/>
-      <c r="T37" s="158"/>
-      <c r="U37" s="158"/>
-      <c r="V37" s="158"/>
-      <c r="W37" s="158"/>
-      <c r="X37" s="158"/>
-      <c r="Y37" s="158"/>
-      <c r="Z37" s="158"/>
-      <c r="AA37" s="158"/>
-      <c r="AB37" s="158"/>
-      <c r="AC37" s="158"/>
-      <c r="AD37" s="158"/>
-      <c r="AE37" s="158"/>
-      <c r="AF37" s="166"/>
-      <c r="AG37" s="166"/>
-      <c r="AH37" s="166"/>
-      <c r="AI37" s="166"/>
-      <c r="AJ37" s="155"/>
+      <c r="J37" s="160"/>
+      <c r="K37" s="160"/>
+      <c r="L37" s="160"/>
+      <c r="M37" s="160"/>
+      <c r="N37" s="160"/>
+      <c r="O37" s="160"/>
+      <c r="P37" s="160"/>
+      <c r="Q37" s="160"/>
+      <c r="R37" s="163"/>
+      <c r="S37" s="163"/>
+      <c r="T37" s="160"/>
+      <c r="U37" s="160"/>
+      <c r="V37" s="160"/>
+      <c r="W37" s="160"/>
+      <c r="X37" s="160"/>
+      <c r="Y37" s="160"/>
+      <c r="Z37" s="160"/>
+      <c r="AA37" s="160"/>
+      <c r="AB37" s="160"/>
+      <c r="AC37" s="160"/>
+      <c r="AD37" s="160"/>
+      <c r="AE37" s="160"/>
+      <c r="AF37" s="155"/>
+      <c r="AG37" s="155"/>
+      <c r="AH37" s="155"/>
+      <c r="AI37" s="155"/>
+      <c r="AJ37" s="156"/>
       <c r="AK37" s="170"/>
       <c r="AL37" s="170"/>
       <c r="AM37" s="170"/>
-      <c r="AN37" s="155"/>
-      <c r="AO37" s="155"/>
-      <c r="AP37" s="155"/>
-      <c r="AQ37" s="155"/>
-      <c r="AR37" s="155"/>
-      <c r="AS37" s="155"/>
-      <c r="AT37" s="155"/>
-      <c r="AU37" s="155"/>
-      <c r="AV37" s="155"/>
-      <c r="AW37" s="155"/>
-      <c r="AX37" s="155"/>
-      <c r="AY37" s="155"/>
-      <c r="AZ37" s="155"/>
-      <c r="BA37" s="155"/>
-      <c r="BB37" s="155"/>
-      <c r="BC37" s="155"/>
-      <c r="BD37" s="155"/>
-      <c r="BE37" s="155"/>
-      <c r="BF37" s="155"/>
-      <c r="BG37" s="155"/>
-      <c r="BH37" s="155"/>
-      <c r="BI37" s="155"/>
-      <c r="BJ37" s="155"/>
-      <c r="BK37" s="155"/>
-      <c r="BL37" s="171"/>
-      <c r="BM37" s="171"/>
-      <c r="BN37" s="171"/>
-      <c r="BO37" s="171"/>
-      <c r="BP37" s="152"/>
-      <c r="BQ37" s="152"/>
-      <c r="BR37" s="152"/>
-      <c r="BS37" s="152"/>
-      <c r="BT37" s="154"/>
-      <c r="BU37" s="154"/>
-      <c r="BV37" s="154"/>
-      <c r="BW37" s="154"/>
+      <c r="AN37" s="156"/>
+      <c r="AO37" s="156"/>
+      <c r="AP37" s="156"/>
+      <c r="AQ37" s="156"/>
+      <c r="AR37" s="156"/>
+      <c r="AS37" s="156"/>
+      <c r="AT37" s="156"/>
+      <c r="AU37" s="156"/>
+      <c r="AV37" s="156"/>
+      <c r="AW37" s="156"/>
+      <c r="AX37" s="156"/>
+      <c r="AY37" s="156"/>
+      <c r="AZ37" s="156"/>
+      <c r="BA37" s="156"/>
+      <c r="BB37" s="156"/>
+      <c r="BC37" s="156"/>
+      <c r="BD37" s="156"/>
+      <c r="BE37" s="156"/>
+      <c r="BF37" s="156"/>
+      <c r="BG37" s="156"/>
+      <c r="BH37" s="156"/>
+      <c r="BI37" s="156"/>
+      <c r="BJ37" s="156"/>
+      <c r="BK37" s="156"/>
+      <c r="BL37" s="166"/>
+      <c r="BM37" s="166"/>
+      <c r="BN37" s="166"/>
+      <c r="BO37" s="166"/>
+      <c r="BP37" s="165"/>
+      <c r="BQ37" s="165"/>
+      <c r="BR37" s="165"/>
+      <c r="BS37" s="165"/>
+      <c r="BT37" s="171"/>
+      <c r="BU37" s="171"/>
+      <c r="BV37" s="171"/>
+      <c r="BW37" s="171"/>
     </row>
     <row r="38" spans="1:75" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
         <v>642</v>
       </c>
-      <c r="C38" s="157"/>
-      <c r="D38" s="157"/>
-      <c r="E38" s="157"/>
+      <c r="C38" s="153"/>
+      <c r="D38" s="153"/>
+      <c r="E38" s="153"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
-      <c r="J38" s="158"/>
-      <c r="K38" s="158"/>
-      <c r="L38" s="158"/>
-      <c r="M38" s="158"/>
-      <c r="N38" s="158"/>
-      <c r="O38" s="158"/>
-      <c r="P38" s="158"/>
-      <c r="Q38" s="158"/>
-      <c r="R38" s="173"/>
-      <c r="S38" s="173"/>
-      <c r="T38" s="158"/>
-      <c r="U38" s="158"/>
-      <c r="V38" s="158"/>
-      <c r="W38" s="158"/>
-      <c r="X38" s="158"/>
-      <c r="Y38" s="158"/>
-      <c r="Z38" s="158"/>
-      <c r="AA38" s="158"/>
-      <c r="AB38" s="158"/>
-      <c r="AC38" s="158"/>
-      <c r="AD38" s="158"/>
-      <c r="AE38" s="158"/>
-      <c r="AF38" s="166"/>
-      <c r="AG38" s="166"/>
-      <c r="AH38" s="166"/>
-      <c r="AI38" s="166"/>
-      <c r="AJ38" s="155"/>
+      <c r="J38" s="160"/>
+      <c r="K38" s="160"/>
+      <c r="L38" s="160"/>
+      <c r="M38" s="160"/>
+      <c r="N38" s="160"/>
+      <c r="O38" s="160"/>
+      <c r="P38" s="160"/>
+      <c r="Q38" s="160"/>
+      <c r="R38" s="163"/>
+      <c r="S38" s="163"/>
+      <c r="T38" s="160"/>
+      <c r="U38" s="160"/>
+      <c r="V38" s="160"/>
+      <c r="W38" s="160"/>
+      <c r="X38" s="160"/>
+      <c r="Y38" s="160"/>
+      <c r="Z38" s="160"/>
+      <c r="AA38" s="160"/>
+      <c r="AB38" s="160"/>
+      <c r="AC38" s="160"/>
+      <c r="AD38" s="160"/>
+      <c r="AE38" s="160"/>
+      <c r="AF38" s="155"/>
+      <c r="AG38" s="155"/>
+      <c r="AH38" s="155"/>
+      <c r="AI38" s="155"/>
+      <c r="AJ38" s="156"/>
       <c r="AK38" s="170"/>
       <c r="AL38" s="170"/>
       <c r="AM38" s="170"/>
-      <c r="AN38" s="155"/>
-      <c r="AO38" s="155"/>
-      <c r="AP38" s="155"/>
-      <c r="AQ38" s="155"/>
-      <c r="AR38" s="155"/>
-      <c r="AS38" s="155"/>
-      <c r="AT38" s="155"/>
-      <c r="AU38" s="155"/>
-      <c r="AV38" s="155"/>
-      <c r="AW38" s="155"/>
-      <c r="AX38" s="155"/>
-      <c r="AY38" s="155"/>
-      <c r="AZ38" s="155"/>
-      <c r="BA38" s="155"/>
-      <c r="BB38" s="155"/>
-      <c r="BC38" s="155"/>
-      <c r="BD38" s="155"/>
-      <c r="BE38" s="155"/>
-      <c r="BF38" s="155"/>
-      <c r="BG38" s="155"/>
-      <c r="BH38" s="155"/>
-      <c r="BI38" s="155"/>
-      <c r="BJ38" s="155"/>
-      <c r="BK38" s="155"/>
-      <c r="BL38" s="171"/>
-      <c r="BM38" s="171"/>
-      <c r="BN38" s="171"/>
-      <c r="BO38" s="171"/>
-      <c r="BP38" s="152"/>
-      <c r="BQ38" s="152"/>
-      <c r="BR38" s="152"/>
-      <c r="BS38" s="152"/>
-      <c r="BT38" s="154"/>
-      <c r="BU38" s="154"/>
-      <c r="BV38" s="154"/>
-      <c r="BW38" s="154"/>
+      <c r="AN38" s="156"/>
+      <c r="AO38" s="156"/>
+      <c r="AP38" s="156"/>
+      <c r="AQ38" s="156"/>
+      <c r="AR38" s="156"/>
+      <c r="AS38" s="156"/>
+      <c r="AT38" s="156"/>
+      <c r="AU38" s="156"/>
+      <c r="AV38" s="156"/>
+      <c r="AW38" s="156"/>
+      <c r="AX38" s="156"/>
+      <c r="AY38" s="156"/>
+      <c r="AZ38" s="156"/>
+      <c r="BA38" s="156"/>
+      <c r="BB38" s="156"/>
+      <c r="BC38" s="156"/>
+      <c r="BD38" s="156"/>
+      <c r="BE38" s="156"/>
+      <c r="BF38" s="156"/>
+      <c r="BG38" s="156"/>
+      <c r="BH38" s="156"/>
+      <c r="BI38" s="156"/>
+      <c r="BJ38" s="156"/>
+      <c r="BK38" s="156"/>
+      <c r="BL38" s="166"/>
+      <c r="BM38" s="166"/>
+      <c r="BN38" s="166"/>
+      <c r="BO38" s="166"/>
+      <c r="BP38" s="165"/>
+      <c r="BQ38" s="165"/>
+      <c r="BR38" s="165"/>
+      <c r="BS38" s="165"/>
+      <c r="BT38" s="171"/>
+      <c r="BU38" s="171"/>
+      <c r="BV38" s="171"/>
+      <c r="BW38" s="171"/>
     </row>
     <row r="39" spans="1:75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C39" s="157"/>
-      <c r="D39" s="157"/>
-      <c r="E39" s="157"/>
+      <c r="C39" s="153"/>
+      <c r="D39" s="153"/>
+      <c r="E39" s="153"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="158"/>
-      <c r="K39" s="158"/>
-      <c r="L39" s="158"/>
-      <c r="M39" s="158"/>
-      <c r="N39" s="158"/>
-      <c r="O39" s="158"/>
-      <c r="P39" s="158"/>
-      <c r="Q39" s="158"/>
-      <c r="R39" s="173"/>
-      <c r="S39" s="173"/>
-      <c r="T39" s="158"/>
-      <c r="U39" s="158"/>
-      <c r="V39" s="158"/>
-      <c r="W39" s="158"/>
-      <c r="X39" s="158"/>
-      <c r="Y39" s="158"/>
-      <c r="Z39" s="158"/>
-      <c r="AA39" s="158"/>
-      <c r="AB39" s="158"/>
-      <c r="AC39" s="158"/>
-      <c r="AD39" s="158"/>
-      <c r="AE39" s="158"/>
-      <c r="AF39" s="166"/>
-      <c r="AG39" s="166"/>
-      <c r="AH39" s="166"/>
-      <c r="AI39" s="166"/>
-      <c r="AJ39" s="155"/>
+      <c r="J39" s="160"/>
+      <c r="K39" s="160"/>
+      <c r="L39" s="160"/>
+      <c r="M39" s="160"/>
+      <c r="N39" s="160"/>
+      <c r="O39" s="160"/>
+      <c r="P39" s="160"/>
+      <c r="Q39" s="160"/>
+      <c r="R39" s="163"/>
+      <c r="S39" s="163"/>
+      <c r="T39" s="160"/>
+      <c r="U39" s="160"/>
+      <c r="V39" s="160"/>
+      <c r="W39" s="160"/>
+      <c r="X39" s="160"/>
+      <c r="Y39" s="160"/>
+      <c r="Z39" s="160"/>
+      <c r="AA39" s="160"/>
+      <c r="AB39" s="160"/>
+      <c r="AC39" s="160"/>
+      <c r="AD39" s="160"/>
+      <c r="AE39" s="160"/>
+      <c r="AF39" s="155"/>
+      <c r="AG39" s="155"/>
+      <c r="AH39" s="155"/>
+      <c r="AI39" s="155"/>
+      <c r="AJ39" s="156"/>
       <c r="AK39" s="170"/>
       <c r="AL39" s="170"/>
       <c r="AM39" s="170"/>
-      <c r="AN39" s="155"/>
-      <c r="AO39" s="155"/>
-      <c r="AP39" s="155"/>
-      <c r="AQ39" s="155"/>
-      <c r="AR39" s="155"/>
-      <c r="AS39" s="155"/>
-      <c r="AT39" s="155"/>
-      <c r="AU39" s="155"/>
-      <c r="AV39" s="155"/>
-      <c r="AW39" s="155"/>
-      <c r="AX39" s="155"/>
-      <c r="AY39" s="155"/>
-      <c r="AZ39" s="155"/>
-      <c r="BA39" s="155"/>
-      <c r="BB39" s="155"/>
-      <c r="BC39" s="155"/>
-      <c r="BD39" s="155"/>
-      <c r="BE39" s="155"/>
-      <c r="BF39" s="155"/>
-      <c r="BG39" s="155"/>
-      <c r="BH39" s="155"/>
-      <c r="BI39" s="155"/>
-      <c r="BJ39" s="155"/>
-      <c r="BK39" s="155"/>
-      <c r="BL39" s="171"/>
-      <c r="BM39" s="171"/>
-      <c r="BN39" s="171"/>
-      <c r="BO39" s="171"/>
-      <c r="BP39" s="152"/>
-      <c r="BQ39" s="152"/>
-      <c r="BR39" s="152"/>
-      <c r="BS39" s="152"/>
-      <c r="BT39" s="154"/>
-      <c r="BU39" s="154"/>
-      <c r="BV39" s="154"/>
-      <c r="BW39" s="154"/>
+      <c r="AN39" s="156"/>
+      <c r="AO39" s="156"/>
+      <c r="AP39" s="156"/>
+      <c r="AQ39" s="156"/>
+      <c r="AR39" s="156"/>
+      <c r="AS39" s="156"/>
+      <c r="AT39" s="156"/>
+      <c r="AU39" s="156"/>
+      <c r="AV39" s="156"/>
+      <c r="AW39" s="156"/>
+      <c r="AX39" s="156"/>
+      <c r="AY39" s="156"/>
+      <c r="AZ39" s="156"/>
+      <c r="BA39" s="156"/>
+      <c r="BB39" s="156"/>
+      <c r="BC39" s="156"/>
+      <c r="BD39" s="156"/>
+      <c r="BE39" s="156"/>
+      <c r="BF39" s="156"/>
+      <c r="BG39" s="156"/>
+      <c r="BH39" s="156"/>
+      <c r="BI39" s="156"/>
+      <c r="BJ39" s="156"/>
+      <c r="BK39" s="156"/>
+      <c r="BL39" s="166"/>
+      <c r="BM39" s="166"/>
+      <c r="BN39" s="166"/>
+      <c r="BO39" s="166"/>
+      <c r="BP39" s="165"/>
+      <c r="BQ39" s="165"/>
+      <c r="BR39" s="165"/>
+      <c r="BS39" s="165"/>
+      <c r="BT39" s="171"/>
+      <c r="BU39" s="171"/>
+      <c r="BV39" s="171"/>
+      <c r="BW39" s="171"/>
     </row>
     <row r="40" spans="1:75" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="158" t="s">
+      <c r="J40" s="160" t="s">
         <v>534</v>
       </c>
-      <c r="K40" s="158"/>
-      <c r="L40" s="158"/>
-      <c r="M40" s="158"/>
-      <c r="N40" s="158" t="s">
+      <c r="K40" s="160"/>
+      <c r="L40" s="160"/>
+      <c r="M40" s="160"/>
+      <c r="N40" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="O40" s="158"/>
-      <c r="P40" s="158"/>
-      <c r="Q40" s="158"/>
-      <c r="R40" s="173"/>
-      <c r="S40" s="173"/>
-      <c r="T40" s="158"/>
-      <c r="U40" s="165" t="s">
+      <c r="O40" s="160"/>
+      <c r="P40" s="160"/>
+      <c r="Q40" s="160"/>
+      <c r="R40" s="163"/>
+      <c r="S40" s="163"/>
+      <c r="T40" s="160"/>
+      <c r="U40" s="161" t="s">
         <v>106</v>
       </c>
-      <c r="V40" s="165"/>
-      <c r="W40" s="165"/>
-      <c r="X40" s="158"/>
-      <c r="Y40" s="158" t="s">
+      <c r="V40" s="161"/>
+      <c r="W40" s="161"/>
+      <c r="X40" s="160"/>
+      <c r="Y40" s="160" t="s">
         <v>99</v>
       </c>
-      <c r="Z40" s="158"/>
-      <c r="AA40" s="158"/>
-      <c r="AB40" s="158"/>
-      <c r="AC40" s="158" t="s">
+      <c r="Z40" s="160"/>
+      <c r="AA40" s="160"/>
+      <c r="AB40" s="160"/>
+      <c r="AC40" s="160" t="s">
         <v>100</v>
       </c>
-      <c r="AD40" s="158"/>
-      <c r="AE40" s="158"/>
-      <c r="AF40" s="166"/>
-      <c r="AG40" s="166" t="s">
+      <c r="AD40" s="160"/>
+      <c r="AE40" s="160"/>
+      <c r="AF40" s="155"/>
+      <c r="AG40" s="155" t="s">
         <v>80</v>
       </c>
-      <c r="AH40" s="166"/>
-      <c r="AI40" s="166"/>
-      <c r="AJ40" s="155"/>
+      <c r="AH40" s="155"/>
+      <c r="AI40" s="155"/>
+      <c r="AJ40" s="156"/>
       <c r="AK40" s="168" t="s">
         <v>96</v>
       </c>
       <c r="AL40" s="168"/>
       <c r="AM40" s="168"/>
-      <c r="AN40" s="155"/>
-      <c r="AO40" s="161" t="s">
+      <c r="AN40" s="156"/>
+      <c r="AO40" s="173" t="s">
         <v>102</v>
       </c>
-      <c r="AP40" s="162"/>
-      <c r="AQ40" s="162"/>
-      <c r="AR40" s="155"/>
-      <c r="AS40" s="163"/>
-      <c r="AT40" s="163"/>
-      <c r="AU40" s="163"/>
-      <c r="AV40" s="155"/>
-      <c r="AW40" s="163" t="s">
+      <c r="AP40" s="157"/>
+      <c r="AQ40" s="157"/>
+      <c r="AR40" s="156"/>
+      <c r="AS40" s="167"/>
+      <c r="AT40" s="167"/>
+      <c r="AU40" s="167"/>
+      <c r="AV40" s="156"/>
+      <c r="AW40" s="167" t="s">
         <v>98</v>
       </c>
-      <c r="AX40" s="163"/>
-      <c r="AY40" s="163"/>
-      <c r="AZ40" s="155"/>
-      <c r="BA40" s="155" t="s">
+      <c r="AX40" s="167"/>
+      <c r="AY40" s="167"/>
+      <c r="AZ40" s="156"/>
+      <c r="BA40" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="BB40" s="155"/>
-      <c r="BC40" s="155"/>
-      <c r="BD40" s="155"/>
-      <c r="BE40" s="155" t="s">
+      <c r="BB40" s="156"/>
+      <c r="BC40" s="156"/>
+      <c r="BD40" s="156"/>
+      <c r="BE40" s="156" t="s">
         <v>107</v>
       </c>
-      <c r="BF40" s="155"/>
-      <c r="BG40" s="155"/>
-      <c r="BH40" s="155"/>
-      <c r="BI40" s="162" t="s">
+      <c r="BF40" s="156"/>
+      <c r="BG40" s="156"/>
+      <c r="BH40" s="156"/>
+      <c r="BI40" s="157" t="s">
         <v>209</v>
       </c>
-      <c r="BJ40" s="162"/>
-      <c r="BK40" s="162"/>
-      <c r="BL40" s="171"/>
-      <c r="BM40" s="171"/>
-      <c r="BN40" s="171"/>
-      <c r="BO40" s="171"/>
-      <c r="BP40" s="152"/>
-      <c r="BQ40" s="152"/>
-      <c r="BR40" s="152"/>
-      <c r="BS40" s="152"/>
-      <c r="BT40" s="154"/>
-      <c r="BU40" s="154"/>
-      <c r="BV40" s="154"/>
-      <c r="BW40" s="154"/>
+      <c r="BJ40" s="157"/>
+      <c r="BK40" s="157"/>
+      <c r="BL40" s="166"/>
+      <c r="BM40" s="166"/>
+      <c r="BN40" s="166"/>
+      <c r="BO40" s="166"/>
+      <c r="BP40" s="165"/>
+      <c r="BQ40" s="165"/>
+      <c r="BR40" s="165"/>
+      <c r="BS40" s="165"/>
+      <c r="BT40" s="171"/>
+      <c r="BU40" s="171"/>
+      <c r="BV40" s="171"/>
+      <c r="BW40" s="171"/>
     </row>
     <row r="41" spans="1:75" x14ac:dyDescent="0.15">
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="167" t="s">
+      <c r="J41" s="154" t="s">
         <v>144</v>
       </c>
-      <c r="K41" s="167"/>
-      <c r="L41" s="167"/>
-      <c r="M41" s="167"/>
-      <c r="N41" s="167"/>
-      <c r="O41" s="167"/>
-      <c r="P41" s="167"/>
-      <c r="Q41" s="167"/>
-      <c r="R41" s="167"/>
-      <c r="S41" s="167"/>
-      <c r="T41" s="167"/>
-      <c r="U41" s="167"/>
-      <c r="V41" s="167"/>
-      <c r="W41" s="167"/>
-      <c r="X41" s="167"/>
-      <c r="Y41" s="167"/>
-      <c r="Z41" s="167"/>
-      <c r="AA41" s="167"/>
-      <c r="AB41" s="167"/>
-      <c r="AC41" s="167"/>
-      <c r="AD41" s="167"/>
-      <c r="AE41" s="167"/>
-      <c r="AF41" s="159" t="s">
+      <c r="K41" s="154"/>
+      <c r="L41" s="154"/>
+      <c r="M41" s="154"/>
+      <c r="N41" s="154"/>
+      <c r="O41" s="154"/>
+      <c r="P41" s="154"/>
+      <c r="Q41" s="154"/>
+      <c r="R41" s="154"/>
+      <c r="S41" s="154"/>
+      <c r="T41" s="154"/>
+      <c r="U41" s="154"/>
+      <c r="V41" s="154"/>
+      <c r="W41" s="154"/>
+      <c r="X41" s="154"/>
+      <c r="Y41" s="154"/>
+      <c r="Z41" s="154"/>
+      <c r="AA41" s="154"/>
+      <c r="AB41" s="154"/>
+      <c r="AC41" s="154"/>
+      <c r="AD41" s="154"/>
+      <c r="AE41" s="154"/>
+      <c r="AF41" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="AG41" s="159"/>
-      <c r="AH41" s="159"/>
-      <c r="AI41" s="159"/>
-      <c r="AJ41" s="162" t="s">
+      <c r="AG41" s="158"/>
+      <c r="AH41" s="158"/>
+      <c r="AI41" s="158"/>
+      <c r="AJ41" s="157" t="s">
         <v>143</v>
       </c>
-      <c r="AK41" s="162"/>
-      <c r="AL41" s="162"/>
-      <c r="AM41" s="162"/>
-      <c r="AN41" s="162"/>
-      <c r="AO41" s="162"/>
-      <c r="AP41" s="162"/>
-      <c r="AQ41" s="162"/>
-      <c r="AR41" s="162"/>
-      <c r="AS41" s="162"/>
-      <c r="AT41" s="162"/>
-      <c r="AU41" s="162"/>
-      <c r="AV41" s="162"/>
-      <c r="AW41" s="162"/>
-      <c r="AX41" s="162"/>
-      <c r="AY41" s="162"/>
-      <c r="AZ41" s="162"/>
-      <c r="BA41" s="162"/>
-      <c r="BB41" s="162"/>
-      <c r="BC41" s="162"/>
-      <c r="BD41" s="162"/>
-      <c r="BE41" s="162"/>
-      <c r="BF41" s="162"/>
-      <c r="BG41" s="162"/>
-      <c r="BH41" s="162"/>
-      <c r="BI41" s="162"/>
-      <c r="BJ41" s="162"/>
-      <c r="BK41" s="162"/>
-      <c r="BL41" s="171" t="s">
+      <c r="AK41" s="157"/>
+      <c r="AL41" s="157"/>
+      <c r="AM41" s="157"/>
+      <c r="AN41" s="157"/>
+      <c r="AO41" s="157"/>
+      <c r="AP41" s="157"/>
+      <c r="AQ41" s="157"/>
+      <c r="AR41" s="157"/>
+      <c r="AS41" s="157"/>
+      <c r="AT41" s="157"/>
+      <c r="AU41" s="157"/>
+      <c r="AV41" s="157"/>
+      <c r="AW41" s="157"/>
+      <c r="AX41" s="157"/>
+      <c r="AY41" s="157"/>
+      <c r="AZ41" s="157"/>
+      <c r="BA41" s="157"/>
+      <c r="BB41" s="157"/>
+      <c r="BC41" s="157"/>
+      <c r="BD41" s="157"/>
+      <c r="BE41" s="157"/>
+      <c r="BF41" s="157"/>
+      <c r="BG41" s="157"/>
+      <c r="BH41" s="157"/>
+      <c r="BI41" s="157"/>
+      <c r="BJ41" s="157"/>
+      <c r="BK41" s="157"/>
+      <c r="BL41" s="166" t="s">
         <v>434</v>
       </c>
-      <c r="BM41" s="171"/>
-      <c r="BN41" s="171"/>
-      <c r="BO41" s="171"/>
-      <c r="BP41" s="152" t="s">
-        <v>758</v>
-      </c>
-      <c r="BQ41" s="152"/>
-      <c r="BR41" s="152"/>
-      <c r="BS41" s="152"/>
-      <c r="BT41" s="154" t="s">
-        <v>856</v>
-      </c>
-      <c r="BU41" s="154"/>
-      <c r="BV41" s="154"/>
-      <c r="BW41" s="154"/>
+      <c r="BM41" s="166"/>
+      <c r="BN41" s="166"/>
+      <c r="BO41" s="166"/>
+      <c r="BP41" s="165" t="s">
+        <v>757</v>
+      </c>
+      <c r="BQ41" s="165"/>
+      <c r="BR41" s="165"/>
+      <c r="BS41" s="165"/>
+      <c r="BT41" s="171" t="s">
+        <v>854</v>
+      </c>
+      <c r="BU41" s="171"/>
+      <c r="BV41" s="171"/>
+      <c r="BW41" s="171"/>
     </row>
     <row r="42" spans="1:75" x14ac:dyDescent="0.15">
       <c r="J42" s="13"/>
@@ -30068,368 +30068,368 @@
       <c r="BR44" s="6"/>
     </row>
     <row r="45" spans="1:75" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C45" s="156" t="s">
+      <c r="C45" s="152" t="s">
         <v>110</v>
       </c>
-      <c r="D45" s="157"/>
-      <c r="E45" s="157"/>
+      <c r="D45" s="153"/>
+      <c r="E45" s="153"/>
       <c r="F45" s="91"/>
       <c r="G45" s="91"/>
       <c r="H45" s="91"/>
       <c r="I45" s="91"/>
-      <c r="J45" s="164" t="s">
+      <c r="J45" s="159" t="s">
         <v>648</v>
       </c>
-      <c r="K45" s="158"/>
-      <c r="L45" s="158"/>
-      <c r="M45" s="158" t="s">
+      <c r="K45" s="160"/>
+      <c r="L45" s="160"/>
+      <c r="M45" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="N45" s="164" t="s">
+      <c r="N45" s="159" t="s">
         <v>115</v>
       </c>
-      <c r="O45" s="164"/>
-      <c r="P45" s="164"/>
-      <c r="Q45" s="164"/>
-      <c r="R45" s="164"/>
-      <c r="S45" s="164"/>
-      <c r="T45" s="158" t="s">
+      <c r="O45" s="159"/>
+      <c r="P45" s="159"/>
+      <c r="Q45" s="159"/>
+      <c r="R45" s="159"/>
+      <c r="S45" s="159"/>
+      <c r="T45" s="160" t="s">
         <v>94</v>
       </c>
-      <c r="U45" s="158" t="s">
-        <v>893</v>
-      </c>
-      <c r="V45" s="158"/>
-      <c r="W45" s="158"/>
-      <c r="X45" s="158" t="s">
+      <c r="U45" s="160" t="s">
+        <v>891</v>
+      </c>
+      <c r="V45" s="160"/>
+      <c r="W45" s="160"/>
+      <c r="X45" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="Y45" s="167" t="s">
+      <c r="Y45" s="154" t="s">
         <v>518</v>
       </c>
-      <c r="Z45" s="167"/>
-      <c r="AA45" s="167"/>
-      <c r="AB45" s="166" t="s">
+      <c r="Z45" s="154"/>
+      <c r="AA45" s="154"/>
+      <c r="AB45" s="155" t="s">
         <v>111</v>
       </c>
-      <c r="AC45" s="166" t="s">
+      <c r="AC45" s="155" t="s">
         <v>519</v>
       </c>
-      <c r="AD45" s="166"/>
-      <c r="AE45" s="166"/>
-      <c r="AF45" s="155" t="s">
+      <c r="AD45" s="155"/>
+      <c r="AE45" s="155"/>
+      <c r="AF45" s="156" t="s">
         <v>77</v>
       </c>
-      <c r="AG45" s="155">
+      <c r="AG45" s="156">
         <v>1</v>
       </c>
-      <c r="AH45" s="155"/>
-      <c r="AI45" s="155"/>
-      <c r="AJ45" s="155" t="s">
+      <c r="AH45" s="156"/>
+      <c r="AI45" s="156"/>
+      <c r="AJ45" s="156" t="s">
         <v>95</v>
       </c>
-      <c r="AK45" s="155" t="s">
+      <c r="AK45" s="156" t="s">
         <v>520</v>
       </c>
-      <c r="AL45" s="155"/>
-      <c r="AM45" s="155"/>
-      <c r="AN45" s="155" t="s">
+      <c r="AL45" s="156"/>
+      <c r="AM45" s="156"/>
+      <c r="AN45" s="156" t="s">
         <v>147</v>
       </c>
-      <c r="AO45" s="155" t="s">
+      <c r="AO45" s="156" t="s">
         <v>516</v>
       </c>
-      <c r="AP45" s="155"/>
-      <c r="AQ45" s="155"/>
-      <c r="AR45" s="155" t="s">
+      <c r="AP45" s="156"/>
+      <c r="AQ45" s="156"/>
+      <c r="AR45" s="156" t="s">
         <v>95</v>
       </c>
-      <c r="AS45" s="155" t="s">
+      <c r="AS45" s="156" t="s">
         <v>514</v>
       </c>
-      <c r="AT45" s="155"/>
-      <c r="AU45" s="155"/>
-      <c r="AV45" s="155" t="s">
+      <c r="AT45" s="156"/>
+      <c r="AU45" s="156"/>
+      <c r="AV45" s="156" t="s">
         <v>95</v>
       </c>
-      <c r="AW45" s="155" t="s">
+      <c r="AW45" s="156" t="s">
         <v>511</v>
       </c>
-      <c r="AX45" s="155"/>
-      <c r="AY45" s="155"/>
+      <c r="AX45" s="156"/>
+      <c r="AY45" s="156"/>
     </row>
     <row r="46" spans="1:75" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C46" s="157"/>
-      <c r="D46" s="157"/>
-      <c r="E46" s="157"/>
+      <c r="C46" s="153"/>
+      <c r="D46" s="153"/>
+      <c r="E46" s="153"/>
       <c r="F46" s="91"/>
       <c r="G46" s="91"/>
       <c r="H46" s="91"/>
       <c r="I46" s="91"/>
-      <c r="J46" s="158"/>
-      <c r="K46" s="158"/>
-      <c r="L46" s="158"/>
-      <c r="M46" s="158"/>
-      <c r="N46" s="164"/>
-      <c r="O46" s="164"/>
-      <c r="P46" s="164"/>
-      <c r="Q46" s="164"/>
-      <c r="R46" s="164"/>
-      <c r="S46" s="164"/>
-      <c r="T46" s="158"/>
-      <c r="U46" s="158"/>
-      <c r="V46" s="158"/>
-      <c r="W46" s="158"/>
-      <c r="X46" s="158"/>
-      <c r="Y46" s="167"/>
-      <c r="Z46" s="167"/>
-      <c r="AA46" s="167"/>
-      <c r="AB46" s="166"/>
-      <c r="AC46" s="166"/>
-      <c r="AD46" s="166"/>
-      <c r="AE46" s="166"/>
-      <c r="AF46" s="155"/>
-      <c r="AG46" s="155"/>
-      <c r="AH46" s="155"/>
-      <c r="AI46" s="155"/>
-      <c r="AJ46" s="155"/>
-      <c r="AK46" s="155"/>
-      <c r="AL46" s="155"/>
-      <c r="AM46" s="155"/>
-      <c r="AN46" s="155"/>
-      <c r="AO46" s="155"/>
-      <c r="AP46" s="155"/>
-      <c r="AQ46" s="155"/>
-      <c r="AR46" s="155"/>
-      <c r="AS46" s="155"/>
-      <c r="AT46" s="155"/>
-      <c r="AU46" s="155"/>
-      <c r="AV46" s="155"/>
-      <c r="AW46" s="155"/>
-      <c r="AX46" s="155"/>
-      <c r="AY46" s="155"/>
+      <c r="J46" s="160"/>
+      <c r="K46" s="160"/>
+      <c r="L46" s="160"/>
+      <c r="M46" s="160"/>
+      <c r="N46" s="159"/>
+      <c r="O46" s="159"/>
+      <c r="P46" s="159"/>
+      <c r="Q46" s="159"/>
+      <c r="R46" s="159"/>
+      <c r="S46" s="159"/>
+      <c r="T46" s="160"/>
+      <c r="U46" s="160"/>
+      <c r="V46" s="160"/>
+      <c r="W46" s="160"/>
+      <c r="X46" s="160"/>
+      <c r="Y46" s="154"/>
+      <c r="Z46" s="154"/>
+      <c r="AA46" s="154"/>
+      <c r="AB46" s="155"/>
+      <c r="AC46" s="155"/>
+      <c r="AD46" s="155"/>
+      <c r="AE46" s="155"/>
+      <c r="AF46" s="156"/>
+      <c r="AG46" s="156"/>
+      <c r="AH46" s="156"/>
+      <c r="AI46" s="156"/>
+      <c r="AJ46" s="156"/>
+      <c r="AK46" s="156"/>
+      <c r="AL46" s="156"/>
+      <c r="AM46" s="156"/>
+      <c r="AN46" s="156"/>
+      <c r="AO46" s="156"/>
+      <c r="AP46" s="156"/>
+      <c r="AQ46" s="156"/>
+      <c r="AR46" s="156"/>
+      <c r="AS46" s="156"/>
+      <c r="AT46" s="156"/>
+      <c r="AU46" s="156"/>
+      <c r="AV46" s="156"/>
+      <c r="AW46" s="156"/>
+      <c r="AX46" s="156"/>
+      <c r="AY46" s="156"/>
     </row>
     <row r="47" spans="1:75" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C47" s="157"/>
-      <c r="D47" s="157"/>
-      <c r="E47" s="157"/>
+      <c r="C47" s="153"/>
+      <c r="D47" s="153"/>
+      <c r="E47" s="153"/>
       <c r="F47" s="91"/>
       <c r="G47" s="91"/>
       <c r="H47" s="91"/>
       <c r="I47" s="91"/>
-      <c r="J47" s="158"/>
-      <c r="K47" s="158"/>
-      <c r="L47" s="158"/>
-      <c r="M47" s="158"/>
-      <c r="N47" s="164"/>
-      <c r="O47" s="164"/>
-      <c r="P47" s="164"/>
-      <c r="Q47" s="164"/>
-      <c r="R47" s="164"/>
-      <c r="S47" s="164"/>
-      <c r="T47" s="158"/>
-      <c r="U47" s="158"/>
-      <c r="V47" s="158"/>
-      <c r="W47" s="158"/>
-      <c r="X47" s="158"/>
-      <c r="Y47" s="167"/>
-      <c r="Z47" s="167"/>
-      <c r="AA47" s="167"/>
-      <c r="AB47" s="166"/>
-      <c r="AC47" s="166"/>
-      <c r="AD47" s="166"/>
-      <c r="AE47" s="166"/>
-      <c r="AF47" s="155"/>
-      <c r="AG47" s="155"/>
-      <c r="AH47" s="155"/>
-      <c r="AI47" s="155"/>
-      <c r="AJ47" s="155"/>
-      <c r="AK47" s="155"/>
-      <c r="AL47" s="155"/>
-      <c r="AM47" s="155"/>
-      <c r="AN47" s="155"/>
-      <c r="AO47" s="155"/>
-      <c r="AP47" s="155"/>
-      <c r="AQ47" s="155"/>
-      <c r="AR47" s="155"/>
-      <c r="AS47" s="155"/>
-      <c r="AT47" s="155"/>
-      <c r="AU47" s="155"/>
-      <c r="AV47" s="155"/>
-      <c r="AW47" s="155"/>
-      <c r="AX47" s="155"/>
-      <c r="AY47" s="155"/>
+      <c r="J47" s="160"/>
+      <c r="K47" s="160"/>
+      <c r="L47" s="160"/>
+      <c r="M47" s="160"/>
+      <c r="N47" s="159"/>
+      <c r="O47" s="159"/>
+      <c r="P47" s="159"/>
+      <c r="Q47" s="159"/>
+      <c r="R47" s="159"/>
+      <c r="S47" s="159"/>
+      <c r="T47" s="160"/>
+      <c r="U47" s="160"/>
+      <c r="V47" s="160"/>
+      <c r="W47" s="160"/>
+      <c r="X47" s="160"/>
+      <c r="Y47" s="154"/>
+      <c r="Z47" s="154"/>
+      <c r="AA47" s="154"/>
+      <c r="AB47" s="155"/>
+      <c r="AC47" s="155"/>
+      <c r="AD47" s="155"/>
+      <c r="AE47" s="155"/>
+      <c r="AF47" s="156"/>
+      <c r="AG47" s="156"/>
+      <c r="AH47" s="156"/>
+      <c r="AI47" s="156"/>
+      <c r="AJ47" s="156"/>
+      <c r="AK47" s="156"/>
+      <c r="AL47" s="156"/>
+      <c r="AM47" s="156"/>
+      <c r="AN47" s="156"/>
+      <c r="AO47" s="156"/>
+      <c r="AP47" s="156"/>
+      <c r="AQ47" s="156"/>
+      <c r="AR47" s="156"/>
+      <c r="AS47" s="156"/>
+      <c r="AT47" s="156"/>
+      <c r="AU47" s="156"/>
+      <c r="AV47" s="156"/>
+      <c r="AW47" s="156"/>
+      <c r="AX47" s="156"/>
+      <c r="AY47" s="156"/>
     </row>
     <row r="48" spans="1:75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C48" s="157"/>
-      <c r="D48" s="157"/>
-      <c r="E48" s="157"/>
+      <c r="C48" s="153"/>
+      <c r="D48" s="153"/>
+      <c r="E48" s="153"/>
       <c r="F48" s="91"/>
       <c r="G48" s="91"/>
       <c r="H48" s="91"/>
       <c r="I48" s="91"/>
-      <c r="J48" s="158"/>
-      <c r="K48" s="158"/>
-      <c r="L48" s="158"/>
-      <c r="M48" s="158"/>
-      <c r="N48" s="164"/>
-      <c r="O48" s="164"/>
-      <c r="P48" s="164"/>
-      <c r="Q48" s="164"/>
-      <c r="R48" s="164"/>
-      <c r="S48" s="164"/>
-      <c r="T48" s="158"/>
-      <c r="U48" s="158"/>
-      <c r="V48" s="158"/>
-      <c r="W48" s="158"/>
-      <c r="X48" s="158"/>
-      <c r="Y48" s="167"/>
-      <c r="Z48" s="167"/>
-      <c r="AA48" s="167"/>
-      <c r="AB48" s="166"/>
-      <c r="AC48" s="166"/>
-      <c r="AD48" s="166"/>
-      <c r="AE48" s="166"/>
-      <c r="AF48" s="155"/>
-      <c r="AG48" s="155"/>
-      <c r="AH48" s="155"/>
-      <c r="AI48" s="155"/>
-      <c r="AJ48" s="155"/>
-      <c r="AK48" s="155"/>
-      <c r="AL48" s="155"/>
-      <c r="AM48" s="155"/>
-      <c r="AN48" s="155"/>
-      <c r="AO48" s="155"/>
-      <c r="AP48" s="155"/>
-      <c r="AQ48" s="155"/>
-      <c r="AR48" s="155"/>
-      <c r="AS48" s="155"/>
-      <c r="AT48" s="155"/>
-      <c r="AU48" s="155"/>
-      <c r="AV48" s="155"/>
-      <c r="AW48" s="155"/>
-      <c r="AX48" s="155"/>
-      <c r="AY48" s="155"/>
+      <c r="J48" s="160"/>
+      <c r="K48" s="160"/>
+      <c r="L48" s="160"/>
+      <c r="M48" s="160"/>
+      <c r="N48" s="159"/>
+      <c r="O48" s="159"/>
+      <c r="P48" s="159"/>
+      <c r="Q48" s="159"/>
+      <c r="R48" s="159"/>
+      <c r="S48" s="159"/>
+      <c r="T48" s="160"/>
+      <c r="U48" s="160"/>
+      <c r="V48" s="160"/>
+      <c r="W48" s="160"/>
+      <c r="X48" s="160"/>
+      <c r="Y48" s="154"/>
+      <c r="Z48" s="154"/>
+      <c r="AA48" s="154"/>
+      <c r="AB48" s="155"/>
+      <c r="AC48" s="155"/>
+      <c r="AD48" s="155"/>
+      <c r="AE48" s="155"/>
+      <c r="AF48" s="156"/>
+      <c r="AG48" s="156"/>
+      <c r="AH48" s="156"/>
+      <c r="AI48" s="156"/>
+      <c r="AJ48" s="156"/>
+      <c r="AK48" s="156"/>
+      <c r="AL48" s="156"/>
+      <c r="AM48" s="156"/>
+      <c r="AN48" s="156"/>
+      <c r="AO48" s="156"/>
+      <c r="AP48" s="156"/>
+      <c r="AQ48" s="156"/>
+      <c r="AR48" s="156"/>
+      <c r="AS48" s="156"/>
+      <c r="AT48" s="156"/>
+      <c r="AU48" s="156"/>
+      <c r="AV48" s="156"/>
+      <c r="AW48" s="156"/>
+      <c r="AX48" s="156"/>
+      <c r="AY48" s="156"/>
     </row>
     <row r="49" spans="3:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
-      <c r="J49" s="158" t="s">
+      <c r="J49" s="160" t="s">
         <v>534</v>
       </c>
-      <c r="K49" s="158"/>
-      <c r="L49" s="158"/>
-      <c r="M49" s="158"/>
-      <c r="N49" s="165" t="s">
+      <c r="K49" s="160"/>
+      <c r="L49" s="160"/>
+      <c r="M49" s="160"/>
+      <c r="N49" s="161" t="s">
         <v>106</v>
       </c>
-      <c r="O49" s="165"/>
-      <c r="P49" s="165"/>
+      <c r="O49" s="161"/>
+      <c r="P49" s="161"/>
       <c r="Q49" s="88"/>
       <c r="R49" s="88"/>
       <c r="S49" s="88"/>
-      <c r="T49" s="158"/>
-      <c r="U49" s="158" t="s">
+      <c r="T49" s="160"/>
+      <c r="U49" s="160" t="s">
         <v>99</v>
       </c>
-      <c r="V49" s="158"/>
-      <c r="W49" s="158"/>
-      <c r="X49" s="158"/>
-      <c r="Y49" s="167" t="s">
+      <c r="V49" s="160"/>
+      <c r="W49" s="160"/>
+      <c r="X49" s="160"/>
+      <c r="Y49" s="154" t="s">
         <v>114</v>
       </c>
-      <c r="Z49" s="167"/>
-      <c r="AA49" s="167"/>
-      <c r="AB49" s="166"/>
-      <c r="AC49" s="166" t="s">
+      <c r="Z49" s="154"/>
+      <c r="AA49" s="154"/>
+      <c r="AB49" s="155"/>
+      <c r="AC49" s="155" t="s">
         <v>112</v>
       </c>
-      <c r="AD49" s="166"/>
-      <c r="AE49" s="166"/>
-      <c r="AF49" s="155"/>
-      <c r="AG49" s="155"/>
-      <c r="AH49" s="155"/>
-      <c r="AI49" s="155"/>
-      <c r="AJ49" s="155"/>
-      <c r="AK49" s="155" t="s">
+      <c r="AD49" s="155"/>
+      <c r="AE49" s="155"/>
+      <c r="AF49" s="156"/>
+      <c r="AG49" s="156"/>
+      <c r="AH49" s="156"/>
+      <c r="AI49" s="156"/>
+      <c r="AJ49" s="156"/>
+      <c r="AK49" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="AL49" s="155"/>
-      <c r="AM49" s="155"/>
-      <c r="AN49" s="155"/>
-      <c r="AO49" s="155" t="s">
+      <c r="AL49" s="156"/>
+      <c r="AM49" s="156"/>
+      <c r="AN49" s="156"/>
+      <c r="AO49" s="156" t="s">
         <v>98</v>
       </c>
-      <c r="AP49" s="155"/>
-      <c r="AQ49" s="155"/>
-      <c r="AR49" s="155"/>
-      <c r="AS49" s="155" t="s">
+      <c r="AP49" s="156"/>
+      <c r="AQ49" s="156"/>
+      <c r="AR49" s="156"/>
+      <c r="AS49" s="156" t="s">
         <v>107</v>
       </c>
-      <c r="AT49" s="155"/>
-      <c r="AU49" s="155"/>
-      <c r="AV49" s="155"/>
-      <c r="AW49" s="162" t="s">
+      <c r="AT49" s="156"/>
+      <c r="AU49" s="156"/>
+      <c r="AV49" s="156"/>
+      <c r="AW49" s="157" t="s">
         <v>209</v>
       </c>
-      <c r="AX49" s="162"/>
-      <c r="AY49" s="162"/>
+      <c r="AX49" s="157"/>
+      <c r="AY49" s="157"/>
     </row>
     <row r="50" spans="3:61" x14ac:dyDescent="0.15">
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
-      <c r="J50" s="167" t="s">
+      <c r="J50" s="154" t="s">
         <v>144</v>
       </c>
-      <c r="K50" s="167"/>
-      <c r="L50" s="167"/>
-      <c r="M50" s="167"/>
-      <c r="N50" s="167"/>
-      <c r="O50" s="167"/>
-      <c r="P50" s="167"/>
-      <c r="Q50" s="167"/>
-      <c r="R50" s="167"/>
-      <c r="S50" s="167"/>
-      <c r="T50" s="167"/>
-      <c r="U50" s="167"/>
-      <c r="V50" s="167"/>
-      <c r="W50" s="167"/>
-      <c r="X50" s="167"/>
-      <c r="Y50" s="167"/>
-      <c r="Z50" s="167"/>
-      <c r="AA50" s="167"/>
-      <c r="AB50" s="159" t="s">
+      <c r="K50" s="154"/>
+      <c r="L50" s="154"/>
+      <c r="M50" s="154"/>
+      <c r="N50" s="154"/>
+      <c r="O50" s="154"/>
+      <c r="P50" s="154"/>
+      <c r="Q50" s="154"/>
+      <c r="R50" s="154"/>
+      <c r="S50" s="154"/>
+      <c r="T50" s="154"/>
+      <c r="U50" s="154"/>
+      <c r="V50" s="154"/>
+      <c r="W50" s="154"/>
+      <c r="X50" s="154"/>
+      <c r="Y50" s="154"/>
+      <c r="Z50" s="154"/>
+      <c r="AA50" s="154"/>
+      <c r="AB50" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="AC50" s="159"/>
-      <c r="AD50" s="159"/>
-      <c r="AE50" s="159"/>
-      <c r="AF50" s="162" t="s">
+      <c r="AC50" s="158"/>
+      <c r="AD50" s="158"/>
+      <c r="AE50" s="158"/>
+      <c r="AF50" s="157" t="s">
         <v>143</v>
       </c>
-      <c r="AG50" s="162"/>
-      <c r="AH50" s="162"/>
-      <c r="AI50" s="162"/>
-      <c r="AJ50" s="162"/>
-      <c r="AK50" s="162"/>
-      <c r="AL50" s="162"/>
-      <c r="AM50" s="162"/>
-      <c r="AN50" s="162"/>
-      <c r="AO50" s="162"/>
-      <c r="AP50" s="162"/>
-      <c r="AQ50" s="162"/>
-      <c r="AR50" s="162"/>
-      <c r="AS50" s="162"/>
-      <c r="AT50" s="162"/>
-      <c r="AU50" s="162"/>
-      <c r="AV50" s="162"/>
-      <c r="AW50" s="162"/>
-      <c r="AX50" s="162"/>
-      <c r="AY50" s="162"/>
+      <c r="AG50" s="157"/>
+      <c r="AH50" s="157"/>
+      <c r="AI50" s="157"/>
+      <c r="AJ50" s="157"/>
+      <c r="AK50" s="157"/>
+      <c r="AL50" s="157"/>
+      <c r="AM50" s="157"/>
+      <c r="AN50" s="157"/>
+      <c r="AO50" s="157"/>
+      <c r="AP50" s="157"/>
+      <c r="AQ50" s="157"/>
+      <c r="AR50" s="157"/>
+      <c r="AS50" s="157"/>
+      <c r="AT50" s="157"/>
+      <c r="AU50" s="157"/>
+      <c r="AV50" s="157"/>
+      <c r="AW50" s="157"/>
+      <c r="AX50" s="157"/>
+      <c r="AY50" s="157"/>
     </row>
     <row r="51" spans="3:61" x14ac:dyDescent="0.15">
       <c r="BD51" s="3"/>
@@ -30441,7 +30441,7 @@
     </row>
     <row r="52" spans="3:61" x14ac:dyDescent="0.15">
       <c r="C52" s="9" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="BD52" s="3"/>
       <c r="BE52" s="3"/>
@@ -30451,87 +30451,87 @@
       <c r="BI52" s="3"/>
     </row>
     <row r="53" spans="3:61" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C53" s="156" t="s">
-        <v>899</v>
-      </c>
-      <c r="D53" s="157"/>
-      <c r="E53" s="157"/>
-      <c r="F53" s="164" t="s">
+      <c r="C53" s="152" t="s">
+        <v>897</v>
+      </c>
+      <c r="D53" s="153"/>
+      <c r="E53" s="153"/>
+      <c r="F53" s="159" t="s">
         <v>115</v>
       </c>
-      <c r="G53" s="164"/>
-      <c r="H53" s="164"/>
-      <c r="I53" s="164"/>
-      <c r="J53" s="164"/>
-      <c r="K53" s="164"/>
-      <c r="L53" s="158" t="s">
+      <c r="G53" s="159"/>
+      <c r="H53" s="159"/>
+      <c r="I53" s="159"/>
+      <c r="J53" s="159"/>
+      <c r="K53" s="159"/>
+      <c r="L53" s="160" t="s">
         <v>94</v>
       </c>
-      <c r="M53" s="158" t="s">
-        <v>893</v>
-      </c>
-      <c r="N53" s="158"/>
-      <c r="O53" s="158"/>
-      <c r="P53" s="158"/>
-      <c r="Q53" s="167"/>
-      <c r="R53" s="167"/>
-      <c r="S53" s="167"/>
-      <c r="T53" s="166" t="s">
+      <c r="M53" s="160" t="s">
+        <v>891</v>
+      </c>
+      <c r="N53" s="160"/>
+      <c r="O53" s="160"/>
+      <c r="P53" s="160"/>
+      <c r="Q53" s="154"/>
+      <c r="R53" s="154"/>
+      <c r="S53" s="154"/>
+      <c r="T53" s="155" t="s">
         <v>111</v>
       </c>
-      <c r="U53" s="166" t="s">
-        <v>905</v>
-      </c>
-      <c r="V53" s="166"/>
-      <c r="W53" s="166"/>
-      <c r="X53" s="155" t="s">
+      <c r="U53" s="155" t="s">
+        <v>903</v>
+      </c>
+      <c r="V53" s="155"/>
+      <c r="W53" s="155"/>
+      <c r="X53" s="156" t="s">
         <v>77</v>
       </c>
-      <c r="Y53" s="155">
+      <c r="Y53" s="156">
         <v>1</v>
       </c>
-      <c r="Z53" s="155"/>
-      <c r="AA53" s="155"/>
-      <c r="AB53" s="155" t="s">
+      <c r="Z53" s="156"/>
+      <c r="AA53" s="156"/>
+      <c r="AB53" s="156" t="s">
         <v>95</v>
       </c>
-      <c r="AC53" s="155" t="s">
+      <c r="AC53" s="156" t="s">
         <v>520</v>
       </c>
-      <c r="AD53" s="155"/>
-      <c r="AE53" s="155"/>
-      <c r="AF53" s="155" t="s">
+      <c r="AD53" s="156"/>
+      <c r="AE53" s="156"/>
+      <c r="AF53" s="156" t="s">
         <v>147</v>
       </c>
-      <c r="AG53" s="155" t="s">
+      <c r="AG53" s="156" t="s">
         <v>516</v>
       </c>
-      <c r="AH53" s="155"/>
-      <c r="AI53" s="155"/>
-      <c r="AJ53" s="155" t="s">
+      <c r="AH53" s="156"/>
+      <c r="AI53" s="156"/>
+      <c r="AJ53" s="156" t="s">
         <v>95</v>
       </c>
-      <c r="AK53" s="155" t="s">
+      <c r="AK53" s="156" t="s">
         <v>514</v>
       </c>
-      <c r="AL53" s="155"/>
-      <c r="AM53" s="155"/>
-      <c r="AN53" s="155" t="s">
+      <c r="AL53" s="156"/>
+      <c r="AM53" s="156"/>
+      <c r="AN53" s="156" t="s">
         <v>95</v>
       </c>
-      <c r="AO53" s="155" t="s">
+      <c r="AO53" s="156" t="s">
         <v>511</v>
       </c>
-      <c r="AP53" s="155"/>
-      <c r="AQ53" s="155"/>
-      <c r="AR53" s="152" t="s">
+      <c r="AP53" s="156"/>
+      <c r="AQ53" s="156"/>
+      <c r="AR53" s="165" t="s">
         <v>95</v>
       </c>
-      <c r="AS53" s="152" t="s">
-        <v>902</v>
-      </c>
-      <c r="AT53" s="152"/>
-      <c r="AU53" s="152"/>
+      <c r="AS53" s="165" t="s">
+        <v>900</v>
+      </c>
+      <c r="AT53" s="165"/>
+      <c r="AU53" s="165"/>
       <c r="AV53" s="3"/>
       <c r="AW53" s="3"/>
       <c r="AX53" s="3"/>
@@ -30540,51 +30540,51 @@
       <c r="BA53" s="3"/>
     </row>
     <row r="54" spans="3:61" x14ac:dyDescent="0.15">
-      <c r="C54" s="157"/>
-      <c r="D54" s="157"/>
-      <c r="E54" s="157"/>
-      <c r="F54" s="164"/>
-      <c r="G54" s="164"/>
-      <c r="H54" s="164"/>
-      <c r="I54" s="164"/>
-      <c r="J54" s="164"/>
-      <c r="K54" s="164"/>
-      <c r="L54" s="158"/>
-      <c r="M54" s="158"/>
-      <c r="N54" s="158"/>
-      <c r="O54" s="158"/>
-      <c r="P54" s="158"/>
-      <c r="Q54" s="167"/>
-      <c r="R54" s="167"/>
-      <c r="S54" s="167"/>
-      <c r="T54" s="166"/>
-      <c r="U54" s="166"/>
-      <c r="V54" s="166"/>
-      <c r="W54" s="166"/>
-      <c r="X54" s="155"/>
-      <c r="Y54" s="155"/>
-      <c r="Z54" s="155"/>
-      <c r="AA54" s="155"/>
-      <c r="AB54" s="155"/>
-      <c r="AC54" s="155"/>
-      <c r="AD54" s="155"/>
-      <c r="AE54" s="155"/>
-      <c r="AF54" s="155"/>
-      <c r="AG54" s="155"/>
-      <c r="AH54" s="155"/>
-      <c r="AI54" s="155"/>
-      <c r="AJ54" s="155"/>
-      <c r="AK54" s="155"/>
-      <c r="AL54" s="155"/>
-      <c r="AM54" s="155"/>
-      <c r="AN54" s="155"/>
-      <c r="AO54" s="155"/>
-      <c r="AP54" s="155"/>
-      <c r="AQ54" s="155"/>
-      <c r="AR54" s="152"/>
-      <c r="AS54" s="152"/>
-      <c r="AT54" s="152"/>
-      <c r="AU54" s="152"/>
+      <c r="C54" s="153"/>
+      <c r="D54" s="153"/>
+      <c r="E54" s="153"/>
+      <c r="F54" s="159"/>
+      <c r="G54" s="159"/>
+      <c r="H54" s="159"/>
+      <c r="I54" s="159"/>
+      <c r="J54" s="159"/>
+      <c r="K54" s="159"/>
+      <c r="L54" s="160"/>
+      <c r="M54" s="160"/>
+      <c r="N54" s="160"/>
+      <c r="O54" s="160"/>
+      <c r="P54" s="160"/>
+      <c r="Q54" s="154"/>
+      <c r="R54" s="154"/>
+      <c r="S54" s="154"/>
+      <c r="T54" s="155"/>
+      <c r="U54" s="155"/>
+      <c r="V54" s="155"/>
+      <c r="W54" s="155"/>
+      <c r="X54" s="156"/>
+      <c r="Y54" s="156"/>
+      <c r="Z54" s="156"/>
+      <c r="AA54" s="156"/>
+      <c r="AB54" s="156"/>
+      <c r="AC54" s="156"/>
+      <c r="AD54" s="156"/>
+      <c r="AE54" s="156"/>
+      <c r="AF54" s="156"/>
+      <c r="AG54" s="156"/>
+      <c r="AH54" s="156"/>
+      <c r="AI54" s="156"/>
+      <c r="AJ54" s="156"/>
+      <c r="AK54" s="156"/>
+      <c r="AL54" s="156"/>
+      <c r="AM54" s="156"/>
+      <c r="AN54" s="156"/>
+      <c r="AO54" s="156"/>
+      <c r="AP54" s="156"/>
+      <c r="AQ54" s="156"/>
+      <c r="AR54" s="165"/>
+      <c r="AS54" s="165"/>
+      <c r="AT54" s="165"/>
+      <c r="AU54" s="165"/>
       <c r="AV54" s="3"/>
       <c r="AW54" s="3"/>
       <c r="AX54" s="3"/>
@@ -30593,51 +30593,51 @@
       <c r="BA54" s="3"/>
     </row>
     <row r="55" spans="3:61" x14ac:dyDescent="0.15">
-      <c r="C55" s="157"/>
-      <c r="D55" s="157"/>
-      <c r="E55" s="157"/>
-      <c r="F55" s="164"/>
-      <c r="G55" s="164"/>
-      <c r="H55" s="164"/>
-      <c r="I55" s="164"/>
-      <c r="J55" s="164"/>
-      <c r="K55" s="164"/>
-      <c r="L55" s="158"/>
-      <c r="M55" s="158"/>
-      <c r="N55" s="158"/>
-      <c r="O55" s="158"/>
-      <c r="P55" s="158"/>
-      <c r="Q55" s="167"/>
-      <c r="R55" s="167"/>
-      <c r="S55" s="167"/>
-      <c r="T55" s="166"/>
-      <c r="U55" s="166"/>
-      <c r="V55" s="166"/>
-      <c r="W55" s="166"/>
-      <c r="X55" s="155"/>
-      <c r="Y55" s="155"/>
-      <c r="Z55" s="155"/>
-      <c r="AA55" s="155"/>
-      <c r="AB55" s="155"/>
-      <c r="AC55" s="155"/>
-      <c r="AD55" s="155"/>
-      <c r="AE55" s="155"/>
-      <c r="AF55" s="155"/>
-      <c r="AG55" s="155"/>
-      <c r="AH55" s="155"/>
-      <c r="AI55" s="155"/>
-      <c r="AJ55" s="155"/>
-      <c r="AK55" s="155"/>
-      <c r="AL55" s="155"/>
-      <c r="AM55" s="155"/>
-      <c r="AN55" s="155"/>
-      <c r="AO55" s="155"/>
-      <c r="AP55" s="155"/>
-      <c r="AQ55" s="155"/>
-      <c r="AR55" s="152"/>
-      <c r="AS55" s="152"/>
-      <c r="AT55" s="152"/>
-      <c r="AU55" s="152"/>
+      <c r="C55" s="153"/>
+      <c r="D55" s="153"/>
+      <c r="E55" s="153"/>
+      <c r="F55" s="159"/>
+      <c r="G55" s="159"/>
+      <c r="H55" s="159"/>
+      <c r="I55" s="159"/>
+      <c r="J55" s="159"/>
+      <c r="K55" s="159"/>
+      <c r="L55" s="160"/>
+      <c r="M55" s="160"/>
+      <c r="N55" s="160"/>
+      <c r="O55" s="160"/>
+      <c r="P55" s="160"/>
+      <c r="Q55" s="154"/>
+      <c r="R55" s="154"/>
+      <c r="S55" s="154"/>
+      <c r="T55" s="155"/>
+      <c r="U55" s="155"/>
+      <c r="V55" s="155"/>
+      <c r="W55" s="155"/>
+      <c r="X55" s="156"/>
+      <c r="Y55" s="156"/>
+      <c r="Z55" s="156"/>
+      <c r="AA55" s="156"/>
+      <c r="AB55" s="156"/>
+      <c r="AC55" s="156"/>
+      <c r="AD55" s="156"/>
+      <c r="AE55" s="156"/>
+      <c r="AF55" s="156"/>
+      <c r="AG55" s="156"/>
+      <c r="AH55" s="156"/>
+      <c r="AI55" s="156"/>
+      <c r="AJ55" s="156"/>
+      <c r="AK55" s="156"/>
+      <c r="AL55" s="156"/>
+      <c r="AM55" s="156"/>
+      <c r="AN55" s="156"/>
+      <c r="AO55" s="156"/>
+      <c r="AP55" s="156"/>
+      <c r="AQ55" s="156"/>
+      <c r="AR55" s="165"/>
+      <c r="AS55" s="165"/>
+      <c r="AT55" s="165"/>
+      <c r="AU55" s="165"/>
       <c r="AV55" s="3"/>
       <c r="AW55" s="3"/>
       <c r="AX55" s="3"/>
@@ -30646,51 +30646,51 @@
       <c r="BA55" s="3"/>
     </row>
     <row r="56" spans="3:61" x14ac:dyDescent="0.15">
-      <c r="C56" s="157"/>
-      <c r="D56" s="157"/>
-      <c r="E56" s="157"/>
-      <c r="F56" s="164"/>
-      <c r="G56" s="164"/>
-      <c r="H56" s="164"/>
-      <c r="I56" s="164"/>
-      <c r="J56" s="164"/>
-      <c r="K56" s="164"/>
-      <c r="L56" s="158"/>
-      <c r="M56" s="158"/>
-      <c r="N56" s="158"/>
-      <c r="O56" s="158"/>
-      <c r="P56" s="158"/>
-      <c r="Q56" s="167"/>
-      <c r="R56" s="167"/>
-      <c r="S56" s="167"/>
-      <c r="T56" s="166"/>
-      <c r="U56" s="166"/>
-      <c r="V56" s="166"/>
-      <c r="W56" s="166"/>
-      <c r="X56" s="155"/>
-      <c r="Y56" s="155"/>
-      <c r="Z56" s="155"/>
-      <c r="AA56" s="155"/>
-      <c r="AB56" s="155"/>
-      <c r="AC56" s="155"/>
-      <c r="AD56" s="155"/>
-      <c r="AE56" s="155"/>
-      <c r="AF56" s="155"/>
-      <c r="AG56" s="155"/>
-      <c r="AH56" s="155"/>
-      <c r="AI56" s="155"/>
-      <c r="AJ56" s="155"/>
-      <c r="AK56" s="155"/>
-      <c r="AL56" s="155"/>
-      <c r="AM56" s="155"/>
-      <c r="AN56" s="155"/>
-      <c r="AO56" s="155"/>
-      <c r="AP56" s="155"/>
-      <c r="AQ56" s="155"/>
-      <c r="AR56" s="152"/>
-      <c r="AS56" s="152"/>
-      <c r="AT56" s="152"/>
-      <c r="AU56" s="152"/>
+      <c r="C56" s="153"/>
+      <c r="D56" s="153"/>
+      <c r="E56" s="153"/>
+      <c r="F56" s="159"/>
+      <c r="G56" s="159"/>
+      <c r="H56" s="159"/>
+      <c r="I56" s="159"/>
+      <c r="J56" s="159"/>
+      <c r="K56" s="159"/>
+      <c r="L56" s="160"/>
+      <c r="M56" s="160"/>
+      <c r="N56" s="160"/>
+      <c r="O56" s="160"/>
+      <c r="P56" s="160"/>
+      <c r="Q56" s="154"/>
+      <c r="R56" s="154"/>
+      <c r="S56" s="154"/>
+      <c r="T56" s="155"/>
+      <c r="U56" s="155"/>
+      <c r="V56" s="155"/>
+      <c r="W56" s="155"/>
+      <c r="X56" s="156"/>
+      <c r="Y56" s="156"/>
+      <c r="Z56" s="156"/>
+      <c r="AA56" s="156"/>
+      <c r="AB56" s="156"/>
+      <c r="AC56" s="156"/>
+      <c r="AD56" s="156"/>
+      <c r="AE56" s="156"/>
+      <c r="AF56" s="156"/>
+      <c r="AG56" s="156"/>
+      <c r="AH56" s="156"/>
+      <c r="AI56" s="156"/>
+      <c r="AJ56" s="156"/>
+      <c r="AK56" s="156"/>
+      <c r="AL56" s="156"/>
+      <c r="AM56" s="156"/>
+      <c r="AN56" s="156"/>
+      <c r="AO56" s="156"/>
+      <c r="AP56" s="156"/>
+      <c r="AQ56" s="156"/>
+      <c r="AR56" s="165"/>
+      <c r="AS56" s="165"/>
+      <c r="AT56" s="165"/>
+      <c r="AU56" s="165"/>
       <c r="AV56" s="3"/>
       <c r="AW56" s="3"/>
       <c r="AX56" s="3"/>
@@ -30699,64 +30699,64 @@
       <c r="BA56" s="3"/>
     </row>
     <row r="57" spans="3:61" x14ac:dyDescent="0.15">
-      <c r="F57" s="165" t="s">
+      <c r="F57" s="161" t="s">
         <v>106</v>
       </c>
-      <c r="G57" s="165"/>
-      <c r="H57" s="165"/>
+      <c r="G57" s="161"/>
+      <c r="H57" s="161"/>
       <c r="I57" s="99"/>
       <c r="J57" s="99"/>
       <c r="K57" s="99"/>
-      <c r="L57" s="158"/>
-      <c r="M57" s="158" t="s">
+      <c r="L57" s="160"/>
+      <c r="M57" s="160" t="s">
         <v>99</v>
       </c>
-      <c r="N57" s="158"/>
-      <c r="O57" s="158"/>
-      <c r="P57" s="158"/>
-      <c r="Q57" s="167"/>
-      <c r="R57" s="167"/>
-      <c r="S57" s="167"/>
-      <c r="T57" s="166"/>
-      <c r="U57" s="166" t="s">
-        <v>906</v>
-      </c>
-      <c r="V57" s="166"/>
-      <c r="W57" s="166"/>
-      <c r="X57" s="155"/>
-      <c r="Y57" s="155"/>
-      <c r="Z57" s="155"/>
-      <c r="AA57" s="155"/>
-      <c r="AB57" s="155"/>
-      <c r="AC57" s="155" t="s">
+      <c r="N57" s="160"/>
+      <c r="O57" s="160"/>
+      <c r="P57" s="160"/>
+      <c r="Q57" s="154"/>
+      <c r="R57" s="154"/>
+      <c r="S57" s="154"/>
+      <c r="T57" s="155"/>
+      <c r="U57" s="155" t="s">
+        <v>904</v>
+      </c>
+      <c r="V57" s="155"/>
+      <c r="W57" s="155"/>
+      <c r="X57" s="156"/>
+      <c r="Y57" s="156"/>
+      <c r="Z57" s="156"/>
+      <c r="AA57" s="156"/>
+      <c r="AB57" s="156"/>
+      <c r="AC57" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="AD57" s="155"/>
-      <c r="AE57" s="155"/>
-      <c r="AF57" s="155"/>
-      <c r="AG57" s="155" t="s">
+      <c r="AD57" s="156"/>
+      <c r="AE57" s="156"/>
+      <c r="AF57" s="156"/>
+      <c r="AG57" s="156" t="s">
         <v>98</v>
       </c>
-      <c r="AH57" s="155"/>
-      <c r="AI57" s="155"/>
-      <c r="AJ57" s="155"/>
-      <c r="AK57" s="155" t="s">
+      <c r="AH57" s="156"/>
+      <c r="AI57" s="156"/>
+      <c r="AJ57" s="156"/>
+      <c r="AK57" s="156" t="s">
         <v>107</v>
       </c>
-      <c r="AL57" s="155"/>
-      <c r="AM57" s="155"/>
-      <c r="AN57" s="155"/>
-      <c r="AO57" s="162" t="s">
+      <c r="AL57" s="156"/>
+      <c r="AM57" s="156"/>
+      <c r="AN57" s="156"/>
+      <c r="AO57" s="157" t="s">
         <v>209</v>
       </c>
-      <c r="AP57" s="162"/>
-      <c r="AQ57" s="162"/>
-      <c r="AR57" s="152"/>
-      <c r="AS57" s="153" t="s">
-        <v>901</v>
-      </c>
-      <c r="AT57" s="153"/>
-      <c r="AU57" s="153"/>
+      <c r="AP57" s="157"/>
+      <c r="AQ57" s="157"/>
+      <c r="AR57" s="165"/>
+      <c r="AS57" s="174" t="s">
+        <v>899</v>
+      </c>
+      <c r="AT57" s="174"/>
+      <c r="AU57" s="174"/>
       <c r="AV57" s="3"/>
       <c r="AW57" s="3"/>
       <c r="AX57" s="3"/>
@@ -30765,56 +30765,56 @@
       <c r="BA57" s="3"/>
     </row>
     <row r="58" spans="3:61" x14ac:dyDescent="0.15">
-      <c r="F58" s="167" t="s">
+      <c r="F58" s="154" t="s">
         <v>144</v>
       </c>
-      <c r="G58" s="167"/>
-      <c r="H58" s="167"/>
-      <c r="I58" s="167"/>
-      <c r="J58" s="167"/>
-      <c r="K58" s="167"/>
-      <c r="L58" s="167"/>
-      <c r="M58" s="167"/>
-      <c r="N58" s="167"/>
-      <c r="O58" s="167"/>
-      <c r="P58" s="167"/>
-      <c r="Q58" s="167"/>
-      <c r="R58" s="167"/>
-      <c r="S58" s="167"/>
-      <c r="T58" s="159" t="s">
+      <c r="G58" s="154"/>
+      <c r="H58" s="154"/>
+      <c r="I58" s="154"/>
+      <c r="J58" s="154"/>
+      <c r="K58" s="154"/>
+      <c r="L58" s="154"/>
+      <c r="M58" s="154"/>
+      <c r="N58" s="154"/>
+      <c r="O58" s="154"/>
+      <c r="P58" s="154"/>
+      <c r="Q58" s="154"/>
+      <c r="R58" s="154"/>
+      <c r="S58" s="154"/>
+      <c r="T58" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="U58" s="159"/>
-      <c r="V58" s="159"/>
-      <c r="W58" s="159"/>
-      <c r="X58" s="162" t="s">
+      <c r="U58" s="158"/>
+      <c r="V58" s="158"/>
+      <c r="W58" s="158"/>
+      <c r="X58" s="157" t="s">
         <v>143</v>
       </c>
-      <c r="Y58" s="162"/>
-      <c r="Z58" s="162"/>
-      <c r="AA58" s="162"/>
-      <c r="AB58" s="162"/>
-      <c r="AC58" s="162"/>
-      <c r="AD58" s="162"/>
-      <c r="AE58" s="162"/>
-      <c r="AF58" s="162"/>
-      <c r="AG58" s="162"/>
-      <c r="AH58" s="162"/>
-      <c r="AI58" s="162"/>
-      <c r="AJ58" s="162"/>
-      <c r="AK58" s="162"/>
-      <c r="AL58" s="162"/>
-      <c r="AM58" s="162"/>
-      <c r="AN58" s="162"/>
-      <c r="AO58" s="162"/>
-      <c r="AP58" s="162"/>
-      <c r="AQ58" s="162"/>
-      <c r="AR58" s="153" t="s">
-        <v>903</v>
-      </c>
-      <c r="AS58" s="153"/>
-      <c r="AT58" s="153"/>
-      <c r="AU58" s="153"/>
+      <c r="Y58" s="157"/>
+      <c r="Z58" s="157"/>
+      <c r="AA58" s="157"/>
+      <c r="AB58" s="157"/>
+      <c r="AC58" s="157"/>
+      <c r="AD58" s="157"/>
+      <c r="AE58" s="157"/>
+      <c r="AF58" s="157"/>
+      <c r="AG58" s="157"/>
+      <c r="AH58" s="157"/>
+      <c r="AI58" s="157"/>
+      <c r="AJ58" s="157"/>
+      <c r="AK58" s="157"/>
+      <c r="AL58" s="157"/>
+      <c r="AM58" s="157"/>
+      <c r="AN58" s="157"/>
+      <c r="AO58" s="157"/>
+      <c r="AP58" s="157"/>
+      <c r="AQ58" s="157"/>
+      <c r="AR58" s="174" t="s">
+        <v>901</v>
+      </c>
+      <c r="AS58" s="174"/>
+      <c r="AT58" s="174"/>
+      <c r="AU58" s="174"/>
     </row>
     <row r="59" spans="3:61" x14ac:dyDescent="0.15">
       <c r="F59" s="98"/>
@@ -30857,340 +30857,340 @@
       <c r="AQ59" s="98"/>
     </row>
     <row r="60" spans="3:61" x14ac:dyDescent="0.15">
-      <c r="C60" s="156" t="s">
+      <c r="C60" s="152" t="s">
+        <v>898</v>
+      </c>
+      <c r="D60" s="153"/>
+      <c r="E60" s="153"/>
+      <c r="F60" s="159" t="s">
+        <v>92</v>
+      </c>
+      <c r="G60" s="159"/>
+      <c r="H60" s="159"/>
+      <c r="I60" s="159"/>
+      <c r="J60" s="159"/>
+      <c r="K60" s="159"/>
+      <c r="L60" s="160" t="s">
+        <v>94</v>
+      </c>
+      <c r="M60" s="160" t="s">
+        <v>645</v>
+      </c>
+      <c r="N60" s="160"/>
+      <c r="O60" s="160"/>
+      <c r="P60" s="160"/>
+      <c r="Q60" s="154"/>
+      <c r="R60" s="154"/>
+      <c r="S60" s="154"/>
+      <c r="T60" s="155" t="s">
+        <v>111</v>
+      </c>
+      <c r="U60" s="155" t="s">
+        <v>903</v>
+      </c>
+      <c r="V60" s="155"/>
+      <c r="W60" s="155"/>
+      <c r="X60" s="156" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y60" s="156">
+        <v>1</v>
+      </c>
+      <c r="Z60" s="156"/>
+      <c r="AA60" s="156"/>
+      <c r="AB60" s="156" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC60" s="156" t="s">
+        <v>894</v>
+      </c>
+      <c r="AD60" s="156"/>
+      <c r="AE60" s="156"/>
+      <c r="AF60" s="156" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG60" s="156" t="s">
+        <v>509</v>
+      </c>
+      <c r="AH60" s="156"/>
+      <c r="AI60" s="156"/>
+      <c r="AJ60" s="156" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK60" s="156" t="s">
+        <v>895</v>
+      </c>
+      <c r="AL60" s="156"/>
+      <c r="AM60" s="156"/>
+      <c r="AN60" s="156" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO60" s="156" t="s">
+        <v>511</v>
+      </c>
+      <c r="AP60" s="156"/>
+      <c r="AQ60" s="156"/>
+      <c r="AR60" s="165" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS60" s="165" t="s">
         <v>900</v>
       </c>
-      <c r="D60" s="157"/>
-      <c r="E60" s="157"/>
-      <c r="F60" s="164" t="s">
-        <v>92</v>
-      </c>
-      <c r="G60" s="164"/>
-      <c r="H60" s="164"/>
-      <c r="I60" s="164"/>
-      <c r="J60" s="164"/>
-      <c r="K60" s="164"/>
-      <c r="L60" s="158" t="s">
-        <v>94</v>
-      </c>
-      <c r="M60" s="158" t="s">
-        <v>645</v>
-      </c>
-      <c r="N60" s="158"/>
-      <c r="O60" s="158"/>
-      <c r="P60" s="158"/>
-      <c r="Q60" s="167"/>
-      <c r="R60" s="167"/>
-      <c r="S60" s="167"/>
-      <c r="T60" s="166" t="s">
-        <v>111</v>
-      </c>
-      <c r="U60" s="166" t="s">
-        <v>905</v>
-      </c>
-      <c r="V60" s="166"/>
-      <c r="W60" s="166"/>
-      <c r="X60" s="155" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y60" s="155">
-        <v>1</v>
-      </c>
-      <c r="Z60" s="155"/>
-      <c r="AA60" s="155"/>
-      <c r="AB60" s="155" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC60" s="155" t="s">
-        <v>896</v>
-      </c>
-      <c r="AD60" s="155"/>
-      <c r="AE60" s="155"/>
-      <c r="AF60" s="155" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG60" s="155" t="s">
-        <v>509</v>
-      </c>
-      <c r="AH60" s="155"/>
-      <c r="AI60" s="155"/>
-      <c r="AJ60" s="155" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK60" s="155" t="s">
-        <v>897</v>
-      </c>
-      <c r="AL60" s="155"/>
-      <c r="AM60" s="155"/>
-      <c r="AN60" s="155" t="s">
-        <v>95</v>
-      </c>
-      <c r="AO60" s="155" t="s">
-        <v>511</v>
-      </c>
-      <c r="AP60" s="155"/>
-      <c r="AQ60" s="155"/>
-      <c r="AR60" s="152" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS60" s="152" t="s">
-        <v>902</v>
-      </c>
-      <c r="AT60" s="152"/>
-      <c r="AU60" s="152"/>
+      <c r="AT60" s="165"/>
+      <c r="AU60" s="165"/>
     </row>
     <row r="61" spans="3:61" x14ac:dyDescent="0.15">
-      <c r="C61" s="157"/>
-      <c r="D61" s="157"/>
-      <c r="E61" s="157"/>
-      <c r="F61" s="164"/>
-      <c r="G61" s="164"/>
-      <c r="H61" s="164"/>
-      <c r="I61" s="164"/>
-      <c r="J61" s="164"/>
-      <c r="K61" s="164"/>
-      <c r="L61" s="158"/>
-      <c r="M61" s="158"/>
-      <c r="N61" s="158"/>
-      <c r="O61" s="158"/>
-      <c r="P61" s="158"/>
-      <c r="Q61" s="167"/>
-      <c r="R61" s="167"/>
-      <c r="S61" s="167"/>
-      <c r="T61" s="166"/>
-      <c r="U61" s="166"/>
-      <c r="V61" s="166"/>
-      <c r="W61" s="166"/>
-      <c r="X61" s="155"/>
-      <c r="Y61" s="155"/>
-      <c r="Z61" s="155"/>
-      <c r="AA61" s="155"/>
-      <c r="AB61" s="155"/>
-      <c r="AC61" s="155"/>
-      <c r="AD61" s="155"/>
-      <c r="AE61" s="155"/>
-      <c r="AF61" s="155"/>
-      <c r="AG61" s="155"/>
-      <c r="AH61" s="155"/>
-      <c r="AI61" s="155"/>
-      <c r="AJ61" s="155"/>
-      <c r="AK61" s="155"/>
-      <c r="AL61" s="155"/>
-      <c r="AM61" s="155"/>
-      <c r="AN61" s="155"/>
-      <c r="AO61" s="155"/>
-      <c r="AP61" s="155"/>
-      <c r="AQ61" s="155"/>
-      <c r="AR61" s="152"/>
-      <c r="AS61" s="152"/>
-      <c r="AT61" s="152"/>
-      <c r="AU61" s="152"/>
+      <c r="C61" s="153"/>
+      <c r="D61" s="153"/>
+      <c r="E61" s="153"/>
+      <c r="F61" s="159"/>
+      <c r="G61" s="159"/>
+      <c r="H61" s="159"/>
+      <c r="I61" s="159"/>
+      <c r="J61" s="159"/>
+      <c r="K61" s="159"/>
+      <c r="L61" s="160"/>
+      <c r="M61" s="160"/>
+      <c r="N61" s="160"/>
+      <c r="O61" s="160"/>
+      <c r="P61" s="160"/>
+      <c r="Q61" s="154"/>
+      <c r="R61" s="154"/>
+      <c r="S61" s="154"/>
+      <c r="T61" s="155"/>
+      <c r="U61" s="155"/>
+      <c r="V61" s="155"/>
+      <c r="W61" s="155"/>
+      <c r="X61" s="156"/>
+      <c r="Y61" s="156"/>
+      <c r="Z61" s="156"/>
+      <c r="AA61" s="156"/>
+      <c r="AB61" s="156"/>
+      <c r="AC61" s="156"/>
+      <c r="AD61" s="156"/>
+      <c r="AE61" s="156"/>
+      <c r="AF61" s="156"/>
+      <c r="AG61" s="156"/>
+      <c r="AH61" s="156"/>
+      <c r="AI61" s="156"/>
+      <c r="AJ61" s="156"/>
+      <c r="AK61" s="156"/>
+      <c r="AL61" s="156"/>
+      <c r="AM61" s="156"/>
+      <c r="AN61" s="156"/>
+      <c r="AO61" s="156"/>
+      <c r="AP61" s="156"/>
+      <c r="AQ61" s="156"/>
+      <c r="AR61" s="165"/>
+      <c r="AS61" s="165"/>
+      <c r="AT61" s="165"/>
+      <c r="AU61" s="165"/>
     </row>
     <row r="62" spans="3:61" x14ac:dyDescent="0.15">
-      <c r="C62" s="157"/>
-      <c r="D62" s="157"/>
-      <c r="E62" s="157"/>
-      <c r="F62" s="164"/>
-      <c r="G62" s="164"/>
-      <c r="H62" s="164"/>
-      <c r="I62" s="164"/>
-      <c r="J62" s="164"/>
-      <c r="K62" s="164"/>
-      <c r="L62" s="158"/>
-      <c r="M62" s="158"/>
-      <c r="N62" s="158"/>
-      <c r="O62" s="158"/>
-      <c r="P62" s="158"/>
-      <c r="Q62" s="167"/>
-      <c r="R62" s="167"/>
-      <c r="S62" s="167"/>
-      <c r="T62" s="166"/>
-      <c r="U62" s="166"/>
-      <c r="V62" s="166"/>
-      <c r="W62" s="166"/>
-      <c r="X62" s="155"/>
-      <c r="Y62" s="155"/>
-      <c r="Z62" s="155"/>
-      <c r="AA62" s="155"/>
-      <c r="AB62" s="155"/>
-      <c r="AC62" s="155"/>
-      <c r="AD62" s="155"/>
-      <c r="AE62" s="155"/>
-      <c r="AF62" s="155"/>
-      <c r="AG62" s="155"/>
-      <c r="AH62" s="155"/>
-      <c r="AI62" s="155"/>
-      <c r="AJ62" s="155"/>
-      <c r="AK62" s="155"/>
-      <c r="AL62" s="155"/>
-      <c r="AM62" s="155"/>
-      <c r="AN62" s="155"/>
-      <c r="AO62" s="155"/>
-      <c r="AP62" s="155"/>
-      <c r="AQ62" s="155"/>
-      <c r="AR62" s="152"/>
-      <c r="AS62" s="152"/>
-      <c r="AT62" s="152"/>
-      <c r="AU62" s="152"/>
+      <c r="C62" s="153"/>
+      <c r="D62" s="153"/>
+      <c r="E62" s="153"/>
+      <c r="F62" s="159"/>
+      <c r="G62" s="159"/>
+      <c r="H62" s="159"/>
+      <c r="I62" s="159"/>
+      <c r="J62" s="159"/>
+      <c r="K62" s="159"/>
+      <c r="L62" s="160"/>
+      <c r="M62" s="160"/>
+      <c r="N62" s="160"/>
+      <c r="O62" s="160"/>
+      <c r="P62" s="160"/>
+      <c r="Q62" s="154"/>
+      <c r="R62" s="154"/>
+      <c r="S62" s="154"/>
+      <c r="T62" s="155"/>
+      <c r="U62" s="155"/>
+      <c r="V62" s="155"/>
+      <c r="W62" s="155"/>
+      <c r="X62" s="156"/>
+      <c r="Y62" s="156"/>
+      <c r="Z62" s="156"/>
+      <c r="AA62" s="156"/>
+      <c r="AB62" s="156"/>
+      <c r="AC62" s="156"/>
+      <c r="AD62" s="156"/>
+      <c r="AE62" s="156"/>
+      <c r="AF62" s="156"/>
+      <c r="AG62" s="156"/>
+      <c r="AH62" s="156"/>
+      <c r="AI62" s="156"/>
+      <c r="AJ62" s="156"/>
+      <c r="AK62" s="156"/>
+      <c r="AL62" s="156"/>
+      <c r="AM62" s="156"/>
+      <c r="AN62" s="156"/>
+      <c r="AO62" s="156"/>
+      <c r="AP62" s="156"/>
+      <c r="AQ62" s="156"/>
+      <c r="AR62" s="165"/>
+      <c r="AS62" s="165"/>
+      <c r="AT62" s="165"/>
+      <c r="AU62" s="165"/>
     </row>
     <row r="63" spans="3:61" x14ac:dyDescent="0.15">
-      <c r="C63" s="157"/>
-      <c r="D63" s="157"/>
-      <c r="E63" s="157"/>
-      <c r="F63" s="164"/>
-      <c r="G63" s="164"/>
-      <c r="H63" s="164"/>
-      <c r="I63" s="164"/>
-      <c r="J63" s="164"/>
-      <c r="K63" s="164"/>
-      <c r="L63" s="158"/>
-      <c r="M63" s="158"/>
-      <c r="N63" s="158"/>
-      <c r="O63" s="158"/>
-      <c r="P63" s="158"/>
-      <c r="Q63" s="167"/>
-      <c r="R63" s="167"/>
-      <c r="S63" s="167"/>
-      <c r="T63" s="166"/>
-      <c r="U63" s="166"/>
-      <c r="V63" s="166"/>
-      <c r="W63" s="166"/>
-      <c r="X63" s="155"/>
-      <c r="Y63" s="155"/>
-      <c r="Z63" s="155"/>
-      <c r="AA63" s="155"/>
-      <c r="AB63" s="155"/>
-      <c r="AC63" s="155"/>
-      <c r="AD63" s="155"/>
-      <c r="AE63" s="155"/>
-      <c r="AF63" s="155"/>
-      <c r="AG63" s="155"/>
-      <c r="AH63" s="155"/>
-      <c r="AI63" s="155"/>
-      <c r="AJ63" s="155"/>
-      <c r="AK63" s="155"/>
-      <c r="AL63" s="155"/>
-      <c r="AM63" s="155"/>
-      <c r="AN63" s="155"/>
-      <c r="AO63" s="155"/>
-      <c r="AP63" s="155"/>
-      <c r="AQ63" s="155"/>
-      <c r="AR63" s="152"/>
-      <c r="AS63" s="152"/>
-      <c r="AT63" s="152"/>
-      <c r="AU63" s="152"/>
+      <c r="C63" s="153"/>
+      <c r="D63" s="153"/>
+      <c r="E63" s="153"/>
+      <c r="F63" s="159"/>
+      <c r="G63" s="159"/>
+      <c r="H63" s="159"/>
+      <c r="I63" s="159"/>
+      <c r="J63" s="159"/>
+      <c r="K63" s="159"/>
+      <c r="L63" s="160"/>
+      <c r="M63" s="160"/>
+      <c r="N63" s="160"/>
+      <c r="O63" s="160"/>
+      <c r="P63" s="160"/>
+      <c r="Q63" s="154"/>
+      <c r="R63" s="154"/>
+      <c r="S63" s="154"/>
+      <c r="T63" s="155"/>
+      <c r="U63" s="155"/>
+      <c r="V63" s="155"/>
+      <c r="W63" s="155"/>
+      <c r="X63" s="156"/>
+      <c r="Y63" s="156"/>
+      <c r="Z63" s="156"/>
+      <c r="AA63" s="156"/>
+      <c r="AB63" s="156"/>
+      <c r="AC63" s="156"/>
+      <c r="AD63" s="156"/>
+      <c r="AE63" s="156"/>
+      <c r="AF63" s="156"/>
+      <c r="AG63" s="156"/>
+      <c r="AH63" s="156"/>
+      <c r="AI63" s="156"/>
+      <c r="AJ63" s="156"/>
+      <c r="AK63" s="156"/>
+      <c r="AL63" s="156"/>
+      <c r="AM63" s="156"/>
+      <c r="AN63" s="156"/>
+      <c r="AO63" s="156"/>
+      <c r="AP63" s="156"/>
+      <c r="AQ63" s="156"/>
+      <c r="AR63" s="165"/>
+      <c r="AS63" s="165"/>
+      <c r="AT63" s="165"/>
+      <c r="AU63" s="165"/>
     </row>
     <row r="64" spans="3:61" x14ac:dyDescent="0.15">
-      <c r="F64" s="165" t="s">
-        <v>895</v>
-      </c>
-      <c r="G64" s="165"/>
-      <c r="H64" s="165"/>
+      <c r="F64" s="161" t="s">
+        <v>893</v>
+      </c>
+      <c r="G64" s="161"/>
+      <c r="H64" s="161"/>
       <c r="I64" s="99"/>
       <c r="J64" s="99"/>
       <c r="K64" s="99"/>
-      <c r="L64" s="158"/>
-      <c r="M64" s="158" t="s">
+      <c r="L64" s="160"/>
+      <c r="M64" s="160" t="s">
         <v>99</v>
       </c>
-      <c r="N64" s="158"/>
-      <c r="O64" s="158"/>
-      <c r="P64" s="158"/>
-      <c r="Q64" s="167"/>
-      <c r="R64" s="167"/>
-      <c r="S64" s="167"/>
-      <c r="T64" s="166"/>
-      <c r="U64" s="166" t="s">
-        <v>906</v>
-      </c>
-      <c r="V64" s="166"/>
-      <c r="W64" s="166"/>
-      <c r="X64" s="155"/>
-      <c r="Y64" s="155"/>
-      <c r="Z64" s="155"/>
-      <c r="AA64" s="155"/>
-      <c r="AB64" s="155"/>
-      <c r="AC64" s="155" t="s">
+      <c r="N64" s="160"/>
+      <c r="O64" s="160"/>
+      <c r="P64" s="160"/>
+      <c r="Q64" s="154"/>
+      <c r="R64" s="154"/>
+      <c r="S64" s="154"/>
+      <c r="T64" s="155"/>
+      <c r="U64" s="155" t="s">
+        <v>904</v>
+      </c>
+      <c r="V64" s="155"/>
+      <c r="W64" s="155"/>
+      <c r="X64" s="156"/>
+      <c r="Y64" s="156"/>
+      <c r="Z64" s="156"/>
+      <c r="AA64" s="156"/>
+      <c r="AB64" s="156"/>
+      <c r="AC64" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="AD64" s="155"/>
-      <c r="AE64" s="155"/>
-      <c r="AF64" s="155"/>
-      <c r="AG64" s="155" t="s">
+      <c r="AD64" s="156"/>
+      <c r="AE64" s="156"/>
+      <c r="AF64" s="156"/>
+      <c r="AG64" s="156" t="s">
         <v>98</v>
       </c>
-      <c r="AH64" s="155"/>
-      <c r="AI64" s="155"/>
-      <c r="AJ64" s="155"/>
-      <c r="AK64" s="155" t="s">
-        <v>898</v>
-      </c>
-      <c r="AL64" s="155"/>
-      <c r="AM64" s="155"/>
-      <c r="AN64" s="155"/>
-      <c r="AO64" s="162" t="s">
+      <c r="AH64" s="156"/>
+      <c r="AI64" s="156"/>
+      <c r="AJ64" s="156"/>
+      <c r="AK64" s="156" t="s">
+        <v>896</v>
+      </c>
+      <c r="AL64" s="156"/>
+      <c r="AM64" s="156"/>
+      <c r="AN64" s="156"/>
+      <c r="AO64" s="157" t="s">
         <v>209</v>
       </c>
-      <c r="AP64" s="162"/>
-      <c r="AQ64" s="162"/>
-      <c r="AR64" s="152"/>
-      <c r="AS64" s="153" t="s">
+      <c r="AP64" s="157"/>
+      <c r="AQ64" s="157"/>
+      <c r="AR64" s="165"/>
+      <c r="AS64" s="174" t="s">
+        <v>899</v>
+      </c>
+      <c r="AT64" s="174"/>
+      <c r="AU64" s="174"/>
+    </row>
+    <row r="65" spans="3:47" x14ac:dyDescent="0.15">
+      <c r="F65" s="154" t="s">
+        <v>144</v>
+      </c>
+      <c r="G65" s="154"/>
+      <c r="H65" s="154"/>
+      <c r="I65" s="154"/>
+      <c r="J65" s="154"/>
+      <c r="K65" s="154"/>
+      <c r="L65" s="154"/>
+      <c r="M65" s="154"/>
+      <c r="N65" s="154"/>
+      <c r="O65" s="154"/>
+      <c r="P65" s="154"/>
+      <c r="Q65" s="154"/>
+      <c r="R65" s="154"/>
+      <c r="S65" s="154"/>
+      <c r="T65" s="158" t="s">
+        <v>146</v>
+      </c>
+      <c r="U65" s="158"/>
+      <c r="V65" s="158"/>
+      <c r="W65" s="158"/>
+      <c r="X65" s="157" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y65" s="157"/>
+      <c r="Z65" s="157"/>
+      <c r="AA65" s="157"/>
+      <c r="AB65" s="157"/>
+      <c r="AC65" s="157"/>
+      <c r="AD65" s="157"/>
+      <c r="AE65" s="157"/>
+      <c r="AF65" s="157"/>
+      <c r="AG65" s="157"/>
+      <c r="AH65" s="157"/>
+      <c r="AI65" s="157"/>
+      <c r="AJ65" s="157"/>
+      <c r="AK65" s="157"/>
+      <c r="AL65" s="157"/>
+      <c r="AM65" s="157"/>
+      <c r="AN65" s="157"/>
+      <c r="AO65" s="157"/>
+      <c r="AP65" s="157"/>
+      <c r="AQ65" s="157"/>
+      <c r="AR65" s="174" t="s">
         <v>901</v>
       </c>
-      <c r="AT64" s="153"/>
-      <c r="AU64" s="153"/>
-    </row>
-    <row r="65" spans="3:47" x14ac:dyDescent="0.15">
-      <c r="F65" s="167" t="s">
-        <v>144</v>
-      </c>
-      <c r="G65" s="167"/>
-      <c r="H65" s="167"/>
-      <c r="I65" s="167"/>
-      <c r="J65" s="167"/>
-      <c r="K65" s="167"/>
-      <c r="L65" s="167"/>
-      <c r="M65" s="167"/>
-      <c r="N65" s="167"/>
-      <c r="O65" s="167"/>
-      <c r="P65" s="167"/>
-      <c r="Q65" s="167"/>
-      <c r="R65" s="167"/>
-      <c r="S65" s="167"/>
-      <c r="T65" s="159" t="s">
-        <v>146</v>
-      </c>
-      <c r="U65" s="159"/>
-      <c r="V65" s="159"/>
-      <c r="W65" s="159"/>
-      <c r="X65" s="162" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y65" s="162"/>
-      <c r="Z65" s="162"/>
-      <c r="AA65" s="162"/>
-      <c r="AB65" s="162"/>
-      <c r="AC65" s="162"/>
-      <c r="AD65" s="162"/>
-      <c r="AE65" s="162"/>
-      <c r="AF65" s="162"/>
-      <c r="AG65" s="162"/>
-      <c r="AH65" s="162"/>
-      <c r="AI65" s="162"/>
-      <c r="AJ65" s="162"/>
-      <c r="AK65" s="162"/>
-      <c r="AL65" s="162"/>
-      <c r="AM65" s="162"/>
-      <c r="AN65" s="162"/>
-      <c r="AO65" s="162"/>
-      <c r="AP65" s="162"/>
-      <c r="AQ65" s="162"/>
-      <c r="AR65" s="153" t="s">
-        <v>903</v>
-      </c>
-      <c r="AS65" s="153"/>
-      <c r="AT65" s="153"/>
-      <c r="AU65" s="153"/>
+      <c r="AS65" s="174"/>
+      <c r="AT65" s="174"/>
+      <c r="AU65" s="174"/>
     </row>
     <row r="66" spans="3:47" x14ac:dyDescent="0.15">
       <c r="F66" s="98"/>
@@ -31334,59 +31334,130 @@
     </row>
   </sheetData>
   <mergeCells count="201">
-    <mergeCell ref="C60:E63"/>
-    <mergeCell ref="Q64:S64"/>
-    <mergeCell ref="U64:W64"/>
-    <mergeCell ref="Y64:AA64"/>
-    <mergeCell ref="AC64:AE64"/>
-    <mergeCell ref="AG64:AI64"/>
-    <mergeCell ref="AK64:AM64"/>
-    <mergeCell ref="AO64:AQ64"/>
-    <mergeCell ref="F65:S65"/>
-    <mergeCell ref="T65:W65"/>
-    <mergeCell ref="X65:AQ65"/>
-    <mergeCell ref="T58:W58"/>
-    <mergeCell ref="X58:AQ58"/>
-    <mergeCell ref="F58:S58"/>
-    <mergeCell ref="F60:K63"/>
-    <mergeCell ref="L60:L64"/>
-    <mergeCell ref="M60:O63"/>
-    <mergeCell ref="P60:P64"/>
-    <mergeCell ref="Q60:S63"/>
-    <mergeCell ref="T60:T64"/>
-    <mergeCell ref="U60:W63"/>
-    <mergeCell ref="X60:X64"/>
-    <mergeCell ref="Y60:AA63"/>
-    <mergeCell ref="AB60:AB64"/>
-    <mergeCell ref="AC60:AE63"/>
-    <mergeCell ref="AF60:AF64"/>
-    <mergeCell ref="AG60:AI63"/>
-    <mergeCell ref="AJ60:AJ64"/>
-    <mergeCell ref="AK60:AM63"/>
-    <mergeCell ref="AN60:AN64"/>
-    <mergeCell ref="AO60:AQ63"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="M64:O64"/>
-    <mergeCell ref="AN53:AN57"/>
-    <mergeCell ref="AO53:AQ56"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="Q57:S57"/>
-    <mergeCell ref="U57:W57"/>
-    <mergeCell ref="Y57:AA57"/>
-    <mergeCell ref="AC57:AE57"/>
-    <mergeCell ref="AG57:AI57"/>
-    <mergeCell ref="AK57:AM57"/>
-    <mergeCell ref="AO57:AQ57"/>
-    <mergeCell ref="U53:W56"/>
-    <mergeCell ref="X53:X57"/>
-    <mergeCell ref="Y53:AA56"/>
-    <mergeCell ref="AB53:AB57"/>
-    <mergeCell ref="AC53:AE56"/>
-    <mergeCell ref="AF53:AF57"/>
-    <mergeCell ref="AG53:AI56"/>
-    <mergeCell ref="AJ53:AJ57"/>
-    <mergeCell ref="AK53:AM56"/>
+    <mergeCell ref="AR53:AR57"/>
+    <mergeCell ref="AS53:AU56"/>
+    <mergeCell ref="AR60:AR64"/>
+    <mergeCell ref="AS60:AU63"/>
+    <mergeCell ref="AS57:AU57"/>
+    <mergeCell ref="AS64:AU64"/>
+    <mergeCell ref="AR58:AU58"/>
+    <mergeCell ref="AR65:AU65"/>
+    <mergeCell ref="BM33:BP33"/>
+    <mergeCell ref="AS45:AU48"/>
+    <mergeCell ref="AV45:AV49"/>
+    <mergeCell ref="AW45:AY48"/>
+    <mergeCell ref="BP36:BP40"/>
+    <mergeCell ref="BT41:BW41"/>
+    <mergeCell ref="C28:E31"/>
+    <mergeCell ref="BM28:BM32"/>
+    <mergeCell ref="BN28:BP32"/>
+    <mergeCell ref="BT36:BT40"/>
+    <mergeCell ref="BU36:BW40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="AF41:AI41"/>
+    <mergeCell ref="BE36:BG39"/>
+    <mergeCell ref="BH36:BH40"/>
+    <mergeCell ref="AN36:AN40"/>
+    <mergeCell ref="AO36:AQ39"/>
+    <mergeCell ref="AR36:AR40"/>
+    <mergeCell ref="AS36:AU39"/>
+    <mergeCell ref="AV36:AV40"/>
+    <mergeCell ref="AW36:AY39"/>
+    <mergeCell ref="AO40:AQ40"/>
+    <mergeCell ref="AS40:AU40"/>
+    <mergeCell ref="AW40:AY40"/>
+    <mergeCell ref="AZ36:AZ40"/>
+    <mergeCell ref="J36:L39"/>
+    <mergeCell ref="T36:T40"/>
+    <mergeCell ref="AB50:AE50"/>
+    <mergeCell ref="J33:AF33"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="AD32:AF32"/>
+    <mergeCell ref="AH32:AJ32"/>
+    <mergeCell ref="AG28:AG32"/>
+    <mergeCell ref="AH28:AJ31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="N28:P31"/>
+    <mergeCell ref="M28:M32"/>
+    <mergeCell ref="J28:L31"/>
+    <mergeCell ref="AG33:AJ33"/>
+    <mergeCell ref="J50:AA50"/>
+    <mergeCell ref="M36:M40"/>
+    <mergeCell ref="N36:P39"/>
+    <mergeCell ref="U40:W40"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="AC40:AE40"/>
+    <mergeCell ref="U28:U32"/>
+    <mergeCell ref="AG49:AI49"/>
+    <mergeCell ref="AF45:AF49"/>
+    <mergeCell ref="AG45:AI48"/>
+    <mergeCell ref="AJ45:AJ49"/>
+    <mergeCell ref="AN45:AN49"/>
+    <mergeCell ref="AO49:AQ49"/>
+    <mergeCell ref="BA36:BC39"/>
+    <mergeCell ref="BD36:BD40"/>
+    <mergeCell ref="AR45:AR49"/>
+    <mergeCell ref="AK40:AM40"/>
+    <mergeCell ref="AG36:AI39"/>
+    <mergeCell ref="AJ36:AJ40"/>
+    <mergeCell ref="AK36:AM39"/>
+    <mergeCell ref="AG40:AI40"/>
+    <mergeCell ref="AK45:AM48"/>
+    <mergeCell ref="AK49:AM49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="U49:W49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="AC49:AE49"/>
+    <mergeCell ref="Y45:AA48"/>
+    <mergeCell ref="AB45:AB49"/>
+    <mergeCell ref="AC45:AE48"/>
+    <mergeCell ref="X45:X49"/>
+    <mergeCell ref="U36:W39"/>
+    <mergeCell ref="X36:X40"/>
+    <mergeCell ref="Y36:AA39"/>
+    <mergeCell ref="AB36:AB40"/>
+    <mergeCell ref="AC36:AE39"/>
+    <mergeCell ref="AF36:AF40"/>
+    <mergeCell ref="AK28:AK32"/>
+    <mergeCell ref="AL28:AN31"/>
+    <mergeCell ref="AL32:AN32"/>
+    <mergeCell ref="BB28:BD31"/>
+    <mergeCell ref="AP28:AR31"/>
+    <mergeCell ref="AS28:AS32"/>
+    <mergeCell ref="AT28:AV31"/>
+    <mergeCell ref="AW28:AW32"/>
+    <mergeCell ref="AX28:AZ31"/>
+    <mergeCell ref="AP32:AR32"/>
+    <mergeCell ref="AT32:AV32"/>
+    <mergeCell ref="AX32:AZ32"/>
+    <mergeCell ref="BQ36:BS40"/>
+    <mergeCell ref="BP41:BS41"/>
+    <mergeCell ref="AF50:AY50"/>
+    <mergeCell ref="AS49:AU49"/>
+    <mergeCell ref="AW49:AY49"/>
+    <mergeCell ref="BF28:BH32"/>
+    <mergeCell ref="BI28:BI32"/>
+    <mergeCell ref="BJ28:BL32"/>
+    <mergeCell ref="BI33:BL33"/>
+    <mergeCell ref="BM36:BO40"/>
+    <mergeCell ref="BL41:BO41"/>
+    <mergeCell ref="AJ41:BK41"/>
+    <mergeCell ref="BI36:BK39"/>
+    <mergeCell ref="BI40:BK40"/>
+    <mergeCell ref="BE40:BG40"/>
+    <mergeCell ref="BA40:BC40"/>
+    <mergeCell ref="AO45:AQ48"/>
+    <mergeCell ref="BL36:BL40"/>
+    <mergeCell ref="BE28:BE32"/>
+    <mergeCell ref="BE33:BH33"/>
+    <mergeCell ref="AK33:BD33"/>
+    <mergeCell ref="BB32:BD32"/>
+    <mergeCell ref="AO28:AO32"/>
+    <mergeCell ref="BA28:BA32"/>
     <mergeCell ref="C53:E56"/>
     <mergeCell ref="F53:K56"/>
     <mergeCell ref="L53:L57"/>
@@ -31411,130 +31482,59 @@
     <mergeCell ref="Z28:AB31"/>
     <mergeCell ref="AC28:AC32"/>
     <mergeCell ref="AD28:AF31"/>
-    <mergeCell ref="BQ36:BS40"/>
-    <mergeCell ref="BP41:BS41"/>
-    <mergeCell ref="AF50:AY50"/>
-    <mergeCell ref="AS49:AU49"/>
-    <mergeCell ref="AW49:AY49"/>
-    <mergeCell ref="BF28:BH32"/>
-    <mergeCell ref="BI28:BI32"/>
-    <mergeCell ref="BJ28:BL32"/>
-    <mergeCell ref="BI33:BL33"/>
-    <mergeCell ref="BM36:BO40"/>
-    <mergeCell ref="BL41:BO41"/>
-    <mergeCell ref="AJ41:BK41"/>
-    <mergeCell ref="BI36:BK39"/>
-    <mergeCell ref="BI40:BK40"/>
-    <mergeCell ref="BE40:BG40"/>
-    <mergeCell ref="BA40:BC40"/>
-    <mergeCell ref="AO45:AQ48"/>
-    <mergeCell ref="BL36:BL40"/>
-    <mergeCell ref="BE28:BE32"/>
-    <mergeCell ref="BE33:BH33"/>
-    <mergeCell ref="AK33:BD33"/>
-    <mergeCell ref="BB32:BD32"/>
-    <mergeCell ref="AO28:AO32"/>
-    <mergeCell ref="BA28:BA32"/>
-    <mergeCell ref="BB28:BD31"/>
-    <mergeCell ref="AP28:AR31"/>
-    <mergeCell ref="AS28:AS32"/>
-    <mergeCell ref="AT28:AV31"/>
-    <mergeCell ref="AW28:AW32"/>
-    <mergeCell ref="AX28:AZ31"/>
-    <mergeCell ref="AP32:AR32"/>
-    <mergeCell ref="AT32:AV32"/>
-    <mergeCell ref="AX32:AZ32"/>
-    <mergeCell ref="U36:W39"/>
-    <mergeCell ref="X36:X40"/>
-    <mergeCell ref="Y36:AA39"/>
-    <mergeCell ref="AB36:AB40"/>
-    <mergeCell ref="AC36:AE39"/>
-    <mergeCell ref="AF36:AF40"/>
-    <mergeCell ref="AK28:AK32"/>
-    <mergeCell ref="AL28:AN31"/>
-    <mergeCell ref="AL32:AN32"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="U49:W49"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="AC49:AE49"/>
-    <mergeCell ref="Y45:AA48"/>
-    <mergeCell ref="AB45:AB49"/>
-    <mergeCell ref="AC45:AE48"/>
-    <mergeCell ref="X45:X49"/>
-    <mergeCell ref="AN45:AN49"/>
-    <mergeCell ref="AO49:AQ49"/>
-    <mergeCell ref="BA36:BC39"/>
-    <mergeCell ref="BD36:BD40"/>
-    <mergeCell ref="AR45:AR49"/>
-    <mergeCell ref="AK40:AM40"/>
-    <mergeCell ref="AG36:AI39"/>
-    <mergeCell ref="AJ36:AJ40"/>
-    <mergeCell ref="AK36:AM39"/>
-    <mergeCell ref="AG40:AI40"/>
-    <mergeCell ref="AK45:AM48"/>
-    <mergeCell ref="AK49:AM49"/>
-    <mergeCell ref="AB50:AE50"/>
-    <mergeCell ref="J33:AF33"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Z32:AB32"/>
-    <mergeCell ref="AD32:AF32"/>
-    <mergeCell ref="AH32:AJ32"/>
-    <mergeCell ref="AG28:AG32"/>
-    <mergeCell ref="AH28:AJ31"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="N28:P31"/>
-    <mergeCell ref="M28:M32"/>
-    <mergeCell ref="J28:L31"/>
-    <mergeCell ref="AG33:AJ33"/>
-    <mergeCell ref="J50:AA50"/>
-    <mergeCell ref="M36:M40"/>
-    <mergeCell ref="N36:P39"/>
-    <mergeCell ref="U40:W40"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="U28:U32"/>
-    <mergeCell ref="AG49:AI49"/>
-    <mergeCell ref="AF45:AF49"/>
-    <mergeCell ref="AG45:AI48"/>
-    <mergeCell ref="AJ45:AJ49"/>
-    <mergeCell ref="BT41:BW41"/>
-    <mergeCell ref="C28:E31"/>
-    <mergeCell ref="BM28:BM32"/>
-    <mergeCell ref="BN28:BP32"/>
-    <mergeCell ref="BT36:BT40"/>
-    <mergeCell ref="BU36:BW40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="AF41:AI41"/>
-    <mergeCell ref="BE36:BG39"/>
-    <mergeCell ref="BH36:BH40"/>
-    <mergeCell ref="AN36:AN40"/>
-    <mergeCell ref="AO36:AQ39"/>
-    <mergeCell ref="AR36:AR40"/>
-    <mergeCell ref="AS36:AU39"/>
-    <mergeCell ref="AV36:AV40"/>
-    <mergeCell ref="AW36:AY39"/>
-    <mergeCell ref="AO40:AQ40"/>
-    <mergeCell ref="AS40:AU40"/>
-    <mergeCell ref="AW40:AY40"/>
-    <mergeCell ref="AZ36:AZ40"/>
-    <mergeCell ref="J36:L39"/>
-    <mergeCell ref="T36:T40"/>
-    <mergeCell ref="AR53:AR57"/>
-    <mergeCell ref="AS53:AU56"/>
-    <mergeCell ref="AR60:AR64"/>
-    <mergeCell ref="AS60:AU63"/>
-    <mergeCell ref="AS57:AU57"/>
-    <mergeCell ref="AS64:AU64"/>
-    <mergeCell ref="AR58:AU58"/>
-    <mergeCell ref="AR65:AU65"/>
-    <mergeCell ref="BM33:BP33"/>
-    <mergeCell ref="AS45:AU48"/>
-    <mergeCell ref="AV45:AV49"/>
-    <mergeCell ref="AW45:AY48"/>
-    <mergeCell ref="BP36:BP40"/>
+    <mergeCell ref="AN53:AN57"/>
+    <mergeCell ref="AO53:AQ56"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="Q57:S57"/>
+    <mergeCell ref="U57:W57"/>
+    <mergeCell ref="Y57:AA57"/>
+    <mergeCell ref="AC57:AE57"/>
+    <mergeCell ref="AG57:AI57"/>
+    <mergeCell ref="AK57:AM57"/>
+    <mergeCell ref="AO57:AQ57"/>
+    <mergeCell ref="U53:W56"/>
+    <mergeCell ref="X53:X57"/>
+    <mergeCell ref="Y53:AA56"/>
+    <mergeCell ref="AB53:AB57"/>
+    <mergeCell ref="AC53:AE56"/>
+    <mergeCell ref="AF53:AF57"/>
+    <mergeCell ref="AG53:AI56"/>
+    <mergeCell ref="AJ53:AJ57"/>
+    <mergeCell ref="AK53:AM56"/>
+    <mergeCell ref="T58:W58"/>
+    <mergeCell ref="X58:AQ58"/>
+    <mergeCell ref="F58:S58"/>
+    <mergeCell ref="F60:K63"/>
+    <mergeCell ref="L60:L64"/>
+    <mergeCell ref="M60:O63"/>
+    <mergeCell ref="P60:P64"/>
+    <mergeCell ref="Q60:S63"/>
+    <mergeCell ref="T60:T64"/>
+    <mergeCell ref="U60:W63"/>
+    <mergeCell ref="X60:X64"/>
+    <mergeCell ref="Y60:AA63"/>
+    <mergeCell ref="AB60:AB64"/>
+    <mergeCell ref="AC60:AE63"/>
+    <mergeCell ref="AF60:AF64"/>
+    <mergeCell ref="AG60:AI63"/>
+    <mergeCell ref="AJ60:AJ64"/>
+    <mergeCell ref="AK60:AM63"/>
+    <mergeCell ref="AN60:AN64"/>
+    <mergeCell ref="AO60:AQ63"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="C60:E63"/>
+    <mergeCell ref="Q64:S64"/>
+    <mergeCell ref="U64:W64"/>
+    <mergeCell ref="Y64:AA64"/>
+    <mergeCell ref="AC64:AE64"/>
+    <mergeCell ref="AG64:AI64"/>
+    <mergeCell ref="AK64:AM64"/>
+    <mergeCell ref="AO64:AQ64"/>
+    <mergeCell ref="F65:S65"/>
+    <mergeCell ref="T65:W65"/>
+    <mergeCell ref="X65:AQ65"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31577,20 +31577,20 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="96" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
   </sheetData>

--- a/gd/数值规划/怪物属性配置及伤害公式.xlsx
+++ b/gd/数值规划/怪物属性配置及伤害公式.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="9" r:id="rId1"/>
     <sheet name="名词解释" sheetId="7" r:id="rId2"/>
-    <sheet name="配置表" sheetId="8" r:id="rId3"/>
-    <sheet name="属性分配" sheetId="6" r:id="rId4"/>
-    <sheet name="属性说明" sheetId="2" r:id="rId5"/>
-    <sheet name="伤害公式" sheetId="4" r:id="rId6"/>
-    <sheet name="伤害流程图" sheetId="3" r:id="rId7"/>
-    <sheet name="程序拆分任务" sheetId="10" r:id="rId8"/>
-    <sheet name="自用" sheetId="5" r:id="rId9"/>
-    <sheet name="自用属性分配" sheetId="1" r:id="rId10"/>
+    <sheet name="人物属性" sheetId="11" r:id="rId3"/>
+    <sheet name="配置表" sheetId="8" r:id="rId4"/>
+    <sheet name="属性分配" sheetId="6" r:id="rId5"/>
+    <sheet name="属性说明" sheetId="2" r:id="rId6"/>
+    <sheet name="伤害公式" sheetId="4" r:id="rId7"/>
+    <sheet name="伤害流程图" sheetId="3" r:id="rId8"/>
+    <sheet name="程序拆分任务" sheetId="10" r:id="rId9"/>
+    <sheet name="自用" sheetId="5" r:id="rId10"/>
+    <sheet name="自用属性分配" sheetId="1" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="975">
   <si>
     <t>技能升级</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2698,10 +2699,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>若存在多个需求道具则使用；分隔ID与个数|区分几个需求道具，即ID1；1|ID2；4表示需求ID1的道具需要1个并且ID2的道具需要4个</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>写中文名字</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3194,26 +3191,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>需求怪物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>指从上一等级升至本等级需要的材料</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>指从上一等级升至本等级需要的怪物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>若存在多个需求道具则使用；分隔ID与个数|区分几个需求道具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>若存在多个需求怪物则使用；分隔ID、品质和个数 |区分几个需求道具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>demandItem</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3222,15 +3203,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>demandMonster</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>怪物ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>存在多个需求怪物则使用；分隔ID，品质和个数|区分几个需求道具</t>
   </si>
   <si>
     <t>品质</t>
@@ -3277,19 +3251,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>需求该宠物等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0=不需求</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>demandLevel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求材料</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3677,6 +3643,271 @@
   </si>
   <si>
     <t>max（N+L(lv1-lv2)+总附加命中率）,100%）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>demandMonster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指从上一等级升至本等级需要的怪物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>若存在多个需求怪物则使用，分割</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求怪物（格式：7_怪物ID_品级_个数）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求材料（格式：3_材料ID_个数）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_材料ID_个数，若存在多个需求道具则使用，分隔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7_怪物ID_品级_个数，若存在多个需求怪物则使用，分隔，若需求怪物为怪物本身则使用固定ID（self）指代怪物本体ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>若存在多个需求怪物则使用，分割，若需求怪物为怪物本身则使用固定ID（self）指代怪物本体ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>friendship</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>closeUp</t>
+  </si>
+  <si>
+    <t>友好度</t>
+  </si>
+  <si>
+    <t>性格</t>
+  </si>
+  <si>
+    <t>大招事件</t>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（目前未添加，等确定PL值系统后添加）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲劳值</t>
+  </si>
+  <si>
+    <t>fatigue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家最近一次修改数据库时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家建号时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resetTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家最近一次登出时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>logoutTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家最近一次登录时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoneInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏平台（安卓/ios）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>platform</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前携带装备ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>device</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(第六只其实是管好友借的)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前携带怪物ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleMonster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物钻石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物经验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vip等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vipLevel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recharge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>career</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头发颜色样式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hairColor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头发样式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hair</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼睛样式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eye</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家账号信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>puid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物属性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4202,7 +4433,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4491,6 +4722,9 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4710,6 +4944,9 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4756,7 +4993,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="8801100" y="25384125"/>
-          <a:ext cx="16593721" cy="5397593"/>
+          <a:ext cx="15907921" cy="5397593"/>
           <a:chOff x="2962275" y="15087600"/>
           <a:chExt cx="13517146" cy="5397593"/>
         </a:xfrm>
@@ -6687,7 +6924,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="8601075" y="9029700"/>
-          <a:ext cx="6955601" cy="1885950"/>
+          <a:ext cx="6269801" cy="1885950"/>
           <a:chOff x="7877175" y="9172575"/>
           <a:chExt cx="6955601" cy="1885950"/>
         </a:xfrm>
@@ -7335,6 +7572,44 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>6641</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9893354" cy="5567554"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="5493041"/>
+          <a:ext cx="9893354" cy="5567554"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10256,7 +10531,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11197,7 +11472,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12631,7 +12906,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -21145,7 +21420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
@@ -21158,10 +21433,10 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="57" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C1" s="58"/>
       <c r="D1" s="59"/>
@@ -21196,10 +21471,10 @@
     </row>
     <row r="3" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A3" s="57" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C3" s="58"/>
       <c r="D3" s="59"/>
@@ -21234,10 +21509,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="57" t="s">
+        <v>709</v>
+      </c>
+      <c r="B5" s="58" t="s">
         <v>710</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>711</v>
       </c>
       <c r="C5" s="58"/>
       <c r="D5" s="59"/>
@@ -21272,10 +21547,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="57" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C7" s="58"/>
       <c r="D7" s="62"/>
@@ -21327,7 +21602,7 @@
     </row>
     <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="57" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B10" s="58"/>
       <c r="C10" s="59"/>
@@ -21346,17 +21621,17 @@
     </row>
     <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="57"/>
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="107" t="s">
+        <v>712</v>
+      </c>
+      <c r="C11" s="108"/>
+      <c r="D11" s="109" t="s">
         <v>713</v>
       </c>
-      <c r="C11" s="107"/>
-      <c r="D11" s="108" t="s">
-        <v>714</v>
-      </c>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="110"/>
       <c r="I11" s="58"/>
       <c r="J11" s="58"/>
       <c r="K11" s="58"/>
@@ -21368,14 +21643,14 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="57"/>
       <c r="B12" s="63" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C12" s="64"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="104"/>
       <c r="I12" s="58"/>
       <c r="J12" s="58"/>
       <c r="K12" s="58"/>
@@ -21387,14 +21662,14 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="57"/>
       <c r="B13" s="63" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C13" s="64"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="112"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="113"/>
       <c r="I13" s="58"/>
       <c r="J13" s="58"/>
       <c r="K13" s="58"/>
@@ -21406,14 +21681,14 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="57"/>
       <c r="B14" s="63" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C14" s="64"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="115"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="116"/>
       <c r="I14" s="58"/>
       <c r="J14" s="58"/>
       <c r="K14" s="58"/>
@@ -21425,16 +21700,16 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="57"/>
       <c r="B15" s="63" t="s">
+        <v>717</v>
+      </c>
+      <c r="C15" s="65" t="s">
         <v>718</v>
       </c>
-      <c r="C15" s="65" t="s">
-        <v>719</v>
-      </c>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="104"/>
       <c r="I15" s="58"/>
       <c r="J15" s="58"/>
       <c r="K15" s="58"/>
@@ -21446,14 +21721,14 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="57"/>
       <c r="B16" s="63" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C16" s="65"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="104"/>
       <c r="I16" s="58"/>
       <c r="J16" s="58"/>
       <c r="K16" s="58"/>
@@ -21465,14 +21740,14 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="57"/>
       <c r="B17" s="63" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C17" s="65"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="104"/>
       <c r="I17" s="58"/>
       <c r="J17" s="58"/>
       <c r="K17" s="58"/>
@@ -21484,14 +21759,14 @@
     <row r="18" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="57"/>
       <c r="B18" s="66" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C18" s="67"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="106"/>
       <c r="I18" s="58"/>
       <c r="J18" s="58"/>
       <c r="K18" s="58"/>
@@ -21519,25 +21794,25 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="57" t="s">
+        <v>722</v>
+      </c>
+      <c r="B20" s="58" t="s">
         <v>723</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="C20" s="59" t="s">
         <v>724</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="D20" s="59" t="s">
         <v>725</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="E20" s="59" t="s">
         <v>726</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="F20" s="59" t="s">
         <v>727</v>
       </c>
-      <c r="F20" s="59" t="s">
+      <c r="G20" s="59" t="s">
         <v>728</v>
-      </c>
-      <c r="G20" s="59" t="s">
-        <v>729</v>
       </c>
       <c r="H20" s="58"/>
       <c r="I20" s="58"/>
@@ -21568,19 +21843,19 @@
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="57"/>
       <c r="B22" s="58" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C22" s="68">
         <v>42125</v>
       </c>
       <c r="D22" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="E22" s="59" t="s">
         <v>731</v>
       </c>
-      <c r="E22" s="59" t="s">
+      <c r="F22" s="59" t="s">
         <v>732</v>
-      </c>
-      <c r="F22" s="59" t="s">
-        <v>733</v>
       </c>
       <c r="G22" s="59"/>
       <c r="H22" s="58"/>
@@ -21595,7 +21870,7 @@
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="57"/>
       <c r="B23" s="58" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C23" s="68">
         <v>42130</v>
@@ -21604,10 +21879,10 @@
       <c r="E23" s="69"/>
       <c r="F23" s="58"/>
       <c r="G23" s="59" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H23" s="62" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I23" s="58"/>
       <c r="J23" s="58"/>
@@ -21623,10 +21898,10 @@
       <c r="E24" s="70"/>
       <c r="F24" s="58"/>
       <c r="G24" s="59" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H24" s="71" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I24" s="58"/>
       <c r="J24" s="58"/>
@@ -21637,7 +21912,7 @@
     </row>
     <row r="25" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B25" s="58" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C25" s="68">
         <v>42139</v>
@@ -21645,26 +21920,26 @@
       <c r="E25" s="54"/>
       <c r="F25" s="59"/>
       <c r="G25" s="59" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H25" s="80" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="I25" s="58"/>
       <c r="J25" s="58" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K25" s="58"/>
       <c r="L25" s="58"/>
       <c r="M25" s="58"/>
       <c r="N25" s="82" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="O25" s="58"/>
     </row>
     <row r="26" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B26" s="58" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C26" s="68">
         <v>42142</v>
@@ -21672,10 +21947,10 @@
       <c r="E26" s="5"/>
       <c r="F26" s="59"/>
       <c r="G26" s="59" t="s">
+        <v>763</v>
+      </c>
+      <c r="H26" s="80" t="s">
         <v>764</v>
-      </c>
-      <c r="H26" s="80" t="s">
-        <v>765</v>
       </c>
       <c r="I26" s="58"/>
       <c r="J26" s="58"/>
@@ -21687,7 +21962,7 @@
     </row>
     <row r="27" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B27" s="58" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C27" s="68">
         <v>42145</v>
@@ -21695,24 +21970,24 @@
       <c r="E27" s="83"/>
       <c r="F27" s="59"/>
       <c r="G27" s="59" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H27" s="80" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I27" s="58"/>
       <c r="J27" s="58"/>
       <c r="K27" s="58"/>
       <c r="L27" s="58"/>
       <c r="M27" s="58" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="N27" s="82"/>
       <c r="O27" s="58"/>
     </row>
     <row r="28" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B28" s="58" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C28" s="68">
         <v>42159</v>
@@ -21720,10 +21995,10 @@
       <c r="E28" s="2"/>
       <c r="F28" s="59"/>
       <c r="G28" s="59" t="s">
+        <v>802</v>
+      </c>
+      <c r="H28" s="84" t="s">
         <v>803</v>
-      </c>
-      <c r="H28" s="84" t="s">
-        <v>804</v>
       </c>
       <c r="I28" s="58"/>
       <c r="J28" s="58"/>
@@ -21743,15 +22018,15 @@
       <c r="E29" s="85"/>
       <c r="F29" s="59"/>
       <c r="G29" s="59" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H29" s="82" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="I29" s="58"/>
       <c r="J29" s="58"/>
       <c r="K29" s="82" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="L29" s="58"/>
       <c r="M29" s="58"/>
@@ -21766,15 +22041,15 @@
       <c r="E30" s="85"/>
       <c r="F30" s="59"/>
       <c r="G30" s="59" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H30" s="82" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="I30" s="58"/>
       <c r="J30" s="58"/>
       <c r="K30" s="82" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="L30" s="58"/>
       <c r="M30" s="58"/>
@@ -21789,10 +22064,10 @@
       <c r="E31" s="85"/>
       <c r="F31" s="59"/>
       <c r="G31" s="59" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H31" s="82" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="I31" s="58"/>
       <c r="J31" s="58"/>
@@ -21812,10 +22087,10 @@
       <c r="E32" s="90"/>
       <c r="F32" s="59"/>
       <c r="G32" s="59" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="H32" s="82" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="I32" s="58"/>
       <c r="J32" s="58"/>
@@ -21835,10 +22110,10 @@
       <c r="E33" s="90"/>
       <c r="F33" s="59"/>
       <c r="G33" s="59" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H33" s="82" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="I33" s="58"/>
       <c r="J33" s="58"/>
@@ -21856,15 +22131,15 @@
       <c r="E34" s="90"/>
       <c r="F34" s="59"/>
       <c r="G34" s="59" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H34" s="82" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="I34" s="58"/>
       <c r="J34" s="58"/>
       <c r="K34" s="82" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="L34" s="58"/>
       <c r="M34" s="58"/>
@@ -21879,10 +22154,10 @@
       <c r="E35" s="90"/>
       <c r="F35" s="59"/>
       <c r="G35" s="59" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H35" s="82" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="I35" s="58"/>
       <c r="J35" s="58"/>
@@ -21900,10 +22175,10 @@
       <c r="E36" s="97"/>
       <c r="F36" s="59"/>
       <c r="G36" s="59" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H36" s="82" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="I36" s="58"/>
       <c r="J36" s="58"/>
@@ -21921,15 +22196,15 @@
       <c r="E37" s="100"/>
       <c r="F37" s="59"/>
       <c r="G37" s="59" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H37" s="82" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="I37" s="58"/>
       <c r="J37" s="58"/>
       <c r="K37" s="82" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="L37" s="58"/>
       <c r="M37" s="58"/>
@@ -21938,19 +22213,19 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="57" t="s">
+        <v>734</v>
+      </c>
+      <c r="B38" s="58" t="s">
         <v>735</v>
       </c>
-      <c r="B38" s="58" t="s">
+      <c r="C38" s="59" t="s">
         <v>736</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="D38" s="59" t="s">
         <v>737</v>
       </c>
-      <c r="D38" s="59" t="s">
+      <c r="E38" s="59" t="s">
         <v>738</v>
-      </c>
-      <c r="E38" s="59" t="s">
-        <v>739</v>
       </c>
       <c r="F38" s="59"/>
       <c r="G38" s="59"/>
@@ -21965,14 +22240,14 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="57" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B39" s="58" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C39" s="58"/>
       <c r="D39" s="62" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E39" s="62"/>
       <c r="F39" s="59"/>
@@ -22061,6 +22336,315 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
+  <dimension ref="A1:AS52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51:E52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="12.75" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C26" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="B33" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:45" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="Z35" s="15"/>
+    </row>
+    <row r="36" spans="1:45" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="Z36" s="15"/>
+    </row>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="B40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="13"/>
+      <c r="X43" s="13"/>
+      <c r="Y43" s="13"/>
+      <c r="Z43" s="13"/>
+      <c r="AA43" s="13"/>
+      <c r="AB43" s="13"/>
+      <c r="AC43" s="13"/>
+      <c r="AD43" s="13"/>
+      <c r="AE43" s="13"/>
+      <c r="AF43" s="13"/>
+      <c r="AG43" s="13"/>
+      <c r="AH43" s="13"/>
+      <c r="AI43" s="13"/>
+      <c r="AJ43" s="13"/>
+      <c r="AK43" s="4"/>
+      <c r="AQ43" s="4"/>
+      <c r="AR43" s="4"/>
+      <c r="AS43" s="4"/>
+    </row>
+    <row r="44" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="B45" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="B46" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="C47" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="C48" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B49" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D50" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E51" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E52" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.34998626667073579"/>
+  </sheetPr>
   <dimension ref="A2:AX26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22074,65 +22658,65 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119" t="s">
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119" t="s">
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119"/>
-      <c r="W2" s="119"/>
-      <c r="X2" s="119"/>
-      <c r="Y2" s="119"/>
-      <c r="Z2" s="119"/>
-      <c r="AA2" s="119"/>
-      <c r="AB2" s="119"/>
-      <c r="AC2" s="119"/>
-      <c r="AD2" s="119" t="s">
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="120"/>
+      <c r="AA2" s="120"/>
+      <c r="AB2" s="120"/>
+      <c r="AC2" s="120"/>
+      <c r="AD2" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="AE2" s="119"/>
-      <c r="AF2" s="119"/>
-      <c r="AG2" s="119"/>
-      <c r="AH2" s="119"/>
-      <c r="AI2" s="119"/>
-      <c r="AJ2" s="119" t="s">
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="120"/>
+      <c r="AG2" s="120"/>
+      <c r="AH2" s="120"/>
+      <c r="AI2" s="120"/>
+      <c r="AJ2" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="AK2" s="119"/>
-      <c r="AL2" s="119"/>
-      <c r="AM2" s="119" t="s">
+      <c r="AK2" s="120"/>
+      <c r="AL2" s="120"/>
+      <c r="AM2" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="AN2" s="119"/>
-      <c r="AO2" s="119"/>
-      <c r="AP2" s="119"/>
-      <c r="AQ2" s="119"/>
-      <c r="AR2" s="119"/>
-      <c r="AS2" s="119"/>
-      <c r="AT2" s="119"/>
-      <c r="AU2" s="119"/>
-      <c r="AV2" s="119"/>
+      <c r="AN2" s="120"/>
+      <c r="AO2" s="120"/>
+      <c r="AP2" s="120"/>
+      <c r="AQ2" s="120"/>
+      <c r="AR2" s="120"/>
+      <c r="AS2" s="120"/>
+      <c r="AT2" s="120"/>
+      <c r="AU2" s="120"/>
+      <c r="AV2" s="120"/>
       <c r="AW2" s="4" t="s">
         <v>40</v>
       </c>
@@ -22397,10 +22981,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X248"/>
+  <dimension ref="A2:X252"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="C45" sqref="B45:C45"/>
+    <sheetView topLeftCell="C178" workbookViewId="0">
+      <selection activeCell="N172" sqref="N172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -22411,7 +22995,7 @@
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="1" customWidth="1"/>
     <col min="7" max="7" width="27.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -22729,10 +23313,10 @@
     <row r="40" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E40" s="11"/>
       <c r="F40" s="11" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
@@ -22743,7 +23327,7 @@
     <row r="41" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E41" s="11"/>
       <c r="F41" s="11" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>655</v>
@@ -22756,7 +23340,7 @@
     </row>
     <row r="42" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E42" s="101" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="F42" s="101"/>
       <c r="G42" s="101"/>
@@ -22914,7 +23498,7 @@
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -22954,7 +23538,7 @@
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.15">
@@ -22993,7 +23577,7 @@
         <v>251</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>252</v>
@@ -23011,7 +23595,7 @@
         <v>253</v>
       </c>
       <c r="F69" s="30" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>254</v>
@@ -23035,7 +23619,7 @@
         <v>303</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="72" spans="3:23" x14ac:dyDescent="0.15">
@@ -23211,16 +23795,16 @@
     <row r="80" spans="3:23" x14ac:dyDescent="0.15">
       <c r="C80" s="3"/>
       <c r="E80" s="73" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F80" s="73" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G80" s="73" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I80" s="3"/>
       <c r="K80" s="3"/>
@@ -23290,13 +23874,13 @@
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.15">
       <c r="E88" s="73" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F88" s="73" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G88" s="73" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H88" s="75"/>
       <c r="I88" s="73"/>
@@ -23340,13 +23924,13 @@
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.15">
       <c r="E90" s="73" t="s">
+        <v>767</v>
+      </c>
+      <c r="F90" s="73" t="s">
+        <v>792</v>
+      </c>
+      <c r="G90" s="73" t="s">
         <v>768</v>
-      </c>
-      <c r="F90" s="73" t="s">
-        <v>793</v>
-      </c>
-      <c r="G90" s="73" t="s">
-        <v>769</v>
       </c>
       <c r="H90" s="73"/>
       <c r="I90" s="73"/>
@@ -23393,13 +23977,13 @@
         <v>537</v>
       </c>
       <c r="E92" s="73" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F92" s="73" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G92" s="73" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H92" s="73"/>
       <c r="I92" s="74"/>
@@ -23445,7 +24029,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D97" s="26" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.15">
@@ -23648,7 +24232,7 @@
         <v>300</v>
       </c>
       <c r="G116" s="89" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="H116" s="89"/>
       <c r="I116" s="89"/>
@@ -24111,7 +24695,7 @@
         <v>328</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="183" spans="2:15" x14ac:dyDescent="0.15">
@@ -24148,18 +24732,18 @@
       <c r="B186" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="F186" s="116" t="s">
+      <c r="F186" s="117" t="s">
         <v>441</v>
       </c>
       <c r="G186" s="48" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H186" s="49" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="187" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="F187" s="117"/>
+      <c r="F187" s="118"/>
       <c r="G187" s="35" t="s">
         <v>332</v>
       </c>
@@ -24174,7 +24758,7 @@
       <c r="M187" s="40"/>
     </row>
     <row r="188" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="F188" s="117"/>
+      <c r="F188" s="118"/>
       <c r="G188" s="35" t="s">
         <v>333</v>
       </c>
@@ -24187,7 +24771,7 @@
       <c r="L188" s="40"/>
     </row>
     <row r="189" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="F189" s="117"/>
+      <c r="F189" s="118"/>
       <c r="G189" s="35" t="s">
         <v>334</v>
       </c>
@@ -24204,7 +24788,7 @@
       <c r="O189" s="31"/>
     </row>
     <row r="190" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="F190" s="117"/>
+      <c r="F190" s="118"/>
       <c r="G190" s="35" t="s">
         <v>585</v>
       </c>
@@ -24221,7 +24805,7 @@
       <c r="O190" s="31"/>
     </row>
     <row r="191" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="F191" s="117"/>
+      <c r="F191" s="118"/>
       <c r="G191" s="35" t="s">
         <v>578</v>
       </c>
@@ -24236,7 +24820,7 @@
       </c>
     </row>
     <row r="192" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="F192" s="117"/>
+      <c r="F192" s="118"/>
       <c r="G192" s="35" t="s">
         <v>335</v>
       </c>
@@ -24251,7 +24835,7 @@
       </c>
     </row>
     <row r="193" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F193" s="117"/>
+      <c r="F193" s="118"/>
       <c r="G193" s="79" t="s">
         <v>629</v>
       </c>
@@ -24260,7 +24844,7 @@
       </c>
     </row>
     <row r="194" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F194" s="117"/>
+      <c r="F194" s="118"/>
       <c r="G194" s="79" t="s">
         <v>630</v>
       </c>
@@ -24276,7 +24860,7 @@
       <c r="N194" s="11"/>
     </row>
     <row r="195" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F195" s="117"/>
+      <c r="F195" s="118"/>
       <c r="G195" s="79" t="s">
         <v>634</v>
       </c>
@@ -24285,7 +24869,7 @@
       </c>
     </row>
     <row r="196" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F196" s="117"/>
+      <c r="F196" s="118"/>
       <c r="G196" s="79" t="s">
         <v>636</v>
       </c>
@@ -24294,7 +24878,7 @@
       </c>
     </row>
     <row r="197" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="F197" s="118"/>
+      <c r="F197" s="119"/>
       <c r="G197" s="37" t="s">
         <v>586</v>
       </c>
@@ -24329,7 +24913,7 @@
         <v>355</v>
       </c>
       <c r="I200" s="73" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J200" s="73"/>
       <c r="K200" s="73"/>
@@ -24358,7 +24942,7 @@
         <v>601</v>
       </c>
       <c r="I201" s="73" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J201" s="73"/>
       <c r="K201" s="73"/>
@@ -24378,7 +24962,7 @@
     </row>
     <row r="203" spans="2:24" x14ac:dyDescent="0.15">
       <c r="F203" s="26" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
@@ -24387,7 +24971,7 @@
     <row r="204" spans="2:24" x14ac:dyDescent="0.15">
       <c r="F204" s="3"/>
       <c r="G204" s="54" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H204" s="54"/>
       <c r="I204" s="54"/>
@@ -24400,10 +24984,10 @@
     <row r="205" spans="2:24" x14ac:dyDescent="0.15">
       <c r="F205" s="3"/>
       <c r="G205" s="54" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H205" s="54" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I205" s="54"/>
       <c r="J205" s="54"/>
@@ -24415,10 +24999,10 @@
     <row r="206" spans="2:24" x14ac:dyDescent="0.15">
       <c r="F206" s="3"/>
       <c r="G206" s="54" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H206" s="54" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I206" s="54"/>
       <c r="J206" s="54"/>
@@ -24505,7 +25089,7 @@
         <v>366</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>367</v>
@@ -24666,236 +25250,298 @@
         <v>666</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="F225" s="10" t="s">
-        <v>823</v>
-      </c>
-      <c r="G225" s="10"/>
-      <c r="H225" s="10"/>
-      <c r="I225" s="10"/>
-      <c r="J225" s="10"/>
-      <c r="K225" s="10"/>
-      <c r="L225" s="10"/>
-      <c r="M225" s="10"/>
-      <c r="N225" s="10"/>
-      <c r="O225" s="10"/>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="F226" s="10"/>
-      <c r="G226" s="10" t="s">
-        <v>825</v>
-      </c>
-      <c r="H226" s="10" t="s">
-        <v>826</v>
-      </c>
-      <c r="I226" s="10"/>
-      <c r="J226" s="10"/>
-      <c r="K226" s="10"/>
-      <c r="L226" s="10"/>
-      <c r="M226" s="10"/>
-      <c r="N226" s="10"/>
-      <c r="O226" s="10"/>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="F227" s="14" t="s">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="F225" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="G225" s="3"/>
+      <c r="H225" s="3"/>
+      <c r="I225" s="3"/>
+      <c r="J225" s="3"/>
+      <c r="K225" s="3"/>
+      <c r="L225" s="3"/>
+      <c r="M225" s="3"/>
+      <c r="N225" s="3"/>
+      <c r="O225" s="3"/>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="F226" s="3"/>
+      <c r="G226" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="H226" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="I226" s="3"/>
+      <c r="J226" s="3"/>
+      <c r="K226" s="3"/>
+      <c r="L226" s="3"/>
+      <c r="M226" s="3"/>
+      <c r="N226" s="3"/>
+      <c r="O226" s="3"/>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="F227" s="102" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="G227" s="102"/>
+      <c r="H227" s="102"/>
+      <c r="I227" s="102"/>
+      <c r="J227" s="102"/>
+      <c r="K227" s="102"/>
+      <c r="L227" s="102"/>
+      <c r="M227" s="102"/>
+      <c r="N227" s="102"/>
+      <c r="O227" s="102"/>
+      <c r="P227" s="102"/>
+      <c r="Q227" s="102"/>
+      <c r="R227" s="102"/>
+      <c r="S227" s="102"/>
+      <c r="T227" s="102"/>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A228" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="G228" s="1" t="s">
+      <c r="F228" s="102"/>
+      <c r="G228" s="102" t="s">
         <v>378</v>
       </c>
-      <c r="H228" s="14" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A229" s="1" t="s">
+      <c r="H228" s="102"/>
+      <c r="I228" s="102"/>
+      <c r="J228" s="102"/>
+      <c r="K228" s="102"/>
+      <c r="L228" s="102"/>
+      <c r="M228" s="102"/>
+      <c r="N228" s="102"/>
+      <c r="O228" s="102"/>
+      <c r="P228" s="102"/>
+      <c r="Q228" s="102"/>
+      <c r="R228" s="102"/>
+      <c r="S228" s="102"/>
+      <c r="T228" s="102"/>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A229" s="10"/>
+      <c r="F229" s="102"/>
+      <c r="G229" s="102"/>
+      <c r="H229" s="102" t="s">
+        <v>912</v>
+      </c>
+      <c r="I229" s="102"/>
+      <c r="J229" s="102"/>
+      <c r="K229" s="102"/>
+      <c r="L229" s="102"/>
+      <c r="M229" s="102"/>
+      <c r="N229" s="102"/>
+      <c r="O229" s="102"/>
+      <c r="P229" s="102"/>
+      <c r="Q229" s="102"/>
+      <c r="R229" s="102"/>
+      <c r="S229" s="102"/>
+      <c r="T229" s="102"/>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A230" s="10"/>
+      <c r="F230" s="102"/>
+      <c r="G230" s="102"/>
+      <c r="H230" s="102"/>
+      <c r="I230" s="102" t="s">
+        <v>913</v>
+      </c>
+      <c r="J230" s="102"/>
+      <c r="K230" s="102"/>
+      <c r="L230" s="102"/>
+      <c r="M230" s="102"/>
+      <c r="N230" s="102"/>
+      <c r="O230" s="102"/>
+      <c r="P230" s="102"/>
+      <c r="Q230" s="102"/>
+      <c r="R230" s="102"/>
+      <c r="S230" s="102"/>
+      <c r="T230" s="102"/>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A231" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="G229" s="1" t="s">
+      <c r="F231" s="102"/>
+      <c r="G231" s="102" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="F230" s="10" t="s">
-        <v>812</v>
-      </c>
-      <c r="G230" s="10"/>
-      <c r="H230" s="10"/>
-      <c r="I230" s="10"/>
-      <c r="J230" s="10"/>
-      <c r="K230" s="10"/>
-      <c r="L230" s="10"/>
-      <c r="M230" s="10"/>
-      <c r="N230" s="10"/>
-      <c r="O230" s="10"/>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="F231" s="10"/>
-      <c r="G231" s="10" t="s">
-        <v>813</v>
-      </c>
-      <c r="H231" s="10" t="s">
-        <v>814</v>
-      </c>
-      <c r="I231" s="10"/>
-      <c r="J231" s="10"/>
-      <c r="K231" s="10"/>
-      <c r="L231" s="10"/>
-      <c r="M231" s="10"/>
-      <c r="N231" s="10"/>
-      <c r="O231" s="10"/>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="F232" s="10"/>
-      <c r="G232" s="10" t="s">
-        <v>815</v>
-      </c>
-      <c r="H232" s="10"/>
-      <c r="I232" s="10"/>
-      <c r="J232" s="10"/>
-      <c r="K232" s="10"/>
-      <c r="L232" s="10"/>
-      <c r="M232" s="10"/>
-      <c r="N232" s="10"/>
-      <c r="O232" s="10"/>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="F233" s="10"/>
-      <c r="G233" s="10" t="s">
-        <v>816</v>
-      </c>
-      <c r="H233" s="10"/>
-      <c r="I233" s="10"/>
-      <c r="J233" s="10"/>
-      <c r="K233" s="10"/>
-      <c r="L233" s="10"/>
-      <c r="M233" s="10"/>
-      <c r="N233" s="10"/>
-      <c r="O233" s="10"/>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="E234" s="1" t="s">
+      <c r="H231" s="102"/>
+      <c r="I231" s="102"/>
+      <c r="J231" s="102"/>
+      <c r="K231" s="102"/>
+      <c r="L231" s="102"/>
+      <c r="M231" s="102"/>
+      <c r="N231" s="102"/>
+      <c r="O231" s="102"/>
+      <c r="P231" s="102"/>
+      <c r="Q231" s="102"/>
+      <c r="R231" s="102"/>
+      <c r="S231" s="102"/>
+      <c r="T231" s="102"/>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="F232" s="102" t="s">
+        <v>806</v>
+      </c>
+      <c r="G232" s="102"/>
+      <c r="H232" s="102"/>
+      <c r="I232" s="102"/>
+      <c r="J232" s="102"/>
+      <c r="K232" s="102"/>
+      <c r="L232" s="102"/>
+      <c r="M232" s="102"/>
+      <c r="N232" s="102"/>
+      <c r="O232" s="102"/>
+      <c r="P232" s="102"/>
+      <c r="Q232" s="102"/>
+      <c r="R232" s="102"/>
+      <c r="S232" s="102"/>
+      <c r="T232" s="102"/>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="F233" s="102"/>
+      <c r="G233" s="102" t="s">
+        <v>807</v>
+      </c>
+      <c r="H233" s="102"/>
+      <c r="I233" s="102"/>
+      <c r="J233" s="102"/>
+      <c r="K233" s="102"/>
+      <c r="L233" s="102"/>
+      <c r="M233" s="102"/>
+      <c r="N233" s="102"/>
+      <c r="O233" s="102"/>
+      <c r="P233" s="102"/>
+      <c r="Q233" s="102"/>
+      <c r="R233" s="102"/>
+      <c r="S233" s="102"/>
+      <c r="T233" s="102"/>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="F234" s="102"/>
+      <c r="G234" s="102"/>
+      <c r="H234" s="102" t="s">
+        <v>912</v>
+      </c>
+      <c r="I234" s="102"/>
+      <c r="J234" s="102"/>
+      <c r="K234" s="102"/>
+      <c r="L234" s="102"/>
+      <c r="M234" s="102"/>
+      <c r="N234" s="102"/>
+      <c r="O234" s="102"/>
+      <c r="P234" s="102"/>
+      <c r="Q234" s="102"/>
+      <c r="R234" s="102"/>
+      <c r="S234" s="102"/>
+      <c r="T234" s="102"/>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="F235" s="102"/>
+      <c r="G235" s="102"/>
+      <c r="H235" s="102"/>
+      <c r="I235" s="102" t="s">
+        <v>914</v>
+      </c>
+      <c r="J235" s="102"/>
+      <c r="K235" s="102"/>
+      <c r="L235" s="102"/>
+      <c r="M235" s="102"/>
+      <c r="N235" s="102"/>
+      <c r="O235" s="102"/>
+      <c r="P235" s="102"/>
+      <c r="Q235" s="102"/>
+      <c r="R235" s="102"/>
+      <c r="S235" s="102"/>
+      <c r="T235" s="102"/>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="F236" s="3"/>
+      <c r="G236" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="H236" s="3"/>
+      <c r="I236" s="3"/>
+      <c r="J236" s="3"/>
+      <c r="K236" s="3"/>
+      <c r="L236" s="3"/>
+      <c r="M236" s="3"/>
+      <c r="N236" s="3"/>
+      <c r="O236" s="3"/>
+    </row>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="F237" s="3"/>
+      <c r="G237" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="H237" s="3"/>
+      <c r="I237" s="3"/>
+      <c r="J237" s="3"/>
+      <c r="K237" s="3"/>
+      <c r="L237" s="3"/>
+      <c r="M237" s="3"/>
+      <c r="N237" s="3"/>
+      <c r="O237" s="3"/>
+    </row>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="E238" s="1" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="F235" s="1" t="s">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="F239" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="F236" s="1" t="s">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="F240" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="G236" s="1" t="s">
+      <c r="G240" s="1" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="F237" s="1" t="s">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F241" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="G238" s="1" t="s">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="G242" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="E239" s="1" t="s">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E243" s="1" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="E240" s="1" t="s">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E244" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B241" s="9" t="s">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B245" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="C241" s="9" t="s">
+      <c r="C245" s="9" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="D242" s="1" t="s">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D246" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="C243" s="10"/>
-      <c r="D243" s="10"/>
-      <c r="E243" s="10"/>
-      <c r="F243" s="10"/>
-      <c r="G243" s="10"/>
-      <c r="H243" s="10"/>
-      <c r="I243" s="10"/>
-      <c r="J243" s="10"/>
-      <c r="K243" s="10"/>
-      <c r="L243" s="10"/>
-      <c r="M243" s="10"/>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A244" s="10" t="s">
-        <v>602</v>
-      </c>
-      <c r="C244" s="86" t="s">
-        <v>829</v>
-      </c>
-      <c r="D244" s="10"/>
-      <c r="E244" s="10"/>
-      <c r="F244" s="10"/>
-      <c r="G244" s="10"/>
-      <c r="H244" s="10"/>
-      <c r="I244" s="10"/>
-      <c r="J244" s="10"/>
-      <c r="K244" s="10"/>
-      <c r="L244" s="10"/>
-      <c r="M244" s="10"/>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="C245" s="10"/>
-      <c r="D245" s="10" t="s">
-        <v>831</v>
-      </c>
-      <c r="E245" s="10"/>
-      <c r="F245" s="10"/>
-      <c r="G245" s="10"/>
-      <c r="H245" s="10"/>
-      <c r="I245" s="10"/>
-      <c r="J245" s="10"/>
-      <c r="K245" s="10"/>
-      <c r="L245" s="10"/>
-      <c r="M245" s="10"/>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="C246" s="10"/>
-      <c r="D246" s="10" t="s">
-        <v>832</v>
-      </c>
-      <c r="E246" s="10"/>
-      <c r="F246" s="10"/>
-      <c r="G246" s="10"/>
-      <c r="H246" s="10"/>
-      <c r="I246" s="10"/>
-      <c r="J246" s="10"/>
-      <c r="K246" s="10"/>
-      <c r="L246" s="10"/>
-      <c r="M246" s="10"/>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C247" s="10"/>
       <c r="D247" s="10"/>
-      <c r="E247" s="10" t="s">
-        <v>833</v>
-      </c>
+      <c r="E247" s="10"/>
       <c r="F247" s="10"/>
       <c r="G247" s="10"/>
       <c r="H247" s="10"/>
@@ -24906,11 +25552,14 @@
       <c r="M247" s="10"/>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="C248" s="10"/>
+      <c r="A248" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="C248" s="86" t="s">
+        <v>820</v>
+      </c>
       <c r="D248" s="10"/>
-      <c r="E248" s="10" t="s">
-        <v>834</v>
-      </c>
+      <c r="E248" s="10"/>
       <c r="F248" s="10"/>
       <c r="G248" s="10"/>
       <c r="H248" s="10"/>
@@ -24919,6 +25568,66 @@
       <c r="K248" s="10"/>
       <c r="L248" s="10"/>
       <c r="M248" s="10"/>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C249" s="10"/>
+      <c r="D249" s="10" t="s">
+        <v>822</v>
+      </c>
+      <c r="E249" s="10"/>
+      <c r="F249" s="10"/>
+      <c r="G249" s="10"/>
+      <c r="H249" s="10"/>
+      <c r="I249" s="10"/>
+      <c r="J249" s="10"/>
+      <c r="K249" s="10"/>
+      <c r="L249" s="10"/>
+      <c r="M249" s="10"/>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C250" s="10"/>
+      <c r="D250" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="E250" s="10"/>
+      <c r="F250" s="10"/>
+      <c r="G250" s="10"/>
+      <c r="H250" s="10"/>
+      <c r="I250" s="10"/>
+      <c r="J250" s="10"/>
+      <c r="K250" s="10"/>
+      <c r="L250" s="10"/>
+      <c r="M250" s="10"/>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C251" s="10"/>
+      <c r="D251" s="10"/>
+      <c r="E251" s="10" t="s">
+        <v>824</v>
+      </c>
+      <c r="F251" s="10"/>
+      <c r="G251" s="10"/>
+      <c r="H251" s="10"/>
+      <c r="I251" s="10"/>
+      <c r="J251" s="10"/>
+      <c r="K251" s="10"/>
+      <c r="L251" s="10"/>
+      <c r="M251" s="10"/>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C252" s="10"/>
+      <c r="D252" s="10"/>
+      <c r="E252" s="10" t="s">
+        <v>825</v>
+      </c>
+      <c r="F252" s="10"/>
+      <c r="G252" s="10"/>
+      <c r="H252" s="10"/>
+      <c r="I252" s="10"/>
+      <c r="J252" s="10"/>
+      <c r="K252" s="10"/>
+      <c r="L252" s="10"/>
+      <c r="M252" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -24932,22 +25641,384 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="19.125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="26" t="s">
+        <v>974</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="3"/>
+      <c r="B2" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="B11" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="B12" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="3"/>
+      <c r="B14" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="3"/>
+      <c r="B15" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
+      <c r="B16" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="3"/>
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="3"/>
+      <c r="C19" s="4">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="3"/>
+      <c r="C20" s="4">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="C21" s="4">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="3"/>
+      <c r="B22" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C27" s="10"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="C30" s="10"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="176" t="s">
+        <v>926</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="29"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="29"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="29"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="29"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="29"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="29"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B38" s="29"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B39" s="29"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B40" s="29"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B41" s="29"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B42" s="29"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B43" s="29"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B44" s="29"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B45" s="29"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B46" s="29"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B47" s="29"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B48" s="29"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B49" s="29"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B50" s="29"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B51" s="29"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B52" s="29"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="N10" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2:AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26.625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="2" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="34.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="31" width="9" style="1"/>
+    <col min="36" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B1" s="9" t="s">
         <v>411</v>
       </c>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
@@ -25040,10 +26111,18 @@
       <c r="AE2" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
+      <c r="AF2" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
@@ -25056,7 +26135,7 @@
         <v>389</v>
       </c>
       <c r="D3" s="73" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>390</v>
@@ -25077,7 +26156,7 @@
         <v>332</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>577</v>
@@ -25112,25 +26191,33 @@
       <c r="V3" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="W3" s="120" t="s">
-        <v>689</v>
-      </c>
-      <c r="X3" s="120"/>
-      <c r="Y3" s="120"/>
-      <c r="Z3" s="120"/>
-      <c r="AA3" s="120"/>
-      <c r="AB3" s="120"/>
-      <c r="AC3" s="120"/>
+      <c r="W3" s="121" t="s">
+        <v>688</v>
+      </c>
+      <c r="X3" s="121"/>
+      <c r="Y3" s="121"/>
+      <c r="Z3" s="121"/>
+      <c r="AA3" s="121"/>
+      <c r="AB3" s="121"/>
+      <c r="AC3" s="121"/>
       <c r="AD3" s="73" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>790</v>
-      </c>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
+        <v>789</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>922</v>
+      </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
@@ -25143,13 +26230,13 @@
         <v>399</v>
       </c>
       <c r="D4" s="73" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>400</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>401</v>
@@ -25199,99 +26286,111 @@
       <c r="V4" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="W4" s="121" t="s">
-        <v>782</v>
-      </c>
-      <c r="X4" s="121"/>
-      <c r="Y4" s="121"/>
-      <c r="Z4" s="121"/>
-      <c r="AA4" s="121"/>
-      <c r="AB4" s="121"/>
-      <c r="AC4" s="121"/>
+      <c r="W4" s="122" t="s">
+        <v>781</v>
+      </c>
+      <c r="X4" s="122"/>
+      <c r="Y4" s="122"/>
+      <c r="Z4" s="122"/>
+      <c r="AA4" s="122"/>
+      <c r="AB4" s="122"/>
+      <c r="AC4" s="122"/>
       <c r="AD4" s="73" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="AE4" s="7" t="s">
-        <v>791</v>
-      </c>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
+        <v>790</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>923</v>
+      </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>547</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C5" s="73" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="J5" s="119" t="s">
         <v>774</v>
       </c>
-      <c r="K5" s="119"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="119"/>
-      <c r="N5" s="119"/>
-      <c r="O5" s="119"/>
-      <c r="P5" s="119"/>
-      <c r="Q5" s="119"/>
-      <c r="R5" s="119"/>
-      <c r="S5" s="119"/>
-      <c r="T5" s="119"/>
-      <c r="U5" s="119"/>
+      <c r="J5" s="120" t="s">
+        <v>773</v>
+      </c>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="120"/>
+      <c r="T5" s="120"/>
+      <c r="U5" s="120"/>
       <c r="V5" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="W5" s="121" t="s">
-        <v>781</v>
-      </c>
-      <c r="X5" s="121"/>
-      <c r="Y5" s="121"/>
-      <c r="Z5" s="121"/>
-      <c r="AA5" s="121"/>
-      <c r="AB5" s="121"/>
-      <c r="AC5" s="121"/>
+        <v>686</v>
+      </c>
+      <c r="W5" s="122" t="s">
+        <v>780</v>
+      </c>
+      <c r="X5" s="122"/>
+      <c r="Y5" s="122"/>
+      <c r="Z5" s="122"/>
+      <c r="AA5" s="122"/>
+      <c r="AB5" s="122"/>
+      <c r="AC5" s="122"/>
       <c r="AD5" s="73" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="C6" s="73" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D6" s="73" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="1" t="s">
-        <v>686</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
@@ -25402,7 +26501,7 @@
         <v>423</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
@@ -25448,7 +26547,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="V11" s="21"/>
       <c r="W11" s="51"/>
@@ -25494,17 +26593,17 @@
       <c r="J13" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>820</v>
-      </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
+      <c r="L13" s="102" t="s">
+        <v>813</v>
+      </c>
+      <c r="M13" s="102" t="s">
+        <v>813</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
       <c r="V13" s="21"/>
       <c r="W13" s="51"/>
       <c r="X13" s="51"/>
@@ -25540,19 +26639,19 @@
         <v>420</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>828</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>810</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>811</v>
-      </c>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
+        <v>698</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="L14" s="102" t="s">
+        <v>805</v>
+      </c>
+      <c r="M14" s="102" t="s">
+        <v>907</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
@@ -25585,92 +26684,92 @@
         <v>54</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>821</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>805</v>
-      </c>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
+        <v>697</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="L15" s="102" t="s">
+        <v>911</v>
+      </c>
+      <c r="M15" s="102" t="s">
+        <v>910</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B16" s="53" t="s">
-        <v>691</v>
-      </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>807</v>
-      </c>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
+        <v>690</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="102" t="s">
+        <v>804</v>
+      </c>
+      <c r="M16" s="102" t="s">
+        <v>908</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>822</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>808</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>809</v>
-      </c>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
+        <v>699</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="L17" s="102" t="s">
+        <v>909</v>
+      </c>
+      <c r="M17" s="102" t="s">
+        <v>915</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B21" s="76" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -25688,7 +26787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX30"/>
   <sheetViews>
@@ -25708,64 +26807,64 @@
       </c>
     </row>
     <row r="2" spans="1:50" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="C2" s="122" t="s">
+      <c r="C2" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122" t="s">
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="122"/>
-      <c r="T2" s="122"/>
-      <c r="U2" s="122" t="s">
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="123"/>
+      <c r="U2" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="122"/>
-      <c r="AA2" s="122"/>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="122"/>
-      <c r="AE2" s="122" t="s">
+      <c r="V2" s="123"/>
+      <c r="W2" s="123"/>
+      <c r="X2" s="123"/>
+      <c r="Y2" s="123"/>
+      <c r="Z2" s="123"/>
+      <c r="AA2" s="123"/>
+      <c r="AB2" s="123"/>
+      <c r="AC2" s="123"/>
+      <c r="AD2" s="123"/>
+      <c r="AE2" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="AF2" s="122"/>
-      <c r="AG2" s="122"/>
-      <c r="AH2" s="122"/>
-      <c r="AI2" s="122"/>
-      <c r="AJ2" s="122"/>
-      <c r="AK2" s="122" t="s">
+      <c r="AF2" s="123"/>
+      <c r="AG2" s="123"/>
+      <c r="AH2" s="123"/>
+      <c r="AI2" s="123"/>
+      <c r="AJ2" s="123"/>
+      <c r="AK2" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="AL2" s="122"/>
-      <c r="AM2" s="122"/>
-      <c r="AN2" s="122" t="s">
+      <c r="AL2" s="123"/>
+      <c r="AM2" s="123"/>
+      <c r="AN2" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="AO2" s="122"/>
-      <c r="AP2" s="122"/>
-      <c r="AQ2" s="122"/>
-      <c r="AR2" s="122"/>
-      <c r="AS2" s="122"/>
-      <c r="AT2" s="122"/>
-      <c r="AU2" s="122"/>
-      <c r="AV2" s="122"/>
+      <c r="AO2" s="123"/>
+      <c r="AP2" s="123"/>
+      <c r="AQ2" s="123"/>
+      <c r="AR2" s="123"/>
+      <c r="AS2" s="123"/>
+      <c r="AT2" s="123"/>
+      <c r="AU2" s="123"/>
+      <c r="AV2" s="123"/>
       <c r="AW2" s="28" t="s">
         <v>40</v>
       </c>
@@ -26332,12 +27431,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView topLeftCell="B76" workbookViewId="0">
+      <selection activeCell="P108" sqref="P108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -26416,13 +27515,13 @@
         <v>116</v>
       </c>
       <c r="D7" s="72" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -26437,7 +27536,7 @@
     </row>
     <row r="8" spans="3:30" x14ac:dyDescent="0.15">
       <c r="D8" s="1" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
     </row>
     <row r="9" spans="3:30" x14ac:dyDescent="0.15">
@@ -26557,7 +27656,7 @@
     <row r="16" spans="3:30" x14ac:dyDescent="0.15">
       <c r="C16" s="92"/>
       <c r="D16" s="92" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E16" s="92"/>
       <c r="F16" s="92"/>
@@ -26588,7 +27687,7 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A17" s="31" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="C17" s="92"/>
       <c r="D17" s="92" t="s">
@@ -26749,7 +27848,7 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C22" s="93" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="D22" s="89"/>
       <c r="E22" s="89"/>
@@ -26782,7 +27881,7 @@
     <row r="23" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C23" s="93"/>
       <c r="D23" s="89" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="E23" s="89"/>
       <c r="F23" s="89"/>
@@ -26814,7 +27913,7 @@
     <row r="24" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C24" s="89"/>
       <c r="D24" s="89" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="E24" s="89"/>
       <c r="F24" s="89"/>
@@ -26846,7 +27945,7 @@
     <row r="25" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C25" s="89"/>
       <c r="D25" s="89" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="E25" s="89"/>
       <c r="F25" s="89"/>
@@ -26878,7 +27977,7 @@
     <row r="26" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C26" s="89"/>
       <c r="D26" s="89" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="E26" s="89"/>
       <c r="F26" s="89"/>
@@ -26910,7 +28009,7 @@
     <row r="27" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C27" s="89"/>
       <c r="D27" s="89" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="E27" s="89"/>
       <c r="F27" s="89"/>
@@ -26942,7 +28041,7 @@
     <row r="28" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C28" s="89"/>
       <c r="D28" s="89" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="E28" s="89"/>
       <c r="F28" s="89"/>
@@ -26975,7 +28074,7 @@
       <c r="C29" s="89"/>
       <c r="D29" s="89"/>
       <c r="E29" s="5" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -27007,7 +28106,7 @@
       <c r="C30" s="89"/>
       <c r="D30" s="89"/>
       <c r="E30" s="5" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -27037,41 +28136,41 @@
     </row>
     <row r="31" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D31" s="2" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
     </row>
     <row r="32" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D32" s="2" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
     </row>
     <row r="33" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D33" s="2" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
     </row>
     <row r="34" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="36" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C36" s="2" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
     </row>
     <row r="37" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C37" s="2" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
     </row>
     <row r="38" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="39" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D39" s="2" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
     </row>
     <row r="40" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -27080,10 +28179,10 @@
     <row r="43" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C44" s="2" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
     </row>
     <row r="45" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -27092,7 +28191,7 @@
     <row r="48" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="49" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D49" s="2" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
     </row>
     <row r="50" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -27101,12 +28200,12 @@
     <row r="53" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="54" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="N54" s="2" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
     </row>
     <row r="55" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C55" s="2" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
     </row>
     <row r="56" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -27114,17 +28213,17 @@
     <row r="58" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="59" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D59" s="2" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
     </row>
     <row r="60" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D60" s="2" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
     </row>
     <row r="61" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E61" s="2" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
     </row>
     <row r="62" spans="3:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -27139,26 +28238,26 @@
     <row r="71" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="72" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G72" s="95" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="T72" s="95" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
     </row>
     <row r="73" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="74" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D74" s="2" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
     </row>
     <row r="75" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E75" s="2" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
     </row>
     <row r="76" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E76" s="2" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.15">
@@ -27323,109 +28422,109 @@
       <c r="AW85" s="4"/>
     </row>
     <row r="86" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="C86" s="149" t="s">
+      <c r="C86" s="150" t="s">
         <v>149</v>
       </c>
-      <c r="D86" s="149"/>
-      <c r="E86" s="149" t="s">
+      <c r="D86" s="150"/>
+      <c r="E86" s="150" t="s">
         <v>150</v>
       </c>
-      <c r="F86" s="149"/>
-      <c r="G86" s="149" t="s">
+      <c r="F86" s="150"/>
+      <c r="G86" s="150" t="s">
         <v>151</v>
       </c>
-      <c r="H86" s="149"/>
-      <c r="I86" s="149" t="s">
+      <c r="H86" s="150"/>
+      <c r="I86" s="150" t="s">
         <v>152</v>
       </c>
-      <c r="J86" s="149"/>
-      <c r="K86" s="149" t="s">
+      <c r="J86" s="150"/>
+      <c r="K86" s="150" t="s">
         <v>153</v>
       </c>
-      <c r="L86" s="149"/>
-      <c r="M86" s="141" t="s">
+      <c r="L86" s="150"/>
+      <c r="M86" s="142" t="s">
         <v>154</v>
       </c>
-      <c r="N86" s="141"/>
-      <c r="O86" s="141" t="s">
+      <c r="N86" s="142"/>
+      <c r="O86" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="P86" s="141"/>
-      <c r="Q86" s="141" t="s">
+      <c r="P86" s="142"/>
+      <c r="Q86" s="142" t="s">
         <v>173</v>
       </c>
-      <c r="R86" s="141"/>
-      <c r="S86" s="141" t="s">
+      <c r="R86" s="142"/>
+      <c r="S86" s="142" t="s">
         <v>174</v>
       </c>
-      <c r="T86" s="141"/>
-      <c r="U86" s="141" t="s">
+      <c r="T86" s="142"/>
+      <c r="U86" s="142" t="s">
         <v>175</v>
       </c>
-      <c r="V86" s="141"/>
-      <c r="W86" s="141" t="s">
+      <c r="V86" s="142"/>
+      <c r="W86" s="142" t="s">
         <v>176</v>
       </c>
-      <c r="X86" s="141"/>
-      <c r="Y86" s="141" t="s">
+      <c r="X86" s="142"/>
+      <c r="Y86" s="142" t="s">
         <v>185</v>
       </c>
-      <c r="Z86" s="141"/>
-      <c r="AA86" s="141" t="s">
+      <c r="Z86" s="142"/>
+      <c r="AA86" s="142" t="s">
         <v>205</v>
       </c>
-      <c r="AB86" s="141"/>
-      <c r="AC86" s="141" t="s">
+      <c r="AB86" s="142"/>
+      <c r="AC86" s="142" t="s">
         <v>156</v>
       </c>
-      <c r="AD86" s="141"/>
-      <c r="AE86" s="148" t="s">
+      <c r="AD86" s="142"/>
+      <c r="AE86" s="149" t="s">
         <v>157</v>
       </c>
-      <c r="AF86" s="148"/>
+      <c r="AF86" s="149"/>
     </row>
     <row r="87" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="C87" s="146" t="s">
+      <c r="C87" s="147" t="s">
         <v>159</v>
       </c>
-      <c r="D87" s="146"/>
-      <c r="E87" s="130" t="s">
-        <v>838</v>
-      </c>
-      <c r="F87" s="130"/>
-      <c r="G87" s="145" t="s">
-        <v>839</v>
-      </c>
-      <c r="H87" s="145"/>
-      <c r="I87" s="146"/>
-      <c r="J87" s="146"/>
-      <c r="K87" s="146"/>
-      <c r="L87" s="146"/>
-      <c r="M87" s="142"/>
-      <c r="N87" s="142"/>
-      <c r="O87" s="142"/>
-      <c r="P87" s="142"/>
-      <c r="Q87" s="142"/>
-      <c r="R87" s="142"/>
-      <c r="S87" s="142"/>
-      <c r="T87" s="142"/>
-      <c r="U87" s="142"/>
-      <c r="V87" s="142"/>
-      <c r="W87" s="142"/>
-      <c r="X87" s="142"/>
-      <c r="Y87" s="150"/>
-      <c r="Z87" s="151"/>
-      <c r="AA87" s="143"/>
-      <c r="AB87" s="144"/>
-      <c r="AC87" s="142" t="s">
+      <c r="D87" s="147"/>
+      <c r="E87" s="131" t="s">
+        <v>829</v>
+      </c>
+      <c r="F87" s="131"/>
+      <c r="G87" s="146" t="s">
+        <v>830</v>
+      </c>
+      <c r="H87" s="146"/>
+      <c r="I87" s="147"/>
+      <c r="J87" s="147"/>
+      <c r="K87" s="147"/>
+      <c r="L87" s="147"/>
+      <c r="M87" s="143"/>
+      <c r="N87" s="143"/>
+      <c r="O87" s="143"/>
+      <c r="P87" s="143"/>
+      <c r="Q87" s="143"/>
+      <c r="R87" s="143"/>
+      <c r="S87" s="143"/>
+      <c r="T87" s="143"/>
+      <c r="U87" s="143"/>
+      <c r="V87" s="143"/>
+      <c r="W87" s="143"/>
+      <c r="X87" s="143"/>
+      <c r="Y87" s="151"/>
+      <c r="Z87" s="152"/>
+      <c r="AA87" s="144"/>
+      <c r="AB87" s="145"/>
+      <c r="AC87" s="143" t="s">
         <v>160</v>
       </c>
-      <c r="AD87" s="142"/>
-      <c r="AE87" s="147" t="str">
+      <c r="AD87" s="143"/>
+      <c r="AE87" s="148" t="str">
         <f>CONCATENATE(E87)</f>
         <v>怪物装备本身附加命中率</v>
       </c>
-      <c r="AF87" s="147"/>
+      <c r="AF87" s="148"/>
     </row>
     <row r="88" spans="1:49" x14ac:dyDescent="0.15">
       <c r="C88" s="16"/>
@@ -27494,137 +28593,137 @@
       <c r="AF89" s="25"/>
     </row>
     <row r="90" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="C90" s="149" t="s">
+      <c r="C90" s="150" t="s">
         <v>149</v>
       </c>
-      <c r="D90" s="149"/>
-      <c r="E90" s="149" t="s">
+      <c r="D90" s="150"/>
+      <c r="E90" s="150" t="s">
         <v>150</v>
       </c>
-      <c r="F90" s="149"/>
-      <c r="G90" s="149" t="s">
+      <c r="F90" s="150"/>
+      <c r="G90" s="150" t="s">
         <v>151</v>
       </c>
-      <c r="H90" s="149"/>
-      <c r="I90" s="149" t="s">
+      <c r="H90" s="150"/>
+      <c r="I90" s="150" t="s">
         <v>152</v>
       </c>
-      <c r="J90" s="149"/>
-      <c r="K90" s="149" t="s">
+      <c r="J90" s="150"/>
+      <c r="K90" s="150" t="s">
         <v>153</v>
       </c>
-      <c r="L90" s="149"/>
-      <c r="M90" s="141" t="s">
+      <c r="L90" s="150"/>
+      <c r="M90" s="142" t="s">
         <v>154</v>
       </c>
-      <c r="N90" s="141"/>
-      <c r="O90" s="141" t="s">
+      <c r="N90" s="142"/>
+      <c r="O90" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="P90" s="141"/>
-      <c r="Q90" s="141" t="s">
+      <c r="P90" s="142"/>
+      <c r="Q90" s="142" t="s">
         <v>173</v>
       </c>
-      <c r="R90" s="141"/>
-      <c r="S90" s="141" t="s">
+      <c r="R90" s="142"/>
+      <c r="S90" s="142" t="s">
         <v>174</v>
       </c>
-      <c r="T90" s="141"/>
-      <c r="U90" s="141" t="s">
+      <c r="T90" s="142"/>
+      <c r="U90" s="142" t="s">
         <v>175</v>
       </c>
-      <c r="V90" s="141"/>
-      <c r="W90" s="141" t="s">
+      <c r="V90" s="142"/>
+      <c r="W90" s="142" t="s">
         <v>176</v>
       </c>
-      <c r="X90" s="141"/>
-      <c r="Y90" s="141" t="s">
+      <c r="X90" s="142"/>
+      <c r="Y90" s="142" t="s">
         <v>185</v>
       </c>
-      <c r="Z90" s="141"/>
-      <c r="AA90" s="141" t="s">
+      <c r="Z90" s="142"/>
+      <c r="AA90" s="142" t="s">
         <v>205</v>
       </c>
-      <c r="AB90" s="141"/>
-      <c r="AC90" s="141" t="s">
+      <c r="AB90" s="142"/>
+      <c r="AC90" s="142" t="s">
         <v>156</v>
       </c>
-      <c r="AD90" s="141"/>
-      <c r="AE90" s="148" t="s">
+      <c r="AD90" s="142"/>
+      <c r="AE90" s="149" t="s">
         <v>157</v>
       </c>
-      <c r="AF90" s="148"/>
+      <c r="AF90" s="149"/>
     </row>
     <row r="91" spans="1:49" x14ac:dyDescent="0.15">
       <c r="B91" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="C91" s="146" t="s">
+      <c r="C91" s="147" t="s">
         <v>120</v>
       </c>
-      <c r="D91" s="146"/>
-      <c r="E91" s="130" t="s">
-        <v>840</v>
-      </c>
-      <c r="F91" s="130"/>
-      <c r="G91" s="130" t="s">
-        <v>841</v>
-      </c>
-      <c r="H91" s="130"/>
-      <c r="I91" s="130" t="s">
-        <v>842</v>
-      </c>
-      <c r="J91" s="130"/>
-      <c r="K91" s="145" t="s">
-        <v>839</v>
-      </c>
-      <c r="L91" s="145"/>
-      <c r="M91" s="124"/>
-      <c r="N91" s="124"/>
-      <c r="O91" s="124"/>
-      <c r="P91" s="124"/>
-      <c r="Q91" s="124"/>
-      <c r="R91" s="124"/>
-      <c r="S91" s="124"/>
-      <c r="T91" s="124"/>
-      <c r="U91" s="124"/>
-      <c r="V91" s="124"/>
-      <c r="W91" s="124"/>
-      <c r="X91" s="124"/>
-      <c r="Y91" s="138"/>
-      <c r="Z91" s="138"/>
-      <c r="AA91" s="131"/>
-      <c r="AB91" s="131"/>
-      <c r="AC91" s="124" t="s">
+      <c r="D91" s="147"/>
+      <c r="E91" s="131" t="s">
+        <v>831</v>
+      </c>
+      <c r="F91" s="131"/>
+      <c r="G91" s="131" t="s">
+        <v>832</v>
+      </c>
+      <c r="H91" s="131"/>
+      <c r="I91" s="131" t="s">
+        <v>833</v>
+      </c>
+      <c r="J91" s="131"/>
+      <c r="K91" s="146" t="s">
+        <v>830</v>
+      </c>
+      <c r="L91" s="146"/>
+      <c r="M91" s="125"/>
+      <c r="N91" s="125"/>
+      <c r="O91" s="125"/>
+      <c r="P91" s="125"/>
+      <c r="Q91" s="125"/>
+      <c r="R91" s="125"/>
+      <c r="S91" s="125"/>
+      <c r="T91" s="125"/>
+      <c r="U91" s="125"/>
+      <c r="V91" s="125"/>
+      <c r="W91" s="125"/>
+      <c r="X91" s="125"/>
+      <c r="Y91" s="139"/>
+      <c r="Z91" s="139"/>
+      <c r="AA91" s="132"/>
+      <c r="AB91" s="132"/>
+      <c r="AC91" s="125" t="s">
         <v>477</v>
       </c>
-      <c r="AD91" s="124"/>
-      <c r="AE91" s="123" t="str">
+      <c r="AD91" s="125"/>
+      <c r="AE91" s="124" t="str">
         <f>CONCATENATE(E91,"+",G91,"-",I91)</f>
         <v>固有暴击率+攻击方装备本身附加暴击率-防御方装备本身附加暴击抗性</v>
       </c>
-      <c r="AF91" s="123"/>
+      <c r="AF91" s="124"/>
     </row>
     <row r="92" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A92" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="C92" s="146" t="s">
+      <c r="C92" s="147" t="s">
         <v>122</v>
       </c>
-      <c r="D92" s="146"/>
-      <c r="E92" s="130" t="s">
+      <c r="D92" s="147"/>
+      <c r="E92" s="131" t="s">
         <v>161</v>
       </c>
-      <c r="F92" s="130"/>
-      <c r="G92" s="132" t="s">
+      <c r="F92" s="131"/>
+      <c r="G92" s="133" t="s">
         <v>186</v>
       </c>
-      <c r="H92" s="132"/>
-      <c r="I92" s="130" t="s">
+      <c r="H92" s="133"/>
+      <c r="I92" s="131" t="s">
         <v>162</v>
       </c>
-      <c r="J92" s="130"/>
+      <c r="J92" s="131"/>
       <c r="K92" s="47" t="s">
         <v>163</v>
       </c>
@@ -27641,46 +28740,46 @@
         <v>166</v>
       </c>
       <c r="R92" s="46"/>
-      <c r="S92" s="130"/>
-      <c r="T92" s="130"/>
-      <c r="U92" s="124"/>
-      <c r="V92" s="124"/>
-      <c r="W92" s="124"/>
-      <c r="X92" s="124"/>
-      <c r="Y92" s="138"/>
-      <c r="Z92" s="138"/>
-      <c r="AA92" s="131"/>
-      <c r="AB92" s="131"/>
-      <c r="AC92" s="124" t="s">
+      <c r="S92" s="131"/>
+      <c r="T92" s="131"/>
+      <c r="U92" s="125"/>
+      <c r="V92" s="125"/>
+      <c r="W92" s="125"/>
+      <c r="X92" s="125"/>
+      <c r="Y92" s="139"/>
+      <c r="Z92" s="139"/>
+      <c r="AA92" s="132"/>
+      <c r="AB92" s="132"/>
+      <c r="AC92" s="125" t="s">
         <v>521</v>
       </c>
-      <c r="AD92" s="124"/>
-      <c r="AE92" s="123" t="str">
+      <c r="AD92" s="125"/>
+      <c r="AE92" s="124" t="str">
         <f>CONCATENATE(E92,"+",G92,"+",I92,"+",M92,"+",O92,"+",Q92,"+",K92)</f>
         <v>怪物本身力量+怪物升星附加力量+装备本身附加力量+装备进阶附加力量+装备镶嵌附加力量+人物装备附加力量+装备强化附加力量</v>
       </c>
-      <c r="AF92" s="123"/>
+      <c r="AF92" s="124"/>
     </row>
     <row r="93" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="C93" s="146" t="s">
+      <c r="C93" s="147" t="s">
         <v>123</v>
       </c>
-      <c r="D93" s="146"/>
-      <c r="E93" s="130" t="s">
+      <c r="D93" s="147"/>
+      <c r="E93" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="F93" s="130"/>
-      <c r="G93" s="132" t="s">
+      <c r="F93" s="131"/>
+      <c r="G93" s="133" t="s">
         <v>187</v>
       </c>
-      <c r="H93" s="132"/>
-      <c r="I93" s="130" t="s">
+      <c r="H93" s="133"/>
+      <c r="I93" s="131" t="s">
         <v>168</v>
       </c>
-      <c r="J93" s="130"/>
+      <c r="J93" s="131"/>
       <c r="K93" s="47" t="s">
         <v>169</v>
       </c>
@@ -27697,46 +28796,46 @@
         <v>172</v>
       </c>
       <c r="R93" s="46"/>
-      <c r="S93" s="130"/>
-      <c r="T93" s="130"/>
-      <c r="U93" s="124"/>
-      <c r="V93" s="124"/>
-      <c r="W93" s="124"/>
-      <c r="X93" s="124"/>
-      <c r="Y93" s="138"/>
-      <c r="Z93" s="138"/>
-      <c r="AA93" s="131"/>
-      <c r="AB93" s="131"/>
-      <c r="AC93" s="124" t="s">
+      <c r="S93" s="131"/>
+      <c r="T93" s="131"/>
+      <c r="U93" s="125"/>
+      <c r="V93" s="125"/>
+      <c r="W93" s="125"/>
+      <c r="X93" s="125"/>
+      <c r="Y93" s="139"/>
+      <c r="Z93" s="139"/>
+      <c r="AA93" s="132"/>
+      <c r="AB93" s="132"/>
+      <c r="AC93" s="125" t="s">
         <v>521</v>
       </c>
-      <c r="AD93" s="124"/>
-      <c r="AE93" s="123" t="str">
+      <c r="AD93" s="125"/>
+      <c r="AE93" s="124" t="str">
         <f>CONCATENATE(E93,"+",G93,"+",I93,"+",M93,"+",O93,"+",Q93,"+",K93)</f>
         <v>怪物本身智力+怪物升星附加智力+装备本身附加智力+装备进阶附加智力+装备镶嵌附加智力+人物装备附加智力+装备强化附加智力</v>
       </c>
-      <c r="AF93" s="123"/>
+      <c r="AF93" s="124"/>
     </row>
     <row r="94" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A94" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="C94" s="146" t="s">
+      <c r="C94" s="147" t="s">
         <v>90</v>
       </c>
-      <c r="D94" s="146"/>
-      <c r="E94" s="130" t="s">
+      <c r="D94" s="147"/>
+      <c r="E94" s="131" t="s">
         <v>177</v>
       </c>
-      <c r="F94" s="130"/>
-      <c r="G94" s="132" t="s">
+      <c r="F94" s="131"/>
+      <c r="G94" s="133" t="s">
         <v>188</v>
       </c>
-      <c r="H94" s="132"/>
-      <c r="I94" s="130" t="s">
+      <c r="H94" s="133"/>
+      <c r="I94" s="131" t="s">
         <v>178</v>
       </c>
-      <c r="J94" s="130"/>
+      <c r="J94" s="131"/>
       <c r="K94" s="47" t="s">
         <v>179</v>
       </c>
@@ -27769,40 +28868,40 @@
         <v>492</v>
       </c>
       <c r="Z94" s="46"/>
-      <c r="AA94" s="130" t="s">
+      <c r="AA94" s="131" t="s">
         <v>493</v>
       </c>
-      <c r="AB94" s="130"/>
-      <c r="AC94" s="124" t="s">
+      <c r="AB94" s="131"/>
+      <c r="AC94" s="125" t="s">
         <v>210</v>
       </c>
-      <c r="AD94" s="124"/>
-      <c r="AE94" s="123" t="str">
+      <c r="AD94" s="125"/>
+      <c r="AE94" s="124" t="str">
         <f>CONCATENATE("(",E94,"+",G94,"+",I94,"+",M94,"+",O94,"+",Q94,"+",K94,")","*","（","1","+",S94,")","*","(","1","+",U94,"+",W94,"+",Y94,"+",AA94,")")</f>
         <v>(怪物本身防御力+怪物升星附加防御力+装备本身附加防御力+装备进阶附加防御力+装备镶嵌附加防御力+人物装备附加防御力+装备强化附加防御力)*（1+人物装备套装附加防御力百分比)*(1+法阵附加防御力百分比+Buff附加防御力百分比+队长附加防御力百分比+被动附加防御力百分比)</v>
       </c>
-      <c r="AF94" s="123"/>
+      <c r="AF94" s="124"/>
     </row>
     <row r="95" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="C95" s="146" t="s">
+      <c r="C95" s="147" t="s">
         <v>672</v>
       </c>
-      <c r="D95" s="146"/>
-      <c r="E95" s="130" t="s">
+      <c r="D95" s="147"/>
+      <c r="E95" s="131" t="s">
         <v>177</v>
       </c>
-      <c r="F95" s="130"/>
-      <c r="G95" s="132" t="s">
+      <c r="F95" s="131"/>
+      <c r="G95" s="133" t="s">
         <v>188</v>
       </c>
-      <c r="H95" s="132"/>
-      <c r="I95" s="130" t="s">
+      <c r="H95" s="133"/>
+      <c r="I95" s="131" t="s">
         <v>178</v>
       </c>
-      <c r="J95" s="130"/>
+      <c r="J95" s="131"/>
       <c r="K95" s="47" t="s">
         <v>179</v>
       </c>
@@ -27819,44 +28918,44 @@
         <v>182</v>
       </c>
       <c r="R95" s="46"/>
-      <c r="S95" s="127"/>
-      <c r="T95" s="128"/>
-      <c r="U95" s="131"/>
-      <c r="V95" s="131"/>
-      <c r="W95" s="131"/>
-      <c r="X95" s="131"/>
-      <c r="Y95" s="131"/>
-      <c r="Z95" s="131"/>
-      <c r="AA95" s="130"/>
-      <c r="AB95" s="130"/>
-      <c r="AC95" s="124" t="s">
+      <c r="S95" s="128"/>
+      <c r="T95" s="129"/>
+      <c r="U95" s="132"/>
+      <c r="V95" s="132"/>
+      <c r="W95" s="132"/>
+      <c r="X95" s="132"/>
+      <c r="Y95" s="132"/>
+      <c r="Z95" s="132"/>
+      <c r="AA95" s="131"/>
+      <c r="AB95" s="131"/>
+      <c r="AC95" s="125" t="s">
         <v>521</v>
       </c>
-      <c r="AD95" s="124"/>
-      <c r="AE95" s="123" t="str">
+      <c r="AD95" s="125"/>
+      <c r="AE95" s="124" t="str">
         <f>CONCATENATE(E95,"+",G95,"+",I95,"+",M95,"+",O95,"+",Q95,"+",K95)</f>
         <v>怪物本身防御力+怪物升星附加防御力+装备本身附加防御力+装备进阶附加防御力+装备镶嵌附加防御力+人物装备附加防御力+装备强化附加防御力</v>
       </c>
-      <c r="AF95" s="123"/>
+      <c r="AF95" s="124"/>
     </row>
     <row r="96" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A96" s="10"/>
-      <c r="C96" s="129" t="s">
+      <c r="C96" s="130" t="s">
         <v>190</v>
       </c>
-      <c r="D96" s="129"/>
-      <c r="E96" s="130" t="s">
+      <c r="D96" s="130"/>
+      <c r="E96" s="131" t="s">
         <v>198</v>
       </c>
-      <c r="F96" s="130"/>
-      <c r="G96" s="132" t="s">
+      <c r="F96" s="131"/>
+      <c r="G96" s="133" t="s">
         <v>199</v>
       </c>
-      <c r="H96" s="132"/>
-      <c r="I96" s="130" t="s">
+      <c r="H96" s="133"/>
+      <c r="I96" s="131" t="s">
         <v>200</v>
       </c>
-      <c r="J96" s="130"/>
+      <c r="J96" s="131"/>
       <c r="K96" s="47" t="s">
         <v>201</v>
       </c>
@@ -27877,50 +28976,50 @@
         <v>498</v>
       </c>
       <c r="T96" s="46"/>
-      <c r="U96" s="131" t="s">
+      <c r="U96" s="132" t="s">
         <v>497</v>
       </c>
-      <c r="V96" s="131"/>
-      <c r="W96" s="131" t="s">
+      <c r="V96" s="132"/>
+      <c r="W96" s="132" t="s">
         <v>496</v>
       </c>
-      <c r="X96" s="131"/>
-      <c r="Y96" s="131" t="s">
+      <c r="X96" s="132"/>
+      <c r="Y96" s="132" t="s">
         <v>495</v>
       </c>
-      <c r="Z96" s="131"/>
-      <c r="AA96" s="130" t="s">
+      <c r="Z96" s="132"/>
+      <c r="AA96" s="131" t="s">
         <v>494</v>
       </c>
-      <c r="AB96" s="130"/>
-      <c r="AC96" s="124" t="s">
+      <c r="AB96" s="131"/>
+      <c r="AC96" s="125" t="s">
         <v>210</v>
       </c>
-      <c r="AD96" s="124"/>
-      <c r="AE96" s="123" t="str">
+      <c r="AD96" s="125"/>
+      <c r="AE96" s="124" t="str">
         <f>CONCATENATE("(",E96,"+",G96,"+",I96,"+",M96,"+",O96,"+",Q96,"+",K96,")","*","（","1","+",S96,")","*","(","1","+",U96,"+",W96,"+",Y96,"+",AA96,")")</f>
         <v>(怪物本身速度+怪物升星附加速度+装备本身附加速度+装备进阶附加速度+装备镶嵌附加速度+人物装备附加速度+装备强化附加速度)*（1+人物装备套装附加速度百分比)*(1+法阵附加速度百分比+Buff附加速度百分比+队长技附加速度百分比+被动附加速度百分比)</v>
       </c>
-      <c r="AF96" s="123"/>
+      <c r="AF96" s="124"/>
     </row>
     <row r="97" spans="1:32" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="52"/>
-      <c r="C97" s="129" t="s">
+      <c r="C97" s="130" t="s">
         <v>673</v>
       </c>
-      <c r="D97" s="129"/>
-      <c r="E97" s="130" t="s">
+      <c r="D97" s="130"/>
+      <c r="E97" s="131" t="s">
         <v>198</v>
       </c>
-      <c r="F97" s="130"/>
-      <c r="G97" s="132" t="s">
+      <c r="F97" s="131"/>
+      <c r="G97" s="133" t="s">
         <v>199</v>
       </c>
-      <c r="H97" s="132"/>
-      <c r="I97" s="130" t="s">
+      <c r="H97" s="133"/>
+      <c r="I97" s="131" t="s">
         <v>200</v>
       </c>
-      <c r="J97" s="130"/>
+      <c r="J97" s="131"/>
       <c r="K97" s="47" t="s">
         <v>201</v>
       </c>
@@ -27937,86 +29036,86 @@
         <v>204</v>
       </c>
       <c r="R97" s="46"/>
-      <c r="S97" s="135"/>
-      <c r="T97" s="136"/>
-      <c r="U97" s="135"/>
-      <c r="V97" s="136"/>
-      <c r="W97" s="135"/>
-      <c r="X97" s="136"/>
-      <c r="Y97" s="135"/>
-      <c r="Z97" s="136"/>
-      <c r="AA97" s="133"/>
-      <c r="AB97" s="134"/>
-      <c r="AC97" s="124" t="s">
+      <c r="S97" s="136"/>
+      <c r="T97" s="137"/>
+      <c r="U97" s="136"/>
+      <c r="V97" s="137"/>
+      <c r="W97" s="136"/>
+      <c r="X97" s="137"/>
+      <c r="Y97" s="136"/>
+      <c r="Z97" s="137"/>
+      <c r="AA97" s="134"/>
+      <c r="AB97" s="135"/>
+      <c r="AC97" s="125" t="s">
         <v>521</v>
       </c>
-      <c r="AD97" s="124"/>
-      <c r="AE97" s="123" t="str">
+      <c r="AD97" s="125"/>
+      <c r="AE97" s="124" t="str">
         <f>CONCATENATE(E97,"+",G97,"+",I97,"+",M97,"+",O97,"+",Q97,"+",K97)</f>
         <v>怪物本身速度+怪物升星附加速度+装备本身附加速度+装备进阶附加速度+装备镶嵌附加速度+人物装备附加速度+装备强化附加速度</v>
       </c>
-      <c r="AF97" s="123"/>
+      <c r="AF97" s="124"/>
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C98" s="129" t="s">
+      <c r="C98" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="D98" s="129"/>
-      <c r="E98" s="130" t="s">
+      <c r="D98" s="130"/>
+      <c r="E98" s="131" t="s">
         <v>223</v>
       </c>
-      <c r="F98" s="130"/>
-      <c r="G98" s="130" t="s">
+      <c r="F98" s="131"/>
+      <c r="G98" s="131" t="s">
         <v>503</v>
       </c>
-      <c r="H98" s="130"/>
-      <c r="I98" s="130"/>
-      <c r="J98" s="130"/>
-      <c r="K98" s="137"/>
-      <c r="L98" s="137"/>
-      <c r="M98" s="137"/>
-      <c r="N98" s="137"/>
-      <c r="O98" s="137"/>
-      <c r="P98" s="137"/>
-      <c r="Q98" s="138"/>
-      <c r="R98" s="138"/>
-      <c r="S98" s="138"/>
-      <c r="T98" s="138"/>
-      <c r="U98" s="131"/>
-      <c r="V98" s="131"/>
-      <c r="W98" s="131"/>
-      <c r="X98" s="131"/>
-      <c r="Y98" s="131"/>
-      <c r="Z98" s="131"/>
-      <c r="AA98" s="130"/>
-      <c r="AB98" s="130"/>
-      <c r="AC98" s="124" t="s">
+      <c r="H98" s="131"/>
+      <c r="I98" s="131"/>
+      <c r="J98" s="131"/>
+      <c r="K98" s="138"/>
+      <c r="L98" s="138"/>
+      <c r="M98" s="138"/>
+      <c r="N98" s="138"/>
+      <c r="O98" s="138"/>
+      <c r="P98" s="138"/>
+      <c r="Q98" s="139"/>
+      <c r="R98" s="139"/>
+      <c r="S98" s="139"/>
+      <c r="T98" s="139"/>
+      <c r="U98" s="132"/>
+      <c r="V98" s="132"/>
+      <c r="W98" s="132"/>
+      <c r="X98" s="132"/>
+      <c r="Y98" s="132"/>
+      <c r="Z98" s="132"/>
+      <c r="AA98" s="131"/>
+      <c r="AB98" s="131"/>
+      <c r="AC98" s="125" t="s">
         <v>473</v>
       </c>
-      <c r="AD98" s="124"/>
-      <c r="AE98" s="123" t="str">
+      <c r="AD98" s="125"/>
+      <c r="AE98" s="124" t="str">
         <f>CONCATENATE(E98,"*","（",1,"+",G98,")")</f>
         <v>怪物本身耐力*（1+被动附加耐力百分比)</v>
       </c>
-      <c r="AF98" s="123"/>
+      <c r="AF98" s="124"/>
     </row>
     <row r="99" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C99" s="129" t="s">
-        <v>843</v>
-      </c>
-      <c r="D99" s="129"/>
-      <c r="E99" s="130" t="s">
+      <c r="C99" s="130" t="s">
+        <v>834</v>
+      </c>
+      <c r="D99" s="130"/>
+      <c r="E99" s="131" t="s">
         <v>214</v>
       </c>
-      <c r="F99" s="130"/>
-      <c r="G99" s="132" t="s">
+      <c r="F99" s="131"/>
+      <c r="G99" s="133" t="s">
         <v>215</v>
       </c>
-      <c r="H99" s="132"/>
-      <c r="I99" s="130" t="s">
+      <c r="H99" s="133"/>
+      <c r="I99" s="131" t="s">
         <v>216</v>
       </c>
-      <c r="J99" s="130"/>
+      <c r="J99" s="131"/>
       <c r="K99" s="47" t="s">
         <v>217</v>
       </c>
@@ -28037,47 +29136,47 @@
         <v>499</v>
       </c>
       <c r="T99" s="46"/>
-      <c r="U99" s="131" t="s">
+      <c r="U99" s="132" t="s">
         <v>500</v>
       </c>
-      <c r="V99" s="131"/>
-      <c r="W99" s="131" t="s">
+      <c r="V99" s="132"/>
+      <c r="W99" s="132" t="s">
         <v>501</v>
       </c>
-      <c r="X99" s="131"/>
-      <c r="Y99" s="130" t="s">
+      <c r="X99" s="132"/>
+      <c r="Y99" s="131" t="s">
         <v>502</v>
       </c>
-      <c r="Z99" s="130"/>
-      <c r="AA99" s="130"/>
-      <c r="AB99" s="130"/>
-      <c r="AC99" s="124" t="s">
+      <c r="Z99" s="131"/>
+      <c r="AA99" s="131"/>
+      <c r="AB99" s="131"/>
+      <c r="AC99" s="125" t="s">
         <v>189</v>
       </c>
-      <c r="AD99" s="124"/>
-      <c r="AE99" s="123" t="str">
+      <c r="AD99" s="125"/>
+      <c r="AE99" s="124" t="str">
         <f>CONCATENATE("(",E99,"+",G99,"+",I99,"+",M99,"+",O99,"+",Q99,"+",K99,")","*","（","1","+",S99,")","*","(","1","+",U99,"+",W99,"+",Y99,")")</f>
         <v>(怪物本身体力+怪物升星附加体力+装备本身附加体力+装备进阶附加体力+装备镶嵌附加体力+人物装备附加体力+装备强化附加体力)*（1+人物装备套装附加体力百分比)*(1+法阵附加体力百分比+队长技附加体力百分比+被动附加体力百分比)</v>
       </c>
-      <c r="AF99" s="123"/>
+      <c r="AF99" s="124"/>
     </row>
     <row r="100" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C100" s="129" t="s">
+      <c r="C100" s="130" t="s">
         <v>674</v>
       </c>
-      <c r="D100" s="129"/>
-      <c r="E100" s="130" t="s">
+      <c r="D100" s="130"/>
+      <c r="E100" s="131" t="s">
         <v>214</v>
       </c>
-      <c r="F100" s="130"/>
-      <c r="G100" s="132" t="s">
+      <c r="F100" s="131"/>
+      <c r="G100" s="133" t="s">
         <v>215</v>
       </c>
-      <c r="H100" s="132"/>
-      <c r="I100" s="130" t="s">
+      <c r="H100" s="133"/>
+      <c r="I100" s="131" t="s">
         <v>216</v>
       </c>
-      <c r="J100" s="130"/>
+      <c r="J100" s="131"/>
       <c r="K100" s="47" t="s">
         <v>217</v>
       </c>
@@ -28094,117 +29193,117 @@
         <v>224</v>
       </c>
       <c r="R100" s="46"/>
-      <c r="S100" s="127"/>
-      <c r="T100" s="128"/>
-      <c r="U100" s="127"/>
-      <c r="V100" s="128"/>
-      <c r="W100" s="127"/>
-      <c r="X100" s="128"/>
-      <c r="Y100" s="125"/>
-      <c r="Z100" s="126"/>
-      <c r="AA100" s="125"/>
-      <c r="AB100" s="126"/>
-      <c r="AC100" s="124" t="s">
+      <c r="S100" s="128"/>
+      <c r="T100" s="129"/>
+      <c r="U100" s="128"/>
+      <c r="V100" s="129"/>
+      <c r="W100" s="128"/>
+      <c r="X100" s="129"/>
+      <c r="Y100" s="126"/>
+      <c r="Z100" s="127"/>
+      <c r="AA100" s="126"/>
+      <c r="AB100" s="127"/>
+      <c r="AC100" s="125" t="s">
         <v>521</v>
       </c>
-      <c r="AD100" s="124"/>
-      <c r="AE100" s="123" t="str">
+      <c r="AD100" s="125"/>
+      <c r="AE100" s="124" t="str">
         <f>CONCATENATE(E100,"+",G100,"+",I100,"+",M100,"+",O100,"+",Q100,"+",K100)</f>
         <v>怪物本身体力+怪物升星附加体力+装备本身附加体力+装备进阶附加体力+装备镶嵌附加体力+人物装备附加体力+装备强化附加体力</v>
       </c>
-      <c r="AF100" s="123"/>
+      <c r="AF100" s="124"/>
     </row>
     <row r="101" spans="1:32" s="43" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C101" s="139" t="s">
+      <c r="C101" s="140" t="s">
         <v>442</v>
       </c>
-      <c r="D101" s="139"/>
-      <c r="E101" s="130" t="s">
+      <c r="D101" s="140"/>
+      <c r="E101" s="131" t="s">
         <v>443</v>
       </c>
-      <c r="F101" s="130"/>
-      <c r="G101" s="132" t="s">
+      <c r="F101" s="131"/>
+      <c r="G101" s="133" t="s">
         <v>444</v>
       </c>
-      <c r="H101" s="132"/>
-      <c r="I101" s="130" t="s">
+      <c r="H101" s="133"/>
+      <c r="I101" s="131" t="s">
         <v>445</v>
       </c>
-      <c r="J101" s="130"/>
-      <c r="K101" s="140"/>
-      <c r="L101" s="140"/>
-      <c r="M101" s="130"/>
-      <c r="N101" s="130"/>
-      <c r="O101" s="140"/>
-      <c r="P101" s="140"/>
-      <c r="Q101" s="131"/>
-      <c r="R101" s="131"/>
-      <c r="S101" s="131"/>
-      <c r="T101" s="131"/>
-      <c r="U101" s="131"/>
-      <c r="V101" s="131"/>
-      <c r="W101" s="131"/>
-      <c r="X101" s="131"/>
-      <c r="Y101" s="140"/>
-      <c r="Z101" s="140"/>
-      <c r="AA101" s="140"/>
-      <c r="AB101" s="140"/>
-      <c r="AC101" s="124" t="s">
+      <c r="J101" s="131"/>
+      <c r="K101" s="141"/>
+      <c r="L101" s="141"/>
+      <c r="M101" s="131"/>
+      <c r="N101" s="131"/>
+      <c r="O101" s="141"/>
+      <c r="P101" s="141"/>
+      <c r="Q101" s="132"/>
+      <c r="R101" s="132"/>
+      <c r="S101" s="132"/>
+      <c r="T101" s="132"/>
+      <c r="U101" s="132"/>
+      <c r="V101" s="132"/>
+      <c r="W101" s="132"/>
+      <c r="X101" s="132"/>
+      <c r="Y101" s="141"/>
+      <c r="Z101" s="141"/>
+      <c r="AA101" s="141"/>
+      <c r="AB101" s="141"/>
+      <c r="AC101" s="125" t="s">
         <v>446</v>
       </c>
-      <c r="AD101" s="124"/>
-      <c r="AE101" s="123" t="str">
+      <c r="AD101" s="125"/>
+      <c r="AE101" s="124" t="str">
         <f>CONCATENATE(E101,"+",G101,"+",I101)</f>
         <v>怪物本身生命回复+怪物升星附加生命回复+装备进阶附加生命回复</v>
       </c>
-      <c r="AF101" s="123"/>
+      <c r="AF101" s="124"/>
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="C102" s="129" t="s">
+      <c r="C102" s="130" t="s">
         <v>225</v>
       </c>
-      <c r="D102" s="129"/>
+      <c r="D102" s="130"/>
       <c r="E102" s="46" t="s">
         <v>504</v>
       </c>
       <c r="F102" s="46"/>
-      <c r="G102" s="131" t="s">
+      <c r="G102" s="132" t="s">
         <v>505</v>
       </c>
-      <c r="H102" s="131"/>
-      <c r="I102" s="131" t="s">
+      <c r="H102" s="132"/>
+      <c r="I102" s="132" t="s">
         <v>506</v>
       </c>
-      <c r="J102" s="131"/>
-      <c r="K102" s="130" t="s">
+      <c r="J102" s="132"/>
+      <c r="K102" s="131" t="s">
         <v>507</v>
       </c>
-      <c r="L102" s="130"/>
-      <c r="M102" s="137"/>
-      <c r="N102" s="137"/>
-      <c r="O102" s="137"/>
-      <c r="P102" s="137"/>
-      <c r="Q102" s="138"/>
-      <c r="R102" s="138"/>
-      <c r="S102" s="138"/>
-      <c r="T102" s="138"/>
-      <c r="U102" s="131"/>
-      <c r="V102" s="131"/>
-      <c r="W102" s="131"/>
-      <c r="X102" s="131"/>
-      <c r="Y102" s="130"/>
-      <c r="Z102" s="130"/>
-      <c r="AA102" s="130"/>
-      <c r="AB102" s="130"/>
-      <c r="AC102" s="124" t="s">
+      <c r="L102" s="131"/>
+      <c r="M102" s="138"/>
+      <c r="N102" s="138"/>
+      <c r="O102" s="138"/>
+      <c r="P102" s="138"/>
+      <c r="Q102" s="139"/>
+      <c r="R102" s="139"/>
+      <c r="S102" s="139"/>
+      <c r="T102" s="139"/>
+      <c r="U102" s="132"/>
+      <c r="V102" s="132"/>
+      <c r="W102" s="132"/>
+      <c r="X102" s="132"/>
+      <c r="Y102" s="131"/>
+      <c r="Z102" s="131"/>
+      <c r="AA102" s="131"/>
+      <c r="AB102" s="131"/>
+      <c r="AC102" s="125" t="s">
         <v>226</v>
       </c>
-      <c r="AD102" s="124"/>
-      <c r="AE102" s="123" t="str">
+      <c r="AD102" s="125"/>
+      <c r="AE102" s="124" t="str">
         <f>CONCATENATE(E102,"+",G102,"+",I102,"+",K102)</f>
         <v>人物装备套装附加五行加成百分比+法阵附加五行加成百分比+队长技附加五行加成百分比+被动附加五行加成百分比</v>
       </c>
-      <c r="AF102" s="123"/>
+      <c r="AF102" s="124"/>
     </row>
     <row r="103" spans="1:32" x14ac:dyDescent="0.15">
       <c r="D103" s="6"/>
@@ -28508,11 +29607,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW85"/>
   <sheetViews>
-    <sheetView topLeftCell="AB25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="AB31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AS45" sqref="AS45:AU48"/>
     </sheetView>
   </sheetViews>
@@ -28637,12 +29736,12 @@
     </row>
     <row r="17" spans="1:68" x14ac:dyDescent="0.15">
       <c r="J17" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="18" spans="1:68" x14ac:dyDescent="0.15">
       <c r="C18" s="54" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D18" s="54"/>
       <c r="E18" s="54"/>
@@ -28667,7 +29766,7 @@
     <row r="19" spans="1:68" x14ac:dyDescent="0.15">
       <c r="C19" s="54"/>
       <c r="D19" s="54" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E19" s="54"/>
       <c r="F19" s="54"/>
@@ -28721,7 +29820,7 @@
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
       <c r="J21" s="54" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="K21" s="54"/>
       <c r="L21" s="54"/>
@@ -28769,7 +29868,7 @@
       <c r="H23" s="54"/>
       <c r="I23" s="54"/>
       <c r="J23" s="54" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K23" s="54"/>
       <c r="L23" s="54"/>
@@ -28794,7 +29893,7 @@
         <v>543</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -28810,343 +29909,343 @@
       <c r="A28" s="44" t="s">
         <v>558</v>
       </c>
-      <c r="C28" s="152" t="s">
+      <c r="C28" s="153" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="153"/>
-      <c r="E28" s="153"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="154"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="159" t="s">
+      <c r="J28" s="160" t="s">
         <v>647</v>
       </c>
-      <c r="K28" s="159"/>
-      <c r="L28" s="159"/>
-      <c r="M28" s="160" t="s">
+      <c r="K28" s="160"/>
+      <c r="L28" s="160"/>
+      <c r="M28" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="N28" s="159" t="s">
+      <c r="N28" s="160" t="s">
         <v>571</v>
       </c>
-      <c r="O28" s="159"/>
-      <c r="P28" s="159"/>
-      <c r="Q28" s="160" t="s">
-        <v>844</v>
-      </c>
-      <c r="R28" s="163" t="s">
-        <v>852</v>
-      </c>
-      <c r="S28" s="163"/>
-      <c r="T28" s="163"/>
-      <c r="U28" s="160" t="s">
+      <c r="O28" s="160"/>
+      <c r="P28" s="160"/>
+      <c r="Q28" s="161" t="s">
+        <v>835</v>
+      </c>
+      <c r="R28" s="164" t="s">
+        <v>843</v>
+      </c>
+      <c r="S28" s="164"/>
+      <c r="T28" s="164"/>
+      <c r="U28" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="V28" s="164" t="s">
+      <c r="V28" s="165" t="s">
         <v>644</v>
       </c>
-      <c r="W28" s="164"/>
-      <c r="X28" s="164"/>
-      <c r="Y28" s="160" t="s">
+      <c r="W28" s="165"/>
+      <c r="X28" s="165"/>
+      <c r="Y28" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="Z28" s="160" t="s">
+      <c r="Z28" s="161" t="s">
         <v>645</v>
       </c>
-      <c r="AA28" s="160"/>
-      <c r="AB28" s="160"/>
-      <c r="AC28" s="160" t="s">
+      <c r="AA28" s="161"/>
+      <c r="AB28" s="161"/>
+      <c r="AC28" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="AD28" s="160" t="s">
+      <c r="AD28" s="161" t="s">
         <v>564</v>
       </c>
-      <c r="AE28" s="160"/>
-      <c r="AF28" s="160"/>
-      <c r="AG28" s="155" t="s">
+      <c r="AE28" s="161"/>
+      <c r="AF28" s="161"/>
+      <c r="AG28" s="156" t="s">
         <v>77</v>
       </c>
-      <c r="AH28" s="155" t="s">
+      <c r="AH28" s="156" t="s">
         <v>680</v>
       </c>
-      <c r="AI28" s="155"/>
-      <c r="AJ28" s="155"/>
-      <c r="AK28" s="156" t="s">
+      <c r="AI28" s="156"/>
+      <c r="AJ28" s="156"/>
+      <c r="AK28" s="157" t="s">
         <v>77</v>
       </c>
-      <c r="AL28" s="156">
+      <c r="AL28" s="157">
         <v>1</v>
       </c>
-      <c r="AM28" s="156"/>
-      <c r="AN28" s="156"/>
-      <c r="AO28" s="156" t="s">
+      <c r="AM28" s="157"/>
+      <c r="AN28" s="157"/>
+      <c r="AO28" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="AP28" s="156" t="s">
+      <c r="AP28" s="157" t="s">
         <v>508</v>
       </c>
-      <c r="AQ28" s="156"/>
-      <c r="AR28" s="156"/>
-      <c r="AS28" s="156" t="s">
+      <c r="AQ28" s="157"/>
+      <c r="AR28" s="157"/>
+      <c r="AS28" s="157" t="s">
         <v>141</v>
       </c>
-      <c r="AT28" s="156" t="s">
+      <c r="AT28" s="157" t="s">
         <v>509</v>
       </c>
-      <c r="AU28" s="156"/>
-      <c r="AV28" s="156"/>
-      <c r="AW28" s="156" t="s">
+      <c r="AU28" s="157"/>
+      <c r="AV28" s="157"/>
+      <c r="AW28" s="157" t="s">
         <v>141</v>
       </c>
-      <c r="AX28" s="156" t="s">
+      <c r="AX28" s="157" t="s">
         <v>510</v>
       </c>
-      <c r="AY28" s="156"/>
-      <c r="AZ28" s="156"/>
-      <c r="BA28" s="156" t="s">
+      <c r="AY28" s="157"/>
+      <c r="AZ28" s="157"/>
+      <c r="BA28" s="157" t="s">
         <v>207</v>
       </c>
-      <c r="BB28" s="156" t="s">
+      <c r="BB28" s="157" t="s">
         <v>511</v>
       </c>
-      <c r="BC28" s="156"/>
-      <c r="BD28" s="156"/>
-      <c r="BE28" s="166" t="s">
+      <c r="BC28" s="157"/>
+      <c r="BD28" s="157"/>
+      <c r="BE28" s="167" t="s">
+        <v>749</v>
+      </c>
+      <c r="BF28" s="167" t="s">
         <v>750</v>
       </c>
-      <c r="BF28" s="166" t="s">
-        <v>751</v>
-      </c>
-      <c r="BG28" s="166"/>
-      <c r="BH28" s="166"/>
-      <c r="BI28" s="165" t="s">
-        <v>750</v>
-      </c>
-      <c r="BJ28" s="165" t="s">
-        <v>756</v>
-      </c>
-      <c r="BK28" s="165"/>
-      <c r="BL28" s="165"/>
-      <c r="BM28" s="171" t="s">
-        <v>851</v>
-      </c>
-      <c r="BN28" s="171" t="s">
-        <v>887</v>
-      </c>
-      <c r="BO28" s="171"/>
-      <c r="BP28" s="171"/>
+      <c r="BG28" s="167"/>
+      <c r="BH28" s="167"/>
+      <c r="BI28" s="166" t="s">
+        <v>749</v>
+      </c>
+      <c r="BJ28" s="166" t="s">
+        <v>755</v>
+      </c>
+      <c r="BK28" s="166"/>
+      <c r="BL28" s="166"/>
+      <c r="BM28" s="172" t="s">
+        <v>842</v>
+      </c>
+      <c r="BN28" s="172" t="s">
+        <v>878</v>
+      </c>
+      <c r="BO28" s="172"/>
+      <c r="BP28" s="172"/>
     </row>
     <row r="29" spans="1:68" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="C29" s="153"/>
-      <c r="D29" s="153"/>
-      <c r="E29" s="153"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="159"/>
-      <c r="K29" s="159"/>
-      <c r="L29" s="159"/>
-      <c r="M29" s="160"/>
-      <c r="N29" s="159"/>
-      <c r="O29" s="159"/>
-      <c r="P29" s="159"/>
-      <c r="Q29" s="160"/>
-      <c r="R29" s="163"/>
-      <c r="S29" s="163"/>
-      <c r="T29" s="163"/>
-      <c r="U29" s="160"/>
-      <c r="V29" s="164"/>
-      <c r="W29" s="164"/>
-      <c r="X29" s="164"/>
-      <c r="Y29" s="160"/>
-      <c r="Z29" s="160"/>
-      <c r="AA29" s="160"/>
-      <c r="AB29" s="160"/>
-      <c r="AC29" s="160"/>
-      <c r="AD29" s="160"/>
-      <c r="AE29" s="160"/>
-      <c r="AF29" s="160"/>
-      <c r="AG29" s="155"/>
-      <c r="AH29" s="155"/>
-      <c r="AI29" s="155"/>
-      <c r="AJ29" s="155"/>
-      <c r="AK29" s="156"/>
-      <c r="AL29" s="156"/>
-      <c r="AM29" s="156"/>
-      <c r="AN29" s="156"/>
-      <c r="AO29" s="156"/>
-      <c r="AP29" s="156"/>
-      <c r="AQ29" s="156"/>
-      <c r="AR29" s="156"/>
-      <c r="AS29" s="156"/>
-      <c r="AT29" s="156"/>
-      <c r="AU29" s="156"/>
-      <c r="AV29" s="156"/>
-      <c r="AW29" s="156"/>
-      <c r="AX29" s="156"/>
-      <c r="AY29" s="156"/>
-      <c r="AZ29" s="156"/>
-      <c r="BA29" s="156"/>
-      <c r="BB29" s="156"/>
-      <c r="BC29" s="156"/>
-      <c r="BD29" s="156"/>
-      <c r="BE29" s="166"/>
-      <c r="BF29" s="166"/>
-      <c r="BG29" s="166"/>
-      <c r="BH29" s="166"/>
-      <c r="BI29" s="165"/>
-      <c r="BJ29" s="165"/>
-      <c r="BK29" s="165"/>
-      <c r="BL29" s="165"/>
-      <c r="BM29" s="171"/>
-      <c r="BN29" s="171"/>
-      <c r="BO29" s="171"/>
-      <c r="BP29" s="171"/>
+      <c r="J29" s="160"/>
+      <c r="K29" s="160"/>
+      <c r="L29" s="160"/>
+      <c r="M29" s="161"/>
+      <c r="N29" s="160"/>
+      <c r="O29" s="160"/>
+      <c r="P29" s="160"/>
+      <c r="Q29" s="161"/>
+      <c r="R29" s="164"/>
+      <c r="S29" s="164"/>
+      <c r="T29" s="164"/>
+      <c r="U29" s="161"/>
+      <c r="V29" s="165"/>
+      <c r="W29" s="165"/>
+      <c r="X29" s="165"/>
+      <c r="Y29" s="161"/>
+      <c r="Z29" s="161"/>
+      <c r="AA29" s="161"/>
+      <c r="AB29" s="161"/>
+      <c r="AC29" s="161"/>
+      <c r="AD29" s="161"/>
+      <c r="AE29" s="161"/>
+      <c r="AF29" s="161"/>
+      <c r="AG29" s="156"/>
+      <c r="AH29" s="156"/>
+      <c r="AI29" s="156"/>
+      <c r="AJ29" s="156"/>
+      <c r="AK29" s="157"/>
+      <c r="AL29" s="157"/>
+      <c r="AM29" s="157"/>
+      <c r="AN29" s="157"/>
+      <c r="AO29" s="157"/>
+      <c r="AP29" s="157"/>
+      <c r="AQ29" s="157"/>
+      <c r="AR29" s="157"/>
+      <c r="AS29" s="157"/>
+      <c r="AT29" s="157"/>
+      <c r="AU29" s="157"/>
+      <c r="AV29" s="157"/>
+      <c r="AW29" s="157"/>
+      <c r="AX29" s="157"/>
+      <c r="AY29" s="157"/>
+      <c r="AZ29" s="157"/>
+      <c r="BA29" s="157"/>
+      <c r="BB29" s="157"/>
+      <c r="BC29" s="157"/>
+      <c r="BD29" s="157"/>
+      <c r="BE29" s="167"/>
+      <c r="BF29" s="167"/>
+      <c r="BG29" s="167"/>
+      <c r="BH29" s="167"/>
+      <c r="BI29" s="166"/>
+      <c r="BJ29" s="166"/>
+      <c r="BK29" s="166"/>
+      <c r="BL29" s="166"/>
+      <c r="BM29" s="172"/>
+      <c r="BN29" s="172"/>
+      <c r="BO29" s="172"/>
+      <c r="BP29" s="172"/>
     </row>
     <row r="30" spans="1:68" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
-      <c r="C30" s="153"/>
-      <c r="D30" s="153"/>
-      <c r="E30" s="153"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="154"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="159"/>
-      <c r="K30" s="159"/>
-      <c r="L30" s="159"/>
-      <c r="M30" s="160"/>
-      <c r="N30" s="159"/>
-      <c r="O30" s="159"/>
-      <c r="P30" s="159"/>
-      <c r="Q30" s="160"/>
-      <c r="R30" s="163"/>
-      <c r="S30" s="163"/>
-      <c r="T30" s="163"/>
-      <c r="U30" s="160"/>
-      <c r="V30" s="164"/>
-      <c r="W30" s="164"/>
-      <c r="X30" s="164"/>
-      <c r="Y30" s="160"/>
-      <c r="Z30" s="160"/>
-      <c r="AA30" s="160"/>
-      <c r="AB30" s="160"/>
-      <c r="AC30" s="160"/>
-      <c r="AD30" s="160"/>
-      <c r="AE30" s="160"/>
-      <c r="AF30" s="160"/>
-      <c r="AG30" s="155"/>
-      <c r="AH30" s="155"/>
-      <c r="AI30" s="155"/>
-      <c r="AJ30" s="155"/>
-      <c r="AK30" s="156"/>
-      <c r="AL30" s="156"/>
-      <c r="AM30" s="156"/>
-      <c r="AN30" s="156"/>
-      <c r="AO30" s="156"/>
-      <c r="AP30" s="156"/>
-      <c r="AQ30" s="156"/>
-      <c r="AR30" s="156"/>
-      <c r="AS30" s="156"/>
-      <c r="AT30" s="156"/>
-      <c r="AU30" s="156"/>
-      <c r="AV30" s="156"/>
-      <c r="AW30" s="156"/>
-      <c r="AX30" s="156"/>
-      <c r="AY30" s="156"/>
-      <c r="AZ30" s="156"/>
-      <c r="BA30" s="156"/>
-      <c r="BB30" s="156"/>
-      <c r="BC30" s="156"/>
-      <c r="BD30" s="156"/>
-      <c r="BE30" s="166"/>
-      <c r="BF30" s="166"/>
-      <c r="BG30" s="166"/>
-      <c r="BH30" s="166"/>
-      <c r="BI30" s="165"/>
-      <c r="BJ30" s="165"/>
-      <c r="BK30" s="165"/>
-      <c r="BL30" s="165"/>
-      <c r="BM30" s="171"/>
-      <c r="BN30" s="171"/>
-      <c r="BO30" s="171"/>
-      <c r="BP30" s="171"/>
+      <c r="J30" s="160"/>
+      <c r="K30" s="160"/>
+      <c r="L30" s="160"/>
+      <c r="M30" s="161"/>
+      <c r="N30" s="160"/>
+      <c r="O30" s="160"/>
+      <c r="P30" s="160"/>
+      <c r="Q30" s="161"/>
+      <c r="R30" s="164"/>
+      <c r="S30" s="164"/>
+      <c r="T30" s="164"/>
+      <c r="U30" s="161"/>
+      <c r="V30" s="165"/>
+      <c r="W30" s="165"/>
+      <c r="X30" s="165"/>
+      <c r="Y30" s="161"/>
+      <c r="Z30" s="161"/>
+      <c r="AA30" s="161"/>
+      <c r="AB30" s="161"/>
+      <c r="AC30" s="161"/>
+      <c r="AD30" s="161"/>
+      <c r="AE30" s="161"/>
+      <c r="AF30" s="161"/>
+      <c r="AG30" s="156"/>
+      <c r="AH30" s="156"/>
+      <c r="AI30" s="156"/>
+      <c r="AJ30" s="156"/>
+      <c r="AK30" s="157"/>
+      <c r="AL30" s="157"/>
+      <c r="AM30" s="157"/>
+      <c r="AN30" s="157"/>
+      <c r="AO30" s="157"/>
+      <c r="AP30" s="157"/>
+      <c r="AQ30" s="157"/>
+      <c r="AR30" s="157"/>
+      <c r="AS30" s="157"/>
+      <c r="AT30" s="157"/>
+      <c r="AU30" s="157"/>
+      <c r="AV30" s="157"/>
+      <c r="AW30" s="157"/>
+      <c r="AX30" s="157"/>
+      <c r="AY30" s="157"/>
+      <c r="AZ30" s="157"/>
+      <c r="BA30" s="157"/>
+      <c r="BB30" s="157"/>
+      <c r="BC30" s="157"/>
+      <c r="BD30" s="157"/>
+      <c r="BE30" s="167"/>
+      <c r="BF30" s="167"/>
+      <c r="BG30" s="167"/>
+      <c r="BH30" s="167"/>
+      <c r="BI30" s="166"/>
+      <c r="BJ30" s="166"/>
+      <c r="BK30" s="166"/>
+      <c r="BL30" s="166"/>
+      <c r="BM30" s="172"/>
+      <c r="BN30" s="172"/>
+      <c r="BO30" s="172"/>
+      <c r="BP30" s="172"/>
     </row>
     <row r="31" spans="1:68" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="C31" s="153"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="153"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="154"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="159"/>
-      <c r="K31" s="159"/>
-      <c r="L31" s="159"/>
-      <c r="M31" s="160"/>
-      <c r="N31" s="159"/>
-      <c r="O31" s="159"/>
-      <c r="P31" s="159"/>
-      <c r="Q31" s="160"/>
-      <c r="R31" s="163"/>
-      <c r="S31" s="163"/>
-      <c r="T31" s="163"/>
-      <c r="U31" s="160"/>
-      <c r="V31" s="164"/>
-      <c r="W31" s="164"/>
-      <c r="X31" s="164"/>
-      <c r="Y31" s="160"/>
-      <c r="Z31" s="160"/>
-      <c r="AA31" s="160"/>
-      <c r="AB31" s="160"/>
-      <c r="AC31" s="160"/>
-      <c r="AD31" s="160"/>
-      <c r="AE31" s="160"/>
-      <c r="AF31" s="160"/>
-      <c r="AG31" s="155"/>
-      <c r="AH31" s="155"/>
-      <c r="AI31" s="155"/>
-      <c r="AJ31" s="155"/>
-      <c r="AK31" s="156"/>
-      <c r="AL31" s="156"/>
-      <c r="AM31" s="156"/>
-      <c r="AN31" s="156"/>
-      <c r="AO31" s="156"/>
-      <c r="AP31" s="156"/>
-      <c r="AQ31" s="156"/>
-      <c r="AR31" s="156"/>
-      <c r="AS31" s="156"/>
-      <c r="AT31" s="156"/>
-      <c r="AU31" s="156"/>
-      <c r="AV31" s="156"/>
-      <c r="AW31" s="156"/>
-      <c r="AX31" s="156"/>
-      <c r="AY31" s="156"/>
-      <c r="AZ31" s="156"/>
-      <c r="BA31" s="156"/>
-      <c r="BB31" s="156"/>
-      <c r="BC31" s="156"/>
-      <c r="BD31" s="156"/>
-      <c r="BE31" s="166"/>
-      <c r="BF31" s="166"/>
-      <c r="BG31" s="166"/>
-      <c r="BH31" s="166"/>
-      <c r="BI31" s="165"/>
-      <c r="BJ31" s="165"/>
-      <c r="BK31" s="165"/>
-      <c r="BL31" s="165"/>
-      <c r="BM31" s="171"/>
-      <c r="BN31" s="171"/>
-      <c r="BO31" s="171"/>
-      <c r="BP31" s="171"/>
+      <c r="J31" s="160"/>
+      <c r="K31" s="160"/>
+      <c r="L31" s="160"/>
+      <c r="M31" s="161"/>
+      <c r="N31" s="160"/>
+      <c r="O31" s="160"/>
+      <c r="P31" s="160"/>
+      <c r="Q31" s="161"/>
+      <c r="R31" s="164"/>
+      <c r="S31" s="164"/>
+      <c r="T31" s="164"/>
+      <c r="U31" s="161"/>
+      <c r="V31" s="165"/>
+      <c r="W31" s="165"/>
+      <c r="X31" s="165"/>
+      <c r="Y31" s="161"/>
+      <c r="Z31" s="161"/>
+      <c r="AA31" s="161"/>
+      <c r="AB31" s="161"/>
+      <c r="AC31" s="161"/>
+      <c r="AD31" s="161"/>
+      <c r="AE31" s="161"/>
+      <c r="AF31" s="161"/>
+      <c r="AG31" s="156"/>
+      <c r="AH31" s="156"/>
+      <c r="AI31" s="156"/>
+      <c r="AJ31" s="156"/>
+      <c r="AK31" s="157"/>
+      <c r="AL31" s="157"/>
+      <c r="AM31" s="157"/>
+      <c r="AN31" s="157"/>
+      <c r="AO31" s="157"/>
+      <c r="AP31" s="157"/>
+      <c r="AQ31" s="157"/>
+      <c r="AR31" s="157"/>
+      <c r="AS31" s="157"/>
+      <c r="AT31" s="157"/>
+      <c r="AU31" s="157"/>
+      <c r="AV31" s="157"/>
+      <c r="AW31" s="157"/>
+      <c r="AX31" s="157"/>
+      <c r="AY31" s="157"/>
+      <c r="AZ31" s="157"/>
+      <c r="BA31" s="157"/>
+      <c r="BB31" s="157"/>
+      <c r="BC31" s="157"/>
+      <c r="BD31" s="157"/>
+      <c r="BE31" s="167"/>
+      <c r="BF31" s="167"/>
+      <c r="BG31" s="167"/>
+      <c r="BH31" s="167"/>
+      <c r="BI31" s="166"/>
+      <c r="BJ31" s="166"/>
+      <c r="BK31" s="166"/>
+      <c r="BL31" s="166"/>
+      <c r="BM31" s="172"/>
+      <c r="BN31" s="172"/>
+      <c r="BO31" s="172"/>
+      <c r="BP31" s="172"/>
     </row>
     <row r="32" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -29154,162 +30253,162 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="160" t="s">
+      <c r="J32" s="161" t="s">
         <v>534</v>
       </c>
-      <c r="K32" s="160"/>
-      <c r="L32" s="160"/>
-      <c r="M32" s="160"/>
-      <c r="N32" s="160" t="s">
+      <c r="K32" s="161"/>
+      <c r="L32" s="161"/>
+      <c r="M32" s="161"/>
+      <c r="N32" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="O32" s="160"/>
-      <c r="P32" s="160"/>
-      <c r="Q32" s="160"/>
-      <c r="R32" s="163"/>
-      <c r="S32" s="163"/>
-      <c r="T32" s="163"/>
-      <c r="U32" s="160"/>
-      <c r="V32" s="161" t="s">
+      <c r="O32" s="161"/>
+      <c r="P32" s="161"/>
+      <c r="Q32" s="161"/>
+      <c r="R32" s="164"/>
+      <c r="S32" s="164"/>
+      <c r="T32" s="164"/>
+      <c r="U32" s="161"/>
+      <c r="V32" s="162" t="s">
         <v>79</v>
       </c>
-      <c r="W32" s="161"/>
-      <c r="X32" s="161"/>
-      <c r="Y32" s="160"/>
-      <c r="Z32" s="160" t="s">
+      <c r="W32" s="162"/>
+      <c r="X32" s="162"/>
+      <c r="Y32" s="161"/>
+      <c r="Z32" s="161" t="s">
         <v>99</v>
       </c>
-      <c r="AA32" s="160"/>
-      <c r="AB32" s="160"/>
-      <c r="AC32" s="160"/>
-      <c r="AD32" s="160" t="s">
+      <c r="AA32" s="161"/>
+      <c r="AB32" s="161"/>
+      <c r="AC32" s="161"/>
+      <c r="AD32" s="161" t="s">
         <v>100</v>
       </c>
-      <c r="AE32" s="160"/>
-      <c r="AF32" s="160"/>
-      <c r="AG32" s="155"/>
-      <c r="AH32" s="155" t="s">
+      <c r="AE32" s="161"/>
+      <c r="AF32" s="161"/>
+      <c r="AG32" s="156"/>
+      <c r="AH32" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="AI32" s="155"/>
-      <c r="AJ32" s="155"/>
-      <c r="AK32" s="156"/>
-      <c r="AL32" s="156"/>
-      <c r="AM32" s="156"/>
-      <c r="AN32" s="156"/>
-      <c r="AO32" s="156"/>
-      <c r="AP32" s="156" t="s">
+      <c r="AI32" s="156"/>
+      <c r="AJ32" s="156"/>
+      <c r="AK32" s="157"/>
+      <c r="AL32" s="157"/>
+      <c r="AM32" s="157"/>
+      <c r="AN32" s="157"/>
+      <c r="AO32" s="157"/>
+      <c r="AP32" s="157" t="s">
         <v>97</v>
       </c>
-      <c r="AQ32" s="156"/>
-      <c r="AR32" s="156"/>
-      <c r="AS32" s="156"/>
-      <c r="AT32" s="167" t="s">
+      <c r="AQ32" s="157"/>
+      <c r="AR32" s="157"/>
+      <c r="AS32" s="157"/>
+      <c r="AT32" s="168" t="s">
         <v>98</v>
       </c>
-      <c r="AU32" s="167"/>
-      <c r="AV32" s="167"/>
-      <c r="AW32" s="156"/>
-      <c r="AX32" s="156" t="s">
+      <c r="AU32" s="168"/>
+      <c r="AV32" s="168"/>
+      <c r="AW32" s="157"/>
+      <c r="AX32" s="157" t="s">
         <v>104</v>
       </c>
-      <c r="AY32" s="156"/>
-      <c r="AZ32" s="156"/>
-      <c r="BA32" s="156"/>
-      <c r="BB32" s="157" t="s">
+      <c r="AY32" s="157"/>
+      <c r="AZ32" s="157"/>
+      <c r="BA32" s="157"/>
+      <c r="BB32" s="158" t="s">
         <v>209</v>
       </c>
-      <c r="BC32" s="157"/>
-      <c r="BD32" s="157"/>
-      <c r="BE32" s="166"/>
-      <c r="BF32" s="166"/>
-      <c r="BG32" s="166"/>
-      <c r="BH32" s="166"/>
-      <c r="BI32" s="165"/>
-      <c r="BJ32" s="165"/>
-      <c r="BK32" s="165"/>
-      <c r="BL32" s="165"/>
-      <c r="BM32" s="171"/>
-      <c r="BN32" s="171"/>
-      <c r="BO32" s="171"/>
-      <c r="BP32" s="171"/>
+      <c r="BC32" s="158"/>
+      <c r="BD32" s="158"/>
+      <c r="BE32" s="167"/>
+      <c r="BF32" s="167"/>
+      <c r="BG32" s="167"/>
+      <c r="BH32" s="167"/>
+      <c r="BI32" s="166"/>
+      <c r="BJ32" s="166"/>
+      <c r="BK32" s="166"/>
+      <c r="BL32" s="166"/>
+      <c r="BM32" s="172"/>
+      <c r="BN32" s="172"/>
+      <c r="BO32" s="172"/>
+      <c r="BP32" s="172"/>
     </row>
     <row r="33" spans="1:75" x14ac:dyDescent="0.15">
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="160" t="s">
+      <c r="J33" s="161" t="s">
         <v>144</v>
       </c>
-      <c r="K33" s="160"/>
-      <c r="L33" s="160"/>
-      <c r="M33" s="160"/>
-      <c r="N33" s="160"/>
-      <c r="O33" s="160"/>
-      <c r="P33" s="160"/>
-      <c r="Q33" s="160"/>
-      <c r="R33" s="160"/>
-      <c r="S33" s="160"/>
-      <c r="T33" s="160"/>
-      <c r="U33" s="160"/>
-      <c r="V33" s="160"/>
-      <c r="W33" s="160"/>
-      <c r="X33" s="160"/>
-      <c r="Y33" s="160"/>
-      <c r="Z33" s="160"/>
-      <c r="AA33" s="160"/>
-      <c r="AB33" s="160"/>
-      <c r="AC33" s="160"/>
-      <c r="AD33" s="160"/>
-      <c r="AE33" s="160"/>
-      <c r="AF33" s="160"/>
-      <c r="AG33" s="158" t="s">
+      <c r="K33" s="161"/>
+      <c r="L33" s="161"/>
+      <c r="M33" s="161"/>
+      <c r="N33" s="161"/>
+      <c r="O33" s="161"/>
+      <c r="P33" s="161"/>
+      <c r="Q33" s="161"/>
+      <c r="R33" s="161"/>
+      <c r="S33" s="161"/>
+      <c r="T33" s="161"/>
+      <c r="U33" s="161"/>
+      <c r="V33" s="161"/>
+      <c r="W33" s="161"/>
+      <c r="X33" s="161"/>
+      <c r="Y33" s="161"/>
+      <c r="Z33" s="161"/>
+      <c r="AA33" s="161"/>
+      <c r="AB33" s="161"/>
+      <c r="AC33" s="161"/>
+      <c r="AD33" s="161"/>
+      <c r="AE33" s="161"/>
+      <c r="AF33" s="161"/>
+      <c r="AG33" s="159" t="s">
         <v>146</v>
       </c>
-      <c r="AH33" s="158"/>
-      <c r="AI33" s="158"/>
-      <c r="AJ33" s="158"/>
-      <c r="AK33" s="157" t="s">
+      <c r="AH33" s="159"/>
+      <c r="AI33" s="159"/>
+      <c r="AJ33" s="159"/>
+      <c r="AK33" s="158" t="s">
         <v>143</v>
       </c>
-      <c r="AL33" s="157"/>
-      <c r="AM33" s="157"/>
-      <c r="AN33" s="157"/>
-      <c r="AO33" s="157"/>
-      <c r="AP33" s="157"/>
-      <c r="AQ33" s="157"/>
-      <c r="AR33" s="157"/>
-      <c r="AS33" s="157"/>
-      <c r="AT33" s="157"/>
-      <c r="AU33" s="157"/>
-      <c r="AV33" s="157"/>
-      <c r="AW33" s="157"/>
-      <c r="AX33" s="157"/>
-      <c r="AY33" s="157"/>
-      <c r="AZ33" s="157"/>
-      <c r="BA33" s="157"/>
-      <c r="BB33" s="157"/>
-      <c r="BC33" s="157"/>
-      <c r="BD33" s="157"/>
-      <c r="BE33" s="166" t="s">
+      <c r="AL33" s="158"/>
+      <c r="AM33" s="158"/>
+      <c r="AN33" s="158"/>
+      <c r="AO33" s="158"/>
+      <c r="AP33" s="158"/>
+      <c r="AQ33" s="158"/>
+      <c r="AR33" s="158"/>
+      <c r="AS33" s="158"/>
+      <c r="AT33" s="158"/>
+      <c r="AU33" s="158"/>
+      <c r="AV33" s="158"/>
+      <c r="AW33" s="158"/>
+      <c r="AX33" s="158"/>
+      <c r="AY33" s="158"/>
+      <c r="AZ33" s="158"/>
+      <c r="BA33" s="158"/>
+      <c r="BB33" s="158"/>
+      <c r="BC33" s="158"/>
+      <c r="BD33" s="158"/>
+      <c r="BE33" s="167" t="s">
         <v>434</v>
       </c>
-      <c r="BF33" s="166"/>
-      <c r="BG33" s="166"/>
-      <c r="BH33" s="166"/>
-      <c r="BI33" s="165" t="s">
-        <v>757</v>
-      </c>
-      <c r="BJ33" s="165"/>
-      <c r="BK33" s="165"/>
-      <c r="BL33" s="165"/>
-      <c r="BM33" s="171" t="s">
-        <v>854</v>
-      </c>
-      <c r="BN33" s="171"/>
-      <c r="BO33" s="171"/>
-      <c r="BP33" s="171"/>
+      <c r="BF33" s="167"/>
+      <c r="BG33" s="167"/>
+      <c r="BH33" s="167"/>
+      <c r="BI33" s="166" t="s">
+        <v>756</v>
+      </c>
+      <c r="BJ33" s="166"/>
+      <c r="BK33" s="166"/>
+      <c r="BL33" s="166"/>
+      <c r="BM33" s="172" t="s">
+        <v>845</v>
+      </c>
+      <c r="BN33" s="172"/>
+      <c r="BO33" s="172"/>
+      <c r="BP33" s="172"/>
     </row>
     <row r="34" spans="1:75" x14ac:dyDescent="0.15">
       <c r="J34" s="13"/>
@@ -29355,7 +30454,7 @@
     </row>
     <row r="35" spans="1:75" x14ac:dyDescent="0.15">
       <c r="C35" s="3" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -29371,556 +30470,556 @@
       <c r="A36" s="45" t="s">
         <v>605</v>
       </c>
-      <c r="C36" s="152" t="s">
+      <c r="C36" s="153" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="153"/>
-      <c r="E36" s="153"/>
+      <c r="D36" s="154"/>
+      <c r="E36" s="154"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
-      <c r="J36" s="159" t="s">
+      <c r="J36" s="160" t="s">
         <v>648</v>
       </c>
-      <c r="K36" s="160"/>
-      <c r="L36" s="160"/>
-      <c r="M36" s="160" t="s">
+      <c r="K36" s="161"/>
+      <c r="L36" s="161"/>
+      <c r="M36" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="N36" s="159" t="s">
+      <c r="N36" s="160" t="s">
         <v>571</v>
       </c>
-      <c r="O36" s="160"/>
-      <c r="P36" s="160"/>
-      <c r="Q36" s="160" t="s">
+      <c r="O36" s="161"/>
+      <c r="P36" s="161"/>
+      <c r="Q36" s="161" t="s">
+        <v>835</v>
+      </c>
+      <c r="R36" s="163" t="s">
         <v>844</v>
       </c>
-      <c r="R36" s="162" t="s">
-        <v>853</v>
-      </c>
-      <c r="S36" s="163"/>
-      <c r="T36" s="160" t="s">
+      <c r="S36" s="164"/>
+      <c r="T36" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="U36" s="159" t="s">
+      <c r="U36" s="160" t="s">
         <v>115</v>
       </c>
-      <c r="V36" s="160"/>
-      <c r="W36" s="160"/>
-      <c r="X36" s="160" t="s">
+      <c r="V36" s="161"/>
+      <c r="W36" s="161"/>
+      <c r="X36" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="Y36" s="160" t="s">
+      <c r="Y36" s="161" t="s">
         <v>517</v>
       </c>
-      <c r="Z36" s="160"/>
-      <c r="AA36" s="160"/>
-      <c r="AB36" s="160" t="s">
+      <c r="Z36" s="161"/>
+      <c r="AA36" s="161"/>
+      <c r="AB36" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="AC36" s="160" t="s">
-        <v>902</v>
-      </c>
-      <c r="AD36" s="160"/>
-      <c r="AE36" s="160"/>
-      <c r="AF36" s="155" t="s">
+      <c r="AC36" s="161" t="s">
+        <v>893</v>
+      </c>
+      <c r="AD36" s="161"/>
+      <c r="AE36" s="161"/>
+      <c r="AF36" s="156" t="s">
         <v>77</v>
       </c>
-      <c r="AG36" s="155" t="s">
+      <c r="AG36" s="156" t="s">
         <v>679</v>
       </c>
-      <c r="AH36" s="155"/>
-      <c r="AI36" s="155"/>
-      <c r="AJ36" s="156" t="s">
+      <c r="AH36" s="156"/>
+      <c r="AI36" s="156"/>
+      <c r="AJ36" s="157" t="s">
         <v>77</v>
       </c>
-      <c r="AK36" s="169" t="s">
-        <v>913</v>
-      </c>
-      <c r="AL36" s="170"/>
-      <c r="AM36" s="170"/>
-      <c r="AN36" s="156" t="s">
+      <c r="AK36" s="170" t="s">
+        <v>904</v>
+      </c>
+      <c r="AL36" s="171"/>
+      <c r="AM36" s="171"/>
+      <c r="AN36" s="157" t="s">
         <v>77</v>
       </c>
-      <c r="AO36" s="172" t="s">
+      <c r="AO36" s="173" t="s">
         <v>652</v>
       </c>
-      <c r="AP36" s="156"/>
-      <c r="AQ36" s="156"/>
-      <c r="AR36" s="156" t="s">
+      <c r="AP36" s="157"/>
+      <c r="AQ36" s="157"/>
+      <c r="AR36" s="157" t="s">
         <v>94</v>
       </c>
-      <c r="AS36" s="156">
+      <c r="AS36" s="157">
         <v>1</v>
       </c>
-      <c r="AT36" s="156"/>
-      <c r="AU36" s="156"/>
-      <c r="AV36" s="156" t="s">
+      <c r="AT36" s="157"/>
+      <c r="AU36" s="157"/>
+      <c r="AV36" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="AW36" s="156" t="s">
+      <c r="AW36" s="157" t="s">
         <v>516</v>
       </c>
-      <c r="AX36" s="156"/>
-      <c r="AY36" s="156"/>
-      <c r="AZ36" s="156" t="s">
+      <c r="AX36" s="157"/>
+      <c r="AY36" s="157"/>
+      <c r="AZ36" s="157" t="s">
         <v>142</v>
       </c>
-      <c r="BA36" s="156" t="s">
+      <c r="BA36" s="157" t="s">
         <v>515</v>
       </c>
-      <c r="BB36" s="156"/>
-      <c r="BC36" s="156"/>
-      <c r="BD36" s="156" t="s">
+      <c r="BB36" s="157"/>
+      <c r="BC36" s="157"/>
+      <c r="BD36" s="157" t="s">
         <v>147</v>
       </c>
-      <c r="BE36" s="156" t="s">
+      <c r="BE36" s="157" t="s">
         <v>514</v>
       </c>
-      <c r="BF36" s="156"/>
-      <c r="BG36" s="156"/>
-      <c r="BH36" s="156" t="s">
+      <c r="BF36" s="157"/>
+      <c r="BG36" s="157"/>
+      <c r="BH36" s="157" t="s">
         <v>208</v>
       </c>
-      <c r="BI36" s="156" t="s">
+      <c r="BI36" s="157" t="s">
         <v>513</v>
       </c>
-      <c r="BJ36" s="156"/>
-      <c r="BK36" s="156"/>
-      <c r="BL36" s="166" t="s">
+      <c r="BJ36" s="157"/>
+      <c r="BK36" s="157"/>
+      <c r="BL36" s="167" t="s">
         <v>101</v>
       </c>
-      <c r="BM36" s="166" t="s">
+      <c r="BM36" s="167" t="s">
         <v>512</v>
       </c>
-      <c r="BN36" s="166"/>
-      <c r="BO36" s="166"/>
-      <c r="BP36" s="165" t="s">
-        <v>750</v>
-      </c>
-      <c r="BQ36" s="165" t="s">
-        <v>756</v>
-      </c>
-      <c r="BR36" s="165"/>
-      <c r="BS36" s="165"/>
-      <c r="BT36" s="171" t="s">
-        <v>851</v>
-      </c>
-      <c r="BU36" s="171" t="s">
-        <v>887</v>
-      </c>
-      <c r="BV36" s="171"/>
-      <c r="BW36" s="171"/>
+      <c r="BN36" s="167"/>
+      <c r="BO36" s="167"/>
+      <c r="BP36" s="166" t="s">
+        <v>749</v>
+      </c>
+      <c r="BQ36" s="166" t="s">
+        <v>755</v>
+      </c>
+      <c r="BR36" s="166"/>
+      <c r="BS36" s="166"/>
+      <c r="BT36" s="172" t="s">
+        <v>842</v>
+      </c>
+      <c r="BU36" s="172" t="s">
+        <v>878</v>
+      </c>
+      <c r="BV36" s="172"/>
+      <c r="BW36" s="172"/>
     </row>
     <row r="37" spans="1:75" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
-      <c r="C37" s="153"/>
-      <c r="D37" s="153"/>
-      <c r="E37" s="153"/>
+      <c r="C37" s="154"/>
+      <c r="D37" s="154"/>
+      <c r="E37" s="154"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="160"/>
-      <c r="K37" s="160"/>
-      <c r="L37" s="160"/>
-      <c r="M37" s="160"/>
-      <c r="N37" s="160"/>
-      <c r="O37" s="160"/>
-      <c r="P37" s="160"/>
-      <c r="Q37" s="160"/>
-      <c r="R37" s="163"/>
-      <c r="S37" s="163"/>
-      <c r="T37" s="160"/>
-      <c r="U37" s="160"/>
-      <c r="V37" s="160"/>
-      <c r="W37" s="160"/>
-      <c r="X37" s="160"/>
-      <c r="Y37" s="160"/>
-      <c r="Z37" s="160"/>
-      <c r="AA37" s="160"/>
-      <c r="AB37" s="160"/>
-      <c r="AC37" s="160"/>
-      <c r="AD37" s="160"/>
-      <c r="AE37" s="160"/>
-      <c r="AF37" s="155"/>
-      <c r="AG37" s="155"/>
-      <c r="AH37" s="155"/>
-      <c r="AI37" s="155"/>
-      <c r="AJ37" s="156"/>
-      <c r="AK37" s="170"/>
-      <c r="AL37" s="170"/>
-      <c r="AM37" s="170"/>
-      <c r="AN37" s="156"/>
-      <c r="AO37" s="156"/>
-      <c r="AP37" s="156"/>
-      <c r="AQ37" s="156"/>
-      <c r="AR37" s="156"/>
-      <c r="AS37" s="156"/>
-      <c r="AT37" s="156"/>
-      <c r="AU37" s="156"/>
-      <c r="AV37" s="156"/>
-      <c r="AW37" s="156"/>
-      <c r="AX37" s="156"/>
-      <c r="AY37" s="156"/>
-      <c r="AZ37" s="156"/>
-      <c r="BA37" s="156"/>
-      <c r="BB37" s="156"/>
-      <c r="BC37" s="156"/>
-      <c r="BD37" s="156"/>
-      <c r="BE37" s="156"/>
-      <c r="BF37" s="156"/>
-      <c r="BG37" s="156"/>
-      <c r="BH37" s="156"/>
-      <c r="BI37" s="156"/>
-      <c r="BJ37" s="156"/>
-      <c r="BK37" s="156"/>
-      <c r="BL37" s="166"/>
-      <c r="BM37" s="166"/>
-      <c r="BN37" s="166"/>
-      <c r="BO37" s="166"/>
-      <c r="BP37" s="165"/>
-      <c r="BQ37" s="165"/>
-      <c r="BR37" s="165"/>
-      <c r="BS37" s="165"/>
-      <c r="BT37" s="171"/>
-      <c r="BU37" s="171"/>
-      <c r="BV37" s="171"/>
-      <c r="BW37" s="171"/>
+      <c r="J37" s="161"/>
+      <c r="K37" s="161"/>
+      <c r="L37" s="161"/>
+      <c r="M37" s="161"/>
+      <c r="N37" s="161"/>
+      <c r="O37" s="161"/>
+      <c r="P37" s="161"/>
+      <c r="Q37" s="161"/>
+      <c r="R37" s="164"/>
+      <c r="S37" s="164"/>
+      <c r="T37" s="161"/>
+      <c r="U37" s="161"/>
+      <c r="V37" s="161"/>
+      <c r="W37" s="161"/>
+      <c r="X37" s="161"/>
+      <c r="Y37" s="161"/>
+      <c r="Z37" s="161"/>
+      <c r="AA37" s="161"/>
+      <c r="AB37" s="161"/>
+      <c r="AC37" s="161"/>
+      <c r="AD37" s="161"/>
+      <c r="AE37" s="161"/>
+      <c r="AF37" s="156"/>
+      <c r="AG37" s="156"/>
+      <c r="AH37" s="156"/>
+      <c r="AI37" s="156"/>
+      <c r="AJ37" s="157"/>
+      <c r="AK37" s="171"/>
+      <c r="AL37" s="171"/>
+      <c r="AM37" s="171"/>
+      <c r="AN37" s="157"/>
+      <c r="AO37" s="157"/>
+      <c r="AP37" s="157"/>
+      <c r="AQ37" s="157"/>
+      <c r="AR37" s="157"/>
+      <c r="AS37" s="157"/>
+      <c r="AT37" s="157"/>
+      <c r="AU37" s="157"/>
+      <c r="AV37" s="157"/>
+      <c r="AW37" s="157"/>
+      <c r="AX37" s="157"/>
+      <c r="AY37" s="157"/>
+      <c r="AZ37" s="157"/>
+      <c r="BA37" s="157"/>
+      <c r="BB37" s="157"/>
+      <c r="BC37" s="157"/>
+      <c r="BD37" s="157"/>
+      <c r="BE37" s="157"/>
+      <c r="BF37" s="157"/>
+      <c r="BG37" s="157"/>
+      <c r="BH37" s="157"/>
+      <c r="BI37" s="157"/>
+      <c r="BJ37" s="157"/>
+      <c r="BK37" s="157"/>
+      <c r="BL37" s="167"/>
+      <c r="BM37" s="167"/>
+      <c r="BN37" s="167"/>
+      <c r="BO37" s="167"/>
+      <c r="BP37" s="166"/>
+      <c r="BQ37" s="166"/>
+      <c r="BR37" s="166"/>
+      <c r="BS37" s="166"/>
+      <c r="BT37" s="172"/>
+      <c r="BU37" s="172"/>
+      <c r="BV37" s="172"/>
+      <c r="BW37" s="172"/>
     </row>
     <row r="38" spans="1:75" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
         <v>642</v>
       </c>
-      <c r="C38" s="153"/>
-      <c r="D38" s="153"/>
-      <c r="E38" s="153"/>
+      <c r="C38" s="154"/>
+      <c r="D38" s="154"/>
+      <c r="E38" s="154"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
-      <c r="J38" s="160"/>
-      <c r="K38" s="160"/>
-      <c r="L38" s="160"/>
-      <c r="M38" s="160"/>
-      <c r="N38" s="160"/>
-      <c r="O38" s="160"/>
-      <c r="P38" s="160"/>
-      <c r="Q38" s="160"/>
-      <c r="R38" s="163"/>
-      <c r="S38" s="163"/>
-      <c r="T38" s="160"/>
-      <c r="U38" s="160"/>
-      <c r="V38" s="160"/>
-      <c r="W38" s="160"/>
-      <c r="X38" s="160"/>
-      <c r="Y38" s="160"/>
-      <c r="Z38" s="160"/>
-      <c r="AA38" s="160"/>
-      <c r="AB38" s="160"/>
-      <c r="AC38" s="160"/>
-      <c r="AD38" s="160"/>
-      <c r="AE38" s="160"/>
-      <c r="AF38" s="155"/>
-      <c r="AG38" s="155"/>
-      <c r="AH38" s="155"/>
-      <c r="AI38" s="155"/>
-      <c r="AJ38" s="156"/>
-      <c r="AK38" s="170"/>
-      <c r="AL38" s="170"/>
-      <c r="AM38" s="170"/>
-      <c r="AN38" s="156"/>
-      <c r="AO38" s="156"/>
-      <c r="AP38" s="156"/>
-      <c r="AQ38" s="156"/>
-      <c r="AR38" s="156"/>
-      <c r="AS38" s="156"/>
-      <c r="AT38" s="156"/>
-      <c r="AU38" s="156"/>
-      <c r="AV38" s="156"/>
-      <c r="AW38" s="156"/>
-      <c r="AX38" s="156"/>
-      <c r="AY38" s="156"/>
-      <c r="AZ38" s="156"/>
-      <c r="BA38" s="156"/>
-      <c r="BB38" s="156"/>
-      <c r="BC38" s="156"/>
-      <c r="BD38" s="156"/>
-      <c r="BE38" s="156"/>
-      <c r="BF38" s="156"/>
-      <c r="BG38" s="156"/>
-      <c r="BH38" s="156"/>
-      <c r="BI38" s="156"/>
-      <c r="BJ38" s="156"/>
-      <c r="BK38" s="156"/>
-      <c r="BL38" s="166"/>
-      <c r="BM38" s="166"/>
-      <c r="BN38" s="166"/>
-      <c r="BO38" s="166"/>
-      <c r="BP38" s="165"/>
-      <c r="BQ38" s="165"/>
-      <c r="BR38" s="165"/>
-      <c r="BS38" s="165"/>
-      <c r="BT38" s="171"/>
-      <c r="BU38" s="171"/>
-      <c r="BV38" s="171"/>
-      <c r="BW38" s="171"/>
+      <c r="J38" s="161"/>
+      <c r="K38" s="161"/>
+      <c r="L38" s="161"/>
+      <c r="M38" s="161"/>
+      <c r="N38" s="161"/>
+      <c r="O38" s="161"/>
+      <c r="P38" s="161"/>
+      <c r="Q38" s="161"/>
+      <c r="R38" s="164"/>
+      <c r="S38" s="164"/>
+      <c r="T38" s="161"/>
+      <c r="U38" s="161"/>
+      <c r="V38" s="161"/>
+      <c r="W38" s="161"/>
+      <c r="X38" s="161"/>
+      <c r="Y38" s="161"/>
+      <c r="Z38" s="161"/>
+      <c r="AA38" s="161"/>
+      <c r="AB38" s="161"/>
+      <c r="AC38" s="161"/>
+      <c r="AD38" s="161"/>
+      <c r="AE38" s="161"/>
+      <c r="AF38" s="156"/>
+      <c r="AG38" s="156"/>
+      <c r="AH38" s="156"/>
+      <c r="AI38" s="156"/>
+      <c r="AJ38" s="157"/>
+      <c r="AK38" s="171"/>
+      <c r="AL38" s="171"/>
+      <c r="AM38" s="171"/>
+      <c r="AN38" s="157"/>
+      <c r="AO38" s="157"/>
+      <c r="AP38" s="157"/>
+      <c r="AQ38" s="157"/>
+      <c r="AR38" s="157"/>
+      <c r="AS38" s="157"/>
+      <c r="AT38" s="157"/>
+      <c r="AU38" s="157"/>
+      <c r="AV38" s="157"/>
+      <c r="AW38" s="157"/>
+      <c r="AX38" s="157"/>
+      <c r="AY38" s="157"/>
+      <c r="AZ38" s="157"/>
+      <c r="BA38" s="157"/>
+      <c r="BB38" s="157"/>
+      <c r="BC38" s="157"/>
+      <c r="BD38" s="157"/>
+      <c r="BE38" s="157"/>
+      <c r="BF38" s="157"/>
+      <c r="BG38" s="157"/>
+      <c r="BH38" s="157"/>
+      <c r="BI38" s="157"/>
+      <c r="BJ38" s="157"/>
+      <c r="BK38" s="157"/>
+      <c r="BL38" s="167"/>
+      <c r="BM38" s="167"/>
+      <c r="BN38" s="167"/>
+      <c r="BO38" s="167"/>
+      <c r="BP38" s="166"/>
+      <c r="BQ38" s="166"/>
+      <c r="BR38" s="166"/>
+      <c r="BS38" s="166"/>
+      <c r="BT38" s="172"/>
+      <c r="BU38" s="172"/>
+      <c r="BV38" s="172"/>
+      <c r="BW38" s="172"/>
     </row>
     <row r="39" spans="1:75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C39" s="153"/>
-      <c r="D39" s="153"/>
-      <c r="E39" s="153"/>
+      <c r="C39" s="154"/>
+      <c r="D39" s="154"/>
+      <c r="E39" s="154"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="160"/>
-      <c r="K39" s="160"/>
-      <c r="L39" s="160"/>
-      <c r="M39" s="160"/>
-      <c r="N39" s="160"/>
-      <c r="O39" s="160"/>
-      <c r="P39" s="160"/>
-      <c r="Q39" s="160"/>
-      <c r="R39" s="163"/>
-      <c r="S39" s="163"/>
-      <c r="T39" s="160"/>
-      <c r="U39" s="160"/>
-      <c r="V39" s="160"/>
-      <c r="W39" s="160"/>
-      <c r="X39" s="160"/>
-      <c r="Y39" s="160"/>
-      <c r="Z39" s="160"/>
-      <c r="AA39" s="160"/>
-      <c r="AB39" s="160"/>
-      <c r="AC39" s="160"/>
-      <c r="AD39" s="160"/>
-      <c r="AE39" s="160"/>
-      <c r="AF39" s="155"/>
-      <c r="AG39" s="155"/>
-      <c r="AH39" s="155"/>
-      <c r="AI39" s="155"/>
-      <c r="AJ39" s="156"/>
-      <c r="AK39" s="170"/>
-      <c r="AL39" s="170"/>
-      <c r="AM39" s="170"/>
-      <c r="AN39" s="156"/>
-      <c r="AO39" s="156"/>
-      <c r="AP39" s="156"/>
-      <c r="AQ39" s="156"/>
-      <c r="AR39" s="156"/>
-      <c r="AS39" s="156"/>
-      <c r="AT39" s="156"/>
-      <c r="AU39" s="156"/>
-      <c r="AV39" s="156"/>
-      <c r="AW39" s="156"/>
-      <c r="AX39" s="156"/>
-      <c r="AY39" s="156"/>
-      <c r="AZ39" s="156"/>
-      <c r="BA39" s="156"/>
-      <c r="BB39" s="156"/>
-      <c r="BC39" s="156"/>
-      <c r="BD39" s="156"/>
-      <c r="BE39" s="156"/>
-      <c r="BF39" s="156"/>
-      <c r="BG39" s="156"/>
-      <c r="BH39" s="156"/>
-      <c r="BI39" s="156"/>
-      <c r="BJ39" s="156"/>
-      <c r="BK39" s="156"/>
-      <c r="BL39" s="166"/>
-      <c r="BM39" s="166"/>
-      <c r="BN39" s="166"/>
-      <c r="BO39" s="166"/>
-      <c r="BP39" s="165"/>
-      <c r="BQ39" s="165"/>
-      <c r="BR39" s="165"/>
-      <c r="BS39" s="165"/>
-      <c r="BT39" s="171"/>
-      <c r="BU39" s="171"/>
-      <c r="BV39" s="171"/>
-      <c r="BW39" s="171"/>
+      <c r="J39" s="161"/>
+      <c r="K39" s="161"/>
+      <c r="L39" s="161"/>
+      <c r="M39" s="161"/>
+      <c r="N39" s="161"/>
+      <c r="O39" s="161"/>
+      <c r="P39" s="161"/>
+      <c r="Q39" s="161"/>
+      <c r="R39" s="164"/>
+      <c r="S39" s="164"/>
+      <c r="T39" s="161"/>
+      <c r="U39" s="161"/>
+      <c r="V39" s="161"/>
+      <c r="W39" s="161"/>
+      <c r="X39" s="161"/>
+      <c r="Y39" s="161"/>
+      <c r="Z39" s="161"/>
+      <c r="AA39" s="161"/>
+      <c r="AB39" s="161"/>
+      <c r="AC39" s="161"/>
+      <c r="AD39" s="161"/>
+      <c r="AE39" s="161"/>
+      <c r="AF39" s="156"/>
+      <c r="AG39" s="156"/>
+      <c r="AH39" s="156"/>
+      <c r="AI39" s="156"/>
+      <c r="AJ39" s="157"/>
+      <c r="AK39" s="171"/>
+      <c r="AL39" s="171"/>
+      <c r="AM39" s="171"/>
+      <c r="AN39" s="157"/>
+      <c r="AO39" s="157"/>
+      <c r="AP39" s="157"/>
+      <c r="AQ39" s="157"/>
+      <c r="AR39" s="157"/>
+      <c r="AS39" s="157"/>
+      <c r="AT39" s="157"/>
+      <c r="AU39" s="157"/>
+      <c r="AV39" s="157"/>
+      <c r="AW39" s="157"/>
+      <c r="AX39" s="157"/>
+      <c r="AY39" s="157"/>
+      <c r="AZ39" s="157"/>
+      <c r="BA39" s="157"/>
+      <c r="BB39" s="157"/>
+      <c r="BC39" s="157"/>
+      <c r="BD39" s="157"/>
+      <c r="BE39" s="157"/>
+      <c r="BF39" s="157"/>
+      <c r="BG39" s="157"/>
+      <c r="BH39" s="157"/>
+      <c r="BI39" s="157"/>
+      <c r="BJ39" s="157"/>
+      <c r="BK39" s="157"/>
+      <c r="BL39" s="167"/>
+      <c r="BM39" s="167"/>
+      <c r="BN39" s="167"/>
+      <c r="BO39" s="167"/>
+      <c r="BP39" s="166"/>
+      <c r="BQ39" s="166"/>
+      <c r="BR39" s="166"/>
+      <c r="BS39" s="166"/>
+      <c r="BT39" s="172"/>
+      <c r="BU39" s="172"/>
+      <c r="BV39" s="172"/>
+      <c r="BW39" s="172"/>
     </row>
     <row r="40" spans="1:75" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="160" t="s">
+      <c r="J40" s="161" t="s">
         <v>534</v>
       </c>
-      <c r="K40" s="160"/>
-      <c r="L40" s="160"/>
-      <c r="M40" s="160"/>
-      <c r="N40" s="160" t="s">
+      <c r="K40" s="161"/>
+      <c r="L40" s="161"/>
+      <c r="M40" s="161"/>
+      <c r="N40" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="O40" s="160"/>
-      <c r="P40" s="160"/>
-      <c r="Q40" s="160"/>
-      <c r="R40" s="163"/>
-      <c r="S40" s="163"/>
-      <c r="T40" s="160"/>
-      <c r="U40" s="161" t="s">
+      <c r="O40" s="161"/>
+      <c r="P40" s="161"/>
+      <c r="Q40" s="161"/>
+      <c r="R40" s="164"/>
+      <c r="S40" s="164"/>
+      <c r="T40" s="161"/>
+      <c r="U40" s="162" t="s">
         <v>106</v>
       </c>
-      <c r="V40" s="161"/>
-      <c r="W40" s="161"/>
-      <c r="X40" s="160"/>
-      <c r="Y40" s="160" t="s">
+      <c r="V40" s="162"/>
+      <c r="W40" s="162"/>
+      <c r="X40" s="161"/>
+      <c r="Y40" s="161" t="s">
         <v>99</v>
       </c>
-      <c r="Z40" s="160"/>
-      <c r="AA40" s="160"/>
-      <c r="AB40" s="160"/>
-      <c r="AC40" s="160" t="s">
+      <c r="Z40" s="161"/>
+      <c r="AA40" s="161"/>
+      <c r="AB40" s="161"/>
+      <c r="AC40" s="161" t="s">
         <v>100</v>
       </c>
-      <c r="AD40" s="160"/>
-      <c r="AE40" s="160"/>
-      <c r="AF40" s="155"/>
-      <c r="AG40" s="155" t="s">
+      <c r="AD40" s="161"/>
+      <c r="AE40" s="161"/>
+      <c r="AF40" s="156"/>
+      <c r="AG40" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="AH40" s="155"/>
-      <c r="AI40" s="155"/>
-      <c r="AJ40" s="156"/>
-      <c r="AK40" s="168" t="s">
+      <c r="AH40" s="156"/>
+      <c r="AI40" s="156"/>
+      <c r="AJ40" s="157"/>
+      <c r="AK40" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="AL40" s="168"/>
-      <c r="AM40" s="168"/>
-      <c r="AN40" s="156"/>
-      <c r="AO40" s="173" t="s">
+      <c r="AL40" s="169"/>
+      <c r="AM40" s="169"/>
+      <c r="AN40" s="157"/>
+      <c r="AO40" s="174" t="s">
         <v>102</v>
       </c>
-      <c r="AP40" s="157"/>
-      <c r="AQ40" s="157"/>
-      <c r="AR40" s="156"/>
-      <c r="AS40" s="167"/>
-      <c r="AT40" s="167"/>
-      <c r="AU40" s="167"/>
-      <c r="AV40" s="156"/>
-      <c r="AW40" s="167" t="s">
+      <c r="AP40" s="158"/>
+      <c r="AQ40" s="158"/>
+      <c r="AR40" s="157"/>
+      <c r="AS40" s="168"/>
+      <c r="AT40" s="168"/>
+      <c r="AU40" s="168"/>
+      <c r="AV40" s="157"/>
+      <c r="AW40" s="168" t="s">
         <v>98</v>
       </c>
-      <c r="AX40" s="167"/>
-      <c r="AY40" s="167"/>
-      <c r="AZ40" s="156"/>
-      <c r="BA40" s="156" t="s">
+      <c r="AX40" s="168"/>
+      <c r="AY40" s="168"/>
+      <c r="AZ40" s="157"/>
+      <c r="BA40" s="157" t="s">
         <v>97</v>
       </c>
-      <c r="BB40" s="156"/>
-      <c r="BC40" s="156"/>
-      <c r="BD40" s="156"/>
-      <c r="BE40" s="156" t="s">
+      <c r="BB40" s="157"/>
+      <c r="BC40" s="157"/>
+      <c r="BD40" s="157"/>
+      <c r="BE40" s="157" t="s">
         <v>107</v>
       </c>
-      <c r="BF40" s="156"/>
-      <c r="BG40" s="156"/>
-      <c r="BH40" s="156"/>
-      <c r="BI40" s="157" t="s">
+      <c r="BF40" s="157"/>
+      <c r="BG40" s="157"/>
+      <c r="BH40" s="157"/>
+      <c r="BI40" s="158" t="s">
         <v>209</v>
       </c>
-      <c r="BJ40" s="157"/>
-      <c r="BK40" s="157"/>
-      <c r="BL40" s="166"/>
-      <c r="BM40" s="166"/>
-      <c r="BN40" s="166"/>
-      <c r="BO40" s="166"/>
-      <c r="BP40" s="165"/>
-      <c r="BQ40" s="165"/>
-      <c r="BR40" s="165"/>
-      <c r="BS40" s="165"/>
-      <c r="BT40" s="171"/>
-      <c r="BU40" s="171"/>
-      <c r="BV40" s="171"/>
-      <c r="BW40" s="171"/>
+      <c r="BJ40" s="158"/>
+      <c r="BK40" s="158"/>
+      <c r="BL40" s="167"/>
+      <c r="BM40" s="167"/>
+      <c r="BN40" s="167"/>
+      <c r="BO40" s="167"/>
+      <c r="BP40" s="166"/>
+      <c r="BQ40" s="166"/>
+      <c r="BR40" s="166"/>
+      <c r="BS40" s="166"/>
+      <c r="BT40" s="172"/>
+      <c r="BU40" s="172"/>
+      <c r="BV40" s="172"/>
+      <c r="BW40" s="172"/>
     </row>
     <row r="41" spans="1:75" x14ac:dyDescent="0.15">
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="154" t="s">
+      <c r="J41" s="155" t="s">
         <v>144</v>
       </c>
-      <c r="K41" s="154"/>
-      <c r="L41" s="154"/>
-      <c r="M41" s="154"/>
-      <c r="N41" s="154"/>
-      <c r="O41" s="154"/>
-      <c r="P41" s="154"/>
-      <c r="Q41" s="154"/>
-      <c r="R41" s="154"/>
-      <c r="S41" s="154"/>
-      <c r="T41" s="154"/>
-      <c r="U41" s="154"/>
-      <c r="V41" s="154"/>
-      <c r="W41" s="154"/>
-      <c r="X41" s="154"/>
-      <c r="Y41" s="154"/>
-      <c r="Z41" s="154"/>
-      <c r="AA41" s="154"/>
-      <c r="AB41" s="154"/>
-      <c r="AC41" s="154"/>
-      <c r="AD41" s="154"/>
-      <c r="AE41" s="154"/>
-      <c r="AF41" s="158" t="s">
+      <c r="K41" s="155"/>
+      <c r="L41" s="155"/>
+      <c r="M41" s="155"/>
+      <c r="N41" s="155"/>
+      <c r="O41" s="155"/>
+      <c r="P41" s="155"/>
+      <c r="Q41" s="155"/>
+      <c r="R41" s="155"/>
+      <c r="S41" s="155"/>
+      <c r="T41" s="155"/>
+      <c r="U41" s="155"/>
+      <c r="V41" s="155"/>
+      <c r="W41" s="155"/>
+      <c r="X41" s="155"/>
+      <c r="Y41" s="155"/>
+      <c r="Z41" s="155"/>
+      <c r="AA41" s="155"/>
+      <c r="AB41" s="155"/>
+      <c r="AC41" s="155"/>
+      <c r="AD41" s="155"/>
+      <c r="AE41" s="155"/>
+      <c r="AF41" s="159" t="s">
         <v>146</v>
       </c>
-      <c r="AG41" s="158"/>
-      <c r="AH41" s="158"/>
-      <c r="AI41" s="158"/>
-      <c r="AJ41" s="157" t="s">
+      <c r="AG41" s="159"/>
+      <c r="AH41" s="159"/>
+      <c r="AI41" s="159"/>
+      <c r="AJ41" s="158" t="s">
         <v>143</v>
       </c>
-      <c r="AK41" s="157"/>
-      <c r="AL41" s="157"/>
-      <c r="AM41" s="157"/>
-      <c r="AN41" s="157"/>
-      <c r="AO41" s="157"/>
-      <c r="AP41" s="157"/>
-      <c r="AQ41" s="157"/>
-      <c r="AR41" s="157"/>
-      <c r="AS41" s="157"/>
-      <c r="AT41" s="157"/>
-      <c r="AU41" s="157"/>
-      <c r="AV41" s="157"/>
-      <c r="AW41" s="157"/>
-      <c r="AX41" s="157"/>
-      <c r="AY41" s="157"/>
-      <c r="AZ41" s="157"/>
-      <c r="BA41" s="157"/>
-      <c r="BB41" s="157"/>
-      <c r="BC41" s="157"/>
-      <c r="BD41" s="157"/>
-      <c r="BE41" s="157"/>
-      <c r="BF41" s="157"/>
-      <c r="BG41" s="157"/>
-      <c r="BH41" s="157"/>
-      <c r="BI41" s="157"/>
-      <c r="BJ41" s="157"/>
-      <c r="BK41" s="157"/>
-      <c r="BL41" s="166" t="s">
+      <c r="AK41" s="158"/>
+      <c r="AL41" s="158"/>
+      <c r="AM41" s="158"/>
+      <c r="AN41" s="158"/>
+      <c r="AO41" s="158"/>
+      <c r="AP41" s="158"/>
+      <c r="AQ41" s="158"/>
+      <c r="AR41" s="158"/>
+      <c r="AS41" s="158"/>
+      <c r="AT41" s="158"/>
+      <c r="AU41" s="158"/>
+      <c r="AV41" s="158"/>
+      <c r="AW41" s="158"/>
+      <c r="AX41" s="158"/>
+      <c r="AY41" s="158"/>
+      <c r="AZ41" s="158"/>
+      <c r="BA41" s="158"/>
+      <c r="BB41" s="158"/>
+      <c r="BC41" s="158"/>
+      <c r="BD41" s="158"/>
+      <c r="BE41" s="158"/>
+      <c r="BF41" s="158"/>
+      <c r="BG41" s="158"/>
+      <c r="BH41" s="158"/>
+      <c r="BI41" s="158"/>
+      <c r="BJ41" s="158"/>
+      <c r="BK41" s="158"/>
+      <c r="BL41" s="167" t="s">
         <v>434</v>
       </c>
-      <c r="BM41" s="166"/>
-      <c r="BN41" s="166"/>
-      <c r="BO41" s="166"/>
-      <c r="BP41" s="165" t="s">
-        <v>757</v>
-      </c>
-      <c r="BQ41" s="165"/>
-      <c r="BR41" s="165"/>
-      <c r="BS41" s="165"/>
-      <c r="BT41" s="171" t="s">
-        <v>854</v>
-      </c>
-      <c r="BU41" s="171"/>
-      <c r="BV41" s="171"/>
-      <c r="BW41" s="171"/>
+      <c r="BM41" s="167"/>
+      <c r="BN41" s="167"/>
+      <c r="BO41" s="167"/>
+      <c r="BP41" s="166" t="s">
+        <v>756</v>
+      </c>
+      <c r="BQ41" s="166"/>
+      <c r="BR41" s="166"/>
+      <c r="BS41" s="166"/>
+      <c r="BT41" s="172" t="s">
+        <v>845</v>
+      </c>
+      <c r="BU41" s="172"/>
+      <c r="BV41" s="172"/>
+      <c r="BW41" s="172"/>
     </row>
     <row r="42" spans="1:75" x14ac:dyDescent="0.15">
       <c r="J42" s="13"/>
@@ -30068,368 +31167,368 @@
       <c r="BR44" s="6"/>
     </row>
     <row r="45" spans="1:75" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C45" s="152" t="s">
+      <c r="C45" s="153" t="s">
         <v>110</v>
       </c>
-      <c r="D45" s="153"/>
-      <c r="E45" s="153"/>
+      <c r="D45" s="154"/>
+      <c r="E45" s="154"/>
       <c r="F45" s="91"/>
       <c r="G45" s="91"/>
       <c r="H45" s="91"/>
       <c r="I45" s="91"/>
-      <c r="J45" s="159" t="s">
+      <c r="J45" s="160" t="s">
         <v>648</v>
       </c>
-      <c r="K45" s="160"/>
-      <c r="L45" s="160"/>
-      <c r="M45" s="160" t="s">
+      <c r="K45" s="161"/>
+      <c r="L45" s="161"/>
+      <c r="M45" s="161" t="s">
         <v>111</v>
       </c>
-      <c r="N45" s="159" t="s">
+      <c r="N45" s="160" t="s">
         <v>115</v>
       </c>
-      <c r="O45" s="159"/>
-      <c r="P45" s="159"/>
-      <c r="Q45" s="159"/>
-      <c r="R45" s="159"/>
-      <c r="S45" s="159"/>
-      <c r="T45" s="160" t="s">
+      <c r="O45" s="160"/>
+      <c r="P45" s="160"/>
+      <c r="Q45" s="160"/>
+      <c r="R45" s="160"/>
+      <c r="S45" s="160"/>
+      <c r="T45" s="161" t="s">
         <v>94</v>
       </c>
-      <c r="U45" s="160" t="s">
-        <v>891</v>
-      </c>
-      <c r="V45" s="160"/>
-      <c r="W45" s="160"/>
-      <c r="X45" s="160" t="s">
+      <c r="U45" s="161" t="s">
+        <v>882</v>
+      </c>
+      <c r="V45" s="161"/>
+      <c r="W45" s="161"/>
+      <c r="X45" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="Y45" s="154" t="s">
+      <c r="Y45" s="155" t="s">
         <v>518</v>
       </c>
-      <c r="Z45" s="154"/>
-      <c r="AA45" s="154"/>
-      <c r="AB45" s="155" t="s">
+      <c r="Z45" s="155"/>
+      <c r="AA45" s="155"/>
+      <c r="AB45" s="156" t="s">
         <v>111</v>
       </c>
-      <c r="AC45" s="155" t="s">
+      <c r="AC45" s="156" t="s">
         <v>519</v>
       </c>
-      <c r="AD45" s="155"/>
-      <c r="AE45" s="155"/>
-      <c r="AF45" s="156" t="s">
+      <c r="AD45" s="156"/>
+      <c r="AE45" s="156"/>
+      <c r="AF45" s="157" t="s">
         <v>77</v>
       </c>
-      <c r="AG45" s="156">
+      <c r="AG45" s="157">
         <v>1</v>
       </c>
-      <c r="AH45" s="156"/>
-      <c r="AI45" s="156"/>
-      <c r="AJ45" s="156" t="s">
+      <c r="AH45" s="157"/>
+      <c r="AI45" s="157"/>
+      <c r="AJ45" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="AK45" s="156" t="s">
+      <c r="AK45" s="157" t="s">
         <v>520</v>
       </c>
-      <c r="AL45" s="156"/>
-      <c r="AM45" s="156"/>
-      <c r="AN45" s="156" t="s">
+      <c r="AL45" s="157"/>
+      <c r="AM45" s="157"/>
+      <c r="AN45" s="157" t="s">
         <v>147</v>
       </c>
-      <c r="AO45" s="156" t="s">
+      <c r="AO45" s="157" t="s">
         <v>516</v>
       </c>
-      <c r="AP45" s="156"/>
-      <c r="AQ45" s="156"/>
-      <c r="AR45" s="156" t="s">
+      <c r="AP45" s="157"/>
+      <c r="AQ45" s="157"/>
+      <c r="AR45" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="AS45" s="156" t="s">
+      <c r="AS45" s="157" t="s">
         <v>514</v>
       </c>
-      <c r="AT45" s="156"/>
-      <c r="AU45" s="156"/>
-      <c r="AV45" s="156" t="s">
+      <c r="AT45" s="157"/>
+      <c r="AU45" s="157"/>
+      <c r="AV45" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="AW45" s="156" t="s">
+      <c r="AW45" s="157" t="s">
         <v>511</v>
       </c>
-      <c r="AX45" s="156"/>
-      <c r="AY45" s="156"/>
+      <c r="AX45" s="157"/>
+      <c r="AY45" s="157"/>
     </row>
     <row r="46" spans="1:75" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C46" s="153"/>
-      <c r="D46" s="153"/>
-      <c r="E46" s="153"/>
+      <c r="C46" s="154"/>
+      <c r="D46" s="154"/>
+      <c r="E46" s="154"/>
       <c r="F46" s="91"/>
       <c r="G46" s="91"/>
       <c r="H46" s="91"/>
       <c r="I46" s="91"/>
-      <c r="J46" s="160"/>
-      <c r="K46" s="160"/>
-      <c r="L46" s="160"/>
-      <c r="M46" s="160"/>
-      <c r="N46" s="159"/>
-      <c r="O46" s="159"/>
-      <c r="P46" s="159"/>
-      <c r="Q46" s="159"/>
-      <c r="R46" s="159"/>
-      <c r="S46" s="159"/>
-      <c r="T46" s="160"/>
-      <c r="U46" s="160"/>
-      <c r="V46" s="160"/>
-      <c r="W46" s="160"/>
-      <c r="X46" s="160"/>
-      <c r="Y46" s="154"/>
-      <c r="Z46" s="154"/>
-      <c r="AA46" s="154"/>
-      <c r="AB46" s="155"/>
-      <c r="AC46" s="155"/>
-      <c r="AD46" s="155"/>
-      <c r="AE46" s="155"/>
-      <c r="AF46" s="156"/>
-      <c r="AG46" s="156"/>
-      <c r="AH46" s="156"/>
-      <c r="AI46" s="156"/>
-      <c r="AJ46" s="156"/>
-      <c r="AK46" s="156"/>
-      <c r="AL46" s="156"/>
-      <c r="AM46" s="156"/>
-      <c r="AN46" s="156"/>
-      <c r="AO46" s="156"/>
-      <c r="AP46" s="156"/>
-      <c r="AQ46" s="156"/>
-      <c r="AR46" s="156"/>
-      <c r="AS46" s="156"/>
-      <c r="AT46" s="156"/>
-      <c r="AU46" s="156"/>
-      <c r="AV46" s="156"/>
-      <c r="AW46" s="156"/>
-      <c r="AX46" s="156"/>
-      <c r="AY46" s="156"/>
+      <c r="J46" s="161"/>
+      <c r="K46" s="161"/>
+      <c r="L46" s="161"/>
+      <c r="M46" s="161"/>
+      <c r="N46" s="160"/>
+      <c r="O46" s="160"/>
+      <c r="P46" s="160"/>
+      <c r="Q46" s="160"/>
+      <c r="R46" s="160"/>
+      <c r="S46" s="160"/>
+      <c r="T46" s="161"/>
+      <c r="U46" s="161"/>
+      <c r="V46" s="161"/>
+      <c r="W46" s="161"/>
+      <c r="X46" s="161"/>
+      <c r="Y46" s="155"/>
+      <c r="Z46" s="155"/>
+      <c r="AA46" s="155"/>
+      <c r="AB46" s="156"/>
+      <c r="AC46" s="156"/>
+      <c r="AD46" s="156"/>
+      <c r="AE46" s="156"/>
+      <c r="AF46" s="157"/>
+      <c r="AG46" s="157"/>
+      <c r="AH46" s="157"/>
+      <c r="AI46" s="157"/>
+      <c r="AJ46" s="157"/>
+      <c r="AK46" s="157"/>
+      <c r="AL46" s="157"/>
+      <c r="AM46" s="157"/>
+      <c r="AN46" s="157"/>
+      <c r="AO46" s="157"/>
+      <c r="AP46" s="157"/>
+      <c r="AQ46" s="157"/>
+      <c r="AR46" s="157"/>
+      <c r="AS46" s="157"/>
+      <c r="AT46" s="157"/>
+      <c r="AU46" s="157"/>
+      <c r="AV46" s="157"/>
+      <c r="AW46" s="157"/>
+      <c r="AX46" s="157"/>
+      <c r="AY46" s="157"/>
     </row>
     <row r="47" spans="1:75" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C47" s="153"/>
-      <c r="D47" s="153"/>
-      <c r="E47" s="153"/>
+      <c r="C47" s="154"/>
+      <c r="D47" s="154"/>
+      <c r="E47" s="154"/>
       <c r="F47" s="91"/>
       <c r="G47" s="91"/>
       <c r="H47" s="91"/>
       <c r="I47" s="91"/>
-      <c r="J47" s="160"/>
-      <c r="K47" s="160"/>
-      <c r="L47" s="160"/>
-      <c r="M47" s="160"/>
-      <c r="N47" s="159"/>
-      <c r="O47" s="159"/>
-      <c r="P47" s="159"/>
-      <c r="Q47" s="159"/>
-      <c r="R47" s="159"/>
-      <c r="S47" s="159"/>
-      <c r="T47" s="160"/>
-      <c r="U47" s="160"/>
-      <c r="V47" s="160"/>
-      <c r="W47" s="160"/>
-      <c r="X47" s="160"/>
-      <c r="Y47" s="154"/>
-      <c r="Z47" s="154"/>
-      <c r="AA47" s="154"/>
-      <c r="AB47" s="155"/>
-      <c r="AC47" s="155"/>
-      <c r="AD47" s="155"/>
-      <c r="AE47" s="155"/>
-      <c r="AF47" s="156"/>
-      <c r="AG47" s="156"/>
-      <c r="AH47" s="156"/>
-      <c r="AI47" s="156"/>
-      <c r="AJ47" s="156"/>
-      <c r="AK47" s="156"/>
-      <c r="AL47" s="156"/>
-      <c r="AM47" s="156"/>
-      <c r="AN47" s="156"/>
-      <c r="AO47" s="156"/>
-      <c r="AP47" s="156"/>
-      <c r="AQ47" s="156"/>
-      <c r="AR47" s="156"/>
-      <c r="AS47" s="156"/>
-      <c r="AT47" s="156"/>
-      <c r="AU47" s="156"/>
-      <c r="AV47" s="156"/>
-      <c r="AW47" s="156"/>
-      <c r="AX47" s="156"/>
-      <c r="AY47" s="156"/>
+      <c r="J47" s="161"/>
+      <c r="K47" s="161"/>
+      <c r="L47" s="161"/>
+      <c r="M47" s="161"/>
+      <c r="N47" s="160"/>
+      <c r="O47" s="160"/>
+      <c r="P47" s="160"/>
+      <c r="Q47" s="160"/>
+      <c r="R47" s="160"/>
+      <c r="S47" s="160"/>
+      <c r="T47" s="161"/>
+      <c r="U47" s="161"/>
+      <c r="V47" s="161"/>
+      <c r="W47" s="161"/>
+      <c r="X47" s="161"/>
+      <c r="Y47" s="155"/>
+      <c r="Z47" s="155"/>
+      <c r="AA47" s="155"/>
+      <c r="AB47" s="156"/>
+      <c r="AC47" s="156"/>
+      <c r="AD47" s="156"/>
+      <c r="AE47" s="156"/>
+      <c r="AF47" s="157"/>
+      <c r="AG47" s="157"/>
+      <c r="AH47" s="157"/>
+      <c r="AI47" s="157"/>
+      <c r="AJ47" s="157"/>
+      <c r="AK47" s="157"/>
+      <c r="AL47" s="157"/>
+      <c r="AM47" s="157"/>
+      <c r="AN47" s="157"/>
+      <c r="AO47" s="157"/>
+      <c r="AP47" s="157"/>
+      <c r="AQ47" s="157"/>
+      <c r="AR47" s="157"/>
+      <c r="AS47" s="157"/>
+      <c r="AT47" s="157"/>
+      <c r="AU47" s="157"/>
+      <c r="AV47" s="157"/>
+      <c r="AW47" s="157"/>
+      <c r="AX47" s="157"/>
+      <c r="AY47" s="157"/>
     </row>
     <row r="48" spans="1:75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C48" s="153"/>
-      <c r="D48" s="153"/>
-      <c r="E48" s="153"/>
+      <c r="C48" s="154"/>
+      <c r="D48" s="154"/>
+      <c r="E48" s="154"/>
       <c r="F48" s="91"/>
       <c r="G48" s="91"/>
       <c r="H48" s="91"/>
       <c r="I48" s="91"/>
-      <c r="J48" s="160"/>
-      <c r="K48" s="160"/>
-      <c r="L48" s="160"/>
-      <c r="M48" s="160"/>
-      <c r="N48" s="159"/>
-      <c r="O48" s="159"/>
-      <c r="P48" s="159"/>
-      <c r="Q48" s="159"/>
-      <c r="R48" s="159"/>
-      <c r="S48" s="159"/>
-      <c r="T48" s="160"/>
-      <c r="U48" s="160"/>
-      <c r="V48" s="160"/>
-      <c r="W48" s="160"/>
-      <c r="X48" s="160"/>
-      <c r="Y48" s="154"/>
-      <c r="Z48" s="154"/>
-      <c r="AA48" s="154"/>
-      <c r="AB48" s="155"/>
-      <c r="AC48" s="155"/>
-      <c r="AD48" s="155"/>
-      <c r="AE48" s="155"/>
-      <c r="AF48" s="156"/>
-      <c r="AG48" s="156"/>
-      <c r="AH48" s="156"/>
-      <c r="AI48" s="156"/>
-      <c r="AJ48" s="156"/>
-      <c r="AK48" s="156"/>
-      <c r="AL48" s="156"/>
-      <c r="AM48" s="156"/>
-      <c r="AN48" s="156"/>
-      <c r="AO48" s="156"/>
-      <c r="AP48" s="156"/>
-      <c r="AQ48" s="156"/>
-      <c r="AR48" s="156"/>
-      <c r="AS48" s="156"/>
-      <c r="AT48" s="156"/>
-      <c r="AU48" s="156"/>
-      <c r="AV48" s="156"/>
-      <c r="AW48" s="156"/>
-      <c r="AX48" s="156"/>
-      <c r="AY48" s="156"/>
+      <c r="J48" s="161"/>
+      <c r="K48" s="161"/>
+      <c r="L48" s="161"/>
+      <c r="M48" s="161"/>
+      <c r="N48" s="160"/>
+      <c r="O48" s="160"/>
+      <c r="P48" s="160"/>
+      <c r="Q48" s="160"/>
+      <c r="R48" s="160"/>
+      <c r="S48" s="160"/>
+      <c r="T48" s="161"/>
+      <c r="U48" s="161"/>
+      <c r="V48" s="161"/>
+      <c r="W48" s="161"/>
+      <c r="X48" s="161"/>
+      <c r="Y48" s="155"/>
+      <c r="Z48" s="155"/>
+      <c r="AA48" s="155"/>
+      <c r="AB48" s="156"/>
+      <c r="AC48" s="156"/>
+      <c r="AD48" s="156"/>
+      <c r="AE48" s="156"/>
+      <c r="AF48" s="157"/>
+      <c r="AG48" s="157"/>
+      <c r="AH48" s="157"/>
+      <c r="AI48" s="157"/>
+      <c r="AJ48" s="157"/>
+      <c r="AK48" s="157"/>
+      <c r="AL48" s="157"/>
+      <c r="AM48" s="157"/>
+      <c r="AN48" s="157"/>
+      <c r="AO48" s="157"/>
+      <c r="AP48" s="157"/>
+      <c r="AQ48" s="157"/>
+      <c r="AR48" s="157"/>
+      <c r="AS48" s="157"/>
+      <c r="AT48" s="157"/>
+      <c r="AU48" s="157"/>
+      <c r="AV48" s="157"/>
+      <c r="AW48" s="157"/>
+      <c r="AX48" s="157"/>
+      <c r="AY48" s="157"/>
     </row>
     <row r="49" spans="3:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
-      <c r="J49" s="160" t="s">
+      <c r="J49" s="161" t="s">
         <v>534</v>
       </c>
-      <c r="K49" s="160"/>
-      <c r="L49" s="160"/>
-      <c r="M49" s="160"/>
-      <c r="N49" s="161" t="s">
+      <c r="K49" s="161"/>
+      <c r="L49" s="161"/>
+      <c r="M49" s="161"/>
+      <c r="N49" s="162" t="s">
         <v>106</v>
       </c>
-      <c r="O49" s="161"/>
-      <c r="P49" s="161"/>
+      <c r="O49" s="162"/>
+      <c r="P49" s="162"/>
       <c r="Q49" s="88"/>
       <c r="R49" s="88"/>
       <c r="S49" s="88"/>
-      <c r="T49" s="160"/>
-      <c r="U49" s="160" t="s">
+      <c r="T49" s="161"/>
+      <c r="U49" s="161" t="s">
         <v>99</v>
       </c>
-      <c r="V49" s="160"/>
-      <c r="W49" s="160"/>
-      <c r="X49" s="160"/>
-      <c r="Y49" s="154" t="s">
+      <c r="V49" s="161"/>
+      <c r="W49" s="161"/>
+      <c r="X49" s="161"/>
+      <c r="Y49" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="Z49" s="154"/>
-      <c r="AA49" s="154"/>
-      <c r="AB49" s="155"/>
-      <c r="AC49" s="155" t="s">
+      <c r="Z49" s="155"/>
+      <c r="AA49" s="155"/>
+      <c r="AB49" s="156"/>
+      <c r="AC49" s="156" t="s">
         <v>112</v>
       </c>
-      <c r="AD49" s="155"/>
-      <c r="AE49" s="155"/>
-      <c r="AF49" s="156"/>
-      <c r="AG49" s="156"/>
-      <c r="AH49" s="156"/>
-      <c r="AI49" s="156"/>
-      <c r="AJ49" s="156"/>
-      <c r="AK49" s="156" t="s">
+      <c r="AD49" s="156"/>
+      <c r="AE49" s="156"/>
+      <c r="AF49" s="157"/>
+      <c r="AG49" s="157"/>
+      <c r="AH49" s="157"/>
+      <c r="AI49" s="157"/>
+      <c r="AJ49" s="157"/>
+      <c r="AK49" s="157" t="s">
         <v>97</v>
       </c>
-      <c r="AL49" s="156"/>
-      <c r="AM49" s="156"/>
-      <c r="AN49" s="156"/>
-      <c r="AO49" s="156" t="s">
+      <c r="AL49" s="157"/>
+      <c r="AM49" s="157"/>
+      <c r="AN49" s="157"/>
+      <c r="AO49" s="157" t="s">
         <v>98</v>
       </c>
-      <c r="AP49" s="156"/>
-      <c r="AQ49" s="156"/>
-      <c r="AR49" s="156"/>
-      <c r="AS49" s="156" t="s">
+      <c r="AP49" s="157"/>
+      <c r="AQ49" s="157"/>
+      <c r="AR49" s="157"/>
+      <c r="AS49" s="157" t="s">
         <v>107</v>
       </c>
-      <c r="AT49" s="156"/>
-      <c r="AU49" s="156"/>
-      <c r="AV49" s="156"/>
-      <c r="AW49" s="157" t="s">
+      <c r="AT49" s="157"/>
+      <c r="AU49" s="157"/>
+      <c r="AV49" s="157"/>
+      <c r="AW49" s="158" t="s">
         <v>209</v>
       </c>
-      <c r="AX49" s="157"/>
-      <c r="AY49" s="157"/>
+      <c r="AX49" s="158"/>
+      <c r="AY49" s="158"/>
     </row>
     <row r="50" spans="3:61" x14ac:dyDescent="0.15">
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
-      <c r="J50" s="154" t="s">
+      <c r="J50" s="155" t="s">
         <v>144</v>
       </c>
-      <c r="K50" s="154"/>
-      <c r="L50" s="154"/>
-      <c r="M50" s="154"/>
-      <c r="N50" s="154"/>
-      <c r="O50" s="154"/>
-      <c r="P50" s="154"/>
-      <c r="Q50" s="154"/>
-      <c r="R50" s="154"/>
-      <c r="S50" s="154"/>
-      <c r="T50" s="154"/>
-      <c r="U50" s="154"/>
-      <c r="V50" s="154"/>
-      <c r="W50" s="154"/>
-      <c r="X50" s="154"/>
-      <c r="Y50" s="154"/>
-      <c r="Z50" s="154"/>
-      <c r="AA50" s="154"/>
-      <c r="AB50" s="158" t="s">
+      <c r="K50" s="155"/>
+      <c r="L50" s="155"/>
+      <c r="M50" s="155"/>
+      <c r="N50" s="155"/>
+      <c r="O50" s="155"/>
+      <c r="P50" s="155"/>
+      <c r="Q50" s="155"/>
+      <c r="R50" s="155"/>
+      <c r="S50" s="155"/>
+      <c r="T50" s="155"/>
+      <c r="U50" s="155"/>
+      <c r="V50" s="155"/>
+      <c r="W50" s="155"/>
+      <c r="X50" s="155"/>
+      <c r="Y50" s="155"/>
+      <c r="Z50" s="155"/>
+      <c r="AA50" s="155"/>
+      <c r="AB50" s="159" t="s">
         <v>146</v>
       </c>
-      <c r="AC50" s="158"/>
-      <c r="AD50" s="158"/>
-      <c r="AE50" s="158"/>
-      <c r="AF50" s="157" t="s">
+      <c r="AC50" s="159"/>
+      <c r="AD50" s="159"/>
+      <c r="AE50" s="159"/>
+      <c r="AF50" s="158" t="s">
         <v>143</v>
       </c>
-      <c r="AG50" s="157"/>
-      <c r="AH50" s="157"/>
-      <c r="AI50" s="157"/>
-      <c r="AJ50" s="157"/>
-      <c r="AK50" s="157"/>
-      <c r="AL50" s="157"/>
-      <c r="AM50" s="157"/>
-      <c r="AN50" s="157"/>
-      <c r="AO50" s="157"/>
-      <c r="AP50" s="157"/>
-      <c r="AQ50" s="157"/>
-      <c r="AR50" s="157"/>
-      <c r="AS50" s="157"/>
-      <c r="AT50" s="157"/>
-      <c r="AU50" s="157"/>
-      <c r="AV50" s="157"/>
-      <c r="AW50" s="157"/>
-      <c r="AX50" s="157"/>
-      <c r="AY50" s="157"/>
+      <c r="AG50" s="158"/>
+      <c r="AH50" s="158"/>
+      <c r="AI50" s="158"/>
+      <c r="AJ50" s="158"/>
+      <c r="AK50" s="158"/>
+      <c r="AL50" s="158"/>
+      <c r="AM50" s="158"/>
+      <c r="AN50" s="158"/>
+      <c r="AO50" s="158"/>
+      <c r="AP50" s="158"/>
+      <c r="AQ50" s="158"/>
+      <c r="AR50" s="158"/>
+      <c r="AS50" s="158"/>
+      <c r="AT50" s="158"/>
+      <c r="AU50" s="158"/>
+      <c r="AV50" s="158"/>
+      <c r="AW50" s="158"/>
+      <c r="AX50" s="158"/>
+      <c r="AY50" s="158"/>
     </row>
     <row r="51" spans="3:61" x14ac:dyDescent="0.15">
       <c r="BD51" s="3"/>
@@ -30441,7 +31540,7 @@
     </row>
     <row r="52" spans="3:61" x14ac:dyDescent="0.15">
       <c r="C52" s="9" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="BD52" s="3"/>
       <c r="BE52" s="3"/>
@@ -30451,87 +31550,87 @@
       <c r="BI52" s="3"/>
     </row>
     <row r="53" spans="3:61" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C53" s="152" t="s">
-        <v>897</v>
-      </c>
-      <c r="D53" s="153"/>
-      <c r="E53" s="153"/>
-      <c r="F53" s="159" t="s">
+      <c r="C53" s="153" t="s">
+        <v>888</v>
+      </c>
+      <c r="D53" s="154"/>
+      <c r="E53" s="154"/>
+      <c r="F53" s="160" t="s">
         <v>115</v>
       </c>
-      <c r="G53" s="159"/>
-      <c r="H53" s="159"/>
-      <c r="I53" s="159"/>
-      <c r="J53" s="159"/>
-      <c r="K53" s="159"/>
-      <c r="L53" s="160" t="s">
+      <c r="G53" s="160"/>
+      <c r="H53" s="160"/>
+      <c r="I53" s="160"/>
+      <c r="J53" s="160"/>
+      <c r="K53" s="160"/>
+      <c r="L53" s="161" t="s">
         <v>94</v>
       </c>
-      <c r="M53" s="160" t="s">
+      <c r="M53" s="161" t="s">
+        <v>882</v>
+      </c>
+      <c r="N53" s="161"/>
+      <c r="O53" s="161"/>
+      <c r="P53" s="161"/>
+      <c r="Q53" s="155"/>
+      <c r="R53" s="155"/>
+      <c r="S53" s="155"/>
+      <c r="T53" s="156" t="s">
+        <v>111</v>
+      </c>
+      <c r="U53" s="156" t="s">
+        <v>894</v>
+      </c>
+      <c r="V53" s="156"/>
+      <c r="W53" s="156"/>
+      <c r="X53" s="157" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y53" s="157">
+        <v>1</v>
+      </c>
+      <c r="Z53" s="157"/>
+      <c r="AA53" s="157"/>
+      <c r="AB53" s="157" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC53" s="157" t="s">
+        <v>520</v>
+      </c>
+      <c r="AD53" s="157"/>
+      <c r="AE53" s="157"/>
+      <c r="AF53" s="157" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG53" s="157" t="s">
+        <v>516</v>
+      </c>
+      <c r="AH53" s="157"/>
+      <c r="AI53" s="157"/>
+      <c r="AJ53" s="157" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK53" s="157" t="s">
+        <v>514</v>
+      </c>
+      <c r="AL53" s="157"/>
+      <c r="AM53" s="157"/>
+      <c r="AN53" s="157" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO53" s="157" t="s">
+        <v>511</v>
+      </c>
+      <c r="AP53" s="157"/>
+      <c r="AQ53" s="157"/>
+      <c r="AR53" s="166" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS53" s="166" t="s">
         <v>891</v>
       </c>
-      <c r="N53" s="160"/>
-      <c r="O53" s="160"/>
-      <c r="P53" s="160"/>
-      <c r="Q53" s="154"/>
-      <c r="R53" s="154"/>
-      <c r="S53" s="154"/>
-      <c r="T53" s="155" t="s">
-        <v>111</v>
-      </c>
-      <c r="U53" s="155" t="s">
-        <v>903</v>
-      </c>
-      <c r="V53" s="155"/>
-      <c r="W53" s="155"/>
-      <c r="X53" s="156" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y53" s="156">
-        <v>1</v>
-      </c>
-      <c r="Z53" s="156"/>
-      <c r="AA53" s="156"/>
-      <c r="AB53" s="156" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC53" s="156" t="s">
-        <v>520</v>
-      </c>
-      <c r="AD53" s="156"/>
-      <c r="AE53" s="156"/>
-      <c r="AF53" s="156" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG53" s="156" t="s">
-        <v>516</v>
-      </c>
-      <c r="AH53" s="156"/>
-      <c r="AI53" s="156"/>
-      <c r="AJ53" s="156" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK53" s="156" t="s">
-        <v>514</v>
-      </c>
-      <c r="AL53" s="156"/>
-      <c r="AM53" s="156"/>
-      <c r="AN53" s="156" t="s">
-        <v>95</v>
-      </c>
-      <c r="AO53" s="156" t="s">
-        <v>511</v>
-      </c>
-      <c r="AP53" s="156"/>
-      <c r="AQ53" s="156"/>
-      <c r="AR53" s="165" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS53" s="165" t="s">
-        <v>900</v>
-      </c>
-      <c r="AT53" s="165"/>
-      <c r="AU53" s="165"/>
+      <c r="AT53" s="166"/>
+      <c r="AU53" s="166"/>
       <c r="AV53" s="3"/>
       <c r="AW53" s="3"/>
       <c r="AX53" s="3"/>
@@ -30540,51 +31639,51 @@
       <c r="BA53" s="3"/>
     </row>
     <row r="54" spans="3:61" x14ac:dyDescent="0.15">
-      <c r="C54" s="153"/>
-      <c r="D54" s="153"/>
-      <c r="E54" s="153"/>
-      <c r="F54" s="159"/>
-      <c r="G54" s="159"/>
-      <c r="H54" s="159"/>
-      <c r="I54" s="159"/>
-      <c r="J54" s="159"/>
-      <c r="K54" s="159"/>
-      <c r="L54" s="160"/>
-      <c r="M54" s="160"/>
-      <c r="N54" s="160"/>
-      <c r="O54" s="160"/>
-      <c r="P54" s="160"/>
-      <c r="Q54" s="154"/>
-      <c r="R54" s="154"/>
-      <c r="S54" s="154"/>
-      <c r="T54" s="155"/>
-      <c r="U54" s="155"/>
-      <c r="V54" s="155"/>
-      <c r="W54" s="155"/>
-      <c r="X54" s="156"/>
-      <c r="Y54" s="156"/>
-      <c r="Z54" s="156"/>
-      <c r="AA54" s="156"/>
-      <c r="AB54" s="156"/>
-      <c r="AC54" s="156"/>
-      <c r="AD54" s="156"/>
-      <c r="AE54" s="156"/>
-      <c r="AF54" s="156"/>
-      <c r="AG54" s="156"/>
-      <c r="AH54" s="156"/>
-      <c r="AI54" s="156"/>
-      <c r="AJ54" s="156"/>
-      <c r="AK54" s="156"/>
-      <c r="AL54" s="156"/>
-      <c r="AM54" s="156"/>
-      <c r="AN54" s="156"/>
-      <c r="AO54" s="156"/>
-      <c r="AP54" s="156"/>
-      <c r="AQ54" s="156"/>
-      <c r="AR54" s="165"/>
-      <c r="AS54" s="165"/>
-      <c r="AT54" s="165"/>
-      <c r="AU54" s="165"/>
+      <c r="C54" s="154"/>
+      <c r="D54" s="154"/>
+      <c r="E54" s="154"/>
+      <c r="F54" s="160"/>
+      <c r="G54" s="160"/>
+      <c r="H54" s="160"/>
+      <c r="I54" s="160"/>
+      <c r="J54" s="160"/>
+      <c r="K54" s="160"/>
+      <c r="L54" s="161"/>
+      <c r="M54" s="161"/>
+      <c r="N54" s="161"/>
+      <c r="O54" s="161"/>
+      <c r="P54" s="161"/>
+      <c r="Q54" s="155"/>
+      <c r="R54" s="155"/>
+      <c r="S54" s="155"/>
+      <c r="T54" s="156"/>
+      <c r="U54" s="156"/>
+      <c r="V54" s="156"/>
+      <c r="W54" s="156"/>
+      <c r="X54" s="157"/>
+      <c r="Y54" s="157"/>
+      <c r="Z54" s="157"/>
+      <c r="AA54" s="157"/>
+      <c r="AB54" s="157"/>
+      <c r="AC54" s="157"/>
+      <c r="AD54" s="157"/>
+      <c r="AE54" s="157"/>
+      <c r="AF54" s="157"/>
+      <c r="AG54" s="157"/>
+      <c r="AH54" s="157"/>
+      <c r="AI54" s="157"/>
+      <c r="AJ54" s="157"/>
+      <c r="AK54" s="157"/>
+      <c r="AL54" s="157"/>
+      <c r="AM54" s="157"/>
+      <c r="AN54" s="157"/>
+      <c r="AO54" s="157"/>
+      <c r="AP54" s="157"/>
+      <c r="AQ54" s="157"/>
+      <c r="AR54" s="166"/>
+      <c r="AS54" s="166"/>
+      <c r="AT54" s="166"/>
+      <c r="AU54" s="166"/>
       <c r="AV54" s="3"/>
       <c r="AW54" s="3"/>
       <c r="AX54" s="3"/>
@@ -30593,51 +31692,51 @@
       <c r="BA54" s="3"/>
     </row>
     <row r="55" spans="3:61" x14ac:dyDescent="0.15">
-      <c r="C55" s="153"/>
-      <c r="D55" s="153"/>
-      <c r="E55" s="153"/>
-      <c r="F55" s="159"/>
-      <c r="G55" s="159"/>
-      <c r="H55" s="159"/>
-      <c r="I55" s="159"/>
-      <c r="J55" s="159"/>
-      <c r="K55" s="159"/>
-      <c r="L55" s="160"/>
-      <c r="M55" s="160"/>
-      <c r="N55" s="160"/>
-      <c r="O55" s="160"/>
-      <c r="P55" s="160"/>
-      <c r="Q55" s="154"/>
-      <c r="R55" s="154"/>
-      <c r="S55" s="154"/>
-      <c r="T55" s="155"/>
-      <c r="U55" s="155"/>
-      <c r="V55" s="155"/>
-      <c r="W55" s="155"/>
-      <c r="X55" s="156"/>
-      <c r="Y55" s="156"/>
-      <c r="Z55" s="156"/>
-      <c r="AA55" s="156"/>
-      <c r="AB55" s="156"/>
-      <c r="AC55" s="156"/>
-      <c r="AD55" s="156"/>
-      <c r="AE55" s="156"/>
-      <c r="AF55" s="156"/>
-      <c r="AG55" s="156"/>
-      <c r="AH55" s="156"/>
-      <c r="AI55" s="156"/>
-      <c r="AJ55" s="156"/>
-      <c r="AK55" s="156"/>
-      <c r="AL55" s="156"/>
-      <c r="AM55" s="156"/>
-      <c r="AN55" s="156"/>
-      <c r="AO55" s="156"/>
-      <c r="AP55" s="156"/>
-      <c r="AQ55" s="156"/>
-      <c r="AR55" s="165"/>
-      <c r="AS55" s="165"/>
-      <c r="AT55" s="165"/>
-      <c r="AU55" s="165"/>
+      <c r="C55" s="154"/>
+      <c r="D55" s="154"/>
+      <c r="E55" s="154"/>
+      <c r="F55" s="160"/>
+      <c r="G55" s="160"/>
+      <c r="H55" s="160"/>
+      <c r="I55" s="160"/>
+      <c r="J55" s="160"/>
+      <c r="K55" s="160"/>
+      <c r="L55" s="161"/>
+      <c r="M55" s="161"/>
+      <c r="N55" s="161"/>
+      <c r="O55" s="161"/>
+      <c r="P55" s="161"/>
+      <c r="Q55" s="155"/>
+      <c r="R55" s="155"/>
+      <c r="S55" s="155"/>
+      <c r="T55" s="156"/>
+      <c r="U55" s="156"/>
+      <c r="V55" s="156"/>
+      <c r="W55" s="156"/>
+      <c r="X55" s="157"/>
+      <c r="Y55" s="157"/>
+      <c r="Z55" s="157"/>
+      <c r="AA55" s="157"/>
+      <c r="AB55" s="157"/>
+      <c r="AC55" s="157"/>
+      <c r="AD55" s="157"/>
+      <c r="AE55" s="157"/>
+      <c r="AF55" s="157"/>
+      <c r="AG55" s="157"/>
+      <c r="AH55" s="157"/>
+      <c r="AI55" s="157"/>
+      <c r="AJ55" s="157"/>
+      <c r="AK55" s="157"/>
+      <c r="AL55" s="157"/>
+      <c r="AM55" s="157"/>
+      <c r="AN55" s="157"/>
+      <c r="AO55" s="157"/>
+      <c r="AP55" s="157"/>
+      <c r="AQ55" s="157"/>
+      <c r="AR55" s="166"/>
+      <c r="AS55" s="166"/>
+      <c r="AT55" s="166"/>
+      <c r="AU55" s="166"/>
       <c r="AV55" s="3"/>
       <c r="AW55" s="3"/>
       <c r="AX55" s="3"/>
@@ -30646,51 +31745,51 @@
       <c r="BA55" s="3"/>
     </row>
     <row r="56" spans="3:61" x14ac:dyDescent="0.15">
-      <c r="C56" s="153"/>
-      <c r="D56" s="153"/>
-      <c r="E56" s="153"/>
-      <c r="F56" s="159"/>
-      <c r="G56" s="159"/>
-      <c r="H56" s="159"/>
-      <c r="I56" s="159"/>
-      <c r="J56" s="159"/>
-      <c r="K56" s="159"/>
-      <c r="L56" s="160"/>
-      <c r="M56" s="160"/>
-      <c r="N56" s="160"/>
-      <c r="O56" s="160"/>
-      <c r="P56" s="160"/>
-      <c r="Q56" s="154"/>
-      <c r="R56" s="154"/>
-      <c r="S56" s="154"/>
-      <c r="T56" s="155"/>
-      <c r="U56" s="155"/>
-      <c r="V56" s="155"/>
-      <c r="W56" s="155"/>
-      <c r="X56" s="156"/>
-      <c r="Y56" s="156"/>
-      <c r="Z56" s="156"/>
-      <c r="AA56" s="156"/>
-      <c r="AB56" s="156"/>
-      <c r="AC56" s="156"/>
-      <c r="AD56" s="156"/>
-      <c r="AE56" s="156"/>
-      <c r="AF56" s="156"/>
-      <c r="AG56" s="156"/>
-      <c r="AH56" s="156"/>
-      <c r="AI56" s="156"/>
-      <c r="AJ56" s="156"/>
-      <c r="AK56" s="156"/>
-      <c r="AL56" s="156"/>
-      <c r="AM56" s="156"/>
-      <c r="AN56" s="156"/>
-      <c r="AO56" s="156"/>
-      <c r="AP56" s="156"/>
-      <c r="AQ56" s="156"/>
-      <c r="AR56" s="165"/>
-      <c r="AS56" s="165"/>
-      <c r="AT56" s="165"/>
-      <c r="AU56" s="165"/>
+      <c r="C56" s="154"/>
+      <c r="D56" s="154"/>
+      <c r="E56" s="154"/>
+      <c r="F56" s="160"/>
+      <c r="G56" s="160"/>
+      <c r="H56" s="160"/>
+      <c r="I56" s="160"/>
+      <c r="J56" s="160"/>
+      <c r="K56" s="160"/>
+      <c r="L56" s="161"/>
+      <c r="M56" s="161"/>
+      <c r="N56" s="161"/>
+      <c r="O56" s="161"/>
+      <c r="P56" s="161"/>
+      <c r="Q56" s="155"/>
+      <c r="R56" s="155"/>
+      <c r="S56" s="155"/>
+      <c r="T56" s="156"/>
+      <c r="U56" s="156"/>
+      <c r="V56" s="156"/>
+      <c r="W56" s="156"/>
+      <c r="X56" s="157"/>
+      <c r="Y56" s="157"/>
+      <c r="Z56" s="157"/>
+      <c r="AA56" s="157"/>
+      <c r="AB56" s="157"/>
+      <c r="AC56" s="157"/>
+      <c r="AD56" s="157"/>
+      <c r="AE56" s="157"/>
+      <c r="AF56" s="157"/>
+      <c r="AG56" s="157"/>
+      <c r="AH56" s="157"/>
+      <c r="AI56" s="157"/>
+      <c r="AJ56" s="157"/>
+      <c r="AK56" s="157"/>
+      <c r="AL56" s="157"/>
+      <c r="AM56" s="157"/>
+      <c r="AN56" s="157"/>
+      <c r="AO56" s="157"/>
+      <c r="AP56" s="157"/>
+      <c r="AQ56" s="157"/>
+      <c r="AR56" s="166"/>
+      <c r="AS56" s="166"/>
+      <c r="AT56" s="166"/>
+      <c r="AU56" s="166"/>
       <c r="AV56" s="3"/>
       <c r="AW56" s="3"/>
       <c r="AX56" s="3"/>
@@ -30699,64 +31798,64 @@
       <c r="BA56" s="3"/>
     </row>
     <row r="57" spans="3:61" x14ac:dyDescent="0.15">
-      <c r="F57" s="161" t="s">
+      <c r="F57" s="162" t="s">
         <v>106</v>
       </c>
-      <c r="G57" s="161"/>
-      <c r="H57" s="161"/>
+      <c r="G57" s="162"/>
+      <c r="H57" s="162"/>
       <c r="I57" s="99"/>
       <c r="J57" s="99"/>
       <c r="K57" s="99"/>
-      <c r="L57" s="160"/>
-      <c r="M57" s="160" t="s">
+      <c r="L57" s="161"/>
+      <c r="M57" s="161" t="s">
         <v>99</v>
       </c>
-      <c r="N57" s="160"/>
-      <c r="O57" s="160"/>
-      <c r="P57" s="160"/>
-      <c r="Q57" s="154"/>
-      <c r="R57" s="154"/>
-      <c r="S57" s="154"/>
-      <c r="T57" s="155"/>
-      <c r="U57" s="155" t="s">
-        <v>904</v>
-      </c>
-      <c r="V57" s="155"/>
-      <c r="W57" s="155"/>
-      <c r="X57" s="156"/>
-      <c r="Y57" s="156"/>
-      <c r="Z57" s="156"/>
-      <c r="AA57" s="156"/>
-      <c r="AB57" s="156"/>
-      <c r="AC57" s="156" t="s">
+      <c r="N57" s="161"/>
+      <c r="O57" s="161"/>
+      <c r="P57" s="161"/>
+      <c r="Q57" s="155"/>
+      <c r="R57" s="155"/>
+      <c r="S57" s="155"/>
+      <c r="T57" s="156"/>
+      <c r="U57" s="156" t="s">
+        <v>895</v>
+      </c>
+      <c r="V57" s="156"/>
+      <c r="W57" s="156"/>
+      <c r="X57" s="157"/>
+      <c r="Y57" s="157"/>
+      <c r="Z57" s="157"/>
+      <c r="AA57" s="157"/>
+      <c r="AB57" s="157"/>
+      <c r="AC57" s="157" t="s">
         <v>97</v>
       </c>
-      <c r="AD57" s="156"/>
-      <c r="AE57" s="156"/>
-      <c r="AF57" s="156"/>
-      <c r="AG57" s="156" t="s">
+      <c r="AD57" s="157"/>
+      <c r="AE57" s="157"/>
+      <c r="AF57" s="157"/>
+      <c r="AG57" s="157" t="s">
         <v>98</v>
       </c>
-      <c r="AH57" s="156"/>
-      <c r="AI57" s="156"/>
-      <c r="AJ57" s="156"/>
-      <c r="AK57" s="156" t="s">
+      <c r="AH57" s="157"/>
+      <c r="AI57" s="157"/>
+      <c r="AJ57" s="157"/>
+      <c r="AK57" s="157" t="s">
         <v>107</v>
       </c>
-      <c r="AL57" s="156"/>
-      <c r="AM57" s="156"/>
-      <c r="AN57" s="156"/>
-      <c r="AO57" s="157" t="s">
+      <c r="AL57" s="157"/>
+      <c r="AM57" s="157"/>
+      <c r="AN57" s="157"/>
+      <c r="AO57" s="158" t="s">
         <v>209</v>
       </c>
-      <c r="AP57" s="157"/>
-      <c r="AQ57" s="157"/>
-      <c r="AR57" s="165"/>
-      <c r="AS57" s="174" t="s">
-        <v>899</v>
-      </c>
-      <c r="AT57" s="174"/>
-      <c r="AU57" s="174"/>
+      <c r="AP57" s="158"/>
+      <c r="AQ57" s="158"/>
+      <c r="AR57" s="166"/>
+      <c r="AS57" s="175" t="s">
+        <v>890</v>
+      </c>
+      <c r="AT57" s="175"/>
+      <c r="AU57" s="175"/>
       <c r="AV57" s="3"/>
       <c r="AW57" s="3"/>
       <c r="AX57" s="3"/>
@@ -30765,56 +31864,56 @@
       <c r="BA57" s="3"/>
     </row>
     <row r="58" spans="3:61" x14ac:dyDescent="0.15">
-      <c r="F58" s="154" t="s">
+      <c r="F58" s="155" t="s">
         <v>144</v>
       </c>
-      <c r="G58" s="154"/>
-      <c r="H58" s="154"/>
-      <c r="I58" s="154"/>
-      <c r="J58" s="154"/>
-      <c r="K58" s="154"/>
-      <c r="L58" s="154"/>
-      <c r="M58" s="154"/>
-      <c r="N58" s="154"/>
-      <c r="O58" s="154"/>
-      <c r="P58" s="154"/>
-      <c r="Q58" s="154"/>
-      <c r="R58" s="154"/>
-      <c r="S58" s="154"/>
-      <c r="T58" s="158" t="s">
+      <c r="G58" s="155"/>
+      <c r="H58" s="155"/>
+      <c r="I58" s="155"/>
+      <c r="J58" s="155"/>
+      <c r="K58" s="155"/>
+      <c r="L58" s="155"/>
+      <c r="M58" s="155"/>
+      <c r="N58" s="155"/>
+      <c r="O58" s="155"/>
+      <c r="P58" s="155"/>
+      <c r="Q58" s="155"/>
+      <c r="R58" s="155"/>
+      <c r="S58" s="155"/>
+      <c r="T58" s="159" t="s">
         <v>146</v>
       </c>
-      <c r="U58" s="158"/>
-      <c r="V58" s="158"/>
-      <c r="W58" s="158"/>
-      <c r="X58" s="157" t="s">
+      <c r="U58" s="159"/>
+      <c r="V58" s="159"/>
+      <c r="W58" s="159"/>
+      <c r="X58" s="158" t="s">
         <v>143</v>
       </c>
-      <c r="Y58" s="157"/>
-      <c r="Z58" s="157"/>
-      <c r="AA58" s="157"/>
-      <c r="AB58" s="157"/>
-      <c r="AC58" s="157"/>
-      <c r="AD58" s="157"/>
-      <c r="AE58" s="157"/>
-      <c r="AF58" s="157"/>
-      <c r="AG58" s="157"/>
-      <c r="AH58" s="157"/>
-      <c r="AI58" s="157"/>
-      <c r="AJ58" s="157"/>
-      <c r="AK58" s="157"/>
-      <c r="AL58" s="157"/>
-      <c r="AM58" s="157"/>
-      <c r="AN58" s="157"/>
-      <c r="AO58" s="157"/>
-      <c r="AP58" s="157"/>
-      <c r="AQ58" s="157"/>
-      <c r="AR58" s="174" t="s">
-        <v>901</v>
-      </c>
-      <c r="AS58" s="174"/>
-      <c r="AT58" s="174"/>
-      <c r="AU58" s="174"/>
+      <c r="Y58" s="158"/>
+      <c r="Z58" s="158"/>
+      <c r="AA58" s="158"/>
+      <c r="AB58" s="158"/>
+      <c r="AC58" s="158"/>
+      <c r="AD58" s="158"/>
+      <c r="AE58" s="158"/>
+      <c r="AF58" s="158"/>
+      <c r="AG58" s="158"/>
+      <c r="AH58" s="158"/>
+      <c r="AI58" s="158"/>
+      <c r="AJ58" s="158"/>
+      <c r="AK58" s="158"/>
+      <c r="AL58" s="158"/>
+      <c r="AM58" s="158"/>
+      <c r="AN58" s="158"/>
+      <c r="AO58" s="158"/>
+      <c r="AP58" s="158"/>
+      <c r="AQ58" s="158"/>
+      <c r="AR58" s="175" t="s">
+        <v>892</v>
+      </c>
+      <c r="AS58" s="175"/>
+      <c r="AT58" s="175"/>
+      <c r="AU58" s="175"/>
     </row>
     <row r="59" spans="3:61" x14ac:dyDescent="0.15">
       <c r="F59" s="98"/>
@@ -30857,340 +31956,340 @@
       <c r="AQ59" s="98"/>
     </row>
     <row r="60" spans="3:61" x14ac:dyDescent="0.15">
-      <c r="C60" s="152" t="s">
-        <v>898</v>
-      </c>
-      <c r="D60" s="153"/>
-      <c r="E60" s="153"/>
-      <c r="F60" s="159" t="s">
+      <c r="C60" s="153" t="s">
+        <v>889</v>
+      </c>
+      <c r="D60" s="154"/>
+      <c r="E60" s="154"/>
+      <c r="F60" s="160" t="s">
         <v>92</v>
       </c>
-      <c r="G60" s="159"/>
-      <c r="H60" s="159"/>
-      <c r="I60" s="159"/>
-      <c r="J60" s="159"/>
-      <c r="K60" s="159"/>
-      <c r="L60" s="160" t="s">
+      <c r="G60" s="160"/>
+      <c r="H60" s="160"/>
+      <c r="I60" s="160"/>
+      <c r="J60" s="160"/>
+      <c r="K60" s="160"/>
+      <c r="L60" s="161" t="s">
         <v>94</v>
       </c>
-      <c r="M60" s="160" t="s">
+      <c r="M60" s="161" t="s">
         <v>645</v>
       </c>
-      <c r="N60" s="160"/>
-      <c r="O60" s="160"/>
-      <c r="P60" s="160"/>
-      <c r="Q60" s="154"/>
-      <c r="R60" s="154"/>
-      <c r="S60" s="154"/>
-      <c r="T60" s="155" t="s">
+      <c r="N60" s="161"/>
+      <c r="O60" s="161"/>
+      <c r="P60" s="161"/>
+      <c r="Q60" s="155"/>
+      <c r="R60" s="155"/>
+      <c r="S60" s="155"/>
+      <c r="T60" s="156" t="s">
         <v>111</v>
       </c>
-      <c r="U60" s="155" t="s">
-        <v>903</v>
-      </c>
-      <c r="V60" s="155"/>
-      <c r="W60" s="155"/>
-      <c r="X60" s="156" t="s">
+      <c r="U60" s="156" t="s">
+        <v>894</v>
+      </c>
+      <c r="V60" s="156"/>
+      <c r="W60" s="156"/>
+      <c r="X60" s="157" t="s">
         <v>77</v>
       </c>
-      <c r="Y60" s="156">
+      <c r="Y60" s="157">
         <v>1</v>
       </c>
-      <c r="Z60" s="156"/>
-      <c r="AA60" s="156"/>
-      <c r="AB60" s="156" t="s">
+      <c r="Z60" s="157"/>
+      <c r="AA60" s="157"/>
+      <c r="AB60" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="AC60" s="156" t="s">
-        <v>894</v>
-      </c>
-      <c r="AD60" s="156"/>
-      <c r="AE60" s="156"/>
-      <c r="AF60" s="156" t="s">
+      <c r="AC60" s="157" t="s">
+        <v>885</v>
+      </c>
+      <c r="AD60" s="157"/>
+      <c r="AE60" s="157"/>
+      <c r="AF60" s="157" t="s">
         <v>147</v>
       </c>
-      <c r="AG60" s="156" t="s">
+      <c r="AG60" s="157" t="s">
         <v>509</v>
       </c>
-      <c r="AH60" s="156"/>
-      <c r="AI60" s="156"/>
-      <c r="AJ60" s="156" t="s">
+      <c r="AH60" s="157"/>
+      <c r="AI60" s="157"/>
+      <c r="AJ60" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="AK60" s="156" t="s">
-        <v>895</v>
-      </c>
-      <c r="AL60" s="156"/>
-      <c r="AM60" s="156"/>
-      <c r="AN60" s="156" t="s">
+      <c r="AK60" s="157" t="s">
+        <v>886</v>
+      </c>
+      <c r="AL60" s="157"/>
+      <c r="AM60" s="157"/>
+      <c r="AN60" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="AO60" s="156" t="s">
+      <c r="AO60" s="157" t="s">
         <v>511</v>
       </c>
-      <c r="AP60" s="156"/>
-      <c r="AQ60" s="156"/>
-      <c r="AR60" s="165" t="s">
+      <c r="AP60" s="157"/>
+      <c r="AQ60" s="157"/>
+      <c r="AR60" s="166" t="s">
         <v>95</v>
       </c>
-      <c r="AS60" s="165" t="s">
-        <v>900</v>
-      </c>
-      <c r="AT60" s="165"/>
-      <c r="AU60" s="165"/>
+      <c r="AS60" s="166" t="s">
+        <v>891</v>
+      </c>
+      <c r="AT60" s="166"/>
+      <c r="AU60" s="166"/>
     </row>
     <row r="61" spans="3:61" x14ac:dyDescent="0.15">
-      <c r="C61" s="153"/>
-      <c r="D61" s="153"/>
-      <c r="E61" s="153"/>
-      <c r="F61" s="159"/>
-      <c r="G61" s="159"/>
-      <c r="H61" s="159"/>
-      <c r="I61" s="159"/>
-      <c r="J61" s="159"/>
-      <c r="K61" s="159"/>
-      <c r="L61" s="160"/>
-      <c r="M61" s="160"/>
-      <c r="N61" s="160"/>
-      <c r="O61" s="160"/>
-      <c r="P61" s="160"/>
-      <c r="Q61" s="154"/>
-      <c r="R61" s="154"/>
-      <c r="S61" s="154"/>
-      <c r="T61" s="155"/>
-      <c r="U61" s="155"/>
-      <c r="V61" s="155"/>
-      <c r="W61" s="155"/>
-      <c r="X61" s="156"/>
-      <c r="Y61" s="156"/>
-      <c r="Z61" s="156"/>
-      <c r="AA61" s="156"/>
-      <c r="AB61" s="156"/>
-      <c r="AC61" s="156"/>
-      <c r="AD61" s="156"/>
-      <c r="AE61" s="156"/>
-      <c r="AF61" s="156"/>
-      <c r="AG61" s="156"/>
-      <c r="AH61" s="156"/>
-      <c r="AI61" s="156"/>
-      <c r="AJ61" s="156"/>
-      <c r="AK61" s="156"/>
-      <c r="AL61" s="156"/>
-      <c r="AM61" s="156"/>
-      <c r="AN61" s="156"/>
-      <c r="AO61" s="156"/>
-      <c r="AP61" s="156"/>
-      <c r="AQ61" s="156"/>
-      <c r="AR61" s="165"/>
-      <c r="AS61" s="165"/>
-      <c r="AT61" s="165"/>
-      <c r="AU61" s="165"/>
+      <c r="C61" s="154"/>
+      <c r="D61" s="154"/>
+      <c r="E61" s="154"/>
+      <c r="F61" s="160"/>
+      <c r="G61" s="160"/>
+      <c r="H61" s="160"/>
+      <c r="I61" s="160"/>
+      <c r="J61" s="160"/>
+      <c r="K61" s="160"/>
+      <c r="L61" s="161"/>
+      <c r="M61" s="161"/>
+      <c r="N61" s="161"/>
+      <c r="O61" s="161"/>
+      <c r="P61" s="161"/>
+      <c r="Q61" s="155"/>
+      <c r="R61" s="155"/>
+      <c r="S61" s="155"/>
+      <c r="T61" s="156"/>
+      <c r="U61" s="156"/>
+      <c r="V61" s="156"/>
+      <c r="W61" s="156"/>
+      <c r="X61" s="157"/>
+      <c r="Y61" s="157"/>
+      <c r="Z61" s="157"/>
+      <c r="AA61" s="157"/>
+      <c r="AB61" s="157"/>
+      <c r="AC61" s="157"/>
+      <c r="AD61" s="157"/>
+      <c r="AE61" s="157"/>
+      <c r="AF61" s="157"/>
+      <c r="AG61" s="157"/>
+      <c r="AH61" s="157"/>
+      <c r="AI61" s="157"/>
+      <c r="AJ61" s="157"/>
+      <c r="AK61" s="157"/>
+      <c r="AL61" s="157"/>
+      <c r="AM61" s="157"/>
+      <c r="AN61" s="157"/>
+      <c r="AO61" s="157"/>
+      <c r="AP61" s="157"/>
+      <c r="AQ61" s="157"/>
+      <c r="AR61" s="166"/>
+      <c r="AS61" s="166"/>
+      <c r="AT61" s="166"/>
+      <c r="AU61" s="166"/>
     </row>
     <row r="62" spans="3:61" x14ac:dyDescent="0.15">
-      <c r="C62" s="153"/>
-      <c r="D62" s="153"/>
-      <c r="E62" s="153"/>
-      <c r="F62" s="159"/>
-      <c r="G62" s="159"/>
-      <c r="H62" s="159"/>
-      <c r="I62" s="159"/>
-      <c r="J62" s="159"/>
-      <c r="K62" s="159"/>
-      <c r="L62" s="160"/>
-      <c r="M62" s="160"/>
-      <c r="N62" s="160"/>
-      <c r="O62" s="160"/>
-      <c r="P62" s="160"/>
-      <c r="Q62" s="154"/>
-      <c r="R62" s="154"/>
-      <c r="S62" s="154"/>
-      <c r="T62" s="155"/>
-      <c r="U62" s="155"/>
-      <c r="V62" s="155"/>
-      <c r="W62" s="155"/>
-      <c r="X62" s="156"/>
-      <c r="Y62" s="156"/>
-      <c r="Z62" s="156"/>
-      <c r="AA62" s="156"/>
-      <c r="AB62" s="156"/>
-      <c r="AC62" s="156"/>
-      <c r="AD62" s="156"/>
-      <c r="AE62" s="156"/>
-      <c r="AF62" s="156"/>
-      <c r="AG62" s="156"/>
-      <c r="AH62" s="156"/>
-      <c r="AI62" s="156"/>
-      <c r="AJ62" s="156"/>
-      <c r="AK62" s="156"/>
-      <c r="AL62" s="156"/>
-      <c r="AM62" s="156"/>
-      <c r="AN62" s="156"/>
-      <c r="AO62" s="156"/>
-      <c r="AP62" s="156"/>
-      <c r="AQ62" s="156"/>
-      <c r="AR62" s="165"/>
-      <c r="AS62" s="165"/>
-      <c r="AT62" s="165"/>
-      <c r="AU62" s="165"/>
+      <c r="C62" s="154"/>
+      <c r="D62" s="154"/>
+      <c r="E62" s="154"/>
+      <c r="F62" s="160"/>
+      <c r="G62" s="160"/>
+      <c r="H62" s="160"/>
+      <c r="I62" s="160"/>
+      <c r="J62" s="160"/>
+      <c r="K62" s="160"/>
+      <c r="L62" s="161"/>
+      <c r="M62" s="161"/>
+      <c r="N62" s="161"/>
+      <c r="O62" s="161"/>
+      <c r="P62" s="161"/>
+      <c r="Q62" s="155"/>
+      <c r="R62" s="155"/>
+      <c r="S62" s="155"/>
+      <c r="T62" s="156"/>
+      <c r="U62" s="156"/>
+      <c r="V62" s="156"/>
+      <c r="W62" s="156"/>
+      <c r="X62" s="157"/>
+      <c r="Y62" s="157"/>
+      <c r="Z62" s="157"/>
+      <c r="AA62" s="157"/>
+      <c r="AB62" s="157"/>
+      <c r="AC62" s="157"/>
+      <c r="AD62" s="157"/>
+      <c r="AE62" s="157"/>
+      <c r="AF62" s="157"/>
+      <c r="AG62" s="157"/>
+      <c r="AH62" s="157"/>
+      <c r="AI62" s="157"/>
+      <c r="AJ62" s="157"/>
+      <c r="AK62" s="157"/>
+      <c r="AL62" s="157"/>
+      <c r="AM62" s="157"/>
+      <c r="AN62" s="157"/>
+      <c r="AO62" s="157"/>
+      <c r="AP62" s="157"/>
+      <c r="AQ62" s="157"/>
+      <c r="AR62" s="166"/>
+      <c r="AS62" s="166"/>
+      <c r="AT62" s="166"/>
+      <c r="AU62" s="166"/>
     </row>
     <row r="63" spans="3:61" x14ac:dyDescent="0.15">
-      <c r="C63" s="153"/>
-      <c r="D63" s="153"/>
-      <c r="E63" s="153"/>
-      <c r="F63" s="159"/>
-      <c r="G63" s="159"/>
-      <c r="H63" s="159"/>
-      <c r="I63" s="159"/>
-      <c r="J63" s="159"/>
-      <c r="K63" s="159"/>
-      <c r="L63" s="160"/>
-      <c r="M63" s="160"/>
-      <c r="N63" s="160"/>
-      <c r="O63" s="160"/>
-      <c r="P63" s="160"/>
-      <c r="Q63" s="154"/>
-      <c r="R63" s="154"/>
-      <c r="S63" s="154"/>
-      <c r="T63" s="155"/>
-      <c r="U63" s="155"/>
-      <c r="V63" s="155"/>
-      <c r="W63" s="155"/>
-      <c r="X63" s="156"/>
-      <c r="Y63" s="156"/>
-      <c r="Z63" s="156"/>
-      <c r="AA63" s="156"/>
-      <c r="AB63" s="156"/>
-      <c r="AC63" s="156"/>
-      <c r="AD63" s="156"/>
-      <c r="AE63" s="156"/>
-      <c r="AF63" s="156"/>
-      <c r="AG63" s="156"/>
-      <c r="AH63" s="156"/>
-      <c r="AI63" s="156"/>
-      <c r="AJ63" s="156"/>
-      <c r="AK63" s="156"/>
-      <c r="AL63" s="156"/>
-      <c r="AM63" s="156"/>
-      <c r="AN63" s="156"/>
-      <c r="AO63" s="156"/>
-      <c r="AP63" s="156"/>
-      <c r="AQ63" s="156"/>
-      <c r="AR63" s="165"/>
-      <c r="AS63" s="165"/>
-      <c r="AT63" s="165"/>
-      <c r="AU63" s="165"/>
+      <c r="C63" s="154"/>
+      <c r="D63" s="154"/>
+      <c r="E63" s="154"/>
+      <c r="F63" s="160"/>
+      <c r="G63" s="160"/>
+      <c r="H63" s="160"/>
+      <c r="I63" s="160"/>
+      <c r="J63" s="160"/>
+      <c r="K63" s="160"/>
+      <c r="L63" s="161"/>
+      <c r="M63" s="161"/>
+      <c r="N63" s="161"/>
+      <c r="O63" s="161"/>
+      <c r="P63" s="161"/>
+      <c r="Q63" s="155"/>
+      <c r="R63" s="155"/>
+      <c r="S63" s="155"/>
+      <c r="T63" s="156"/>
+      <c r="U63" s="156"/>
+      <c r="V63" s="156"/>
+      <c r="W63" s="156"/>
+      <c r="X63" s="157"/>
+      <c r="Y63" s="157"/>
+      <c r="Z63" s="157"/>
+      <c r="AA63" s="157"/>
+      <c r="AB63" s="157"/>
+      <c r="AC63" s="157"/>
+      <c r="AD63" s="157"/>
+      <c r="AE63" s="157"/>
+      <c r="AF63" s="157"/>
+      <c r="AG63" s="157"/>
+      <c r="AH63" s="157"/>
+      <c r="AI63" s="157"/>
+      <c r="AJ63" s="157"/>
+      <c r="AK63" s="157"/>
+      <c r="AL63" s="157"/>
+      <c r="AM63" s="157"/>
+      <c r="AN63" s="157"/>
+      <c r="AO63" s="157"/>
+      <c r="AP63" s="157"/>
+      <c r="AQ63" s="157"/>
+      <c r="AR63" s="166"/>
+      <c r="AS63" s="166"/>
+      <c r="AT63" s="166"/>
+      <c r="AU63" s="166"/>
     </row>
     <row r="64" spans="3:61" x14ac:dyDescent="0.15">
-      <c r="F64" s="161" t="s">
-        <v>893</v>
-      </c>
-      <c r="G64" s="161"/>
-      <c r="H64" s="161"/>
+      <c r="F64" s="162" t="s">
+        <v>884</v>
+      </c>
+      <c r="G64" s="162"/>
+      <c r="H64" s="162"/>
       <c r="I64" s="99"/>
       <c r="J64" s="99"/>
       <c r="K64" s="99"/>
-      <c r="L64" s="160"/>
-      <c r="M64" s="160" t="s">
+      <c r="L64" s="161"/>
+      <c r="M64" s="161" t="s">
         <v>99</v>
       </c>
-      <c r="N64" s="160"/>
-      <c r="O64" s="160"/>
-      <c r="P64" s="160"/>
-      <c r="Q64" s="154"/>
-      <c r="R64" s="154"/>
-      <c r="S64" s="154"/>
-      <c r="T64" s="155"/>
-      <c r="U64" s="155" t="s">
-        <v>904</v>
-      </c>
-      <c r="V64" s="155"/>
-      <c r="W64" s="155"/>
-      <c r="X64" s="156"/>
-      <c r="Y64" s="156"/>
-      <c r="Z64" s="156"/>
-      <c r="AA64" s="156"/>
-      <c r="AB64" s="156"/>
-      <c r="AC64" s="156" t="s">
+      <c r="N64" s="161"/>
+      <c r="O64" s="161"/>
+      <c r="P64" s="161"/>
+      <c r="Q64" s="155"/>
+      <c r="R64" s="155"/>
+      <c r="S64" s="155"/>
+      <c r="T64" s="156"/>
+      <c r="U64" s="156" t="s">
+        <v>895</v>
+      </c>
+      <c r="V64" s="156"/>
+      <c r="W64" s="156"/>
+      <c r="X64" s="157"/>
+      <c r="Y64" s="157"/>
+      <c r="Z64" s="157"/>
+      <c r="AA64" s="157"/>
+      <c r="AB64" s="157"/>
+      <c r="AC64" s="157" t="s">
         <v>97</v>
       </c>
-      <c r="AD64" s="156"/>
-      <c r="AE64" s="156"/>
-      <c r="AF64" s="156"/>
-      <c r="AG64" s="156" t="s">
+      <c r="AD64" s="157"/>
+      <c r="AE64" s="157"/>
+      <c r="AF64" s="157"/>
+      <c r="AG64" s="157" t="s">
         <v>98</v>
       </c>
-      <c r="AH64" s="156"/>
-      <c r="AI64" s="156"/>
-      <c r="AJ64" s="156"/>
-      <c r="AK64" s="156" t="s">
-        <v>896</v>
-      </c>
-      <c r="AL64" s="156"/>
-      <c r="AM64" s="156"/>
-      <c r="AN64" s="156"/>
-      <c r="AO64" s="157" t="s">
+      <c r="AH64" s="157"/>
+      <c r="AI64" s="157"/>
+      <c r="AJ64" s="157"/>
+      <c r="AK64" s="157" t="s">
+        <v>887</v>
+      </c>
+      <c r="AL64" s="157"/>
+      <c r="AM64" s="157"/>
+      <c r="AN64" s="157"/>
+      <c r="AO64" s="158" t="s">
         <v>209</v>
       </c>
-      <c r="AP64" s="157"/>
-      <c r="AQ64" s="157"/>
-      <c r="AR64" s="165"/>
-      <c r="AS64" s="174" t="s">
-        <v>899</v>
-      </c>
-      <c r="AT64" s="174"/>
-      <c r="AU64" s="174"/>
+      <c r="AP64" s="158"/>
+      <c r="AQ64" s="158"/>
+      <c r="AR64" s="166"/>
+      <c r="AS64" s="175" t="s">
+        <v>890</v>
+      </c>
+      <c r="AT64" s="175"/>
+      <c r="AU64" s="175"/>
     </row>
     <row r="65" spans="3:47" x14ac:dyDescent="0.15">
-      <c r="F65" s="154" t="s">
+      <c r="F65" s="155" t="s">
         <v>144</v>
       </c>
-      <c r="G65" s="154"/>
-      <c r="H65" s="154"/>
-      <c r="I65" s="154"/>
-      <c r="J65" s="154"/>
-      <c r="K65" s="154"/>
-      <c r="L65" s="154"/>
-      <c r="M65" s="154"/>
-      <c r="N65" s="154"/>
-      <c r="O65" s="154"/>
-      <c r="P65" s="154"/>
-      <c r="Q65" s="154"/>
-      <c r="R65" s="154"/>
-      <c r="S65" s="154"/>
-      <c r="T65" s="158" t="s">
+      <c r="G65" s="155"/>
+      <c r="H65" s="155"/>
+      <c r="I65" s="155"/>
+      <c r="J65" s="155"/>
+      <c r="K65" s="155"/>
+      <c r="L65" s="155"/>
+      <c r="M65" s="155"/>
+      <c r="N65" s="155"/>
+      <c r="O65" s="155"/>
+      <c r="P65" s="155"/>
+      <c r="Q65" s="155"/>
+      <c r="R65" s="155"/>
+      <c r="S65" s="155"/>
+      <c r="T65" s="159" t="s">
         <v>146</v>
       </c>
-      <c r="U65" s="158"/>
-      <c r="V65" s="158"/>
-      <c r="W65" s="158"/>
-      <c r="X65" s="157" t="s">
+      <c r="U65" s="159"/>
+      <c r="V65" s="159"/>
+      <c r="W65" s="159"/>
+      <c r="X65" s="158" t="s">
         <v>143</v>
       </c>
-      <c r="Y65" s="157"/>
-      <c r="Z65" s="157"/>
-      <c r="AA65" s="157"/>
-      <c r="AB65" s="157"/>
-      <c r="AC65" s="157"/>
-      <c r="AD65" s="157"/>
-      <c r="AE65" s="157"/>
-      <c r="AF65" s="157"/>
-      <c r="AG65" s="157"/>
-      <c r="AH65" s="157"/>
-      <c r="AI65" s="157"/>
-      <c r="AJ65" s="157"/>
-      <c r="AK65" s="157"/>
-      <c r="AL65" s="157"/>
-      <c r="AM65" s="157"/>
-      <c r="AN65" s="157"/>
-      <c r="AO65" s="157"/>
-      <c r="AP65" s="157"/>
-      <c r="AQ65" s="157"/>
-      <c r="AR65" s="174" t="s">
-        <v>901</v>
-      </c